--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12317" uniqueCount="6986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12415" uniqueCount="7028">
   <si>
     <t>Year</t>
   </si>
@@ -20980,6 +20980,132 @@
   </si>
   <si>
     <t>Gliniarz z Beverly Hills</t>
+  </si>
+  <si>
+    <t>Gremliny rozrabiają</t>
+  </si>
+  <si>
+    <t>Miłość, szmaragd i krokodyl</t>
+  </si>
+  <si>
+    <t>Koszmar z ulicy Wiązów</t>
+  </si>
+  <si>
+    <t>Plusk</t>
+  </si>
+  <si>
+    <t>Purpurowy deszcz</t>
+  </si>
+  <si>
+    <t>Greystoke: Legenda Tarzana, władcy małp</t>
+  </si>
+  <si>
+    <t>Zemsta frajerów</t>
+  </si>
+  <si>
+    <t>Wyścig Armatniej Kuli II</t>
+  </si>
+  <si>
+    <t>Czerwony świt</t>
+  </si>
+  <si>
+    <t>Lina</t>
+  </si>
+  <si>
+    <t>Urodzony sportowiec</t>
+  </si>
+  <si>
+    <t>Zwei Nasen tanken Super - Dwa nosy wypełniają się super</t>
+  </si>
+  <si>
+    <t>Didi - Der Doppelgänger - Didi - sobowtór</t>
+  </si>
+  <si>
+    <t>2010: Odyseja kosmiczna</t>
+  </si>
+  <si>
+    <t>Breakdance</t>
+  </si>
+  <si>
+    <t>Wieczór kawalerski</t>
+  </si>
+  <si>
+    <t>Paryż, Teksas</t>
+  </si>
+  <si>
+    <t>Kobieta publiczna</t>
+  </si>
+  <si>
+    <t>Aema buin 2</t>
+  </si>
+  <si>
+    <t>Cały ja</t>
+  </si>
+  <si>
+    <t>Rok 1984</t>
+  </si>
+  <si>
+    <t>Diuna</t>
+  </si>
+  <si>
+    <t>Gwiezdny przybysz</t>
+  </si>
+  <si>
+    <t>Ostatni gwiezdny wojownik</t>
+  </si>
+  <si>
+    <t>Piątek trzynastego IV: Ostatni rozdział</t>
+  </si>
+  <si>
+    <t>Bliźniak</t>
+  </si>
+  <si>
+    <t>Lody na patyku 5: Wielka miłość</t>
+  </si>
+  <si>
+    <t>Conan Niszczyciel</t>
+  </si>
+  <si>
+    <t>Podwójne kłopoty</t>
+  </si>
+  <si>
+    <t>Muppety na Manhattanie</t>
+  </si>
+  <si>
+    <t>Histoire d'O: Chapitre 2 - Histoire d'O: Rozdział 2</t>
+  </si>
+  <si>
+    <t>Oto Spinal Tap</t>
+  </si>
+  <si>
+    <t>Ściśle tajne</t>
+  </si>
+  <si>
+    <t>Breakdance 2: Elektryczne wariactwo</t>
+  </si>
+  <si>
+    <t>Rasputin - Orgien am Zarenhof</t>
+  </si>
+  <si>
+    <t>Szybka zmiana</t>
+  </si>
+  <si>
+    <t>Her mit den kleinen Schweinchen</t>
+  </si>
+  <si>
+    <t>Inaczej niż w raju</t>
+  </si>
+  <si>
+    <t>Człowiek z lodowca</t>
+  </si>
+  <si>
+    <t>Zbrodnie namiętności</t>
+  </si>
+  <si>
+    <t>Ptasiek</t>
+  </si>
+  <si>
+    <t>Ulubieńcy księżyca</t>
   </si>
 </sst>
 </file>
@@ -21435,11 +21561,11 @@
   <dimension ref="A1:P2441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G827" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G881" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="H831" sqref="H831"/>
+      <selection pane="bottomRight" activeCell="H887" sqref="H887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42320,7 +42446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>1983</v>
       </c>
@@ -42346,7 +42472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>1983</v>
       </c>
@@ -42372,7 +42498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>1983</v>
       </c>
@@ -42398,7 +42524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>1983</v>
       </c>
@@ -42424,7 +42550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>1983</v>
       </c>
@@ -42450,7 +42576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>1983</v>
       </c>
@@ -42476,7 +42602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>1983</v>
       </c>
@@ -42502,7 +42628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>1983</v>
       </c>
@@ -42528,7 +42654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>1983</v>
       </c>
@@ -42553,11 +42679,8 @@
       <c r="I809" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J809" s="1" t="s">
-        <v>4222</v>
-      </c>
-    </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="810" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>1983</v>
       </c>
@@ -42582,11 +42705,8 @@
       <c r="I810" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J810" s="1" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="811" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>1983</v>
       </c>
@@ -42611,11 +42731,8 @@
       <c r="I811" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J811" s="1" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="812" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>1983</v>
       </c>
@@ -42640,11 +42757,8 @@
       <c r="I812" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J812" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="813" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>1983</v>
       </c>
@@ -42669,11 +42783,8 @@
       <c r="I813" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J813" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="814" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>1983</v>
       </c>
@@ -42698,11 +42809,8 @@
       <c r="I814" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J814" s="1" t="s">
-        <v>4237</v>
-      </c>
-    </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="815" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>1983</v>
       </c>
@@ -42727,11 +42835,8 @@
       <c r="I815" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J815" s="1" t="s">
-        <v>4238</v>
-      </c>
-    </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="816" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>1983</v>
       </c>
@@ -42756,11 +42861,8 @@
       <c r="I816" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J816" s="1" t="s">
-        <v>4239</v>
-      </c>
-    </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="817" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>1983</v>
       </c>
@@ -42785,11 +42887,8 @@
       <c r="I817" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J817" s="1" t="s">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="818" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>1983</v>
       </c>
@@ -42814,11 +42913,8 @@
       <c r="I818" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J818" s="1" t="s">
-        <v>4241</v>
-      </c>
-    </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="819" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>1983</v>
       </c>
@@ -42843,11 +42939,8 @@
       <c r="I819" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J819" s="1" t="s">
-        <v>4242</v>
-      </c>
-    </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="820" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>1983</v>
       </c>
@@ -42872,11 +42965,8 @@
       <c r="I820" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J820" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="821" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>1983</v>
       </c>
@@ -42901,11 +42991,8 @@
       <c r="I821" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J821" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="822" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>1983</v>
       </c>
@@ -42933,11 +43020,8 @@
       <c r="I822" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J822" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="823" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>1983</v>
       </c>
@@ -42962,11 +43046,8 @@
       <c r="I823" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J823" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="824" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>1983</v>
       </c>
@@ -42991,11 +43072,8 @@
       <c r="I824" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J824" s="1" t="s">
-        <v>4243</v>
-      </c>
-    </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="825" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>1983</v>
       </c>
@@ -43020,11 +43098,8 @@
       <c r="I825" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J825" s="1" t="s">
-        <v>4081</v>
-      </c>
-    </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="826" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>1984</v>
       </c>
@@ -43049,11 +43124,8 @@
       <c r="I826" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J826" s="1" t="s">
-        <v>4244</v>
-      </c>
-    </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="827" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>1984</v>
       </c>
@@ -43078,11 +43150,8 @@
       <c r="I827" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J827" s="1" t="s">
-        <v>4245</v>
-      </c>
-    </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="828" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>1984</v>
       </c>
@@ -43107,11 +43176,8 @@
       <c r="I828" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J828" s="1" t="s">
-        <v>4246</v>
-      </c>
-    </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="829" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>1984</v>
       </c>
@@ -43136,11 +43202,8 @@
       <c r="I829" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J829" s="1" t="s">
-        <v>4247</v>
-      </c>
-    </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="830" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>1984</v>
       </c>
@@ -43165,11 +43228,8 @@
       <c r="I830" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J830" s="1" t="s">
-        <v>4248</v>
-      </c>
-    </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="831" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>1984</v>
       </c>
@@ -43188,12 +43248,14 @@
       <c r="G831" t="s">
         <v>4644</v>
       </c>
-      <c r="I831"/>
-      <c r="J831" s="1" t="s">
-        <v>4249</v>
-      </c>
-    </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H831" s="11" t="s">
+        <v>6986</v>
+      </c>
+      <c r="I831" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="832" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>1984</v>
       </c>
@@ -43212,12 +43274,14 @@
       <c r="G832" t="s">
         <v>4647</v>
       </c>
-      <c r="I832"/>
-      <c r="J832" s="1" t="s">
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H832" s="11" t="s">
+        <v>6987</v>
+      </c>
+      <c r="I832" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="833" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>1984</v>
       </c>
@@ -43242,11 +43306,8 @@
       <c r="I833" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J833" s="1" t="s">
-        <v>4251</v>
-      </c>
-    </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="834" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>1984</v>
       </c>
@@ -43271,11 +43332,8 @@
       <c r="I834" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J834" s="1" t="s">
-        <v>4252</v>
-      </c>
-    </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="835" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>1984</v>
       </c>
@@ -43300,11 +43358,8 @@
       <c r="I835" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J835" s="1" t="s">
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="836" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>1984</v>
       </c>
@@ -43329,11 +43384,8 @@
       <c r="I836" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J836" s="1" t="s">
-        <v>4254</v>
-      </c>
-    </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="837" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>1984</v>
       </c>
@@ -43352,12 +43404,14 @@
       <c r="G837" t="s">
         <v>4657</v>
       </c>
-      <c r="I837"/>
-      <c r="J837" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H837" s="11" t="s">
+        <v>4656</v>
+      </c>
+      <c r="I837" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="838" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>1984</v>
       </c>
@@ -43385,11 +43439,8 @@
       <c r="I838" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J838" s="1" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="839" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>1984</v>
       </c>
@@ -43408,12 +43459,14 @@
       <c r="G839" t="s">
         <v>4661</v>
       </c>
-      <c r="I839"/>
-      <c r="J839" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H839" s="11" t="s">
+        <v>6988</v>
+      </c>
+      <c r="I839" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>1984</v>
       </c>
@@ -43432,12 +43485,14 @@
       <c r="G840" t="s">
         <v>4663</v>
       </c>
-      <c r="I840"/>
-      <c r="J840" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H840" s="11" t="s">
+        <v>6989</v>
+      </c>
+      <c r="I840" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>1984</v>
       </c>
@@ -43456,12 +43511,14 @@
       <c r="G841" t="s">
         <v>4665</v>
       </c>
-      <c r="I841"/>
-      <c r="J841" s="1" t="s">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H841" s="11" t="s">
+        <v>6990</v>
+      </c>
+      <c r="I841" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="842" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>1984</v>
       </c>
@@ -43483,14 +43540,11 @@
       <c r="H842" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="I842" t="s">
-        <v>13</v>
-      </c>
-      <c r="J842" s="1" t="s">
-        <v>4256</v>
-      </c>
-    </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I842" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>1984</v>
       </c>
@@ -43509,12 +43563,14 @@
       <c r="G843" t="s">
         <v>4670</v>
       </c>
-      <c r="I843"/>
-      <c r="J843" s="1" t="s">
-        <v>4257</v>
-      </c>
-    </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H843" s="11" t="s">
+        <v>6991</v>
+      </c>
+      <c r="I843" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>1984</v>
       </c>
@@ -43533,12 +43589,14 @@
       <c r="G844" t="s">
         <v>4672</v>
       </c>
-      <c r="I844"/>
-      <c r="J844" s="1" t="s">
-        <v>4258</v>
-      </c>
-    </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H844" s="11" t="s">
+        <v>6992</v>
+      </c>
+      <c r="I844" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>1984</v>
       </c>
@@ -43557,12 +43615,14 @@
       <c r="G845" t="s">
         <v>4675</v>
       </c>
-      <c r="I845"/>
-      <c r="J845" s="1" t="s">
-        <v>4259</v>
-      </c>
-    </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H845" s="11" t="s">
+        <v>6993</v>
+      </c>
+      <c r="I845" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="846" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>1984</v>
       </c>
@@ -43581,12 +43641,14 @@
       <c r="G846" t="s">
         <v>4677</v>
       </c>
-      <c r="I846"/>
-      <c r="J846" s="1" t="s">
-        <v>4260</v>
-      </c>
-    </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H846" s="11" t="s">
+        <v>6994</v>
+      </c>
+      <c r="I846" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="847" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>1984</v>
       </c>
@@ -43605,12 +43667,14 @@
       <c r="G847" t="s">
         <v>4680</v>
       </c>
-      <c r="I847"/>
-      <c r="J847" s="1" t="s">
-        <v>4261</v>
-      </c>
-    </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H847" s="11" t="s">
+        <v>6995</v>
+      </c>
+      <c r="I847" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="848" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>1984</v>
       </c>
@@ -43629,12 +43693,14 @@
       <c r="G848" t="s">
         <v>4682</v>
       </c>
-      <c r="I848"/>
-      <c r="J848" s="1" t="s">
-        <v>4262</v>
-      </c>
-    </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H848" s="11" t="s">
+        <v>6996</v>
+      </c>
+      <c r="I848" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>1984</v>
       </c>
@@ -43653,12 +43719,14 @@
       <c r="G849" t="s">
         <v>4684</v>
       </c>
-      <c r="I849"/>
-      <c r="J849" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H849" s="11" t="s">
+        <v>6997</v>
+      </c>
+      <c r="I849" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>1984</v>
       </c>
@@ -43677,12 +43745,14 @@
       <c r="G850" t="s">
         <v>4687</v>
       </c>
-      <c r="I850"/>
-      <c r="J850" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H850" s="11" t="s">
+        <v>6998</v>
+      </c>
+      <c r="I850" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>1984</v>
       </c>
@@ -43701,12 +43771,14 @@
       <c r="G851" t="s">
         <v>4690</v>
       </c>
-      <c r="I851"/>
-      <c r="J851" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H851" s="11" t="s">
+        <v>6999</v>
+      </c>
+      <c r="I851" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>1984</v>
       </c>
@@ -43725,12 +43797,14 @@
       <c r="G852" t="s">
         <v>4693</v>
       </c>
-      <c r="I852"/>
-      <c r="J852" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H852" s="11" t="s">
+        <v>7000</v>
+      </c>
+      <c r="I852" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>1984</v>
       </c>
@@ -43749,12 +43823,14 @@
       <c r="G853" t="s">
         <v>4695</v>
       </c>
-      <c r="I853"/>
-      <c r="J853" s="1" t="s">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H853" s="11" t="s">
+        <v>7001</v>
+      </c>
+      <c r="I853" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>1984</v>
       </c>
@@ -43773,12 +43849,14 @@
       <c r="G854" t="s">
         <v>4697</v>
       </c>
-      <c r="I854"/>
-      <c r="J854" s="1" t="s">
-        <v>4263</v>
-      </c>
-    </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H854" s="11" t="s">
+        <v>4696</v>
+      </c>
+      <c r="I854" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>1984</v>
       </c>
@@ -43797,12 +43875,14 @@
       <c r="G855" t="s">
         <v>4699</v>
       </c>
-      <c r="I855"/>
-      <c r="J855" s="1" t="s">
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H855" s="11" t="s">
+        <v>7002</v>
+      </c>
+      <c r="I855" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>1984</v>
       </c>
@@ -43821,12 +43901,14 @@
       <c r="G856" t="s">
         <v>4701</v>
       </c>
-      <c r="I856"/>
-      <c r="J856" s="1" t="s">
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H856" s="11" t="s">
+        <v>7003</v>
+      </c>
+      <c r="I856" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>1984</v>
       </c>
@@ -43845,12 +43927,14 @@
       <c r="G857" t="s">
         <v>4703</v>
       </c>
-      <c r="I857"/>
-      <c r="J857" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H857" s="11" t="s">
+        <v>7004</v>
+      </c>
+      <c r="I857" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>1984</v>
       </c>
@@ -43869,12 +43953,14 @@
       <c r="G858" t="s">
         <v>4705</v>
       </c>
-      <c r="I858"/>
-      <c r="J858" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H858" s="11" t="s">
+        <v>7005</v>
+      </c>
+      <c r="I858" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>1984</v>
       </c>
@@ -43893,12 +43979,14 @@
       <c r="G859" t="s">
         <v>4707</v>
       </c>
-      <c r="I859"/>
-      <c r="J859" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H859" s="11" t="s">
+        <v>7006</v>
+      </c>
+      <c r="I859" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>1984</v>
       </c>
@@ -43917,12 +44005,14 @@
       <c r="G860" t="s">
         <v>4709</v>
       </c>
-      <c r="I860"/>
-      <c r="J860" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H860" s="11" t="s">
+        <v>7007</v>
+      </c>
+      <c r="I860" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>1984</v>
       </c>
@@ -43941,12 +44031,14 @@
       <c r="G861" t="s">
         <v>4712</v>
       </c>
-      <c r="I861"/>
-      <c r="J861" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H861" s="11" t="s">
+        <v>7008</v>
+      </c>
+      <c r="I861" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>1984</v>
       </c>
@@ -43965,12 +44057,14 @@
       <c r="G862" t="s">
         <v>4714</v>
       </c>
-      <c r="I862"/>
-      <c r="J862" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H862" s="11" t="s">
+        <v>7009</v>
+      </c>
+      <c r="I862" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>1984</v>
       </c>
@@ -43989,12 +44083,14 @@
       <c r="G863" t="s">
         <v>4717</v>
       </c>
-      <c r="I863"/>
-      <c r="J863" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H863" s="11" t="s">
+        <v>4715</v>
+      </c>
+      <c r="I863" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>1984</v>
       </c>
@@ -44013,12 +44109,14 @@
       <c r="G864" t="s">
         <v>4719</v>
       </c>
-      <c r="I864"/>
-      <c r="J864" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H864" s="11" t="s">
+        <v>7010</v>
+      </c>
+      <c r="I864" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>1984</v>
       </c>
@@ -44037,12 +44135,14 @@
       <c r="G865" t="s">
         <v>4721</v>
       </c>
-      <c r="I865"/>
-      <c r="J865" s="1" t="s">
-        <v>4266</v>
-      </c>
-    </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H865" s="11" t="s">
+        <v>7011</v>
+      </c>
+      <c r="I865" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="866" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>1984</v>
       </c>
@@ -44061,12 +44161,14 @@
       <c r="G866" t="s">
         <v>4723</v>
       </c>
-      <c r="I866"/>
-      <c r="J866" s="1" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H866" s="11" t="s">
+        <v>7012</v>
+      </c>
+      <c r="I866" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>1984</v>
       </c>
@@ -44085,12 +44187,14 @@
       <c r="G867" t="s">
         <v>4725</v>
       </c>
-      <c r="I867"/>
-      <c r="J867" s="1" t="s">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H867" s="11" t="s">
+        <v>7013</v>
+      </c>
+      <c r="I867" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>1984</v>
       </c>
@@ -44109,13 +44213,14 @@
       <c r="G868" t="s">
         <v>4728</v>
       </c>
-      <c r="H868" s="9"/>
-      <c r="I868"/>
-      <c r="J868" s="1" t="s">
-        <v>4268</v>
-      </c>
-    </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H868" s="9" t="s">
+        <v>7014</v>
+      </c>
+      <c r="I868" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>1984</v>
       </c>
@@ -44134,13 +44239,14 @@
       <c r="G869" t="s">
         <v>4730</v>
       </c>
-      <c r="H869" s="9"/>
-      <c r="I869"/>
-      <c r="J869" s="1" t="s">
-        <v>4269</v>
-      </c>
-    </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H869" s="9" t="s">
+        <v>7015</v>
+      </c>
+      <c r="I869" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>1984</v>
       </c>
@@ -44159,13 +44265,14 @@
       <c r="G870" t="s">
         <v>4733</v>
       </c>
-      <c r="H870" s="9"/>
-      <c r="I870"/>
-      <c r="J870" s="1" t="s">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H870" s="9" t="s">
+        <v>7016</v>
+      </c>
+      <c r="I870" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>1984</v>
       </c>
@@ -44184,13 +44291,14 @@
       <c r="G871" t="s">
         <v>4735</v>
       </c>
-      <c r="H871" s="9"/>
-      <c r="I871"/>
-      <c r="J871" s="1" t="s">
-        <v>4270</v>
-      </c>
-    </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H871" s="9" t="s">
+        <v>7017</v>
+      </c>
+      <c r="I871" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>1984</v>
       </c>
@@ -44209,13 +44317,14 @@
       <c r="G872" t="s">
         <v>4738</v>
       </c>
-      <c r="H872" s="9"/>
-      <c r="I872"/>
-      <c r="J872" s="1" t="s">
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H872" s="9" t="s">
+        <v>7018</v>
+      </c>
+      <c r="I872" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>1984</v>
       </c>
@@ -44234,13 +44343,14 @@
       <c r="G873" t="s">
         <v>4740</v>
       </c>
-      <c r="H873" s="9"/>
-      <c r="I873"/>
-      <c r="J873" s="1" t="s">
-        <v>4272</v>
-      </c>
-    </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H873" s="9" t="s">
+        <v>4739</v>
+      </c>
+      <c r="I873" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>1984</v>
       </c>
@@ -44259,13 +44369,14 @@
       <c r="G874" t="s">
         <v>4742</v>
       </c>
-      <c r="H874" s="9"/>
-      <c r="I874"/>
-      <c r="J874" s="1" t="s">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H874" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I874" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>1984</v>
       </c>
@@ -44284,13 +44395,14 @@
       <c r="G875" t="s">
         <v>4743</v>
       </c>
-      <c r="H875" s="9"/>
-      <c r="I875"/>
-      <c r="J875" s="1" t="s">
-        <v>4274</v>
-      </c>
-    </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H875" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I875" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>1984</v>
       </c>
@@ -44309,13 +44421,14 @@
       <c r="G876" t="s">
         <v>4745</v>
       </c>
-      <c r="H876" s="9"/>
-      <c r="I876"/>
-      <c r="J876" s="1" t="s">
-        <v>4275</v>
-      </c>
-    </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H876" s="11" t="s">
+        <v>7019</v>
+      </c>
+      <c r="I876" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>1984</v>
       </c>
@@ -44334,13 +44447,14 @@
       <c r="G877" t="s">
         <v>4748</v>
       </c>
-      <c r="H877" s="9"/>
-      <c r="I877"/>
-      <c r="J877" s="1" t="s">
-        <v>4276</v>
-      </c>
-    </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H877" s="9" t="s">
+        <v>7020</v>
+      </c>
+      <c r="I877" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>1984</v>
       </c>
@@ -44359,13 +44473,14 @@
       <c r="G878" t="s">
         <v>4750</v>
       </c>
-      <c r="H878" s="9"/>
-      <c r="I878"/>
-      <c r="J878" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H878" s="9" t="s">
+        <v>7021</v>
+      </c>
+      <c r="I878" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>1984</v>
       </c>
@@ -44384,13 +44499,14 @@
       <c r="G879" t="s">
         <v>4752</v>
       </c>
-      <c r="H879" s="9"/>
-      <c r="I879"/>
-      <c r="J879" s="1" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H879" s="9" t="s">
+        <v>7022</v>
+      </c>
+      <c r="I879" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>1984</v>
       </c>
@@ -44409,10 +44525,11 @@
       <c r="G880" t="s">
         <v>4754</v>
       </c>
-      <c r="H880" s="9"/>
-      <c r="I880"/>
-      <c r="J880" s="1" t="s">
-        <v>1198</v>
+      <c r="H880" s="9" t="s">
+        <v>7023</v>
+      </c>
+      <c r="I880" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="881" spans="1:10" x14ac:dyDescent="0.2">
@@ -44434,10 +44551,11 @@
       <c r="G881" t="s">
         <v>4757</v>
       </c>
-      <c r="H881" s="9"/>
-      <c r="I881"/>
-      <c r="J881" s="1" t="s">
-        <v>1201</v>
+      <c r="H881" s="9" t="s">
+        <v>7024</v>
+      </c>
+      <c r="I881" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="882" spans="1:10" x14ac:dyDescent="0.2">
@@ -44459,10 +44577,11 @@
       <c r="G882" t="s">
         <v>4759</v>
       </c>
-      <c r="H882" s="9"/>
-      <c r="I882"/>
-      <c r="J882" s="1" t="s">
-        <v>1205</v>
+      <c r="H882" s="9" t="s">
+        <v>7025</v>
+      </c>
+      <c r="I882" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="883" spans="1:10" x14ac:dyDescent="0.2">
@@ -44484,10 +44603,11 @@
       <c r="G883" t="s">
         <v>4761</v>
       </c>
-      <c r="H883" s="9"/>
-      <c r="I883"/>
-      <c r="J883" s="1" t="s">
-        <v>4277</v>
+      <c r="H883" s="9" t="s">
+        <v>7026</v>
+      </c>
+      <c r="I883" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="884" spans="1:10" x14ac:dyDescent="0.2">
@@ -44509,10 +44629,14 @@
       <c r="G884" t="s">
         <v>4763</v>
       </c>
-      <c r="H884" s="9"/>
-      <c r="I884"/>
+      <c r="H884" s="9" t="s">
+        <v>7027</v>
+      </c>
+      <c r="I884" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J884" s="1" t="s">
-        <v>4278</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="885" spans="1:10" x14ac:dyDescent="0.2">
@@ -44534,10 +44658,14 @@
       <c r="G885" t="s">
         <v>4765</v>
       </c>
-      <c r="H885" s="9"/>
-      <c r="I885"/>
+      <c r="H885" s="1" t="s">
+        <v>4242</v>
+      </c>
+      <c r="I885" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J885" s="1" t="s">
-        <v>4279</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="886" spans="1:10" x14ac:dyDescent="0.2">
@@ -44559,10 +44687,14 @@
       <c r="G886" t="s">
         <v>4766</v>
       </c>
-      <c r="H886" s="9"/>
-      <c r="I886"/>
+      <c r="H886" s="1" t="s">
+        <v>4241</v>
+      </c>
+      <c r="I886" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J886" s="1" t="s">
-        <v>4280</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="887" spans="1:10" x14ac:dyDescent="0.2">
@@ -44587,7 +44719,7 @@
       <c r="H887" s="9"/>
       <c r="I887"/>
       <c r="J887" s="1" t="s">
-        <v>4281</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="888" spans="1:10" x14ac:dyDescent="0.2">
@@ -44609,10 +44741,14 @@
       <c r="G888" t="s">
         <v>4771</v>
       </c>
-      <c r="H888" s="9"/>
-      <c r="I888"/>
+      <c r="H888" s="1" t="s">
+        <v>4238</v>
+      </c>
+      <c r="I888" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J888" s="1" t="s">
-        <v>4282</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="889" spans="1:10" x14ac:dyDescent="0.2">
@@ -44637,7 +44773,7 @@
       <c r="H889" s="9"/>
       <c r="I889"/>
       <c r="J889" s="1" t="s">
-        <v>4283</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="890" spans="1:10" x14ac:dyDescent="0.2">
@@ -44662,7 +44798,7 @@
       <c r="H890" s="9"/>
       <c r="I890"/>
       <c r="J890" s="1" t="s">
-        <v>4284</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="891" spans="1:10" x14ac:dyDescent="0.2">
@@ -44687,7 +44823,7 @@
       <c r="H891" s="9"/>
       <c r="I891"/>
       <c r="J891" s="1" t="s">
-        <v>4285</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="892" spans="1:10" x14ac:dyDescent="0.2">
@@ -44709,10 +44845,14 @@
       <c r="G892" t="s">
         <v>4779</v>
       </c>
-      <c r="H892" s="9"/>
-      <c r="I892"/>
+      <c r="H892" s="1" t="s">
+        <v>4240</v>
+      </c>
+      <c r="I892" t="s">
+        <v>13</v>
+      </c>
       <c r="J892" s="1" t="s">
-        <v>4286</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="893" spans="1:10" x14ac:dyDescent="0.2">
@@ -44737,7 +44877,7 @@
       <c r="H893" s="9"/>
       <c r="I893"/>
       <c r="J893" s="1" t="s">
-        <v>4287</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="894" spans="1:10" x14ac:dyDescent="0.2">
@@ -44762,7 +44902,7 @@
       <c r="H894" s="9"/>
       <c r="I894"/>
       <c r="J894" s="1" t="s">
-        <v>4288</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="895" spans="1:10" x14ac:dyDescent="0.2">
@@ -44787,7 +44927,7 @@
       <c r="H895" s="9"/>
       <c r="I895"/>
       <c r="J895" s="1" t="s">
-        <v>4289</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="896" spans="1:10" x14ac:dyDescent="0.2">
@@ -44812,7 +44952,7 @@
       <c r="H896" s="9"/>
       <c r="I896"/>
       <c r="J896" s="1" t="s">
-        <v>4290</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="897" spans="1:10" x14ac:dyDescent="0.2">
@@ -44837,7 +44977,7 @@
       <c r="H897" s="9"/>
       <c r="I897"/>
       <c r="J897" s="1" t="s">
-        <v>4291</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="898" spans="1:10" x14ac:dyDescent="0.2">
@@ -44862,7 +45002,7 @@
       <c r="H898" s="9"/>
       <c r="I898"/>
       <c r="J898" s="1" t="s">
-        <v>4292</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="899" spans="1:10" x14ac:dyDescent="0.2">
@@ -44887,7 +45027,7 @@
       <c r="H899" s="9"/>
       <c r="I899"/>
       <c r="J899" s="1" t="s">
-        <v>1209</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="900" spans="1:10" x14ac:dyDescent="0.2">
@@ -44912,7 +45052,7 @@
       <c r="H900" s="9"/>
       <c r="I900"/>
       <c r="J900" s="1" t="s">
-        <v>4293</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="901" spans="1:10" x14ac:dyDescent="0.2">
@@ -44937,7 +45077,7 @@
       <c r="H901" s="9"/>
       <c r="I901"/>
       <c r="J901" s="1" t="s">
-        <v>4294</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="902" spans="1:10" x14ac:dyDescent="0.2">
@@ -44962,7 +45102,7 @@
       <c r="H902" s="9"/>
       <c r="I902"/>
       <c r="J902" s="1" t="s">
-        <v>4295</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="903" spans="1:10" x14ac:dyDescent="0.2">
@@ -44987,10 +45127,12 @@
       <c r="G903" t="s">
         <v>4802</v>
       </c>
-      <c r="H903" s="9"/>
+      <c r="H903" s="1" t="s">
+        <v>4237</v>
+      </c>
       <c r="I903"/>
       <c r="J903" s="1" t="s">
-        <v>4296</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="904" spans="1:10" x14ac:dyDescent="0.2">
@@ -45015,7 +45157,7 @@
       <c r="H904" s="9"/>
       <c r="I904"/>
       <c r="J904" s="1" t="s">
-        <v>4267</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="905" spans="1:10" x14ac:dyDescent="0.2">
@@ -45040,7 +45182,7 @@
       <c r="H905" s="9"/>
       <c r="I905"/>
       <c r="J905" s="1" t="s">
-        <v>4297</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="906" spans="1:10" x14ac:dyDescent="0.2">
@@ -45065,7 +45207,7 @@
       <c r="H906" s="9"/>
       <c r="I906"/>
       <c r="J906" s="1" t="s">
-        <v>4298</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="907" spans="1:10" x14ac:dyDescent="0.2">
@@ -45090,7 +45232,7 @@
       <c r="H907" s="9"/>
       <c r="I907"/>
       <c r="J907" s="1" t="s">
-        <v>4299</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="908" spans="1:10" x14ac:dyDescent="0.2">
@@ -45115,7 +45257,7 @@
       <c r="H908" s="9"/>
       <c r="I908"/>
       <c r="J908" s="1" t="s">
-        <v>4300</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="909" spans="1:10" x14ac:dyDescent="0.2">
@@ -45140,7 +45282,7 @@
       <c r="H909" s="9"/>
       <c r="I909"/>
       <c r="J909" s="1" t="s">
-        <v>4301</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="910" spans="1:10" x14ac:dyDescent="0.2">
@@ -45165,7 +45307,7 @@
       <c r="H910" s="9"/>
       <c r="I910"/>
       <c r="J910" s="1" t="s">
-        <v>4302</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="911" spans="1:10" x14ac:dyDescent="0.2">
@@ -45190,7 +45332,7 @@
       <c r="H911" s="9"/>
       <c r="I911"/>
       <c r="J911" s="1" t="s">
-        <v>4303</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="912" spans="1:10" x14ac:dyDescent="0.2">
@@ -45215,7 +45357,7 @@
       <c r="H912" s="9"/>
       <c r="I912"/>
       <c r="J912" s="1" t="s">
-        <v>4304</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="913" spans="1:10" x14ac:dyDescent="0.2">
@@ -45240,7 +45382,7 @@
       <c r="H913" s="9"/>
       <c r="I913"/>
       <c r="J913" s="1" t="s">
-        <v>4305</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="914" spans="1:10" x14ac:dyDescent="0.2">
@@ -45265,7 +45407,7 @@
       <c r="H914" s="9"/>
       <c r="I914"/>
       <c r="J914" s="1" t="s">
-        <v>1212</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="915" spans="1:10" x14ac:dyDescent="0.2">
@@ -45290,7 +45432,7 @@
       <c r="H915" s="9"/>
       <c r="I915"/>
       <c r="J915" s="1" t="s">
-        <v>1215</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="916" spans="1:10" x14ac:dyDescent="0.2">
@@ -45315,7 +45457,7 @@
       <c r="H916" s="9"/>
       <c r="I916"/>
       <c r="J916" s="1" t="s">
-        <v>1220</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="917" spans="1:10" x14ac:dyDescent="0.2">
@@ -45340,7 +45482,7 @@
       <c r="H917" s="9"/>
       <c r="I917"/>
       <c r="J917" s="1" t="s">
-        <v>4306</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="918" spans="1:10" x14ac:dyDescent="0.2">
@@ -45365,7 +45507,7 @@
       <c r="H918" s="9"/>
       <c r="I918"/>
       <c r="J918" s="1" t="s">
-        <v>4307</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="919" spans="1:10" x14ac:dyDescent="0.2">
@@ -45390,7 +45532,7 @@
       <c r="H919" s="9"/>
       <c r="I919"/>
       <c r="J919" s="1" t="s">
-        <v>4308</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="920" spans="1:10" x14ac:dyDescent="0.2">
@@ -45415,7 +45557,7 @@
       <c r="H920" s="9"/>
       <c r="I920"/>
       <c r="J920" s="1" t="s">
-        <v>4309</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="921" spans="1:10" x14ac:dyDescent="0.2">
@@ -45440,7 +45582,7 @@
       <c r="H921" s="9"/>
       <c r="I921"/>
       <c r="J921" s="1" t="s">
-        <v>4267</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="922" spans="1:10" x14ac:dyDescent="0.2">
@@ -45465,7 +45607,7 @@
       <c r="H922" s="9"/>
       <c r="I922"/>
       <c r="J922" s="1" t="s">
-        <v>4310</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="923" spans="1:10" x14ac:dyDescent="0.2">
@@ -45490,7 +45632,7 @@
       <c r="H923" s="9"/>
       <c r="I923"/>
       <c r="J923" s="1" t="s">
-        <v>4311</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="924" spans="1:10" x14ac:dyDescent="0.2">
@@ -45515,7 +45657,7 @@
       <c r="H924" s="9"/>
       <c r="I924"/>
       <c r="J924" s="1" t="s">
-        <v>4312</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="925" spans="1:10" x14ac:dyDescent="0.2">
@@ -45540,7 +45682,7 @@
       <c r="H925" s="9"/>
       <c r="I925"/>
       <c r="J925" s="1" t="s">
-        <v>4313</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="926" spans="1:10" x14ac:dyDescent="0.2">
@@ -45565,7 +45707,7 @@
       <c r="H926" s="9"/>
       <c r="I926"/>
       <c r="J926" s="1" t="s">
-        <v>4314</v>
+        <v>478</v>
       </c>
     </row>
     <row r="927" spans="1:10" x14ac:dyDescent="0.2">
@@ -45590,7 +45732,7 @@
       <c r="H927" s="9"/>
       <c r="I927"/>
       <c r="J927" s="1" t="s">
-        <v>4315</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="928" spans="1:10" x14ac:dyDescent="0.2">
@@ -45615,7 +45757,7 @@
       <c r="H928" s="9"/>
       <c r="I928"/>
       <c r="J928" s="1" t="s">
-        <v>4316</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="929" spans="1:10" x14ac:dyDescent="0.2">
@@ -45640,7 +45782,7 @@
       <c r="H929" s="9"/>
       <c r="I929"/>
       <c r="J929" s="1" t="s">
-        <v>4317</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="930" spans="1:10" x14ac:dyDescent="0.2">
@@ -45665,7 +45807,7 @@
       <c r="H930" s="9"/>
       <c r="I930"/>
       <c r="J930" s="1" t="s">
-        <v>4318</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="931" spans="1:10" x14ac:dyDescent="0.2">
@@ -45690,7 +45832,7 @@
       <c r="H931" s="9"/>
       <c r="I931"/>
       <c r="J931" s="1" t="s">
-        <v>4319</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="932" spans="1:10" x14ac:dyDescent="0.2">
@@ -45715,7 +45857,7 @@
       <c r="H932" s="9"/>
       <c r="I932"/>
       <c r="J932" s="1" t="s">
-        <v>4320</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="933" spans="1:10" x14ac:dyDescent="0.2">
@@ -45740,7 +45882,7 @@
       <c r="H933" s="9"/>
       <c r="I933"/>
       <c r="J933" s="1" t="s">
-        <v>4321</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="934" spans="1:10" x14ac:dyDescent="0.2">
@@ -45765,7 +45907,7 @@
       <c r="H934" s="9"/>
       <c r="I934"/>
       <c r="J934" s="1" t="s">
-        <v>4322</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="935" spans="1:10" x14ac:dyDescent="0.2">
@@ -45790,7 +45932,7 @@
       <c r="H935" s="9"/>
       <c r="I935"/>
       <c r="J935" s="1" t="s">
-        <v>4323</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="936" spans="1:10" x14ac:dyDescent="0.2">
@@ -45815,7 +45957,7 @@
       <c r="H936" s="9"/>
       <c r="I936"/>
       <c r="J936" s="1" t="s">
-        <v>1223</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="937" spans="1:10" x14ac:dyDescent="0.2">
@@ -45840,7 +45982,7 @@
       <c r="H937" s="9"/>
       <c r="I937"/>
       <c r="J937" s="1" t="s">
-        <v>1226</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="938" spans="1:10" x14ac:dyDescent="0.2">
@@ -45865,7 +46007,7 @@
       <c r="H938" s="9"/>
       <c r="I938"/>
       <c r="J938" s="1" t="s">
-        <v>230</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="939" spans="1:10" x14ac:dyDescent="0.2">
@@ -45890,7 +46032,7 @@
       <c r="H939" s="9"/>
       <c r="I939"/>
       <c r="J939" s="1" t="s">
-        <v>4324</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="940" spans="1:10" x14ac:dyDescent="0.2">
@@ -45915,7 +46057,7 @@
       <c r="H940" s="9"/>
       <c r="I940"/>
       <c r="J940" s="1" t="s">
-        <v>4325</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="941" spans="1:10" x14ac:dyDescent="0.2">
@@ -45940,7 +46082,7 @@
       <c r="H941" s="9"/>
       <c r="I941"/>
       <c r="J941" s="1" t="s">
-        <v>4326</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="942" spans="1:10" x14ac:dyDescent="0.2">
@@ -45965,7 +46107,7 @@
       <c r="H942" s="9"/>
       <c r="I942"/>
       <c r="J942" s="1" t="s">
-        <v>4327</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="943" spans="1:10" x14ac:dyDescent="0.2">
@@ -45990,7 +46132,7 @@
       <c r="H943" s="9"/>
       <c r="I943"/>
       <c r="J943" s="1" t="s">
-        <v>4328</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="944" spans="1:10" x14ac:dyDescent="0.2">
@@ -46015,7 +46157,7 @@
       <c r="H944" s="9"/>
       <c r="I944"/>
       <c r="J944" s="1" t="s">
-        <v>4329</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="945" spans="1:10" x14ac:dyDescent="0.2">
@@ -46040,7 +46182,7 @@
       <c r="H945" s="9"/>
       <c r="I945"/>
       <c r="J945" s="1" t="s">
-        <v>4330</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="946" spans="1:10" x14ac:dyDescent="0.2">
@@ -46065,7 +46207,7 @@
       <c r="H946" s="9"/>
       <c r="I946"/>
       <c r="J946" s="1" t="s">
-        <v>4331</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="947" spans="1:10" x14ac:dyDescent="0.2">
@@ -46090,7 +46232,7 @@
       <c r="H947" s="9"/>
       <c r="I947"/>
       <c r="J947" s="1" t="s">
-        <v>4332</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="948" spans="1:10" x14ac:dyDescent="0.2">
@@ -46115,7 +46257,7 @@
       <c r="H948" s="9"/>
       <c r="I948"/>
       <c r="J948" s="1" t="s">
-        <v>4333</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="949" spans="1:10" x14ac:dyDescent="0.2">
@@ -46140,7 +46282,7 @@
       <c r="H949" s="9"/>
       <c r="I949"/>
       <c r="J949" s="1" t="s">
-        <v>4334</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="950" spans="1:10" x14ac:dyDescent="0.2">
@@ -46165,7 +46307,7 @@
       <c r="H950" s="9"/>
       <c r="I950"/>
       <c r="J950" s="1" t="s">
-        <v>4335</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="951" spans="1:10" x14ac:dyDescent="0.2">
@@ -46190,7 +46332,7 @@
       <c r="H951" s="9"/>
       <c r="I951"/>
       <c r="J951" s="1" t="s">
-        <v>4336</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="952" spans="1:10" x14ac:dyDescent="0.2">
@@ -46215,7 +46357,7 @@
       <c r="H952" s="9"/>
       <c r="I952"/>
       <c r="J952" s="1" t="s">
-        <v>4337</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="953" spans="1:10" x14ac:dyDescent="0.2">
@@ -46240,7 +46382,7 @@
       <c r="H953" s="9"/>
       <c r="I953"/>
       <c r="J953" s="1" t="s">
-        <v>1232</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="954" spans="1:10" x14ac:dyDescent="0.2">
@@ -46265,7 +46407,7 @@
       <c r="H954" s="9"/>
       <c r="I954"/>
       <c r="J954" s="1" t="s">
-        <v>1236</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="955" spans="1:10" x14ac:dyDescent="0.2">
@@ -46290,7 +46432,7 @@
       <c r="H955" s="9"/>
       <c r="I955"/>
       <c r="J955" s="1" t="s">
-        <v>56</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="956" spans="1:10" x14ac:dyDescent="0.2">
@@ -46315,7 +46457,7 @@
       <c r="H956" s="9"/>
       <c r="I956"/>
       <c r="J956" s="1" t="s">
-        <v>1240</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="957" spans="1:10" x14ac:dyDescent="0.2">
@@ -46340,7 +46482,7 @@
       <c r="H957" s="9"/>
       <c r="I957"/>
       <c r="J957" s="1" t="s">
-        <v>4338</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="958" spans="1:10" x14ac:dyDescent="0.2">
@@ -46365,7 +46507,7 @@
       <c r="H958" s="9"/>
       <c r="I958"/>
       <c r="J958" s="1" t="s">
-        <v>4308</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="959" spans="1:10" x14ac:dyDescent="0.2">
@@ -46390,7 +46532,7 @@
       <c r="H959" s="9"/>
       <c r="I959"/>
       <c r="J959" s="1" t="s">
-        <v>4339</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="960" spans="1:10" x14ac:dyDescent="0.2">
@@ -46415,7 +46557,7 @@
       <c r="H960" s="9"/>
       <c r="I960"/>
       <c r="J960" s="1" t="s">
-        <v>4340</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="961" spans="1:10" x14ac:dyDescent="0.2">
@@ -46440,7 +46582,7 @@
       <c r="H961" s="9"/>
       <c r="I961"/>
       <c r="J961" s="1" t="s">
-        <v>4341</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="962" spans="1:10" x14ac:dyDescent="0.2">
@@ -46465,7 +46607,7 @@
       <c r="H962" s="9"/>
       <c r="I962"/>
       <c r="J962" s="1" t="s">
-        <v>4342</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="963" spans="1:10" x14ac:dyDescent="0.2">
@@ -46490,7 +46632,7 @@
       <c r="H963" s="9"/>
       <c r="I963"/>
       <c r="J963" s="1" t="s">
-        <v>4343</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="964" spans="1:10" x14ac:dyDescent="0.2">
@@ -46515,7 +46657,7 @@
       <c r="H964" s="9"/>
       <c r="I964"/>
       <c r="J964" s="1" t="s">
-        <v>4344</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="965" spans="1:10" x14ac:dyDescent="0.2">
@@ -46540,7 +46682,7 @@
       <c r="H965" s="9"/>
       <c r="I965"/>
       <c r="J965" s="1" t="s">
-        <v>4345</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="966" spans="1:10" x14ac:dyDescent="0.2">
@@ -46565,7 +46707,7 @@
       <c r="H966" s="9"/>
       <c r="I966"/>
       <c r="J966" s="1" t="s">
-        <v>4346</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="967" spans="1:10" x14ac:dyDescent="0.2">
@@ -46590,7 +46732,7 @@
       <c r="H967" s="9"/>
       <c r="I967"/>
       <c r="J967" s="1" t="s">
-        <v>4347</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="968" spans="1:10" x14ac:dyDescent="0.2">
@@ -46615,7 +46757,7 @@
       <c r="H968" s="9"/>
       <c r="I968"/>
       <c r="J968" s="1" t="s">
-        <v>4348</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="969" spans="1:10" x14ac:dyDescent="0.2">
@@ -46640,7 +46782,7 @@
       <c r="H969" s="9"/>
       <c r="I969"/>
       <c r="J969" s="1" t="s">
-        <v>4349</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="970" spans="1:10" x14ac:dyDescent="0.2">
@@ -46665,7 +46807,7 @@
       <c r="H970" s="9"/>
       <c r="I970"/>
       <c r="J970" s="1" t="s">
-        <v>4350</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="971" spans="1:10" x14ac:dyDescent="0.2">
@@ -46690,7 +46832,7 @@
       <c r="H971" s="9"/>
       <c r="I971"/>
       <c r="J971" s="1" t="s">
-        <v>4351</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="972" spans="1:10" x14ac:dyDescent="0.2">
@@ -46715,7 +46857,7 @@
       <c r="H972" s="9"/>
       <c r="I972"/>
       <c r="J972" s="1" t="s">
-        <v>4352</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="973" spans="1:10" x14ac:dyDescent="0.2">
@@ -46740,7 +46882,7 @@
       <c r="H973" s="9"/>
       <c r="I973"/>
       <c r="J973" s="1" t="s">
-        <v>4353</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="974" spans="1:10" x14ac:dyDescent="0.2">
@@ -46765,7 +46907,7 @@
       <c r="H974" s="9"/>
       <c r="I974"/>
       <c r="J974" s="1" t="s">
-        <v>4354</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="975" spans="1:10" x14ac:dyDescent="0.2">
@@ -46790,7 +46932,7 @@
       <c r="H975" s="9"/>
       <c r="I975"/>
       <c r="J975" s="1" t="s">
-        <v>4355</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="976" spans="1:10" x14ac:dyDescent="0.2">
@@ -46815,7 +46957,7 @@
       <c r="H976" s="9"/>
       <c r="I976"/>
       <c r="J976" s="1" t="s">
-        <v>4356</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="977" spans="1:10" x14ac:dyDescent="0.2">
@@ -46843,7 +46985,7 @@
       <c r="H977" s="9"/>
       <c r="I977"/>
       <c r="J977" s="1" t="s">
-        <v>1244</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="978" spans="1:10" x14ac:dyDescent="0.2">
@@ -46868,7 +47010,7 @@
       <c r="H978" s="9"/>
       <c r="I978"/>
       <c r="J978" s="1" t="s">
-        <v>1248</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="979" spans="1:10" x14ac:dyDescent="0.2">
@@ -46893,7 +47035,7 @@
       <c r="H979" s="9"/>
       <c r="I979"/>
       <c r="J979" s="1" t="s">
-        <v>1251</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="980" spans="1:10" x14ac:dyDescent="0.2">
@@ -46918,7 +47060,7 @@
       <c r="H980" s="9"/>
       <c r="I980"/>
       <c r="J980" s="1" t="s">
-        <v>1256</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="981" spans="1:10" x14ac:dyDescent="0.2">
@@ -46943,7 +47085,7 @@
       <c r="H981" s="9"/>
       <c r="I981"/>
       <c r="J981" s="1" t="s">
-        <v>4357</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="982" spans="1:10" x14ac:dyDescent="0.2">
@@ -46968,7 +47110,7 @@
       <c r="H982" s="9"/>
       <c r="I982"/>
       <c r="J982" s="1" t="s">
-        <v>4358</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="983" spans="1:10" x14ac:dyDescent="0.2">
@@ -46993,7 +47135,7 @@
       <c r="H983" s="9"/>
       <c r="I983"/>
       <c r="J983" s="1" t="s">
-        <v>4359</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="984" spans="1:10" x14ac:dyDescent="0.2">
@@ -47018,7 +47160,7 @@
       <c r="H984" s="9"/>
       <c r="I984"/>
       <c r="J984" s="1" t="s">
-        <v>4360</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="985" spans="1:10" x14ac:dyDescent="0.2">
@@ -47043,7 +47185,7 @@
       <c r="H985" s="9"/>
       <c r="I985"/>
       <c r="J985" s="1" t="s">
-        <v>4361</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="986" spans="1:10" x14ac:dyDescent="0.2">
@@ -47068,7 +47210,7 @@
       <c r="H986" s="9"/>
       <c r="I986"/>
       <c r="J986" s="1" t="s">
-        <v>4362</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="987" spans="1:10" x14ac:dyDescent="0.2">
@@ -47093,7 +47235,7 @@
       <c r="H987" s="9"/>
       <c r="I987"/>
       <c r="J987" s="1" t="s">
-        <v>4363</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="988" spans="1:10" x14ac:dyDescent="0.2">
@@ -47118,7 +47260,7 @@
       <c r="H988" s="9"/>
       <c r="I988"/>
       <c r="J988" s="1" t="s">
-        <v>4364</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="989" spans="1:10" x14ac:dyDescent="0.2">
@@ -47143,7 +47285,7 @@
       <c r="H989" s="9"/>
       <c r="I989"/>
       <c r="J989" s="1" t="s">
-        <v>1258</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="990" spans="1:10" x14ac:dyDescent="0.2">
@@ -47168,7 +47310,7 @@
       <c r="H990" s="9"/>
       <c r="I990"/>
       <c r="J990" s="1" t="s">
-        <v>1262</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="991" spans="1:10" x14ac:dyDescent="0.2">
@@ -47193,7 +47335,7 @@
       <c r="H991" s="9"/>
       <c r="I991"/>
       <c r="J991" s="1" t="s">
-        <v>1265</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="992" spans="1:10" x14ac:dyDescent="0.2">
@@ -47218,7 +47360,7 @@
       <c r="H992" s="9"/>
       <c r="I992"/>
       <c r="J992" s="1" t="s">
-        <v>1269</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="993" spans="1:10" x14ac:dyDescent="0.2">
@@ -47243,7 +47385,7 @@
       <c r="H993" s="9"/>
       <c r="I993"/>
       <c r="J993" s="1" t="s">
-        <v>1272</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="994" spans="1:10" x14ac:dyDescent="0.2">
@@ -47271,7 +47413,7 @@
       <c r="H994" s="9"/>
       <c r="I994"/>
       <c r="J994" s="1" t="s">
-        <v>1275</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="995" spans="1:10" x14ac:dyDescent="0.2">
@@ -47296,7 +47438,7 @@
       <c r="H995" s="9"/>
       <c r="I995"/>
       <c r="J995" s="1" t="s">
-        <v>4365</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="996" spans="1:10" x14ac:dyDescent="0.2">
@@ -47321,7 +47463,7 @@
       <c r="H996" s="9"/>
       <c r="I996"/>
       <c r="J996" s="1" t="s">
-        <v>4366</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="997" spans="1:10" x14ac:dyDescent="0.2">
@@ -47349,7 +47491,7 @@
       <c r="H997" s="9"/>
       <c r="I997"/>
       <c r="J997" s="1" t="s">
-        <v>4367</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="998" spans="1:10" x14ac:dyDescent="0.2">
@@ -47374,7 +47516,7 @@
       <c r="H998" s="9"/>
       <c r="I998"/>
       <c r="J998" s="1" t="s">
-        <v>4308</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="999" spans="1:10" x14ac:dyDescent="0.2">
@@ -47399,7 +47541,7 @@
       <c r="H999" s="9"/>
       <c r="I999"/>
       <c r="J999" s="1" t="s">
-        <v>4368</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="1000" spans="1:10" x14ac:dyDescent="0.2">
@@ -47424,7 +47566,7 @@
       <c r="H1000" s="9"/>
       <c r="I1000"/>
       <c r="J1000" s="1" t="s">
-        <v>4369</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1001" spans="1:10" x14ac:dyDescent="0.2">
@@ -47449,7 +47591,7 @@
       <c r="H1001" s="9"/>
       <c r="I1001"/>
       <c r="J1001" s="1" t="s">
-        <v>4370</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="1002" spans="1:10" x14ac:dyDescent="0.2">
@@ -47474,7 +47616,7 @@
       <c r="H1002" s="9"/>
       <c r="I1002"/>
       <c r="J1002" s="1" t="s">
-        <v>4371</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1003" spans="1:10" x14ac:dyDescent="0.2">
@@ -47499,7 +47641,7 @@
       <c r="H1003" s="9"/>
       <c r="I1003"/>
       <c r="J1003" s="1" t="s">
-        <v>4372</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1004" spans="1:10" x14ac:dyDescent="0.2">
@@ -47524,7 +47666,7 @@
       <c r="H1004" s="9"/>
       <c r="I1004"/>
       <c r="J1004" s="1" t="s">
-        <v>4373</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1005" spans="1:10" x14ac:dyDescent="0.2">
@@ -47549,7 +47691,7 @@
       <c r="H1005" s="9"/>
       <c r="I1005"/>
       <c r="J1005" s="1" t="s">
-        <v>4374</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1006" spans="1:10" x14ac:dyDescent="0.2">
@@ -47574,7 +47716,7 @@
       <c r="H1006" s="9"/>
       <c r="I1006"/>
       <c r="J1006" s="1" t="s">
-        <v>4375</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1007" spans="1:10" x14ac:dyDescent="0.2">
@@ -47599,7 +47741,7 @@
       <c r="H1007" s="9"/>
       <c r="I1007"/>
       <c r="J1007" s="1" t="s">
-        <v>4376</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1008" spans="1:10" x14ac:dyDescent="0.2">
@@ -47624,7 +47766,7 @@
       <c r="H1008" s="9"/>
       <c r="I1008"/>
       <c r="J1008" s="1" t="s">
-        <v>4377</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="1009" spans="1:10" x14ac:dyDescent="0.2">
@@ -47652,7 +47794,7 @@
       <c r="H1009" s="9"/>
       <c r="I1009"/>
       <c r="J1009" s="1" t="s">
-        <v>4378</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1010" spans="1:10" x14ac:dyDescent="0.2">
@@ -47677,7 +47819,7 @@
       <c r="H1010" s="9"/>
       <c r="I1010"/>
       <c r="J1010" s="1" t="s">
-        <v>1279</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="1011" spans="1:10" x14ac:dyDescent="0.2">
@@ -47702,7 +47844,7 @@
       <c r="H1011" s="9"/>
       <c r="I1011"/>
       <c r="J1011" s="1" t="s">
-        <v>1283</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1012" spans="1:10" x14ac:dyDescent="0.2">
@@ -47727,7 +47869,7 @@
       <c r="H1012" s="9"/>
       <c r="I1012"/>
       <c r="J1012" s="1" t="s">
-        <v>639</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="1013" spans="1:10" x14ac:dyDescent="0.2">
@@ -47752,7 +47894,7 @@
       <c r="H1013" s="9"/>
       <c r="I1013"/>
       <c r="J1013" s="1" t="s">
-        <v>1290</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1014" spans="1:10" x14ac:dyDescent="0.2">
@@ -47777,7 +47919,7 @@
       <c r="H1014" s="9"/>
       <c r="I1014"/>
       <c r="J1014" s="1" t="s">
-        <v>1294</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1015" spans="1:10" x14ac:dyDescent="0.2">
@@ -47802,7 +47944,7 @@
       <c r="H1015" s="9"/>
       <c r="I1015"/>
       <c r="J1015" s="1" t="s">
-        <v>1297</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1016" spans="1:10" x14ac:dyDescent="0.2">
@@ -47827,7 +47969,7 @@
       <c r="H1016" s="9"/>
       <c r="I1016"/>
       <c r="J1016" s="1" t="s">
-        <v>18</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="1017" spans="1:10" x14ac:dyDescent="0.2">
@@ -47852,7 +47994,7 @@
       <c r="H1017" s="9"/>
       <c r="I1017"/>
       <c r="J1017" s="1" t="s">
-        <v>4379</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1018" spans="1:10" x14ac:dyDescent="0.2">
@@ -47877,7 +48019,7 @@
       <c r="H1018" s="9"/>
       <c r="I1018"/>
       <c r="J1018" s="1" t="s">
-        <v>4380</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1019" spans="1:10" x14ac:dyDescent="0.2">
@@ -47902,7 +48044,7 @@
       <c r="H1019" s="9"/>
       <c r="I1019"/>
       <c r="J1019" s="1" t="s">
-        <v>4381</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1020" spans="1:10" x14ac:dyDescent="0.2">
@@ -47927,7 +48069,7 @@
       <c r="H1020" s="9"/>
       <c r="I1020"/>
       <c r="J1020" s="1" t="s">
-        <v>4382</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1021" spans="1:10" x14ac:dyDescent="0.2">
@@ -47952,7 +48094,7 @@
       <c r="H1021" s="9"/>
       <c r="I1021"/>
       <c r="J1021" s="1" t="s">
-        <v>4383</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1022" spans="1:10" x14ac:dyDescent="0.2">
@@ -47977,7 +48119,7 @@
       <c r="H1022" s="9"/>
       <c r="I1022"/>
       <c r="J1022" s="1" t="s">
-        <v>4384</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1023" spans="1:10" x14ac:dyDescent="0.2">
@@ -48002,7 +48144,7 @@
       <c r="H1023" s="9"/>
       <c r="I1023"/>
       <c r="J1023" s="1" t="s">
-        <v>4385</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1024" spans="1:10" x14ac:dyDescent="0.2">
@@ -48027,7 +48169,7 @@
       <c r="H1024" s="9"/>
       <c r="I1024"/>
       <c r="J1024" s="1" t="s">
-        <v>4386</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1025" spans="1:10" x14ac:dyDescent="0.2">
@@ -48052,7 +48194,7 @@
       <c r="H1025" s="9"/>
       <c r="I1025"/>
       <c r="J1025" s="1" t="s">
-        <v>4387</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1026" spans="1:10" x14ac:dyDescent="0.2">
@@ -48077,7 +48219,7 @@
       <c r="H1026" s="9"/>
       <c r="I1026"/>
       <c r="J1026" s="1" t="s">
-        <v>4388</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1027" spans="1:10" x14ac:dyDescent="0.2">
@@ -48102,7 +48244,7 @@
       <c r="H1027" s="9"/>
       <c r="I1027"/>
       <c r="J1027" s="1" t="s">
-        <v>4389</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1028" spans="1:10" x14ac:dyDescent="0.2">
@@ -48127,7 +48269,7 @@
       <c r="H1028" s="9"/>
       <c r="I1028"/>
       <c r="J1028" s="1" t="s">
-        <v>4390</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1029" spans="1:10" x14ac:dyDescent="0.2">
@@ -48155,7 +48297,7 @@
       <c r="H1029" s="9"/>
       <c r="I1029"/>
       <c r="J1029" s="1" t="s">
-        <v>4391</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1030" spans="1:10" x14ac:dyDescent="0.2">
@@ -48180,7 +48322,7 @@
       <c r="H1030" s="9"/>
       <c r="I1030"/>
       <c r="J1030" s="1" t="s">
-        <v>4392</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1031" spans="1:10" x14ac:dyDescent="0.2">
@@ -48205,7 +48347,7 @@
       <c r="H1031" s="9"/>
       <c r="I1031"/>
       <c r="J1031" s="1" t="s">
-        <v>4393</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1032" spans="1:10" x14ac:dyDescent="0.2">
@@ -48230,7 +48372,7 @@
       <c r="H1032" s="9"/>
       <c r="I1032"/>
       <c r="J1032" s="1" t="s">
-        <v>4394</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1033" spans="1:10" x14ac:dyDescent="0.2">
@@ -48255,7 +48397,7 @@
       <c r="H1033" s="9"/>
       <c r="I1033"/>
       <c r="J1033" s="1" t="s">
-        <v>4395</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1034" spans="1:10" x14ac:dyDescent="0.2">
@@ -48280,7 +48422,7 @@
       <c r="H1034" s="9"/>
       <c r="I1034"/>
       <c r="J1034" s="1" t="s">
-        <v>4396</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1035" spans="1:10" x14ac:dyDescent="0.2">
@@ -48305,7 +48447,7 @@
       <c r="H1035" s="9"/>
       <c r="I1035"/>
       <c r="J1035" s="1" t="s">
-        <v>4397</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1036" spans="1:10" x14ac:dyDescent="0.2">
@@ -48330,7 +48472,7 @@
       <c r="H1036" s="9"/>
       <c r="I1036"/>
       <c r="J1036" s="1" t="s">
-        <v>4398</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1037" spans="1:10" x14ac:dyDescent="0.2">
@@ -48355,7 +48497,7 @@
       <c r="H1037" s="9"/>
       <c r="I1037"/>
       <c r="J1037" s="1" t="s">
-        <v>1301</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1038" spans="1:10" x14ac:dyDescent="0.2">
@@ -48380,7 +48522,7 @@
       <c r="H1038" s="9"/>
       <c r="I1038"/>
       <c r="J1038" s="1" t="s">
-        <v>4399</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1039" spans="1:10" x14ac:dyDescent="0.2">
@@ -48405,7 +48547,7 @@
       <c r="H1039" s="9"/>
       <c r="I1039"/>
       <c r="J1039" s="1" t="s">
-        <v>4308</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1040" spans="1:10" x14ac:dyDescent="0.2">
@@ -48430,7 +48572,7 @@
       <c r="H1040" s="9"/>
       <c r="I1040"/>
       <c r="J1040" s="1" t="s">
-        <v>4400</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1041" spans="1:10" x14ac:dyDescent="0.2">
@@ -48455,7 +48597,7 @@
       <c r="H1041" s="9"/>
       <c r="I1041"/>
       <c r="J1041" s="1" t="s">
-        <v>4401</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1042" spans="1:10" x14ac:dyDescent="0.2">
@@ -48480,7 +48622,7 @@
       <c r="H1042" s="9"/>
       <c r="I1042"/>
       <c r="J1042" s="1" t="s">
-        <v>4402</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1043" spans="1:10" x14ac:dyDescent="0.2">
@@ -48505,7 +48647,7 @@
       <c r="H1043" s="9"/>
       <c r="I1043"/>
       <c r="J1043" s="1" t="s">
-        <v>4403</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1044" spans="1:10" x14ac:dyDescent="0.2">
@@ -48530,7 +48672,7 @@
       <c r="H1044" s="9"/>
       <c r="I1044"/>
       <c r="J1044" s="1" t="s">
-        <v>4404</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1045" spans="1:10" x14ac:dyDescent="0.2">
@@ -48555,7 +48697,7 @@
       <c r="H1045" s="9"/>
       <c r="I1045"/>
       <c r="J1045" s="1" t="s">
-        <v>4405</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1046" spans="1:10" x14ac:dyDescent="0.2">
@@ -48580,7 +48722,7 @@
       <c r="H1046" s="9"/>
       <c r="I1046"/>
       <c r="J1046" s="1" t="s">
-        <v>4406</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1047" spans="1:10" x14ac:dyDescent="0.2">
@@ -48605,7 +48747,7 @@
       <c r="H1047" s="9"/>
       <c r="I1047"/>
       <c r="J1047" s="1" t="s">
-        <v>4407</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1048" spans="1:10" x14ac:dyDescent="0.2">
@@ -48630,7 +48772,7 @@
       <c r="H1048" s="9"/>
       <c r="I1048"/>
       <c r="J1048" s="1" t="s">
-        <v>4408</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1049" spans="1:10" x14ac:dyDescent="0.2">
@@ -48655,7 +48797,7 @@
       <c r="H1049" s="9"/>
       <c r="I1049"/>
       <c r="J1049" s="1" t="s">
-        <v>4409</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1050" spans="1:10" x14ac:dyDescent="0.2">
@@ -48680,7 +48822,7 @@
       <c r="H1050" s="9"/>
       <c r="I1050"/>
       <c r="J1050" s="1" t="s">
-        <v>4410</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1051" spans="1:10" x14ac:dyDescent="0.2">
@@ -48705,7 +48847,7 @@
       <c r="H1051" s="9"/>
       <c r="I1051"/>
       <c r="J1051" s="1" t="s">
-        <v>4411</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1052" spans="1:10" x14ac:dyDescent="0.2">
@@ -48730,7 +48872,7 @@
       <c r="H1052" s="9"/>
       <c r="I1052"/>
       <c r="J1052" s="1" t="s">
-        <v>4412</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1053" spans="1:10" x14ac:dyDescent="0.2">
@@ -48755,7 +48897,7 @@
       <c r="H1053" s="9"/>
       <c r="I1053"/>
       <c r="J1053" s="1" t="s">
-        <v>4413</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1054" spans="1:10" x14ac:dyDescent="0.2">
@@ -48780,7 +48922,7 @@
       <c r="H1054" s="9"/>
       <c r="I1054"/>
       <c r="J1054" s="1" t="s">
-        <v>4414</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1055" spans="1:10" x14ac:dyDescent="0.2">
@@ -48805,7 +48947,7 @@
       <c r="H1055" s="9"/>
       <c r="I1055"/>
       <c r="J1055" s="1" t="s">
-        <v>1304</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1056" spans="1:10" x14ac:dyDescent="0.2">
@@ -48830,7 +48972,7 @@
       <c r="H1056" s="9"/>
       <c r="I1056"/>
       <c r="J1056" s="1" t="s">
-        <v>1307</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1057" spans="1:10" x14ac:dyDescent="0.2">
@@ -48855,7 +48997,7 @@
       <c r="H1057" s="9"/>
       <c r="I1057"/>
       <c r="J1057" s="1" t="s">
-        <v>1310</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1058" spans="1:10" x14ac:dyDescent="0.2">
@@ -48880,7 +49022,7 @@
       <c r="H1058" s="9"/>
       <c r="I1058"/>
       <c r="J1058" s="1" t="s">
-        <v>4415</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1059" spans="1:10" x14ac:dyDescent="0.2">
@@ -48905,7 +49047,7 @@
       <c r="H1059" s="9"/>
       <c r="I1059"/>
       <c r="J1059" s="1" t="s">
-        <v>4416</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1060" spans="1:10" x14ac:dyDescent="0.2">
@@ -48930,7 +49072,7 @@
       <c r="H1060" s="9"/>
       <c r="I1060"/>
       <c r="J1060" s="1" t="s">
-        <v>4417</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1061" spans="1:10" x14ac:dyDescent="0.2">
@@ -48955,7 +49097,7 @@
       <c r="H1061" s="9"/>
       <c r="I1061"/>
       <c r="J1061" s="1" t="s">
-        <v>4418</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1062" spans="1:10" x14ac:dyDescent="0.2">
@@ -48980,7 +49122,7 @@
       <c r="H1062" s="9"/>
       <c r="I1062"/>
       <c r="J1062" s="1" t="s">
-        <v>4419</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1063" spans="1:10" x14ac:dyDescent="0.2">
@@ -49005,7 +49147,7 @@
       <c r="H1063" s="9"/>
       <c r="I1063"/>
       <c r="J1063" s="1" t="s">
-        <v>4420</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1064" spans="1:10" x14ac:dyDescent="0.2">
@@ -49030,7 +49172,7 @@
       <c r="H1064" s="9"/>
       <c r="I1064"/>
       <c r="J1064" s="1" t="s">
-        <v>4421</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1065" spans="1:10" x14ac:dyDescent="0.2">
@@ -49055,7 +49197,7 @@
       <c r="H1065" s="9"/>
       <c r="I1065"/>
       <c r="J1065" s="1" t="s">
-        <v>4422</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1066" spans="1:10" x14ac:dyDescent="0.2">
@@ -49080,7 +49222,7 @@
       <c r="H1066" s="9"/>
       <c r="I1066"/>
       <c r="J1066" s="1" t="s">
-        <v>4423</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1067" spans="1:10" x14ac:dyDescent="0.2">
@@ -49105,7 +49247,7 @@
       <c r="H1067" s="9"/>
       <c r="I1067"/>
       <c r="J1067" s="1" t="s">
-        <v>4424</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1068" spans="1:10" x14ac:dyDescent="0.2">
@@ -49130,7 +49272,7 @@
       <c r="H1068" s="9"/>
       <c r="I1068"/>
       <c r="J1068" s="1" t="s">
-        <v>4425</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1069" spans="1:10" x14ac:dyDescent="0.2">
@@ -49155,7 +49297,7 @@
       <c r="H1069" s="9"/>
       <c r="I1069"/>
       <c r="J1069" s="1" t="s">
-        <v>4426</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1070" spans="1:10" x14ac:dyDescent="0.2">
@@ -49180,7 +49322,7 @@
       <c r="H1070" s="9"/>
       <c r="I1070"/>
       <c r="J1070" s="1" t="s">
-        <v>4427</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1071" spans="1:10" x14ac:dyDescent="0.2">
@@ -49205,7 +49347,7 @@
       <c r="H1071" s="9"/>
       <c r="I1071"/>
       <c r="J1071" s="1" t="s">
-        <v>4428</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1072" spans="1:10" x14ac:dyDescent="0.2">
@@ -49230,7 +49372,7 @@
       <c r="H1072" s="9"/>
       <c r="I1072"/>
       <c r="J1072" s="1" t="s">
-        <v>4429</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1073" spans="1:10" x14ac:dyDescent="0.2">
@@ -49255,7 +49397,7 @@
       <c r="H1073" s="9"/>
       <c r="I1073"/>
       <c r="J1073" s="1" t="s">
-        <v>4430</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1074" spans="1:10" x14ac:dyDescent="0.2">
@@ -49280,7 +49422,7 @@
       <c r="H1074" s="9"/>
       <c r="I1074"/>
       <c r="J1074" s="1" t="s">
-        <v>1313</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1075" spans="1:10" x14ac:dyDescent="0.2">
@@ -49305,7 +49447,7 @@
       <c r="H1075" s="9"/>
       <c r="I1075"/>
       <c r="J1075" s="1" t="s">
-        <v>1316</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1076" spans="1:10" x14ac:dyDescent="0.2">
@@ -49330,7 +49472,7 @@
       <c r="H1076" s="9"/>
       <c r="I1076"/>
       <c r="J1076" s="1" t="s">
-        <v>1320</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1077" spans="1:10" x14ac:dyDescent="0.2">
@@ -49355,7 +49497,7 @@
       <c r="H1077" s="9"/>
       <c r="I1077"/>
       <c r="J1077" s="1" t="s">
-        <v>1323</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1078" spans="1:10" x14ac:dyDescent="0.2">
@@ -49380,7 +49522,7 @@
       <c r="H1078" s="9"/>
       <c r="I1078"/>
       <c r="J1078" s="1" t="s">
-        <v>1326</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1079" spans="1:10" x14ac:dyDescent="0.2">
@@ -49405,7 +49547,7 @@
       <c r="H1079" s="9"/>
       <c r="I1079"/>
       <c r="J1079" s="1" t="s">
-        <v>4431</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1080" spans="1:10" x14ac:dyDescent="0.2">
@@ -49430,7 +49572,7 @@
       <c r="H1080" s="9"/>
       <c r="I1080"/>
       <c r="J1080" s="1" t="s">
-        <v>4432</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1081" spans="1:10" x14ac:dyDescent="0.2">
@@ -49455,7 +49597,7 @@
       <c r="H1081" s="9"/>
       <c r="I1081"/>
       <c r="J1081" s="1" t="s">
-        <v>4433</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.2">
@@ -49480,7 +49622,7 @@
       <c r="H1082" s="9"/>
       <c r="I1082"/>
       <c r="J1082" s="1" t="s">
-        <v>4434</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1083" spans="1:10" x14ac:dyDescent="0.2">
@@ -49505,7 +49647,7 @@
       <c r="H1083" s="9"/>
       <c r="I1083"/>
       <c r="J1083" s="1" t="s">
-        <v>4435</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1084" spans="1:10" x14ac:dyDescent="0.2">
@@ -49530,7 +49672,7 @@
       <c r="H1084" s="9"/>
       <c r="I1084"/>
       <c r="J1084" s="1" t="s">
-        <v>4436</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1085" spans="1:10" x14ac:dyDescent="0.2">
@@ -49555,7 +49697,7 @@
       <c r="H1085" s="9"/>
       <c r="I1085"/>
       <c r="J1085" s="1" t="s">
-        <v>4437</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1086" spans="1:10" x14ac:dyDescent="0.2">
@@ -49580,7 +49722,7 @@
       <c r="H1086" s="9"/>
       <c r="I1086"/>
       <c r="J1086" s="1" t="s">
-        <v>4438</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1087" spans="1:10" x14ac:dyDescent="0.2">
@@ -49605,7 +49747,7 @@
       <c r="H1087" s="9"/>
       <c r="I1087"/>
       <c r="J1087" s="1" t="s">
-        <v>4439</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1088" spans="1:10" x14ac:dyDescent="0.2">
@@ -49630,7 +49772,7 @@
       <c r="H1088" s="9"/>
       <c r="I1088"/>
       <c r="J1088" s="1" t="s">
-        <v>4440</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1089" spans="1:10" x14ac:dyDescent="0.2">
@@ -49655,7 +49797,7 @@
       <c r="H1089" s="9"/>
       <c r="I1089"/>
       <c r="J1089" s="1" t="s">
-        <v>4441</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1090" spans="1:10" x14ac:dyDescent="0.2">
@@ -49680,7 +49822,7 @@
       <c r="H1090" s="9"/>
       <c r="I1090"/>
       <c r="J1090" s="1" t="s">
-        <v>4442</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1091" spans="1:10" x14ac:dyDescent="0.2">
@@ -49705,7 +49847,7 @@
       <c r="H1091" s="9"/>
       <c r="I1091"/>
       <c r="J1091" s="1" t="s">
-        <v>1330</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1092" spans="1:10" x14ac:dyDescent="0.2">
@@ -49730,7 +49872,7 @@
       <c r="H1092" s="9"/>
       <c r="I1092"/>
       <c r="J1092" s="1" t="s">
-        <v>1334</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1093" spans="1:10" x14ac:dyDescent="0.2">
@@ -49755,7 +49897,7 @@
       <c r="H1093" s="9"/>
       <c r="I1093"/>
       <c r="J1093" s="1" t="s">
-        <v>1338</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1094" spans="1:10" x14ac:dyDescent="0.2">
@@ -49780,7 +49922,7 @@
       <c r="H1094" s="9"/>
       <c r="I1094"/>
       <c r="J1094" s="1" t="s">
-        <v>1341</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1095" spans="1:10" x14ac:dyDescent="0.2">
@@ -49805,7 +49947,7 @@
       <c r="H1095" s="9"/>
       <c r="I1095"/>
       <c r="J1095" s="1" t="s">
-        <v>1344</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1096" spans="1:10" x14ac:dyDescent="0.2">
@@ -49830,7 +49972,7 @@
       <c r="H1096" s="9"/>
       <c r="I1096"/>
       <c r="J1096" s="1" t="s">
-        <v>1347</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1097" spans="1:10" x14ac:dyDescent="0.2">
@@ -49855,7 +49997,7 @@
       <c r="H1097" s="9"/>
       <c r="I1097"/>
       <c r="J1097" s="1" t="s">
-        <v>1351</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1098" spans="1:10" x14ac:dyDescent="0.2">
@@ -49880,7 +50022,7 @@
       <c r="H1098" s="9"/>
       <c r="I1098"/>
       <c r="J1098" s="1" t="s">
-        <v>1354</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1099" spans="1:10" x14ac:dyDescent="0.2">
@@ -49905,7 +50047,7 @@
       <c r="H1099" s="9"/>
       <c r="I1099"/>
       <c r="J1099" s="1" t="s">
-        <v>1357</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1100" spans="1:10" x14ac:dyDescent="0.2">
@@ -49930,7 +50072,7 @@
       <c r="H1100" s="9"/>
       <c r="I1100"/>
       <c r="J1100" s="1" t="s">
-        <v>1360</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1101" spans="1:10" x14ac:dyDescent="0.2">
@@ -49955,7 +50097,7 @@
       <c r="H1101" s="9"/>
       <c r="I1101"/>
       <c r="J1101" s="1" t="s">
-        <v>1365</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1102" spans="1:10" x14ac:dyDescent="0.2">
@@ -49980,7 +50122,7 @@
       <c r="H1102" s="9"/>
       <c r="I1102"/>
       <c r="J1102" s="1" t="s">
-        <v>1368</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1103" spans="1:10" x14ac:dyDescent="0.2">
@@ -50005,7 +50147,7 @@
       <c r="H1103" s="9"/>
       <c r="I1103"/>
       <c r="J1103" s="1" t="s">
-        <v>1371</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1104" spans="1:10" x14ac:dyDescent="0.2">
@@ -50030,7 +50172,7 @@
       <c r="H1104" s="9"/>
       <c r="I1104"/>
       <c r="J1104" s="1" t="s">
-        <v>1375</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1105" spans="1:10" x14ac:dyDescent="0.2">
@@ -50055,7 +50197,7 @@
       <c r="H1105" s="9"/>
       <c r="I1105"/>
       <c r="J1105" s="1" t="s">
-        <v>1378</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1106" spans="1:10" x14ac:dyDescent="0.2">
@@ -50080,7 +50222,7 @@
       <c r="H1106" s="9"/>
       <c r="I1106"/>
       <c r="J1106" s="1" t="s">
-        <v>1381</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1107" spans="1:10" x14ac:dyDescent="0.2">
@@ -50105,7 +50247,7 @@
       <c r="H1107" s="9"/>
       <c r="I1107"/>
       <c r="J1107" s="1" t="s">
-        <v>442</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.2">
@@ -50130,7 +50272,7 @@
       <c r="H1108" s="9"/>
       <c r="I1108"/>
       <c r="J1108" s="1" t="s">
-        <v>1387</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1109" spans="1:10" x14ac:dyDescent="0.2">
@@ -50155,7 +50297,7 @@
       <c r="H1109" s="9"/>
       <c r="I1109"/>
       <c r="J1109" s="1" t="s">
-        <v>1391</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.2">
@@ -50180,7 +50322,7 @@
       <c r="H1110" s="9"/>
       <c r="I1110"/>
       <c r="J1110" s="1" t="s">
-        <v>1394</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1111" spans="1:10" x14ac:dyDescent="0.2">
@@ -50205,7 +50347,7 @@
       <c r="H1111" s="9"/>
       <c r="I1111"/>
       <c r="J1111" s="1" t="s">
-        <v>1396</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1112" spans="1:10" x14ac:dyDescent="0.2">
@@ -50230,7 +50372,7 @@
       <c r="H1112" s="9"/>
       <c r="I1112"/>
       <c r="J1112" s="1" t="s">
-        <v>1399</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.2">
@@ -50255,7 +50397,7 @@
       <c r="H1113" s="9"/>
       <c r="I1113"/>
       <c r="J1113" s="1" t="s">
-        <v>1402</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="1114" spans="1:10" x14ac:dyDescent="0.2">
@@ -50280,7 +50422,7 @@
       <c r="H1114" s="9"/>
       <c r="I1114"/>
       <c r="J1114" s="1" t="s">
-        <v>1406</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1115" spans="1:10" x14ac:dyDescent="0.2">
@@ -50305,7 +50447,7 @@
       <c r="H1115" s="9"/>
       <c r="I1115"/>
       <c r="J1115" s="1" t="s">
-        <v>1410</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="1116" spans="1:10" x14ac:dyDescent="0.2">
@@ -50329,7 +50471,7 @@
       </c>
       <c r="H1116" s="9"/>
       <c r="J1116" s="1" t="s">
-        <v>1413</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1117" spans="1:10" x14ac:dyDescent="0.2">
@@ -50352,7 +50494,7 @@
         <v>2723</v>
       </c>
       <c r="J1117" s="1" t="s">
-        <v>1417</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1118" spans="1:10" x14ac:dyDescent="0.2">
@@ -50375,7 +50517,7 @@
         <v>2725</v>
       </c>
       <c r="J1118" s="1" t="s">
-        <v>1420</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1119" spans="1:10" x14ac:dyDescent="0.2">
@@ -50398,7 +50540,7 @@
         <v>2727</v>
       </c>
       <c r="J1119" s="1" t="s">
-        <v>1423</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="1120" spans="1:10" x14ac:dyDescent="0.2">
@@ -50421,7 +50563,7 @@
         <v>2729</v>
       </c>
       <c r="J1120" s="1" t="s">
-        <v>62</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1121" spans="1:10" x14ac:dyDescent="0.2">
@@ -50444,7 +50586,7 @@
         <v>2732</v>
       </c>
       <c r="J1121" s="1" t="s">
-        <v>1428</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="1122" spans="1:10" x14ac:dyDescent="0.2">
@@ -50467,7 +50609,7 @@
         <v>2735</v>
       </c>
       <c r="J1122" s="1" t="s">
-        <v>1432</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1123" spans="1:10" x14ac:dyDescent="0.2">
@@ -50493,7 +50635,7 @@
         <v>2738</v>
       </c>
       <c r="J1123" s="1" t="s">
-        <v>1435</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1124" spans="1:10" x14ac:dyDescent="0.2">
@@ -50516,7 +50658,7 @@
         <v>2741</v>
       </c>
       <c r="J1124" s="1" t="s">
-        <v>1438</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1125" spans="1:10" x14ac:dyDescent="0.2">
@@ -50539,7 +50681,7 @@
         <v>2743</v>
       </c>
       <c r="J1125" s="1" t="s">
-        <v>1442</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1126" spans="1:10" x14ac:dyDescent="0.2">
@@ -50562,7 +50704,7 @@
         <v>2745</v>
       </c>
       <c r="J1126" s="1" t="s">
-        <v>1446</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="1127" spans="1:10" x14ac:dyDescent="0.2">
@@ -50585,7 +50727,7 @@
         <v>2747</v>
       </c>
       <c r="J1127" s="1" t="s">
-        <v>4443</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1128" spans="1:10" x14ac:dyDescent="0.2">
@@ -50608,7 +50750,7 @@
         <v>2749</v>
       </c>
       <c r="J1128" s="1" t="s">
-        <v>4444</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1129" spans="1:10" x14ac:dyDescent="0.2">
@@ -50631,7 +50773,7 @@
         <v>2752</v>
       </c>
       <c r="J1129" s="1" t="s">
-        <v>4445</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1130" spans="1:10" x14ac:dyDescent="0.2">
@@ -50654,7 +50796,7 @@
         <v>2754</v>
       </c>
       <c r="J1130" s="1" t="s">
-        <v>4446</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="1131" spans="1:10" x14ac:dyDescent="0.2">
@@ -50677,7 +50819,7 @@
         <v>2756</v>
       </c>
       <c r="J1131" s="1" t="s">
-        <v>4447</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1132" spans="1:10" x14ac:dyDescent="0.2">
@@ -50700,7 +50842,7 @@
         <v>2759</v>
       </c>
       <c r="J1132" s="1" t="s">
-        <v>4448</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="1133" spans="1:10" x14ac:dyDescent="0.2">
@@ -50723,7 +50865,7 @@
         <v>2761</v>
       </c>
       <c r="J1133" s="1" t="s">
-        <v>4449</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1134" spans="1:10" x14ac:dyDescent="0.2">
@@ -50746,7 +50888,7 @@
         <v>2763</v>
       </c>
       <c r="J1134" s="1" t="s">
-        <v>4450</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1135" spans="1:10" x14ac:dyDescent="0.2">
@@ -50769,7 +50911,7 @@
         <v>2765</v>
       </c>
       <c r="J1135" s="1" t="s">
-        <v>4451</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1136" spans="1:10" x14ac:dyDescent="0.2">
@@ -50792,7 +50934,7 @@
         <v>2768</v>
       </c>
       <c r="J1136" s="1" t="s">
-        <v>4452</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="1137" spans="1:10" x14ac:dyDescent="0.2">
@@ -50815,7 +50957,7 @@
         <v>2771</v>
       </c>
       <c r="J1137" s="1" t="s">
-        <v>4453</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1138" spans="1:10" x14ac:dyDescent="0.2">
@@ -50838,7 +50980,7 @@
         <v>2774</v>
       </c>
       <c r="J1138" s="1" t="s">
-        <v>4454</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1139" spans="1:10" x14ac:dyDescent="0.2">
@@ -50861,7 +51003,7 @@
         <v>2777</v>
       </c>
       <c r="J1139" s="1" t="s">
-        <v>4455</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1140" spans="1:10" x14ac:dyDescent="0.2">
@@ -50884,7 +51026,7 @@
         <v>2779</v>
       </c>
       <c r="J1140" s="1" t="s">
-        <v>4456</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1141" spans="1:10" x14ac:dyDescent="0.2">
@@ -50907,7 +51049,7 @@
         <v>2781</v>
       </c>
       <c r="J1141" s="1" t="s">
-        <v>4457</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1142" spans="1:10" x14ac:dyDescent="0.2">
@@ -50930,7 +51072,7 @@
         <v>2783</v>
       </c>
       <c r="J1142" s="1" t="s">
-        <v>2991</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1143" spans="1:10" x14ac:dyDescent="0.2">
@@ -50953,7 +51095,7 @@
         <v>2785</v>
       </c>
       <c r="J1143" s="1" t="s">
-        <v>4458</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1144" spans="1:10" x14ac:dyDescent="0.2">
@@ -50976,7 +51118,7 @@
         <v>2787</v>
       </c>
       <c r="J1144" s="1" t="s">
-        <v>4459</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1145" spans="1:10" x14ac:dyDescent="0.2">
@@ -50999,7 +51141,7 @@
         <v>2790</v>
       </c>
       <c r="J1145" s="1" t="s">
-        <v>2942</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1146" spans="1:10" x14ac:dyDescent="0.2">
@@ -51022,7 +51164,7 @@
         <v>2793</v>
       </c>
       <c r="J1146" s="1" t="s">
-        <v>4460</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1147" spans="1:10" x14ac:dyDescent="0.2">
@@ -51045,7 +51187,7 @@
         <v>2795</v>
       </c>
       <c r="J1147" s="1" t="s">
-        <v>4461</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1148" spans="1:10" x14ac:dyDescent="0.2">
@@ -51068,7 +51210,7 @@
         <v>2798</v>
       </c>
       <c r="J1148" s="1" t="s">
-        <v>4443</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1149" spans="1:10" x14ac:dyDescent="0.2">
@@ -51091,7 +51233,7 @@
         <v>2800</v>
       </c>
       <c r="J1149" s="1" t="s">
-        <v>1449</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1150" spans="1:10" x14ac:dyDescent="0.2">
@@ -51114,7 +51256,7 @@
         <v>2802</v>
       </c>
       <c r="J1150" s="1" t="s">
-        <v>1452</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1151" spans="1:10" x14ac:dyDescent="0.2">
@@ -51137,7 +51279,7 @@
         <v>2805</v>
       </c>
       <c r="J1151" s="1" t="s">
-        <v>1456</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1152" spans="1:10" x14ac:dyDescent="0.2">
@@ -51160,7 +51302,7 @@
         <v>2806</v>
       </c>
       <c r="J1152" s="1" t="s">
-        <v>1459</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1153" spans="1:10" x14ac:dyDescent="0.2">
@@ -51183,7 +51325,7 @@
         <v>2808</v>
       </c>
       <c r="J1153" s="1" t="s">
-        <v>1462</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1154" spans="1:10" x14ac:dyDescent="0.2">
@@ -51206,7 +51348,7 @@
         <v>2810</v>
       </c>
       <c r="J1154" s="1" t="s">
-        <v>1465</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1155" spans="1:10" x14ac:dyDescent="0.2">
@@ -51229,7 +51371,7 @@
         <v>2813</v>
       </c>
       <c r="J1155" s="1" t="s">
-        <v>1469</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1156" spans="1:10" x14ac:dyDescent="0.2">
@@ -51252,7 +51394,7 @@
         <v>2816</v>
       </c>
       <c r="J1156" s="1" t="s">
-        <v>591</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="1157" spans="1:10" x14ac:dyDescent="0.2">
@@ -51275,7 +51417,7 @@
         <v>2818</v>
       </c>
       <c r="J1157" s="1" t="s">
-        <v>1475</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1158" spans="1:10" x14ac:dyDescent="0.2">
@@ -51298,7 +51440,7 @@
         <v>2820</v>
       </c>
       <c r="J1158" s="1" t="s">
-        <v>1478</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1159" spans="1:10" x14ac:dyDescent="0.2">
@@ -51321,7 +51463,7 @@
         <v>2822</v>
       </c>
       <c r="J1159" s="1" t="s">
-        <v>1480</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1160" spans="1:10" x14ac:dyDescent="0.2">
@@ -51344,7 +51486,7 @@
         <v>2824</v>
       </c>
       <c r="J1160" s="1" t="s">
-        <v>1484</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1161" spans="1:10" x14ac:dyDescent="0.2">
@@ -51367,7 +51509,7 @@
         <v>2826</v>
       </c>
       <c r="J1161" s="1" t="s">
-        <v>1487</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1162" spans="1:10" x14ac:dyDescent="0.2">
@@ -51390,7 +51532,7 @@
         <v>2829</v>
       </c>
       <c r="J1162" s="1" t="s">
-        <v>1491</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1163" spans="1:10" x14ac:dyDescent="0.2">
@@ -51413,7 +51555,7 @@
         <v>2831</v>
       </c>
       <c r="J1163" s="1" t="s">
-        <v>1495</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1164" spans="1:10" x14ac:dyDescent="0.2">
@@ -51436,7 +51578,7 @@
         <v>2833</v>
       </c>
       <c r="J1164" s="1" t="s">
-        <v>1498</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1165" spans="1:10" x14ac:dyDescent="0.2">
@@ -51459,7 +51601,7 @@
         <v>2835</v>
       </c>
       <c r="J1165" s="1" t="s">
-        <v>1501</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1166" spans="1:10" x14ac:dyDescent="0.2">
@@ -51482,7 +51624,7 @@
         <v>2838</v>
       </c>
       <c r="J1166" s="1" t="s">
-        <v>1504</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1167" spans="1:10" x14ac:dyDescent="0.2">
@@ -51505,7 +51647,7 @@
         <v>2841</v>
       </c>
       <c r="J1167" s="1" t="s">
-        <v>1507</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1168" spans="1:10" x14ac:dyDescent="0.2">
@@ -51527,8 +51669,8 @@
       <c r="G1168" t="s">
         <v>2843</v>
       </c>
-      <c r="J1168" s="4" t="s">
-        <v>1297</v>
+      <c r="J1168" s="1" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="1169" spans="1:10" x14ac:dyDescent="0.2">
@@ -51554,7 +51696,7 @@
         <v>2847</v>
       </c>
       <c r="J1169" s="1" t="s">
-        <v>1513</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1170" spans="1:10" x14ac:dyDescent="0.2">
@@ -51577,7 +51719,7 @@
         <v>2849</v>
       </c>
       <c r="J1170" s="1" t="s">
-        <v>1517</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1171" spans="1:10" x14ac:dyDescent="0.2">
@@ -51600,7 +51742,7 @@
         <v>2852</v>
       </c>
       <c r="J1171" s="1" t="s">
-        <v>1520</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1172" spans="1:10" x14ac:dyDescent="0.2">
@@ -51623,7 +51765,7 @@
         <v>2854</v>
       </c>
       <c r="J1172" s="1" t="s">
-        <v>1524</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1173" spans="1:10" x14ac:dyDescent="0.2">
@@ -51646,7 +51788,7 @@
         <v>2856</v>
       </c>
       <c r="J1173" s="1" t="s">
-        <v>1528</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1174" spans="1:10" x14ac:dyDescent="0.2">
@@ -51669,7 +51811,7 @@
         <v>2858</v>
       </c>
       <c r="J1174" s="1" t="s">
-        <v>1532</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1175" spans="1:10" x14ac:dyDescent="0.2">
@@ -51692,7 +51834,7 @@
         <v>2860</v>
       </c>
       <c r="J1175" s="1" t="s">
-        <v>1535</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1176" spans="1:10" x14ac:dyDescent="0.2">
@@ -51718,7 +51860,7 @@
         <v>2862</v>
       </c>
       <c r="J1176" s="1" t="s">
-        <v>1538</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1177" spans="1:10" x14ac:dyDescent="0.2">
@@ -51741,7 +51883,7 @@
         <v>2864</v>
       </c>
       <c r="J1177" s="1" t="s">
-        <v>1542</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1178" spans="1:10" x14ac:dyDescent="0.2">
@@ -51764,7 +51906,7 @@
         <v>2866</v>
       </c>
       <c r="J1178" s="1" t="s">
-        <v>1546</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1179" spans="1:10" x14ac:dyDescent="0.2">
@@ -51787,7 +51929,7 @@
         <v>2868</v>
       </c>
       <c r="J1179" s="1" t="s">
-        <v>1550</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1180" spans="1:10" x14ac:dyDescent="0.2">
@@ -51810,7 +51952,7 @@
         <v>2870</v>
       </c>
       <c r="J1180" s="1" t="s">
-        <v>1553</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1181" spans="1:10" x14ac:dyDescent="0.2">
@@ -51833,7 +51975,7 @@
         <v>2872</v>
       </c>
       <c r="J1181" s="1" t="s">
-        <v>1556</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1182" spans="1:10" x14ac:dyDescent="0.2">
@@ -51856,7 +51998,7 @@
         <v>2874</v>
       </c>
       <c r="J1182" s="1" t="s">
-        <v>1560</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1183" spans="1:10" x14ac:dyDescent="0.2">
@@ -51879,7 +52021,7 @@
         <v>2877</v>
       </c>
       <c r="J1183" s="1" t="s">
-        <v>1564</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1184" spans="1:10" x14ac:dyDescent="0.2">
@@ -51905,7 +52047,7 @@
         <v>2879</v>
       </c>
       <c r="J1184" s="1" t="s">
-        <v>1567</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1185" spans="1:10" x14ac:dyDescent="0.2">
@@ -51928,7 +52070,7 @@
         <v>2881</v>
       </c>
       <c r="J1185" s="1" t="s">
-        <v>1570</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1186" spans="1:10" x14ac:dyDescent="0.2">
@@ -51951,7 +52093,7 @@
         <v>2883</v>
       </c>
       <c r="J1186" s="1" t="s">
-        <v>1573</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1187" spans="1:10" x14ac:dyDescent="0.2">
@@ -51974,7 +52116,7 @@
         <v>2886</v>
       </c>
       <c r="J1187" s="1" t="s">
-        <v>1577</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1188" spans="1:10" x14ac:dyDescent="0.2">
@@ -51997,7 +52139,7 @@
         <v>2888</v>
       </c>
       <c r="J1188" s="1" t="s">
-        <v>1581</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1189" spans="1:10" x14ac:dyDescent="0.2">
@@ -52020,7 +52162,7 @@
         <v>2890</v>
       </c>
       <c r="J1189" s="1" t="s">
-        <v>1585</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1190" spans="1:10" x14ac:dyDescent="0.2">
@@ -52043,7 +52185,7 @@
         <v>2892</v>
       </c>
       <c r="J1190" s="1" t="s">
-        <v>4462</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1191" spans="1:10" x14ac:dyDescent="0.2">
@@ -52066,7 +52208,7 @@
         <v>2895</v>
       </c>
       <c r="J1191" s="1" t="s">
-        <v>1804</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1192" spans="1:10" x14ac:dyDescent="0.2">
@@ -52089,7 +52231,7 @@
         <v>2897</v>
       </c>
       <c r="J1192" s="1" t="s">
-        <v>3062</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1193" spans="1:10" x14ac:dyDescent="0.2">
@@ -52112,7 +52254,7 @@
         <v>2899</v>
       </c>
       <c r="J1193" s="1" t="s">
-        <v>4463</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1194" spans="1:10" x14ac:dyDescent="0.2">
@@ -52135,7 +52277,7 @@
         <v>2901</v>
       </c>
       <c r="J1194" s="1" t="s">
-        <v>4464</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1195" spans="1:10" x14ac:dyDescent="0.2">
@@ -52158,7 +52300,7 @@
         <v>2904</v>
       </c>
       <c r="J1195" s="1" t="s">
-        <v>4465</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1196" spans="1:10" x14ac:dyDescent="0.2">
@@ -52181,7 +52323,7 @@
         <v>2906</v>
       </c>
       <c r="J1196" s="1" t="s">
-        <v>4466</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1197" spans="1:10" x14ac:dyDescent="0.2">
@@ -52204,7 +52346,7 @@
         <v>2908</v>
       </c>
       <c r="J1197" s="1" t="s">
-        <v>4467</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1198" spans="1:10" x14ac:dyDescent="0.2">
@@ -52227,7 +52369,7 @@
         <v>2910</v>
       </c>
       <c r="J1198" s="1" t="s">
-        <v>4468</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1199" spans="1:10" x14ac:dyDescent="0.2">
@@ -52250,7 +52392,7 @@
         <v>2912</v>
       </c>
       <c r="J1199" s="1" t="s">
-        <v>4469</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1200" spans="1:10" x14ac:dyDescent="0.2">
@@ -52273,7 +52415,7 @@
         <v>2914</v>
       </c>
       <c r="J1200" s="1" t="s">
-        <v>4470</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1201" spans="1:10" x14ac:dyDescent="0.2">
@@ -52296,7 +52438,7 @@
         <v>2917</v>
       </c>
       <c r="J1201" s="1" t="s">
-        <v>4471</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1202" spans="1:10" x14ac:dyDescent="0.2">
@@ -52319,7 +52461,7 @@
         <v>2920</v>
       </c>
       <c r="J1202" s="1" t="s">
-        <v>4472</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1203" spans="1:10" x14ac:dyDescent="0.2">
@@ -52342,7 +52484,7 @@
         <v>2923</v>
       </c>
       <c r="J1203" s="1" t="s">
-        <v>3037</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1204" spans="1:10" x14ac:dyDescent="0.2">
@@ -52365,7 +52507,7 @@
         <v>2925</v>
       </c>
       <c r="J1204" s="1" t="s">
-        <v>4473</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1205" spans="1:10" x14ac:dyDescent="0.2">
@@ -52388,7 +52530,7 @@
         <v>2927</v>
       </c>
       <c r="J1205" s="1" t="s">
-        <v>4474</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1206" spans="1:10" x14ac:dyDescent="0.2">
@@ -52411,7 +52553,7 @@
         <v>2929</v>
       </c>
       <c r="J1206" s="1" t="s">
-        <v>4475</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1207" spans="1:10" x14ac:dyDescent="0.2">
@@ -52434,7 +52576,7 @@
         <v>2932</v>
       </c>
       <c r="J1207" s="1" t="s">
-        <v>4476</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1208" spans="1:10" x14ac:dyDescent="0.2">
@@ -52457,7 +52599,7 @@
         <v>5266</v>
       </c>
       <c r="J1208" s="1" t="s">
-        <v>4462</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1209" spans="1:10" x14ac:dyDescent="0.2">
@@ -52480,7 +52622,7 @@
         <v>5268</v>
       </c>
       <c r="J1209" s="1" t="s">
-        <v>1589</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1210" spans="1:10" x14ac:dyDescent="0.2">
@@ -52503,7 +52645,7 @@
         <v>5270</v>
       </c>
       <c r="J1210" s="1" t="s">
-        <v>1592</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1211" spans="1:10" x14ac:dyDescent="0.2">
@@ -52526,7 +52668,7 @@
         <v>5273</v>
       </c>
       <c r="J1211" s="1" t="s">
-        <v>1596</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1212" spans="1:10" x14ac:dyDescent="0.2">
@@ -52549,7 +52691,7 @@
         <v>5275</v>
       </c>
       <c r="J1212" s="1" t="s">
-        <v>1600</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1213" spans="1:10" x14ac:dyDescent="0.2">
@@ -52572,7 +52714,7 @@
         <v>5277</v>
       </c>
       <c r="J1213" s="1" t="s">
-        <v>1603</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1214" spans="1:10" x14ac:dyDescent="0.2">
@@ -52595,7 +52737,7 @@
         <v>5279</v>
       </c>
       <c r="J1214" s="1" t="s">
-        <v>1606</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1215" spans="1:10" x14ac:dyDescent="0.2">
@@ -52618,7 +52760,7 @@
         <v>5281</v>
       </c>
       <c r="J1215" s="1" t="s">
-        <v>1609</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1216" spans="1:10" x14ac:dyDescent="0.2">
@@ -52641,7 +52783,7 @@
         <v>5282</v>
       </c>
       <c r="J1216" s="1" t="s">
-        <v>1611</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1217" spans="1:10" x14ac:dyDescent="0.2">
@@ -52664,7 +52806,7 @@
         <v>5284</v>
       </c>
       <c r="J1217" s="1" t="s">
-        <v>1614</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1218" spans="1:10" x14ac:dyDescent="0.2">
@@ -52687,7 +52829,7 @@
         <v>5286</v>
       </c>
       <c r="J1218" s="1" t="s">
-        <v>1618</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1219" spans="1:10" x14ac:dyDescent="0.2">
@@ -52713,7 +52855,7 @@
         <v>5288</v>
       </c>
       <c r="J1219" s="1" t="s">
-        <v>1621</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1220" spans="1:10" x14ac:dyDescent="0.2">
@@ -52736,7 +52878,7 @@
         <v>5290</v>
       </c>
       <c r="J1220" s="1" t="s">
-        <v>1624</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1221" spans="1:10" x14ac:dyDescent="0.2">
@@ -52759,7 +52901,7 @@
         <v>5291</v>
       </c>
       <c r="J1221" s="1" t="s">
-        <v>1628</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1222" spans="1:10" x14ac:dyDescent="0.2">
@@ -52782,7 +52924,7 @@
         <v>5293</v>
       </c>
       <c r="J1222" s="1" t="s">
-        <v>1632</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1223" spans="1:10" x14ac:dyDescent="0.2">
@@ -52805,7 +52947,7 @@
         <v>5295</v>
       </c>
       <c r="J1223" s="1" t="s">
-        <v>1636</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1224" spans="1:10" x14ac:dyDescent="0.2">
@@ -52828,7 +52970,7 @@
         <v>5297</v>
       </c>
       <c r="J1224" s="1" t="s">
-        <v>1639</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1225" spans="1:10" x14ac:dyDescent="0.2">
@@ -52851,7 +52993,7 @@
         <v>5298</v>
       </c>
       <c r="J1225" s="1" t="s">
-        <v>1642</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1226" spans="1:10" x14ac:dyDescent="0.2">
@@ -52874,7 +53016,7 @@
         <v>5300</v>
       </c>
       <c r="J1226" s="1" t="s">
-        <v>1646</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1227" spans="1:10" x14ac:dyDescent="0.2">
@@ -52897,7 +53039,7 @@
         <v>5303</v>
       </c>
       <c r="J1227" s="1" t="s">
-        <v>1122</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1228" spans="1:10" x14ac:dyDescent="0.2">
@@ -52920,7 +53062,7 @@
         <v>5305</v>
       </c>
       <c r="J1228" s="1" t="s">
-        <v>1652</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1229" spans="1:10" x14ac:dyDescent="0.2">
@@ -52943,7 +53085,7 @@
         <v>5308</v>
       </c>
       <c r="J1229" s="1" t="s">
-        <v>1655</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1230" spans="1:10" x14ac:dyDescent="0.2">
@@ -52966,7 +53108,7 @@
         <v>5310</v>
       </c>
       <c r="J1230" s="1" t="s">
-        <v>1658</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1231" spans="1:10" x14ac:dyDescent="0.2">
@@ -52989,7 +53131,7 @@
         <v>5312</v>
       </c>
       <c r="J1231" s="1" t="s">
-        <v>1661</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1232" spans="1:10" x14ac:dyDescent="0.2">
@@ -53012,7 +53154,7 @@
         <v>5314</v>
       </c>
       <c r="J1232" s="1" t="s">
-        <v>1664</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1233" spans="1:10" x14ac:dyDescent="0.2">
@@ -53035,7 +53177,7 @@
         <v>5316</v>
       </c>
       <c r="J1233" s="1" t="s">
-        <v>1667</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1234" spans="1:10" x14ac:dyDescent="0.2">
@@ -53058,7 +53200,7 @@
         <v>5318</v>
       </c>
       <c r="J1234" s="1" t="s">
-        <v>1670</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1235" spans="1:10" x14ac:dyDescent="0.2">
@@ -53081,7 +53223,7 @@
         <v>5320</v>
       </c>
       <c r="J1235" s="1" t="s">
-        <v>1673</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1236" spans="1:10" x14ac:dyDescent="0.2">
@@ -53103,8 +53245,8 @@
       <c r="G1236" t="s">
         <v>5321</v>
       </c>
-      <c r="J1236" s="1" t="s">
-        <v>1677</v>
+      <c r="J1236" s="4" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1237" spans="1:10" x14ac:dyDescent="0.2">
@@ -53127,7 +53269,7 @@
         <v>5323</v>
       </c>
       <c r="J1237" s="1" t="s">
-        <v>445</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1238" spans="1:10" x14ac:dyDescent="0.2">
@@ -53150,7 +53292,7 @@
         <v>5325</v>
       </c>
       <c r="J1238" s="1" t="s">
-        <v>1682</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1239" spans="1:10" x14ac:dyDescent="0.2">
@@ -53173,7 +53315,7 @@
         <v>5327</v>
       </c>
       <c r="J1239" s="1" t="s">
-        <v>1685</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1240" spans="1:10" x14ac:dyDescent="0.2">
@@ -53196,7 +53338,7 @@
         <v>5329</v>
       </c>
       <c r="J1240" s="1" t="s">
-        <v>1688</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1241" spans="1:10" x14ac:dyDescent="0.2">
@@ -53219,7 +53361,7 @@
         <v>5331</v>
       </c>
       <c r="J1241" s="1" t="s">
-        <v>1691</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1242" spans="1:10" x14ac:dyDescent="0.2">
@@ -53242,7 +53384,7 @@
         <v>5333</v>
       </c>
       <c r="J1242" s="1" t="s">
-        <v>1694</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1243" spans="1:10" x14ac:dyDescent="0.2">
@@ -53265,7 +53407,7 @@
         <v>5336</v>
       </c>
       <c r="J1243" s="1" t="s">
-        <v>1697</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1244" spans="1:10" x14ac:dyDescent="0.2">
@@ -53291,7 +53433,7 @@
         <v>5337</v>
       </c>
       <c r="J1244" s="1" t="s">
-        <v>1700</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1245" spans="1:10" x14ac:dyDescent="0.2">
@@ -53314,7 +53456,7 @@
         <v>5339</v>
       </c>
       <c r="J1245" s="1" t="s">
-        <v>1704</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1246" spans="1:10" x14ac:dyDescent="0.2">
@@ -53337,7 +53479,7 @@
         <v>5341</v>
       </c>
       <c r="J1246" s="1" t="s">
-        <v>1708</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1247" spans="1:10" x14ac:dyDescent="0.2">
@@ -53360,7 +53502,7 @@
         <v>5344</v>
       </c>
       <c r="J1247" s="1" t="s">
-        <v>1711</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1248" spans="1:10" x14ac:dyDescent="0.2">
@@ -53383,7 +53525,7 @@
         <v>5346</v>
       </c>
       <c r="J1248" s="1" t="s">
-        <v>1714</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1249" spans="1:10" x14ac:dyDescent="0.2">
@@ -53406,7 +53548,7 @@
         <v>5348</v>
       </c>
       <c r="J1249" s="1" t="s">
-        <v>4477</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1250" spans="1:10" x14ac:dyDescent="0.2">
@@ -53429,7 +53571,7 @@
         <v>5351</v>
       </c>
       <c r="J1250" s="1" t="s">
-        <v>3247</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1251" spans="1:10" x14ac:dyDescent="0.2">
@@ -53452,7 +53594,7 @@
         <v>5353</v>
       </c>
       <c r="J1251" s="1" t="s">
-        <v>4478</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1252" spans="1:10" x14ac:dyDescent="0.2">
@@ -53475,7 +53617,7 @@
         <v>5355</v>
       </c>
       <c r="J1252" s="1" t="s">
-        <v>4479</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1253" spans="1:10" x14ac:dyDescent="0.2">
@@ -53498,7 +53640,7 @@
         <v>5357</v>
       </c>
       <c r="J1253" s="1" t="s">
-        <v>4480</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1254" spans="1:10" x14ac:dyDescent="0.2">
@@ -53521,7 +53663,7 @@
         <v>5359</v>
       </c>
       <c r="J1254" s="1" t="s">
-        <v>4481</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1255" spans="1:10" x14ac:dyDescent="0.2">
@@ -53544,7 +53686,7 @@
         <v>5361</v>
       </c>
       <c r="J1255" s="1" t="s">
-        <v>4482</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1256" spans="1:10" x14ac:dyDescent="0.2">
@@ -53567,7 +53709,7 @@
         <v>5363</v>
       </c>
       <c r="J1256" s="1" t="s">
-        <v>3169</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1257" spans="1:10" x14ac:dyDescent="0.2">
@@ -53590,7 +53732,7 @@
         <v>5364</v>
       </c>
       <c r="J1257" s="1" t="s">
-        <v>4483</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1258" spans="1:10" x14ac:dyDescent="0.2">
@@ -53613,7 +53755,7 @@
         <v>5367</v>
       </c>
       <c r="J1258" s="1" t="s">
-        <v>4484</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1259" spans="1:10" x14ac:dyDescent="0.2">
@@ -53637,7 +53779,7 @@
       </c>
       <c r="I1259"/>
       <c r="J1259" s="1" t="s">
-        <v>4485</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1260" spans="1:10" x14ac:dyDescent="0.2">
@@ -53662,7 +53804,7 @@
       <c r="H1260" s="9"/>
       <c r="I1260"/>
       <c r="J1260" s="1" t="s">
-        <v>4486</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1261" spans="1:10" x14ac:dyDescent="0.2">
@@ -53687,7 +53829,7 @@
       <c r="H1261" s="9"/>
       <c r="I1261"/>
       <c r="J1261" s="1" t="s">
-        <v>4487</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1262" spans="1:10" x14ac:dyDescent="0.2">
@@ -53712,7 +53854,7 @@
       <c r="H1262" s="9"/>
       <c r="I1262"/>
       <c r="J1262" s="1" t="s">
-        <v>4488</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1263" spans="1:10" x14ac:dyDescent="0.2">
@@ -53737,7 +53879,7 @@
       <c r="H1263" s="9"/>
       <c r="I1263"/>
       <c r="J1263" s="1" t="s">
-        <v>4489</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1264" spans="1:10" x14ac:dyDescent="0.2">
@@ -53762,7 +53904,7 @@
       <c r="H1264" s="9"/>
       <c r="I1264"/>
       <c r="J1264" s="1" t="s">
-        <v>1718</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1265" spans="1:10" x14ac:dyDescent="0.2">
@@ -53787,7 +53929,7 @@
       <c r="H1265" s="9"/>
       <c r="I1265"/>
       <c r="J1265" s="1" t="s">
-        <v>1722</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1266" spans="1:10" x14ac:dyDescent="0.2">
@@ -53812,7 +53954,7 @@
       <c r="H1266" s="9"/>
       <c r="I1266"/>
       <c r="J1266" s="1" t="s">
-        <v>1725</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1267" spans="1:10" x14ac:dyDescent="0.2">
@@ -53837,7 +53979,7 @@
       <c r="H1267" s="9"/>
       <c r="I1267"/>
       <c r="J1267" s="1" t="s">
-        <v>1729</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1268" spans="1:10" x14ac:dyDescent="0.2">
@@ -53862,7 +54004,7 @@
       <c r="H1268" s="9"/>
       <c r="I1268"/>
       <c r="J1268" s="1" t="s">
-        <v>1732</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1269" spans="1:10" x14ac:dyDescent="0.2">
@@ -53887,7 +54029,7 @@
       <c r="H1269" s="9"/>
       <c r="I1269"/>
       <c r="J1269" s="1" t="s">
-        <v>1737</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1270" spans="1:10" x14ac:dyDescent="0.2">
@@ -53912,7 +54054,7 @@
       <c r="H1270" s="9"/>
       <c r="I1270"/>
       <c r="J1270" s="1" t="s">
-        <v>1740</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1271" spans="1:10" x14ac:dyDescent="0.2">
@@ -53937,7 +54079,7 @@
       <c r="H1271" s="9"/>
       <c r="I1271"/>
       <c r="J1271" s="1" t="s">
-        <v>1743</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1272" spans="1:10" x14ac:dyDescent="0.2">
@@ -53962,7 +54104,7 @@
       <c r="H1272" s="9"/>
       <c r="I1272"/>
       <c r="J1272" s="1" t="s">
-        <v>1747</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1273" spans="1:10" x14ac:dyDescent="0.2">
@@ -53987,7 +54129,7 @@
       <c r="H1273" s="9"/>
       <c r="I1273"/>
       <c r="J1273" s="1" t="s">
-        <v>1750</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1274" spans="1:10" x14ac:dyDescent="0.2">
@@ -54012,7 +54154,7 @@
       <c r="H1274" s="9"/>
       <c r="I1274"/>
       <c r="J1274" s="1" t="s">
-        <v>1754</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1275" spans="1:10" x14ac:dyDescent="0.2">
@@ -54037,7 +54179,7 @@
       <c r="H1275" s="9"/>
       <c r="I1275"/>
       <c r="J1275" s="1" t="s">
-        <v>1757</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1276" spans="1:10" x14ac:dyDescent="0.2">
@@ -54062,7 +54204,7 @@
       <c r="H1276" s="9"/>
       <c r="I1276"/>
       <c r="J1276" s="1" t="s">
-        <v>1760</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1277" spans="1:10" x14ac:dyDescent="0.2">
@@ -54087,7 +54229,7 @@
       <c r="H1277" s="9"/>
       <c r="I1277"/>
       <c r="J1277" s="1" t="s">
-        <v>1763</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1278" spans="1:10" x14ac:dyDescent="0.2">
@@ -54112,7 +54254,7 @@
       <c r="H1278" s="9"/>
       <c r="I1278"/>
       <c r="J1278" s="1" t="s">
-        <v>1766</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1279" spans="1:10" x14ac:dyDescent="0.2">
@@ -54140,7 +54282,7 @@
       <c r="H1279" s="9"/>
       <c r="I1279"/>
       <c r="J1279" s="1" t="s">
-        <v>1769</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1280" spans="1:10" x14ac:dyDescent="0.2">
@@ -54168,7 +54310,7 @@
       <c r="H1280" s="9"/>
       <c r="I1280"/>
       <c r="J1280" s="1" t="s">
-        <v>1772</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1281" spans="1:10" x14ac:dyDescent="0.2">
@@ -54193,7 +54335,7 @@
       <c r="H1281" s="9"/>
       <c r="I1281"/>
       <c r="J1281" s="1" t="s">
-        <v>1775</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1282" spans="1:10" x14ac:dyDescent="0.2">
@@ -54218,7 +54360,7 @@
       <c r="H1282" s="9"/>
       <c r="I1282"/>
       <c r="J1282" s="1" t="s">
-        <v>1778</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1283" spans="1:10" x14ac:dyDescent="0.2">
@@ -54243,7 +54385,7 @@
       <c r="H1283" s="9"/>
       <c r="I1283"/>
       <c r="J1283" s="1" t="s">
-        <v>1782</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1284" spans="1:10" x14ac:dyDescent="0.2">
@@ -54268,7 +54410,7 @@
       <c r="H1284" s="9"/>
       <c r="I1284"/>
       <c r="J1284" s="1" t="s">
-        <v>1784</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1285" spans="1:10" x14ac:dyDescent="0.2">
@@ -54293,7 +54435,7 @@
       <c r="H1285" s="9"/>
       <c r="I1285"/>
       <c r="J1285" s="1" t="s">
-        <v>1787</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1286" spans="1:10" x14ac:dyDescent="0.2">
@@ -54318,7 +54460,7 @@
       <c r="H1286" s="9"/>
       <c r="I1286"/>
       <c r="J1286" s="1" t="s">
-        <v>1791</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1287" spans="1:10" x14ac:dyDescent="0.2">
@@ -54343,7 +54485,7 @@
       <c r="H1287" s="9"/>
       <c r="I1287"/>
       <c r="J1287" s="1" t="s">
-        <v>1795</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1288" spans="1:10" x14ac:dyDescent="0.2">
@@ -54368,7 +54510,7 @@
       <c r="H1288" s="9"/>
       <c r="I1288"/>
       <c r="J1288" s="1" t="s">
-        <v>1797</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1289" spans="1:10" x14ac:dyDescent="0.2">
@@ -54393,7 +54535,7 @@
       <c r="H1289" s="9"/>
       <c r="I1289"/>
       <c r="J1289" s="1" t="s">
-        <v>1799</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1290" spans="1:10" x14ac:dyDescent="0.2">
@@ -54418,7 +54560,7 @@
       <c r="H1290" s="9"/>
       <c r="I1290"/>
       <c r="J1290" s="1" t="s">
-        <v>1803</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1291" spans="1:10" x14ac:dyDescent="0.2">
@@ -54443,7 +54585,7 @@
       <c r="H1291" s="9"/>
       <c r="I1291"/>
       <c r="J1291" s="1" t="s">
-        <v>1807</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1292" spans="1:10" x14ac:dyDescent="0.2">
@@ -54468,7 +54610,7 @@
       <c r="H1292" s="9"/>
       <c r="I1292"/>
       <c r="J1292" s="1" t="s">
-        <v>1810</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1293" spans="1:10" x14ac:dyDescent="0.2">
@@ -54493,7 +54635,7 @@
       <c r="H1293" s="9"/>
       <c r="I1293"/>
       <c r="J1293" s="1" t="s">
-        <v>1813</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1294" spans="1:10" x14ac:dyDescent="0.2">
@@ -54518,7 +54660,7 @@
       <c r="H1294" s="9"/>
       <c r="I1294"/>
       <c r="J1294" s="1" t="s">
-        <v>1816</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1295" spans="1:10" x14ac:dyDescent="0.2">
@@ -54543,7 +54685,7 @@
       <c r="H1295" s="9"/>
       <c r="I1295"/>
       <c r="J1295" s="1" t="s">
-        <v>1821</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1296" spans="1:10" x14ac:dyDescent="0.2">
@@ -54568,7 +54710,7 @@
       <c r="H1296" s="9"/>
       <c r="I1296"/>
       <c r="J1296" s="1" t="s">
-        <v>1824</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1297" spans="1:10" x14ac:dyDescent="0.2">
@@ -54593,7 +54735,7 @@
       <c r="H1297" s="9"/>
       <c r="I1297"/>
       <c r="J1297" s="1" t="s">
-        <v>1828</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1298" spans="1:10" x14ac:dyDescent="0.2">
@@ -54618,7 +54760,7 @@
       <c r="H1298" s="9"/>
       <c r="I1298"/>
       <c r="J1298" s="1" t="s">
-        <v>1832</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1299" spans="1:10" x14ac:dyDescent="0.2">
@@ -54643,7 +54785,7 @@
       <c r="H1299" s="9"/>
       <c r="I1299"/>
       <c r="J1299" s="1" t="s">
-        <v>1836</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1300" spans="1:10" x14ac:dyDescent="0.2">
@@ -54668,7 +54810,7 @@
       <c r="H1300" s="9"/>
       <c r="I1300"/>
       <c r="J1300" s="1" t="s">
-        <v>1840</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1301" spans="1:10" x14ac:dyDescent="0.2">
@@ -54693,7 +54835,7 @@
       <c r="H1301" s="9"/>
       <c r="I1301"/>
       <c r="J1301" s="1" t="s">
-        <v>1843</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1302" spans="1:10" x14ac:dyDescent="0.2">
@@ -54718,7 +54860,7 @@
       <c r="H1302" s="9"/>
       <c r="I1302"/>
       <c r="J1302" s="1" t="s">
-        <v>1846</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1303" spans="1:10" x14ac:dyDescent="0.2">
@@ -54743,7 +54885,7 @@
       <c r="H1303" s="9"/>
       <c r="I1303"/>
       <c r="J1303" s="1" t="s">
-        <v>1850</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1304" spans="1:10" x14ac:dyDescent="0.2">
@@ -54768,7 +54910,7 @@
       <c r="H1304" s="9"/>
       <c r="I1304"/>
       <c r="J1304" s="1" t="s">
-        <v>1853</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1305" spans="1:10" x14ac:dyDescent="0.2">
@@ -54793,7 +54935,7 @@
       <c r="H1305" s="9"/>
       <c r="I1305"/>
       <c r="J1305" s="1" t="s">
-        <v>1856</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1306" spans="1:10" x14ac:dyDescent="0.2">
@@ -54818,7 +54960,7 @@
       <c r="H1306" s="9"/>
       <c r="I1306"/>
       <c r="J1306" s="1" t="s">
-        <v>1859</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1307" spans="1:10" x14ac:dyDescent="0.2">
@@ -54846,7 +54988,7 @@
       <c r="H1307" s="9"/>
       <c r="I1307"/>
       <c r="J1307" s="1" t="s">
-        <v>4490</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1308" spans="1:10" x14ac:dyDescent="0.2">
@@ -54871,7 +55013,7 @@
       <c r="H1308" s="9"/>
       <c r="I1308"/>
       <c r="J1308" s="1" t="s">
-        <v>4491</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1309" spans="1:10" x14ac:dyDescent="0.2">
@@ -54896,7 +55038,7 @@
       <c r="H1309" s="9"/>
       <c r="I1309"/>
       <c r="J1309" s="1" t="s">
-        <v>4492</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1310" spans="1:10" x14ac:dyDescent="0.2">
@@ -54921,7 +55063,7 @@
       <c r="H1310" s="9"/>
       <c r="I1310"/>
       <c r="J1310" s="1" t="s">
-        <v>3348</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1311" spans="1:10" x14ac:dyDescent="0.2">
@@ -54946,7 +55088,7 @@
       <c r="H1311" s="9"/>
       <c r="I1311"/>
       <c r="J1311" s="1" t="s">
-        <v>4493</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1312" spans="1:10" x14ac:dyDescent="0.2">
@@ -54971,7 +55113,7 @@
       <c r="H1312" s="9"/>
       <c r="I1312"/>
       <c r="J1312" s="1" t="s">
-        <v>4308</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1313" spans="1:10" x14ac:dyDescent="0.2">
@@ -54996,7 +55138,7 @@
       <c r="H1313" s="9"/>
       <c r="I1313"/>
       <c r="J1313" s="1" t="s">
-        <v>4494</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1314" spans="1:10" x14ac:dyDescent="0.2">
@@ -55021,7 +55163,7 @@
       <c r="H1314" s="9"/>
       <c r="I1314"/>
       <c r="J1314" s="1" t="s">
-        <v>4495</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1315" spans="1:10" x14ac:dyDescent="0.2">
@@ -55046,7 +55188,7 @@
       <c r="H1315" s="9"/>
       <c r="I1315"/>
       <c r="J1315" s="1" t="s">
-        <v>4490</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1316" spans="1:10" x14ac:dyDescent="0.2">
@@ -55071,7 +55213,7 @@
       <c r="H1316" s="9"/>
       <c r="I1316"/>
       <c r="J1316" s="1" t="s">
-        <v>4491</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1317" spans="1:10" x14ac:dyDescent="0.2">
@@ -55096,7 +55238,7 @@
       <c r="H1317" s="9"/>
       <c r="I1317"/>
       <c r="J1317" s="1" t="s">
-        <v>1862</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1318" spans="1:10" x14ac:dyDescent="0.2">
@@ -55121,7 +55263,7 @@
       <c r="H1318" s="9"/>
       <c r="I1318"/>
       <c r="J1318" s="1" t="s">
-        <v>1865</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1319" spans="1:10" x14ac:dyDescent="0.2">
@@ -55146,7 +55288,7 @@
       <c r="H1319" s="9"/>
       <c r="I1319"/>
       <c r="J1319" s="1" t="s">
-        <v>402</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1320" spans="1:10" x14ac:dyDescent="0.2">
@@ -55171,7 +55313,7 @@
       <c r="H1320" s="9"/>
       <c r="I1320"/>
       <c r="J1320" s="1" t="s">
-        <v>107</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1321" spans="1:10" x14ac:dyDescent="0.2">
@@ -55196,7 +55338,7 @@
       <c r="H1321" s="9"/>
       <c r="I1321"/>
       <c r="J1321" s="1" t="s">
-        <v>1873</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1322" spans="1:10" x14ac:dyDescent="0.2">
@@ -55221,7 +55363,7 @@
       <c r="H1322" s="9"/>
       <c r="I1322"/>
       <c r="J1322" s="1" t="s">
-        <v>1876</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1323" spans="1:10" x14ac:dyDescent="0.2">
@@ -55246,7 +55388,7 @@
       <c r="H1323" s="9"/>
       <c r="I1323"/>
       <c r="J1323" s="1" t="s">
-        <v>1879</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1324" spans="1:10" x14ac:dyDescent="0.2">
@@ -55271,7 +55413,7 @@
       <c r="H1324" s="9"/>
       <c r="I1324"/>
       <c r="J1324" s="1" t="s">
-        <v>1883</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1325" spans="1:10" x14ac:dyDescent="0.2">
@@ -55296,7 +55438,7 @@
       <c r="H1325" s="9"/>
       <c r="I1325"/>
       <c r="J1325" s="1" t="s">
-        <v>214</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1326" spans="1:10" x14ac:dyDescent="0.2">
@@ -55321,7 +55463,7 @@
       <c r="H1326" s="9"/>
       <c r="I1326"/>
       <c r="J1326" s="1" t="s">
-        <v>1889</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1327" spans="1:10" x14ac:dyDescent="0.2">
@@ -55346,7 +55488,7 @@
       <c r="H1327" s="9"/>
       <c r="I1327"/>
       <c r="J1327" s="1" t="s">
-        <v>1891</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1328" spans="1:10" x14ac:dyDescent="0.2">
@@ -55371,7 +55513,7 @@
       <c r="H1328" s="9"/>
       <c r="I1328"/>
       <c r="J1328" s="1" t="s">
-        <v>1895</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1329" spans="1:10" x14ac:dyDescent="0.2">
@@ -55396,7 +55538,7 @@
       <c r="H1329" s="9"/>
       <c r="I1329"/>
       <c r="J1329" s="1" t="s">
-        <v>1898</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1330" spans="1:10" x14ac:dyDescent="0.2">
@@ -55421,7 +55563,7 @@
       <c r="H1330" s="9"/>
       <c r="I1330"/>
       <c r="J1330" s="1" t="s">
-        <v>1901</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1331" spans="1:10" x14ac:dyDescent="0.2">
@@ -55446,7 +55588,7 @@
       <c r="H1331" s="9"/>
       <c r="I1331"/>
       <c r="J1331" s="1" t="s">
-        <v>1905</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1332" spans="1:10" x14ac:dyDescent="0.2">
@@ -55471,7 +55613,7 @@
       <c r="H1332" s="9"/>
       <c r="I1332"/>
       <c r="J1332" s="1" t="s">
-        <v>1908</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1333" spans="1:10" x14ac:dyDescent="0.2">
@@ -55496,7 +55638,7 @@
       <c r="H1333" s="9"/>
       <c r="I1333"/>
       <c r="J1333" s="1" t="s">
-        <v>1913</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1334" spans="1:10" x14ac:dyDescent="0.2">
@@ -55521,7 +55663,7 @@
       <c r="H1334" s="9"/>
       <c r="I1334"/>
       <c r="J1334" s="1" t="s">
-        <v>1916</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1335" spans="1:10" x14ac:dyDescent="0.2">
@@ -55546,7 +55688,7 @@
       <c r="H1335" s="9"/>
       <c r="I1335"/>
       <c r="J1335" s="1" t="s">
-        <v>1920</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1336" spans="1:10" x14ac:dyDescent="0.2">
@@ -55574,7 +55716,7 @@
       <c r="H1336" s="9"/>
       <c r="I1336"/>
       <c r="J1336" s="1" t="s">
-        <v>1924</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1337" spans="1:10" x14ac:dyDescent="0.2">
@@ -55599,7 +55741,7 @@
       <c r="H1337" s="9"/>
       <c r="I1337"/>
       <c r="J1337" s="1" t="s">
-        <v>1927</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1338" spans="1:10" x14ac:dyDescent="0.2">
@@ -55624,7 +55766,7 @@
       <c r="H1338" s="9"/>
       <c r="I1338"/>
       <c r="J1338" s="1" t="s">
-        <v>1931</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1339" spans="1:10" x14ac:dyDescent="0.2">
@@ -55652,7 +55794,7 @@
       <c r="H1339" s="9"/>
       <c r="I1339"/>
       <c r="J1339" s="1" t="s">
-        <v>1935</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1340" spans="1:10" x14ac:dyDescent="0.2">
@@ -55677,7 +55819,7 @@
       <c r="H1340" s="9"/>
       <c r="I1340"/>
       <c r="J1340" s="1" t="s">
-        <v>1939</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1341" spans="1:10" x14ac:dyDescent="0.2">
@@ -55705,7 +55847,7 @@
       <c r="H1341" s="9"/>
       <c r="I1341"/>
       <c r="J1341" s="1" t="s">
-        <v>1942</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1342" spans="1:10" x14ac:dyDescent="0.2">
@@ -55730,7 +55872,7 @@
       <c r="H1342" s="9"/>
       <c r="I1342"/>
       <c r="J1342" s="1" t="s">
-        <v>1945</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1343" spans="1:10" x14ac:dyDescent="0.2">
@@ -55755,7 +55897,7 @@
       <c r="H1343" s="9"/>
       <c r="I1343"/>
       <c r="J1343" s="1" t="s">
-        <v>1949</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1344" spans="1:10" x14ac:dyDescent="0.2">
@@ -55780,7 +55922,7 @@
       <c r="H1344" s="9"/>
       <c r="I1344"/>
       <c r="J1344" s="1" t="s">
-        <v>311</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1345" spans="1:10" x14ac:dyDescent="0.2">
@@ -55805,7 +55947,7 @@
       <c r="H1345" s="9"/>
       <c r="I1345"/>
       <c r="J1345" s="1" t="s">
-        <v>1955</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1346" spans="1:10" x14ac:dyDescent="0.2">
@@ -55830,7 +55972,7 @@
       <c r="H1346" s="9"/>
       <c r="I1346"/>
       <c r="J1346" s="1" t="s">
-        <v>1958</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.2">
@@ -55855,7 +55997,7 @@
       <c r="H1347" s="9"/>
       <c r="I1347"/>
       <c r="J1347" s="1" t="s">
-        <v>1961</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1348" spans="1:10" x14ac:dyDescent="0.2">
@@ -55880,7 +56022,7 @@
       <c r="H1348" s="9"/>
       <c r="I1348"/>
       <c r="J1348" s="1" t="s">
-        <v>1965</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1349" spans="1:10" x14ac:dyDescent="0.2">
@@ -55905,7 +56047,7 @@
       <c r="H1349" s="9"/>
       <c r="I1349"/>
       <c r="J1349" s="1" t="s">
-        <v>1968</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1350" spans="1:10" x14ac:dyDescent="0.2">
@@ -55930,7 +56072,7 @@
       <c r="H1350" s="9"/>
       <c r="I1350"/>
       <c r="J1350" s="1" t="s">
-        <v>1971</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1351" spans="1:10" x14ac:dyDescent="0.2">
@@ -55955,7 +56097,7 @@
       <c r="H1351" s="9"/>
       <c r="I1351"/>
       <c r="J1351" s="1" t="s">
-        <v>1973</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1352" spans="1:10" x14ac:dyDescent="0.2">
@@ -55980,7 +56122,7 @@
       <c r="H1352" s="9"/>
       <c r="I1352"/>
       <c r="J1352" s="1" t="s">
-        <v>1976</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1353" spans="1:10" x14ac:dyDescent="0.2">
@@ -56005,7 +56147,7 @@
       <c r="H1353" s="9"/>
       <c r="I1353"/>
       <c r="J1353" s="1" t="s">
-        <v>1979</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1354" spans="1:10" x14ac:dyDescent="0.2">
@@ -56030,7 +56172,7 @@
       <c r="H1354" s="9"/>
       <c r="I1354"/>
       <c r="J1354" s="1" t="s">
-        <v>1984</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1355" spans="1:10" x14ac:dyDescent="0.2">
@@ -56055,7 +56197,7 @@
       <c r="H1355" s="9"/>
       <c r="I1355"/>
       <c r="J1355" s="1" t="s">
-        <v>1987</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1356" spans="1:10" x14ac:dyDescent="0.2">
@@ -56080,7 +56222,7 @@
       <c r="H1356" s="9"/>
       <c r="I1356"/>
       <c r="J1356" s="1" t="s">
-        <v>1990</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1357" spans="1:10" x14ac:dyDescent="0.2">
@@ -56105,7 +56247,7 @@
       <c r="H1357" s="9"/>
       <c r="I1357"/>
       <c r="J1357" s="1" t="s">
-        <v>1993</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1358" spans="1:10" x14ac:dyDescent="0.2">
@@ -56130,7 +56272,7 @@
       <c r="H1358" s="9"/>
       <c r="I1358"/>
       <c r="J1358" s="1" t="s">
-        <v>4496</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1359" spans="1:10" x14ac:dyDescent="0.2">
@@ -56155,7 +56297,7 @@
       <c r="H1359" s="9"/>
       <c r="I1359"/>
       <c r="J1359" s="1" t="s">
-        <v>4497</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1360" spans="1:10" x14ac:dyDescent="0.2">
@@ -56180,7 +56322,7 @@
       <c r="H1360" s="9"/>
       <c r="I1360"/>
       <c r="J1360" s="1" t="s">
-        <v>4498</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1361" spans="1:10" x14ac:dyDescent="0.2">
@@ -56205,7 +56347,7 @@
       <c r="H1361" s="9"/>
       <c r="I1361"/>
       <c r="J1361" s="1" t="s">
-        <v>1996</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1362" spans="1:10" x14ac:dyDescent="0.2">
@@ -56230,7 +56372,7 @@
       <c r="H1362" s="9"/>
       <c r="I1362"/>
       <c r="J1362" s="1" t="s">
-        <v>2000</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1363" spans="1:10" x14ac:dyDescent="0.2">
@@ -56255,7 +56397,7 @@
       <c r="H1363" s="9"/>
       <c r="I1363"/>
       <c r="J1363" s="1" t="s">
-        <v>2004</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1364" spans="1:10" x14ac:dyDescent="0.2">
@@ -56280,7 +56422,7 @@
       <c r="H1364" s="9"/>
       <c r="I1364"/>
       <c r="J1364" s="1" t="s">
-        <v>783</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1365" spans="1:10" x14ac:dyDescent="0.2">
@@ -56305,7 +56447,7 @@
       <c r="H1365" s="9"/>
       <c r="I1365"/>
       <c r="J1365" s="1" t="s">
-        <v>2011</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1366" spans="1:10" x14ac:dyDescent="0.2">
@@ -56330,7 +56472,7 @@
       <c r="H1366" s="9"/>
       <c r="I1366"/>
       <c r="J1366" s="1" t="s">
-        <v>2014</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.2">
@@ -56354,8 +56496,8 @@
       </c>
       <c r="H1367" s="9"/>
       <c r="I1367"/>
-      <c r="J1367" s="1">
-        <v>300</v>
+      <c r="J1367" s="1" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="1368" spans="1:10" x14ac:dyDescent="0.2">
@@ -56380,7 +56522,7 @@
       <c r="H1368" s="9"/>
       <c r="I1368"/>
       <c r="J1368" s="1" t="s">
-        <v>2021</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1369" spans="1:10" x14ac:dyDescent="0.2">
@@ -56405,7 +56547,7 @@
       <c r="H1369" s="9"/>
       <c r="I1369"/>
       <c r="J1369" s="1" t="s">
-        <v>2025</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1370" spans="1:10" x14ac:dyDescent="0.2">
@@ -56430,7 +56572,7 @@
       <c r="H1370" s="9"/>
       <c r="I1370"/>
       <c r="J1370" s="1" t="s">
-        <v>2027</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1371" spans="1:10" x14ac:dyDescent="0.2">
@@ -56455,7 +56597,7 @@
       <c r="H1371" s="9"/>
       <c r="I1371"/>
       <c r="J1371" s="1" t="s">
-        <v>2030</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1372" spans="1:10" x14ac:dyDescent="0.2">
@@ -56483,7 +56625,7 @@
       <c r="H1372" s="9"/>
       <c r="I1372"/>
       <c r="J1372" s="1" t="s">
-        <v>2033</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1373" spans="1:10" x14ac:dyDescent="0.2">
@@ -56508,7 +56650,7 @@
       <c r="H1373" s="9"/>
       <c r="I1373"/>
       <c r="J1373" s="1" t="s">
-        <v>2038</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1374" spans="1:10" x14ac:dyDescent="0.2">
@@ -56533,7 +56675,7 @@
       <c r="H1374" s="9"/>
       <c r="I1374"/>
       <c r="J1374" s="1" t="s">
-        <v>2041</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1375" spans="1:10" x14ac:dyDescent="0.2">
@@ -56558,7 +56700,7 @@
       <c r="H1375" s="9"/>
       <c r="I1375"/>
       <c r="J1375" s="1" t="s">
-        <v>2044</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1376" spans="1:10" x14ac:dyDescent="0.2">
@@ -56583,7 +56725,7 @@
       <c r="H1376" s="9"/>
       <c r="I1376"/>
       <c r="J1376" s="1" t="s">
-        <v>2048</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1377" spans="1:10" x14ac:dyDescent="0.2">
@@ -56608,7 +56750,7 @@
       <c r="H1377" s="9"/>
       <c r="I1377"/>
       <c r="J1377" s="1" t="s">
-        <v>2051</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1378" spans="1:10" x14ac:dyDescent="0.2">
@@ -56633,7 +56775,7 @@
       <c r="H1378" s="9"/>
       <c r="I1378"/>
       <c r="J1378" s="1" t="s">
-        <v>2055</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1379" spans="1:10" x14ac:dyDescent="0.2">
@@ -56658,7 +56800,7 @@
       <c r="H1379" s="9"/>
       <c r="I1379"/>
       <c r="J1379" s="1" t="s">
-        <v>2059</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1380" spans="1:10" x14ac:dyDescent="0.2">
@@ -56686,7 +56828,7 @@
       <c r="H1380" s="9"/>
       <c r="I1380"/>
       <c r="J1380" s="1" t="s">
-        <v>2061</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1381" spans="1:10" x14ac:dyDescent="0.2">
@@ -56711,7 +56853,7 @@
       <c r="H1381" s="9"/>
       <c r="I1381"/>
       <c r="J1381" s="1" t="s">
-        <v>2064</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1382" spans="1:10" x14ac:dyDescent="0.2">
@@ -56736,7 +56878,7 @@
       <c r="H1382" s="9"/>
       <c r="I1382"/>
       <c r="J1382" s="1" t="s">
-        <v>2068</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1383" spans="1:10" x14ac:dyDescent="0.2">
@@ -56761,7 +56903,7 @@
       <c r="H1383" s="9"/>
       <c r="I1383"/>
       <c r="J1383" s="1" t="s">
-        <v>2071</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1384" spans="1:10" x14ac:dyDescent="0.2">
@@ -56786,7 +56928,7 @@
       <c r="H1384" s="9"/>
       <c r="I1384"/>
       <c r="J1384" s="1" t="s">
-        <v>2074</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1385" spans="1:10" x14ac:dyDescent="0.2">
@@ -56814,7 +56956,7 @@
       <c r="H1385" s="9"/>
       <c r="I1385"/>
       <c r="J1385" s="1" t="s">
-        <v>2077</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1386" spans="1:10" x14ac:dyDescent="0.2">
@@ -56839,7 +56981,7 @@
       <c r="H1386" s="9"/>
       <c r="I1386"/>
       <c r="J1386" s="1" t="s">
-        <v>2081</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1387" spans="1:10" x14ac:dyDescent="0.2">
@@ -56864,7 +57006,7 @@
       <c r="H1387" s="9"/>
       <c r="I1387"/>
       <c r="J1387" s="1" t="s">
-        <v>2084</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1388" spans="1:10" x14ac:dyDescent="0.2">
@@ -56892,7 +57034,7 @@
       <c r="H1388" s="9"/>
       <c r="I1388"/>
       <c r="J1388" s="1" t="s">
-        <v>2088</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1389" spans="1:10" x14ac:dyDescent="0.2">
@@ -56920,7 +57062,7 @@
       <c r="H1389" s="9"/>
       <c r="I1389"/>
       <c r="J1389" s="1" t="s">
-        <v>2091</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.2">
@@ -56945,7 +57087,7 @@
       <c r="H1390" s="9"/>
       <c r="I1390"/>
       <c r="J1390" s="1" t="s">
-        <v>2095</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1391" spans="1:10" x14ac:dyDescent="0.2">
@@ -56970,7 +57112,7 @@
       <c r="H1391" s="9"/>
       <c r="I1391"/>
       <c r="J1391" s="1" t="s">
-        <v>2097</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1392" spans="1:10" x14ac:dyDescent="0.2">
@@ -56995,7 +57137,7 @@
       <c r="H1392" s="9"/>
       <c r="I1392"/>
       <c r="J1392" s="1" t="s">
-        <v>2100</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1393" spans="1:10" x14ac:dyDescent="0.2">
@@ -57023,7 +57165,7 @@
       <c r="H1393" s="9"/>
       <c r="I1393"/>
       <c r="J1393" s="1" t="s">
-        <v>2104</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.2">
@@ -57048,7 +57190,7 @@
       <c r="H1394" s="9"/>
       <c r="I1394"/>
       <c r="J1394" s="1" t="s">
-        <v>2107</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.2">
@@ -57073,7 +57215,7 @@
       <c r="H1395" s="9"/>
       <c r="I1395"/>
       <c r="J1395" s="1" t="s">
-        <v>2110</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1396" spans="1:10" x14ac:dyDescent="0.2">
@@ -57098,7 +57240,7 @@
       <c r="H1396" s="9"/>
       <c r="I1396"/>
       <c r="J1396" s="1" t="s">
-        <v>2113</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1397" spans="1:10" x14ac:dyDescent="0.2">
@@ -57123,7 +57265,7 @@
       <c r="H1397" s="9"/>
       <c r="I1397"/>
       <c r="J1397" s="1" t="s">
-        <v>2116</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1398" spans="1:10" x14ac:dyDescent="0.2">
@@ -57148,7 +57290,7 @@
       <c r="H1398" s="9"/>
       <c r="I1398"/>
       <c r="J1398" s="1" t="s">
-        <v>2121</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1399" spans="1:10" x14ac:dyDescent="0.2">
@@ -57173,7 +57315,7 @@
       <c r="H1399" s="9"/>
       <c r="I1399"/>
       <c r="J1399" s="1" t="s">
-        <v>977</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1400" spans="1:10" x14ac:dyDescent="0.2">
@@ -57198,7 +57340,7 @@
       <c r="H1400" s="9"/>
       <c r="I1400"/>
       <c r="J1400" s="1" t="s">
-        <v>2127</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1401" spans="1:10" x14ac:dyDescent="0.2">
@@ -57223,7 +57365,7 @@
       <c r="H1401" s="9"/>
       <c r="I1401"/>
       <c r="J1401" s="1" t="s">
-        <v>2130</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.2">
@@ -57248,7 +57390,7 @@
       <c r="H1402" s="9"/>
       <c r="I1402"/>
       <c r="J1402" s="1" t="s">
-        <v>2133</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1403" spans="1:10" x14ac:dyDescent="0.2">
@@ -57273,7 +57415,7 @@
       <c r="H1403" s="9"/>
       <c r="I1403"/>
       <c r="J1403" s="1" t="s">
-        <v>2136</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1404" spans="1:10" x14ac:dyDescent="0.2">
@@ -57298,7 +57440,7 @@
       <c r="H1404" s="9"/>
       <c r="I1404"/>
       <c r="J1404" s="1" t="s">
-        <v>2139</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1405" spans="1:10" x14ac:dyDescent="0.2">
@@ -57326,7 +57468,7 @@
       <c r="H1405" s="9"/>
       <c r="I1405"/>
       <c r="J1405" s="1" t="s">
-        <v>2142</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1406" spans="1:10" x14ac:dyDescent="0.2">
@@ -57351,7 +57493,7 @@
       <c r="H1406" s="9"/>
       <c r="I1406"/>
       <c r="J1406" s="1" t="s">
-        <v>2146</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1407" spans="1:10" x14ac:dyDescent="0.2">
@@ -57376,7 +57518,7 @@
       <c r="H1407" s="9"/>
       <c r="I1407"/>
       <c r="J1407" s="1" t="s">
-        <v>2150</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1408" spans="1:10" x14ac:dyDescent="0.2">
@@ -57401,7 +57543,7 @@
       <c r="H1408" s="9"/>
       <c r="I1408"/>
       <c r="J1408" s="1" t="s">
-        <v>2154</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1409" spans="1:10" x14ac:dyDescent="0.2">
@@ -57426,7 +57568,7 @@
       <c r="H1409" s="9"/>
       <c r="I1409"/>
       <c r="J1409" s="1" t="s">
-        <v>2158</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1410" spans="1:10" x14ac:dyDescent="0.2">
@@ -57451,7 +57593,7 @@
       <c r="H1410" s="9"/>
       <c r="I1410"/>
       <c r="J1410" s="1" t="s">
-        <v>2162</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.2">
@@ -57476,7 +57618,7 @@
       <c r="H1411" s="9"/>
       <c r="I1411"/>
       <c r="J1411" s="1" t="s">
-        <v>2166</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1412" spans="1:10" x14ac:dyDescent="0.2">
@@ -57501,7 +57643,7 @@
       <c r="H1412" s="9"/>
       <c r="I1412"/>
       <c r="J1412" s="1" t="s">
-        <v>2169</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1413" spans="1:10" x14ac:dyDescent="0.2">
@@ -57526,7 +57668,7 @@
       <c r="H1413" s="9"/>
       <c r="I1413"/>
       <c r="J1413" s="1" t="s">
-        <v>2173</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.2">
@@ -57551,7 +57693,7 @@
       <c r="H1414" s="9"/>
       <c r="I1414"/>
       <c r="J1414" s="1" t="s">
-        <v>2176</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1415" spans="1:10" x14ac:dyDescent="0.2">
@@ -57576,7 +57718,7 @@
       <c r="H1415" s="9"/>
       <c r="I1415"/>
       <c r="J1415" s="1" t="s">
-        <v>2179</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1416" spans="1:10" x14ac:dyDescent="0.2">
@@ -57601,7 +57743,7 @@
       <c r="H1416" s="9"/>
       <c r="I1416"/>
       <c r="J1416" s="1" t="s">
-        <v>2183</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1417" spans="1:10" x14ac:dyDescent="0.2">
@@ -57626,7 +57768,7 @@
       <c r="H1417" s="9"/>
       <c r="I1417"/>
       <c r="J1417" s="1" t="s">
-        <v>2186</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1418" spans="1:10" x14ac:dyDescent="0.2">
@@ -57651,7 +57793,7 @@
       <c r="H1418" s="9"/>
       <c r="I1418"/>
       <c r="J1418" s="1" t="s">
-        <v>2190</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1419" spans="1:10" x14ac:dyDescent="0.2">
@@ -57676,7 +57818,7 @@
       <c r="H1419" s="9"/>
       <c r="I1419"/>
       <c r="J1419" s="1" t="s">
-        <v>3593</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1420" spans="1:10" x14ac:dyDescent="0.2">
@@ -57701,7 +57843,7 @@
       <c r="H1420" s="9"/>
       <c r="I1420"/>
       <c r="J1420" s="1" t="s">
-        <v>4499</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1421" spans="1:10" x14ac:dyDescent="0.2">
@@ -57726,7 +57868,7 @@
       <c r="H1421" s="9"/>
       <c r="I1421"/>
       <c r="J1421" s="1" t="s">
-        <v>3540</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1422" spans="1:10" x14ac:dyDescent="0.2">
@@ -57751,7 +57893,7 @@
       <c r="H1422" s="9"/>
       <c r="I1422"/>
       <c r="J1422" s="1" t="s">
-        <v>3631</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1423" spans="1:10" x14ac:dyDescent="0.2">
@@ -57776,7 +57918,7 @@
       <c r="H1423" s="9"/>
       <c r="I1423"/>
       <c r="J1423" s="1" t="s">
-        <v>4500</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1424" spans="1:10" x14ac:dyDescent="0.2">
@@ -57801,7 +57943,7 @@
       <c r="H1424" s="9"/>
       <c r="I1424"/>
       <c r="J1424" s="1" t="s">
-        <v>4501</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1425" spans="1:10" x14ac:dyDescent="0.2">
@@ -57826,7 +57968,7 @@
       <c r="H1425" s="9"/>
       <c r="I1425"/>
       <c r="J1425" s="1" t="s">
-        <v>4502</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.2">
@@ -57851,7 +57993,7 @@
       <c r="H1426" s="9"/>
       <c r="I1426"/>
       <c r="J1426" s="1" t="s">
-        <v>4503</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.2">
@@ -57876,7 +58018,7 @@
       <c r="H1427" s="9"/>
       <c r="I1427"/>
       <c r="J1427" s="1" t="s">
-        <v>3562</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1428" spans="1:10" x14ac:dyDescent="0.2">
@@ -57901,7 +58043,7 @@
       <c r="H1428" s="9"/>
       <c r="I1428"/>
       <c r="J1428" s="1" t="s">
-        <v>3593</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.2">
@@ -57926,7 +58068,7 @@
       <c r="H1429" s="9"/>
       <c r="I1429"/>
       <c r="J1429" s="1" t="s">
-        <v>2193</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.2">
@@ -57951,7 +58093,7 @@
       <c r="H1430" s="9"/>
       <c r="I1430"/>
       <c r="J1430" s="1" t="s">
-        <v>2196</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.2">
@@ -57976,7 +58118,7 @@
       <c r="H1431" s="9"/>
       <c r="I1431"/>
       <c r="J1431" s="1" t="s">
-        <v>2199</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.2">
@@ -58004,7 +58146,7 @@
       <c r="H1432" s="9"/>
       <c r="I1432"/>
       <c r="J1432" s="1" t="s">
-        <v>2202</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.2">
@@ -58029,7 +58171,7 @@
       <c r="H1433" s="9"/>
       <c r="I1433"/>
       <c r="J1433" s="1" t="s">
-        <v>2206</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.2">
@@ -58054,7 +58196,7 @@
       <c r="H1434" s="9"/>
       <c r="I1434"/>
       <c r="J1434" s="1" t="s">
-        <v>2209</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.2">
@@ -58078,8 +58220,8 @@
       </c>
       <c r="H1435" s="9"/>
       <c r="I1435"/>
-      <c r="J1435" s="1" t="s">
-        <v>2213</v>
+      <c r="J1435" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.2">
@@ -58104,7 +58246,7 @@
       <c r="H1436" s="9"/>
       <c r="I1436"/>
       <c r="J1436" s="1" t="s">
-        <v>2216</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.2">
@@ -58129,7 +58271,7 @@
       <c r="H1437" s="9"/>
       <c r="I1437"/>
       <c r="J1437" s="1" t="s">
-        <v>2219</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1438" spans="1:10" x14ac:dyDescent="0.2">
@@ -58154,7 +58296,7 @@
       <c r="H1438" s="9"/>
       <c r="I1438"/>
       <c r="J1438" s="1" t="s">
-        <v>2224</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.2">
@@ -58179,7 +58321,7 @@
       <c r="H1439" s="9"/>
       <c r="I1439"/>
       <c r="J1439" s="1" t="s">
-        <v>2228</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.2">
@@ -58207,7 +58349,7 @@
       <c r="H1440" s="9"/>
       <c r="I1440"/>
       <c r="J1440" s="1" t="s">
-        <v>2231</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.2">
@@ -58232,7 +58374,7 @@
       <c r="H1441" s="9"/>
       <c r="I1441"/>
       <c r="J1441" s="1" t="s">
-        <v>2234</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.2">
@@ -58257,7 +58399,7 @@
       <c r="H1442" s="9"/>
       <c r="I1442"/>
       <c r="J1442" s="1" t="s">
-        <v>2237</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.2">
@@ -58282,7 +58424,7 @@
       <c r="H1443" s="9"/>
       <c r="I1443"/>
       <c r="J1443" s="1" t="s">
-        <v>2241</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.2">
@@ -58307,7 +58449,7 @@
       <c r="H1444" s="9"/>
       <c r="I1444"/>
       <c r="J1444" s="1" t="s">
-        <v>2244</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.2">
@@ -58332,7 +58474,7 @@
       <c r="H1445" s="9"/>
       <c r="I1445"/>
       <c r="J1445" s="1" t="s">
-        <v>2248</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.2">
@@ -58357,7 +58499,7 @@
       <c r="H1446" s="9"/>
       <c r="I1446"/>
       <c r="J1446" s="1" t="s">
-        <v>2252</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.2">
@@ -58382,7 +58524,7 @@
       <c r="H1447" s="9"/>
       <c r="I1447"/>
       <c r="J1447" s="1" t="s">
-        <v>2255</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.2">
@@ -58410,7 +58552,7 @@
       <c r="H1448" s="9"/>
       <c r="I1448"/>
       <c r="J1448" s="1" t="s">
-        <v>2258</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.2">
@@ -58435,7 +58577,7 @@
       <c r="H1449" s="9"/>
       <c r="I1449"/>
       <c r="J1449" s="1" t="s">
-        <v>2262</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1450" spans="1:10" x14ac:dyDescent="0.2">
@@ -58460,7 +58602,7 @@
       <c r="H1450" s="9"/>
       <c r="I1450"/>
       <c r="J1450" s="1" t="s">
-        <v>2266</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.2">
@@ -58485,7 +58627,7 @@
       <c r="H1451" s="9"/>
       <c r="I1451"/>
       <c r="J1451" s="1" t="s">
-        <v>2269</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.2">
@@ -58510,7 +58652,7 @@
       <c r="H1452" s="9"/>
       <c r="I1452"/>
       <c r="J1452" s="1" t="s">
-        <v>2273</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1453" spans="1:10" x14ac:dyDescent="0.2">
@@ -58535,7 +58677,7 @@
       <c r="H1453" s="9"/>
       <c r="I1453"/>
       <c r="J1453" s="1" t="s">
-        <v>2276</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1454" spans="1:10" x14ac:dyDescent="0.2">
@@ -58560,7 +58702,7 @@
       <c r="H1454" s="9"/>
       <c r="I1454"/>
       <c r="J1454" s="1" t="s">
-        <v>2280</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1455" spans="1:10" x14ac:dyDescent="0.2">
@@ -58585,7 +58727,7 @@
       <c r="H1455" s="9"/>
       <c r="I1455"/>
       <c r="J1455" s="1" t="s">
-        <v>2284</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1456" spans="1:10" x14ac:dyDescent="0.2">
@@ -58610,7 +58752,7 @@
       <c r="H1456" s="9"/>
       <c r="I1456"/>
       <c r="J1456" s="1" t="s">
-        <v>2289</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1457" spans="1:10" x14ac:dyDescent="0.2">
@@ -58635,7 +58777,7 @@
       <c r="H1457" s="9"/>
       <c r="I1457"/>
       <c r="J1457" s="1" t="s">
-        <v>2292</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.2">
@@ -58660,7 +58802,7 @@
       <c r="H1458" s="9"/>
       <c r="I1458"/>
       <c r="J1458" s="1" t="s">
-        <v>2296</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1459" spans="1:10" x14ac:dyDescent="0.2">
@@ -58685,7 +58827,7 @@
       <c r="H1459" s="9"/>
       <c r="I1459"/>
       <c r="J1459" s="1" t="s">
-        <v>2299</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1460" spans="1:10" x14ac:dyDescent="0.2">
@@ -58710,7 +58852,7 @@
       <c r="H1460" s="9"/>
       <c r="I1460"/>
       <c r="J1460" s="1" t="s">
-        <v>2303</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1461" spans="1:10" x14ac:dyDescent="0.2">
@@ -58735,7 +58877,7 @@
       <c r="H1461" s="9"/>
       <c r="I1461"/>
       <c r="J1461" s="1" t="s">
-        <v>2306</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.2">
@@ -58760,7 +58902,7 @@
       <c r="H1462" s="9"/>
       <c r="I1462"/>
       <c r="J1462" s="1" t="s">
-        <v>2309</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.2">
@@ -58785,7 +58927,7 @@
       <c r="H1463" s="9"/>
       <c r="I1463"/>
       <c r="J1463" s="1" t="s">
-        <v>2312</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.2">
@@ -58810,7 +58952,7 @@
       <c r="H1464" s="9"/>
       <c r="I1464"/>
       <c r="J1464" s="1" t="s">
-        <v>2315</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.2">
@@ -58835,7 +58977,7 @@
       <c r="H1465" s="9"/>
       <c r="I1465"/>
       <c r="J1465" s="1" t="s">
-        <v>2318</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.2">
@@ -58860,7 +59002,7 @@
       <c r="H1466" s="9"/>
       <c r="I1466"/>
       <c r="J1466" s="1" t="s">
-        <v>2322</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1467" spans="1:10" x14ac:dyDescent="0.2">
@@ -58885,7 +59027,7 @@
       <c r="H1467" s="9"/>
       <c r="I1467"/>
       <c r="J1467" s="1" t="s">
-        <v>2326</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.2">
@@ -58910,7 +59052,7 @@
       <c r="H1468" s="9"/>
       <c r="I1468"/>
       <c r="J1468" s="1" t="s">
-        <v>2329</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.2">
@@ -58935,7 +59077,7 @@
       <c r="H1469" s="9"/>
       <c r="I1469"/>
       <c r="J1469" s="1" t="s">
-        <v>2332</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1470" spans="1:10" x14ac:dyDescent="0.2">
@@ -58960,7 +59102,7 @@
       <c r="H1470" s="9"/>
       <c r="I1470"/>
       <c r="J1470" s="1" t="s">
-        <v>2336</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1471" spans="1:10" x14ac:dyDescent="0.2">
@@ -58985,7 +59127,7 @@
       <c r="H1471" s="9"/>
       <c r="I1471"/>
       <c r="J1471" s="1" t="s">
-        <v>4504</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1472" spans="1:10" x14ac:dyDescent="0.2">
@@ -59013,7 +59155,7 @@
       <c r="H1472" s="9"/>
       <c r="I1472"/>
       <c r="J1472" s="1" t="s">
-        <v>3751</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.2">
@@ -59038,7 +59180,7 @@
       <c r="H1473" s="9"/>
       <c r="I1473"/>
       <c r="J1473" s="1" t="s">
-        <v>2339</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1474" spans="1:10" x14ac:dyDescent="0.2">
@@ -59063,7 +59205,7 @@
       <c r="H1474" s="9"/>
       <c r="I1474"/>
       <c r="J1474" s="1" t="s">
-        <v>2342</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1475" spans="1:10" x14ac:dyDescent="0.2">
@@ -59091,7 +59233,7 @@
       <c r="H1475" s="9"/>
       <c r="I1475"/>
       <c r="J1475" s="1" t="s">
-        <v>2345</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1476" spans="1:10" x14ac:dyDescent="0.2">
@@ -59116,7 +59258,7 @@
       <c r="H1476" s="9"/>
       <c r="I1476"/>
       <c r="J1476" s="1" t="s">
-        <v>2348</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1477" spans="1:10" x14ac:dyDescent="0.2">
@@ -59141,7 +59283,7 @@
       <c r="H1477" s="9"/>
       <c r="I1477"/>
       <c r="J1477" s="1" t="s">
-        <v>2351</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.2">
@@ -59166,7 +59308,7 @@
       <c r="H1478" s="9"/>
       <c r="I1478"/>
       <c r="J1478" s="1" t="s">
-        <v>2353</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1479" spans="1:10" x14ac:dyDescent="0.2">
@@ -59191,7 +59333,7 @@
       <c r="H1479" s="9"/>
       <c r="I1479"/>
       <c r="J1479" s="1" t="s">
-        <v>2357</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.2">
@@ -59216,7 +59358,7 @@
       <c r="H1480" s="9"/>
       <c r="I1480"/>
       <c r="J1480" s="1" t="s">
-        <v>2360</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1481" spans="1:10" x14ac:dyDescent="0.2">
@@ -59241,7 +59383,7 @@
       <c r="H1481" s="9"/>
       <c r="I1481"/>
       <c r="J1481" s="1" t="s">
-        <v>2363</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1482" spans="1:10" x14ac:dyDescent="0.2">
@@ -59266,7 +59408,7 @@
       <c r="H1482" s="9"/>
       <c r="I1482"/>
       <c r="J1482" s="1" t="s">
-        <v>2366</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1483" spans="1:10" x14ac:dyDescent="0.2">
@@ -59294,7 +59436,7 @@
       <c r="H1483" s="9"/>
       <c r="I1483"/>
       <c r="J1483" s="1" t="s">
-        <v>2369</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1484" spans="1:10" x14ac:dyDescent="0.2">
@@ -59319,7 +59461,7 @@
       <c r="H1484" s="9"/>
       <c r="I1484"/>
       <c r="J1484" s="1" t="s">
-        <v>2372</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1485" spans="1:10" x14ac:dyDescent="0.2">
@@ -59344,7 +59486,7 @@
       <c r="H1485" s="9"/>
       <c r="I1485"/>
       <c r="J1485" s="1" t="s">
-        <v>2376</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1486" spans="1:10" x14ac:dyDescent="0.2">
@@ -59369,7 +59511,7 @@
       <c r="H1486" s="9"/>
       <c r="I1486"/>
       <c r="J1486" s="1" t="s">
-        <v>2379</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1487" spans="1:10" x14ac:dyDescent="0.2">
@@ -59394,7 +59536,7 @@
       <c r="H1487" s="9"/>
       <c r="I1487"/>
       <c r="J1487" s="1" t="s">
-        <v>2382</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1488" spans="1:10" x14ac:dyDescent="0.2">
@@ -59419,7 +59561,7 @@
       <c r="H1488" s="9"/>
       <c r="I1488"/>
       <c r="J1488" s="1" t="s">
-        <v>2387</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1489" spans="1:10" x14ac:dyDescent="0.2">
@@ -59444,7 +59586,7 @@
       <c r="H1489" s="9"/>
       <c r="I1489"/>
       <c r="J1489" s="1" t="s">
-        <v>2390</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1490" spans="1:10" x14ac:dyDescent="0.2">
@@ -59469,7 +59611,7 @@
       <c r="H1490" s="9"/>
       <c r="I1490"/>
       <c r="J1490" s="1" t="s">
-        <v>2393</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1491" spans="1:10" x14ac:dyDescent="0.2">
@@ -59494,7 +59636,7 @@
       <c r="H1491" s="9"/>
       <c r="I1491"/>
       <c r="J1491" s="1" t="s">
-        <v>2396</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1492" spans="1:10" x14ac:dyDescent="0.2">
@@ -59519,7 +59661,7 @@
       <c r="H1492" s="9"/>
       <c r="I1492"/>
       <c r="J1492" s="1" t="s">
-        <v>2399</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1493" spans="1:10" x14ac:dyDescent="0.2">
@@ -59544,7 +59686,7 @@
       <c r="H1493" s="9"/>
       <c r="I1493"/>
       <c r="J1493" s="1" t="s">
-        <v>2403</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.2">
@@ -59569,7 +59711,7 @@
       <c r="H1494" s="9"/>
       <c r="I1494"/>
       <c r="J1494" s="1" t="s">
-        <v>2406</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1495" spans="1:10" x14ac:dyDescent="0.2">
@@ -59594,7 +59736,7 @@
       <c r="H1495" s="9"/>
       <c r="I1495"/>
       <c r="J1495" s="1" t="s">
-        <v>2410</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="1496" spans="1:10" x14ac:dyDescent="0.2">
@@ -59619,7 +59761,7 @@
       <c r="H1496" s="9"/>
       <c r="I1496"/>
       <c r="J1496" s="1" t="s">
-        <v>570</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1497" spans="1:10" x14ac:dyDescent="0.2">
@@ -59644,7 +59786,7 @@
       <c r="H1497" s="9"/>
       <c r="I1497"/>
       <c r="J1497" s="1" t="s">
-        <v>357</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1498" spans="1:10" x14ac:dyDescent="0.2">
@@ -59669,7 +59811,7 @@
       <c r="H1498" s="9"/>
       <c r="I1498"/>
       <c r="J1498" s="1" t="s">
-        <v>2417</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1499" spans="1:10" x14ac:dyDescent="0.2">
@@ -59694,7 +59836,7 @@
       <c r="H1499" s="9"/>
       <c r="I1499"/>
       <c r="J1499" s="1" t="s">
-        <v>2420</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1500" spans="1:10" x14ac:dyDescent="0.2">
@@ -59719,7 +59861,7 @@
       <c r="H1500" s="9"/>
       <c r="I1500"/>
       <c r="J1500" s="1" t="s">
-        <v>2424</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1501" spans="1:10" x14ac:dyDescent="0.2">
@@ -59744,7 +59886,7 @@
       <c r="H1501" s="9"/>
       <c r="I1501"/>
       <c r="J1501" s="1" t="s">
-        <v>2429</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1502" spans="1:10" x14ac:dyDescent="0.2">
@@ -59769,7 +59911,7 @@
       <c r="H1502" s="9"/>
       <c r="I1502"/>
       <c r="J1502" s="1" t="s">
-        <v>2433</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.2">
@@ -59794,7 +59936,7 @@
       <c r="H1503" s="9"/>
       <c r="I1503"/>
       <c r="J1503" s="1" t="s">
-        <v>2436</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1504" spans="1:10" x14ac:dyDescent="0.2">
@@ -59819,7 +59961,7 @@
       <c r="H1504" s="9"/>
       <c r="I1504"/>
       <c r="J1504" s="1" t="s">
-        <v>2440</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.2">
@@ -59844,7 +59986,7 @@
       <c r="H1505" s="9"/>
       <c r="I1505"/>
       <c r="J1505" s="1" t="s">
-        <v>2443</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1506" spans="1:10" x14ac:dyDescent="0.2">
@@ -59869,7 +60011,7 @@
       <c r="H1506" s="9"/>
       <c r="I1506"/>
       <c r="J1506" s="1" t="s">
-        <v>2446</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1507" spans="1:10" x14ac:dyDescent="0.2">
@@ -59894,7 +60036,7 @@
       <c r="H1507" s="9"/>
       <c r="I1507"/>
       <c r="J1507" s="1" t="s">
-        <v>2450</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1508" spans="1:10" x14ac:dyDescent="0.2">
@@ -59919,7 +60061,7 @@
       <c r="H1508" s="9"/>
       <c r="I1508"/>
       <c r="J1508" s="1" t="s">
-        <v>2454</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1509" spans="1:10" x14ac:dyDescent="0.2">
@@ -59944,7 +60086,7 @@
       <c r="H1509" s="9"/>
       <c r="I1509"/>
       <c r="J1509" s="1" t="s">
-        <v>2458</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1510" spans="1:10" x14ac:dyDescent="0.2">
@@ -59969,7 +60111,7 @@
       <c r="H1510" s="9"/>
       <c r="I1510"/>
       <c r="J1510" s="1" t="s">
-        <v>4505</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1511" spans="1:10" x14ac:dyDescent="0.2">
@@ -59994,7 +60136,7 @@
       <c r="H1511" s="9"/>
       <c r="I1511"/>
       <c r="J1511" s="1" t="s">
-        <v>4506</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1512" spans="1:10" x14ac:dyDescent="0.2">
@@ -60019,7 +60161,7 @@
       <c r="H1512" s="9"/>
       <c r="I1512"/>
       <c r="J1512" s="1" t="s">
-        <v>4507</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1513" spans="1:10" x14ac:dyDescent="0.2">
@@ -60044,7 +60186,7 @@
       <c r="H1513" s="9"/>
       <c r="I1513"/>
       <c r="J1513" s="1" t="s">
-        <v>4508</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1514" spans="1:10" x14ac:dyDescent="0.2">
@@ -60072,7 +60214,7 @@
       <c r="H1514" s="9"/>
       <c r="I1514"/>
       <c r="J1514" s="1" t="s">
-        <v>4308</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1515" spans="1:10" x14ac:dyDescent="0.2">
@@ -60097,7 +60239,7 @@
       <c r="H1515" s="9"/>
       <c r="I1515"/>
       <c r="J1515" s="1" t="s">
-        <v>4509</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1516" spans="1:10" x14ac:dyDescent="0.2">
@@ -60122,7 +60264,7 @@
       <c r="H1516" s="9"/>
       <c r="I1516"/>
       <c r="J1516" s="1" t="s">
-        <v>2461</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1517" spans="1:10" x14ac:dyDescent="0.2">
@@ -60147,7 +60289,7 @@
       <c r="H1517" s="9"/>
       <c r="I1517"/>
       <c r="J1517" s="1" t="s">
-        <v>2466</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1518" spans="1:10" x14ac:dyDescent="0.2">
@@ -60172,7 +60314,7 @@
       <c r="H1518" s="9"/>
       <c r="I1518"/>
       <c r="J1518" s="1" t="s">
-        <v>2469</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1519" spans="1:10" x14ac:dyDescent="0.2">
@@ -60197,7 +60339,7 @@
       <c r="H1519" s="9"/>
       <c r="I1519"/>
       <c r="J1519" s="1" t="s">
-        <v>2472</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1520" spans="1:10" x14ac:dyDescent="0.2">
@@ -60221,8 +60363,8 @@
       </c>
       <c r="H1520" s="9"/>
       <c r="I1520"/>
-      <c r="J1520" s="1">
-        <v>2012</v>
+      <c r="J1520" s="1" t="s">
+        <v>2273</v>
       </c>
     </row>
     <row r="1521" spans="1:10" x14ac:dyDescent="0.2">
@@ -60250,7 +60392,7 @@
       <c r="H1521" s="9"/>
       <c r="I1521"/>
       <c r="J1521" s="1" t="s">
-        <v>2478</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1522" spans="1:10" x14ac:dyDescent="0.2">
@@ -60278,7 +60420,7 @@
       <c r="H1522" s="9"/>
       <c r="I1522"/>
       <c r="J1522" s="1" t="s">
-        <v>2481</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1523" spans="1:10" x14ac:dyDescent="0.2">
@@ -60306,7 +60448,7 @@
       <c r="H1523" s="9"/>
       <c r="I1523"/>
       <c r="J1523" s="1" t="s">
-        <v>2485</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1524" spans="1:10" x14ac:dyDescent="0.2">
@@ -60334,7 +60476,7 @@
       <c r="H1524" s="9"/>
       <c r="I1524"/>
       <c r="J1524" s="1" t="s">
-        <v>2488</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1525" spans="1:10" x14ac:dyDescent="0.2">
@@ -60359,7 +60501,7 @@
       <c r="H1525" s="9"/>
       <c r="I1525"/>
       <c r="J1525" s="1" t="s">
-        <v>2491</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1526" spans="1:10" x14ac:dyDescent="0.2">
@@ -60384,7 +60526,7 @@
       <c r="H1526" s="9"/>
       <c r="I1526"/>
       <c r="J1526" s="1" t="s">
-        <v>2494</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1527" spans="1:10" x14ac:dyDescent="0.2">
@@ -60412,7 +60554,7 @@
       <c r="H1527" s="9"/>
       <c r="I1527"/>
       <c r="J1527" s="1" t="s">
-        <v>2498</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1528" spans="1:10" x14ac:dyDescent="0.2">
@@ -60437,7 +60579,7 @@
       <c r="H1528" s="9"/>
       <c r="I1528"/>
       <c r="J1528" s="1" t="s">
-        <v>2502</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1529" spans="1:10" x14ac:dyDescent="0.2">
@@ -60462,7 +60604,7 @@
       <c r="H1529" s="9"/>
       <c r="I1529"/>
       <c r="J1529" s="1" t="s">
-        <v>2506</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1530" spans="1:10" x14ac:dyDescent="0.2">
@@ -60487,7 +60629,7 @@
       <c r="H1530" s="9"/>
       <c r="I1530"/>
       <c r="J1530" s="1" t="s">
-        <v>2509</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1531" spans="1:10" x14ac:dyDescent="0.2">
@@ -60512,7 +60654,7 @@
       <c r="H1531" s="9"/>
       <c r="I1531"/>
       <c r="J1531" s="1" t="s">
-        <v>2513</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1532" spans="1:10" x14ac:dyDescent="0.2">
@@ -60537,7 +60679,7 @@
       <c r="H1532" s="9"/>
       <c r="I1532"/>
       <c r="J1532" s="1" t="s">
-        <v>2516</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1533" spans="1:10" x14ac:dyDescent="0.2">
@@ -60562,7 +60704,7 @@
       <c r="H1533" s="9"/>
       <c r="I1533"/>
       <c r="J1533" s="1" t="s">
-        <v>2520</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1534" spans="1:10" x14ac:dyDescent="0.2">
@@ -60590,7 +60732,7 @@
       <c r="H1534" s="9"/>
       <c r="I1534"/>
       <c r="J1534" s="1" t="s">
-        <v>2525</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1535" spans="1:10" x14ac:dyDescent="0.2">
@@ -60615,7 +60757,7 @@
       <c r="H1535" s="9"/>
       <c r="I1535"/>
       <c r="J1535" s="1" t="s">
-        <v>2528</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1536" spans="1:10" x14ac:dyDescent="0.2">
@@ -60640,7 +60782,7 @@
       <c r="H1536" s="9"/>
       <c r="I1536"/>
       <c r="J1536" s="1" t="s">
-        <v>2532</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1537" spans="1:10" x14ac:dyDescent="0.2">
@@ -60668,7 +60810,7 @@
       <c r="H1537" s="9"/>
       <c r="I1537"/>
       <c r="J1537" s="1" t="s">
-        <v>2536</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1538" spans="1:10" x14ac:dyDescent="0.2">
@@ -60693,7 +60835,7 @@
       <c r="H1538" s="9"/>
       <c r="I1538"/>
       <c r="J1538" s="1" t="s">
-        <v>2540</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1539" spans="1:10" x14ac:dyDescent="0.2">
@@ -60718,7 +60860,7 @@
       <c r="H1539" s="9"/>
       <c r="I1539"/>
       <c r="J1539" s="1" t="s">
-        <v>2544</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1540" spans="1:10" x14ac:dyDescent="0.2">
@@ -60743,7 +60885,7 @@
       <c r="H1540" s="9"/>
       <c r="I1540"/>
       <c r="J1540" s="1" t="s">
-        <v>2547</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1541" spans="1:10" x14ac:dyDescent="0.2">
@@ -60768,7 +60910,7 @@
       <c r="H1541" s="9"/>
       <c r="I1541"/>
       <c r="J1541" s="1" t="s">
-        <v>2550</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1542" spans="1:10" x14ac:dyDescent="0.2">
@@ -60793,7 +60935,7 @@
       <c r="H1542" s="9"/>
       <c r="I1542"/>
       <c r="J1542" s="1" t="s">
-        <v>2553</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1543" spans="1:10" x14ac:dyDescent="0.2">
@@ -60818,7 +60960,7 @@
       <c r="H1543" s="9"/>
       <c r="I1543"/>
       <c r="J1543" s="1" t="s">
-        <v>2557</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1544" spans="1:10" x14ac:dyDescent="0.2">
@@ -60843,7 +60985,7 @@
       <c r="H1544" s="9"/>
       <c r="I1544"/>
       <c r="J1544" s="1" t="s">
-        <v>2560</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1545" spans="1:10" x14ac:dyDescent="0.2">
@@ -60868,7 +61010,7 @@
       <c r="H1545" s="9"/>
       <c r="I1545"/>
       <c r="J1545" s="1" t="s">
-        <v>2563</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1546" spans="1:10" x14ac:dyDescent="0.2">
@@ -60893,7 +61035,7 @@
       <c r="H1546" s="9"/>
       <c r="I1546"/>
       <c r="J1546" s="1" t="s">
-        <v>2567</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1547" spans="1:10" x14ac:dyDescent="0.2">
@@ -60918,7 +61060,7 @@
       <c r="H1547" s="9"/>
       <c r="I1547"/>
       <c r="J1547" s="1" t="s">
-        <v>2570</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1548" spans="1:10" x14ac:dyDescent="0.2">
@@ -60943,7 +61085,7 @@
       <c r="H1548" s="9"/>
       <c r="I1548"/>
       <c r="J1548" s="1" t="s">
-        <v>2574</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1549" spans="1:10" x14ac:dyDescent="0.2">
@@ -60968,7 +61110,7 @@
       <c r="H1549" s="9"/>
       <c r="I1549"/>
       <c r="J1549" s="1" t="s">
-        <v>2576</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1550" spans="1:10" x14ac:dyDescent="0.2">
@@ -60993,7 +61135,7 @@
       <c r="H1550" s="9"/>
       <c r="I1550"/>
       <c r="J1550" s="1" t="s">
-        <v>2579</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1551" spans="1:10" x14ac:dyDescent="0.2">
@@ -61018,7 +61160,7 @@
       <c r="H1551" s="9"/>
       <c r="I1551"/>
       <c r="J1551" s="1" t="s">
-        <v>2583</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1552" spans="1:10" x14ac:dyDescent="0.2">
@@ -61043,7 +61185,7 @@
       <c r="H1552" s="9"/>
       <c r="I1552"/>
       <c r="J1552" s="1" t="s">
-        <v>2586</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1553" spans="1:10" x14ac:dyDescent="0.2">
@@ -61068,7 +61210,7 @@
       <c r="H1553" s="9"/>
       <c r="I1553"/>
       <c r="J1553" s="1" t="s">
-        <v>2591</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1554" spans="1:10" x14ac:dyDescent="0.2">
@@ -61093,7 +61235,7 @@
       <c r="H1554" s="9"/>
       <c r="I1554"/>
       <c r="J1554" s="1" t="s">
-        <v>2595</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1555" spans="1:10" x14ac:dyDescent="0.2">
@@ -61118,7 +61260,7 @@
       <c r="H1555" s="9"/>
       <c r="I1555"/>
       <c r="J1555" s="1" t="s">
-        <v>2598</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1556" spans="1:10" x14ac:dyDescent="0.2">
@@ -61143,7 +61285,7 @@
       <c r="H1556" s="9"/>
       <c r="I1556"/>
       <c r="J1556" s="1" t="s">
-        <v>2602</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1557" spans="1:10" x14ac:dyDescent="0.2">
@@ -61168,7 +61310,7 @@
       <c r="H1557" s="9"/>
       <c r="I1557"/>
       <c r="J1557" s="1" t="s">
-        <v>2606</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1558" spans="1:10" x14ac:dyDescent="0.2">
@@ -61193,7 +61335,7 @@
       <c r="H1558" s="9"/>
       <c r="I1558"/>
       <c r="J1558" s="1" t="s">
-        <v>2610</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1559" spans="1:10" x14ac:dyDescent="0.2">
@@ -61218,7 +61360,7 @@
       <c r="H1559" s="9"/>
       <c r="I1559"/>
       <c r="J1559" s="1" t="s">
-        <v>342</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1560" spans="1:10" x14ac:dyDescent="0.2">
@@ -61243,7 +61385,7 @@
       <c r="H1560" s="9"/>
       <c r="I1560"/>
       <c r="J1560" s="1" t="s">
-        <v>2616</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1561" spans="1:10" x14ac:dyDescent="0.2">
@@ -61268,7 +61410,7 @@
       <c r="H1561" s="9"/>
       <c r="I1561"/>
       <c r="J1561" s="1" t="s">
-        <v>2619</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1562" spans="1:10" x14ac:dyDescent="0.2">
@@ -61293,7 +61435,7 @@
       <c r="H1562" s="9"/>
       <c r="I1562"/>
       <c r="J1562" s="1" t="s">
-        <v>2622</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1563" spans="1:10" x14ac:dyDescent="0.2">
@@ -61318,7 +61460,7 @@
       <c r="H1563" s="9"/>
       <c r="I1563"/>
       <c r="J1563" s="1" t="s">
-        <v>2625</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1564" spans="1:10" x14ac:dyDescent="0.2">
@@ -61343,7 +61485,7 @@
       <c r="H1564" s="9"/>
       <c r="I1564"/>
       <c r="J1564" s="1" t="s">
-        <v>2628</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1565" spans="1:10" x14ac:dyDescent="0.2">
@@ -61368,7 +61510,7 @@
       <c r="H1565" s="9"/>
       <c r="I1565"/>
       <c r="J1565" s="1" t="s">
-        <v>2632</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1566" spans="1:10" x14ac:dyDescent="0.2">
@@ -61393,7 +61535,7 @@
       <c r="H1566" s="9"/>
       <c r="I1566"/>
       <c r="J1566" s="1" t="s">
-        <v>2635</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1567" spans="1:10" x14ac:dyDescent="0.2">
@@ -61418,7 +61560,7 @@
       <c r="H1567" s="9"/>
       <c r="I1567"/>
       <c r="J1567" s="1" t="s">
-        <v>2638</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1568" spans="1:10" x14ac:dyDescent="0.2">
@@ -61443,7 +61585,7 @@
       <c r="H1568" s="9"/>
       <c r="I1568"/>
       <c r="J1568" s="1" t="s">
-        <v>2641</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1569" spans="1:10" x14ac:dyDescent="0.2">
@@ -61468,7 +61610,7 @@
       <c r="H1569" s="9"/>
       <c r="I1569"/>
       <c r="J1569" s="1" t="s">
-        <v>2644</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1570" spans="1:10" x14ac:dyDescent="0.2">
@@ -61493,7 +61635,7 @@
       <c r="H1570" s="9"/>
       <c r="I1570"/>
       <c r="J1570" s="1" t="s">
-        <v>2648</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1571" spans="1:10" x14ac:dyDescent="0.2">
@@ -61518,7 +61660,7 @@
       <c r="H1571" s="9"/>
       <c r="I1571"/>
       <c r="J1571" s="1" t="s">
-        <v>2651</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1572" spans="1:10" x14ac:dyDescent="0.2">
@@ -61543,7 +61685,7 @@
       <c r="H1572" s="9"/>
       <c r="I1572"/>
       <c r="J1572" s="1" t="s">
-        <v>2654</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1573" spans="1:10" x14ac:dyDescent="0.2">
@@ -61568,7 +61710,7 @@
       <c r="H1573" s="9"/>
       <c r="I1573"/>
       <c r="J1573" s="1" t="s">
-        <v>2657</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1574" spans="1:10" x14ac:dyDescent="0.2">
@@ -61593,7 +61735,7 @@
       <c r="H1574" s="9"/>
       <c r="I1574"/>
       <c r="J1574" s="1" t="s">
-        <v>2661</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1575" spans="1:10" x14ac:dyDescent="0.2">
@@ -61618,7 +61760,7 @@
       <c r="H1575" s="9"/>
       <c r="I1575"/>
       <c r="J1575" s="1" t="s">
-        <v>2664</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1576" spans="1:10" x14ac:dyDescent="0.2">
@@ -61643,7 +61785,7 @@
       <c r="H1576" s="9"/>
       <c r="I1576"/>
       <c r="J1576" s="1" t="s">
-        <v>2667</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1577" spans="1:10" x14ac:dyDescent="0.2">
@@ -61668,7 +61810,7 @@
       <c r="H1577" s="9"/>
       <c r="I1577"/>
       <c r="J1577" s="1" t="s">
-        <v>891</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1578" spans="1:10" x14ac:dyDescent="0.2">
@@ -61693,7 +61835,7 @@
       <c r="H1578" s="9"/>
       <c r="I1578"/>
       <c r="J1578" s="1" t="s">
-        <v>2672</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1579" spans="1:10" x14ac:dyDescent="0.2">
@@ -61718,7 +61860,7 @@
       <c r="H1579" s="9"/>
       <c r="I1579"/>
       <c r="J1579" s="1" t="s">
-        <v>2675</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1580" spans="1:10" x14ac:dyDescent="0.2">
@@ -61743,7 +61885,7 @@
       <c r="H1580" s="9"/>
       <c r="I1580"/>
       <c r="J1580" s="1" t="s">
-        <v>2679</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1581" spans="1:10" x14ac:dyDescent="0.2">
@@ -61768,7 +61910,7 @@
       <c r="H1581" s="9"/>
       <c r="I1581"/>
       <c r="J1581" s="1" t="s">
-        <v>2682</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1582" spans="1:10" x14ac:dyDescent="0.2">
@@ -61796,7 +61938,7 @@
       <c r="H1582" s="9"/>
       <c r="I1582"/>
       <c r="J1582" s="1" t="s">
-        <v>2684</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1583" spans="1:10" x14ac:dyDescent="0.2">
@@ -61821,7 +61963,7 @@
       <c r="H1583" s="9"/>
       <c r="I1583"/>
       <c r="J1583" s="1" t="s">
-        <v>2687</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1584" spans="1:10" x14ac:dyDescent="0.2">
@@ -61846,7 +61988,7 @@
       <c r="H1584" s="9"/>
       <c r="I1584"/>
       <c r="J1584" s="1" t="s">
-        <v>2690</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1585" spans="1:10" x14ac:dyDescent="0.2">
@@ -61874,7 +62016,7 @@
       <c r="H1585" s="9"/>
       <c r="I1585"/>
       <c r="J1585" s="1" t="s">
-        <v>2694</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1586" spans="1:10" x14ac:dyDescent="0.2">
@@ -61899,7 +62041,7 @@
       <c r="H1586" s="9"/>
       <c r="I1586"/>
       <c r="J1586" s="1" t="s">
-        <v>1423</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1587" spans="1:10" x14ac:dyDescent="0.2">
@@ -61924,7 +62066,7 @@
       <c r="H1587" s="9"/>
       <c r="I1587"/>
       <c r="J1587" s="1" t="s">
-        <v>2700</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1588" spans="1:10" x14ac:dyDescent="0.2">
@@ -61951,8 +62093,8 @@
       </c>
       <c r="H1588" s="9"/>
       <c r="I1588"/>
-      <c r="J1588" s="1" t="s">
-        <v>2703</v>
+      <c r="J1588" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="1589" spans="1:10" x14ac:dyDescent="0.2">
@@ -61980,7 +62122,7 @@
       <c r="H1589" s="9"/>
       <c r="I1589"/>
       <c r="J1589" s="1" t="s">
-        <v>2706</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1590" spans="1:10" x14ac:dyDescent="0.2">
@@ -62005,7 +62147,7 @@
       <c r="H1590" s="9"/>
       <c r="I1590"/>
       <c r="J1590" s="1" t="s">
-        <v>2709</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1591" spans="1:10" x14ac:dyDescent="0.2">
@@ -62033,7 +62175,7 @@
       <c r="H1591" s="9"/>
       <c r="I1591"/>
       <c r="J1591" s="1" t="s">
-        <v>2713</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1592" spans="1:10" x14ac:dyDescent="0.2">
@@ -62058,7 +62200,7 @@
       <c r="H1592" s="9"/>
       <c r="I1592"/>
       <c r="J1592" s="1" t="s">
-        <v>2716</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1593" spans="1:10" x14ac:dyDescent="0.2">
@@ -62083,7 +62225,7 @@
       <c r="H1593" s="9"/>
       <c r="I1593"/>
       <c r="J1593" s="1" t="s">
-        <v>2719</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1594" spans="1:10" x14ac:dyDescent="0.2">
@@ -62108,7 +62250,7 @@
       <c r="H1594" s="9"/>
       <c r="I1594"/>
       <c r="J1594" s="1" t="s">
-        <v>4510</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1595" spans="1:10" x14ac:dyDescent="0.2">
@@ -62133,7 +62275,7 @@
       <c r="H1595" s="9"/>
       <c r="I1595"/>
       <c r="J1595" s="1" t="s">
-        <v>4511</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1596" spans="1:10" x14ac:dyDescent="0.2">
@@ -62157,6 +62299,9 @@
       </c>
       <c r="H1596" s="9"/>
       <c r="I1596"/>
+      <c r="J1596" s="1" t="s">
+        <v>2502</v>
+      </c>
     </row>
     <row r="1597" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1597">
@@ -62179,6 +62324,9 @@
       </c>
       <c r="H1597" s="9"/>
       <c r="I1597"/>
+      <c r="J1597" s="1" t="s">
+        <v>2506</v>
+      </c>
     </row>
     <row r="1598" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1598">
@@ -62201,6 +62349,9 @@
       </c>
       <c r="H1598" s="9"/>
       <c r="I1598"/>
+      <c r="J1598" s="1" t="s">
+        <v>2509</v>
+      </c>
     </row>
     <row r="1599" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1599">
@@ -62223,6 +62374,9 @@
       </c>
       <c r="H1599" s="9"/>
       <c r="I1599"/>
+      <c r="J1599" s="1" t="s">
+        <v>2513</v>
+      </c>
     </row>
     <row r="1600" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1600">
@@ -62245,8 +62399,11 @@
       </c>
       <c r="H1600" s="9"/>
       <c r="I1600"/>
-    </row>
-    <row r="1601" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1600" s="1" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1601">
         <v>1995</v>
       </c>
@@ -62267,8 +62424,11 @@
       </c>
       <c r="H1601" s="9"/>
       <c r="I1601"/>
-    </row>
-    <row r="1602" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1601" s="1" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1602">
         <v>1995</v>
       </c>
@@ -62289,8 +62449,11 @@
       </c>
       <c r="H1602" s="9"/>
       <c r="I1602"/>
-    </row>
-    <row r="1603" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1602" s="1" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1603">
         <v>1995</v>
       </c>
@@ -62311,8 +62474,11 @@
       </c>
       <c r="H1603" s="9"/>
       <c r="I1603"/>
-    </row>
-    <row r="1604" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1603" s="1" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1604">
         <v>1995</v>
       </c>
@@ -62333,8 +62499,11 @@
       </c>
       <c r="H1604" s="9"/>
       <c r="I1604"/>
-    </row>
-    <row r="1605" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1604" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1605">
         <v>1995</v>
       </c>
@@ -62355,8 +62524,11 @@
       </c>
       <c r="H1605" s="9"/>
       <c r="I1605"/>
-    </row>
-    <row r="1606" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1605" s="1" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1606">
         <v>1995</v>
       </c>
@@ -62380,8 +62552,11 @@
       </c>
       <c r="H1606" s="9"/>
       <c r="I1606"/>
-    </row>
-    <row r="1607" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1606" s="1" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1607">
         <v>1995</v>
       </c>
@@ -62402,8 +62577,11 @@
       </c>
       <c r="H1607" s="9"/>
       <c r="I1607"/>
-    </row>
-    <row r="1608" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1607" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1608">
         <v>1995</v>
       </c>
@@ -62424,8 +62602,11 @@
       </c>
       <c r="H1608" s="9"/>
       <c r="I1608"/>
-    </row>
-    <row r="1609" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1608" s="1" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1609">
         <v>1995</v>
       </c>
@@ -62446,8 +62627,11 @@
       </c>
       <c r="H1609" s="9"/>
       <c r="I1609"/>
-    </row>
-    <row r="1610" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1609" s="1" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1610">
         <v>1995</v>
       </c>
@@ -62468,8 +62652,11 @@
       </c>
       <c r="H1610" s="9"/>
       <c r="I1610"/>
-    </row>
-    <row r="1611" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1610" s="1" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1611">
         <v>1995</v>
       </c>
@@ -62490,8 +62677,11 @@
       </c>
       <c r="H1611" s="9"/>
       <c r="I1611"/>
-    </row>
-    <row r="1612" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1611" s="1" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1612">
         <v>1995</v>
       </c>
@@ -62512,8 +62702,11 @@
       </c>
       <c r="H1612" s="9"/>
       <c r="I1612"/>
-    </row>
-    <row r="1613" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1612" s="1" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1613">
         <v>1995</v>
       </c>
@@ -62534,8 +62727,11 @@
       </c>
       <c r="H1613" s="9"/>
       <c r="I1613"/>
-    </row>
-    <row r="1614" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1613" s="1" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1614">
         <v>1995</v>
       </c>
@@ -62556,8 +62752,11 @@
       </c>
       <c r="H1614" s="9"/>
       <c r="I1614"/>
-    </row>
-    <row r="1615" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1614" s="1" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1615">
         <v>1995</v>
       </c>
@@ -62578,8 +62777,11 @@
       </c>
       <c r="H1615" s="9"/>
       <c r="I1615"/>
-    </row>
-    <row r="1616" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1615" s="1" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1616">
         <v>1995</v>
       </c>
@@ -62603,8 +62805,11 @@
       </c>
       <c r="H1616" s="9"/>
       <c r="I1616"/>
-    </row>
-    <row r="1617" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1616" s="1" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1617">
         <v>1995</v>
       </c>
@@ -62625,8 +62830,11 @@
       </c>
       <c r="H1617" s="9"/>
       <c r="I1617"/>
-    </row>
-    <row r="1618" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1617" s="1" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1618">
         <v>1995</v>
       </c>
@@ -62647,8 +62855,11 @@
       </c>
       <c r="H1618" s="9"/>
       <c r="I1618"/>
-    </row>
-    <row r="1619" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1618" s="1" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1619">
         <v>1995</v>
       </c>
@@ -62669,8 +62880,11 @@
       </c>
       <c r="H1619" s="9"/>
       <c r="I1619"/>
-    </row>
-    <row r="1620" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1619" s="1" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1620">
         <v>1995</v>
       </c>
@@ -62691,8 +62905,11 @@
       </c>
       <c r="H1620" s="9"/>
       <c r="I1620"/>
-    </row>
-    <row r="1621" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1620" s="1" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1621">
         <v>1996</v>
       </c>
@@ -62713,8 +62930,11 @@
       </c>
       <c r="H1621" s="9"/>
       <c r="I1621"/>
-    </row>
-    <row r="1622" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1621" s="1" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1622">
         <v>1996</v>
       </c>
@@ -62735,8 +62955,11 @@
       </c>
       <c r="H1622" s="9"/>
       <c r="I1622"/>
-    </row>
-    <row r="1623" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1622" s="1" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1623">
         <v>1996</v>
       </c>
@@ -62757,8 +62980,11 @@
       </c>
       <c r="H1623" s="9"/>
       <c r="I1623"/>
-    </row>
-    <row r="1624" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1623" s="1" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1624">
         <v>1996</v>
       </c>
@@ -62779,8 +63005,11 @@
       </c>
       <c r="H1624" s="9"/>
       <c r="I1624"/>
-    </row>
-    <row r="1625" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1624" s="1" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1625">
         <v>1996</v>
       </c>
@@ -62801,8 +63030,11 @@
       </c>
       <c r="H1625" s="9"/>
       <c r="I1625"/>
-    </row>
-    <row r="1626" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1625" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1626">
         <v>1996</v>
       </c>
@@ -62823,8 +63055,11 @@
       </c>
       <c r="H1626" s="9"/>
       <c r="I1626"/>
-    </row>
-    <row r="1627" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1626" s="1" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1627">
         <v>1996</v>
       </c>
@@ -62845,8 +63080,11 @@
       </c>
       <c r="H1627" s="9"/>
       <c r="I1627"/>
-    </row>
-    <row r="1628" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1627" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1628">
         <v>1996</v>
       </c>
@@ -62867,8 +63105,11 @@
       </c>
       <c r="H1628" s="9"/>
       <c r="I1628"/>
-    </row>
-    <row r="1629" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1628" s="1" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1629">
         <v>1996</v>
       </c>
@@ -62889,8 +63130,11 @@
       </c>
       <c r="H1629" s="9"/>
       <c r="I1629"/>
-    </row>
-    <row r="1630" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1629" s="1" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1630">
         <v>1996</v>
       </c>
@@ -62911,8 +63155,11 @@
       </c>
       <c r="H1630" s="9"/>
       <c r="I1630"/>
-    </row>
-    <row r="1631" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1630" s="1" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1631">
         <v>1996</v>
       </c>
@@ -62933,8 +63180,11 @@
       </c>
       <c r="H1631" s="9"/>
       <c r="I1631"/>
-    </row>
-    <row r="1632" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1631" s="1" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1632">
         <v>1996</v>
       </c>
@@ -62955,8 +63205,11 @@
       </c>
       <c r="H1632" s="9"/>
       <c r="I1632"/>
-    </row>
-    <row r="1633" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1632" s="1" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1633">
         <v>1996</v>
       </c>
@@ -62977,8 +63230,11 @@
       </c>
       <c r="H1633" s="9"/>
       <c r="I1633"/>
-    </row>
-    <row r="1634" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1633" s="1" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1634">
         <v>1996</v>
       </c>
@@ -62999,8 +63255,11 @@
       </c>
       <c r="H1634" s="9"/>
       <c r="I1634"/>
-    </row>
-    <row r="1635" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1634" s="1" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1635">
         <v>1996</v>
       </c>
@@ -63021,8 +63280,11 @@
       </c>
       <c r="H1635" s="9"/>
       <c r="I1635"/>
-    </row>
-    <row r="1636" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1635" s="1" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1636">
         <v>1996</v>
       </c>
@@ -63043,8 +63305,11 @@
       </c>
       <c r="H1636" s="9"/>
       <c r="I1636"/>
-    </row>
-    <row r="1637" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1636" s="1" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1637">
         <v>1996</v>
       </c>
@@ -63065,8 +63330,11 @@
       </c>
       <c r="H1637" s="9"/>
       <c r="I1637"/>
-    </row>
-    <row r="1638" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1637" s="1" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1638">
         <v>1996</v>
       </c>
@@ -63087,8 +63355,11 @@
       </c>
       <c r="H1638" s="9"/>
       <c r="I1638"/>
-    </row>
-    <row r="1639" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1638" s="1" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1639">
         <v>1996</v>
       </c>
@@ -63109,8 +63380,11 @@
       </c>
       <c r="H1639" s="9"/>
       <c r="I1639"/>
-    </row>
-    <row r="1640" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1639" s="1" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1640">
         <v>1996</v>
       </c>
@@ -63131,8 +63405,11 @@
       </c>
       <c r="H1640" s="9"/>
       <c r="I1640"/>
-    </row>
-    <row r="1641" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1640" s="1" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1641">
         <v>1996</v>
       </c>
@@ -63153,8 +63430,11 @@
       </c>
       <c r="H1641" s="9"/>
       <c r="I1641"/>
-    </row>
-    <row r="1642" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1641" s="1" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1642">
         <v>1996</v>
       </c>
@@ -63175,8 +63455,11 @@
       </c>
       <c r="H1642" s="9"/>
       <c r="I1642"/>
-    </row>
-    <row r="1643" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1642" s="1" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1643">
         <v>1996</v>
       </c>
@@ -63197,8 +63480,11 @@
       </c>
       <c r="H1643" s="9"/>
       <c r="I1643"/>
-    </row>
-    <row r="1644" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1643" s="1" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1644">
         <v>1996</v>
       </c>
@@ -63219,8 +63505,11 @@
       </c>
       <c r="H1644" s="9"/>
       <c r="I1644"/>
-    </row>
-    <row r="1645" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1644" s="1" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1645">
         <v>1996</v>
       </c>
@@ -63241,8 +63530,11 @@
       </c>
       <c r="H1645" s="9"/>
       <c r="I1645"/>
-    </row>
-    <row r="1646" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1645" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1646">
         <v>1996</v>
       </c>
@@ -63263,8 +63555,11 @@
       </c>
       <c r="H1646" s="9"/>
       <c r="I1646"/>
-    </row>
-    <row r="1647" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1646" s="1" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1647">
         <v>1996</v>
       </c>
@@ -63285,8 +63580,11 @@
       </c>
       <c r="H1647" s="9"/>
       <c r="I1647"/>
-    </row>
-    <row r="1648" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1647" s="1" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1648">
         <v>1996</v>
       </c>
@@ -63307,8 +63605,11 @@
       </c>
       <c r="H1648" s="9"/>
       <c r="I1648"/>
-    </row>
-    <row r="1649" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1648" s="1" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1649">
         <v>1996</v>
       </c>
@@ -63332,8 +63633,11 @@
       </c>
       <c r="H1649" s="9"/>
       <c r="I1649"/>
-    </row>
-    <row r="1650" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1649" s="1" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1650">
         <v>1996</v>
       </c>
@@ -63354,8 +63658,11 @@
       </c>
       <c r="H1650" s="9"/>
       <c r="I1650"/>
-    </row>
-    <row r="1651" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1650" s="1" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1651">
         <v>1996</v>
       </c>
@@ -63376,8 +63683,11 @@
       </c>
       <c r="H1651" s="9"/>
       <c r="I1651"/>
-    </row>
-    <row r="1652" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1651" s="1" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1652">
         <v>1996</v>
       </c>
@@ -63398,8 +63708,11 @@
       </c>
       <c r="H1652" s="9"/>
       <c r="I1652"/>
-    </row>
-    <row r="1653" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1652" s="1" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1653">
         <v>1996</v>
       </c>
@@ -63423,8 +63736,11 @@
       </c>
       <c r="H1653" s="9"/>
       <c r="I1653"/>
-    </row>
-    <row r="1654" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1653" s="1" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1654">
         <v>1996</v>
       </c>
@@ -63445,8 +63761,11 @@
       </c>
       <c r="H1654" s="9"/>
       <c r="I1654"/>
-    </row>
-    <row r="1655" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1654" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1655">
         <v>1996</v>
       </c>
@@ -63467,8 +63786,11 @@
       </c>
       <c r="H1655" s="9"/>
       <c r="I1655"/>
-    </row>
-    <row r="1656" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1655" s="1" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1656">
         <v>1996</v>
       </c>
@@ -63492,8 +63814,11 @@
       </c>
       <c r="H1656" s="9"/>
       <c r="I1656"/>
-    </row>
-    <row r="1657" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1656" s="1" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1657">
         <v>1996</v>
       </c>
@@ -63514,8 +63839,11 @@
       </c>
       <c r="H1657" s="9"/>
       <c r="I1657"/>
-    </row>
-    <row r="1658" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1657" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1658">
         <v>1996</v>
       </c>
@@ -63536,8 +63864,11 @@
       </c>
       <c r="H1658" s="9"/>
       <c r="I1658"/>
-    </row>
-    <row r="1659" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1658" s="1" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1659">
         <v>1996</v>
       </c>
@@ -63558,8 +63889,11 @@
       </c>
       <c r="H1659" s="9"/>
       <c r="I1659"/>
-    </row>
-    <row r="1660" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1659" s="1" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1660">
         <v>1996</v>
       </c>
@@ -63580,8 +63914,11 @@
       </c>
       <c r="H1660" s="9"/>
       <c r="I1660"/>
-    </row>
-    <row r="1661" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1660" s="1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1661">
         <v>1996</v>
       </c>
@@ -63602,8 +63939,11 @@
       </c>
       <c r="H1661" s="9"/>
       <c r="I1661"/>
-    </row>
-    <row r="1662" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1661" s="1" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1662">
         <v>1996</v>
       </c>
@@ -63624,8 +63964,11 @@
       </c>
       <c r="H1662" s="9"/>
       <c r="I1662"/>
-    </row>
-    <row r="1663" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1662" s="1" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1663">
         <v>1996</v>
       </c>
@@ -63646,8 +63989,11 @@
       </c>
       <c r="H1663" s="9"/>
       <c r="I1663"/>
-    </row>
-    <row r="1664" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1663" s="1" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1664">
         <v>1996</v>
       </c>

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12544" uniqueCount="7080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12580" uniqueCount="7094">
   <si>
     <t>Year</t>
   </si>
@@ -21262,6 +21262,48 @@
   </si>
   <si>
     <t>Ciało i krew</t>
+  </si>
+  <si>
+    <t>Karate Kid 2</t>
+  </si>
+  <si>
+    <t>Pluton</t>
+  </si>
+  <si>
+    <t>Imię róży</t>
+  </si>
+  <si>
+    <t>Orły Temidy</t>
+  </si>
+  <si>
+    <t>Wzgórze Rozdartych Serc</t>
+  </si>
+  <si>
+    <t>Amerykańska opowieść</t>
+  </si>
+  <si>
+    <t>Powrót do szkoły</t>
+  </si>
+  <si>
+    <t>Złote dziecko</t>
+  </si>
+  <si>
+    <t>Duch II: Druga strona</t>
+  </si>
+  <si>
+    <t>Bezlitośni ludzie</t>
+  </si>
+  <si>
+    <t>Uciekinierzy</t>
+  </si>
+  <si>
+    <t>Stań przy mnie</t>
+  </si>
+  <si>
+    <t>Włóczęga z Beverly Hills</t>
+  </si>
+  <si>
+    <t>Betty Blue</t>
   </si>
 </sst>
 </file>
@@ -21717,11 +21759,11 @@
   <dimension ref="A1:P2441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G940" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G965" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="H954" sqref="H954"/>
+      <selection pane="bottomRight" activeCell="H976" sqref="H976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -45939,7 +45981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>1985</v>
       </c>
@@ -45965,7 +46007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>1985</v>
       </c>
@@ -45991,7 +46033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>1985</v>
       </c>
@@ -46017,7 +46059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>1985</v>
       </c>
@@ -46043,7 +46085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>1985</v>
       </c>
@@ -46069,7 +46111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>1985</v>
       </c>
@@ -46094,11 +46136,8 @@
       <c r="I934" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J934" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="935" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>1985</v>
       </c>
@@ -46123,11 +46162,8 @@
       <c r="I935" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J935" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="936" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>1985</v>
       </c>
@@ -46152,11 +46188,8 @@
       <c r="I936" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J936" s="1" t="s">
-        <v>4242</v>
-      </c>
-    </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="937" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>1985</v>
       </c>
@@ -46181,11 +46214,8 @@
       <c r="I937" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J937" s="1" t="s">
-        <v>4081</v>
-      </c>
-    </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="938" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>1985</v>
       </c>
@@ -46210,11 +46240,8 @@
       <c r="I938" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J938" s="1" t="s">
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="939" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>1985</v>
       </c>
@@ -46239,11 +46266,8 @@
       <c r="I939" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J939" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="940" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>1985</v>
       </c>
@@ -46268,11 +46292,8 @@
       <c r="I940" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J940" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="941" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>1985</v>
       </c>
@@ -46297,11 +46318,8 @@
       <c r="I941" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J941" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="942" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>1985</v>
       </c>
@@ -46326,11 +46344,8 @@
       <c r="I942" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J942" s="1" t="s">
-        <v>4254</v>
-      </c>
-    </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="943" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>1985</v>
       </c>
@@ -46355,11 +46370,8 @@
       <c r="I943" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J943" s="1" t="s">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="944" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>1985</v>
       </c>
@@ -46384,11 +46396,8 @@
       <c r="I944" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J944" s="1" t="s">
-        <v>4256</v>
-      </c>
-    </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="945" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>1985</v>
       </c>
@@ -46413,11 +46422,8 @@
       <c r="I945" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J945" s="1" t="s">
-        <v>4257</v>
-      </c>
-    </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="946" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>1985</v>
       </c>
@@ -46442,11 +46448,8 @@
       <c r="I946" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J946" s="1" t="s">
-        <v>4258</v>
-      </c>
-    </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="947" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>1985</v>
       </c>
@@ -46471,11 +46474,8 @@
       <c r="I947" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J947" s="1" t="s">
-        <v>4259</v>
-      </c>
-    </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="948" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>1985</v>
       </c>
@@ -46500,11 +46500,8 @@
       <c r="I948" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J948" s="1" t="s">
-        <v>4260</v>
-      </c>
-    </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="949" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>1985</v>
       </c>
@@ -46529,11 +46526,8 @@
       <c r="I949" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J949" s="1" t="s">
-        <v>4261</v>
-      </c>
-    </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="950" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>1985</v>
       </c>
@@ -46558,11 +46552,8 @@
       <c r="I950" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J950" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="951" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>1985</v>
       </c>
@@ -46587,11 +46578,8 @@
       <c r="I951" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J951" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="952" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>1986</v>
       </c>
@@ -46616,11 +46604,8 @@
       <c r="I952" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J952" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="953" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>1986</v>
       </c>
@@ -46645,11 +46630,8 @@
       <c r="I953" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J953" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="954" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>1986</v>
       </c>
@@ -46668,13 +46650,14 @@
       <c r="G954" t="s">
         <v>4916</v>
       </c>
-      <c r="H954" s="9"/>
-      <c r="I954"/>
-      <c r="J954" s="1" t="s">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H954" s="9" t="s">
+        <v>7080</v>
+      </c>
+      <c r="I954" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>1986</v>
       </c>
@@ -46693,13 +46676,14 @@
       <c r="G955" t="s">
         <v>4918</v>
       </c>
-      <c r="H955" s="9"/>
-      <c r="I955"/>
-      <c r="J955" s="1" t="s">
-        <v>4262</v>
-      </c>
-    </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H955" s="9" t="s">
+        <v>4917</v>
+      </c>
+      <c r="I955" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>1986</v>
       </c>
@@ -46718,13 +46702,14 @@
       <c r="G956" t="s">
         <v>4920</v>
       </c>
-      <c r="H956" s="9"/>
-      <c r="I956"/>
-      <c r="J956" s="1" t="s">
-        <v>4263</v>
-      </c>
-    </row>
-    <row r="957" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H956" s="9" t="s">
+        <v>7081</v>
+      </c>
+      <c r="I956" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>1986</v>
       </c>
@@ -46749,11 +46734,8 @@
       <c r="I957" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J957" s="1" t="s">
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="958" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="958" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>1986</v>
       </c>
@@ -46778,11 +46760,8 @@
       <c r="I958" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J958" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="959" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="959" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>1986</v>
       </c>
@@ -46801,13 +46780,14 @@
       <c r="G959" t="s">
         <v>4928</v>
       </c>
-      <c r="H959" s="9"/>
-      <c r="I959"/>
-      <c r="J959" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="960" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H959" s="9" t="s">
+        <v>7082</v>
+      </c>
+      <c r="I959" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>1986</v>
       </c>
@@ -46826,10 +46806,11 @@
       <c r="G960" t="s">
         <v>4930</v>
       </c>
-      <c r="H960" s="9"/>
-      <c r="I960"/>
-      <c r="J960" s="1" t="s">
-        <v>1171</v>
+      <c r="H960" s="9" t="s">
+        <v>7083</v>
+      </c>
+      <c r="I960" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="961" spans="1:10" x14ac:dyDescent="0.2">
@@ -46851,10 +46832,14 @@
       <c r="G961" t="s">
         <v>4932</v>
       </c>
-      <c r="H961" s="9"/>
-      <c r="I961"/>
+      <c r="H961" s="9" t="s">
+        <v>7084</v>
+      </c>
+      <c r="I961" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J961" s="1" t="s">
-        <v>1175</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="962" spans="1:10" x14ac:dyDescent="0.2">
@@ -46876,10 +46861,14 @@
       <c r="G962" t="s">
         <v>4934</v>
       </c>
-      <c r="H962" s="9"/>
-      <c r="I962"/>
+      <c r="H962" s="9" t="s">
+        <v>7085</v>
+      </c>
+      <c r="I962" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J962" s="1" t="s">
-        <v>1178</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="963" spans="1:10" x14ac:dyDescent="0.2">
@@ -46901,10 +46890,14 @@
       <c r="G963" t="s">
         <v>4936</v>
       </c>
-      <c r="H963" s="9"/>
-      <c r="I963"/>
+      <c r="H963" s="9" t="s">
+        <v>7086</v>
+      </c>
+      <c r="I963" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J963" s="1" t="s">
-        <v>1181</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="964" spans="1:10" x14ac:dyDescent="0.2">
@@ -46926,10 +46919,14 @@
       <c r="G964" t="s">
         <v>4938</v>
       </c>
-      <c r="H964" s="9"/>
-      <c r="I964"/>
+      <c r="H964" s="9" t="s">
+        <v>7087</v>
+      </c>
+      <c r="I964" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J964" s="1" t="s">
-        <v>1184</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="965" spans="1:10" x14ac:dyDescent="0.2">
@@ -46951,10 +46948,14 @@
       <c r="G965" t="s">
         <v>4940</v>
       </c>
-      <c r="H965" s="9"/>
-      <c r="I965"/>
+      <c r="H965" s="9" t="s">
+        <v>7088</v>
+      </c>
+      <c r="I965" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J965" s="1" t="s">
-        <v>1187</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="966" spans="1:10" x14ac:dyDescent="0.2">
@@ -46979,11 +46980,11 @@
       <c r="H966" s="1" t="s">
         <v>4248</v>
       </c>
-      <c r="I966" t="s">
+      <c r="I966" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J966" s="1" t="s">
-        <v>4265</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="967" spans="1:10" x14ac:dyDescent="0.2">
@@ -47005,10 +47006,14 @@
       <c r="G967" t="s">
         <v>4944</v>
       </c>
-      <c r="H967" s="9"/>
-      <c r="I967"/>
+      <c r="H967" s="9" t="s">
+        <v>7089</v>
+      </c>
+      <c r="I967" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J967" s="1" t="s">
-        <v>2878</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="968" spans="1:10" x14ac:dyDescent="0.2">
@@ -47033,11 +47038,11 @@
       <c r="H968" s="1" t="s">
         <v>4247</v>
       </c>
-      <c r="I968" t="s">
+      <c r="I968" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J968" s="1" t="s">
-        <v>2760</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="969" spans="1:10" x14ac:dyDescent="0.2">
@@ -47059,10 +47064,14 @@
       <c r="G969" t="s">
         <v>4947</v>
       </c>
-      <c r="H969" s="9"/>
-      <c r="I969"/>
+      <c r="H969" s="9" t="s">
+        <v>4098</v>
+      </c>
+      <c r="I969" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J969" s="1" t="s">
-        <v>4267</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="970" spans="1:10" x14ac:dyDescent="0.2">
@@ -47084,10 +47093,14 @@
       <c r="G970" t="s">
         <v>4949</v>
       </c>
-      <c r="H970" s="9"/>
-      <c r="I970"/>
+      <c r="H970" s="9" t="s">
+        <v>7090</v>
+      </c>
+      <c r="I970" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J970" s="1" t="s">
-        <v>4268</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="971" spans="1:10" x14ac:dyDescent="0.2">
@@ -47109,10 +47122,14 @@
       <c r="G971" t="s">
         <v>4952</v>
       </c>
-      <c r="H971" s="9"/>
-      <c r="I971"/>
+      <c r="H971" s="9" t="s">
+        <v>7091</v>
+      </c>
+      <c r="I971" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J971" s="1" t="s">
-        <v>2825</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="972" spans="1:10" x14ac:dyDescent="0.2">
@@ -47134,10 +47151,14 @@
       <c r="G972" t="s">
         <v>4955</v>
       </c>
-      <c r="H972" s="9"/>
-      <c r="I972"/>
+      <c r="H972" s="9" t="s">
+        <v>4953</v>
+      </c>
+      <c r="I972" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J972" s="1" t="s">
-        <v>4269</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="973" spans="1:10" x14ac:dyDescent="0.2">
@@ -47159,10 +47180,14 @@
       <c r="G973" t="s">
         <v>4957</v>
       </c>
-      <c r="H973" s="9"/>
-      <c r="I973"/>
+      <c r="H973" s="9" t="s">
+        <v>7092</v>
+      </c>
+      <c r="I973" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J973" s="1" t="s">
-        <v>4270</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="974" spans="1:10" x14ac:dyDescent="0.2">
@@ -47184,10 +47209,14 @@
       <c r="G974" t="s">
         <v>4959</v>
       </c>
-      <c r="H974" s="9"/>
-      <c r="I974"/>
+      <c r="H974" s="9" t="s">
+        <v>7093</v>
+      </c>
+      <c r="I974" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J974" s="1" t="s">
-        <v>4271</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="975" spans="1:10" x14ac:dyDescent="0.2">
@@ -47212,9 +47241,11 @@
       <c r="H975" s="1" t="s">
         <v>4244</v>
       </c>
-      <c r="I975"/>
+      <c r="I975" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J975" s="1" t="s">
-        <v>4272</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="976" spans="1:10" x14ac:dyDescent="0.2">
@@ -47239,7 +47270,7 @@
       <c r="H976" s="9"/>
       <c r="I976"/>
       <c r="J976" s="1" t="s">
-        <v>4273</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="977" spans="1:10" x14ac:dyDescent="0.2">
@@ -47267,9 +47298,11 @@
       <c r="H977" s="1" t="s">
         <v>4243</v>
       </c>
-      <c r="I977"/>
+      <c r="I977" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J977" s="1" t="s">
-        <v>4274</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="978" spans="1:10" x14ac:dyDescent="0.2">
@@ -47294,7 +47327,7 @@
       <c r="H978" s="9"/>
       <c r="I978"/>
       <c r="J978" s="1" t="s">
-        <v>4275</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="979" spans="1:10" x14ac:dyDescent="0.2">
@@ -47319,7 +47352,7 @@
       <c r="H979" s="9"/>
       <c r="I979"/>
       <c r="J979" s="1" t="s">
-        <v>1191</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="980" spans="1:10" x14ac:dyDescent="0.2">
@@ -47344,7 +47377,7 @@
       <c r="H980" s="9"/>
       <c r="I980"/>
       <c r="J980" s="1" t="s">
-        <v>1195</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="981" spans="1:10" x14ac:dyDescent="0.2">
@@ -47369,7 +47402,7 @@
       <c r="H981" s="9"/>
       <c r="I981"/>
       <c r="J981" s="1" t="s">
-        <v>1198</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="982" spans="1:10" x14ac:dyDescent="0.2">
@@ -47394,7 +47427,7 @@
       <c r="H982" s="9"/>
       <c r="I982"/>
       <c r="J982" s="1" t="s">
-        <v>1201</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="983" spans="1:10" x14ac:dyDescent="0.2">
@@ -47419,7 +47452,7 @@
       <c r="H983" s="9"/>
       <c r="I983"/>
       <c r="J983" s="1" t="s">
-        <v>1205</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="984" spans="1:10" x14ac:dyDescent="0.2">
@@ -47444,7 +47477,7 @@
       <c r="H984" s="9"/>
       <c r="I984"/>
       <c r="J984" s="1" t="s">
-        <v>4276</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="985" spans="1:10" x14ac:dyDescent="0.2">
@@ -47469,7 +47502,7 @@
       <c r="H985" s="9"/>
       <c r="I985"/>
       <c r="J985" s="1" t="s">
-        <v>4277</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="986" spans="1:10" x14ac:dyDescent="0.2">
@@ -47494,7 +47527,7 @@
       <c r="H986" s="9"/>
       <c r="I986"/>
       <c r="J986" s="1" t="s">
-        <v>4278</v>
+        <v>478</v>
       </c>
     </row>
     <row r="987" spans="1:10" x14ac:dyDescent="0.2">
@@ -47519,7 +47552,7 @@
       <c r="H987" s="9"/>
       <c r="I987"/>
       <c r="J987" s="1" t="s">
-        <v>4279</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="988" spans="1:10" x14ac:dyDescent="0.2">
@@ -47544,7 +47577,7 @@
       <c r="H988" s="9"/>
       <c r="I988"/>
       <c r="J988" s="1" t="s">
-        <v>4280</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="989" spans="1:10" x14ac:dyDescent="0.2">
@@ -47569,7 +47602,7 @@
       <c r="H989" s="9"/>
       <c r="I989"/>
       <c r="J989" s="1" t="s">
-        <v>4281</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="990" spans="1:10" x14ac:dyDescent="0.2">
@@ -47594,7 +47627,7 @@
       <c r="H990" s="9"/>
       <c r="I990"/>
       <c r="J990" s="1" t="s">
-        <v>4282</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="991" spans="1:10" x14ac:dyDescent="0.2">
@@ -47621,7 +47654,7 @@
       </c>
       <c r="I991"/>
       <c r="J991" s="1" t="s">
-        <v>4283</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="992" spans="1:10" x14ac:dyDescent="0.2">
@@ -47646,7 +47679,7 @@
       <c r="H992" s="9"/>
       <c r="I992"/>
       <c r="J992" s="1" t="s">
-        <v>4284</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="993" spans="1:10" x14ac:dyDescent="0.2">
@@ -47671,7 +47704,7 @@
       <c r="H993" s="9"/>
       <c r="I993"/>
       <c r="J993" s="1" t="s">
-        <v>4285</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="994" spans="1:10" x14ac:dyDescent="0.2">
@@ -47699,7 +47732,7 @@
       <c r="H994" s="9"/>
       <c r="I994"/>
       <c r="J994" s="1" t="s">
-        <v>4286</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="995" spans="1:10" x14ac:dyDescent="0.2">
@@ -47724,7 +47757,7 @@
       <c r="H995" s="9"/>
       <c r="I995"/>
       <c r="J995" s="1" t="s">
-        <v>4287</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="996" spans="1:10" x14ac:dyDescent="0.2">
@@ -47749,7 +47782,7 @@
       <c r="H996" s="9"/>
       <c r="I996"/>
       <c r="J996" s="1" t="s">
-        <v>4288</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="997" spans="1:10" x14ac:dyDescent="0.2">
@@ -47777,7 +47810,7 @@
       <c r="H997" s="9"/>
       <c r="I997"/>
       <c r="J997" s="1" t="s">
-        <v>4289</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="998" spans="1:10" x14ac:dyDescent="0.2">
@@ -47802,7 +47835,7 @@
       <c r="H998" s="9"/>
       <c r="I998"/>
       <c r="J998" s="1" t="s">
-        <v>4290</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="999" spans="1:10" x14ac:dyDescent="0.2">
@@ -47827,7 +47860,7 @@
       <c r="H999" s="9"/>
       <c r="I999"/>
       <c r="J999" s="1" t="s">
-        <v>4291</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="1000" spans="1:10" x14ac:dyDescent="0.2">
@@ -47852,7 +47885,7 @@
       <c r="H1000" s="9"/>
       <c r="I1000"/>
       <c r="J1000" s="1" t="s">
-        <v>1209</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1001" spans="1:10" x14ac:dyDescent="0.2">
@@ -47877,7 +47910,7 @@
       <c r="H1001" s="9"/>
       <c r="I1001"/>
       <c r="J1001" s="1" t="s">
-        <v>4292</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="1002" spans="1:10" x14ac:dyDescent="0.2">
@@ -47906,7 +47939,7 @@
         <v>13</v>
       </c>
       <c r="J1002" s="1" t="s">
-        <v>4293</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1003" spans="1:10" x14ac:dyDescent="0.2">
@@ -47933,7 +47966,7 @@
       </c>
       <c r="I1003"/>
       <c r="J1003" s="1" t="s">
-        <v>4294</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="1004" spans="1:10" x14ac:dyDescent="0.2">
@@ -47958,7 +47991,7 @@
       <c r="H1004" s="9"/>
       <c r="I1004"/>
       <c r="J1004" s="1" t="s">
-        <v>4295</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1005" spans="1:10" x14ac:dyDescent="0.2">
@@ -47983,7 +48016,7 @@
       <c r="H1005" s="9"/>
       <c r="I1005"/>
       <c r="J1005" s="1" t="s">
-        <v>4266</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="1006" spans="1:10" x14ac:dyDescent="0.2">
@@ -48008,7 +48041,7 @@
       <c r="H1006" s="9"/>
       <c r="I1006"/>
       <c r="J1006" s="1" t="s">
-        <v>4296</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1007" spans="1:10" x14ac:dyDescent="0.2">
@@ -48033,7 +48066,7 @@
       <c r="H1007" s="9"/>
       <c r="I1007"/>
       <c r="J1007" s="1" t="s">
-        <v>4297</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1008" spans="1:10" x14ac:dyDescent="0.2">
@@ -48062,7 +48095,7 @@
         <v>13</v>
       </c>
       <c r="J1008" s="1" t="s">
-        <v>4298</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1009" spans="1:10" x14ac:dyDescent="0.2">
@@ -48090,7 +48123,7 @@
       <c r="H1009" s="9"/>
       <c r="I1009"/>
       <c r="J1009" s="1" t="s">
-        <v>4299</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1010" spans="1:10" x14ac:dyDescent="0.2">
@@ -48115,7 +48148,7 @@
       <c r="H1010" s="9"/>
       <c r="I1010"/>
       <c r="J1010" s="1" t="s">
-        <v>4300</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1011" spans="1:10" x14ac:dyDescent="0.2">
@@ -48140,7 +48173,7 @@
       <c r="H1011" s="9"/>
       <c r="I1011"/>
       <c r="J1011" s="1" t="s">
-        <v>4301</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1012" spans="1:10" x14ac:dyDescent="0.2">
@@ -48165,7 +48198,7 @@
       <c r="H1012" s="9"/>
       <c r="I1012"/>
       <c r="J1012" s="1" t="s">
-        <v>4302</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="1013" spans="1:10" x14ac:dyDescent="0.2">
@@ -48190,7 +48223,7 @@
       <c r="H1013" s="9"/>
       <c r="I1013"/>
       <c r="J1013" s="1" t="s">
-        <v>4303</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1014" spans="1:10" x14ac:dyDescent="0.2">
@@ -48215,7 +48248,7 @@
       <c r="H1014" s="9"/>
       <c r="I1014"/>
       <c r="J1014" s="1" t="s">
-        <v>4304</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1015" spans="1:10" x14ac:dyDescent="0.2">
@@ -48240,7 +48273,7 @@
       <c r="H1015" s="9"/>
       <c r="I1015"/>
       <c r="J1015" s="1" t="s">
-        <v>1212</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1016" spans="1:10" x14ac:dyDescent="0.2">
@@ -48265,7 +48298,7 @@
       <c r="H1016" s="9"/>
       <c r="I1016"/>
       <c r="J1016" s="1" t="s">
-        <v>1215</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="1017" spans="1:10" x14ac:dyDescent="0.2">
@@ -48290,7 +48323,7 @@
       <c r="H1017" s="9"/>
       <c r="I1017"/>
       <c r="J1017" s="1" t="s">
-        <v>1220</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1018" spans="1:10" x14ac:dyDescent="0.2">
@@ -48315,7 +48348,7 @@
       <c r="H1018" s="9"/>
       <c r="I1018"/>
       <c r="J1018" s="1" t="s">
-        <v>4305</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="1019" spans="1:10" x14ac:dyDescent="0.2">
@@ -48340,7 +48373,7 @@
       <c r="H1019" s="9"/>
       <c r="I1019"/>
       <c r="J1019" s="1" t="s">
-        <v>4306</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1020" spans="1:10" x14ac:dyDescent="0.2">
@@ -48365,7 +48398,7 @@
       <c r="H1020" s="9"/>
       <c r="I1020"/>
       <c r="J1020" s="1" t="s">
-        <v>4307</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="1021" spans="1:10" x14ac:dyDescent="0.2">
@@ -48390,7 +48423,7 @@
       <c r="H1021" s="9"/>
       <c r="I1021"/>
       <c r="J1021" s="1" t="s">
-        <v>4308</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1022" spans="1:10" x14ac:dyDescent="0.2">
@@ -48415,7 +48448,7 @@
       <c r="H1022" s="9"/>
       <c r="I1022"/>
       <c r="J1022" s="1" t="s">
-        <v>4266</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="1023" spans="1:10" x14ac:dyDescent="0.2">
@@ -48440,7 +48473,7 @@
       <c r="H1023" s="9"/>
       <c r="I1023"/>
       <c r="J1023" s="1" t="s">
-        <v>4309</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1024" spans="1:10" x14ac:dyDescent="0.2">
@@ -48465,7 +48498,7 @@
       <c r="H1024" s="9"/>
       <c r="I1024"/>
       <c r="J1024" s="1" t="s">
-        <v>4310</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1025" spans="1:10" x14ac:dyDescent="0.2">
@@ -48490,7 +48523,7 @@
       <c r="H1025" s="9"/>
       <c r="I1025"/>
       <c r="J1025" s="1" t="s">
-        <v>4311</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1026" spans="1:10" x14ac:dyDescent="0.2">
@@ -48515,7 +48548,7 @@
       <c r="H1026" s="9"/>
       <c r="I1026"/>
       <c r="J1026" s="1" t="s">
-        <v>4312</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1027" spans="1:10" x14ac:dyDescent="0.2">
@@ -48540,7 +48573,7 @@
       <c r="H1027" s="9"/>
       <c r="I1027"/>
       <c r="J1027" s="1" t="s">
-        <v>4313</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1028" spans="1:10" x14ac:dyDescent="0.2">
@@ -48565,7 +48598,7 @@
       <c r="H1028" s="9"/>
       <c r="I1028"/>
       <c r="J1028" s="1" t="s">
-        <v>4314</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1029" spans="1:10" x14ac:dyDescent="0.2">
@@ -48593,7 +48626,7 @@
       <c r="H1029" s="9"/>
       <c r="I1029"/>
       <c r="J1029" s="1" t="s">
-        <v>4315</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="1030" spans="1:10" x14ac:dyDescent="0.2">
@@ -48618,7 +48651,7 @@
       <c r="H1030" s="9"/>
       <c r="I1030"/>
       <c r="J1030" s="1" t="s">
-        <v>4316</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1031" spans="1:10" x14ac:dyDescent="0.2">
@@ -48643,7 +48676,7 @@
       <c r="H1031" s="9"/>
       <c r="I1031"/>
       <c r="J1031" s="1" t="s">
-        <v>4317</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1032" spans="1:10" x14ac:dyDescent="0.2">
@@ -48668,7 +48701,7 @@
       <c r="H1032" s="9"/>
       <c r="I1032"/>
       <c r="J1032" s="1" t="s">
-        <v>4318</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1033" spans="1:10" x14ac:dyDescent="0.2">
@@ -48693,7 +48726,7 @@
       <c r="H1033" s="9"/>
       <c r="I1033"/>
       <c r="J1033" s="1" t="s">
-        <v>4319</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1034" spans="1:10" x14ac:dyDescent="0.2">
@@ -48718,7 +48751,7 @@
       <c r="H1034" s="9"/>
       <c r="I1034"/>
       <c r="J1034" s="1" t="s">
-        <v>4320</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1035" spans="1:10" x14ac:dyDescent="0.2">
@@ -48743,7 +48776,7 @@
       <c r="H1035" s="9"/>
       <c r="I1035"/>
       <c r="J1035" s="1" t="s">
-        <v>4321</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1036" spans="1:10" x14ac:dyDescent="0.2">
@@ -48768,7 +48801,7 @@
       <c r="H1036" s="9"/>
       <c r="I1036"/>
       <c r="J1036" s="1" t="s">
-        <v>4322</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1037" spans="1:10" x14ac:dyDescent="0.2">
@@ -48793,7 +48826,7 @@
       <c r="H1037" s="9"/>
       <c r="I1037"/>
       <c r="J1037" s="1" t="s">
-        <v>1223</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1038" spans="1:10" x14ac:dyDescent="0.2">
@@ -48818,7 +48851,7 @@
       <c r="H1038" s="9"/>
       <c r="I1038"/>
       <c r="J1038" s="1" t="s">
-        <v>1226</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1039" spans="1:10" x14ac:dyDescent="0.2">
@@ -48843,7 +48876,7 @@
       <c r="H1039" s="9"/>
       <c r="I1039"/>
       <c r="J1039" s="1" t="s">
-        <v>230</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1040" spans="1:10" x14ac:dyDescent="0.2">
@@ -48868,7 +48901,7 @@
       <c r="H1040" s="9"/>
       <c r="I1040"/>
       <c r="J1040" s="1" t="s">
-        <v>4323</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1041" spans="1:10" x14ac:dyDescent="0.2">
@@ -48893,7 +48926,7 @@
       <c r="H1041" s="9"/>
       <c r="I1041"/>
       <c r="J1041" s="1" t="s">
-        <v>4324</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1042" spans="1:10" x14ac:dyDescent="0.2">
@@ -48918,7 +48951,7 @@
       <c r="H1042" s="9"/>
       <c r="I1042"/>
       <c r="J1042" s="1" t="s">
-        <v>4325</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1043" spans="1:10" x14ac:dyDescent="0.2">
@@ -48943,7 +48976,7 @@
       <c r="H1043" s="9"/>
       <c r="I1043"/>
       <c r="J1043" s="1" t="s">
-        <v>4326</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1044" spans="1:10" x14ac:dyDescent="0.2">
@@ -48968,7 +49001,7 @@
       <c r="H1044" s="9"/>
       <c r="I1044"/>
       <c r="J1044" s="1" t="s">
-        <v>4327</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1045" spans="1:10" x14ac:dyDescent="0.2">
@@ -48993,7 +49026,7 @@
       <c r="H1045" s="9"/>
       <c r="I1045"/>
       <c r="J1045" s="1" t="s">
-        <v>4328</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1046" spans="1:10" x14ac:dyDescent="0.2">
@@ -49018,7 +49051,7 @@
       <c r="H1046" s="9"/>
       <c r="I1046"/>
       <c r="J1046" s="1" t="s">
-        <v>4329</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1047" spans="1:10" x14ac:dyDescent="0.2">
@@ -49043,7 +49076,7 @@
       <c r="H1047" s="9"/>
       <c r="I1047"/>
       <c r="J1047" s="1" t="s">
-        <v>4330</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1048" spans="1:10" x14ac:dyDescent="0.2">
@@ -49068,7 +49101,7 @@
       <c r="H1048" s="9"/>
       <c r="I1048"/>
       <c r="J1048" s="1" t="s">
-        <v>4331</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1049" spans="1:10" x14ac:dyDescent="0.2">
@@ -49093,7 +49126,7 @@
       <c r="H1049" s="9"/>
       <c r="I1049"/>
       <c r="J1049" s="1" t="s">
-        <v>4332</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1050" spans="1:10" x14ac:dyDescent="0.2">
@@ -49118,7 +49151,7 @@
       <c r="H1050" s="9"/>
       <c r="I1050"/>
       <c r="J1050" s="1" t="s">
-        <v>4333</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1051" spans="1:10" x14ac:dyDescent="0.2">
@@ -49143,7 +49176,7 @@
       <c r="H1051" s="9"/>
       <c r="I1051"/>
       <c r="J1051" s="1" t="s">
-        <v>4334</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1052" spans="1:10" x14ac:dyDescent="0.2">
@@ -49168,7 +49201,7 @@
       <c r="H1052" s="9"/>
       <c r="I1052"/>
       <c r="J1052" s="1" t="s">
-        <v>4335</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1053" spans="1:10" x14ac:dyDescent="0.2">
@@ -49193,7 +49226,7 @@
       <c r="H1053" s="9"/>
       <c r="I1053"/>
       <c r="J1053" s="1" t="s">
-        <v>4336</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1054" spans="1:10" x14ac:dyDescent="0.2">
@@ -49218,7 +49251,7 @@
       <c r="H1054" s="9"/>
       <c r="I1054"/>
       <c r="J1054" s="1" t="s">
-        <v>1232</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1055" spans="1:10" x14ac:dyDescent="0.2">
@@ -49245,7 +49278,7 @@
       </c>
       <c r="I1055"/>
       <c r="J1055" s="1" t="s">
-        <v>1236</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1056" spans="1:10" x14ac:dyDescent="0.2">
@@ -49270,7 +49303,7 @@
       <c r="H1056" s="9"/>
       <c r="I1056"/>
       <c r="J1056" s="1" t="s">
-        <v>56</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1057" spans="1:10" x14ac:dyDescent="0.2">
@@ -49295,7 +49328,7 @@
       <c r="H1057" s="9"/>
       <c r="I1057"/>
       <c r="J1057" s="1" t="s">
-        <v>1240</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1058" spans="1:10" x14ac:dyDescent="0.2">
@@ -49320,7 +49353,7 @@
       <c r="H1058" s="9"/>
       <c r="I1058"/>
       <c r="J1058" s="1" t="s">
-        <v>4337</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1059" spans="1:10" x14ac:dyDescent="0.2">
@@ -49345,7 +49378,7 @@
       <c r="H1059" s="9"/>
       <c r="I1059"/>
       <c r="J1059" s="1" t="s">
-        <v>4307</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1060" spans="1:10" x14ac:dyDescent="0.2">
@@ -49370,7 +49403,7 @@
       <c r="H1060" s="9"/>
       <c r="I1060"/>
       <c r="J1060" s="1" t="s">
-        <v>4338</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="1061" spans="1:10" x14ac:dyDescent="0.2">
@@ -49395,7 +49428,7 @@
       <c r="H1061" s="9"/>
       <c r="I1061"/>
       <c r="J1061" s="1" t="s">
-        <v>4339</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1062" spans="1:10" x14ac:dyDescent="0.2">
@@ -49420,7 +49453,7 @@
       <c r="H1062" s="9"/>
       <c r="I1062"/>
       <c r="J1062" s="1" t="s">
-        <v>4340</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="1063" spans="1:10" x14ac:dyDescent="0.2">
@@ -49445,7 +49478,7 @@
       <c r="H1063" s="9"/>
       <c r="I1063"/>
       <c r="J1063" s="1" t="s">
-        <v>4341</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1064" spans="1:10" x14ac:dyDescent="0.2">
@@ -49470,7 +49503,7 @@
       <c r="H1064" s="9"/>
       <c r="I1064"/>
       <c r="J1064" s="1" t="s">
-        <v>4342</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1065" spans="1:10" x14ac:dyDescent="0.2">
@@ -49495,7 +49528,7 @@
       <c r="H1065" s="9"/>
       <c r="I1065"/>
       <c r="J1065" s="1" t="s">
-        <v>4343</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1066" spans="1:10" x14ac:dyDescent="0.2">
@@ -49520,7 +49553,7 @@
       <c r="H1066" s="9"/>
       <c r="I1066"/>
       <c r="J1066" s="1" t="s">
-        <v>4344</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1067" spans="1:10" x14ac:dyDescent="0.2">
@@ -49545,7 +49578,7 @@
       <c r="H1067" s="9"/>
       <c r="I1067"/>
       <c r="J1067" s="1" t="s">
-        <v>4345</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1068" spans="1:10" x14ac:dyDescent="0.2">
@@ -49570,7 +49603,7 @@
       <c r="H1068" s="9"/>
       <c r="I1068"/>
       <c r="J1068" s="1" t="s">
-        <v>4346</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1069" spans="1:10" x14ac:dyDescent="0.2">
@@ -49595,7 +49628,7 @@
       <c r="H1069" s="9"/>
       <c r="I1069"/>
       <c r="J1069" s="1" t="s">
-        <v>4347</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="1070" spans="1:10" x14ac:dyDescent="0.2">
@@ -49620,7 +49653,7 @@
       <c r="H1070" s="9"/>
       <c r="I1070"/>
       <c r="J1070" s="1" t="s">
-        <v>4348</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1071" spans="1:10" x14ac:dyDescent="0.2">
@@ -49645,7 +49678,7 @@
       <c r="H1071" s="9"/>
       <c r="I1071"/>
       <c r="J1071" s="1" t="s">
-        <v>4349</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="1072" spans="1:10" x14ac:dyDescent="0.2">
@@ -49670,7 +49703,7 @@
       <c r="H1072" s="9"/>
       <c r="I1072"/>
       <c r="J1072" s="1" t="s">
-        <v>4350</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1073" spans="1:10" x14ac:dyDescent="0.2">
@@ -49695,7 +49728,7 @@
       <c r="H1073" s="9"/>
       <c r="I1073"/>
       <c r="J1073" s="1" t="s">
-        <v>4351</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="1074" spans="1:10" x14ac:dyDescent="0.2">
@@ -49720,7 +49753,7 @@
       <c r="H1074" s="9"/>
       <c r="I1074"/>
       <c r="J1074" s="1" t="s">
-        <v>4352</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1075" spans="1:10" x14ac:dyDescent="0.2">
@@ -49745,7 +49778,7 @@
       <c r="H1075" s="9"/>
       <c r="I1075"/>
       <c r="J1075" s="1" t="s">
-        <v>4353</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1076" spans="1:10" x14ac:dyDescent="0.2">
@@ -49770,7 +49803,7 @@
       <c r="H1076" s="9"/>
       <c r="I1076"/>
       <c r="J1076" s="1" t="s">
-        <v>4354</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1077" spans="1:10" x14ac:dyDescent="0.2">
@@ -49795,7 +49828,7 @@
       <c r="H1077" s="9"/>
       <c r="I1077"/>
       <c r="J1077" s="1" t="s">
-        <v>4355</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="1078" spans="1:10" x14ac:dyDescent="0.2">
@@ -49820,7 +49853,7 @@
       <c r="H1078" s="9"/>
       <c r="I1078"/>
       <c r="J1078" s="1" t="s">
-        <v>1244</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1079" spans="1:10" x14ac:dyDescent="0.2">
@@ -49845,7 +49878,7 @@
       <c r="H1079" s="9"/>
       <c r="I1079"/>
       <c r="J1079" s="1" t="s">
-        <v>1248</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1080" spans="1:10" x14ac:dyDescent="0.2">
@@ -49870,7 +49903,7 @@
       <c r="H1080" s="9"/>
       <c r="I1080"/>
       <c r="J1080" s="1" t="s">
-        <v>1251</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1081" spans="1:10" x14ac:dyDescent="0.2">
@@ -49895,7 +49928,7 @@
       <c r="H1081" s="9"/>
       <c r="I1081"/>
       <c r="J1081" s="1" t="s">
-        <v>1256</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.2">
@@ -49920,7 +49953,7 @@
       <c r="H1082" s="9"/>
       <c r="I1082"/>
       <c r="J1082" s="1" t="s">
-        <v>4356</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1083" spans="1:10" x14ac:dyDescent="0.2">
@@ -49945,7 +49978,7 @@
       <c r="H1083" s="9"/>
       <c r="I1083"/>
       <c r="J1083" s="1" t="s">
-        <v>4357</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1084" spans="1:10" x14ac:dyDescent="0.2">
@@ -49970,7 +50003,7 @@
       <c r="H1084" s="9"/>
       <c r="I1084"/>
       <c r="J1084" s="1" t="s">
-        <v>4358</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1085" spans="1:10" x14ac:dyDescent="0.2">
@@ -49995,7 +50028,7 @@
       <c r="H1085" s="9"/>
       <c r="I1085"/>
       <c r="J1085" s="1" t="s">
-        <v>4359</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1086" spans="1:10" x14ac:dyDescent="0.2">
@@ -50020,7 +50053,7 @@
       <c r="H1086" s="9"/>
       <c r="I1086"/>
       <c r="J1086" s="1" t="s">
-        <v>4360</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1087" spans="1:10" x14ac:dyDescent="0.2">
@@ -50045,7 +50078,7 @@
       <c r="H1087" s="9"/>
       <c r="I1087"/>
       <c r="J1087" s="1" t="s">
-        <v>4361</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1088" spans="1:10" x14ac:dyDescent="0.2">
@@ -50070,7 +50103,7 @@
       <c r="H1088" s="9"/>
       <c r="I1088"/>
       <c r="J1088" s="1" t="s">
-        <v>4362</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1089" spans="1:10" x14ac:dyDescent="0.2">
@@ -50095,7 +50128,7 @@
       <c r="H1089" s="9"/>
       <c r="I1089"/>
       <c r="J1089" s="1" t="s">
-        <v>4363</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1090" spans="1:10" x14ac:dyDescent="0.2">
@@ -50120,7 +50153,7 @@
       <c r="H1090" s="9"/>
       <c r="I1090"/>
       <c r="J1090" s="1" t="s">
-        <v>1258</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1091" spans="1:10" x14ac:dyDescent="0.2">
@@ -50145,7 +50178,7 @@
       <c r="H1091" s="9"/>
       <c r="I1091"/>
       <c r="J1091" s="1" t="s">
-        <v>1262</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1092" spans="1:10" x14ac:dyDescent="0.2">
@@ -50170,7 +50203,7 @@
       <c r="H1092" s="9"/>
       <c r="I1092"/>
       <c r="J1092" s="1" t="s">
-        <v>1265</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1093" spans="1:10" x14ac:dyDescent="0.2">
@@ -50195,7 +50228,7 @@
       <c r="H1093" s="9"/>
       <c r="I1093"/>
       <c r="J1093" s="1" t="s">
-        <v>1269</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1094" spans="1:10" x14ac:dyDescent="0.2">
@@ -50220,7 +50253,7 @@
       <c r="H1094" s="9"/>
       <c r="I1094"/>
       <c r="J1094" s="1" t="s">
-        <v>1272</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1095" spans="1:10" x14ac:dyDescent="0.2">
@@ -50245,7 +50278,7 @@
       <c r="H1095" s="9"/>
       <c r="I1095"/>
       <c r="J1095" s="1" t="s">
-        <v>1275</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1096" spans="1:10" x14ac:dyDescent="0.2">
@@ -50270,7 +50303,7 @@
       <c r="H1096" s="9"/>
       <c r="I1096"/>
       <c r="J1096" s="1" t="s">
-        <v>4364</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1097" spans="1:10" x14ac:dyDescent="0.2">
@@ -50295,7 +50328,7 @@
       <c r="H1097" s="9"/>
       <c r="I1097"/>
       <c r="J1097" s="1" t="s">
-        <v>4365</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1098" spans="1:10" x14ac:dyDescent="0.2">
@@ -50320,7 +50353,7 @@
       <c r="H1098" s="9"/>
       <c r="I1098"/>
       <c r="J1098" s="1" t="s">
-        <v>4366</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1099" spans="1:10" x14ac:dyDescent="0.2">
@@ -50345,7 +50378,7 @@
       <c r="H1099" s="9"/>
       <c r="I1099"/>
       <c r="J1099" s="1" t="s">
-        <v>4307</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1100" spans="1:10" x14ac:dyDescent="0.2">
@@ -50370,7 +50403,7 @@
       <c r="H1100" s="9"/>
       <c r="I1100"/>
       <c r="J1100" s="1" t="s">
-        <v>4367</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1101" spans="1:10" x14ac:dyDescent="0.2">
@@ -50395,7 +50428,7 @@
       <c r="H1101" s="9"/>
       <c r="I1101"/>
       <c r="J1101" s="1" t="s">
-        <v>4368</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1102" spans="1:10" x14ac:dyDescent="0.2">
@@ -50420,7 +50453,7 @@
       <c r="H1102" s="9"/>
       <c r="I1102"/>
       <c r="J1102" s="1" t="s">
-        <v>4369</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1103" spans="1:10" x14ac:dyDescent="0.2">
@@ -50445,7 +50478,7 @@
       <c r="H1103" s="9"/>
       <c r="I1103"/>
       <c r="J1103" s="1" t="s">
-        <v>4370</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1104" spans="1:10" x14ac:dyDescent="0.2">
@@ -50470,7 +50503,7 @@
       <c r="H1104" s="9"/>
       <c r="I1104"/>
       <c r="J1104" s="1" t="s">
-        <v>4371</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1105" spans="1:10" x14ac:dyDescent="0.2">
@@ -50495,7 +50528,7 @@
       <c r="H1105" s="9"/>
       <c r="I1105"/>
       <c r="J1105" s="1" t="s">
-        <v>4372</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1106" spans="1:10" x14ac:dyDescent="0.2">
@@ -50520,7 +50553,7 @@
       <c r="H1106" s="9"/>
       <c r="I1106"/>
       <c r="J1106" s="1" t="s">
-        <v>4373</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1107" spans="1:10" x14ac:dyDescent="0.2">
@@ -50545,7 +50578,7 @@
       <c r="H1107" s="9"/>
       <c r="I1107"/>
       <c r="J1107" s="1" t="s">
-        <v>4374</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.2">
@@ -50570,7 +50603,7 @@
       <c r="H1108" s="9"/>
       <c r="I1108"/>
       <c r="J1108" s="1" t="s">
-        <v>4375</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1109" spans="1:10" x14ac:dyDescent="0.2">
@@ -50595,7 +50628,7 @@
       <c r="H1109" s="9"/>
       <c r="I1109"/>
       <c r="J1109" s="1" t="s">
-        <v>4376</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.2">
@@ -50620,7 +50653,7 @@
       <c r="H1110" s="9"/>
       <c r="I1110"/>
       <c r="J1110" s="1" t="s">
-        <v>4377</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1111" spans="1:10" x14ac:dyDescent="0.2">
@@ -50645,7 +50678,7 @@
       <c r="H1111" s="9"/>
       <c r="I1111"/>
       <c r="J1111" s="1" t="s">
-        <v>1279</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1112" spans="1:10" x14ac:dyDescent="0.2">
@@ -50670,7 +50703,7 @@
       <c r="H1112" s="9"/>
       <c r="I1112"/>
       <c r="J1112" s="1" t="s">
-        <v>1283</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.2">
@@ -50695,7 +50728,7 @@
       <c r="H1113" s="9"/>
       <c r="I1113"/>
       <c r="J1113" s="1" t="s">
-        <v>639</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1114" spans="1:10" x14ac:dyDescent="0.2">
@@ -50720,7 +50753,7 @@
       <c r="H1114" s="9"/>
       <c r="I1114"/>
       <c r="J1114" s="1" t="s">
-        <v>1290</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1115" spans="1:10" x14ac:dyDescent="0.2">
@@ -50745,7 +50778,7 @@
       <c r="H1115" s="9"/>
       <c r="I1115"/>
       <c r="J1115" s="1" t="s">
-        <v>1294</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1116" spans="1:10" x14ac:dyDescent="0.2">
@@ -50769,7 +50802,7 @@
       </c>
       <c r="H1116" s="9"/>
       <c r="J1116" s="1" t="s">
-        <v>1297</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1117" spans="1:10" x14ac:dyDescent="0.2">
@@ -50792,7 +50825,7 @@
         <v>2723</v>
       </c>
       <c r="J1117" s="1" t="s">
-        <v>18</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1118" spans="1:10" x14ac:dyDescent="0.2">
@@ -50815,7 +50848,7 @@
         <v>2725</v>
       </c>
       <c r="J1118" s="1" t="s">
-        <v>4378</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1119" spans="1:10" x14ac:dyDescent="0.2">
@@ -50838,7 +50871,7 @@
         <v>2727</v>
       </c>
       <c r="J1119" s="1" t="s">
-        <v>4379</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1120" spans="1:10" x14ac:dyDescent="0.2">
@@ -50861,7 +50894,7 @@
         <v>2729</v>
       </c>
       <c r="J1120" s="1" t="s">
-        <v>4380</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1121" spans="1:10" x14ac:dyDescent="0.2">
@@ -50884,7 +50917,7 @@
         <v>2732</v>
       </c>
       <c r="J1121" s="1" t="s">
-        <v>4381</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1122" spans="1:10" x14ac:dyDescent="0.2">
@@ -50907,7 +50940,7 @@
         <v>2735</v>
       </c>
       <c r="J1122" s="1" t="s">
-        <v>4382</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1123" spans="1:10" x14ac:dyDescent="0.2">
@@ -50933,7 +50966,7 @@
         <v>2738</v>
       </c>
       <c r="J1123" s="1" t="s">
-        <v>4383</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1124" spans="1:10" x14ac:dyDescent="0.2">
@@ -50956,7 +50989,7 @@
         <v>2741</v>
       </c>
       <c r="J1124" s="1" t="s">
-        <v>4384</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1125" spans="1:10" x14ac:dyDescent="0.2">
@@ -50979,7 +51012,7 @@
         <v>2743</v>
       </c>
       <c r="J1125" s="1" t="s">
-        <v>4385</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1126" spans="1:10" x14ac:dyDescent="0.2">
@@ -51002,7 +51035,7 @@
         <v>2745</v>
       </c>
       <c r="J1126" s="1" t="s">
-        <v>4386</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1127" spans="1:10" x14ac:dyDescent="0.2">
@@ -51025,7 +51058,7 @@
         <v>2747</v>
       </c>
       <c r="J1127" s="1" t="s">
-        <v>4387</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1128" spans="1:10" x14ac:dyDescent="0.2">
@@ -51048,7 +51081,7 @@
         <v>2749</v>
       </c>
       <c r="J1128" s="1" t="s">
-        <v>4388</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1129" spans="1:10" x14ac:dyDescent="0.2">
@@ -51071,7 +51104,7 @@
         <v>2752</v>
       </c>
       <c r="J1129" s="1" t="s">
-        <v>4389</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1130" spans="1:10" x14ac:dyDescent="0.2">
@@ -51094,7 +51127,7 @@
         <v>2754</v>
       </c>
       <c r="J1130" s="1" t="s">
-        <v>4390</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1131" spans="1:10" x14ac:dyDescent="0.2">
@@ -51117,7 +51150,7 @@
         <v>2756</v>
       </c>
       <c r="J1131" s="1" t="s">
-        <v>4391</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1132" spans="1:10" x14ac:dyDescent="0.2">
@@ -51140,7 +51173,7 @@
         <v>2759</v>
       </c>
       <c r="J1132" s="1" t="s">
-        <v>4392</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1133" spans="1:10" x14ac:dyDescent="0.2">
@@ -51163,7 +51196,7 @@
         <v>2761</v>
       </c>
       <c r="J1133" s="1" t="s">
-        <v>4393</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1134" spans="1:10" x14ac:dyDescent="0.2">
@@ -51186,7 +51219,7 @@
         <v>2763</v>
       </c>
       <c r="J1134" s="1" t="s">
-        <v>4394</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1135" spans="1:10" x14ac:dyDescent="0.2">
@@ -51209,7 +51242,7 @@
         <v>2765</v>
       </c>
       <c r="J1135" s="1" t="s">
-        <v>4395</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1136" spans="1:10" x14ac:dyDescent="0.2">
@@ -51232,7 +51265,7 @@
         <v>2768</v>
       </c>
       <c r="J1136" s="1" t="s">
-        <v>4396</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1137" spans="1:10" x14ac:dyDescent="0.2">
@@ -51255,7 +51288,7 @@
         <v>2771</v>
       </c>
       <c r="J1137" s="1" t="s">
-        <v>4397</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1138" spans="1:10" x14ac:dyDescent="0.2">
@@ -51278,7 +51311,7 @@
         <v>2774</v>
       </c>
       <c r="J1138" s="1" t="s">
-        <v>1301</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1139" spans="1:10" x14ac:dyDescent="0.2">
@@ -51301,7 +51334,7 @@
         <v>2777</v>
       </c>
       <c r="J1139" s="1" t="s">
-        <v>4398</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1140" spans="1:10" x14ac:dyDescent="0.2">
@@ -51324,7 +51357,7 @@
         <v>2779</v>
       </c>
       <c r="J1140" s="1" t="s">
-        <v>4307</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1141" spans="1:10" x14ac:dyDescent="0.2">
@@ -51347,7 +51380,7 @@
         <v>2781</v>
       </c>
       <c r="J1141" s="1" t="s">
-        <v>4399</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1142" spans="1:10" x14ac:dyDescent="0.2">
@@ -51370,7 +51403,7 @@
         <v>2783</v>
       </c>
       <c r="J1142" s="1" t="s">
-        <v>4400</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1143" spans="1:10" x14ac:dyDescent="0.2">
@@ -51393,7 +51426,7 @@
         <v>2785</v>
       </c>
       <c r="J1143" s="1" t="s">
-        <v>4401</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1144" spans="1:10" x14ac:dyDescent="0.2">
@@ -51416,7 +51449,7 @@
         <v>2787</v>
       </c>
       <c r="J1144" s="1" t="s">
-        <v>4402</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1145" spans="1:10" x14ac:dyDescent="0.2">
@@ -51439,7 +51472,7 @@
         <v>2790</v>
       </c>
       <c r="J1145" s="1" t="s">
-        <v>4403</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1146" spans="1:10" x14ac:dyDescent="0.2">
@@ -51462,7 +51495,7 @@
         <v>2793</v>
       </c>
       <c r="J1146" s="1" t="s">
-        <v>4404</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1147" spans="1:10" x14ac:dyDescent="0.2">
@@ -51485,7 +51518,7 @@
         <v>2795</v>
       </c>
       <c r="J1147" s="1" t="s">
-        <v>4405</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1148" spans="1:10" x14ac:dyDescent="0.2">
@@ -51508,7 +51541,7 @@
         <v>2798</v>
       </c>
       <c r="J1148" s="1" t="s">
-        <v>4406</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1149" spans="1:10" x14ac:dyDescent="0.2">
@@ -51531,7 +51564,7 @@
         <v>2800</v>
       </c>
       <c r="J1149" s="1" t="s">
-        <v>4407</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1150" spans="1:10" x14ac:dyDescent="0.2">
@@ -51554,7 +51587,7 @@
         <v>2802</v>
       </c>
       <c r="J1150" s="1" t="s">
-        <v>4408</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1151" spans="1:10" x14ac:dyDescent="0.2">
@@ -51577,7 +51610,7 @@
         <v>2805</v>
       </c>
       <c r="J1151" s="1" t="s">
-        <v>4409</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1152" spans="1:10" x14ac:dyDescent="0.2">
@@ -51600,7 +51633,7 @@
         <v>2806</v>
       </c>
       <c r="J1152" s="1" t="s">
-        <v>4410</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1153" spans="1:10" x14ac:dyDescent="0.2">
@@ -51623,7 +51656,7 @@
         <v>2808</v>
       </c>
       <c r="J1153" s="1" t="s">
-        <v>4411</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1154" spans="1:10" x14ac:dyDescent="0.2">
@@ -51646,7 +51679,7 @@
         <v>2810</v>
       </c>
       <c r="J1154" s="1" t="s">
-        <v>4412</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1155" spans="1:10" x14ac:dyDescent="0.2">
@@ -51669,7 +51702,7 @@
         <v>2813</v>
       </c>
       <c r="J1155" s="1" t="s">
-        <v>4413</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1156" spans="1:10" x14ac:dyDescent="0.2">
@@ -51692,7 +51725,7 @@
         <v>2816</v>
       </c>
       <c r="J1156" s="1" t="s">
-        <v>1304</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1157" spans="1:10" x14ac:dyDescent="0.2">
@@ -51715,7 +51748,7 @@
         <v>2818</v>
       </c>
       <c r="J1157" s="1" t="s">
-        <v>1307</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1158" spans="1:10" x14ac:dyDescent="0.2">
@@ -51738,7 +51771,7 @@
         <v>2820</v>
       </c>
       <c r="J1158" s="1" t="s">
-        <v>1310</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1159" spans="1:10" x14ac:dyDescent="0.2">
@@ -51761,7 +51794,7 @@
         <v>2822</v>
       </c>
       <c r="J1159" s="1" t="s">
-        <v>4414</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1160" spans="1:10" x14ac:dyDescent="0.2">
@@ -51784,7 +51817,7 @@
         <v>2824</v>
       </c>
       <c r="J1160" s="1" t="s">
-        <v>4415</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1161" spans="1:10" x14ac:dyDescent="0.2">
@@ -51807,7 +51840,7 @@
         <v>2826</v>
       </c>
       <c r="J1161" s="1" t="s">
-        <v>4416</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1162" spans="1:10" x14ac:dyDescent="0.2">
@@ -51830,7 +51863,7 @@
         <v>2829</v>
       </c>
       <c r="J1162" s="1" t="s">
-        <v>4417</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1163" spans="1:10" x14ac:dyDescent="0.2">
@@ -51853,7 +51886,7 @@
         <v>2831</v>
       </c>
       <c r="J1163" s="1" t="s">
-        <v>4418</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1164" spans="1:10" x14ac:dyDescent="0.2">
@@ -51876,7 +51909,7 @@
         <v>2833</v>
       </c>
       <c r="J1164" s="1" t="s">
-        <v>4419</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1165" spans="1:10" x14ac:dyDescent="0.2">
@@ -51899,7 +51932,7 @@
         <v>2835</v>
       </c>
       <c r="J1165" s="1" t="s">
-        <v>4420</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1166" spans="1:10" x14ac:dyDescent="0.2">
@@ -51922,7 +51955,7 @@
         <v>2838</v>
       </c>
       <c r="J1166" s="1" t="s">
-        <v>4421</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1167" spans="1:10" x14ac:dyDescent="0.2">
@@ -51945,7 +51978,7 @@
         <v>2841</v>
       </c>
       <c r="J1167" s="1" t="s">
-        <v>4422</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1168" spans="1:10" x14ac:dyDescent="0.2">
@@ -51968,7 +52001,7 @@
         <v>2843</v>
       </c>
       <c r="J1168" s="1" t="s">
-        <v>4423</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1169" spans="1:10" x14ac:dyDescent="0.2">
@@ -51994,7 +52027,7 @@
         <v>2847</v>
       </c>
       <c r="J1169" s="1" t="s">
-        <v>4424</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1170" spans="1:10" x14ac:dyDescent="0.2">
@@ -52017,7 +52050,7 @@
         <v>2849</v>
       </c>
       <c r="J1170" s="1" t="s">
-        <v>4425</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1171" spans="1:10" x14ac:dyDescent="0.2">
@@ -52040,7 +52073,7 @@
         <v>2852</v>
       </c>
       <c r="J1171" s="1" t="s">
-        <v>4426</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1172" spans="1:10" x14ac:dyDescent="0.2">
@@ -52063,7 +52096,7 @@
         <v>2854</v>
       </c>
       <c r="J1172" s="1" t="s">
-        <v>4427</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1173" spans="1:10" x14ac:dyDescent="0.2">
@@ -52086,7 +52119,7 @@
         <v>2856</v>
       </c>
       <c r="J1173" s="1" t="s">
-        <v>4428</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1174" spans="1:10" x14ac:dyDescent="0.2">
@@ -52109,7 +52142,7 @@
         <v>2858</v>
       </c>
       <c r="J1174" s="1" t="s">
-        <v>4429</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="1175" spans="1:10" x14ac:dyDescent="0.2">
@@ -52132,7 +52165,7 @@
         <v>2860</v>
       </c>
       <c r="J1175" s="1" t="s">
-        <v>1313</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1176" spans="1:10" x14ac:dyDescent="0.2">
@@ -52158,7 +52191,7 @@
         <v>2862</v>
       </c>
       <c r="J1176" s="1" t="s">
-        <v>1316</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="1177" spans="1:10" x14ac:dyDescent="0.2">
@@ -52181,7 +52214,7 @@
         <v>2864</v>
       </c>
       <c r="J1177" s="1" t="s">
-        <v>1320</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1178" spans="1:10" x14ac:dyDescent="0.2">
@@ -52204,7 +52237,7 @@
         <v>2866</v>
       </c>
       <c r="J1178" s="1" t="s">
-        <v>1323</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1179" spans="1:10" x14ac:dyDescent="0.2">
@@ -52227,7 +52260,7 @@
         <v>2868</v>
       </c>
       <c r="J1179" s="1" t="s">
-        <v>1326</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1180" spans="1:10" x14ac:dyDescent="0.2">
@@ -52250,7 +52283,7 @@
         <v>2870</v>
       </c>
       <c r="J1180" s="1" t="s">
-        <v>4430</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="1181" spans="1:10" x14ac:dyDescent="0.2">
@@ -52273,7 +52306,7 @@
         <v>2872</v>
       </c>
       <c r="J1181" s="1" t="s">
-        <v>4431</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1182" spans="1:10" x14ac:dyDescent="0.2">
@@ -52296,7 +52329,7 @@
         <v>2874</v>
       </c>
       <c r="J1182" s="1" t="s">
-        <v>4432</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="1183" spans="1:10" x14ac:dyDescent="0.2">
@@ -52319,7 +52352,7 @@
         <v>2877</v>
       </c>
       <c r="J1183" s="1" t="s">
-        <v>4433</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1184" spans="1:10" x14ac:dyDescent="0.2">
@@ -52345,7 +52378,7 @@
         <v>2879</v>
       </c>
       <c r="J1184" s="1" t="s">
-        <v>4434</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1185" spans="1:10" x14ac:dyDescent="0.2">
@@ -52368,7 +52401,7 @@
         <v>2881</v>
       </c>
       <c r="J1185" s="1" t="s">
-        <v>4435</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1186" spans="1:10" x14ac:dyDescent="0.2">
@@ -52391,7 +52424,7 @@
         <v>2883</v>
       </c>
       <c r="J1186" s="1" t="s">
-        <v>4436</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1187" spans="1:10" x14ac:dyDescent="0.2">
@@ -52414,7 +52447,7 @@
         <v>2886</v>
       </c>
       <c r="J1187" s="1" t="s">
-        <v>4437</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="1188" spans="1:10" x14ac:dyDescent="0.2">
@@ -52437,7 +52470,7 @@
         <v>2888</v>
       </c>
       <c r="J1188" s="1" t="s">
-        <v>4438</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1189" spans="1:10" x14ac:dyDescent="0.2">
@@ -52460,7 +52493,7 @@
         <v>2890</v>
       </c>
       <c r="J1189" s="1" t="s">
-        <v>4439</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1190" spans="1:10" x14ac:dyDescent="0.2">
@@ -52483,7 +52516,7 @@
         <v>2892</v>
       </c>
       <c r="J1190" s="1" t="s">
-        <v>4440</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1191" spans="1:10" x14ac:dyDescent="0.2">
@@ -52506,7 +52539,7 @@
         <v>2895</v>
       </c>
       <c r="J1191" s="1" t="s">
-        <v>4441</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="1192" spans="1:10" x14ac:dyDescent="0.2">
@@ -52529,7 +52562,7 @@
         <v>2897</v>
       </c>
       <c r="J1192" s="1" t="s">
-        <v>1330</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1193" spans="1:10" x14ac:dyDescent="0.2">
@@ -52552,7 +52585,7 @@
         <v>2899</v>
       </c>
       <c r="J1193" s="1" t="s">
-        <v>1334</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="1194" spans="1:10" x14ac:dyDescent="0.2">
@@ -52575,7 +52608,7 @@
         <v>2901</v>
       </c>
       <c r="J1194" s="1" t="s">
-        <v>1338</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1195" spans="1:10" x14ac:dyDescent="0.2">
@@ -52598,7 +52631,7 @@
         <v>2904</v>
       </c>
       <c r="J1195" s="1" t="s">
-        <v>1341</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1196" spans="1:10" x14ac:dyDescent="0.2">
@@ -52621,7 +52654,7 @@
         <v>2906</v>
       </c>
       <c r="J1196" s="1" t="s">
-        <v>1344</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1197" spans="1:10" x14ac:dyDescent="0.2">
@@ -52644,7 +52677,7 @@
         <v>2908</v>
       </c>
       <c r="J1197" s="1" t="s">
-        <v>1347</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="1198" spans="1:10" x14ac:dyDescent="0.2">
@@ -52667,7 +52700,7 @@
         <v>2910</v>
       </c>
       <c r="J1198" s="1" t="s">
-        <v>1351</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1199" spans="1:10" x14ac:dyDescent="0.2">
@@ -52690,7 +52723,7 @@
         <v>2912</v>
       </c>
       <c r="J1199" s="1" t="s">
-        <v>1354</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1200" spans="1:10" x14ac:dyDescent="0.2">
@@ -52713,7 +52746,7 @@
         <v>2914</v>
       </c>
       <c r="J1200" s="1" t="s">
-        <v>1357</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1201" spans="1:10" x14ac:dyDescent="0.2">
@@ -52736,7 +52769,7 @@
         <v>2917</v>
       </c>
       <c r="J1201" s="1" t="s">
-        <v>1360</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1202" spans="1:10" x14ac:dyDescent="0.2">
@@ -52759,7 +52792,7 @@
         <v>2920</v>
       </c>
       <c r="J1202" s="1" t="s">
-        <v>1365</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1203" spans="1:10" x14ac:dyDescent="0.2">
@@ -52782,7 +52815,7 @@
         <v>2923</v>
       </c>
       <c r="J1203" s="1" t="s">
-        <v>1368</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1204" spans="1:10" x14ac:dyDescent="0.2">
@@ -52805,7 +52838,7 @@
         <v>2925</v>
       </c>
       <c r="J1204" s="1" t="s">
-        <v>1371</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1205" spans="1:10" x14ac:dyDescent="0.2">
@@ -52828,7 +52861,7 @@
         <v>2927</v>
       </c>
       <c r="J1205" s="1" t="s">
-        <v>1375</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1206" spans="1:10" x14ac:dyDescent="0.2">
@@ -52851,7 +52884,7 @@
         <v>2929</v>
       </c>
       <c r="J1206" s="1" t="s">
-        <v>1378</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1207" spans="1:10" x14ac:dyDescent="0.2">
@@ -52874,7 +52907,7 @@
         <v>2932</v>
       </c>
       <c r="J1207" s="1" t="s">
-        <v>1381</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1208" spans="1:10" x14ac:dyDescent="0.2">
@@ -52897,7 +52930,7 @@
         <v>5265</v>
       </c>
       <c r="J1208" s="1" t="s">
-        <v>442</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1209" spans="1:10" x14ac:dyDescent="0.2">
@@ -52920,7 +52953,7 @@
         <v>5267</v>
       </c>
       <c r="J1209" s="1" t="s">
-        <v>1387</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1210" spans="1:10" x14ac:dyDescent="0.2">
@@ -52943,7 +52976,7 @@
         <v>5269</v>
       </c>
       <c r="J1210" s="1" t="s">
-        <v>1391</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1211" spans="1:10" x14ac:dyDescent="0.2">
@@ -52966,7 +52999,7 @@
         <v>5272</v>
       </c>
       <c r="J1211" s="1" t="s">
-        <v>1394</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1212" spans="1:10" x14ac:dyDescent="0.2">
@@ -52989,7 +53022,7 @@
         <v>5274</v>
       </c>
       <c r="J1212" s="1" t="s">
-        <v>1396</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1213" spans="1:10" x14ac:dyDescent="0.2">
@@ -53012,7 +53045,7 @@
         <v>5276</v>
       </c>
       <c r="J1213" s="1" t="s">
-        <v>1399</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1214" spans="1:10" x14ac:dyDescent="0.2">
@@ -53035,7 +53068,7 @@
         <v>5278</v>
       </c>
       <c r="J1214" s="1" t="s">
-        <v>1402</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1215" spans="1:10" x14ac:dyDescent="0.2">
@@ -53058,7 +53091,7 @@
         <v>5280</v>
       </c>
       <c r="J1215" s="1" t="s">
-        <v>1406</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1216" spans="1:10" x14ac:dyDescent="0.2">
@@ -53081,7 +53114,7 @@
         <v>5281</v>
       </c>
       <c r="J1216" s="1" t="s">
-        <v>1410</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1217" spans="1:10" x14ac:dyDescent="0.2">
@@ -53104,7 +53137,7 @@
         <v>5283</v>
       </c>
       <c r="J1217" s="1" t="s">
-        <v>1413</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="1218" spans="1:10" x14ac:dyDescent="0.2">
@@ -53127,7 +53160,7 @@
         <v>5285</v>
       </c>
       <c r="J1218" s="1" t="s">
-        <v>1417</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1219" spans="1:10" x14ac:dyDescent="0.2">
@@ -53153,7 +53186,7 @@
         <v>5287</v>
       </c>
       <c r="J1219" s="1" t="s">
-        <v>1420</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1220" spans="1:10" x14ac:dyDescent="0.2">
@@ -53176,7 +53209,7 @@
         <v>5289</v>
       </c>
       <c r="J1220" s="1" t="s">
-        <v>1423</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1221" spans="1:10" x14ac:dyDescent="0.2">
@@ -53199,7 +53232,7 @@
         <v>5290</v>
       </c>
       <c r="J1221" s="1" t="s">
-        <v>62</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1222" spans="1:10" x14ac:dyDescent="0.2">
@@ -53222,7 +53255,7 @@
         <v>5292</v>
       </c>
       <c r="J1222" s="1" t="s">
-        <v>1428</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1223" spans="1:10" x14ac:dyDescent="0.2">
@@ -53245,7 +53278,7 @@
         <v>5294</v>
       </c>
       <c r="J1223" s="1" t="s">
-        <v>1432</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1224" spans="1:10" x14ac:dyDescent="0.2">
@@ -53268,7 +53301,7 @@
         <v>5296</v>
       </c>
       <c r="J1224" s="1" t="s">
-        <v>1435</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1225" spans="1:10" x14ac:dyDescent="0.2">
@@ -53291,7 +53324,7 @@
         <v>5297</v>
       </c>
       <c r="J1225" s="1" t="s">
-        <v>1438</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1226" spans="1:10" x14ac:dyDescent="0.2">
@@ -53314,7 +53347,7 @@
         <v>5299</v>
       </c>
       <c r="J1226" s="1" t="s">
-        <v>1442</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1227" spans="1:10" x14ac:dyDescent="0.2">
@@ -53337,7 +53370,7 @@
         <v>5302</v>
       </c>
       <c r="J1227" s="1" t="s">
-        <v>1446</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1228" spans="1:10" x14ac:dyDescent="0.2">
@@ -53360,7 +53393,7 @@
         <v>5304</v>
       </c>
       <c r="J1228" s="1" t="s">
-        <v>4442</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1229" spans="1:10" x14ac:dyDescent="0.2">
@@ -53383,7 +53416,7 @@
         <v>5307</v>
       </c>
       <c r="J1229" s="1" t="s">
-        <v>4443</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1230" spans="1:10" x14ac:dyDescent="0.2">
@@ -53406,7 +53439,7 @@
         <v>5309</v>
       </c>
       <c r="J1230" s="1" t="s">
-        <v>4444</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1231" spans="1:10" x14ac:dyDescent="0.2">
@@ -53429,7 +53462,7 @@
         <v>5311</v>
       </c>
       <c r="J1231" s="1" t="s">
-        <v>4445</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1232" spans="1:10" x14ac:dyDescent="0.2">
@@ -53452,7 +53485,7 @@
         <v>5313</v>
       </c>
       <c r="J1232" s="1" t="s">
-        <v>4446</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1233" spans="1:10" x14ac:dyDescent="0.2">
@@ -53475,7 +53508,7 @@
         <v>5315</v>
       </c>
       <c r="J1233" s="1" t="s">
-        <v>4447</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1234" spans="1:10" x14ac:dyDescent="0.2">
@@ -53498,7 +53531,7 @@
         <v>5317</v>
       </c>
       <c r="J1234" s="1" t="s">
-        <v>4448</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1235" spans="1:10" x14ac:dyDescent="0.2">
@@ -53521,7 +53554,7 @@
         <v>5319</v>
       </c>
       <c r="J1235" s="1" t="s">
-        <v>4449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1236" spans="1:10" x14ac:dyDescent="0.2">
@@ -53544,7 +53577,7 @@
         <v>5320</v>
       </c>
       <c r="J1236" s="1" t="s">
-        <v>4450</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1237" spans="1:10" x14ac:dyDescent="0.2">
@@ -53567,7 +53600,7 @@
         <v>5322</v>
       </c>
       <c r="J1237" s="1" t="s">
-        <v>4451</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1238" spans="1:10" x14ac:dyDescent="0.2">
@@ -53590,7 +53623,7 @@
         <v>5324</v>
       </c>
       <c r="J1238" s="1" t="s">
-        <v>4452</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1239" spans="1:10" x14ac:dyDescent="0.2">
@@ -53613,7 +53646,7 @@
         <v>5326</v>
       </c>
       <c r="J1239" s="1" t="s">
-        <v>4453</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1240" spans="1:10" x14ac:dyDescent="0.2">
@@ -53636,7 +53669,7 @@
         <v>5328</v>
       </c>
       <c r="J1240" s="1" t="s">
-        <v>4454</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1241" spans="1:10" x14ac:dyDescent="0.2">
@@ -53659,7 +53692,7 @@
         <v>5330</v>
       </c>
       <c r="J1241" s="1" t="s">
-        <v>4455</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1242" spans="1:10" x14ac:dyDescent="0.2">
@@ -53682,7 +53715,7 @@
         <v>5332</v>
       </c>
       <c r="J1242" s="1" t="s">
-        <v>4456</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1243" spans="1:10" x14ac:dyDescent="0.2">
@@ -53705,7 +53738,7 @@
         <v>5335</v>
       </c>
       <c r="J1243" s="1" t="s">
-        <v>2991</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1244" spans="1:10" x14ac:dyDescent="0.2">
@@ -53731,7 +53764,7 @@
         <v>5336</v>
       </c>
       <c r="J1244" s="1" t="s">
-        <v>4457</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1245" spans="1:10" x14ac:dyDescent="0.2">
@@ -53754,7 +53787,7 @@
         <v>5338</v>
       </c>
       <c r="J1245" s="1" t="s">
-        <v>4458</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1246" spans="1:10" x14ac:dyDescent="0.2">
@@ -53777,7 +53810,7 @@
         <v>5340</v>
       </c>
       <c r="J1246" s="1" t="s">
-        <v>2942</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1247" spans="1:10" x14ac:dyDescent="0.2">
@@ -53800,7 +53833,7 @@
         <v>5343</v>
       </c>
       <c r="J1247" s="1" t="s">
-        <v>4459</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1248" spans="1:10" x14ac:dyDescent="0.2">
@@ -53823,7 +53856,7 @@
         <v>5345</v>
       </c>
       <c r="J1248" s="1" t="s">
-        <v>4460</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1249" spans="1:10" x14ac:dyDescent="0.2">
@@ -53846,7 +53879,7 @@
         <v>5347</v>
       </c>
       <c r="J1249" s="1" t="s">
-        <v>4442</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1250" spans="1:10" x14ac:dyDescent="0.2">
@@ -53869,7 +53902,7 @@
         <v>5350</v>
       </c>
       <c r="J1250" s="1" t="s">
-        <v>1449</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1251" spans="1:10" x14ac:dyDescent="0.2">
@@ -53892,7 +53925,7 @@
         <v>5352</v>
       </c>
       <c r="J1251" s="1" t="s">
-        <v>1452</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1252" spans="1:10" x14ac:dyDescent="0.2">
@@ -53915,7 +53948,7 @@
         <v>5354</v>
       </c>
       <c r="J1252" s="1" t="s">
-        <v>1456</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1253" spans="1:10" x14ac:dyDescent="0.2">
@@ -53938,7 +53971,7 @@
         <v>5356</v>
       </c>
       <c r="J1253" s="1" t="s">
-        <v>1459</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1254" spans="1:10" x14ac:dyDescent="0.2">
@@ -53961,7 +53994,7 @@
         <v>5358</v>
       </c>
       <c r="J1254" s="1" t="s">
-        <v>1462</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1255" spans="1:10" x14ac:dyDescent="0.2">
@@ -53984,7 +54017,7 @@
         <v>5360</v>
       </c>
       <c r="J1255" s="1" t="s">
-        <v>1465</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1256" spans="1:10" x14ac:dyDescent="0.2">
@@ -54007,7 +54040,7 @@
         <v>5362</v>
       </c>
       <c r="J1256" s="1" t="s">
-        <v>1469</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1257" spans="1:10" x14ac:dyDescent="0.2">
@@ -54030,7 +54063,7 @@
         <v>5363</v>
       </c>
       <c r="J1257" s="1" t="s">
-        <v>591</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1258" spans="1:10" x14ac:dyDescent="0.2">
@@ -54053,7 +54086,7 @@
         <v>5366</v>
       </c>
       <c r="J1258" s="1" t="s">
-        <v>1475</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1259" spans="1:10" x14ac:dyDescent="0.2">
@@ -54077,7 +54110,7 @@
       </c>
       <c r="I1259"/>
       <c r="J1259" s="1" t="s">
-        <v>1478</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1260" spans="1:10" x14ac:dyDescent="0.2">
@@ -54102,7 +54135,7 @@
       <c r="H1260" s="9"/>
       <c r="I1260"/>
       <c r="J1260" s="1" t="s">
-        <v>1480</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1261" spans="1:10" x14ac:dyDescent="0.2">
@@ -54127,7 +54160,7 @@
       <c r="H1261" s="9"/>
       <c r="I1261"/>
       <c r="J1261" s="1" t="s">
-        <v>1484</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1262" spans="1:10" x14ac:dyDescent="0.2">
@@ -54152,7 +54185,7 @@
       <c r="H1262" s="9"/>
       <c r="I1262"/>
       <c r="J1262" s="1" t="s">
-        <v>1487</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1263" spans="1:10" x14ac:dyDescent="0.2">
@@ -54177,7 +54210,7 @@
       <c r="H1263" s="9"/>
       <c r="I1263"/>
       <c r="J1263" s="1" t="s">
-        <v>1491</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1264" spans="1:10" x14ac:dyDescent="0.2">
@@ -54202,7 +54235,7 @@
       <c r="H1264" s="9"/>
       <c r="I1264"/>
       <c r="J1264" s="1" t="s">
-        <v>1495</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1265" spans="1:10" x14ac:dyDescent="0.2">
@@ -54227,7 +54260,7 @@
       <c r="H1265" s="9"/>
       <c r="I1265"/>
       <c r="J1265" s="1" t="s">
-        <v>1498</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1266" spans="1:10" x14ac:dyDescent="0.2">
@@ -54252,7 +54285,7 @@
       <c r="H1266" s="9"/>
       <c r="I1266"/>
       <c r="J1266" s="1" t="s">
-        <v>1501</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1267" spans="1:10" x14ac:dyDescent="0.2">
@@ -54277,7 +54310,7 @@
       <c r="H1267" s="9"/>
       <c r="I1267"/>
       <c r="J1267" s="1" t="s">
-        <v>1504</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1268" spans="1:10" x14ac:dyDescent="0.2">
@@ -54302,7 +54335,7 @@
       <c r="H1268" s="9"/>
       <c r="I1268"/>
       <c r="J1268" s="1" t="s">
-        <v>1507</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1269" spans="1:10" x14ac:dyDescent="0.2">
@@ -54326,8 +54359,8 @@
       </c>
       <c r="H1269" s="9"/>
       <c r="I1269"/>
-      <c r="J1269" s="4" t="s">
-        <v>1297</v>
+      <c r="J1269" s="1" t="s">
+        <v>4456</v>
       </c>
     </row>
     <row r="1270" spans="1:10" x14ac:dyDescent="0.2">
@@ -54352,7 +54385,7 @@
       <c r="H1270" s="9"/>
       <c r="I1270"/>
       <c r="J1270" s="1" t="s">
-        <v>1513</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1271" spans="1:10" x14ac:dyDescent="0.2">
@@ -54377,7 +54410,7 @@
       <c r="H1271" s="9"/>
       <c r="I1271"/>
       <c r="J1271" s="1" t="s">
-        <v>1517</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1272" spans="1:10" x14ac:dyDescent="0.2">
@@ -54402,7 +54435,7 @@
       <c r="H1272" s="9"/>
       <c r="I1272"/>
       <c r="J1272" s="1" t="s">
-        <v>1520</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1273" spans="1:10" x14ac:dyDescent="0.2">
@@ -54427,7 +54460,7 @@
       <c r="H1273" s="9"/>
       <c r="I1273"/>
       <c r="J1273" s="1" t="s">
-        <v>1524</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1274" spans="1:10" x14ac:dyDescent="0.2">
@@ -54452,7 +54485,7 @@
       <c r="H1274" s="9"/>
       <c r="I1274"/>
       <c r="J1274" s="1" t="s">
-        <v>1528</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1275" spans="1:10" x14ac:dyDescent="0.2">
@@ -54477,7 +54510,7 @@
       <c r="H1275" s="9"/>
       <c r="I1275"/>
       <c r="J1275" s="1" t="s">
-        <v>1532</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1276" spans="1:10" x14ac:dyDescent="0.2">
@@ -54502,7 +54535,7 @@
       <c r="H1276" s="9"/>
       <c r="I1276"/>
       <c r="J1276" s="1" t="s">
-        <v>1535</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1277" spans="1:10" x14ac:dyDescent="0.2">
@@ -54527,7 +54560,7 @@
       <c r="H1277" s="9"/>
       <c r="I1277"/>
       <c r="J1277" s="1" t="s">
-        <v>1538</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1278" spans="1:10" x14ac:dyDescent="0.2">
@@ -54552,7 +54585,7 @@
       <c r="H1278" s="9"/>
       <c r="I1278"/>
       <c r="J1278" s="1" t="s">
-        <v>1542</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1279" spans="1:10" x14ac:dyDescent="0.2">
@@ -54580,7 +54613,7 @@
       <c r="H1279" s="9"/>
       <c r="I1279"/>
       <c r="J1279" s="1" t="s">
-        <v>1546</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1280" spans="1:10" x14ac:dyDescent="0.2">
@@ -54608,7 +54641,7 @@
       <c r="H1280" s="9"/>
       <c r="I1280"/>
       <c r="J1280" s="1" t="s">
-        <v>1550</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1281" spans="1:10" x14ac:dyDescent="0.2">
@@ -54633,7 +54666,7 @@
       <c r="H1281" s="9"/>
       <c r="I1281"/>
       <c r="J1281" s="1" t="s">
-        <v>1553</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1282" spans="1:10" x14ac:dyDescent="0.2">
@@ -54658,7 +54691,7 @@
       <c r="H1282" s="9"/>
       <c r="I1282"/>
       <c r="J1282" s="1" t="s">
-        <v>1556</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1283" spans="1:10" x14ac:dyDescent="0.2">
@@ -54683,7 +54716,7 @@
       <c r="H1283" s="9"/>
       <c r="I1283"/>
       <c r="J1283" s="1" t="s">
-        <v>1560</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1284" spans="1:10" x14ac:dyDescent="0.2">
@@ -54708,7 +54741,7 @@
       <c r="H1284" s="9"/>
       <c r="I1284"/>
       <c r="J1284" s="1" t="s">
-        <v>1564</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1285" spans="1:10" x14ac:dyDescent="0.2">
@@ -54733,7 +54766,7 @@
       <c r="H1285" s="9"/>
       <c r="I1285"/>
       <c r="J1285" s="1" t="s">
-        <v>1567</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1286" spans="1:10" x14ac:dyDescent="0.2">
@@ -54758,7 +54791,7 @@
       <c r="H1286" s="9"/>
       <c r="I1286"/>
       <c r="J1286" s="1" t="s">
-        <v>1570</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1287" spans="1:10" x14ac:dyDescent="0.2">
@@ -54783,7 +54816,7 @@
       <c r="H1287" s="9"/>
       <c r="I1287"/>
       <c r="J1287" s="1" t="s">
-        <v>1573</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1288" spans="1:10" x14ac:dyDescent="0.2">
@@ -54808,7 +54841,7 @@
       <c r="H1288" s="9"/>
       <c r="I1288"/>
       <c r="J1288" s="1" t="s">
-        <v>1577</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1289" spans="1:10" x14ac:dyDescent="0.2">
@@ -54833,7 +54866,7 @@
       <c r="H1289" s="9"/>
       <c r="I1289"/>
       <c r="J1289" s="1" t="s">
-        <v>1581</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1290" spans="1:10" x14ac:dyDescent="0.2">
@@ -54858,7 +54891,7 @@
       <c r="H1290" s="9"/>
       <c r="I1290"/>
       <c r="J1290" s="1" t="s">
-        <v>1585</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1291" spans="1:10" x14ac:dyDescent="0.2">
@@ -54883,7 +54916,7 @@
       <c r="H1291" s="9"/>
       <c r="I1291"/>
       <c r="J1291" s="1" t="s">
-        <v>4461</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1292" spans="1:10" x14ac:dyDescent="0.2">
@@ -54908,7 +54941,7 @@
       <c r="H1292" s="9"/>
       <c r="I1292"/>
       <c r="J1292" s="1" t="s">
-        <v>1804</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1293" spans="1:10" x14ac:dyDescent="0.2">
@@ -54933,7 +54966,7 @@
       <c r="H1293" s="9"/>
       <c r="I1293"/>
       <c r="J1293" s="1" t="s">
-        <v>3062</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1294" spans="1:10" x14ac:dyDescent="0.2">
@@ -54958,7 +54991,7 @@
       <c r="H1294" s="9"/>
       <c r="I1294"/>
       <c r="J1294" s="1" t="s">
-        <v>4462</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1295" spans="1:10" x14ac:dyDescent="0.2">
@@ -54983,7 +55016,7 @@
       <c r="H1295" s="9"/>
       <c r="I1295"/>
       <c r="J1295" s="1" t="s">
-        <v>4463</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1296" spans="1:10" x14ac:dyDescent="0.2">
@@ -55007,8 +55040,8 @@
       </c>
       <c r="H1296" s="9"/>
       <c r="I1296"/>
-      <c r="J1296" s="1" t="s">
-        <v>4464</v>
+      <c r="J1296" s="4" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1297" spans="1:10" x14ac:dyDescent="0.2">
@@ -55033,7 +55066,7 @@
       <c r="H1297" s="9"/>
       <c r="I1297"/>
       <c r="J1297" s="1" t="s">
-        <v>4465</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1298" spans="1:10" x14ac:dyDescent="0.2">
@@ -55058,7 +55091,7 @@
       <c r="H1298" s="9"/>
       <c r="I1298"/>
       <c r="J1298" s="1" t="s">
-        <v>4466</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1299" spans="1:10" x14ac:dyDescent="0.2">
@@ -55083,7 +55116,7 @@
       <c r="H1299" s="9"/>
       <c r="I1299"/>
       <c r="J1299" s="1" t="s">
-        <v>4467</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1300" spans="1:10" x14ac:dyDescent="0.2">
@@ -55108,7 +55141,7 @@
       <c r="H1300" s="9"/>
       <c r="I1300"/>
       <c r="J1300" s="1" t="s">
-        <v>4468</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1301" spans="1:10" x14ac:dyDescent="0.2">
@@ -55133,7 +55166,7 @@
       <c r="H1301" s="9"/>
       <c r="I1301"/>
       <c r="J1301" s="1" t="s">
-        <v>4469</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1302" spans="1:10" x14ac:dyDescent="0.2">
@@ -55158,7 +55191,7 @@
       <c r="H1302" s="9"/>
       <c r="I1302"/>
       <c r="J1302" s="1" t="s">
-        <v>4470</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1303" spans="1:10" x14ac:dyDescent="0.2">
@@ -55183,7 +55216,7 @@
       <c r="H1303" s="9"/>
       <c r="I1303"/>
       <c r="J1303" s="1" t="s">
-        <v>4471</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1304" spans="1:10" x14ac:dyDescent="0.2">
@@ -55208,7 +55241,7 @@
       <c r="H1304" s="9"/>
       <c r="I1304"/>
       <c r="J1304" s="1" t="s">
-        <v>3037</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1305" spans="1:10" x14ac:dyDescent="0.2">
@@ -55233,7 +55266,7 @@
       <c r="H1305" s="9"/>
       <c r="I1305"/>
       <c r="J1305" s="1" t="s">
-        <v>4472</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1306" spans="1:10" x14ac:dyDescent="0.2">
@@ -55258,7 +55291,7 @@
       <c r="H1306" s="9"/>
       <c r="I1306"/>
       <c r="J1306" s="1" t="s">
-        <v>4473</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1307" spans="1:10" x14ac:dyDescent="0.2">
@@ -55286,7 +55319,7 @@
       <c r="H1307" s="9"/>
       <c r="I1307"/>
       <c r="J1307" s="1" t="s">
-        <v>4474</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1308" spans="1:10" x14ac:dyDescent="0.2">
@@ -55311,7 +55344,7 @@
       <c r="H1308" s="9"/>
       <c r="I1308"/>
       <c r="J1308" s="1" t="s">
-        <v>4475</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1309" spans="1:10" x14ac:dyDescent="0.2">
@@ -55336,7 +55369,7 @@
       <c r="H1309" s="9"/>
       <c r="I1309"/>
       <c r="J1309" s="1" t="s">
-        <v>4461</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1310" spans="1:10" x14ac:dyDescent="0.2">
@@ -55361,7 +55394,7 @@
       <c r="H1310" s="9"/>
       <c r="I1310"/>
       <c r="J1310" s="1" t="s">
-        <v>1589</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1311" spans="1:10" x14ac:dyDescent="0.2">
@@ -55386,7 +55419,7 @@
       <c r="H1311" s="9"/>
       <c r="I1311"/>
       <c r="J1311" s="1" t="s">
-        <v>1592</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1312" spans="1:10" x14ac:dyDescent="0.2">
@@ -55411,7 +55444,7 @@
       <c r="H1312" s="9"/>
       <c r="I1312"/>
       <c r="J1312" s="1" t="s">
-        <v>1596</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1313" spans="1:10" x14ac:dyDescent="0.2">
@@ -55436,7 +55469,7 @@
       <c r="H1313" s="9"/>
       <c r="I1313"/>
       <c r="J1313" s="1" t="s">
-        <v>1600</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1314" spans="1:10" x14ac:dyDescent="0.2">
@@ -55461,7 +55494,7 @@
       <c r="H1314" s="9"/>
       <c r="I1314"/>
       <c r="J1314" s="1" t="s">
-        <v>1603</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1315" spans="1:10" x14ac:dyDescent="0.2">
@@ -55486,7 +55519,7 @@
       <c r="H1315" s="9"/>
       <c r="I1315"/>
       <c r="J1315" s="1" t="s">
-        <v>1606</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1316" spans="1:10" x14ac:dyDescent="0.2">
@@ -55511,7 +55544,7 @@
       <c r="H1316" s="9"/>
       <c r="I1316"/>
       <c r="J1316" s="1" t="s">
-        <v>1609</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1317" spans="1:10" x14ac:dyDescent="0.2">
@@ -55536,7 +55569,7 @@
       <c r="H1317" s="9"/>
       <c r="I1317"/>
       <c r="J1317" s="1" t="s">
-        <v>1611</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1318" spans="1:10" x14ac:dyDescent="0.2">
@@ -55561,7 +55594,7 @@
       <c r="H1318" s="9"/>
       <c r="I1318"/>
       <c r="J1318" s="1" t="s">
-        <v>1614</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1319" spans="1:10" x14ac:dyDescent="0.2">
@@ -55586,7 +55619,7 @@
       <c r="H1319" s="9"/>
       <c r="I1319"/>
       <c r="J1319" s="1" t="s">
-        <v>1618</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1320" spans="1:10" x14ac:dyDescent="0.2">
@@ -55611,7 +55644,7 @@
       <c r="H1320" s="9"/>
       <c r="I1320"/>
       <c r="J1320" s="1" t="s">
-        <v>1621</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1321" spans="1:10" x14ac:dyDescent="0.2">
@@ -55636,7 +55669,7 @@
       <c r="H1321" s="9"/>
       <c r="I1321"/>
       <c r="J1321" s="1" t="s">
-        <v>1624</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1322" spans="1:10" x14ac:dyDescent="0.2">
@@ -55661,7 +55694,7 @@
       <c r="H1322" s="9"/>
       <c r="I1322"/>
       <c r="J1322" s="1" t="s">
-        <v>1628</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1323" spans="1:10" x14ac:dyDescent="0.2">
@@ -55686,7 +55719,7 @@
       <c r="H1323" s="9"/>
       <c r="I1323"/>
       <c r="J1323" s="1" t="s">
-        <v>1632</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1324" spans="1:10" x14ac:dyDescent="0.2">
@@ -55711,7 +55744,7 @@
       <c r="H1324" s="9"/>
       <c r="I1324"/>
       <c r="J1324" s="1" t="s">
-        <v>1636</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1325" spans="1:10" x14ac:dyDescent="0.2">
@@ -55736,7 +55769,7 @@
       <c r="H1325" s="9"/>
       <c r="I1325"/>
       <c r="J1325" s="1" t="s">
-        <v>1639</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1326" spans="1:10" x14ac:dyDescent="0.2">
@@ -55761,7 +55794,7 @@
       <c r="H1326" s="9"/>
       <c r="I1326"/>
       <c r="J1326" s="1" t="s">
-        <v>1642</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1327" spans="1:10" x14ac:dyDescent="0.2">
@@ -55786,7 +55819,7 @@
       <c r="H1327" s="9"/>
       <c r="I1327"/>
       <c r="J1327" s="1" t="s">
-        <v>1646</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1328" spans="1:10" x14ac:dyDescent="0.2">
@@ -55811,7 +55844,7 @@
       <c r="H1328" s="9"/>
       <c r="I1328"/>
       <c r="J1328" s="1" t="s">
-        <v>1122</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1329" spans="1:10" x14ac:dyDescent="0.2">
@@ -55836,7 +55869,7 @@
       <c r="H1329" s="9"/>
       <c r="I1329"/>
       <c r="J1329" s="1" t="s">
-        <v>1652</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1330" spans="1:10" x14ac:dyDescent="0.2">
@@ -55861,7 +55894,7 @@
       <c r="H1330" s="9"/>
       <c r="I1330"/>
       <c r="J1330" s="1" t="s">
-        <v>1655</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1331" spans="1:10" x14ac:dyDescent="0.2">
@@ -55886,7 +55919,7 @@
       <c r="H1331" s="9"/>
       <c r="I1331"/>
       <c r="J1331" s="1" t="s">
-        <v>1658</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1332" spans="1:10" x14ac:dyDescent="0.2">
@@ -55911,7 +55944,7 @@
       <c r="H1332" s="9"/>
       <c r="I1332"/>
       <c r="J1332" s="1" t="s">
-        <v>1661</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1333" spans="1:10" x14ac:dyDescent="0.2">
@@ -55936,7 +55969,7 @@
       <c r="H1333" s="9"/>
       <c r="I1333"/>
       <c r="J1333" s="1" t="s">
-        <v>1664</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1334" spans="1:10" x14ac:dyDescent="0.2">
@@ -55961,7 +55994,7 @@
       <c r="H1334" s="9"/>
       <c r="I1334"/>
       <c r="J1334" s="1" t="s">
-        <v>1667</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1335" spans="1:10" x14ac:dyDescent="0.2">
@@ -55986,7 +56019,7 @@
       <c r="H1335" s="9"/>
       <c r="I1335"/>
       <c r="J1335" s="1" t="s">
-        <v>1670</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1336" spans="1:10" x14ac:dyDescent="0.2">
@@ -56014,7 +56047,7 @@
       <c r="H1336" s="9"/>
       <c r="I1336"/>
       <c r="J1336" s="1" t="s">
-        <v>1673</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1337" spans="1:10" x14ac:dyDescent="0.2">
@@ -56039,7 +56072,7 @@
       <c r="H1337" s="9"/>
       <c r="I1337"/>
       <c r="J1337" s="1" t="s">
-        <v>1677</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1338" spans="1:10" x14ac:dyDescent="0.2">
@@ -56064,7 +56097,7 @@
       <c r="H1338" s="9"/>
       <c r="I1338"/>
       <c r="J1338" s="1" t="s">
-        <v>445</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1339" spans="1:10" x14ac:dyDescent="0.2">
@@ -56092,7 +56125,7 @@
       <c r="H1339" s="9"/>
       <c r="I1339"/>
       <c r="J1339" s="1" t="s">
-        <v>1682</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1340" spans="1:10" x14ac:dyDescent="0.2">
@@ -56117,7 +56150,7 @@
       <c r="H1340" s="9"/>
       <c r="I1340"/>
       <c r="J1340" s="1" t="s">
-        <v>1685</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1341" spans="1:10" x14ac:dyDescent="0.2">
@@ -56145,7 +56178,7 @@
       <c r="H1341" s="9"/>
       <c r="I1341"/>
       <c r="J1341" s="1" t="s">
-        <v>1688</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1342" spans="1:10" x14ac:dyDescent="0.2">
@@ -56170,7 +56203,7 @@
       <c r="H1342" s="9"/>
       <c r="I1342"/>
       <c r="J1342" s="1" t="s">
-        <v>1691</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1343" spans="1:10" x14ac:dyDescent="0.2">
@@ -56195,7 +56228,7 @@
       <c r="H1343" s="9"/>
       <c r="I1343"/>
       <c r="J1343" s="1" t="s">
-        <v>1694</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1344" spans="1:10" x14ac:dyDescent="0.2">
@@ -56220,7 +56253,7 @@
       <c r="H1344" s="9"/>
       <c r="I1344"/>
       <c r="J1344" s="1" t="s">
-        <v>1697</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1345" spans="1:10" x14ac:dyDescent="0.2">
@@ -56245,7 +56278,7 @@
       <c r="H1345" s="9"/>
       <c r="I1345"/>
       <c r="J1345" s="1" t="s">
-        <v>1700</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1346" spans="1:10" x14ac:dyDescent="0.2">
@@ -56270,7 +56303,7 @@
       <c r="H1346" s="9"/>
       <c r="I1346"/>
       <c r="J1346" s="1" t="s">
-        <v>1704</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.2">
@@ -56295,7 +56328,7 @@
       <c r="H1347" s="9"/>
       <c r="I1347"/>
       <c r="J1347" s="1" t="s">
-        <v>1708</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1348" spans="1:10" x14ac:dyDescent="0.2">
@@ -56320,7 +56353,7 @@
       <c r="H1348" s="9"/>
       <c r="I1348"/>
       <c r="J1348" s="1" t="s">
-        <v>1711</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1349" spans="1:10" x14ac:dyDescent="0.2">
@@ -56345,7 +56378,7 @@
       <c r="H1349" s="9"/>
       <c r="I1349"/>
       <c r="J1349" s="1" t="s">
-        <v>1714</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1350" spans="1:10" x14ac:dyDescent="0.2">
@@ -56370,7 +56403,7 @@
       <c r="H1350" s="9"/>
       <c r="I1350"/>
       <c r="J1350" s="1" t="s">
-        <v>4476</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1351" spans="1:10" x14ac:dyDescent="0.2">
@@ -56395,7 +56428,7 @@
       <c r="H1351" s="9"/>
       <c r="I1351"/>
       <c r="J1351" s="1" t="s">
-        <v>3247</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1352" spans="1:10" x14ac:dyDescent="0.2">
@@ -56420,7 +56453,7 @@
       <c r="H1352" s="9"/>
       <c r="I1352"/>
       <c r="J1352" s="1" t="s">
-        <v>4477</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1353" spans="1:10" x14ac:dyDescent="0.2">
@@ -56445,7 +56478,7 @@
       <c r="H1353" s="9"/>
       <c r="I1353"/>
       <c r="J1353" s="1" t="s">
-        <v>4478</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1354" spans="1:10" x14ac:dyDescent="0.2">
@@ -56470,7 +56503,7 @@
       <c r="H1354" s="9"/>
       <c r="I1354"/>
       <c r="J1354" s="1" t="s">
-        <v>4479</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1355" spans="1:10" x14ac:dyDescent="0.2">
@@ -56495,7 +56528,7 @@
       <c r="H1355" s="9"/>
       <c r="I1355"/>
       <c r="J1355" s="1" t="s">
-        <v>4480</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1356" spans="1:10" x14ac:dyDescent="0.2">
@@ -56520,7 +56553,7 @@
       <c r="H1356" s="9"/>
       <c r="I1356"/>
       <c r="J1356" s="1" t="s">
-        <v>4481</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1357" spans="1:10" x14ac:dyDescent="0.2">
@@ -56545,7 +56578,7 @@
       <c r="H1357" s="9"/>
       <c r="I1357"/>
       <c r="J1357" s="1" t="s">
-        <v>3169</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1358" spans="1:10" x14ac:dyDescent="0.2">
@@ -56570,7 +56603,7 @@
       <c r="H1358" s="9"/>
       <c r="I1358"/>
       <c r="J1358" s="1" t="s">
-        <v>4482</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1359" spans="1:10" x14ac:dyDescent="0.2">
@@ -56595,7 +56628,7 @@
       <c r="H1359" s="9"/>
       <c r="I1359"/>
       <c r="J1359" s="1" t="s">
-        <v>4483</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1360" spans="1:10" x14ac:dyDescent="0.2">
@@ -56620,7 +56653,7 @@
       <c r="H1360" s="9"/>
       <c r="I1360"/>
       <c r="J1360" s="1" t="s">
-        <v>4484</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1361" spans="1:10" x14ac:dyDescent="0.2">
@@ -56645,7 +56678,7 @@
       <c r="H1361" s="9"/>
       <c r="I1361"/>
       <c r="J1361" s="1" t="s">
-        <v>4485</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1362" spans="1:10" x14ac:dyDescent="0.2">
@@ -56670,7 +56703,7 @@
       <c r="H1362" s="9"/>
       <c r="I1362"/>
       <c r="J1362" s="1" t="s">
-        <v>4486</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1363" spans="1:10" x14ac:dyDescent="0.2">
@@ -56695,7 +56728,7 @@
       <c r="H1363" s="9"/>
       <c r="I1363"/>
       <c r="J1363" s="1" t="s">
-        <v>4487</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1364" spans="1:10" x14ac:dyDescent="0.2">
@@ -56720,7 +56753,7 @@
       <c r="H1364" s="9"/>
       <c r="I1364"/>
       <c r="J1364" s="1" t="s">
-        <v>4488</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1365" spans="1:10" x14ac:dyDescent="0.2">
@@ -56745,7 +56778,7 @@
       <c r="H1365" s="9"/>
       <c r="I1365"/>
       <c r="J1365" s="1" t="s">
-        <v>1718</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1366" spans="1:10" x14ac:dyDescent="0.2">
@@ -56770,7 +56803,7 @@
       <c r="H1366" s="9"/>
       <c r="I1366"/>
       <c r="J1366" s="1" t="s">
-        <v>1722</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.2">
@@ -56795,7 +56828,7 @@
       <c r="H1367" s="9"/>
       <c r="I1367"/>
       <c r="J1367" s="1" t="s">
-        <v>1725</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1368" spans="1:10" x14ac:dyDescent="0.2">
@@ -56820,7 +56853,7 @@
       <c r="H1368" s="9"/>
       <c r="I1368"/>
       <c r="J1368" s="1" t="s">
-        <v>1729</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1369" spans="1:10" x14ac:dyDescent="0.2">
@@ -56845,7 +56878,7 @@
       <c r="H1369" s="9"/>
       <c r="I1369"/>
       <c r="J1369" s="1" t="s">
-        <v>1732</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1370" spans="1:10" x14ac:dyDescent="0.2">
@@ -56870,7 +56903,7 @@
       <c r="H1370" s="9"/>
       <c r="I1370"/>
       <c r="J1370" s="1" t="s">
-        <v>1737</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1371" spans="1:10" x14ac:dyDescent="0.2">
@@ -56895,7 +56928,7 @@
       <c r="H1371" s="9"/>
       <c r="I1371"/>
       <c r="J1371" s="1" t="s">
-        <v>1740</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1372" spans="1:10" x14ac:dyDescent="0.2">
@@ -56923,7 +56956,7 @@
       <c r="H1372" s="9"/>
       <c r="I1372"/>
       <c r="J1372" s="1" t="s">
-        <v>1743</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1373" spans="1:10" x14ac:dyDescent="0.2">
@@ -56948,7 +56981,7 @@
       <c r="H1373" s="9"/>
       <c r="I1373"/>
       <c r="J1373" s="1" t="s">
-        <v>1747</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1374" spans="1:10" x14ac:dyDescent="0.2">
@@ -56973,7 +57006,7 @@
       <c r="H1374" s="9"/>
       <c r="I1374"/>
       <c r="J1374" s="1" t="s">
-        <v>1750</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1375" spans="1:10" x14ac:dyDescent="0.2">
@@ -56998,7 +57031,7 @@
       <c r="H1375" s="9"/>
       <c r="I1375"/>
       <c r="J1375" s="1" t="s">
-        <v>1754</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1376" spans="1:10" x14ac:dyDescent="0.2">
@@ -57023,7 +57056,7 @@
       <c r="H1376" s="9"/>
       <c r="I1376"/>
       <c r="J1376" s="1" t="s">
-        <v>1757</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1377" spans="1:10" x14ac:dyDescent="0.2">
@@ -57048,7 +57081,7 @@
       <c r="H1377" s="9"/>
       <c r="I1377"/>
       <c r="J1377" s="1" t="s">
-        <v>1760</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1378" spans="1:10" x14ac:dyDescent="0.2">
@@ -57073,7 +57106,7 @@
       <c r="H1378" s="9"/>
       <c r="I1378"/>
       <c r="J1378" s="1" t="s">
-        <v>1763</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1379" spans="1:10" x14ac:dyDescent="0.2">
@@ -57098,7 +57131,7 @@
       <c r="H1379" s="9"/>
       <c r="I1379"/>
       <c r="J1379" s="1" t="s">
-        <v>1766</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1380" spans="1:10" x14ac:dyDescent="0.2">
@@ -57126,7 +57159,7 @@
       <c r="H1380" s="9"/>
       <c r="I1380"/>
       <c r="J1380" s="1" t="s">
-        <v>1769</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1381" spans="1:10" x14ac:dyDescent="0.2">
@@ -57151,7 +57184,7 @@
       <c r="H1381" s="9"/>
       <c r="I1381"/>
       <c r="J1381" s="1" t="s">
-        <v>1772</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1382" spans="1:10" x14ac:dyDescent="0.2">
@@ -57176,7 +57209,7 @@
       <c r="H1382" s="9"/>
       <c r="I1382"/>
       <c r="J1382" s="1" t="s">
-        <v>1775</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1383" spans="1:10" x14ac:dyDescent="0.2">
@@ -57201,7 +57234,7 @@
       <c r="H1383" s="9"/>
       <c r="I1383"/>
       <c r="J1383" s="1" t="s">
-        <v>1778</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1384" spans="1:10" x14ac:dyDescent="0.2">
@@ -57226,7 +57259,7 @@
       <c r="H1384" s="9"/>
       <c r="I1384"/>
       <c r="J1384" s="1" t="s">
-        <v>1782</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1385" spans="1:10" x14ac:dyDescent="0.2">
@@ -57254,7 +57287,7 @@
       <c r="H1385" s="9"/>
       <c r="I1385"/>
       <c r="J1385" s="1" t="s">
-        <v>1784</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1386" spans="1:10" x14ac:dyDescent="0.2">
@@ -57279,7 +57312,7 @@
       <c r="H1386" s="9"/>
       <c r="I1386"/>
       <c r="J1386" s="1" t="s">
-        <v>1787</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1387" spans="1:10" x14ac:dyDescent="0.2">
@@ -57304,7 +57337,7 @@
       <c r="H1387" s="9"/>
       <c r="I1387"/>
       <c r="J1387" s="1" t="s">
-        <v>1791</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1388" spans="1:10" x14ac:dyDescent="0.2">
@@ -57332,7 +57365,7 @@
       <c r="H1388" s="9"/>
       <c r="I1388"/>
       <c r="J1388" s="1" t="s">
-        <v>1795</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1389" spans="1:10" x14ac:dyDescent="0.2">
@@ -57360,7 +57393,7 @@
       <c r="H1389" s="9"/>
       <c r="I1389"/>
       <c r="J1389" s="1" t="s">
-        <v>1797</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.2">
@@ -57385,7 +57418,7 @@
       <c r="H1390" s="9"/>
       <c r="I1390"/>
       <c r="J1390" s="1" t="s">
-        <v>1799</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1391" spans="1:10" x14ac:dyDescent="0.2">
@@ -57410,7 +57443,7 @@
       <c r="H1391" s="9"/>
       <c r="I1391"/>
       <c r="J1391" s="1" t="s">
-        <v>1803</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1392" spans="1:10" x14ac:dyDescent="0.2">
@@ -57435,7 +57468,7 @@
       <c r="H1392" s="9"/>
       <c r="I1392"/>
       <c r="J1392" s="1" t="s">
-        <v>1807</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1393" spans="1:10" x14ac:dyDescent="0.2">
@@ -57463,7 +57496,7 @@
       <c r="H1393" s="9"/>
       <c r="I1393"/>
       <c r="J1393" s="1" t="s">
-        <v>1810</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.2">
@@ -57488,7 +57521,7 @@
       <c r="H1394" s="9"/>
       <c r="I1394"/>
       <c r="J1394" s="1" t="s">
-        <v>1813</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.2">
@@ -57513,7 +57546,7 @@
       <c r="H1395" s="9"/>
       <c r="I1395"/>
       <c r="J1395" s="1" t="s">
-        <v>1816</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1396" spans="1:10" x14ac:dyDescent="0.2">
@@ -57538,7 +57571,7 @@
       <c r="H1396" s="9"/>
       <c r="I1396"/>
       <c r="J1396" s="1" t="s">
-        <v>1821</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1397" spans="1:10" x14ac:dyDescent="0.2">
@@ -57563,7 +57596,7 @@
       <c r="H1397" s="9"/>
       <c r="I1397"/>
       <c r="J1397" s="1" t="s">
-        <v>1824</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1398" spans="1:10" x14ac:dyDescent="0.2">
@@ -57588,7 +57621,7 @@
       <c r="H1398" s="9"/>
       <c r="I1398"/>
       <c r="J1398" s="1" t="s">
-        <v>1828</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1399" spans="1:10" x14ac:dyDescent="0.2">
@@ -57613,7 +57646,7 @@
       <c r="H1399" s="9"/>
       <c r="I1399"/>
       <c r="J1399" s="1" t="s">
-        <v>1832</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1400" spans="1:10" x14ac:dyDescent="0.2">
@@ -57638,7 +57671,7 @@
       <c r="H1400" s="9"/>
       <c r="I1400"/>
       <c r="J1400" s="1" t="s">
-        <v>1836</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1401" spans="1:10" x14ac:dyDescent="0.2">
@@ -57663,7 +57696,7 @@
       <c r="H1401" s="9"/>
       <c r="I1401"/>
       <c r="J1401" s="1" t="s">
-        <v>1840</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.2">
@@ -57688,7 +57721,7 @@
       <c r="H1402" s="9"/>
       <c r="I1402"/>
       <c r="J1402" s="1" t="s">
-        <v>1843</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1403" spans="1:10" x14ac:dyDescent="0.2">
@@ -57713,7 +57746,7 @@
       <c r="H1403" s="9"/>
       <c r="I1403"/>
       <c r="J1403" s="1" t="s">
-        <v>1846</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1404" spans="1:10" x14ac:dyDescent="0.2">
@@ -57738,7 +57771,7 @@
       <c r="H1404" s="9"/>
       <c r="I1404"/>
       <c r="J1404" s="1" t="s">
-        <v>1850</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1405" spans="1:10" x14ac:dyDescent="0.2">
@@ -57766,7 +57799,7 @@
       <c r="H1405" s="9"/>
       <c r="I1405"/>
       <c r="J1405" s="1" t="s">
-        <v>1853</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1406" spans="1:10" x14ac:dyDescent="0.2">
@@ -57791,7 +57824,7 @@
       <c r="H1406" s="9"/>
       <c r="I1406"/>
       <c r="J1406" s="1" t="s">
-        <v>1856</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1407" spans="1:10" x14ac:dyDescent="0.2">
@@ -57816,7 +57849,7 @@
       <c r="H1407" s="9"/>
       <c r="I1407"/>
       <c r="J1407" s="1" t="s">
-        <v>1859</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1408" spans="1:10" x14ac:dyDescent="0.2">
@@ -57841,7 +57874,7 @@
       <c r="H1408" s="9"/>
       <c r="I1408"/>
       <c r="J1408" s="1" t="s">
-        <v>4489</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1409" spans="1:10" x14ac:dyDescent="0.2">
@@ -57866,7 +57899,7 @@
       <c r="H1409" s="9"/>
       <c r="I1409"/>
       <c r="J1409" s="1" t="s">
-        <v>4490</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1410" spans="1:10" x14ac:dyDescent="0.2">
@@ -57891,7 +57924,7 @@
       <c r="H1410" s="9"/>
       <c r="I1410"/>
       <c r="J1410" s="1" t="s">
-        <v>4491</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.2">
@@ -57916,7 +57949,7 @@
       <c r="H1411" s="9"/>
       <c r="I1411"/>
       <c r="J1411" s="1" t="s">
-        <v>3348</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1412" spans="1:10" x14ac:dyDescent="0.2">
@@ -57941,7 +57974,7 @@
       <c r="H1412" s="9"/>
       <c r="I1412"/>
       <c r="J1412" s="1" t="s">
-        <v>4492</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1413" spans="1:10" x14ac:dyDescent="0.2">
@@ -57966,7 +57999,7 @@
       <c r="H1413" s="9"/>
       <c r="I1413"/>
       <c r="J1413" s="1" t="s">
-        <v>4307</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.2">
@@ -57991,7 +58024,7 @@
       <c r="H1414" s="9"/>
       <c r="I1414"/>
       <c r="J1414" s="1" t="s">
-        <v>4493</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1415" spans="1:10" x14ac:dyDescent="0.2">
@@ -58016,7 +58049,7 @@
       <c r="H1415" s="9"/>
       <c r="I1415"/>
       <c r="J1415" s="1" t="s">
-        <v>4494</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1416" spans="1:10" x14ac:dyDescent="0.2">
@@ -58041,7 +58074,7 @@
       <c r="H1416" s="9"/>
       <c r="I1416"/>
       <c r="J1416" s="1" t="s">
-        <v>4489</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1417" spans="1:10" x14ac:dyDescent="0.2">
@@ -58066,7 +58099,7 @@
       <c r="H1417" s="9"/>
       <c r="I1417"/>
       <c r="J1417" s="1" t="s">
-        <v>4490</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1418" spans="1:10" x14ac:dyDescent="0.2">
@@ -58091,7 +58124,7 @@
       <c r="H1418" s="9"/>
       <c r="I1418"/>
       <c r="J1418" s="1" t="s">
-        <v>1862</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1419" spans="1:10" x14ac:dyDescent="0.2">
@@ -58116,7 +58149,7 @@
       <c r="H1419" s="9"/>
       <c r="I1419"/>
       <c r="J1419" s="1" t="s">
-        <v>1865</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1420" spans="1:10" x14ac:dyDescent="0.2">
@@ -58141,7 +58174,7 @@
       <c r="H1420" s="9"/>
       <c r="I1420"/>
       <c r="J1420" s="1" t="s">
-        <v>402</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1421" spans="1:10" x14ac:dyDescent="0.2">
@@ -58166,7 +58199,7 @@
       <c r="H1421" s="9"/>
       <c r="I1421"/>
       <c r="J1421" s="1" t="s">
-        <v>107</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1422" spans="1:10" x14ac:dyDescent="0.2">
@@ -58191,7 +58224,7 @@
       <c r="H1422" s="9"/>
       <c r="I1422"/>
       <c r="J1422" s="1" t="s">
-        <v>1873</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1423" spans="1:10" x14ac:dyDescent="0.2">
@@ -58216,7 +58249,7 @@
       <c r="H1423" s="9"/>
       <c r="I1423"/>
       <c r="J1423" s="1" t="s">
-        <v>1876</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1424" spans="1:10" x14ac:dyDescent="0.2">
@@ -58241,7 +58274,7 @@
       <c r="H1424" s="9"/>
       <c r="I1424"/>
       <c r="J1424" s="1" t="s">
-        <v>1879</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1425" spans="1:10" x14ac:dyDescent="0.2">
@@ -58266,7 +58299,7 @@
       <c r="H1425" s="9"/>
       <c r="I1425"/>
       <c r="J1425" s="1" t="s">
-        <v>1883</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.2">
@@ -58291,7 +58324,7 @@
       <c r="H1426" s="9"/>
       <c r="I1426"/>
       <c r="J1426" s="1" t="s">
-        <v>214</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.2">
@@ -58316,7 +58349,7 @@
       <c r="H1427" s="9"/>
       <c r="I1427"/>
       <c r="J1427" s="1" t="s">
-        <v>1889</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1428" spans="1:10" x14ac:dyDescent="0.2">
@@ -58341,7 +58374,7 @@
       <c r="H1428" s="9"/>
       <c r="I1428"/>
       <c r="J1428" s="1" t="s">
-        <v>1891</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.2">
@@ -58366,7 +58399,7 @@
       <c r="H1429" s="9"/>
       <c r="I1429"/>
       <c r="J1429" s="1" t="s">
-        <v>1895</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.2">
@@ -58391,7 +58424,7 @@
       <c r="H1430" s="9"/>
       <c r="I1430"/>
       <c r="J1430" s="1" t="s">
-        <v>1898</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.2">
@@ -58416,7 +58449,7 @@
       <c r="H1431" s="9"/>
       <c r="I1431"/>
       <c r="J1431" s="1" t="s">
-        <v>1901</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.2">
@@ -58444,7 +58477,7 @@
       <c r="H1432" s="9"/>
       <c r="I1432"/>
       <c r="J1432" s="1" t="s">
-        <v>1905</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.2">
@@ -58469,7 +58502,7 @@
       <c r="H1433" s="9"/>
       <c r="I1433"/>
       <c r="J1433" s="1" t="s">
-        <v>1908</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.2">
@@ -58494,7 +58527,7 @@
       <c r="H1434" s="9"/>
       <c r="I1434"/>
       <c r="J1434" s="1" t="s">
-        <v>1913</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.2">
@@ -58519,7 +58552,7 @@
       <c r="H1435" s="9"/>
       <c r="I1435"/>
       <c r="J1435" s="1" t="s">
-        <v>1916</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.2">
@@ -58544,7 +58577,7 @@
       <c r="H1436" s="9"/>
       <c r="I1436"/>
       <c r="J1436" s="1" t="s">
-        <v>1920</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.2">
@@ -58569,7 +58602,7 @@
       <c r="H1437" s="9"/>
       <c r="I1437"/>
       <c r="J1437" s="1" t="s">
-        <v>1924</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1438" spans="1:10" x14ac:dyDescent="0.2">
@@ -58594,7 +58627,7 @@
       <c r="H1438" s="9"/>
       <c r="I1438"/>
       <c r="J1438" s="1" t="s">
-        <v>1927</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.2">
@@ -58619,7 +58652,7 @@
       <c r="H1439" s="9"/>
       <c r="I1439"/>
       <c r="J1439" s="1" t="s">
-        <v>1931</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.2">
@@ -58647,7 +58680,7 @@
       <c r="H1440" s="9"/>
       <c r="I1440"/>
       <c r="J1440" s="1" t="s">
-        <v>1935</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.2">
@@ -58672,7 +58705,7 @@
       <c r="H1441" s="9"/>
       <c r="I1441"/>
       <c r="J1441" s="1" t="s">
-        <v>1939</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.2">
@@ -58697,7 +58730,7 @@
       <c r="H1442" s="9"/>
       <c r="I1442"/>
       <c r="J1442" s="1" t="s">
-        <v>1942</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.2">
@@ -58722,7 +58755,7 @@
       <c r="H1443" s="9"/>
       <c r="I1443"/>
       <c r="J1443" s="1" t="s">
-        <v>1945</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.2">
@@ -58747,7 +58780,7 @@
       <c r="H1444" s="9"/>
       <c r="I1444"/>
       <c r="J1444" s="1" t="s">
-        <v>1949</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.2">
@@ -58772,7 +58805,7 @@
       <c r="H1445" s="9"/>
       <c r="I1445"/>
       <c r="J1445" s="1" t="s">
-        <v>311</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.2">
@@ -58797,7 +58830,7 @@
       <c r="H1446" s="9"/>
       <c r="I1446"/>
       <c r="J1446" s="1" t="s">
-        <v>1955</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.2">
@@ -58822,7 +58855,7 @@
       <c r="H1447" s="9"/>
       <c r="I1447"/>
       <c r="J1447" s="1" t="s">
-        <v>1958</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.2">
@@ -58850,7 +58883,7 @@
       <c r="H1448" s="9"/>
       <c r="I1448"/>
       <c r="J1448" s="1" t="s">
-        <v>1961</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.2">
@@ -58875,7 +58908,7 @@
       <c r="H1449" s="9"/>
       <c r="I1449"/>
       <c r="J1449" s="1" t="s">
-        <v>1965</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1450" spans="1:10" x14ac:dyDescent="0.2">
@@ -58900,7 +58933,7 @@
       <c r="H1450" s="9"/>
       <c r="I1450"/>
       <c r="J1450" s="1" t="s">
-        <v>1968</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.2">
@@ -58925,7 +58958,7 @@
       <c r="H1451" s="9"/>
       <c r="I1451"/>
       <c r="J1451" s="1" t="s">
-        <v>1971</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.2">
@@ -58950,7 +58983,7 @@
       <c r="H1452" s="9"/>
       <c r="I1452"/>
       <c r="J1452" s="1" t="s">
-        <v>1973</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1453" spans="1:10" x14ac:dyDescent="0.2">
@@ -58975,7 +59008,7 @@
       <c r="H1453" s="9"/>
       <c r="I1453"/>
       <c r="J1453" s="1" t="s">
-        <v>1976</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1454" spans="1:10" x14ac:dyDescent="0.2">
@@ -59000,7 +59033,7 @@
       <c r="H1454" s="9"/>
       <c r="I1454"/>
       <c r="J1454" s="1" t="s">
-        <v>1979</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1455" spans="1:10" x14ac:dyDescent="0.2">
@@ -59025,7 +59058,7 @@
       <c r="H1455" s="9"/>
       <c r="I1455"/>
       <c r="J1455" s="1" t="s">
-        <v>1984</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1456" spans="1:10" x14ac:dyDescent="0.2">
@@ -59050,7 +59083,7 @@
       <c r="H1456" s="9"/>
       <c r="I1456"/>
       <c r="J1456" s="1" t="s">
-        <v>1987</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1457" spans="1:10" x14ac:dyDescent="0.2">
@@ -59075,7 +59108,7 @@
       <c r="H1457" s="9"/>
       <c r="I1457"/>
       <c r="J1457" s="1" t="s">
-        <v>1990</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.2">
@@ -59100,7 +59133,7 @@
       <c r="H1458" s="9"/>
       <c r="I1458"/>
       <c r="J1458" s="1" t="s">
-        <v>1993</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1459" spans="1:10" x14ac:dyDescent="0.2">
@@ -59125,7 +59158,7 @@
       <c r="H1459" s="9"/>
       <c r="I1459"/>
       <c r="J1459" s="1" t="s">
-        <v>4495</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1460" spans="1:10" x14ac:dyDescent="0.2">
@@ -59150,7 +59183,7 @@
       <c r="H1460" s="9"/>
       <c r="I1460"/>
       <c r="J1460" s="1" t="s">
-        <v>4496</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1461" spans="1:10" x14ac:dyDescent="0.2">
@@ -59175,7 +59208,7 @@
       <c r="H1461" s="9"/>
       <c r="I1461"/>
       <c r="J1461" s="1" t="s">
-        <v>4497</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.2">
@@ -59200,7 +59233,7 @@
       <c r="H1462" s="9"/>
       <c r="I1462"/>
       <c r="J1462" s="1" t="s">
-        <v>1996</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.2">
@@ -59225,7 +59258,7 @@
       <c r="H1463" s="9"/>
       <c r="I1463"/>
       <c r="J1463" s="1" t="s">
-        <v>2000</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.2">
@@ -59250,7 +59283,7 @@
       <c r="H1464" s="9"/>
       <c r="I1464"/>
       <c r="J1464" s="1" t="s">
-        <v>2004</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.2">
@@ -59275,7 +59308,7 @@
       <c r="H1465" s="9"/>
       <c r="I1465"/>
       <c r="J1465" s="1" t="s">
-        <v>783</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.2">
@@ -59300,7 +59333,7 @@
       <c r="H1466" s="9"/>
       <c r="I1466"/>
       <c r="J1466" s="1" t="s">
-        <v>2011</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1467" spans="1:10" x14ac:dyDescent="0.2">
@@ -59325,7 +59358,7 @@
       <c r="H1467" s="9"/>
       <c r="I1467"/>
       <c r="J1467" s="1" t="s">
-        <v>2014</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.2">
@@ -59349,8 +59382,8 @@
       </c>
       <c r="H1468" s="9"/>
       <c r="I1468"/>
-      <c r="J1468" s="1">
-        <v>300</v>
+      <c r="J1468" s="1" t="s">
+        <v>1939</v>
       </c>
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.2">
@@ -59375,7 +59408,7 @@
       <c r="H1469" s="9"/>
       <c r="I1469"/>
       <c r="J1469" s="1" t="s">
-        <v>2021</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1470" spans="1:10" x14ac:dyDescent="0.2">
@@ -59400,7 +59433,7 @@
       <c r="H1470" s="9"/>
       <c r="I1470"/>
       <c r="J1470" s="1" t="s">
-        <v>2025</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1471" spans="1:10" x14ac:dyDescent="0.2">
@@ -59425,7 +59458,7 @@
       <c r="H1471" s="9"/>
       <c r="I1471"/>
       <c r="J1471" s="1" t="s">
-        <v>2027</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1472" spans="1:10" x14ac:dyDescent="0.2">
@@ -59453,7 +59486,7 @@
       <c r="H1472" s="9"/>
       <c r="I1472"/>
       <c r="J1472" s="1" t="s">
-        <v>2030</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.2">
@@ -59478,7 +59511,7 @@
       <c r="H1473" s="9"/>
       <c r="I1473"/>
       <c r="J1473" s="1" t="s">
-        <v>2033</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1474" spans="1:10" x14ac:dyDescent="0.2">
@@ -59503,7 +59536,7 @@
       <c r="H1474" s="9"/>
       <c r="I1474"/>
       <c r="J1474" s="1" t="s">
-        <v>2038</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1475" spans="1:10" x14ac:dyDescent="0.2">
@@ -59531,7 +59564,7 @@
       <c r="H1475" s="9"/>
       <c r="I1475"/>
       <c r="J1475" s="1" t="s">
-        <v>2041</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1476" spans="1:10" x14ac:dyDescent="0.2">
@@ -59556,7 +59589,7 @@
       <c r="H1476" s="9"/>
       <c r="I1476"/>
       <c r="J1476" s="1" t="s">
-        <v>2044</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1477" spans="1:10" x14ac:dyDescent="0.2">
@@ -59581,7 +59614,7 @@
       <c r="H1477" s="9"/>
       <c r="I1477"/>
       <c r="J1477" s="1" t="s">
-        <v>2048</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.2">
@@ -59606,7 +59639,7 @@
       <c r="H1478" s="9"/>
       <c r="I1478"/>
       <c r="J1478" s="1" t="s">
-        <v>2051</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1479" spans="1:10" x14ac:dyDescent="0.2">
@@ -59631,7 +59664,7 @@
       <c r="H1479" s="9"/>
       <c r="I1479"/>
       <c r="J1479" s="1" t="s">
-        <v>2055</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.2">
@@ -59656,7 +59689,7 @@
       <c r="H1480" s="9"/>
       <c r="I1480"/>
       <c r="J1480" s="1" t="s">
-        <v>2059</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1481" spans="1:10" x14ac:dyDescent="0.2">
@@ -59681,7 +59714,7 @@
       <c r="H1481" s="9"/>
       <c r="I1481"/>
       <c r="J1481" s="1" t="s">
-        <v>2061</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1482" spans="1:10" x14ac:dyDescent="0.2">
@@ -59706,7 +59739,7 @@
       <c r="H1482" s="9"/>
       <c r="I1482"/>
       <c r="J1482" s="1" t="s">
-        <v>2064</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1483" spans="1:10" x14ac:dyDescent="0.2">
@@ -59734,7 +59767,7 @@
       <c r="H1483" s="9"/>
       <c r="I1483"/>
       <c r="J1483" s="1" t="s">
-        <v>2068</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1484" spans="1:10" x14ac:dyDescent="0.2">
@@ -59759,7 +59792,7 @@
       <c r="H1484" s="9"/>
       <c r="I1484"/>
       <c r="J1484" s="1" t="s">
-        <v>2071</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1485" spans="1:10" x14ac:dyDescent="0.2">
@@ -59784,7 +59817,7 @@
       <c r="H1485" s="9"/>
       <c r="I1485"/>
       <c r="J1485" s="1" t="s">
-        <v>2074</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1486" spans="1:10" x14ac:dyDescent="0.2">
@@ -59809,7 +59842,7 @@
       <c r="H1486" s="9"/>
       <c r="I1486"/>
       <c r="J1486" s="1" t="s">
-        <v>2077</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1487" spans="1:10" x14ac:dyDescent="0.2">
@@ -59834,7 +59867,7 @@
       <c r="H1487" s="9"/>
       <c r="I1487"/>
       <c r="J1487" s="1" t="s">
-        <v>2081</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1488" spans="1:10" x14ac:dyDescent="0.2">
@@ -59859,7 +59892,7 @@
       <c r="H1488" s="9"/>
       <c r="I1488"/>
       <c r="J1488" s="1" t="s">
-        <v>2084</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1489" spans="1:10" x14ac:dyDescent="0.2">
@@ -59884,7 +59917,7 @@
       <c r="H1489" s="9"/>
       <c r="I1489"/>
       <c r="J1489" s="1" t="s">
-        <v>2088</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1490" spans="1:10" x14ac:dyDescent="0.2">
@@ -59909,7 +59942,7 @@
       <c r="H1490" s="9"/>
       <c r="I1490"/>
       <c r="J1490" s="1" t="s">
-        <v>2091</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1491" spans="1:10" x14ac:dyDescent="0.2">
@@ -59934,7 +59967,7 @@
       <c r="H1491" s="9"/>
       <c r="I1491"/>
       <c r="J1491" s="1" t="s">
-        <v>2095</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1492" spans="1:10" x14ac:dyDescent="0.2">
@@ -59959,7 +59992,7 @@
       <c r="H1492" s="9"/>
       <c r="I1492"/>
       <c r="J1492" s="1" t="s">
-        <v>2097</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1493" spans="1:10" x14ac:dyDescent="0.2">
@@ -59984,7 +60017,7 @@
       <c r="H1493" s="9"/>
       <c r="I1493"/>
       <c r="J1493" s="1" t="s">
-        <v>2100</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.2">
@@ -60009,7 +60042,7 @@
       <c r="H1494" s="9"/>
       <c r="I1494"/>
       <c r="J1494" s="1" t="s">
-        <v>2104</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1495" spans="1:10" x14ac:dyDescent="0.2">
@@ -60033,8 +60066,8 @@
       </c>
       <c r="H1495" s="9"/>
       <c r="I1495"/>
-      <c r="J1495" s="1" t="s">
-        <v>2107</v>
+      <c r="J1495" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="1496" spans="1:10" x14ac:dyDescent="0.2">
@@ -60059,7 +60092,7 @@
       <c r="H1496" s="9"/>
       <c r="I1496"/>
       <c r="J1496" s="1" t="s">
-        <v>2110</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1497" spans="1:10" x14ac:dyDescent="0.2">
@@ -60084,7 +60117,7 @@
       <c r="H1497" s="9"/>
       <c r="I1497"/>
       <c r="J1497" s="1" t="s">
-        <v>2113</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1498" spans="1:10" x14ac:dyDescent="0.2">
@@ -60109,7 +60142,7 @@
       <c r="H1498" s="9"/>
       <c r="I1498"/>
       <c r="J1498" s="1" t="s">
-        <v>2116</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1499" spans="1:10" x14ac:dyDescent="0.2">
@@ -60134,7 +60167,7 @@
       <c r="H1499" s="9"/>
       <c r="I1499"/>
       <c r="J1499" s="1" t="s">
-        <v>2121</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1500" spans="1:10" x14ac:dyDescent="0.2">
@@ -60159,7 +60192,7 @@
       <c r="H1500" s="9"/>
       <c r="I1500"/>
       <c r="J1500" s="1" t="s">
-        <v>977</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1501" spans="1:10" x14ac:dyDescent="0.2">
@@ -60184,7 +60217,7 @@
       <c r="H1501" s="9"/>
       <c r="I1501"/>
       <c r="J1501" s="1" t="s">
-        <v>2127</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1502" spans="1:10" x14ac:dyDescent="0.2">
@@ -60209,7 +60242,7 @@
       <c r="H1502" s="9"/>
       <c r="I1502"/>
       <c r="J1502" s="1" t="s">
-        <v>2130</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.2">
@@ -60234,7 +60267,7 @@
       <c r="H1503" s="9"/>
       <c r="I1503"/>
       <c r="J1503" s="1" t="s">
-        <v>2133</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1504" spans="1:10" x14ac:dyDescent="0.2">
@@ -60259,7 +60292,7 @@
       <c r="H1504" s="9"/>
       <c r="I1504"/>
       <c r="J1504" s="1" t="s">
-        <v>2136</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.2">
@@ -60284,7 +60317,7 @@
       <c r="H1505" s="9"/>
       <c r="I1505"/>
       <c r="J1505" s="1" t="s">
-        <v>2139</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1506" spans="1:10" x14ac:dyDescent="0.2">
@@ -60309,7 +60342,7 @@
       <c r="H1506" s="9"/>
       <c r="I1506"/>
       <c r="J1506" s="1" t="s">
-        <v>2142</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1507" spans="1:10" x14ac:dyDescent="0.2">
@@ -60334,7 +60367,7 @@
       <c r="H1507" s="9"/>
       <c r="I1507"/>
       <c r="J1507" s="1" t="s">
-        <v>2146</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1508" spans="1:10" x14ac:dyDescent="0.2">
@@ -60359,7 +60392,7 @@
       <c r="H1508" s="9"/>
       <c r="I1508"/>
       <c r="J1508" s="1" t="s">
-        <v>2150</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1509" spans="1:10" x14ac:dyDescent="0.2">
@@ -60384,7 +60417,7 @@
       <c r="H1509" s="9"/>
       <c r="I1509"/>
       <c r="J1509" s="1" t="s">
-        <v>2154</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1510" spans="1:10" x14ac:dyDescent="0.2">
@@ -60409,7 +60442,7 @@
       <c r="H1510" s="9"/>
       <c r="I1510"/>
       <c r="J1510" s="1" t="s">
-        <v>2158</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1511" spans="1:10" x14ac:dyDescent="0.2">
@@ -60434,7 +60467,7 @@
       <c r="H1511" s="9"/>
       <c r="I1511"/>
       <c r="J1511" s="1" t="s">
-        <v>2162</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1512" spans="1:10" x14ac:dyDescent="0.2">
@@ -60459,7 +60492,7 @@
       <c r="H1512" s="9"/>
       <c r="I1512"/>
       <c r="J1512" s="1" t="s">
-        <v>2166</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1513" spans="1:10" x14ac:dyDescent="0.2">
@@ -60484,7 +60517,7 @@
       <c r="H1513" s="9"/>
       <c r="I1513"/>
       <c r="J1513" s="1" t="s">
-        <v>2169</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1514" spans="1:10" x14ac:dyDescent="0.2">
@@ -60512,7 +60545,7 @@
       <c r="H1514" s="9"/>
       <c r="I1514"/>
       <c r="J1514" s="1" t="s">
-        <v>2173</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1515" spans="1:10" x14ac:dyDescent="0.2">
@@ -60537,7 +60570,7 @@
       <c r="H1515" s="9"/>
       <c r="I1515"/>
       <c r="J1515" s="1" t="s">
-        <v>2176</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1516" spans="1:10" x14ac:dyDescent="0.2">
@@ -60562,7 +60595,7 @@
       <c r="H1516" s="9"/>
       <c r="I1516"/>
       <c r="J1516" s="1" t="s">
-        <v>2179</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1517" spans="1:10" x14ac:dyDescent="0.2">
@@ -60587,7 +60620,7 @@
       <c r="H1517" s="9"/>
       <c r="I1517"/>
       <c r="J1517" s="1" t="s">
-        <v>2183</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1518" spans="1:10" x14ac:dyDescent="0.2">
@@ -60612,7 +60645,7 @@
       <c r="H1518" s="9"/>
       <c r="I1518"/>
       <c r="J1518" s="1" t="s">
-        <v>2186</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1519" spans="1:10" x14ac:dyDescent="0.2">
@@ -60637,7 +60670,7 @@
       <c r="H1519" s="9"/>
       <c r="I1519"/>
       <c r="J1519" s="1" t="s">
-        <v>2190</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1520" spans="1:10" x14ac:dyDescent="0.2">
@@ -60662,7 +60695,7 @@
       <c r="H1520" s="9"/>
       <c r="I1520"/>
       <c r="J1520" s="1" t="s">
-        <v>3593</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1521" spans="1:10" x14ac:dyDescent="0.2">
@@ -60690,7 +60723,7 @@
       <c r="H1521" s="9"/>
       <c r="I1521"/>
       <c r="J1521" s="1" t="s">
-        <v>4498</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1522" spans="1:10" x14ac:dyDescent="0.2">
@@ -60718,7 +60751,7 @@
       <c r="H1522" s="9"/>
       <c r="I1522"/>
       <c r="J1522" s="1" t="s">
-        <v>3540</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1523" spans="1:10" x14ac:dyDescent="0.2">
@@ -60746,7 +60779,7 @@
       <c r="H1523" s="9"/>
       <c r="I1523"/>
       <c r="J1523" s="1" t="s">
-        <v>3631</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1524" spans="1:10" x14ac:dyDescent="0.2">
@@ -60774,7 +60807,7 @@
       <c r="H1524" s="9"/>
       <c r="I1524"/>
       <c r="J1524" s="1" t="s">
-        <v>4499</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1525" spans="1:10" x14ac:dyDescent="0.2">
@@ -60799,7 +60832,7 @@
       <c r="H1525" s="9"/>
       <c r="I1525"/>
       <c r="J1525" s="1" t="s">
-        <v>4500</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1526" spans="1:10" x14ac:dyDescent="0.2">
@@ -60824,7 +60857,7 @@
       <c r="H1526" s="9"/>
       <c r="I1526"/>
       <c r="J1526" s="1" t="s">
-        <v>4501</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1527" spans="1:10" x14ac:dyDescent="0.2">
@@ -60852,7 +60885,7 @@
       <c r="H1527" s="9"/>
       <c r="I1527"/>
       <c r="J1527" s="1" t="s">
-        <v>4502</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1528" spans="1:10" x14ac:dyDescent="0.2">
@@ -60877,7 +60910,7 @@
       <c r="H1528" s="9"/>
       <c r="I1528"/>
       <c r="J1528" s="1" t="s">
-        <v>3562</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1529" spans="1:10" x14ac:dyDescent="0.2">
@@ -60902,7 +60935,7 @@
       <c r="H1529" s="9"/>
       <c r="I1529"/>
       <c r="J1529" s="1" t="s">
-        <v>3593</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1530" spans="1:10" x14ac:dyDescent="0.2">
@@ -60927,7 +60960,7 @@
       <c r="H1530" s="9"/>
       <c r="I1530"/>
       <c r="J1530" s="1" t="s">
-        <v>2193</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1531" spans="1:10" x14ac:dyDescent="0.2">
@@ -60952,7 +60985,7 @@
       <c r="H1531" s="9"/>
       <c r="I1531"/>
       <c r="J1531" s="1" t="s">
-        <v>2196</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1532" spans="1:10" x14ac:dyDescent="0.2">
@@ -60977,7 +61010,7 @@
       <c r="H1532" s="9"/>
       <c r="I1532"/>
       <c r="J1532" s="1" t="s">
-        <v>2199</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1533" spans="1:10" x14ac:dyDescent="0.2">
@@ -61002,7 +61035,7 @@
       <c r="H1533" s="9"/>
       <c r="I1533"/>
       <c r="J1533" s="1" t="s">
-        <v>2202</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1534" spans="1:10" x14ac:dyDescent="0.2">
@@ -61030,7 +61063,7 @@
       <c r="H1534" s="9"/>
       <c r="I1534"/>
       <c r="J1534" s="1" t="s">
-        <v>2206</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1535" spans="1:10" x14ac:dyDescent="0.2">
@@ -61055,7 +61088,7 @@
       <c r="H1535" s="9"/>
       <c r="I1535"/>
       <c r="J1535" s="1" t="s">
-        <v>2209</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1536" spans="1:10" x14ac:dyDescent="0.2">
@@ -61080,7 +61113,7 @@
       <c r="H1536" s="9"/>
       <c r="I1536"/>
       <c r="J1536" s="1" t="s">
-        <v>2213</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1537" spans="1:10" x14ac:dyDescent="0.2">
@@ -61108,7 +61141,7 @@
       <c r="H1537" s="9"/>
       <c r="I1537"/>
       <c r="J1537" s="1" t="s">
-        <v>2216</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1538" spans="1:10" x14ac:dyDescent="0.2">
@@ -61133,7 +61166,7 @@
       <c r="H1538" s="9"/>
       <c r="I1538"/>
       <c r="J1538" s="1" t="s">
-        <v>2219</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1539" spans="1:10" x14ac:dyDescent="0.2">
@@ -61158,7 +61191,7 @@
       <c r="H1539" s="9"/>
       <c r="I1539"/>
       <c r="J1539" s="1" t="s">
-        <v>2224</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1540" spans="1:10" x14ac:dyDescent="0.2">
@@ -61183,7 +61216,7 @@
       <c r="H1540" s="9"/>
       <c r="I1540"/>
       <c r="J1540" s="1" t="s">
-        <v>2228</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1541" spans="1:10" x14ac:dyDescent="0.2">
@@ -61208,7 +61241,7 @@
       <c r="H1541" s="9"/>
       <c r="I1541"/>
       <c r="J1541" s="1" t="s">
-        <v>2231</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1542" spans="1:10" x14ac:dyDescent="0.2">
@@ -61233,7 +61266,7 @@
       <c r="H1542" s="9"/>
       <c r="I1542"/>
       <c r="J1542" s="1" t="s">
-        <v>2234</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1543" spans="1:10" x14ac:dyDescent="0.2">
@@ -61258,7 +61291,7 @@
       <c r="H1543" s="9"/>
       <c r="I1543"/>
       <c r="J1543" s="1" t="s">
-        <v>2237</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1544" spans="1:10" x14ac:dyDescent="0.2">
@@ -61283,7 +61316,7 @@
       <c r="H1544" s="9"/>
       <c r="I1544"/>
       <c r="J1544" s="1" t="s">
-        <v>2241</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1545" spans="1:10" x14ac:dyDescent="0.2">
@@ -61308,7 +61341,7 @@
       <c r="H1545" s="9"/>
       <c r="I1545"/>
       <c r="J1545" s="1" t="s">
-        <v>2244</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1546" spans="1:10" x14ac:dyDescent="0.2">
@@ -61333,7 +61366,7 @@
       <c r="H1546" s="9"/>
       <c r="I1546"/>
       <c r="J1546" s="1" t="s">
-        <v>2248</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1547" spans="1:10" x14ac:dyDescent="0.2">
@@ -61358,7 +61391,7 @@
       <c r="H1547" s="9"/>
       <c r="I1547"/>
       <c r="J1547" s="1" t="s">
-        <v>2252</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1548" spans="1:10" x14ac:dyDescent="0.2">
@@ -61383,7 +61416,7 @@
       <c r="H1548" s="9"/>
       <c r="I1548"/>
       <c r="J1548" s="1" t="s">
-        <v>2255</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1549" spans="1:10" x14ac:dyDescent="0.2">
@@ -61408,7 +61441,7 @@
       <c r="H1549" s="9"/>
       <c r="I1549"/>
       <c r="J1549" s="1" t="s">
-        <v>2258</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1550" spans="1:10" x14ac:dyDescent="0.2">
@@ -61433,7 +61466,7 @@
       <c r="H1550" s="9"/>
       <c r="I1550"/>
       <c r="J1550" s="1" t="s">
-        <v>2262</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1551" spans="1:10" x14ac:dyDescent="0.2">
@@ -61458,7 +61491,7 @@
       <c r="H1551" s="9"/>
       <c r="I1551"/>
       <c r="J1551" s="1" t="s">
-        <v>2266</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1552" spans="1:10" x14ac:dyDescent="0.2">
@@ -61483,7 +61516,7 @@
       <c r="H1552" s="9"/>
       <c r="I1552"/>
       <c r="J1552" s="1" t="s">
-        <v>2269</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1553" spans="1:10" x14ac:dyDescent="0.2">
@@ -61508,7 +61541,7 @@
       <c r="H1553" s="9"/>
       <c r="I1553"/>
       <c r="J1553" s="1" t="s">
-        <v>2273</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1554" spans="1:10" x14ac:dyDescent="0.2">
@@ -61533,7 +61566,7 @@
       <c r="H1554" s="9"/>
       <c r="I1554"/>
       <c r="J1554" s="1" t="s">
-        <v>2276</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1555" spans="1:10" x14ac:dyDescent="0.2">
@@ -61558,7 +61591,7 @@
       <c r="H1555" s="9"/>
       <c r="I1555"/>
       <c r="J1555" s="1" t="s">
-        <v>2280</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="1556" spans="1:10" x14ac:dyDescent="0.2">
@@ -61583,7 +61616,7 @@
       <c r="H1556" s="9"/>
       <c r="I1556"/>
       <c r="J1556" s="1" t="s">
-        <v>2284</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1557" spans="1:10" x14ac:dyDescent="0.2">
@@ -61608,7 +61641,7 @@
       <c r="H1557" s="9"/>
       <c r="I1557"/>
       <c r="J1557" s="1" t="s">
-        <v>2289</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1558" spans="1:10" x14ac:dyDescent="0.2">
@@ -61633,7 +61666,7 @@
       <c r="H1558" s="9"/>
       <c r="I1558"/>
       <c r="J1558" s="1" t="s">
-        <v>2292</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1559" spans="1:10" x14ac:dyDescent="0.2">
@@ -61658,7 +61691,7 @@
       <c r="H1559" s="9"/>
       <c r="I1559"/>
       <c r="J1559" s="1" t="s">
-        <v>2296</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1560" spans="1:10" x14ac:dyDescent="0.2">
@@ -61683,7 +61716,7 @@
       <c r="H1560" s="9"/>
       <c r="I1560"/>
       <c r="J1560" s="1" t="s">
-        <v>2299</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1561" spans="1:10" x14ac:dyDescent="0.2">
@@ -61708,7 +61741,7 @@
       <c r="H1561" s="9"/>
       <c r="I1561"/>
       <c r="J1561" s="1" t="s">
-        <v>2303</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1562" spans="1:10" x14ac:dyDescent="0.2">
@@ -61733,7 +61766,7 @@
       <c r="H1562" s="9"/>
       <c r="I1562"/>
       <c r="J1562" s="1" t="s">
-        <v>2306</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1563" spans="1:10" x14ac:dyDescent="0.2">
@@ -61758,7 +61791,7 @@
       <c r="H1563" s="9"/>
       <c r="I1563"/>
       <c r="J1563" s="1" t="s">
-        <v>2309</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1564" spans="1:10" x14ac:dyDescent="0.2">
@@ -61783,7 +61816,7 @@
       <c r="H1564" s="9"/>
       <c r="I1564"/>
       <c r="J1564" s="1" t="s">
-        <v>2312</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1565" spans="1:10" x14ac:dyDescent="0.2">
@@ -61808,7 +61841,7 @@
       <c r="H1565" s="9"/>
       <c r="I1565"/>
       <c r="J1565" s="1" t="s">
-        <v>2315</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1566" spans="1:10" x14ac:dyDescent="0.2">
@@ -61833,7 +61866,7 @@
       <c r="H1566" s="9"/>
       <c r="I1566"/>
       <c r="J1566" s="1" t="s">
-        <v>2318</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1567" spans="1:10" x14ac:dyDescent="0.2">
@@ -61858,7 +61891,7 @@
       <c r="H1567" s="9"/>
       <c r="I1567"/>
       <c r="J1567" s="1" t="s">
-        <v>2322</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1568" spans="1:10" x14ac:dyDescent="0.2">
@@ -61883,7 +61916,7 @@
       <c r="H1568" s="9"/>
       <c r="I1568"/>
       <c r="J1568" s="1" t="s">
-        <v>2326</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1569" spans="1:10" x14ac:dyDescent="0.2">
@@ -61908,7 +61941,7 @@
       <c r="H1569" s="9"/>
       <c r="I1569"/>
       <c r="J1569" s="1" t="s">
-        <v>2329</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1570" spans="1:10" x14ac:dyDescent="0.2">
@@ -61933,7 +61966,7 @@
       <c r="H1570" s="9"/>
       <c r="I1570"/>
       <c r="J1570" s="1" t="s">
-        <v>2332</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1571" spans="1:10" x14ac:dyDescent="0.2">
@@ -61958,7 +61991,7 @@
       <c r="H1571" s="9"/>
       <c r="I1571"/>
       <c r="J1571" s="1" t="s">
-        <v>2336</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1572" spans="1:10" x14ac:dyDescent="0.2">
@@ -61983,7 +62016,7 @@
       <c r="H1572" s="9"/>
       <c r="I1572"/>
       <c r="J1572" s="1" t="s">
-        <v>4503</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1573" spans="1:10" x14ac:dyDescent="0.2">
@@ -62008,7 +62041,7 @@
       <c r="H1573" s="9"/>
       <c r="I1573"/>
       <c r="J1573" s="1" t="s">
-        <v>3751</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1574" spans="1:10" x14ac:dyDescent="0.2">
@@ -62033,7 +62066,7 @@
       <c r="H1574" s="9"/>
       <c r="I1574"/>
       <c r="J1574" s="1" t="s">
-        <v>2339</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1575" spans="1:10" x14ac:dyDescent="0.2">
@@ -62058,7 +62091,7 @@
       <c r="H1575" s="9"/>
       <c r="I1575"/>
       <c r="J1575" s="1" t="s">
-        <v>2342</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1576" spans="1:10" x14ac:dyDescent="0.2">
@@ -62083,7 +62116,7 @@
       <c r="H1576" s="9"/>
       <c r="I1576"/>
       <c r="J1576" s="1" t="s">
-        <v>2345</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1577" spans="1:10" x14ac:dyDescent="0.2">
@@ -62108,7 +62141,7 @@
       <c r="H1577" s="9"/>
       <c r="I1577"/>
       <c r="J1577" s="1" t="s">
-        <v>2348</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1578" spans="1:10" x14ac:dyDescent="0.2">
@@ -62133,7 +62166,7 @@
       <c r="H1578" s="9"/>
       <c r="I1578"/>
       <c r="J1578" s="1" t="s">
-        <v>2351</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1579" spans="1:10" x14ac:dyDescent="0.2">
@@ -62158,7 +62191,7 @@
       <c r="H1579" s="9"/>
       <c r="I1579"/>
       <c r="J1579" s="1" t="s">
-        <v>2353</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1580" spans="1:10" x14ac:dyDescent="0.2">
@@ -62183,7 +62216,7 @@
       <c r="H1580" s="9"/>
       <c r="I1580"/>
       <c r="J1580" s="1" t="s">
-        <v>2357</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1581" spans="1:10" x14ac:dyDescent="0.2">
@@ -62208,7 +62241,7 @@
       <c r="H1581" s="9"/>
       <c r="I1581"/>
       <c r="J1581" s="1" t="s">
-        <v>2360</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1582" spans="1:10" x14ac:dyDescent="0.2">
@@ -62236,7 +62269,7 @@
       <c r="H1582" s="9"/>
       <c r="I1582"/>
       <c r="J1582" s="1" t="s">
-        <v>2363</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1583" spans="1:10" x14ac:dyDescent="0.2">
@@ -62261,7 +62294,7 @@
       <c r="H1583" s="9"/>
       <c r="I1583"/>
       <c r="J1583" s="1" t="s">
-        <v>2366</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1584" spans="1:10" x14ac:dyDescent="0.2">
@@ -62286,7 +62319,7 @@
       <c r="H1584" s="9"/>
       <c r="I1584"/>
       <c r="J1584" s="1" t="s">
-        <v>2369</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1585" spans="1:10" x14ac:dyDescent="0.2">
@@ -62314,7 +62347,7 @@
       <c r="H1585" s="9"/>
       <c r="I1585"/>
       <c r="J1585" s="1" t="s">
-        <v>2372</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1586" spans="1:10" x14ac:dyDescent="0.2">
@@ -62339,7 +62372,7 @@
       <c r="H1586" s="9"/>
       <c r="I1586"/>
       <c r="J1586" s="1" t="s">
-        <v>2376</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1587" spans="1:10" x14ac:dyDescent="0.2">
@@ -62364,7 +62397,7 @@
       <c r="H1587" s="9"/>
       <c r="I1587"/>
       <c r="J1587" s="1" t="s">
-        <v>2379</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1588" spans="1:10" x14ac:dyDescent="0.2">
@@ -62392,7 +62425,7 @@
       <c r="H1588" s="9"/>
       <c r="I1588"/>
       <c r="J1588" s="1" t="s">
-        <v>2382</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1589" spans="1:10" x14ac:dyDescent="0.2">
@@ -62420,7 +62453,7 @@
       <c r="H1589" s="9"/>
       <c r="I1589"/>
       <c r="J1589" s="1" t="s">
-        <v>2387</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1590" spans="1:10" x14ac:dyDescent="0.2">
@@ -62445,7 +62478,7 @@
       <c r="H1590" s="9"/>
       <c r="I1590"/>
       <c r="J1590" s="1" t="s">
-        <v>2390</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1591" spans="1:10" x14ac:dyDescent="0.2">
@@ -62473,7 +62506,7 @@
       <c r="H1591" s="9"/>
       <c r="I1591"/>
       <c r="J1591" s="1" t="s">
-        <v>2393</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1592" spans="1:10" x14ac:dyDescent="0.2">
@@ -62498,7 +62531,7 @@
       <c r="H1592" s="9"/>
       <c r="I1592"/>
       <c r="J1592" s="1" t="s">
-        <v>2396</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1593" spans="1:10" x14ac:dyDescent="0.2">
@@ -62523,7 +62556,7 @@
       <c r="H1593" s="9"/>
       <c r="I1593"/>
       <c r="J1593" s="1" t="s">
-        <v>2399</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1594" spans="1:10" x14ac:dyDescent="0.2">
@@ -62548,7 +62581,7 @@
       <c r="H1594" s="9"/>
       <c r="I1594"/>
       <c r="J1594" s="1" t="s">
-        <v>2403</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1595" spans="1:10" x14ac:dyDescent="0.2">
@@ -62573,7 +62606,7 @@
       <c r="H1595" s="9"/>
       <c r="I1595"/>
       <c r="J1595" s="1" t="s">
-        <v>2406</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1596" spans="1:10" x14ac:dyDescent="0.2">
@@ -62598,7 +62631,7 @@
       <c r="H1596" s="9"/>
       <c r="I1596"/>
       <c r="J1596" s="1" t="s">
-        <v>2410</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1597" spans="1:10" x14ac:dyDescent="0.2">
@@ -62623,7 +62656,7 @@
       <c r="H1597" s="9"/>
       <c r="I1597"/>
       <c r="J1597" s="1" t="s">
-        <v>570</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1598" spans="1:10" x14ac:dyDescent="0.2">
@@ -62648,7 +62681,7 @@
       <c r="H1598" s="9"/>
       <c r="I1598"/>
       <c r="J1598" s="1" t="s">
-        <v>357</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1599" spans="1:10" x14ac:dyDescent="0.2">
@@ -62673,7 +62706,7 @@
       <c r="H1599" s="9"/>
       <c r="I1599"/>
       <c r="J1599" s="1" t="s">
-        <v>2417</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1600" spans="1:10" x14ac:dyDescent="0.2">
@@ -62698,7 +62731,7 @@
       <c r="H1600" s="9"/>
       <c r="I1600"/>
       <c r="J1600" s="1" t="s">
-        <v>2420</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1601" spans="1:10" x14ac:dyDescent="0.2">
@@ -62723,7 +62756,7 @@
       <c r="H1601" s="9"/>
       <c r="I1601"/>
       <c r="J1601" s="1" t="s">
-        <v>2424</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1602" spans="1:10" x14ac:dyDescent="0.2">
@@ -62748,7 +62781,7 @@
       <c r="H1602" s="9"/>
       <c r="I1602"/>
       <c r="J1602" s="1" t="s">
-        <v>2429</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1603" spans="1:10" x14ac:dyDescent="0.2">
@@ -62773,7 +62806,7 @@
       <c r="H1603" s="9"/>
       <c r="I1603"/>
       <c r="J1603" s="1" t="s">
-        <v>2433</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1604" spans="1:10" x14ac:dyDescent="0.2">
@@ -62798,7 +62831,7 @@
       <c r="H1604" s="9"/>
       <c r="I1604"/>
       <c r="J1604" s="1" t="s">
-        <v>2436</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1605" spans="1:10" x14ac:dyDescent="0.2">
@@ -62823,7 +62856,7 @@
       <c r="H1605" s="9"/>
       <c r="I1605"/>
       <c r="J1605" s="1" t="s">
-        <v>2440</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1606" spans="1:10" x14ac:dyDescent="0.2">
@@ -62851,7 +62884,7 @@
       <c r="H1606" s="9"/>
       <c r="I1606"/>
       <c r="J1606" s="1" t="s">
-        <v>2443</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1607" spans="1:10" x14ac:dyDescent="0.2">
@@ -62876,7 +62909,7 @@
       <c r="H1607" s="9"/>
       <c r="I1607"/>
       <c r="J1607" s="1" t="s">
-        <v>2446</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1608" spans="1:10" x14ac:dyDescent="0.2">
@@ -62901,7 +62934,7 @@
       <c r="H1608" s="9"/>
       <c r="I1608"/>
       <c r="J1608" s="1" t="s">
-        <v>2450</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1609" spans="1:10" x14ac:dyDescent="0.2">
@@ -62926,7 +62959,7 @@
       <c r="H1609" s="9"/>
       <c r="I1609"/>
       <c r="J1609" s="1" t="s">
-        <v>2454</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1610" spans="1:10" x14ac:dyDescent="0.2">
@@ -62951,7 +62984,7 @@
       <c r="H1610" s="9"/>
       <c r="I1610"/>
       <c r="J1610" s="1" t="s">
-        <v>2458</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1611" spans="1:10" x14ac:dyDescent="0.2">
@@ -62976,7 +63009,7 @@
       <c r="H1611" s="9"/>
       <c r="I1611"/>
       <c r="J1611" s="1" t="s">
-        <v>4504</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1612" spans="1:10" x14ac:dyDescent="0.2">
@@ -63001,7 +63034,7 @@
       <c r="H1612" s="9"/>
       <c r="I1612"/>
       <c r="J1612" s="1" t="s">
-        <v>4505</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1613" spans="1:10" x14ac:dyDescent="0.2">
@@ -63026,7 +63059,7 @@
       <c r="H1613" s="9"/>
       <c r="I1613"/>
       <c r="J1613" s="1" t="s">
-        <v>4506</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1614" spans="1:10" x14ac:dyDescent="0.2">
@@ -63051,7 +63084,7 @@
       <c r="H1614" s="9"/>
       <c r="I1614"/>
       <c r="J1614" s="1" t="s">
-        <v>4507</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1615" spans="1:10" x14ac:dyDescent="0.2">
@@ -63076,7 +63109,7 @@
       <c r="H1615" s="9"/>
       <c r="I1615"/>
       <c r="J1615" s="1" t="s">
-        <v>4307</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1616" spans="1:10" x14ac:dyDescent="0.2">
@@ -63104,7 +63137,7 @@
       <c r="H1616" s="9"/>
       <c r="I1616"/>
       <c r="J1616" s="1" t="s">
-        <v>4508</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1617" spans="1:10" x14ac:dyDescent="0.2">
@@ -63129,7 +63162,7 @@
       <c r="H1617" s="9"/>
       <c r="I1617"/>
       <c r="J1617" s="1" t="s">
-        <v>2461</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1618" spans="1:10" x14ac:dyDescent="0.2">
@@ -63154,7 +63187,7 @@
       <c r="H1618" s="9"/>
       <c r="I1618"/>
       <c r="J1618" s="1" t="s">
-        <v>2466</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1619" spans="1:10" x14ac:dyDescent="0.2">
@@ -63179,7 +63212,7 @@
       <c r="H1619" s="9"/>
       <c r="I1619"/>
       <c r="J1619" s="1" t="s">
-        <v>2469</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1620" spans="1:10" x14ac:dyDescent="0.2">
@@ -63204,7 +63237,7 @@
       <c r="H1620" s="9"/>
       <c r="I1620"/>
       <c r="J1620" s="1" t="s">
-        <v>2472</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1621" spans="1:10" x14ac:dyDescent="0.2">
@@ -63228,8 +63261,8 @@
       </c>
       <c r="H1621" s="9"/>
       <c r="I1621"/>
-      <c r="J1621" s="1">
-        <v>2012</v>
+      <c r="J1621" s="1" t="s">
+        <v>2403</v>
       </c>
     </row>
     <row r="1622" spans="1:10" x14ac:dyDescent="0.2">
@@ -63254,7 +63287,7 @@
       <c r="H1622" s="9"/>
       <c r="I1622"/>
       <c r="J1622" s="1" t="s">
-        <v>2478</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1623" spans="1:10" x14ac:dyDescent="0.2">
@@ -63279,7 +63312,7 @@
       <c r="H1623" s="9"/>
       <c r="I1623"/>
       <c r="J1623" s="1" t="s">
-        <v>2481</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1624" spans="1:10" x14ac:dyDescent="0.2">
@@ -63304,7 +63337,7 @@
       <c r="H1624" s="9"/>
       <c r="I1624"/>
       <c r="J1624" s="1" t="s">
-        <v>2485</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1625" spans="1:10" x14ac:dyDescent="0.2">
@@ -63329,7 +63362,7 @@
       <c r="H1625" s="9"/>
       <c r="I1625"/>
       <c r="J1625" s="1" t="s">
-        <v>2488</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1626" spans="1:10" x14ac:dyDescent="0.2">
@@ -63354,7 +63387,7 @@
       <c r="H1626" s="9"/>
       <c r="I1626"/>
       <c r="J1626" s="1" t="s">
-        <v>2491</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1627" spans="1:10" x14ac:dyDescent="0.2">
@@ -63379,7 +63412,7 @@
       <c r="H1627" s="9"/>
       <c r="I1627"/>
       <c r="J1627" s="1" t="s">
-        <v>2494</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1628" spans="1:10" x14ac:dyDescent="0.2">
@@ -63404,7 +63437,7 @@
       <c r="H1628" s="9"/>
       <c r="I1628"/>
       <c r="J1628" s="1" t="s">
-        <v>2498</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1629" spans="1:10" x14ac:dyDescent="0.2">
@@ -63429,7 +63462,7 @@
       <c r="H1629" s="9"/>
       <c r="I1629"/>
       <c r="J1629" s="1" t="s">
-        <v>2502</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1630" spans="1:10" x14ac:dyDescent="0.2">
@@ -63454,7 +63487,7 @@
       <c r="H1630" s="9"/>
       <c r="I1630"/>
       <c r="J1630" s="1" t="s">
-        <v>2506</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1631" spans="1:10" x14ac:dyDescent="0.2">
@@ -63479,7 +63512,7 @@
       <c r="H1631" s="9"/>
       <c r="I1631"/>
       <c r="J1631" s="1" t="s">
-        <v>2509</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1632" spans="1:10" x14ac:dyDescent="0.2">
@@ -63504,7 +63537,7 @@
       <c r="H1632" s="9"/>
       <c r="I1632"/>
       <c r="J1632" s="1" t="s">
-        <v>2513</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1633" spans="1:10" x14ac:dyDescent="0.2">
@@ -63529,7 +63562,7 @@
       <c r="H1633" s="9"/>
       <c r="I1633"/>
       <c r="J1633" s="1" t="s">
-        <v>2516</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1634" spans="1:10" x14ac:dyDescent="0.2">
@@ -63554,7 +63587,7 @@
       <c r="H1634" s="9"/>
       <c r="I1634"/>
       <c r="J1634" s="1" t="s">
-        <v>2520</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1635" spans="1:10" x14ac:dyDescent="0.2">
@@ -63579,7 +63612,7 @@
       <c r="H1635" s="9"/>
       <c r="I1635"/>
       <c r="J1635" s="1" t="s">
-        <v>2525</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1636" spans="1:10" x14ac:dyDescent="0.2">
@@ -63604,7 +63637,7 @@
       <c r="H1636" s="9"/>
       <c r="I1636"/>
       <c r="J1636" s="1" t="s">
-        <v>2528</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1637" spans="1:10" x14ac:dyDescent="0.2">
@@ -63629,7 +63662,7 @@
       <c r="H1637" s="9"/>
       <c r="I1637"/>
       <c r="J1637" s="1" t="s">
-        <v>2532</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1638" spans="1:10" x14ac:dyDescent="0.2">
@@ -63654,7 +63687,7 @@
       <c r="H1638" s="9"/>
       <c r="I1638"/>
       <c r="J1638" s="1" t="s">
-        <v>2536</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1639" spans="1:10" x14ac:dyDescent="0.2">
@@ -63679,7 +63712,7 @@
       <c r="H1639" s="9"/>
       <c r="I1639"/>
       <c r="J1639" s="1" t="s">
-        <v>2540</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1640" spans="1:10" x14ac:dyDescent="0.2">
@@ -63704,7 +63737,7 @@
       <c r="H1640" s="9"/>
       <c r="I1640"/>
       <c r="J1640" s="1" t="s">
-        <v>2544</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1641" spans="1:10" x14ac:dyDescent="0.2">
@@ -63729,7 +63762,7 @@
       <c r="H1641" s="9"/>
       <c r="I1641"/>
       <c r="J1641" s="1" t="s">
-        <v>2547</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1642" spans="1:10" x14ac:dyDescent="0.2">
@@ -63754,7 +63787,7 @@
       <c r="H1642" s="9"/>
       <c r="I1642"/>
       <c r="J1642" s="1" t="s">
-        <v>2550</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1643" spans="1:10" x14ac:dyDescent="0.2">
@@ -63779,7 +63812,7 @@
       <c r="H1643" s="9"/>
       <c r="I1643"/>
       <c r="J1643" s="1" t="s">
-        <v>2553</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1644" spans="1:10" x14ac:dyDescent="0.2">
@@ -63804,7 +63837,7 @@
       <c r="H1644" s="9"/>
       <c r="I1644"/>
       <c r="J1644" s="1" t="s">
-        <v>2557</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1645" spans="1:10" x14ac:dyDescent="0.2">
@@ -63829,7 +63862,7 @@
       <c r="H1645" s="9"/>
       <c r="I1645"/>
       <c r="J1645" s="1" t="s">
-        <v>2560</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1646" spans="1:10" x14ac:dyDescent="0.2">
@@ -63854,7 +63887,7 @@
       <c r="H1646" s="9"/>
       <c r="I1646"/>
       <c r="J1646" s="1" t="s">
-        <v>2563</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1647" spans="1:10" x14ac:dyDescent="0.2">
@@ -63879,7 +63912,7 @@
       <c r="H1647" s="9"/>
       <c r="I1647"/>
       <c r="J1647" s="1" t="s">
-        <v>2567</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1648" spans="1:10" x14ac:dyDescent="0.2">
@@ -63903,8 +63936,8 @@
       </c>
       <c r="H1648" s="9"/>
       <c r="I1648"/>
-      <c r="J1648" s="1" t="s">
-        <v>2570</v>
+      <c r="J1648" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="1649" spans="1:10" x14ac:dyDescent="0.2">
@@ -63932,7 +63965,7 @@
       <c r="H1649" s="9"/>
       <c r="I1649"/>
       <c r="J1649" s="1" t="s">
-        <v>2574</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1650" spans="1:10" x14ac:dyDescent="0.2">
@@ -63957,7 +63990,7 @@
       <c r="H1650" s="9"/>
       <c r="I1650"/>
       <c r="J1650" s="1" t="s">
-        <v>2576</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1651" spans="1:10" x14ac:dyDescent="0.2">
@@ -63982,7 +64015,7 @@
       <c r="H1651" s="9"/>
       <c r="I1651"/>
       <c r="J1651" s="1" t="s">
-        <v>2579</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1652" spans="1:10" x14ac:dyDescent="0.2">
@@ -64007,7 +64040,7 @@
       <c r="H1652" s="9"/>
       <c r="I1652"/>
       <c r="J1652" s="1" t="s">
-        <v>2583</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1653" spans="1:10" x14ac:dyDescent="0.2">
@@ -64035,7 +64068,7 @@
       <c r="H1653" s="9"/>
       <c r="I1653"/>
       <c r="J1653" s="1" t="s">
-        <v>2586</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1654" spans="1:10" x14ac:dyDescent="0.2">
@@ -64060,7 +64093,7 @@
       <c r="H1654" s="9"/>
       <c r="I1654"/>
       <c r="J1654" s="1" t="s">
-        <v>2591</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1655" spans="1:10" x14ac:dyDescent="0.2">
@@ -64085,7 +64118,7 @@
       <c r="H1655" s="9"/>
       <c r="I1655"/>
       <c r="J1655" s="1" t="s">
-        <v>2595</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1656" spans="1:10" x14ac:dyDescent="0.2">
@@ -64113,7 +64146,7 @@
       <c r="H1656" s="9"/>
       <c r="I1656"/>
       <c r="J1656" s="1" t="s">
-        <v>2598</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1657" spans="1:10" x14ac:dyDescent="0.2">
@@ -64138,7 +64171,7 @@
       <c r="H1657" s="9"/>
       <c r="I1657"/>
       <c r="J1657" s="1" t="s">
-        <v>2602</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1658" spans="1:10" x14ac:dyDescent="0.2">
@@ -64163,7 +64196,7 @@
       <c r="H1658" s="9"/>
       <c r="I1658"/>
       <c r="J1658" s="1" t="s">
-        <v>2606</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1659" spans="1:10" x14ac:dyDescent="0.2">
@@ -64188,7 +64221,7 @@
       <c r="H1659" s="9"/>
       <c r="I1659"/>
       <c r="J1659" s="1" t="s">
-        <v>2610</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1660" spans="1:10" x14ac:dyDescent="0.2">
@@ -64213,7 +64246,7 @@
       <c r="H1660" s="9"/>
       <c r="I1660"/>
       <c r="J1660" s="1" t="s">
-        <v>342</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1661" spans="1:10" x14ac:dyDescent="0.2">
@@ -64238,7 +64271,7 @@
       <c r="H1661" s="9"/>
       <c r="I1661"/>
       <c r="J1661" s="1" t="s">
-        <v>2616</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1662" spans="1:10" x14ac:dyDescent="0.2">
@@ -64263,7 +64296,7 @@
       <c r="H1662" s="9"/>
       <c r="I1662"/>
       <c r="J1662" s="1" t="s">
-        <v>2619</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1663" spans="1:10" x14ac:dyDescent="0.2">
@@ -64288,7 +64321,7 @@
       <c r="H1663" s="9"/>
       <c r="I1663"/>
       <c r="J1663" s="1" t="s">
-        <v>2622</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1664" spans="1:10" x14ac:dyDescent="0.2">
@@ -64313,7 +64346,7 @@
       <c r="H1664" s="9"/>
       <c r="I1664"/>
       <c r="J1664" s="1" t="s">
-        <v>2625</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1665" spans="1:10" x14ac:dyDescent="0.2">
@@ -64338,7 +64371,7 @@
       <c r="H1665" s="9"/>
       <c r="I1665"/>
       <c r="J1665" s="1" t="s">
-        <v>2628</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1666" spans="1:10" x14ac:dyDescent="0.2">
@@ -64363,7 +64396,7 @@
       <c r="H1666" s="9"/>
       <c r="I1666"/>
       <c r="J1666" s="1" t="s">
-        <v>2632</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1667" spans="1:10" x14ac:dyDescent="0.2">
@@ -64391,7 +64424,7 @@
       <c r="H1667" s="9"/>
       <c r="I1667"/>
       <c r="J1667" s="1" t="s">
-        <v>2635</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1668" spans="1:10" x14ac:dyDescent="0.2">
@@ -64416,7 +64449,7 @@
       <c r="H1668" s="9"/>
       <c r="I1668"/>
       <c r="J1668" s="1" t="s">
-        <v>2638</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1669" spans="1:10" x14ac:dyDescent="0.2">
@@ -64441,7 +64474,7 @@
       <c r="H1669" s="9"/>
       <c r="I1669"/>
       <c r="J1669" s="1" t="s">
-        <v>2641</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1670" spans="1:10" x14ac:dyDescent="0.2">
@@ -64466,7 +64499,7 @@
       <c r="H1670" s="9"/>
       <c r="I1670"/>
       <c r="J1670" s="1" t="s">
-        <v>2644</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1671" spans="1:10" x14ac:dyDescent="0.2">
@@ -64491,7 +64524,7 @@
       <c r="H1671" s="9"/>
       <c r="I1671"/>
       <c r="J1671" s="1" t="s">
-        <v>2648</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1672" spans="1:10" x14ac:dyDescent="0.2">
@@ -64516,7 +64549,7 @@
       <c r="H1672" s="9"/>
       <c r="I1672"/>
       <c r="J1672" s="1" t="s">
-        <v>2651</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1673" spans="1:10" x14ac:dyDescent="0.2">
@@ -64541,7 +64574,7 @@
       <c r="H1673" s="9"/>
       <c r="I1673"/>
       <c r="J1673" s="1" t="s">
-        <v>2654</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1674" spans="1:10" x14ac:dyDescent="0.2">
@@ -64566,7 +64599,7 @@
       <c r="H1674" s="9"/>
       <c r="I1674"/>
       <c r="J1674" s="1" t="s">
-        <v>2657</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="1675" spans="1:10" x14ac:dyDescent="0.2">
@@ -64591,7 +64624,7 @@
       <c r="H1675" s="9"/>
       <c r="I1675"/>
       <c r="J1675" s="1" t="s">
-        <v>2661</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="1676" spans="1:10" x14ac:dyDescent="0.2">
@@ -64616,7 +64649,7 @@
       <c r="H1676" s="9"/>
       <c r="I1676"/>
       <c r="J1676" s="1" t="s">
-        <v>2664</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="1677" spans="1:10" x14ac:dyDescent="0.2">
@@ -64644,7 +64677,7 @@
       <c r="H1677" s="9"/>
       <c r="I1677"/>
       <c r="J1677" s="1" t="s">
-        <v>2667</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1678" spans="1:10" x14ac:dyDescent="0.2">
@@ -64672,7 +64705,7 @@
       <c r="H1678" s="9"/>
       <c r="I1678"/>
       <c r="J1678" s="1" t="s">
-        <v>891</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1679" spans="1:10" x14ac:dyDescent="0.2">
@@ -64697,7 +64730,7 @@
       <c r="H1679" s="9"/>
       <c r="I1679"/>
       <c r="J1679" s="1" t="s">
-        <v>2672</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1680" spans="1:10" x14ac:dyDescent="0.2">
@@ -64725,7 +64758,7 @@
       <c r="H1680" s="9"/>
       <c r="I1680"/>
       <c r="J1680" s="1" t="s">
-        <v>2675</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1681" spans="1:10" x14ac:dyDescent="0.2">
@@ -64750,7 +64783,7 @@
       <c r="H1681" s="9"/>
       <c r="I1681"/>
       <c r="J1681" s="1" t="s">
-        <v>2679</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1682" spans="1:10" x14ac:dyDescent="0.2">
@@ -64775,7 +64808,7 @@
       <c r="H1682" s="9"/>
       <c r="I1682"/>
       <c r="J1682" s="1" t="s">
-        <v>2682</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1683" spans="1:10" x14ac:dyDescent="0.2">
@@ -64800,7 +64833,7 @@
       <c r="H1683" s="9"/>
       <c r="I1683"/>
       <c r="J1683" s="1" t="s">
-        <v>2684</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1684" spans="1:10" x14ac:dyDescent="0.2">
@@ -64825,7 +64858,7 @@
       <c r="H1684" s="9"/>
       <c r="I1684"/>
       <c r="J1684" s="1" t="s">
-        <v>2687</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1685" spans="1:10" x14ac:dyDescent="0.2">
@@ -64850,7 +64883,7 @@
       <c r="H1685" s="9"/>
       <c r="I1685"/>
       <c r="J1685" s="1" t="s">
-        <v>2690</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1686" spans="1:10" x14ac:dyDescent="0.2">
@@ -64875,7 +64908,7 @@
       <c r="H1686" s="9"/>
       <c r="I1686"/>
       <c r="J1686" s="1" t="s">
-        <v>2694</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1687" spans="1:10" x14ac:dyDescent="0.2">
@@ -64900,7 +64933,7 @@
       <c r="H1687" s="9"/>
       <c r="I1687"/>
       <c r="J1687" s="1" t="s">
-        <v>1423</v>
+        <v>342</v>
       </c>
     </row>
     <row r="1688" spans="1:10" x14ac:dyDescent="0.2">
@@ -64925,7 +64958,7 @@
       <c r="H1688" s="9"/>
       <c r="I1688"/>
       <c r="J1688" s="1" t="s">
-        <v>2700</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1689" spans="1:10" x14ac:dyDescent="0.2">
@@ -64950,7 +64983,7 @@
       <c r="H1689" s="9"/>
       <c r="I1689"/>
       <c r="J1689" s="1" t="s">
-        <v>2703</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1690" spans="1:10" x14ac:dyDescent="0.2">
@@ -64975,7 +65008,7 @@
       <c r="H1690" s="9"/>
       <c r="I1690"/>
       <c r="J1690" s="1" t="s">
-        <v>2706</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1691" spans="1:10" x14ac:dyDescent="0.2">
@@ -65000,7 +65033,7 @@
       <c r="H1691" s="9"/>
       <c r="I1691"/>
       <c r="J1691" s="1" t="s">
-        <v>2709</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1692" spans="1:10" x14ac:dyDescent="0.2">
@@ -65025,7 +65058,7 @@
       <c r="H1692" s="9"/>
       <c r="I1692"/>
       <c r="J1692" s="1" t="s">
-        <v>2713</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1693" spans="1:10" x14ac:dyDescent="0.2">
@@ -65050,7 +65083,7 @@
       <c r="H1693" s="9"/>
       <c r="I1693"/>
       <c r="J1693" s="1" t="s">
-        <v>2716</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1694" spans="1:10" x14ac:dyDescent="0.2">
@@ -65075,7 +65108,7 @@
       <c r="H1694" s="9"/>
       <c r="I1694"/>
       <c r="J1694" s="1" t="s">
-        <v>2719</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1695" spans="1:10" x14ac:dyDescent="0.2">
@@ -65100,7 +65133,7 @@
       <c r="H1695" s="9"/>
       <c r="I1695"/>
       <c r="J1695" s="1" t="s">
-        <v>4509</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1696" spans="1:10" x14ac:dyDescent="0.2">
@@ -65125,10 +65158,10 @@
       <c r="H1696" s="9"/>
       <c r="I1696"/>
       <c r="J1696" s="1" t="s">
-        <v>4510</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1697">
         <v>1997</v>
       </c>
@@ -65149,8 +65182,11 @@
       </c>
       <c r="H1697" s="9"/>
       <c r="I1697"/>
-    </row>
-    <row r="1698" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1697" s="1" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1698">
         <v>1997</v>
       </c>
@@ -65171,8 +65207,11 @@
       </c>
       <c r="H1698" s="9"/>
       <c r="I1698"/>
-    </row>
-    <row r="1699" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1698" s="1" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1699">
         <v>1997</v>
       </c>
@@ -65193,8 +65232,11 @@
       </c>
       <c r="H1699" s="9"/>
       <c r="I1699"/>
-    </row>
-    <row r="1700" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1699" s="1" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1700">
         <v>1997</v>
       </c>
@@ -65215,8 +65257,11 @@
       </c>
       <c r="H1700" s="9"/>
       <c r="I1700"/>
-    </row>
-    <row r="1701" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1700" s="1" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1701">
         <v>1997</v>
       </c>
@@ -65237,8 +65282,11 @@
       </c>
       <c r="H1701" s="9"/>
       <c r="I1701"/>
-    </row>
-    <row r="1702" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1701" s="1" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1702">
         <v>1997</v>
       </c>
@@ -65259,8 +65307,11 @@
       </c>
       <c r="H1702" s="9"/>
       <c r="I1702"/>
-    </row>
-    <row r="1703" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1702" s="1" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1703">
         <v>1997</v>
       </c>
@@ -65281,8 +65332,11 @@
       </c>
       <c r="H1703" s="9"/>
       <c r="I1703"/>
-    </row>
-    <row r="1704" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1703" s="1" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1704">
         <v>1997</v>
       </c>
@@ -65303,8 +65357,11 @@
       </c>
       <c r="H1704" s="9"/>
       <c r="I1704"/>
-    </row>
-    <row r="1705" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1704" s="1" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1705">
         <v>1997</v>
       </c>
@@ -65325,8 +65382,11 @@
       </c>
       <c r="H1705" s="9"/>
       <c r="I1705"/>
-    </row>
-    <row r="1706" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1705" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1706">
         <v>1997</v>
       </c>
@@ -65347,8 +65407,11 @@
       </c>
       <c r="H1706" s="9"/>
       <c r="I1706"/>
-    </row>
-    <row r="1707" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1706" s="1" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1707">
         <v>1997</v>
       </c>
@@ -65369,8 +65432,11 @@
       </c>
       <c r="H1707" s="9"/>
       <c r="I1707"/>
-    </row>
-    <row r="1708" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1707" s="1" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1708">
         <v>1997</v>
       </c>
@@ -65391,8 +65457,11 @@
       </c>
       <c r="H1708" s="9"/>
       <c r="I1708"/>
-    </row>
-    <row r="1709" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1708" s="1" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1709">
         <v>1997</v>
       </c>
@@ -65413,8 +65482,11 @@
       </c>
       <c r="H1709" s="9"/>
       <c r="I1709"/>
-    </row>
-    <row r="1710" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1709" s="1" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1710">
         <v>1997</v>
       </c>
@@ -65435,8 +65507,11 @@
       </c>
       <c r="H1710" s="9"/>
       <c r="I1710"/>
-    </row>
-    <row r="1711" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1710" s="1" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1711">
         <v>1997</v>
       </c>
@@ -65457,8 +65532,11 @@
       </c>
       <c r="H1711" s="9"/>
       <c r="I1711"/>
-    </row>
-    <row r="1712" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1711" s="1" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1712">
         <v>1997</v>
       </c>
@@ -65479,8 +65557,11 @@
       </c>
       <c r="H1712" s="9"/>
       <c r="I1712"/>
-    </row>
-    <row r="1713" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1712" s="1" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1713">
         <v>1997</v>
       </c>
@@ -65501,8 +65582,11 @@
       </c>
       <c r="H1713" s="9"/>
       <c r="I1713"/>
-    </row>
-    <row r="1714" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1713" s="1" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1714">
         <v>1997</v>
       </c>
@@ -65523,8 +65607,11 @@
       </c>
       <c r="H1714" s="9"/>
       <c r="I1714"/>
-    </row>
-    <row r="1715" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1714" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1715">
         <v>1997</v>
       </c>
@@ -65545,8 +65632,11 @@
       </c>
       <c r="H1715" s="9"/>
       <c r="I1715"/>
-    </row>
-    <row r="1716" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1715" s="1" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1716">
         <v>1997</v>
       </c>
@@ -65567,8 +65657,11 @@
       </c>
       <c r="H1716" s="9"/>
       <c r="I1716"/>
-    </row>
-    <row r="1717" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1716" s="1" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1717">
         <v>1997</v>
       </c>
@@ -65589,8 +65682,11 @@
       </c>
       <c r="H1717" s="9"/>
       <c r="I1717"/>
-    </row>
-    <row r="1718" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1717" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1718">
         <v>1997</v>
       </c>
@@ -65614,8 +65710,11 @@
       </c>
       <c r="H1718" s="9"/>
       <c r="I1718"/>
-    </row>
-    <row r="1719" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1718" s="1" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1719">
         <v>1997</v>
       </c>
@@ -65636,8 +65735,11 @@
       </c>
       <c r="H1719" s="9"/>
       <c r="I1719"/>
-    </row>
-    <row r="1720" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1719" s="1" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1720">
         <v>1997</v>
       </c>
@@ -65658,8 +65760,11 @@
       </c>
       <c r="H1720" s="9"/>
       <c r="I1720"/>
-    </row>
-    <row r="1721" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1720" s="1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1721">
         <v>1997</v>
       </c>
@@ -65680,8 +65785,11 @@
       </c>
       <c r="H1721" s="9"/>
       <c r="I1721"/>
-    </row>
-    <row r="1722" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1721" s="1" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1722">
         <v>1997</v>
       </c>
@@ -65702,8 +65810,11 @@
       </c>
       <c r="H1722" s="9"/>
       <c r="I1722"/>
-    </row>
-    <row r="1723" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1722" s="1" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1723">
         <v>1997</v>
       </c>
@@ -65724,8 +65835,11 @@
       </c>
       <c r="H1723" s="9"/>
       <c r="I1723"/>
-    </row>
-    <row r="1724" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1723" s="1" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1724">
         <v>1997</v>
       </c>
@@ -65747,7 +65861,7 @@
       <c r="H1724" s="9"/>
       <c r="I1724"/>
     </row>
-    <row r="1725" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1725" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1725">
         <v>1997</v>
       </c>
@@ -65769,7 +65883,7 @@
       <c r="H1725" s="9"/>
       <c r="I1725"/>
     </row>
-    <row r="1726" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1726" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1726">
         <v>1997</v>
       </c>
@@ -65791,7 +65905,7 @@
       <c r="H1726" s="9"/>
       <c r="I1726"/>
     </row>
-    <row r="1727" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1727" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1727">
         <v>1997</v>
       </c>
@@ -65813,7 +65927,7 @@
       <c r="H1727" s="9"/>
       <c r="I1727"/>
     </row>
-    <row r="1728" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1728" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1728">
         <v>1997</v>
       </c>

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12580" uniqueCount="7094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12656" uniqueCount="7124">
   <si>
     <t>Year</t>
   </si>
@@ -21304,6 +21304,96 @@
   </si>
   <si>
     <t>Betty Blue</t>
+  </si>
+  <si>
+    <t>Labirynt</t>
+  </si>
+  <si>
+    <t>Kolor pieniędzy</t>
+  </si>
+  <si>
+    <t>Asterix w Brytanii</t>
+  </si>
+  <si>
+    <t>Nieśmiertelny</t>
+  </si>
+  <si>
+    <t>Ogień i lód</t>
+  </si>
+  <si>
+    <t>Doprowadzasz mnie do szału</t>
+  </si>
+  <si>
+    <t>Wielki mysi detektyw</t>
+  </si>
+  <si>
+    <t>Peggy Sue wyszła za mąż</t>
+  </si>
+  <si>
+    <t>Krótkie spięcie</t>
+  </si>
+  <si>
+    <t>Piraci</t>
+  </si>
+  <si>
+    <t>Krwiożercza roślina</t>
+  </si>
+  <si>
+    <t>Kaczor Howard</t>
+  </si>
+  <si>
+    <t>Hannah i jej siostry</t>
+  </si>
+  <si>
+    <t>Ofiarowanie</t>
+  </si>
+  <si>
+    <t>Bractwo sprawiedliwych</t>
+  </si>
+  <si>
+    <t>Wielka draka w chińskiej dzielnicy</t>
+  </si>
+  <si>
+    <t>Quatermain i zaginione Miasto Złota</t>
+  </si>
+  <si>
+    <t>Psychoza III</t>
+  </si>
+  <si>
+    <t>Twardziele</t>
+  </si>
+  <si>
+    <t>Szorstki - Il burbero</t>
+  </si>
+  <si>
+    <t>Ona się doigra</t>
+  </si>
+  <si>
+    <t>Piątek trzynastego VI: Jason żyje</t>
+  </si>
+  <si>
+    <t>Ucieczka nawigatora</t>
+  </si>
+  <si>
+    <t>Wenecjanka</t>
+  </si>
+  <si>
+    <t>Najlepsze czasy</t>
+  </si>
+  <si>
+    <t>Maksymalne przyspieszenie</t>
+  </si>
+  <si>
+    <t>Voglia di guardare</t>
+  </si>
+  <si>
+    <t>Silip</t>
+  </si>
+  <si>
+    <t>Żar</t>
+  </si>
+  <si>
+    <t>Wrogie siły</t>
   </si>
 </sst>
 </file>
@@ -21359,7 +21449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -21389,6 +21479,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -21759,11 +21852,11 @@
   <dimension ref="A1:P2441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G965" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G1006" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="H976" sqref="H976"/>
+      <selection pane="bottomRight" activeCell="H1020" sqref="H1020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46813,7 +46906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="961" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>1986</v>
       </c>
@@ -46838,11 +46931,8 @@
       <c r="I961" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J961" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="962" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="962" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>1986</v>
       </c>
@@ -46867,11 +46957,8 @@
       <c r="I962" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J962" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="963" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>1986</v>
       </c>
@@ -46896,11 +46983,8 @@
       <c r="I963" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J963" s="1" t="s">
-        <v>4242</v>
-      </c>
-    </row>
-    <row r="964" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="964" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>1986</v>
       </c>
@@ -46925,11 +47009,8 @@
       <c r="I964" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J964" s="1" t="s">
-        <v>4081</v>
-      </c>
-    </row>
-    <row r="965" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>1986</v>
       </c>
@@ -46954,11 +47035,8 @@
       <c r="I965" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J965" s="1" t="s">
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="966" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>1986</v>
       </c>
@@ -46983,11 +47061,8 @@
       <c r="I966" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J966" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="967" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>1986</v>
       </c>
@@ -47012,11 +47087,8 @@
       <c r="I967" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J967" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="968" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>1986</v>
       </c>
@@ -47041,11 +47113,8 @@
       <c r="I968" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J968" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="969" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>1986</v>
       </c>
@@ -47070,11 +47139,8 @@
       <c r="I969" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J969" s="1" t="s">
-        <v>4254</v>
-      </c>
-    </row>
-    <row r="970" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>1986</v>
       </c>
@@ -47099,11 +47165,8 @@
       <c r="I970" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J970" s="1" t="s">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="971" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>1986</v>
       </c>
@@ -47128,11 +47191,8 @@
       <c r="I971" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J971" s="1" t="s">
-        <v>4256</v>
-      </c>
-    </row>
-    <row r="972" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>1986</v>
       </c>
@@ -47157,11 +47217,8 @@
       <c r="I972" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J972" s="1" t="s">
-        <v>4257</v>
-      </c>
-    </row>
-    <row r="973" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="973" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>1986</v>
       </c>
@@ -47186,11 +47243,8 @@
       <c r="I973" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J973" s="1" t="s">
-        <v>4258</v>
-      </c>
-    </row>
-    <row r="974" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="974" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>1986</v>
       </c>
@@ -47215,11 +47269,8 @@
       <c r="I974" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J974" s="1" t="s">
-        <v>4259</v>
-      </c>
-    </row>
-    <row r="975" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="975" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>1986</v>
       </c>
@@ -47244,11 +47295,8 @@
       <c r="I975" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J975" s="1" t="s">
-        <v>4260</v>
-      </c>
-    </row>
-    <row r="976" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="976" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>1986</v>
       </c>
@@ -47267,13 +47315,14 @@
       <c r="G976" t="s">
         <v>4963</v>
       </c>
-      <c r="H976" s="9"/>
-      <c r="I976"/>
-      <c r="J976" s="1" t="s">
-        <v>4261</v>
-      </c>
-    </row>
-    <row r="977" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H976" s="9" t="s">
+        <v>7094</v>
+      </c>
+      <c r="I976" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="977" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>1986</v>
       </c>
@@ -47301,11 +47350,8 @@
       <c r="I977" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J977" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="978" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="978" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>1986</v>
       </c>
@@ -47324,13 +47370,14 @@
       <c r="G978" t="s">
         <v>4966</v>
       </c>
-      <c r="H978" s="9"/>
-      <c r="I978"/>
-      <c r="J978" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="979" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H978" s="9" t="s">
+        <v>7095</v>
+      </c>
+      <c r="I978" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>1986</v>
       </c>
@@ -47349,13 +47396,14 @@
       <c r="G979" t="s">
         <v>4970</v>
       </c>
-      <c r="H979" s="9"/>
-      <c r="I979"/>
-      <c r="J979" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="980" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H979" s="9" t="s">
+        <v>4967</v>
+      </c>
+      <c r="I979" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="980" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>1986</v>
       </c>
@@ -47374,13 +47422,14 @@
       <c r="G980" t="s">
         <v>4973</v>
       </c>
-      <c r="H980" s="9"/>
-      <c r="I980"/>
-      <c r="J980" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="981" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H980" s="9" t="s">
+        <v>7096</v>
+      </c>
+      <c r="I980" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>1986</v>
       </c>
@@ -47399,13 +47448,14 @@
       <c r="G981" t="s">
         <v>4975</v>
       </c>
-      <c r="H981" s="9"/>
-      <c r="I981"/>
-      <c r="J981" s="1" t="s">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="982" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H981" s="9" t="s">
+        <v>7097</v>
+      </c>
+      <c r="I981" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="982" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>1986</v>
       </c>
@@ -47424,13 +47474,14 @@
       <c r="G982" t="s">
         <v>4978</v>
       </c>
-      <c r="H982" s="9"/>
-      <c r="I982"/>
-      <c r="J982" s="1" t="s">
-        <v>4262</v>
-      </c>
-    </row>
-    <row r="983" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H982" s="9" t="s">
+        <v>7098</v>
+      </c>
+      <c r="I982" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>1986</v>
       </c>
@@ -47449,13 +47500,14 @@
       <c r="G983" t="s">
         <v>4980</v>
       </c>
-      <c r="H983" s="9"/>
-      <c r="I983"/>
-      <c r="J983" s="1" t="s">
-        <v>4263</v>
-      </c>
-    </row>
-    <row r="984" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H983" s="9" t="s">
+        <v>7099</v>
+      </c>
+      <c r="I983" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="984" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>1986</v>
       </c>
@@ -47474,13 +47526,14 @@
       <c r="G984" t="s">
         <v>4982</v>
       </c>
-      <c r="H984" s="9"/>
-      <c r="I984"/>
-      <c r="J984" s="1" t="s">
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="985" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H984" s="9" t="s">
+        <v>7100</v>
+      </c>
+      <c r="I984" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="985" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>1986</v>
       </c>
@@ -47499,13 +47552,14 @@
       <c r="G985" t="s">
         <v>4984</v>
       </c>
-      <c r="H985" s="9"/>
-      <c r="I985"/>
-      <c r="J985" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="986" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H985" s="9" t="s">
+        <v>7101</v>
+      </c>
+      <c r="I985" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>1986</v>
       </c>
@@ -47524,13 +47578,14 @@
       <c r="G986" t="s">
         <v>4986</v>
       </c>
-      <c r="H986" s="9"/>
-      <c r="I986"/>
-      <c r="J986" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="987" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H986" s="9" t="s">
+        <v>7102</v>
+      </c>
+      <c r="I986" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="987" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>1986</v>
       </c>
@@ -47549,13 +47604,14 @@
       <c r="G987" t="s">
         <v>4989</v>
       </c>
-      <c r="H987" s="9"/>
-      <c r="I987"/>
-      <c r="J987" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="988" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H987" s="9" t="s">
+        <v>7103</v>
+      </c>
+      <c r="I987" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="988" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>1986</v>
       </c>
@@ -47574,13 +47630,14 @@
       <c r="G988" t="s">
         <v>4992</v>
       </c>
-      <c r="H988" s="9"/>
-      <c r="I988"/>
-      <c r="J988" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="989" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H988" s="9" t="s">
+        <v>7104</v>
+      </c>
+      <c r="I988" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>1986</v>
       </c>
@@ -47599,13 +47656,14 @@
       <c r="G989" t="s">
         <v>4995</v>
       </c>
-      <c r="H989" s="9"/>
-      <c r="I989"/>
-      <c r="J989" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="990" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H989" s="9" t="s">
+        <v>7105</v>
+      </c>
+      <c r="I989" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="990" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>1986</v>
       </c>
@@ -47624,13 +47682,14 @@
       <c r="G990" t="s">
         <v>4997</v>
       </c>
-      <c r="H990" s="9"/>
-      <c r="I990"/>
-      <c r="J990" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="991" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H990" s="9" t="s">
+        <v>7106</v>
+      </c>
+      <c r="I990" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="991" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>1986</v>
       </c>
@@ -47652,12 +47711,11 @@
       <c r="H991" s="1" t="s">
         <v>4251</v>
       </c>
-      <c r="I991"/>
-      <c r="J991" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="992" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I991" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="992" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>1986</v>
       </c>
@@ -47676,13 +47734,14 @@
       <c r="G992" t="s">
         <v>5001</v>
       </c>
-      <c r="H992" s="9"/>
-      <c r="I992"/>
-      <c r="J992" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="993" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H992" s="9" t="s">
+        <v>4999</v>
+      </c>
+      <c r="I992" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>1986</v>
       </c>
@@ -47701,13 +47760,14 @@
       <c r="G993" t="s">
         <v>5004</v>
       </c>
-      <c r="H993" s="9"/>
-      <c r="I993"/>
-      <c r="J993" s="1" t="s">
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="994" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H993" s="9" t="s">
+        <v>7107</v>
+      </c>
+      <c r="I993" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="994" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>1986</v>
       </c>
@@ -47729,13 +47789,14 @@
       <c r="G994" t="s">
         <v>5006</v>
       </c>
-      <c r="H994" s="9"/>
-      <c r="I994"/>
-      <c r="J994" s="1" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="995" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H994" s="9" t="s">
+        <v>7108</v>
+      </c>
+      <c r="I994" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="995" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>1986</v>
       </c>
@@ -47754,13 +47815,14 @@
       <c r="G995" t="s">
         <v>5008</v>
       </c>
-      <c r="H995" s="9"/>
-      <c r="I995"/>
-      <c r="J995" s="1" t="s">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="996" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H995" s="9" t="s">
+        <v>5007</v>
+      </c>
+      <c r="I995" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="996" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>1986</v>
       </c>
@@ -47779,13 +47841,14 @@
       <c r="G996" t="s">
         <v>5010</v>
       </c>
-      <c r="H996" s="9"/>
-      <c r="I996"/>
-      <c r="J996" s="1" t="s">
-        <v>4267</v>
-      </c>
-    </row>
-    <row r="997" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H996" s="9" t="s">
+        <v>7109</v>
+      </c>
+      <c r="I996" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="997" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>1986</v>
       </c>
@@ -47807,13 +47870,14 @@
       <c r="G997" t="s">
         <v>5012</v>
       </c>
-      <c r="H997" s="9"/>
-      <c r="I997"/>
-      <c r="J997" s="1" t="s">
-        <v>4268</v>
-      </c>
-    </row>
-    <row r="998" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H997" s="1" t="s">
+        <v>4253</v>
+      </c>
+      <c r="I997" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>1986</v>
       </c>
@@ -47832,13 +47896,14 @@
       <c r="G998" t="s">
         <v>5014</v>
       </c>
-      <c r="H998" s="9"/>
-      <c r="I998"/>
-      <c r="J998" s="1" t="s">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="999" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H998" s="9" t="s">
+        <v>7110</v>
+      </c>
+      <c r="I998" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>1986</v>
       </c>
@@ -47857,13 +47922,14 @@
       <c r="G999" t="s">
         <v>5016</v>
       </c>
-      <c r="H999" s="9"/>
-      <c r="I999"/>
-      <c r="J999" s="1" t="s">
-        <v>4269</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H999" s="9" t="s">
+        <v>7111</v>
+      </c>
+      <c r="I999" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>1986</v>
       </c>
@@ -47882,13 +47948,14 @@
       <c r="G1000" t="s">
         <v>5018</v>
       </c>
-      <c r="H1000" s="9"/>
-      <c r="I1000"/>
-      <c r="J1000" s="1" t="s">
-        <v>4270</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1000" s="9" t="s">
+        <v>7112</v>
+      </c>
+      <c r="I1000" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>1986</v>
       </c>
@@ -47907,13 +47974,14 @@
       <c r="G1001" t="s">
         <v>5020</v>
       </c>
-      <c r="H1001" s="9"/>
-      <c r="I1001"/>
-      <c r="J1001" s="1" t="s">
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1001" s="9" t="s">
+        <v>7113</v>
+      </c>
+      <c r="I1001" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>1986</v>
       </c>
@@ -47935,14 +48003,11 @@
       <c r="H1002" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="I1002" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1002" s="1" t="s">
-        <v>4272</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1002" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>1986</v>
       </c>
@@ -47964,12 +48029,11 @@
       <c r="H1003" s="1" t="s">
         <v>4245</v>
       </c>
-      <c r="I1003"/>
-      <c r="J1003" s="1" t="s">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1003" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>1986</v>
       </c>
@@ -47988,13 +48052,14 @@
       <c r="G1004" t="s">
         <v>5024</v>
       </c>
-      <c r="H1004" s="9"/>
-      <c r="I1004"/>
-      <c r="J1004" s="1" t="s">
-        <v>4274</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1004" s="9" t="s">
+        <v>7114</v>
+      </c>
+      <c r="I1004" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>1986</v>
       </c>
@@ -48013,13 +48078,14 @@
       <c r="G1005" t="s">
         <v>5026</v>
       </c>
-      <c r="H1005" s="9"/>
-      <c r="I1005"/>
-      <c r="J1005" s="1" t="s">
-        <v>4275</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1005" s="9" t="s">
+        <v>7115</v>
+      </c>
+      <c r="I1005" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>1986</v>
       </c>
@@ -48038,13 +48104,14 @@
       <c r="G1006" t="s">
         <v>5028</v>
       </c>
-      <c r="H1006" s="9"/>
-      <c r="I1006"/>
-      <c r="J1006" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1006" s="9" t="s">
+        <v>7116</v>
+      </c>
+      <c r="I1006" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>1986</v>
       </c>
@@ -48063,13 +48130,14 @@
       <c r="G1007" t="s">
         <v>5030</v>
       </c>
-      <c r="H1007" s="9"/>
-      <c r="I1007"/>
-      <c r="J1007" s="1" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1007" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I1007" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>1986</v>
       </c>
@@ -48091,11 +48159,8 @@
       <c r="H1008" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="I1008" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1008" s="1" t="s">
-        <v>1198</v>
+      <c r="I1008" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1009" spans="1:10" x14ac:dyDescent="0.2">
@@ -48120,10 +48185,11 @@
       <c r="G1009" t="s">
         <v>5035</v>
       </c>
-      <c r="H1009" s="9"/>
-      <c r="I1009"/>
-      <c r="J1009" s="1" t="s">
-        <v>1201</v>
+      <c r="H1009" s="9" t="s">
+        <v>5034</v>
+      </c>
+      <c r="I1009" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1010" spans="1:10" x14ac:dyDescent="0.2">
@@ -48145,10 +48211,14 @@
       <c r="G1010" t="s">
         <v>5037</v>
       </c>
-      <c r="H1010" s="9"/>
-      <c r="I1010"/>
+      <c r="H1010" s="9" t="s">
+        <v>7117</v>
+      </c>
+      <c r="I1010" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1010" s="1" t="s">
-        <v>1205</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1011" spans="1:10" x14ac:dyDescent="0.2">
@@ -48170,10 +48240,11 @@
       <c r="G1011" t="s">
         <v>5039</v>
       </c>
-      <c r="H1011" s="9"/>
-      <c r="I1011"/>
-      <c r="J1011" s="1" t="s">
-        <v>4276</v>
+      <c r="H1011" s="9" t="s">
+        <v>7118</v>
+      </c>
+      <c r="I1011" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1012" spans="1:10" x14ac:dyDescent="0.2">
@@ -48195,10 +48266,11 @@
       <c r="G1012" t="s">
         <v>5041</v>
       </c>
-      <c r="H1012" s="9"/>
-      <c r="I1012"/>
-      <c r="J1012" s="1" t="s">
-        <v>4277</v>
+      <c r="H1012" s="9" t="s">
+        <v>7119</v>
+      </c>
+      <c r="I1012" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1013" spans="1:10" x14ac:dyDescent="0.2">
@@ -48220,10 +48292,14 @@
       <c r="G1013" t="s">
         <v>5042</v>
       </c>
-      <c r="H1013" s="9"/>
-      <c r="I1013"/>
+      <c r="H1013" s="9" t="s">
+        <v>4068</v>
+      </c>
+      <c r="I1013" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1013" s="1" t="s">
-        <v>4278</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="1014" spans="1:10" x14ac:dyDescent="0.2">
@@ -48245,14 +48321,18 @@
       <c r="G1014" t="s">
         <v>5044</v>
       </c>
-      <c r="H1014" s="9"/>
-      <c r="I1014"/>
+      <c r="H1014" s="9" t="s">
+        <v>7120</v>
+      </c>
+      <c r="I1014" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1014" s="1" t="s">
-        <v>4279</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1015" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1015">
+      <c r="A1015" s="5">
         <v>1986</v>
       </c>
       <c r="B1015">
@@ -48270,10 +48350,14 @@
       <c r="G1015" t="s">
         <v>5047</v>
       </c>
-      <c r="H1015" s="9"/>
-      <c r="I1015"/>
-      <c r="J1015" s="1" t="s">
-        <v>4280</v>
+      <c r="H1015" s="9" t="s">
+        <v>7121</v>
+      </c>
+      <c r="I1015" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1015" s="13">
+        <v>1985</v>
       </c>
     </row>
     <row r="1016" spans="1:10" x14ac:dyDescent="0.2">
@@ -48295,10 +48379,14 @@
       <c r="G1016" t="s">
         <v>5049</v>
       </c>
-      <c r="H1016" s="9"/>
-      <c r="I1016"/>
+      <c r="H1016" s="1" t="s">
+        <v>4242</v>
+      </c>
+      <c r="I1016" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1016" s="1" t="s">
-        <v>4281</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="1017" spans="1:10" x14ac:dyDescent="0.2">
@@ -48320,10 +48408,14 @@
       <c r="G1017" t="s">
         <v>5051</v>
       </c>
-      <c r="H1017" s="9"/>
-      <c r="I1017"/>
+      <c r="H1017" s="9" t="s">
+        <v>7122</v>
+      </c>
+      <c r="I1017" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1017" s="1" t="s">
-        <v>4282</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1018" spans="1:10" x14ac:dyDescent="0.2">
@@ -48345,10 +48437,14 @@
       <c r="G1018" t="s">
         <v>5053</v>
       </c>
-      <c r="H1018" s="9"/>
-      <c r="I1018"/>
+      <c r="H1018" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I1018" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1018" s="1" t="s">
-        <v>4283</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1019" spans="1:10" x14ac:dyDescent="0.2">
@@ -48370,10 +48466,14 @@
       <c r="G1019" t="s">
         <v>5055</v>
       </c>
-      <c r="H1019" s="9"/>
-      <c r="I1019"/>
+      <c r="H1019" s="9" t="s">
+        <v>7123</v>
+      </c>
+      <c r="I1019" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1019" s="1" t="s">
-        <v>4284</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1020" spans="1:10" x14ac:dyDescent="0.2">
@@ -48398,7 +48498,7 @@
       <c r="H1020" s="9"/>
       <c r="I1020"/>
       <c r="J1020" s="1" t="s">
-        <v>4285</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1021" spans="1:10" x14ac:dyDescent="0.2">
@@ -48423,7 +48523,7 @@
       <c r="H1021" s="9"/>
       <c r="I1021"/>
       <c r="J1021" s="1" t="s">
-        <v>4286</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="1022" spans="1:10" x14ac:dyDescent="0.2">
@@ -48448,7 +48548,7 @@
       <c r="H1022" s="9"/>
       <c r="I1022"/>
       <c r="J1022" s="1" t="s">
-        <v>4287</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1023" spans="1:10" x14ac:dyDescent="0.2">
@@ -48473,7 +48573,7 @@
       <c r="H1023" s="9"/>
       <c r="I1023"/>
       <c r="J1023" s="1" t="s">
-        <v>4288</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="1024" spans="1:10" x14ac:dyDescent="0.2">
@@ -48498,7 +48598,7 @@
       <c r="H1024" s="9"/>
       <c r="I1024"/>
       <c r="J1024" s="1" t="s">
-        <v>4289</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1025" spans="1:10" x14ac:dyDescent="0.2">
@@ -48523,7 +48623,7 @@
       <c r="H1025" s="9"/>
       <c r="I1025"/>
       <c r="J1025" s="1" t="s">
-        <v>4290</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1026" spans="1:10" x14ac:dyDescent="0.2">
@@ -48545,10 +48645,12 @@
       <c r="G1026" t="s">
         <v>5069</v>
       </c>
-      <c r="H1026" s="9"/>
+      <c r="H1026" s="1" t="s">
+        <v>4261</v>
+      </c>
       <c r="I1026"/>
       <c r="J1026" s="1" t="s">
-        <v>4291</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1027" spans="1:10" x14ac:dyDescent="0.2">
@@ -48573,7 +48675,7 @@
       <c r="H1027" s="9"/>
       <c r="I1027"/>
       <c r="J1027" s="1" t="s">
-        <v>1209</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1028" spans="1:10" x14ac:dyDescent="0.2">
@@ -48598,7 +48700,7 @@
       <c r="H1028" s="9"/>
       <c r="I1028"/>
       <c r="J1028" s="1" t="s">
-        <v>4292</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1029" spans="1:10" x14ac:dyDescent="0.2">
@@ -48623,10 +48725,12 @@
       <c r="G1029" t="s">
         <v>5074</v>
       </c>
-      <c r="H1029" s="9"/>
+      <c r="H1029" s="1" t="s">
+        <v>4254</v>
+      </c>
       <c r="I1029"/>
       <c r="J1029" s="1" t="s">
-        <v>4293</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1030" spans="1:10" x14ac:dyDescent="0.2">
@@ -48651,7 +48755,7 @@
       <c r="H1030" s="9"/>
       <c r="I1030"/>
       <c r="J1030" s="1" t="s">
-        <v>4294</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1031" spans="1:10" x14ac:dyDescent="0.2">
@@ -48676,7 +48780,7 @@
       <c r="H1031" s="9"/>
       <c r="I1031"/>
       <c r="J1031" s="1" t="s">
-        <v>4295</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1032" spans="1:10" x14ac:dyDescent="0.2">
@@ -48698,10 +48802,12 @@
       <c r="G1032" t="s">
         <v>5079</v>
       </c>
-      <c r="H1032" s="9"/>
+      <c r="H1032" s="1" t="s">
+        <v>4256</v>
+      </c>
       <c r="I1032"/>
       <c r="J1032" s="1" t="s">
-        <v>4266</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1033" spans="1:10" x14ac:dyDescent="0.2">
@@ -48723,10 +48829,12 @@
       <c r="G1033" t="s">
         <v>5081</v>
       </c>
-      <c r="H1033" s="9"/>
+      <c r="H1033" s="1" t="s">
+        <v>4258</v>
+      </c>
       <c r="I1033"/>
       <c r="J1033" s="1" t="s">
-        <v>4296</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1034" spans="1:10" x14ac:dyDescent="0.2">
@@ -48751,7 +48859,7 @@
       <c r="H1034" s="9"/>
       <c r="I1034"/>
       <c r="J1034" s="1" t="s">
-        <v>4297</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1035" spans="1:10" x14ac:dyDescent="0.2">
@@ -48776,7 +48884,7 @@
       <c r="H1035" s="9"/>
       <c r="I1035"/>
       <c r="J1035" s="1" t="s">
-        <v>4298</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1036" spans="1:10" x14ac:dyDescent="0.2">
@@ -48801,7 +48909,7 @@
       <c r="H1036" s="9"/>
       <c r="I1036"/>
       <c r="J1036" s="1" t="s">
-        <v>4299</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="1037" spans="1:10" x14ac:dyDescent="0.2">
@@ -48826,7 +48934,7 @@
       <c r="H1037" s="9"/>
       <c r="I1037"/>
       <c r="J1037" s="1" t="s">
-        <v>4300</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1038" spans="1:10" x14ac:dyDescent="0.2">
@@ -48851,7 +48959,7 @@
       <c r="H1038" s="9"/>
       <c r="I1038"/>
       <c r="J1038" s="1" t="s">
-        <v>4301</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="1039" spans="1:10" x14ac:dyDescent="0.2">
@@ -48876,7 +48984,7 @@
       <c r="H1039" s="9"/>
       <c r="I1039"/>
       <c r="J1039" s="1" t="s">
-        <v>4302</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="1040" spans="1:10" x14ac:dyDescent="0.2">
@@ -48901,7 +49009,7 @@
       <c r="H1040" s="9"/>
       <c r="I1040"/>
       <c r="J1040" s="1" t="s">
-        <v>4303</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1041" spans="1:10" x14ac:dyDescent="0.2">
@@ -48923,10 +49031,12 @@
       <c r="G1041" t="s">
         <v>5097</v>
       </c>
-      <c r="H1041" s="9"/>
+      <c r="H1041" s="1" t="s">
+        <v>4260</v>
+      </c>
       <c r="I1041"/>
       <c r="J1041" s="1" t="s">
-        <v>4304</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="1042" spans="1:10" x14ac:dyDescent="0.2">
@@ -48951,7 +49061,7 @@
       <c r="H1042" s="9"/>
       <c r="I1042"/>
       <c r="J1042" s="1" t="s">
-        <v>1212</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1043" spans="1:10" x14ac:dyDescent="0.2">
@@ -48976,7 +49086,7 @@
       <c r="H1043" s="9"/>
       <c r="I1043"/>
       <c r="J1043" s="1" t="s">
-        <v>1215</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="1044" spans="1:10" x14ac:dyDescent="0.2">
@@ -49001,7 +49111,7 @@
       <c r="H1044" s="9"/>
       <c r="I1044"/>
       <c r="J1044" s="1" t="s">
-        <v>1220</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1045" spans="1:10" x14ac:dyDescent="0.2">
@@ -49026,7 +49136,7 @@
       <c r="H1045" s="9"/>
       <c r="I1045"/>
       <c r="J1045" s="1" t="s">
-        <v>4305</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="1046" spans="1:10" x14ac:dyDescent="0.2">
@@ -49051,7 +49161,7 @@
       <c r="H1046" s="9"/>
       <c r="I1046"/>
       <c r="J1046" s="1" t="s">
-        <v>4306</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1047" spans="1:10" x14ac:dyDescent="0.2">
@@ -49076,7 +49186,7 @@
       <c r="H1047" s="9"/>
       <c r="I1047"/>
       <c r="J1047" s="1" t="s">
-        <v>4307</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1048" spans="1:10" x14ac:dyDescent="0.2">
@@ -49101,7 +49211,7 @@
       <c r="H1048" s="9"/>
       <c r="I1048"/>
       <c r="J1048" s="1" t="s">
-        <v>4308</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1049" spans="1:10" x14ac:dyDescent="0.2">
@@ -49126,7 +49236,7 @@
       <c r="H1049" s="9"/>
       <c r="I1049"/>
       <c r="J1049" s="1" t="s">
-        <v>4266</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1050" spans="1:10" x14ac:dyDescent="0.2">
@@ -49151,7 +49261,7 @@
       <c r="H1050" s="9"/>
       <c r="I1050"/>
       <c r="J1050" s="1" t="s">
-        <v>4309</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1051" spans="1:10" x14ac:dyDescent="0.2">
@@ -49176,7 +49286,7 @@
       <c r="H1051" s="9"/>
       <c r="I1051"/>
       <c r="J1051" s="1" t="s">
-        <v>4310</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1052" spans="1:10" x14ac:dyDescent="0.2">
@@ -49201,7 +49311,7 @@
       <c r="H1052" s="9"/>
       <c r="I1052"/>
       <c r="J1052" s="1" t="s">
-        <v>4311</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="1053" spans="1:10" x14ac:dyDescent="0.2">
@@ -49226,7 +49336,7 @@
       <c r="H1053" s="9"/>
       <c r="I1053"/>
       <c r="J1053" s="1" t="s">
-        <v>4312</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1054" spans="1:10" x14ac:dyDescent="0.2">
@@ -49251,7 +49361,7 @@
       <c r="H1054" s="9"/>
       <c r="I1054"/>
       <c r="J1054" s="1" t="s">
-        <v>4313</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1055" spans="1:10" x14ac:dyDescent="0.2">
@@ -49278,7 +49388,7 @@
       </c>
       <c r="I1055"/>
       <c r="J1055" s="1" t="s">
-        <v>4314</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1056" spans="1:10" x14ac:dyDescent="0.2">
@@ -49300,10 +49410,12 @@
       <c r="G1056" t="s">
         <v>5127</v>
       </c>
-      <c r="H1056" s="9"/>
+      <c r="H1056" s="1" t="s">
+        <v>4259</v>
+      </c>
       <c r="I1056"/>
       <c r="J1056" s="1" t="s">
-        <v>4315</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="1057" spans="1:10" x14ac:dyDescent="0.2">
@@ -49328,7 +49440,7 @@
       <c r="H1057" s="9"/>
       <c r="I1057"/>
       <c r="J1057" s="1" t="s">
-        <v>4316</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1058" spans="1:10" x14ac:dyDescent="0.2">
@@ -49353,7 +49465,7 @@
       <c r="H1058" s="9"/>
       <c r="I1058"/>
       <c r="J1058" s="1" t="s">
-        <v>4317</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="1059" spans="1:10" x14ac:dyDescent="0.2">
@@ -49378,7 +49490,7 @@
       <c r="H1059" s="9"/>
       <c r="I1059"/>
       <c r="J1059" s="1" t="s">
-        <v>4318</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1060" spans="1:10" x14ac:dyDescent="0.2">
@@ -49403,7 +49515,7 @@
       <c r="H1060" s="9"/>
       <c r="I1060"/>
       <c r="J1060" s="1" t="s">
-        <v>4319</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="1061" spans="1:10" x14ac:dyDescent="0.2">
@@ -49428,7 +49540,7 @@
       <c r="H1061" s="9"/>
       <c r="I1061"/>
       <c r="J1061" s="1" t="s">
-        <v>4320</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1062" spans="1:10" x14ac:dyDescent="0.2">
@@ -49453,7 +49565,7 @@
       <c r="H1062" s="9"/>
       <c r="I1062"/>
       <c r="J1062" s="1" t="s">
-        <v>4321</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="1063" spans="1:10" x14ac:dyDescent="0.2">
@@ -49478,7 +49590,7 @@
       <c r="H1063" s="9"/>
       <c r="I1063"/>
       <c r="J1063" s="1" t="s">
-        <v>4322</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1064" spans="1:10" x14ac:dyDescent="0.2">
@@ -49503,7 +49615,7 @@
       <c r="H1064" s="9"/>
       <c r="I1064"/>
       <c r="J1064" s="1" t="s">
-        <v>1223</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1065" spans="1:10" x14ac:dyDescent="0.2">
@@ -49528,7 +49640,7 @@
       <c r="H1065" s="9"/>
       <c r="I1065"/>
       <c r="J1065" s="1" t="s">
-        <v>1226</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1066" spans="1:10" x14ac:dyDescent="0.2">
@@ -49553,7 +49665,7 @@
       <c r="H1066" s="9"/>
       <c r="I1066"/>
       <c r="J1066" s="1" t="s">
-        <v>230</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1067" spans="1:10" x14ac:dyDescent="0.2">
@@ -49578,7 +49690,7 @@
       <c r="H1067" s="9"/>
       <c r="I1067"/>
       <c r="J1067" s="1" t="s">
-        <v>4323</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1068" spans="1:10" x14ac:dyDescent="0.2">
@@ -49600,10 +49712,12 @@
       <c r="G1068" t="s">
         <v>5156</v>
       </c>
-      <c r="H1068" s="9"/>
+      <c r="H1068" s="1" t="s">
+        <v>4257</v>
+      </c>
       <c r="I1068"/>
       <c r="J1068" s="1" t="s">
-        <v>4324</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1069" spans="1:10" x14ac:dyDescent="0.2">
@@ -49628,7 +49742,7 @@
       <c r="H1069" s="9"/>
       <c r="I1069"/>
       <c r="J1069" s="1" t="s">
-        <v>4325</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="1070" spans="1:10" x14ac:dyDescent="0.2">
@@ -49653,7 +49767,7 @@
       <c r="H1070" s="9"/>
       <c r="I1070"/>
       <c r="J1070" s="1" t="s">
-        <v>4326</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1071" spans="1:10" x14ac:dyDescent="0.2">
@@ -49678,7 +49792,7 @@
       <c r="H1071" s="9"/>
       <c r="I1071"/>
       <c r="J1071" s="1" t="s">
-        <v>4327</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1072" spans="1:10" x14ac:dyDescent="0.2">
@@ -49703,7 +49817,7 @@
       <c r="H1072" s="9"/>
       <c r="I1072"/>
       <c r="J1072" s="1" t="s">
-        <v>4328</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1073" spans="1:10" x14ac:dyDescent="0.2">
@@ -49728,7 +49842,7 @@
       <c r="H1073" s="9"/>
       <c r="I1073"/>
       <c r="J1073" s="1" t="s">
-        <v>4329</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1074" spans="1:10" x14ac:dyDescent="0.2">
@@ -49753,7 +49867,7 @@
       <c r="H1074" s="9"/>
       <c r="I1074"/>
       <c r="J1074" s="1" t="s">
-        <v>4330</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1075" spans="1:10" x14ac:dyDescent="0.2">
@@ -49778,7 +49892,7 @@
       <c r="H1075" s="9"/>
       <c r="I1075"/>
       <c r="J1075" s="1" t="s">
-        <v>4331</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1076" spans="1:10" x14ac:dyDescent="0.2">
@@ -49800,10 +49914,12 @@
       <c r="G1076" t="s">
         <v>5174</v>
       </c>
-      <c r="H1076" s="9"/>
+      <c r="H1076" s="1" t="s">
+        <v>1146</v>
+      </c>
       <c r="I1076"/>
       <c r="J1076" s="1" t="s">
-        <v>4332</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1077" spans="1:10" x14ac:dyDescent="0.2">
@@ -49828,7 +49944,7 @@
       <c r="H1077" s="9"/>
       <c r="I1077"/>
       <c r="J1077" s="1" t="s">
-        <v>4333</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1078" spans="1:10" x14ac:dyDescent="0.2">
@@ -49853,7 +49969,7 @@
       <c r="H1078" s="9"/>
       <c r="I1078"/>
       <c r="J1078" s="1" t="s">
-        <v>4334</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1079" spans="1:10" x14ac:dyDescent="0.2">
@@ -49878,7 +49994,7 @@
       <c r="H1079" s="9"/>
       <c r="I1079"/>
       <c r="J1079" s="1" t="s">
-        <v>4335</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1080" spans="1:10" x14ac:dyDescent="0.2">
@@ -49903,7 +50019,7 @@
       <c r="H1080" s="9"/>
       <c r="I1080"/>
       <c r="J1080" s="1" t="s">
-        <v>4336</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1081" spans="1:10" x14ac:dyDescent="0.2">
@@ -49928,7 +50044,7 @@
       <c r="H1081" s="9"/>
       <c r="I1081"/>
       <c r="J1081" s="1" t="s">
-        <v>1232</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.2">
@@ -49953,7 +50069,7 @@
       <c r="H1082" s="9"/>
       <c r="I1082"/>
       <c r="J1082" s="1" t="s">
-        <v>1236</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1083" spans="1:10" x14ac:dyDescent="0.2">
@@ -49978,7 +50094,7 @@
       <c r="H1083" s="9"/>
       <c r="I1083"/>
       <c r="J1083" s="1" t="s">
-        <v>56</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1084" spans="1:10" x14ac:dyDescent="0.2">
@@ -50003,7 +50119,7 @@
       <c r="H1084" s="9"/>
       <c r="I1084"/>
       <c r="J1084" s="1" t="s">
-        <v>1240</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1085" spans="1:10" x14ac:dyDescent="0.2">
@@ -50028,7 +50144,7 @@
       <c r="H1085" s="9"/>
       <c r="I1085"/>
       <c r="J1085" s="1" t="s">
-        <v>4337</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1086" spans="1:10" x14ac:dyDescent="0.2">
@@ -50053,7 +50169,7 @@
       <c r="H1086" s="9"/>
       <c r="I1086"/>
       <c r="J1086" s="1" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1087" spans="1:10" x14ac:dyDescent="0.2">
@@ -50078,7 +50194,7 @@
       <c r="H1087" s="9"/>
       <c r="I1087"/>
       <c r="J1087" s="1" t="s">
-        <v>4338</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1088" spans="1:10" x14ac:dyDescent="0.2">
@@ -50103,7 +50219,7 @@
       <c r="H1088" s="9"/>
       <c r="I1088"/>
       <c r="J1088" s="1" t="s">
-        <v>4339</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1089" spans="1:10" x14ac:dyDescent="0.2">
@@ -50128,7 +50244,7 @@
       <c r="H1089" s="9"/>
       <c r="I1089"/>
       <c r="J1089" s="1" t="s">
-        <v>4340</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1090" spans="1:10" x14ac:dyDescent="0.2">
@@ -50153,7 +50269,7 @@
       <c r="H1090" s="9"/>
       <c r="I1090"/>
       <c r="J1090" s="1" t="s">
-        <v>4341</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1091" spans="1:10" x14ac:dyDescent="0.2">
@@ -50178,7 +50294,7 @@
       <c r="H1091" s="9"/>
       <c r="I1091"/>
       <c r="J1091" s="1" t="s">
-        <v>4342</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1092" spans="1:10" x14ac:dyDescent="0.2">
@@ -50203,7 +50319,7 @@
       <c r="H1092" s="9"/>
       <c r="I1092"/>
       <c r="J1092" s="1" t="s">
-        <v>4343</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1093" spans="1:10" x14ac:dyDescent="0.2">
@@ -50228,7 +50344,7 @@
       <c r="H1093" s="9"/>
       <c r="I1093"/>
       <c r="J1093" s="1" t="s">
-        <v>4344</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1094" spans="1:10" x14ac:dyDescent="0.2">
@@ -50253,7 +50369,7 @@
       <c r="H1094" s="9"/>
       <c r="I1094"/>
       <c r="J1094" s="1" t="s">
-        <v>4345</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1095" spans="1:10" x14ac:dyDescent="0.2">
@@ -50278,7 +50394,7 @@
       <c r="H1095" s="9"/>
       <c r="I1095"/>
       <c r="J1095" s="1" t="s">
-        <v>4346</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1096" spans="1:10" x14ac:dyDescent="0.2">
@@ -50303,7 +50419,7 @@
       <c r="H1096" s="9"/>
       <c r="I1096"/>
       <c r="J1096" s="1" t="s">
-        <v>4347</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1097" spans="1:10" x14ac:dyDescent="0.2">
@@ -50328,7 +50444,7 @@
       <c r="H1097" s="9"/>
       <c r="I1097"/>
       <c r="J1097" s="1" t="s">
-        <v>4348</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1098" spans="1:10" x14ac:dyDescent="0.2">
@@ -50353,7 +50469,7 @@
       <c r="H1098" s="9"/>
       <c r="I1098"/>
       <c r="J1098" s="1" t="s">
-        <v>4349</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1099" spans="1:10" x14ac:dyDescent="0.2">
@@ -50378,7 +50494,7 @@
       <c r="H1099" s="9"/>
       <c r="I1099"/>
       <c r="J1099" s="1" t="s">
-        <v>4350</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1100" spans="1:10" x14ac:dyDescent="0.2">
@@ -50403,7 +50519,7 @@
       <c r="H1100" s="9"/>
       <c r="I1100"/>
       <c r="J1100" s="1" t="s">
-        <v>4351</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="1101" spans="1:10" x14ac:dyDescent="0.2">
@@ -50428,7 +50544,7 @@
       <c r="H1101" s="9"/>
       <c r="I1101"/>
       <c r="J1101" s="1" t="s">
-        <v>4352</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1102" spans="1:10" x14ac:dyDescent="0.2">
@@ -50453,7 +50569,7 @@
       <c r="H1102" s="9"/>
       <c r="I1102"/>
       <c r="J1102" s="1" t="s">
-        <v>4353</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="1103" spans="1:10" x14ac:dyDescent="0.2">
@@ -50478,7 +50594,7 @@
       <c r="H1103" s="9"/>
       <c r="I1103"/>
       <c r="J1103" s="1" t="s">
-        <v>4354</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1104" spans="1:10" x14ac:dyDescent="0.2">
@@ -50503,7 +50619,7 @@
       <c r="H1104" s="9"/>
       <c r="I1104"/>
       <c r="J1104" s="1" t="s">
-        <v>4355</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1105" spans="1:10" x14ac:dyDescent="0.2">
@@ -50528,7 +50644,7 @@
       <c r="H1105" s="9"/>
       <c r="I1105"/>
       <c r="J1105" s="1" t="s">
-        <v>1244</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1106" spans="1:10" x14ac:dyDescent="0.2">
@@ -50553,7 +50669,7 @@
       <c r="H1106" s="9"/>
       <c r="I1106"/>
       <c r="J1106" s="1" t="s">
-        <v>1248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1107" spans="1:10" x14ac:dyDescent="0.2">
@@ -50578,7 +50694,7 @@
       <c r="H1107" s="9"/>
       <c r="I1107"/>
       <c r="J1107" s="1" t="s">
-        <v>1251</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.2">
@@ -50603,7 +50719,7 @@
       <c r="H1108" s="9"/>
       <c r="I1108"/>
       <c r="J1108" s="1" t="s">
-        <v>1256</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1109" spans="1:10" x14ac:dyDescent="0.2">
@@ -50628,7 +50744,7 @@
       <c r="H1109" s="9"/>
       <c r="I1109"/>
       <c r="J1109" s="1" t="s">
-        <v>4356</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.2">
@@ -50653,7 +50769,7 @@
       <c r="H1110" s="9"/>
       <c r="I1110"/>
       <c r="J1110" s="1" t="s">
-        <v>4357</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1111" spans="1:10" x14ac:dyDescent="0.2">
@@ -50678,7 +50794,7 @@
       <c r="H1111" s="9"/>
       <c r="I1111"/>
       <c r="J1111" s="1" t="s">
-        <v>4358</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="1112" spans="1:10" x14ac:dyDescent="0.2">
@@ -50703,7 +50819,7 @@
       <c r="H1112" s="9"/>
       <c r="I1112"/>
       <c r="J1112" s="1" t="s">
-        <v>4359</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.2">
@@ -50728,7 +50844,7 @@
       <c r="H1113" s="9"/>
       <c r="I1113"/>
       <c r="J1113" s="1" t="s">
-        <v>4360</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="1114" spans="1:10" x14ac:dyDescent="0.2">
@@ -50753,7 +50869,7 @@
       <c r="H1114" s="9"/>
       <c r="I1114"/>
       <c r="J1114" s="1" t="s">
-        <v>4361</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1115" spans="1:10" x14ac:dyDescent="0.2">
@@ -50778,7 +50894,7 @@
       <c r="H1115" s="9"/>
       <c r="I1115"/>
       <c r="J1115" s="1" t="s">
-        <v>4362</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1116" spans="1:10" x14ac:dyDescent="0.2">
@@ -50802,7 +50918,7 @@
       </c>
       <c r="H1116" s="9"/>
       <c r="J1116" s="1" t="s">
-        <v>4363</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1117" spans="1:10" x14ac:dyDescent="0.2">
@@ -50825,7 +50941,7 @@
         <v>2723</v>
       </c>
       <c r="J1117" s="1" t="s">
-        <v>1258</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="1118" spans="1:10" x14ac:dyDescent="0.2">
@@ -50848,7 +50964,7 @@
         <v>2725</v>
       </c>
       <c r="J1118" s="1" t="s">
-        <v>1262</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1119" spans="1:10" x14ac:dyDescent="0.2">
@@ -50871,7 +50987,7 @@
         <v>2727</v>
       </c>
       <c r="J1119" s="1" t="s">
-        <v>1265</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1120" spans="1:10" x14ac:dyDescent="0.2">
@@ -50894,7 +51010,7 @@
         <v>2729</v>
       </c>
       <c r="J1120" s="1" t="s">
-        <v>1269</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1121" spans="1:10" x14ac:dyDescent="0.2">
@@ -50917,7 +51033,7 @@
         <v>2732</v>
       </c>
       <c r="J1121" s="1" t="s">
-        <v>1272</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1122" spans="1:10" x14ac:dyDescent="0.2">
@@ -50940,7 +51056,7 @@
         <v>2735</v>
       </c>
       <c r="J1122" s="1" t="s">
-        <v>1275</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1123" spans="1:10" x14ac:dyDescent="0.2">
@@ -50966,7 +51082,7 @@
         <v>2738</v>
       </c>
       <c r="J1123" s="1" t="s">
-        <v>4364</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1124" spans="1:10" x14ac:dyDescent="0.2">
@@ -50989,7 +51105,7 @@
         <v>2741</v>
       </c>
       <c r="J1124" s="1" t="s">
-        <v>4365</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1125" spans="1:10" x14ac:dyDescent="0.2">
@@ -51012,7 +51128,7 @@
         <v>2743</v>
       </c>
       <c r="J1125" s="1" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1126" spans="1:10" x14ac:dyDescent="0.2">
@@ -51058,7 +51174,7 @@
         <v>2747</v>
       </c>
       <c r="J1127" s="1" t="s">
-        <v>4367</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1128" spans="1:10" x14ac:dyDescent="0.2">
@@ -51081,7 +51197,7 @@
         <v>2749</v>
       </c>
       <c r="J1128" s="1" t="s">
-        <v>4368</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1129" spans="1:10" x14ac:dyDescent="0.2">
@@ -51104,7 +51220,7 @@
         <v>2752</v>
       </c>
       <c r="J1129" s="1" t="s">
-        <v>4369</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1130" spans="1:10" x14ac:dyDescent="0.2">
@@ -51127,7 +51243,7 @@
         <v>2754</v>
       </c>
       <c r="J1130" s="1" t="s">
-        <v>4370</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1131" spans="1:10" x14ac:dyDescent="0.2">
@@ -51150,7 +51266,7 @@
         <v>2756</v>
       </c>
       <c r="J1131" s="1" t="s">
-        <v>4371</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1132" spans="1:10" x14ac:dyDescent="0.2">
@@ -51173,7 +51289,7 @@
         <v>2759</v>
       </c>
       <c r="J1132" s="1" t="s">
-        <v>4372</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1133" spans="1:10" x14ac:dyDescent="0.2">
@@ -51196,7 +51312,7 @@
         <v>2761</v>
       </c>
       <c r="J1133" s="1" t="s">
-        <v>4373</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1134" spans="1:10" x14ac:dyDescent="0.2">
@@ -51219,7 +51335,7 @@
         <v>2763</v>
       </c>
       <c r="J1134" s="1" t="s">
-        <v>4374</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1135" spans="1:10" x14ac:dyDescent="0.2">
@@ -51242,7 +51358,7 @@
         <v>2765</v>
       </c>
       <c r="J1135" s="1" t="s">
-        <v>4375</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1136" spans="1:10" x14ac:dyDescent="0.2">
@@ -51265,7 +51381,7 @@
         <v>2768</v>
       </c>
       <c r="J1136" s="1" t="s">
-        <v>4376</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1137" spans="1:10" x14ac:dyDescent="0.2">
@@ -51288,7 +51404,7 @@
         <v>2771</v>
       </c>
       <c r="J1137" s="1" t="s">
-        <v>4377</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1138" spans="1:10" x14ac:dyDescent="0.2">
@@ -51311,7 +51427,7 @@
         <v>2774</v>
       </c>
       <c r="J1138" s="1" t="s">
-        <v>1279</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1139" spans="1:10" x14ac:dyDescent="0.2">
@@ -51334,7 +51450,7 @@
         <v>2777</v>
       </c>
       <c r="J1139" s="1" t="s">
-        <v>1283</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1140" spans="1:10" x14ac:dyDescent="0.2">
@@ -51357,7 +51473,7 @@
         <v>2779</v>
       </c>
       <c r="J1140" s="1" t="s">
-        <v>639</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1141" spans="1:10" x14ac:dyDescent="0.2">
@@ -51380,7 +51496,7 @@
         <v>2781</v>
       </c>
       <c r="J1141" s="1" t="s">
-        <v>1290</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1142" spans="1:10" x14ac:dyDescent="0.2">
@@ -51403,7 +51519,7 @@
         <v>2783</v>
       </c>
       <c r="J1142" s="1" t="s">
-        <v>1294</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1143" spans="1:10" x14ac:dyDescent="0.2">
@@ -51426,7 +51542,7 @@
         <v>2785</v>
       </c>
       <c r="J1143" s="1" t="s">
-        <v>1297</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1144" spans="1:10" x14ac:dyDescent="0.2">
@@ -51449,7 +51565,7 @@
         <v>2787</v>
       </c>
       <c r="J1144" s="1" t="s">
-        <v>18</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1145" spans="1:10" x14ac:dyDescent="0.2">
@@ -51472,7 +51588,7 @@
         <v>2790</v>
       </c>
       <c r="J1145" s="1" t="s">
-        <v>4378</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1146" spans="1:10" x14ac:dyDescent="0.2">
@@ -51495,7 +51611,7 @@
         <v>2793</v>
       </c>
       <c r="J1146" s="1" t="s">
-        <v>4379</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1147" spans="1:10" x14ac:dyDescent="0.2">
@@ -51518,7 +51634,7 @@
         <v>2795</v>
       </c>
       <c r="J1147" s="1" t="s">
-        <v>4380</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1148" spans="1:10" x14ac:dyDescent="0.2">
@@ -51541,7 +51657,7 @@
         <v>2798</v>
       </c>
       <c r="J1148" s="1" t="s">
-        <v>4381</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1149" spans="1:10" x14ac:dyDescent="0.2">
@@ -51564,7 +51680,7 @@
         <v>2800</v>
       </c>
       <c r="J1149" s="1" t="s">
-        <v>4382</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1150" spans="1:10" x14ac:dyDescent="0.2">
@@ -51587,7 +51703,7 @@
         <v>2802</v>
       </c>
       <c r="J1150" s="1" t="s">
-        <v>4383</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1151" spans="1:10" x14ac:dyDescent="0.2">
@@ -51610,7 +51726,7 @@
         <v>2805</v>
       </c>
       <c r="J1151" s="1" t="s">
-        <v>4384</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1152" spans="1:10" x14ac:dyDescent="0.2">
@@ -51633,7 +51749,7 @@
         <v>2806</v>
       </c>
       <c r="J1152" s="1" t="s">
-        <v>4385</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1153" spans="1:10" x14ac:dyDescent="0.2">
@@ -51656,7 +51772,7 @@
         <v>2808</v>
       </c>
       <c r="J1153" s="1" t="s">
-        <v>4386</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1154" spans="1:10" x14ac:dyDescent="0.2">
@@ -51679,7 +51795,7 @@
         <v>2810</v>
       </c>
       <c r="J1154" s="1" t="s">
-        <v>4387</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1155" spans="1:10" x14ac:dyDescent="0.2">
@@ -51702,7 +51818,7 @@
         <v>2813</v>
       </c>
       <c r="J1155" s="1" t="s">
-        <v>4388</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1156" spans="1:10" x14ac:dyDescent="0.2">
@@ -51725,7 +51841,7 @@
         <v>2816</v>
       </c>
       <c r="J1156" s="1" t="s">
-        <v>4389</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1157" spans="1:10" x14ac:dyDescent="0.2">
@@ -51748,7 +51864,7 @@
         <v>2818</v>
       </c>
       <c r="J1157" s="1" t="s">
-        <v>4390</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1158" spans="1:10" x14ac:dyDescent="0.2">
@@ -51771,7 +51887,7 @@
         <v>2820</v>
       </c>
       <c r="J1158" s="1" t="s">
-        <v>4391</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1159" spans="1:10" x14ac:dyDescent="0.2">
@@ -51794,7 +51910,7 @@
         <v>2822</v>
       </c>
       <c r="J1159" s="1" t="s">
-        <v>4392</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1160" spans="1:10" x14ac:dyDescent="0.2">
@@ -51817,7 +51933,7 @@
         <v>2824</v>
       </c>
       <c r="J1160" s="1" t="s">
-        <v>4393</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1161" spans="1:10" x14ac:dyDescent="0.2">
@@ -51840,7 +51956,7 @@
         <v>2826</v>
       </c>
       <c r="J1161" s="1" t="s">
-        <v>4394</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1162" spans="1:10" x14ac:dyDescent="0.2">
@@ -51863,7 +51979,7 @@
         <v>2829</v>
       </c>
       <c r="J1162" s="1" t="s">
-        <v>4395</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1163" spans="1:10" x14ac:dyDescent="0.2">
@@ -51886,7 +52002,7 @@
         <v>2831</v>
       </c>
       <c r="J1163" s="1" t="s">
-        <v>4396</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1164" spans="1:10" x14ac:dyDescent="0.2">
@@ -51909,7 +52025,7 @@
         <v>2833</v>
       </c>
       <c r="J1164" s="1" t="s">
-        <v>4397</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1165" spans="1:10" x14ac:dyDescent="0.2">
@@ -51932,7 +52048,7 @@
         <v>2835</v>
       </c>
       <c r="J1165" s="1" t="s">
-        <v>1301</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1166" spans="1:10" x14ac:dyDescent="0.2">
@@ -51955,7 +52071,7 @@
         <v>2838</v>
       </c>
       <c r="J1166" s="1" t="s">
-        <v>4398</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1167" spans="1:10" x14ac:dyDescent="0.2">
@@ -51978,7 +52094,7 @@
         <v>2841</v>
       </c>
       <c r="J1167" s="1" t="s">
-        <v>4307</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1168" spans="1:10" x14ac:dyDescent="0.2">
@@ -52001,7 +52117,7 @@
         <v>2843</v>
       </c>
       <c r="J1168" s="1" t="s">
-        <v>4399</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1169" spans="1:10" x14ac:dyDescent="0.2">
@@ -52027,7 +52143,7 @@
         <v>2847</v>
       </c>
       <c r="J1169" s="1" t="s">
-        <v>4400</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1170" spans="1:10" x14ac:dyDescent="0.2">
@@ -52050,7 +52166,7 @@
         <v>2849</v>
       </c>
       <c r="J1170" s="1" t="s">
-        <v>4401</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1171" spans="1:10" x14ac:dyDescent="0.2">
@@ -52073,7 +52189,7 @@
         <v>2852</v>
       </c>
       <c r="J1171" s="1" t="s">
-        <v>4402</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1172" spans="1:10" x14ac:dyDescent="0.2">
@@ -52096,7 +52212,7 @@
         <v>2854</v>
       </c>
       <c r="J1172" s="1" t="s">
-        <v>4403</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1173" spans="1:10" x14ac:dyDescent="0.2">
@@ -52119,7 +52235,7 @@
         <v>2856</v>
       </c>
       <c r="J1173" s="1" t="s">
-        <v>4404</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1174" spans="1:10" x14ac:dyDescent="0.2">
@@ -52142,7 +52258,7 @@
         <v>2858</v>
       </c>
       <c r="J1174" s="1" t="s">
-        <v>4405</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1175" spans="1:10" x14ac:dyDescent="0.2">
@@ -52165,7 +52281,7 @@
         <v>2860</v>
       </c>
       <c r="J1175" s="1" t="s">
-        <v>4406</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1176" spans="1:10" x14ac:dyDescent="0.2">
@@ -52191,7 +52307,7 @@
         <v>2862</v>
       </c>
       <c r="J1176" s="1" t="s">
-        <v>4407</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1177" spans="1:10" x14ac:dyDescent="0.2">
@@ -52214,7 +52330,7 @@
         <v>2864</v>
       </c>
       <c r="J1177" s="1" t="s">
-        <v>4408</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1178" spans="1:10" x14ac:dyDescent="0.2">
@@ -52237,7 +52353,7 @@
         <v>2866</v>
       </c>
       <c r="J1178" s="1" t="s">
-        <v>4409</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1179" spans="1:10" x14ac:dyDescent="0.2">
@@ -52260,7 +52376,7 @@
         <v>2868</v>
       </c>
       <c r="J1179" s="1" t="s">
-        <v>4410</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1180" spans="1:10" x14ac:dyDescent="0.2">
@@ -52283,7 +52399,7 @@
         <v>2870</v>
       </c>
       <c r="J1180" s="1" t="s">
-        <v>4411</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1181" spans="1:10" x14ac:dyDescent="0.2">
@@ -52306,7 +52422,7 @@
         <v>2872</v>
       </c>
       <c r="J1181" s="1" t="s">
-        <v>4412</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1182" spans="1:10" x14ac:dyDescent="0.2">
@@ -52329,7 +52445,7 @@
         <v>2874</v>
       </c>
       <c r="J1182" s="1" t="s">
-        <v>4413</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1183" spans="1:10" x14ac:dyDescent="0.2">
@@ -52352,7 +52468,7 @@
         <v>2877</v>
       </c>
       <c r="J1183" s="1" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1184" spans="1:10" x14ac:dyDescent="0.2">
@@ -52378,7 +52494,7 @@
         <v>2879</v>
       </c>
       <c r="J1184" s="1" t="s">
-        <v>1307</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1185" spans="1:10" x14ac:dyDescent="0.2">
@@ -52401,7 +52517,7 @@
         <v>2881</v>
       </c>
       <c r="J1185" s="1" t="s">
-        <v>1310</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1186" spans="1:10" x14ac:dyDescent="0.2">
@@ -52424,7 +52540,7 @@
         <v>2883</v>
       </c>
       <c r="J1186" s="1" t="s">
-        <v>4414</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1187" spans="1:10" x14ac:dyDescent="0.2">
@@ -52447,7 +52563,7 @@
         <v>2886</v>
       </c>
       <c r="J1187" s="1" t="s">
-        <v>4415</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1188" spans="1:10" x14ac:dyDescent="0.2">
@@ -52470,7 +52586,7 @@
         <v>2888</v>
       </c>
       <c r="J1188" s="1" t="s">
-        <v>4416</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1189" spans="1:10" x14ac:dyDescent="0.2">
@@ -52493,7 +52609,7 @@
         <v>2890</v>
       </c>
       <c r="J1189" s="1" t="s">
-        <v>4417</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1190" spans="1:10" x14ac:dyDescent="0.2">
@@ -52516,7 +52632,7 @@
         <v>2892</v>
       </c>
       <c r="J1190" s="1" t="s">
-        <v>4418</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1191" spans="1:10" x14ac:dyDescent="0.2">
@@ -52539,7 +52655,7 @@
         <v>2895</v>
       </c>
       <c r="J1191" s="1" t="s">
-        <v>4419</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1192" spans="1:10" x14ac:dyDescent="0.2">
@@ -52562,7 +52678,7 @@
         <v>2897</v>
       </c>
       <c r="J1192" s="1" t="s">
-        <v>4420</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1193" spans="1:10" x14ac:dyDescent="0.2">
@@ -52585,7 +52701,7 @@
         <v>2899</v>
       </c>
       <c r="J1193" s="1" t="s">
-        <v>4421</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1194" spans="1:10" x14ac:dyDescent="0.2">
@@ -52608,7 +52724,7 @@
         <v>2901</v>
       </c>
       <c r="J1194" s="1" t="s">
-        <v>4422</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1195" spans="1:10" x14ac:dyDescent="0.2">
@@ -52631,7 +52747,7 @@
         <v>2904</v>
       </c>
       <c r="J1195" s="1" t="s">
-        <v>4423</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1196" spans="1:10" x14ac:dyDescent="0.2">
@@ -52654,7 +52770,7 @@
         <v>2906</v>
       </c>
       <c r="J1196" s="1" t="s">
-        <v>4424</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1197" spans="1:10" x14ac:dyDescent="0.2">
@@ -52677,7 +52793,7 @@
         <v>2908</v>
       </c>
       <c r="J1197" s="1" t="s">
-        <v>4425</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1198" spans="1:10" x14ac:dyDescent="0.2">
@@ -52700,7 +52816,7 @@
         <v>2910</v>
       </c>
       <c r="J1198" s="1" t="s">
-        <v>4426</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1199" spans="1:10" x14ac:dyDescent="0.2">
@@ -52723,7 +52839,7 @@
         <v>2912</v>
       </c>
       <c r="J1199" s="1" t="s">
-        <v>4427</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1200" spans="1:10" x14ac:dyDescent="0.2">
@@ -52746,7 +52862,7 @@
         <v>2914</v>
       </c>
       <c r="J1200" s="1" t="s">
-        <v>4428</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1201" spans="1:10" x14ac:dyDescent="0.2">
@@ -52769,7 +52885,7 @@
         <v>2917</v>
       </c>
       <c r="J1201" s="1" t="s">
-        <v>4429</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1202" spans="1:10" x14ac:dyDescent="0.2">
@@ -52792,7 +52908,7 @@
         <v>2920</v>
       </c>
       <c r="J1202" s="1" t="s">
-        <v>1313</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1203" spans="1:10" x14ac:dyDescent="0.2">
@@ -52815,7 +52931,7 @@
         <v>2923</v>
       </c>
       <c r="J1203" s="1" t="s">
-        <v>1316</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1204" spans="1:10" x14ac:dyDescent="0.2">
@@ -52838,7 +52954,7 @@
         <v>2925</v>
       </c>
       <c r="J1204" s="1" t="s">
-        <v>1320</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1205" spans="1:10" x14ac:dyDescent="0.2">
@@ -52861,7 +52977,7 @@
         <v>2927</v>
       </c>
       <c r="J1205" s="1" t="s">
-        <v>1323</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1206" spans="1:10" x14ac:dyDescent="0.2">
@@ -52884,7 +53000,7 @@
         <v>2929</v>
       </c>
       <c r="J1206" s="1" t="s">
-        <v>1326</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1207" spans="1:10" x14ac:dyDescent="0.2">
@@ -52907,7 +53023,7 @@
         <v>2932</v>
       </c>
       <c r="J1207" s="1" t="s">
-        <v>4430</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1208" spans="1:10" x14ac:dyDescent="0.2">
@@ -52930,7 +53046,7 @@
         <v>5265</v>
       </c>
       <c r="J1208" s="1" t="s">
-        <v>4431</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1209" spans="1:10" x14ac:dyDescent="0.2">
@@ -52953,7 +53069,7 @@
         <v>5267</v>
       </c>
       <c r="J1209" s="1" t="s">
-        <v>4432</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1210" spans="1:10" x14ac:dyDescent="0.2">
@@ -52976,7 +53092,7 @@
         <v>5269</v>
       </c>
       <c r="J1210" s="1" t="s">
-        <v>4433</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1211" spans="1:10" x14ac:dyDescent="0.2">
@@ -52999,7 +53115,7 @@
         <v>5272</v>
       </c>
       <c r="J1211" s="1" t="s">
-        <v>4434</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1212" spans="1:10" x14ac:dyDescent="0.2">
@@ -53022,7 +53138,7 @@
         <v>5274</v>
       </c>
       <c r="J1212" s="1" t="s">
-        <v>4435</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1213" spans="1:10" x14ac:dyDescent="0.2">
@@ -53045,7 +53161,7 @@
         <v>5276</v>
       </c>
       <c r="J1213" s="1" t="s">
-        <v>4436</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1214" spans="1:10" x14ac:dyDescent="0.2">
@@ -53068,7 +53184,7 @@
         <v>5278</v>
       </c>
       <c r="J1214" s="1" t="s">
-        <v>4437</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="1215" spans="1:10" x14ac:dyDescent="0.2">
@@ -53091,7 +53207,7 @@
         <v>5280</v>
       </c>
       <c r="J1215" s="1" t="s">
-        <v>4438</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1216" spans="1:10" x14ac:dyDescent="0.2">
@@ -53114,7 +53230,7 @@
         <v>5281</v>
       </c>
       <c r="J1216" s="1" t="s">
-        <v>4439</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="1217" spans="1:10" x14ac:dyDescent="0.2">
@@ -53137,7 +53253,7 @@
         <v>5283</v>
       </c>
       <c r="J1217" s="1" t="s">
-        <v>4440</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1218" spans="1:10" x14ac:dyDescent="0.2">
@@ -53160,7 +53276,7 @@
         <v>5285</v>
       </c>
       <c r="J1218" s="1" t="s">
-        <v>4441</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1219" spans="1:10" x14ac:dyDescent="0.2">
@@ -53186,7 +53302,7 @@
         <v>5287</v>
       </c>
       <c r="J1219" s="1" t="s">
-        <v>1330</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1220" spans="1:10" x14ac:dyDescent="0.2">
@@ -53209,7 +53325,7 @@
         <v>5289</v>
       </c>
       <c r="J1220" s="1" t="s">
-        <v>1334</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="1221" spans="1:10" x14ac:dyDescent="0.2">
@@ -53232,7 +53348,7 @@
         <v>5290</v>
       </c>
       <c r="J1221" s="1" t="s">
-        <v>1338</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1222" spans="1:10" x14ac:dyDescent="0.2">
@@ -53255,7 +53371,7 @@
         <v>5292</v>
       </c>
       <c r="J1222" s="1" t="s">
-        <v>1341</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="1223" spans="1:10" x14ac:dyDescent="0.2">
@@ -53278,7 +53394,7 @@
         <v>5294</v>
       </c>
       <c r="J1223" s="1" t="s">
-        <v>1344</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1224" spans="1:10" x14ac:dyDescent="0.2">
@@ -53301,7 +53417,7 @@
         <v>5296</v>
       </c>
       <c r="J1224" s="1" t="s">
-        <v>1347</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1225" spans="1:10" x14ac:dyDescent="0.2">
@@ -53324,7 +53440,7 @@
         <v>5297</v>
       </c>
       <c r="J1225" s="1" t="s">
-        <v>1351</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1226" spans="1:10" x14ac:dyDescent="0.2">
@@ -53347,7 +53463,7 @@
         <v>5299</v>
       </c>
       <c r="J1226" s="1" t="s">
-        <v>1354</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1227" spans="1:10" x14ac:dyDescent="0.2">
@@ -53370,7 +53486,7 @@
         <v>5302</v>
       </c>
       <c r="J1227" s="1" t="s">
-        <v>1357</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="1228" spans="1:10" x14ac:dyDescent="0.2">
@@ -53393,7 +53509,7 @@
         <v>5304</v>
       </c>
       <c r="J1228" s="1" t="s">
-        <v>1360</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1229" spans="1:10" x14ac:dyDescent="0.2">
@@ -53416,7 +53532,7 @@
         <v>5307</v>
       </c>
       <c r="J1229" s="1" t="s">
-        <v>1365</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1230" spans="1:10" x14ac:dyDescent="0.2">
@@ -53439,7 +53555,7 @@
         <v>5309</v>
       </c>
       <c r="J1230" s="1" t="s">
-        <v>1368</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1231" spans="1:10" x14ac:dyDescent="0.2">
@@ -53462,7 +53578,7 @@
         <v>5311</v>
       </c>
       <c r="J1231" s="1" t="s">
-        <v>1371</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="1232" spans="1:10" x14ac:dyDescent="0.2">
@@ -53485,7 +53601,7 @@
         <v>5313</v>
       </c>
       <c r="J1232" s="1" t="s">
-        <v>1375</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1233" spans="1:10" x14ac:dyDescent="0.2">
@@ -53508,7 +53624,7 @@
         <v>5315</v>
       </c>
       <c r="J1233" s="1" t="s">
-        <v>1378</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="1234" spans="1:10" x14ac:dyDescent="0.2">
@@ -53531,7 +53647,7 @@
         <v>5317</v>
       </c>
       <c r="J1234" s="1" t="s">
-        <v>1381</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1235" spans="1:10" x14ac:dyDescent="0.2">
@@ -53554,7 +53670,7 @@
         <v>5319</v>
       </c>
       <c r="J1235" s="1" t="s">
-        <v>442</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1236" spans="1:10" x14ac:dyDescent="0.2">
@@ -53577,7 +53693,7 @@
         <v>5320</v>
       </c>
       <c r="J1236" s="1" t="s">
-        <v>1387</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1237" spans="1:10" x14ac:dyDescent="0.2">
@@ -53600,7 +53716,7 @@
         <v>5322</v>
       </c>
       <c r="J1237" s="1" t="s">
-        <v>1391</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="1238" spans="1:10" x14ac:dyDescent="0.2">
@@ -53623,7 +53739,7 @@
         <v>5324</v>
       </c>
       <c r="J1238" s="1" t="s">
-        <v>1394</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1239" spans="1:10" x14ac:dyDescent="0.2">
@@ -53646,7 +53762,7 @@
         <v>5326</v>
       </c>
       <c r="J1239" s="1" t="s">
-        <v>1396</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1240" spans="1:10" x14ac:dyDescent="0.2">
@@ -53669,7 +53785,7 @@
         <v>5328</v>
       </c>
       <c r="J1240" s="1" t="s">
-        <v>1399</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1241" spans="1:10" x14ac:dyDescent="0.2">
@@ -53692,7 +53808,7 @@
         <v>5330</v>
       </c>
       <c r="J1241" s="1" t="s">
-        <v>1402</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1242" spans="1:10" x14ac:dyDescent="0.2">
@@ -53715,7 +53831,7 @@
         <v>5332</v>
       </c>
       <c r="J1242" s="1" t="s">
-        <v>1406</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1243" spans="1:10" x14ac:dyDescent="0.2">
@@ -53738,7 +53854,7 @@
         <v>5335</v>
       </c>
       <c r="J1243" s="1" t="s">
-        <v>1410</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1244" spans="1:10" x14ac:dyDescent="0.2">
@@ -53764,7 +53880,7 @@
         <v>5336</v>
       </c>
       <c r="J1244" s="1" t="s">
-        <v>1413</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1245" spans="1:10" x14ac:dyDescent="0.2">
@@ -53787,7 +53903,7 @@
         <v>5338</v>
       </c>
       <c r="J1245" s="1" t="s">
-        <v>1417</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1246" spans="1:10" x14ac:dyDescent="0.2">
@@ -53810,7 +53926,7 @@
         <v>5340</v>
       </c>
       <c r="J1246" s="1" t="s">
-        <v>1420</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1247" spans="1:10" x14ac:dyDescent="0.2">
@@ -53833,7 +53949,7 @@
         <v>5343</v>
       </c>
       <c r="J1247" s="1" t="s">
-        <v>1423</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1248" spans="1:10" x14ac:dyDescent="0.2">
@@ -53856,7 +53972,7 @@
         <v>5345</v>
       </c>
       <c r="J1248" s="1" t="s">
-        <v>62</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1249" spans="1:10" x14ac:dyDescent="0.2">
@@ -53879,7 +53995,7 @@
         <v>5347</v>
       </c>
       <c r="J1249" s="1" t="s">
-        <v>1428</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1250" spans="1:10" x14ac:dyDescent="0.2">
@@ -53902,7 +54018,7 @@
         <v>5350</v>
       </c>
       <c r="J1250" s="1" t="s">
-        <v>1432</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1251" spans="1:10" x14ac:dyDescent="0.2">
@@ -53925,7 +54041,7 @@
         <v>5352</v>
       </c>
       <c r="J1251" s="1" t="s">
-        <v>1435</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1252" spans="1:10" x14ac:dyDescent="0.2">
@@ -53948,7 +54064,7 @@
         <v>5354</v>
       </c>
       <c r="J1252" s="1" t="s">
-        <v>1438</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1253" spans="1:10" x14ac:dyDescent="0.2">
@@ -53971,7 +54087,7 @@
         <v>5356</v>
       </c>
       <c r="J1253" s="1" t="s">
-        <v>1442</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1254" spans="1:10" x14ac:dyDescent="0.2">
@@ -53994,7 +54110,7 @@
         <v>5358</v>
       </c>
       <c r="J1254" s="1" t="s">
-        <v>1446</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1255" spans="1:10" x14ac:dyDescent="0.2">
@@ -54017,7 +54133,7 @@
         <v>5360</v>
       </c>
       <c r="J1255" s="1" t="s">
-        <v>4442</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1256" spans="1:10" x14ac:dyDescent="0.2">
@@ -54040,7 +54156,7 @@
         <v>5362</v>
       </c>
       <c r="J1256" s="1" t="s">
-        <v>4443</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1257" spans="1:10" x14ac:dyDescent="0.2">
@@ -54063,7 +54179,7 @@
         <v>5363</v>
       </c>
       <c r="J1257" s="1" t="s">
-        <v>4444</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="1258" spans="1:10" x14ac:dyDescent="0.2">
@@ -54086,7 +54202,7 @@
         <v>5366</v>
       </c>
       <c r="J1258" s="1" t="s">
-        <v>4445</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1259" spans="1:10" x14ac:dyDescent="0.2">
@@ -54110,7 +54226,7 @@
       </c>
       <c r="I1259"/>
       <c r="J1259" s="1" t="s">
-        <v>4446</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1260" spans="1:10" x14ac:dyDescent="0.2">
@@ -54135,7 +54251,7 @@
       <c r="H1260" s="9"/>
       <c r="I1260"/>
       <c r="J1260" s="1" t="s">
-        <v>4447</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1261" spans="1:10" x14ac:dyDescent="0.2">
@@ -54160,7 +54276,7 @@
       <c r="H1261" s="9"/>
       <c r="I1261"/>
       <c r="J1261" s="1" t="s">
-        <v>4448</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1262" spans="1:10" x14ac:dyDescent="0.2">
@@ -54185,7 +54301,7 @@
       <c r="H1262" s="9"/>
       <c r="I1262"/>
       <c r="J1262" s="1" t="s">
-        <v>4449</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1263" spans="1:10" x14ac:dyDescent="0.2">
@@ -54210,7 +54326,7 @@
       <c r="H1263" s="9"/>
       <c r="I1263"/>
       <c r="J1263" s="1" t="s">
-        <v>4450</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1264" spans="1:10" x14ac:dyDescent="0.2">
@@ -54235,7 +54351,7 @@
       <c r="H1264" s="9"/>
       <c r="I1264"/>
       <c r="J1264" s="1" t="s">
-        <v>4451</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1265" spans="1:10" x14ac:dyDescent="0.2">
@@ -54260,7 +54376,7 @@
       <c r="H1265" s="9"/>
       <c r="I1265"/>
       <c r="J1265" s="1" t="s">
-        <v>4452</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1266" spans="1:10" x14ac:dyDescent="0.2">
@@ -54285,7 +54401,7 @@
       <c r="H1266" s="9"/>
       <c r="I1266"/>
       <c r="J1266" s="1" t="s">
-        <v>4453</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1267" spans="1:10" x14ac:dyDescent="0.2">
@@ -54310,7 +54426,7 @@
       <c r="H1267" s="9"/>
       <c r="I1267"/>
       <c r="J1267" s="1" t="s">
-        <v>4454</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1268" spans="1:10" x14ac:dyDescent="0.2">
@@ -54335,7 +54451,7 @@
       <c r="H1268" s="9"/>
       <c r="I1268"/>
       <c r="J1268" s="1" t="s">
-        <v>4455</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1269" spans="1:10" x14ac:dyDescent="0.2">
@@ -54360,7 +54476,7 @@
       <c r="H1269" s="9"/>
       <c r="I1269"/>
       <c r="J1269" s="1" t="s">
-        <v>4456</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1270" spans="1:10" x14ac:dyDescent="0.2">
@@ -54385,7 +54501,7 @@
       <c r="H1270" s="9"/>
       <c r="I1270"/>
       <c r="J1270" s="1" t="s">
-        <v>2991</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1271" spans="1:10" x14ac:dyDescent="0.2">
@@ -54410,7 +54526,7 @@
       <c r="H1271" s="9"/>
       <c r="I1271"/>
       <c r="J1271" s="1" t="s">
-        <v>4457</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1272" spans="1:10" x14ac:dyDescent="0.2">
@@ -54435,7 +54551,7 @@
       <c r="H1272" s="9"/>
       <c r="I1272"/>
       <c r="J1272" s="1" t="s">
-        <v>4458</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1273" spans="1:10" x14ac:dyDescent="0.2">
@@ -54460,7 +54576,7 @@
       <c r="H1273" s="9"/>
       <c r="I1273"/>
       <c r="J1273" s="1" t="s">
-        <v>2942</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1274" spans="1:10" x14ac:dyDescent="0.2">
@@ -54485,7 +54601,7 @@
       <c r="H1274" s="9"/>
       <c r="I1274"/>
       <c r="J1274" s="1" t="s">
-        <v>4459</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1275" spans="1:10" x14ac:dyDescent="0.2">
@@ -54510,7 +54626,7 @@
       <c r="H1275" s="9"/>
       <c r="I1275"/>
       <c r="J1275" s="1" t="s">
-        <v>4460</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1276" spans="1:10" x14ac:dyDescent="0.2">
@@ -54535,7 +54651,7 @@
       <c r="H1276" s="9"/>
       <c r="I1276"/>
       <c r="J1276" s="1" t="s">
-        <v>4442</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1277" spans="1:10" x14ac:dyDescent="0.2">
@@ -54560,7 +54676,7 @@
       <c r="H1277" s="9"/>
       <c r="I1277"/>
       <c r="J1277" s="1" t="s">
-        <v>1449</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1278" spans="1:10" x14ac:dyDescent="0.2">
@@ -54585,7 +54701,7 @@
       <c r="H1278" s="9"/>
       <c r="I1278"/>
       <c r="J1278" s="1" t="s">
-        <v>1452</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1279" spans="1:10" x14ac:dyDescent="0.2">
@@ -54613,7 +54729,7 @@
       <c r="H1279" s="9"/>
       <c r="I1279"/>
       <c r="J1279" s="1" t="s">
-        <v>1456</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1280" spans="1:10" x14ac:dyDescent="0.2">
@@ -54641,7 +54757,7 @@
       <c r="H1280" s="9"/>
       <c r="I1280"/>
       <c r="J1280" s="1" t="s">
-        <v>1459</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1281" spans="1:10" x14ac:dyDescent="0.2">
@@ -54666,7 +54782,7 @@
       <c r="H1281" s="9"/>
       <c r="I1281"/>
       <c r="J1281" s="1" t="s">
-        <v>1462</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1282" spans="1:10" x14ac:dyDescent="0.2">
@@ -54691,7 +54807,7 @@
       <c r="H1282" s="9"/>
       <c r="I1282"/>
       <c r="J1282" s="1" t="s">
-        <v>1465</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1283" spans="1:10" x14ac:dyDescent="0.2">
@@ -54716,7 +54832,7 @@
       <c r="H1283" s="9"/>
       <c r="I1283"/>
       <c r="J1283" s="1" t="s">
-        <v>1469</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1284" spans="1:10" x14ac:dyDescent="0.2">
@@ -54741,7 +54857,7 @@
       <c r="H1284" s="9"/>
       <c r="I1284"/>
       <c r="J1284" s="1" t="s">
-        <v>591</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1285" spans="1:10" x14ac:dyDescent="0.2">
@@ -54766,7 +54882,7 @@
       <c r="H1285" s="9"/>
       <c r="I1285"/>
       <c r="J1285" s="1" t="s">
-        <v>1475</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1286" spans="1:10" x14ac:dyDescent="0.2">
@@ -54791,7 +54907,7 @@
       <c r="H1286" s="9"/>
       <c r="I1286"/>
       <c r="J1286" s="1" t="s">
-        <v>1478</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1287" spans="1:10" x14ac:dyDescent="0.2">
@@ -54816,7 +54932,7 @@
       <c r="H1287" s="9"/>
       <c r="I1287"/>
       <c r="J1287" s="1" t="s">
-        <v>1480</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1288" spans="1:10" x14ac:dyDescent="0.2">
@@ -54841,7 +54957,7 @@
       <c r="H1288" s="9"/>
       <c r="I1288"/>
       <c r="J1288" s="1" t="s">
-        <v>1484</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1289" spans="1:10" x14ac:dyDescent="0.2">
@@ -54866,7 +54982,7 @@
       <c r="H1289" s="9"/>
       <c r="I1289"/>
       <c r="J1289" s="1" t="s">
-        <v>1487</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1290" spans="1:10" x14ac:dyDescent="0.2">
@@ -54891,7 +55007,7 @@
       <c r="H1290" s="9"/>
       <c r="I1290"/>
       <c r="J1290" s="1" t="s">
-        <v>1491</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1291" spans="1:10" x14ac:dyDescent="0.2">
@@ -54916,7 +55032,7 @@
       <c r="H1291" s="9"/>
       <c r="I1291"/>
       <c r="J1291" s="1" t="s">
-        <v>1495</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1292" spans="1:10" x14ac:dyDescent="0.2">
@@ -54941,7 +55057,7 @@
       <c r="H1292" s="9"/>
       <c r="I1292"/>
       <c r="J1292" s="1" t="s">
-        <v>1498</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1293" spans="1:10" x14ac:dyDescent="0.2">
@@ -54966,7 +55082,7 @@
       <c r="H1293" s="9"/>
       <c r="I1293"/>
       <c r="J1293" s="1" t="s">
-        <v>1501</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1294" spans="1:10" x14ac:dyDescent="0.2">
@@ -54991,7 +55107,7 @@
       <c r="H1294" s="9"/>
       <c r="I1294"/>
       <c r="J1294" s="1" t="s">
-        <v>1504</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1295" spans="1:10" x14ac:dyDescent="0.2">
@@ -55016,7 +55132,7 @@
       <c r="H1295" s="9"/>
       <c r="I1295"/>
       <c r="J1295" s="1" t="s">
-        <v>1507</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1296" spans="1:10" x14ac:dyDescent="0.2">
@@ -55040,8 +55156,8 @@
       </c>
       <c r="H1296" s="9"/>
       <c r="I1296"/>
-      <c r="J1296" s="4" t="s">
-        <v>1297</v>
+      <c r="J1296" s="1" t="s">
+        <v>4443</v>
       </c>
     </row>
     <row r="1297" spans="1:10" x14ac:dyDescent="0.2">
@@ -55066,7 +55182,7 @@
       <c r="H1297" s="9"/>
       <c r="I1297"/>
       <c r="J1297" s="1" t="s">
-        <v>1513</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1298" spans="1:10" x14ac:dyDescent="0.2">
@@ -55091,7 +55207,7 @@
       <c r="H1298" s="9"/>
       <c r="I1298"/>
       <c r="J1298" s="1" t="s">
-        <v>1517</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1299" spans="1:10" x14ac:dyDescent="0.2">
@@ -55116,7 +55232,7 @@
       <c r="H1299" s="9"/>
       <c r="I1299"/>
       <c r="J1299" s="1" t="s">
-        <v>1520</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1300" spans="1:10" x14ac:dyDescent="0.2">
@@ -55141,7 +55257,7 @@
       <c r="H1300" s="9"/>
       <c r="I1300"/>
       <c r="J1300" s="1" t="s">
-        <v>1524</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1301" spans="1:10" x14ac:dyDescent="0.2">
@@ -55166,7 +55282,7 @@
       <c r="H1301" s="9"/>
       <c r="I1301"/>
       <c r="J1301" s="1" t="s">
-        <v>1528</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1302" spans="1:10" x14ac:dyDescent="0.2">
@@ -55191,7 +55307,7 @@
       <c r="H1302" s="9"/>
       <c r="I1302"/>
       <c r="J1302" s="1" t="s">
-        <v>1532</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1303" spans="1:10" x14ac:dyDescent="0.2">
@@ -55216,7 +55332,7 @@
       <c r="H1303" s="9"/>
       <c r="I1303"/>
       <c r="J1303" s="1" t="s">
-        <v>1535</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1304" spans="1:10" x14ac:dyDescent="0.2">
@@ -55241,7 +55357,7 @@
       <c r="H1304" s="9"/>
       <c r="I1304"/>
       <c r="J1304" s="1" t="s">
-        <v>1538</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1305" spans="1:10" x14ac:dyDescent="0.2">
@@ -55266,7 +55382,7 @@
       <c r="H1305" s="9"/>
       <c r="I1305"/>
       <c r="J1305" s="1" t="s">
-        <v>1542</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1306" spans="1:10" x14ac:dyDescent="0.2">
@@ -55291,7 +55407,7 @@
       <c r="H1306" s="9"/>
       <c r="I1306"/>
       <c r="J1306" s="1" t="s">
-        <v>1546</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1307" spans="1:10" x14ac:dyDescent="0.2">
@@ -55319,7 +55435,7 @@
       <c r="H1307" s="9"/>
       <c r="I1307"/>
       <c r="J1307" s="1" t="s">
-        <v>1550</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1308" spans="1:10" x14ac:dyDescent="0.2">
@@ -55344,7 +55460,7 @@
       <c r="H1308" s="9"/>
       <c r="I1308"/>
       <c r="J1308" s="1" t="s">
-        <v>1553</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1309" spans="1:10" x14ac:dyDescent="0.2">
@@ -55369,7 +55485,7 @@
       <c r="H1309" s="9"/>
       <c r="I1309"/>
       <c r="J1309" s="1" t="s">
-        <v>1556</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1310" spans="1:10" x14ac:dyDescent="0.2">
@@ -55394,7 +55510,7 @@
       <c r="H1310" s="9"/>
       <c r="I1310"/>
       <c r="J1310" s="1" t="s">
-        <v>1560</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1311" spans="1:10" x14ac:dyDescent="0.2">
@@ -55419,7 +55535,7 @@
       <c r="H1311" s="9"/>
       <c r="I1311"/>
       <c r="J1311" s="1" t="s">
-        <v>1564</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1312" spans="1:10" x14ac:dyDescent="0.2">
@@ -55444,7 +55560,7 @@
       <c r="H1312" s="9"/>
       <c r="I1312"/>
       <c r="J1312" s="1" t="s">
-        <v>1567</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1313" spans="1:10" x14ac:dyDescent="0.2">
@@ -55469,7 +55585,7 @@
       <c r="H1313" s="9"/>
       <c r="I1313"/>
       <c r="J1313" s="1" t="s">
-        <v>1570</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1314" spans="1:10" x14ac:dyDescent="0.2">
@@ -55494,7 +55610,7 @@
       <c r="H1314" s="9"/>
       <c r="I1314"/>
       <c r="J1314" s="1" t="s">
-        <v>1573</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1315" spans="1:10" x14ac:dyDescent="0.2">
@@ -55519,7 +55635,7 @@
       <c r="H1315" s="9"/>
       <c r="I1315"/>
       <c r="J1315" s="1" t="s">
-        <v>1577</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1316" spans="1:10" x14ac:dyDescent="0.2">
@@ -55544,7 +55660,7 @@
       <c r="H1316" s="9"/>
       <c r="I1316"/>
       <c r="J1316" s="1" t="s">
-        <v>1581</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1317" spans="1:10" x14ac:dyDescent="0.2">
@@ -55569,7 +55685,7 @@
       <c r="H1317" s="9"/>
       <c r="I1317"/>
       <c r="J1317" s="1" t="s">
-        <v>1585</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1318" spans="1:10" x14ac:dyDescent="0.2">
@@ -55594,7 +55710,7 @@
       <c r="H1318" s="9"/>
       <c r="I1318"/>
       <c r="J1318" s="1" t="s">
-        <v>4461</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1319" spans="1:10" x14ac:dyDescent="0.2">
@@ -55619,7 +55735,7 @@
       <c r="H1319" s="9"/>
       <c r="I1319"/>
       <c r="J1319" s="1" t="s">
-        <v>1804</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1320" spans="1:10" x14ac:dyDescent="0.2">
@@ -55644,7 +55760,7 @@
       <c r="H1320" s="9"/>
       <c r="I1320"/>
       <c r="J1320" s="1" t="s">
-        <v>3062</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1321" spans="1:10" x14ac:dyDescent="0.2">
@@ -55669,7 +55785,7 @@
       <c r="H1321" s="9"/>
       <c r="I1321"/>
       <c r="J1321" s="1" t="s">
-        <v>4462</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1322" spans="1:10" x14ac:dyDescent="0.2">
@@ -55694,7 +55810,7 @@
       <c r="H1322" s="9"/>
       <c r="I1322"/>
       <c r="J1322" s="1" t="s">
-        <v>4463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1323" spans="1:10" x14ac:dyDescent="0.2">
@@ -55719,7 +55835,7 @@
       <c r="H1323" s="9"/>
       <c r="I1323"/>
       <c r="J1323" s="1" t="s">
-        <v>4464</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1324" spans="1:10" x14ac:dyDescent="0.2">
@@ -55744,7 +55860,7 @@
       <c r="H1324" s="9"/>
       <c r="I1324"/>
       <c r="J1324" s="1" t="s">
-        <v>4465</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1325" spans="1:10" x14ac:dyDescent="0.2">
@@ -55769,7 +55885,7 @@
       <c r="H1325" s="9"/>
       <c r="I1325"/>
       <c r="J1325" s="1" t="s">
-        <v>4466</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1326" spans="1:10" x14ac:dyDescent="0.2">
@@ -55794,7 +55910,7 @@
       <c r="H1326" s="9"/>
       <c r="I1326"/>
       <c r="J1326" s="1" t="s">
-        <v>4467</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1327" spans="1:10" x14ac:dyDescent="0.2">
@@ -55819,7 +55935,7 @@
       <c r="H1327" s="9"/>
       <c r="I1327"/>
       <c r="J1327" s="1" t="s">
-        <v>4468</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1328" spans="1:10" x14ac:dyDescent="0.2">
@@ -55844,7 +55960,7 @@
       <c r="H1328" s="9"/>
       <c r="I1328"/>
       <c r="J1328" s="1" t="s">
-        <v>4469</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1329" spans="1:10" x14ac:dyDescent="0.2">
@@ -55869,7 +55985,7 @@
       <c r="H1329" s="9"/>
       <c r="I1329"/>
       <c r="J1329" s="1" t="s">
-        <v>4470</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1330" spans="1:10" x14ac:dyDescent="0.2">
@@ -55894,7 +56010,7 @@
       <c r="H1330" s="9"/>
       <c r="I1330"/>
       <c r="J1330" s="1" t="s">
-        <v>4471</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1331" spans="1:10" x14ac:dyDescent="0.2">
@@ -55919,7 +56035,7 @@
       <c r="H1331" s="9"/>
       <c r="I1331"/>
       <c r="J1331" s="1" t="s">
-        <v>3037</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1332" spans="1:10" x14ac:dyDescent="0.2">
@@ -55944,7 +56060,7 @@
       <c r="H1332" s="9"/>
       <c r="I1332"/>
       <c r="J1332" s="1" t="s">
-        <v>4472</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1333" spans="1:10" x14ac:dyDescent="0.2">
@@ -55969,7 +56085,7 @@
       <c r="H1333" s="9"/>
       <c r="I1333"/>
       <c r="J1333" s="1" t="s">
-        <v>4473</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1334" spans="1:10" x14ac:dyDescent="0.2">
@@ -55994,7 +56110,7 @@
       <c r="H1334" s="9"/>
       <c r="I1334"/>
       <c r="J1334" s="1" t="s">
-        <v>4474</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1335" spans="1:10" x14ac:dyDescent="0.2">
@@ -56019,7 +56135,7 @@
       <c r="H1335" s="9"/>
       <c r="I1335"/>
       <c r="J1335" s="1" t="s">
-        <v>4475</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1336" spans="1:10" x14ac:dyDescent="0.2">
@@ -56046,8 +56162,8 @@
       </c>
       <c r="H1336" s="9"/>
       <c r="I1336"/>
-      <c r="J1336" s="1" t="s">
-        <v>4461</v>
+      <c r="J1336" s="4" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1337" spans="1:10" x14ac:dyDescent="0.2">
@@ -56072,7 +56188,7 @@
       <c r="H1337" s="9"/>
       <c r="I1337"/>
       <c r="J1337" s="1" t="s">
-        <v>1589</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1338" spans="1:10" x14ac:dyDescent="0.2">
@@ -56097,7 +56213,7 @@
       <c r="H1338" s="9"/>
       <c r="I1338"/>
       <c r="J1338" s="1" t="s">
-        <v>1592</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1339" spans="1:10" x14ac:dyDescent="0.2">
@@ -56125,7 +56241,7 @@
       <c r="H1339" s="9"/>
       <c r="I1339"/>
       <c r="J1339" s="1" t="s">
-        <v>1596</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1340" spans="1:10" x14ac:dyDescent="0.2">
@@ -56150,7 +56266,7 @@
       <c r="H1340" s="9"/>
       <c r="I1340"/>
       <c r="J1340" s="1" t="s">
-        <v>1600</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1341" spans="1:10" x14ac:dyDescent="0.2">
@@ -56178,7 +56294,7 @@
       <c r="H1341" s="9"/>
       <c r="I1341"/>
       <c r="J1341" s="1" t="s">
-        <v>1603</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1342" spans="1:10" x14ac:dyDescent="0.2">
@@ -56203,7 +56319,7 @@
       <c r="H1342" s="9"/>
       <c r="I1342"/>
       <c r="J1342" s="1" t="s">
-        <v>1606</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1343" spans="1:10" x14ac:dyDescent="0.2">
@@ -56228,7 +56344,7 @@
       <c r="H1343" s="9"/>
       <c r="I1343"/>
       <c r="J1343" s="1" t="s">
-        <v>1609</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1344" spans="1:10" x14ac:dyDescent="0.2">
@@ -56253,7 +56369,7 @@
       <c r="H1344" s="9"/>
       <c r="I1344"/>
       <c r="J1344" s="1" t="s">
-        <v>1611</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1345" spans="1:10" x14ac:dyDescent="0.2">
@@ -56278,7 +56394,7 @@
       <c r="H1345" s="9"/>
       <c r="I1345"/>
       <c r="J1345" s="1" t="s">
-        <v>1614</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1346" spans="1:10" x14ac:dyDescent="0.2">
@@ -56303,7 +56419,7 @@
       <c r="H1346" s="9"/>
       <c r="I1346"/>
       <c r="J1346" s="1" t="s">
-        <v>1618</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.2">
@@ -56328,7 +56444,7 @@
       <c r="H1347" s="9"/>
       <c r="I1347"/>
       <c r="J1347" s="1" t="s">
-        <v>1621</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1348" spans="1:10" x14ac:dyDescent="0.2">
@@ -56353,7 +56469,7 @@
       <c r="H1348" s="9"/>
       <c r="I1348"/>
       <c r="J1348" s="1" t="s">
-        <v>1624</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1349" spans="1:10" x14ac:dyDescent="0.2">
@@ -56378,7 +56494,7 @@
       <c r="H1349" s="9"/>
       <c r="I1349"/>
       <c r="J1349" s="1" t="s">
-        <v>1628</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1350" spans="1:10" x14ac:dyDescent="0.2">
@@ -56403,7 +56519,7 @@
       <c r="H1350" s="9"/>
       <c r="I1350"/>
       <c r="J1350" s="1" t="s">
-        <v>1632</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1351" spans="1:10" x14ac:dyDescent="0.2">
@@ -56428,7 +56544,7 @@
       <c r="H1351" s="9"/>
       <c r="I1351"/>
       <c r="J1351" s="1" t="s">
-        <v>1636</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1352" spans="1:10" x14ac:dyDescent="0.2">
@@ -56453,7 +56569,7 @@
       <c r="H1352" s="9"/>
       <c r="I1352"/>
       <c r="J1352" s="1" t="s">
-        <v>1639</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1353" spans="1:10" x14ac:dyDescent="0.2">
@@ -56478,7 +56594,7 @@
       <c r="H1353" s="9"/>
       <c r="I1353"/>
       <c r="J1353" s="1" t="s">
-        <v>1642</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1354" spans="1:10" x14ac:dyDescent="0.2">
@@ -56503,7 +56619,7 @@
       <c r="H1354" s="9"/>
       <c r="I1354"/>
       <c r="J1354" s="1" t="s">
-        <v>1646</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1355" spans="1:10" x14ac:dyDescent="0.2">
@@ -56528,7 +56644,7 @@
       <c r="H1355" s="9"/>
       <c r="I1355"/>
       <c r="J1355" s="1" t="s">
-        <v>1122</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1356" spans="1:10" x14ac:dyDescent="0.2">
@@ -56553,7 +56669,7 @@
       <c r="H1356" s="9"/>
       <c r="I1356"/>
       <c r="J1356" s="1" t="s">
-        <v>1652</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1357" spans="1:10" x14ac:dyDescent="0.2">
@@ -56578,7 +56694,7 @@
       <c r="H1357" s="9"/>
       <c r="I1357"/>
       <c r="J1357" s="1" t="s">
-        <v>1655</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1358" spans="1:10" x14ac:dyDescent="0.2">
@@ -56603,7 +56719,7 @@
       <c r="H1358" s="9"/>
       <c r="I1358"/>
       <c r="J1358" s="1" t="s">
-        <v>1658</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1359" spans="1:10" x14ac:dyDescent="0.2">
@@ -56628,7 +56744,7 @@
       <c r="H1359" s="9"/>
       <c r="I1359"/>
       <c r="J1359" s="1" t="s">
-        <v>1661</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1360" spans="1:10" x14ac:dyDescent="0.2">
@@ -56653,7 +56769,7 @@
       <c r="H1360" s="9"/>
       <c r="I1360"/>
       <c r="J1360" s="1" t="s">
-        <v>1664</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1361" spans="1:10" x14ac:dyDescent="0.2">
@@ -56678,7 +56794,7 @@
       <c r="H1361" s="9"/>
       <c r="I1361"/>
       <c r="J1361" s="1" t="s">
-        <v>1667</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1362" spans="1:10" x14ac:dyDescent="0.2">
@@ -56703,7 +56819,7 @@
       <c r="H1362" s="9"/>
       <c r="I1362"/>
       <c r="J1362" s="1" t="s">
-        <v>1670</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1363" spans="1:10" x14ac:dyDescent="0.2">
@@ -56728,7 +56844,7 @@
       <c r="H1363" s="9"/>
       <c r="I1363"/>
       <c r="J1363" s="1" t="s">
-        <v>1673</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1364" spans="1:10" x14ac:dyDescent="0.2">
@@ -56753,7 +56869,7 @@
       <c r="H1364" s="9"/>
       <c r="I1364"/>
       <c r="J1364" s="1" t="s">
-        <v>1677</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1365" spans="1:10" x14ac:dyDescent="0.2">
@@ -56778,7 +56894,7 @@
       <c r="H1365" s="9"/>
       <c r="I1365"/>
       <c r="J1365" s="1" t="s">
-        <v>445</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1366" spans="1:10" x14ac:dyDescent="0.2">
@@ -56803,7 +56919,7 @@
       <c r="H1366" s="9"/>
       <c r="I1366"/>
       <c r="J1366" s="1" t="s">
-        <v>1682</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.2">
@@ -56828,7 +56944,7 @@
       <c r="H1367" s="9"/>
       <c r="I1367"/>
       <c r="J1367" s="1" t="s">
-        <v>1685</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1368" spans="1:10" x14ac:dyDescent="0.2">
@@ -56853,7 +56969,7 @@
       <c r="H1368" s="9"/>
       <c r="I1368"/>
       <c r="J1368" s="1" t="s">
-        <v>1688</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1369" spans="1:10" x14ac:dyDescent="0.2">
@@ -56878,7 +56994,7 @@
       <c r="H1369" s="9"/>
       <c r="I1369"/>
       <c r="J1369" s="1" t="s">
-        <v>1691</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1370" spans="1:10" x14ac:dyDescent="0.2">
@@ -56903,7 +57019,7 @@
       <c r="H1370" s="9"/>
       <c r="I1370"/>
       <c r="J1370" s="1" t="s">
-        <v>1694</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1371" spans="1:10" x14ac:dyDescent="0.2">
@@ -56928,7 +57044,7 @@
       <c r="H1371" s="9"/>
       <c r="I1371"/>
       <c r="J1371" s="1" t="s">
-        <v>1697</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1372" spans="1:10" x14ac:dyDescent="0.2">
@@ -56956,7 +57072,7 @@
       <c r="H1372" s="9"/>
       <c r="I1372"/>
       <c r="J1372" s="1" t="s">
-        <v>1700</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1373" spans="1:10" x14ac:dyDescent="0.2">
@@ -56981,7 +57097,7 @@
       <c r="H1373" s="9"/>
       <c r="I1373"/>
       <c r="J1373" s="1" t="s">
-        <v>1704</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1374" spans="1:10" x14ac:dyDescent="0.2">
@@ -57006,7 +57122,7 @@
       <c r="H1374" s="9"/>
       <c r="I1374"/>
       <c r="J1374" s="1" t="s">
-        <v>1708</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1375" spans="1:10" x14ac:dyDescent="0.2">
@@ -57031,7 +57147,7 @@
       <c r="H1375" s="9"/>
       <c r="I1375"/>
       <c r="J1375" s="1" t="s">
-        <v>1711</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1376" spans="1:10" x14ac:dyDescent="0.2">
@@ -57056,7 +57172,7 @@
       <c r="H1376" s="9"/>
       <c r="I1376"/>
       <c r="J1376" s="1" t="s">
-        <v>1714</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1377" spans="1:10" x14ac:dyDescent="0.2">
@@ -57081,7 +57197,7 @@
       <c r="H1377" s="9"/>
       <c r="I1377"/>
       <c r="J1377" s="1" t="s">
-        <v>4476</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1378" spans="1:10" x14ac:dyDescent="0.2">
@@ -57106,7 +57222,7 @@
       <c r="H1378" s="9"/>
       <c r="I1378"/>
       <c r="J1378" s="1" t="s">
-        <v>3247</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1379" spans="1:10" x14ac:dyDescent="0.2">
@@ -57131,7 +57247,7 @@
       <c r="H1379" s="9"/>
       <c r="I1379"/>
       <c r="J1379" s="1" t="s">
-        <v>4477</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1380" spans="1:10" x14ac:dyDescent="0.2">
@@ -57159,7 +57275,7 @@
       <c r="H1380" s="9"/>
       <c r="I1380"/>
       <c r="J1380" s="1" t="s">
-        <v>4478</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1381" spans="1:10" x14ac:dyDescent="0.2">
@@ -57184,7 +57300,7 @@
       <c r="H1381" s="9"/>
       <c r="I1381"/>
       <c r="J1381" s="1" t="s">
-        <v>4479</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1382" spans="1:10" x14ac:dyDescent="0.2">
@@ -57209,7 +57325,7 @@
       <c r="H1382" s="9"/>
       <c r="I1382"/>
       <c r="J1382" s="1" t="s">
-        <v>4480</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1383" spans="1:10" x14ac:dyDescent="0.2">
@@ -57234,7 +57350,7 @@
       <c r="H1383" s="9"/>
       <c r="I1383"/>
       <c r="J1383" s="1" t="s">
-        <v>4481</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1384" spans="1:10" x14ac:dyDescent="0.2">
@@ -57259,7 +57375,7 @@
       <c r="H1384" s="9"/>
       <c r="I1384"/>
       <c r="J1384" s="1" t="s">
-        <v>3169</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1385" spans="1:10" x14ac:dyDescent="0.2">
@@ -57287,7 +57403,7 @@
       <c r="H1385" s="9"/>
       <c r="I1385"/>
       <c r="J1385" s="1" t="s">
-        <v>4482</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1386" spans="1:10" x14ac:dyDescent="0.2">
@@ -57312,7 +57428,7 @@
       <c r="H1386" s="9"/>
       <c r="I1386"/>
       <c r="J1386" s="1" t="s">
-        <v>4483</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1387" spans="1:10" x14ac:dyDescent="0.2">
@@ -57337,7 +57453,7 @@
       <c r="H1387" s="9"/>
       <c r="I1387"/>
       <c r="J1387" s="1" t="s">
-        <v>4484</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1388" spans="1:10" x14ac:dyDescent="0.2">
@@ -57365,7 +57481,7 @@
       <c r="H1388" s="9"/>
       <c r="I1388"/>
       <c r="J1388" s="1" t="s">
-        <v>4485</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1389" spans="1:10" x14ac:dyDescent="0.2">
@@ -57393,7 +57509,7 @@
       <c r="H1389" s="9"/>
       <c r="I1389"/>
       <c r="J1389" s="1" t="s">
-        <v>4486</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.2">
@@ -57418,7 +57534,7 @@
       <c r="H1390" s="9"/>
       <c r="I1390"/>
       <c r="J1390" s="1" t="s">
-        <v>4487</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1391" spans="1:10" x14ac:dyDescent="0.2">
@@ -57443,7 +57559,7 @@
       <c r="H1391" s="9"/>
       <c r="I1391"/>
       <c r="J1391" s="1" t="s">
-        <v>4488</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1392" spans="1:10" x14ac:dyDescent="0.2">
@@ -57468,7 +57584,7 @@
       <c r="H1392" s="9"/>
       <c r="I1392"/>
       <c r="J1392" s="1" t="s">
-        <v>1718</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1393" spans="1:10" x14ac:dyDescent="0.2">
@@ -57496,7 +57612,7 @@
       <c r="H1393" s="9"/>
       <c r="I1393"/>
       <c r="J1393" s="1" t="s">
-        <v>1722</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.2">
@@ -57521,7 +57637,7 @@
       <c r="H1394" s="9"/>
       <c r="I1394"/>
       <c r="J1394" s="1" t="s">
-        <v>1725</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.2">
@@ -57546,7 +57662,7 @@
       <c r="H1395" s="9"/>
       <c r="I1395"/>
       <c r="J1395" s="1" t="s">
-        <v>1729</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1396" spans="1:10" x14ac:dyDescent="0.2">
@@ -57571,7 +57687,7 @@
       <c r="H1396" s="9"/>
       <c r="I1396"/>
       <c r="J1396" s="1" t="s">
-        <v>1732</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1397" spans="1:10" x14ac:dyDescent="0.2">
@@ -57596,7 +57712,7 @@
       <c r="H1397" s="9"/>
       <c r="I1397"/>
       <c r="J1397" s="1" t="s">
-        <v>1737</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1398" spans="1:10" x14ac:dyDescent="0.2">
@@ -57621,7 +57737,7 @@
       <c r="H1398" s="9"/>
       <c r="I1398"/>
       <c r="J1398" s="1" t="s">
-        <v>1740</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1399" spans="1:10" x14ac:dyDescent="0.2">
@@ -57646,7 +57762,7 @@
       <c r="H1399" s="9"/>
       <c r="I1399"/>
       <c r="J1399" s="1" t="s">
-        <v>1743</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1400" spans="1:10" x14ac:dyDescent="0.2">
@@ -57671,7 +57787,7 @@
       <c r="H1400" s="9"/>
       <c r="I1400"/>
       <c r="J1400" s="1" t="s">
-        <v>1747</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1401" spans="1:10" x14ac:dyDescent="0.2">
@@ -57696,7 +57812,7 @@
       <c r="H1401" s="9"/>
       <c r="I1401"/>
       <c r="J1401" s="1" t="s">
-        <v>1750</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.2">
@@ -57721,7 +57837,7 @@
       <c r="H1402" s="9"/>
       <c r="I1402"/>
       <c r="J1402" s="1" t="s">
-        <v>1754</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1403" spans="1:10" x14ac:dyDescent="0.2">
@@ -57746,7 +57862,7 @@
       <c r="H1403" s="9"/>
       <c r="I1403"/>
       <c r="J1403" s="1" t="s">
-        <v>1757</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1404" spans="1:10" x14ac:dyDescent="0.2">
@@ -57771,7 +57887,7 @@
       <c r="H1404" s="9"/>
       <c r="I1404"/>
       <c r="J1404" s="1" t="s">
-        <v>1760</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1405" spans="1:10" x14ac:dyDescent="0.2">
@@ -57799,7 +57915,7 @@
       <c r="H1405" s="9"/>
       <c r="I1405"/>
       <c r="J1405" s="1" t="s">
-        <v>1763</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1406" spans="1:10" x14ac:dyDescent="0.2">
@@ -57824,7 +57940,7 @@
       <c r="H1406" s="9"/>
       <c r="I1406"/>
       <c r="J1406" s="1" t="s">
-        <v>1766</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1407" spans="1:10" x14ac:dyDescent="0.2">
@@ -57849,7 +57965,7 @@
       <c r="H1407" s="9"/>
       <c r="I1407"/>
       <c r="J1407" s="1" t="s">
-        <v>1769</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1408" spans="1:10" x14ac:dyDescent="0.2">
@@ -57874,7 +57990,7 @@
       <c r="H1408" s="9"/>
       <c r="I1408"/>
       <c r="J1408" s="1" t="s">
-        <v>1772</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1409" spans="1:10" x14ac:dyDescent="0.2">
@@ -57899,7 +58015,7 @@
       <c r="H1409" s="9"/>
       <c r="I1409"/>
       <c r="J1409" s="1" t="s">
-        <v>1775</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1410" spans="1:10" x14ac:dyDescent="0.2">
@@ -57924,7 +58040,7 @@
       <c r="H1410" s="9"/>
       <c r="I1410"/>
       <c r="J1410" s="1" t="s">
-        <v>1778</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.2">
@@ -57949,7 +58065,7 @@
       <c r="H1411" s="9"/>
       <c r="I1411"/>
       <c r="J1411" s="1" t="s">
-        <v>1782</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1412" spans="1:10" x14ac:dyDescent="0.2">
@@ -57974,7 +58090,7 @@
       <c r="H1412" s="9"/>
       <c r="I1412"/>
       <c r="J1412" s="1" t="s">
-        <v>1784</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1413" spans="1:10" x14ac:dyDescent="0.2">
@@ -57999,7 +58115,7 @@
       <c r="H1413" s="9"/>
       <c r="I1413"/>
       <c r="J1413" s="1" t="s">
-        <v>1787</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.2">
@@ -58024,7 +58140,7 @@
       <c r="H1414" s="9"/>
       <c r="I1414"/>
       <c r="J1414" s="1" t="s">
-        <v>1791</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1415" spans="1:10" x14ac:dyDescent="0.2">
@@ -58049,7 +58165,7 @@
       <c r="H1415" s="9"/>
       <c r="I1415"/>
       <c r="J1415" s="1" t="s">
-        <v>1795</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1416" spans="1:10" x14ac:dyDescent="0.2">
@@ -58074,7 +58190,7 @@
       <c r="H1416" s="9"/>
       <c r="I1416"/>
       <c r="J1416" s="1" t="s">
-        <v>1797</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1417" spans="1:10" x14ac:dyDescent="0.2">
@@ -58099,7 +58215,7 @@
       <c r="H1417" s="9"/>
       <c r="I1417"/>
       <c r="J1417" s="1" t="s">
-        <v>1799</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1418" spans="1:10" x14ac:dyDescent="0.2">
@@ -58124,7 +58240,7 @@
       <c r="H1418" s="9"/>
       <c r="I1418"/>
       <c r="J1418" s="1" t="s">
-        <v>1803</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1419" spans="1:10" x14ac:dyDescent="0.2">
@@ -58149,7 +58265,7 @@
       <c r="H1419" s="9"/>
       <c r="I1419"/>
       <c r="J1419" s="1" t="s">
-        <v>1807</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1420" spans="1:10" x14ac:dyDescent="0.2">
@@ -58174,7 +58290,7 @@
       <c r="H1420" s="9"/>
       <c r="I1420"/>
       <c r="J1420" s="1" t="s">
-        <v>1810</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1421" spans="1:10" x14ac:dyDescent="0.2">
@@ -58199,7 +58315,7 @@
       <c r="H1421" s="9"/>
       <c r="I1421"/>
       <c r="J1421" s="1" t="s">
-        <v>1813</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1422" spans="1:10" x14ac:dyDescent="0.2">
@@ -58224,7 +58340,7 @@
       <c r="H1422" s="9"/>
       <c r="I1422"/>
       <c r="J1422" s="1" t="s">
-        <v>1816</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1423" spans="1:10" x14ac:dyDescent="0.2">
@@ -58249,7 +58365,7 @@
       <c r="H1423" s="9"/>
       <c r="I1423"/>
       <c r="J1423" s="1" t="s">
-        <v>1821</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1424" spans="1:10" x14ac:dyDescent="0.2">
@@ -58274,7 +58390,7 @@
       <c r="H1424" s="9"/>
       <c r="I1424"/>
       <c r="J1424" s="1" t="s">
-        <v>1824</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1425" spans="1:10" x14ac:dyDescent="0.2">
@@ -58299,7 +58415,7 @@
       <c r="H1425" s="9"/>
       <c r="I1425"/>
       <c r="J1425" s="1" t="s">
-        <v>1828</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.2">
@@ -58324,7 +58440,7 @@
       <c r="H1426" s="9"/>
       <c r="I1426"/>
       <c r="J1426" s="1" t="s">
-        <v>1832</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.2">
@@ -58349,7 +58465,7 @@
       <c r="H1427" s="9"/>
       <c r="I1427"/>
       <c r="J1427" s="1" t="s">
-        <v>1836</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1428" spans="1:10" x14ac:dyDescent="0.2">
@@ -58374,7 +58490,7 @@
       <c r="H1428" s="9"/>
       <c r="I1428"/>
       <c r="J1428" s="1" t="s">
-        <v>1840</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.2">
@@ -58399,7 +58515,7 @@
       <c r="H1429" s="9"/>
       <c r="I1429"/>
       <c r="J1429" s="1" t="s">
-        <v>1843</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.2">
@@ -58424,7 +58540,7 @@
       <c r="H1430" s="9"/>
       <c r="I1430"/>
       <c r="J1430" s="1" t="s">
-        <v>1846</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.2">
@@ -58449,7 +58565,7 @@
       <c r="H1431" s="9"/>
       <c r="I1431"/>
       <c r="J1431" s="1" t="s">
-        <v>1850</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.2">
@@ -58477,7 +58593,7 @@
       <c r="H1432" s="9"/>
       <c r="I1432"/>
       <c r="J1432" s="1" t="s">
-        <v>1853</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.2">
@@ -58502,7 +58618,7 @@
       <c r="H1433" s="9"/>
       <c r="I1433"/>
       <c r="J1433" s="1" t="s">
-        <v>1856</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.2">
@@ -58527,7 +58643,7 @@
       <c r="H1434" s="9"/>
       <c r="I1434"/>
       <c r="J1434" s="1" t="s">
-        <v>1859</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.2">
@@ -58552,7 +58668,7 @@
       <c r="H1435" s="9"/>
       <c r="I1435"/>
       <c r="J1435" s="1" t="s">
-        <v>4489</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.2">
@@ -58577,7 +58693,7 @@
       <c r="H1436" s="9"/>
       <c r="I1436"/>
       <c r="J1436" s="1" t="s">
-        <v>4490</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.2">
@@ -58602,7 +58718,7 @@
       <c r="H1437" s="9"/>
       <c r="I1437"/>
       <c r="J1437" s="1" t="s">
-        <v>4491</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1438" spans="1:10" x14ac:dyDescent="0.2">
@@ -58627,7 +58743,7 @@
       <c r="H1438" s="9"/>
       <c r="I1438"/>
       <c r="J1438" s="1" t="s">
-        <v>3348</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.2">
@@ -58652,7 +58768,7 @@
       <c r="H1439" s="9"/>
       <c r="I1439"/>
       <c r="J1439" s="1" t="s">
-        <v>4492</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.2">
@@ -58680,7 +58796,7 @@
       <c r="H1440" s="9"/>
       <c r="I1440"/>
       <c r="J1440" s="1" t="s">
-        <v>4307</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.2">
@@ -58705,7 +58821,7 @@
       <c r="H1441" s="9"/>
       <c r="I1441"/>
       <c r="J1441" s="1" t="s">
-        <v>4493</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.2">
@@ -58730,7 +58846,7 @@
       <c r="H1442" s="9"/>
       <c r="I1442"/>
       <c r="J1442" s="1" t="s">
-        <v>4494</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.2">
@@ -58755,7 +58871,7 @@
       <c r="H1443" s="9"/>
       <c r="I1443"/>
       <c r="J1443" s="1" t="s">
-        <v>4489</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.2">
@@ -58780,7 +58896,7 @@
       <c r="H1444" s="9"/>
       <c r="I1444"/>
       <c r="J1444" s="1" t="s">
-        <v>4490</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.2">
@@ -58805,7 +58921,7 @@
       <c r="H1445" s="9"/>
       <c r="I1445"/>
       <c r="J1445" s="1" t="s">
-        <v>1862</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.2">
@@ -58830,7 +58946,7 @@
       <c r="H1446" s="9"/>
       <c r="I1446"/>
       <c r="J1446" s="1" t="s">
-        <v>1865</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.2">
@@ -58855,7 +58971,7 @@
       <c r="H1447" s="9"/>
       <c r="I1447"/>
       <c r="J1447" s="1" t="s">
-        <v>402</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.2">
@@ -58883,7 +58999,7 @@
       <c r="H1448" s="9"/>
       <c r="I1448"/>
       <c r="J1448" s="1" t="s">
-        <v>107</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.2">
@@ -58908,7 +59024,7 @@
       <c r="H1449" s="9"/>
       <c r="I1449"/>
       <c r="J1449" s="1" t="s">
-        <v>1873</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1450" spans="1:10" x14ac:dyDescent="0.2">
@@ -58933,7 +59049,7 @@
       <c r="H1450" s="9"/>
       <c r="I1450"/>
       <c r="J1450" s="1" t="s">
-        <v>1876</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.2">
@@ -58958,7 +59074,7 @@
       <c r="H1451" s="9"/>
       <c r="I1451"/>
       <c r="J1451" s="1" t="s">
-        <v>1879</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.2">
@@ -58983,7 +59099,7 @@
       <c r="H1452" s="9"/>
       <c r="I1452"/>
       <c r="J1452" s="1" t="s">
-        <v>1883</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1453" spans="1:10" x14ac:dyDescent="0.2">
@@ -59008,7 +59124,7 @@
       <c r="H1453" s="9"/>
       <c r="I1453"/>
       <c r="J1453" s="1" t="s">
-        <v>214</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1454" spans="1:10" x14ac:dyDescent="0.2">
@@ -59033,7 +59149,7 @@
       <c r="H1454" s="9"/>
       <c r="I1454"/>
       <c r="J1454" s="1" t="s">
-        <v>1889</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1455" spans="1:10" x14ac:dyDescent="0.2">
@@ -59058,7 +59174,7 @@
       <c r="H1455" s="9"/>
       <c r="I1455"/>
       <c r="J1455" s="1" t="s">
-        <v>1891</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1456" spans="1:10" x14ac:dyDescent="0.2">
@@ -59083,7 +59199,7 @@
       <c r="H1456" s="9"/>
       <c r="I1456"/>
       <c r="J1456" s="1" t="s">
-        <v>1895</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1457" spans="1:10" x14ac:dyDescent="0.2">
@@ -59108,7 +59224,7 @@
       <c r="H1457" s="9"/>
       <c r="I1457"/>
       <c r="J1457" s="1" t="s">
-        <v>1898</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.2">
@@ -59133,7 +59249,7 @@
       <c r="H1458" s="9"/>
       <c r="I1458"/>
       <c r="J1458" s="1" t="s">
-        <v>1901</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1459" spans="1:10" x14ac:dyDescent="0.2">
@@ -59158,7 +59274,7 @@
       <c r="H1459" s="9"/>
       <c r="I1459"/>
       <c r="J1459" s="1" t="s">
-        <v>1905</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1460" spans="1:10" x14ac:dyDescent="0.2">
@@ -59183,7 +59299,7 @@
       <c r="H1460" s="9"/>
       <c r="I1460"/>
       <c r="J1460" s="1" t="s">
-        <v>1908</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1461" spans="1:10" x14ac:dyDescent="0.2">
@@ -59208,7 +59324,7 @@
       <c r="H1461" s="9"/>
       <c r="I1461"/>
       <c r="J1461" s="1" t="s">
-        <v>1913</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.2">
@@ -59233,7 +59349,7 @@
       <c r="H1462" s="9"/>
       <c r="I1462"/>
       <c r="J1462" s="1" t="s">
-        <v>1916</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.2">
@@ -59258,7 +59374,7 @@
       <c r="H1463" s="9"/>
       <c r="I1463"/>
       <c r="J1463" s="1" t="s">
-        <v>1920</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.2">
@@ -59283,7 +59399,7 @@
       <c r="H1464" s="9"/>
       <c r="I1464"/>
       <c r="J1464" s="1" t="s">
-        <v>1924</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.2">
@@ -59308,7 +59424,7 @@
       <c r="H1465" s="9"/>
       <c r="I1465"/>
       <c r="J1465" s="1" t="s">
-        <v>1927</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.2">
@@ -59333,7 +59449,7 @@
       <c r="H1466" s="9"/>
       <c r="I1466"/>
       <c r="J1466" s="1" t="s">
-        <v>1931</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1467" spans="1:10" x14ac:dyDescent="0.2">
@@ -59358,7 +59474,7 @@
       <c r="H1467" s="9"/>
       <c r="I1467"/>
       <c r="J1467" s="1" t="s">
-        <v>1935</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.2">
@@ -59383,7 +59499,7 @@
       <c r="H1468" s="9"/>
       <c r="I1468"/>
       <c r="J1468" s="1" t="s">
-        <v>1939</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.2">
@@ -59408,7 +59524,7 @@
       <c r="H1469" s="9"/>
       <c r="I1469"/>
       <c r="J1469" s="1" t="s">
-        <v>1942</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1470" spans="1:10" x14ac:dyDescent="0.2">
@@ -59433,7 +59549,7 @@
       <c r="H1470" s="9"/>
       <c r="I1470"/>
       <c r="J1470" s="1" t="s">
-        <v>1945</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1471" spans="1:10" x14ac:dyDescent="0.2">
@@ -59458,7 +59574,7 @@
       <c r="H1471" s="9"/>
       <c r="I1471"/>
       <c r="J1471" s="1" t="s">
-        <v>1949</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1472" spans="1:10" x14ac:dyDescent="0.2">
@@ -59486,7 +59602,7 @@
       <c r="H1472" s="9"/>
       <c r="I1472"/>
       <c r="J1472" s="1" t="s">
-        <v>311</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.2">
@@ -59511,7 +59627,7 @@
       <c r="H1473" s="9"/>
       <c r="I1473"/>
       <c r="J1473" s="1" t="s">
-        <v>1955</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1474" spans="1:10" x14ac:dyDescent="0.2">
@@ -59536,7 +59652,7 @@
       <c r="H1474" s="9"/>
       <c r="I1474"/>
       <c r="J1474" s="1" t="s">
-        <v>1958</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1475" spans="1:10" x14ac:dyDescent="0.2">
@@ -59564,7 +59680,7 @@
       <c r="H1475" s="9"/>
       <c r="I1475"/>
       <c r="J1475" s="1" t="s">
-        <v>1961</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1476" spans="1:10" x14ac:dyDescent="0.2">
@@ -59589,7 +59705,7 @@
       <c r="H1476" s="9"/>
       <c r="I1476"/>
       <c r="J1476" s="1" t="s">
-        <v>1965</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1477" spans="1:10" x14ac:dyDescent="0.2">
@@ -59614,7 +59730,7 @@
       <c r="H1477" s="9"/>
       <c r="I1477"/>
       <c r="J1477" s="1" t="s">
-        <v>1968</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.2">
@@ -59639,7 +59755,7 @@
       <c r="H1478" s="9"/>
       <c r="I1478"/>
       <c r="J1478" s="1" t="s">
-        <v>1971</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1479" spans="1:10" x14ac:dyDescent="0.2">
@@ -59664,7 +59780,7 @@
       <c r="H1479" s="9"/>
       <c r="I1479"/>
       <c r="J1479" s="1" t="s">
-        <v>1973</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.2">
@@ -59689,7 +59805,7 @@
       <c r="H1480" s="9"/>
       <c r="I1480"/>
       <c r="J1480" s="1" t="s">
-        <v>1976</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1481" spans="1:10" x14ac:dyDescent="0.2">
@@ -59714,7 +59830,7 @@
       <c r="H1481" s="9"/>
       <c r="I1481"/>
       <c r="J1481" s="1" t="s">
-        <v>1979</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1482" spans="1:10" x14ac:dyDescent="0.2">
@@ -59739,7 +59855,7 @@
       <c r="H1482" s="9"/>
       <c r="I1482"/>
       <c r="J1482" s="1" t="s">
-        <v>1984</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1483" spans="1:10" x14ac:dyDescent="0.2">
@@ -59767,7 +59883,7 @@
       <c r="H1483" s="9"/>
       <c r="I1483"/>
       <c r="J1483" s="1" t="s">
-        <v>1987</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1484" spans="1:10" x14ac:dyDescent="0.2">
@@ -59792,7 +59908,7 @@
       <c r="H1484" s="9"/>
       <c r="I1484"/>
       <c r="J1484" s="1" t="s">
-        <v>1990</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1485" spans="1:10" x14ac:dyDescent="0.2">
@@ -59817,7 +59933,7 @@
       <c r="H1485" s="9"/>
       <c r="I1485"/>
       <c r="J1485" s="1" t="s">
-        <v>1993</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1486" spans="1:10" x14ac:dyDescent="0.2">
@@ -59842,7 +59958,7 @@
       <c r="H1486" s="9"/>
       <c r="I1486"/>
       <c r="J1486" s="1" t="s">
-        <v>4495</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1487" spans="1:10" x14ac:dyDescent="0.2">
@@ -59867,7 +59983,7 @@
       <c r="H1487" s="9"/>
       <c r="I1487"/>
       <c r="J1487" s="1" t="s">
-        <v>4496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1488" spans="1:10" x14ac:dyDescent="0.2">
@@ -59892,7 +60008,7 @@
       <c r="H1488" s="9"/>
       <c r="I1488"/>
       <c r="J1488" s="1" t="s">
-        <v>4497</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1489" spans="1:10" x14ac:dyDescent="0.2">
@@ -59917,7 +60033,7 @@
       <c r="H1489" s="9"/>
       <c r="I1489"/>
       <c r="J1489" s="1" t="s">
-        <v>1996</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1490" spans="1:10" x14ac:dyDescent="0.2">
@@ -59942,7 +60058,7 @@
       <c r="H1490" s="9"/>
       <c r="I1490"/>
       <c r="J1490" s="1" t="s">
-        <v>2000</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1491" spans="1:10" x14ac:dyDescent="0.2">
@@ -59967,7 +60083,7 @@
       <c r="H1491" s="9"/>
       <c r="I1491"/>
       <c r="J1491" s="1" t="s">
-        <v>2004</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1492" spans="1:10" x14ac:dyDescent="0.2">
@@ -59992,7 +60108,7 @@
       <c r="H1492" s="9"/>
       <c r="I1492"/>
       <c r="J1492" s="1" t="s">
-        <v>783</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1493" spans="1:10" x14ac:dyDescent="0.2">
@@ -60017,7 +60133,7 @@
       <c r="H1493" s="9"/>
       <c r="I1493"/>
       <c r="J1493" s="1" t="s">
-        <v>2011</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.2">
@@ -60042,7 +60158,7 @@
       <c r="H1494" s="9"/>
       <c r="I1494"/>
       <c r="J1494" s="1" t="s">
-        <v>2014</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1495" spans="1:10" x14ac:dyDescent="0.2">
@@ -60066,8 +60182,8 @@
       </c>
       <c r="H1495" s="9"/>
       <c r="I1495"/>
-      <c r="J1495" s="1">
-        <v>300</v>
+      <c r="J1495" s="1" t="s">
+        <v>1891</v>
       </c>
     </row>
     <row r="1496" spans="1:10" x14ac:dyDescent="0.2">
@@ -60092,7 +60208,7 @@
       <c r="H1496" s="9"/>
       <c r="I1496"/>
       <c r="J1496" s="1" t="s">
-        <v>2021</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1497" spans="1:10" x14ac:dyDescent="0.2">
@@ -60117,7 +60233,7 @@
       <c r="H1497" s="9"/>
       <c r="I1497"/>
       <c r="J1497" s="1" t="s">
-        <v>2025</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1498" spans="1:10" x14ac:dyDescent="0.2">
@@ -60142,7 +60258,7 @@
       <c r="H1498" s="9"/>
       <c r="I1498"/>
       <c r="J1498" s="1" t="s">
-        <v>2027</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1499" spans="1:10" x14ac:dyDescent="0.2">
@@ -60167,7 +60283,7 @@
       <c r="H1499" s="9"/>
       <c r="I1499"/>
       <c r="J1499" s="1" t="s">
-        <v>2030</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1500" spans="1:10" x14ac:dyDescent="0.2">
@@ -60192,7 +60308,7 @@
       <c r="H1500" s="9"/>
       <c r="I1500"/>
       <c r="J1500" s="1" t="s">
-        <v>2033</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1501" spans="1:10" x14ac:dyDescent="0.2">
@@ -60217,7 +60333,7 @@
       <c r="H1501" s="9"/>
       <c r="I1501"/>
       <c r="J1501" s="1" t="s">
-        <v>2038</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1502" spans="1:10" x14ac:dyDescent="0.2">
@@ -60242,7 +60358,7 @@
       <c r="H1502" s="9"/>
       <c r="I1502"/>
       <c r="J1502" s="1" t="s">
-        <v>2041</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.2">
@@ -60267,7 +60383,7 @@
       <c r="H1503" s="9"/>
       <c r="I1503"/>
       <c r="J1503" s="1" t="s">
-        <v>2044</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1504" spans="1:10" x14ac:dyDescent="0.2">
@@ -60292,7 +60408,7 @@
       <c r="H1504" s="9"/>
       <c r="I1504"/>
       <c r="J1504" s="1" t="s">
-        <v>2048</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.2">
@@ -60317,7 +60433,7 @@
       <c r="H1505" s="9"/>
       <c r="I1505"/>
       <c r="J1505" s="1" t="s">
-        <v>2051</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1506" spans="1:10" x14ac:dyDescent="0.2">
@@ -60342,7 +60458,7 @@
       <c r="H1506" s="9"/>
       <c r="I1506"/>
       <c r="J1506" s="1" t="s">
-        <v>2055</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1507" spans="1:10" x14ac:dyDescent="0.2">
@@ -60367,7 +60483,7 @@
       <c r="H1507" s="9"/>
       <c r="I1507"/>
       <c r="J1507" s="1" t="s">
-        <v>2059</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1508" spans="1:10" x14ac:dyDescent="0.2">
@@ -60392,7 +60508,7 @@
       <c r="H1508" s="9"/>
       <c r="I1508"/>
       <c r="J1508" s="1" t="s">
-        <v>2061</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1509" spans="1:10" x14ac:dyDescent="0.2">
@@ -60417,7 +60533,7 @@
       <c r="H1509" s="9"/>
       <c r="I1509"/>
       <c r="J1509" s="1" t="s">
-        <v>2064</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1510" spans="1:10" x14ac:dyDescent="0.2">
@@ -60442,7 +60558,7 @@
       <c r="H1510" s="9"/>
       <c r="I1510"/>
       <c r="J1510" s="1" t="s">
-        <v>2068</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1511" spans="1:10" x14ac:dyDescent="0.2">
@@ -60467,7 +60583,7 @@
       <c r="H1511" s="9"/>
       <c r="I1511"/>
       <c r="J1511" s="1" t="s">
-        <v>2071</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1512" spans="1:10" x14ac:dyDescent="0.2">
@@ -60492,7 +60608,7 @@
       <c r="H1512" s="9"/>
       <c r="I1512"/>
       <c r="J1512" s="1" t="s">
-        <v>2074</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1513" spans="1:10" x14ac:dyDescent="0.2">
@@ -60517,7 +60633,7 @@
       <c r="H1513" s="9"/>
       <c r="I1513"/>
       <c r="J1513" s="1" t="s">
-        <v>2077</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1514" spans="1:10" x14ac:dyDescent="0.2">
@@ -60545,7 +60661,7 @@
       <c r="H1514" s="9"/>
       <c r="I1514"/>
       <c r="J1514" s="1" t="s">
-        <v>2081</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1515" spans="1:10" x14ac:dyDescent="0.2">
@@ -60570,7 +60686,7 @@
       <c r="H1515" s="9"/>
       <c r="I1515"/>
       <c r="J1515" s="1" t="s">
-        <v>2084</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1516" spans="1:10" x14ac:dyDescent="0.2">
@@ -60595,7 +60711,7 @@
       <c r="H1516" s="9"/>
       <c r="I1516"/>
       <c r="J1516" s="1" t="s">
-        <v>2088</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1517" spans="1:10" x14ac:dyDescent="0.2">
@@ -60620,7 +60736,7 @@
       <c r="H1517" s="9"/>
       <c r="I1517"/>
       <c r="J1517" s="1" t="s">
-        <v>2091</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1518" spans="1:10" x14ac:dyDescent="0.2">
@@ -60645,7 +60761,7 @@
       <c r="H1518" s="9"/>
       <c r="I1518"/>
       <c r="J1518" s="1" t="s">
-        <v>2095</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1519" spans="1:10" x14ac:dyDescent="0.2">
@@ -60670,7 +60786,7 @@
       <c r="H1519" s="9"/>
       <c r="I1519"/>
       <c r="J1519" s="1" t="s">
-        <v>2097</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1520" spans="1:10" x14ac:dyDescent="0.2">
@@ -60695,7 +60811,7 @@
       <c r="H1520" s="9"/>
       <c r="I1520"/>
       <c r="J1520" s="1" t="s">
-        <v>2100</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1521" spans="1:10" x14ac:dyDescent="0.2">
@@ -60723,7 +60839,7 @@
       <c r="H1521" s="9"/>
       <c r="I1521"/>
       <c r="J1521" s="1" t="s">
-        <v>2104</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1522" spans="1:10" x14ac:dyDescent="0.2">
@@ -60751,7 +60867,7 @@
       <c r="H1522" s="9"/>
       <c r="I1522"/>
       <c r="J1522" s="1" t="s">
-        <v>2107</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1523" spans="1:10" x14ac:dyDescent="0.2">
@@ -60779,7 +60895,7 @@
       <c r="H1523" s="9"/>
       <c r="I1523"/>
       <c r="J1523" s="1" t="s">
-        <v>2110</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1524" spans="1:10" x14ac:dyDescent="0.2">
@@ -60807,7 +60923,7 @@
       <c r="H1524" s="9"/>
       <c r="I1524"/>
       <c r="J1524" s="1" t="s">
-        <v>2113</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1525" spans="1:10" x14ac:dyDescent="0.2">
@@ -60832,7 +60948,7 @@
       <c r="H1525" s="9"/>
       <c r="I1525"/>
       <c r="J1525" s="1" t="s">
-        <v>2116</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1526" spans="1:10" x14ac:dyDescent="0.2">
@@ -60857,7 +60973,7 @@
       <c r="H1526" s="9"/>
       <c r="I1526"/>
       <c r="J1526" s="1" t="s">
-        <v>2121</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1527" spans="1:10" x14ac:dyDescent="0.2">
@@ -60885,7 +61001,7 @@
       <c r="H1527" s="9"/>
       <c r="I1527"/>
       <c r="J1527" s="1" t="s">
-        <v>977</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1528" spans="1:10" x14ac:dyDescent="0.2">
@@ -60910,7 +61026,7 @@
       <c r="H1528" s="9"/>
       <c r="I1528"/>
       <c r="J1528" s="1" t="s">
-        <v>2127</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1529" spans="1:10" x14ac:dyDescent="0.2">
@@ -60935,7 +61051,7 @@
       <c r="H1529" s="9"/>
       <c r="I1529"/>
       <c r="J1529" s="1" t="s">
-        <v>2130</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1530" spans="1:10" x14ac:dyDescent="0.2">
@@ -60960,7 +61076,7 @@
       <c r="H1530" s="9"/>
       <c r="I1530"/>
       <c r="J1530" s="1" t="s">
-        <v>2133</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1531" spans="1:10" x14ac:dyDescent="0.2">
@@ -60985,7 +61101,7 @@
       <c r="H1531" s="9"/>
       <c r="I1531"/>
       <c r="J1531" s="1" t="s">
-        <v>2136</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1532" spans="1:10" x14ac:dyDescent="0.2">
@@ -61010,7 +61126,7 @@
       <c r="H1532" s="9"/>
       <c r="I1532"/>
       <c r="J1532" s="1" t="s">
-        <v>2139</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1533" spans="1:10" x14ac:dyDescent="0.2">
@@ -61035,7 +61151,7 @@
       <c r="H1533" s="9"/>
       <c r="I1533"/>
       <c r="J1533" s="1" t="s">
-        <v>2142</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1534" spans="1:10" x14ac:dyDescent="0.2">
@@ -61063,7 +61179,7 @@
       <c r="H1534" s="9"/>
       <c r="I1534"/>
       <c r="J1534" s="1" t="s">
-        <v>2146</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1535" spans="1:10" x14ac:dyDescent="0.2">
@@ -61087,8 +61203,8 @@
       </c>
       <c r="H1535" s="9"/>
       <c r="I1535"/>
-      <c r="J1535" s="1" t="s">
-        <v>2150</v>
+      <c r="J1535" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="1536" spans="1:10" x14ac:dyDescent="0.2">
@@ -61113,7 +61229,7 @@
       <c r="H1536" s="9"/>
       <c r="I1536"/>
       <c r="J1536" s="1" t="s">
-        <v>2154</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1537" spans="1:10" x14ac:dyDescent="0.2">
@@ -61141,7 +61257,7 @@
       <c r="H1537" s="9"/>
       <c r="I1537"/>
       <c r="J1537" s="1" t="s">
-        <v>2158</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1538" spans="1:10" x14ac:dyDescent="0.2">
@@ -61166,7 +61282,7 @@
       <c r="H1538" s="9"/>
       <c r="I1538"/>
       <c r="J1538" s="1" t="s">
-        <v>2162</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1539" spans="1:10" x14ac:dyDescent="0.2">
@@ -61191,7 +61307,7 @@
       <c r="H1539" s="9"/>
       <c r="I1539"/>
       <c r="J1539" s="1" t="s">
-        <v>2166</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1540" spans="1:10" x14ac:dyDescent="0.2">
@@ -61216,7 +61332,7 @@
       <c r="H1540" s="9"/>
       <c r="I1540"/>
       <c r="J1540" s="1" t="s">
-        <v>2169</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1541" spans="1:10" x14ac:dyDescent="0.2">
@@ -61241,7 +61357,7 @@
       <c r="H1541" s="9"/>
       <c r="I1541"/>
       <c r="J1541" s="1" t="s">
-        <v>2173</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1542" spans="1:10" x14ac:dyDescent="0.2">
@@ -61266,7 +61382,7 @@
       <c r="H1542" s="9"/>
       <c r="I1542"/>
       <c r="J1542" s="1" t="s">
-        <v>2176</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1543" spans="1:10" x14ac:dyDescent="0.2">
@@ -61291,7 +61407,7 @@
       <c r="H1543" s="9"/>
       <c r="I1543"/>
       <c r="J1543" s="1" t="s">
-        <v>2179</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1544" spans="1:10" x14ac:dyDescent="0.2">
@@ -61316,7 +61432,7 @@
       <c r="H1544" s="9"/>
       <c r="I1544"/>
       <c r="J1544" s="1" t="s">
-        <v>2183</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1545" spans="1:10" x14ac:dyDescent="0.2">
@@ -61341,7 +61457,7 @@
       <c r="H1545" s="9"/>
       <c r="I1545"/>
       <c r="J1545" s="1" t="s">
-        <v>2186</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1546" spans="1:10" x14ac:dyDescent="0.2">
@@ -61366,7 +61482,7 @@
       <c r="H1546" s="9"/>
       <c r="I1546"/>
       <c r="J1546" s="1" t="s">
-        <v>2190</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1547" spans="1:10" x14ac:dyDescent="0.2">
@@ -61391,7 +61507,7 @@
       <c r="H1547" s="9"/>
       <c r="I1547"/>
       <c r="J1547" s="1" t="s">
-        <v>3593</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1548" spans="1:10" x14ac:dyDescent="0.2">
@@ -61416,7 +61532,7 @@
       <c r="H1548" s="9"/>
       <c r="I1548"/>
       <c r="J1548" s="1" t="s">
-        <v>4498</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1549" spans="1:10" x14ac:dyDescent="0.2">
@@ -61441,7 +61557,7 @@
       <c r="H1549" s="9"/>
       <c r="I1549"/>
       <c r="J1549" s="1" t="s">
-        <v>3540</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1550" spans="1:10" x14ac:dyDescent="0.2">
@@ -61466,7 +61582,7 @@
       <c r="H1550" s="9"/>
       <c r="I1550"/>
       <c r="J1550" s="1" t="s">
-        <v>3631</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1551" spans="1:10" x14ac:dyDescent="0.2">
@@ -61491,7 +61607,7 @@
       <c r="H1551" s="9"/>
       <c r="I1551"/>
       <c r="J1551" s="1" t="s">
-        <v>4499</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1552" spans="1:10" x14ac:dyDescent="0.2">
@@ -61516,7 +61632,7 @@
       <c r="H1552" s="9"/>
       <c r="I1552"/>
       <c r="J1552" s="1" t="s">
-        <v>4500</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1553" spans="1:10" x14ac:dyDescent="0.2">
@@ -61541,7 +61657,7 @@
       <c r="H1553" s="9"/>
       <c r="I1553"/>
       <c r="J1553" s="1" t="s">
-        <v>4501</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1554" spans="1:10" x14ac:dyDescent="0.2">
@@ -61566,7 +61682,7 @@
       <c r="H1554" s="9"/>
       <c r="I1554"/>
       <c r="J1554" s="1" t="s">
-        <v>4502</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1555" spans="1:10" x14ac:dyDescent="0.2">
@@ -61591,7 +61707,7 @@
       <c r="H1555" s="9"/>
       <c r="I1555"/>
       <c r="J1555" s="1" t="s">
-        <v>3562</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1556" spans="1:10" x14ac:dyDescent="0.2">
@@ -61616,7 +61732,7 @@
       <c r="H1556" s="9"/>
       <c r="I1556"/>
       <c r="J1556" s="1" t="s">
-        <v>3593</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1557" spans="1:10" x14ac:dyDescent="0.2">
@@ -61641,7 +61757,7 @@
       <c r="H1557" s="9"/>
       <c r="I1557"/>
       <c r="J1557" s="1" t="s">
-        <v>2193</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1558" spans="1:10" x14ac:dyDescent="0.2">
@@ -61666,7 +61782,7 @@
       <c r="H1558" s="9"/>
       <c r="I1558"/>
       <c r="J1558" s="1" t="s">
-        <v>2196</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1559" spans="1:10" x14ac:dyDescent="0.2">
@@ -61691,7 +61807,7 @@
       <c r="H1559" s="9"/>
       <c r="I1559"/>
       <c r="J1559" s="1" t="s">
-        <v>2199</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1560" spans="1:10" x14ac:dyDescent="0.2">
@@ -61716,7 +61832,7 @@
       <c r="H1560" s="9"/>
       <c r="I1560"/>
       <c r="J1560" s="1" t="s">
-        <v>2202</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1561" spans="1:10" x14ac:dyDescent="0.2">
@@ -61741,7 +61857,7 @@
       <c r="H1561" s="9"/>
       <c r="I1561"/>
       <c r="J1561" s="1" t="s">
-        <v>2206</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1562" spans="1:10" x14ac:dyDescent="0.2">
@@ -61766,7 +61882,7 @@
       <c r="H1562" s="9"/>
       <c r="I1562"/>
       <c r="J1562" s="1" t="s">
-        <v>2209</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1563" spans="1:10" x14ac:dyDescent="0.2">
@@ -61791,7 +61907,7 @@
       <c r="H1563" s="9"/>
       <c r="I1563"/>
       <c r="J1563" s="1" t="s">
-        <v>2213</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1564" spans="1:10" x14ac:dyDescent="0.2">
@@ -61816,7 +61932,7 @@
       <c r="H1564" s="9"/>
       <c r="I1564"/>
       <c r="J1564" s="1" t="s">
-        <v>2216</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1565" spans="1:10" x14ac:dyDescent="0.2">
@@ -61841,7 +61957,7 @@
       <c r="H1565" s="9"/>
       <c r="I1565"/>
       <c r="J1565" s="1" t="s">
-        <v>2219</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1566" spans="1:10" x14ac:dyDescent="0.2">
@@ -61866,7 +61982,7 @@
       <c r="H1566" s="9"/>
       <c r="I1566"/>
       <c r="J1566" s="1" t="s">
-        <v>2224</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1567" spans="1:10" x14ac:dyDescent="0.2">
@@ -61891,7 +62007,7 @@
       <c r="H1567" s="9"/>
       <c r="I1567"/>
       <c r="J1567" s="1" t="s">
-        <v>2228</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1568" spans="1:10" x14ac:dyDescent="0.2">
@@ -61916,7 +62032,7 @@
       <c r="H1568" s="9"/>
       <c r="I1568"/>
       <c r="J1568" s="1" t="s">
-        <v>2231</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1569" spans="1:10" x14ac:dyDescent="0.2">
@@ -61941,7 +62057,7 @@
       <c r="H1569" s="9"/>
       <c r="I1569"/>
       <c r="J1569" s="1" t="s">
-        <v>2234</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1570" spans="1:10" x14ac:dyDescent="0.2">
@@ -61966,7 +62082,7 @@
       <c r="H1570" s="9"/>
       <c r="I1570"/>
       <c r="J1570" s="1" t="s">
-        <v>2237</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1571" spans="1:10" x14ac:dyDescent="0.2">
@@ -61991,7 +62107,7 @@
       <c r="H1571" s="9"/>
       <c r="I1571"/>
       <c r="J1571" s="1" t="s">
-        <v>2241</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1572" spans="1:10" x14ac:dyDescent="0.2">
@@ -62016,7 +62132,7 @@
       <c r="H1572" s="9"/>
       <c r="I1572"/>
       <c r="J1572" s="1" t="s">
-        <v>2244</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1573" spans="1:10" x14ac:dyDescent="0.2">
@@ -62041,7 +62157,7 @@
       <c r="H1573" s="9"/>
       <c r="I1573"/>
       <c r="J1573" s="1" t="s">
-        <v>2248</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1574" spans="1:10" x14ac:dyDescent="0.2">
@@ -62066,7 +62182,7 @@
       <c r="H1574" s="9"/>
       <c r="I1574"/>
       <c r="J1574" s="1" t="s">
-        <v>2252</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1575" spans="1:10" x14ac:dyDescent="0.2">
@@ -62091,7 +62207,7 @@
       <c r="H1575" s="9"/>
       <c r="I1575"/>
       <c r="J1575" s="1" t="s">
-        <v>2255</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1576" spans="1:10" x14ac:dyDescent="0.2">
@@ -62116,7 +62232,7 @@
       <c r="H1576" s="9"/>
       <c r="I1576"/>
       <c r="J1576" s="1" t="s">
-        <v>2258</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1577" spans="1:10" x14ac:dyDescent="0.2">
@@ -62141,7 +62257,7 @@
       <c r="H1577" s="9"/>
       <c r="I1577"/>
       <c r="J1577" s="1" t="s">
-        <v>2262</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1578" spans="1:10" x14ac:dyDescent="0.2">
@@ -62166,7 +62282,7 @@
       <c r="H1578" s="9"/>
       <c r="I1578"/>
       <c r="J1578" s="1" t="s">
-        <v>2266</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1579" spans="1:10" x14ac:dyDescent="0.2">
@@ -62191,7 +62307,7 @@
       <c r="H1579" s="9"/>
       <c r="I1579"/>
       <c r="J1579" s="1" t="s">
-        <v>2269</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1580" spans="1:10" x14ac:dyDescent="0.2">
@@ -62216,7 +62332,7 @@
       <c r="H1580" s="9"/>
       <c r="I1580"/>
       <c r="J1580" s="1" t="s">
-        <v>2273</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1581" spans="1:10" x14ac:dyDescent="0.2">
@@ -62241,7 +62357,7 @@
       <c r="H1581" s="9"/>
       <c r="I1581"/>
       <c r="J1581" s="1" t="s">
-        <v>2276</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1582" spans="1:10" x14ac:dyDescent="0.2">
@@ -62269,7 +62385,7 @@
       <c r="H1582" s="9"/>
       <c r="I1582"/>
       <c r="J1582" s="1" t="s">
-        <v>2280</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1583" spans="1:10" x14ac:dyDescent="0.2">
@@ -62294,7 +62410,7 @@
       <c r="H1583" s="9"/>
       <c r="I1583"/>
       <c r="J1583" s="1" t="s">
-        <v>2284</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1584" spans="1:10" x14ac:dyDescent="0.2">
@@ -62319,7 +62435,7 @@
       <c r="H1584" s="9"/>
       <c r="I1584"/>
       <c r="J1584" s="1" t="s">
-        <v>2289</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1585" spans="1:10" x14ac:dyDescent="0.2">
@@ -62347,7 +62463,7 @@
       <c r="H1585" s="9"/>
       <c r="I1585"/>
       <c r="J1585" s="1" t="s">
-        <v>2292</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1586" spans="1:10" x14ac:dyDescent="0.2">
@@ -62372,7 +62488,7 @@
       <c r="H1586" s="9"/>
       <c r="I1586"/>
       <c r="J1586" s="1" t="s">
-        <v>2296</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1587" spans="1:10" x14ac:dyDescent="0.2">
@@ -62397,7 +62513,7 @@
       <c r="H1587" s="9"/>
       <c r="I1587"/>
       <c r="J1587" s="1" t="s">
-        <v>2299</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1588" spans="1:10" x14ac:dyDescent="0.2">
@@ -62425,7 +62541,7 @@
       <c r="H1588" s="9"/>
       <c r="I1588"/>
       <c r="J1588" s="1" t="s">
-        <v>2303</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1589" spans="1:10" x14ac:dyDescent="0.2">
@@ -62453,7 +62569,7 @@
       <c r="H1589" s="9"/>
       <c r="I1589"/>
       <c r="J1589" s="1" t="s">
-        <v>2306</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1590" spans="1:10" x14ac:dyDescent="0.2">
@@ -62478,7 +62594,7 @@
       <c r="H1590" s="9"/>
       <c r="I1590"/>
       <c r="J1590" s="1" t="s">
-        <v>2309</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1591" spans="1:10" x14ac:dyDescent="0.2">
@@ -62506,7 +62622,7 @@
       <c r="H1591" s="9"/>
       <c r="I1591"/>
       <c r="J1591" s="1" t="s">
-        <v>2312</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1592" spans="1:10" x14ac:dyDescent="0.2">
@@ -62531,7 +62647,7 @@
       <c r="H1592" s="9"/>
       <c r="I1592"/>
       <c r="J1592" s="1" t="s">
-        <v>2315</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1593" spans="1:10" x14ac:dyDescent="0.2">
@@ -62556,7 +62672,7 @@
       <c r="H1593" s="9"/>
       <c r="I1593"/>
       <c r="J1593" s="1" t="s">
-        <v>2318</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1594" spans="1:10" x14ac:dyDescent="0.2">
@@ -62581,7 +62697,7 @@
       <c r="H1594" s="9"/>
       <c r="I1594"/>
       <c r="J1594" s="1" t="s">
-        <v>2322</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1595" spans="1:10" x14ac:dyDescent="0.2">
@@ -62606,7 +62722,7 @@
       <c r="H1595" s="9"/>
       <c r="I1595"/>
       <c r="J1595" s="1" t="s">
-        <v>2326</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="1596" spans="1:10" x14ac:dyDescent="0.2">
@@ -62631,7 +62747,7 @@
       <c r="H1596" s="9"/>
       <c r="I1596"/>
       <c r="J1596" s="1" t="s">
-        <v>2329</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1597" spans="1:10" x14ac:dyDescent="0.2">
@@ -62656,7 +62772,7 @@
       <c r="H1597" s="9"/>
       <c r="I1597"/>
       <c r="J1597" s="1" t="s">
-        <v>2332</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1598" spans="1:10" x14ac:dyDescent="0.2">
@@ -62681,7 +62797,7 @@
       <c r="H1598" s="9"/>
       <c r="I1598"/>
       <c r="J1598" s="1" t="s">
-        <v>2336</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1599" spans="1:10" x14ac:dyDescent="0.2">
@@ -62706,7 +62822,7 @@
       <c r="H1599" s="9"/>
       <c r="I1599"/>
       <c r="J1599" s="1" t="s">
-        <v>4503</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1600" spans="1:10" x14ac:dyDescent="0.2">
@@ -62731,7 +62847,7 @@
       <c r="H1600" s="9"/>
       <c r="I1600"/>
       <c r="J1600" s="1" t="s">
-        <v>3751</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1601" spans="1:10" x14ac:dyDescent="0.2">
@@ -62756,7 +62872,7 @@
       <c r="H1601" s="9"/>
       <c r="I1601"/>
       <c r="J1601" s="1" t="s">
-        <v>2339</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1602" spans="1:10" x14ac:dyDescent="0.2">
@@ -62781,7 +62897,7 @@
       <c r="H1602" s="9"/>
       <c r="I1602"/>
       <c r="J1602" s="1" t="s">
-        <v>2342</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1603" spans="1:10" x14ac:dyDescent="0.2">
@@ -62806,7 +62922,7 @@
       <c r="H1603" s="9"/>
       <c r="I1603"/>
       <c r="J1603" s="1" t="s">
-        <v>2345</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1604" spans="1:10" x14ac:dyDescent="0.2">
@@ -62831,7 +62947,7 @@
       <c r="H1604" s="9"/>
       <c r="I1604"/>
       <c r="J1604" s="1" t="s">
-        <v>2348</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1605" spans="1:10" x14ac:dyDescent="0.2">
@@ -62856,7 +62972,7 @@
       <c r="H1605" s="9"/>
       <c r="I1605"/>
       <c r="J1605" s="1" t="s">
-        <v>2351</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1606" spans="1:10" x14ac:dyDescent="0.2">
@@ -62884,7 +63000,7 @@
       <c r="H1606" s="9"/>
       <c r="I1606"/>
       <c r="J1606" s="1" t="s">
-        <v>2353</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1607" spans="1:10" x14ac:dyDescent="0.2">
@@ -62909,7 +63025,7 @@
       <c r="H1607" s="9"/>
       <c r="I1607"/>
       <c r="J1607" s="1" t="s">
-        <v>2357</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1608" spans="1:10" x14ac:dyDescent="0.2">
@@ -62934,7 +63050,7 @@
       <c r="H1608" s="9"/>
       <c r="I1608"/>
       <c r="J1608" s="1" t="s">
-        <v>2360</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1609" spans="1:10" x14ac:dyDescent="0.2">
@@ -62959,7 +63075,7 @@
       <c r="H1609" s="9"/>
       <c r="I1609"/>
       <c r="J1609" s="1" t="s">
-        <v>2363</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1610" spans="1:10" x14ac:dyDescent="0.2">
@@ -62984,7 +63100,7 @@
       <c r="H1610" s="9"/>
       <c r="I1610"/>
       <c r="J1610" s="1" t="s">
-        <v>2366</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1611" spans="1:10" x14ac:dyDescent="0.2">
@@ -63009,7 +63125,7 @@
       <c r="H1611" s="9"/>
       <c r="I1611"/>
       <c r="J1611" s="1" t="s">
-        <v>2369</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1612" spans="1:10" x14ac:dyDescent="0.2">
@@ -63034,7 +63150,7 @@
       <c r="H1612" s="9"/>
       <c r="I1612"/>
       <c r="J1612" s="1" t="s">
-        <v>2372</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1613" spans="1:10" x14ac:dyDescent="0.2">
@@ -63059,7 +63175,7 @@
       <c r="H1613" s="9"/>
       <c r="I1613"/>
       <c r="J1613" s="1" t="s">
-        <v>2376</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1614" spans="1:10" x14ac:dyDescent="0.2">
@@ -63084,7 +63200,7 @@
       <c r="H1614" s="9"/>
       <c r="I1614"/>
       <c r="J1614" s="1" t="s">
-        <v>2379</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1615" spans="1:10" x14ac:dyDescent="0.2">
@@ -63109,7 +63225,7 @@
       <c r="H1615" s="9"/>
       <c r="I1615"/>
       <c r="J1615" s="1" t="s">
-        <v>2382</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1616" spans="1:10" x14ac:dyDescent="0.2">
@@ -63137,7 +63253,7 @@
       <c r="H1616" s="9"/>
       <c r="I1616"/>
       <c r="J1616" s="1" t="s">
-        <v>2387</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1617" spans="1:10" x14ac:dyDescent="0.2">
@@ -63162,7 +63278,7 @@
       <c r="H1617" s="9"/>
       <c r="I1617"/>
       <c r="J1617" s="1" t="s">
-        <v>2390</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1618" spans="1:10" x14ac:dyDescent="0.2">
@@ -63187,7 +63303,7 @@
       <c r="H1618" s="9"/>
       <c r="I1618"/>
       <c r="J1618" s="1" t="s">
-        <v>2393</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1619" spans="1:10" x14ac:dyDescent="0.2">
@@ -63212,7 +63328,7 @@
       <c r="H1619" s="9"/>
       <c r="I1619"/>
       <c r="J1619" s="1" t="s">
-        <v>2396</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1620" spans="1:10" x14ac:dyDescent="0.2">
@@ -63237,7 +63353,7 @@
       <c r="H1620" s="9"/>
       <c r="I1620"/>
       <c r="J1620" s="1" t="s">
-        <v>2399</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1621" spans="1:10" x14ac:dyDescent="0.2">
@@ -63262,7 +63378,7 @@
       <c r="H1621" s="9"/>
       <c r="I1621"/>
       <c r="J1621" s="1" t="s">
-        <v>2403</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1622" spans="1:10" x14ac:dyDescent="0.2">
@@ -63287,7 +63403,7 @@
       <c r="H1622" s="9"/>
       <c r="I1622"/>
       <c r="J1622" s="1" t="s">
-        <v>2406</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1623" spans="1:10" x14ac:dyDescent="0.2">
@@ -63312,7 +63428,7 @@
       <c r="H1623" s="9"/>
       <c r="I1623"/>
       <c r="J1623" s="1" t="s">
-        <v>2410</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1624" spans="1:10" x14ac:dyDescent="0.2">
@@ -63337,7 +63453,7 @@
       <c r="H1624" s="9"/>
       <c r="I1624"/>
       <c r="J1624" s="1" t="s">
-        <v>570</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1625" spans="1:10" x14ac:dyDescent="0.2">
@@ -63362,7 +63478,7 @@
       <c r="H1625" s="9"/>
       <c r="I1625"/>
       <c r="J1625" s="1" t="s">
-        <v>357</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1626" spans="1:10" x14ac:dyDescent="0.2">
@@ -63387,7 +63503,7 @@
       <c r="H1626" s="9"/>
       <c r="I1626"/>
       <c r="J1626" s="1" t="s">
-        <v>2417</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1627" spans="1:10" x14ac:dyDescent="0.2">
@@ -63412,7 +63528,7 @@
       <c r="H1627" s="9"/>
       <c r="I1627"/>
       <c r="J1627" s="1" t="s">
-        <v>2420</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1628" spans="1:10" x14ac:dyDescent="0.2">
@@ -63437,7 +63553,7 @@
       <c r="H1628" s="9"/>
       <c r="I1628"/>
       <c r="J1628" s="1" t="s">
-        <v>2424</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1629" spans="1:10" x14ac:dyDescent="0.2">
@@ -63462,7 +63578,7 @@
       <c r="H1629" s="9"/>
       <c r="I1629"/>
       <c r="J1629" s="1" t="s">
-        <v>2429</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1630" spans="1:10" x14ac:dyDescent="0.2">
@@ -63487,7 +63603,7 @@
       <c r="H1630" s="9"/>
       <c r="I1630"/>
       <c r="J1630" s="1" t="s">
-        <v>2433</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1631" spans="1:10" x14ac:dyDescent="0.2">
@@ -63512,7 +63628,7 @@
       <c r="H1631" s="9"/>
       <c r="I1631"/>
       <c r="J1631" s="1" t="s">
-        <v>2436</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1632" spans="1:10" x14ac:dyDescent="0.2">
@@ -63537,7 +63653,7 @@
       <c r="H1632" s="9"/>
       <c r="I1632"/>
       <c r="J1632" s="1" t="s">
-        <v>2440</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1633" spans="1:10" x14ac:dyDescent="0.2">
@@ -63562,7 +63678,7 @@
       <c r="H1633" s="9"/>
       <c r="I1633"/>
       <c r="J1633" s="1" t="s">
-        <v>2443</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1634" spans="1:10" x14ac:dyDescent="0.2">
@@ -63587,7 +63703,7 @@
       <c r="H1634" s="9"/>
       <c r="I1634"/>
       <c r="J1634" s="1" t="s">
-        <v>2446</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1635" spans="1:10" x14ac:dyDescent="0.2">
@@ -63612,7 +63728,7 @@
       <c r="H1635" s="9"/>
       <c r="I1635"/>
       <c r="J1635" s="1" t="s">
-        <v>2450</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1636" spans="1:10" x14ac:dyDescent="0.2">
@@ -63637,7 +63753,7 @@
       <c r="H1636" s="9"/>
       <c r="I1636"/>
       <c r="J1636" s="1" t="s">
-        <v>2454</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1637" spans="1:10" x14ac:dyDescent="0.2">
@@ -63662,7 +63778,7 @@
       <c r="H1637" s="9"/>
       <c r="I1637"/>
       <c r="J1637" s="1" t="s">
-        <v>2458</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1638" spans="1:10" x14ac:dyDescent="0.2">
@@ -63687,7 +63803,7 @@
       <c r="H1638" s="9"/>
       <c r="I1638"/>
       <c r="J1638" s="1" t="s">
-        <v>4504</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1639" spans="1:10" x14ac:dyDescent="0.2">
@@ -63712,7 +63828,7 @@
       <c r="H1639" s="9"/>
       <c r="I1639"/>
       <c r="J1639" s="1" t="s">
-        <v>4505</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1640" spans="1:10" x14ac:dyDescent="0.2">
@@ -63737,7 +63853,7 @@
       <c r="H1640" s="9"/>
       <c r="I1640"/>
       <c r="J1640" s="1" t="s">
-        <v>4506</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1641" spans="1:10" x14ac:dyDescent="0.2">
@@ -63762,7 +63878,7 @@
       <c r="H1641" s="9"/>
       <c r="I1641"/>
       <c r="J1641" s="1" t="s">
-        <v>4507</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1642" spans="1:10" x14ac:dyDescent="0.2">
@@ -63787,7 +63903,7 @@
       <c r="H1642" s="9"/>
       <c r="I1642"/>
       <c r="J1642" s="1" t="s">
-        <v>4307</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1643" spans="1:10" x14ac:dyDescent="0.2">
@@ -63812,7 +63928,7 @@
       <c r="H1643" s="9"/>
       <c r="I1643"/>
       <c r="J1643" s="1" t="s">
-        <v>4508</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1644" spans="1:10" x14ac:dyDescent="0.2">
@@ -63837,7 +63953,7 @@
       <c r="H1644" s="9"/>
       <c r="I1644"/>
       <c r="J1644" s="1" t="s">
-        <v>2461</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1645" spans="1:10" x14ac:dyDescent="0.2">
@@ -63862,7 +63978,7 @@
       <c r="H1645" s="9"/>
       <c r="I1645"/>
       <c r="J1645" s="1" t="s">
-        <v>2466</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1646" spans="1:10" x14ac:dyDescent="0.2">
@@ -63887,7 +64003,7 @@
       <c r="H1646" s="9"/>
       <c r="I1646"/>
       <c r="J1646" s="1" t="s">
-        <v>2469</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1647" spans="1:10" x14ac:dyDescent="0.2">
@@ -63912,7 +64028,7 @@
       <c r="H1647" s="9"/>
       <c r="I1647"/>
       <c r="J1647" s="1" t="s">
-        <v>2472</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1648" spans="1:10" x14ac:dyDescent="0.2">
@@ -63936,8 +64052,8 @@
       </c>
       <c r="H1648" s="9"/>
       <c r="I1648"/>
-      <c r="J1648" s="1">
-        <v>2012</v>
+      <c r="J1648" s="1" t="s">
+        <v>2360</v>
       </c>
     </row>
     <row r="1649" spans="1:10" x14ac:dyDescent="0.2">
@@ -63965,7 +64081,7 @@
       <c r="H1649" s="9"/>
       <c r="I1649"/>
       <c r="J1649" s="1" t="s">
-        <v>2478</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1650" spans="1:10" x14ac:dyDescent="0.2">
@@ -63990,7 +64106,7 @@
       <c r="H1650" s="9"/>
       <c r="I1650"/>
       <c r="J1650" s="1" t="s">
-        <v>2481</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1651" spans="1:10" x14ac:dyDescent="0.2">
@@ -64015,7 +64131,7 @@
       <c r="H1651" s="9"/>
       <c r="I1651"/>
       <c r="J1651" s="1" t="s">
-        <v>2485</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1652" spans="1:10" x14ac:dyDescent="0.2">
@@ -64040,7 +64156,7 @@
       <c r="H1652" s="9"/>
       <c r="I1652"/>
       <c r="J1652" s="1" t="s">
-        <v>2488</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1653" spans="1:10" x14ac:dyDescent="0.2">
@@ -64068,7 +64184,7 @@
       <c r="H1653" s="9"/>
       <c r="I1653"/>
       <c r="J1653" s="1" t="s">
-        <v>2491</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1654" spans="1:10" x14ac:dyDescent="0.2">
@@ -64093,7 +64209,7 @@
       <c r="H1654" s="9"/>
       <c r="I1654"/>
       <c r="J1654" s="1" t="s">
-        <v>2494</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1655" spans="1:10" x14ac:dyDescent="0.2">
@@ -64118,7 +64234,7 @@
       <c r="H1655" s="9"/>
       <c r="I1655"/>
       <c r="J1655" s="1" t="s">
-        <v>2498</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1656" spans="1:10" x14ac:dyDescent="0.2">
@@ -64146,7 +64262,7 @@
       <c r="H1656" s="9"/>
       <c r="I1656"/>
       <c r="J1656" s="1" t="s">
-        <v>2502</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1657" spans="1:10" x14ac:dyDescent="0.2">
@@ -64171,7 +64287,7 @@
       <c r="H1657" s="9"/>
       <c r="I1657"/>
       <c r="J1657" s="1" t="s">
-        <v>2506</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1658" spans="1:10" x14ac:dyDescent="0.2">
@@ -64196,7 +64312,7 @@
       <c r="H1658" s="9"/>
       <c r="I1658"/>
       <c r="J1658" s="1" t="s">
-        <v>2509</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1659" spans="1:10" x14ac:dyDescent="0.2">
@@ -64221,7 +64337,7 @@
       <c r="H1659" s="9"/>
       <c r="I1659"/>
       <c r="J1659" s="1" t="s">
-        <v>2513</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1660" spans="1:10" x14ac:dyDescent="0.2">
@@ -64246,7 +64362,7 @@
       <c r="H1660" s="9"/>
       <c r="I1660"/>
       <c r="J1660" s="1" t="s">
-        <v>2516</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1661" spans="1:10" x14ac:dyDescent="0.2">
@@ -64271,7 +64387,7 @@
       <c r="H1661" s="9"/>
       <c r="I1661"/>
       <c r="J1661" s="1" t="s">
-        <v>2520</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1662" spans="1:10" x14ac:dyDescent="0.2">
@@ -64296,7 +64412,7 @@
       <c r="H1662" s="9"/>
       <c r="I1662"/>
       <c r="J1662" s="1" t="s">
-        <v>2525</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1663" spans="1:10" x14ac:dyDescent="0.2">
@@ -64321,7 +64437,7 @@
       <c r="H1663" s="9"/>
       <c r="I1663"/>
       <c r="J1663" s="1" t="s">
-        <v>2528</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1664" spans="1:10" x14ac:dyDescent="0.2">
@@ -64346,7 +64462,7 @@
       <c r="H1664" s="9"/>
       <c r="I1664"/>
       <c r="J1664" s="1" t="s">
-        <v>2532</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1665" spans="1:10" x14ac:dyDescent="0.2">
@@ -64371,7 +64487,7 @@
       <c r="H1665" s="9"/>
       <c r="I1665"/>
       <c r="J1665" s="1" t="s">
-        <v>2536</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1666" spans="1:10" x14ac:dyDescent="0.2">
@@ -64396,7 +64512,7 @@
       <c r="H1666" s="9"/>
       <c r="I1666"/>
       <c r="J1666" s="1" t="s">
-        <v>2540</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1667" spans="1:10" x14ac:dyDescent="0.2">
@@ -64424,7 +64540,7 @@
       <c r="H1667" s="9"/>
       <c r="I1667"/>
       <c r="J1667" s="1" t="s">
-        <v>2544</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1668" spans="1:10" x14ac:dyDescent="0.2">
@@ -64449,7 +64565,7 @@
       <c r="H1668" s="9"/>
       <c r="I1668"/>
       <c r="J1668" s="1" t="s">
-        <v>2547</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1669" spans="1:10" x14ac:dyDescent="0.2">
@@ -64474,7 +64590,7 @@
       <c r="H1669" s="9"/>
       <c r="I1669"/>
       <c r="J1669" s="1" t="s">
-        <v>2550</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1670" spans="1:10" x14ac:dyDescent="0.2">
@@ -64499,7 +64615,7 @@
       <c r="H1670" s="9"/>
       <c r="I1670"/>
       <c r="J1670" s="1" t="s">
-        <v>2553</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1671" spans="1:10" x14ac:dyDescent="0.2">
@@ -64524,7 +64640,7 @@
       <c r="H1671" s="9"/>
       <c r="I1671"/>
       <c r="J1671" s="1" t="s">
-        <v>2557</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1672" spans="1:10" x14ac:dyDescent="0.2">
@@ -64549,7 +64665,7 @@
       <c r="H1672" s="9"/>
       <c r="I1672"/>
       <c r="J1672" s="1" t="s">
-        <v>2560</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1673" spans="1:10" x14ac:dyDescent="0.2">
@@ -64574,7 +64690,7 @@
       <c r="H1673" s="9"/>
       <c r="I1673"/>
       <c r="J1673" s="1" t="s">
-        <v>2563</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1674" spans="1:10" x14ac:dyDescent="0.2">
@@ -64599,7 +64715,7 @@
       <c r="H1674" s="9"/>
       <c r="I1674"/>
       <c r="J1674" s="1" t="s">
-        <v>2567</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1675" spans="1:10" x14ac:dyDescent="0.2">
@@ -64624,7 +64740,7 @@
       <c r="H1675" s="9"/>
       <c r="I1675"/>
       <c r="J1675" s="1" t="s">
-        <v>2570</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1676" spans="1:10" x14ac:dyDescent="0.2">
@@ -64649,7 +64765,7 @@
       <c r="H1676" s="9"/>
       <c r="I1676"/>
       <c r="J1676" s="1" t="s">
-        <v>2574</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1677" spans="1:10" x14ac:dyDescent="0.2">
@@ -64677,7 +64793,7 @@
       <c r="H1677" s="9"/>
       <c r="I1677"/>
       <c r="J1677" s="1" t="s">
-        <v>2576</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1678" spans="1:10" x14ac:dyDescent="0.2">
@@ -64705,7 +64821,7 @@
       <c r="H1678" s="9"/>
       <c r="I1678"/>
       <c r="J1678" s="1" t="s">
-        <v>2579</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1679" spans="1:10" x14ac:dyDescent="0.2">
@@ -64730,7 +64846,7 @@
       <c r="H1679" s="9"/>
       <c r="I1679"/>
       <c r="J1679" s="1" t="s">
-        <v>2583</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1680" spans="1:10" x14ac:dyDescent="0.2">
@@ -64758,7 +64874,7 @@
       <c r="H1680" s="9"/>
       <c r="I1680"/>
       <c r="J1680" s="1" t="s">
-        <v>2586</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1681" spans="1:10" x14ac:dyDescent="0.2">
@@ -64783,7 +64899,7 @@
       <c r="H1681" s="9"/>
       <c r="I1681"/>
       <c r="J1681" s="1" t="s">
-        <v>2591</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1682" spans="1:10" x14ac:dyDescent="0.2">
@@ -64808,7 +64924,7 @@
       <c r="H1682" s="9"/>
       <c r="I1682"/>
       <c r="J1682" s="1" t="s">
-        <v>2595</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1683" spans="1:10" x14ac:dyDescent="0.2">
@@ -64833,7 +64949,7 @@
       <c r="H1683" s="9"/>
       <c r="I1683"/>
       <c r="J1683" s="1" t="s">
-        <v>2598</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1684" spans="1:10" x14ac:dyDescent="0.2">
@@ -64858,7 +64974,7 @@
       <c r="H1684" s="9"/>
       <c r="I1684"/>
       <c r="J1684" s="1" t="s">
-        <v>2602</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1685" spans="1:10" x14ac:dyDescent="0.2">
@@ -64883,7 +64999,7 @@
       <c r="H1685" s="9"/>
       <c r="I1685"/>
       <c r="J1685" s="1" t="s">
-        <v>2606</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1686" spans="1:10" x14ac:dyDescent="0.2">
@@ -64908,7 +65024,7 @@
       <c r="H1686" s="9"/>
       <c r="I1686"/>
       <c r="J1686" s="1" t="s">
-        <v>2610</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1687" spans="1:10" x14ac:dyDescent="0.2">
@@ -64933,7 +65049,7 @@
       <c r="H1687" s="9"/>
       <c r="I1687"/>
       <c r="J1687" s="1" t="s">
-        <v>342</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1688" spans="1:10" x14ac:dyDescent="0.2">
@@ -64957,8 +65073,8 @@
       </c>
       <c r="H1688" s="9"/>
       <c r="I1688"/>
-      <c r="J1688" s="1" t="s">
-        <v>2616</v>
+      <c r="J1688" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="1689" spans="1:10" x14ac:dyDescent="0.2">
@@ -64983,7 +65099,7 @@
       <c r="H1689" s="9"/>
       <c r="I1689"/>
       <c r="J1689" s="1" t="s">
-        <v>2619</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1690" spans="1:10" x14ac:dyDescent="0.2">
@@ -65008,7 +65124,7 @@
       <c r="H1690" s="9"/>
       <c r="I1690"/>
       <c r="J1690" s="1" t="s">
-        <v>2622</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1691" spans="1:10" x14ac:dyDescent="0.2">
@@ -65033,7 +65149,7 @@
       <c r="H1691" s="9"/>
       <c r="I1691"/>
       <c r="J1691" s="1" t="s">
-        <v>2625</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1692" spans="1:10" x14ac:dyDescent="0.2">
@@ -65058,7 +65174,7 @@
       <c r="H1692" s="9"/>
       <c r="I1692"/>
       <c r="J1692" s="1" t="s">
-        <v>2628</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1693" spans="1:10" x14ac:dyDescent="0.2">
@@ -65083,7 +65199,7 @@
       <c r="H1693" s="9"/>
       <c r="I1693"/>
       <c r="J1693" s="1" t="s">
-        <v>2632</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1694" spans="1:10" x14ac:dyDescent="0.2">
@@ -65108,7 +65224,7 @@
       <c r="H1694" s="9"/>
       <c r="I1694"/>
       <c r="J1694" s="1" t="s">
-        <v>2635</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1695" spans="1:10" x14ac:dyDescent="0.2">
@@ -65133,7 +65249,7 @@
       <c r="H1695" s="9"/>
       <c r="I1695"/>
       <c r="J1695" s="1" t="s">
-        <v>2638</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1696" spans="1:10" x14ac:dyDescent="0.2">
@@ -65158,7 +65274,7 @@
       <c r="H1696" s="9"/>
       <c r="I1696"/>
       <c r="J1696" s="1" t="s">
-        <v>2641</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1697" spans="1:10" x14ac:dyDescent="0.2">
@@ -65183,7 +65299,7 @@
       <c r="H1697" s="9"/>
       <c r="I1697"/>
       <c r="J1697" s="1" t="s">
-        <v>2644</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1698" spans="1:10" x14ac:dyDescent="0.2">
@@ -65208,7 +65324,7 @@
       <c r="H1698" s="9"/>
       <c r="I1698"/>
       <c r="J1698" s="1" t="s">
-        <v>2648</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1699" spans="1:10" x14ac:dyDescent="0.2">
@@ -65233,7 +65349,7 @@
       <c r="H1699" s="9"/>
       <c r="I1699"/>
       <c r="J1699" s="1" t="s">
-        <v>2651</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1700" spans="1:10" x14ac:dyDescent="0.2">
@@ -65258,7 +65374,7 @@
       <c r="H1700" s="9"/>
       <c r="I1700"/>
       <c r="J1700" s="1" t="s">
-        <v>2654</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1701" spans="1:10" x14ac:dyDescent="0.2">
@@ -65283,7 +65399,7 @@
       <c r="H1701" s="9"/>
       <c r="I1701"/>
       <c r="J1701" s="1" t="s">
-        <v>2657</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1702" spans="1:10" x14ac:dyDescent="0.2">
@@ -65308,7 +65424,7 @@
       <c r="H1702" s="9"/>
       <c r="I1702"/>
       <c r="J1702" s="1" t="s">
-        <v>2661</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1703" spans="1:10" x14ac:dyDescent="0.2">
@@ -65333,7 +65449,7 @@
       <c r="H1703" s="9"/>
       <c r="I1703"/>
       <c r="J1703" s="1" t="s">
-        <v>2664</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1704" spans="1:10" x14ac:dyDescent="0.2">
@@ -65358,7 +65474,7 @@
       <c r="H1704" s="9"/>
       <c r="I1704"/>
       <c r="J1704" s="1" t="s">
-        <v>2667</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1705" spans="1:10" x14ac:dyDescent="0.2">
@@ -65383,7 +65499,7 @@
       <c r="H1705" s="9"/>
       <c r="I1705"/>
       <c r="J1705" s="1" t="s">
-        <v>891</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1706" spans="1:10" x14ac:dyDescent="0.2">
@@ -65408,7 +65524,7 @@
       <c r="H1706" s="9"/>
       <c r="I1706"/>
       <c r="J1706" s="1" t="s">
-        <v>2672</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1707" spans="1:10" x14ac:dyDescent="0.2">
@@ -65433,7 +65549,7 @@
       <c r="H1707" s="9"/>
       <c r="I1707"/>
       <c r="J1707" s="1" t="s">
-        <v>2675</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1708" spans="1:10" x14ac:dyDescent="0.2">
@@ -65458,7 +65574,7 @@
       <c r="H1708" s="9"/>
       <c r="I1708"/>
       <c r="J1708" s="1" t="s">
-        <v>2679</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1709" spans="1:10" x14ac:dyDescent="0.2">
@@ -65483,7 +65599,7 @@
       <c r="H1709" s="9"/>
       <c r="I1709"/>
       <c r="J1709" s="1" t="s">
-        <v>2682</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1710" spans="1:10" x14ac:dyDescent="0.2">
@@ -65508,7 +65624,7 @@
       <c r="H1710" s="9"/>
       <c r="I1710"/>
       <c r="J1710" s="1" t="s">
-        <v>2684</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1711" spans="1:10" x14ac:dyDescent="0.2">
@@ -65533,7 +65649,7 @@
       <c r="H1711" s="9"/>
       <c r="I1711"/>
       <c r="J1711" s="1" t="s">
-        <v>2687</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1712" spans="1:10" x14ac:dyDescent="0.2">
@@ -65558,7 +65674,7 @@
       <c r="H1712" s="9"/>
       <c r="I1712"/>
       <c r="J1712" s="1" t="s">
-        <v>2690</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1713" spans="1:10" x14ac:dyDescent="0.2">
@@ -65583,7 +65699,7 @@
       <c r="H1713" s="9"/>
       <c r="I1713"/>
       <c r="J1713" s="1" t="s">
-        <v>2694</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1714" spans="1:10" x14ac:dyDescent="0.2">
@@ -65608,7 +65724,7 @@
       <c r="H1714" s="9"/>
       <c r="I1714"/>
       <c r="J1714" s="1" t="s">
-        <v>1423</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="1715" spans="1:10" x14ac:dyDescent="0.2">
@@ -65633,7 +65749,7 @@
       <c r="H1715" s="9"/>
       <c r="I1715"/>
       <c r="J1715" s="1" t="s">
-        <v>2700</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="1716" spans="1:10" x14ac:dyDescent="0.2">
@@ -65658,7 +65774,7 @@
       <c r="H1716" s="9"/>
       <c r="I1716"/>
       <c r="J1716" s="1" t="s">
-        <v>2703</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="1717" spans="1:10" x14ac:dyDescent="0.2">
@@ -65683,7 +65799,7 @@
       <c r="H1717" s="9"/>
       <c r="I1717"/>
       <c r="J1717" s="1" t="s">
-        <v>2706</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1718" spans="1:10" x14ac:dyDescent="0.2">
@@ -65711,7 +65827,7 @@
       <c r="H1718" s="9"/>
       <c r="I1718"/>
       <c r="J1718" s="1" t="s">
-        <v>2709</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1719" spans="1:10" x14ac:dyDescent="0.2">
@@ -65736,7 +65852,7 @@
       <c r="H1719" s="9"/>
       <c r="I1719"/>
       <c r="J1719" s="1" t="s">
-        <v>2713</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1720" spans="1:10" x14ac:dyDescent="0.2">
@@ -65761,7 +65877,7 @@
       <c r="H1720" s="9"/>
       <c r="I1720"/>
       <c r="J1720" s="1" t="s">
-        <v>2716</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1721" spans="1:10" x14ac:dyDescent="0.2">
@@ -65786,7 +65902,7 @@
       <c r="H1721" s="9"/>
       <c r="I1721"/>
       <c r="J1721" s="1" t="s">
-        <v>2719</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1722" spans="1:10" x14ac:dyDescent="0.2">
@@ -65811,7 +65927,7 @@
       <c r="H1722" s="9"/>
       <c r="I1722"/>
       <c r="J1722" s="1" t="s">
-        <v>4509</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1723" spans="1:10" x14ac:dyDescent="0.2">
@@ -65836,7 +65952,7 @@
       <c r="H1723" s="9"/>
       <c r="I1723"/>
       <c r="J1723" s="1" t="s">
-        <v>4510</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1724" spans="1:10" x14ac:dyDescent="0.2">
@@ -65860,6 +65976,9 @@
       </c>
       <c r="H1724" s="9"/>
       <c r="I1724"/>
+      <c r="J1724" s="1" t="s">
+        <v>2602</v>
+      </c>
     </row>
     <row r="1725" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1725">
@@ -65882,6 +66001,9 @@
       </c>
       <c r="H1725" s="9"/>
       <c r="I1725"/>
+      <c r="J1725" s="1" t="s">
+        <v>2606</v>
+      </c>
     </row>
     <row r="1726" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1726">
@@ -65904,6 +66026,9 @@
       </c>
       <c r="H1726" s="9"/>
       <c r="I1726"/>
+      <c r="J1726" s="1" t="s">
+        <v>2610</v>
+      </c>
     </row>
     <row r="1727" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1727">
@@ -65926,6 +66051,9 @@
       </c>
       <c r="H1727" s="9"/>
       <c r="I1727"/>
+      <c r="J1727" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="1728" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1728">
@@ -65948,8 +66076,11 @@
       </c>
       <c r="H1728" s="9"/>
       <c r="I1728"/>
-    </row>
-    <row r="1729" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1728" s="1" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1729">
         <v>1997</v>
       </c>
@@ -65970,8 +66101,11 @@
       </c>
       <c r="H1729" s="9"/>
       <c r="I1729"/>
-    </row>
-    <row r="1730" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1729" s="1" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1730">
         <v>1997</v>
       </c>
@@ -65992,8 +66126,11 @@
       </c>
       <c r="H1730" s="9"/>
       <c r="I1730"/>
-    </row>
-    <row r="1731" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1730" s="1" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1731">
         <v>1997</v>
       </c>
@@ -66014,8 +66151,11 @@
       </c>
       <c r="H1731" s="9"/>
       <c r="I1731"/>
-    </row>
-    <row r="1732" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1731" s="1" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1732">
         <v>1997</v>
       </c>
@@ -66036,8 +66176,11 @@
       </c>
       <c r="H1732" s="9"/>
       <c r="I1732"/>
-    </row>
-    <row r="1733" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1732" s="1" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1733">
         <v>1997</v>
       </c>
@@ -66061,8 +66204,11 @@
       </c>
       <c r="H1733" s="9"/>
       <c r="I1733"/>
-    </row>
-    <row r="1734" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1733" s="1" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1734">
         <v>1997</v>
       </c>
@@ -66083,8 +66229,11 @@
       </c>
       <c r="H1734" s="9"/>
       <c r="I1734"/>
-    </row>
-    <row r="1735" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1734" s="1" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1735">
         <v>1997</v>
       </c>
@@ -66105,8 +66254,11 @@
       </c>
       <c r="H1735" s="9"/>
       <c r="I1735"/>
-    </row>
-    <row r="1736" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1735" s="1" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1736">
         <v>1997</v>
       </c>
@@ -66130,8 +66282,11 @@
       </c>
       <c r="H1736" s="9"/>
       <c r="I1736"/>
-    </row>
-    <row r="1737" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1736" s="1" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1737">
         <v>1997</v>
       </c>
@@ -66152,8 +66307,11 @@
       </c>
       <c r="H1737" s="9"/>
       <c r="I1737"/>
-    </row>
-    <row r="1738" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1737" s="1" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1738">
         <v>1997</v>
       </c>
@@ -66177,8 +66335,11 @@
       </c>
       <c r="H1738" s="9"/>
       <c r="I1738"/>
-    </row>
-    <row r="1739" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1738" s="1" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1739">
         <v>1997</v>
       </c>
@@ -66202,8 +66363,11 @@
       </c>
       <c r="H1739" s="9"/>
       <c r="I1739"/>
-    </row>
-    <row r="1740" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1739" s="1" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1740">
         <v>1997</v>
       </c>
@@ -66224,8 +66388,11 @@
       </c>
       <c r="H1740" s="9"/>
       <c r="I1740"/>
-    </row>
-    <row r="1741" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1740" s="1" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1741">
         <v>1997</v>
       </c>
@@ -66246,8 +66413,11 @@
       </c>
       <c r="H1741" s="9"/>
       <c r="I1741"/>
-    </row>
-    <row r="1742" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1741" s="1" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1742">
         <v>1997</v>
       </c>
@@ -66268,8 +66438,11 @@
       </c>
       <c r="H1742" s="9"/>
       <c r="I1742"/>
-    </row>
-    <row r="1743" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1742" s="1" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1743">
         <v>1997</v>
       </c>
@@ -66293,8 +66466,11 @@
       </c>
       <c r="H1743" s="9"/>
       <c r="I1743"/>
-    </row>
-    <row r="1744" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1743" s="1" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1744">
         <v>1997</v>
       </c>
@@ -66315,8 +66491,11 @@
       </c>
       <c r="H1744" s="9"/>
       <c r="I1744"/>
-    </row>
-    <row r="1745" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1744" s="1" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1745">
         <v>1997</v>
       </c>
@@ -66337,8 +66516,11 @@
       </c>
       <c r="H1745" s="9"/>
       <c r="I1745"/>
-    </row>
-    <row r="1746" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1745" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1746">
         <v>1997</v>
       </c>
@@ -66359,8 +66541,11 @@
       </c>
       <c r="H1746" s="9"/>
       <c r="I1746"/>
-    </row>
-    <row r="1747" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1746" s="1" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1747">
         <v>1997</v>
       </c>
@@ -66381,8 +66566,11 @@
       </c>
       <c r="H1747" s="9"/>
       <c r="I1747"/>
-    </row>
-    <row r="1748" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1747" s="1" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1748">
         <v>1997</v>
       </c>
@@ -66403,8 +66591,11 @@
       </c>
       <c r="H1748" s="9"/>
       <c r="I1748"/>
-    </row>
-    <row r="1749" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1748" s="1" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1749">
         <v>1998</v>
       </c>
@@ -66425,8 +66616,11 @@
       </c>
       <c r="H1749" s="9"/>
       <c r="I1749"/>
-    </row>
-    <row r="1750" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1749" s="1" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1750">
         <v>1998</v>
       </c>
@@ -66447,8 +66641,11 @@
       </c>
       <c r="H1750" s="9"/>
       <c r="I1750"/>
-    </row>
-    <row r="1751" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1750" s="1" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1751">
         <v>1998</v>
       </c>
@@ -66469,8 +66666,11 @@
       </c>
       <c r="H1751" s="9"/>
       <c r="I1751"/>
-    </row>
-    <row r="1752" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1751" s="1" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1752">
         <v>1998</v>
       </c>
@@ -66491,8 +66691,11 @@
       </c>
       <c r="H1752" s="9"/>
       <c r="I1752"/>
-    </row>
-    <row r="1753" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1752" s="1" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1753">
         <v>1998</v>
       </c>
@@ -66513,8 +66716,11 @@
       </c>
       <c r="H1753" s="9"/>
       <c r="I1753"/>
-    </row>
-    <row r="1754" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1753" s="1" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1754">
         <v>1998</v>
       </c>
@@ -66535,8 +66741,11 @@
       </c>
       <c r="H1754" s="9"/>
       <c r="I1754"/>
-    </row>
-    <row r="1755" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1754" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1755">
         <v>1998</v>
       </c>
@@ -66557,8 +66766,11 @@
       </c>
       <c r="H1755" s="9"/>
       <c r="I1755"/>
-    </row>
-    <row r="1756" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1755" s="1" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1756">
         <v>1998</v>
       </c>
@@ -66579,8 +66791,11 @@
       </c>
       <c r="H1756" s="9"/>
       <c r="I1756"/>
-    </row>
-    <row r="1757" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1756" s="1" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1757">
         <v>1998</v>
       </c>
@@ -66601,8 +66816,11 @@
       </c>
       <c r="H1757" s="9"/>
       <c r="I1757"/>
-    </row>
-    <row r="1758" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1757" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1758">
         <v>1998</v>
       </c>
@@ -66623,8 +66841,11 @@
       </c>
       <c r="H1758" s="9"/>
       <c r="I1758"/>
-    </row>
-    <row r="1759" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1758" s="1" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1759">
         <v>1998</v>
       </c>
@@ -66645,8 +66866,11 @@
       </c>
       <c r="H1759" s="9"/>
       <c r="I1759"/>
-    </row>
-    <row r="1760" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1759" s="1" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1760">
         <v>1998</v>
       </c>
@@ -66667,8 +66891,11 @@
       </c>
       <c r="H1760" s="9"/>
       <c r="I1760"/>
-    </row>
-    <row r="1761" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1760" s="1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1761">
         <v>1998</v>
       </c>
@@ -66689,8 +66916,11 @@
       </c>
       <c r="H1761" s="9"/>
       <c r="I1761"/>
-    </row>
-    <row r="1762" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1761" s="1" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1762">
         <v>1998</v>
       </c>
@@ -66711,8 +66941,11 @@
       </c>
       <c r="H1762" s="9"/>
       <c r="I1762"/>
-    </row>
-    <row r="1763" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1762" s="1" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1763">
         <v>1998</v>
       </c>
@@ -66733,8 +66966,11 @@
       </c>
       <c r="H1763" s="9"/>
       <c r="I1763"/>
-    </row>
-    <row r="1764" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1763" s="1" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1764">
         <v>1998</v>
       </c>
@@ -66756,7 +66992,7 @@
       <c r="H1764" s="9"/>
       <c r="I1764"/>
     </row>
-    <row r="1765" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1765" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1765">
         <v>1998</v>
       </c>
@@ -66778,7 +67014,7 @@
       <c r="H1765" s="9"/>
       <c r="I1765"/>
     </row>
-    <row r="1766" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1766" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1766">
         <v>1998</v>
       </c>
@@ -66800,7 +67036,7 @@
       <c r="H1766" s="9"/>
       <c r="I1766"/>
     </row>
-    <row r="1767" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1767" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1767">
         <v>1998</v>
       </c>
@@ -66822,7 +67058,7 @@
       <c r="H1767" s="9"/>
       <c r="I1767"/>
     </row>
-    <row r="1768" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1768" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1768">
         <v>1998</v>
       </c>
@@ -66844,7 +67080,7 @@
       <c r="H1768" s="9"/>
       <c r="I1768"/>
     </row>
-    <row r="1769" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1769" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1769">
         <v>1998</v>
       </c>
@@ -66869,7 +67105,7 @@
       <c r="H1769" s="9"/>
       <c r="I1769"/>
     </row>
-    <row r="1770" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1770" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1770">
         <v>1998</v>
       </c>
@@ -66891,7 +67127,7 @@
       <c r="H1770" s="9"/>
       <c r="I1770"/>
     </row>
-    <row r="1771" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1771" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1771">
         <v>1998</v>
       </c>
@@ -66913,7 +67149,7 @@
       <c r="H1771" s="9"/>
       <c r="I1771"/>
     </row>
-    <row r="1772" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1772" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1772">
         <v>1998</v>
       </c>
@@ -66935,7 +67171,7 @@
       <c r="H1772" s="9"/>
       <c r="I1772"/>
     </row>
-    <row r="1773" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1773" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1773">
         <v>1998</v>
       </c>
@@ -66957,7 +67193,7 @@
       <c r="H1773" s="9"/>
       <c r="I1773"/>
     </row>
-    <row r="1774" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1774" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1774">
         <v>1998</v>
       </c>
@@ -66979,7 +67215,7 @@
       <c r="H1774" s="9"/>
       <c r="I1774"/>
     </row>
-    <row r="1775" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1775" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1775">
         <v>1998</v>
       </c>
@@ -67001,7 +67237,7 @@
       <c r="H1775" s="9"/>
       <c r="I1775"/>
     </row>
-    <row r="1776" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1776" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1776">
         <v>1998</v>
       </c>

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12656" uniqueCount="7124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12686" uniqueCount="7135">
   <si>
     <t>Year</t>
   </si>
@@ -21394,6 +21394,39 @@
   </si>
   <si>
     <t>Wrogie siły</t>
+  </si>
+  <si>
+    <t>Fatalne zauroczenie</t>
+  </si>
+  <si>
+    <t>Gliniarz z Beverly Hills II</t>
+  </si>
+  <si>
+    <t>Trzej mężczyźni i dziecko</t>
+  </si>
+  <si>
+    <t>Dirty Dancing - Wirujący sex</t>
+  </si>
+  <si>
+    <t>James Bond 007 - W obliczu śmierci</t>
+  </si>
+  <si>
+    <t>Wpływ księżyca</t>
+  </si>
+  <si>
+    <t>Tajemnica mojego sukcesu</t>
+  </si>
+  <si>
+    <t>Nietykalni</t>
+  </si>
+  <si>
+    <t>Zasadzka</t>
+  </si>
+  <si>
+    <t>Dziennik sierżanta Fridaya</t>
+  </si>
+  <si>
+    <t>Czarownice z Eastwick</t>
   </si>
 </sst>
 </file>
@@ -21852,11 +21885,11 @@
   <dimension ref="A1:P2441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G1006" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G1027" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="H1020" sqref="H1020"/>
+      <selection pane="bottomRight" activeCell="H1037" sqref="H1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48385,9 +48418,6 @@
       <c r="I1016" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1016" s="1" t="s">
-        <v>4255</v>
-      </c>
     </row>
     <row r="1017" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1017">
@@ -48414,9 +48444,6 @@
       <c r="I1017" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1017" s="1" t="s">
-        <v>1152</v>
-      </c>
     </row>
     <row r="1018" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1018">
@@ -48443,9 +48470,6 @@
       <c r="I1018" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1018" s="1" t="s">
-        <v>1155</v>
-      </c>
     </row>
     <row r="1019" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1019">
@@ -48472,9 +48496,6 @@
       <c r="I1019" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1019" s="1" t="s">
-        <v>1159</v>
-      </c>
     </row>
     <row r="1020" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1020">
@@ -48495,10 +48516,11 @@
       <c r="G1020" t="s">
         <v>5057</v>
       </c>
-      <c r="H1020" s="9"/>
-      <c r="I1020"/>
-      <c r="J1020" s="1" t="s">
-        <v>1163</v>
+      <c r="H1020" s="9" t="s">
+        <v>7124</v>
+      </c>
+      <c r="I1020" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1021" spans="1:10" x14ac:dyDescent="0.2">
@@ -48520,10 +48542,11 @@
       <c r="G1021" t="s">
         <v>5059</v>
       </c>
-      <c r="H1021" s="9"/>
-      <c r="I1021"/>
-      <c r="J1021" s="1" t="s">
-        <v>2736</v>
+      <c r="H1021" s="9" t="s">
+        <v>7125</v>
+      </c>
+      <c r="I1021" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1022" spans="1:10" x14ac:dyDescent="0.2">
@@ -48545,10 +48568,11 @@
       <c r="G1022" t="s">
         <v>5061</v>
       </c>
-      <c r="H1022" s="9"/>
-      <c r="I1022"/>
-      <c r="J1022" s="1" t="s">
-        <v>4262</v>
+      <c r="H1022" s="9" t="s">
+        <v>7126</v>
+      </c>
+      <c r="I1022" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1023" spans="1:10" x14ac:dyDescent="0.2">
@@ -48570,10 +48594,11 @@
       <c r="G1023" t="s">
         <v>5063</v>
       </c>
-      <c r="H1023" s="9"/>
-      <c r="I1023"/>
-      <c r="J1023" s="1" t="s">
-        <v>4263</v>
+      <c r="H1023" s="9" t="s">
+        <v>7127</v>
+      </c>
+      <c r="I1023" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1024" spans="1:10" x14ac:dyDescent="0.2">
@@ -48595,13 +48620,14 @@
       <c r="G1024" t="s">
         <v>5065</v>
       </c>
-      <c r="H1024" s="9"/>
-      <c r="I1024"/>
-      <c r="J1024" s="1" t="s">
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1024" s="9" t="s">
+        <v>7128</v>
+      </c>
+      <c r="I1024" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>1987</v>
       </c>
@@ -48620,13 +48646,14 @@
       <c r="G1025" t="s">
         <v>5067</v>
       </c>
-      <c r="H1025" s="9"/>
-      <c r="I1025"/>
-      <c r="J1025" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1025" s="9" t="s">
+        <v>5066</v>
+      </c>
+      <c r="I1025" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>1987</v>
       </c>
@@ -48648,12 +48675,11 @@
       <c r="H1026" s="1" t="s">
         <v>4261</v>
       </c>
-      <c r="I1026"/>
-      <c r="J1026" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1026" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>1987</v>
       </c>
@@ -48672,13 +48698,14 @@
       <c r="G1027" t="s">
         <v>5071</v>
       </c>
-      <c r="H1027" s="9"/>
-      <c r="I1027"/>
-      <c r="J1027" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1027" s="9" t="s">
+        <v>5070</v>
+      </c>
+      <c r="I1027" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>1987</v>
       </c>
@@ -48697,13 +48724,14 @@
       <c r="G1028" t="s">
         <v>5073</v>
       </c>
-      <c r="H1028" s="9"/>
-      <c r="I1028"/>
-      <c r="J1028" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1028" s="9" t="s">
+        <v>7129</v>
+      </c>
+      <c r="I1028" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>1987</v>
       </c>
@@ -48728,12 +48756,11 @@
       <c r="H1029" s="1" t="s">
         <v>4254</v>
       </c>
-      <c r="I1029"/>
-      <c r="J1029" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1029" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>1987</v>
       </c>
@@ -48752,13 +48779,14 @@
       <c r="G1030" t="s">
         <v>5076</v>
       </c>
-      <c r="H1030" s="9"/>
-      <c r="I1030"/>
-      <c r="J1030" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1030" s="9" t="s">
+        <v>7130</v>
+      </c>
+      <c r="I1030" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>1987</v>
       </c>
@@ -48777,13 +48805,14 @@
       <c r="G1031" t="s">
         <v>5078</v>
       </c>
-      <c r="H1031" s="9"/>
-      <c r="I1031"/>
-      <c r="J1031" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1031" s="9" t="s">
+        <v>7131</v>
+      </c>
+      <c r="I1031" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1032">
         <v>1987</v>
       </c>
@@ -48805,12 +48834,11 @@
       <c r="H1032" s="1" t="s">
         <v>4256</v>
       </c>
-      <c r="I1032"/>
-      <c r="J1032" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1032" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>1987</v>
       </c>
@@ -48832,12 +48860,11 @@
       <c r="H1033" s="1" t="s">
         <v>4258</v>
       </c>
-      <c r="I1033"/>
-      <c r="J1033" s="1" t="s">
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1033" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>1987</v>
       </c>
@@ -48856,13 +48883,14 @@
       <c r="G1034" t="s">
         <v>5083</v>
       </c>
-      <c r="H1034" s="9"/>
-      <c r="I1034"/>
-      <c r="J1034" s="1" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1034" s="9" t="s">
+        <v>7132</v>
+      </c>
+      <c r="I1034" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>1987</v>
       </c>
@@ -48881,13 +48909,14 @@
       <c r="G1035" t="s">
         <v>5085</v>
       </c>
-      <c r="H1035" s="9"/>
-      <c r="I1035"/>
-      <c r="J1035" s="1" t="s">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1035" s="9" t="s">
+        <v>7133</v>
+      </c>
+      <c r="I1035" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>1987</v>
       </c>
@@ -48906,13 +48935,14 @@
       <c r="G1036" t="s">
         <v>5088</v>
       </c>
-      <c r="H1036" s="9"/>
-      <c r="I1036"/>
-      <c r="J1036" s="1" t="s">
-        <v>4267</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1036" s="9" t="s">
+        <v>7134</v>
+      </c>
+      <c r="I1036" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>1987</v>
       </c>
@@ -48933,11 +48963,8 @@
       </c>
       <c r="H1037" s="9"/>
       <c r="I1037"/>
-      <c r="J1037" s="1" t="s">
-        <v>4268</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1038" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>1987</v>
       </c>
@@ -48958,11 +48985,8 @@
       </c>
       <c r="H1038" s="9"/>
       <c r="I1038"/>
-      <c r="J1038" s="1" t="s">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>1987</v>
       </c>
@@ -48983,11 +49007,8 @@
       </c>
       <c r="H1039" s="9"/>
       <c r="I1039"/>
-      <c r="J1039" s="1" t="s">
-        <v>4269</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1040" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>1987</v>
       </c>
@@ -49008,9 +49029,6 @@
       </c>
       <c r="H1040" s="9"/>
       <c r="I1040"/>
-      <c r="J1040" s="1" t="s">
-        <v>4270</v>
-      </c>
     </row>
     <row r="1041" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1041">
@@ -49035,9 +49053,6 @@
         <v>4260</v>
       </c>
       <c r="I1041"/>
-      <c r="J1041" s="1" t="s">
-        <v>4271</v>
-      </c>
     </row>
     <row r="1042" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1042">
@@ -49060,9 +49075,6 @@
       </c>
       <c r="H1042" s="9"/>
       <c r="I1042"/>
-      <c r="J1042" s="1" t="s">
-        <v>4272</v>
-      </c>
     </row>
     <row r="1043" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1043">
@@ -49085,9 +49097,6 @@
       </c>
       <c r="H1043" s="9"/>
       <c r="I1043"/>
-      <c r="J1043" s="1" t="s">
-        <v>4273</v>
-      </c>
     </row>
     <row r="1044" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1044">
@@ -49111,7 +49120,7 @@
       <c r="H1044" s="9"/>
       <c r="I1044"/>
       <c r="J1044" s="1" t="s">
-        <v>4274</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="1045" spans="1:10" x14ac:dyDescent="0.2">
@@ -49136,7 +49145,7 @@
       <c r="H1045" s="9"/>
       <c r="I1045"/>
       <c r="J1045" s="1" t="s">
-        <v>4275</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1046" spans="1:10" x14ac:dyDescent="0.2">
@@ -49161,7 +49170,7 @@
       <c r="H1046" s="9"/>
       <c r="I1046"/>
       <c r="J1046" s="1" t="s">
-        <v>1191</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1047" spans="1:10" x14ac:dyDescent="0.2">
@@ -49186,7 +49195,7 @@
       <c r="H1047" s="9"/>
       <c r="I1047"/>
       <c r="J1047" s="1" t="s">
-        <v>1195</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1048" spans="1:10" x14ac:dyDescent="0.2">
@@ -49211,7 +49220,7 @@
       <c r="H1048" s="9"/>
       <c r="I1048"/>
       <c r="J1048" s="1" t="s">
-        <v>1198</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1049" spans="1:10" x14ac:dyDescent="0.2">
@@ -49236,7 +49245,7 @@
       <c r="H1049" s="9"/>
       <c r="I1049"/>
       <c r="J1049" s="1" t="s">
-        <v>1201</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="1050" spans="1:10" x14ac:dyDescent="0.2">
@@ -49261,7 +49270,7 @@
       <c r="H1050" s="9"/>
       <c r="I1050"/>
       <c r="J1050" s="1" t="s">
-        <v>1205</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1051" spans="1:10" x14ac:dyDescent="0.2">
@@ -49286,7 +49295,7 @@
       <c r="H1051" s="9"/>
       <c r="I1051"/>
       <c r="J1051" s="1" t="s">
-        <v>4276</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="1052" spans="1:10" x14ac:dyDescent="0.2">
@@ -49311,7 +49320,7 @@
       <c r="H1052" s="9"/>
       <c r="I1052"/>
       <c r="J1052" s="1" t="s">
-        <v>4277</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1053" spans="1:10" x14ac:dyDescent="0.2">
@@ -49336,7 +49345,7 @@
       <c r="H1053" s="9"/>
       <c r="I1053"/>
       <c r="J1053" s="1" t="s">
-        <v>4278</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1054" spans="1:10" x14ac:dyDescent="0.2">
@@ -49361,7 +49370,7 @@
       <c r="H1054" s="9"/>
       <c r="I1054"/>
       <c r="J1054" s="1" t="s">
-        <v>4279</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1055" spans="1:10" x14ac:dyDescent="0.2">
@@ -49388,7 +49397,7 @@
       </c>
       <c r="I1055"/>
       <c r="J1055" s="1" t="s">
-        <v>4280</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1056" spans="1:10" x14ac:dyDescent="0.2">
@@ -49415,7 +49424,7 @@
       </c>
       <c r="I1056"/>
       <c r="J1056" s="1" t="s">
-        <v>4281</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1057" spans="1:10" x14ac:dyDescent="0.2">
@@ -49440,7 +49449,7 @@
       <c r="H1057" s="9"/>
       <c r="I1057"/>
       <c r="J1057" s="1" t="s">
-        <v>4282</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1058" spans="1:10" x14ac:dyDescent="0.2">
@@ -49465,7 +49474,7 @@
       <c r="H1058" s="9"/>
       <c r="I1058"/>
       <c r="J1058" s="1" t="s">
-        <v>4283</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1059" spans="1:10" x14ac:dyDescent="0.2">
@@ -49490,7 +49499,7 @@
       <c r="H1059" s="9"/>
       <c r="I1059"/>
       <c r="J1059" s="1" t="s">
-        <v>4284</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1060" spans="1:10" x14ac:dyDescent="0.2">
@@ -49515,7 +49524,7 @@
       <c r="H1060" s="9"/>
       <c r="I1060"/>
       <c r="J1060" s="1" t="s">
-        <v>4285</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1061" spans="1:10" x14ac:dyDescent="0.2">
@@ -49540,7 +49549,7 @@
       <c r="H1061" s="9"/>
       <c r="I1061"/>
       <c r="J1061" s="1" t="s">
-        <v>4286</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1062" spans="1:10" x14ac:dyDescent="0.2">
@@ -49565,7 +49574,7 @@
       <c r="H1062" s="9"/>
       <c r="I1062"/>
       <c r="J1062" s="1" t="s">
-        <v>4287</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1063" spans="1:10" x14ac:dyDescent="0.2">
@@ -49590,7 +49599,7 @@
       <c r="H1063" s="9"/>
       <c r="I1063"/>
       <c r="J1063" s="1" t="s">
-        <v>4288</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1064" spans="1:10" x14ac:dyDescent="0.2">
@@ -49615,7 +49624,7 @@
       <c r="H1064" s="9"/>
       <c r="I1064"/>
       <c r="J1064" s="1" t="s">
-        <v>4289</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="1065" spans="1:10" x14ac:dyDescent="0.2">
@@ -49640,7 +49649,7 @@
       <c r="H1065" s="9"/>
       <c r="I1065"/>
       <c r="J1065" s="1" t="s">
-        <v>4290</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1066" spans="1:10" x14ac:dyDescent="0.2">
@@ -49665,7 +49674,7 @@
       <c r="H1066" s="9"/>
       <c r="I1066"/>
       <c r="J1066" s="1" t="s">
-        <v>4291</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="1067" spans="1:10" x14ac:dyDescent="0.2">
@@ -49690,7 +49699,7 @@
       <c r="H1067" s="9"/>
       <c r="I1067"/>
       <c r="J1067" s="1" t="s">
-        <v>1209</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="1068" spans="1:10" x14ac:dyDescent="0.2">
@@ -49717,7 +49726,7 @@
       </c>
       <c r="I1068"/>
       <c r="J1068" s="1" t="s">
-        <v>4292</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1069" spans="1:10" x14ac:dyDescent="0.2">
@@ -49742,7 +49751,7 @@
       <c r="H1069" s="9"/>
       <c r="I1069"/>
       <c r="J1069" s="1" t="s">
-        <v>4293</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="1070" spans="1:10" x14ac:dyDescent="0.2">
@@ -49767,7 +49776,7 @@
       <c r="H1070" s="9"/>
       <c r="I1070"/>
       <c r="J1070" s="1" t="s">
-        <v>4294</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1071" spans="1:10" x14ac:dyDescent="0.2">
@@ -49792,7 +49801,7 @@
       <c r="H1071" s="9"/>
       <c r="I1071"/>
       <c r="J1071" s="1" t="s">
-        <v>4295</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="1072" spans="1:10" x14ac:dyDescent="0.2">
@@ -49817,7 +49826,7 @@
       <c r="H1072" s="9"/>
       <c r="I1072"/>
       <c r="J1072" s="1" t="s">
-        <v>4266</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1073" spans="1:10" x14ac:dyDescent="0.2">
@@ -49842,7 +49851,7 @@
       <c r="H1073" s="9"/>
       <c r="I1073"/>
       <c r="J1073" s="1" t="s">
-        <v>4296</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="1074" spans="1:10" x14ac:dyDescent="0.2">
@@ -49867,7 +49876,7 @@
       <c r="H1074" s="9"/>
       <c r="I1074"/>
       <c r="J1074" s="1" t="s">
-        <v>4297</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1075" spans="1:10" x14ac:dyDescent="0.2">
@@ -49892,7 +49901,7 @@
       <c r="H1075" s="9"/>
       <c r="I1075"/>
       <c r="J1075" s="1" t="s">
-        <v>4298</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1076" spans="1:10" x14ac:dyDescent="0.2">
@@ -49919,7 +49928,7 @@
       </c>
       <c r="I1076"/>
       <c r="J1076" s="1" t="s">
-        <v>4299</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1077" spans="1:10" x14ac:dyDescent="0.2">
@@ -49944,7 +49953,7 @@
       <c r="H1077" s="9"/>
       <c r="I1077"/>
       <c r="J1077" s="1" t="s">
-        <v>4300</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1078" spans="1:10" x14ac:dyDescent="0.2">
@@ -49969,7 +49978,7 @@
       <c r="H1078" s="9"/>
       <c r="I1078"/>
       <c r="J1078" s="1" t="s">
-        <v>4301</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1079" spans="1:10" x14ac:dyDescent="0.2">
@@ -49994,7 +50003,7 @@
       <c r="H1079" s="9"/>
       <c r="I1079"/>
       <c r="J1079" s="1" t="s">
-        <v>4302</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1080" spans="1:10" x14ac:dyDescent="0.2">
@@ -50019,7 +50028,7 @@
       <c r="H1080" s="9"/>
       <c r="I1080"/>
       <c r="J1080" s="1" t="s">
-        <v>4303</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="1081" spans="1:10" x14ac:dyDescent="0.2">
@@ -50044,7 +50053,7 @@
       <c r="H1081" s="9"/>
       <c r="I1081"/>
       <c r="J1081" s="1" t="s">
-        <v>4304</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.2">
@@ -50069,7 +50078,7 @@
       <c r="H1082" s="9"/>
       <c r="I1082"/>
       <c r="J1082" s="1" t="s">
-        <v>1212</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1083" spans="1:10" x14ac:dyDescent="0.2">
@@ -50094,7 +50103,7 @@
       <c r="H1083" s="9"/>
       <c r="I1083"/>
       <c r="J1083" s="1" t="s">
-        <v>1215</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1084" spans="1:10" x14ac:dyDescent="0.2">
@@ -50119,7 +50128,7 @@
       <c r="H1084" s="9"/>
       <c r="I1084"/>
       <c r="J1084" s="1" t="s">
-        <v>1220</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="1085" spans="1:10" x14ac:dyDescent="0.2">
@@ -50144,7 +50153,7 @@
       <c r="H1085" s="9"/>
       <c r="I1085"/>
       <c r="J1085" s="1" t="s">
-        <v>4305</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1086" spans="1:10" x14ac:dyDescent="0.2">
@@ -50169,7 +50178,7 @@
       <c r="H1086" s="9"/>
       <c r="I1086"/>
       <c r="J1086" s="1" t="s">
-        <v>4306</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="1087" spans="1:10" x14ac:dyDescent="0.2">
@@ -50194,7 +50203,7 @@
       <c r="H1087" s="9"/>
       <c r="I1087"/>
       <c r="J1087" s="1" t="s">
-        <v>4307</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1088" spans="1:10" x14ac:dyDescent="0.2">
@@ -50219,7 +50228,7 @@
       <c r="H1088" s="9"/>
       <c r="I1088"/>
       <c r="J1088" s="1" t="s">
-        <v>4308</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="1089" spans="1:10" x14ac:dyDescent="0.2">
@@ -50244,7 +50253,7 @@
       <c r="H1089" s="9"/>
       <c r="I1089"/>
       <c r="J1089" s="1" t="s">
-        <v>4266</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1090" spans="1:10" x14ac:dyDescent="0.2">
@@ -50269,7 +50278,7 @@
       <c r="H1090" s="9"/>
       <c r="I1090"/>
       <c r="J1090" s="1" t="s">
-        <v>4309</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="1091" spans="1:10" x14ac:dyDescent="0.2">
@@ -50294,7 +50303,7 @@
       <c r="H1091" s="9"/>
       <c r="I1091"/>
       <c r="J1091" s="1" t="s">
-        <v>4310</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1092" spans="1:10" x14ac:dyDescent="0.2">
@@ -50319,7 +50328,7 @@
       <c r="H1092" s="9"/>
       <c r="I1092"/>
       <c r="J1092" s="1" t="s">
-        <v>4311</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1093" spans="1:10" x14ac:dyDescent="0.2">
@@ -50344,7 +50353,7 @@
       <c r="H1093" s="9"/>
       <c r="I1093"/>
       <c r="J1093" s="1" t="s">
-        <v>4312</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1094" spans="1:10" x14ac:dyDescent="0.2">
@@ -50369,7 +50378,7 @@
       <c r="H1094" s="9"/>
       <c r="I1094"/>
       <c r="J1094" s="1" t="s">
-        <v>4313</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1095" spans="1:10" x14ac:dyDescent="0.2">
@@ -50394,7 +50403,7 @@
       <c r="H1095" s="9"/>
       <c r="I1095"/>
       <c r="J1095" s="1" t="s">
-        <v>4314</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1096" spans="1:10" x14ac:dyDescent="0.2">
@@ -50419,7 +50428,7 @@
       <c r="H1096" s="9"/>
       <c r="I1096"/>
       <c r="J1096" s="1" t="s">
-        <v>4315</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1097" spans="1:10" x14ac:dyDescent="0.2">
@@ -50444,7 +50453,7 @@
       <c r="H1097" s="9"/>
       <c r="I1097"/>
       <c r="J1097" s="1" t="s">
-        <v>4316</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="1098" spans="1:10" x14ac:dyDescent="0.2">
@@ -50469,7 +50478,7 @@
       <c r="H1098" s="9"/>
       <c r="I1098"/>
       <c r="J1098" s="1" t="s">
-        <v>4317</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1099" spans="1:10" x14ac:dyDescent="0.2">
@@ -50494,7 +50503,7 @@
       <c r="H1099" s="9"/>
       <c r="I1099"/>
       <c r="J1099" s="1" t="s">
-        <v>4318</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1100" spans="1:10" x14ac:dyDescent="0.2">
@@ -50519,7 +50528,7 @@
       <c r="H1100" s="9"/>
       <c r="I1100"/>
       <c r="J1100" s="1" t="s">
-        <v>4319</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1101" spans="1:10" x14ac:dyDescent="0.2">
@@ -50544,7 +50553,7 @@
       <c r="H1101" s="9"/>
       <c r="I1101"/>
       <c r="J1101" s="1" t="s">
-        <v>4320</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1102" spans="1:10" x14ac:dyDescent="0.2">
@@ -50569,7 +50578,7 @@
       <c r="H1102" s="9"/>
       <c r="I1102"/>
       <c r="J1102" s="1" t="s">
-        <v>4321</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1103" spans="1:10" x14ac:dyDescent="0.2">
@@ -50594,7 +50603,7 @@
       <c r="H1103" s="9"/>
       <c r="I1103"/>
       <c r="J1103" s="1" t="s">
-        <v>4322</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1104" spans="1:10" x14ac:dyDescent="0.2">
@@ -50619,7 +50628,7 @@
       <c r="H1104" s="9"/>
       <c r="I1104"/>
       <c r="J1104" s="1" t="s">
-        <v>1223</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1105" spans="1:10" x14ac:dyDescent="0.2">
@@ -50644,7 +50653,7 @@
       <c r="H1105" s="9"/>
       <c r="I1105"/>
       <c r="J1105" s="1" t="s">
-        <v>1226</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1106" spans="1:10" x14ac:dyDescent="0.2">
@@ -50669,7 +50678,7 @@
       <c r="H1106" s="9"/>
       <c r="I1106"/>
       <c r="J1106" s="1" t="s">
-        <v>230</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1107" spans="1:10" x14ac:dyDescent="0.2">
@@ -50694,7 +50703,7 @@
       <c r="H1107" s="9"/>
       <c r="I1107"/>
       <c r="J1107" s="1" t="s">
-        <v>4323</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.2">
@@ -50719,7 +50728,7 @@
       <c r="H1108" s="9"/>
       <c r="I1108"/>
       <c r="J1108" s="1" t="s">
-        <v>4324</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1109" spans="1:10" x14ac:dyDescent="0.2">
@@ -50744,7 +50753,7 @@
       <c r="H1109" s="9"/>
       <c r="I1109"/>
       <c r="J1109" s="1" t="s">
-        <v>4325</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.2">
@@ -50769,7 +50778,7 @@
       <c r="H1110" s="9"/>
       <c r="I1110"/>
       <c r="J1110" s="1" t="s">
-        <v>4326</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1111" spans="1:10" x14ac:dyDescent="0.2">
@@ -50794,7 +50803,7 @@
       <c r="H1111" s="9"/>
       <c r="I1111"/>
       <c r="J1111" s="1" t="s">
-        <v>4327</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1112" spans="1:10" x14ac:dyDescent="0.2">
@@ -50819,7 +50828,7 @@
       <c r="H1112" s="9"/>
       <c r="I1112"/>
       <c r="J1112" s="1" t="s">
-        <v>4328</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.2">
@@ -50844,7 +50853,7 @@
       <c r="H1113" s="9"/>
       <c r="I1113"/>
       <c r="J1113" s="1" t="s">
-        <v>4329</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1114" spans="1:10" x14ac:dyDescent="0.2">
@@ -50869,7 +50878,7 @@
       <c r="H1114" s="9"/>
       <c r="I1114"/>
       <c r="J1114" s="1" t="s">
-        <v>4330</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1115" spans="1:10" x14ac:dyDescent="0.2">
@@ -50894,7 +50903,7 @@
       <c r="H1115" s="9"/>
       <c r="I1115"/>
       <c r="J1115" s="1" t="s">
-        <v>4331</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1116" spans="1:10" x14ac:dyDescent="0.2">
@@ -50918,7 +50927,7 @@
       </c>
       <c r="H1116" s="9"/>
       <c r="J1116" s="1" t="s">
-        <v>4332</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1117" spans="1:10" x14ac:dyDescent="0.2">
@@ -50941,7 +50950,7 @@
         <v>2723</v>
       </c>
       <c r="J1117" s="1" t="s">
-        <v>4333</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1118" spans="1:10" x14ac:dyDescent="0.2">
@@ -50964,7 +50973,7 @@
         <v>2725</v>
       </c>
       <c r="J1118" s="1" t="s">
-        <v>4334</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1119" spans="1:10" x14ac:dyDescent="0.2">
@@ -50987,7 +50996,7 @@
         <v>2727</v>
       </c>
       <c r="J1119" s="1" t="s">
-        <v>4335</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1120" spans="1:10" x14ac:dyDescent="0.2">
@@ -51010,7 +51019,7 @@
         <v>2729</v>
       </c>
       <c r="J1120" s="1" t="s">
-        <v>4336</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1121" spans="1:10" x14ac:dyDescent="0.2">
@@ -51033,7 +51042,7 @@
         <v>2732</v>
       </c>
       <c r="J1121" s="1" t="s">
-        <v>1232</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1122" spans="1:10" x14ac:dyDescent="0.2">
@@ -51056,7 +51065,7 @@
         <v>2735</v>
       </c>
       <c r="J1122" s="1" t="s">
-        <v>1236</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1123" spans="1:10" x14ac:dyDescent="0.2">
@@ -51082,7 +51091,7 @@
         <v>2738</v>
       </c>
       <c r="J1123" s="1" t="s">
-        <v>56</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1124" spans="1:10" x14ac:dyDescent="0.2">
@@ -51105,7 +51114,7 @@
         <v>2741</v>
       </c>
       <c r="J1124" s="1" t="s">
-        <v>1240</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1125" spans="1:10" x14ac:dyDescent="0.2">
@@ -51128,7 +51137,7 @@
         <v>2743</v>
       </c>
       <c r="J1125" s="1" t="s">
-        <v>4337</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1126" spans="1:10" x14ac:dyDescent="0.2">
@@ -51151,7 +51160,7 @@
         <v>2745</v>
       </c>
       <c r="J1126" s="1" t="s">
-        <v>4307</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1127" spans="1:10" x14ac:dyDescent="0.2">
@@ -51174,7 +51183,7 @@
         <v>2747</v>
       </c>
       <c r="J1127" s="1" t="s">
-        <v>4338</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1128" spans="1:10" x14ac:dyDescent="0.2">
@@ -51197,7 +51206,7 @@
         <v>2749</v>
       </c>
       <c r="J1128" s="1" t="s">
-        <v>4339</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="1129" spans="1:10" x14ac:dyDescent="0.2">
@@ -51220,7 +51229,7 @@
         <v>2752</v>
       </c>
       <c r="J1129" s="1" t="s">
-        <v>4340</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1130" spans="1:10" x14ac:dyDescent="0.2">
@@ -51243,7 +51252,7 @@
         <v>2754</v>
       </c>
       <c r="J1130" s="1" t="s">
-        <v>4341</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="1131" spans="1:10" x14ac:dyDescent="0.2">
@@ -51266,7 +51275,7 @@
         <v>2756</v>
       </c>
       <c r="J1131" s="1" t="s">
-        <v>4342</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1132" spans="1:10" x14ac:dyDescent="0.2">
@@ -51289,7 +51298,7 @@
         <v>2759</v>
       </c>
       <c r="J1132" s="1" t="s">
-        <v>4343</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1133" spans="1:10" x14ac:dyDescent="0.2">
@@ -51312,7 +51321,7 @@
         <v>2761</v>
       </c>
       <c r="J1133" s="1" t="s">
-        <v>4344</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1134" spans="1:10" x14ac:dyDescent="0.2">
@@ -51335,7 +51344,7 @@
         <v>2763</v>
       </c>
       <c r="J1134" s="1" t="s">
-        <v>4345</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1135" spans="1:10" x14ac:dyDescent="0.2">
@@ -51358,7 +51367,7 @@
         <v>2765</v>
       </c>
       <c r="J1135" s="1" t="s">
-        <v>4346</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1136" spans="1:10" x14ac:dyDescent="0.2">
@@ -51381,7 +51390,7 @@
         <v>2768</v>
       </c>
       <c r="J1136" s="1" t="s">
-        <v>4347</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1137" spans="1:10" x14ac:dyDescent="0.2">
@@ -51404,7 +51413,7 @@
         <v>2771</v>
       </c>
       <c r="J1137" s="1" t="s">
-        <v>4348</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="1138" spans="1:10" x14ac:dyDescent="0.2">
@@ -51427,7 +51436,7 @@
         <v>2774</v>
       </c>
       <c r="J1138" s="1" t="s">
-        <v>4349</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1139" spans="1:10" x14ac:dyDescent="0.2">
@@ -51450,7 +51459,7 @@
         <v>2777</v>
       </c>
       <c r="J1139" s="1" t="s">
-        <v>4350</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="1140" spans="1:10" x14ac:dyDescent="0.2">
@@ -51473,7 +51482,7 @@
         <v>2779</v>
       </c>
       <c r="J1140" s="1" t="s">
-        <v>4351</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1141" spans="1:10" x14ac:dyDescent="0.2">
@@ -51496,7 +51505,7 @@
         <v>2781</v>
       </c>
       <c r="J1141" s="1" t="s">
-        <v>4352</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="1142" spans="1:10" x14ac:dyDescent="0.2">
@@ -51519,7 +51528,7 @@
         <v>2783</v>
       </c>
       <c r="J1142" s="1" t="s">
-        <v>4353</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1143" spans="1:10" x14ac:dyDescent="0.2">
@@ -51542,7 +51551,7 @@
         <v>2785</v>
       </c>
       <c r="J1143" s="1" t="s">
-        <v>4354</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1144" spans="1:10" x14ac:dyDescent="0.2">
@@ -51565,7 +51574,7 @@
         <v>2787</v>
       </c>
       <c r="J1144" s="1" t="s">
-        <v>4355</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1145" spans="1:10" x14ac:dyDescent="0.2">
@@ -51588,7 +51597,7 @@
         <v>2790</v>
       </c>
       <c r="J1145" s="1" t="s">
-        <v>1244</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="1146" spans="1:10" x14ac:dyDescent="0.2">
@@ -51611,7 +51620,7 @@
         <v>2793</v>
       </c>
       <c r="J1146" s="1" t="s">
-        <v>1248</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1147" spans="1:10" x14ac:dyDescent="0.2">
@@ -51634,7 +51643,7 @@
         <v>2795</v>
       </c>
       <c r="J1147" s="1" t="s">
-        <v>1251</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1148" spans="1:10" x14ac:dyDescent="0.2">
@@ -51657,7 +51666,7 @@
         <v>2798</v>
       </c>
       <c r="J1148" s="1" t="s">
-        <v>1256</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1149" spans="1:10" x14ac:dyDescent="0.2">
@@ -51680,7 +51689,7 @@
         <v>2800</v>
       </c>
       <c r="J1149" s="1" t="s">
-        <v>4356</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1150" spans="1:10" x14ac:dyDescent="0.2">
@@ -51703,7 +51712,7 @@
         <v>2802</v>
       </c>
       <c r="J1150" s="1" t="s">
-        <v>4357</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1151" spans="1:10" x14ac:dyDescent="0.2">
@@ -51726,7 +51735,7 @@
         <v>2805</v>
       </c>
       <c r="J1151" s="1" t="s">
-        <v>4358</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1152" spans="1:10" x14ac:dyDescent="0.2">
@@ -51749,7 +51758,7 @@
         <v>2806</v>
       </c>
       <c r="J1152" s="1" t="s">
-        <v>4359</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1153" spans="1:10" x14ac:dyDescent="0.2">
@@ -51772,7 +51781,7 @@
         <v>2808</v>
       </c>
       <c r="J1153" s="1" t="s">
-        <v>4360</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1154" spans="1:10" x14ac:dyDescent="0.2">
@@ -51795,7 +51804,7 @@
         <v>2810</v>
       </c>
       <c r="J1154" s="1" t="s">
-        <v>4361</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1155" spans="1:10" x14ac:dyDescent="0.2">
@@ -51818,7 +51827,7 @@
         <v>2813</v>
       </c>
       <c r="J1155" s="1" t="s">
-        <v>4362</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1156" spans="1:10" x14ac:dyDescent="0.2">
@@ -51841,7 +51850,7 @@
         <v>2816</v>
       </c>
       <c r="J1156" s="1" t="s">
-        <v>4363</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1157" spans="1:10" x14ac:dyDescent="0.2">
@@ -51864,7 +51873,7 @@
         <v>2818</v>
       </c>
       <c r="J1157" s="1" t="s">
-        <v>1258</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1158" spans="1:10" x14ac:dyDescent="0.2">
@@ -51887,7 +51896,7 @@
         <v>2820</v>
       </c>
       <c r="J1158" s="1" t="s">
-        <v>1262</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1159" spans="1:10" x14ac:dyDescent="0.2">
@@ -51910,7 +51919,7 @@
         <v>2822</v>
       </c>
       <c r="J1159" s="1" t="s">
-        <v>1265</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1160" spans="1:10" x14ac:dyDescent="0.2">
@@ -51933,7 +51942,7 @@
         <v>2824</v>
       </c>
       <c r="J1160" s="1" t="s">
-        <v>1269</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1161" spans="1:10" x14ac:dyDescent="0.2">
@@ -51956,7 +51965,7 @@
         <v>2826</v>
       </c>
       <c r="J1161" s="1" t="s">
-        <v>1272</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1162" spans="1:10" x14ac:dyDescent="0.2">
@@ -51979,7 +51988,7 @@
         <v>2829</v>
       </c>
       <c r="J1162" s="1" t="s">
-        <v>1275</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1163" spans="1:10" x14ac:dyDescent="0.2">
@@ -52002,7 +52011,7 @@
         <v>2831</v>
       </c>
       <c r="J1163" s="1" t="s">
-        <v>4364</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1164" spans="1:10" x14ac:dyDescent="0.2">
@@ -52025,7 +52034,7 @@
         <v>2833</v>
       </c>
       <c r="J1164" s="1" t="s">
-        <v>4365</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1165" spans="1:10" x14ac:dyDescent="0.2">
@@ -52048,7 +52057,7 @@
         <v>2835</v>
       </c>
       <c r="J1165" s="1" t="s">
-        <v>4366</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1166" spans="1:10" x14ac:dyDescent="0.2">
@@ -52071,7 +52080,7 @@
         <v>2838</v>
       </c>
       <c r="J1166" s="1" t="s">
-        <v>4307</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1167" spans="1:10" x14ac:dyDescent="0.2">
@@ -52094,7 +52103,7 @@
         <v>2841</v>
       </c>
       <c r="J1167" s="1" t="s">
-        <v>4367</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1168" spans="1:10" x14ac:dyDescent="0.2">
@@ -52117,7 +52126,7 @@
         <v>2843</v>
       </c>
       <c r="J1168" s="1" t="s">
-        <v>4368</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1169" spans="1:10" x14ac:dyDescent="0.2">
@@ -52143,7 +52152,7 @@
         <v>2847</v>
       </c>
       <c r="J1169" s="1" t="s">
-        <v>4369</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1170" spans="1:10" x14ac:dyDescent="0.2">
@@ -52166,7 +52175,7 @@
         <v>2849</v>
       </c>
       <c r="J1170" s="1" t="s">
-        <v>4370</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1171" spans="1:10" x14ac:dyDescent="0.2">
@@ -52189,7 +52198,7 @@
         <v>2852</v>
       </c>
       <c r="J1171" s="1" t="s">
-        <v>4371</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1172" spans="1:10" x14ac:dyDescent="0.2">
@@ -52212,7 +52221,7 @@
         <v>2854</v>
       </c>
       <c r="J1172" s="1" t="s">
-        <v>4372</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1173" spans="1:10" x14ac:dyDescent="0.2">
@@ -52235,7 +52244,7 @@
         <v>2856</v>
       </c>
       <c r="J1173" s="1" t="s">
-        <v>4373</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1174" spans="1:10" x14ac:dyDescent="0.2">
@@ -52258,7 +52267,7 @@
         <v>2858</v>
       </c>
       <c r="J1174" s="1" t="s">
-        <v>4374</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1175" spans="1:10" x14ac:dyDescent="0.2">
@@ -52281,7 +52290,7 @@
         <v>2860</v>
       </c>
       <c r="J1175" s="1" t="s">
-        <v>4375</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1176" spans="1:10" x14ac:dyDescent="0.2">
@@ -52307,7 +52316,7 @@
         <v>2862</v>
       </c>
       <c r="J1176" s="1" t="s">
-        <v>4376</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1177" spans="1:10" x14ac:dyDescent="0.2">
@@ -52330,7 +52339,7 @@
         <v>2864</v>
       </c>
       <c r="J1177" s="1" t="s">
-        <v>4377</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1178" spans="1:10" x14ac:dyDescent="0.2">
@@ -52353,7 +52362,7 @@
         <v>2866</v>
       </c>
       <c r="J1178" s="1" t="s">
-        <v>1279</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1179" spans="1:10" x14ac:dyDescent="0.2">
@@ -52376,7 +52385,7 @@
         <v>2868</v>
       </c>
       <c r="J1179" s="1" t="s">
-        <v>1283</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1180" spans="1:10" x14ac:dyDescent="0.2">
@@ -52399,7 +52408,7 @@
         <v>2870</v>
       </c>
       <c r="J1180" s="1" t="s">
-        <v>639</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1181" spans="1:10" x14ac:dyDescent="0.2">
@@ -52422,7 +52431,7 @@
         <v>2872</v>
       </c>
       <c r="J1181" s="1" t="s">
-        <v>1290</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1182" spans="1:10" x14ac:dyDescent="0.2">
@@ -52445,7 +52454,7 @@
         <v>2874</v>
       </c>
       <c r="J1182" s="1" t="s">
-        <v>1294</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1183" spans="1:10" x14ac:dyDescent="0.2">
@@ -52468,7 +52477,7 @@
         <v>2877</v>
       </c>
       <c r="J1183" s="1" t="s">
-        <v>1297</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1184" spans="1:10" x14ac:dyDescent="0.2">
@@ -52494,7 +52503,7 @@
         <v>2879</v>
       </c>
       <c r="J1184" s="1" t="s">
-        <v>18</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1185" spans="1:10" x14ac:dyDescent="0.2">
@@ -52517,7 +52526,7 @@
         <v>2881</v>
       </c>
       <c r="J1185" s="1" t="s">
-        <v>4378</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1186" spans="1:10" x14ac:dyDescent="0.2">
@@ -52540,7 +52549,7 @@
         <v>2883</v>
       </c>
       <c r="J1186" s="1" t="s">
-        <v>4379</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1187" spans="1:10" x14ac:dyDescent="0.2">
@@ -52563,7 +52572,7 @@
         <v>2886</v>
       </c>
       <c r="J1187" s="1" t="s">
-        <v>4380</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1188" spans="1:10" x14ac:dyDescent="0.2">
@@ -52586,7 +52595,7 @@
         <v>2888</v>
       </c>
       <c r="J1188" s="1" t="s">
-        <v>4381</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1189" spans="1:10" x14ac:dyDescent="0.2">
@@ -52609,7 +52618,7 @@
         <v>2890</v>
       </c>
       <c r="J1189" s="1" t="s">
-        <v>4382</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1190" spans="1:10" x14ac:dyDescent="0.2">
@@ -52632,7 +52641,7 @@
         <v>2892</v>
       </c>
       <c r="J1190" s="1" t="s">
-        <v>4383</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1191" spans="1:10" x14ac:dyDescent="0.2">
@@ -52655,7 +52664,7 @@
         <v>2895</v>
       </c>
       <c r="J1191" s="1" t="s">
-        <v>4384</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1192" spans="1:10" x14ac:dyDescent="0.2">
@@ -52678,7 +52687,7 @@
         <v>2897</v>
       </c>
       <c r="J1192" s="1" t="s">
-        <v>4385</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1193" spans="1:10" x14ac:dyDescent="0.2">
@@ -52701,7 +52710,7 @@
         <v>2899</v>
       </c>
       <c r="J1193" s="1" t="s">
-        <v>4386</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1194" spans="1:10" x14ac:dyDescent="0.2">
@@ -52724,7 +52733,7 @@
         <v>2901</v>
       </c>
       <c r="J1194" s="1" t="s">
-        <v>4387</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1195" spans="1:10" x14ac:dyDescent="0.2">
@@ -52747,7 +52756,7 @@
         <v>2904</v>
       </c>
       <c r="J1195" s="1" t="s">
-        <v>4388</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1196" spans="1:10" x14ac:dyDescent="0.2">
@@ -52770,7 +52779,7 @@
         <v>2906</v>
       </c>
       <c r="J1196" s="1" t="s">
-        <v>4389</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1197" spans="1:10" x14ac:dyDescent="0.2">
@@ -52793,7 +52802,7 @@
         <v>2908</v>
       </c>
       <c r="J1197" s="1" t="s">
-        <v>4390</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1198" spans="1:10" x14ac:dyDescent="0.2">
@@ -52816,7 +52825,7 @@
         <v>2910</v>
       </c>
       <c r="J1198" s="1" t="s">
-        <v>4391</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1199" spans="1:10" x14ac:dyDescent="0.2">
@@ -52839,7 +52848,7 @@
         <v>2912</v>
       </c>
       <c r="J1199" s="1" t="s">
-        <v>4392</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1200" spans="1:10" x14ac:dyDescent="0.2">
@@ -52862,7 +52871,7 @@
         <v>2914</v>
       </c>
       <c r="J1200" s="1" t="s">
-        <v>4393</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1201" spans="1:10" x14ac:dyDescent="0.2">
@@ -52885,7 +52894,7 @@
         <v>2917</v>
       </c>
       <c r="J1201" s="1" t="s">
-        <v>4394</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1202" spans="1:10" x14ac:dyDescent="0.2">
@@ -52908,7 +52917,7 @@
         <v>2920</v>
       </c>
       <c r="J1202" s="1" t="s">
-        <v>4395</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1203" spans="1:10" x14ac:dyDescent="0.2">
@@ -52931,7 +52940,7 @@
         <v>2923</v>
       </c>
       <c r="J1203" s="1" t="s">
-        <v>4396</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1204" spans="1:10" x14ac:dyDescent="0.2">
@@ -52954,7 +52963,7 @@
         <v>2925</v>
       </c>
       <c r="J1204" s="1" t="s">
-        <v>4397</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1205" spans="1:10" x14ac:dyDescent="0.2">
@@ -52977,7 +52986,7 @@
         <v>2927</v>
       </c>
       <c r="J1205" s="1" t="s">
-        <v>1301</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1206" spans="1:10" x14ac:dyDescent="0.2">
@@ -53000,7 +53009,7 @@
         <v>2929</v>
       </c>
       <c r="J1206" s="1" t="s">
-        <v>4398</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1207" spans="1:10" x14ac:dyDescent="0.2">
@@ -53023,7 +53032,7 @@
         <v>2932</v>
       </c>
       <c r="J1207" s="1" t="s">
-        <v>4307</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1208" spans="1:10" x14ac:dyDescent="0.2">
@@ -53046,7 +53055,7 @@
         <v>5265</v>
       </c>
       <c r="J1208" s="1" t="s">
-        <v>4399</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1209" spans="1:10" x14ac:dyDescent="0.2">
@@ -53069,7 +53078,7 @@
         <v>5267</v>
       </c>
       <c r="J1209" s="1" t="s">
-        <v>4400</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1210" spans="1:10" x14ac:dyDescent="0.2">
@@ -53092,7 +53101,7 @@
         <v>5269</v>
       </c>
       <c r="J1210" s="1" t="s">
-        <v>4401</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1211" spans="1:10" x14ac:dyDescent="0.2">
@@ -53115,7 +53124,7 @@
         <v>5272</v>
       </c>
       <c r="J1211" s="1" t="s">
-        <v>4402</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1212" spans="1:10" x14ac:dyDescent="0.2">
@@ -53138,7 +53147,7 @@
         <v>5274</v>
       </c>
       <c r="J1212" s="1" t="s">
-        <v>4403</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1213" spans="1:10" x14ac:dyDescent="0.2">
@@ -53161,7 +53170,7 @@
         <v>5276</v>
       </c>
       <c r="J1213" s="1" t="s">
-        <v>4404</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1214" spans="1:10" x14ac:dyDescent="0.2">
@@ -53184,7 +53193,7 @@
         <v>5278</v>
       </c>
       <c r="J1214" s="1" t="s">
-        <v>4405</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1215" spans="1:10" x14ac:dyDescent="0.2">
@@ -53207,7 +53216,7 @@
         <v>5280</v>
       </c>
       <c r="J1215" s="1" t="s">
-        <v>4406</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1216" spans="1:10" x14ac:dyDescent="0.2">
@@ -53230,7 +53239,7 @@
         <v>5281</v>
       </c>
       <c r="J1216" s="1" t="s">
-        <v>4407</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1217" spans="1:10" x14ac:dyDescent="0.2">
@@ -53253,7 +53262,7 @@
         <v>5283</v>
       </c>
       <c r="J1217" s="1" t="s">
-        <v>4408</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1218" spans="1:10" x14ac:dyDescent="0.2">
@@ -53276,7 +53285,7 @@
         <v>5285</v>
       </c>
       <c r="J1218" s="1" t="s">
-        <v>4409</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1219" spans="1:10" x14ac:dyDescent="0.2">
@@ -53302,7 +53311,7 @@
         <v>5287</v>
       </c>
       <c r="J1219" s="1" t="s">
-        <v>4410</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1220" spans="1:10" x14ac:dyDescent="0.2">
@@ -53325,7 +53334,7 @@
         <v>5289</v>
       </c>
       <c r="J1220" s="1" t="s">
-        <v>4411</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1221" spans="1:10" x14ac:dyDescent="0.2">
@@ -53348,7 +53357,7 @@
         <v>5290</v>
       </c>
       <c r="J1221" s="1" t="s">
-        <v>4412</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1222" spans="1:10" x14ac:dyDescent="0.2">
@@ -53371,7 +53380,7 @@
         <v>5292</v>
       </c>
       <c r="J1222" s="1" t="s">
-        <v>4413</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1223" spans="1:10" x14ac:dyDescent="0.2">
@@ -53394,7 +53403,7 @@
         <v>5294</v>
       </c>
       <c r="J1223" s="1" t="s">
-        <v>1304</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1224" spans="1:10" x14ac:dyDescent="0.2">
@@ -53417,7 +53426,7 @@
         <v>5296</v>
       </c>
       <c r="J1224" s="1" t="s">
-        <v>1307</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1225" spans="1:10" x14ac:dyDescent="0.2">
@@ -53440,7 +53449,7 @@
         <v>5297</v>
       </c>
       <c r="J1225" s="1" t="s">
-        <v>1310</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1226" spans="1:10" x14ac:dyDescent="0.2">
@@ -53463,7 +53472,7 @@
         <v>5299</v>
       </c>
       <c r="J1226" s="1" t="s">
-        <v>4414</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1227" spans="1:10" x14ac:dyDescent="0.2">
@@ -53486,7 +53495,7 @@
         <v>5302</v>
       </c>
       <c r="J1227" s="1" t="s">
-        <v>4415</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1228" spans="1:10" x14ac:dyDescent="0.2">
@@ -53509,7 +53518,7 @@
         <v>5304</v>
       </c>
       <c r="J1228" s="1" t="s">
-        <v>4416</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1229" spans="1:10" x14ac:dyDescent="0.2">
@@ -53532,7 +53541,7 @@
         <v>5307</v>
       </c>
       <c r="J1229" s="1" t="s">
-        <v>4417</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1230" spans="1:10" x14ac:dyDescent="0.2">
@@ -53555,7 +53564,7 @@
         <v>5309</v>
       </c>
       <c r="J1230" s="1" t="s">
-        <v>4418</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1231" spans="1:10" x14ac:dyDescent="0.2">
@@ -53578,7 +53587,7 @@
         <v>5311</v>
       </c>
       <c r="J1231" s="1" t="s">
-        <v>4419</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1232" spans="1:10" x14ac:dyDescent="0.2">
@@ -53601,7 +53610,7 @@
         <v>5313</v>
       </c>
       <c r="J1232" s="1" t="s">
-        <v>4420</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1233" spans="1:10" x14ac:dyDescent="0.2">
@@ -53624,7 +53633,7 @@
         <v>5315</v>
       </c>
       <c r="J1233" s="1" t="s">
-        <v>4421</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1234" spans="1:10" x14ac:dyDescent="0.2">
@@ -53647,7 +53656,7 @@
         <v>5317</v>
       </c>
       <c r="J1234" s="1" t="s">
-        <v>4422</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1235" spans="1:10" x14ac:dyDescent="0.2">
@@ -53670,7 +53679,7 @@
         <v>5319</v>
       </c>
       <c r="J1235" s="1" t="s">
-        <v>4423</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1236" spans="1:10" x14ac:dyDescent="0.2">
@@ -53693,7 +53702,7 @@
         <v>5320</v>
       </c>
       <c r="J1236" s="1" t="s">
-        <v>4424</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1237" spans="1:10" x14ac:dyDescent="0.2">
@@ -53716,7 +53725,7 @@
         <v>5322</v>
       </c>
       <c r="J1237" s="1" t="s">
-        <v>4425</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1238" spans="1:10" x14ac:dyDescent="0.2">
@@ -53739,7 +53748,7 @@
         <v>5324</v>
       </c>
       <c r="J1238" s="1" t="s">
-        <v>4426</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1239" spans="1:10" x14ac:dyDescent="0.2">
@@ -53762,7 +53771,7 @@
         <v>5326</v>
       </c>
       <c r="J1239" s="1" t="s">
-        <v>4427</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1240" spans="1:10" x14ac:dyDescent="0.2">
@@ -53785,7 +53794,7 @@
         <v>5328</v>
       </c>
       <c r="J1240" s="1" t="s">
-        <v>4428</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1241" spans="1:10" x14ac:dyDescent="0.2">
@@ -53808,7 +53817,7 @@
         <v>5330</v>
       </c>
       <c r="J1241" s="1" t="s">
-        <v>4429</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1242" spans="1:10" x14ac:dyDescent="0.2">
@@ -53831,7 +53840,7 @@
         <v>5332</v>
       </c>
       <c r="J1242" s="1" t="s">
-        <v>1313</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="1243" spans="1:10" x14ac:dyDescent="0.2">
@@ -53854,7 +53863,7 @@
         <v>5335</v>
       </c>
       <c r="J1243" s="1" t="s">
-        <v>1316</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1244" spans="1:10" x14ac:dyDescent="0.2">
@@ -53880,7 +53889,7 @@
         <v>5336</v>
       </c>
       <c r="J1244" s="1" t="s">
-        <v>1320</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="1245" spans="1:10" x14ac:dyDescent="0.2">
@@ -53903,7 +53912,7 @@
         <v>5338</v>
       </c>
       <c r="J1245" s="1" t="s">
-        <v>1323</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1246" spans="1:10" x14ac:dyDescent="0.2">
@@ -53926,7 +53935,7 @@
         <v>5340</v>
       </c>
       <c r="J1246" s="1" t="s">
-        <v>1326</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1247" spans="1:10" x14ac:dyDescent="0.2">
@@ -53949,7 +53958,7 @@
         <v>5343</v>
       </c>
       <c r="J1247" s="1" t="s">
-        <v>4430</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1248" spans="1:10" x14ac:dyDescent="0.2">
@@ -53972,7 +53981,7 @@
         <v>5345</v>
       </c>
       <c r="J1248" s="1" t="s">
-        <v>4431</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="1249" spans="1:10" x14ac:dyDescent="0.2">
@@ -53995,7 +54004,7 @@
         <v>5347</v>
       </c>
       <c r="J1249" s="1" t="s">
-        <v>4432</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1250" spans="1:10" x14ac:dyDescent="0.2">
@@ -54018,7 +54027,7 @@
         <v>5350</v>
       </c>
       <c r="J1250" s="1" t="s">
-        <v>4433</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="1251" spans="1:10" x14ac:dyDescent="0.2">
@@ -54041,7 +54050,7 @@
         <v>5352</v>
       </c>
       <c r="J1251" s="1" t="s">
-        <v>4434</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1252" spans="1:10" x14ac:dyDescent="0.2">
@@ -54064,7 +54073,7 @@
         <v>5354</v>
       </c>
       <c r="J1252" s="1" t="s">
-        <v>4435</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1253" spans="1:10" x14ac:dyDescent="0.2">
@@ -54087,7 +54096,7 @@
         <v>5356</v>
       </c>
       <c r="J1253" s="1" t="s">
-        <v>4436</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1254" spans="1:10" x14ac:dyDescent="0.2">
@@ -54110,7 +54119,7 @@
         <v>5358</v>
       </c>
       <c r="J1254" s="1" t="s">
-        <v>4437</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1255" spans="1:10" x14ac:dyDescent="0.2">
@@ -54133,7 +54142,7 @@
         <v>5360</v>
       </c>
       <c r="J1255" s="1" t="s">
-        <v>4438</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="1256" spans="1:10" x14ac:dyDescent="0.2">
@@ -54156,7 +54165,7 @@
         <v>5362</v>
       </c>
       <c r="J1256" s="1" t="s">
-        <v>4439</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1257" spans="1:10" x14ac:dyDescent="0.2">
@@ -54179,7 +54188,7 @@
         <v>5363</v>
       </c>
       <c r="J1257" s="1" t="s">
-        <v>4440</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1258" spans="1:10" x14ac:dyDescent="0.2">
@@ -54202,7 +54211,7 @@
         <v>5366</v>
       </c>
       <c r="J1258" s="1" t="s">
-        <v>4441</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1259" spans="1:10" x14ac:dyDescent="0.2">
@@ -54226,7 +54235,7 @@
       </c>
       <c r="I1259"/>
       <c r="J1259" s="1" t="s">
-        <v>1330</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="1260" spans="1:10" x14ac:dyDescent="0.2">
@@ -54251,7 +54260,7 @@
       <c r="H1260" s="9"/>
       <c r="I1260"/>
       <c r="J1260" s="1" t="s">
-        <v>1334</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1261" spans="1:10" x14ac:dyDescent="0.2">
@@ -54276,7 +54285,7 @@
       <c r="H1261" s="9"/>
       <c r="I1261"/>
       <c r="J1261" s="1" t="s">
-        <v>1338</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="1262" spans="1:10" x14ac:dyDescent="0.2">
@@ -54301,7 +54310,7 @@
       <c r="H1262" s="9"/>
       <c r="I1262"/>
       <c r="J1262" s="1" t="s">
-        <v>1341</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1263" spans="1:10" x14ac:dyDescent="0.2">
@@ -54326,7 +54335,7 @@
       <c r="H1263" s="9"/>
       <c r="I1263"/>
       <c r="J1263" s="1" t="s">
-        <v>1344</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1264" spans="1:10" x14ac:dyDescent="0.2">
@@ -54351,7 +54360,7 @@
       <c r="H1264" s="9"/>
       <c r="I1264"/>
       <c r="J1264" s="1" t="s">
-        <v>1347</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1265" spans="1:10" x14ac:dyDescent="0.2">
@@ -54376,7 +54385,7 @@
       <c r="H1265" s="9"/>
       <c r="I1265"/>
       <c r="J1265" s="1" t="s">
-        <v>1351</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="1266" spans="1:10" x14ac:dyDescent="0.2">
@@ -54401,7 +54410,7 @@
       <c r="H1266" s="9"/>
       <c r="I1266"/>
       <c r="J1266" s="1" t="s">
-        <v>1354</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1267" spans="1:10" x14ac:dyDescent="0.2">
@@ -54426,7 +54435,7 @@
       <c r="H1267" s="9"/>
       <c r="I1267"/>
       <c r="J1267" s="1" t="s">
-        <v>1357</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1268" spans="1:10" x14ac:dyDescent="0.2">
@@ -54451,7 +54460,7 @@
       <c r="H1268" s="9"/>
       <c r="I1268"/>
       <c r="J1268" s="1" t="s">
-        <v>1360</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1269" spans="1:10" x14ac:dyDescent="0.2">
@@ -54476,7 +54485,7 @@
       <c r="H1269" s="9"/>
       <c r="I1269"/>
       <c r="J1269" s="1" t="s">
-        <v>1365</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1270" spans="1:10" x14ac:dyDescent="0.2">
@@ -54501,7 +54510,7 @@
       <c r="H1270" s="9"/>
       <c r="I1270"/>
       <c r="J1270" s="1" t="s">
-        <v>1368</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1271" spans="1:10" x14ac:dyDescent="0.2">
@@ -54526,7 +54535,7 @@
       <c r="H1271" s="9"/>
       <c r="I1271"/>
       <c r="J1271" s="1" t="s">
-        <v>1371</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1272" spans="1:10" x14ac:dyDescent="0.2">
@@ -54551,7 +54560,7 @@
       <c r="H1272" s="9"/>
       <c r="I1272"/>
       <c r="J1272" s="1" t="s">
-        <v>1375</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1273" spans="1:10" x14ac:dyDescent="0.2">
@@ -54576,7 +54585,7 @@
       <c r="H1273" s="9"/>
       <c r="I1273"/>
       <c r="J1273" s="1" t="s">
-        <v>1378</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1274" spans="1:10" x14ac:dyDescent="0.2">
@@ -54601,7 +54610,7 @@
       <c r="H1274" s="9"/>
       <c r="I1274"/>
       <c r="J1274" s="1" t="s">
-        <v>1381</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1275" spans="1:10" x14ac:dyDescent="0.2">
@@ -54626,7 +54635,7 @@
       <c r="H1275" s="9"/>
       <c r="I1275"/>
       <c r="J1275" s="1" t="s">
-        <v>442</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1276" spans="1:10" x14ac:dyDescent="0.2">
@@ -54651,7 +54660,7 @@
       <c r="H1276" s="9"/>
       <c r="I1276"/>
       <c r="J1276" s="1" t="s">
-        <v>1387</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1277" spans="1:10" x14ac:dyDescent="0.2">
@@ -54676,7 +54685,7 @@
       <c r="H1277" s="9"/>
       <c r="I1277"/>
       <c r="J1277" s="1" t="s">
-        <v>1391</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1278" spans="1:10" x14ac:dyDescent="0.2">
@@ -54701,7 +54710,7 @@
       <c r="H1278" s="9"/>
       <c r="I1278"/>
       <c r="J1278" s="1" t="s">
-        <v>1394</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1279" spans="1:10" x14ac:dyDescent="0.2">
@@ -54729,7 +54738,7 @@
       <c r="H1279" s="9"/>
       <c r="I1279"/>
       <c r="J1279" s="1" t="s">
-        <v>1396</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1280" spans="1:10" x14ac:dyDescent="0.2">
@@ -54757,7 +54766,7 @@
       <c r="H1280" s="9"/>
       <c r="I1280"/>
       <c r="J1280" s="1" t="s">
-        <v>1399</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1281" spans="1:10" x14ac:dyDescent="0.2">
@@ -54782,7 +54791,7 @@
       <c r="H1281" s="9"/>
       <c r="I1281"/>
       <c r="J1281" s="1" t="s">
-        <v>1402</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1282" spans="1:10" x14ac:dyDescent="0.2">
@@ -54807,7 +54816,7 @@
       <c r="H1282" s="9"/>
       <c r="I1282"/>
       <c r="J1282" s="1" t="s">
-        <v>1406</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1283" spans="1:10" x14ac:dyDescent="0.2">
@@ -54832,7 +54841,7 @@
       <c r="H1283" s="9"/>
       <c r="I1283"/>
       <c r="J1283" s="1" t="s">
-        <v>1410</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1284" spans="1:10" x14ac:dyDescent="0.2">
@@ -54857,7 +54866,7 @@
       <c r="H1284" s="9"/>
       <c r="I1284"/>
       <c r="J1284" s="1" t="s">
-        <v>1413</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1285" spans="1:10" x14ac:dyDescent="0.2">
@@ -54882,7 +54891,7 @@
       <c r="H1285" s="9"/>
       <c r="I1285"/>
       <c r="J1285" s="1" t="s">
-        <v>1417</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="1286" spans="1:10" x14ac:dyDescent="0.2">
@@ -54907,7 +54916,7 @@
       <c r="H1286" s="9"/>
       <c r="I1286"/>
       <c r="J1286" s="1" t="s">
-        <v>1420</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1287" spans="1:10" x14ac:dyDescent="0.2">
@@ -54932,7 +54941,7 @@
       <c r="H1287" s="9"/>
       <c r="I1287"/>
       <c r="J1287" s="1" t="s">
-        <v>1423</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1288" spans="1:10" x14ac:dyDescent="0.2">
@@ -54957,7 +54966,7 @@
       <c r="H1288" s="9"/>
       <c r="I1288"/>
       <c r="J1288" s="1" t="s">
-        <v>62</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1289" spans="1:10" x14ac:dyDescent="0.2">
@@ -54982,7 +54991,7 @@
       <c r="H1289" s="9"/>
       <c r="I1289"/>
       <c r="J1289" s="1" t="s">
-        <v>1428</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1290" spans="1:10" x14ac:dyDescent="0.2">
@@ -55007,7 +55016,7 @@
       <c r="H1290" s="9"/>
       <c r="I1290"/>
       <c r="J1290" s="1" t="s">
-        <v>1432</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1291" spans="1:10" x14ac:dyDescent="0.2">
@@ -55032,7 +55041,7 @@
       <c r="H1291" s="9"/>
       <c r="I1291"/>
       <c r="J1291" s="1" t="s">
-        <v>1435</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1292" spans="1:10" x14ac:dyDescent="0.2">
@@ -55057,7 +55066,7 @@
       <c r="H1292" s="9"/>
       <c r="I1292"/>
       <c r="J1292" s="1" t="s">
-        <v>1438</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1293" spans="1:10" x14ac:dyDescent="0.2">
@@ -55082,7 +55091,7 @@
       <c r="H1293" s="9"/>
       <c r="I1293"/>
       <c r="J1293" s="1" t="s">
-        <v>1442</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1294" spans="1:10" x14ac:dyDescent="0.2">
@@ -55107,7 +55116,7 @@
       <c r="H1294" s="9"/>
       <c r="I1294"/>
       <c r="J1294" s="1" t="s">
-        <v>1446</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1295" spans="1:10" x14ac:dyDescent="0.2">
@@ -55132,7 +55141,7 @@
       <c r="H1295" s="9"/>
       <c r="I1295"/>
       <c r="J1295" s="1" t="s">
-        <v>4442</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1296" spans="1:10" x14ac:dyDescent="0.2">
@@ -55157,7 +55166,7 @@
       <c r="H1296" s="9"/>
       <c r="I1296"/>
       <c r="J1296" s="1" t="s">
-        <v>4443</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1297" spans="1:10" x14ac:dyDescent="0.2">
@@ -55182,7 +55191,7 @@
       <c r="H1297" s="9"/>
       <c r="I1297"/>
       <c r="J1297" s="1" t="s">
-        <v>4444</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1298" spans="1:10" x14ac:dyDescent="0.2">
@@ -55207,7 +55216,7 @@
       <c r="H1298" s="9"/>
       <c r="I1298"/>
       <c r="J1298" s="1" t="s">
-        <v>4445</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1299" spans="1:10" x14ac:dyDescent="0.2">
@@ -55232,7 +55241,7 @@
       <c r="H1299" s="9"/>
       <c r="I1299"/>
       <c r="J1299" s="1" t="s">
-        <v>4446</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1300" spans="1:10" x14ac:dyDescent="0.2">
@@ -55257,7 +55266,7 @@
       <c r="H1300" s="9"/>
       <c r="I1300"/>
       <c r="J1300" s="1" t="s">
-        <v>4447</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1301" spans="1:10" x14ac:dyDescent="0.2">
@@ -55282,7 +55291,7 @@
       <c r="H1301" s="9"/>
       <c r="I1301"/>
       <c r="J1301" s="1" t="s">
-        <v>4448</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1302" spans="1:10" x14ac:dyDescent="0.2">
@@ -55307,7 +55316,7 @@
       <c r="H1302" s="9"/>
       <c r="I1302"/>
       <c r="J1302" s="1" t="s">
-        <v>4449</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1303" spans="1:10" x14ac:dyDescent="0.2">
@@ -55332,7 +55341,7 @@
       <c r="H1303" s="9"/>
       <c r="I1303"/>
       <c r="J1303" s="1" t="s">
-        <v>4450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1304" spans="1:10" x14ac:dyDescent="0.2">
@@ -55357,7 +55366,7 @@
       <c r="H1304" s="9"/>
       <c r="I1304"/>
       <c r="J1304" s="1" t="s">
-        <v>4451</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1305" spans="1:10" x14ac:dyDescent="0.2">
@@ -55382,7 +55391,7 @@
       <c r="H1305" s="9"/>
       <c r="I1305"/>
       <c r="J1305" s="1" t="s">
-        <v>4452</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1306" spans="1:10" x14ac:dyDescent="0.2">
@@ -55407,7 +55416,7 @@
       <c r="H1306" s="9"/>
       <c r="I1306"/>
       <c r="J1306" s="1" t="s">
-        <v>4453</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1307" spans="1:10" x14ac:dyDescent="0.2">
@@ -55435,7 +55444,7 @@
       <c r="H1307" s="9"/>
       <c r="I1307"/>
       <c r="J1307" s="1" t="s">
-        <v>4454</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1308" spans="1:10" x14ac:dyDescent="0.2">
@@ -55460,7 +55469,7 @@
       <c r="H1308" s="9"/>
       <c r="I1308"/>
       <c r="J1308" s="1" t="s">
-        <v>4455</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1309" spans="1:10" x14ac:dyDescent="0.2">
@@ -55485,7 +55494,7 @@
       <c r="H1309" s="9"/>
       <c r="I1309"/>
       <c r="J1309" s="1" t="s">
-        <v>4456</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1310" spans="1:10" x14ac:dyDescent="0.2">
@@ -55510,7 +55519,7 @@
       <c r="H1310" s="9"/>
       <c r="I1310"/>
       <c r="J1310" s="1" t="s">
-        <v>2991</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1311" spans="1:10" x14ac:dyDescent="0.2">
@@ -55535,7 +55544,7 @@
       <c r="H1311" s="9"/>
       <c r="I1311"/>
       <c r="J1311" s="1" t="s">
-        <v>4457</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1312" spans="1:10" x14ac:dyDescent="0.2">
@@ -55560,7 +55569,7 @@
       <c r="H1312" s="9"/>
       <c r="I1312"/>
       <c r="J1312" s="1" t="s">
-        <v>4458</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1313" spans="1:10" x14ac:dyDescent="0.2">
@@ -55585,7 +55594,7 @@
       <c r="H1313" s="9"/>
       <c r="I1313"/>
       <c r="J1313" s="1" t="s">
-        <v>2942</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1314" spans="1:10" x14ac:dyDescent="0.2">
@@ -55610,7 +55619,7 @@
       <c r="H1314" s="9"/>
       <c r="I1314"/>
       <c r="J1314" s="1" t="s">
-        <v>4459</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1315" spans="1:10" x14ac:dyDescent="0.2">
@@ -55635,7 +55644,7 @@
       <c r="H1315" s="9"/>
       <c r="I1315"/>
       <c r="J1315" s="1" t="s">
-        <v>4460</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1316" spans="1:10" x14ac:dyDescent="0.2">
@@ -55660,7 +55669,7 @@
       <c r="H1316" s="9"/>
       <c r="I1316"/>
       <c r="J1316" s="1" t="s">
-        <v>4442</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1317" spans="1:10" x14ac:dyDescent="0.2">
@@ -55685,7 +55694,7 @@
       <c r="H1317" s="9"/>
       <c r="I1317"/>
       <c r="J1317" s="1" t="s">
-        <v>1449</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1318" spans="1:10" x14ac:dyDescent="0.2">
@@ -55710,7 +55719,7 @@
       <c r="H1318" s="9"/>
       <c r="I1318"/>
       <c r="J1318" s="1" t="s">
-        <v>1452</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1319" spans="1:10" x14ac:dyDescent="0.2">
@@ -55735,7 +55744,7 @@
       <c r="H1319" s="9"/>
       <c r="I1319"/>
       <c r="J1319" s="1" t="s">
-        <v>1456</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1320" spans="1:10" x14ac:dyDescent="0.2">
@@ -55760,7 +55769,7 @@
       <c r="H1320" s="9"/>
       <c r="I1320"/>
       <c r="J1320" s="1" t="s">
-        <v>1459</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1321" spans="1:10" x14ac:dyDescent="0.2">
@@ -55785,7 +55794,7 @@
       <c r="H1321" s="9"/>
       <c r="I1321"/>
       <c r="J1321" s="1" t="s">
-        <v>1462</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1322" spans="1:10" x14ac:dyDescent="0.2">
@@ -55810,7 +55819,7 @@
       <c r="H1322" s="9"/>
       <c r="I1322"/>
       <c r="J1322" s="1" t="s">
-        <v>1465</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1323" spans="1:10" x14ac:dyDescent="0.2">
@@ -55835,7 +55844,7 @@
       <c r="H1323" s="9"/>
       <c r="I1323"/>
       <c r="J1323" s="1" t="s">
-        <v>1469</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1324" spans="1:10" x14ac:dyDescent="0.2">
@@ -55860,7 +55869,7 @@
       <c r="H1324" s="9"/>
       <c r="I1324"/>
       <c r="J1324" s="1" t="s">
-        <v>591</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1325" spans="1:10" x14ac:dyDescent="0.2">
@@ -55885,7 +55894,7 @@
       <c r="H1325" s="9"/>
       <c r="I1325"/>
       <c r="J1325" s="1" t="s">
-        <v>1475</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1326" spans="1:10" x14ac:dyDescent="0.2">
@@ -55910,7 +55919,7 @@
       <c r="H1326" s="9"/>
       <c r="I1326"/>
       <c r="J1326" s="1" t="s">
-        <v>1478</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1327" spans="1:10" x14ac:dyDescent="0.2">
@@ -55935,7 +55944,7 @@
       <c r="H1327" s="9"/>
       <c r="I1327"/>
       <c r="J1327" s="1" t="s">
-        <v>1480</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1328" spans="1:10" x14ac:dyDescent="0.2">
@@ -55960,7 +55969,7 @@
       <c r="H1328" s="9"/>
       <c r="I1328"/>
       <c r="J1328" s="1" t="s">
-        <v>1484</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1329" spans="1:10" x14ac:dyDescent="0.2">
@@ -55985,7 +55994,7 @@
       <c r="H1329" s="9"/>
       <c r="I1329"/>
       <c r="J1329" s="1" t="s">
-        <v>1487</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1330" spans="1:10" x14ac:dyDescent="0.2">
@@ -56010,7 +56019,7 @@
       <c r="H1330" s="9"/>
       <c r="I1330"/>
       <c r="J1330" s="1" t="s">
-        <v>1491</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1331" spans="1:10" x14ac:dyDescent="0.2">
@@ -56035,7 +56044,7 @@
       <c r="H1331" s="9"/>
       <c r="I1331"/>
       <c r="J1331" s="1" t="s">
-        <v>1495</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1332" spans="1:10" x14ac:dyDescent="0.2">
@@ -56060,7 +56069,7 @@
       <c r="H1332" s="9"/>
       <c r="I1332"/>
       <c r="J1332" s="1" t="s">
-        <v>1498</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1333" spans="1:10" x14ac:dyDescent="0.2">
@@ -56085,7 +56094,7 @@
       <c r="H1333" s="9"/>
       <c r="I1333"/>
       <c r="J1333" s="1" t="s">
-        <v>1501</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1334" spans="1:10" x14ac:dyDescent="0.2">
@@ -56110,7 +56119,7 @@
       <c r="H1334" s="9"/>
       <c r="I1334"/>
       <c r="J1334" s="1" t="s">
-        <v>1504</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1335" spans="1:10" x14ac:dyDescent="0.2">
@@ -56135,7 +56144,7 @@
       <c r="H1335" s="9"/>
       <c r="I1335"/>
       <c r="J1335" s="1" t="s">
-        <v>1507</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1336" spans="1:10" x14ac:dyDescent="0.2">
@@ -56162,8 +56171,8 @@
       </c>
       <c r="H1336" s="9"/>
       <c r="I1336"/>
-      <c r="J1336" s="4" t="s">
-        <v>1297</v>
+      <c r="J1336" s="1" t="s">
+        <v>4455</v>
       </c>
     </row>
     <row r="1337" spans="1:10" x14ac:dyDescent="0.2">
@@ -56188,7 +56197,7 @@
       <c r="H1337" s="9"/>
       <c r="I1337"/>
       <c r="J1337" s="1" t="s">
-        <v>1513</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1338" spans="1:10" x14ac:dyDescent="0.2">
@@ -56213,7 +56222,7 @@
       <c r="H1338" s="9"/>
       <c r="I1338"/>
       <c r="J1338" s="1" t="s">
-        <v>1517</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1339" spans="1:10" x14ac:dyDescent="0.2">
@@ -56241,7 +56250,7 @@
       <c r="H1339" s="9"/>
       <c r="I1339"/>
       <c r="J1339" s="1" t="s">
-        <v>1520</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1340" spans="1:10" x14ac:dyDescent="0.2">
@@ -56266,7 +56275,7 @@
       <c r="H1340" s="9"/>
       <c r="I1340"/>
       <c r="J1340" s="1" t="s">
-        <v>1524</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1341" spans="1:10" x14ac:dyDescent="0.2">
@@ -56294,7 +56303,7 @@
       <c r="H1341" s="9"/>
       <c r="I1341"/>
       <c r="J1341" s="1" t="s">
-        <v>1528</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1342" spans="1:10" x14ac:dyDescent="0.2">
@@ -56319,7 +56328,7 @@
       <c r="H1342" s="9"/>
       <c r="I1342"/>
       <c r="J1342" s="1" t="s">
-        <v>1532</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1343" spans="1:10" x14ac:dyDescent="0.2">
@@ -56344,7 +56353,7 @@
       <c r="H1343" s="9"/>
       <c r="I1343"/>
       <c r="J1343" s="1" t="s">
-        <v>1535</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1344" spans="1:10" x14ac:dyDescent="0.2">
@@ -56369,7 +56378,7 @@
       <c r="H1344" s="9"/>
       <c r="I1344"/>
       <c r="J1344" s="1" t="s">
-        <v>1538</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1345" spans="1:10" x14ac:dyDescent="0.2">
@@ -56394,7 +56403,7 @@
       <c r="H1345" s="9"/>
       <c r="I1345"/>
       <c r="J1345" s="1" t="s">
-        <v>1542</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1346" spans="1:10" x14ac:dyDescent="0.2">
@@ -56419,7 +56428,7 @@
       <c r="H1346" s="9"/>
       <c r="I1346"/>
       <c r="J1346" s="1" t="s">
-        <v>1546</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.2">
@@ -56444,7 +56453,7 @@
       <c r="H1347" s="9"/>
       <c r="I1347"/>
       <c r="J1347" s="1" t="s">
-        <v>1550</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1348" spans="1:10" x14ac:dyDescent="0.2">
@@ -56469,7 +56478,7 @@
       <c r="H1348" s="9"/>
       <c r="I1348"/>
       <c r="J1348" s="1" t="s">
-        <v>1553</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1349" spans="1:10" x14ac:dyDescent="0.2">
@@ -56494,7 +56503,7 @@
       <c r="H1349" s="9"/>
       <c r="I1349"/>
       <c r="J1349" s="1" t="s">
-        <v>1556</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1350" spans="1:10" x14ac:dyDescent="0.2">
@@ -56519,7 +56528,7 @@
       <c r="H1350" s="9"/>
       <c r="I1350"/>
       <c r="J1350" s="1" t="s">
-        <v>1560</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1351" spans="1:10" x14ac:dyDescent="0.2">
@@ -56544,7 +56553,7 @@
       <c r="H1351" s="9"/>
       <c r="I1351"/>
       <c r="J1351" s="1" t="s">
-        <v>1564</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1352" spans="1:10" x14ac:dyDescent="0.2">
@@ -56569,7 +56578,7 @@
       <c r="H1352" s="9"/>
       <c r="I1352"/>
       <c r="J1352" s="1" t="s">
-        <v>1567</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1353" spans="1:10" x14ac:dyDescent="0.2">
@@ -56594,7 +56603,7 @@
       <c r="H1353" s="9"/>
       <c r="I1353"/>
       <c r="J1353" s="1" t="s">
-        <v>1570</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1354" spans="1:10" x14ac:dyDescent="0.2">
@@ -56619,7 +56628,7 @@
       <c r="H1354" s="9"/>
       <c r="I1354"/>
       <c r="J1354" s="1" t="s">
-        <v>1573</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1355" spans="1:10" x14ac:dyDescent="0.2">
@@ -56644,7 +56653,7 @@
       <c r="H1355" s="9"/>
       <c r="I1355"/>
       <c r="J1355" s="1" t="s">
-        <v>1577</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1356" spans="1:10" x14ac:dyDescent="0.2">
@@ -56669,7 +56678,7 @@
       <c r="H1356" s="9"/>
       <c r="I1356"/>
       <c r="J1356" s="1" t="s">
-        <v>1581</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1357" spans="1:10" x14ac:dyDescent="0.2">
@@ -56694,7 +56703,7 @@
       <c r="H1357" s="9"/>
       <c r="I1357"/>
       <c r="J1357" s="1" t="s">
-        <v>1585</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1358" spans="1:10" x14ac:dyDescent="0.2">
@@ -56719,7 +56728,7 @@
       <c r="H1358" s="9"/>
       <c r="I1358"/>
       <c r="J1358" s="1" t="s">
-        <v>4461</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1359" spans="1:10" x14ac:dyDescent="0.2">
@@ -56744,7 +56753,7 @@
       <c r="H1359" s="9"/>
       <c r="I1359"/>
       <c r="J1359" s="1" t="s">
-        <v>1804</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1360" spans="1:10" x14ac:dyDescent="0.2">
@@ -56769,7 +56778,7 @@
       <c r="H1360" s="9"/>
       <c r="I1360"/>
       <c r="J1360" s="1" t="s">
-        <v>3062</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1361" spans="1:10" x14ac:dyDescent="0.2">
@@ -56794,7 +56803,7 @@
       <c r="H1361" s="9"/>
       <c r="I1361"/>
       <c r="J1361" s="1" t="s">
-        <v>4462</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1362" spans="1:10" x14ac:dyDescent="0.2">
@@ -56819,7 +56828,7 @@
       <c r="H1362" s="9"/>
       <c r="I1362"/>
       <c r="J1362" s="1" t="s">
-        <v>4463</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1363" spans="1:10" x14ac:dyDescent="0.2">
@@ -56844,7 +56853,7 @@
       <c r="H1363" s="9"/>
       <c r="I1363"/>
       <c r="J1363" s="1" t="s">
-        <v>4464</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1364" spans="1:10" x14ac:dyDescent="0.2">
@@ -56868,8 +56877,8 @@
       </c>
       <c r="H1364" s="9"/>
       <c r="I1364"/>
-      <c r="J1364" s="1" t="s">
-        <v>4465</v>
+      <c r="J1364" s="4" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1365" spans="1:10" x14ac:dyDescent="0.2">
@@ -56894,7 +56903,7 @@
       <c r="H1365" s="9"/>
       <c r="I1365"/>
       <c r="J1365" s="1" t="s">
-        <v>4466</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1366" spans="1:10" x14ac:dyDescent="0.2">
@@ -56919,7 +56928,7 @@
       <c r="H1366" s="9"/>
       <c r="I1366"/>
       <c r="J1366" s="1" t="s">
-        <v>4467</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.2">
@@ -56944,7 +56953,7 @@
       <c r="H1367" s="9"/>
       <c r="I1367"/>
       <c r="J1367" s="1" t="s">
-        <v>4468</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1368" spans="1:10" x14ac:dyDescent="0.2">
@@ -56969,7 +56978,7 @@
       <c r="H1368" s="9"/>
       <c r="I1368"/>
       <c r="J1368" s="1" t="s">
-        <v>4469</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1369" spans="1:10" x14ac:dyDescent="0.2">
@@ -56994,7 +57003,7 @@
       <c r="H1369" s="9"/>
       <c r="I1369"/>
       <c r="J1369" s="1" t="s">
-        <v>4470</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1370" spans="1:10" x14ac:dyDescent="0.2">
@@ -57019,7 +57028,7 @@
       <c r="H1370" s="9"/>
       <c r="I1370"/>
       <c r="J1370" s="1" t="s">
-        <v>4471</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1371" spans="1:10" x14ac:dyDescent="0.2">
@@ -57044,7 +57053,7 @@
       <c r="H1371" s="9"/>
       <c r="I1371"/>
       <c r="J1371" s="1" t="s">
-        <v>3037</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1372" spans="1:10" x14ac:dyDescent="0.2">
@@ -57072,7 +57081,7 @@
       <c r="H1372" s="9"/>
       <c r="I1372"/>
       <c r="J1372" s="1" t="s">
-        <v>4472</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1373" spans="1:10" x14ac:dyDescent="0.2">
@@ -57097,7 +57106,7 @@
       <c r="H1373" s="9"/>
       <c r="I1373"/>
       <c r="J1373" s="1" t="s">
-        <v>4473</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1374" spans="1:10" x14ac:dyDescent="0.2">
@@ -57122,7 +57131,7 @@
       <c r="H1374" s="9"/>
       <c r="I1374"/>
       <c r="J1374" s="1" t="s">
-        <v>4474</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1375" spans="1:10" x14ac:dyDescent="0.2">
@@ -57147,7 +57156,7 @@
       <c r="H1375" s="9"/>
       <c r="I1375"/>
       <c r="J1375" s="1" t="s">
-        <v>4475</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1376" spans="1:10" x14ac:dyDescent="0.2">
@@ -57172,7 +57181,7 @@
       <c r="H1376" s="9"/>
       <c r="I1376"/>
       <c r="J1376" s="1" t="s">
-        <v>4461</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1377" spans="1:10" x14ac:dyDescent="0.2">
@@ -57197,7 +57206,7 @@
       <c r="H1377" s="9"/>
       <c r="I1377"/>
       <c r="J1377" s="1" t="s">
-        <v>1589</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1378" spans="1:10" x14ac:dyDescent="0.2">
@@ -57222,7 +57231,7 @@
       <c r="H1378" s="9"/>
       <c r="I1378"/>
       <c r="J1378" s="1" t="s">
-        <v>1592</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1379" spans="1:10" x14ac:dyDescent="0.2">
@@ -57247,7 +57256,7 @@
       <c r="H1379" s="9"/>
       <c r="I1379"/>
       <c r="J1379" s="1" t="s">
-        <v>1596</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1380" spans="1:10" x14ac:dyDescent="0.2">
@@ -57275,7 +57284,7 @@
       <c r="H1380" s="9"/>
       <c r="I1380"/>
       <c r="J1380" s="1" t="s">
-        <v>1600</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1381" spans="1:10" x14ac:dyDescent="0.2">
@@ -57300,7 +57309,7 @@
       <c r="H1381" s="9"/>
       <c r="I1381"/>
       <c r="J1381" s="1" t="s">
-        <v>1603</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1382" spans="1:10" x14ac:dyDescent="0.2">
@@ -57325,7 +57334,7 @@
       <c r="H1382" s="9"/>
       <c r="I1382"/>
       <c r="J1382" s="1" t="s">
-        <v>1606</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1383" spans="1:10" x14ac:dyDescent="0.2">
@@ -57350,7 +57359,7 @@
       <c r="H1383" s="9"/>
       <c r="I1383"/>
       <c r="J1383" s="1" t="s">
-        <v>1609</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1384" spans="1:10" x14ac:dyDescent="0.2">
@@ -57375,7 +57384,7 @@
       <c r="H1384" s="9"/>
       <c r="I1384"/>
       <c r="J1384" s="1" t="s">
-        <v>1611</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1385" spans="1:10" x14ac:dyDescent="0.2">
@@ -57403,7 +57412,7 @@
       <c r="H1385" s="9"/>
       <c r="I1385"/>
       <c r="J1385" s="1" t="s">
-        <v>1614</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1386" spans="1:10" x14ac:dyDescent="0.2">
@@ -57428,7 +57437,7 @@
       <c r="H1386" s="9"/>
       <c r="I1386"/>
       <c r="J1386" s="1" t="s">
-        <v>1618</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1387" spans="1:10" x14ac:dyDescent="0.2">
@@ -57453,7 +57462,7 @@
       <c r="H1387" s="9"/>
       <c r="I1387"/>
       <c r="J1387" s="1" t="s">
-        <v>1621</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1388" spans="1:10" x14ac:dyDescent="0.2">
@@ -57481,7 +57490,7 @@
       <c r="H1388" s="9"/>
       <c r="I1388"/>
       <c r="J1388" s="1" t="s">
-        <v>1624</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1389" spans="1:10" x14ac:dyDescent="0.2">
@@ -57509,7 +57518,7 @@
       <c r="H1389" s="9"/>
       <c r="I1389"/>
       <c r="J1389" s="1" t="s">
-        <v>1628</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.2">
@@ -57534,7 +57543,7 @@
       <c r="H1390" s="9"/>
       <c r="I1390"/>
       <c r="J1390" s="1" t="s">
-        <v>1632</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1391" spans="1:10" x14ac:dyDescent="0.2">
@@ -57559,7 +57568,7 @@
       <c r="H1391" s="9"/>
       <c r="I1391"/>
       <c r="J1391" s="1" t="s">
-        <v>1636</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1392" spans="1:10" x14ac:dyDescent="0.2">
@@ -57584,7 +57593,7 @@
       <c r="H1392" s="9"/>
       <c r="I1392"/>
       <c r="J1392" s="1" t="s">
-        <v>1639</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1393" spans="1:10" x14ac:dyDescent="0.2">
@@ -57612,7 +57621,7 @@
       <c r="H1393" s="9"/>
       <c r="I1393"/>
       <c r="J1393" s="1" t="s">
-        <v>1642</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.2">
@@ -57637,7 +57646,7 @@
       <c r="H1394" s="9"/>
       <c r="I1394"/>
       <c r="J1394" s="1" t="s">
-        <v>1646</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.2">
@@ -57662,7 +57671,7 @@
       <c r="H1395" s="9"/>
       <c r="I1395"/>
       <c r="J1395" s="1" t="s">
-        <v>1122</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1396" spans="1:10" x14ac:dyDescent="0.2">
@@ -57687,7 +57696,7 @@
       <c r="H1396" s="9"/>
       <c r="I1396"/>
       <c r="J1396" s="1" t="s">
-        <v>1652</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1397" spans="1:10" x14ac:dyDescent="0.2">
@@ -57712,7 +57721,7 @@
       <c r="H1397" s="9"/>
       <c r="I1397"/>
       <c r="J1397" s="1" t="s">
-        <v>1655</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1398" spans="1:10" x14ac:dyDescent="0.2">
@@ -57737,7 +57746,7 @@
       <c r="H1398" s="9"/>
       <c r="I1398"/>
       <c r="J1398" s="1" t="s">
-        <v>1658</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1399" spans="1:10" x14ac:dyDescent="0.2">
@@ -57762,7 +57771,7 @@
       <c r="H1399" s="9"/>
       <c r="I1399"/>
       <c r="J1399" s="1" t="s">
-        <v>1661</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1400" spans="1:10" x14ac:dyDescent="0.2">
@@ -57787,7 +57796,7 @@
       <c r="H1400" s="9"/>
       <c r="I1400"/>
       <c r="J1400" s="1" t="s">
-        <v>1664</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1401" spans="1:10" x14ac:dyDescent="0.2">
@@ -57812,7 +57821,7 @@
       <c r="H1401" s="9"/>
       <c r="I1401"/>
       <c r="J1401" s="1" t="s">
-        <v>1667</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.2">
@@ -57837,7 +57846,7 @@
       <c r="H1402" s="9"/>
       <c r="I1402"/>
       <c r="J1402" s="1" t="s">
-        <v>1670</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1403" spans="1:10" x14ac:dyDescent="0.2">
@@ -57862,7 +57871,7 @@
       <c r="H1403" s="9"/>
       <c r="I1403"/>
       <c r="J1403" s="1" t="s">
-        <v>1673</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1404" spans="1:10" x14ac:dyDescent="0.2">
@@ -57887,7 +57896,7 @@
       <c r="H1404" s="9"/>
       <c r="I1404"/>
       <c r="J1404" s="1" t="s">
-        <v>1677</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1405" spans="1:10" x14ac:dyDescent="0.2">
@@ -57915,7 +57924,7 @@
       <c r="H1405" s="9"/>
       <c r="I1405"/>
       <c r="J1405" s="1" t="s">
-        <v>445</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1406" spans="1:10" x14ac:dyDescent="0.2">
@@ -57940,7 +57949,7 @@
       <c r="H1406" s="9"/>
       <c r="I1406"/>
       <c r="J1406" s="1" t="s">
-        <v>1682</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1407" spans="1:10" x14ac:dyDescent="0.2">
@@ -57965,7 +57974,7 @@
       <c r="H1407" s="9"/>
       <c r="I1407"/>
       <c r="J1407" s="1" t="s">
-        <v>1685</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1408" spans="1:10" x14ac:dyDescent="0.2">
@@ -57990,7 +57999,7 @@
       <c r="H1408" s="9"/>
       <c r="I1408"/>
       <c r="J1408" s="1" t="s">
-        <v>1688</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1409" spans="1:10" x14ac:dyDescent="0.2">
@@ -58015,7 +58024,7 @@
       <c r="H1409" s="9"/>
       <c r="I1409"/>
       <c r="J1409" s="1" t="s">
-        <v>1691</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1410" spans="1:10" x14ac:dyDescent="0.2">
@@ -58040,7 +58049,7 @@
       <c r="H1410" s="9"/>
       <c r="I1410"/>
       <c r="J1410" s="1" t="s">
-        <v>1694</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.2">
@@ -58065,7 +58074,7 @@
       <c r="H1411" s="9"/>
       <c r="I1411"/>
       <c r="J1411" s="1" t="s">
-        <v>1697</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1412" spans="1:10" x14ac:dyDescent="0.2">
@@ -58090,7 +58099,7 @@
       <c r="H1412" s="9"/>
       <c r="I1412"/>
       <c r="J1412" s="1" t="s">
-        <v>1700</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1413" spans="1:10" x14ac:dyDescent="0.2">
@@ -58115,7 +58124,7 @@
       <c r="H1413" s="9"/>
       <c r="I1413"/>
       <c r="J1413" s="1" t="s">
-        <v>1704</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.2">
@@ -58140,7 +58149,7 @@
       <c r="H1414" s="9"/>
       <c r="I1414"/>
       <c r="J1414" s="1" t="s">
-        <v>1708</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1415" spans="1:10" x14ac:dyDescent="0.2">
@@ -58165,7 +58174,7 @@
       <c r="H1415" s="9"/>
       <c r="I1415"/>
       <c r="J1415" s="1" t="s">
-        <v>1711</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1416" spans="1:10" x14ac:dyDescent="0.2">
@@ -58190,7 +58199,7 @@
       <c r="H1416" s="9"/>
       <c r="I1416"/>
       <c r="J1416" s="1" t="s">
-        <v>1714</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1417" spans="1:10" x14ac:dyDescent="0.2">
@@ -58215,7 +58224,7 @@
       <c r="H1417" s="9"/>
       <c r="I1417"/>
       <c r="J1417" s="1" t="s">
-        <v>4476</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1418" spans="1:10" x14ac:dyDescent="0.2">
@@ -58240,7 +58249,7 @@
       <c r="H1418" s="9"/>
       <c r="I1418"/>
       <c r="J1418" s="1" t="s">
-        <v>3247</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1419" spans="1:10" x14ac:dyDescent="0.2">
@@ -58265,7 +58274,7 @@
       <c r="H1419" s="9"/>
       <c r="I1419"/>
       <c r="J1419" s="1" t="s">
-        <v>4477</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1420" spans="1:10" x14ac:dyDescent="0.2">
@@ -58290,7 +58299,7 @@
       <c r="H1420" s="9"/>
       <c r="I1420"/>
       <c r="J1420" s="1" t="s">
-        <v>4478</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1421" spans="1:10" x14ac:dyDescent="0.2">
@@ -58315,7 +58324,7 @@
       <c r="H1421" s="9"/>
       <c r="I1421"/>
       <c r="J1421" s="1" t="s">
-        <v>4479</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1422" spans="1:10" x14ac:dyDescent="0.2">
@@ -58340,7 +58349,7 @@
       <c r="H1422" s="9"/>
       <c r="I1422"/>
       <c r="J1422" s="1" t="s">
-        <v>4480</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1423" spans="1:10" x14ac:dyDescent="0.2">
@@ -58365,7 +58374,7 @@
       <c r="H1423" s="9"/>
       <c r="I1423"/>
       <c r="J1423" s="1" t="s">
-        <v>4481</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1424" spans="1:10" x14ac:dyDescent="0.2">
@@ -58390,7 +58399,7 @@
       <c r="H1424" s="9"/>
       <c r="I1424"/>
       <c r="J1424" s="1" t="s">
-        <v>3169</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1425" spans="1:10" x14ac:dyDescent="0.2">
@@ -58415,7 +58424,7 @@
       <c r="H1425" s="9"/>
       <c r="I1425"/>
       <c r="J1425" s="1" t="s">
-        <v>4482</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.2">
@@ -58440,7 +58449,7 @@
       <c r="H1426" s="9"/>
       <c r="I1426"/>
       <c r="J1426" s="1" t="s">
-        <v>4483</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.2">
@@ -58465,7 +58474,7 @@
       <c r="H1427" s="9"/>
       <c r="I1427"/>
       <c r="J1427" s="1" t="s">
-        <v>4484</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1428" spans="1:10" x14ac:dyDescent="0.2">
@@ -58490,7 +58499,7 @@
       <c r="H1428" s="9"/>
       <c r="I1428"/>
       <c r="J1428" s="1" t="s">
-        <v>4485</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.2">
@@ -58515,7 +58524,7 @@
       <c r="H1429" s="9"/>
       <c r="I1429"/>
       <c r="J1429" s="1" t="s">
-        <v>4486</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.2">
@@ -58540,7 +58549,7 @@
       <c r="H1430" s="9"/>
       <c r="I1430"/>
       <c r="J1430" s="1" t="s">
-        <v>4487</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.2">
@@ -58565,7 +58574,7 @@
       <c r="H1431" s="9"/>
       <c r="I1431"/>
       <c r="J1431" s="1" t="s">
-        <v>4488</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.2">
@@ -58593,7 +58602,7 @@
       <c r="H1432" s="9"/>
       <c r="I1432"/>
       <c r="J1432" s="1" t="s">
-        <v>1718</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.2">
@@ -58618,7 +58627,7 @@
       <c r="H1433" s="9"/>
       <c r="I1433"/>
       <c r="J1433" s="1" t="s">
-        <v>1722</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.2">
@@ -58643,7 +58652,7 @@
       <c r="H1434" s="9"/>
       <c r="I1434"/>
       <c r="J1434" s="1" t="s">
-        <v>1725</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.2">
@@ -58668,7 +58677,7 @@
       <c r="H1435" s="9"/>
       <c r="I1435"/>
       <c r="J1435" s="1" t="s">
-        <v>1729</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.2">
@@ -58693,7 +58702,7 @@
       <c r="H1436" s="9"/>
       <c r="I1436"/>
       <c r="J1436" s="1" t="s">
-        <v>1732</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.2">
@@ -58718,7 +58727,7 @@
       <c r="H1437" s="9"/>
       <c r="I1437"/>
       <c r="J1437" s="1" t="s">
-        <v>1737</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1438" spans="1:10" x14ac:dyDescent="0.2">
@@ -58743,7 +58752,7 @@
       <c r="H1438" s="9"/>
       <c r="I1438"/>
       <c r="J1438" s="1" t="s">
-        <v>1740</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.2">
@@ -58768,7 +58777,7 @@
       <c r="H1439" s="9"/>
       <c r="I1439"/>
       <c r="J1439" s="1" t="s">
-        <v>1743</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.2">
@@ -58796,7 +58805,7 @@
       <c r="H1440" s="9"/>
       <c r="I1440"/>
       <c r="J1440" s="1" t="s">
-        <v>1747</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.2">
@@ -58821,7 +58830,7 @@
       <c r="H1441" s="9"/>
       <c r="I1441"/>
       <c r="J1441" s="1" t="s">
-        <v>1750</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.2">
@@ -58846,7 +58855,7 @@
       <c r="H1442" s="9"/>
       <c r="I1442"/>
       <c r="J1442" s="1" t="s">
-        <v>1754</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.2">
@@ -58871,7 +58880,7 @@
       <c r="H1443" s="9"/>
       <c r="I1443"/>
       <c r="J1443" s="1" t="s">
-        <v>1757</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.2">
@@ -58896,7 +58905,7 @@
       <c r="H1444" s="9"/>
       <c r="I1444"/>
       <c r="J1444" s="1" t="s">
-        <v>1760</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.2">
@@ -58921,7 +58930,7 @@
       <c r="H1445" s="9"/>
       <c r="I1445"/>
       <c r="J1445" s="1" t="s">
-        <v>1763</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.2">
@@ -58946,7 +58955,7 @@
       <c r="H1446" s="9"/>
       <c r="I1446"/>
       <c r="J1446" s="1" t="s">
-        <v>1766</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.2">
@@ -58971,7 +58980,7 @@
       <c r="H1447" s="9"/>
       <c r="I1447"/>
       <c r="J1447" s="1" t="s">
-        <v>1769</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.2">
@@ -58999,7 +59008,7 @@
       <c r="H1448" s="9"/>
       <c r="I1448"/>
       <c r="J1448" s="1" t="s">
-        <v>1772</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.2">
@@ -59024,7 +59033,7 @@
       <c r="H1449" s="9"/>
       <c r="I1449"/>
       <c r="J1449" s="1" t="s">
-        <v>1775</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1450" spans="1:10" x14ac:dyDescent="0.2">
@@ -59049,7 +59058,7 @@
       <c r="H1450" s="9"/>
       <c r="I1450"/>
       <c r="J1450" s="1" t="s">
-        <v>1778</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.2">
@@ -59074,7 +59083,7 @@
       <c r="H1451" s="9"/>
       <c r="I1451"/>
       <c r="J1451" s="1" t="s">
-        <v>1782</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.2">
@@ -59099,7 +59108,7 @@
       <c r="H1452" s="9"/>
       <c r="I1452"/>
       <c r="J1452" s="1" t="s">
-        <v>1784</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1453" spans="1:10" x14ac:dyDescent="0.2">
@@ -59124,7 +59133,7 @@
       <c r="H1453" s="9"/>
       <c r="I1453"/>
       <c r="J1453" s="1" t="s">
-        <v>1787</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1454" spans="1:10" x14ac:dyDescent="0.2">
@@ -59149,7 +59158,7 @@
       <c r="H1454" s="9"/>
       <c r="I1454"/>
       <c r="J1454" s="1" t="s">
-        <v>1791</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1455" spans="1:10" x14ac:dyDescent="0.2">
@@ -59174,7 +59183,7 @@
       <c r="H1455" s="9"/>
       <c r="I1455"/>
       <c r="J1455" s="1" t="s">
-        <v>1795</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1456" spans="1:10" x14ac:dyDescent="0.2">
@@ -59199,7 +59208,7 @@
       <c r="H1456" s="9"/>
       <c r="I1456"/>
       <c r="J1456" s="1" t="s">
-        <v>1797</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1457" spans="1:10" x14ac:dyDescent="0.2">
@@ -59224,7 +59233,7 @@
       <c r="H1457" s="9"/>
       <c r="I1457"/>
       <c r="J1457" s="1" t="s">
-        <v>1799</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.2">
@@ -59249,7 +59258,7 @@
       <c r="H1458" s="9"/>
       <c r="I1458"/>
       <c r="J1458" s="1" t="s">
-        <v>1803</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1459" spans="1:10" x14ac:dyDescent="0.2">
@@ -59274,7 +59283,7 @@
       <c r="H1459" s="9"/>
       <c r="I1459"/>
       <c r="J1459" s="1" t="s">
-        <v>1807</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1460" spans="1:10" x14ac:dyDescent="0.2">
@@ -59299,7 +59308,7 @@
       <c r="H1460" s="9"/>
       <c r="I1460"/>
       <c r="J1460" s="1" t="s">
-        <v>1810</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1461" spans="1:10" x14ac:dyDescent="0.2">
@@ -59324,7 +59333,7 @@
       <c r="H1461" s="9"/>
       <c r="I1461"/>
       <c r="J1461" s="1" t="s">
-        <v>1813</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.2">
@@ -59349,7 +59358,7 @@
       <c r="H1462" s="9"/>
       <c r="I1462"/>
       <c r="J1462" s="1" t="s">
-        <v>1816</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.2">
@@ -59374,7 +59383,7 @@
       <c r="H1463" s="9"/>
       <c r="I1463"/>
       <c r="J1463" s="1" t="s">
-        <v>1821</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.2">
@@ -59399,7 +59408,7 @@
       <c r="H1464" s="9"/>
       <c r="I1464"/>
       <c r="J1464" s="1" t="s">
-        <v>1824</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.2">
@@ -59424,7 +59433,7 @@
       <c r="H1465" s="9"/>
       <c r="I1465"/>
       <c r="J1465" s="1" t="s">
-        <v>1828</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.2">
@@ -59449,7 +59458,7 @@
       <c r="H1466" s="9"/>
       <c r="I1466"/>
       <c r="J1466" s="1" t="s">
-        <v>1832</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1467" spans="1:10" x14ac:dyDescent="0.2">
@@ -59474,7 +59483,7 @@
       <c r="H1467" s="9"/>
       <c r="I1467"/>
       <c r="J1467" s="1" t="s">
-        <v>1836</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.2">
@@ -59499,7 +59508,7 @@
       <c r="H1468" s="9"/>
       <c r="I1468"/>
       <c r="J1468" s="1" t="s">
-        <v>1840</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.2">
@@ -59524,7 +59533,7 @@
       <c r="H1469" s="9"/>
       <c r="I1469"/>
       <c r="J1469" s="1" t="s">
-        <v>1843</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1470" spans="1:10" x14ac:dyDescent="0.2">
@@ -59549,7 +59558,7 @@
       <c r="H1470" s="9"/>
       <c r="I1470"/>
       <c r="J1470" s="1" t="s">
-        <v>1846</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1471" spans="1:10" x14ac:dyDescent="0.2">
@@ -59574,7 +59583,7 @@
       <c r="H1471" s="9"/>
       <c r="I1471"/>
       <c r="J1471" s="1" t="s">
-        <v>1850</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1472" spans="1:10" x14ac:dyDescent="0.2">
@@ -59602,7 +59611,7 @@
       <c r="H1472" s="9"/>
       <c r="I1472"/>
       <c r="J1472" s="1" t="s">
-        <v>1853</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.2">
@@ -59627,7 +59636,7 @@
       <c r="H1473" s="9"/>
       <c r="I1473"/>
       <c r="J1473" s="1" t="s">
-        <v>1856</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1474" spans="1:10" x14ac:dyDescent="0.2">
@@ -59652,7 +59661,7 @@
       <c r="H1474" s="9"/>
       <c r="I1474"/>
       <c r="J1474" s="1" t="s">
-        <v>1859</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1475" spans="1:10" x14ac:dyDescent="0.2">
@@ -59680,7 +59689,7 @@
       <c r="H1475" s="9"/>
       <c r="I1475"/>
       <c r="J1475" s="1" t="s">
-        <v>4489</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1476" spans="1:10" x14ac:dyDescent="0.2">
@@ -59705,7 +59714,7 @@
       <c r="H1476" s="9"/>
       <c r="I1476"/>
       <c r="J1476" s="1" t="s">
-        <v>4490</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1477" spans="1:10" x14ac:dyDescent="0.2">
@@ -59730,7 +59739,7 @@
       <c r="H1477" s="9"/>
       <c r="I1477"/>
       <c r="J1477" s="1" t="s">
-        <v>4491</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.2">
@@ -59755,7 +59764,7 @@
       <c r="H1478" s="9"/>
       <c r="I1478"/>
       <c r="J1478" s="1" t="s">
-        <v>3348</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1479" spans="1:10" x14ac:dyDescent="0.2">
@@ -59780,7 +59789,7 @@
       <c r="H1479" s="9"/>
       <c r="I1479"/>
       <c r="J1479" s="1" t="s">
-        <v>4492</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.2">
@@ -59805,7 +59814,7 @@
       <c r="H1480" s="9"/>
       <c r="I1480"/>
       <c r="J1480" s="1" t="s">
-        <v>4307</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1481" spans="1:10" x14ac:dyDescent="0.2">
@@ -59830,7 +59839,7 @@
       <c r="H1481" s="9"/>
       <c r="I1481"/>
       <c r="J1481" s="1" t="s">
-        <v>4493</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1482" spans="1:10" x14ac:dyDescent="0.2">
@@ -59855,7 +59864,7 @@
       <c r="H1482" s="9"/>
       <c r="I1482"/>
       <c r="J1482" s="1" t="s">
-        <v>4494</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1483" spans="1:10" x14ac:dyDescent="0.2">
@@ -59883,7 +59892,7 @@
       <c r="H1483" s="9"/>
       <c r="I1483"/>
       <c r="J1483" s="1" t="s">
-        <v>4489</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1484" spans="1:10" x14ac:dyDescent="0.2">
@@ -59908,7 +59917,7 @@
       <c r="H1484" s="9"/>
       <c r="I1484"/>
       <c r="J1484" s="1" t="s">
-        <v>4490</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1485" spans="1:10" x14ac:dyDescent="0.2">
@@ -59933,7 +59942,7 @@
       <c r="H1485" s="9"/>
       <c r="I1485"/>
       <c r="J1485" s="1" t="s">
-        <v>1862</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1486" spans="1:10" x14ac:dyDescent="0.2">
@@ -59958,7 +59967,7 @@
       <c r="H1486" s="9"/>
       <c r="I1486"/>
       <c r="J1486" s="1" t="s">
-        <v>1865</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1487" spans="1:10" x14ac:dyDescent="0.2">
@@ -59983,7 +59992,7 @@
       <c r="H1487" s="9"/>
       <c r="I1487"/>
       <c r="J1487" s="1" t="s">
-        <v>402</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1488" spans="1:10" x14ac:dyDescent="0.2">
@@ -60008,7 +60017,7 @@
       <c r="H1488" s="9"/>
       <c r="I1488"/>
       <c r="J1488" s="1" t="s">
-        <v>107</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1489" spans="1:10" x14ac:dyDescent="0.2">
@@ -60033,7 +60042,7 @@
       <c r="H1489" s="9"/>
       <c r="I1489"/>
       <c r="J1489" s="1" t="s">
-        <v>1873</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1490" spans="1:10" x14ac:dyDescent="0.2">
@@ -60058,7 +60067,7 @@
       <c r="H1490" s="9"/>
       <c r="I1490"/>
       <c r="J1490" s="1" t="s">
-        <v>1876</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1491" spans="1:10" x14ac:dyDescent="0.2">
@@ -60083,7 +60092,7 @@
       <c r="H1491" s="9"/>
       <c r="I1491"/>
       <c r="J1491" s="1" t="s">
-        <v>1879</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1492" spans="1:10" x14ac:dyDescent="0.2">
@@ -60108,7 +60117,7 @@
       <c r="H1492" s="9"/>
       <c r="I1492"/>
       <c r="J1492" s="1" t="s">
-        <v>1883</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1493" spans="1:10" x14ac:dyDescent="0.2">
@@ -60133,7 +60142,7 @@
       <c r="H1493" s="9"/>
       <c r="I1493"/>
       <c r="J1493" s="1" t="s">
-        <v>214</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.2">
@@ -60158,7 +60167,7 @@
       <c r="H1494" s="9"/>
       <c r="I1494"/>
       <c r="J1494" s="1" t="s">
-        <v>1889</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1495" spans="1:10" x14ac:dyDescent="0.2">
@@ -60183,7 +60192,7 @@
       <c r="H1495" s="9"/>
       <c r="I1495"/>
       <c r="J1495" s="1" t="s">
-        <v>1891</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1496" spans="1:10" x14ac:dyDescent="0.2">
@@ -60208,7 +60217,7 @@
       <c r="H1496" s="9"/>
       <c r="I1496"/>
       <c r="J1496" s="1" t="s">
-        <v>1895</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1497" spans="1:10" x14ac:dyDescent="0.2">
@@ -60233,7 +60242,7 @@
       <c r="H1497" s="9"/>
       <c r="I1497"/>
       <c r="J1497" s="1" t="s">
-        <v>1898</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1498" spans="1:10" x14ac:dyDescent="0.2">
@@ -60258,7 +60267,7 @@
       <c r="H1498" s="9"/>
       <c r="I1498"/>
       <c r="J1498" s="1" t="s">
-        <v>1901</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1499" spans="1:10" x14ac:dyDescent="0.2">
@@ -60283,7 +60292,7 @@
       <c r="H1499" s="9"/>
       <c r="I1499"/>
       <c r="J1499" s="1" t="s">
-        <v>1905</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1500" spans="1:10" x14ac:dyDescent="0.2">
@@ -60308,7 +60317,7 @@
       <c r="H1500" s="9"/>
       <c r="I1500"/>
       <c r="J1500" s="1" t="s">
-        <v>1908</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1501" spans="1:10" x14ac:dyDescent="0.2">
@@ -60333,7 +60342,7 @@
       <c r="H1501" s="9"/>
       <c r="I1501"/>
       <c r="J1501" s="1" t="s">
-        <v>1913</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1502" spans="1:10" x14ac:dyDescent="0.2">
@@ -60358,7 +60367,7 @@
       <c r="H1502" s="9"/>
       <c r="I1502"/>
       <c r="J1502" s="1" t="s">
-        <v>1916</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.2">
@@ -60383,7 +60392,7 @@
       <c r="H1503" s="9"/>
       <c r="I1503"/>
       <c r="J1503" s="1" t="s">
-        <v>1920</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1504" spans="1:10" x14ac:dyDescent="0.2">
@@ -60408,7 +60417,7 @@
       <c r="H1504" s="9"/>
       <c r="I1504"/>
       <c r="J1504" s="1" t="s">
-        <v>1924</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.2">
@@ -60433,7 +60442,7 @@
       <c r="H1505" s="9"/>
       <c r="I1505"/>
       <c r="J1505" s="1" t="s">
-        <v>1927</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1506" spans="1:10" x14ac:dyDescent="0.2">
@@ -60458,7 +60467,7 @@
       <c r="H1506" s="9"/>
       <c r="I1506"/>
       <c r="J1506" s="1" t="s">
-        <v>1931</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1507" spans="1:10" x14ac:dyDescent="0.2">
@@ -60483,7 +60492,7 @@
       <c r="H1507" s="9"/>
       <c r="I1507"/>
       <c r="J1507" s="1" t="s">
-        <v>1935</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1508" spans="1:10" x14ac:dyDescent="0.2">
@@ -60508,7 +60517,7 @@
       <c r="H1508" s="9"/>
       <c r="I1508"/>
       <c r="J1508" s="1" t="s">
-        <v>1939</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1509" spans="1:10" x14ac:dyDescent="0.2">
@@ -60533,7 +60542,7 @@
       <c r="H1509" s="9"/>
       <c r="I1509"/>
       <c r="J1509" s="1" t="s">
-        <v>1942</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1510" spans="1:10" x14ac:dyDescent="0.2">
@@ -60558,7 +60567,7 @@
       <c r="H1510" s="9"/>
       <c r="I1510"/>
       <c r="J1510" s="1" t="s">
-        <v>1945</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1511" spans="1:10" x14ac:dyDescent="0.2">
@@ -60583,7 +60592,7 @@
       <c r="H1511" s="9"/>
       <c r="I1511"/>
       <c r="J1511" s="1" t="s">
-        <v>1949</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1512" spans="1:10" x14ac:dyDescent="0.2">
@@ -60608,7 +60617,7 @@
       <c r="H1512" s="9"/>
       <c r="I1512"/>
       <c r="J1512" s="1" t="s">
-        <v>311</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1513" spans="1:10" x14ac:dyDescent="0.2">
@@ -60633,7 +60642,7 @@
       <c r="H1513" s="9"/>
       <c r="I1513"/>
       <c r="J1513" s="1" t="s">
-        <v>1955</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1514" spans="1:10" x14ac:dyDescent="0.2">
@@ -60661,7 +60670,7 @@
       <c r="H1514" s="9"/>
       <c r="I1514"/>
       <c r="J1514" s="1" t="s">
-        <v>1958</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1515" spans="1:10" x14ac:dyDescent="0.2">
@@ -60686,7 +60695,7 @@
       <c r="H1515" s="9"/>
       <c r="I1515"/>
       <c r="J1515" s="1" t="s">
-        <v>1961</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1516" spans="1:10" x14ac:dyDescent="0.2">
@@ -60711,7 +60720,7 @@
       <c r="H1516" s="9"/>
       <c r="I1516"/>
       <c r="J1516" s="1" t="s">
-        <v>1965</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1517" spans="1:10" x14ac:dyDescent="0.2">
@@ -60736,7 +60745,7 @@
       <c r="H1517" s="9"/>
       <c r="I1517"/>
       <c r="J1517" s="1" t="s">
-        <v>1968</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1518" spans="1:10" x14ac:dyDescent="0.2">
@@ -60761,7 +60770,7 @@
       <c r="H1518" s="9"/>
       <c r="I1518"/>
       <c r="J1518" s="1" t="s">
-        <v>1971</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1519" spans="1:10" x14ac:dyDescent="0.2">
@@ -60786,7 +60795,7 @@
       <c r="H1519" s="9"/>
       <c r="I1519"/>
       <c r="J1519" s="1" t="s">
-        <v>1973</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1520" spans="1:10" x14ac:dyDescent="0.2">
@@ -60811,7 +60820,7 @@
       <c r="H1520" s="9"/>
       <c r="I1520"/>
       <c r="J1520" s="1" t="s">
-        <v>1976</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1521" spans="1:10" x14ac:dyDescent="0.2">
@@ -60839,7 +60848,7 @@
       <c r="H1521" s="9"/>
       <c r="I1521"/>
       <c r="J1521" s="1" t="s">
-        <v>1979</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1522" spans="1:10" x14ac:dyDescent="0.2">
@@ -60867,7 +60876,7 @@
       <c r="H1522" s="9"/>
       <c r="I1522"/>
       <c r="J1522" s="1" t="s">
-        <v>1984</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1523" spans="1:10" x14ac:dyDescent="0.2">
@@ -60895,7 +60904,7 @@
       <c r="H1523" s="9"/>
       <c r="I1523"/>
       <c r="J1523" s="1" t="s">
-        <v>1987</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1524" spans="1:10" x14ac:dyDescent="0.2">
@@ -60923,7 +60932,7 @@
       <c r="H1524" s="9"/>
       <c r="I1524"/>
       <c r="J1524" s="1" t="s">
-        <v>1990</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1525" spans="1:10" x14ac:dyDescent="0.2">
@@ -60948,7 +60957,7 @@
       <c r="H1525" s="9"/>
       <c r="I1525"/>
       <c r="J1525" s="1" t="s">
-        <v>1993</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1526" spans="1:10" x14ac:dyDescent="0.2">
@@ -60973,7 +60982,7 @@
       <c r="H1526" s="9"/>
       <c r="I1526"/>
       <c r="J1526" s="1" t="s">
-        <v>4495</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1527" spans="1:10" x14ac:dyDescent="0.2">
@@ -61001,7 +61010,7 @@
       <c r="H1527" s="9"/>
       <c r="I1527"/>
       <c r="J1527" s="1" t="s">
-        <v>4496</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1528" spans="1:10" x14ac:dyDescent="0.2">
@@ -61026,7 +61035,7 @@
       <c r="H1528" s="9"/>
       <c r="I1528"/>
       <c r="J1528" s="1" t="s">
-        <v>4497</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1529" spans="1:10" x14ac:dyDescent="0.2">
@@ -61051,7 +61060,7 @@
       <c r="H1529" s="9"/>
       <c r="I1529"/>
       <c r="J1529" s="1" t="s">
-        <v>1996</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1530" spans="1:10" x14ac:dyDescent="0.2">
@@ -61076,7 +61085,7 @@
       <c r="H1530" s="9"/>
       <c r="I1530"/>
       <c r="J1530" s="1" t="s">
-        <v>2000</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1531" spans="1:10" x14ac:dyDescent="0.2">
@@ -61101,7 +61110,7 @@
       <c r="H1531" s="9"/>
       <c r="I1531"/>
       <c r="J1531" s="1" t="s">
-        <v>2004</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1532" spans="1:10" x14ac:dyDescent="0.2">
@@ -61126,7 +61135,7 @@
       <c r="H1532" s="9"/>
       <c r="I1532"/>
       <c r="J1532" s="1" t="s">
-        <v>783</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1533" spans="1:10" x14ac:dyDescent="0.2">
@@ -61151,7 +61160,7 @@
       <c r="H1533" s="9"/>
       <c r="I1533"/>
       <c r="J1533" s="1" t="s">
-        <v>2011</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1534" spans="1:10" x14ac:dyDescent="0.2">
@@ -61179,7 +61188,7 @@
       <c r="H1534" s="9"/>
       <c r="I1534"/>
       <c r="J1534" s="1" t="s">
-        <v>2014</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1535" spans="1:10" x14ac:dyDescent="0.2">
@@ -61203,8 +61212,8 @@
       </c>
       <c r="H1535" s="9"/>
       <c r="I1535"/>
-      <c r="J1535" s="1">
-        <v>300</v>
+      <c r="J1535" s="1" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="1536" spans="1:10" x14ac:dyDescent="0.2">
@@ -61229,7 +61238,7 @@
       <c r="H1536" s="9"/>
       <c r="I1536"/>
       <c r="J1536" s="1" t="s">
-        <v>2021</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1537" spans="1:10" x14ac:dyDescent="0.2">
@@ -61257,7 +61266,7 @@
       <c r="H1537" s="9"/>
       <c r="I1537"/>
       <c r="J1537" s="1" t="s">
-        <v>2025</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1538" spans="1:10" x14ac:dyDescent="0.2">
@@ -61282,7 +61291,7 @@
       <c r="H1538" s="9"/>
       <c r="I1538"/>
       <c r="J1538" s="1" t="s">
-        <v>2027</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1539" spans="1:10" x14ac:dyDescent="0.2">
@@ -61307,7 +61316,7 @@
       <c r="H1539" s="9"/>
       <c r="I1539"/>
       <c r="J1539" s="1" t="s">
-        <v>2030</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1540" spans="1:10" x14ac:dyDescent="0.2">
@@ -61332,7 +61341,7 @@
       <c r="H1540" s="9"/>
       <c r="I1540"/>
       <c r="J1540" s="1" t="s">
-        <v>2033</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1541" spans="1:10" x14ac:dyDescent="0.2">
@@ -61357,7 +61366,7 @@
       <c r="H1541" s="9"/>
       <c r="I1541"/>
       <c r="J1541" s="1" t="s">
-        <v>2038</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1542" spans="1:10" x14ac:dyDescent="0.2">
@@ -61382,7 +61391,7 @@
       <c r="H1542" s="9"/>
       <c r="I1542"/>
       <c r="J1542" s="1" t="s">
-        <v>2041</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1543" spans="1:10" x14ac:dyDescent="0.2">
@@ -61407,7 +61416,7 @@
       <c r="H1543" s="9"/>
       <c r="I1543"/>
       <c r="J1543" s="1" t="s">
-        <v>2044</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1544" spans="1:10" x14ac:dyDescent="0.2">
@@ -61432,7 +61441,7 @@
       <c r="H1544" s="9"/>
       <c r="I1544"/>
       <c r="J1544" s="1" t="s">
-        <v>2048</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1545" spans="1:10" x14ac:dyDescent="0.2">
@@ -61457,7 +61466,7 @@
       <c r="H1545" s="9"/>
       <c r="I1545"/>
       <c r="J1545" s="1" t="s">
-        <v>2051</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1546" spans="1:10" x14ac:dyDescent="0.2">
@@ -61482,7 +61491,7 @@
       <c r="H1546" s="9"/>
       <c r="I1546"/>
       <c r="J1546" s="1" t="s">
-        <v>2055</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1547" spans="1:10" x14ac:dyDescent="0.2">
@@ -61507,7 +61516,7 @@
       <c r="H1547" s="9"/>
       <c r="I1547"/>
       <c r="J1547" s="1" t="s">
-        <v>2059</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1548" spans="1:10" x14ac:dyDescent="0.2">
@@ -61532,7 +61541,7 @@
       <c r="H1548" s="9"/>
       <c r="I1548"/>
       <c r="J1548" s="1" t="s">
-        <v>2061</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1549" spans="1:10" x14ac:dyDescent="0.2">
@@ -61557,7 +61566,7 @@
       <c r="H1549" s="9"/>
       <c r="I1549"/>
       <c r="J1549" s="1" t="s">
-        <v>2064</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1550" spans="1:10" x14ac:dyDescent="0.2">
@@ -61582,7 +61591,7 @@
       <c r="H1550" s="9"/>
       <c r="I1550"/>
       <c r="J1550" s="1" t="s">
-        <v>2068</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1551" spans="1:10" x14ac:dyDescent="0.2">
@@ -61607,7 +61616,7 @@
       <c r="H1551" s="9"/>
       <c r="I1551"/>
       <c r="J1551" s="1" t="s">
-        <v>2071</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1552" spans="1:10" x14ac:dyDescent="0.2">
@@ -61632,7 +61641,7 @@
       <c r="H1552" s="9"/>
       <c r="I1552"/>
       <c r="J1552" s="1" t="s">
-        <v>2074</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1553" spans="1:10" x14ac:dyDescent="0.2">
@@ -61657,7 +61666,7 @@
       <c r="H1553" s="9"/>
       <c r="I1553"/>
       <c r="J1553" s="1" t="s">
-        <v>2077</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1554" spans="1:10" x14ac:dyDescent="0.2">
@@ -61682,7 +61691,7 @@
       <c r="H1554" s="9"/>
       <c r="I1554"/>
       <c r="J1554" s="1" t="s">
-        <v>2081</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1555" spans="1:10" x14ac:dyDescent="0.2">
@@ -61707,7 +61716,7 @@
       <c r="H1555" s="9"/>
       <c r="I1555"/>
       <c r="J1555" s="1" t="s">
-        <v>2084</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1556" spans="1:10" x14ac:dyDescent="0.2">
@@ -61732,7 +61741,7 @@
       <c r="H1556" s="9"/>
       <c r="I1556"/>
       <c r="J1556" s="1" t="s">
-        <v>2088</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1557" spans="1:10" x14ac:dyDescent="0.2">
@@ -61757,7 +61766,7 @@
       <c r="H1557" s="9"/>
       <c r="I1557"/>
       <c r="J1557" s="1" t="s">
-        <v>2091</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1558" spans="1:10" x14ac:dyDescent="0.2">
@@ -61782,7 +61791,7 @@
       <c r="H1558" s="9"/>
       <c r="I1558"/>
       <c r="J1558" s="1" t="s">
-        <v>2095</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1559" spans="1:10" x14ac:dyDescent="0.2">
@@ -61807,7 +61816,7 @@
       <c r="H1559" s="9"/>
       <c r="I1559"/>
       <c r="J1559" s="1" t="s">
-        <v>2097</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1560" spans="1:10" x14ac:dyDescent="0.2">
@@ -61832,7 +61841,7 @@
       <c r="H1560" s="9"/>
       <c r="I1560"/>
       <c r="J1560" s="1" t="s">
-        <v>2100</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1561" spans="1:10" x14ac:dyDescent="0.2">
@@ -61857,7 +61866,7 @@
       <c r="H1561" s="9"/>
       <c r="I1561"/>
       <c r="J1561" s="1" t="s">
-        <v>2104</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1562" spans="1:10" x14ac:dyDescent="0.2">
@@ -61882,7 +61891,7 @@
       <c r="H1562" s="9"/>
       <c r="I1562"/>
       <c r="J1562" s="1" t="s">
-        <v>2107</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1563" spans="1:10" x14ac:dyDescent="0.2">
@@ -61906,8 +61915,8 @@
       </c>
       <c r="H1563" s="9"/>
       <c r="I1563"/>
-      <c r="J1563" s="1" t="s">
-        <v>2110</v>
+      <c r="J1563" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="1564" spans="1:10" x14ac:dyDescent="0.2">
@@ -61932,7 +61941,7 @@
       <c r="H1564" s="9"/>
       <c r="I1564"/>
       <c r="J1564" s="1" t="s">
-        <v>2113</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1565" spans="1:10" x14ac:dyDescent="0.2">
@@ -61957,7 +61966,7 @@
       <c r="H1565" s="9"/>
       <c r="I1565"/>
       <c r="J1565" s="1" t="s">
-        <v>2116</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1566" spans="1:10" x14ac:dyDescent="0.2">
@@ -61982,7 +61991,7 @@
       <c r="H1566" s="9"/>
       <c r="I1566"/>
       <c r="J1566" s="1" t="s">
-        <v>2121</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1567" spans="1:10" x14ac:dyDescent="0.2">
@@ -62007,7 +62016,7 @@
       <c r="H1567" s="9"/>
       <c r="I1567"/>
       <c r="J1567" s="1" t="s">
-        <v>977</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1568" spans="1:10" x14ac:dyDescent="0.2">
@@ -62032,7 +62041,7 @@
       <c r="H1568" s="9"/>
       <c r="I1568"/>
       <c r="J1568" s="1" t="s">
-        <v>2127</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1569" spans="1:10" x14ac:dyDescent="0.2">
@@ -62057,7 +62066,7 @@
       <c r="H1569" s="9"/>
       <c r="I1569"/>
       <c r="J1569" s="1" t="s">
-        <v>2130</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1570" spans="1:10" x14ac:dyDescent="0.2">
@@ -62082,7 +62091,7 @@
       <c r="H1570" s="9"/>
       <c r="I1570"/>
       <c r="J1570" s="1" t="s">
-        <v>2133</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1571" spans="1:10" x14ac:dyDescent="0.2">
@@ -62107,7 +62116,7 @@
       <c r="H1571" s="9"/>
       <c r="I1571"/>
       <c r="J1571" s="1" t="s">
-        <v>2136</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1572" spans="1:10" x14ac:dyDescent="0.2">
@@ -62132,7 +62141,7 @@
       <c r="H1572" s="9"/>
       <c r="I1572"/>
       <c r="J1572" s="1" t="s">
-        <v>2139</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1573" spans="1:10" x14ac:dyDescent="0.2">
@@ -62157,7 +62166,7 @@
       <c r="H1573" s="9"/>
       <c r="I1573"/>
       <c r="J1573" s="1" t="s">
-        <v>2142</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1574" spans="1:10" x14ac:dyDescent="0.2">
@@ -62182,7 +62191,7 @@
       <c r="H1574" s="9"/>
       <c r="I1574"/>
       <c r="J1574" s="1" t="s">
-        <v>2146</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1575" spans="1:10" x14ac:dyDescent="0.2">
@@ -62207,7 +62216,7 @@
       <c r="H1575" s="9"/>
       <c r="I1575"/>
       <c r="J1575" s="1" t="s">
-        <v>2150</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1576" spans="1:10" x14ac:dyDescent="0.2">
@@ -62232,7 +62241,7 @@
       <c r="H1576" s="9"/>
       <c r="I1576"/>
       <c r="J1576" s="1" t="s">
-        <v>2154</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1577" spans="1:10" x14ac:dyDescent="0.2">
@@ -62257,7 +62266,7 @@
       <c r="H1577" s="9"/>
       <c r="I1577"/>
       <c r="J1577" s="1" t="s">
-        <v>2158</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1578" spans="1:10" x14ac:dyDescent="0.2">
@@ -62282,7 +62291,7 @@
       <c r="H1578" s="9"/>
       <c r="I1578"/>
       <c r="J1578" s="1" t="s">
-        <v>2162</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1579" spans="1:10" x14ac:dyDescent="0.2">
@@ -62307,7 +62316,7 @@
       <c r="H1579" s="9"/>
       <c r="I1579"/>
       <c r="J1579" s="1" t="s">
-        <v>2166</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1580" spans="1:10" x14ac:dyDescent="0.2">
@@ -62332,7 +62341,7 @@
       <c r="H1580" s="9"/>
       <c r="I1580"/>
       <c r="J1580" s="1" t="s">
-        <v>2169</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1581" spans="1:10" x14ac:dyDescent="0.2">
@@ -62357,7 +62366,7 @@
       <c r="H1581" s="9"/>
       <c r="I1581"/>
       <c r="J1581" s="1" t="s">
-        <v>2173</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1582" spans="1:10" x14ac:dyDescent="0.2">
@@ -62385,7 +62394,7 @@
       <c r="H1582" s="9"/>
       <c r="I1582"/>
       <c r="J1582" s="1" t="s">
-        <v>2176</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1583" spans="1:10" x14ac:dyDescent="0.2">
@@ -62410,7 +62419,7 @@
       <c r="H1583" s="9"/>
       <c r="I1583"/>
       <c r="J1583" s="1" t="s">
-        <v>2179</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1584" spans="1:10" x14ac:dyDescent="0.2">
@@ -62435,7 +62444,7 @@
       <c r="H1584" s="9"/>
       <c r="I1584"/>
       <c r="J1584" s="1" t="s">
-        <v>2183</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1585" spans="1:10" x14ac:dyDescent="0.2">
@@ -62463,7 +62472,7 @@
       <c r="H1585" s="9"/>
       <c r="I1585"/>
       <c r="J1585" s="1" t="s">
-        <v>2186</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1586" spans="1:10" x14ac:dyDescent="0.2">
@@ -62488,7 +62497,7 @@
       <c r="H1586" s="9"/>
       <c r="I1586"/>
       <c r="J1586" s="1" t="s">
-        <v>2190</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1587" spans="1:10" x14ac:dyDescent="0.2">
@@ -62513,7 +62522,7 @@
       <c r="H1587" s="9"/>
       <c r="I1587"/>
       <c r="J1587" s="1" t="s">
-        <v>3593</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1588" spans="1:10" x14ac:dyDescent="0.2">
@@ -62541,7 +62550,7 @@
       <c r="H1588" s="9"/>
       <c r="I1588"/>
       <c r="J1588" s="1" t="s">
-        <v>4498</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1589" spans="1:10" x14ac:dyDescent="0.2">
@@ -62569,7 +62578,7 @@
       <c r="H1589" s="9"/>
       <c r="I1589"/>
       <c r="J1589" s="1" t="s">
-        <v>3540</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1590" spans="1:10" x14ac:dyDescent="0.2">
@@ -62594,7 +62603,7 @@
       <c r="H1590" s="9"/>
       <c r="I1590"/>
       <c r="J1590" s="1" t="s">
-        <v>3631</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1591" spans="1:10" x14ac:dyDescent="0.2">
@@ -62622,7 +62631,7 @@
       <c r="H1591" s="9"/>
       <c r="I1591"/>
       <c r="J1591" s="1" t="s">
-        <v>4499</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1592" spans="1:10" x14ac:dyDescent="0.2">
@@ -62647,7 +62656,7 @@
       <c r="H1592" s="9"/>
       <c r="I1592"/>
       <c r="J1592" s="1" t="s">
-        <v>4500</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1593" spans="1:10" x14ac:dyDescent="0.2">
@@ -62672,7 +62681,7 @@
       <c r="H1593" s="9"/>
       <c r="I1593"/>
       <c r="J1593" s="1" t="s">
-        <v>4501</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1594" spans="1:10" x14ac:dyDescent="0.2">
@@ -62697,7 +62706,7 @@
       <c r="H1594" s="9"/>
       <c r="I1594"/>
       <c r="J1594" s="1" t="s">
-        <v>4502</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1595" spans="1:10" x14ac:dyDescent="0.2">
@@ -62722,7 +62731,7 @@
       <c r="H1595" s="9"/>
       <c r="I1595"/>
       <c r="J1595" s="1" t="s">
-        <v>3562</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1596" spans="1:10" x14ac:dyDescent="0.2">
@@ -62747,7 +62756,7 @@
       <c r="H1596" s="9"/>
       <c r="I1596"/>
       <c r="J1596" s="1" t="s">
-        <v>3593</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1597" spans="1:10" x14ac:dyDescent="0.2">
@@ -62772,7 +62781,7 @@
       <c r="H1597" s="9"/>
       <c r="I1597"/>
       <c r="J1597" s="1" t="s">
-        <v>2193</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1598" spans="1:10" x14ac:dyDescent="0.2">
@@ -62797,7 +62806,7 @@
       <c r="H1598" s="9"/>
       <c r="I1598"/>
       <c r="J1598" s="1" t="s">
-        <v>2196</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1599" spans="1:10" x14ac:dyDescent="0.2">
@@ -62822,7 +62831,7 @@
       <c r="H1599" s="9"/>
       <c r="I1599"/>
       <c r="J1599" s="1" t="s">
-        <v>2199</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1600" spans="1:10" x14ac:dyDescent="0.2">
@@ -62847,7 +62856,7 @@
       <c r="H1600" s="9"/>
       <c r="I1600"/>
       <c r="J1600" s="1" t="s">
-        <v>2202</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1601" spans="1:10" x14ac:dyDescent="0.2">
@@ -62872,7 +62881,7 @@
       <c r="H1601" s="9"/>
       <c r="I1601"/>
       <c r="J1601" s="1" t="s">
-        <v>2206</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1602" spans="1:10" x14ac:dyDescent="0.2">
@@ -62897,7 +62906,7 @@
       <c r="H1602" s="9"/>
       <c r="I1602"/>
       <c r="J1602" s="1" t="s">
-        <v>2209</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1603" spans="1:10" x14ac:dyDescent="0.2">
@@ -62922,7 +62931,7 @@
       <c r="H1603" s="9"/>
       <c r="I1603"/>
       <c r="J1603" s="1" t="s">
-        <v>2213</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1604" spans="1:10" x14ac:dyDescent="0.2">
@@ -62947,7 +62956,7 @@
       <c r="H1604" s="9"/>
       <c r="I1604"/>
       <c r="J1604" s="1" t="s">
-        <v>2216</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1605" spans="1:10" x14ac:dyDescent="0.2">
@@ -62972,7 +62981,7 @@
       <c r="H1605" s="9"/>
       <c r="I1605"/>
       <c r="J1605" s="1" t="s">
-        <v>2219</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1606" spans="1:10" x14ac:dyDescent="0.2">
@@ -63000,7 +63009,7 @@
       <c r="H1606" s="9"/>
       <c r="I1606"/>
       <c r="J1606" s="1" t="s">
-        <v>2224</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1607" spans="1:10" x14ac:dyDescent="0.2">
@@ -63025,7 +63034,7 @@
       <c r="H1607" s="9"/>
       <c r="I1607"/>
       <c r="J1607" s="1" t="s">
-        <v>2228</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1608" spans="1:10" x14ac:dyDescent="0.2">
@@ -63050,7 +63059,7 @@
       <c r="H1608" s="9"/>
       <c r="I1608"/>
       <c r="J1608" s="1" t="s">
-        <v>2231</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1609" spans="1:10" x14ac:dyDescent="0.2">
@@ -63075,7 +63084,7 @@
       <c r="H1609" s="9"/>
       <c r="I1609"/>
       <c r="J1609" s="1" t="s">
-        <v>2234</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1610" spans="1:10" x14ac:dyDescent="0.2">
@@ -63100,7 +63109,7 @@
       <c r="H1610" s="9"/>
       <c r="I1610"/>
       <c r="J1610" s="1" t="s">
-        <v>2237</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1611" spans="1:10" x14ac:dyDescent="0.2">
@@ -63125,7 +63134,7 @@
       <c r="H1611" s="9"/>
       <c r="I1611"/>
       <c r="J1611" s="1" t="s">
-        <v>2241</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1612" spans="1:10" x14ac:dyDescent="0.2">
@@ -63150,7 +63159,7 @@
       <c r="H1612" s="9"/>
       <c r="I1612"/>
       <c r="J1612" s="1" t="s">
-        <v>2244</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1613" spans="1:10" x14ac:dyDescent="0.2">
@@ -63175,7 +63184,7 @@
       <c r="H1613" s="9"/>
       <c r="I1613"/>
       <c r="J1613" s="1" t="s">
-        <v>2248</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1614" spans="1:10" x14ac:dyDescent="0.2">
@@ -63200,7 +63209,7 @@
       <c r="H1614" s="9"/>
       <c r="I1614"/>
       <c r="J1614" s="1" t="s">
-        <v>2252</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1615" spans="1:10" x14ac:dyDescent="0.2">
@@ -63225,7 +63234,7 @@
       <c r="H1615" s="9"/>
       <c r="I1615"/>
       <c r="J1615" s="1" t="s">
-        <v>2255</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1616" spans="1:10" x14ac:dyDescent="0.2">
@@ -63253,7 +63262,7 @@
       <c r="H1616" s="9"/>
       <c r="I1616"/>
       <c r="J1616" s="1" t="s">
-        <v>2258</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1617" spans="1:10" x14ac:dyDescent="0.2">
@@ -63278,7 +63287,7 @@
       <c r="H1617" s="9"/>
       <c r="I1617"/>
       <c r="J1617" s="1" t="s">
-        <v>2262</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1618" spans="1:10" x14ac:dyDescent="0.2">
@@ -63303,7 +63312,7 @@
       <c r="H1618" s="9"/>
       <c r="I1618"/>
       <c r="J1618" s="1" t="s">
-        <v>2266</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1619" spans="1:10" x14ac:dyDescent="0.2">
@@ -63328,7 +63337,7 @@
       <c r="H1619" s="9"/>
       <c r="I1619"/>
       <c r="J1619" s="1" t="s">
-        <v>2269</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1620" spans="1:10" x14ac:dyDescent="0.2">
@@ -63353,7 +63362,7 @@
       <c r="H1620" s="9"/>
       <c r="I1620"/>
       <c r="J1620" s="1" t="s">
-        <v>2273</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1621" spans="1:10" x14ac:dyDescent="0.2">
@@ -63378,7 +63387,7 @@
       <c r="H1621" s="9"/>
       <c r="I1621"/>
       <c r="J1621" s="1" t="s">
-        <v>2276</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1622" spans="1:10" x14ac:dyDescent="0.2">
@@ -63403,7 +63412,7 @@
       <c r="H1622" s="9"/>
       <c r="I1622"/>
       <c r="J1622" s="1" t="s">
-        <v>2280</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1623" spans="1:10" x14ac:dyDescent="0.2">
@@ -63428,7 +63437,7 @@
       <c r="H1623" s="9"/>
       <c r="I1623"/>
       <c r="J1623" s="1" t="s">
-        <v>2284</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="1624" spans="1:10" x14ac:dyDescent="0.2">
@@ -63453,7 +63462,7 @@
       <c r="H1624" s="9"/>
       <c r="I1624"/>
       <c r="J1624" s="1" t="s">
-        <v>2289</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1625" spans="1:10" x14ac:dyDescent="0.2">
@@ -63478,7 +63487,7 @@
       <c r="H1625" s="9"/>
       <c r="I1625"/>
       <c r="J1625" s="1" t="s">
-        <v>2292</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1626" spans="1:10" x14ac:dyDescent="0.2">
@@ -63503,7 +63512,7 @@
       <c r="H1626" s="9"/>
       <c r="I1626"/>
       <c r="J1626" s="1" t="s">
-        <v>2296</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1627" spans="1:10" x14ac:dyDescent="0.2">
@@ -63528,7 +63537,7 @@
       <c r="H1627" s="9"/>
       <c r="I1627"/>
       <c r="J1627" s="1" t="s">
-        <v>2299</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1628" spans="1:10" x14ac:dyDescent="0.2">
@@ -63553,7 +63562,7 @@
       <c r="H1628" s="9"/>
       <c r="I1628"/>
       <c r="J1628" s="1" t="s">
-        <v>2303</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1629" spans="1:10" x14ac:dyDescent="0.2">
@@ -63578,7 +63587,7 @@
       <c r="H1629" s="9"/>
       <c r="I1629"/>
       <c r="J1629" s="1" t="s">
-        <v>2306</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1630" spans="1:10" x14ac:dyDescent="0.2">
@@ -63603,7 +63612,7 @@
       <c r="H1630" s="9"/>
       <c r="I1630"/>
       <c r="J1630" s="1" t="s">
-        <v>2309</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1631" spans="1:10" x14ac:dyDescent="0.2">
@@ -63628,7 +63637,7 @@
       <c r="H1631" s="9"/>
       <c r="I1631"/>
       <c r="J1631" s="1" t="s">
-        <v>2312</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1632" spans="1:10" x14ac:dyDescent="0.2">
@@ -63653,7 +63662,7 @@
       <c r="H1632" s="9"/>
       <c r="I1632"/>
       <c r="J1632" s="1" t="s">
-        <v>2315</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1633" spans="1:10" x14ac:dyDescent="0.2">
@@ -63678,7 +63687,7 @@
       <c r="H1633" s="9"/>
       <c r="I1633"/>
       <c r="J1633" s="1" t="s">
-        <v>2318</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1634" spans="1:10" x14ac:dyDescent="0.2">
@@ -63703,7 +63712,7 @@
       <c r="H1634" s="9"/>
       <c r="I1634"/>
       <c r="J1634" s="1" t="s">
-        <v>2322</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1635" spans="1:10" x14ac:dyDescent="0.2">
@@ -63728,7 +63737,7 @@
       <c r="H1635" s="9"/>
       <c r="I1635"/>
       <c r="J1635" s="1" t="s">
-        <v>2326</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1636" spans="1:10" x14ac:dyDescent="0.2">
@@ -63753,7 +63762,7 @@
       <c r="H1636" s="9"/>
       <c r="I1636"/>
       <c r="J1636" s="1" t="s">
-        <v>2329</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1637" spans="1:10" x14ac:dyDescent="0.2">
@@ -63778,7 +63787,7 @@
       <c r="H1637" s="9"/>
       <c r="I1637"/>
       <c r="J1637" s="1" t="s">
-        <v>2332</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1638" spans="1:10" x14ac:dyDescent="0.2">
@@ -63803,7 +63812,7 @@
       <c r="H1638" s="9"/>
       <c r="I1638"/>
       <c r="J1638" s="1" t="s">
-        <v>2336</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1639" spans="1:10" x14ac:dyDescent="0.2">
@@ -63828,7 +63837,7 @@
       <c r="H1639" s="9"/>
       <c r="I1639"/>
       <c r="J1639" s="1" t="s">
-        <v>4503</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1640" spans="1:10" x14ac:dyDescent="0.2">
@@ -63853,7 +63862,7 @@
       <c r="H1640" s="9"/>
       <c r="I1640"/>
       <c r="J1640" s="1" t="s">
-        <v>3751</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1641" spans="1:10" x14ac:dyDescent="0.2">
@@ -63878,7 +63887,7 @@
       <c r="H1641" s="9"/>
       <c r="I1641"/>
       <c r="J1641" s="1" t="s">
-        <v>2339</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1642" spans="1:10" x14ac:dyDescent="0.2">
@@ -63903,7 +63912,7 @@
       <c r="H1642" s="9"/>
       <c r="I1642"/>
       <c r="J1642" s="1" t="s">
-        <v>2342</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1643" spans="1:10" x14ac:dyDescent="0.2">
@@ -63928,7 +63937,7 @@
       <c r="H1643" s="9"/>
       <c r="I1643"/>
       <c r="J1643" s="1" t="s">
-        <v>2345</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1644" spans="1:10" x14ac:dyDescent="0.2">
@@ -63953,7 +63962,7 @@
       <c r="H1644" s="9"/>
       <c r="I1644"/>
       <c r="J1644" s="1" t="s">
-        <v>2348</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1645" spans="1:10" x14ac:dyDescent="0.2">
@@ -63978,7 +63987,7 @@
       <c r="H1645" s="9"/>
       <c r="I1645"/>
       <c r="J1645" s="1" t="s">
-        <v>2351</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1646" spans="1:10" x14ac:dyDescent="0.2">
@@ -64003,7 +64012,7 @@
       <c r="H1646" s="9"/>
       <c r="I1646"/>
       <c r="J1646" s="1" t="s">
-        <v>2353</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1647" spans="1:10" x14ac:dyDescent="0.2">
@@ -64028,7 +64037,7 @@
       <c r="H1647" s="9"/>
       <c r="I1647"/>
       <c r="J1647" s="1" t="s">
-        <v>2357</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1648" spans="1:10" x14ac:dyDescent="0.2">
@@ -64053,7 +64062,7 @@
       <c r="H1648" s="9"/>
       <c r="I1648"/>
       <c r="J1648" s="1" t="s">
-        <v>2360</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1649" spans="1:10" x14ac:dyDescent="0.2">
@@ -64081,7 +64090,7 @@
       <c r="H1649" s="9"/>
       <c r="I1649"/>
       <c r="J1649" s="1" t="s">
-        <v>2363</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1650" spans="1:10" x14ac:dyDescent="0.2">
@@ -64106,7 +64115,7 @@
       <c r="H1650" s="9"/>
       <c r="I1650"/>
       <c r="J1650" s="1" t="s">
-        <v>2366</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1651" spans="1:10" x14ac:dyDescent="0.2">
@@ -64131,7 +64140,7 @@
       <c r="H1651" s="9"/>
       <c r="I1651"/>
       <c r="J1651" s="1" t="s">
-        <v>2369</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1652" spans="1:10" x14ac:dyDescent="0.2">
@@ -64156,7 +64165,7 @@
       <c r="H1652" s="9"/>
       <c r="I1652"/>
       <c r="J1652" s="1" t="s">
-        <v>2372</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1653" spans="1:10" x14ac:dyDescent="0.2">
@@ -64184,7 +64193,7 @@
       <c r="H1653" s="9"/>
       <c r="I1653"/>
       <c r="J1653" s="1" t="s">
-        <v>2376</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1654" spans="1:10" x14ac:dyDescent="0.2">
@@ -64209,7 +64218,7 @@
       <c r="H1654" s="9"/>
       <c r="I1654"/>
       <c r="J1654" s="1" t="s">
-        <v>2379</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1655" spans="1:10" x14ac:dyDescent="0.2">
@@ -64234,7 +64243,7 @@
       <c r="H1655" s="9"/>
       <c r="I1655"/>
       <c r="J1655" s="1" t="s">
-        <v>2382</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1656" spans="1:10" x14ac:dyDescent="0.2">
@@ -64262,7 +64271,7 @@
       <c r="H1656" s="9"/>
       <c r="I1656"/>
       <c r="J1656" s="1" t="s">
-        <v>2387</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1657" spans="1:10" x14ac:dyDescent="0.2">
@@ -64287,7 +64296,7 @@
       <c r="H1657" s="9"/>
       <c r="I1657"/>
       <c r="J1657" s="1" t="s">
-        <v>2390</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1658" spans="1:10" x14ac:dyDescent="0.2">
@@ -64312,7 +64321,7 @@
       <c r="H1658" s="9"/>
       <c r="I1658"/>
       <c r="J1658" s="1" t="s">
-        <v>2393</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1659" spans="1:10" x14ac:dyDescent="0.2">
@@ -64337,7 +64346,7 @@
       <c r="H1659" s="9"/>
       <c r="I1659"/>
       <c r="J1659" s="1" t="s">
-        <v>2396</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1660" spans="1:10" x14ac:dyDescent="0.2">
@@ -64362,7 +64371,7 @@
       <c r="H1660" s="9"/>
       <c r="I1660"/>
       <c r="J1660" s="1" t="s">
-        <v>2399</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1661" spans="1:10" x14ac:dyDescent="0.2">
@@ -64387,7 +64396,7 @@
       <c r="H1661" s="9"/>
       <c r="I1661"/>
       <c r="J1661" s="1" t="s">
-        <v>2403</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1662" spans="1:10" x14ac:dyDescent="0.2">
@@ -64412,7 +64421,7 @@
       <c r="H1662" s="9"/>
       <c r="I1662"/>
       <c r="J1662" s="1" t="s">
-        <v>2406</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1663" spans="1:10" x14ac:dyDescent="0.2">
@@ -64437,7 +64446,7 @@
       <c r="H1663" s="9"/>
       <c r="I1663"/>
       <c r="J1663" s="1" t="s">
-        <v>2410</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1664" spans="1:10" x14ac:dyDescent="0.2">
@@ -64462,7 +64471,7 @@
       <c r="H1664" s="9"/>
       <c r="I1664"/>
       <c r="J1664" s="1" t="s">
-        <v>570</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1665" spans="1:10" x14ac:dyDescent="0.2">
@@ -64487,7 +64496,7 @@
       <c r="H1665" s="9"/>
       <c r="I1665"/>
       <c r="J1665" s="1" t="s">
-        <v>357</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1666" spans="1:10" x14ac:dyDescent="0.2">
@@ -64512,7 +64521,7 @@
       <c r="H1666" s="9"/>
       <c r="I1666"/>
       <c r="J1666" s="1" t="s">
-        <v>2417</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1667" spans="1:10" x14ac:dyDescent="0.2">
@@ -64540,7 +64549,7 @@
       <c r="H1667" s="9"/>
       <c r="I1667"/>
       <c r="J1667" s="1" t="s">
-        <v>2420</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1668" spans="1:10" x14ac:dyDescent="0.2">
@@ -64565,7 +64574,7 @@
       <c r="H1668" s="9"/>
       <c r="I1668"/>
       <c r="J1668" s="1" t="s">
-        <v>2424</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1669" spans="1:10" x14ac:dyDescent="0.2">
@@ -64590,7 +64599,7 @@
       <c r="H1669" s="9"/>
       <c r="I1669"/>
       <c r="J1669" s="1" t="s">
-        <v>2429</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1670" spans="1:10" x14ac:dyDescent="0.2">
@@ -64615,7 +64624,7 @@
       <c r="H1670" s="9"/>
       <c r="I1670"/>
       <c r="J1670" s="1" t="s">
-        <v>2433</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1671" spans="1:10" x14ac:dyDescent="0.2">
@@ -64640,7 +64649,7 @@
       <c r="H1671" s="9"/>
       <c r="I1671"/>
       <c r="J1671" s="1" t="s">
-        <v>2436</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1672" spans="1:10" x14ac:dyDescent="0.2">
@@ -64665,7 +64674,7 @@
       <c r="H1672" s="9"/>
       <c r="I1672"/>
       <c r="J1672" s="1" t="s">
-        <v>2440</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1673" spans="1:10" x14ac:dyDescent="0.2">
@@ -64690,7 +64699,7 @@
       <c r="H1673" s="9"/>
       <c r="I1673"/>
       <c r="J1673" s="1" t="s">
-        <v>2443</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1674" spans="1:10" x14ac:dyDescent="0.2">
@@ -64715,7 +64724,7 @@
       <c r="H1674" s="9"/>
       <c r="I1674"/>
       <c r="J1674" s="1" t="s">
-        <v>2446</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1675" spans="1:10" x14ac:dyDescent="0.2">
@@ -64740,7 +64749,7 @@
       <c r="H1675" s="9"/>
       <c r="I1675"/>
       <c r="J1675" s="1" t="s">
-        <v>2450</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1676" spans="1:10" x14ac:dyDescent="0.2">
@@ -64765,7 +64774,7 @@
       <c r="H1676" s="9"/>
       <c r="I1676"/>
       <c r="J1676" s="1" t="s">
-        <v>2454</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1677" spans="1:10" x14ac:dyDescent="0.2">
@@ -64793,7 +64802,7 @@
       <c r="H1677" s="9"/>
       <c r="I1677"/>
       <c r="J1677" s="1" t="s">
-        <v>2458</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1678" spans="1:10" x14ac:dyDescent="0.2">
@@ -64821,7 +64830,7 @@
       <c r="H1678" s="9"/>
       <c r="I1678"/>
       <c r="J1678" s="1" t="s">
-        <v>4504</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1679" spans="1:10" x14ac:dyDescent="0.2">
@@ -64846,7 +64855,7 @@
       <c r="H1679" s="9"/>
       <c r="I1679"/>
       <c r="J1679" s="1" t="s">
-        <v>4505</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1680" spans="1:10" x14ac:dyDescent="0.2">
@@ -64874,7 +64883,7 @@
       <c r="H1680" s="9"/>
       <c r="I1680"/>
       <c r="J1680" s="1" t="s">
-        <v>4506</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1681" spans="1:10" x14ac:dyDescent="0.2">
@@ -64899,7 +64908,7 @@
       <c r="H1681" s="9"/>
       <c r="I1681"/>
       <c r="J1681" s="1" t="s">
-        <v>4507</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1682" spans="1:10" x14ac:dyDescent="0.2">
@@ -64924,7 +64933,7 @@
       <c r="H1682" s="9"/>
       <c r="I1682"/>
       <c r="J1682" s="1" t="s">
-        <v>4307</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1683" spans="1:10" x14ac:dyDescent="0.2">
@@ -64949,7 +64958,7 @@
       <c r="H1683" s="9"/>
       <c r="I1683"/>
       <c r="J1683" s="1" t="s">
-        <v>4508</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1684" spans="1:10" x14ac:dyDescent="0.2">
@@ -64974,7 +64983,7 @@
       <c r="H1684" s="9"/>
       <c r="I1684"/>
       <c r="J1684" s="1" t="s">
-        <v>2461</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1685" spans="1:10" x14ac:dyDescent="0.2">
@@ -64999,7 +65008,7 @@
       <c r="H1685" s="9"/>
       <c r="I1685"/>
       <c r="J1685" s="1" t="s">
-        <v>2466</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1686" spans="1:10" x14ac:dyDescent="0.2">
@@ -65024,7 +65033,7 @@
       <c r="H1686" s="9"/>
       <c r="I1686"/>
       <c r="J1686" s="1" t="s">
-        <v>2469</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1687" spans="1:10" x14ac:dyDescent="0.2">
@@ -65049,7 +65058,7 @@
       <c r="H1687" s="9"/>
       <c r="I1687"/>
       <c r="J1687" s="1" t="s">
-        <v>2472</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1688" spans="1:10" x14ac:dyDescent="0.2">
@@ -65073,8 +65082,8 @@
       </c>
       <c r="H1688" s="9"/>
       <c r="I1688"/>
-      <c r="J1688" s="1">
-        <v>2012</v>
+      <c r="J1688" s="1" t="s">
+        <v>2399</v>
       </c>
     </row>
     <row r="1689" spans="1:10" x14ac:dyDescent="0.2">
@@ -65099,7 +65108,7 @@
       <c r="H1689" s="9"/>
       <c r="I1689"/>
       <c r="J1689" s="1" t="s">
-        <v>2478</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1690" spans="1:10" x14ac:dyDescent="0.2">
@@ -65124,7 +65133,7 @@
       <c r="H1690" s="9"/>
       <c r="I1690"/>
       <c r="J1690" s="1" t="s">
-        <v>2481</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1691" spans="1:10" x14ac:dyDescent="0.2">
@@ -65149,7 +65158,7 @@
       <c r="H1691" s="9"/>
       <c r="I1691"/>
       <c r="J1691" s="1" t="s">
-        <v>2485</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1692" spans="1:10" x14ac:dyDescent="0.2">
@@ -65174,7 +65183,7 @@
       <c r="H1692" s="9"/>
       <c r="I1692"/>
       <c r="J1692" s="1" t="s">
-        <v>2488</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1693" spans="1:10" x14ac:dyDescent="0.2">
@@ -65199,7 +65208,7 @@
       <c r="H1693" s="9"/>
       <c r="I1693"/>
       <c r="J1693" s="1" t="s">
-        <v>2491</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1694" spans="1:10" x14ac:dyDescent="0.2">
@@ -65224,7 +65233,7 @@
       <c r="H1694" s="9"/>
       <c r="I1694"/>
       <c r="J1694" s="1" t="s">
-        <v>2494</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1695" spans="1:10" x14ac:dyDescent="0.2">
@@ -65249,7 +65258,7 @@
       <c r="H1695" s="9"/>
       <c r="I1695"/>
       <c r="J1695" s="1" t="s">
-        <v>2498</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1696" spans="1:10" x14ac:dyDescent="0.2">
@@ -65274,7 +65283,7 @@
       <c r="H1696" s="9"/>
       <c r="I1696"/>
       <c r="J1696" s="1" t="s">
-        <v>2502</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1697" spans="1:10" x14ac:dyDescent="0.2">
@@ -65299,7 +65308,7 @@
       <c r="H1697" s="9"/>
       <c r="I1697"/>
       <c r="J1697" s="1" t="s">
-        <v>2506</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1698" spans="1:10" x14ac:dyDescent="0.2">
@@ -65324,7 +65333,7 @@
       <c r="H1698" s="9"/>
       <c r="I1698"/>
       <c r="J1698" s="1" t="s">
-        <v>2509</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1699" spans="1:10" x14ac:dyDescent="0.2">
@@ -65349,7 +65358,7 @@
       <c r="H1699" s="9"/>
       <c r="I1699"/>
       <c r="J1699" s="1" t="s">
-        <v>2513</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1700" spans="1:10" x14ac:dyDescent="0.2">
@@ -65374,7 +65383,7 @@
       <c r="H1700" s="9"/>
       <c r="I1700"/>
       <c r="J1700" s="1" t="s">
-        <v>2516</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1701" spans="1:10" x14ac:dyDescent="0.2">
@@ -65399,7 +65408,7 @@
       <c r="H1701" s="9"/>
       <c r="I1701"/>
       <c r="J1701" s="1" t="s">
-        <v>2520</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1702" spans="1:10" x14ac:dyDescent="0.2">
@@ -65424,7 +65433,7 @@
       <c r="H1702" s="9"/>
       <c r="I1702"/>
       <c r="J1702" s="1" t="s">
-        <v>2525</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1703" spans="1:10" x14ac:dyDescent="0.2">
@@ -65449,7 +65458,7 @@
       <c r="H1703" s="9"/>
       <c r="I1703"/>
       <c r="J1703" s="1" t="s">
-        <v>2528</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1704" spans="1:10" x14ac:dyDescent="0.2">
@@ -65474,7 +65483,7 @@
       <c r="H1704" s="9"/>
       <c r="I1704"/>
       <c r="J1704" s="1" t="s">
-        <v>2532</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1705" spans="1:10" x14ac:dyDescent="0.2">
@@ -65499,7 +65508,7 @@
       <c r="H1705" s="9"/>
       <c r="I1705"/>
       <c r="J1705" s="1" t="s">
-        <v>2536</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1706" spans="1:10" x14ac:dyDescent="0.2">
@@ -65524,7 +65533,7 @@
       <c r="H1706" s="9"/>
       <c r="I1706"/>
       <c r="J1706" s="1" t="s">
-        <v>2540</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1707" spans="1:10" x14ac:dyDescent="0.2">
@@ -65549,7 +65558,7 @@
       <c r="H1707" s="9"/>
       <c r="I1707"/>
       <c r="J1707" s="1" t="s">
-        <v>2544</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1708" spans="1:10" x14ac:dyDescent="0.2">
@@ -65574,7 +65583,7 @@
       <c r="H1708" s="9"/>
       <c r="I1708"/>
       <c r="J1708" s="1" t="s">
-        <v>2547</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1709" spans="1:10" x14ac:dyDescent="0.2">
@@ -65599,7 +65608,7 @@
       <c r="H1709" s="9"/>
       <c r="I1709"/>
       <c r="J1709" s="1" t="s">
-        <v>2550</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1710" spans="1:10" x14ac:dyDescent="0.2">
@@ -65624,7 +65633,7 @@
       <c r="H1710" s="9"/>
       <c r="I1710"/>
       <c r="J1710" s="1" t="s">
-        <v>2553</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1711" spans="1:10" x14ac:dyDescent="0.2">
@@ -65649,7 +65658,7 @@
       <c r="H1711" s="9"/>
       <c r="I1711"/>
       <c r="J1711" s="1" t="s">
-        <v>2557</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1712" spans="1:10" x14ac:dyDescent="0.2">
@@ -65674,7 +65683,7 @@
       <c r="H1712" s="9"/>
       <c r="I1712"/>
       <c r="J1712" s="1" t="s">
-        <v>2560</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1713" spans="1:10" x14ac:dyDescent="0.2">
@@ -65699,7 +65708,7 @@
       <c r="H1713" s="9"/>
       <c r="I1713"/>
       <c r="J1713" s="1" t="s">
-        <v>2563</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1714" spans="1:10" x14ac:dyDescent="0.2">
@@ -65724,7 +65733,7 @@
       <c r="H1714" s="9"/>
       <c r="I1714"/>
       <c r="J1714" s="1" t="s">
-        <v>2567</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1715" spans="1:10" x14ac:dyDescent="0.2">
@@ -65749,7 +65758,7 @@
       <c r="H1715" s="9"/>
       <c r="I1715"/>
       <c r="J1715" s="1" t="s">
-        <v>2570</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1716" spans="1:10" x14ac:dyDescent="0.2">
@@ -65773,8 +65782,8 @@
       </c>
       <c r="H1716" s="9"/>
       <c r="I1716"/>
-      <c r="J1716" s="1" t="s">
-        <v>2574</v>
+      <c r="J1716" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="1717" spans="1:10" x14ac:dyDescent="0.2">
@@ -65799,7 +65808,7 @@
       <c r="H1717" s="9"/>
       <c r="I1717"/>
       <c r="J1717" s="1" t="s">
-        <v>2576</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1718" spans="1:10" x14ac:dyDescent="0.2">
@@ -65827,7 +65836,7 @@
       <c r="H1718" s="9"/>
       <c r="I1718"/>
       <c r="J1718" s="1" t="s">
-        <v>2579</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1719" spans="1:10" x14ac:dyDescent="0.2">
@@ -65852,7 +65861,7 @@
       <c r="H1719" s="9"/>
       <c r="I1719"/>
       <c r="J1719" s="1" t="s">
-        <v>2583</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1720" spans="1:10" x14ac:dyDescent="0.2">
@@ -65877,7 +65886,7 @@
       <c r="H1720" s="9"/>
       <c r="I1720"/>
       <c r="J1720" s="1" t="s">
-        <v>2586</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1721" spans="1:10" x14ac:dyDescent="0.2">
@@ -65902,7 +65911,7 @@
       <c r="H1721" s="9"/>
       <c r="I1721"/>
       <c r="J1721" s="1" t="s">
-        <v>2591</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1722" spans="1:10" x14ac:dyDescent="0.2">
@@ -65927,7 +65936,7 @@
       <c r="H1722" s="9"/>
       <c r="I1722"/>
       <c r="J1722" s="1" t="s">
-        <v>2595</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1723" spans="1:10" x14ac:dyDescent="0.2">
@@ -65952,7 +65961,7 @@
       <c r="H1723" s="9"/>
       <c r="I1723"/>
       <c r="J1723" s="1" t="s">
-        <v>2598</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1724" spans="1:10" x14ac:dyDescent="0.2">
@@ -65977,7 +65986,7 @@
       <c r="H1724" s="9"/>
       <c r="I1724"/>
       <c r="J1724" s="1" t="s">
-        <v>2602</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1725" spans="1:10" x14ac:dyDescent="0.2">
@@ -66002,7 +66011,7 @@
       <c r="H1725" s="9"/>
       <c r="I1725"/>
       <c r="J1725" s="1" t="s">
-        <v>2606</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1726" spans="1:10" x14ac:dyDescent="0.2">
@@ -66027,7 +66036,7 @@
       <c r="H1726" s="9"/>
       <c r="I1726"/>
       <c r="J1726" s="1" t="s">
-        <v>2610</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1727" spans="1:10" x14ac:dyDescent="0.2">
@@ -66052,7 +66061,7 @@
       <c r="H1727" s="9"/>
       <c r="I1727"/>
       <c r="J1727" s="1" t="s">
-        <v>342</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1728" spans="1:10" x14ac:dyDescent="0.2">
@@ -66077,7 +66086,7 @@
       <c r="H1728" s="9"/>
       <c r="I1728"/>
       <c r="J1728" s="1" t="s">
-        <v>2616</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1729" spans="1:10" x14ac:dyDescent="0.2">
@@ -66102,7 +66111,7 @@
       <c r="H1729" s="9"/>
       <c r="I1729"/>
       <c r="J1729" s="1" t="s">
-        <v>2619</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1730" spans="1:10" x14ac:dyDescent="0.2">
@@ -66127,7 +66136,7 @@
       <c r="H1730" s="9"/>
       <c r="I1730"/>
       <c r="J1730" s="1" t="s">
-        <v>2622</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1731" spans="1:10" x14ac:dyDescent="0.2">
@@ -66152,7 +66161,7 @@
       <c r="H1731" s="9"/>
       <c r="I1731"/>
       <c r="J1731" s="1" t="s">
-        <v>2625</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1732" spans="1:10" x14ac:dyDescent="0.2">
@@ -66177,7 +66186,7 @@
       <c r="H1732" s="9"/>
       <c r="I1732"/>
       <c r="J1732" s="1" t="s">
-        <v>2628</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1733" spans="1:10" x14ac:dyDescent="0.2">
@@ -66205,7 +66214,7 @@
       <c r="H1733" s="9"/>
       <c r="I1733"/>
       <c r="J1733" s="1" t="s">
-        <v>2632</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1734" spans="1:10" x14ac:dyDescent="0.2">
@@ -66230,7 +66239,7 @@
       <c r="H1734" s="9"/>
       <c r="I1734"/>
       <c r="J1734" s="1" t="s">
-        <v>2635</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1735" spans="1:10" x14ac:dyDescent="0.2">
@@ -66255,7 +66264,7 @@
       <c r="H1735" s="9"/>
       <c r="I1735"/>
       <c r="J1735" s="1" t="s">
-        <v>2638</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1736" spans="1:10" x14ac:dyDescent="0.2">
@@ -66283,7 +66292,7 @@
       <c r="H1736" s="9"/>
       <c r="I1736"/>
       <c r="J1736" s="1" t="s">
-        <v>2641</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1737" spans="1:10" x14ac:dyDescent="0.2">
@@ -66308,7 +66317,7 @@
       <c r="H1737" s="9"/>
       <c r="I1737"/>
       <c r="J1737" s="1" t="s">
-        <v>2644</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1738" spans="1:10" x14ac:dyDescent="0.2">
@@ -66336,7 +66345,7 @@
       <c r="H1738" s="9"/>
       <c r="I1738"/>
       <c r="J1738" s="1" t="s">
-        <v>2648</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1739" spans="1:10" x14ac:dyDescent="0.2">
@@ -66364,7 +66373,7 @@
       <c r="H1739" s="9"/>
       <c r="I1739"/>
       <c r="J1739" s="1" t="s">
-        <v>2651</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1740" spans="1:10" x14ac:dyDescent="0.2">
@@ -66389,7 +66398,7 @@
       <c r="H1740" s="9"/>
       <c r="I1740"/>
       <c r="J1740" s="1" t="s">
-        <v>2654</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1741" spans="1:10" x14ac:dyDescent="0.2">
@@ -66414,7 +66423,7 @@
       <c r="H1741" s="9"/>
       <c r="I1741"/>
       <c r="J1741" s="1" t="s">
-        <v>2657</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1742" spans="1:10" x14ac:dyDescent="0.2">
@@ -66439,7 +66448,7 @@
       <c r="H1742" s="9"/>
       <c r="I1742"/>
       <c r="J1742" s="1" t="s">
-        <v>2661</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="1743" spans="1:10" x14ac:dyDescent="0.2">
@@ -66467,7 +66476,7 @@
       <c r="H1743" s="9"/>
       <c r="I1743"/>
       <c r="J1743" s="1" t="s">
-        <v>2664</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="1744" spans="1:10" x14ac:dyDescent="0.2">
@@ -66492,7 +66501,7 @@
       <c r="H1744" s="9"/>
       <c r="I1744"/>
       <c r="J1744" s="1" t="s">
-        <v>2667</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="1745" spans="1:10" x14ac:dyDescent="0.2">
@@ -66517,7 +66526,7 @@
       <c r="H1745" s="9"/>
       <c r="I1745"/>
       <c r="J1745" s="1" t="s">
-        <v>891</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1746" spans="1:10" x14ac:dyDescent="0.2">
@@ -66542,7 +66551,7 @@
       <c r="H1746" s="9"/>
       <c r="I1746"/>
       <c r="J1746" s="1" t="s">
-        <v>2672</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1747" spans="1:10" x14ac:dyDescent="0.2">
@@ -66567,7 +66576,7 @@
       <c r="H1747" s="9"/>
       <c r="I1747"/>
       <c r="J1747" s="1" t="s">
-        <v>2675</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1748" spans="1:10" x14ac:dyDescent="0.2">
@@ -66592,7 +66601,7 @@
       <c r="H1748" s="9"/>
       <c r="I1748"/>
       <c r="J1748" s="1" t="s">
-        <v>2679</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1749" spans="1:10" x14ac:dyDescent="0.2">
@@ -66617,7 +66626,7 @@
       <c r="H1749" s="9"/>
       <c r="I1749"/>
       <c r="J1749" s="1" t="s">
-        <v>2682</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1750" spans="1:10" x14ac:dyDescent="0.2">
@@ -66642,7 +66651,7 @@
       <c r="H1750" s="9"/>
       <c r="I1750"/>
       <c r="J1750" s="1" t="s">
-        <v>2684</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1751" spans="1:10" x14ac:dyDescent="0.2">
@@ -66667,7 +66676,7 @@
       <c r="H1751" s="9"/>
       <c r="I1751"/>
       <c r="J1751" s="1" t="s">
-        <v>2687</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1752" spans="1:10" x14ac:dyDescent="0.2">
@@ -66692,7 +66701,7 @@
       <c r="H1752" s="9"/>
       <c r="I1752"/>
       <c r="J1752" s="1" t="s">
-        <v>2690</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1753" spans="1:10" x14ac:dyDescent="0.2">
@@ -66717,7 +66726,7 @@
       <c r="H1753" s="9"/>
       <c r="I1753"/>
       <c r="J1753" s="1" t="s">
-        <v>2694</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1754" spans="1:10" x14ac:dyDescent="0.2">
@@ -66742,7 +66751,7 @@
       <c r="H1754" s="9"/>
       <c r="I1754"/>
       <c r="J1754" s="1" t="s">
-        <v>1423</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1755" spans="1:10" x14ac:dyDescent="0.2">
@@ -66767,7 +66776,7 @@
       <c r="H1755" s="9"/>
       <c r="I1755"/>
       <c r="J1755" s="1" t="s">
-        <v>2700</v>
+        <v>342</v>
       </c>
     </row>
     <row r="1756" spans="1:10" x14ac:dyDescent="0.2">
@@ -66792,7 +66801,7 @@
       <c r="H1756" s="9"/>
       <c r="I1756"/>
       <c r="J1756" s="1" t="s">
-        <v>2703</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1757" spans="1:10" x14ac:dyDescent="0.2">
@@ -66817,7 +66826,7 @@
       <c r="H1757" s="9"/>
       <c r="I1757"/>
       <c r="J1757" s="1" t="s">
-        <v>2706</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1758" spans="1:10" x14ac:dyDescent="0.2">
@@ -66842,7 +66851,7 @@
       <c r="H1758" s="9"/>
       <c r="I1758"/>
       <c r="J1758" s="1" t="s">
-        <v>2709</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1759" spans="1:10" x14ac:dyDescent="0.2">
@@ -66867,7 +66876,7 @@
       <c r="H1759" s="9"/>
       <c r="I1759"/>
       <c r="J1759" s="1" t="s">
-        <v>2713</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1760" spans="1:10" x14ac:dyDescent="0.2">
@@ -66892,7 +66901,7 @@
       <c r="H1760" s="9"/>
       <c r="I1760"/>
       <c r="J1760" s="1" t="s">
-        <v>2716</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1761" spans="1:10" x14ac:dyDescent="0.2">
@@ -66917,7 +66926,7 @@
       <c r="H1761" s="9"/>
       <c r="I1761"/>
       <c r="J1761" s="1" t="s">
-        <v>2719</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1762" spans="1:10" x14ac:dyDescent="0.2">
@@ -66942,7 +66951,7 @@
       <c r="H1762" s="9"/>
       <c r="I1762"/>
       <c r="J1762" s="1" t="s">
-        <v>4509</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1763" spans="1:10" x14ac:dyDescent="0.2">
@@ -66967,7 +66976,7 @@
       <c r="H1763" s="9"/>
       <c r="I1763"/>
       <c r="J1763" s="1" t="s">
-        <v>4510</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1764" spans="1:10" x14ac:dyDescent="0.2">
@@ -66991,6 +67000,9 @@
       </c>
       <c r="H1764" s="9"/>
       <c r="I1764"/>
+      <c r="J1764" s="1" t="s">
+        <v>2641</v>
+      </c>
     </row>
     <row r="1765" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1765">
@@ -67013,6 +67025,9 @@
       </c>
       <c r="H1765" s="9"/>
       <c r="I1765"/>
+      <c r="J1765" s="1" t="s">
+        <v>2644</v>
+      </c>
     </row>
     <row r="1766" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1766">
@@ -67035,6 +67050,9 @@
       </c>
       <c r="H1766" s="9"/>
       <c r="I1766"/>
+      <c r="J1766" s="1" t="s">
+        <v>2648</v>
+      </c>
     </row>
     <row r="1767" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1767">
@@ -67057,6 +67075,9 @@
       </c>
       <c r="H1767" s="9"/>
       <c r="I1767"/>
+      <c r="J1767" s="1" t="s">
+        <v>2651</v>
+      </c>
     </row>
     <row r="1768" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1768">
@@ -67079,6 +67100,9 @@
       </c>
       <c r="H1768" s="9"/>
       <c r="I1768"/>
+      <c r="J1768" s="1" t="s">
+        <v>2654</v>
+      </c>
     </row>
     <row r="1769" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1769">
@@ -67104,6 +67128,9 @@
       </c>
       <c r="H1769" s="9"/>
       <c r="I1769"/>
+      <c r="J1769" s="1" t="s">
+        <v>2657</v>
+      </c>
     </row>
     <row r="1770" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1770">
@@ -67126,6 +67153,9 @@
       </c>
       <c r="H1770" s="9"/>
       <c r="I1770"/>
+      <c r="J1770" s="1" t="s">
+        <v>2661</v>
+      </c>
     </row>
     <row r="1771" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1771">
@@ -67148,6 +67178,9 @@
       </c>
       <c r="H1771" s="9"/>
       <c r="I1771"/>
+      <c r="J1771" s="1" t="s">
+        <v>2664</v>
+      </c>
     </row>
     <row r="1772" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1772">
@@ -67170,6 +67203,9 @@
       </c>
       <c r="H1772" s="9"/>
       <c r="I1772"/>
+      <c r="J1772" s="1" t="s">
+        <v>2667</v>
+      </c>
     </row>
     <row r="1773" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1773">
@@ -67192,6 +67228,9 @@
       </c>
       <c r="H1773" s="9"/>
       <c r="I1773"/>
+      <c r="J1773" s="1" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="1774" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1774">
@@ -67214,6 +67253,9 @@
       </c>
       <c r="H1774" s="9"/>
       <c r="I1774"/>
+      <c r="J1774" s="1" t="s">
+        <v>2672</v>
+      </c>
     </row>
     <row r="1775" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1775">
@@ -67236,6 +67278,9 @@
       </c>
       <c r="H1775" s="9"/>
       <c r="I1775"/>
+      <c r="J1775" s="1" t="s">
+        <v>2675</v>
+      </c>
     </row>
     <row r="1776" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1776">
@@ -67258,8 +67303,11 @@
       </c>
       <c r="H1776" s="9"/>
       <c r="I1776"/>
-    </row>
-    <row r="1777" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1776" s="1" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1777">
         <v>1998</v>
       </c>
@@ -67280,8 +67328,11 @@
       </c>
       <c r="H1777" s="9"/>
       <c r="I1777"/>
-    </row>
-    <row r="1778" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1777" s="1" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1778">
         <v>1998</v>
       </c>
@@ -67302,8 +67353,11 @@
       </c>
       <c r="H1778" s="9"/>
       <c r="I1778"/>
-    </row>
-    <row r="1779" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1778" s="1" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1779">
         <v>1998</v>
       </c>
@@ -67327,8 +67381,11 @@
       </c>
       <c r="H1779" s="9"/>
       <c r="I1779"/>
-    </row>
-    <row r="1780" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1779" s="1" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1780">
         <v>1998</v>
       </c>
@@ -67349,8 +67406,11 @@
       </c>
       <c r="H1780" s="9"/>
       <c r="I1780"/>
-    </row>
-    <row r="1781" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1780" s="1" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1781">
         <v>1998</v>
       </c>
@@ -67371,8 +67431,11 @@
       </c>
       <c r="H1781" s="9"/>
       <c r="I1781"/>
-    </row>
-    <row r="1782" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1781" s="1" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1782">
         <v>1998</v>
       </c>
@@ -67393,8 +67456,11 @@
       </c>
       <c r="H1782" s="9"/>
       <c r="I1782"/>
-    </row>
-    <row r="1783" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1782" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1783">
         <v>1998</v>
       </c>
@@ -67415,8 +67481,11 @@
       </c>
       <c r="H1783" s="9"/>
       <c r="I1783"/>
-    </row>
-    <row r="1784" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1783" s="1" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1784">
         <v>1998</v>
       </c>
@@ -67437,8 +67506,11 @@
       </c>
       <c r="H1784" s="9"/>
       <c r="I1784"/>
-    </row>
-    <row r="1785" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1784" s="1" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1785">
         <v>1998</v>
       </c>
@@ -67459,8 +67531,11 @@
       </c>
       <c r="H1785" s="9"/>
       <c r="I1785"/>
-    </row>
-    <row r="1786" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1785" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1786">
         <v>1998</v>
       </c>
@@ -67481,8 +67556,11 @@
       </c>
       <c r="H1786" s="9"/>
       <c r="I1786"/>
-    </row>
-    <row r="1787" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1786" s="1" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1787">
         <v>1998</v>
       </c>
@@ -67503,8 +67581,11 @@
       </c>
       <c r="H1787" s="9"/>
       <c r="I1787"/>
-    </row>
-    <row r="1788" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1787" s="1" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1788">
         <v>1998</v>
       </c>
@@ -67525,8 +67606,11 @@
       </c>
       <c r="H1788" s="9"/>
       <c r="I1788"/>
-    </row>
-    <row r="1789" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1788" s="1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1789">
         <v>1998</v>
       </c>
@@ -67547,8 +67631,11 @@
       </c>
       <c r="H1789" s="9"/>
       <c r="I1789"/>
-    </row>
-    <row r="1790" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1789" s="1" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1790">
         <v>1998</v>
       </c>
@@ -67569,8 +67656,11 @@
       </c>
       <c r="H1790" s="9"/>
       <c r="I1790"/>
-    </row>
-    <row r="1791" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1790" s="1" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1791">
         <v>1998</v>
       </c>
@@ -67591,8 +67681,11 @@
       </c>
       <c r="H1791" s="9"/>
       <c r="I1791"/>
-    </row>
-    <row r="1792" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1791" s="1" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1792">
         <v>1998</v>
       </c>

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12686" uniqueCount="7135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12716" uniqueCount="7148">
   <si>
     <t>Year</t>
   </si>
@@ -21427,6 +21427,45 @@
   </si>
   <si>
     <t>Czarownice z Eastwick</t>
+  </si>
+  <si>
+    <t>Otto 2</t>
+  </si>
+  <si>
+    <t>Wyrzuć mamę z pociągu</t>
+  </si>
+  <si>
+    <t>Narzeczona dla księcia</t>
+  </si>
+  <si>
+    <t>Niegodziwa fortuna</t>
+  </si>
+  <si>
+    <t>Ôritsu uchûgun Oneamisu no tsubasa</t>
+  </si>
+  <si>
+    <t>Ostatni cesarz</t>
+  </si>
+  <si>
+    <t>Telepasja</t>
+  </si>
+  <si>
+    <t>Szczęki 4: Zemsta</t>
+  </si>
+  <si>
+    <t>Wielka klapa</t>
+  </si>
+  <si>
+    <t>Czuły chaos</t>
+  </si>
+  <si>
+    <t>Koszmar z ulicy Wiązów 3: Wojownicy snów</t>
+  </si>
+  <si>
+    <t>Jedenaście dni, jedenaście nocy</t>
+  </si>
+  <si>
+    <t>Interkosmos</t>
   </si>
 </sst>
 </file>
@@ -21885,11 +21924,11 @@
   <dimension ref="A1:P2441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G1027" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G1044" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="H1037" sqref="H1037"/>
+      <selection pane="bottomRight" activeCell="H1053" sqref="H1053"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48961,8 +49000,12 @@
       <c r="G1037" t="s">
         <v>5090</v>
       </c>
-      <c r="H1037" s="9"/>
-      <c r="I1037"/>
+      <c r="H1037" s="9" t="s">
+        <v>7135</v>
+      </c>
+      <c r="I1037" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1038" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1038">
@@ -48983,8 +49026,12 @@
       <c r="G1038" t="s">
         <v>5092</v>
       </c>
-      <c r="H1038" s="9"/>
-      <c r="I1038"/>
+      <c r="H1038" s="9" t="s">
+        <v>7136</v>
+      </c>
+      <c r="I1038" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1039" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1039">
@@ -49005,8 +49052,12 @@
       <c r="G1039" t="s">
         <v>5094</v>
       </c>
-      <c r="H1039" s="9"/>
-      <c r="I1039"/>
+      <c r="H1039" s="9" t="s">
+        <v>5093</v>
+      </c>
+      <c r="I1039" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1040" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1040">
@@ -49027,8 +49078,12 @@
       <c r="G1040" t="s">
         <v>5096</v>
       </c>
-      <c r="H1040" s="9"/>
-      <c r="I1040"/>
+      <c r="H1040" s="9" t="s">
+        <v>7137</v>
+      </c>
+      <c r="I1040" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1041" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1041">
@@ -49052,7 +49107,9 @@
       <c r="H1041" s="1" t="s">
         <v>4260</v>
       </c>
-      <c r="I1041"/>
+      <c r="I1041" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1042" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1042">
@@ -49073,8 +49130,12 @@
       <c r="G1042" t="s">
         <v>5099</v>
       </c>
-      <c r="H1042" s="9"/>
-      <c r="I1042"/>
+      <c r="H1042" s="9" t="s">
+        <v>7138</v>
+      </c>
+      <c r="I1042" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1043" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1043">
@@ -49095,8 +49156,12 @@
       <c r="G1043" t="s">
         <v>5101</v>
       </c>
-      <c r="H1043" s="9"/>
-      <c r="I1043"/>
+      <c r="H1043" s="9" t="s">
+        <v>7139</v>
+      </c>
+      <c r="I1043" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1044" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1044">
@@ -49117,10 +49182,11 @@
       <c r="G1044" t="s">
         <v>5103</v>
       </c>
-      <c r="H1044" s="9"/>
-      <c r="I1044"/>
-      <c r="J1044" s="1" t="s">
-        <v>4255</v>
+      <c r="H1044" s="9" t="s">
+        <v>7140</v>
+      </c>
+      <c r="I1044" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1045" spans="1:10" x14ac:dyDescent="0.2">
@@ -49142,8 +49208,12 @@
       <c r="G1045" t="s">
         <v>5105</v>
       </c>
-      <c r="H1045" s="9"/>
-      <c r="I1045"/>
+      <c r="H1045" s="9" t="s">
+        <v>7141</v>
+      </c>
+      <c r="I1045" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1045" s="1" t="s">
         <v>1152</v>
       </c>
@@ -49167,8 +49237,12 @@
       <c r="G1046" t="s">
         <v>5107</v>
       </c>
-      <c r="H1046" s="9"/>
-      <c r="I1046"/>
+      <c r="H1046" s="9" t="s">
+        <v>7142</v>
+      </c>
+      <c r="I1046" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1046" s="1" t="s">
         <v>1155</v>
       </c>
@@ -49192,8 +49266,12 @@
       <c r="G1047" t="s">
         <v>5109</v>
       </c>
-      <c r="H1047" s="9"/>
-      <c r="I1047"/>
+      <c r="H1047" s="9" t="s">
+        <v>7143</v>
+      </c>
+      <c r="I1047" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1047" s="1" t="s">
         <v>1159</v>
       </c>
@@ -49217,8 +49295,12 @@
       <c r="G1048" t="s">
         <v>5112</v>
       </c>
-      <c r="H1048" s="9"/>
-      <c r="I1048"/>
+      <c r="H1048" s="1" t="s">
+        <v>4255</v>
+      </c>
+      <c r="I1048" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1048" s="1" t="s">
         <v>1163</v>
       </c>
@@ -49242,8 +49324,12 @@
       <c r="G1049" t="s">
         <v>5114</v>
       </c>
-      <c r="H1049" s="9"/>
-      <c r="I1049"/>
+      <c r="H1049" s="9" t="s">
+        <v>7144</v>
+      </c>
+      <c r="I1049" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1049" s="1" t="s">
         <v>2736</v>
       </c>
@@ -49267,8 +49353,12 @@
       <c r="G1050" t="s">
         <v>5116</v>
       </c>
-      <c r="H1050" s="9"/>
-      <c r="I1050"/>
+      <c r="H1050" s="9" t="s">
+        <v>7145</v>
+      </c>
+      <c r="I1050" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1050" s="1" t="s">
         <v>4262</v>
       </c>
@@ -49292,8 +49382,12 @@
       <c r="G1051" t="s">
         <v>5118</v>
       </c>
-      <c r="H1051" s="9"/>
-      <c r="I1051"/>
+      <c r="H1051" s="9" t="s">
+        <v>7146</v>
+      </c>
+      <c r="I1051" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1051" s="1" t="s">
         <v>4263</v>
       </c>
@@ -49317,8 +49411,12 @@
       <c r="G1052" t="s">
         <v>5120</v>
       </c>
-      <c r="H1052" s="9"/>
-      <c r="I1052"/>
+      <c r="H1052" s="9" t="s">
+        <v>7147</v>
+      </c>
+      <c r="I1052" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1052" s="1" t="s">
         <v>4264</v>
       </c>

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12716" uniqueCount="7148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12808" uniqueCount="7185">
   <si>
     <t>Year</t>
   </si>
@@ -21466,6 +21466,117 @@
   </si>
   <si>
     <t>Interkosmos</t>
+  </si>
+  <si>
+    <t>Manekin</t>
+  </si>
+  <si>
+    <t>Hellraiser: Wysłannik piekieł</t>
+  </si>
+  <si>
+    <t>Superman IV</t>
+  </si>
+  <si>
+    <t>Nadzieja i chwała</t>
+  </si>
+  <si>
+    <t>Kosmiczne jaja</t>
+  </si>
+  <si>
+    <t>Bagdad Cafe</t>
+  </si>
+  <si>
+    <t>Niebo nad Berlinem</t>
+  </si>
+  <si>
+    <t>Krzyk o wolność</t>
+  </si>
+  <si>
+    <t>Wariatka</t>
+  </si>
+  <si>
+    <t>Kronika zapowiedzianej śmierci</t>
+  </si>
+  <si>
+    <t>Dama za burtą</t>
+  </si>
+  <si>
+    <t>Imperium Słońca</t>
+  </si>
+  <si>
+    <t>Książę ciemności</t>
+  </si>
+  <si>
+    <t>Harry Angel</t>
+  </si>
+  <si>
+    <t>Emmanuelle 5</t>
+  </si>
+  <si>
+    <t>Podejrzany</t>
+  </si>
+  <si>
+    <t>Dzień dobry, Babilonio</t>
+  </si>
+  <si>
+    <t>Władcy Wszechświata</t>
+  </si>
+  <si>
+    <t>Ponad szczytem</t>
+  </si>
+  <si>
+    <t>Lody na patyku 7: Zakochani chłopcy</t>
+  </si>
+  <si>
+    <t>Sycylijczyk</t>
+  </si>
+  <si>
+    <t>Ćma barowa</t>
+  </si>
+  <si>
+    <t>Martwe zło 2</t>
+  </si>
+  <si>
+    <t>Sign 'o' the Times</t>
+  </si>
+  <si>
+    <t>Ziemia poza prawem</t>
+  </si>
+  <si>
+    <t>Django 2</t>
+  </si>
+  <si>
+    <t>Kto wrobił królika Rogera?</t>
+  </si>
+  <si>
+    <t>Książę w Nowym Jorku</t>
+  </si>
+  <si>
+    <t>Krokodyl Dundee 2</t>
+  </si>
+  <si>
+    <t>Bliźniacy</t>
+  </si>
+  <si>
+    <t>Rybka zwana Wandą</t>
+  </si>
+  <si>
+    <t>Koktajl</t>
+  </si>
+  <si>
+    <t>Rambo 3</t>
+  </si>
+  <si>
+    <t>Naga broń</t>
+  </si>
+  <si>
+    <t>Duży</t>
+  </si>
+  <si>
+    <t>Szklana pułapka</t>
+  </si>
+  <si>
+    <t>Pracująca dziewczyna</t>
   </si>
 </sst>
 </file>
@@ -21924,11 +22035,11 @@
   <dimension ref="A1:P2441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G1044" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G1088" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="H1053" sqref="H1053"/>
+      <selection pane="bottomRight" activeCell="H1101" sqref="H1101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49085,7 +49196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1041" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>1987</v>
       </c>
@@ -49111,7 +49222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1042" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>1987</v>
       </c>
@@ -49137,7 +49248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1043" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>1987</v>
       </c>
@@ -49163,7 +49274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1044" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>1987</v>
       </c>
@@ -49189,7 +49300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1045" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>1987</v>
       </c>
@@ -49214,11 +49325,8 @@
       <c r="I1045" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1045" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1046" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>1987</v>
       </c>
@@ -49243,11 +49351,8 @@
       <c r="I1046" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1046" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1047" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>1987</v>
       </c>
@@ -49272,11 +49377,8 @@
       <c r="I1047" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1047" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1048" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1048">
         <v>1987</v>
       </c>
@@ -49301,11 +49403,8 @@
       <c r="I1048" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1048" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1049" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>1987</v>
       </c>
@@ -49330,11 +49429,8 @@
       <c r="I1049" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1049" s="1" t="s">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1050" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1050">
         <v>1987</v>
       </c>
@@ -49359,11 +49455,8 @@
       <c r="I1050" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1050" s="1" t="s">
-        <v>4262</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1051" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>1987</v>
       </c>
@@ -49388,11 +49481,8 @@
       <c r="I1051" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1051" s="1" t="s">
-        <v>4263</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1052" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1052">
         <v>1987</v>
       </c>
@@ -49417,11 +49507,8 @@
       <c r="I1052" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1052" s="1" t="s">
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1053" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>1987</v>
       </c>
@@ -49440,13 +49527,14 @@
       <c r="G1053" t="s">
         <v>5122</v>
       </c>
-      <c r="H1053" s="9"/>
-      <c r="I1053"/>
-      <c r="J1053" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1053" s="9" t="s">
+        <v>7148</v>
+      </c>
+      <c r="I1053" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>1987</v>
       </c>
@@ -49465,13 +49553,14 @@
       <c r="G1054" t="s">
         <v>5124</v>
       </c>
-      <c r="H1054" s="9"/>
-      <c r="I1054"/>
-      <c r="J1054" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1054" s="9" t="s">
+        <v>7149</v>
+      </c>
+      <c r="I1054" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>1987</v>
       </c>
@@ -49493,12 +49582,11 @@
       <c r="H1055" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="I1055"/>
-      <c r="J1055" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1055" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1056">
         <v>1987</v>
       </c>
@@ -49520,12 +49608,11 @@
       <c r="H1056" s="1" t="s">
         <v>4259</v>
       </c>
-      <c r="I1056"/>
-      <c r="J1056" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1056" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>1987</v>
       </c>
@@ -49544,13 +49631,14 @@
       <c r="G1057" t="s">
         <v>5129</v>
       </c>
-      <c r="H1057" s="9"/>
-      <c r="I1057"/>
-      <c r="J1057" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1057" s="9" t="s">
+        <v>7150</v>
+      </c>
+      <c r="I1057" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1058">
         <v>1987</v>
       </c>
@@ -49569,13 +49657,14 @@
       <c r="G1058" t="s">
         <v>5132</v>
       </c>
-      <c r="H1058" s="9"/>
-      <c r="I1058"/>
-      <c r="J1058" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1058" s="9" t="s">
+        <v>7151</v>
+      </c>
+      <c r="I1058" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>1987</v>
       </c>
@@ -49594,13 +49683,14 @@
       <c r="G1059" t="s">
         <v>5134</v>
       </c>
-      <c r="H1059" s="9"/>
-      <c r="I1059"/>
-      <c r="J1059" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1059" s="9" t="s">
+        <v>7152</v>
+      </c>
+      <c r="I1059" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>1987</v>
       </c>
@@ -49619,13 +49709,14 @@
       <c r="G1060" t="s">
         <v>5136</v>
       </c>
-      <c r="H1060" s="9"/>
-      <c r="I1060"/>
-      <c r="J1060" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1060" s="9" t="s">
+        <v>7153</v>
+      </c>
+      <c r="I1060" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>1987</v>
       </c>
@@ -49644,13 +49735,14 @@
       <c r="G1061" t="s">
         <v>5138</v>
       </c>
-      <c r="H1061" s="9"/>
-      <c r="I1061"/>
-      <c r="J1061" s="1" t="s">
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1061" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I1061" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1062">
         <v>1987</v>
       </c>
@@ -49669,13 +49761,14 @@
       <c r="G1062" t="s">
         <v>5141</v>
       </c>
-      <c r="H1062" s="9"/>
-      <c r="I1062"/>
-      <c r="J1062" s="1" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1062" s="9" t="s">
+        <v>7154</v>
+      </c>
+      <c r="I1062" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>1987</v>
       </c>
@@ -49694,13 +49787,14 @@
       <c r="G1063" t="s">
         <v>5144</v>
       </c>
-      <c r="H1063" s="9"/>
-      <c r="I1063"/>
-      <c r="J1063" s="1" t="s">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1063" s="9" t="s">
+        <v>7155</v>
+      </c>
+      <c r="I1063" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1064">
         <v>1987</v>
       </c>
@@ -49719,13 +49813,14 @@
       <c r="G1064" t="s">
         <v>5146</v>
       </c>
-      <c r="H1064" s="9"/>
-      <c r="I1064"/>
-      <c r="J1064" s="1" t="s">
-        <v>4267</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1064" s="9" t="s">
+        <v>7156</v>
+      </c>
+      <c r="I1064" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>1987</v>
       </c>
@@ -49744,13 +49839,14 @@
       <c r="G1065" t="s">
         <v>5149</v>
       </c>
-      <c r="H1065" s="9"/>
-      <c r="I1065"/>
-      <c r="J1065" s="1" t="s">
-        <v>4268</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1065" s="9" t="s">
+        <v>7157</v>
+      </c>
+      <c r="I1065" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1066">
         <v>1987</v>
       </c>
@@ -49769,13 +49865,14 @@
       <c r="G1066" t="s">
         <v>5151</v>
       </c>
-      <c r="H1066" s="9"/>
-      <c r="I1066"/>
-      <c r="J1066" s="1" t="s">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1066" s="9" t="s">
+        <v>5150</v>
+      </c>
+      <c r="I1066" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1067">
         <v>1987</v>
       </c>
@@ -49794,13 +49891,14 @@
       <c r="G1067" t="s">
         <v>5153</v>
       </c>
-      <c r="H1067" s="9"/>
-      <c r="I1067"/>
-      <c r="J1067" s="1" t="s">
-        <v>4269</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1067" s="9" t="s">
+        <v>7158</v>
+      </c>
+      <c r="I1067" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>1987</v>
       </c>
@@ -49822,12 +49920,11 @@
       <c r="H1068" s="1" t="s">
         <v>4257</v>
       </c>
-      <c r="I1068"/>
-      <c r="J1068" s="1" t="s">
-        <v>4270</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1068" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>1987</v>
       </c>
@@ -49846,13 +49943,14 @@
       <c r="G1069" t="s">
         <v>5159</v>
       </c>
-      <c r="H1069" s="9"/>
-      <c r="I1069"/>
-      <c r="J1069" s="1" t="s">
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1069" s="9" t="s">
+        <v>7159</v>
+      </c>
+      <c r="I1069" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1070">
         <v>1987</v>
       </c>
@@ -49871,13 +49969,14 @@
       <c r="G1070" t="s">
         <v>5161</v>
       </c>
-      <c r="H1070" s="9"/>
-      <c r="I1070"/>
-      <c r="J1070" s="1" t="s">
-        <v>4272</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1070" s="9" t="s">
+        <v>7160</v>
+      </c>
+      <c r="I1070" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1071">
         <v>1987</v>
       </c>
@@ -49896,13 +49995,14 @@
       <c r="G1071" t="s">
         <v>5163</v>
       </c>
-      <c r="H1071" s="9"/>
-      <c r="I1071"/>
-      <c r="J1071" s="1" t="s">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1071" s="9" t="s">
+        <v>7161</v>
+      </c>
+      <c r="I1071" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1072">
         <v>1987</v>
       </c>
@@ -49921,13 +50021,14 @@
       <c r="G1072" t="s">
         <v>5166</v>
       </c>
-      <c r="H1072" s="9"/>
-      <c r="I1072"/>
-      <c r="J1072" s="1" t="s">
-        <v>4274</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1072" s="9" t="s">
+        <v>7162</v>
+      </c>
+      <c r="I1072" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1073">
         <v>1987</v>
       </c>
@@ -49946,13 +50047,14 @@
       <c r="G1073" t="s">
         <v>5168</v>
       </c>
-      <c r="H1073" s="9"/>
-      <c r="I1073"/>
-      <c r="J1073" s="1" t="s">
-        <v>4275</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1073" s="9" t="s">
+        <v>7163</v>
+      </c>
+      <c r="I1073" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1074">
         <v>1987</v>
       </c>
@@ -49971,13 +50073,14 @@
       <c r="G1074" t="s">
         <v>5171</v>
       </c>
-      <c r="H1074" s="9"/>
-      <c r="I1074"/>
-      <c r="J1074" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1074" s="9" t="s">
+        <v>7164</v>
+      </c>
+      <c r="I1074" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>1987</v>
       </c>
@@ -49996,13 +50099,14 @@
       <c r="G1075" t="s">
         <v>5173</v>
       </c>
-      <c r="H1075" s="9"/>
-      <c r="I1075"/>
-      <c r="J1075" s="1" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1075" s="9" t="s">
+        <v>7165</v>
+      </c>
+      <c r="I1075" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1076">
         <v>1987</v>
       </c>
@@ -50024,12 +50128,11 @@
       <c r="H1076" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="I1076"/>
-      <c r="J1076" s="1" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1076" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1077">
         <v>1987</v>
       </c>
@@ -50048,13 +50151,14 @@
       <c r="G1077" t="s">
         <v>5176</v>
       </c>
-      <c r="H1077" s="9"/>
-      <c r="I1077"/>
-      <c r="J1077" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1077" s="9" t="s">
+        <v>7166</v>
+      </c>
+      <c r="I1077" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1078">
         <v>1987</v>
       </c>
@@ -50073,13 +50177,14 @@
       <c r="G1078" t="s">
         <v>5178</v>
       </c>
-      <c r="H1078" s="9"/>
-      <c r="I1078"/>
-      <c r="J1078" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1078" s="9" t="s">
+        <v>7167</v>
+      </c>
+      <c r="I1078" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1079">
         <v>1987</v>
       </c>
@@ -50098,13 +50203,14 @@
       <c r="G1079" t="s">
         <v>5180</v>
       </c>
-      <c r="H1079" s="9"/>
-      <c r="I1079"/>
-      <c r="J1079" s="1" t="s">
-        <v>4276</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1079" s="9" t="s">
+        <v>7168</v>
+      </c>
+      <c r="I1079" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1080">
         <v>1987</v>
       </c>
@@ -50123,13 +50229,14 @@
       <c r="G1080" t="s">
         <v>5182</v>
       </c>
-      <c r="H1080" s="9"/>
-      <c r="I1080"/>
-      <c r="J1080" s="1" t="s">
-        <v>4277</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1080" s="9" t="s">
+        <v>7169</v>
+      </c>
+      <c r="I1080" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1081">
         <v>1987</v>
       </c>
@@ -50148,13 +50255,14 @@
       <c r="G1081" t="s">
         <v>5184</v>
       </c>
-      <c r="H1081" s="9"/>
-      <c r="I1081"/>
-      <c r="J1081" s="1" t="s">
-        <v>4278</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1081" s="9" t="s">
+        <v>7170</v>
+      </c>
+      <c r="I1081" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1082">
         <v>1987</v>
       </c>
@@ -50173,13 +50281,14 @@
       <c r="G1082" t="s">
         <v>5186</v>
       </c>
-      <c r="H1082" s="9"/>
-      <c r="I1082"/>
-      <c r="J1082" s="1" t="s">
-        <v>4279</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1082" s="9" t="s">
+        <v>7171</v>
+      </c>
+      <c r="I1082" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>1987</v>
       </c>
@@ -50198,13 +50307,14 @@
       <c r="G1083" t="s">
         <v>5189</v>
       </c>
-      <c r="H1083" s="9"/>
-      <c r="I1083"/>
-      <c r="J1083" s="1" t="s">
-        <v>4280</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1083" s="9" t="s">
+        <v>5187</v>
+      </c>
+      <c r="I1083" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1084">
         <v>1987</v>
       </c>
@@ -50223,13 +50333,14 @@
       <c r="G1084" t="s">
         <v>5192</v>
       </c>
-      <c r="H1084" s="9"/>
-      <c r="I1084"/>
-      <c r="J1084" s="1" t="s">
-        <v>4281</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1084" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I1084" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1085">
         <v>1987</v>
       </c>
@@ -50248,13 +50359,14 @@
       <c r="G1085" t="s">
         <v>5194</v>
       </c>
-      <c r="H1085" s="9"/>
-      <c r="I1085"/>
-      <c r="J1085" s="1" t="s">
-        <v>4282</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1085" s="9" t="s">
+        <v>7172</v>
+      </c>
+      <c r="I1085" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1086">
         <v>1987</v>
       </c>
@@ -50273,13 +50385,14 @@
       <c r="G1086" t="s">
         <v>5196</v>
       </c>
-      <c r="H1086" s="9"/>
-      <c r="I1086"/>
-      <c r="J1086" s="1" t="s">
-        <v>4283</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1086" s="9" t="s">
+        <v>7173</v>
+      </c>
+      <c r="I1086" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1087">
         <v>1988</v>
       </c>
@@ -50298,13 +50411,14 @@
       <c r="G1087" t="s">
         <v>5198</v>
       </c>
-      <c r="H1087" s="9"/>
-      <c r="I1087"/>
-      <c r="J1087" s="1" t="s">
-        <v>4284</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1087" s="9" t="s">
+        <v>5197</v>
+      </c>
+      <c r="I1087" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1088">
         <v>1988</v>
       </c>
@@ -50323,10 +50437,11 @@
       <c r="G1088" t="s">
         <v>5201</v>
       </c>
-      <c r="H1088" s="9"/>
-      <c r="I1088"/>
-      <c r="J1088" s="1" t="s">
-        <v>4285</v>
+      <c r="H1088" s="9" t="s">
+        <v>7174</v>
+      </c>
+      <c r="I1088" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1089" spans="1:10" x14ac:dyDescent="0.2">
@@ -50348,10 +50463,11 @@
       <c r="G1089" t="s">
         <v>5203</v>
       </c>
-      <c r="H1089" s="9"/>
-      <c r="I1089"/>
-      <c r="J1089" s="1" t="s">
-        <v>4286</v>
+      <c r="H1089" s="9" t="s">
+        <v>7175</v>
+      </c>
+      <c r="I1089" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1090" spans="1:10" x14ac:dyDescent="0.2">
@@ -50373,10 +50489,11 @@
       <c r="G1090" t="s">
         <v>5205</v>
       </c>
-      <c r="H1090" s="9"/>
-      <c r="I1090"/>
-      <c r="J1090" s="1" t="s">
-        <v>4287</v>
+      <c r="H1090" s="9" t="s">
+        <v>7176</v>
+      </c>
+      <c r="I1090" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1091" spans="1:10" x14ac:dyDescent="0.2">
@@ -50398,10 +50515,11 @@
       <c r="G1091" t="s">
         <v>5207</v>
       </c>
-      <c r="H1091" s="9"/>
-      <c r="I1091"/>
-      <c r="J1091" s="1" t="s">
-        <v>4288</v>
+      <c r="H1091" s="9" t="s">
+        <v>7177</v>
+      </c>
+      <c r="I1091" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1092" spans="1:10" x14ac:dyDescent="0.2">
@@ -50423,10 +50541,11 @@
       <c r="G1092" t="s">
         <v>5209</v>
       </c>
-      <c r="H1092" s="9"/>
-      <c r="I1092"/>
-      <c r="J1092" s="1" t="s">
-        <v>4289</v>
+      <c r="H1092" s="9" t="s">
+        <v>7178</v>
+      </c>
+      <c r="I1092" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1093" spans="1:10" x14ac:dyDescent="0.2">
@@ -50448,10 +50567,11 @@
       <c r="G1093" t="s">
         <v>5211</v>
       </c>
-      <c r="H1093" s="9"/>
-      <c r="I1093"/>
-      <c r="J1093" s="1" t="s">
-        <v>4290</v>
+      <c r="H1093" s="9" t="s">
+        <v>7179</v>
+      </c>
+      <c r="I1093" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1094" spans="1:10" x14ac:dyDescent="0.2">
@@ -50473,10 +50593,11 @@
       <c r="G1094" t="s">
         <v>5213</v>
       </c>
-      <c r="H1094" s="9"/>
-      <c r="I1094"/>
-      <c r="J1094" s="1" t="s">
-        <v>4291</v>
+      <c r="H1094" s="9" t="s">
+        <v>7180</v>
+      </c>
+      <c r="I1094" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1095" spans="1:10" x14ac:dyDescent="0.2">
@@ -50498,10 +50619,11 @@
       <c r="G1095" t="s">
         <v>5215</v>
       </c>
-      <c r="H1095" s="9"/>
-      <c r="I1095"/>
-      <c r="J1095" s="1" t="s">
-        <v>1209</v>
+      <c r="H1095" s="9" t="s">
+        <v>7181</v>
+      </c>
+      <c r="I1095" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1096" spans="1:10" x14ac:dyDescent="0.2">
@@ -50523,10 +50645,11 @@
       <c r="G1096" t="s">
         <v>5217</v>
       </c>
-      <c r="H1096" s="9"/>
-      <c r="I1096"/>
-      <c r="J1096" s="1" t="s">
-        <v>4292</v>
+      <c r="H1096" s="9" t="s">
+        <v>7182</v>
+      </c>
+      <c r="I1096" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1097" spans="1:10" x14ac:dyDescent="0.2">
@@ -50548,10 +50671,11 @@
       <c r="G1097" t="s">
         <v>5219</v>
       </c>
-      <c r="H1097" s="9"/>
-      <c r="I1097"/>
-      <c r="J1097" s="1" t="s">
-        <v>4293</v>
+      <c r="H1097" s="9" t="s">
+        <v>5218</v>
+      </c>
+      <c r="I1097" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1098" spans="1:10" x14ac:dyDescent="0.2">
@@ -50573,10 +50697,11 @@
       <c r="G1098" t="s">
         <v>5221</v>
       </c>
-      <c r="H1098" s="9"/>
-      <c r="I1098"/>
-      <c r="J1098" s="1" t="s">
-        <v>4294</v>
+      <c r="H1098" s="9" t="s">
+        <v>5220</v>
+      </c>
+      <c r="I1098" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1099" spans="1:10" x14ac:dyDescent="0.2">
@@ -50598,10 +50723,11 @@
       <c r="G1099" t="s">
         <v>5223</v>
       </c>
-      <c r="H1099" s="9"/>
-      <c r="I1099"/>
-      <c r="J1099" s="1" t="s">
-        <v>4295</v>
+      <c r="H1099" s="9" t="s">
+        <v>7183</v>
+      </c>
+      <c r="I1099" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1100" spans="1:10" x14ac:dyDescent="0.2">
@@ -50623,10 +50749,14 @@
       <c r="G1100" t="s">
         <v>5225</v>
       </c>
-      <c r="H1100" s="9"/>
-      <c r="I1100"/>
+      <c r="H1100" s="9" t="s">
+        <v>7184</v>
+      </c>
+      <c r="I1100" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1100" s="1" t="s">
-        <v>4266</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1101" spans="1:10" x14ac:dyDescent="0.2">
@@ -50651,7 +50781,7 @@
       <c r="H1101" s="9"/>
       <c r="I1101"/>
       <c r="J1101" s="1" t="s">
-        <v>4296</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1102" spans="1:10" x14ac:dyDescent="0.2">
@@ -50676,7 +50806,7 @@
       <c r="H1102" s="9"/>
       <c r="I1102"/>
       <c r="J1102" s="1" t="s">
-        <v>4297</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1103" spans="1:10" x14ac:dyDescent="0.2">
@@ -50701,7 +50831,7 @@
       <c r="H1103" s="9"/>
       <c r="I1103"/>
       <c r="J1103" s="1" t="s">
-        <v>4298</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1104" spans="1:10" x14ac:dyDescent="0.2">
@@ -50726,7 +50856,7 @@
       <c r="H1104" s="9"/>
       <c r="I1104"/>
       <c r="J1104" s="1" t="s">
-        <v>4299</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1105" spans="1:10" x14ac:dyDescent="0.2">
@@ -50751,7 +50881,7 @@
       <c r="H1105" s="9"/>
       <c r="I1105"/>
       <c r="J1105" s="1" t="s">
-        <v>4300</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="1106" spans="1:10" x14ac:dyDescent="0.2">
@@ -50776,7 +50906,7 @@
       <c r="H1106" s="9"/>
       <c r="I1106"/>
       <c r="J1106" s="1" t="s">
-        <v>4301</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1107" spans="1:10" x14ac:dyDescent="0.2">
@@ -50801,7 +50931,7 @@
       <c r="H1107" s="9"/>
       <c r="I1107"/>
       <c r="J1107" s="1" t="s">
-        <v>4302</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.2">
@@ -50826,7 +50956,7 @@
       <c r="H1108" s="9"/>
       <c r="I1108"/>
       <c r="J1108" s="1" t="s">
-        <v>4303</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1109" spans="1:10" x14ac:dyDescent="0.2">
@@ -50851,7 +50981,7 @@
       <c r="H1109" s="9"/>
       <c r="I1109"/>
       <c r="J1109" s="1" t="s">
-        <v>4304</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.2">
@@ -50876,7 +51006,7 @@
       <c r="H1110" s="9"/>
       <c r="I1110"/>
       <c r="J1110" s="1" t="s">
-        <v>1212</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1111" spans="1:10" x14ac:dyDescent="0.2">
@@ -50901,7 +51031,7 @@
       <c r="H1111" s="9"/>
       <c r="I1111"/>
       <c r="J1111" s="1" t="s">
-        <v>1215</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1112" spans="1:10" x14ac:dyDescent="0.2">
@@ -50926,7 +51056,7 @@
       <c r="H1112" s="9"/>
       <c r="I1112"/>
       <c r="J1112" s="1" t="s">
-        <v>1220</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.2">
@@ -50951,7 +51081,7 @@
       <c r="H1113" s="9"/>
       <c r="I1113"/>
       <c r="J1113" s="1" t="s">
-        <v>4305</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1114" spans="1:10" x14ac:dyDescent="0.2">
@@ -50976,7 +51106,7 @@
       <c r="H1114" s="9"/>
       <c r="I1114"/>
       <c r="J1114" s="1" t="s">
-        <v>4306</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1115" spans="1:10" x14ac:dyDescent="0.2">
@@ -51001,7 +51131,7 @@
       <c r="H1115" s="9"/>
       <c r="I1115"/>
       <c r="J1115" s="1" t="s">
-        <v>4307</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1116" spans="1:10" x14ac:dyDescent="0.2">
@@ -51025,7 +51155,7 @@
       </c>
       <c r="H1116" s="9"/>
       <c r="J1116" s="1" t="s">
-        <v>4308</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1117" spans="1:10" x14ac:dyDescent="0.2">
@@ -51048,7 +51178,7 @@
         <v>2723</v>
       </c>
       <c r="J1117" s="1" t="s">
-        <v>4266</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1118" spans="1:10" x14ac:dyDescent="0.2">
@@ -51071,7 +51201,7 @@
         <v>2725</v>
       </c>
       <c r="J1118" s="1" t="s">
-        <v>4309</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="1119" spans="1:10" x14ac:dyDescent="0.2">
@@ -51094,7 +51224,7 @@
         <v>2727</v>
       </c>
       <c r="J1119" s="1" t="s">
-        <v>4310</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1120" spans="1:10" x14ac:dyDescent="0.2">
@@ -51117,7 +51247,7 @@
         <v>2729</v>
       </c>
       <c r="J1120" s="1" t="s">
-        <v>4311</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="1121" spans="1:10" x14ac:dyDescent="0.2">
@@ -51140,7 +51270,7 @@
         <v>2732</v>
       </c>
       <c r="J1121" s="1" t="s">
-        <v>4312</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="1122" spans="1:10" x14ac:dyDescent="0.2">
@@ -51163,7 +51293,7 @@
         <v>2735</v>
       </c>
       <c r="J1122" s="1" t="s">
-        <v>4313</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1123" spans="1:10" x14ac:dyDescent="0.2">
@@ -51188,8 +51318,11 @@
       <c r="G1123" t="s">
         <v>2738</v>
       </c>
+      <c r="H1123" s="1" t="s">
+        <v>2736</v>
+      </c>
       <c r="J1123" s="1" t="s">
-        <v>4314</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="1124" spans="1:10" x14ac:dyDescent="0.2">
@@ -51212,7 +51345,7 @@
         <v>2741</v>
       </c>
       <c r="J1124" s="1" t="s">
-        <v>4315</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1125" spans="1:10" x14ac:dyDescent="0.2">
@@ -51235,7 +51368,7 @@
         <v>2743</v>
       </c>
       <c r="J1125" s="1" t="s">
-        <v>4316</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="1126" spans="1:10" x14ac:dyDescent="0.2">
@@ -51258,7 +51391,7 @@
         <v>2745</v>
       </c>
       <c r="J1126" s="1" t="s">
-        <v>4317</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1127" spans="1:10" x14ac:dyDescent="0.2">
@@ -51281,7 +51414,7 @@
         <v>2747</v>
       </c>
       <c r="J1127" s="1" t="s">
-        <v>4318</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="1128" spans="1:10" x14ac:dyDescent="0.2">
@@ -51304,7 +51437,7 @@
         <v>2749</v>
       </c>
       <c r="J1128" s="1" t="s">
-        <v>4319</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1129" spans="1:10" x14ac:dyDescent="0.2">
@@ -51327,7 +51460,7 @@
         <v>2752</v>
       </c>
       <c r="J1129" s="1" t="s">
-        <v>4320</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1130" spans="1:10" x14ac:dyDescent="0.2">
@@ -51350,7 +51483,7 @@
         <v>2754</v>
       </c>
       <c r="J1130" s="1" t="s">
-        <v>4321</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1131" spans="1:10" x14ac:dyDescent="0.2">
@@ -51373,7 +51506,7 @@
         <v>2756</v>
       </c>
       <c r="J1131" s="1" t="s">
-        <v>4322</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1132" spans="1:10" x14ac:dyDescent="0.2">
@@ -51396,7 +51529,7 @@
         <v>2759</v>
       </c>
       <c r="J1132" s="1" t="s">
-        <v>1223</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1133" spans="1:10" x14ac:dyDescent="0.2">
@@ -51419,7 +51552,7 @@
         <v>2761</v>
       </c>
       <c r="J1133" s="1" t="s">
-        <v>1226</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1134" spans="1:10" x14ac:dyDescent="0.2">
@@ -51442,7 +51575,7 @@
         <v>2763</v>
       </c>
       <c r="J1134" s="1" t="s">
-        <v>230</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="1135" spans="1:10" x14ac:dyDescent="0.2">
@@ -51465,7 +51598,7 @@
         <v>2765</v>
       </c>
       <c r="J1135" s="1" t="s">
-        <v>4323</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1136" spans="1:10" x14ac:dyDescent="0.2">
@@ -51488,7 +51621,7 @@
         <v>2768</v>
       </c>
       <c r="J1136" s="1" t="s">
-        <v>4324</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1137" spans="1:10" x14ac:dyDescent="0.2">
@@ -51511,7 +51644,7 @@
         <v>2771</v>
       </c>
       <c r="J1137" s="1" t="s">
-        <v>4325</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1138" spans="1:10" x14ac:dyDescent="0.2">
@@ -51534,7 +51667,7 @@
         <v>2774</v>
       </c>
       <c r="J1138" s="1" t="s">
-        <v>4326</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="1139" spans="1:10" x14ac:dyDescent="0.2">
@@ -51557,7 +51690,7 @@
         <v>2777</v>
       </c>
       <c r="J1139" s="1" t="s">
-        <v>4327</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1140" spans="1:10" x14ac:dyDescent="0.2">
@@ -51580,7 +51713,7 @@
         <v>2779</v>
       </c>
       <c r="J1140" s="1" t="s">
-        <v>4328</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="1141" spans="1:10" x14ac:dyDescent="0.2">
@@ -51603,7 +51736,7 @@
         <v>2781</v>
       </c>
       <c r="J1141" s="1" t="s">
-        <v>4329</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1142" spans="1:10" x14ac:dyDescent="0.2">
@@ -51626,7 +51759,7 @@
         <v>2783</v>
       </c>
       <c r="J1142" s="1" t="s">
-        <v>4330</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="1143" spans="1:10" x14ac:dyDescent="0.2">
@@ -51649,7 +51782,7 @@
         <v>2785</v>
       </c>
       <c r="J1143" s="1" t="s">
-        <v>4331</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1144" spans="1:10" x14ac:dyDescent="0.2">
@@ -51672,7 +51805,7 @@
         <v>2787</v>
       </c>
       <c r="J1144" s="1" t="s">
-        <v>4332</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="1145" spans="1:10" x14ac:dyDescent="0.2">
@@ -51695,7 +51828,7 @@
         <v>2790</v>
       </c>
       <c r="J1145" s="1" t="s">
-        <v>4333</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1146" spans="1:10" x14ac:dyDescent="0.2">
@@ -51718,7 +51851,7 @@
         <v>2793</v>
       </c>
       <c r="J1146" s="1" t="s">
-        <v>4334</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1147" spans="1:10" x14ac:dyDescent="0.2">
@@ -51741,7 +51874,7 @@
         <v>2795</v>
       </c>
       <c r="J1147" s="1" t="s">
-        <v>4335</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1148" spans="1:10" x14ac:dyDescent="0.2">
@@ -51764,7 +51897,7 @@
         <v>2798</v>
       </c>
       <c r="J1148" s="1" t="s">
-        <v>4336</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1149" spans="1:10" x14ac:dyDescent="0.2">
@@ -51787,7 +51920,7 @@
         <v>2800</v>
       </c>
       <c r="J1149" s="1" t="s">
-        <v>1232</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1150" spans="1:10" x14ac:dyDescent="0.2">
@@ -51810,7 +51943,7 @@
         <v>2802</v>
       </c>
       <c r="J1150" s="1" t="s">
-        <v>1236</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1151" spans="1:10" x14ac:dyDescent="0.2">
@@ -51833,7 +51966,7 @@
         <v>2805</v>
       </c>
       <c r="J1151" s="1" t="s">
-        <v>56</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="1152" spans="1:10" x14ac:dyDescent="0.2">
@@ -51856,7 +51989,7 @@
         <v>2806</v>
       </c>
       <c r="J1152" s="1" t="s">
-        <v>1240</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1153" spans="1:10" x14ac:dyDescent="0.2">
@@ -51879,7 +52012,7 @@
         <v>2808</v>
       </c>
       <c r="J1153" s="1" t="s">
-        <v>4337</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1154" spans="1:10" x14ac:dyDescent="0.2">
@@ -51902,7 +52035,7 @@
         <v>2810</v>
       </c>
       <c r="J1154" s="1" t="s">
-        <v>4307</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1155" spans="1:10" x14ac:dyDescent="0.2">
@@ -51925,7 +52058,7 @@
         <v>2813</v>
       </c>
       <c r="J1155" s="1" t="s">
-        <v>4338</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1156" spans="1:10" x14ac:dyDescent="0.2">
@@ -51948,7 +52081,7 @@
         <v>2816</v>
       </c>
       <c r="J1156" s="1" t="s">
-        <v>4339</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1157" spans="1:10" x14ac:dyDescent="0.2">
@@ -51971,7 +52104,7 @@
         <v>2818</v>
       </c>
       <c r="J1157" s="1" t="s">
-        <v>4340</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1158" spans="1:10" x14ac:dyDescent="0.2">
@@ -51994,7 +52127,7 @@
         <v>2820</v>
       </c>
       <c r="J1158" s="1" t="s">
-        <v>4341</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1159" spans="1:10" x14ac:dyDescent="0.2">
@@ -52017,7 +52150,7 @@
         <v>2822</v>
       </c>
       <c r="J1159" s="1" t="s">
-        <v>4342</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1160" spans="1:10" x14ac:dyDescent="0.2">
@@ -52040,7 +52173,7 @@
         <v>2824</v>
       </c>
       <c r="J1160" s="1" t="s">
-        <v>4343</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1161" spans="1:10" x14ac:dyDescent="0.2">
@@ -52063,7 +52196,7 @@
         <v>2826</v>
       </c>
       <c r="J1161" s="1" t="s">
-        <v>4344</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1162" spans="1:10" x14ac:dyDescent="0.2">
@@ -52086,7 +52219,7 @@
         <v>2829</v>
       </c>
       <c r="J1162" s="1" t="s">
-        <v>4345</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1163" spans="1:10" x14ac:dyDescent="0.2">
@@ -52109,7 +52242,7 @@
         <v>2831</v>
       </c>
       <c r="J1163" s="1" t="s">
-        <v>4346</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1164" spans="1:10" x14ac:dyDescent="0.2">
@@ -52132,7 +52265,7 @@
         <v>2833</v>
       </c>
       <c r="J1164" s="1" t="s">
-        <v>4347</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1165" spans="1:10" x14ac:dyDescent="0.2">
@@ -52155,7 +52288,7 @@
         <v>2835</v>
       </c>
       <c r="J1165" s="1" t="s">
-        <v>4348</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1166" spans="1:10" x14ac:dyDescent="0.2">
@@ -52178,7 +52311,7 @@
         <v>2838</v>
       </c>
       <c r="J1166" s="1" t="s">
-        <v>4349</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1167" spans="1:10" x14ac:dyDescent="0.2">
@@ -52201,7 +52334,7 @@
         <v>2841</v>
       </c>
       <c r="J1167" s="1" t="s">
-        <v>4350</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1168" spans="1:10" x14ac:dyDescent="0.2">
@@ -52224,7 +52357,7 @@
         <v>2843</v>
       </c>
       <c r="J1168" s="1" t="s">
-        <v>4351</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1169" spans="1:10" x14ac:dyDescent="0.2">
@@ -52250,7 +52383,7 @@
         <v>2847</v>
       </c>
       <c r="J1169" s="1" t="s">
-        <v>4352</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1170" spans="1:10" x14ac:dyDescent="0.2">
@@ -52273,7 +52406,7 @@
         <v>2849</v>
       </c>
       <c r="J1170" s="1" t="s">
-        <v>4353</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1171" spans="1:10" x14ac:dyDescent="0.2">
@@ -52296,7 +52429,7 @@
         <v>2852</v>
       </c>
       <c r="J1171" s="1" t="s">
-        <v>4354</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1172" spans="1:10" x14ac:dyDescent="0.2">
@@ -52319,7 +52452,7 @@
         <v>2854</v>
       </c>
       <c r="J1172" s="1" t="s">
-        <v>4355</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1173" spans="1:10" x14ac:dyDescent="0.2">
@@ -52342,7 +52475,7 @@
         <v>2856</v>
       </c>
       <c r="J1173" s="1" t="s">
-        <v>1244</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1174" spans="1:10" x14ac:dyDescent="0.2">
@@ -52365,7 +52498,7 @@
         <v>2858</v>
       </c>
       <c r="J1174" s="1" t="s">
-        <v>1248</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1175" spans="1:10" x14ac:dyDescent="0.2">
@@ -52388,7 +52521,7 @@
         <v>2860</v>
       </c>
       <c r="J1175" s="1" t="s">
-        <v>1251</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1176" spans="1:10" x14ac:dyDescent="0.2">
@@ -52414,7 +52547,7 @@
         <v>2862</v>
       </c>
       <c r="J1176" s="1" t="s">
-        <v>1256</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1177" spans="1:10" x14ac:dyDescent="0.2">
@@ -52437,7 +52570,7 @@
         <v>2864</v>
       </c>
       <c r="J1177" s="1" t="s">
-        <v>4356</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1178" spans="1:10" x14ac:dyDescent="0.2">
@@ -52460,7 +52593,7 @@
         <v>2866</v>
       </c>
       <c r="J1178" s="1" t="s">
-        <v>4357</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1179" spans="1:10" x14ac:dyDescent="0.2">
@@ -52483,7 +52616,7 @@
         <v>2868</v>
       </c>
       <c r="J1179" s="1" t="s">
-        <v>4358</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1180" spans="1:10" x14ac:dyDescent="0.2">
@@ -52506,7 +52639,7 @@
         <v>2870</v>
       </c>
       <c r="J1180" s="1" t="s">
-        <v>4359</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1181" spans="1:10" x14ac:dyDescent="0.2">
@@ -52529,7 +52662,7 @@
         <v>2872</v>
       </c>
       <c r="J1181" s="1" t="s">
-        <v>4360</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1182" spans="1:10" x14ac:dyDescent="0.2">
@@ -52552,7 +52685,7 @@
         <v>2874</v>
       </c>
       <c r="J1182" s="1" t="s">
-        <v>4361</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="1183" spans="1:10" x14ac:dyDescent="0.2">
@@ -52575,7 +52708,7 @@
         <v>2877</v>
       </c>
       <c r="J1183" s="1" t="s">
-        <v>4362</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1184" spans="1:10" x14ac:dyDescent="0.2">
@@ -52601,7 +52734,7 @@
         <v>2879</v>
       </c>
       <c r="J1184" s="1" t="s">
-        <v>4363</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="1185" spans="1:10" x14ac:dyDescent="0.2">
@@ -52624,7 +52757,7 @@
         <v>2881</v>
       </c>
       <c r="J1185" s="1" t="s">
-        <v>1258</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1186" spans="1:10" x14ac:dyDescent="0.2">
@@ -52647,7 +52780,7 @@
         <v>2883</v>
       </c>
       <c r="J1186" s="1" t="s">
-        <v>1262</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1187" spans="1:10" x14ac:dyDescent="0.2">
@@ -52670,7 +52803,7 @@
         <v>2886</v>
       </c>
       <c r="J1187" s="1" t="s">
-        <v>1265</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1188" spans="1:10" x14ac:dyDescent="0.2">
@@ -52693,7 +52826,7 @@
         <v>2888</v>
       </c>
       <c r="J1188" s="1" t="s">
-        <v>1269</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1189" spans="1:10" x14ac:dyDescent="0.2">
@@ -52716,7 +52849,7 @@
         <v>2890</v>
       </c>
       <c r="J1189" s="1" t="s">
-        <v>1272</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1190" spans="1:10" x14ac:dyDescent="0.2">
@@ -52739,7 +52872,7 @@
         <v>2892</v>
       </c>
       <c r="J1190" s="1" t="s">
-        <v>1275</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1191" spans="1:10" x14ac:dyDescent="0.2">
@@ -52762,7 +52895,7 @@
         <v>2895</v>
       </c>
       <c r="J1191" s="1" t="s">
-        <v>4364</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="1192" spans="1:10" x14ac:dyDescent="0.2">
@@ -52785,7 +52918,7 @@
         <v>2897</v>
       </c>
       <c r="J1192" s="1" t="s">
-        <v>4365</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1193" spans="1:10" x14ac:dyDescent="0.2">
@@ -52808,7 +52941,7 @@
         <v>2899</v>
       </c>
       <c r="J1193" s="1" t="s">
-        <v>4366</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="1194" spans="1:10" x14ac:dyDescent="0.2">
@@ -52831,7 +52964,7 @@
         <v>2901</v>
       </c>
       <c r="J1194" s="1" t="s">
-        <v>4307</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1195" spans="1:10" x14ac:dyDescent="0.2">
@@ -52854,7 +52987,7 @@
         <v>2904</v>
       </c>
       <c r="J1195" s="1" t="s">
-        <v>4367</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="1196" spans="1:10" x14ac:dyDescent="0.2">
@@ -52877,7 +53010,7 @@
         <v>2906</v>
       </c>
       <c r="J1196" s="1" t="s">
-        <v>4368</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1197" spans="1:10" x14ac:dyDescent="0.2">
@@ -52900,7 +53033,7 @@
         <v>2908</v>
       </c>
       <c r="J1197" s="1" t="s">
-        <v>4369</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1198" spans="1:10" x14ac:dyDescent="0.2">
@@ -52923,7 +53056,7 @@
         <v>2910</v>
       </c>
       <c r="J1198" s="1" t="s">
-        <v>4370</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1199" spans="1:10" x14ac:dyDescent="0.2">
@@ -52946,7 +53079,7 @@
         <v>2912</v>
       </c>
       <c r="J1199" s="1" t="s">
-        <v>4371</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="1200" spans="1:10" x14ac:dyDescent="0.2">
@@ -52969,7 +53102,7 @@
         <v>2914</v>
       </c>
       <c r="J1200" s="1" t="s">
-        <v>4372</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1201" spans="1:10" x14ac:dyDescent="0.2">
@@ -52992,7 +53125,7 @@
         <v>2917</v>
       </c>
       <c r="J1201" s="1" t="s">
-        <v>4373</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1202" spans="1:10" x14ac:dyDescent="0.2">
@@ -53015,7 +53148,7 @@
         <v>2920</v>
       </c>
       <c r="J1202" s="1" t="s">
-        <v>4374</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1203" spans="1:10" x14ac:dyDescent="0.2">
@@ -53038,7 +53171,7 @@
         <v>2923</v>
       </c>
       <c r="J1203" s="1" t="s">
-        <v>4375</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1204" spans="1:10" x14ac:dyDescent="0.2">
@@ -53061,7 +53194,7 @@
         <v>2925</v>
       </c>
       <c r="J1204" s="1" t="s">
-        <v>4376</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1205" spans="1:10" x14ac:dyDescent="0.2">
@@ -53084,7 +53217,7 @@
         <v>2927</v>
       </c>
       <c r="J1205" s="1" t="s">
-        <v>4377</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1206" spans="1:10" x14ac:dyDescent="0.2">
@@ -53107,7 +53240,7 @@
         <v>2929</v>
       </c>
       <c r="J1206" s="1" t="s">
-        <v>1279</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1207" spans="1:10" x14ac:dyDescent="0.2">
@@ -53130,7 +53263,7 @@
         <v>2932</v>
       </c>
       <c r="J1207" s="1" t="s">
-        <v>1283</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1208" spans="1:10" x14ac:dyDescent="0.2">
@@ -53153,7 +53286,7 @@
         <v>5265</v>
       </c>
       <c r="J1208" s="1" t="s">
-        <v>639</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1209" spans="1:10" x14ac:dyDescent="0.2">
@@ -53176,7 +53309,7 @@
         <v>5267</v>
       </c>
       <c r="J1209" s="1" t="s">
-        <v>1290</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1210" spans="1:10" x14ac:dyDescent="0.2">
@@ -53199,7 +53332,7 @@
         <v>5269</v>
       </c>
       <c r="J1210" s="1" t="s">
-        <v>1294</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1211" spans="1:10" x14ac:dyDescent="0.2">
@@ -53222,7 +53355,7 @@
         <v>5272</v>
       </c>
       <c r="J1211" s="1" t="s">
-        <v>1297</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1212" spans="1:10" x14ac:dyDescent="0.2">
@@ -53245,7 +53378,7 @@
         <v>5274</v>
       </c>
       <c r="J1212" s="1" t="s">
-        <v>18</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1213" spans="1:10" x14ac:dyDescent="0.2">
@@ -53268,7 +53401,7 @@
         <v>5276</v>
       </c>
       <c r="J1213" s="1" t="s">
-        <v>4378</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1214" spans="1:10" x14ac:dyDescent="0.2">
@@ -53291,7 +53424,7 @@
         <v>5278</v>
       </c>
       <c r="J1214" s="1" t="s">
-        <v>4379</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1215" spans="1:10" x14ac:dyDescent="0.2">
@@ -53314,7 +53447,7 @@
         <v>5280</v>
       </c>
       <c r="J1215" s="1" t="s">
-        <v>4380</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1216" spans="1:10" x14ac:dyDescent="0.2">
@@ -53337,7 +53470,7 @@
         <v>5281</v>
       </c>
       <c r="J1216" s="1" t="s">
-        <v>4381</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1217" spans="1:10" x14ac:dyDescent="0.2">
@@ -53360,7 +53493,7 @@
         <v>5283</v>
       </c>
       <c r="J1217" s="1" t="s">
-        <v>4382</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1218" spans="1:10" x14ac:dyDescent="0.2">
@@ -53383,7 +53516,7 @@
         <v>5285</v>
       </c>
       <c r="J1218" s="1" t="s">
-        <v>4383</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1219" spans="1:10" x14ac:dyDescent="0.2">
@@ -53409,7 +53542,7 @@
         <v>5287</v>
       </c>
       <c r="J1219" s="1" t="s">
-        <v>4384</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1220" spans="1:10" x14ac:dyDescent="0.2">
@@ -53432,7 +53565,7 @@
         <v>5289</v>
       </c>
       <c r="J1220" s="1" t="s">
-        <v>4385</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1221" spans="1:10" x14ac:dyDescent="0.2">
@@ -53455,7 +53588,7 @@
         <v>5290</v>
       </c>
       <c r="J1221" s="1" t="s">
-        <v>4386</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1222" spans="1:10" x14ac:dyDescent="0.2">
@@ -53478,7 +53611,7 @@
         <v>5292</v>
       </c>
       <c r="J1222" s="1" t="s">
-        <v>4387</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1223" spans="1:10" x14ac:dyDescent="0.2">
@@ -53501,7 +53634,7 @@
         <v>5294</v>
       </c>
       <c r="J1223" s="1" t="s">
-        <v>4388</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1224" spans="1:10" x14ac:dyDescent="0.2">
@@ -53524,7 +53657,7 @@
         <v>5296</v>
       </c>
       <c r="J1224" s="1" t="s">
-        <v>4389</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1225" spans="1:10" x14ac:dyDescent="0.2">
@@ -53547,7 +53680,7 @@
         <v>5297</v>
       </c>
       <c r="J1225" s="1" t="s">
-        <v>4390</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1226" spans="1:10" x14ac:dyDescent="0.2">
@@ -53570,7 +53703,7 @@
         <v>5299</v>
       </c>
       <c r="J1226" s="1" t="s">
-        <v>4391</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1227" spans="1:10" x14ac:dyDescent="0.2">
@@ -53593,7 +53726,7 @@
         <v>5302</v>
       </c>
       <c r="J1227" s="1" t="s">
-        <v>4392</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1228" spans="1:10" x14ac:dyDescent="0.2">
@@ -53616,7 +53749,7 @@
         <v>5304</v>
       </c>
       <c r="J1228" s="1" t="s">
-        <v>4393</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1229" spans="1:10" x14ac:dyDescent="0.2">
@@ -53639,7 +53772,7 @@
         <v>5307</v>
       </c>
       <c r="J1229" s="1" t="s">
-        <v>4394</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1230" spans="1:10" x14ac:dyDescent="0.2">
@@ -53662,7 +53795,7 @@
         <v>5309</v>
       </c>
       <c r="J1230" s="1" t="s">
-        <v>4395</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1231" spans="1:10" x14ac:dyDescent="0.2">
@@ -53685,7 +53818,7 @@
         <v>5311</v>
       </c>
       <c r="J1231" s="1" t="s">
-        <v>4396</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1232" spans="1:10" x14ac:dyDescent="0.2">
@@ -53708,7 +53841,7 @@
         <v>5313</v>
       </c>
       <c r="J1232" s="1" t="s">
-        <v>4397</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1233" spans="1:10" x14ac:dyDescent="0.2">
@@ -53731,7 +53864,7 @@
         <v>5315</v>
       </c>
       <c r="J1233" s="1" t="s">
-        <v>1301</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1234" spans="1:10" x14ac:dyDescent="0.2">
@@ -53754,7 +53887,7 @@
         <v>5317</v>
       </c>
       <c r="J1234" s="1" t="s">
-        <v>4398</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1235" spans="1:10" x14ac:dyDescent="0.2">
@@ -53777,7 +53910,7 @@
         <v>5319</v>
       </c>
       <c r="J1235" s="1" t="s">
-        <v>4307</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1236" spans="1:10" x14ac:dyDescent="0.2">
@@ -53800,7 +53933,7 @@
         <v>5320</v>
       </c>
       <c r="J1236" s="1" t="s">
-        <v>4399</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1237" spans="1:10" x14ac:dyDescent="0.2">
@@ -53823,7 +53956,7 @@
         <v>5322</v>
       </c>
       <c r="J1237" s="1" t="s">
-        <v>4400</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1238" spans="1:10" x14ac:dyDescent="0.2">
@@ -53846,7 +53979,7 @@
         <v>5324</v>
       </c>
       <c r="J1238" s="1" t="s">
-        <v>4401</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1239" spans="1:10" x14ac:dyDescent="0.2">
@@ -53869,7 +54002,7 @@
         <v>5326</v>
       </c>
       <c r="J1239" s="1" t="s">
-        <v>4402</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1240" spans="1:10" x14ac:dyDescent="0.2">
@@ -53892,7 +54025,7 @@
         <v>5328</v>
       </c>
       <c r="J1240" s="1" t="s">
-        <v>4403</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1241" spans="1:10" x14ac:dyDescent="0.2">
@@ -53915,7 +54048,7 @@
         <v>5330</v>
       </c>
       <c r="J1241" s="1" t="s">
-        <v>4404</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1242" spans="1:10" x14ac:dyDescent="0.2">
@@ -53938,7 +54071,7 @@
         <v>5332</v>
       </c>
       <c r="J1242" s="1" t="s">
-        <v>4405</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1243" spans="1:10" x14ac:dyDescent="0.2">
@@ -53961,7 +54094,7 @@
         <v>5335</v>
       </c>
       <c r="J1243" s="1" t="s">
-        <v>4406</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1244" spans="1:10" x14ac:dyDescent="0.2">
@@ -53987,7 +54120,7 @@
         <v>5336</v>
       </c>
       <c r="J1244" s="1" t="s">
-        <v>4407</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1245" spans="1:10" x14ac:dyDescent="0.2">
@@ -54010,7 +54143,7 @@
         <v>5338</v>
       </c>
       <c r="J1245" s="1" t="s">
-        <v>4408</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1246" spans="1:10" x14ac:dyDescent="0.2">
@@ -54033,7 +54166,7 @@
         <v>5340</v>
       </c>
       <c r="J1246" s="1" t="s">
-        <v>4409</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1247" spans="1:10" x14ac:dyDescent="0.2">
@@ -54056,7 +54189,7 @@
         <v>5343</v>
       </c>
       <c r="J1247" s="1" t="s">
-        <v>4410</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1248" spans="1:10" x14ac:dyDescent="0.2">
@@ -54079,7 +54212,7 @@
         <v>5345</v>
       </c>
       <c r="J1248" s="1" t="s">
-        <v>4411</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1249" spans="1:10" x14ac:dyDescent="0.2">
@@ -54102,7 +54235,7 @@
         <v>5347</v>
       </c>
       <c r="J1249" s="1" t="s">
-        <v>4412</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1250" spans="1:10" x14ac:dyDescent="0.2">
@@ -54125,7 +54258,7 @@
         <v>5350</v>
       </c>
       <c r="J1250" s="1" t="s">
-        <v>4413</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1251" spans="1:10" x14ac:dyDescent="0.2">
@@ -54148,7 +54281,7 @@
         <v>5352</v>
       </c>
       <c r="J1251" s="1" t="s">
-        <v>1304</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1252" spans="1:10" x14ac:dyDescent="0.2">
@@ -54171,7 +54304,7 @@
         <v>5354</v>
       </c>
       <c r="J1252" s="1" t="s">
-        <v>1307</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1253" spans="1:10" x14ac:dyDescent="0.2">
@@ -54194,7 +54327,7 @@
         <v>5356</v>
       </c>
       <c r="J1253" s="1" t="s">
-        <v>1310</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1254" spans="1:10" x14ac:dyDescent="0.2">
@@ -54217,7 +54350,7 @@
         <v>5358</v>
       </c>
       <c r="J1254" s="1" t="s">
-        <v>4414</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1255" spans="1:10" x14ac:dyDescent="0.2">
@@ -54240,7 +54373,7 @@
         <v>5360</v>
       </c>
       <c r="J1255" s="1" t="s">
-        <v>4415</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1256" spans="1:10" x14ac:dyDescent="0.2">
@@ -54263,7 +54396,7 @@
         <v>5362</v>
       </c>
       <c r="J1256" s="1" t="s">
-        <v>4416</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1257" spans="1:10" x14ac:dyDescent="0.2">
@@ -54286,7 +54419,7 @@
         <v>5363</v>
       </c>
       <c r="J1257" s="1" t="s">
-        <v>4417</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1258" spans="1:10" x14ac:dyDescent="0.2">
@@ -54309,7 +54442,7 @@
         <v>5366</v>
       </c>
       <c r="J1258" s="1" t="s">
-        <v>4418</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1259" spans="1:10" x14ac:dyDescent="0.2">
@@ -54333,7 +54466,7 @@
       </c>
       <c r="I1259"/>
       <c r="J1259" s="1" t="s">
-        <v>4419</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1260" spans="1:10" x14ac:dyDescent="0.2">
@@ -54358,7 +54491,7 @@
       <c r="H1260" s="9"/>
       <c r="I1260"/>
       <c r="J1260" s="1" t="s">
-        <v>4420</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1261" spans="1:10" x14ac:dyDescent="0.2">
@@ -54383,7 +54516,7 @@
       <c r="H1261" s="9"/>
       <c r="I1261"/>
       <c r="J1261" s="1" t="s">
-        <v>4421</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1262" spans="1:10" x14ac:dyDescent="0.2">
@@ -54408,7 +54541,7 @@
       <c r="H1262" s="9"/>
       <c r="I1262"/>
       <c r="J1262" s="1" t="s">
-        <v>4422</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1263" spans="1:10" x14ac:dyDescent="0.2">
@@ -54433,7 +54566,7 @@
       <c r="H1263" s="9"/>
       <c r="I1263"/>
       <c r="J1263" s="1" t="s">
-        <v>4423</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1264" spans="1:10" x14ac:dyDescent="0.2">
@@ -54458,7 +54591,7 @@
       <c r="H1264" s="9"/>
       <c r="I1264"/>
       <c r="J1264" s="1" t="s">
-        <v>4424</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1265" spans="1:10" x14ac:dyDescent="0.2">
@@ -54483,7 +54616,7 @@
       <c r="H1265" s="9"/>
       <c r="I1265"/>
       <c r="J1265" s="1" t="s">
-        <v>4425</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1266" spans="1:10" x14ac:dyDescent="0.2">
@@ -54508,7 +54641,7 @@
       <c r="H1266" s="9"/>
       <c r="I1266"/>
       <c r="J1266" s="1" t="s">
-        <v>4426</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1267" spans="1:10" x14ac:dyDescent="0.2">
@@ -54533,7 +54666,7 @@
       <c r="H1267" s="9"/>
       <c r="I1267"/>
       <c r="J1267" s="1" t="s">
-        <v>4427</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1268" spans="1:10" x14ac:dyDescent="0.2">
@@ -54558,7 +54691,7 @@
       <c r="H1268" s="9"/>
       <c r="I1268"/>
       <c r="J1268" s="1" t="s">
-        <v>4428</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1269" spans="1:10" x14ac:dyDescent="0.2">
@@ -54583,7 +54716,7 @@
       <c r="H1269" s="9"/>
       <c r="I1269"/>
       <c r="J1269" s="1" t="s">
-        <v>4429</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1270" spans="1:10" x14ac:dyDescent="0.2">
@@ -54608,7 +54741,7 @@
       <c r="H1270" s="9"/>
       <c r="I1270"/>
       <c r="J1270" s="1" t="s">
-        <v>1313</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1271" spans="1:10" x14ac:dyDescent="0.2">
@@ -54633,7 +54766,7 @@
       <c r="H1271" s="9"/>
       <c r="I1271"/>
       <c r="J1271" s="1" t="s">
-        <v>1316</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1272" spans="1:10" x14ac:dyDescent="0.2">
@@ -54658,7 +54791,7 @@
       <c r="H1272" s="9"/>
       <c r="I1272"/>
       <c r="J1272" s="1" t="s">
-        <v>1320</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1273" spans="1:10" x14ac:dyDescent="0.2">
@@ -54683,7 +54816,7 @@
       <c r="H1273" s="9"/>
       <c r="I1273"/>
       <c r="J1273" s="1" t="s">
-        <v>1323</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1274" spans="1:10" x14ac:dyDescent="0.2">
@@ -54708,7 +54841,7 @@
       <c r="H1274" s="9"/>
       <c r="I1274"/>
       <c r="J1274" s="1" t="s">
-        <v>1326</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1275" spans="1:10" x14ac:dyDescent="0.2">
@@ -54733,7 +54866,7 @@
       <c r="H1275" s="9"/>
       <c r="I1275"/>
       <c r="J1275" s="1" t="s">
-        <v>4430</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1276" spans="1:10" x14ac:dyDescent="0.2">
@@ -54758,7 +54891,7 @@
       <c r="H1276" s="9"/>
       <c r="I1276"/>
       <c r="J1276" s="1" t="s">
-        <v>4431</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1277" spans="1:10" x14ac:dyDescent="0.2">
@@ -54783,7 +54916,7 @@
       <c r="H1277" s="9"/>
       <c r="I1277"/>
       <c r="J1277" s="1" t="s">
-        <v>4432</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1278" spans="1:10" x14ac:dyDescent="0.2">
@@ -54808,7 +54941,7 @@
       <c r="H1278" s="9"/>
       <c r="I1278"/>
       <c r="J1278" s="1" t="s">
-        <v>4433</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1279" spans="1:10" x14ac:dyDescent="0.2">
@@ -54836,7 +54969,7 @@
       <c r="H1279" s="9"/>
       <c r="I1279"/>
       <c r="J1279" s="1" t="s">
-        <v>4434</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1280" spans="1:10" x14ac:dyDescent="0.2">
@@ -54864,7 +54997,7 @@
       <c r="H1280" s="9"/>
       <c r="I1280"/>
       <c r="J1280" s="1" t="s">
-        <v>4435</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1281" spans="1:10" x14ac:dyDescent="0.2">
@@ -54889,7 +55022,7 @@
       <c r="H1281" s="9"/>
       <c r="I1281"/>
       <c r="J1281" s="1" t="s">
-        <v>4436</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1282" spans="1:10" x14ac:dyDescent="0.2">
@@ -54914,7 +55047,7 @@
       <c r="H1282" s="9"/>
       <c r="I1282"/>
       <c r="J1282" s="1" t="s">
-        <v>4437</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1283" spans="1:10" x14ac:dyDescent="0.2">
@@ -54939,7 +55072,7 @@
       <c r="H1283" s="9"/>
       <c r="I1283"/>
       <c r="J1283" s="1" t="s">
-        <v>4438</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1284" spans="1:10" x14ac:dyDescent="0.2">
@@ -54964,7 +55097,7 @@
       <c r="H1284" s="9"/>
       <c r="I1284"/>
       <c r="J1284" s="1" t="s">
-        <v>4439</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1285" spans="1:10" x14ac:dyDescent="0.2">
@@ -54989,7 +55122,7 @@
       <c r="H1285" s="9"/>
       <c r="I1285"/>
       <c r="J1285" s="1" t="s">
-        <v>4440</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1286" spans="1:10" x14ac:dyDescent="0.2">
@@ -55014,7 +55147,7 @@
       <c r="H1286" s="9"/>
       <c r="I1286"/>
       <c r="J1286" s="1" t="s">
-        <v>4441</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1287" spans="1:10" x14ac:dyDescent="0.2">
@@ -55039,7 +55172,7 @@
       <c r="H1287" s="9"/>
       <c r="I1287"/>
       <c r="J1287" s="1" t="s">
-        <v>1330</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1288" spans="1:10" x14ac:dyDescent="0.2">
@@ -55064,7 +55197,7 @@
       <c r="H1288" s="9"/>
       <c r="I1288"/>
       <c r="J1288" s="1" t="s">
-        <v>1334</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1289" spans="1:10" x14ac:dyDescent="0.2">
@@ -55089,7 +55222,7 @@
       <c r="H1289" s="9"/>
       <c r="I1289"/>
       <c r="J1289" s="1" t="s">
-        <v>1338</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1290" spans="1:10" x14ac:dyDescent="0.2">
@@ -55114,7 +55247,7 @@
       <c r="H1290" s="9"/>
       <c r="I1290"/>
       <c r="J1290" s="1" t="s">
-        <v>1341</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1291" spans="1:10" x14ac:dyDescent="0.2">
@@ -55139,7 +55272,7 @@
       <c r="H1291" s="9"/>
       <c r="I1291"/>
       <c r="J1291" s="1" t="s">
-        <v>1344</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1292" spans="1:10" x14ac:dyDescent="0.2">
@@ -55164,7 +55297,7 @@
       <c r="H1292" s="9"/>
       <c r="I1292"/>
       <c r="J1292" s="1" t="s">
-        <v>1347</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1293" spans="1:10" x14ac:dyDescent="0.2">
@@ -55189,7 +55322,7 @@
       <c r="H1293" s="9"/>
       <c r="I1293"/>
       <c r="J1293" s="1" t="s">
-        <v>1351</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1294" spans="1:10" x14ac:dyDescent="0.2">
@@ -55214,7 +55347,7 @@
       <c r="H1294" s="9"/>
       <c r="I1294"/>
       <c r="J1294" s="1" t="s">
-        <v>1354</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1295" spans="1:10" x14ac:dyDescent="0.2">
@@ -55239,7 +55372,7 @@
       <c r="H1295" s="9"/>
       <c r="I1295"/>
       <c r="J1295" s="1" t="s">
-        <v>1357</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1296" spans="1:10" x14ac:dyDescent="0.2">
@@ -55264,7 +55397,7 @@
       <c r="H1296" s="9"/>
       <c r="I1296"/>
       <c r="J1296" s="1" t="s">
-        <v>1360</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="1297" spans="1:10" x14ac:dyDescent="0.2">
@@ -55289,7 +55422,7 @@
       <c r="H1297" s="9"/>
       <c r="I1297"/>
       <c r="J1297" s="1" t="s">
-        <v>1365</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1298" spans="1:10" x14ac:dyDescent="0.2">
@@ -55314,7 +55447,7 @@
       <c r="H1298" s="9"/>
       <c r="I1298"/>
       <c r="J1298" s="1" t="s">
-        <v>1368</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="1299" spans="1:10" x14ac:dyDescent="0.2">
@@ -55339,7 +55472,7 @@
       <c r="H1299" s="9"/>
       <c r="I1299"/>
       <c r="J1299" s="1" t="s">
-        <v>1371</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1300" spans="1:10" x14ac:dyDescent="0.2">
@@ -55364,7 +55497,7 @@
       <c r="H1300" s="9"/>
       <c r="I1300"/>
       <c r="J1300" s="1" t="s">
-        <v>1375</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1301" spans="1:10" x14ac:dyDescent="0.2">
@@ -55389,7 +55522,7 @@
       <c r="H1301" s="9"/>
       <c r="I1301"/>
       <c r="J1301" s="1" t="s">
-        <v>1378</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1302" spans="1:10" x14ac:dyDescent="0.2">
@@ -55414,7 +55547,7 @@
       <c r="H1302" s="9"/>
       <c r="I1302"/>
       <c r="J1302" s="1" t="s">
-        <v>1381</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="1303" spans="1:10" x14ac:dyDescent="0.2">
@@ -55439,7 +55572,7 @@
       <c r="H1303" s="9"/>
       <c r="I1303"/>
       <c r="J1303" s="1" t="s">
-        <v>442</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1304" spans="1:10" x14ac:dyDescent="0.2">
@@ -55464,7 +55597,7 @@
       <c r="H1304" s="9"/>
       <c r="I1304"/>
       <c r="J1304" s="1" t="s">
-        <v>1387</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="1305" spans="1:10" x14ac:dyDescent="0.2">
@@ -55489,7 +55622,7 @@
       <c r="H1305" s="9"/>
       <c r="I1305"/>
       <c r="J1305" s="1" t="s">
-        <v>1391</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1306" spans="1:10" x14ac:dyDescent="0.2">
@@ -55514,7 +55647,7 @@
       <c r="H1306" s="9"/>
       <c r="I1306"/>
       <c r="J1306" s="1" t="s">
-        <v>1394</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1307" spans="1:10" x14ac:dyDescent="0.2">
@@ -55542,7 +55675,7 @@
       <c r="H1307" s="9"/>
       <c r="I1307"/>
       <c r="J1307" s="1" t="s">
-        <v>1396</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1308" spans="1:10" x14ac:dyDescent="0.2">
@@ -55567,7 +55700,7 @@
       <c r="H1308" s="9"/>
       <c r="I1308"/>
       <c r="J1308" s="1" t="s">
-        <v>1399</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1309" spans="1:10" x14ac:dyDescent="0.2">
@@ -55592,7 +55725,7 @@
       <c r="H1309" s="9"/>
       <c r="I1309"/>
       <c r="J1309" s="1" t="s">
-        <v>1402</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="1310" spans="1:10" x14ac:dyDescent="0.2">
@@ -55617,7 +55750,7 @@
       <c r="H1310" s="9"/>
       <c r="I1310"/>
       <c r="J1310" s="1" t="s">
-        <v>1406</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1311" spans="1:10" x14ac:dyDescent="0.2">
@@ -55642,7 +55775,7 @@
       <c r="H1311" s="9"/>
       <c r="I1311"/>
       <c r="J1311" s="1" t="s">
-        <v>1410</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1312" spans="1:10" x14ac:dyDescent="0.2">
@@ -55667,7 +55800,7 @@
       <c r="H1312" s="9"/>
       <c r="I1312"/>
       <c r="J1312" s="1" t="s">
-        <v>1413</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1313" spans="1:10" x14ac:dyDescent="0.2">
@@ -55692,7 +55825,7 @@
       <c r="H1313" s="9"/>
       <c r="I1313"/>
       <c r="J1313" s="1" t="s">
-        <v>1417</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="1314" spans="1:10" x14ac:dyDescent="0.2">
@@ -55717,7 +55850,7 @@
       <c r="H1314" s="9"/>
       <c r="I1314"/>
       <c r="J1314" s="1" t="s">
-        <v>1420</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1315" spans="1:10" x14ac:dyDescent="0.2">
@@ -55742,7 +55875,7 @@
       <c r="H1315" s="9"/>
       <c r="I1315"/>
       <c r="J1315" s="1" t="s">
-        <v>1423</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="1316" spans="1:10" x14ac:dyDescent="0.2">
@@ -55767,7 +55900,7 @@
       <c r="H1316" s="9"/>
       <c r="I1316"/>
       <c r="J1316" s="1" t="s">
-        <v>62</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1317" spans="1:10" x14ac:dyDescent="0.2">
@@ -55792,7 +55925,7 @@
       <c r="H1317" s="9"/>
       <c r="I1317"/>
       <c r="J1317" s="1" t="s">
-        <v>1428</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1318" spans="1:10" x14ac:dyDescent="0.2">
@@ -55817,7 +55950,7 @@
       <c r="H1318" s="9"/>
       <c r="I1318"/>
       <c r="J1318" s="1" t="s">
-        <v>1432</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1319" spans="1:10" x14ac:dyDescent="0.2">
@@ -55842,7 +55975,7 @@
       <c r="H1319" s="9"/>
       <c r="I1319"/>
       <c r="J1319" s="1" t="s">
-        <v>1435</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="1320" spans="1:10" x14ac:dyDescent="0.2">
@@ -55867,7 +56000,7 @@
       <c r="H1320" s="9"/>
       <c r="I1320"/>
       <c r="J1320" s="1" t="s">
-        <v>1438</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1321" spans="1:10" x14ac:dyDescent="0.2">
@@ -55892,7 +56025,7 @@
       <c r="H1321" s="9"/>
       <c r="I1321"/>
       <c r="J1321" s="1" t="s">
-        <v>1442</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1322" spans="1:10" x14ac:dyDescent="0.2">
@@ -55917,7 +56050,7 @@
       <c r="H1322" s="9"/>
       <c r="I1322"/>
       <c r="J1322" s="1" t="s">
-        <v>1446</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1323" spans="1:10" x14ac:dyDescent="0.2">
@@ -55942,7 +56075,7 @@
       <c r="H1323" s="9"/>
       <c r="I1323"/>
       <c r="J1323" s="1" t="s">
-        <v>4442</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1324" spans="1:10" x14ac:dyDescent="0.2">
@@ -55967,7 +56100,7 @@
       <c r="H1324" s="9"/>
       <c r="I1324"/>
       <c r="J1324" s="1" t="s">
-        <v>4443</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1325" spans="1:10" x14ac:dyDescent="0.2">
@@ -55992,7 +56125,7 @@
       <c r="H1325" s="9"/>
       <c r="I1325"/>
       <c r="J1325" s="1" t="s">
-        <v>4444</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1326" spans="1:10" x14ac:dyDescent="0.2">
@@ -56017,7 +56150,7 @@
       <c r="H1326" s="9"/>
       <c r="I1326"/>
       <c r="J1326" s="1" t="s">
-        <v>4445</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1327" spans="1:10" x14ac:dyDescent="0.2">
@@ -56042,7 +56175,7 @@
       <c r="H1327" s="9"/>
       <c r="I1327"/>
       <c r="J1327" s="1" t="s">
-        <v>4446</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1328" spans="1:10" x14ac:dyDescent="0.2">
@@ -56067,7 +56200,7 @@
       <c r="H1328" s="9"/>
       <c r="I1328"/>
       <c r="J1328" s="1" t="s">
-        <v>4447</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1329" spans="1:10" x14ac:dyDescent="0.2">
@@ -56092,7 +56225,7 @@
       <c r="H1329" s="9"/>
       <c r="I1329"/>
       <c r="J1329" s="1" t="s">
-        <v>4448</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1330" spans="1:10" x14ac:dyDescent="0.2">
@@ -56117,7 +56250,7 @@
       <c r="H1330" s="9"/>
       <c r="I1330"/>
       <c r="J1330" s="1" t="s">
-        <v>4449</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1331" spans="1:10" x14ac:dyDescent="0.2">
@@ -56142,7 +56275,7 @@
       <c r="H1331" s="9"/>
       <c r="I1331"/>
       <c r="J1331" s="1" t="s">
-        <v>4450</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1332" spans="1:10" x14ac:dyDescent="0.2">
@@ -56167,7 +56300,7 @@
       <c r="H1332" s="9"/>
       <c r="I1332"/>
       <c r="J1332" s="1" t="s">
-        <v>4451</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1333" spans="1:10" x14ac:dyDescent="0.2">
@@ -56192,7 +56325,7 @@
       <c r="H1333" s="9"/>
       <c r="I1333"/>
       <c r="J1333" s="1" t="s">
-        <v>4452</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1334" spans="1:10" x14ac:dyDescent="0.2">
@@ -56217,7 +56350,7 @@
       <c r="H1334" s="9"/>
       <c r="I1334"/>
       <c r="J1334" s="1" t="s">
-        <v>4453</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1335" spans="1:10" x14ac:dyDescent="0.2">
@@ -56242,7 +56375,7 @@
       <c r="H1335" s="9"/>
       <c r="I1335"/>
       <c r="J1335" s="1" t="s">
-        <v>4454</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1336" spans="1:10" x14ac:dyDescent="0.2">
@@ -56270,7 +56403,7 @@
       <c r="H1336" s="9"/>
       <c r="I1336"/>
       <c r="J1336" s="1" t="s">
-        <v>4455</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1337" spans="1:10" x14ac:dyDescent="0.2">
@@ -56295,7 +56428,7 @@
       <c r="H1337" s="9"/>
       <c r="I1337"/>
       <c r="J1337" s="1" t="s">
-        <v>4456</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1338" spans="1:10" x14ac:dyDescent="0.2">
@@ -56320,7 +56453,7 @@
       <c r="H1338" s="9"/>
       <c r="I1338"/>
       <c r="J1338" s="1" t="s">
-        <v>2991</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1339" spans="1:10" x14ac:dyDescent="0.2">
@@ -56348,7 +56481,7 @@
       <c r="H1339" s="9"/>
       <c r="I1339"/>
       <c r="J1339" s="1" t="s">
-        <v>4457</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="1340" spans="1:10" x14ac:dyDescent="0.2">
@@ -56373,7 +56506,7 @@
       <c r="H1340" s="9"/>
       <c r="I1340"/>
       <c r="J1340" s="1" t="s">
-        <v>4458</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1341" spans="1:10" x14ac:dyDescent="0.2">
@@ -56401,7 +56534,7 @@
       <c r="H1341" s="9"/>
       <c r="I1341"/>
       <c r="J1341" s="1" t="s">
-        <v>2942</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1342" spans="1:10" x14ac:dyDescent="0.2">
@@ -56426,7 +56559,7 @@
       <c r="H1342" s="9"/>
       <c r="I1342"/>
       <c r="J1342" s="1" t="s">
-        <v>4459</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1343" spans="1:10" x14ac:dyDescent="0.2">
@@ -56451,7 +56584,7 @@
       <c r="H1343" s="9"/>
       <c r="I1343"/>
       <c r="J1343" s="1" t="s">
-        <v>4460</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1344" spans="1:10" x14ac:dyDescent="0.2">
@@ -56476,7 +56609,7 @@
       <c r="H1344" s="9"/>
       <c r="I1344"/>
       <c r="J1344" s="1" t="s">
-        <v>4442</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1345" spans="1:10" x14ac:dyDescent="0.2">
@@ -56501,7 +56634,7 @@
       <c r="H1345" s="9"/>
       <c r="I1345"/>
       <c r="J1345" s="1" t="s">
-        <v>1449</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1346" spans="1:10" x14ac:dyDescent="0.2">
@@ -56526,7 +56659,7 @@
       <c r="H1346" s="9"/>
       <c r="I1346"/>
       <c r="J1346" s="1" t="s">
-        <v>1452</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.2">
@@ -56551,7 +56684,7 @@
       <c r="H1347" s="9"/>
       <c r="I1347"/>
       <c r="J1347" s="1" t="s">
-        <v>1456</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1348" spans="1:10" x14ac:dyDescent="0.2">
@@ -56576,7 +56709,7 @@
       <c r="H1348" s="9"/>
       <c r="I1348"/>
       <c r="J1348" s="1" t="s">
-        <v>1459</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1349" spans="1:10" x14ac:dyDescent="0.2">
@@ -56601,7 +56734,7 @@
       <c r="H1349" s="9"/>
       <c r="I1349"/>
       <c r="J1349" s="1" t="s">
-        <v>1462</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1350" spans="1:10" x14ac:dyDescent="0.2">
@@ -56626,7 +56759,7 @@
       <c r="H1350" s="9"/>
       <c r="I1350"/>
       <c r="J1350" s="1" t="s">
-        <v>1465</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1351" spans="1:10" x14ac:dyDescent="0.2">
@@ -56651,7 +56784,7 @@
       <c r="H1351" s="9"/>
       <c r="I1351"/>
       <c r="J1351" s="1" t="s">
-        <v>1469</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1352" spans="1:10" x14ac:dyDescent="0.2">
@@ -56676,7 +56809,7 @@
       <c r="H1352" s="9"/>
       <c r="I1352"/>
       <c r="J1352" s="1" t="s">
-        <v>591</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1353" spans="1:10" x14ac:dyDescent="0.2">
@@ -56701,7 +56834,7 @@
       <c r="H1353" s="9"/>
       <c r="I1353"/>
       <c r="J1353" s="1" t="s">
-        <v>1475</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1354" spans="1:10" x14ac:dyDescent="0.2">
@@ -56726,7 +56859,7 @@
       <c r="H1354" s="9"/>
       <c r="I1354"/>
       <c r="J1354" s="1" t="s">
-        <v>1478</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1355" spans="1:10" x14ac:dyDescent="0.2">
@@ -56751,7 +56884,7 @@
       <c r="H1355" s="9"/>
       <c r="I1355"/>
       <c r="J1355" s="1" t="s">
-        <v>1480</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1356" spans="1:10" x14ac:dyDescent="0.2">
@@ -56776,7 +56909,7 @@
       <c r="H1356" s="9"/>
       <c r="I1356"/>
       <c r="J1356" s="1" t="s">
-        <v>1484</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1357" spans="1:10" x14ac:dyDescent="0.2">
@@ -56801,7 +56934,7 @@
       <c r="H1357" s="9"/>
       <c r="I1357"/>
       <c r="J1357" s="1" t="s">
-        <v>1487</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1358" spans="1:10" x14ac:dyDescent="0.2">
@@ -56826,7 +56959,7 @@
       <c r="H1358" s="9"/>
       <c r="I1358"/>
       <c r="J1358" s="1" t="s">
-        <v>1491</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1359" spans="1:10" x14ac:dyDescent="0.2">
@@ -56851,7 +56984,7 @@
       <c r="H1359" s="9"/>
       <c r="I1359"/>
       <c r="J1359" s="1" t="s">
-        <v>1495</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1360" spans="1:10" x14ac:dyDescent="0.2">
@@ -56876,7 +57009,7 @@
       <c r="H1360" s="9"/>
       <c r="I1360"/>
       <c r="J1360" s="1" t="s">
-        <v>1498</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1361" spans="1:10" x14ac:dyDescent="0.2">
@@ -56901,7 +57034,7 @@
       <c r="H1361" s="9"/>
       <c r="I1361"/>
       <c r="J1361" s="1" t="s">
-        <v>1501</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1362" spans="1:10" x14ac:dyDescent="0.2">
@@ -56926,7 +57059,7 @@
       <c r="H1362" s="9"/>
       <c r="I1362"/>
       <c r="J1362" s="1" t="s">
-        <v>1504</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1363" spans="1:10" x14ac:dyDescent="0.2">
@@ -56951,7 +57084,7 @@
       <c r="H1363" s="9"/>
       <c r="I1363"/>
       <c r="J1363" s="1" t="s">
-        <v>1507</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1364" spans="1:10" x14ac:dyDescent="0.2">
@@ -56975,8 +57108,8 @@
       </c>
       <c r="H1364" s="9"/>
       <c r="I1364"/>
-      <c r="J1364" s="4" t="s">
-        <v>1297</v>
+      <c r="J1364" s="1" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="1365" spans="1:10" x14ac:dyDescent="0.2">
@@ -57001,7 +57134,7 @@
       <c r="H1365" s="9"/>
       <c r="I1365"/>
       <c r="J1365" s="1" t="s">
-        <v>1513</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1366" spans="1:10" x14ac:dyDescent="0.2">
@@ -57026,7 +57159,7 @@
       <c r="H1366" s="9"/>
       <c r="I1366"/>
       <c r="J1366" s="1" t="s">
-        <v>1517</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.2">
@@ -57051,7 +57184,7 @@
       <c r="H1367" s="9"/>
       <c r="I1367"/>
       <c r="J1367" s="1" t="s">
-        <v>1520</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1368" spans="1:10" x14ac:dyDescent="0.2">
@@ -57076,7 +57209,7 @@
       <c r="H1368" s="9"/>
       <c r="I1368"/>
       <c r="J1368" s="1" t="s">
-        <v>1524</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1369" spans="1:10" x14ac:dyDescent="0.2">
@@ -57101,7 +57234,7 @@
       <c r="H1369" s="9"/>
       <c r="I1369"/>
       <c r="J1369" s="1" t="s">
-        <v>1528</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1370" spans="1:10" x14ac:dyDescent="0.2">
@@ -57126,7 +57259,7 @@
       <c r="H1370" s="9"/>
       <c r="I1370"/>
       <c r="J1370" s="1" t="s">
-        <v>1532</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1371" spans="1:10" x14ac:dyDescent="0.2">
@@ -57151,7 +57284,7 @@
       <c r="H1371" s="9"/>
       <c r="I1371"/>
       <c r="J1371" s="1" t="s">
-        <v>1535</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1372" spans="1:10" x14ac:dyDescent="0.2">
@@ -57179,7 +57312,7 @@
       <c r="H1372" s="9"/>
       <c r="I1372"/>
       <c r="J1372" s="1" t="s">
-        <v>1538</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1373" spans="1:10" x14ac:dyDescent="0.2">
@@ -57204,7 +57337,7 @@
       <c r="H1373" s="9"/>
       <c r="I1373"/>
       <c r="J1373" s="1" t="s">
-        <v>1542</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1374" spans="1:10" x14ac:dyDescent="0.2">
@@ -57229,7 +57362,7 @@
       <c r="H1374" s="9"/>
       <c r="I1374"/>
       <c r="J1374" s="1" t="s">
-        <v>1546</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1375" spans="1:10" x14ac:dyDescent="0.2">
@@ -57254,7 +57387,7 @@
       <c r="H1375" s="9"/>
       <c r="I1375"/>
       <c r="J1375" s="1" t="s">
-        <v>1550</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1376" spans="1:10" x14ac:dyDescent="0.2">
@@ -57279,7 +57412,7 @@
       <c r="H1376" s="9"/>
       <c r="I1376"/>
       <c r="J1376" s="1" t="s">
-        <v>1553</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1377" spans="1:10" x14ac:dyDescent="0.2">
@@ -57304,7 +57437,7 @@
       <c r="H1377" s="9"/>
       <c r="I1377"/>
       <c r="J1377" s="1" t="s">
-        <v>1556</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1378" spans="1:10" x14ac:dyDescent="0.2">
@@ -57329,7 +57462,7 @@
       <c r="H1378" s="9"/>
       <c r="I1378"/>
       <c r="J1378" s="1" t="s">
-        <v>1560</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1379" spans="1:10" x14ac:dyDescent="0.2">
@@ -57354,7 +57487,7 @@
       <c r="H1379" s="9"/>
       <c r="I1379"/>
       <c r="J1379" s="1" t="s">
-        <v>1564</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1380" spans="1:10" x14ac:dyDescent="0.2">
@@ -57382,7 +57515,7 @@
       <c r="H1380" s="9"/>
       <c r="I1380"/>
       <c r="J1380" s="1" t="s">
-        <v>1567</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1381" spans="1:10" x14ac:dyDescent="0.2">
@@ -57407,7 +57540,7 @@
       <c r="H1381" s="9"/>
       <c r="I1381"/>
       <c r="J1381" s="1" t="s">
-        <v>1570</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1382" spans="1:10" x14ac:dyDescent="0.2">
@@ -57432,7 +57565,7 @@
       <c r="H1382" s="9"/>
       <c r="I1382"/>
       <c r="J1382" s="1" t="s">
-        <v>1573</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1383" spans="1:10" x14ac:dyDescent="0.2">
@@ -57457,7 +57590,7 @@
       <c r="H1383" s="9"/>
       <c r="I1383"/>
       <c r="J1383" s="1" t="s">
-        <v>1577</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1384" spans="1:10" x14ac:dyDescent="0.2">
@@ -57482,7 +57615,7 @@
       <c r="H1384" s="9"/>
       <c r="I1384"/>
       <c r="J1384" s="1" t="s">
-        <v>1581</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1385" spans="1:10" x14ac:dyDescent="0.2">
@@ -57510,7 +57643,7 @@
       <c r="H1385" s="9"/>
       <c r="I1385"/>
       <c r="J1385" s="1" t="s">
-        <v>1585</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1386" spans="1:10" x14ac:dyDescent="0.2">
@@ -57535,7 +57668,7 @@
       <c r="H1386" s="9"/>
       <c r="I1386"/>
       <c r="J1386" s="1" t="s">
-        <v>4461</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1387" spans="1:10" x14ac:dyDescent="0.2">
@@ -57560,7 +57693,7 @@
       <c r="H1387" s="9"/>
       <c r="I1387"/>
       <c r="J1387" s="1" t="s">
-        <v>1804</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1388" spans="1:10" x14ac:dyDescent="0.2">
@@ -57588,7 +57721,7 @@
       <c r="H1388" s="9"/>
       <c r="I1388"/>
       <c r="J1388" s="1" t="s">
-        <v>3062</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1389" spans="1:10" x14ac:dyDescent="0.2">
@@ -57616,7 +57749,7 @@
       <c r="H1389" s="9"/>
       <c r="I1389"/>
       <c r="J1389" s="1" t="s">
-        <v>4462</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.2">
@@ -57641,7 +57774,7 @@
       <c r="H1390" s="9"/>
       <c r="I1390"/>
       <c r="J1390" s="1" t="s">
-        <v>4463</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1391" spans="1:10" x14ac:dyDescent="0.2">
@@ -57666,7 +57799,7 @@
       <c r="H1391" s="9"/>
       <c r="I1391"/>
       <c r="J1391" s="1" t="s">
-        <v>4464</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1392" spans="1:10" x14ac:dyDescent="0.2">
@@ -57691,7 +57824,7 @@
       <c r="H1392" s="9"/>
       <c r="I1392"/>
       <c r="J1392" s="1" t="s">
-        <v>4465</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1393" spans="1:10" x14ac:dyDescent="0.2">
@@ -57719,7 +57852,7 @@
       <c r="H1393" s="9"/>
       <c r="I1393"/>
       <c r="J1393" s="1" t="s">
-        <v>4466</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.2">
@@ -57744,7 +57877,7 @@
       <c r="H1394" s="9"/>
       <c r="I1394"/>
       <c r="J1394" s="1" t="s">
-        <v>4467</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.2">
@@ -57769,7 +57902,7 @@
       <c r="H1395" s="9"/>
       <c r="I1395"/>
       <c r="J1395" s="1" t="s">
-        <v>4468</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1396" spans="1:10" x14ac:dyDescent="0.2">
@@ -57794,7 +57927,7 @@
       <c r="H1396" s="9"/>
       <c r="I1396"/>
       <c r="J1396" s="1" t="s">
-        <v>4469</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1397" spans="1:10" x14ac:dyDescent="0.2">
@@ -57819,7 +57952,7 @@
       <c r="H1397" s="9"/>
       <c r="I1397"/>
       <c r="J1397" s="1" t="s">
-        <v>4470</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1398" spans="1:10" x14ac:dyDescent="0.2">
@@ -57844,7 +57977,7 @@
       <c r="H1398" s="9"/>
       <c r="I1398"/>
       <c r="J1398" s="1" t="s">
-        <v>4471</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1399" spans="1:10" x14ac:dyDescent="0.2">
@@ -57869,7 +58002,7 @@
       <c r="H1399" s="9"/>
       <c r="I1399"/>
       <c r="J1399" s="1" t="s">
-        <v>3037</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1400" spans="1:10" x14ac:dyDescent="0.2">
@@ -57894,7 +58027,7 @@
       <c r="H1400" s="9"/>
       <c r="I1400"/>
       <c r="J1400" s="1" t="s">
-        <v>4472</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1401" spans="1:10" x14ac:dyDescent="0.2">
@@ -57919,7 +58052,7 @@
       <c r="H1401" s="9"/>
       <c r="I1401"/>
       <c r="J1401" s="1" t="s">
-        <v>4473</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.2">
@@ -57944,7 +58077,7 @@
       <c r="H1402" s="9"/>
       <c r="I1402"/>
       <c r="J1402" s="1" t="s">
-        <v>4474</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1403" spans="1:10" x14ac:dyDescent="0.2">
@@ -57969,7 +58102,7 @@
       <c r="H1403" s="9"/>
       <c r="I1403"/>
       <c r="J1403" s="1" t="s">
-        <v>4475</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1404" spans="1:10" x14ac:dyDescent="0.2">
@@ -57994,7 +58127,7 @@
       <c r="H1404" s="9"/>
       <c r="I1404"/>
       <c r="J1404" s="1" t="s">
-        <v>4461</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1405" spans="1:10" x14ac:dyDescent="0.2">
@@ -58022,7 +58155,7 @@
       <c r="H1405" s="9"/>
       <c r="I1405"/>
       <c r="J1405" s="1" t="s">
-        <v>1589</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1406" spans="1:10" x14ac:dyDescent="0.2">
@@ -58047,7 +58180,7 @@
       <c r="H1406" s="9"/>
       <c r="I1406"/>
       <c r="J1406" s="1" t="s">
-        <v>1592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1407" spans="1:10" x14ac:dyDescent="0.2">
@@ -58072,7 +58205,7 @@
       <c r="H1407" s="9"/>
       <c r="I1407"/>
       <c r="J1407" s="1" t="s">
-        <v>1596</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1408" spans="1:10" x14ac:dyDescent="0.2">
@@ -58097,7 +58230,7 @@
       <c r="H1408" s="9"/>
       <c r="I1408"/>
       <c r="J1408" s="1" t="s">
-        <v>1600</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1409" spans="1:10" x14ac:dyDescent="0.2">
@@ -58122,7 +58255,7 @@
       <c r="H1409" s="9"/>
       <c r="I1409"/>
       <c r="J1409" s="1" t="s">
-        <v>1603</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1410" spans="1:10" x14ac:dyDescent="0.2">
@@ -58147,7 +58280,7 @@
       <c r="H1410" s="9"/>
       <c r="I1410"/>
       <c r="J1410" s="1" t="s">
-        <v>1606</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.2">
@@ -58172,7 +58305,7 @@
       <c r="H1411" s="9"/>
       <c r="I1411"/>
       <c r="J1411" s="1" t="s">
-        <v>1609</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1412" spans="1:10" x14ac:dyDescent="0.2">
@@ -58197,7 +58330,7 @@
       <c r="H1412" s="9"/>
       <c r="I1412"/>
       <c r="J1412" s="1" t="s">
-        <v>1611</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1413" spans="1:10" x14ac:dyDescent="0.2">
@@ -58222,7 +58355,7 @@
       <c r="H1413" s="9"/>
       <c r="I1413"/>
       <c r="J1413" s="1" t="s">
-        <v>1614</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.2">
@@ -58247,7 +58380,7 @@
       <c r="H1414" s="9"/>
       <c r="I1414"/>
       <c r="J1414" s="1" t="s">
-        <v>1618</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1415" spans="1:10" x14ac:dyDescent="0.2">
@@ -58272,7 +58405,7 @@
       <c r="H1415" s="9"/>
       <c r="I1415"/>
       <c r="J1415" s="1" t="s">
-        <v>1621</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1416" spans="1:10" x14ac:dyDescent="0.2">
@@ -58297,7 +58430,7 @@
       <c r="H1416" s="9"/>
       <c r="I1416"/>
       <c r="J1416" s="1" t="s">
-        <v>1624</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1417" spans="1:10" x14ac:dyDescent="0.2">
@@ -58322,7 +58455,7 @@
       <c r="H1417" s="9"/>
       <c r="I1417"/>
       <c r="J1417" s="1" t="s">
-        <v>1628</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1418" spans="1:10" x14ac:dyDescent="0.2">
@@ -58346,8 +58479,8 @@
       </c>
       <c r="H1418" s="9"/>
       <c r="I1418"/>
-      <c r="J1418" s="1" t="s">
-        <v>1632</v>
+      <c r="J1418" s="4" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1419" spans="1:10" x14ac:dyDescent="0.2">
@@ -58372,7 +58505,7 @@
       <c r="H1419" s="9"/>
       <c r="I1419"/>
       <c r="J1419" s="1" t="s">
-        <v>1636</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1420" spans="1:10" x14ac:dyDescent="0.2">
@@ -58397,7 +58530,7 @@
       <c r="H1420" s="9"/>
       <c r="I1420"/>
       <c r="J1420" s="1" t="s">
-        <v>1639</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1421" spans="1:10" x14ac:dyDescent="0.2">
@@ -58422,7 +58555,7 @@
       <c r="H1421" s="9"/>
       <c r="I1421"/>
       <c r="J1421" s="1" t="s">
-        <v>1642</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1422" spans="1:10" x14ac:dyDescent="0.2">
@@ -58447,7 +58580,7 @@
       <c r="H1422" s="9"/>
       <c r="I1422"/>
       <c r="J1422" s="1" t="s">
-        <v>1646</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1423" spans="1:10" x14ac:dyDescent="0.2">
@@ -58472,7 +58605,7 @@
       <c r="H1423" s="9"/>
       <c r="I1423"/>
       <c r="J1423" s="1" t="s">
-        <v>1122</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1424" spans="1:10" x14ac:dyDescent="0.2">
@@ -58497,7 +58630,7 @@
       <c r="H1424" s="9"/>
       <c r="I1424"/>
       <c r="J1424" s="1" t="s">
-        <v>1652</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1425" spans="1:10" x14ac:dyDescent="0.2">
@@ -58522,7 +58655,7 @@
       <c r="H1425" s="9"/>
       <c r="I1425"/>
       <c r="J1425" s="1" t="s">
-        <v>1655</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.2">
@@ -58547,7 +58680,7 @@
       <c r="H1426" s="9"/>
       <c r="I1426"/>
       <c r="J1426" s="1" t="s">
-        <v>1658</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.2">
@@ -58572,7 +58705,7 @@
       <c r="H1427" s="9"/>
       <c r="I1427"/>
       <c r="J1427" s="1" t="s">
-        <v>1661</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1428" spans="1:10" x14ac:dyDescent="0.2">
@@ -58597,7 +58730,7 @@
       <c r="H1428" s="9"/>
       <c r="I1428"/>
       <c r="J1428" s="1" t="s">
-        <v>1664</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.2">
@@ -58622,7 +58755,7 @@
       <c r="H1429" s="9"/>
       <c r="I1429"/>
       <c r="J1429" s="1" t="s">
-        <v>1667</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.2">
@@ -58647,7 +58780,7 @@
       <c r="H1430" s="9"/>
       <c r="I1430"/>
       <c r="J1430" s="1" t="s">
-        <v>1670</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.2">
@@ -58672,7 +58805,7 @@
       <c r="H1431" s="9"/>
       <c r="I1431"/>
       <c r="J1431" s="1" t="s">
-        <v>1673</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.2">
@@ -58700,7 +58833,7 @@
       <c r="H1432" s="9"/>
       <c r="I1432"/>
       <c r="J1432" s="1" t="s">
-        <v>1677</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.2">
@@ -58725,7 +58858,7 @@
       <c r="H1433" s="9"/>
       <c r="I1433"/>
       <c r="J1433" s="1" t="s">
-        <v>445</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.2">
@@ -58750,7 +58883,7 @@
       <c r="H1434" s="9"/>
       <c r="I1434"/>
       <c r="J1434" s="1" t="s">
-        <v>1682</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.2">
@@ -58775,7 +58908,7 @@
       <c r="H1435" s="9"/>
       <c r="I1435"/>
       <c r="J1435" s="1" t="s">
-        <v>1685</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.2">
@@ -58800,7 +58933,7 @@
       <c r="H1436" s="9"/>
       <c r="I1436"/>
       <c r="J1436" s="1" t="s">
-        <v>1688</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.2">
@@ -58825,7 +58958,7 @@
       <c r="H1437" s="9"/>
       <c r="I1437"/>
       <c r="J1437" s="1" t="s">
-        <v>1691</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1438" spans="1:10" x14ac:dyDescent="0.2">
@@ -58850,7 +58983,7 @@
       <c r="H1438" s="9"/>
       <c r="I1438"/>
       <c r="J1438" s="1" t="s">
-        <v>1694</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.2">
@@ -58875,7 +59008,7 @@
       <c r="H1439" s="9"/>
       <c r="I1439"/>
       <c r="J1439" s="1" t="s">
-        <v>1697</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.2">
@@ -58903,7 +59036,7 @@
       <c r="H1440" s="9"/>
       <c r="I1440"/>
       <c r="J1440" s="1" t="s">
-        <v>1700</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.2">
@@ -58928,7 +59061,7 @@
       <c r="H1441" s="9"/>
       <c r="I1441"/>
       <c r="J1441" s="1" t="s">
-        <v>1704</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.2">
@@ -58953,7 +59086,7 @@
       <c r="H1442" s="9"/>
       <c r="I1442"/>
       <c r="J1442" s="1" t="s">
-        <v>1708</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.2">
@@ -58978,7 +59111,7 @@
       <c r="H1443" s="9"/>
       <c r="I1443"/>
       <c r="J1443" s="1" t="s">
-        <v>1711</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.2">
@@ -59003,7 +59136,7 @@
       <c r="H1444" s="9"/>
       <c r="I1444"/>
       <c r="J1444" s="1" t="s">
-        <v>1714</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.2">
@@ -59028,7 +59161,7 @@
       <c r="H1445" s="9"/>
       <c r="I1445"/>
       <c r="J1445" s="1" t="s">
-        <v>4476</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.2">
@@ -59053,7 +59186,7 @@
       <c r="H1446" s="9"/>
       <c r="I1446"/>
       <c r="J1446" s="1" t="s">
-        <v>3247</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.2">
@@ -59078,7 +59211,7 @@
       <c r="H1447" s="9"/>
       <c r="I1447"/>
       <c r="J1447" s="1" t="s">
-        <v>4477</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.2">
@@ -59106,7 +59239,7 @@
       <c r="H1448" s="9"/>
       <c r="I1448"/>
       <c r="J1448" s="1" t="s">
-        <v>4478</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.2">
@@ -59131,7 +59264,7 @@
       <c r="H1449" s="9"/>
       <c r="I1449"/>
       <c r="J1449" s="1" t="s">
-        <v>4479</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1450" spans="1:10" x14ac:dyDescent="0.2">
@@ -59156,7 +59289,7 @@
       <c r="H1450" s="9"/>
       <c r="I1450"/>
       <c r="J1450" s="1" t="s">
-        <v>4480</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.2">
@@ -59181,7 +59314,7 @@
       <c r="H1451" s="9"/>
       <c r="I1451"/>
       <c r="J1451" s="1" t="s">
-        <v>4481</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.2">
@@ -59206,7 +59339,7 @@
       <c r="H1452" s="9"/>
       <c r="I1452"/>
       <c r="J1452" s="1" t="s">
-        <v>3169</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1453" spans="1:10" x14ac:dyDescent="0.2">
@@ -59231,7 +59364,7 @@
       <c r="H1453" s="9"/>
       <c r="I1453"/>
       <c r="J1453" s="1" t="s">
-        <v>4482</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1454" spans="1:10" x14ac:dyDescent="0.2">
@@ -59256,7 +59389,7 @@
       <c r="H1454" s="9"/>
       <c r="I1454"/>
       <c r="J1454" s="1" t="s">
-        <v>4483</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1455" spans="1:10" x14ac:dyDescent="0.2">
@@ -59281,7 +59414,7 @@
       <c r="H1455" s="9"/>
       <c r="I1455"/>
       <c r="J1455" s="1" t="s">
-        <v>4484</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1456" spans="1:10" x14ac:dyDescent="0.2">
@@ -59306,7 +59439,7 @@
       <c r="H1456" s="9"/>
       <c r="I1456"/>
       <c r="J1456" s="1" t="s">
-        <v>4485</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1457" spans="1:10" x14ac:dyDescent="0.2">
@@ -59331,7 +59464,7 @@
       <c r="H1457" s="9"/>
       <c r="I1457"/>
       <c r="J1457" s="1" t="s">
-        <v>4486</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.2">
@@ -59356,7 +59489,7 @@
       <c r="H1458" s="9"/>
       <c r="I1458"/>
       <c r="J1458" s="1" t="s">
-        <v>4487</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1459" spans="1:10" x14ac:dyDescent="0.2">
@@ -59381,7 +59514,7 @@
       <c r="H1459" s="9"/>
       <c r="I1459"/>
       <c r="J1459" s="1" t="s">
-        <v>4488</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1460" spans="1:10" x14ac:dyDescent="0.2">
@@ -59406,7 +59539,7 @@
       <c r="H1460" s="9"/>
       <c r="I1460"/>
       <c r="J1460" s="1" t="s">
-        <v>1718</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1461" spans="1:10" x14ac:dyDescent="0.2">
@@ -59431,7 +59564,7 @@
       <c r="H1461" s="9"/>
       <c r="I1461"/>
       <c r="J1461" s="1" t="s">
-        <v>1722</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.2">
@@ -59456,7 +59589,7 @@
       <c r="H1462" s="9"/>
       <c r="I1462"/>
       <c r="J1462" s="1" t="s">
-        <v>1725</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.2">
@@ -59481,7 +59614,7 @@
       <c r="H1463" s="9"/>
       <c r="I1463"/>
       <c r="J1463" s="1" t="s">
-        <v>1729</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.2">
@@ -59506,7 +59639,7 @@
       <c r="H1464" s="9"/>
       <c r="I1464"/>
       <c r="J1464" s="1" t="s">
-        <v>1732</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.2">
@@ -59531,7 +59664,7 @@
       <c r="H1465" s="9"/>
       <c r="I1465"/>
       <c r="J1465" s="1" t="s">
-        <v>1737</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.2">
@@ -59556,7 +59689,7 @@
       <c r="H1466" s="9"/>
       <c r="I1466"/>
       <c r="J1466" s="1" t="s">
-        <v>1740</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1467" spans="1:10" x14ac:dyDescent="0.2">
@@ -59581,7 +59714,7 @@
       <c r="H1467" s="9"/>
       <c r="I1467"/>
       <c r="J1467" s="1" t="s">
-        <v>1743</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.2">
@@ -59606,7 +59739,7 @@
       <c r="H1468" s="9"/>
       <c r="I1468"/>
       <c r="J1468" s="1" t="s">
-        <v>1747</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.2">
@@ -59631,7 +59764,7 @@
       <c r="H1469" s="9"/>
       <c r="I1469"/>
       <c r="J1469" s="1" t="s">
-        <v>1750</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1470" spans="1:10" x14ac:dyDescent="0.2">
@@ -59656,7 +59789,7 @@
       <c r="H1470" s="9"/>
       <c r="I1470"/>
       <c r="J1470" s="1" t="s">
-        <v>1754</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1471" spans="1:10" x14ac:dyDescent="0.2">
@@ -59681,7 +59814,7 @@
       <c r="H1471" s="9"/>
       <c r="I1471"/>
       <c r="J1471" s="1" t="s">
-        <v>1757</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1472" spans="1:10" x14ac:dyDescent="0.2">
@@ -59709,7 +59842,7 @@
       <c r="H1472" s="9"/>
       <c r="I1472"/>
       <c r="J1472" s="1" t="s">
-        <v>1760</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.2">
@@ -59734,7 +59867,7 @@
       <c r="H1473" s="9"/>
       <c r="I1473"/>
       <c r="J1473" s="1" t="s">
-        <v>1763</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1474" spans="1:10" x14ac:dyDescent="0.2">
@@ -59759,7 +59892,7 @@
       <c r="H1474" s="9"/>
       <c r="I1474"/>
       <c r="J1474" s="1" t="s">
-        <v>1766</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1475" spans="1:10" x14ac:dyDescent="0.2">
@@ -59787,7 +59920,7 @@
       <c r="H1475" s="9"/>
       <c r="I1475"/>
       <c r="J1475" s="1" t="s">
-        <v>1769</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1476" spans="1:10" x14ac:dyDescent="0.2">
@@ -59812,7 +59945,7 @@
       <c r="H1476" s="9"/>
       <c r="I1476"/>
       <c r="J1476" s="1" t="s">
-        <v>1772</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1477" spans="1:10" x14ac:dyDescent="0.2">
@@ -59837,7 +59970,7 @@
       <c r="H1477" s="9"/>
       <c r="I1477"/>
       <c r="J1477" s="1" t="s">
-        <v>1775</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.2">
@@ -59862,7 +59995,7 @@
       <c r="H1478" s="9"/>
       <c r="I1478"/>
       <c r="J1478" s="1" t="s">
-        <v>1778</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1479" spans="1:10" x14ac:dyDescent="0.2">
@@ -59887,7 +60020,7 @@
       <c r="H1479" s="9"/>
       <c r="I1479"/>
       <c r="J1479" s="1" t="s">
-        <v>1782</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.2">
@@ -59912,7 +60045,7 @@
       <c r="H1480" s="9"/>
       <c r="I1480"/>
       <c r="J1480" s="1" t="s">
-        <v>1784</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1481" spans="1:10" x14ac:dyDescent="0.2">
@@ -59937,7 +60070,7 @@
       <c r="H1481" s="9"/>
       <c r="I1481"/>
       <c r="J1481" s="1" t="s">
-        <v>1787</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1482" spans="1:10" x14ac:dyDescent="0.2">
@@ -59962,7 +60095,7 @@
       <c r="H1482" s="9"/>
       <c r="I1482"/>
       <c r="J1482" s="1" t="s">
-        <v>1791</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1483" spans="1:10" x14ac:dyDescent="0.2">
@@ -59990,7 +60123,7 @@
       <c r="H1483" s="9"/>
       <c r="I1483"/>
       <c r="J1483" s="1" t="s">
-        <v>1795</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1484" spans="1:10" x14ac:dyDescent="0.2">
@@ -60015,7 +60148,7 @@
       <c r="H1484" s="9"/>
       <c r="I1484"/>
       <c r="J1484" s="1" t="s">
-        <v>1797</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1485" spans="1:10" x14ac:dyDescent="0.2">
@@ -60040,7 +60173,7 @@
       <c r="H1485" s="9"/>
       <c r="I1485"/>
       <c r="J1485" s="1" t="s">
-        <v>1799</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1486" spans="1:10" x14ac:dyDescent="0.2">
@@ -60065,7 +60198,7 @@
       <c r="H1486" s="9"/>
       <c r="I1486"/>
       <c r="J1486" s="1" t="s">
-        <v>1803</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1487" spans="1:10" x14ac:dyDescent="0.2">
@@ -60090,7 +60223,7 @@
       <c r="H1487" s="9"/>
       <c r="I1487"/>
       <c r="J1487" s="1" t="s">
-        <v>1807</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1488" spans="1:10" x14ac:dyDescent="0.2">
@@ -60115,7 +60248,7 @@
       <c r="H1488" s="9"/>
       <c r="I1488"/>
       <c r="J1488" s="1" t="s">
-        <v>1810</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1489" spans="1:10" x14ac:dyDescent="0.2">
@@ -60140,7 +60273,7 @@
       <c r="H1489" s="9"/>
       <c r="I1489"/>
       <c r="J1489" s="1" t="s">
-        <v>1813</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1490" spans="1:10" x14ac:dyDescent="0.2">
@@ -60165,7 +60298,7 @@
       <c r="H1490" s="9"/>
       <c r="I1490"/>
       <c r="J1490" s="1" t="s">
-        <v>1816</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1491" spans="1:10" x14ac:dyDescent="0.2">
@@ -60190,7 +60323,7 @@
       <c r="H1491" s="9"/>
       <c r="I1491"/>
       <c r="J1491" s="1" t="s">
-        <v>1821</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1492" spans="1:10" x14ac:dyDescent="0.2">
@@ -60215,7 +60348,7 @@
       <c r="H1492" s="9"/>
       <c r="I1492"/>
       <c r="J1492" s="1" t="s">
-        <v>1824</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1493" spans="1:10" x14ac:dyDescent="0.2">
@@ -60240,7 +60373,7 @@
       <c r="H1493" s="9"/>
       <c r="I1493"/>
       <c r="J1493" s="1" t="s">
-        <v>1828</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.2">
@@ -60265,7 +60398,7 @@
       <c r="H1494" s="9"/>
       <c r="I1494"/>
       <c r="J1494" s="1" t="s">
-        <v>1832</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1495" spans="1:10" x14ac:dyDescent="0.2">
@@ -60290,7 +60423,7 @@
       <c r="H1495" s="9"/>
       <c r="I1495"/>
       <c r="J1495" s="1" t="s">
-        <v>1836</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1496" spans="1:10" x14ac:dyDescent="0.2">
@@ -60315,7 +60448,7 @@
       <c r="H1496" s="9"/>
       <c r="I1496"/>
       <c r="J1496" s="1" t="s">
-        <v>1840</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1497" spans="1:10" x14ac:dyDescent="0.2">
@@ -60340,7 +60473,7 @@
       <c r="H1497" s="9"/>
       <c r="I1497"/>
       <c r="J1497" s="1" t="s">
-        <v>1843</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1498" spans="1:10" x14ac:dyDescent="0.2">
@@ -60365,7 +60498,7 @@
       <c r="H1498" s="9"/>
       <c r="I1498"/>
       <c r="J1498" s="1" t="s">
-        <v>1846</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1499" spans="1:10" x14ac:dyDescent="0.2">
@@ -60390,7 +60523,7 @@
       <c r="H1499" s="9"/>
       <c r="I1499"/>
       <c r="J1499" s="1" t="s">
-        <v>1850</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1500" spans="1:10" x14ac:dyDescent="0.2">
@@ -60415,7 +60548,7 @@
       <c r="H1500" s="9"/>
       <c r="I1500"/>
       <c r="J1500" s="1" t="s">
-        <v>1853</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1501" spans="1:10" x14ac:dyDescent="0.2">
@@ -60440,7 +60573,7 @@
       <c r="H1501" s="9"/>
       <c r="I1501"/>
       <c r="J1501" s="1" t="s">
-        <v>1856</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1502" spans="1:10" x14ac:dyDescent="0.2">
@@ -60465,7 +60598,7 @@
       <c r="H1502" s="9"/>
       <c r="I1502"/>
       <c r="J1502" s="1" t="s">
-        <v>1859</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.2">
@@ -60490,7 +60623,7 @@
       <c r="H1503" s="9"/>
       <c r="I1503"/>
       <c r="J1503" s="1" t="s">
-        <v>4489</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1504" spans="1:10" x14ac:dyDescent="0.2">
@@ -60515,7 +60648,7 @@
       <c r="H1504" s="9"/>
       <c r="I1504"/>
       <c r="J1504" s="1" t="s">
-        <v>4490</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.2">
@@ -60540,7 +60673,7 @@
       <c r="H1505" s="9"/>
       <c r="I1505"/>
       <c r="J1505" s="1" t="s">
-        <v>4491</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1506" spans="1:10" x14ac:dyDescent="0.2">
@@ -60565,7 +60698,7 @@
       <c r="H1506" s="9"/>
       <c r="I1506"/>
       <c r="J1506" s="1" t="s">
-        <v>3348</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1507" spans="1:10" x14ac:dyDescent="0.2">
@@ -60590,7 +60723,7 @@
       <c r="H1507" s="9"/>
       <c r="I1507"/>
       <c r="J1507" s="1" t="s">
-        <v>4492</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1508" spans="1:10" x14ac:dyDescent="0.2">
@@ -60615,7 +60748,7 @@
       <c r="H1508" s="9"/>
       <c r="I1508"/>
       <c r="J1508" s="1" t="s">
-        <v>4307</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1509" spans="1:10" x14ac:dyDescent="0.2">
@@ -60640,7 +60773,7 @@
       <c r="H1509" s="9"/>
       <c r="I1509"/>
       <c r="J1509" s="1" t="s">
-        <v>4493</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1510" spans="1:10" x14ac:dyDescent="0.2">
@@ -60665,7 +60798,7 @@
       <c r="H1510" s="9"/>
       <c r="I1510"/>
       <c r="J1510" s="1" t="s">
-        <v>4494</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1511" spans="1:10" x14ac:dyDescent="0.2">
@@ -60690,7 +60823,7 @@
       <c r="H1511" s="9"/>
       <c r="I1511"/>
       <c r="J1511" s="1" t="s">
-        <v>4489</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1512" spans="1:10" x14ac:dyDescent="0.2">
@@ -60715,7 +60848,7 @@
       <c r="H1512" s="9"/>
       <c r="I1512"/>
       <c r="J1512" s="1" t="s">
-        <v>4490</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1513" spans="1:10" x14ac:dyDescent="0.2">
@@ -60740,7 +60873,7 @@
       <c r="H1513" s="9"/>
       <c r="I1513"/>
       <c r="J1513" s="1" t="s">
-        <v>1862</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1514" spans="1:10" x14ac:dyDescent="0.2">
@@ -60768,7 +60901,7 @@
       <c r="H1514" s="9"/>
       <c r="I1514"/>
       <c r="J1514" s="1" t="s">
-        <v>1865</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1515" spans="1:10" x14ac:dyDescent="0.2">
@@ -60793,7 +60926,7 @@
       <c r="H1515" s="9"/>
       <c r="I1515"/>
       <c r="J1515" s="1" t="s">
-        <v>402</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1516" spans="1:10" x14ac:dyDescent="0.2">
@@ -60818,7 +60951,7 @@
       <c r="H1516" s="9"/>
       <c r="I1516"/>
       <c r="J1516" s="1" t="s">
-        <v>107</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1517" spans="1:10" x14ac:dyDescent="0.2">
@@ -60843,7 +60976,7 @@
       <c r="H1517" s="9"/>
       <c r="I1517"/>
       <c r="J1517" s="1" t="s">
-        <v>1873</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1518" spans="1:10" x14ac:dyDescent="0.2">
@@ -60868,7 +61001,7 @@
       <c r="H1518" s="9"/>
       <c r="I1518"/>
       <c r="J1518" s="1" t="s">
-        <v>1876</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1519" spans="1:10" x14ac:dyDescent="0.2">
@@ -60893,7 +61026,7 @@
       <c r="H1519" s="9"/>
       <c r="I1519"/>
       <c r="J1519" s="1" t="s">
-        <v>1879</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1520" spans="1:10" x14ac:dyDescent="0.2">
@@ -60918,7 +61051,7 @@
       <c r="H1520" s="9"/>
       <c r="I1520"/>
       <c r="J1520" s="1" t="s">
-        <v>1883</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1521" spans="1:10" x14ac:dyDescent="0.2">
@@ -60946,7 +61079,7 @@
       <c r="H1521" s="9"/>
       <c r="I1521"/>
       <c r="J1521" s="1" t="s">
-        <v>214</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1522" spans="1:10" x14ac:dyDescent="0.2">
@@ -60974,7 +61107,7 @@
       <c r="H1522" s="9"/>
       <c r="I1522"/>
       <c r="J1522" s="1" t="s">
-        <v>1889</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1523" spans="1:10" x14ac:dyDescent="0.2">
@@ -61002,7 +61135,7 @@
       <c r="H1523" s="9"/>
       <c r="I1523"/>
       <c r="J1523" s="1" t="s">
-        <v>1891</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1524" spans="1:10" x14ac:dyDescent="0.2">
@@ -61030,7 +61163,7 @@
       <c r="H1524" s="9"/>
       <c r="I1524"/>
       <c r="J1524" s="1" t="s">
-        <v>1895</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1525" spans="1:10" x14ac:dyDescent="0.2">
@@ -61055,7 +61188,7 @@
       <c r="H1525" s="9"/>
       <c r="I1525"/>
       <c r="J1525" s="1" t="s">
-        <v>1898</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1526" spans="1:10" x14ac:dyDescent="0.2">
@@ -61080,7 +61213,7 @@
       <c r="H1526" s="9"/>
       <c r="I1526"/>
       <c r="J1526" s="1" t="s">
-        <v>1901</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1527" spans="1:10" x14ac:dyDescent="0.2">
@@ -61108,7 +61241,7 @@
       <c r="H1527" s="9"/>
       <c r="I1527"/>
       <c r="J1527" s="1" t="s">
-        <v>1905</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1528" spans="1:10" x14ac:dyDescent="0.2">
@@ -61133,7 +61266,7 @@
       <c r="H1528" s="9"/>
       <c r="I1528"/>
       <c r="J1528" s="1" t="s">
-        <v>1908</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1529" spans="1:10" x14ac:dyDescent="0.2">
@@ -61158,7 +61291,7 @@
       <c r="H1529" s="9"/>
       <c r="I1529"/>
       <c r="J1529" s="1" t="s">
-        <v>1913</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1530" spans="1:10" x14ac:dyDescent="0.2">
@@ -61183,7 +61316,7 @@
       <c r="H1530" s="9"/>
       <c r="I1530"/>
       <c r="J1530" s="1" t="s">
-        <v>1916</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1531" spans="1:10" x14ac:dyDescent="0.2">
@@ -61208,7 +61341,7 @@
       <c r="H1531" s="9"/>
       <c r="I1531"/>
       <c r="J1531" s="1" t="s">
-        <v>1920</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1532" spans="1:10" x14ac:dyDescent="0.2">
@@ -61233,7 +61366,7 @@
       <c r="H1532" s="9"/>
       <c r="I1532"/>
       <c r="J1532" s="1" t="s">
-        <v>1924</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1533" spans="1:10" x14ac:dyDescent="0.2">
@@ -61258,7 +61391,7 @@
       <c r="H1533" s="9"/>
       <c r="I1533"/>
       <c r="J1533" s="1" t="s">
-        <v>1927</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1534" spans="1:10" x14ac:dyDescent="0.2">
@@ -61286,7 +61419,7 @@
       <c r="H1534" s="9"/>
       <c r="I1534"/>
       <c r="J1534" s="1" t="s">
-        <v>1931</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1535" spans="1:10" x14ac:dyDescent="0.2">
@@ -61311,7 +61444,7 @@
       <c r="H1535" s="9"/>
       <c r="I1535"/>
       <c r="J1535" s="1" t="s">
-        <v>1935</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1536" spans="1:10" x14ac:dyDescent="0.2">
@@ -61336,7 +61469,7 @@
       <c r="H1536" s="9"/>
       <c r="I1536"/>
       <c r="J1536" s="1" t="s">
-        <v>1939</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1537" spans="1:10" x14ac:dyDescent="0.2">
@@ -61364,7 +61497,7 @@
       <c r="H1537" s="9"/>
       <c r="I1537"/>
       <c r="J1537" s="1" t="s">
-        <v>1942</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1538" spans="1:10" x14ac:dyDescent="0.2">
@@ -61389,7 +61522,7 @@
       <c r="H1538" s="9"/>
       <c r="I1538"/>
       <c r="J1538" s="1" t="s">
-        <v>1945</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1539" spans="1:10" x14ac:dyDescent="0.2">
@@ -61414,7 +61547,7 @@
       <c r="H1539" s="9"/>
       <c r="I1539"/>
       <c r="J1539" s="1" t="s">
-        <v>1949</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1540" spans="1:10" x14ac:dyDescent="0.2">
@@ -61439,7 +61572,7 @@
       <c r="H1540" s="9"/>
       <c r="I1540"/>
       <c r="J1540" s="1" t="s">
-        <v>311</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1541" spans="1:10" x14ac:dyDescent="0.2">
@@ -61464,7 +61597,7 @@
       <c r="H1541" s="9"/>
       <c r="I1541"/>
       <c r="J1541" s="1" t="s">
-        <v>1955</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1542" spans="1:10" x14ac:dyDescent="0.2">
@@ -61489,7 +61622,7 @@
       <c r="H1542" s="9"/>
       <c r="I1542"/>
       <c r="J1542" s="1" t="s">
-        <v>1958</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1543" spans="1:10" x14ac:dyDescent="0.2">
@@ -61514,7 +61647,7 @@
       <c r="H1543" s="9"/>
       <c r="I1543"/>
       <c r="J1543" s="1" t="s">
-        <v>1961</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1544" spans="1:10" x14ac:dyDescent="0.2">
@@ -61539,7 +61672,7 @@
       <c r="H1544" s="9"/>
       <c r="I1544"/>
       <c r="J1544" s="1" t="s">
-        <v>1965</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1545" spans="1:10" x14ac:dyDescent="0.2">
@@ -61564,7 +61697,7 @@
       <c r="H1545" s="9"/>
       <c r="I1545"/>
       <c r="J1545" s="1" t="s">
-        <v>1968</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1546" spans="1:10" x14ac:dyDescent="0.2">
@@ -61589,7 +61722,7 @@
       <c r="H1546" s="9"/>
       <c r="I1546"/>
       <c r="J1546" s="1" t="s">
-        <v>1971</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1547" spans="1:10" x14ac:dyDescent="0.2">
@@ -61614,7 +61747,7 @@
       <c r="H1547" s="9"/>
       <c r="I1547"/>
       <c r="J1547" s="1" t="s">
-        <v>1973</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1548" spans="1:10" x14ac:dyDescent="0.2">
@@ -61639,7 +61772,7 @@
       <c r="H1548" s="9"/>
       <c r="I1548"/>
       <c r="J1548" s="1" t="s">
-        <v>1976</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1549" spans="1:10" x14ac:dyDescent="0.2">
@@ -61664,7 +61797,7 @@
       <c r="H1549" s="9"/>
       <c r="I1549"/>
       <c r="J1549" s="1" t="s">
-        <v>1979</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1550" spans="1:10" x14ac:dyDescent="0.2">
@@ -61689,7 +61822,7 @@
       <c r="H1550" s="9"/>
       <c r="I1550"/>
       <c r="J1550" s="1" t="s">
-        <v>1984</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1551" spans="1:10" x14ac:dyDescent="0.2">
@@ -61714,7 +61847,7 @@
       <c r="H1551" s="9"/>
       <c r="I1551"/>
       <c r="J1551" s="1" t="s">
-        <v>1987</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1552" spans="1:10" x14ac:dyDescent="0.2">
@@ -61739,7 +61872,7 @@
       <c r="H1552" s="9"/>
       <c r="I1552"/>
       <c r="J1552" s="1" t="s">
-        <v>1990</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1553" spans="1:10" x14ac:dyDescent="0.2">
@@ -61764,7 +61897,7 @@
       <c r="H1553" s="9"/>
       <c r="I1553"/>
       <c r="J1553" s="1" t="s">
-        <v>1993</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1554" spans="1:10" x14ac:dyDescent="0.2">
@@ -61789,7 +61922,7 @@
       <c r="H1554" s="9"/>
       <c r="I1554"/>
       <c r="J1554" s="1" t="s">
-        <v>4495</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1555" spans="1:10" x14ac:dyDescent="0.2">
@@ -61814,7 +61947,7 @@
       <c r="H1555" s="9"/>
       <c r="I1555"/>
       <c r="J1555" s="1" t="s">
-        <v>4496</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1556" spans="1:10" x14ac:dyDescent="0.2">
@@ -61839,7 +61972,7 @@
       <c r="H1556" s="9"/>
       <c r="I1556"/>
       <c r="J1556" s="1" t="s">
-        <v>4497</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1557" spans="1:10" x14ac:dyDescent="0.2">
@@ -61864,7 +61997,7 @@
       <c r="H1557" s="9"/>
       <c r="I1557"/>
       <c r="J1557" s="1" t="s">
-        <v>1996</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1558" spans="1:10" x14ac:dyDescent="0.2">
@@ -61889,7 +62022,7 @@
       <c r="H1558" s="9"/>
       <c r="I1558"/>
       <c r="J1558" s="1" t="s">
-        <v>2000</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1559" spans="1:10" x14ac:dyDescent="0.2">
@@ -61914,7 +62047,7 @@
       <c r="H1559" s="9"/>
       <c r="I1559"/>
       <c r="J1559" s="1" t="s">
-        <v>2004</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1560" spans="1:10" x14ac:dyDescent="0.2">
@@ -61939,7 +62072,7 @@
       <c r="H1560" s="9"/>
       <c r="I1560"/>
       <c r="J1560" s="1" t="s">
-        <v>783</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1561" spans="1:10" x14ac:dyDescent="0.2">
@@ -61964,7 +62097,7 @@
       <c r="H1561" s="9"/>
       <c r="I1561"/>
       <c r="J1561" s="1" t="s">
-        <v>2011</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1562" spans="1:10" x14ac:dyDescent="0.2">
@@ -61989,7 +62122,7 @@
       <c r="H1562" s="9"/>
       <c r="I1562"/>
       <c r="J1562" s="1" t="s">
-        <v>2014</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1563" spans="1:10" x14ac:dyDescent="0.2">
@@ -62013,8 +62146,8 @@
       </c>
       <c r="H1563" s="9"/>
       <c r="I1563"/>
-      <c r="J1563" s="1">
-        <v>300</v>
+      <c r="J1563" s="1" t="s">
+        <v>4493</v>
       </c>
     </row>
     <row r="1564" spans="1:10" x14ac:dyDescent="0.2">
@@ -62039,7 +62172,7 @@
       <c r="H1564" s="9"/>
       <c r="I1564"/>
       <c r="J1564" s="1" t="s">
-        <v>2021</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1565" spans="1:10" x14ac:dyDescent="0.2">
@@ -62064,7 +62197,7 @@
       <c r="H1565" s="9"/>
       <c r="I1565"/>
       <c r="J1565" s="1" t="s">
-        <v>2025</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1566" spans="1:10" x14ac:dyDescent="0.2">
@@ -62089,7 +62222,7 @@
       <c r="H1566" s="9"/>
       <c r="I1566"/>
       <c r="J1566" s="1" t="s">
-        <v>2027</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1567" spans="1:10" x14ac:dyDescent="0.2">
@@ -62114,7 +62247,7 @@
       <c r="H1567" s="9"/>
       <c r="I1567"/>
       <c r="J1567" s="1" t="s">
-        <v>2030</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1568" spans="1:10" x14ac:dyDescent="0.2">
@@ -62139,7 +62272,7 @@
       <c r="H1568" s="9"/>
       <c r="I1568"/>
       <c r="J1568" s="1" t="s">
-        <v>2033</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1569" spans="1:10" x14ac:dyDescent="0.2">
@@ -62164,7 +62297,7 @@
       <c r="H1569" s="9"/>
       <c r="I1569"/>
       <c r="J1569" s="1" t="s">
-        <v>2038</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1570" spans="1:10" x14ac:dyDescent="0.2">
@@ -62189,7 +62322,7 @@
       <c r="H1570" s="9"/>
       <c r="I1570"/>
       <c r="J1570" s="1" t="s">
-        <v>2041</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1571" spans="1:10" x14ac:dyDescent="0.2">
@@ -62214,7 +62347,7 @@
       <c r="H1571" s="9"/>
       <c r="I1571"/>
       <c r="J1571" s="1" t="s">
-        <v>2044</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1572" spans="1:10" x14ac:dyDescent="0.2">
@@ -62239,7 +62372,7 @@
       <c r="H1572" s="9"/>
       <c r="I1572"/>
       <c r="J1572" s="1" t="s">
-        <v>2048</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1573" spans="1:10" x14ac:dyDescent="0.2">
@@ -62264,7 +62397,7 @@
       <c r="H1573" s="9"/>
       <c r="I1573"/>
       <c r="J1573" s="1" t="s">
-        <v>2051</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1574" spans="1:10" x14ac:dyDescent="0.2">
@@ -62289,7 +62422,7 @@
       <c r="H1574" s="9"/>
       <c r="I1574"/>
       <c r="J1574" s="1" t="s">
-        <v>2055</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1575" spans="1:10" x14ac:dyDescent="0.2">
@@ -62314,7 +62447,7 @@
       <c r="H1575" s="9"/>
       <c r="I1575"/>
       <c r="J1575" s="1" t="s">
-        <v>2059</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1576" spans="1:10" x14ac:dyDescent="0.2">
@@ -62339,7 +62472,7 @@
       <c r="H1576" s="9"/>
       <c r="I1576"/>
       <c r="J1576" s="1" t="s">
-        <v>2061</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1577" spans="1:10" x14ac:dyDescent="0.2">
@@ -62364,7 +62497,7 @@
       <c r="H1577" s="9"/>
       <c r="I1577"/>
       <c r="J1577" s="1" t="s">
-        <v>2064</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1578" spans="1:10" x14ac:dyDescent="0.2">
@@ -62389,7 +62522,7 @@
       <c r="H1578" s="9"/>
       <c r="I1578"/>
       <c r="J1578" s="1" t="s">
-        <v>2068</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1579" spans="1:10" x14ac:dyDescent="0.2">
@@ -62414,7 +62547,7 @@
       <c r="H1579" s="9"/>
       <c r="I1579"/>
       <c r="J1579" s="1" t="s">
-        <v>2071</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1580" spans="1:10" x14ac:dyDescent="0.2">
@@ -62439,7 +62572,7 @@
       <c r="H1580" s="9"/>
       <c r="I1580"/>
       <c r="J1580" s="1" t="s">
-        <v>2074</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1581" spans="1:10" x14ac:dyDescent="0.2">
@@ -62464,7 +62597,7 @@
       <c r="H1581" s="9"/>
       <c r="I1581"/>
       <c r="J1581" s="1" t="s">
-        <v>2077</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1582" spans="1:10" x14ac:dyDescent="0.2">
@@ -62492,7 +62625,7 @@
       <c r="H1582" s="9"/>
       <c r="I1582"/>
       <c r="J1582" s="1" t="s">
-        <v>2081</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1583" spans="1:10" x14ac:dyDescent="0.2">
@@ -62517,7 +62650,7 @@
       <c r="H1583" s="9"/>
       <c r="I1583"/>
       <c r="J1583" s="1" t="s">
-        <v>2084</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1584" spans="1:10" x14ac:dyDescent="0.2">
@@ -62542,7 +62675,7 @@
       <c r="H1584" s="9"/>
       <c r="I1584"/>
       <c r="J1584" s="1" t="s">
-        <v>2088</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1585" spans="1:10" x14ac:dyDescent="0.2">
@@ -62570,7 +62703,7 @@
       <c r="H1585" s="9"/>
       <c r="I1585"/>
       <c r="J1585" s="1" t="s">
-        <v>2091</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1586" spans="1:10" x14ac:dyDescent="0.2">
@@ -62595,7 +62728,7 @@
       <c r="H1586" s="9"/>
       <c r="I1586"/>
       <c r="J1586" s="1" t="s">
-        <v>2095</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1587" spans="1:10" x14ac:dyDescent="0.2">
@@ -62620,7 +62753,7 @@
       <c r="H1587" s="9"/>
       <c r="I1587"/>
       <c r="J1587" s="1" t="s">
-        <v>2097</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1588" spans="1:10" x14ac:dyDescent="0.2">
@@ -62648,7 +62781,7 @@
       <c r="H1588" s="9"/>
       <c r="I1588"/>
       <c r="J1588" s="1" t="s">
-        <v>2100</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1589" spans="1:10" x14ac:dyDescent="0.2">
@@ -62676,7 +62809,7 @@
       <c r="H1589" s="9"/>
       <c r="I1589"/>
       <c r="J1589" s="1" t="s">
-        <v>2104</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1590" spans="1:10" x14ac:dyDescent="0.2">
@@ -62701,7 +62834,7 @@
       <c r="H1590" s="9"/>
       <c r="I1590"/>
       <c r="J1590" s="1" t="s">
-        <v>2107</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1591" spans="1:10" x14ac:dyDescent="0.2">
@@ -62729,7 +62862,7 @@
       <c r="H1591" s="9"/>
       <c r="I1591"/>
       <c r="J1591" s="1" t="s">
-        <v>2110</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1592" spans="1:10" x14ac:dyDescent="0.2">
@@ -62754,7 +62887,7 @@
       <c r="H1592" s="9"/>
       <c r="I1592"/>
       <c r="J1592" s="1" t="s">
-        <v>2113</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1593" spans="1:10" x14ac:dyDescent="0.2">
@@ -62779,7 +62912,7 @@
       <c r="H1593" s="9"/>
       <c r="I1593"/>
       <c r="J1593" s="1" t="s">
-        <v>2116</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1594" spans="1:10" x14ac:dyDescent="0.2">
@@ -62804,7 +62937,7 @@
       <c r="H1594" s="9"/>
       <c r="I1594"/>
       <c r="J1594" s="1" t="s">
-        <v>2121</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1595" spans="1:10" x14ac:dyDescent="0.2">
@@ -62829,7 +62962,7 @@
       <c r="H1595" s="9"/>
       <c r="I1595"/>
       <c r="J1595" s="1" t="s">
-        <v>977</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1596" spans="1:10" x14ac:dyDescent="0.2">
@@ -62854,7 +62987,7 @@
       <c r="H1596" s="9"/>
       <c r="I1596"/>
       <c r="J1596" s="1" t="s">
-        <v>2127</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1597" spans="1:10" x14ac:dyDescent="0.2">
@@ -62879,7 +63012,7 @@
       <c r="H1597" s="9"/>
       <c r="I1597"/>
       <c r="J1597" s="1" t="s">
-        <v>2130</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1598" spans="1:10" x14ac:dyDescent="0.2">
@@ -62904,7 +63037,7 @@
       <c r="H1598" s="9"/>
       <c r="I1598"/>
       <c r="J1598" s="1" t="s">
-        <v>2133</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1599" spans="1:10" x14ac:dyDescent="0.2">
@@ -62929,7 +63062,7 @@
       <c r="H1599" s="9"/>
       <c r="I1599"/>
       <c r="J1599" s="1" t="s">
-        <v>2136</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1600" spans="1:10" x14ac:dyDescent="0.2">
@@ -62954,7 +63087,7 @@
       <c r="H1600" s="9"/>
       <c r="I1600"/>
       <c r="J1600" s="1" t="s">
-        <v>2139</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1601" spans="1:10" x14ac:dyDescent="0.2">
@@ -62979,7 +63112,7 @@
       <c r="H1601" s="9"/>
       <c r="I1601"/>
       <c r="J1601" s="1" t="s">
-        <v>2142</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1602" spans="1:10" x14ac:dyDescent="0.2">
@@ -63004,7 +63137,7 @@
       <c r="H1602" s="9"/>
       <c r="I1602"/>
       <c r="J1602" s="1" t="s">
-        <v>2146</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1603" spans="1:10" x14ac:dyDescent="0.2">
@@ -63029,7 +63162,7 @@
       <c r="H1603" s="9"/>
       <c r="I1603"/>
       <c r="J1603" s="1" t="s">
-        <v>2150</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1604" spans="1:10" x14ac:dyDescent="0.2">
@@ -63054,7 +63187,7 @@
       <c r="H1604" s="9"/>
       <c r="I1604"/>
       <c r="J1604" s="1" t="s">
-        <v>2154</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1605" spans="1:10" x14ac:dyDescent="0.2">
@@ -63079,7 +63212,7 @@
       <c r="H1605" s="9"/>
       <c r="I1605"/>
       <c r="J1605" s="1" t="s">
-        <v>2158</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1606" spans="1:10" x14ac:dyDescent="0.2">
@@ -63107,7 +63240,7 @@
       <c r="H1606" s="9"/>
       <c r="I1606"/>
       <c r="J1606" s="1" t="s">
-        <v>2162</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1607" spans="1:10" x14ac:dyDescent="0.2">
@@ -63132,7 +63265,7 @@
       <c r="H1607" s="9"/>
       <c r="I1607"/>
       <c r="J1607" s="1" t="s">
-        <v>2166</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1608" spans="1:10" x14ac:dyDescent="0.2">
@@ -63157,7 +63290,7 @@
       <c r="H1608" s="9"/>
       <c r="I1608"/>
       <c r="J1608" s="1" t="s">
-        <v>2169</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1609" spans="1:10" x14ac:dyDescent="0.2">
@@ -63182,7 +63315,7 @@
       <c r="H1609" s="9"/>
       <c r="I1609"/>
       <c r="J1609" s="1" t="s">
-        <v>2173</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1610" spans="1:10" x14ac:dyDescent="0.2">
@@ -63207,7 +63340,7 @@
       <c r="H1610" s="9"/>
       <c r="I1610"/>
       <c r="J1610" s="1" t="s">
-        <v>2176</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1611" spans="1:10" x14ac:dyDescent="0.2">
@@ -63232,7 +63365,7 @@
       <c r="H1611" s="9"/>
       <c r="I1611"/>
       <c r="J1611" s="1" t="s">
-        <v>2179</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1612" spans="1:10" x14ac:dyDescent="0.2">
@@ -63257,7 +63390,7 @@
       <c r="H1612" s="9"/>
       <c r="I1612"/>
       <c r="J1612" s="1" t="s">
-        <v>2183</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1613" spans="1:10" x14ac:dyDescent="0.2">
@@ -63282,7 +63415,7 @@
       <c r="H1613" s="9"/>
       <c r="I1613"/>
       <c r="J1613" s="1" t="s">
-        <v>2186</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1614" spans="1:10" x14ac:dyDescent="0.2">
@@ -63307,7 +63440,7 @@
       <c r="H1614" s="9"/>
       <c r="I1614"/>
       <c r="J1614" s="1" t="s">
-        <v>2190</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1615" spans="1:10" x14ac:dyDescent="0.2">
@@ -63332,7 +63465,7 @@
       <c r="H1615" s="9"/>
       <c r="I1615"/>
       <c r="J1615" s="1" t="s">
-        <v>3593</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1616" spans="1:10" x14ac:dyDescent="0.2">
@@ -63360,7 +63493,7 @@
       <c r="H1616" s="9"/>
       <c r="I1616"/>
       <c r="J1616" s="1" t="s">
-        <v>4498</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1617" spans="1:10" x14ac:dyDescent="0.2">
@@ -63384,8 +63517,8 @@
       </c>
       <c r="H1617" s="9"/>
       <c r="I1617"/>
-      <c r="J1617" s="1" t="s">
-        <v>3540</v>
+      <c r="J1617" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="1618" spans="1:10" x14ac:dyDescent="0.2">
@@ -63410,7 +63543,7 @@
       <c r="H1618" s="9"/>
       <c r="I1618"/>
       <c r="J1618" s="1" t="s">
-        <v>3631</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1619" spans="1:10" x14ac:dyDescent="0.2">
@@ -63435,7 +63568,7 @@
       <c r="H1619" s="9"/>
       <c r="I1619"/>
       <c r="J1619" s="1" t="s">
-        <v>4499</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1620" spans="1:10" x14ac:dyDescent="0.2">
@@ -63460,7 +63593,7 @@
       <c r="H1620" s="9"/>
       <c r="I1620"/>
       <c r="J1620" s="1" t="s">
-        <v>4500</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1621" spans="1:10" x14ac:dyDescent="0.2">
@@ -63485,7 +63618,7 @@
       <c r="H1621" s="9"/>
       <c r="I1621"/>
       <c r="J1621" s="1" t="s">
-        <v>4501</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1622" spans="1:10" x14ac:dyDescent="0.2">
@@ -63510,7 +63643,7 @@
       <c r="H1622" s="9"/>
       <c r="I1622"/>
       <c r="J1622" s="1" t="s">
-        <v>4502</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1623" spans="1:10" x14ac:dyDescent="0.2">
@@ -63535,7 +63668,7 @@
       <c r="H1623" s="9"/>
       <c r="I1623"/>
       <c r="J1623" s="1" t="s">
-        <v>3562</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1624" spans="1:10" x14ac:dyDescent="0.2">
@@ -63560,7 +63693,7 @@
       <c r="H1624" s="9"/>
       <c r="I1624"/>
       <c r="J1624" s="1" t="s">
-        <v>3593</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1625" spans="1:10" x14ac:dyDescent="0.2">
@@ -63585,7 +63718,7 @@
       <c r="H1625" s="9"/>
       <c r="I1625"/>
       <c r="J1625" s="1" t="s">
-        <v>2193</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1626" spans="1:10" x14ac:dyDescent="0.2">
@@ -63610,7 +63743,7 @@
       <c r="H1626" s="9"/>
       <c r="I1626"/>
       <c r="J1626" s="1" t="s">
-        <v>2196</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1627" spans="1:10" x14ac:dyDescent="0.2">
@@ -63635,7 +63768,7 @@
       <c r="H1627" s="9"/>
       <c r="I1627"/>
       <c r="J1627" s="1" t="s">
-        <v>2199</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1628" spans="1:10" x14ac:dyDescent="0.2">
@@ -63660,7 +63793,7 @@
       <c r="H1628" s="9"/>
       <c r="I1628"/>
       <c r="J1628" s="1" t="s">
-        <v>2202</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1629" spans="1:10" x14ac:dyDescent="0.2">
@@ -63685,7 +63818,7 @@
       <c r="H1629" s="9"/>
       <c r="I1629"/>
       <c r="J1629" s="1" t="s">
-        <v>2206</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1630" spans="1:10" x14ac:dyDescent="0.2">
@@ -63710,7 +63843,7 @@
       <c r="H1630" s="9"/>
       <c r="I1630"/>
       <c r="J1630" s="1" t="s">
-        <v>2209</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1631" spans="1:10" x14ac:dyDescent="0.2">
@@ -63735,7 +63868,7 @@
       <c r="H1631" s="9"/>
       <c r="I1631"/>
       <c r="J1631" s="1" t="s">
-        <v>2213</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1632" spans="1:10" x14ac:dyDescent="0.2">
@@ -63760,7 +63893,7 @@
       <c r="H1632" s="9"/>
       <c r="I1632"/>
       <c r="J1632" s="1" t="s">
-        <v>2216</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1633" spans="1:10" x14ac:dyDescent="0.2">
@@ -63785,7 +63918,7 @@
       <c r="H1633" s="9"/>
       <c r="I1633"/>
       <c r="J1633" s="1" t="s">
-        <v>2219</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1634" spans="1:10" x14ac:dyDescent="0.2">
@@ -63810,7 +63943,7 @@
       <c r="H1634" s="9"/>
       <c r="I1634"/>
       <c r="J1634" s="1" t="s">
-        <v>2224</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1635" spans="1:10" x14ac:dyDescent="0.2">
@@ -63835,7 +63968,7 @@
       <c r="H1635" s="9"/>
       <c r="I1635"/>
       <c r="J1635" s="1" t="s">
-        <v>2228</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1636" spans="1:10" x14ac:dyDescent="0.2">
@@ -63860,7 +63993,7 @@
       <c r="H1636" s="9"/>
       <c r="I1636"/>
       <c r="J1636" s="1" t="s">
-        <v>2231</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1637" spans="1:10" x14ac:dyDescent="0.2">
@@ -63885,7 +64018,7 @@
       <c r="H1637" s="9"/>
       <c r="I1637"/>
       <c r="J1637" s="1" t="s">
-        <v>2234</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1638" spans="1:10" x14ac:dyDescent="0.2">
@@ -63910,7 +64043,7 @@
       <c r="H1638" s="9"/>
       <c r="I1638"/>
       <c r="J1638" s="1" t="s">
-        <v>2237</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1639" spans="1:10" x14ac:dyDescent="0.2">
@@ -63935,7 +64068,7 @@
       <c r="H1639" s="9"/>
       <c r="I1639"/>
       <c r="J1639" s="1" t="s">
-        <v>2241</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1640" spans="1:10" x14ac:dyDescent="0.2">
@@ -63960,7 +64093,7 @@
       <c r="H1640" s="9"/>
       <c r="I1640"/>
       <c r="J1640" s="1" t="s">
-        <v>2244</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1641" spans="1:10" x14ac:dyDescent="0.2">
@@ -63985,7 +64118,7 @@
       <c r="H1641" s="9"/>
       <c r="I1641"/>
       <c r="J1641" s="1" t="s">
-        <v>2248</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1642" spans="1:10" x14ac:dyDescent="0.2">
@@ -64010,7 +64143,7 @@
       <c r="H1642" s="9"/>
       <c r="I1642"/>
       <c r="J1642" s="1" t="s">
-        <v>2252</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1643" spans="1:10" x14ac:dyDescent="0.2">
@@ -64035,7 +64168,7 @@
       <c r="H1643" s="9"/>
       <c r="I1643"/>
       <c r="J1643" s="1" t="s">
-        <v>2255</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1644" spans="1:10" x14ac:dyDescent="0.2">
@@ -64060,7 +64193,7 @@
       <c r="H1644" s="9"/>
       <c r="I1644"/>
       <c r="J1644" s="1" t="s">
-        <v>2258</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1645" spans="1:10" x14ac:dyDescent="0.2">
@@ -64085,7 +64218,7 @@
       <c r="H1645" s="9"/>
       <c r="I1645"/>
       <c r="J1645" s="1" t="s">
-        <v>2262</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1646" spans="1:10" x14ac:dyDescent="0.2">
@@ -64110,7 +64243,7 @@
       <c r="H1646" s="9"/>
       <c r="I1646"/>
       <c r="J1646" s="1" t="s">
-        <v>2266</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1647" spans="1:10" x14ac:dyDescent="0.2">
@@ -64135,7 +64268,7 @@
       <c r="H1647" s="9"/>
       <c r="I1647"/>
       <c r="J1647" s="1" t="s">
-        <v>2269</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1648" spans="1:10" x14ac:dyDescent="0.2">
@@ -64160,7 +64293,7 @@
       <c r="H1648" s="9"/>
       <c r="I1648"/>
       <c r="J1648" s="1" t="s">
-        <v>2273</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1649" spans="1:10" x14ac:dyDescent="0.2">
@@ -64188,7 +64321,7 @@
       <c r="H1649" s="9"/>
       <c r="I1649"/>
       <c r="J1649" s="1" t="s">
-        <v>2276</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1650" spans="1:10" x14ac:dyDescent="0.2">
@@ -64213,7 +64346,7 @@
       <c r="H1650" s="9"/>
       <c r="I1650"/>
       <c r="J1650" s="1" t="s">
-        <v>2280</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1651" spans="1:10" x14ac:dyDescent="0.2">
@@ -64238,7 +64371,7 @@
       <c r="H1651" s="9"/>
       <c r="I1651"/>
       <c r="J1651" s="1" t="s">
-        <v>2284</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1652" spans="1:10" x14ac:dyDescent="0.2">
@@ -64263,7 +64396,7 @@
       <c r="H1652" s="9"/>
       <c r="I1652"/>
       <c r="J1652" s="1" t="s">
-        <v>2289</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1653" spans="1:10" x14ac:dyDescent="0.2">
@@ -64291,7 +64424,7 @@
       <c r="H1653" s="9"/>
       <c r="I1653"/>
       <c r="J1653" s="1" t="s">
-        <v>2292</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1654" spans="1:10" x14ac:dyDescent="0.2">
@@ -64316,7 +64449,7 @@
       <c r="H1654" s="9"/>
       <c r="I1654"/>
       <c r="J1654" s="1" t="s">
-        <v>2296</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1655" spans="1:10" x14ac:dyDescent="0.2">
@@ -64341,7 +64474,7 @@
       <c r="H1655" s="9"/>
       <c r="I1655"/>
       <c r="J1655" s="1" t="s">
-        <v>2299</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1656" spans="1:10" x14ac:dyDescent="0.2">
@@ -64369,7 +64502,7 @@
       <c r="H1656" s="9"/>
       <c r="I1656"/>
       <c r="J1656" s="1" t="s">
-        <v>2303</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1657" spans="1:10" x14ac:dyDescent="0.2">
@@ -64394,7 +64527,7 @@
       <c r="H1657" s="9"/>
       <c r="I1657"/>
       <c r="J1657" s="1" t="s">
-        <v>2306</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1658" spans="1:10" x14ac:dyDescent="0.2">
@@ -64419,7 +64552,7 @@
       <c r="H1658" s="9"/>
       <c r="I1658"/>
       <c r="J1658" s="1" t="s">
-        <v>2309</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1659" spans="1:10" x14ac:dyDescent="0.2">
@@ -64444,7 +64577,7 @@
       <c r="H1659" s="9"/>
       <c r="I1659"/>
       <c r="J1659" s="1" t="s">
-        <v>2312</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1660" spans="1:10" x14ac:dyDescent="0.2">
@@ -64469,7 +64602,7 @@
       <c r="H1660" s="9"/>
       <c r="I1660"/>
       <c r="J1660" s="1" t="s">
-        <v>2315</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1661" spans="1:10" x14ac:dyDescent="0.2">
@@ -64494,7 +64627,7 @@
       <c r="H1661" s="9"/>
       <c r="I1661"/>
       <c r="J1661" s="1" t="s">
-        <v>2318</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1662" spans="1:10" x14ac:dyDescent="0.2">
@@ -64519,7 +64652,7 @@
       <c r="H1662" s="9"/>
       <c r="I1662"/>
       <c r="J1662" s="1" t="s">
-        <v>2322</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1663" spans="1:10" x14ac:dyDescent="0.2">
@@ -64544,7 +64677,7 @@
       <c r="H1663" s="9"/>
       <c r="I1663"/>
       <c r="J1663" s="1" t="s">
-        <v>2326</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1664" spans="1:10" x14ac:dyDescent="0.2">
@@ -64569,7 +64702,7 @@
       <c r="H1664" s="9"/>
       <c r="I1664"/>
       <c r="J1664" s="1" t="s">
-        <v>2329</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1665" spans="1:10" x14ac:dyDescent="0.2">
@@ -64594,7 +64727,7 @@
       <c r="H1665" s="9"/>
       <c r="I1665"/>
       <c r="J1665" s="1" t="s">
-        <v>2332</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1666" spans="1:10" x14ac:dyDescent="0.2">
@@ -64619,7 +64752,7 @@
       <c r="H1666" s="9"/>
       <c r="I1666"/>
       <c r="J1666" s="1" t="s">
-        <v>2336</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1667" spans="1:10" x14ac:dyDescent="0.2">
@@ -64647,7 +64780,7 @@
       <c r="H1667" s="9"/>
       <c r="I1667"/>
       <c r="J1667" s="1" t="s">
-        <v>4503</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1668" spans="1:10" x14ac:dyDescent="0.2">
@@ -64672,7 +64805,7 @@
       <c r="H1668" s="9"/>
       <c r="I1668"/>
       <c r="J1668" s="1" t="s">
-        <v>3751</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1669" spans="1:10" x14ac:dyDescent="0.2">
@@ -64697,7 +64830,7 @@
       <c r="H1669" s="9"/>
       <c r="I1669"/>
       <c r="J1669" s="1" t="s">
-        <v>2339</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1670" spans="1:10" x14ac:dyDescent="0.2">
@@ -64722,7 +64855,7 @@
       <c r="H1670" s="9"/>
       <c r="I1670"/>
       <c r="J1670" s="1" t="s">
-        <v>2342</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1671" spans="1:10" x14ac:dyDescent="0.2">
@@ -64747,7 +64880,7 @@
       <c r="H1671" s="9"/>
       <c r="I1671"/>
       <c r="J1671" s="1" t="s">
-        <v>2345</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1672" spans="1:10" x14ac:dyDescent="0.2">
@@ -64772,7 +64905,7 @@
       <c r="H1672" s="9"/>
       <c r="I1672"/>
       <c r="J1672" s="1" t="s">
-        <v>2348</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1673" spans="1:10" x14ac:dyDescent="0.2">
@@ -64797,7 +64930,7 @@
       <c r="H1673" s="9"/>
       <c r="I1673"/>
       <c r="J1673" s="1" t="s">
-        <v>2351</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1674" spans="1:10" x14ac:dyDescent="0.2">
@@ -64822,7 +64955,7 @@
       <c r="H1674" s="9"/>
       <c r="I1674"/>
       <c r="J1674" s="1" t="s">
-        <v>2353</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1675" spans="1:10" x14ac:dyDescent="0.2">
@@ -64847,7 +64980,7 @@
       <c r="H1675" s="9"/>
       <c r="I1675"/>
       <c r="J1675" s="1" t="s">
-        <v>2357</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1676" spans="1:10" x14ac:dyDescent="0.2">
@@ -64872,7 +65005,7 @@
       <c r="H1676" s="9"/>
       <c r="I1676"/>
       <c r="J1676" s="1" t="s">
-        <v>2360</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1677" spans="1:10" x14ac:dyDescent="0.2">
@@ -64900,7 +65033,7 @@
       <c r="H1677" s="9"/>
       <c r="I1677"/>
       <c r="J1677" s="1" t="s">
-        <v>2363</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="1678" spans="1:10" x14ac:dyDescent="0.2">
@@ -64928,7 +65061,7 @@
       <c r="H1678" s="9"/>
       <c r="I1678"/>
       <c r="J1678" s="1" t="s">
-        <v>2366</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1679" spans="1:10" x14ac:dyDescent="0.2">
@@ -64953,7 +65086,7 @@
       <c r="H1679" s="9"/>
       <c r="I1679"/>
       <c r="J1679" s="1" t="s">
-        <v>2369</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1680" spans="1:10" x14ac:dyDescent="0.2">
@@ -64981,7 +65114,7 @@
       <c r="H1680" s="9"/>
       <c r="I1680"/>
       <c r="J1680" s="1" t="s">
-        <v>2372</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1681" spans="1:10" x14ac:dyDescent="0.2">
@@ -65006,7 +65139,7 @@
       <c r="H1681" s="9"/>
       <c r="I1681"/>
       <c r="J1681" s="1" t="s">
-        <v>2376</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1682" spans="1:10" x14ac:dyDescent="0.2">
@@ -65031,7 +65164,7 @@
       <c r="H1682" s="9"/>
       <c r="I1682"/>
       <c r="J1682" s="1" t="s">
-        <v>2379</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1683" spans="1:10" x14ac:dyDescent="0.2">
@@ -65056,7 +65189,7 @@
       <c r="H1683" s="9"/>
       <c r="I1683"/>
       <c r="J1683" s="1" t="s">
-        <v>2382</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1684" spans="1:10" x14ac:dyDescent="0.2">
@@ -65081,7 +65214,7 @@
       <c r="H1684" s="9"/>
       <c r="I1684"/>
       <c r="J1684" s="1" t="s">
-        <v>2387</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1685" spans="1:10" x14ac:dyDescent="0.2">
@@ -65106,7 +65239,7 @@
       <c r="H1685" s="9"/>
       <c r="I1685"/>
       <c r="J1685" s="1" t="s">
-        <v>2390</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1686" spans="1:10" x14ac:dyDescent="0.2">
@@ -65131,7 +65264,7 @@
       <c r="H1686" s="9"/>
       <c r="I1686"/>
       <c r="J1686" s="1" t="s">
-        <v>2393</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1687" spans="1:10" x14ac:dyDescent="0.2">
@@ -65156,7 +65289,7 @@
       <c r="H1687" s="9"/>
       <c r="I1687"/>
       <c r="J1687" s="1" t="s">
-        <v>2396</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1688" spans="1:10" x14ac:dyDescent="0.2">
@@ -65181,7 +65314,7 @@
       <c r="H1688" s="9"/>
       <c r="I1688"/>
       <c r="J1688" s="1" t="s">
-        <v>2399</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1689" spans="1:10" x14ac:dyDescent="0.2">
@@ -65206,7 +65339,7 @@
       <c r="H1689" s="9"/>
       <c r="I1689"/>
       <c r="J1689" s="1" t="s">
-        <v>2403</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1690" spans="1:10" x14ac:dyDescent="0.2">
@@ -65231,7 +65364,7 @@
       <c r="H1690" s="9"/>
       <c r="I1690"/>
       <c r="J1690" s="1" t="s">
-        <v>2406</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1691" spans="1:10" x14ac:dyDescent="0.2">
@@ -65256,7 +65389,7 @@
       <c r="H1691" s="9"/>
       <c r="I1691"/>
       <c r="J1691" s="1" t="s">
-        <v>2410</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1692" spans="1:10" x14ac:dyDescent="0.2">
@@ -65281,7 +65414,7 @@
       <c r="H1692" s="9"/>
       <c r="I1692"/>
       <c r="J1692" s="1" t="s">
-        <v>570</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1693" spans="1:10" x14ac:dyDescent="0.2">
@@ -65306,7 +65439,7 @@
       <c r="H1693" s="9"/>
       <c r="I1693"/>
       <c r="J1693" s="1" t="s">
-        <v>357</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1694" spans="1:10" x14ac:dyDescent="0.2">
@@ -65331,7 +65464,7 @@
       <c r="H1694" s="9"/>
       <c r="I1694"/>
       <c r="J1694" s="1" t="s">
-        <v>2417</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1695" spans="1:10" x14ac:dyDescent="0.2">
@@ -65356,7 +65489,7 @@
       <c r="H1695" s="9"/>
       <c r="I1695"/>
       <c r="J1695" s="1" t="s">
-        <v>2420</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1696" spans="1:10" x14ac:dyDescent="0.2">
@@ -65381,7 +65514,7 @@
       <c r="H1696" s="9"/>
       <c r="I1696"/>
       <c r="J1696" s="1" t="s">
-        <v>2424</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1697" spans="1:10" x14ac:dyDescent="0.2">
@@ -65406,7 +65539,7 @@
       <c r="H1697" s="9"/>
       <c r="I1697"/>
       <c r="J1697" s="1" t="s">
-        <v>2429</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1698" spans="1:10" x14ac:dyDescent="0.2">
@@ -65431,7 +65564,7 @@
       <c r="H1698" s="9"/>
       <c r="I1698"/>
       <c r="J1698" s="1" t="s">
-        <v>2433</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1699" spans="1:10" x14ac:dyDescent="0.2">
@@ -65456,7 +65589,7 @@
       <c r="H1699" s="9"/>
       <c r="I1699"/>
       <c r="J1699" s="1" t="s">
-        <v>2436</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1700" spans="1:10" x14ac:dyDescent="0.2">
@@ -65481,7 +65614,7 @@
       <c r="H1700" s="9"/>
       <c r="I1700"/>
       <c r="J1700" s="1" t="s">
-        <v>2440</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1701" spans="1:10" x14ac:dyDescent="0.2">
@@ -65506,7 +65639,7 @@
       <c r="H1701" s="9"/>
       <c r="I1701"/>
       <c r="J1701" s="1" t="s">
-        <v>2443</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1702" spans="1:10" x14ac:dyDescent="0.2">
@@ -65531,7 +65664,7 @@
       <c r="H1702" s="9"/>
       <c r="I1702"/>
       <c r="J1702" s="1" t="s">
-        <v>2446</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1703" spans="1:10" x14ac:dyDescent="0.2">
@@ -65556,7 +65689,7 @@
       <c r="H1703" s="9"/>
       <c r="I1703"/>
       <c r="J1703" s="1" t="s">
-        <v>2450</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1704" spans="1:10" x14ac:dyDescent="0.2">
@@ -65581,7 +65714,7 @@
       <c r="H1704" s="9"/>
       <c r="I1704"/>
       <c r="J1704" s="1" t="s">
-        <v>2454</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1705" spans="1:10" x14ac:dyDescent="0.2">
@@ -65606,7 +65739,7 @@
       <c r="H1705" s="9"/>
       <c r="I1705"/>
       <c r="J1705" s="1" t="s">
-        <v>2458</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1706" spans="1:10" x14ac:dyDescent="0.2">
@@ -65631,7 +65764,7 @@
       <c r="H1706" s="9"/>
       <c r="I1706"/>
       <c r="J1706" s="1" t="s">
-        <v>4504</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1707" spans="1:10" x14ac:dyDescent="0.2">
@@ -65656,7 +65789,7 @@
       <c r="H1707" s="9"/>
       <c r="I1707"/>
       <c r="J1707" s="1" t="s">
-        <v>4505</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1708" spans="1:10" x14ac:dyDescent="0.2">
@@ -65681,7 +65814,7 @@
       <c r="H1708" s="9"/>
       <c r="I1708"/>
       <c r="J1708" s="1" t="s">
-        <v>4506</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1709" spans="1:10" x14ac:dyDescent="0.2">
@@ -65706,7 +65839,7 @@
       <c r="H1709" s="9"/>
       <c r="I1709"/>
       <c r="J1709" s="1" t="s">
-        <v>4507</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1710" spans="1:10" x14ac:dyDescent="0.2">
@@ -65731,7 +65864,7 @@
       <c r="H1710" s="9"/>
       <c r="I1710"/>
       <c r="J1710" s="1" t="s">
-        <v>4307</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1711" spans="1:10" x14ac:dyDescent="0.2">
@@ -65756,7 +65889,7 @@
       <c r="H1711" s="9"/>
       <c r="I1711"/>
       <c r="J1711" s="1" t="s">
-        <v>4508</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1712" spans="1:10" x14ac:dyDescent="0.2">
@@ -65781,7 +65914,7 @@
       <c r="H1712" s="9"/>
       <c r="I1712"/>
       <c r="J1712" s="1" t="s">
-        <v>2461</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1713" spans="1:10" x14ac:dyDescent="0.2">
@@ -65806,7 +65939,7 @@
       <c r="H1713" s="9"/>
       <c r="I1713"/>
       <c r="J1713" s="1" t="s">
-        <v>2466</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1714" spans="1:10" x14ac:dyDescent="0.2">
@@ -65831,7 +65964,7 @@
       <c r="H1714" s="9"/>
       <c r="I1714"/>
       <c r="J1714" s="1" t="s">
-        <v>2469</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1715" spans="1:10" x14ac:dyDescent="0.2">
@@ -65856,7 +65989,7 @@
       <c r="H1715" s="9"/>
       <c r="I1715"/>
       <c r="J1715" s="1" t="s">
-        <v>2472</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1716" spans="1:10" x14ac:dyDescent="0.2">
@@ -65880,8 +66013,8 @@
       </c>
       <c r="H1716" s="9"/>
       <c r="I1716"/>
-      <c r="J1716" s="1">
-        <v>2012</v>
+      <c r="J1716" s="1" t="s">
+        <v>2322</v>
       </c>
     </row>
     <row r="1717" spans="1:10" x14ac:dyDescent="0.2">
@@ -65906,7 +66039,7 @@
       <c r="H1717" s="9"/>
       <c r="I1717"/>
       <c r="J1717" s="1" t="s">
-        <v>2478</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1718" spans="1:10" x14ac:dyDescent="0.2">
@@ -65934,7 +66067,7 @@
       <c r="H1718" s="9"/>
       <c r="I1718"/>
       <c r="J1718" s="1" t="s">
-        <v>2481</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1719" spans="1:10" x14ac:dyDescent="0.2">
@@ -65959,7 +66092,7 @@
       <c r="H1719" s="9"/>
       <c r="I1719"/>
       <c r="J1719" s="1" t="s">
-        <v>2485</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1720" spans="1:10" x14ac:dyDescent="0.2">
@@ -65984,7 +66117,7 @@
       <c r="H1720" s="9"/>
       <c r="I1720"/>
       <c r="J1720" s="1" t="s">
-        <v>2488</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1721" spans="1:10" x14ac:dyDescent="0.2">
@@ -66009,7 +66142,7 @@
       <c r="H1721" s="9"/>
       <c r="I1721"/>
       <c r="J1721" s="1" t="s">
-        <v>2491</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1722" spans="1:10" x14ac:dyDescent="0.2">
@@ -66034,7 +66167,7 @@
       <c r="H1722" s="9"/>
       <c r="I1722"/>
       <c r="J1722" s="1" t="s">
-        <v>2494</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1723" spans="1:10" x14ac:dyDescent="0.2">
@@ -66059,7 +66192,7 @@
       <c r="H1723" s="9"/>
       <c r="I1723"/>
       <c r="J1723" s="1" t="s">
-        <v>2498</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1724" spans="1:10" x14ac:dyDescent="0.2">
@@ -66084,7 +66217,7 @@
       <c r="H1724" s="9"/>
       <c r="I1724"/>
       <c r="J1724" s="1" t="s">
-        <v>2502</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1725" spans="1:10" x14ac:dyDescent="0.2">
@@ -66109,7 +66242,7 @@
       <c r="H1725" s="9"/>
       <c r="I1725"/>
       <c r="J1725" s="1" t="s">
-        <v>2506</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1726" spans="1:10" x14ac:dyDescent="0.2">
@@ -66134,7 +66267,7 @@
       <c r="H1726" s="9"/>
       <c r="I1726"/>
       <c r="J1726" s="1" t="s">
-        <v>2509</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1727" spans="1:10" x14ac:dyDescent="0.2">
@@ -66159,7 +66292,7 @@
       <c r="H1727" s="9"/>
       <c r="I1727"/>
       <c r="J1727" s="1" t="s">
-        <v>2513</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1728" spans="1:10" x14ac:dyDescent="0.2">
@@ -66184,7 +66317,7 @@
       <c r="H1728" s="9"/>
       <c r="I1728"/>
       <c r="J1728" s="1" t="s">
-        <v>2516</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1729" spans="1:10" x14ac:dyDescent="0.2">
@@ -66209,7 +66342,7 @@
       <c r="H1729" s="9"/>
       <c r="I1729"/>
       <c r="J1729" s="1" t="s">
-        <v>2520</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1730" spans="1:10" x14ac:dyDescent="0.2">
@@ -66234,7 +66367,7 @@
       <c r="H1730" s="9"/>
       <c r="I1730"/>
       <c r="J1730" s="1" t="s">
-        <v>2525</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1731" spans="1:10" x14ac:dyDescent="0.2">
@@ -66259,7 +66392,7 @@
       <c r="H1731" s="9"/>
       <c r="I1731"/>
       <c r="J1731" s="1" t="s">
-        <v>2528</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1732" spans="1:10" x14ac:dyDescent="0.2">
@@ -66284,7 +66417,7 @@
       <c r="H1732" s="9"/>
       <c r="I1732"/>
       <c r="J1732" s="1" t="s">
-        <v>2532</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1733" spans="1:10" x14ac:dyDescent="0.2">
@@ -66312,7 +66445,7 @@
       <c r="H1733" s="9"/>
       <c r="I1733"/>
       <c r="J1733" s="1" t="s">
-        <v>2536</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1734" spans="1:10" x14ac:dyDescent="0.2">
@@ -66337,7 +66470,7 @@
       <c r="H1734" s="9"/>
       <c r="I1734"/>
       <c r="J1734" s="1" t="s">
-        <v>2540</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1735" spans="1:10" x14ac:dyDescent="0.2">
@@ -66362,7 +66495,7 @@
       <c r="H1735" s="9"/>
       <c r="I1735"/>
       <c r="J1735" s="1" t="s">
-        <v>2544</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1736" spans="1:10" x14ac:dyDescent="0.2">
@@ -66390,7 +66523,7 @@
       <c r="H1736" s="9"/>
       <c r="I1736"/>
       <c r="J1736" s="1" t="s">
-        <v>2547</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1737" spans="1:10" x14ac:dyDescent="0.2">
@@ -66415,7 +66548,7 @@
       <c r="H1737" s="9"/>
       <c r="I1737"/>
       <c r="J1737" s="1" t="s">
-        <v>2550</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1738" spans="1:10" x14ac:dyDescent="0.2">
@@ -66443,7 +66576,7 @@
       <c r="H1738" s="9"/>
       <c r="I1738"/>
       <c r="J1738" s="1" t="s">
-        <v>2553</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1739" spans="1:10" x14ac:dyDescent="0.2">
@@ -66471,7 +66604,7 @@
       <c r="H1739" s="9"/>
       <c r="I1739"/>
       <c r="J1739" s="1" t="s">
-        <v>2557</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1740" spans="1:10" x14ac:dyDescent="0.2">
@@ -66496,7 +66629,7 @@
       <c r="H1740" s="9"/>
       <c r="I1740"/>
       <c r="J1740" s="1" t="s">
-        <v>2560</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1741" spans="1:10" x14ac:dyDescent="0.2">
@@ -66521,7 +66654,7 @@
       <c r="H1741" s="9"/>
       <c r="I1741"/>
       <c r="J1741" s="1" t="s">
-        <v>2563</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1742" spans="1:10" x14ac:dyDescent="0.2">
@@ -66546,7 +66679,7 @@
       <c r="H1742" s="9"/>
       <c r="I1742"/>
       <c r="J1742" s="1" t="s">
-        <v>2567</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1743" spans="1:10" x14ac:dyDescent="0.2">
@@ -66574,7 +66707,7 @@
       <c r="H1743" s="9"/>
       <c r="I1743"/>
       <c r="J1743" s="1" t="s">
-        <v>2570</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1744" spans="1:10" x14ac:dyDescent="0.2">
@@ -66599,7 +66732,7 @@
       <c r="H1744" s="9"/>
       <c r="I1744"/>
       <c r="J1744" s="1" t="s">
-        <v>2574</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1745" spans="1:10" x14ac:dyDescent="0.2">
@@ -66624,7 +66757,7 @@
       <c r="H1745" s="9"/>
       <c r="I1745"/>
       <c r="J1745" s="1" t="s">
-        <v>2576</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1746" spans="1:10" x14ac:dyDescent="0.2">
@@ -66649,7 +66782,7 @@
       <c r="H1746" s="9"/>
       <c r="I1746"/>
       <c r="J1746" s="1" t="s">
-        <v>2579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1747" spans="1:10" x14ac:dyDescent="0.2">
@@ -66674,7 +66807,7 @@
       <c r="H1747" s="9"/>
       <c r="I1747"/>
       <c r="J1747" s="1" t="s">
-        <v>2583</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1748" spans="1:10" x14ac:dyDescent="0.2">
@@ -66699,7 +66832,7 @@
       <c r="H1748" s="9"/>
       <c r="I1748"/>
       <c r="J1748" s="1" t="s">
-        <v>2586</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1749" spans="1:10" x14ac:dyDescent="0.2">
@@ -66724,7 +66857,7 @@
       <c r="H1749" s="9"/>
       <c r="I1749"/>
       <c r="J1749" s="1" t="s">
-        <v>2591</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1750" spans="1:10" x14ac:dyDescent="0.2">
@@ -66749,7 +66882,7 @@
       <c r="H1750" s="9"/>
       <c r="I1750"/>
       <c r="J1750" s="1" t="s">
-        <v>2595</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1751" spans="1:10" x14ac:dyDescent="0.2">
@@ -66774,7 +66907,7 @@
       <c r="H1751" s="9"/>
       <c r="I1751"/>
       <c r="J1751" s="1" t="s">
-        <v>2598</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1752" spans="1:10" x14ac:dyDescent="0.2">
@@ -66799,7 +66932,7 @@
       <c r="H1752" s="9"/>
       <c r="I1752"/>
       <c r="J1752" s="1" t="s">
-        <v>2602</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1753" spans="1:10" x14ac:dyDescent="0.2">
@@ -66824,7 +66957,7 @@
       <c r="H1753" s="9"/>
       <c r="I1753"/>
       <c r="J1753" s="1" t="s">
-        <v>2606</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1754" spans="1:10" x14ac:dyDescent="0.2">
@@ -66849,7 +66982,7 @@
       <c r="H1754" s="9"/>
       <c r="I1754"/>
       <c r="J1754" s="1" t="s">
-        <v>2610</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1755" spans="1:10" x14ac:dyDescent="0.2">
@@ -66874,7 +67007,7 @@
       <c r="H1755" s="9"/>
       <c r="I1755"/>
       <c r="J1755" s="1" t="s">
-        <v>342</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1756" spans="1:10" x14ac:dyDescent="0.2">
@@ -66899,7 +67032,7 @@
       <c r="H1756" s="9"/>
       <c r="I1756"/>
       <c r="J1756" s="1" t="s">
-        <v>2616</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1757" spans="1:10" x14ac:dyDescent="0.2">
@@ -66924,7 +67057,7 @@
       <c r="H1757" s="9"/>
       <c r="I1757"/>
       <c r="J1757" s="1" t="s">
-        <v>2619</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1758" spans="1:10" x14ac:dyDescent="0.2">
@@ -66949,7 +67082,7 @@
       <c r="H1758" s="9"/>
       <c r="I1758"/>
       <c r="J1758" s="1" t="s">
-        <v>2622</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1759" spans="1:10" x14ac:dyDescent="0.2">
@@ -66974,7 +67107,7 @@
       <c r="H1759" s="9"/>
       <c r="I1759"/>
       <c r="J1759" s="1" t="s">
-        <v>2625</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1760" spans="1:10" x14ac:dyDescent="0.2">
@@ -66999,7 +67132,7 @@
       <c r="H1760" s="9"/>
       <c r="I1760"/>
       <c r="J1760" s="1" t="s">
-        <v>2628</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1761" spans="1:10" x14ac:dyDescent="0.2">
@@ -67024,7 +67157,7 @@
       <c r="H1761" s="9"/>
       <c r="I1761"/>
       <c r="J1761" s="1" t="s">
-        <v>2632</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1762" spans="1:10" x14ac:dyDescent="0.2">
@@ -67049,7 +67182,7 @@
       <c r="H1762" s="9"/>
       <c r="I1762"/>
       <c r="J1762" s="1" t="s">
-        <v>2635</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1763" spans="1:10" x14ac:dyDescent="0.2">
@@ -67074,7 +67207,7 @@
       <c r="H1763" s="9"/>
       <c r="I1763"/>
       <c r="J1763" s="1" t="s">
-        <v>2638</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1764" spans="1:10" x14ac:dyDescent="0.2">
@@ -67099,7 +67232,7 @@
       <c r="H1764" s="9"/>
       <c r="I1764"/>
       <c r="J1764" s="1" t="s">
-        <v>2641</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1765" spans="1:10" x14ac:dyDescent="0.2">
@@ -67124,7 +67257,7 @@
       <c r="H1765" s="9"/>
       <c r="I1765"/>
       <c r="J1765" s="1" t="s">
-        <v>2644</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1766" spans="1:10" x14ac:dyDescent="0.2">
@@ -67149,7 +67282,7 @@
       <c r="H1766" s="9"/>
       <c r="I1766"/>
       <c r="J1766" s="1" t="s">
-        <v>2648</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1767" spans="1:10" x14ac:dyDescent="0.2">
@@ -67174,7 +67307,7 @@
       <c r="H1767" s="9"/>
       <c r="I1767"/>
       <c r="J1767" s="1" t="s">
-        <v>2651</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1768" spans="1:10" x14ac:dyDescent="0.2">
@@ -67199,7 +67332,7 @@
       <c r="H1768" s="9"/>
       <c r="I1768"/>
       <c r="J1768" s="1" t="s">
-        <v>2654</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1769" spans="1:10" x14ac:dyDescent="0.2">
@@ -67227,7 +67360,7 @@
       <c r="H1769" s="9"/>
       <c r="I1769"/>
       <c r="J1769" s="1" t="s">
-        <v>2657</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1770" spans="1:10" x14ac:dyDescent="0.2">
@@ -67251,8 +67384,8 @@
       </c>
       <c r="H1770" s="9"/>
       <c r="I1770"/>
-      <c r="J1770" s="1" t="s">
-        <v>2661</v>
+      <c r="J1770" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="1771" spans="1:10" x14ac:dyDescent="0.2">
@@ -67277,7 +67410,7 @@
       <c r="H1771" s="9"/>
       <c r="I1771"/>
       <c r="J1771" s="1" t="s">
-        <v>2664</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1772" spans="1:10" x14ac:dyDescent="0.2">
@@ -67302,7 +67435,7 @@
       <c r="H1772" s="9"/>
       <c r="I1772"/>
       <c r="J1772" s="1" t="s">
-        <v>2667</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1773" spans="1:10" x14ac:dyDescent="0.2">
@@ -67327,7 +67460,7 @@
       <c r="H1773" s="9"/>
       <c r="I1773"/>
       <c r="J1773" s="1" t="s">
-        <v>891</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1774" spans="1:10" x14ac:dyDescent="0.2">
@@ -67352,7 +67485,7 @@
       <c r="H1774" s="9"/>
       <c r="I1774"/>
       <c r="J1774" s="1" t="s">
-        <v>2672</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1775" spans="1:10" x14ac:dyDescent="0.2">
@@ -67377,7 +67510,7 @@
       <c r="H1775" s="9"/>
       <c r="I1775"/>
       <c r="J1775" s="1" t="s">
-        <v>2675</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1776" spans="1:10" x14ac:dyDescent="0.2">
@@ -67402,7 +67535,7 @@
       <c r="H1776" s="9"/>
       <c r="I1776"/>
       <c r="J1776" s="1" t="s">
-        <v>2679</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1777" spans="1:10" x14ac:dyDescent="0.2">
@@ -67427,7 +67560,7 @@
       <c r="H1777" s="9"/>
       <c r="I1777"/>
       <c r="J1777" s="1" t="s">
-        <v>2682</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1778" spans="1:10" x14ac:dyDescent="0.2">
@@ -67452,7 +67585,7 @@
       <c r="H1778" s="9"/>
       <c r="I1778"/>
       <c r="J1778" s="1" t="s">
-        <v>2684</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1779" spans="1:10" x14ac:dyDescent="0.2">
@@ -67480,7 +67613,7 @@
       <c r="H1779" s="9"/>
       <c r="I1779"/>
       <c r="J1779" s="1" t="s">
-        <v>2687</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1780" spans="1:10" x14ac:dyDescent="0.2">
@@ -67505,7 +67638,7 @@
       <c r="H1780" s="9"/>
       <c r="I1780"/>
       <c r="J1780" s="1" t="s">
-        <v>2690</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1781" spans="1:10" x14ac:dyDescent="0.2">
@@ -67530,7 +67663,7 @@
       <c r="H1781" s="9"/>
       <c r="I1781"/>
       <c r="J1781" s="1" t="s">
-        <v>2694</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1782" spans="1:10" x14ac:dyDescent="0.2">
@@ -67555,7 +67688,7 @@
       <c r="H1782" s="9"/>
       <c r="I1782"/>
       <c r="J1782" s="1" t="s">
-        <v>1423</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1783" spans="1:10" x14ac:dyDescent="0.2">
@@ -67580,7 +67713,7 @@
       <c r="H1783" s="9"/>
       <c r="I1783"/>
       <c r="J1783" s="1" t="s">
-        <v>2700</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1784" spans="1:10" x14ac:dyDescent="0.2">
@@ -67605,7 +67738,7 @@
       <c r="H1784" s="9"/>
       <c r="I1784"/>
       <c r="J1784" s="1" t="s">
-        <v>2703</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1785" spans="1:10" x14ac:dyDescent="0.2">
@@ -67630,7 +67763,7 @@
       <c r="H1785" s="9"/>
       <c r="I1785"/>
       <c r="J1785" s="1" t="s">
-        <v>2706</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1786" spans="1:10" x14ac:dyDescent="0.2">
@@ -67655,7 +67788,7 @@
       <c r="H1786" s="9"/>
       <c r="I1786"/>
       <c r="J1786" s="1" t="s">
-        <v>2709</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1787" spans="1:10" x14ac:dyDescent="0.2">
@@ -67680,7 +67813,7 @@
       <c r="H1787" s="9"/>
       <c r="I1787"/>
       <c r="J1787" s="1" t="s">
-        <v>2713</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1788" spans="1:10" x14ac:dyDescent="0.2">
@@ -67705,7 +67838,7 @@
       <c r="H1788" s="9"/>
       <c r="I1788"/>
       <c r="J1788" s="1" t="s">
-        <v>2716</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1789" spans="1:10" x14ac:dyDescent="0.2">
@@ -67730,7 +67863,7 @@
       <c r="H1789" s="9"/>
       <c r="I1789"/>
       <c r="J1789" s="1" t="s">
-        <v>2719</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1790" spans="1:10" x14ac:dyDescent="0.2">
@@ -67755,7 +67888,7 @@
       <c r="H1790" s="9"/>
       <c r="I1790"/>
       <c r="J1790" s="1" t="s">
-        <v>4509</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1791" spans="1:10" x14ac:dyDescent="0.2">
@@ -67780,7 +67913,7 @@
       <c r="H1791" s="9"/>
       <c r="I1791"/>
       <c r="J1791" s="1" t="s">
-        <v>4510</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1792" spans="1:10" x14ac:dyDescent="0.2">
@@ -67804,8 +67937,11 @@
       </c>
       <c r="H1792" s="9"/>
       <c r="I1792"/>
-    </row>
-    <row r="1793" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1792" s="1" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1793">
         <v>1998</v>
       </c>
@@ -67826,8 +67962,11 @@
       </c>
       <c r="H1793" s="9"/>
       <c r="I1793"/>
-    </row>
-    <row r="1794" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1793" s="1" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1794">
         <v>1998</v>
       </c>
@@ -67848,8 +67987,11 @@
       </c>
       <c r="H1794" s="9"/>
       <c r="I1794"/>
-    </row>
-    <row r="1795" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1794" s="1" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1795">
         <v>1998</v>
       </c>
@@ -67870,8 +68012,11 @@
       </c>
       <c r="H1795" s="9"/>
       <c r="I1795"/>
-    </row>
-    <row r="1796" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1795" s="1" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1796">
         <v>1998</v>
       </c>
@@ -67892,8 +68037,11 @@
       </c>
       <c r="H1796" s="9"/>
       <c r="I1796"/>
-    </row>
-    <row r="1797" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1796" s="1" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1797">
         <v>1998</v>
       </c>
@@ -67914,8 +68062,11 @@
       </c>
       <c r="H1797" s="9"/>
       <c r="I1797"/>
-    </row>
-    <row r="1798" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1797" s="1" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1798">
         <v>1998</v>
       </c>
@@ -67936,8 +68087,11 @@
       </c>
       <c r="H1798" s="9"/>
       <c r="I1798"/>
-    </row>
-    <row r="1799" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1798" s="1" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1799">
         <v>1998</v>
       </c>
@@ -67958,8 +68112,11 @@
       </c>
       <c r="H1799" s="9"/>
       <c r="I1799"/>
-    </row>
-    <row r="1800" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1799" s="1" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1800">
         <v>1998</v>
       </c>
@@ -67980,8 +68137,11 @@
       </c>
       <c r="H1800" s="9"/>
       <c r="I1800"/>
-    </row>
-    <row r="1801" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1800" s="1" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1801">
         <v>1998</v>
       </c>
@@ -68002,8 +68162,11 @@
       </c>
       <c r="H1801" s="9"/>
       <c r="I1801"/>
-    </row>
-    <row r="1802" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1801" s="1" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1802">
         <v>1998</v>
       </c>
@@ -68024,8 +68187,11 @@
       </c>
       <c r="H1802" s="9"/>
       <c r="I1802"/>
-    </row>
-    <row r="1803" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1802" s="1" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1803">
         <v>1998</v>
       </c>
@@ -68046,8 +68212,11 @@
       </c>
       <c r="H1803" s="9"/>
       <c r="I1803"/>
-    </row>
-    <row r="1804" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1803" s="1" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1804">
         <v>1998</v>
       </c>
@@ -68068,8 +68237,11 @@
       </c>
       <c r="H1804" s="9"/>
       <c r="I1804"/>
-    </row>
-    <row r="1805" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1804" s="1" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1805">
         <v>1998</v>
       </c>
@@ -68090,8 +68262,11 @@
       </c>
       <c r="H1805" s="9"/>
       <c r="I1805"/>
-    </row>
-    <row r="1806" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1805" s="1" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1806">
         <v>1998</v>
       </c>
@@ -68112,8 +68287,11 @@
       </c>
       <c r="H1806" s="9"/>
       <c r="I1806"/>
-    </row>
-    <row r="1807" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1806" s="1" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1807">
         <v>1999</v>
       </c>
@@ -68134,8 +68312,11 @@
       </c>
       <c r="H1807" s="9"/>
       <c r="I1807"/>
-    </row>
-    <row r="1808" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1807" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1808">
         <v>1999</v>
       </c>
@@ -68156,8 +68337,11 @@
       </c>
       <c r="H1808" s="9"/>
       <c r="I1808"/>
-    </row>
-    <row r="1809" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1808" s="1" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1809">
         <v>1999</v>
       </c>
@@ -68178,8 +68362,11 @@
       </c>
       <c r="H1809" s="9"/>
       <c r="I1809"/>
-    </row>
-    <row r="1810" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1809" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1810">
         <v>1999</v>
       </c>
@@ -68200,8 +68387,11 @@
       </c>
       <c r="H1810" s="9"/>
       <c r="I1810"/>
-    </row>
-    <row r="1811" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1810" s="1" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1811">
         <v>1999</v>
       </c>
@@ -68222,8 +68412,11 @@
       </c>
       <c r="H1811" s="9"/>
       <c r="I1811"/>
-    </row>
-    <row r="1812" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1811" s="1" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1812">
         <v>1999</v>
       </c>
@@ -68244,8 +68437,11 @@
       </c>
       <c r="H1812" s="9"/>
       <c r="I1812"/>
-    </row>
-    <row r="1813" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1812" s="1" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1813">
         <v>1999</v>
       </c>
@@ -68266,8 +68462,11 @@
       </c>
       <c r="H1813" s="9"/>
       <c r="I1813"/>
-    </row>
-    <row r="1814" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1813" s="1" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1814">
         <v>1999</v>
       </c>
@@ -68288,8 +68487,11 @@
       </c>
       <c r="H1814" s="9"/>
       <c r="I1814"/>
-    </row>
-    <row r="1815" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1814" s="1" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1815">
         <v>1999</v>
       </c>
@@ -68310,8 +68512,11 @@
       </c>
       <c r="H1815" s="9"/>
       <c r="I1815"/>
-    </row>
-    <row r="1816" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1815" s="1" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1816">
         <v>1999</v>
       </c>
@@ -68332,8 +68537,11 @@
       </c>
       <c r="H1816" s="9"/>
       <c r="I1816"/>
-    </row>
-    <row r="1817" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1816" s="1" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1817">
         <v>1999</v>
       </c>
@@ -68354,8 +68562,11 @@
       </c>
       <c r="H1817" s="9"/>
       <c r="I1817"/>
-    </row>
-    <row r="1818" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1817" s="1" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1818">
         <v>1999</v>
       </c>
@@ -68376,8 +68587,11 @@
       </c>
       <c r="H1818" s="9"/>
       <c r="I1818"/>
-    </row>
-    <row r="1819" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1818" s="1" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1819">
         <v>1999</v>
       </c>
@@ -68398,8 +68612,11 @@
       </c>
       <c r="H1819" s="9"/>
       <c r="I1819"/>
-    </row>
-    <row r="1820" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1819" s="1" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1820">
         <v>1999</v>
       </c>
@@ -68420,8 +68637,11 @@
       </c>
       <c r="H1820" s="9"/>
       <c r="I1820"/>
-    </row>
-    <row r="1821" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1820" s="1" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1821">
         <v>1999</v>
       </c>
@@ -68442,8 +68662,11 @@
       </c>
       <c r="H1821" s="9"/>
       <c r="I1821"/>
-    </row>
-    <row r="1822" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1821" s="1" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1822">
         <v>1999</v>
       </c>
@@ -68464,8 +68687,11 @@
       </c>
       <c r="H1822" s="9"/>
       <c r="I1822"/>
-    </row>
-    <row r="1823" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1822" s="1" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1823">
         <v>1999</v>
       </c>
@@ -68486,8 +68712,11 @@
       </c>
       <c r="H1823" s="9"/>
       <c r="I1823"/>
-    </row>
-    <row r="1824" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1823" s="1" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1824">
         <v>1999</v>
       </c>
@@ -68508,8 +68737,11 @@
       </c>
       <c r="H1824" s="9"/>
       <c r="I1824"/>
-    </row>
-    <row r="1825" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1824" s="1" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1825">
         <v>1999</v>
       </c>
@@ -68530,8 +68762,11 @@
       </c>
       <c r="H1825" s="9"/>
       <c r="I1825"/>
-    </row>
-    <row r="1826" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1825" s="1" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1826">
         <v>1999</v>
       </c>
@@ -68552,8 +68787,11 @@
       </c>
       <c r="H1826" s="9"/>
       <c r="I1826"/>
-    </row>
-    <row r="1827" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1826" s="1" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1827">
         <v>1999</v>
       </c>
@@ -68574,8 +68812,11 @@
       </c>
       <c r="H1827" s="9"/>
       <c r="I1827"/>
-    </row>
-    <row r="1828" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1827" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1828">
         <v>1999</v>
       </c>
@@ -68596,8 +68837,11 @@
       </c>
       <c r="H1828" s="9"/>
       <c r="I1828"/>
-    </row>
-    <row r="1829" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1828" s="1" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1829">
         <v>1999</v>
       </c>
@@ -68618,8 +68862,11 @@
       </c>
       <c r="H1829" s="9"/>
       <c r="I1829"/>
-    </row>
-    <row r="1830" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1829" s="1" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1830">
         <v>1999</v>
       </c>
@@ -68640,8 +68887,11 @@
       </c>
       <c r="H1830" s="9"/>
       <c r="I1830"/>
-    </row>
-    <row r="1831" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1830" s="1" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1831">
         <v>1999</v>
       </c>
@@ -68662,8 +68912,11 @@
       </c>
       <c r="H1831" s="9"/>
       <c r="I1831"/>
-    </row>
-    <row r="1832" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1831" s="1" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1832">
         <v>1999</v>
       </c>
@@ -68684,8 +68937,11 @@
       </c>
       <c r="H1832" s="9"/>
       <c r="I1832"/>
-    </row>
-    <row r="1833" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1832" s="1" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1833">
         <v>1999</v>
       </c>
@@ -68706,8 +68962,11 @@
       </c>
       <c r="H1833" s="9"/>
       <c r="I1833"/>
-    </row>
-    <row r="1834" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1833" s="1" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1834">
         <v>1999</v>
       </c>
@@ -68728,8 +68987,11 @@
       </c>
       <c r="H1834" s="9"/>
       <c r="I1834"/>
-    </row>
-    <row r="1835" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1834" s="1" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1835">
         <v>1999</v>
       </c>
@@ -68750,8 +69012,11 @@
       </c>
       <c r="H1835" s="9"/>
       <c r="I1835"/>
-    </row>
-    <row r="1836" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1835" s="1" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1836">
         <v>1999</v>
       </c>
@@ -68772,8 +69037,11 @@
       </c>
       <c r="H1836" s="9"/>
       <c r="I1836"/>
-    </row>
-    <row r="1837" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1836" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1837">
         <v>1999</v>
       </c>
@@ -68794,8 +69062,11 @@
       </c>
       <c r="H1837" s="9"/>
       <c r="I1837"/>
-    </row>
-    <row r="1838" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1837" s="1" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1838">
         <v>1999</v>
       </c>
@@ -68816,8 +69087,11 @@
       </c>
       <c r="H1838" s="9"/>
       <c r="I1838"/>
-    </row>
-    <row r="1839" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1838" s="1" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1839">
         <v>1999</v>
       </c>
@@ -68838,8 +69112,11 @@
       </c>
       <c r="H1839" s="9"/>
       <c r="I1839"/>
-    </row>
-    <row r="1840" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1839" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1840">
         <v>1999</v>
       </c>
@@ -68860,8 +69137,11 @@
       </c>
       <c r="H1840" s="9"/>
       <c r="I1840"/>
-    </row>
-    <row r="1841" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1840" s="1" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1841">
         <v>1999</v>
       </c>
@@ -68882,8 +69162,11 @@
       </c>
       <c r="H1841" s="9"/>
       <c r="I1841"/>
-    </row>
-    <row r="1842" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1841" s="1" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1842">
         <v>1999</v>
       </c>
@@ -68904,8 +69187,11 @@
       </c>
       <c r="H1842" s="9"/>
       <c r="I1842"/>
-    </row>
-    <row r="1843" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1842" s="1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1843">
         <v>1999</v>
       </c>
@@ -68926,8 +69212,11 @@
       </c>
       <c r="H1843" s="9"/>
       <c r="I1843"/>
-    </row>
-    <row r="1844" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1843" s="1" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1844">
         <v>1999</v>
       </c>
@@ -68948,8 +69237,11 @@
       </c>
       <c r="H1844" s="9"/>
       <c r="I1844"/>
-    </row>
-    <row r="1845" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1844" s="1" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1845">
         <v>1999</v>
       </c>
@@ -68970,8 +69262,11 @@
       </c>
       <c r="H1845" s="9"/>
       <c r="I1845"/>
-    </row>
-    <row r="1846" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1845" s="1" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1846">
         <v>1999</v>
       </c>
@@ -68993,7 +69288,7 @@
       <c r="H1846" s="9"/>
       <c r="I1846"/>
     </row>
-    <row r="1847" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1847" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1847">
         <v>1999</v>
       </c>
@@ -69015,7 +69310,7 @@
       <c r="H1847" s="9"/>
       <c r="I1847"/>
     </row>
-    <row r="1848" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1848" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1848">
         <v>1999</v>
       </c>
@@ -69037,7 +69332,7 @@
       <c r="H1848" s="9"/>
       <c r="I1848"/>
     </row>
-    <row r="1849" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1849" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1849">
         <v>1999</v>
       </c>
@@ -69059,7 +69354,7 @@
       <c r="H1849" s="9"/>
       <c r="I1849"/>
     </row>
-    <row r="1850" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1850" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1850">
         <v>1999</v>
       </c>
@@ -69081,7 +69376,7 @@
       <c r="H1850" s="9"/>
       <c r="I1850"/>
     </row>
-    <row r="1851" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1851" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1851">
         <v>1999</v>
       </c>
@@ -69103,7 +69398,7 @@
       <c r="H1851" s="9"/>
       <c r="I1851"/>
     </row>
-    <row r="1852" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1852" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1852">
         <v>1999</v>
       </c>
@@ -69125,7 +69420,7 @@
       <c r="H1852" s="9"/>
       <c r="I1852"/>
     </row>
-    <row r="1853" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1853" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1853">
         <v>1999</v>
       </c>
@@ -69147,7 +69442,7 @@
       <c r="H1853" s="9"/>
       <c r="I1853"/>
     </row>
-    <row r="1854" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1854" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1854">
         <v>1999</v>
       </c>
@@ -69169,7 +69464,7 @@
       <c r="H1854" s="9"/>
       <c r="I1854"/>
     </row>
-    <row r="1855" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1855" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1855">
         <v>1999</v>
       </c>
@@ -69191,7 +69486,7 @@
       <c r="H1855" s="9"/>
       <c r="I1855"/>
     </row>
-    <row r="1856" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1856" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1856">
         <v>1999</v>
       </c>

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12808" uniqueCount="7185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12918" uniqueCount="7229">
   <si>
     <t>Year</t>
   </si>
@@ -21577,6 +21577,138 @@
   </si>
   <si>
     <t>Pracująca dziewczyna</t>
+  </si>
+  <si>
+    <t>Oliver i spółka</t>
+  </si>
+  <si>
+    <t>Wigilijny show</t>
+  </si>
+  <si>
+    <t>Mój sąsiad Totoro</t>
+  </si>
+  <si>
+    <t>Sok z żuka</t>
+  </si>
+  <si>
+    <t>Pradawny ląd</t>
+  </si>
+  <si>
+    <t>Ödipussi</t>
+  </si>
+  <si>
+    <t>Kobiety na skraju załamania nerwowego</t>
+  </si>
+  <si>
+    <t>Grobowiec świetlików</t>
+  </si>
+  <si>
+    <t>Goryle we mgle</t>
+  </si>
+  <si>
+    <t>Ja i on</t>
+  </si>
+  <si>
+    <t>Wariatki</t>
+  </si>
+  <si>
+    <t>Młode strzelby</t>
+  </si>
+  <si>
+    <t>Mówimy po niemiecku - Man spricht deutsh</t>
+  </si>
+  <si>
+    <t>Presidio</t>
+  </si>
+  <si>
+    <t>Koszmar z ulicy Wiązów 4: Władca snów</t>
+  </si>
+  <si>
+    <t>Ostatnie kuszenie Chrystusa</t>
+  </si>
+  <si>
+    <t>Nieznośna lekkość bytu</t>
+  </si>
+  <si>
+    <t>Laleczka Chucky</t>
+  </si>
+  <si>
+    <t>Parszywe dranie</t>
+  </si>
+  <si>
+    <t>Przetarg chaos II - Zärtliche Chaoten II</t>
+  </si>
+  <si>
+    <t>Oni żyją</t>
+  </si>
+  <si>
+    <t>Czerwona gorączka</t>
+  </si>
+  <si>
+    <t>Niebezpieczne związki</t>
+  </si>
+  <si>
+    <t>Artur 2</t>
+  </si>
+  <si>
+    <t>Ekspert - Der Experte</t>
+  </si>
+  <si>
+    <t>Rola oświecenia - Kiedy miłość nauczyła się chodzić - Die Aufklärungsrolle - Als die Liebe laufen lernte</t>
+  </si>
+  <si>
+    <t>Hellraiser: Wysłannik piekieł II</t>
+  </si>
+  <si>
+    <t>Pułapka Wenus - Die Venusfalle</t>
+  </si>
+  <si>
+    <t>Kokon: powrót</t>
+  </si>
+  <si>
+    <t>Krótkie spięcie 2</t>
+  </si>
+  <si>
+    <t>Emmanuelle 6: Ostateczny ruch</t>
+  </si>
+  <si>
+    <t>Tucker - konstruktor marzeń</t>
+  </si>
+  <si>
+    <t>Wielki Pee-wee</t>
+  </si>
+  <si>
+    <t>Powrót żywych trupów 2</t>
+  </si>
+  <si>
+    <t>Szkolne oszołomienie</t>
+  </si>
+  <si>
+    <t>Piątek trzynastego VII: Nowa krew</t>
+  </si>
+  <si>
+    <t>Siódmy znak</t>
+  </si>
+  <si>
+    <t>Halloween IV Powrót Michaela Myersa</t>
+  </si>
+  <si>
+    <t>Duch III</t>
+  </si>
+  <si>
+    <t>Hollywoodzkie prostytutki z mechanicznymi pilami</t>
+  </si>
+  <si>
+    <t>Lody na patyku 8: Letni blues</t>
+  </si>
+  <si>
+    <t>Powrót zabójczych pomidorów</t>
+  </si>
+  <si>
+    <t>Na lewo od windy</t>
+  </si>
+  <si>
+    <t>Elvira, władczyni ciemności</t>
   </si>
 </sst>
 </file>
@@ -22035,11 +22167,11 @@
   <dimension ref="A1:P2441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G1088" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G1155" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="H1101" sqref="H1101"/>
+      <selection pane="bottomRight" activeCell="H1160" sqref="H1160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -50444,7 +50576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1089" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1089">
         <v>1988</v>
       </c>
@@ -50470,7 +50602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1090" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1090">
         <v>1988</v>
       </c>
@@ -50496,7 +50628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1091" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1091">
         <v>1988</v>
       </c>
@@ -50522,7 +50654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1092" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1092">
         <v>1988</v>
       </c>
@@ -50548,7 +50680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1093" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1093">
         <v>1988</v>
       </c>
@@ -50574,7 +50706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1094" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1094">
         <v>1988</v>
       </c>
@@ -50600,7 +50732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1095" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1095">
         <v>1988</v>
       </c>
@@ -50626,7 +50758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1096" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1096">
         <v>1988</v>
       </c>
@@ -50652,7 +50784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1097" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1097">
         <v>1988</v>
       </c>
@@ -50678,7 +50810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1098" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1098">
         <v>1988</v>
       </c>
@@ -50704,7 +50836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1099" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1099">
         <v>1988</v>
       </c>
@@ -50730,7 +50862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1100">
         <v>1988</v>
       </c>
@@ -50755,11 +50887,8 @@
       <c r="I1100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1100" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1101">
         <v>1988</v>
       </c>
@@ -50778,13 +50907,14 @@
       <c r="G1101" t="s">
         <v>5228</v>
       </c>
-      <c r="H1101" s="9"/>
-      <c r="I1101"/>
-      <c r="J1101" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1101" s="9" t="s">
+        <v>7185</v>
+      </c>
+      <c r="I1101" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1102">
         <v>1988</v>
       </c>
@@ -50803,13 +50933,14 @@
       <c r="G1102" t="s">
         <v>5230</v>
       </c>
-      <c r="H1102" s="9"/>
-      <c r="I1102"/>
-      <c r="J1102" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1102" s="9" t="s">
+        <v>7186</v>
+      </c>
+      <c r="I1102" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1103">
         <v>1988</v>
       </c>
@@ -50828,13 +50959,14 @@
       <c r="G1103" t="s">
         <v>5233</v>
       </c>
-      <c r="H1103" s="9"/>
-      <c r="I1103"/>
-      <c r="J1103" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1103" s="9" t="s">
+        <v>5231</v>
+      </c>
+      <c r="I1103" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1104">
         <v>1988</v>
       </c>
@@ -50853,13 +50985,14 @@
       <c r="G1104" t="s">
         <v>5235</v>
       </c>
-      <c r="H1104" s="9"/>
-      <c r="I1104"/>
-      <c r="J1104" s="1" t="s">
-        <v>4262</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1104" s="9" t="s">
+        <v>7187</v>
+      </c>
+      <c r="I1104" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1105">
         <v>1988</v>
       </c>
@@ -50878,13 +51011,14 @@
       <c r="G1105" t="s">
         <v>5237</v>
       </c>
-      <c r="H1105" s="9"/>
-      <c r="I1105"/>
-      <c r="J1105" s="1" t="s">
-        <v>4263</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1105" s="9" t="s">
+        <v>7188</v>
+      </c>
+      <c r="I1105" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1106">
         <v>1988</v>
       </c>
@@ -50903,13 +51037,14 @@
       <c r="G1106" t="s">
         <v>5240</v>
       </c>
-      <c r="H1106" s="9"/>
-      <c r="I1106"/>
-      <c r="J1106" s="1" t="s">
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1106" s="9" t="s">
+        <v>7189</v>
+      </c>
+      <c r="I1106" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1107">
         <v>1988</v>
       </c>
@@ -50928,13 +51063,14 @@
       <c r="G1107" t="s">
         <v>5242</v>
       </c>
-      <c r="H1107" s="9"/>
-      <c r="I1107"/>
-      <c r="J1107" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1107" s="9" t="s">
+        <v>7190</v>
+      </c>
+      <c r="I1107" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1108">
         <v>1988</v>
       </c>
@@ -50953,13 +51089,14 @@
       <c r="G1108" t="s">
         <v>5245</v>
       </c>
-      <c r="H1108" s="9"/>
-      <c r="I1108"/>
-      <c r="J1108" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1108" s="9" t="s">
+        <v>7191</v>
+      </c>
+      <c r="I1108" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1109">
         <v>1988</v>
       </c>
@@ -50978,13 +51115,14 @@
       <c r="G1109" t="s">
         <v>5247</v>
       </c>
-      <c r="H1109" s="9"/>
-      <c r="I1109"/>
-      <c r="J1109" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1109" s="9" t="s">
+        <v>7192</v>
+      </c>
+      <c r="I1109" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1110">
         <v>1988</v>
       </c>
@@ -51003,13 +51141,14 @@
       <c r="G1110" t="s">
         <v>5249</v>
       </c>
-      <c r="H1110" s="9"/>
-      <c r="I1110"/>
-      <c r="J1110" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1110" s="9" t="s">
+        <v>7193</v>
+      </c>
+      <c r="I1110" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1111">
         <v>1988</v>
       </c>
@@ -51028,13 +51167,14 @@
       <c r="G1111" t="s">
         <v>5251</v>
       </c>
-      <c r="H1111" s="9"/>
-      <c r="I1111"/>
-      <c r="J1111" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1111" s="9" t="s">
+        <v>7194</v>
+      </c>
+      <c r="I1111" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1112">
         <v>1988</v>
       </c>
@@ -51053,13 +51193,14 @@
       <c r="G1112" t="s">
         <v>5253</v>
       </c>
-      <c r="H1112" s="9"/>
-      <c r="I1112"/>
-      <c r="J1112" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1112" s="9" t="s">
+        <v>7195</v>
+      </c>
+      <c r="I1112" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1113">
         <v>1988</v>
       </c>
@@ -51078,13 +51219,14 @@
       <c r="G1113" t="s">
         <v>5256</v>
       </c>
-      <c r="H1113" s="9"/>
-      <c r="I1113"/>
-      <c r="J1113" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1113" s="9" t="s">
+        <v>5254</v>
+      </c>
+      <c r="I1113" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1114">
         <v>1988</v>
       </c>
@@ -51103,13 +51245,14 @@
       <c r="G1114" t="s">
         <v>5259</v>
       </c>
-      <c r="H1114" s="9"/>
-      <c r="I1114"/>
-      <c r="J1114" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1114" s="9" t="s">
+        <v>7196</v>
+      </c>
+      <c r="I1114" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1115">
         <v>1988</v>
       </c>
@@ -51128,13 +51271,14 @@
       <c r="G1115" t="s">
         <v>5261</v>
       </c>
-      <c r="H1115" s="9"/>
-      <c r="I1115"/>
-      <c r="J1115" s="1" t="s">
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1115" s="1" t="s">
+        <v>4264</v>
+      </c>
+      <c r="I1115" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1116">
         <v>1988</v>
       </c>
@@ -51153,12 +51297,14 @@
       <c r="G1116" t="s">
         <v>5263</v>
       </c>
-      <c r="H1116" s="9"/>
-      <c r="J1116" s="1" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1116" s="9" t="s">
+        <v>7197</v>
+      </c>
+      <c r="I1116" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1117">
         <v>1988</v>
       </c>
@@ -51177,11 +51323,14 @@
       <c r="G1117" t="s">
         <v>2723</v>
       </c>
-      <c r="J1117" s="1" t="s">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1117" s="11" t="s">
+        <v>7198</v>
+      </c>
+      <c r="I1117" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1118">
         <v>1988</v>
       </c>
@@ -51200,11 +51349,14 @@
       <c r="G1118" t="s">
         <v>2725</v>
       </c>
-      <c r="J1118" s="1" t="s">
-        <v>4267</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1118" s="11" t="s">
+        <v>2724</v>
+      </c>
+      <c r="I1118" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1119">
         <v>1988</v>
       </c>
@@ -51223,11 +51375,14 @@
       <c r="G1119" t="s">
         <v>2727</v>
       </c>
-      <c r="J1119" s="1" t="s">
-        <v>4268</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1119" s="11" t="s">
+        <v>2726</v>
+      </c>
+      <c r="I1119" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1120">
         <v>1988</v>
       </c>
@@ -51246,11 +51401,14 @@
       <c r="G1120" t="s">
         <v>2729</v>
       </c>
-      <c r="J1120" s="1" t="s">
-        <v>2825</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1120" s="11" t="s">
+        <v>7199</v>
+      </c>
+      <c r="I1120" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1121">
         <v>1988</v>
       </c>
@@ -51269,11 +51427,14 @@
       <c r="G1121" t="s">
         <v>2732</v>
       </c>
-      <c r="J1121" s="1" t="s">
-        <v>4269</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1121" s="11" t="s">
+        <v>7200</v>
+      </c>
+      <c r="I1121" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1122">
         <v>1988</v>
       </c>
@@ -51292,11 +51453,14 @@
       <c r="G1122" t="s">
         <v>2735</v>
       </c>
-      <c r="J1122" s="1" t="s">
-        <v>4270</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1122" s="11" t="s">
+        <v>7201</v>
+      </c>
+      <c r="I1122" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1123">
         <v>1988</v>
       </c>
@@ -51321,11 +51485,11 @@
       <c r="H1123" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="J1123" s="1" t="s">
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1123" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1124">
         <v>1988</v>
       </c>
@@ -51344,11 +51508,14 @@
       <c r="G1124" t="s">
         <v>2741</v>
       </c>
-      <c r="J1124" s="1" t="s">
-        <v>4272</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1124" s="11" t="s">
+        <v>2739</v>
+      </c>
+      <c r="I1124" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1125">
         <v>1988</v>
       </c>
@@ -51367,11 +51534,14 @@
       <c r="G1125" t="s">
         <v>2743</v>
       </c>
-      <c r="J1125" s="1" t="s">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1125" s="11" t="s">
+        <v>7202</v>
+      </c>
+      <c r="I1125" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1126">
         <v>1988</v>
       </c>
@@ -51390,11 +51560,14 @@
       <c r="G1126" t="s">
         <v>2745</v>
       </c>
-      <c r="J1126" s="1" t="s">
-        <v>4274</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1126" s="11" t="s">
+        <v>7203</v>
+      </c>
+      <c r="I1126" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1127">
         <v>1988</v>
       </c>
@@ -51413,11 +51586,14 @@
       <c r="G1127" t="s">
         <v>2747</v>
       </c>
-      <c r="J1127" s="1" t="s">
-        <v>4275</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1127" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I1127" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1128">
         <v>1988</v>
       </c>
@@ -51436,11 +51612,14 @@
       <c r="G1128" t="s">
         <v>2749</v>
       </c>
-      <c r="J1128" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1128" s="11" t="s">
+        <v>7204</v>
+      </c>
+      <c r="I1128" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1129">
         <v>1988</v>
       </c>
@@ -51459,11 +51638,14 @@
       <c r="G1129" t="s">
         <v>2752</v>
       </c>
-      <c r="J1129" s="1" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1129" s="11" t="s">
+        <v>7205</v>
+      </c>
+      <c r="I1129" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1130">
         <v>1988</v>
       </c>
@@ -51482,11 +51664,14 @@
       <c r="G1130" t="s">
         <v>2754</v>
       </c>
-      <c r="J1130" s="1" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1130" s="11" t="s">
+        <v>4263</v>
+      </c>
+      <c r="I1130" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1131">
         <v>1988</v>
       </c>
@@ -51505,11 +51690,14 @@
       <c r="G1131" t="s">
         <v>2756</v>
       </c>
-      <c r="J1131" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1131" s="11" t="s">
+        <v>7206</v>
+      </c>
+      <c r="I1131" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1132">
         <v>1988</v>
       </c>
@@ -51528,11 +51716,14 @@
       <c r="G1132" t="s">
         <v>2759</v>
       </c>
-      <c r="J1132" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1132" s="11" t="s">
+        <v>7207</v>
+      </c>
+      <c r="I1132" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1133">
         <v>1988</v>
       </c>
@@ -51551,11 +51742,14 @@
       <c r="G1133" t="s">
         <v>2761</v>
       </c>
-      <c r="J1133" s="1" t="s">
-        <v>4276</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1133" s="11" t="s">
+        <v>2760</v>
+      </c>
+      <c r="I1133" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1134">
         <v>1988</v>
       </c>
@@ -51574,11 +51768,14 @@
       <c r="G1134" t="s">
         <v>2763</v>
       </c>
-      <c r="J1134" s="1" t="s">
-        <v>4277</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1134" s="11" t="s">
+        <v>7208</v>
+      </c>
+      <c r="I1134" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1135">
         <v>1988</v>
       </c>
@@ -51597,11 +51794,14 @@
       <c r="G1135" t="s">
         <v>2765</v>
       </c>
-      <c r="J1135" s="1" t="s">
-        <v>4278</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1135" s="11" t="s">
+        <v>7209</v>
+      </c>
+      <c r="I1135" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1136">
         <v>1988</v>
       </c>
@@ -51620,11 +51820,14 @@
       <c r="G1136" t="s">
         <v>2768</v>
       </c>
-      <c r="J1136" s="1" t="s">
-        <v>4279</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1136" s="11" t="s">
+        <v>7210</v>
+      </c>
+      <c r="I1136" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1137">
         <v>1988</v>
       </c>
@@ -51643,11 +51846,14 @@
       <c r="G1137" t="s">
         <v>2771</v>
       </c>
-      <c r="J1137" s="1" t="s">
-        <v>4280</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1137" s="11" t="s">
+        <v>7211</v>
+      </c>
+      <c r="I1137" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1138">
         <v>1988</v>
       </c>
@@ -51666,11 +51872,14 @@
       <c r="G1138" t="s">
         <v>2774</v>
       </c>
-      <c r="J1138" s="1" t="s">
-        <v>4281</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1138" s="11" t="s">
+        <v>7212</v>
+      </c>
+      <c r="I1138" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1139">
         <v>1988</v>
       </c>
@@ -51689,11 +51898,14 @@
       <c r="G1139" t="s">
         <v>2777</v>
       </c>
-      <c r="J1139" s="1" t="s">
-        <v>4282</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1139" s="11" t="s">
+        <v>7213</v>
+      </c>
+      <c r="I1139" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1140">
         <v>1988</v>
       </c>
@@ -51712,11 +51924,14 @@
       <c r="G1140" t="s">
         <v>2779</v>
       </c>
-      <c r="J1140" s="1" t="s">
-        <v>4283</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1140" s="11" t="s">
+        <v>7214</v>
+      </c>
+      <c r="I1140" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1141">
         <v>1988</v>
       </c>
@@ -51735,11 +51950,14 @@
       <c r="G1141" t="s">
         <v>2781</v>
       </c>
-      <c r="J1141" s="1" t="s">
-        <v>4284</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1141" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1141" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1142">
         <v>1988</v>
       </c>
@@ -51758,11 +51976,14 @@
       <c r="G1142" t="s">
         <v>2783</v>
       </c>
-      <c r="J1142" s="1" t="s">
-        <v>4285</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1142" s="11" t="s">
+        <v>7215</v>
+      </c>
+      <c r="I1142" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1143">
         <v>1988</v>
       </c>
@@ -51781,11 +52002,14 @@
       <c r="G1143" t="s">
         <v>2785</v>
       </c>
-      <c r="J1143" s="1" t="s">
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1143" s="11" t="s">
+        <v>7216</v>
+      </c>
+      <c r="I1143" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1144">
         <v>1988</v>
       </c>
@@ -51804,11 +52028,14 @@
       <c r="G1144" t="s">
         <v>2787</v>
       </c>
-      <c r="J1144" s="1" t="s">
-        <v>4287</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1144" s="11" t="s">
+        <v>7218</v>
+      </c>
+      <c r="I1144" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1145">
         <v>1988</v>
       </c>
@@ -51827,11 +52054,14 @@
       <c r="G1145" t="s">
         <v>2790</v>
       </c>
-      <c r="J1145" s="1" t="s">
-        <v>4288</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1145" s="11" t="s">
+        <v>7219</v>
+      </c>
+      <c r="I1145" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1146">
         <v>1988</v>
       </c>
@@ -51850,11 +52080,14 @@
       <c r="G1146" t="s">
         <v>2793</v>
       </c>
-      <c r="J1146" s="1" t="s">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1146" s="11" t="s">
+        <v>7217</v>
+      </c>
+      <c r="I1146" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1147">
         <v>1988</v>
       </c>
@@ -51873,11 +52106,14 @@
       <c r="G1147" t="s">
         <v>2795</v>
       </c>
-      <c r="J1147" s="1" t="s">
-        <v>4290</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1147" s="11" t="s">
+        <v>7220</v>
+      </c>
+      <c r="I1147" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1148">
         <v>1988</v>
       </c>
@@ -51896,11 +52132,14 @@
       <c r="G1148" t="s">
         <v>2798</v>
       </c>
-      <c r="J1148" s="1" t="s">
-        <v>4291</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1148" s="11" t="s">
+        <v>7221</v>
+      </c>
+      <c r="I1148" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1149">
         <v>1988</v>
       </c>
@@ -51919,11 +52158,14 @@
       <c r="G1149" t="s">
         <v>2800</v>
       </c>
-      <c r="J1149" s="1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1149" s="11" t="s">
+        <v>7222</v>
+      </c>
+      <c r="I1149" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1150">
         <v>1988</v>
       </c>
@@ -51942,11 +52184,14 @@
       <c r="G1150" t="s">
         <v>2802</v>
       </c>
-      <c r="J1150" s="1" t="s">
-        <v>4292</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1150" s="11" t="s">
+        <v>7223</v>
+      </c>
+      <c r="I1150" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1151">
         <v>1988</v>
       </c>
@@ -51965,11 +52210,14 @@
       <c r="G1151" t="s">
         <v>2805</v>
       </c>
-      <c r="J1151" s="1" t="s">
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1151" s="11" t="s">
+        <v>7224</v>
+      </c>
+      <c r="I1151" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1152">
         <v>1988</v>
       </c>
@@ -51988,8 +52236,11 @@
       <c r="G1152" t="s">
         <v>2806</v>
       </c>
-      <c r="J1152" s="1" t="s">
-        <v>4294</v>
+      <c r="H1152" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I1152" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1153" spans="1:10" x14ac:dyDescent="0.2">
@@ -52011,8 +52262,11 @@
       <c r="G1153" t="s">
         <v>2808</v>
       </c>
-      <c r="J1153" s="1" t="s">
-        <v>4295</v>
+      <c r="H1153" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I1153" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1154" spans="1:10" x14ac:dyDescent="0.2">
@@ -52034,8 +52288,11 @@
       <c r="G1154" t="s">
         <v>2810</v>
       </c>
-      <c r="J1154" s="1" t="s">
-        <v>4266</v>
+      <c r="H1154" s="11" t="s">
+        <v>7225</v>
+      </c>
+      <c r="I1154" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1155" spans="1:10" x14ac:dyDescent="0.2">
@@ -52057,8 +52314,11 @@
       <c r="G1155" t="s">
         <v>2813</v>
       </c>
-      <c r="J1155" s="1" t="s">
-        <v>4296</v>
+      <c r="H1155" s="11" t="s">
+        <v>7226</v>
+      </c>
+      <c r="I1155" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1156" spans="1:10" x14ac:dyDescent="0.2">
@@ -52080,8 +52340,11 @@
       <c r="G1156" t="s">
         <v>2816</v>
       </c>
-      <c r="J1156" s="1" t="s">
-        <v>4297</v>
+      <c r="H1156" s="11" t="s">
+        <v>7227</v>
+      </c>
+      <c r="I1156" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1157" spans="1:10" x14ac:dyDescent="0.2">
@@ -52103,8 +52366,11 @@
       <c r="G1157" t="s">
         <v>2818</v>
       </c>
-      <c r="J1157" s="1" t="s">
-        <v>4298</v>
+      <c r="H1157" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I1157" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1158" spans="1:10" x14ac:dyDescent="0.2">
@@ -52126,8 +52392,11 @@
       <c r="G1158" t="s">
         <v>2820</v>
       </c>
-      <c r="J1158" s="1" t="s">
-        <v>4299</v>
+      <c r="H1158" s="11" t="s">
+        <v>7228</v>
+      </c>
+      <c r="I1158" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1159" spans="1:10" x14ac:dyDescent="0.2">
@@ -52149,8 +52418,11 @@
       <c r="G1159" t="s">
         <v>2822</v>
       </c>
-      <c r="J1159" s="1" t="s">
-        <v>4300</v>
+      <c r="H1159" s="11" t="s">
+        <v>2821</v>
+      </c>
+      <c r="I1159" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1160" spans="1:10" x14ac:dyDescent="0.2">
@@ -52172,9 +52444,6 @@
       <c r="G1160" t="s">
         <v>2824</v>
       </c>
-      <c r="J1160" s="1" t="s">
-        <v>4301</v>
-      </c>
     </row>
     <row r="1161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1161">
@@ -52195,9 +52464,6 @@
       <c r="G1161" t="s">
         <v>2826</v>
       </c>
-      <c r="J1161" s="1" t="s">
-        <v>4302</v>
-      </c>
     </row>
     <row r="1162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1162">
@@ -52218,9 +52484,6 @@
       <c r="G1162" t="s">
         <v>2829</v>
       </c>
-      <c r="J1162" s="1" t="s">
-        <v>4303</v>
-      </c>
     </row>
     <row r="1163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1163">
@@ -52241,9 +52504,6 @@
       <c r="G1163" t="s">
         <v>2831</v>
       </c>
-      <c r="J1163" s="1" t="s">
-        <v>4304</v>
-      </c>
     </row>
     <row r="1164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1164">
@@ -52264,9 +52524,6 @@
       <c r="G1164" t="s">
         <v>2833</v>
       </c>
-      <c r="J1164" s="1" t="s">
-        <v>1212</v>
-      </c>
     </row>
     <row r="1165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1165">
@@ -52287,9 +52544,6 @@
       <c r="G1165" t="s">
         <v>2835</v>
       </c>
-      <c r="J1165" s="1" t="s">
-        <v>1215</v>
-      </c>
     </row>
     <row r="1166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1166">
@@ -52310,9 +52564,6 @@
       <c r="G1166" t="s">
         <v>2838</v>
       </c>
-      <c r="J1166" s="1" t="s">
-        <v>1220</v>
-      </c>
     </row>
     <row r="1167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1167">
@@ -52333,9 +52584,6 @@
       <c r="G1167" t="s">
         <v>2841</v>
       </c>
-      <c r="J1167" s="1" t="s">
-        <v>4305</v>
-      </c>
     </row>
     <row r="1168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1168">
@@ -52357,7 +52605,7 @@
         <v>2843</v>
       </c>
       <c r="J1168" s="1" t="s">
-        <v>4306</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1169" spans="1:10" x14ac:dyDescent="0.2">
@@ -52383,7 +52631,7 @@
         <v>2847</v>
       </c>
       <c r="J1169" s="1" t="s">
-        <v>4307</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1170" spans="1:10" x14ac:dyDescent="0.2">
@@ -52406,7 +52654,7 @@
         <v>2849</v>
       </c>
       <c r="J1170" s="1" t="s">
-        <v>4308</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1171" spans="1:10" x14ac:dyDescent="0.2">
@@ -52429,7 +52677,7 @@
         <v>2852</v>
       </c>
       <c r="J1171" s="1" t="s">
-        <v>4266</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1172" spans="1:10" x14ac:dyDescent="0.2">
@@ -52452,7 +52700,7 @@
         <v>2854</v>
       </c>
       <c r="J1172" s="1" t="s">
-        <v>4309</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1173" spans="1:10" x14ac:dyDescent="0.2">
@@ -52475,7 +52723,7 @@
         <v>2856</v>
       </c>
       <c r="J1173" s="1" t="s">
-        <v>4310</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1174" spans="1:10" x14ac:dyDescent="0.2">
@@ -52498,7 +52746,7 @@
         <v>2858</v>
       </c>
       <c r="J1174" s="1" t="s">
-        <v>4311</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1175" spans="1:10" x14ac:dyDescent="0.2">
@@ -52521,7 +52769,7 @@
         <v>2860</v>
       </c>
       <c r="J1175" s="1" t="s">
-        <v>4312</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1176" spans="1:10" x14ac:dyDescent="0.2">
@@ -52547,7 +52795,7 @@
         <v>2862</v>
       </c>
       <c r="J1176" s="1" t="s">
-        <v>4313</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1177" spans="1:10" x14ac:dyDescent="0.2">
@@ -52570,7 +52818,7 @@
         <v>2864</v>
       </c>
       <c r="J1177" s="1" t="s">
-        <v>4314</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1178" spans="1:10" x14ac:dyDescent="0.2">
@@ -52593,7 +52841,7 @@
         <v>2866</v>
       </c>
       <c r="J1178" s="1" t="s">
-        <v>4315</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1179" spans="1:10" x14ac:dyDescent="0.2">
@@ -52616,7 +52864,7 @@
         <v>2868</v>
       </c>
       <c r="J1179" s="1" t="s">
-        <v>4316</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="1180" spans="1:10" x14ac:dyDescent="0.2">
@@ -52639,7 +52887,7 @@
         <v>2870</v>
       </c>
       <c r="J1180" s="1" t="s">
-        <v>4317</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1181" spans="1:10" x14ac:dyDescent="0.2">
@@ -52662,7 +52910,7 @@
         <v>2872</v>
       </c>
       <c r="J1181" s="1" t="s">
-        <v>4318</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="1182" spans="1:10" x14ac:dyDescent="0.2">
@@ -52685,7 +52933,7 @@
         <v>2874</v>
       </c>
       <c r="J1182" s="1" t="s">
-        <v>4319</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="1183" spans="1:10" x14ac:dyDescent="0.2">
@@ -52708,7 +52956,7 @@
         <v>2877</v>
       </c>
       <c r="J1183" s="1" t="s">
-        <v>4320</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1184" spans="1:10" x14ac:dyDescent="0.2">
@@ -52734,7 +52982,7 @@
         <v>2879</v>
       </c>
       <c r="J1184" s="1" t="s">
-        <v>4321</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="1185" spans="1:10" x14ac:dyDescent="0.2">
@@ -52757,7 +53005,7 @@
         <v>2881</v>
       </c>
       <c r="J1185" s="1" t="s">
-        <v>4322</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1186" spans="1:10" x14ac:dyDescent="0.2">
@@ -52780,7 +53028,7 @@
         <v>2883</v>
       </c>
       <c r="J1186" s="1" t="s">
-        <v>1223</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="1187" spans="1:10" x14ac:dyDescent="0.2">
@@ -52803,7 +53051,7 @@
         <v>2886</v>
       </c>
       <c r="J1187" s="1" t="s">
-        <v>1226</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1188" spans="1:10" x14ac:dyDescent="0.2">
@@ -52826,7 +53074,7 @@
         <v>2888</v>
       </c>
       <c r="J1188" s="1" t="s">
-        <v>230</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="1189" spans="1:10" x14ac:dyDescent="0.2">
@@ -52849,7 +53097,7 @@
         <v>2890</v>
       </c>
       <c r="J1189" s="1" t="s">
-        <v>4323</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1190" spans="1:10" x14ac:dyDescent="0.2">
@@ -52872,7 +53120,7 @@
         <v>2892</v>
       </c>
       <c r="J1190" s="1" t="s">
-        <v>4324</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1191" spans="1:10" x14ac:dyDescent="0.2">
@@ -52895,7 +53143,7 @@
         <v>2895</v>
       </c>
       <c r="J1191" s="1" t="s">
-        <v>4325</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1192" spans="1:10" x14ac:dyDescent="0.2">
@@ -52918,7 +53166,7 @@
         <v>2897</v>
       </c>
       <c r="J1192" s="1" t="s">
-        <v>4326</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1193" spans="1:10" x14ac:dyDescent="0.2">
@@ -52941,7 +53189,7 @@
         <v>2899</v>
       </c>
       <c r="J1193" s="1" t="s">
-        <v>4327</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1194" spans="1:10" x14ac:dyDescent="0.2">
@@ -52964,7 +53212,7 @@
         <v>2901</v>
       </c>
       <c r="J1194" s="1" t="s">
-        <v>4328</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1195" spans="1:10" x14ac:dyDescent="0.2">
@@ -52987,7 +53235,7 @@
         <v>2904</v>
       </c>
       <c r="J1195" s="1" t="s">
-        <v>4329</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="1196" spans="1:10" x14ac:dyDescent="0.2">
@@ -53010,7 +53258,7 @@
         <v>2906</v>
       </c>
       <c r="J1196" s="1" t="s">
-        <v>4330</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1197" spans="1:10" x14ac:dyDescent="0.2">
@@ -53033,7 +53281,7 @@
         <v>2908</v>
       </c>
       <c r="J1197" s="1" t="s">
-        <v>4331</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1198" spans="1:10" x14ac:dyDescent="0.2">
@@ -53056,7 +53304,7 @@
         <v>2910</v>
       </c>
       <c r="J1198" s="1" t="s">
-        <v>4332</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1199" spans="1:10" x14ac:dyDescent="0.2">
@@ -53079,7 +53327,7 @@
         <v>2912</v>
       </c>
       <c r="J1199" s="1" t="s">
-        <v>4333</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="1200" spans="1:10" x14ac:dyDescent="0.2">
@@ -53102,7 +53350,7 @@
         <v>2914</v>
       </c>
       <c r="J1200" s="1" t="s">
-        <v>4334</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1201" spans="1:10" x14ac:dyDescent="0.2">
@@ -53125,7 +53373,7 @@
         <v>2917</v>
       </c>
       <c r="J1201" s="1" t="s">
-        <v>4335</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="1202" spans="1:10" x14ac:dyDescent="0.2">
@@ -53148,7 +53396,7 @@
         <v>2920</v>
       </c>
       <c r="J1202" s="1" t="s">
-        <v>4336</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1203" spans="1:10" x14ac:dyDescent="0.2">
@@ -53171,7 +53419,7 @@
         <v>2923</v>
       </c>
       <c r="J1203" s="1" t="s">
-        <v>1232</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="1204" spans="1:10" x14ac:dyDescent="0.2">
@@ -53194,7 +53442,7 @@
         <v>2925</v>
       </c>
       <c r="J1204" s="1" t="s">
-        <v>1236</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1205" spans="1:10" x14ac:dyDescent="0.2">
@@ -53217,7 +53465,7 @@
         <v>2927</v>
       </c>
       <c r="J1205" s="1" t="s">
-        <v>56</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="1206" spans="1:10" x14ac:dyDescent="0.2">
@@ -53240,7 +53488,7 @@
         <v>2929</v>
       </c>
       <c r="J1206" s="1" t="s">
-        <v>1240</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1207" spans="1:10" x14ac:dyDescent="0.2">
@@ -53263,7 +53511,7 @@
         <v>2932</v>
       </c>
       <c r="J1207" s="1" t="s">
-        <v>4337</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1208" spans="1:10" x14ac:dyDescent="0.2">
@@ -53286,7 +53534,7 @@
         <v>5265</v>
       </c>
       <c r="J1208" s="1" t="s">
-        <v>4307</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1209" spans="1:10" x14ac:dyDescent="0.2">
@@ -53309,7 +53557,7 @@
         <v>5267</v>
       </c>
       <c r="J1209" s="1" t="s">
-        <v>4338</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1210" spans="1:10" x14ac:dyDescent="0.2">
@@ -53332,7 +53580,7 @@
         <v>5269</v>
       </c>
       <c r="J1210" s="1" t="s">
-        <v>4339</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1211" spans="1:10" x14ac:dyDescent="0.2">
@@ -53355,7 +53603,7 @@
         <v>5272</v>
       </c>
       <c r="J1211" s="1" t="s">
-        <v>4340</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1212" spans="1:10" x14ac:dyDescent="0.2">
@@ -53378,7 +53626,7 @@
         <v>5274</v>
       </c>
       <c r="J1212" s="1" t="s">
-        <v>4341</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="1213" spans="1:10" x14ac:dyDescent="0.2">
@@ -53401,7 +53649,7 @@
         <v>5276</v>
       </c>
       <c r="J1213" s="1" t="s">
-        <v>4342</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1214" spans="1:10" x14ac:dyDescent="0.2">
@@ -53424,7 +53672,7 @@
         <v>5278</v>
       </c>
       <c r="J1214" s="1" t="s">
-        <v>4343</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1215" spans="1:10" x14ac:dyDescent="0.2">
@@ -53447,7 +53695,7 @@
         <v>5280</v>
       </c>
       <c r="J1215" s="1" t="s">
-        <v>4344</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1216" spans="1:10" x14ac:dyDescent="0.2">
@@ -53470,7 +53718,7 @@
         <v>5281</v>
       </c>
       <c r="J1216" s="1" t="s">
-        <v>4345</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1217" spans="1:10" x14ac:dyDescent="0.2">
@@ -53493,7 +53741,7 @@
         <v>5283</v>
       </c>
       <c r="J1217" s="1" t="s">
-        <v>4346</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1218" spans="1:10" x14ac:dyDescent="0.2">
@@ -53516,7 +53764,7 @@
         <v>5285</v>
       </c>
       <c r="J1218" s="1" t="s">
-        <v>4347</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1219" spans="1:10" x14ac:dyDescent="0.2">
@@ -53542,7 +53790,7 @@
         <v>5287</v>
       </c>
       <c r="J1219" s="1" t="s">
-        <v>4348</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1220" spans="1:10" x14ac:dyDescent="0.2">
@@ -53565,7 +53813,7 @@
         <v>5289</v>
       </c>
       <c r="J1220" s="1" t="s">
-        <v>4349</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1221" spans="1:10" x14ac:dyDescent="0.2">
@@ -53588,7 +53836,7 @@
         <v>5290</v>
       </c>
       <c r="J1221" s="1" t="s">
-        <v>4350</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1222" spans="1:10" x14ac:dyDescent="0.2">
@@ -53611,7 +53859,7 @@
         <v>5292</v>
       </c>
       <c r="J1222" s="1" t="s">
-        <v>4351</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1223" spans="1:10" x14ac:dyDescent="0.2">
@@ -53634,7 +53882,7 @@
         <v>5294</v>
       </c>
       <c r="J1223" s="1" t="s">
-        <v>4352</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1224" spans="1:10" x14ac:dyDescent="0.2">
@@ -53657,7 +53905,7 @@
         <v>5296</v>
       </c>
       <c r="J1224" s="1" t="s">
-        <v>4353</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1225" spans="1:10" x14ac:dyDescent="0.2">
@@ -53680,7 +53928,7 @@
         <v>5297</v>
       </c>
       <c r="J1225" s="1" t="s">
-        <v>4354</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1226" spans="1:10" x14ac:dyDescent="0.2">
@@ -53703,7 +53951,7 @@
         <v>5299</v>
       </c>
       <c r="J1226" s="1" t="s">
-        <v>4355</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1227" spans="1:10" x14ac:dyDescent="0.2">
@@ -53726,7 +53974,7 @@
         <v>5302</v>
       </c>
       <c r="J1227" s="1" t="s">
-        <v>1244</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1228" spans="1:10" x14ac:dyDescent="0.2">
@@ -53749,7 +53997,7 @@
         <v>5304</v>
       </c>
       <c r="J1228" s="1" t="s">
-        <v>1248</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1229" spans="1:10" x14ac:dyDescent="0.2">
@@ -53772,7 +54020,7 @@
         <v>5307</v>
       </c>
       <c r="J1229" s="1" t="s">
-        <v>1251</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1230" spans="1:10" x14ac:dyDescent="0.2">
@@ -53795,7 +54043,7 @@
         <v>5309</v>
       </c>
       <c r="J1230" s="1" t="s">
-        <v>1256</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1231" spans="1:10" x14ac:dyDescent="0.2">
@@ -53818,7 +54066,7 @@
         <v>5311</v>
       </c>
       <c r="J1231" s="1" t="s">
-        <v>4356</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1232" spans="1:10" x14ac:dyDescent="0.2">
@@ -53841,7 +54089,7 @@
         <v>5313</v>
       </c>
       <c r="J1232" s="1" t="s">
-        <v>4357</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1233" spans="1:10" x14ac:dyDescent="0.2">
@@ -53864,7 +54112,7 @@
         <v>5315</v>
       </c>
       <c r="J1233" s="1" t="s">
-        <v>4358</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1234" spans="1:10" x14ac:dyDescent="0.2">
@@ -53887,7 +54135,7 @@
         <v>5317</v>
       </c>
       <c r="J1234" s="1" t="s">
-        <v>4359</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1235" spans="1:10" x14ac:dyDescent="0.2">
@@ -53910,7 +54158,7 @@
         <v>5319</v>
       </c>
       <c r="J1235" s="1" t="s">
-        <v>4360</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1236" spans="1:10" x14ac:dyDescent="0.2">
@@ -53933,7 +54181,7 @@
         <v>5320</v>
       </c>
       <c r="J1236" s="1" t="s">
-        <v>4361</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1237" spans="1:10" x14ac:dyDescent="0.2">
@@ -53956,7 +54204,7 @@
         <v>5322</v>
       </c>
       <c r="J1237" s="1" t="s">
-        <v>4362</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1238" spans="1:10" x14ac:dyDescent="0.2">
@@ -53979,7 +54227,7 @@
         <v>5324</v>
       </c>
       <c r="J1238" s="1" t="s">
-        <v>4363</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1239" spans="1:10" x14ac:dyDescent="0.2">
@@ -54002,7 +54250,7 @@
         <v>5326</v>
       </c>
       <c r="J1239" s="1" t="s">
-        <v>1258</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1240" spans="1:10" x14ac:dyDescent="0.2">
@@ -54025,7 +54273,7 @@
         <v>5328</v>
       </c>
       <c r="J1240" s="1" t="s">
-        <v>1262</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1241" spans="1:10" x14ac:dyDescent="0.2">
@@ -54048,7 +54296,7 @@
         <v>5330</v>
       </c>
       <c r="J1241" s="1" t="s">
-        <v>1265</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1242" spans="1:10" x14ac:dyDescent="0.2">
@@ -54071,7 +54319,7 @@
         <v>5332</v>
       </c>
       <c r="J1242" s="1" t="s">
-        <v>1269</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1243" spans="1:10" x14ac:dyDescent="0.2">
@@ -54094,7 +54342,7 @@
         <v>5335</v>
       </c>
       <c r="J1243" s="1" t="s">
-        <v>1272</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="1244" spans="1:10" x14ac:dyDescent="0.2">
@@ -54120,7 +54368,7 @@
         <v>5336</v>
       </c>
       <c r="J1244" s="1" t="s">
-        <v>1275</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1245" spans="1:10" x14ac:dyDescent="0.2">
@@ -54143,7 +54391,7 @@
         <v>5338</v>
       </c>
       <c r="J1245" s="1" t="s">
-        <v>4364</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="1246" spans="1:10" x14ac:dyDescent="0.2">
@@ -54166,7 +54414,7 @@
         <v>5340</v>
       </c>
       <c r="J1246" s="1" t="s">
-        <v>4365</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1247" spans="1:10" x14ac:dyDescent="0.2">
@@ -54189,7 +54437,7 @@
         <v>5343</v>
       </c>
       <c r="J1247" s="1" t="s">
-        <v>4366</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1248" spans="1:10" x14ac:dyDescent="0.2">
@@ -54212,7 +54460,7 @@
         <v>5345</v>
       </c>
       <c r="J1248" s="1" t="s">
-        <v>4307</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1249" spans="1:10" x14ac:dyDescent="0.2">
@@ -54235,7 +54483,7 @@
         <v>5347</v>
       </c>
       <c r="J1249" s="1" t="s">
-        <v>4367</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1250" spans="1:10" x14ac:dyDescent="0.2">
@@ -54258,7 +54506,7 @@
         <v>5350</v>
       </c>
       <c r="J1250" s="1" t="s">
-        <v>4368</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1251" spans="1:10" x14ac:dyDescent="0.2">
@@ -54281,7 +54529,7 @@
         <v>5352</v>
       </c>
       <c r="J1251" s="1" t="s">
-        <v>4369</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1252" spans="1:10" x14ac:dyDescent="0.2">
@@ -54304,7 +54552,7 @@
         <v>5354</v>
       </c>
       <c r="J1252" s="1" t="s">
-        <v>4370</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="1253" spans="1:10" x14ac:dyDescent="0.2">
@@ -54327,7 +54575,7 @@
         <v>5356</v>
       </c>
       <c r="J1253" s="1" t="s">
-        <v>4371</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1254" spans="1:10" x14ac:dyDescent="0.2">
@@ -54350,7 +54598,7 @@
         <v>5358</v>
       </c>
       <c r="J1254" s="1" t="s">
-        <v>4372</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="1255" spans="1:10" x14ac:dyDescent="0.2">
@@ -54373,7 +54621,7 @@
         <v>5360</v>
       </c>
       <c r="J1255" s="1" t="s">
-        <v>4373</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1256" spans="1:10" x14ac:dyDescent="0.2">
@@ -54396,7 +54644,7 @@
         <v>5362</v>
       </c>
       <c r="J1256" s="1" t="s">
-        <v>4374</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="1257" spans="1:10" x14ac:dyDescent="0.2">
@@ -54419,7 +54667,7 @@
         <v>5363</v>
       </c>
       <c r="J1257" s="1" t="s">
-        <v>4375</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1258" spans="1:10" x14ac:dyDescent="0.2">
@@ -54442,7 +54690,7 @@
         <v>5366</v>
       </c>
       <c r="J1258" s="1" t="s">
-        <v>4376</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1259" spans="1:10" x14ac:dyDescent="0.2">
@@ -54466,7 +54714,7 @@
       </c>
       <c r="I1259"/>
       <c r="J1259" s="1" t="s">
-        <v>4377</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1260" spans="1:10" x14ac:dyDescent="0.2">
@@ -54491,7 +54739,7 @@
       <c r="H1260" s="9"/>
       <c r="I1260"/>
       <c r="J1260" s="1" t="s">
-        <v>1279</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="1261" spans="1:10" x14ac:dyDescent="0.2">
@@ -54516,7 +54764,7 @@
       <c r="H1261" s="9"/>
       <c r="I1261"/>
       <c r="J1261" s="1" t="s">
-        <v>1283</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1262" spans="1:10" x14ac:dyDescent="0.2">
@@ -54541,7 +54789,7 @@
       <c r="H1262" s="9"/>
       <c r="I1262"/>
       <c r="J1262" s="1" t="s">
-        <v>639</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1263" spans="1:10" x14ac:dyDescent="0.2">
@@ -54566,7 +54814,7 @@
       <c r="H1263" s="9"/>
       <c r="I1263"/>
       <c r="J1263" s="1" t="s">
-        <v>1290</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1264" spans="1:10" x14ac:dyDescent="0.2">
@@ -54591,7 +54839,7 @@
       <c r="H1264" s="9"/>
       <c r="I1264"/>
       <c r="J1264" s="1" t="s">
-        <v>1294</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1265" spans="1:10" x14ac:dyDescent="0.2">
@@ -54616,7 +54864,7 @@
       <c r="H1265" s="9"/>
       <c r="I1265"/>
       <c r="J1265" s="1" t="s">
-        <v>1297</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1266" spans="1:10" x14ac:dyDescent="0.2">
@@ -54641,7 +54889,7 @@
       <c r="H1266" s="9"/>
       <c r="I1266"/>
       <c r="J1266" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1267" spans="1:10" x14ac:dyDescent="0.2">
@@ -54666,7 +54914,7 @@
       <c r="H1267" s="9"/>
       <c r="I1267"/>
       <c r="J1267" s="1" t="s">
-        <v>4378</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1268" spans="1:10" x14ac:dyDescent="0.2">
@@ -54691,7 +54939,7 @@
       <c r="H1268" s="9"/>
       <c r="I1268"/>
       <c r="J1268" s="1" t="s">
-        <v>4379</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1269" spans="1:10" x14ac:dyDescent="0.2">
@@ -54716,7 +54964,7 @@
       <c r="H1269" s="9"/>
       <c r="I1269"/>
       <c r="J1269" s="1" t="s">
-        <v>4380</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1270" spans="1:10" x14ac:dyDescent="0.2">
@@ -54741,7 +54989,7 @@
       <c r="H1270" s="9"/>
       <c r="I1270"/>
       <c r="J1270" s="1" t="s">
-        <v>4381</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1271" spans="1:10" x14ac:dyDescent="0.2">
@@ -54766,7 +55014,7 @@
       <c r="H1271" s="9"/>
       <c r="I1271"/>
       <c r="J1271" s="1" t="s">
-        <v>4382</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1272" spans="1:10" x14ac:dyDescent="0.2">
@@ -54791,7 +55039,7 @@
       <c r="H1272" s="9"/>
       <c r="I1272"/>
       <c r="J1272" s="1" t="s">
-        <v>4383</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1273" spans="1:10" x14ac:dyDescent="0.2">
@@ -54816,7 +55064,7 @@
       <c r="H1273" s="9"/>
       <c r="I1273"/>
       <c r="J1273" s="1" t="s">
-        <v>4384</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1274" spans="1:10" x14ac:dyDescent="0.2">
@@ -54841,7 +55089,7 @@
       <c r="H1274" s="9"/>
       <c r="I1274"/>
       <c r="J1274" s="1" t="s">
-        <v>4385</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1275" spans="1:10" x14ac:dyDescent="0.2">
@@ -54866,7 +55114,7 @@
       <c r="H1275" s="9"/>
       <c r="I1275"/>
       <c r="J1275" s="1" t="s">
-        <v>4386</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1276" spans="1:10" x14ac:dyDescent="0.2">
@@ -54891,7 +55139,7 @@
       <c r="H1276" s="9"/>
       <c r="I1276"/>
       <c r="J1276" s="1" t="s">
-        <v>4387</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1277" spans="1:10" x14ac:dyDescent="0.2">
@@ -54916,7 +55164,7 @@
       <c r="H1277" s="9"/>
       <c r="I1277"/>
       <c r="J1277" s="1" t="s">
-        <v>4388</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1278" spans="1:10" x14ac:dyDescent="0.2">
@@ -54941,7 +55189,7 @@
       <c r="H1278" s="9"/>
       <c r="I1278"/>
       <c r="J1278" s="1" t="s">
-        <v>4389</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1279" spans="1:10" x14ac:dyDescent="0.2">
@@ -54969,7 +55217,7 @@
       <c r="H1279" s="9"/>
       <c r="I1279"/>
       <c r="J1279" s="1" t="s">
-        <v>4390</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1280" spans="1:10" x14ac:dyDescent="0.2">
@@ -54997,7 +55245,7 @@
       <c r="H1280" s="9"/>
       <c r="I1280"/>
       <c r="J1280" s="1" t="s">
-        <v>4391</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1281" spans="1:10" x14ac:dyDescent="0.2">
@@ -55022,7 +55270,7 @@
       <c r="H1281" s="9"/>
       <c r="I1281"/>
       <c r="J1281" s="1" t="s">
-        <v>4392</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1282" spans="1:10" x14ac:dyDescent="0.2">
@@ -55047,7 +55295,7 @@
       <c r="H1282" s="9"/>
       <c r="I1282"/>
       <c r="J1282" s="1" t="s">
-        <v>4393</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1283" spans="1:10" x14ac:dyDescent="0.2">
@@ -55072,7 +55320,7 @@
       <c r="H1283" s="9"/>
       <c r="I1283"/>
       <c r="J1283" s="1" t="s">
-        <v>4394</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1284" spans="1:10" x14ac:dyDescent="0.2">
@@ -55097,7 +55345,7 @@
       <c r="H1284" s="9"/>
       <c r="I1284"/>
       <c r="J1284" s="1" t="s">
-        <v>4395</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1285" spans="1:10" x14ac:dyDescent="0.2">
@@ -55122,7 +55370,7 @@
       <c r="H1285" s="9"/>
       <c r="I1285"/>
       <c r="J1285" s="1" t="s">
-        <v>4396</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1286" spans="1:10" x14ac:dyDescent="0.2">
@@ -55147,7 +55395,7 @@
       <c r="H1286" s="9"/>
       <c r="I1286"/>
       <c r="J1286" s="1" t="s">
-        <v>4397</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1287" spans="1:10" x14ac:dyDescent="0.2">
@@ -55172,7 +55420,7 @@
       <c r="H1287" s="9"/>
       <c r="I1287"/>
       <c r="J1287" s="1" t="s">
-        <v>1301</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1288" spans="1:10" x14ac:dyDescent="0.2">
@@ -55197,7 +55445,7 @@
       <c r="H1288" s="9"/>
       <c r="I1288"/>
       <c r="J1288" s="1" t="s">
-        <v>4398</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1289" spans="1:10" x14ac:dyDescent="0.2">
@@ -55222,7 +55470,7 @@
       <c r="H1289" s="9"/>
       <c r="I1289"/>
       <c r="J1289" s="1" t="s">
-        <v>4307</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1290" spans="1:10" x14ac:dyDescent="0.2">
@@ -55247,7 +55495,7 @@
       <c r="H1290" s="9"/>
       <c r="I1290"/>
       <c r="J1290" s="1" t="s">
-        <v>4399</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1291" spans="1:10" x14ac:dyDescent="0.2">
@@ -55272,7 +55520,7 @@
       <c r="H1291" s="9"/>
       <c r="I1291"/>
       <c r="J1291" s="1" t="s">
-        <v>4400</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1292" spans="1:10" x14ac:dyDescent="0.2">
@@ -55297,7 +55545,7 @@
       <c r="H1292" s="9"/>
       <c r="I1292"/>
       <c r="J1292" s="1" t="s">
-        <v>4401</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1293" spans="1:10" x14ac:dyDescent="0.2">
@@ -55322,7 +55570,7 @@
       <c r="H1293" s="9"/>
       <c r="I1293"/>
       <c r="J1293" s="1" t="s">
-        <v>4402</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1294" spans="1:10" x14ac:dyDescent="0.2">
@@ -55347,7 +55595,7 @@
       <c r="H1294" s="9"/>
       <c r="I1294"/>
       <c r="J1294" s="1" t="s">
-        <v>4403</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1295" spans="1:10" x14ac:dyDescent="0.2">
@@ -55372,7 +55620,7 @@
       <c r="H1295" s="9"/>
       <c r="I1295"/>
       <c r="J1295" s="1" t="s">
-        <v>4404</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1296" spans="1:10" x14ac:dyDescent="0.2">
@@ -55397,7 +55645,7 @@
       <c r="H1296" s="9"/>
       <c r="I1296"/>
       <c r="J1296" s="1" t="s">
-        <v>4405</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1297" spans="1:10" x14ac:dyDescent="0.2">
@@ -55422,7 +55670,7 @@
       <c r="H1297" s="9"/>
       <c r="I1297"/>
       <c r="J1297" s="1" t="s">
-        <v>4406</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1298" spans="1:10" x14ac:dyDescent="0.2">
@@ -55447,7 +55695,7 @@
       <c r="H1298" s="9"/>
       <c r="I1298"/>
       <c r="J1298" s="1" t="s">
-        <v>4407</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1299" spans="1:10" x14ac:dyDescent="0.2">
@@ -55472,7 +55720,7 @@
       <c r="H1299" s="9"/>
       <c r="I1299"/>
       <c r="J1299" s="1" t="s">
-        <v>4408</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1300" spans="1:10" x14ac:dyDescent="0.2">
@@ -55497,7 +55745,7 @@
       <c r="H1300" s="9"/>
       <c r="I1300"/>
       <c r="J1300" s="1" t="s">
-        <v>4409</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1301" spans="1:10" x14ac:dyDescent="0.2">
@@ -55522,7 +55770,7 @@
       <c r="H1301" s="9"/>
       <c r="I1301"/>
       <c r="J1301" s="1" t="s">
-        <v>4410</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1302" spans="1:10" x14ac:dyDescent="0.2">
@@ -55547,7 +55795,7 @@
       <c r="H1302" s="9"/>
       <c r="I1302"/>
       <c r="J1302" s="1" t="s">
-        <v>4411</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1303" spans="1:10" x14ac:dyDescent="0.2">
@@ -55572,7 +55820,7 @@
       <c r="H1303" s="9"/>
       <c r="I1303"/>
       <c r="J1303" s="1" t="s">
-        <v>4412</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1304" spans="1:10" x14ac:dyDescent="0.2">
@@ -55597,7 +55845,7 @@
       <c r="H1304" s="9"/>
       <c r="I1304"/>
       <c r="J1304" s="1" t="s">
-        <v>4413</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1305" spans="1:10" x14ac:dyDescent="0.2">
@@ -55622,7 +55870,7 @@
       <c r="H1305" s="9"/>
       <c r="I1305"/>
       <c r="J1305" s="1" t="s">
-        <v>1304</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1306" spans="1:10" x14ac:dyDescent="0.2">
@@ -55647,7 +55895,7 @@
       <c r="H1306" s="9"/>
       <c r="I1306"/>
       <c r="J1306" s="1" t="s">
-        <v>1307</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1307" spans="1:10" x14ac:dyDescent="0.2">
@@ -55675,7 +55923,7 @@
       <c r="H1307" s="9"/>
       <c r="I1307"/>
       <c r="J1307" s="1" t="s">
-        <v>1310</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1308" spans="1:10" x14ac:dyDescent="0.2">
@@ -55700,7 +55948,7 @@
       <c r="H1308" s="9"/>
       <c r="I1308"/>
       <c r="J1308" s="1" t="s">
-        <v>4414</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1309" spans="1:10" x14ac:dyDescent="0.2">
@@ -55725,7 +55973,7 @@
       <c r="H1309" s="9"/>
       <c r="I1309"/>
       <c r="J1309" s="1" t="s">
-        <v>4415</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1310" spans="1:10" x14ac:dyDescent="0.2">
@@ -55750,7 +55998,7 @@
       <c r="H1310" s="9"/>
       <c r="I1310"/>
       <c r="J1310" s="1" t="s">
-        <v>4416</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1311" spans="1:10" x14ac:dyDescent="0.2">
@@ -55775,7 +56023,7 @@
       <c r="H1311" s="9"/>
       <c r="I1311"/>
       <c r="J1311" s="1" t="s">
-        <v>4417</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1312" spans="1:10" x14ac:dyDescent="0.2">
@@ -55800,7 +56048,7 @@
       <c r="H1312" s="9"/>
       <c r="I1312"/>
       <c r="J1312" s="1" t="s">
-        <v>4418</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1313" spans="1:10" x14ac:dyDescent="0.2">
@@ -55825,7 +56073,7 @@
       <c r="H1313" s="9"/>
       <c r="I1313"/>
       <c r="J1313" s="1" t="s">
-        <v>4419</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1314" spans="1:10" x14ac:dyDescent="0.2">
@@ -55850,7 +56098,7 @@
       <c r="H1314" s="9"/>
       <c r="I1314"/>
       <c r="J1314" s="1" t="s">
-        <v>4420</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1315" spans="1:10" x14ac:dyDescent="0.2">
@@ -55875,7 +56123,7 @@
       <c r="H1315" s="9"/>
       <c r="I1315"/>
       <c r="J1315" s="1" t="s">
-        <v>4421</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1316" spans="1:10" x14ac:dyDescent="0.2">
@@ -55900,7 +56148,7 @@
       <c r="H1316" s="9"/>
       <c r="I1316"/>
       <c r="J1316" s="1" t="s">
-        <v>4422</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1317" spans="1:10" x14ac:dyDescent="0.2">
@@ -55925,7 +56173,7 @@
       <c r="H1317" s="9"/>
       <c r="I1317"/>
       <c r="J1317" s="1" t="s">
-        <v>4423</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1318" spans="1:10" x14ac:dyDescent="0.2">
@@ -55950,7 +56198,7 @@
       <c r="H1318" s="9"/>
       <c r="I1318"/>
       <c r="J1318" s="1" t="s">
-        <v>4424</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1319" spans="1:10" x14ac:dyDescent="0.2">
@@ -55975,7 +56223,7 @@
       <c r="H1319" s="9"/>
       <c r="I1319"/>
       <c r="J1319" s="1" t="s">
-        <v>4425</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1320" spans="1:10" x14ac:dyDescent="0.2">
@@ -56000,7 +56248,7 @@
       <c r="H1320" s="9"/>
       <c r="I1320"/>
       <c r="J1320" s="1" t="s">
-        <v>4426</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1321" spans="1:10" x14ac:dyDescent="0.2">
@@ -56025,7 +56273,7 @@
       <c r="H1321" s="9"/>
       <c r="I1321"/>
       <c r="J1321" s="1" t="s">
-        <v>4427</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1322" spans="1:10" x14ac:dyDescent="0.2">
@@ -56050,7 +56298,7 @@
       <c r="H1322" s="9"/>
       <c r="I1322"/>
       <c r="J1322" s="1" t="s">
-        <v>4428</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1323" spans="1:10" x14ac:dyDescent="0.2">
@@ -56075,7 +56323,7 @@
       <c r="H1323" s="9"/>
       <c r="I1323"/>
       <c r="J1323" s="1" t="s">
-        <v>4429</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1324" spans="1:10" x14ac:dyDescent="0.2">
@@ -56100,7 +56348,7 @@
       <c r="H1324" s="9"/>
       <c r="I1324"/>
       <c r="J1324" s="1" t="s">
-        <v>1313</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1325" spans="1:10" x14ac:dyDescent="0.2">
@@ -56125,7 +56373,7 @@
       <c r="H1325" s="9"/>
       <c r="I1325"/>
       <c r="J1325" s="1" t="s">
-        <v>1316</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1326" spans="1:10" x14ac:dyDescent="0.2">
@@ -56150,7 +56398,7 @@
       <c r="H1326" s="9"/>
       <c r="I1326"/>
       <c r="J1326" s="1" t="s">
-        <v>1320</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1327" spans="1:10" x14ac:dyDescent="0.2">
@@ -56175,7 +56423,7 @@
       <c r="H1327" s="9"/>
       <c r="I1327"/>
       <c r="J1327" s="1" t="s">
-        <v>1323</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1328" spans="1:10" x14ac:dyDescent="0.2">
@@ -56200,7 +56448,7 @@
       <c r="H1328" s="9"/>
       <c r="I1328"/>
       <c r="J1328" s="1" t="s">
-        <v>1326</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1329" spans="1:10" x14ac:dyDescent="0.2">
@@ -56225,7 +56473,7 @@
       <c r="H1329" s="9"/>
       <c r="I1329"/>
       <c r="J1329" s="1" t="s">
-        <v>4430</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1330" spans="1:10" x14ac:dyDescent="0.2">
@@ -56250,7 +56498,7 @@
       <c r="H1330" s="9"/>
       <c r="I1330"/>
       <c r="J1330" s="1" t="s">
-        <v>4431</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1331" spans="1:10" x14ac:dyDescent="0.2">
@@ -56275,7 +56523,7 @@
       <c r="H1331" s="9"/>
       <c r="I1331"/>
       <c r="J1331" s="1" t="s">
-        <v>4432</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1332" spans="1:10" x14ac:dyDescent="0.2">
@@ -56300,7 +56548,7 @@
       <c r="H1332" s="9"/>
       <c r="I1332"/>
       <c r="J1332" s="1" t="s">
-        <v>4433</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1333" spans="1:10" x14ac:dyDescent="0.2">
@@ -56325,7 +56573,7 @@
       <c r="H1333" s="9"/>
       <c r="I1333"/>
       <c r="J1333" s="1" t="s">
-        <v>4434</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1334" spans="1:10" x14ac:dyDescent="0.2">
@@ -56350,7 +56598,7 @@
       <c r="H1334" s="9"/>
       <c r="I1334"/>
       <c r="J1334" s="1" t="s">
-        <v>4435</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1335" spans="1:10" x14ac:dyDescent="0.2">
@@ -56375,7 +56623,7 @@
       <c r="H1335" s="9"/>
       <c r="I1335"/>
       <c r="J1335" s="1" t="s">
-        <v>4436</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1336" spans="1:10" x14ac:dyDescent="0.2">
@@ -56403,7 +56651,7 @@
       <c r="H1336" s="9"/>
       <c r="I1336"/>
       <c r="J1336" s="1" t="s">
-        <v>4437</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1337" spans="1:10" x14ac:dyDescent="0.2">
@@ -56428,7 +56676,7 @@
       <c r="H1337" s="9"/>
       <c r="I1337"/>
       <c r="J1337" s="1" t="s">
-        <v>4438</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1338" spans="1:10" x14ac:dyDescent="0.2">
@@ -56453,7 +56701,7 @@
       <c r="H1338" s="9"/>
       <c r="I1338"/>
       <c r="J1338" s="1" t="s">
-        <v>4439</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1339" spans="1:10" x14ac:dyDescent="0.2">
@@ -56481,7 +56729,7 @@
       <c r="H1339" s="9"/>
       <c r="I1339"/>
       <c r="J1339" s="1" t="s">
-        <v>4440</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1340" spans="1:10" x14ac:dyDescent="0.2">
@@ -56506,7 +56754,7 @@
       <c r="H1340" s="9"/>
       <c r="I1340"/>
       <c r="J1340" s="1" t="s">
-        <v>4441</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1341" spans="1:10" x14ac:dyDescent="0.2">
@@ -56534,7 +56782,7 @@
       <c r="H1341" s="9"/>
       <c r="I1341"/>
       <c r="J1341" s="1" t="s">
-        <v>1330</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1342" spans="1:10" x14ac:dyDescent="0.2">
@@ -56559,7 +56807,7 @@
       <c r="H1342" s="9"/>
       <c r="I1342"/>
       <c r="J1342" s="1" t="s">
-        <v>1334</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1343" spans="1:10" x14ac:dyDescent="0.2">
@@ -56584,7 +56832,7 @@
       <c r="H1343" s="9"/>
       <c r="I1343"/>
       <c r="J1343" s="1" t="s">
-        <v>1338</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1344" spans="1:10" x14ac:dyDescent="0.2">
@@ -56609,7 +56857,7 @@
       <c r="H1344" s="9"/>
       <c r="I1344"/>
       <c r="J1344" s="1" t="s">
-        <v>1341</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1345" spans="1:10" x14ac:dyDescent="0.2">
@@ -56634,7 +56882,7 @@
       <c r="H1345" s="9"/>
       <c r="I1345"/>
       <c r="J1345" s="1" t="s">
-        <v>1344</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1346" spans="1:10" x14ac:dyDescent="0.2">
@@ -56659,7 +56907,7 @@
       <c r="H1346" s="9"/>
       <c r="I1346"/>
       <c r="J1346" s="1" t="s">
-        <v>1347</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.2">
@@ -56684,7 +56932,7 @@
       <c r="H1347" s="9"/>
       <c r="I1347"/>
       <c r="J1347" s="1" t="s">
-        <v>1351</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1348" spans="1:10" x14ac:dyDescent="0.2">
@@ -56709,7 +56957,7 @@
       <c r="H1348" s="9"/>
       <c r="I1348"/>
       <c r="J1348" s="1" t="s">
-        <v>1354</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1349" spans="1:10" x14ac:dyDescent="0.2">
@@ -56734,7 +56982,7 @@
       <c r="H1349" s="9"/>
       <c r="I1349"/>
       <c r="J1349" s="1" t="s">
-        <v>1357</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1350" spans="1:10" x14ac:dyDescent="0.2">
@@ -56759,7 +57007,7 @@
       <c r="H1350" s="9"/>
       <c r="I1350"/>
       <c r="J1350" s="1" t="s">
-        <v>1360</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1351" spans="1:10" x14ac:dyDescent="0.2">
@@ -56784,7 +57032,7 @@
       <c r="H1351" s="9"/>
       <c r="I1351"/>
       <c r="J1351" s="1" t="s">
-        <v>1365</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1352" spans="1:10" x14ac:dyDescent="0.2">
@@ -56809,7 +57057,7 @@
       <c r="H1352" s="9"/>
       <c r="I1352"/>
       <c r="J1352" s="1" t="s">
-        <v>1368</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1353" spans="1:10" x14ac:dyDescent="0.2">
@@ -56834,7 +57082,7 @@
       <c r="H1353" s="9"/>
       <c r="I1353"/>
       <c r="J1353" s="1" t="s">
-        <v>1371</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1354" spans="1:10" x14ac:dyDescent="0.2">
@@ -56859,7 +57107,7 @@
       <c r="H1354" s="9"/>
       <c r="I1354"/>
       <c r="J1354" s="1" t="s">
-        <v>1375</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1355" spans="1:10" x14ac:dyDescent="0.2">
@@ -56884,7 +57132,7 @@
       <c r="H1355" s="9"/>
       <c r="I1355"/>
       <c r="J1355" s="1" t="s">
-        <v>1378</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1356" spans="1:10" x14ac:dyDescent="0.2">
@@ -56909,7 +57157,7 @@
       <c r="H1356" s="9"/>
       <c r="I1356"/>
       <c r="J1356" s="1" t="s">
-        <v>1381</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1357" spans="1:10" x14ac:dyDescent="0.2">
@@ -56934,7 +57182,7 @@
       <c r="H1357" s="9"/>
       <c r="I1357"/>
       <c r="J1357" s="1" t="s">
-        <v>442</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="1358" spans="1:10" x14ac:dyDescent="0.2">
@@ -56959,7 +57207,7 @@
       <c r="H1358" s="9"/>
       <c r="I1358"/>
       <c r="J1358" s="1" t="s">
-        <v>1387</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1359" spans="1:10" x14ac:dyDescent="0.2">
@@ -56984,7 +57232,7 @@
       <c r="H1359" s="9"/>
       <c r="I1359"/>
       <c r="J1359" s="1" t="s">
-        <v>1391</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="1360" spans="1:10" x14ac:dyDescent="0.2">
@@ -57009,7 +57257,7 @@
       <c r="H1360" s="9"/>
       <c r="I1360"/>
       <c r="J1360" s="1" t="s">
-        <v>1394</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1361" spans="1:10" x14ac:dyDescent="0.2">
@@ -57034,7 +57282,7 @@
       <c r="H1361" s="9"/>
       <c r="I1361"/>
       <c r="J1361" s="1" t="s">
-        <v>1396</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1362" spans="1:10" x14ac:dyDescent="0.2">
@@ -57059,7 +57307,7 @@
       <c r="H1362" s="9"/>
       <c r="I1362"/>
       <c r="J1362" s="1" t="s">
-        <v>1399</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1363" spans="1:10" x14ac:dyDescent="0.2">
@@ -57084,7 +57332,7 @@
       <c r="H1363" s="9"/>
       <c r="I1363"/>
       <c r="J1363" s="1" t="s">
-        <v>1402</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="1364" spans="1:10" x14ac:dyDescent="0.2">
@@ -57109,7 +57357,7 @@
       <c r="H1364" s="9"/>
       <c r="I1364"/>
       <c r="J1364" s="1" t="s">
-        <v>1406</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1365" spans="1:10" x14ac:dyDescent="0.2">
@@ -57134,7 +57382,7 @@
       <c r="H1365" s="9"/>
       <c r="I1365"/>
       <c r="J1365" s="1" t="s">
-        <v>1410</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="1366" spans="1:10" x14ac:dyDescent="0.2">
@@ -57159,7 +57407,7 @@
       <c r="H1366" s="9"/>
       <c r="I1366"/>
       <c r="J1366" s="1" t="s">
-        <v>1413</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.2">
@@ -57184,7 +57432,7 @@
       <c r="H1367" s="9"/>
       <c r="I1367"/>
       <c r="J1367" s="1" t="s">
-        <v>1417</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1368" spans="1:10" x14ac:dyDescent="0.2">
@@ -57209,7 +57457,7 @@
       <c r="H1368" s="9"/>
       <c r="I1368"/>
       <c r="J1368" s="1" t="s">
-        <v>1420</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1369" spans="1:10" x14ac:dyDescent="0.2">
@@ -57234,7 +57482,7 @@
       <c r="H1369" s="9"/>
       <c r="I1369"/>
       <c r="J1369" s="1" t="s">
-        <v>1423</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1370" spans="1:10" x14ac:dyDescent="0.2">
@@ -57259,7 +57507,7 @@
       <c r="H1370" s="9"/>
       <c r="I1370"/>
       <c r="J1370" s="1" t="s">
-        <v>62</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="1371" spans="1:10" x14ac:dyDescent="0.2">
@@ -57284,7 +57532,7 @@
       <c r="H1371" s="9"/>
       <c r="I1371"/>
       <c r="J1371" s="1" t="s">
-        <v>1428</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1372" spans="1:10" x14ac:dyDescent="0.2">
@@ -57312,7 +57560,7 @@
       <c r="H1372" s="9"/>
       <c r="I1372"/>
       <c r="J1372" s="1" t="s">
-        <v>1432</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1373" spans="1:10" x14ac:dyDescent="0.2">
@@ -57337,7 +57585,7 @@
       <c r="H1373" s="9"/>
       <c r="I1373"/>
       <c r="J1373" s="1" t="s">
-        <v>1435</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1374" spans="1:10" x14ac:dyDescent="0.2">
@@ -57362,7 +57610,7 @@
       <c r="H1374" s="9"/>
       <c r="I1374"/>
       <c r="J1374" s="1" t="s">
-        <v>1438</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="1375" spans="1:10" x14ac:dyDescent="0.2">
@@ -57387,7 +57635,7 @@
       <c r="H1375" s="9"/>
       <c r="I1375"/>
       <c r="J1375" s="1" t="s">
-        <v>1442</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1376" spans="1:10" x14ac:dyDescent="0.2">
@@ -57412,7 +57660,7 @@
       <c r="H1376" s="9"/>
       <c r="I1376"/>
       <c r="J1376" s="1" t="s">
-        <v>1446</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="1377" spans="1:10" x14ac:dyDescent="0.2">
@@ -57437,7 +57685,7 @@
       <c r="H1377" s="9"/>
       <c r="I1377"/>
       <c r="J1377" s="1" t="s">
-        <v>4442</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1378" spans="1:10" x14ac:dyDescent="0.2">
@@ -57462,7 +57710,7 @@
       <c r="H1378" s="9"/>
       <c r="I1378"/>
       <c r="J1378" s="1" t="s">
-        <v>4443</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1379" spans="1:10" x14ac:dyDescent="0.2">
@@ -57487,7 +57735,7 @@
       <c r="H1379" s="9"/>
       <c r="I1379"/>
       <c r="J1379" s="1" t="s">
-        <v>4444</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1380" spans="1:10" x14ac:dyDescent="0.2">
@@ -57515,7 +57763,7 @@
       <c r="H1380" s="9"/>
       <c r="I1380"/>
       <c r="J1380" s="1" t="s">
-        <v>4445</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="1381" spans="1:10" x14ac:dyDescent="0.2">
@@ -57540,7 +57788,7 @@
       <c r="H1381" s="9"/>
       <c r="I1381"/>
       <c r="J1381" s="1" t="s">
-        <v>4446</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1382" spans="1:10" x14ac:dyDescent="0.2">
@@ -57565,7 +57813,7 @@
       <c r="H1382" s="9"/>
       <c r="I1382"/>
       <c r="J1382" s="1" t="s">
-        <v>4447</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1383" spans="1:10" x14ac:dyDescent="0.2">
@@ -57590,7 +57838,7 @@
       <c r="H1383" s="9"/>
       <c r="I1383"/>
       <c r="J1383" s="1" t="s">
-        <v>4448</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1384" spans="1:10" x14ac:dyDescent="0.2">
@@ -57615,7 +57863,7 @@
       <c r="H1384" s="9"/>
       <c r="I1384"/>
       <c r="J1384" s="1" t="s">
-        <v>4449</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1385" spans="1:10" x14ac:dyDescent="0.2">
@@ -57643,7 +57891,7 @@
       <c r="H1385" s="9"/>
       <c r="I1385"/>
       <c r="J1385" s="1" t="s">
-        <v>4450</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1386" spans="1:10" x14ac:dyDescent="0.2">
@@ -57668,7 +57916,7 @@
       <c r="H1386" s="9"/>
       <c r="I1386"/>
       <c r="J1386" s="1" t="s">
-        <v>4451</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1387" spans="1:10" x14ac:dyDescent="0.2">
@@ -57693,7 +57941,7 @@
       <c r="H1387" s="9"/>
       <c r="I1387"/>
       <c r="J1387" s="1" t="s">
-        <v>4452</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1388" spans="1:10" x14ac:dyDescent="0.2">
@@ -57721,7 +57969,7 @@
       <c r="H1388" s="9"/>
       <c r="I1388"/>
       <c r="J1388" s="1" t="s">
-        <v>4453</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1389" spans="1:10" x14ac:dyDescent="0.2">
@@ -57749,7 +57997,7 @@
       <c r="H1389" s="9"/>
       <c r="I1389"/>
       <c r="J1389" s="1" t="s">
-        <v>4454</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.2">
@@ -57774,7 +58022,7 @@
       <c r="H1390" s="9"/>
       <c r="I1390"/>
       <c r="J1390" s="1" t="s">
-        <v>4455</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1391" spans="1:10" x14ac:dyDescent="0.2">
@@ -57799,7 +58047,7 @@
       <c r="H1391" s="9"/>
       <c r="I1391"/>
       <c r="J1391" s="1" t="s">
-        <v>4456</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1392" spans="1:10" x14ac:dyDescent="0.2">
@@ -57824,7 +58072,7 @@
       <c r="H1392" s="9"/>
       <c r="I1392"/>
       <c r="J1392" s="1" t="s">
-        <v>2991</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1393" spans="1:10" x14ac:dyDescent="0.2">
@@ -57852,7 +58100,7 @@
       <c r="H1393" s="9"/>
       <c r="I1393"/>
       <c r="J1393" s="1" t="s">
-        <v>4457</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.2">
@@ -57877,7 +58125,7 @@
       <c r="H1394" s="9"/>
       <c r="I1394"/>
       <c r="J1394" s="1" t="s">
-        <v>4458</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.2">
@@ -57902,7 +58150,7 @@
       <c r="H1395" s="9"/>
       <c r="I1395"/>
       <c r="J1395" s="1" t="s">
-        <v>2942</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1396" spans="1:10" x14ac:dyDescent="0.2">
@@ -57927,7 +58175,7 @@
       <c r="H1396" s="9"/>
       <c r="I1396"/>
       <c r="J1396" s="1" t="s">
-        <v>4459</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1397" spans="1:10" x14ac:dyDescent="0.2">
@@ -57952,7 +58200,7 @@
       <c r="H1397" s="9"/>
       <c r="I1397"/>
       <c r="J1397" s="1" t="s">
-        <v>4460</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1398" spans="1:10" x14ac:dyDescent="0.2">
@@ -57977,7 +58225,7 @@
       <c r="H1398" s="9"/>
       <c r="I1398"/>
       <c r="J1398" s="1" t="s">
-        <v>4442</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1399" spans="1:10" x14ac:dyDescent="0.2">
@@ -58002,7 +58250,7 @@
       <c r="H1399" s="9"/>
       <c r="I1399"/>
       <c r="J1399" s="1" t="s">
-        <v>1449</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1400" spans="1:10" x14ac:dyDescent="0.2">
@@ -58027,7 +58275,7 @@
       <c r="H1400" s="9"/>
       <c r="I1400"/>
       <c r="J1400" s="1" t="s">
-        <v>1452</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="1401" spans="1:10" x14ac:dyDescent="0.2">
@@ -58052,7 +58300,7 @@
       <c r="H1401" s="9"/>
       <c r="I1401"/>
       <c r="J1401" s="1" t="s">
-        <v>1456</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.2">
@@ -58077,7 +58325,7 @@
       <c r="H1402" s="9"/>
       <c r="I1402"/>
       <c r="J1402" s="1" t="s">
-        <v>1459</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1403" spans="1:10" x14ac:dyDescent="0.2">
@@ -58102,7 +58350,7 @@
       <c r="H1403" s="9"/>
       <c r="I1403"/>
       <c r="J1403" s="1" t="s">
-        <v>1462</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1404" spans="1:10" x14ac:dyDescent="0.2">
@@ -58127,7 +58375,7 @@
       <c r="H1404" s="9"/>
       <c r="I1404"/>
       <c r="J1404" s="1" t="s">
-        <v>1465</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1405" spans="1:10" x14ac:dyDescent="0.2">
@@ -58155,7 +58403,7 @@
       <c r="H1405" s="9"/>
       <c r="I1405"/>
       <c r="J1405" s="1" t="s">
-        <v>1469</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1406" spans="1:10" x14ac:dyDescent="0.2">
@@ -58180,7 +58428,7 @@
       <c r="H1406" s="9"/>
       <c r="I1406"/>
       <c r="J1406" s="1" t="s">
-        <v>591</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1407" spans="1:10" x14ac:dyDescent="0.2">
@@ -58205,7 +58453,7 @@
       <c r="H1407" s="9"/>
       <c r="I1407"/>
       <c r="J1407" s="1" t="s">
-        <v>1475</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1408" spans="1:10" x14ac:dyDescent="0.2">
@@ -58230,7 +58478,7 @@
       <c r="H1408" s="9"/>
       <c r="I1408"/>
       <c r="J1408" s="1" t="s">
-        <v>1478</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1409" spans="1:10" x14ac:dyDescent="0.2">
@@ -58255,7 +58503,7 @@
       <c r="H1409" s="9"/>
       <c r="I1409"/>
       <c r="J1409" s="1" t="s">
-        <v>1480</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1410" spans="1:10" x14ac:dyDescent="0.2">
@@ -58280,7 +58528,7 @@
       <c r="H1410" s="9"/>
       <c r="I1410"/>
       <c r="J1410" s="1" t="s">
-        <v>1484</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.2">
@@ -58305,7 +58553,7 @@
       <c r="H1411" s="9"/>
       <c r="I1411"/>
       <c r="J1411" s="1" t="s">
-        <v>1487</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1412" spans="1:10" x14ac:dyDescent="0.2">
@@ -58330,7 +58578,7 @@
       <c r="H1412" s="9"/>
       <c r="I1412"/>
       <c r="J1412" s="1" t="s">
-        <v>1491</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1413" spans="1:10" x14ac:dyDescent="0.2">
@@ -58355,7 +58603,7 @@
       <c r="H1413" s="9"/>
       <c r="I1413"/>
       <c r="J1413" s="1" t="s">
-        <v>1495</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.2">
@@ -58380,7 +58628,7 @@
       <c r="H1414" s="9"/>
       <c r="I1414"/>
       <c r="J1414" s="1" t="s">
-        <v>1498</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1415" spans="1:10" x14ac:dyDescent="0.2">
@@ -58405,7 +58653,7 @@
       <c r="H1415" s="9"/>
       <c r="I1415"/>
       <c r="J1415" s="1" t="s">
-        <v>1501</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1416" spans="1:10" x14ac:dyDescent="0.2">
@@ -58430,7 +58678,7 @@
       <c r="H1416" s="9"/>
       <c r="I1416"/>
       <c r="J1416" s="1" t="s">
-        <v>1504</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1417" spans="1:10" x14ac:dyDescent="0.2">
@@ -58455,7 +58703,7 @@
       <c r="H1417" s="9"/>
       <c r="I1417"/>
       <c r="J1417" s="1" t="s">
-        <v>1507</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1418" spans="1:10" x14ac:dyDescent="0.2">
@@ -58479,8 +58727,8 @@
       </c>
       <c r="H1418" s="9"/>
       <c r="I1418"/>
-      <c r="J1418" s="4" t="s">
-        <v>1297</v>
+      <c r="J1418" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="1419" spans="1:10" x14ac:dyDescent="0.2">
@@ -58505,7 +58753,7 @@
       <c r="H1419" s="9"/>
       <c r="I1419"/>
       <c r="J1419" s="1" t="s">
-        <v>1513</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1420" spans="1:10" x14ac:dyDescent="0.2">
@@ -58530,7 +58778,7 @@
       <c r="H1420" s="9"/>
       <c r="I1420"/>
       <c r="J1420" s="1" t="s">
-        <v>1517</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1421" spans="1:10" x14ac:dyDescent="0.2">
@@ -58555,7 +58803,7 @@
       <c r="H1421" s="9"/>
       <c r="I1421"/>
       <c r="J1421" s="1" t="s">
-        <v>1520</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1422" spans="1:10" x14ac:dyDescent="0.2">
@@ -58580,7 +58828,7 @@
       <c r="H1422" s="9"/>
       <c r="I1422"/>
       <c r="J1422" s="1" t="s">
-        <v>1524</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1423" spans="1:10" x14ac:dyDescent="0.2">
@@ -58605,7 +58853,7 @@
       <c r="H1423" s="9"/>
       <c r="I1423"/>
       <c r="J1423" s="1" t="s">
-        <v>1528</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1424" spans="1:10" x14ac:dyDescent="0.2">
@@ -58630,7 +58878,7 @@
       <c r="H1424" s="9"/>
       <c r="I1424"/>
       <c r="J1424" s="1" t="s">
-        <v>1532</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1425" spans="1:10" x14ac:dyDescent="0.2">
@@ -58655,7 +58903,7 @@
       <c r="H1425" s="9"/>
       <c r="I1425"/>
       <c r="J1425" s="1" t="s">
-        <v>1535</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.2">
@@ -58680,7 +58928,7 @@
       <c r="H1426" s="9"/>
       <c r="I1426"/>
       <c r="J1426" s="1" t="s">
-        <v>1538</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.2">
@@ -58705,7 +58953,7 @@
       <c r="H1427" s="9"/>
       <c r="I1427"/>
       <c r="J1427" s="1" t="s">
-        <v>1542</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1428" spans="1:10" x14ac:dyDescent="0.2">
@@ -58730,7 +58978,7 @@
       <c r="H1428" s="9"/>
       <c r="I1428"/>
       <c r="J1428" s="1" t="s">
-        <v>1546</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.2">
@@ -58755,7 +59003,7 @@
       <c r="H1429" s="9"/>
       <c r="I1429"/>
       <c r="J1429" s="1" t="s">
-        <v>1550</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.2">
@@ -58780,7 +59028,7 @@
       <c r="H1430" s="9"/>
       <c r="I1430"/>
       <c r="J1430" s="1" t="s">
-        <v>1553</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.2">
@@ -58805,7 +59053,7 @@
       <c r="H1431" s="9"/>
       <c r="I1431"/>
       <c r="J1431" s="1" t="s">
-        <v>1556</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.2">
@@ -58833,7 +59081,7 @@
       <c r="H1432" s="9"/>
       <c r="I1432"/>
       <c r="J1432" s="1" t="s">
-        <v>1560</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.2">
@@ -58858,7 +59106,7 @@
       <c r="H1433" s="9"/>
       <c r="I1433"/>
       <c r="J1433" s="1" t="s">
-        <v>1564</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.2">
@@ -58883,7 +59131,7 @@
       <c r="H1434" s="9"/>
       <c r="I1434"/>
       <c r="J1434" s="1" t="s">
-        <v>1567</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.2">
@@ -58908,7 +59156,7 @@
       <c r="H1435" s="9"/>
       <c r="I1435"/>
       <c r="J1435" s="1" t="s">
-        <v>1570</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.2">
@@ -58933,7 +59181,7 @@
       <c r="H1436" s="9"/>
       <c r="I1436"/>
       <c r="J1436" s="1" t="s">
-        <v>1573</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.2">
@@ -58958,7 +59206,7 @@
       <c r="H1437" s="9"/>
       <c r="I1437"/>
       <c r="J1437" s="1" t="s">
-        <v>1577</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1438" spans="1:10" x14ac:dyDescent="0.2">
@@ -58983,7 +59231,7 @@
       <c r="H1438" s="9"/>
       <c r="I1438"/>
       <c r="J1438" s="1" t="s">
-        <v>1581</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.2">
@@ -59008,7 +59256,7 @@
       <c r="H1439" s="9"/>
       <c r="I1439"/>
       <c r="J1439" s="1" t="s">
-        <v>1585</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.2">
@@ -59036,7 +59284,7 @@
       <c r="H1440" s="9"/>
       <c r="I1440"/>
       <c r="J1440" s="1" t="s">
-        <v>4461</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.2">
@@ -59061,7 +59309,7 @@
       <c r="H1441" s="9"/>
       <c r="I1441"/>
       <c r="J1441" s="1" t="s">
-        <v>1804</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.2">
@@ -59086,7 +59334,7 @@
       <c r="H1442" s="9"/>
       <c r="I1442"/>
       <c r="J1442" s="1" t="s">
-        <v>3062</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.2">
@@ -59111,7 +59359,7 @@
       <c r="H1443" s="9"/>
       <c r="I1443"/>
       <c r="J1443" s="1" t="s">
-        <v>4462</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.2">
@@ -59136,7 +59384,7 @@
       <c r="H1444" s="9"/>
       <c r="I1444"/>
       <c r="J1444" s="1" t="s">
-        <v>4463</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.2">
@@ -59161,7 +59409,7 @@
       <c r="H1445" s="9"/>
       <c r="I1445"/>
       <c r="J1445" s="1" t="s">
-        <v>4464</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.2">
@@ -59186,7 +59434,7 @@
       <c r="H1446" s="9"/>
       <c r="I1446"/>
       <c r="J1446" s="1" t="s">
-        <v>4465</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.2">
@@ -59211,7 +59459,7 @@
       <c r="H1447" s="9"/>
       <c r="I1447"/>
       <c r="J1447" s="1" t="s">
-        <v>4466</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.2">
@@ -59239,7 +59487,7 @@
       <c r="H1448" s="9"/>
       <c r="I1448"/>
       <c r="J1448" s="1" t="s">
-        <v>4467</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.2">
@@ -59264,7 +59512,7 @@
       <c r="H1449" s="9"/>
       <c r="I1449"/>
       <c r="J1449" s="1" t="s">
-        <v>4468</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1450" spans="1:10" x14ac:dyDescent="0.2">
@@ -59289,7 +59537,7 @@
       <c r="H1450" s="9"/>
       <c r="I1450"/>
       <c r="J1450" s="1" t="s">
-        <v>4469</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.2">
@@ -59314,7 +59562,7 @@
       <c r="H1451" s="9"/>
       <c r="I1451"/>
       <c r="J1451" s="1" t="s">
-        <v>4470</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.2">
@@ -59339,7 +59587,7 @@
       <c r="H1452" s="9"/>
       <c r="I1452"/>
       <c r="J1452" s="1" t="s">
-        <v>4471</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1453" spans="1:10" x14ac:dyDescent="0.2">
@@ -59364,7 +59612,7 @@
       <c r="H1453" s="9"/>
       <c r="I1453"/>
       <c r="J1453" s="1" t="s">
-        <v>3037</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1454" spans="1:10" x14ac:dyDescent="0.2">
@@ -59389,7 +59637,7 @@
       <c r="H1454" s="9"/>
       <c r="I1454"/>
       <c r="J1454" s="1" t="s">
-        <v>4472</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1455" spans="1:10" x14ac:dyDescent="0.2">
@@ -59414,7 +59662,7 @@
       <c r="H1455" s="9"/>
       <c r="I1455"/>
       <c r="J1455" s="1" t="s">
-        <v>4473</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1456" spans="1:10" x14ac:dyDescent="0.2">
@@ -59439,7 +59687,7 @@
       <c r="H1456" s="9"/>
       <c r="I1456"/>
       <c r="J1456" s="1" t="s">
-        <v>4474</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1457" spans="1:10" x14ac:dyDescent="0.2">
@@ -59464,7 +59712,7 @@
       <c r="H1457" s="9"/>
       <c r="I1457"/>
       <c r="J1457" s="1" t="s">
-        <v>4475</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.2">
@@ -59489,7 +59737,7 @@
       <c r="H1458" s="9"/>
       <c r="I1458"/>
       <c r="J1458" s="1" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1459" spans="1:10" x14ac:dyDescent="0.2">
@@ -59514,7 +59762,7 @@
       <c r="H1459" s="9"/>
       <c r="I1459"/>
       <c r="J1459" s="1" t="s">
-        <v>1589</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1460" spans="1:10" x14ac:dyDescent="0.2">
@@ -59539,7 +59787,7 @@
       <c r="H1460" s="9"/>
       <c r="I1460"/>
       <c r="J1460" s="1" t="s">
-        <v>1592</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1461" spans="1:10" x14ac:dyDescent="0.2">
@@ -59564,7 +59812,7 @@
       <c r="H1461" s="9"/>
       <c r="I1461"/>
       <c r="J1461" s="1" t="s">
-        <v>1596</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.2">
@@ -59589,7 +59837,7 @@
       <c r="H1462" s="9"/>
       <c r="I1462"/>
       <c r="J1462" s="1" t="s">
-        <v>1600</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.2">
@@ -59614,7 +59862,7 @@
       <c r="H1463" s="9"/>
       <c r="I1463"/>
       <c r="J1463" s="1" t="s">
-        <v>1603</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.2">
@@ -59639,7 +59887,7 @@
       <c r="H1464" s="9"/>
       <c r="I1464"/>
       <c r="J1464" s="1" t="s">
-        <v>1606</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.2">
@@ -59664,7 +59912,7 @@
       <c r="H1465" s="9"/>
       <c r="I1465"/>
       <c r="J1465" s="1" t="s">
-        <v>1609</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.2">
@@ -59689,7 +59937,7 @@
       <c r="H1466" s="9"/>
       <c r="I1466"/>
       <c r="J1466" s="1" t="s">
-        <v>1611</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1467" spans="1:10" x14ac:dyDescent="0.2">
@@ -59714,7 +59962,7 @@
       <c r="H1467" s="9"/>
       <c r="I1467"/>
       <c r="J1467" s="1" t="s">
-        <v>1614</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.2">
@@ -59739,7 +59987,7 @@
       <c r="H1468" s="9"/>
       <c r="I1468"/>
       <c r="J1468" s="1" t="s">
-        <v>1618</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.2">
@@ -59764,7 +60012,7 @@
       <c r="H1469" s="9"/>
       <c r="I1469"/>
       <c r="J1469" s="1" t="s">
-        <v>1621</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1470" spans="1:10" x14ac:dyDescent="0.2">
@@ -59789,7 +60037,7 @@
       <c r="H1470" s="9"/>
       <c r="I1470"/>
       <c r="J1470" s="1" t="s">
-        <v>1624</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1471" spans="1:10" x14ac:dyDescent="0.2">
@@ -59814,7 +60062,7 @@
       <c r="H1471" s="9"/>
       <c r="I1471"/>
       <c r="J1471" s="1" t="s">
-        <v>1628</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1472" spans="1:10" x14ac:dyDescent="0.2">
@@ -59842,7 +60090,7 @@
       <c r="H1472" s="9"/>
       <c r="I1472"/>
       <c r="J1472" s="1" t="s">
-        <v>1632</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.2">
@@ -59867,7 +60115,7 @@
       <c r="H1473" s="9"/>
       <c r="I1473"/>
       <c r="J1473" s="1" t="s">
-        <v>1636</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1474" spans="1:10" x14ac:dyDescent="0.2">
@@ -59892,7 +60140,7 @@
       <c r="H1474" s="9"/>
       <c r="I1474"/>
       <c r="J1474" s="1" t="s">
-        <v>1639</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1475" spans="1:10" x14ac:dyDescent="0.2">
@@ -59920,7 +60168,7 @@
       <c r="H1475" s="9"/>
       <c r="I1475"/>
       <c r="J1475" s="1" t="s">
-        <v>1642</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1476" spans="1:10" x14ac:dyDescent="0.2">
@@ -59945,7 +60193,7 @@
       <c r="H1476" s="9"/>
       <c r="I1476"/>
       <c r="J1476" s="1" t="s">
-        <v>1646</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1477" spans="1:10" x14ac:dyDescent="0.2">
@@ -59970,7 +60218,7 @@
       <c r="H1477" s="9"/>
       <c r="I1477"/>
       <c r="J1477" s="1" t="s">
-        <v>1122</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.2">
@@ -59995,7 +60243,7 @@
       <c r="H1478" s="9"/>
       <c r="I1478"/>
       <c r="J1478" s="1" t="s">
-        <v>1652</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1479" spans="1:10" x14ac:dyDescent="0.2">
@@ -60019,8 +60267,8 @@
       </c>
       <c r="H1479" s="9"/>
       <c r="I1479"/>
-      <c r="J1479" s="1" t="s">
-        <v>1655</v>
+      <c r="J1479" s="4" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.2">
@@ -60045,7 +60293,7 @@
       <c r="H1480" s="9"/>
       <c r="I1480"/>
       <c r="J1480" s="1" t="s">
-        <v>1658</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1481" spans="1:10" x14ac:dyDescent="0.2">
@@ -60070,7 +60318,7 @@
       <c r="H1481" s="9"/>
       <c r="I1481"/>
       <c r="J1481" s="1" t="s">
-        <v>1661</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1482" spans="1:10" x14ac:dyDescent="0.2">
@@ -60095,7 +60343,7 @@
       <c r="H1482" s="9"/>
       <c r="I1482"/>
       <c r="J1482" s="1" t="s">
-        <v>1664</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1483" spans="1:10" x14ac:dyDescent="0.2">
@@ -60123,7 +60371,7 @@
       <c r="H1483" s="9"/>
       <c r="I1483"/>
       <c r="J1483" s="1" t="s">
-        <v>1667</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1484" spans="1:10" x14ac:dyDescent="0.2">
@@ -60148,7 +60396,7 @@
       <c r="H1484" s="9"/>
       <c r="I1484"/>
       <c r="J1484" s="1" t="s">
-        <v>1670</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1485" spans="1:10" x14ac:dyDescent="0.2">
@@ -60173,7 +60421,7 @@
       <c r="H1485" s="9"/>
       <c r="I1485"/>
       <c r="J1485" s="1" t="s">
-        <v>1673</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1486" spans="1:10" x14ac:dyDescent="0.2">
@@ -60198,7 +60446,7 @@
       <c r="H1486" s="9"/>
       <c r="I1486"/>
       <c r="J1486" s="1" t="s">
-        <v>1677</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1487" spans="1:10" x14ac:dyDescent="0.2">
@@ -60223,7 +60471,7 @@
       <c r="H1487" s="9"/>
       <c r="I1487"/>
       <c r="J1487" s="1" t="s">
-        <v>445</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1488" spans="1:10" x14ac:dyDescent="0.2">
@@ -60248,7 +60496,7 @@
       <c r="H1488" s="9"/>
       <c r="I1488"/>
       <c r="J1488" s="1" t="s">
-        <v>1682</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1489" spans="1:10" x14ac:dyDescent="0.2">
@@ -60273,7 +60521,7 @@
       <c r="H1489" s="9"/>
       <c r="I1489"/>
       <c r="J1489" s="1" t="s">
-        <v>1685</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1490" spans="1:10" x14ac:dyDescent="0.2">
@@ -60298,7 +60546,7 @@
       <c r="H1490" s="9"/>
       <c r="I1490"/>
       <c r="J1490" s="1" t="s">
-        <v>1688</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1491" spans="1:10" x14ac:dyDescent="0.2">
@@ -60323,7 +60571,7 @@
       <c r="H1491" s="9"/>
       <c r="I1491"/>
       <c r="J1491" s="1" t="s">
-        <v>1691</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1492" spans="1:10" x14ac:dyDescent="0.2">
@@ -60348,7 +60596,7 @@
       <c r="H1492" s="9"/>
       <c r="I1492"/>
       <c r="J1492" s="1" t="s">
-        <v>1694</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1493" spans="1:10" x14ac:dyDescent="0.2">
@@ -60373,7 +60621,7 @@
       <c r="H1493" s="9"/>
       <c r="I1493"/>
       <c r="J1493" s="1" t="s">
-        <v>1697</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.2">
@@ -60398,7 +60646,7 @@
       <c r="H1494" s="9"/>
       <c r="I1494"/>
       <c r="J1494" s="1" t="s">
-        <v>1700</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1495" spans="1:10" x14ac:dyDescent="0.2">
@@ -60423,7 +60671,7 @@
       <c r="H1495" s="9"/>
       <c r="I1495"/>
       <c r="J1495" s="1" t="s">
-        <v>1704</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1496" spans="1:10" x14ac:dyDescent="0.2">
@@ -60448,7 +60696,7 @@
       <c r="H1496" s="9"/>
       <c r="I1496"/>
       <c r="J1496" s="1" t="s">
-        <v>1708</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1497" spans="1:10" x14ac:dyDescent="0.2">
@@ -60473,7 +60721,7 @@
       <c r="H1497" s="9"/>
       <c r="I1497"/>
       <c r="J1497" s="1" t="s">
-        <v>1711</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1498" spans="1:10" x14ac:dyDescent="0.2">
@@ -60498,7 +60746,7 @@
       <c r="H1498" s="9"/>
       <c r="I1498"/>
       <c r="J1498" s="1" t="s">
-        <v>1714</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1499" spans="1:10" x14ac:dyDescent="0.2">
@@ -60523,7 +60771,7 @@
       <c r="H1499" s="9"/>
       <c r="I1499"/>
       <c r="J1499" s="1" t="s">
-        <v>4476</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1500" spans="1:10" x14ac:dyDescent="0.2">
@@ -60548,7 +60796,7 @@
       <c r="H1500" s="9"/>
       <c r="I1500"/>
       <c r="J1500" s="1" t="s">
-        <v>3247</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1501" spans="1:10" x14ac:dyDescent="0.2">
@@ -60573,7 +60821,7 @@
       <c r="H1501" s="9"/>
       <c r="I1501"/>
       <c r="J1501" s="1" t="s">
-        <v>4477</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1502" spans="1:10" x14ac:dyDescent="0.2">
@@ -60598,7 +60846,7 @@
       <c r="H1502" s="9"/>
       <c r="I1502"/>
       <c r="J1502" s="1" t="s">
-        <v>4478</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.2">
@@ -60623,7 +60871,7 @@
       <c r="H1503" s="9"/>
       <c r="I1503"/>
       <c r="J1503" s="1" t="s">
-        <v>4479</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1504" spans="1:10" x14ac:dyDescent="0.2">
@@ -60648,7 +60896,7 @@
       <c r="H1504" s="9"/>
       <c r="I1504"/>
       <c r="J1504" s="1" t="s">
-        <v>4480</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.2">
@@ -60673,7 +60921,7 @@
       <c r="H1505" s="9"/>
       <c r="I1505"/>
       <c r="J1505" s="1" t="s">
-        <v>4481</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1506" spans="1:10" x14ac:dyDescent="0.2">
@@ -60698,7 +60946,7 @@
       <c r="H1506" s="9"/>
       <c r="I1506"/>
       <c r="J1506" s="1" t="s">
-        <v>3169</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1507" spans="1:10" x14ac:dyDescent="0.2">
@@ -60723,7 +60971,7 @@
       <c r="H1507" s="9"/>
       <c r="I1507"/>
       <c r="J1507" s="1" t="s">
-        <v>4482</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1508" spans="1:10" x14ac:dyDescent="0.2">
@@ -60748,7 +60996,7 @@
       <c r="H1508" s="9"/>
       <c r="I1508"/>
       <c r="J1508" s="1" t="s">
-        <v>4483</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1509" spans="1:10" x14ac:dyDescent="0.2">
@@ -60773,7 +61021,7 @@
       <c r="H1509" s="9"/>
       <c r="I1509"/>
       <c r="J1509" s="1" t="s">
-        <v>4484</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1510" spans="1:10" x14ac:dyDescent="0.2">
@@ -60798,7 +61046,7 @@
       <c r="H1510" s="9"/>
       <c r="I1510"/>
       <c r="J1510" s="1" t="s">
-        <v>4485</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1511" spans="1:10" x14ac:dyDescent="0.2">
@@ -60823,7 +61071,7 @@
       <c r="H1511" s="9"/>
       <c r="I1511"/>
       <c r="J1511" s="1" t="s">
-        <v>4486</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1512" spans="1:10" x14ac:dyDescent="0.2">
@@ -60848,7 +61096,7 @@
       <c r="H1512" s="9"/>
       <c r="I1512"/>
       <c r="J1512" s="1" t="s">
-        <v>4487</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1513" spans="1:10" x14ac:dyDescent="0.2">
@@ -60873,7 +61121,7 @@
       <c r="H1513" s="9"/>
       <c r="I1513"/>
       <c r="J1513" s="1" t="s">
-        <v>4488</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1514" spans="1:10" x14ac:dyDescent="0.2">
@@ -60901,7 +61149,7 @@
       <c r="H1514" s="9"/>
       <c r="I1514"/>
       <c r="J1514" s="1" t="s">
-        <v>1718</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1515" spans="1:10" x14ac:dyDescent="0.2">
@@ -60926,7 +61174,7 @@
       <c r="H1515" s="9"/>
       <c r="I1515"/>
       <c r="J1515" s="1" t="s">
-        <v>1722</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1516" spans="1:10" x14ac:dyDescent="0.2">
@@ -60951,7 +61199,7 @@
       <c r="H1516" s="9"/>
       <c r="I1516"/>
       <c r="J1516" s="1" t="s">
-        <v>1725</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1517" spans="1:10" x14ac:dyDescent="0.2">
@@ -60976,7 +61224,7 @@
       <c r="H1517" s="9"/>
       <c r="I1517"/>
       <c r="J1517" s="1" t="s">
-        <v>1729</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1518" spans="1:10" x14ac:dyDescent="0.2">
@@ -61001,7 +61249,7 @@
       <c r="H1518" s="9"/>
       <c r="I1518"/>
       <c r="J1518" s="1" t="s">
-        <v>1732</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1519" spans="1:10" x14ac:dyDescent="0.2">
@@ -61026,7 +61274,7 @@
       <c r="H1519" s="9"/>
       <c r="I1519"/>
       <c r="J1519" s="1" t="s">
-        <v>1737</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1520" spans="1:10" x14ac:dyDescent="0.2">
@@ -61051,7 +61299,7 @@
       <c r="H1520" s="9"/>
       <c r="I1520"/>
       <c r="J1520" s="1" t="s">
-        <v>1740</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1521" spans="1:10" x14ac:dyDescent="0.2">
@@ -61079,7 +61327,7 @@
       <c r="H1521" s="9"/>
       <c r="I1521"/>
       <c r="J1521" s="1" t="s">
-        <v>1743</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1522" spans="1:10" x14ac:dyDescent="0.2">
@@ -61107,7 +61355,7 @@
       <c r="H1522" s="9"/>
       <c r="I1522"/>
       <c r="J1522" s="1" t="s">
-        <v>1747</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1523" spans="1:10" x14ac:dyDescent="0.2">
@@ -61135,7 +61383,7 @@
       <c r="H1523" s="9"/>
       <c r="I1523"/>
       <c r="J1523" s="1" t="s">
-        <v>1750</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1524" spans="1:10" x14ac:dyDescent="0.2">
@@ -61163,7 +61411,7 @@
       <c r="H1524" s="9"/>
       <c r="I1524"/>
       <c r="J1524" s="1" t="s">
-        <v>1754</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1525" spans="1:10" x14ac:dyDescent="0.2">
@@ -61188,7 +61436,7 @@
       <c r="H1525" s="9"/>
       <c r="I1525"/>
       <c r="J1525" s="1" t="s">
-        <v>1757</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1526" spans="1:10" x14ac:dyDescent="0.2">
@@ -61213,7 +61461,7 @@
       <c r="H1526" s="9"/>
       <c r="I1526"/>
       <c r="J1526" s="1" t="s">
-        <v>1760</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1527" spans="1:10" x14ac:dyDescent="0.2">
@@ -61241,7 +61489,7 @@
       <c r="H1527" s="9"/>
       <c r="I1527"/>
       <c r="J1527" s="1" t="s">
-        <v>1763</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1528" spans="1:10" x14ac:dyDescent="0.2">
@@ -61266,7 +61514,7 @@
       <c r="H1528" s="9"/>
       <c r="I1528"/>
       <c r="J1528" s="1" t="s">
-        <v>1766</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1529" spans="1:10" x14ac:dyDescent="0.2">
@@ -61291,7 +61539,7 @@
       <c r="H1529" s="9"/>
       <c r="I1529"/>
       <c r="J1529" s="1" t="s">
-        <v>1769</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1530" spans="1:10" x14ac:dyDescent="0.2">
@@ -61316,7 +61564,7 @@
       <c r="H1530" s="9"/>
       <c r="I1530"/>
       <c r="J1530" s="1" t="s">
-        <v>1772</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1531" spans="1:10" x14ac:dyDescent="0.2">
@@ -61341,7 +61589,7 @@
       <c r="H1531" s="9"/>
       <c r="I1531"/>
       <c r="J1531" s="1" t="s">
-        <v>1775</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1532" spans="1:10" x14ac:dyDescent="0.2">
@@ -61366,7 +61614,7 @@
       <c r="H1532" s="9"/>
       <c r="I1532"/>
       <c r="J1532" s="1" t="s">
-        <v>1778</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1533" spans="1:10" x14ac:dyDescent="0.2">
@@ -61391,7 +61639,7 @@
       <c r="H1533" s="9"/>
       <c r="I1533"/>
       <c r="J1533" s="1" t="s">
-        <v>1782</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1534" spans="1:10" x14ac:dyDescent="0.2">
@@ -61419,7 +61667,7 @@
       <c r="H1534" s="9"/>
       <c r="I1534"/>
       <c r="J1534" s="1" t="s">
-        <v>1784</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1535" spans="1:10" x14ac:dyDescent="0.2">
@@ -61444,7 +61692,7 @@
       <c r="H1535" s="9"/>
       <c r="I1535"/>
       <c r="J1535" s="1" t="s">
-        <v>1787</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1536" spans="1:10" x14ac:dyDescent="0.2">
@@ -61469,7 +61717,7 @@
       <c r="H1536" s="9"/>
       <c r="I1536"/>
       <c r="J1536" s="1" t="s">
-        <v>1791</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1537" spans="1:10" x14ac:dyDescent="0.2">
@@ -61497,7 +61745,7 @@
       <c r="H1537" s="9"/>
       <c r="I1537"/>
       <c r="J1537" s="1" t="s">
-        <v>1795</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1538" spans="1:10" x14ac:dyDescent="0.2">
@@ -61522,7 +61770,7 @@
       <c r="H1538" s="9"/>
       <c r="I1538"/>
       <c r="J1538" s="1" t="s">
-        <v>1797</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1539" spans="1:10" x14ac:dyDescent="0.2">
@@ -61547,7 +61795,7 @@
       <c r="H1539" s="9"/>
       <c r="I1539"/>
       <c r="J1539" s="1" t="s">
-        <v>1799</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1540" spans="1:10" x14ac:dyDescent="0.2">
@@ -61572,7 +61820,7 @@
       <c r="H1540" s="9"/>
       <c r="I1540"/>
       <c r="J1540" s="1" t="s">
-        <v>1803</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1541" spans="1:10" x14ac:dyDescent="0.2">
@@ -61597,7 +61845,7 @@
       <c r="H1541" s="9"/>
       <c r="I1541"/>
       <c r="J1541" s="1" t="s">
-        <v>1807</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1542" spans="1:10" x14ac:dyDescent="0.2">
@@ -61622,7 +61870,7 @@
       <c r="H1542" s="9"/>
       <c r="I1542"/>
       <c r="J1542" s="1" t="s">
-        <v>1810</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1543" spans="1:10" x14ac:dyDescent="0.2">
@@ -61647,7 +61895,7 @@
       <c r="H1543" s="9"/>
       <c r="I1543"/>
       <c r="J1543" s="1" t="s">
-        <v>1813</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1544" spans="1:10" x14ac:dyDescent="0.2">
@@ -61672,7 +61920,7 @@
       <c r="H1544" s="9"/>
       <c r="I1544"/>
       <c r="J1544" s="1" t="s">
-        <v>1816</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1545" spans="1:10" x14ac:dyDescent="0.2">
@@ -61697,7 +61945,7 @@
       <c r="H1545" s="9"/>
       <c r="I1545"/>
       <c r="J1545" s="1" t="s">
-        <v>1821</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1546" spans="1:10" x14ac:dyDescent="0.2">
@@ -61722,7 +61970,7 @@
       <c r="H1546" s="9"/>
       <c r="I1546"/>
       <c r="J1546" s="1" t="s">
-        <v>1824</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1547" spans="1:10" x14ac:dyDescent="0.2">
@@ -61747,7 +61995,7 @@
       <c r="H1547" s="9"/>
       <c r="I1547"/>
       <c r="J1547" s="1" t="s">
-        <v>1828</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1548" spans="1:10" x14ac:dyDescent="0.2">
@@ -61772,7 +62020,7 @@
       <c r="H1548" s="9"/>
       <c r="I1548"/>
       <c r="J1548" s="1" t="s">
-        <v>1832</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1549" spans="1:10" x14ac:dyDescent="0.2">
@@ -61797,7 +62045,7 @@
       <c r="H1549" s="9"/>
       <c r="I1549"/>
       <c r="J1549" s="1" t="s">
-        <v>1836</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1550" spans="1:10" x14ac:dyDescent="0.2">
@@ -61822,7 +62070,7 @@
       <c r="H1550" s="9"/>
       <c r="I1550"/>
       <c r="J1550" s="1" t="s">
-        <v>1840</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1551" spans="1:10" x14ac:dyDescent="0.2">
@@ -61847,7 +62095,7 @@
       <c r="H1551" s="9"/>
       <c r="I1551"/>
       <c r="J1551" s="1" t="s">
-        <v>1843</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1552" spans="1:10" x14ac:dyDescent="0.2">
@@ -61872,7 +62120,7 @@
       <c r="H1552" s="9"/>
       <c r="I1552"/>
       <c r="J1552" s="1" t="s">
-        <v>1846</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1553" spans="1:10" x14ac:dyDescent="0.2">
@@ -61897,7 +62145,7 @@
       <c r="H1553" s="9"/>
       <c r="I1553"/>
       <c r="J1553" s="1" t="s">
-        <v>1850</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1554" spans="1:10" x14ac:dyDescent="0.2">
@@ -61922,7 +62170,7 @@
       <c r="H1554" s="9"/>
       <c r="I1554"/>
       <c r="J1554" s="1" t="s">
-        <v>1853</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1555" spans="1:10" x14ac:dyDescent="0.2">
@@ -61947,7 +62195,7 @@
       <c r="H1555" s="9"/>
       <c r="I1555"/>
       <c r="J1555" s="1" t="s">
-        <v>1856</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1556" spans="1:10" x14ac:dyDescent="0.2">
@@ -61972,7 +62220,7 @@
       <c r="H1556" s="9"/>
       <c r="I1556"/>
       <c r="J1556" s="1" t="s">
-        <v>1859</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1557" spans="1:10" x14ac:dyDescent="0.2">
@@ -61997,7 +62245,7 @@
       <c r="H1557" s="9"/>
       <c r="I1557"/>
       <c r="J1557" s="1" t="s">
-        <v>4489</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1558" spans="1:10" x14ac:dyDescent="0.2">
@@ -62022,7 +62270,7 @@
       <c r="H1558" s="9"/>
       <c r="I1558"/>
       <c r="J1558" s="1" t="s">
-        <v>4490</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1559" spans="1:10" x14ac:dyDescent="0.2">
@@ -62047,7 +62295,7 @@
       <c r="H1559" s="9"/>
       <c r="I1559"/>
       <c r="J1559" s="1" t="s">
-        <v>4491</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1560" spans="1:10" x14ac:dyDescent="0.2">
@@ -62072,7 +62320,7 @@
       <c r="H1560" s="9"/>
       <c r="I1560"/>
       <c r="J1560" s="1" t="s">
-        <v>3348</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1561" spans="1:10" x14ac:dyDescent="0.2">
@@ -62097,7 +62345,7 @@
       <c r="H1561" s="9"/>
       <c r="I1561"/>
       <c r="J1561" s="1" t="s">
-        <v>4492</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1562" spans="1:10" x14ac:dyDescent="0.2">
@@ -62122,7 +62370,7 @@
       <c r="H1562" s="9"/>
       <c r="I1562"/>
       <c r="J1562" s="1" t="s">
-        <v>4307</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1563" spans="1:10" x14ac:dyDescent="0.2">
@@ -62147,7 +62395,7 @@
       <c r="H1563" s="9"/>
       <c r="I1563"/>
       <c r="J1563" s="1" t="s">
-        <v>4493</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1564" spans="1:10" x14ac:dyDescent="0.2">
@@ -62172,7 +62420,7 @@
       <c r="H1564" s="9"/>
       <c r="I1564"/>
       <c r="J1564" s="1" t="s">
-        <v>4494</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1565" spans="1:10" x14ac:dyDescent="0.2">
@@ -62197,7 +62445,7 @@
       <c r="H1565" s="9"/>
       <c r="I1565"/>
       <c r="J1565" s="1" t="s">
-        <v>4489</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1566" spans="1:10" x14ac:dyDescent="0.2">
@@ -62222,7 +62470,7 @@
       <c r="H1566" s="9"/>
       <c r="I1566"/>
       <c r="J1566" s="1" t="s">
-        <v>4490</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1567" spans="1:10" x14ac:dyDescent="0.2">
@@ -62247,7 +62495,7 @@
       <c r="H1567" s="9"/>
       <c r="I1567"/>
       <c r="J1567" s="1" t="s">
-        <v>1862</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1568" spans="1:10" x14ac:dyDescent="0.2">
@@ -62272,7 +62520,7 @@
       <c r="H1568" s="9"/>
       <c r="I1568"/>
       <c r="J1568" s="1" t="s">
-        <v>1865</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1569" spans="1:10" x14ac:dyDescent="0.2">
@@ -62297,7 +62545,7 @@
       <c r="H1569" s="9"/>
       <c r="I1569"/>
       <c r="J1569" s="1" t="s">
-        <v>402</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1570" spans="1:10" x14ac:dyDescent="0.2">
@@ -62322,7 +62570,7 @@
       <c r="H1570" s="9"/>
       <c r="I1570"/>
       <c r="J1570" s="1" t="s">
-        <v>107</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1571" spans="1:10" x14ac:dyDescent="0.2">
@@ -62347,7 +62595,7 @@
       <c r="H1571" s="9"/>
       <c r="I1571"/>
       <c r="J1571" s="1" t="s">
-        <v>1873</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1572" spans="1:10" x14ac:dyDescent="0.2">
@@ -62372,7 +62620,7 @@
       <c r="H1572" s="9"/>
       <c r="I1572"/>
       <c r="J1572" s="1" t="s">
-        <v>1876</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1573" spans="1:10" x14ac:dyDescent="0.2">
@@ -62397,7 +62645,7 @@
       <c r="H1573" s="9"/>
       <c r="I1573"/>
       <c r="J1573" s="1" t="s">
-        <v>1879</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1574" spans="1:10" x14ac:dyDescent="0.2">
@@ -62422,7 +62670,7 @@
       <c r="H1574" s="9"/>
       <c r="I1574"/>
       <c r="J1574" s="1" t="s">
-        <v>1883</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1575" spans="1:10" x14ac:dyDescent="0.2">
@@ -62447,7 +62695,7 @@
       <c r="H1575" s="9"/>
       <c r="I1575"/>
       <c r="J1575" s="1" t="s">
-        <v>214</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1576" spans="1:10" x14ac:dyDescent="0.2">
@@ -62472,7 +62720,7 @@
       <c r="H1576" s="9"/>
       <c r="I1576"/>
       <c r="J1576" s="1" t="s">
-        <v>1889</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1577" spans="1:10" x14ac:dyDescent="0.2">
@@ -62497,7 +62745,7 @@
       <c r="H1577" s="9"/>
       <c r="I1577"/>
       <c r="J1577" s="1" t="s">
-        <v>1891</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1578" spans="1:10" x14ac:dyDescent="0.2">
@@ -62522,7 +62770,7 @@
       <c r="H1578" s="9"/>
       <c r="I1578"/>
       <c r="J1578" s="1" t="s">
-        <v>1895</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1579" spans="1:10" x14ac:dyDescent="0.2">
@@ -62547,7 +62795,7 @@
       <c r="H1579" s="9"/>
       <c r="I1579"/>
       <c r="J1579" s="1" t="s">
-        <v>1898</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1580" spans="1:10" x14ac:dyDescent="0.2">
@@ -62572,7 +62820,7 @@
       <c r="H1580" s="9"/>
       <c r="I1580"/>
       <c r="J1580" s="1" t="s">
-        <v>1901</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1581" spans="1:10" x14ac:dyDescent="0.2">
@@ -62597,7 +62845,7 @@
       <c r="H1581" s="9"/>
       <c r="I1581"/>
       <c r="J1581" s="1" t="s">
-        <v>1905</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1582" spans="1:10" x14ac:dyDescent="0.2">
@@ -62625,7 +62873,7 @@
       <c r="H1582" s="9"/>
       <c r="I1582"/>
       <c r="J1582" s="1" t="s">
-        <v>1908</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1583" spans="1:10" x14ac:dyDescent="0.2">
@@ -62650,7 +62898,7 @@
       <c r="H1583" s="9"/>
       <c r="I1583"/>
       <c r="J1583" s="1" t="s">
-        <v>1913</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1584" spans="1:10" x14ac:dyDescent="0.2">
@@ -62675,7 +62923,7 @@
       <c r="H1584" s="9"/>
       <c r="I1584"/>
       <c r="J1584" s="1" t="s">
-        <v>1916</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1585" spans="1:10" x14ac:dyDescent="0.2">
@@ -62703,7 +62951,7 @@
       <c r="H1585" s="9"/>
       <c r="I1585"/>
       <c r="J1585" s="1" t="s">
-        <v>1920</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1586" spans="1:10" x14ac:dyDescent="0.2">
@@ -62728,7 +62976,7 @@
       <c r="H1586" s="9"/>
       <c r="I1586"/>
       <c r="J1586" s="1" t="s">
-        <v>1924</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1587" spans="1:10" x14ac:dyDescent="0.2">
@@ -62753,7 +63001,7 @@
       <c r="H1587" s="9"/>
       <c r="I1587"/>
       <c r="J1587" s="1" t="s">
-        <v>1927</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1588" spans="1:10" x14ac:dyDescent="0.2">
@@ -62781,7 +63029,7 @@
       <c r="H1588" s="9"/>
       <c r="I1588"/>
       <c r="J1588" s="1" t="s">
-        <v>1931</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1589" spans="1:10" x14ac:dyDescent="0.2">
@@ -62809,7 +63057,7 @@
       <c r="H1589" s="9"/>
       <c r="I1589"/>
       <c r="J1589" s="1" t="s">
-        <v>1935</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1590" spans="1:10" x14ac:dyDescent="0.2">
@@ -62834,7 +63082,7 @@
       <c r="H1590" s="9"/>
       <c r="I1590"/>
       <c r="J1590" s="1" t="s">
-        <v>1939</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1591" spans="1:10" x14ac:dyDescent="0.2">
@@ -62862,7 +63110,7 @@
       <c r="H1591" s="9"/>
       <c r="I1591"/>
       <c r="J1591" s="1" t="s">
-        <v>1942</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1592" spans="1:10" x14ac:dyDescent="0.2">
@@ -62887,7 +63135,7 @@
       <c r="H1592" s="9"/>
       <c r="I1592"/>
       <c r="J1592" s="1" t="s">
-        <v>1945</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1593" spans="1:10" x14ac:dyDescent="0.2">
@@ -62912,7 +63160,7 @@
       <c r="H1593" s="9"/>
       <c r="I1593"/>
       <c r="J1593" s="1" t="s">
-        <v>1949</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1594" spans="1:10" x14ac:dyDescent="0.2">
@@ -62937,7 +63185,7 @@
       <c r="H1594" s="9"/>
       <c r="I1594"/>
       <c r="J1594" s="1" t="s">
-        <v>311</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1595" spans="1:10" x14ac:dyDescent="0.2">
@@ -62962,7 +63210,7 @@
       <c r="H1595" s="9"/>
       <c r="I1595"/>
       <c r="J1595" s="1" t="s">
-        <v>1955</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1596" spans="1:10" x14ac:dyDescent="0.2">
@@ -62987,7 +63235,7 @@
       <c r="H1596" s="9"/>
       <c r="I1596"/>
       <c r="J1596" s="1" t="s">
-        <v>1958</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1597" spans="1:10" x14ac:dyDescent="0.2">
@@ -63012,7 +63260,7 @@
       <c r="H1597" s="9"/>
       <c r="I1597"/>
       <c r="J1597" s="1" t="s">
-        <v>1961</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1598" spans="1:10" x14ac:dyDescent="0.2">
@@ -63037,7 +63285,7 @@
       <c r="H1598" s="9"/>
       <c r="I1598"/>
       <c r="J1598" s="1" t="s">
-        <v>1965</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1599" spans="1:10" x14ac:dyDescent="0.2">
@@ -63062,7 +63310,7 @@
       <c r="H1599" s="9"/>
       <c r="I1599"/>
       <c r="J1599" s="1" t="s">
-        <v>1968</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1600" spans="1:10" x14ac:dyDescent="0.2">
@@ -63087,7 +63335,7 @@
       <c r="H1600" s="9"/>
       <c r="I1600"/>
       <c r="J1600" s="1" t="s">
-        <v>1971</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1601" spans="1:10" x14ac:dyDescent="0.2">
@@ -63112,7 +63360,7 @@
       <c r="H1601" s="9"/>
       <c r="I1601"/>
       <c r="J1601" s="1" t="s">
-        <v>1973</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1602" spans="1:10" x14ac:dyDescent="0.2">
@@ -63137,7 +63385,7 @@
       <c r="H1602" s="9"/>
       <c r="I1602"/>
       <c r="J1602" s="1" t="s">
-        <v>1976</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1603" spans="1:10" x14ac:dyDescent="0.2">
@@ -63162,7 +63410,7 @@
       <c r="H1603" s="9"/>
       <c r="I1603"/>
       <c r="J1603" s="1" t="s">
-        <v>1979</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1604" spans="1:10" x14ac:dyDescent="0.2">
@@ -63187,7 +63435,7 @@
       <c r="H1604" s="9"/>
       <c r="I1604"/>
       <c r="J1604" s="1" t="s">
-        <v>1984</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1605" spans="1:10" x14ac:dyDescent="0.2">
@@ -63212,7 +63460,7 @@
       <c r="H1605" s="9"/>
       <c r="I1605"/>
       <c r="J1605" s="1" t="s">
-        <v>1987</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1606" spans="1:10" x14ac:dyDescent="0.2">
@@ -63240,7 +63488,7 @@
       <c r="H1606" s="9"/>
       <c r="I1606"/>
       <c r="J1606" s="1" t="s">
-        <v>1990</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1607" spans="1:10" x14ac:dyDescent="0.2">
@@ -63265,7 +63513,7 @@
       <c r="H1607" s="9"/>
       <c r="I1607"/>
       <c r="J1607" s="1" t="s">
-        <v>1993</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1608" spans="1:10" x14ac:dyDescent="0.2">
@@ -63290,7 +63538,7 @@
       <c r="H1608" s="9"/>
       <c r="I1608"/>
       <c r="J1608" s="1" t="s">
-        <v>4495</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1609" spans="1:10" x14ac:dyDescent="0.2">
@@ -63315,7 +63563,7 @@
       <c r="H1609" s="9"/>
       <c r="I1609"/>
       <c r="J1609" s="1" t="s">
-        <v>4496</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1610" spans="1:10" x14ac:dyDescent="0.2">
@@ -63340,7 +63588,7 @@
       <c r="H1610" s="9"/>
       <c r="I1610"/>
       <c r="J1610" s="1" t="s">
-        <v>4497</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1611" spans="1:10" x14ac:dyDescent="0.2">
@@ -63365,7 +63613,7 @@
       <c r="H1611" s="9"/>
       <c r="I1611"/>
       <c r="J1611" s="1" t="s">
-        <v>1996</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1612" spans="1:10" x14ac:dyDescent="0.2">
@@ -63390,7 +63638,7 @@
       <c r="H1612" s="9"/>
       <c r="I1612"/>
       <c r="J1612" s="1" t="s">
-        <v>2000</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1613" spans="1:10" x14ac:dyDescent="0.2">
@@ -63415,7 +63663,7 @@
       <c r="H1613" s="9"/>
       <c r="I1613"/>
       <c r="J1613" s="1" t="s">
-        <v>2004</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1614" spans="1:10" x14ac:dyDescent="0.2">
@@ -63440,7 +63688,7 @@
       <c r="H1614" s="9"/>
       <c r="I1614"/>
       <c r="J1614" s="1" t="s">
-        <v>783</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1615" spans="1:10" x14ac:dyDescent="0.2">
@@ -63465,7 +63713,7 @@
       <c r="H1615" s="9"/>
       <c r="I1615"/>
       <c r="J1615" s="1" t="s">
-        <v>2011</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1616" spans="1:10" x14ac:dyDescent="0.2">
@@ -63493,7 +63741,7 @@
       <c r="H1616" s="9"/>
       <c r="I1616"/>
       <c r="J1616" s="1" t="s">
-        <v>2014</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1617" spans="1:10" x14ac:dyDescent="0.2">
@@ -63517,8 +63765,8 @@
       </c>
       <c r="H1617" s="9"/>
       <c r="I1617"/>
-      <c r="J1617" s="1">
-        <v>300</v>
+      <c r="J1617" s="1" t="s">
+        <v>1859</v>
       </c>
     </row>
     <row r="1618" spans="1:10" x14ac:dyDescent="0.2">
@@ -63543,7 +63791,7 @@
       <c r="H1618" s="9"/>
       <c r="I1618"/>
       <c r="J1618" s="1" t="s">
-        <v>2021</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1619" spans="1:10" x14ac:dyDescent="0.2">
@@ -63568,7 +63816,7 @@
       <c r="H1619" s="9"/>
       <c r="I1619"/>
       <c r="J1619" s="1" t="s">
-        <v>2025</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1620" spans="1:10" x14ac:dyDescent="0.2">
@@ -63593,7 +63841,7 @@
       <c r="H1620" s="9"/>
       <c r="I1620"/>
       <c r="J1620" s="1" t="s">
-        <v>2027</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1621" spans="1:10" x14ac:dyDescent="0.2">
@@ -63618,7 +63866,7 @@
       <c r="H1621" s="9"/>
       <c r="I1621"/>
       <c r="J1621" s="1" t="s">
-        <v>2030</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1622" spans="1:10" x14ac:dyDescent="0.2">
@@ -63643,7 +63891,7 @@
       <c r="H1622" s="9"/>
       <c r="I1622"/>
       <c r="J1622" s="1" t="s">
-        <v>2033</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1623" spans="1:10" x14ac:dyDescent="0.2">
@@ -63668,7 +63916,7 @@
       <c r="H1623" s="9"/>
       <c r="I1623"/>
       <c r="J1623" s="1" t="s">
-        <v>2038</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1624" spans="1:10" x14ac:dyDescent="0.2">
@@ -63693,7 +63941,7 @@
       <c r="H1624" s="9"/>
       <c r="I1624"/>
       <c r="J1624" s="1" t="s">
-        <v>2041</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1625" spans="1:10" x14ac:dyDescent="0.2">
@@ -63718,7 +63966,7 @@
       <c r="H1625" s="9"/>
       <c r="I1625"/>
       <c r="J1625" s="1" t="s">
-        <v>2044</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1626" spans="1:10" x14ac:dyDescent="0.2">
@@ -63743,7 +63991,7 @@
       <c r="H1626" s="9"/>
       <c r="I1626"/>
       <c r="J1626" s="1" t="s">
-        <v>2048</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1627" spans="1:10" x14ac:dyDescent="0.2">
@@ -63768,7 +64016,7 @@
       <c r="H1627" s="9"/>
       <c r="I1627"/>
       <c r="J1627" s="1" t="s">
-        <v>2051</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1628" spans="1:10" x14ac:dyDescent="0.2">
@@ -63793,7 +64041,7 @@
       <c r="H1628" s="9"/>
       <c r="I1628"/>
       <c r="J1628" s="1" t="s">
-        <v>2055</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1629" spans="1:10" x14ac:dyDescent="0.2">
@@ -63818,7 +64066,7 @@
       <c r="H1629" s="9"/>
       <c r="I1629"/>
       <c r="J1629" s="1" t="s">
-        <v>2059</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1630" spans="1:10" x14ac:dyDescent="0.2">
@@ -63843,7 +64091,7 @@
       <c r="H1630" s="9"/>
       <c r="I1630"/>
       <c r="J1630" s="1" t="s">
-        <v>2061</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1631" spans="1:10" x14ac:dyDescent="0.2">
@@ -63868,7 +64116,7 @@
       <c r="H1631" s="9"/>
       <c r="I1631"/>
       <c r="J1631" s="1" t="s">
-        <v>2064</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1632" spans="1:10" x14ac:dyDescent="0.2">
@@ -63893,7 +64141,7 @@
       <c r="H1632" s="9"/>
       <c r="I1632"/>
       <c r="J1632" s="1" t="s">
-        <v>2068</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1633" spans="1:10" x14ac:dyDescent="0.2">
@@ -63918,7 +64166,7 @@
       <c r="H1633" s="9"/>
       <c r="I1633"/>
       <c r="J1633" s="1" t="s">
-        <v>2071</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1634" spans="1:10" x14ac:dyDescent="0.2">
@@ -63943,7 +64191,7 @@
       <c r="H1634" s="9"/>
       <c r="I1634"/>
       <c r="J1634" s="1" t="s">
-        <v>2074</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1635" spans="1:10" x14ac:dyDescent="0.2">
@@ -63968,7 +64216,7 @@
       <c r="H1635" s="9"/>
       <c r="I1635"/>
       <c r="J1635" s="1" t="s">
-        <v>2077</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1636" spans="1:10" x14ac:dyDescent="0.2">
@@ -63993,7 +64241,7 @@
       <c r="H1636" s="9"/>
       <c r="I1636"/>
       <c r="J1636" s="1" t="s">
-        <v>2081</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1637" spans="1:10" x14ac:dyDescent="0.2">
@@ -64018,7 +64266,7 @@
       <c r="H1637" s="9"/>
       <c r="I1637"/>
       <c r="J1637" s="1" t="s">
-        <v>2084</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1638" spans="1:10" x14ac:dyDescent="0.2">
@@ -64043,7 +64291,7 @@
       <c r="H1638" s="9"/>
       <c r="I1638"/>
       <c r="J1638" s="1" t="s">
-        <v>2088</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1639" spans="1:10" x14ac:dyDescent="0.2">
@@ -64068,7 +64316,7 @@
       <c r="H1639" s="9"/>
       <c r="I1639"/>
       <c r="J1639" s="1" t="s">
-        <v>2091</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1640" spans="1:10" x14ac:dyDescent="0.2">
@@ -64093,7 +64341,7 @@
       <c r="H1640" s="9"/>
       <c r="I1640"/>
       <c r="J1640" s="1" t="s">
-        <v>2095</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1641" spans="1:10" x14ac:dyDescent="0.2">
@@ -64118,7 +64366,7 @@
       <c r="H1641" s="9"/>
       <c r="I1641"/>
       <c r="J1641" s="1" t="s">
-        <v>2097</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1642" spans="1:10" x14ac:dyDescent="0.2">
@@ -64143,7 +64391,7 @@
       <c r="H1642" s="9"/>
       <c r="I1642"/>
       <c r="J1642" s="1" t="s">
-        <v>2100</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1643" spans="1:10" x14ac:dyDescent="0.2">
@@ -64168,7 +64416,7 @@
       <c r="H1643" s="9"/>
       <c r="I1643"/>
       <c r="J1643" s="1" t="s">
-        <v>2104</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1644" spans="1:10" x14ac:dyDescent="0.2">
@@ -64193,7 +64441,7 @@
       <c r="H1644" s="9"/>
       <c r="I1644"/>
       <c r="J1644" s="1" t="s">
-        <v>2107</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1645" spans="1:10" x14ac:dyDescent="0.2">
@@ -64218,7 +64466,7 @@
       <c r="H1645" s="9"/>
       <c r="I1645"/>
       <c r="J1645" s="1" t="s">
-        <v>2110</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1646" spans="1:10" x14ac:dyDescent="0.2">
@@ -64243,7 +64491,7 @@
       <c r="H1646" s="9"/>
       <c r="I1646"/>
       <c r="J1646" s="1" t="s">
-        <v>2113</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1647" spans="1:10" x14ac:dyDescent="0.2">
@@ -64268,7 +64516,7 @@
       <c r="H1647" s="9"/>
       <c r="I1647"/>
       <c r="J1647" s="1" t="s">
-        <v>2116</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1648" spans="1:10" x14ac:dyDescent="0.2">
@@ -64293,7 +64541,7 @@
       <c r="H1648" s="9"/>
       <c r="I1648"/>
       <c r="J1648" s="1" t="s">
-        <v>2121</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1649" spans="1:10" x14ac:dyDescent="0.2">
@@ -64321,7 +64569,7 @@
       <c r="H1649" s="9"/>
       <c r="I1649"/>
       <c r="J1649" s="1" t="s">
-        <v>977</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1650" spans="1:10" x14ac:dyDescent="0.2">
@@ -64346,7 +64594,7 @@
       <c r="H1650" s="9"/>
       <c r="I1650"/>
       <c r="J1650" s="1" t="s">
-        <v>2127</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1651" spans="1:10" x14ac:dyDescent="0.2">
@@ -64371,7 +64619,7 @@
       <c r="H1651" s="9"/>
       <c r="I1651"/>
       <c r="J1651" s="1" t="s">
-        <v>2130</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1652" spans="1:10" x14ac:dyDescent="0.2">
@@ -64396,7 +64644,7 @@
       <c r="H1652" s="9"/>
       <c r="I1652"/>
       <c r="J1652" s="1" t="s">
-        <v>2133</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1653" spans="1:10" x14ac:dyDescent="0.2">
@@ -64424,7 +64672,7 @@
       <c r="H1653" s="9"/>
       <c r="I1653"/>
       <c r="J1653" s="1" t="s">
-        <v>2136</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1654" spans="1:10" x14ac:dyDescent="0.2">
@@ -64449,7 +64697,7 @@
       <c r="H1654" s="9"/>
       <c r="I1654"/>
       <c r="J1654" s="1" t="s">
-        <v>2139</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1655" spans="1:10" x14ac:dyDescent="0.2">
@@ -64474,7 +64722,7 @@
       <c r="H1655" s="9"/>
       <c r="I1655"/>
       <c r="J1655" s="1" t="s">
-        <v>2142</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1656" spans="1:10" x14ac:dyDescent="0.2">
@@ -64502,7 +64750,7 @@
       <c r="H1656" s="9"/>
       <c r="I1656"/>
       <c r="J1656" s="1" t="s">
-        <v>2146</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1657" spans="1:10" x14ac:dyDescent="0.2">
@@ -64527,7 +64775,7 @@
       <c r="H1657" s="9"/>
       <c r="I1657"/>
       <c r="J1657" s="1" t="s">
-        <v>2150</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1658" spans="1:10" x14ac:dyDescent="0.2">
@@ -64552,7 +64800,7 @@
       <c r="H1658" s="9"/>
       <c r="I1658"/>
       <c r="J1658" s="1" t="s">
-        <v>2154</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1659" spans="1:10" x14ac:dyDescent="0.2">
@@ -64577,7 +64825,7 @@
       <c r="H1659" s="9"/>
       <c r="I1659"/>
       <c r="J1659" s="1" t="s">
-        <v>2158</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1660" spans="1:10" x14ac:dyDescent="0.2">
@@ -64602,7 +64850,7 @@
       <c r="H1660" s="9"/>
       <c r="I1660"/>
       <c r="J1660" s="1" t="s">
-        <v>2162</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1661" spans="1:10" x14ac:dyDescent="0.2">
@@ -64627,7 +64875,7 @@
       <c r="H1661" s="9"/>
       <c r="I1661"/>
       <c r="J1661" s="1" t="s">
-        <v>2166</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1662" spans="1:10" x14ac:dyDescent="0.2">
@@ -64652,7 +64900,7 @@
       <c r="H1662" s="9"/>
       <c r="I1662"/>
       <c r="J1662" s="1" t="s">
-        <v>2169</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1663" spans="1:10" x14ac:dyDescent="0.2">
@@ -64677,7 +64925,7 @@
       <c r="H1663" s="9"/>
       <c r="I1663"/>
       <c r="J1663" s="1" t="s">
-        <v>2173</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1664" spans="1:10" x14ac:dyDescent="0.2">
@@ -64702,7 +64950,7 @@
       <c r="H1664" s="9"/>
       <c r="I1664"/>
       <c r="J1664" s="1" t="s">
-        <v>2176</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1665" spans="1:10" x14ac:dyDescent="0.2">
@@ -64727,7 +64975,7 @@
       <c r="H1665" s="9"/>
       <c r="I1665"/>
       <c r="J1665" s="1" t="s">
-        <v>2179</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1666" spans="1:10" x14ac:dyDescent="0.2">
@@ -64752,7 +65000,7 @@
       <c r="H1666" s="9"/>
       <c r="I1666"/>
       <c r="J1666" s="1" t="s">
-        <v>2183</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1667" spans="1:10" x14ac:dyDescent="0.2">
@@ -64780,7 +65028,7 @@
       <c r="H1667" s="9"/>
       <c r="I1667"/>
       <c r="J1667" s="1" t="s">
-        <v>2186</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1668" spans="1:10" x14ac:dyDescent="0.2">
@@ -64805,7 +65053,7 @@
       <c r="H1668" s="9"/>
       <c r="I1668"/>
       <c r="J1668" s="1" t="s">
-        <v>2190</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1669" spans="1:10" x14ac:dyDescent="0.2">
@@ -64830,7 +65078,7 @@
       <c r="H1669" s="9"/>
       <c r="I1669"/>
       <c r="J1669" s="1" t="s">
-        <v>3593</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1670" spans="1:10" x14ac:dyDescent="0.2">
@@ -64855,7 +65103,7 @@
       <c r="H1670" s="9"/>
       <c r="I1670"/>
       <c r="J1670" s="1" t="s">
-        <v>4498</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1671" spans="1:10" x14ac:dyDescent="0.2">
@@ -64880,7 +65128,7 @@
       <c r="H1671" s="9"/>
       <c r="I1671"/>
       <c r="J1671" s="1" t="s">
-        <v>3540</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="1672" spans="1:10" x14ac:dyDescent="0.2">
@@ -64905,7 +65153,7 @@
       <c r="H1672" s="9"/>
       <c r="I1672"/>
       <c r="J1672" s="1" t="s">
-        <v>3631</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1673" spans="1:10" x14ac:dyDescent="0.2">
@@ -64930,7 +65178,7 @@
       <c r="H1673" s="9"/>
       <c r="I1673"/>
       <c r="J1673" s="1" t="s">
-        <v>4499</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1674" spans="1:10" x14ac:dyDescent="0.2">
@@ -64955,7 +65203,7 @@
       <c r="H1674" s="9"/>
       <c r="I1674"/>
       <c r="J1674" s="1" t="s">
-        <v>4500</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1675" spans="1:10" x14ac:dyDescent="0.2">
@@ -64980,7 +65228,7 @@
       <c r="H1675" s="9"/>
       <c r="I1675"/>
       <c r="J1675" s="1" t="s">
-        <v>4501</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1676" spans="1:10" x14ac:dyDescent="0.2">
@@ -65005,7 +65253,7 @@
       <c r="H1676" s="9"/>
       <c r="I1676"/>
       <c r="J1676" s="1" t="s">
-        <v>4502</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1677" spans="1:10" x14ac:dyDescent="0.2">
@@ -65033,7 +65281,7 @@
       <c r="H1677" s="9"/>
       <c r="I1677"/>
       <c r="J1677" s="1" t="s">
-        <v>3562</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1678" spans="1:10" x14ac:dyDescent="0.2">
@@ -65060,8 +65308,8 @@
       </c>
       <c r="H1678" s="9"/>
       <c r="I1678"/>
-      <c r="J1678" s="1" t="s">
-        <v>3593</v>
+      <c r="J1678" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="1679" spans="1:10" x14ac:dyDescent="0.2">
@@ -65086,7 +65334,7 @@
       <c r="H1679" s="9"/>
       <c r="I1679"/>
       <c r="J1679" s="1" t="s">
-        <v>2193</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1680" spans="1:10" x14ac:dyDescent="0.2">
@@ -65114,7 +65362,7 @@
       <c r="H1680" s="9"/>
       <c r="I1680"/>
       <c r="J1680" s="1" t="s">
-        <v>2196</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1681" spans="1:10" x14ac:dyDescent="0.2">
@@ -65139,7 +65387,7 @@
       <c r="H1681" s="9"/>
       <c r="I1681"/>
       <c r="J1681" s="1" t="s">
-        <v>2199</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1682" spans="1:10" x14ac:dyDescent="0.2">
@@ -65164,7 +65412,7 @@
       <c r="H1682" s="9"/>
       <c r="I1682"/>
       <c r="J1682" s="1" t="s">
-        <v>2202</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1683" spans="1:10" x14ac:dyDescent="0.2">
@@ -65189,7 +65437,7 @@
       <c r="H1683" s="9"/>
       <c r="I1683"/>
       <c r="J1683" s="1" t="s">
-        <v>2206</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1684" spans="1:10" x14ac:dyDescent="0.2">
@@ -65214,7 +65462,7 @@
       <c r="H1684" s="9"/>
       <c r="I1684"/>
       <c r="J1684" s="1" t="s">
-        <v>2209</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1685" spans="1:10" x14ac:dyDescent="0.2">
@@ -65239,7 +65487,7 @@
       <c r="H1685" s="9"/>
       <c r="I1685"/>
       <c r="J1685" s="1" t="s">
-        <v>2213</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1686" spans="1:10" x14ac:dyDescent="0.2">
@@ -65264,7 +65512,7 @@
       <c r="H1686" s="9"/>
       <c r="I1686"/>
       <c r="J1686" s="1" t="s">
-        <v>2216</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1687" spans="1:10" x14ac:dyDescent="0.2">
@@ -65289,7 +65537,7 @@
       <c r="H1687" s="9"/>
       <c r="I1687"/>
       <c r="J1687" s="1" t="s">
-        <v>2219</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1688" spans="1:10" x14ac:dyDescent="0.2">
@@ -65314,7 +65562,7 @@
       <c r="H1688" s="9"/>
       <c r="I1688"/>
       <c r="J1688" s="1" t="s">
-        <v>2224</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1689" spans="1:10" x14ac:dyDescent="0.2">
@@ -65339,7 +65587,7 @@
       <c r="H1689" s="9"/>
       <c r="I1689"/>
       <c r="J1689" s="1" t="s">
-        <v>2228</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1690" spans="1:10" x14ac:dyDescent="0.2">
@@ -65364,7 +65612,7 @@
       <c r="H1690" s="9"/>
       <c r="I1690"/>
       <c r="J1690" s="1" t="s">
-        <v>2231</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1691" spans="1:10" x14ac:dyDescent="0.2">
@@ -65389,7 +65637,7 @@
       <c r="H1691" s="9"/>
       <c r="I1691"/>
       <c r="J1691" s="1" t="s">
-        <v>2234</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1692" spans="1:10" x14ac:dyDescent="0.2">
@@ -65414,7 +65662,7 @@
       <c r="H1692" s="9"/>
       <c r="I1692"/>
       <c r="J1692" s="1" t="s">
-        <v>2237</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1693" spans="1:10" x14ac:dyDescent="0.2">
@@ -65439,7 +65687,7 @@
       <c r="H1693" s="9"/>
       <c r="I1693"/>
       <c r="J1693" s="1" t="s">
-        <v>2241</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1694" spans="1:10" x14ac:dyDescent="0.2">
@@ -65464,7 +65712,7 @@
       <c r="H1694" s="9"/>
       <c r="I1694"/>
       <c r="J1694" s="1" t="s">
-        <v>2244</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1695" spans="1:10" x14ac:dyDescent="0.2">
@@ -65489,7 +65737,7 @@
       <c r="H1695" s="9"/>
       <c r="I1695"/>
       <c r="J1695" s="1" t="s">
-        <v>2248</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1696" spans="1:10" x14ac:dyDescent="0.2">
@@ -65514,7 +65762,7 @@
       <c r="H1696" s="9"/>
       <c r="I1696"/>
       <c r="J1696" s="1" t="s">
-        <v>2252</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1697" spans="1:10" x14ac:dyDescent="0.2">
@@ -65539,7 +65787,7 @@
       <c r="H1697" s="9"/>
       <c r="I1697"/>
       <c r="J1697" s="1" t="s">
-        <v>2255</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1698" spans="1:10" x14ac:dyDescent="0.2">
@@ -65564,7 +65812,7 @@
       <c r="H1698" s="9"/>
       <c r="I1698"/>
       <c r="J1698" s="1" t="s">
-        <v>2258</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1699" spans="1:10" x14ac:dyDescent="0.2">
@@ -65589,7 +65837,7 @@
       <c r="H1699" s="9"/>
       <c r="I1699"/>
       <c r="J1699" s="1" t="s">
-        <v>2262</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1700" spans="1:10" x14ac:dyDescent="0.2">
@@ -65614,7 +65862,7 @@
       <c r="H1700" s="9"/>
       <c r="I1700"/>
       <c r="J1700" s="1" t="s">
-        <v>2266</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1701" spans="1:10" x14ac:dyDescent="0.2">
@@ -65639,7 +65887,7 @@
       <c r="H1701" s="9"/>
       <c r="I1701"/>
       <c r="J1701" s="1" t="s">
-        <v>2269</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1702" spans="1:10" x14ac:dyDescent="0.2">
@@ -65664,7 +65912,7 @@
       <c r="H1702" s="9"/>
       <c r="I1702"/>
       <c r="J1702" s="1" t="s">
-        <v>2273</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1703" spans="1:10" x14ac:dyDescent="0.2">
@@ -65689,7 +65937,7 @@
       <c r="H1703" s="9"/>
       <c r="I1703"/>
       <c r="J1703" s="1" t="s">
-        <v>2276</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1704" spans="1:10" x14ac:dyDescent="0.2">
@@ -65714,7 +65962,7 @@
       <c r="H1704" s="9"/>
       <c r="I1704"/>
       <c r="J1704" s="1" t="s">
-        <v>2280</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1705" spans="1:10" x14ac:dyDescent="0.2">
@@ -65739,7 +65987,7 @@
       <c r="H1705" s="9"/>
       <c r="I1705"/>
       <c r="J1705" s="1" t="s">
-        <v>2284</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1706" spans="1:10" x14ac:dyDescent="0.2">
@@ -65764,7 +66012,7 @@
       <c r="H1706" s="9"/>
       <c r="I1706"/>
       <c r="J1706" s="1" t="s">
-        <v>2289</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1707" spans="1:10" x14ac:dyDescent="0.2">
@@ -65789,7 +66037,7 @@
       <c r="H1707" s="9"/>
       <c r="I1707"/>
       <c r="J1707" s="1" t="s">
-        <v>2292</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1708" spans="1:10" x14ac:dyDescent="0.2">
@@ -65814,7 +66062,7 @@
       <c r="H1708" s="9"/>
       <c r="I1708"/>
       <c r="J1708" s="1" t="s">
-        <v>2296</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1709" spans="1:10" x14ac:dyDescent="0.2">
@@ -65839,7 +66087,7 @@
       <c r="H1709" s="9"/>
       <c r="I1709"/>
       <c r="J1709" s="1" t="s">
-        <v>2299</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1710" spans="1:10" x14ac:dyDescent="0.2">
@@ -65864,7 +66112,7 @@
       <c r="H1710" s="9"/>
       <c r="I1710"/>
       <c r="J1710" s="1" t="s">
-        <v>2303</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1711" spans="1:10" x14ac:dyDescent="0.2">
@@ -65889,7 +66137,7 @@
       <c r="H1711" s="9"/>
       <c r="I1711"/>
       <c r="J1711" s="1" t="s">
-        <v>2306</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1712" spans="1:10" x14ac:dyDescent="0.2">
@@ -65914,7 +66162,7 @@
       <c r="H1712" s="9"/>
       <c r="I1712"/>
       <c r="J1712" s="1" t="s">
-        <v>2309</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1713" spans="1:10" x14ac:dyDescent="0.2">
@@ -65939,7 +66187,7 @@
       <c r="H1713" s="9"/>
       <c r="I1713"/>
       <c r="J1713" s="1" t="s">
-        <v>2312</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1714" spans="1:10" x14ac:dyDescent="0.2">
@@ -65964,7 +66212,7 @@
       <c r="H1714" s="9"/>
       <c r="I1714"/>
       <c r="J1714" s="1" t="s">
-        <v>2315</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1715" spans="1:10" x14ac:dyDescent="0.2">
@@ -65989,7 +66237,7 @@
       <c r="H1715" s="9"/>
       <c r="I1715"/>
       <c r="J1715" s="1" t="s">
-        <v>2318</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1716" spans="1:10" x14ac:dyDescent="0.2">
@@ -66014,7 +66262,7 @@
       <c r="H1716" s="9"/>
       <c r="I1716"/>
       <c r="J1716" s="1" t="s">
-        <v>2322</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1717" spans="1:10" x14ac:dyDescent="0.2">
@@ -66039,7 +66287,7 @@
       <c r="H1717" s="9"/>
       <c r="I1717"/>
       <c r="J1717" s="1" t="s">
-        <v>2326</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1718" spans="1:10" x14ac:dyDescent="0.2">
@@ -66067,7 +66315,7 @@
       <c r="H1718" s="9"/>
       <c r="I1718"/>
       <c r="J1718" s="1" t="s">
-        <v>2329</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1719" spans="1:10" x14ac:dyDescent="0.2">
@@ -66092,7 +66340,7 @@
       <c r="H1719" s="9"/>
       <c r="I1719"/>
       <c r="J1719" s="1" t="s">
-        <v>2332</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1720" spans="1:10" x14ac:dyDescent="0.2">
@@ -66117,7 +66365,7 @@
       <c r="H1720" s="9"/>
       <c r="I1720"/>
       <c r="J1720" s="1" t="s">
-        <v>2336</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1721" spans="1:10" x14ac:dyDescent="0.2">
@@ -66142,7 +66390,7 @@
       <c r="H1721" s="9"/>
       <c r="I1721"/>
       <c r="J1721" s="1" t="s">
-        <v>4503</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1722" spans="1:10" x14ac:dyDescent="0.2">
@@ -66167,7 +66415,7 @@
       <c r="H1722" s="9"/>
       <c r="I1722"/>
       <c r="J1722" s="1" t="s">
-        <v>3751</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1723" spans="1:10" x14ac:dyDescent="0.2">
@@ -66192,7 +66440,7 @@
       <c r="H1723" s="9"/>
       <c r="I1723"/>
       <c r="J1723" s="1" t="s">
-        <v>2339</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1724" spans="1:10" x14ac:dyDescent="0.2">
@@ -66217,7 +66465,7 @@
       <c r="H1724" s="9"/>
       <c r="I1724"/>
       <c r="J1724" s="1" t="s">
-        <v>2342</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1725" spans="1:10" x14ac:dyDescent="0.2">
@@ -66242,7 +66490,7 @@
       <c r="H1725" s="9"/>
       <c r="I1725"/>
       <c r="J1725" s="1" t="s">
-        <v>2345</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1726" spans="1:10" x14ac:dyDescent="0.2">
@@ -66267,7 +66515,7 @@
       <c r="H1726" s="9"/>
       <c r="I1726"/>
       <c r="J1726" s="1" t="s">
-        <v>2348</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1727" spans="1:10" x14ac:dyDescent="0.2">
@@ -66292,7 +66540,7 @@
       <c r="H1727" s="9"/>
       <c r="I1727"/>
       <c r="J1727" s="1" t="s">
-        <v>2351</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1728" spans="1:10" x14ac:dyDescent="0.2">
@@ -66317,7 +66565,7 @@
       <c r="H1728" s="9"/>
       <c r="I1728"/>
       <c r="J1728" s="1" t="s">
-        <v>2353</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1729" spans="1:10" x14ac:dyDescent="0.2">
@@ -66342,7 +66590,7 @@
       <c r="H1729" s="9"/>
       <c r="I1729"/>
       <c r="J1729" s="1" t="s">
-        <v>2357</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1730" spans="1:10" x14ac:dyDescent="0.2">
@@ -66367,7 +66615,7 @@
       <c r="H1730" s="9"/>
       <c r="I1730"/>
       <c r="J1730" s="1" t="s">
-        <v>2360</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1731" spans="1:10" x14ac:dyDescent="0.2">
@@ -66392,7 +66640,7 @@
       <c r="H1731" s="9"/>
       <c r="I1731"/>
       <c r="J1731" s="1" t="s">
-        <v>2363</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1732" spans="1:10" x14ac:dyDescent="0.2">
@@ -66417,7 +66665,7 @@
       <c r="H1732" s="9"/>
       <c r="I1732"/>
       <c r="J1732" s="1" t="s">
-        <v>2366</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1733" spans="1:10" x14ac:dyDescent="0.2">
@@ -66445,7 +66693,7 @@
       <c r="H1733" s="9"/>
       <c r="I1733"/>
       <c r="J1733" s="1" t="s">
-        <v>2369</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1734" spans="1:10" x14ac:dyDescent="0.2">
@@ -66470,7 +66718,7 @@
       <c r="H1734" s="9"/>
       <c r="I1734"/>
       <c r="J1734" s="1" t="s">
-        <v>2372</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="1735" spans="1:10" x14ac:dyDescent="0.2">
@@ -66495,7 +66743,7 @@
       <c r="H1735" s="9"/>
       <c r="I1735"/>
       <c r="J1735" s="1" t="s">
-        <v>2376</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1736" spans="1:10" x14ac:dyDescent="0.2">
@@ -66523,7 +66771,7 @@
       <c r="H1736" s="9"/>
       <c r="I1736"/>
       <c r="J1736" s="1" t="s">
-        <v>2379</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1737" spans="1:10" x14ac:dyDescent="0.2">
@@ -66548,7 +66796,7 @@
       <c r="H1737" s="9"/>
       <c r="I1737"/>
       <c r="J1737" s="1" t="s">
-        <v>2382</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1738" spans="1:10" x14ac:dyDescent="0.2">
@@ -66576,7 +66824,7 @@
       <c r="H1738" s="9"/>
       <c r="I1738"/>
       <c r="J1738" s="1" t="s">
-        <v>2387</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="1739" spans="1:10" x14ac:dyDescent="0.2">
@@ -66604,7 +66852,7 @@
       <c r="H1739" s="9"/>
       <c r="I1739"/>
       <c r="J1739" s="1" t="s">
-        <v>2390</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1740" spans="1:10" x14ac:dyDescent="0.2">
@@ -66629,7 +66877,7 @@
       <c r="H1740" s="9"/>
       <c r="I1740"/>
       <c r="J1740" s="1" t="s">
-        <v>2393</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1741" spans="1:10" x14ac:dyDescent="0.2">
@@ -66654,7 +66902,7 @@
       <c r="H1741" s="9"/>
       <c r="I1741"/>
       <c r="J1741" s="1" t="s">
-        <v>2396</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1742" spans="1:10" x14ac:dyDescent="0.2">
@@ -66679,7 +66927,7 @@
       <c r="H1742" s="9"/>
       <c r="I1742"/>
       <c r="J1742" s="1" t="s">
-        <v>2399</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1743" spans="1:10" x14ac:dyDescent="0.2">
@@ -66707,7 +66955,7 @@
       <c r="H1743" s="9"/>
       <c r="I1743"/>
       <c r="J1743" s="1" t="s">
-        <v>2403</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1744" spans="1:10" x14ac:dyDescent="0.2">
@@ -66732,7 +66980,7 @@
       <c r="H1744" s="9"/>
       <c r="I1744"/>
       <c r="J1744" s="1" t="s">
-        <v>2406</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1745" spans="1:10" x14ac:dyDescent="0.2">
@@ -66757,7 +67005,7 @@
       <c r="H1745" s="9"/>
       <c r="I1745"/>
       <c r="J1745" s="1" t="s">
-        <v>2410</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1746" spans="1:10" x14ac:dyDescent="0.2">
@@ -66782,7 +67030,7 @@
       <c r="H1746" s="9"/>
       <c r="I1746"/>
       <c r="J1746" s="1" t="s">
-        <v>570</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1747" spans="1:10" x14ac:dyDescent="0.2">
@@ -66807,7 +67055,7 @@
       <c r="H1747" s="9"/>
       <c r="I1747"/>
       <c r="J1747" s="1" t="s">
-        <v>357</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1748" spans="1:10" x14ac:dyDescent="0.2">
@@ -66832,7 +67080,7 @@
       <c r="H1748" s="9"/>
       <c r="I1748"/>
       <c r="J1748" s="1" t="s">
-        <v>2417</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1749" spans="1:10" x14ac:dyDescent="0.2">
@@ -66857,7 +67105,7 @@
       <c r="H1749" s="9"/>
       <c r="I1749"/>
       <c r="J1749" s="1" t="s">
-        <v>2420</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1750" spans="1:10" x14ac:dyDescent="0.2">
@@ -66882,7 +67130,7 @@
       <c r="H1750" s="9"/>
       <c r="I1750"/>
       <c r="J1750" s="1" t="s">
-        <v>2424</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1751" spans="1:10" x14ac:dyDescent="0.2">
@@ -66907,7 +67155,7 @@
       <c r="H1751" s="9"/>
       <c r="I1751"/>
       <c r="J1751" s="1" t="s">
-        <v>2429</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1752" spans="1:10" x14ac:dyDescent="0.2">
@@ -66932,7 +67180,7 @@
       <c r="H1752" s="9"/>
       <c r="I1752"/>
       <c r="J1752" s="1" t="s">
-        <v>2433</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1753" spans="1:10" x14ac:dyDescent="0.2">
@@ -66957,7 +67205,7 @@
       <c r="H1753" s="9"/>
       <c r="I1753"/>
       <c r="J1753" s="1" t="s">
-        <v>2436</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1754" spans="1:10" x14ac:dyDescent="0.2">
@@ -66982,7 +67230,7 @@
       <c r="H1754" s="9"/>
       <c r="I1754"/>
       <c r="J1754" s="1" t="s">
-        <v>2440</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1755" spans="1:10" x14ac:dyDescent="0.2">
@@ -67007,7 +67255,7 @@
       <c r="H1755" s="9"/>
       <c r="I1755"/>
       <c r="J1755" s="1" t="s">
-        <v>2443</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1756" spans="1:10" x14ac:dyDescent="0.2">
@@ -67032,7 +67280,7 @@
       <c r="H1756" s="9"/>
       <c r="I1756"/>
       <c r="J1756" s="1" t="s">
-        <v>2446</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1757" spans="1:10" x14ac:dyDescent="0.2">
@@ -67057,7 +67305,7 @@
       <c r="H1757" s="9"/>
       <c r="I1757"/>
       <c r="J1757" s="1" t="s">
-        <v>2450</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1758" spans="1:10" x14ac:dyDescent="0.2">
@@ -67082,7 +67330,7 @@
       <c r="H1758" s="9"/>
       <c r="I1758"/>
       <c r="J1758" s="1" t="s">
-        <v>2454</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1759" spans="1:10" x14ac:dyDescent="0.2">
@@ -67107,7 +67355,7 @@
       <c r="H1759" s="9"/>
       <c r="I1759"/>
       <c r="J1759" s="1" t="s">
-        <v>2458</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1760" spans="1:10" x14ac:dyDescent="0.2">
@@ -67132,7 +67380,7 @@
       <c r="H1760" s="9"/>
       <c r="I1760"/>
       <c r="J1760" s="1" t="s">
-        <v>4504</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1761" spans="1:10" x14ac:dyDescent="0.2">
@@ -67157,7 +67405,7 @@
       <c r="H1761" s="9"/>
       <c r="I1761"/>
       <c r="J1761" s="1" t="s">
-        <v>4505</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1762" spans="1:10" x14ac:dyDescent="0.2">
@@ -67182,7 +67430,7 @@
       <c r="H1762" s="9"/>
       <c r="I1762"/>
       <c r="J1762" s="1" t="s">
-        <v>4506</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1763" spans="1:10" x14ac:dyDescent="0.2">
@@ -67207,7 +67455,7 @@
       <c r="H1763" s="9"/>
       <c r="I1763"/>
       <c r="J1763" s="1" t="s">
-        <v>4507</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1764" spans="1:10" x14ac:dyDescent="0.2">
@@ -67232,7 +67480,7 @@
       <c r="H1764" s="9"/>
       <c r="I1764"/>
       <c r="J1764" s="1" t="s">
-        <v>4307</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1765" spans="1:10" x14ac:dyDescent="0.2">
@@ -67257,7 +67505,7 @@
       <c r="H1765" s="9"/>
       <c r="I1765"/>
       <c r="J1765" s="1" t="s">
-        <v>4508</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1766" spans="1:10" x14ac:dyDescent="0.2">
@@ -67282,7 +67530,7 @@
       <c r="H1766" s="9"/>
       <c r="I1766"/>
       <c r="J1766" s="1" t="s">
-        <v>2461</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1767" spans="1:10" x14ac:dyDescent="0.2">
@@ -67307,7 +67555,7 @@
       <c r="H1767" s="9"/>
       <c r="I1767"/>
       <c r="J1767" s="1" t="s">
-        <v>2466</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1768" spans="1:10" x14ac:dyDescent="0.2">
@@ -67332,7 +67580,7 @@
       <c r="H1768" s="9"/>
       <c r="I1768"/>
       <c r="J1768" s="1" t="s">
-        <v>2469</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1769" spans="1:10" x14ac:dyDescent="0.2">
@@ -67360,7 +67608,7 @@
       <c r="H1769" s="9"/>
       <c r="I1769"/>
       <c r="J1769" s="1" t="s">
-        <v>2472</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1770" spans="1:10" x14ac:dyDescent="0.2">
@@ -67384,8 +67632,8 @@
       </c>
       <c r="H1770" s="9"/>
       <c r="I1770"/>
-      <c r="J1770" s="1">
-        <v>2012</v>
+      <c r="J1770" s="1" t="s">
+        <v>2299</v>
       </c>
     </row>
     <row r="1771" spans="1:10" x14ac:dyDescent="0.2">
@@ -67410,7 +67658,7 @@
       <c r="H1771" s="9"/>
       <c r="I1771"/>
       <c r="J1771" s="1" t="s">
-        <v>2478</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1772" spans="1:10" x14ac:dyDescent="0.2">
@@ -67435,7 +67683,7 @@
       <c r="H1772" s="9"/>
       <c r="I1772"/>
       <c r="J1772" s="1" t="s">
-        <v>2481</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1773" spans="1:10" x14ac:dyDescent="0.2">
@@ -67460,7 +67708,7 @@
       <c r="H1773" s="9"/>
       <c r="I1773"/>
       <c r="J1773" s="1" t="s">
-        <v>2485</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1774" spans="1:10" x14ac:dyDescent="0.2">
@@ -67485,7 +67733,7 @@
       <c r="H1774" s="9"/>
       <c r="I1774"/>
       <c r="J1774" s="1" t="s">
-        <v>2488</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1775" spans="1:10" x14ac:dyDescent="0.2">
@@ -67510,7 +67758,7 @@
       <c r="H1775" s="9"/>
       <c r="I1775"/>
       <c r="J1775" s="1" t="s">
-        <v>2491</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1776" spans="1:10" x14ac:dyDescent="0.2">
@@ -67535,7 +67783,7 @@
       <c r="H1776" s="9"/>
       <c r="I1776"/>
       <c r="J1776" s="1" t="s">
-        <v>2494</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1777" spans="1:10" x14ac:dyDescent="0.2">
@@ -67560,7 +67808,7 @@
       <c r="H1777" s="9"/>
       <c r="I1777"/>
       <c r="J1777" s="1" t="s">
-        <v>2498</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1778" spans="1:10" x14ac:dyDescent="0.2">
@@ -67585,7 +67833,7 @@
       <c r="H1778" s="9"/>
       <c r="I1778"/>
       <c r="J1778" s="1" t="s">
-        <v>2502</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1779" spans="1:10" x14ac:dyDescent="0.2">
@@ -67613,7 +67861,7 @@
       <c r="H1779" s="9"/>
       <c r="I1779"/>
       <c r="J1779" s="1" t="s">
-        <v>2506</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1780" spans="1:10" x14ac:dyDescent="0.2">
@@ -67638,7 +67886,7 @@
       <c r="H1780" s="9"/>
       <c r="I1780"/>
       <c r="J1780" s="1" t="s">
-        <v>2509</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1781" spans="1:10" x14ac:dyDescent="0.2">
@@ -67663,7 +67911,7 @@
       <c r="H1781" s="9"/>
       <c r="I1781"/>
       <c r="J1781" s="1" t="s">
-        <v>2513</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1782" spans="1:10" x14ac:dyDescent="0.2">
@@ -67688,7 +67936,7 @@
       <c r="H1782" s="9"/>
       <c r="I1782"/>
       <c r="J1782" s="1" t="s">
-        <v>2516</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1783" spans="1:10" x14ac:dyDescent="0.2">
@@ -67713,7 +67961,7 @@
       <c r="H1783" s="9"/>
       <c r="I1783"/>
       <c r="J1783" s="1" t="s">
-        <v>2520</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1784" spans="1:10" x14ac:dyDescent="0.2">
@@ -67738,7 +67986,7 @@
       <c r="H1784" s="9"/>
       <c r="I1784"/>
       <c r="J1784" s="1" t="s">
-        <v>2525</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1785" spans="1:10" x14ac:dyDescent="0.2">
@@ -67763,7 +68011,7 @@
       <c r="H1785" s="9"/>
       <c r="I1785"/>
       <c r="J1785" s="1" t="s">
-        <v>2528</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1786" spans="1:10" x14ac:dyDescent="0.2">
@@ -67788,7 +68036,7 @@
       <c r="H1786" s="9"/>
       <c r="I1786"/>
       <c r="J1786" s="1" t="s">
-        <v>2532</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1787" spans="1:10" x14ac:dyDescent="0.2">
@@ -67813,7 +68061,7 @@
       <c r="H1787" s="9"/>
       <c r="I1787"/>
       <c r="J1787" s="1" t="s">
-        <v>2536</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1788" spans="1:10" x14ac:dyDescent="0.2">
@@ -67838,7 +68086,7 @@
       <c r="H1788" s="9"/>
       <c r="I1788"/>
       <c r="J1788" s="1" t="s">
-        <v>2540</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1789" spans="1:10" x14ac:dyDescent="0.2">
@@ -67863,7 +68111,7 @@
       <c r="H1789" s="9"/>
       <c r="I1789"/>
       <c r="J1789" s="1" t="s">
-        <v>2544</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1790" spans="1:10" x14ac:dyDescent="0.2">
@@ -67888,7 +68136,7 @@
       <c r="H1790" s="9"/>
       <c r="I1790"/>
       <c r="J1790" s="1" t="s">
-        <v>2547</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1791" spans="1:10" x14ac:dyDescent="0.2">
@@ -67913,7 +68161,7 @@
       <c r="H1791" s="9"/>
       <c r="I1791"/>
       <c r="J1791" s="1" t="s">
-        <v>2550</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1792" spans="1:10" x14ac:dyDescent="0.2">
@@ -67938,7 +68186,7 @@
       <c r="H1792" s="9"/>
       <c r="I1792"/>
       <c r="J1792" s="1" t="s">
-        <v>2553</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1793" spans="1:10" x14ac:dyDescent="0.2">
@@ -67963,7 +68211,7 @@
       <c r="H1793" s="9"/>
       <c r="I1793"/>
       <c r="J1793" s="1" t="s">
-        <v>2557</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1794" spans="1:10" x14ac:dyDescent="0.2">
@@ -67988,7 +68236,7 @@
       <c r="H1794" s="9"/>
       <c r="I1794"/>
       <c r="J1794" s="1" t="s">
-        <v>2560</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1795" spans="1:10" x14ac:dyDescent="0.2">
@@ -68013,7 +68261,7 @@
       <c r="H1795" s="9"/>
       <c r="I1795"/>
       <c r="J1795" s="1" t="s">
-        <v>2563</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1796" spans="1:10" x14ac:dyDescent="0.2">
@@ -68038,7 +68286,7 @@
       <c r="H1796" s="9"/>
       <c r="I1796"/>
       <c r="J1796" s="1" t="s">
-        <v>2567</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1797" spans="1:10" x14ac:dyDescent="0.2">
@@ -68063,7 +68311,7 @@
       <c r="H1797" s="9"/>
       <c r="I1797"/>
       <c r="J1797" s="1" t="s">
-        <v>2570</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1798" spans="1:10" x14ac:dyDescent="0.2">
@@ -68088,7 +68336,7 @@
       <c r="H1798" s="9"/>
       <c r="I1798"/>
       <c r="J1798" s="1" t="s">
-        <v>2574</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1799" spans="1:10" x14ac:dyDescent="0.2">
@@ -68113,7 +68361,7 @@
       <c r="H1799" s="9"/>
       <c r="I1799"/>
       <c r="J1799" s="1" t="s">
-        <v>2576</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1800" spans="1:10" x14ac:dyDescent="0.2">
@@ -68138,7 +68386,7 @@
       <c r="H1800" s="9"/>
       <c r="I1800"/>
       <c r="J1800" s="1" t="s">
-        <v>2579</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1801" spans="1:10" x14ac:dyDescent="0.2">
@@ -68163,7 +68411,7 @@
       <c r="H1801" s="9"/>
       <c r="I1801"/>
       <c r="J1801" s="1" t="s">
-        <v>2583</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1802" spans="1:10" x14ac:dyDescent="0.2">
@@ -68188,7 +68436,7 @@
       <c r="H1802" s="9"/>
       <c r="I1802"/>
       <c r="J1802" s="1" t="s">
-        <v>2586</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1803" spans="1:10" x14ac:dyDescent="0.2">
@@ -68213,7 +68461,7 @@
       <c r="H1803" s="9"/>
       <c r="I1803"/>
       <c r="J1803" s="1" t="s">
-        <v>2591</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1804" spans="1:10" x14ac:dyDescent="0.2">
@@ -68238,7 +68486,7 @@
       <c r="H1804" s="9"/>
       <c r="I1804"/>
       <c r="J1804" s="1" t="s">
-        <v>2595</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1805" spans="1:10" x14ac:dyDescent="0.2">
@@ -68263,7 +68511,7 @@
       <c r="H1805" s="9"/>
       <c r="I1805"/>
       <c r="J1805" s="1" t="s">
-        <v>2598</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1806" spans="1:10" x14ac:dyDescent="0.2">
@@ -68288,7 +68536,7 @@
       <c r="H1806" s="9"/>
       <c r="I1806"/>
       <c r="J1806" s="1" t="s">
-        <v>2602</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1807" spans="1:10" x14ac:dyDescent="0.2">
@@ -68313,7 +68561,7 @@
       <c r="H1807" s="9"/>
       <c r="I1807"/>
       <c r="J1807" s="1" t="s">
-        <v>2606</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1808" spans="1:10" x14ac:dyDescent="0.2">
@@ -68338,7 +68586,7 @@
       <c r="H1808" s="9"/>
       <c r="I1808"/>
       <c r="J1808" s="1" t="s">
-        <v>2610</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1809" spans="1:10" x14ac:dyDescent="0.2">
@@ -68363,7 +68611,7 @@
       <c r="H1809" s="9"/>
       <c r="I1809"/>
       <c r="J1809" s="1" t="s">
-        <v>342</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1810" spans="1:10" x14ac:dyDescent="0.2">
@@ -68388,7 +68636,7 @@
       <c r="H1810" s="9"/>
       <c r="I1810"/>
       <c r="J1810" s="1" t="s">
-        <v>2616</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1811" spans="1:10" x14ac:dyDescent="0.2">
@@ -68413,7 +68661,7 @@
       <c r="H1811" s="9"/>
       <c r="I1811"/>
       <c r="J1811" s="1" t="s">
-        <v>2619</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1812" spans="1:10" x14ac:dyDescent="0.2">
@@ -68438,7 +68686,7 @@
       <c r="H1812" s="9"/>
       <c r="I1812"/>
       <c r="J1812" s="1" t="s">
-        <v>2622</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1813" spans="1:10" x14ac:dyDescent="0.2">
@@ -68463,7 +68711,7 @@
       <c r="H1813" s="9"/>
       <c r="I1813"/>
       <c r="J1813" s="1" t="s">
-        <v>2625</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1814" spans="1:10" x14ac:dyDescent="0.2">
@@ -68488,7 +68736,7 @@
       <c r="H1814" s="9"/>
       <c r="I1814"/>
       <c r="J1814" s="1" t="s">
-        <v>2628</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1815" spans="1:10" x14ac:dyDescent="0.2">
@@ -68513,7 +68761,7 @@
       <c r="H1815" s="9"/>
       <c r="I1815"/>
       <c r="J1815" s="1" t="s">
-        <v>2632</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1816" spans="1:10" x14ac:dyDescent="0.2">
@@ -68538,7 +68786,7 @@
       <c r="H1816" s="9"/>
       <c r="I1816"/>
       <c r="J1816" s="1" t="s">
-        <v>2635</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1817" spans="1:10" x14ac:dyDescent="0.2">
@@ -68563,7 +68811,7 @@
       <c r="H1817" s="9"/>
       <c r="I1817"/>
       <c r="J1817" s="1" t="s">
-        <v>2638</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1818" spans="1:10" x14ac:dyDescent="0.2">
@@ -68588,7 +68836,7 @@
       <c r="H1818" s="9"/>
       <c r="I1818"/>
       <c r="J1818" s="1" t="s">
-        <v>2641</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1819" spans="1:10" x14ac:dyDescent="0.2">
@@ -68613,7 +68861,7 @@
       <c r="H1819" s="9"/>
       <c r="I1819"/>
       <c r="J1819" s="1" t="s">
-        <v>2644</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1820" spans="1:10" x14ac:dyDescent="0.2">
@@ -68638,7 +68886,7 @@
       <c r="H1820" s="9"/>
       <c r="I1820"/>
       <c r="J1820" s="1" t="s">
-        <v>2648</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1821" spans="1:10" x14ac:dyDescent="0.2">
@@ -68663,7 +68911,7 @@
       <c r="H1821" s="9"/>
       <c r="I1821"/>
       <c r="J1821" s="1" t="s">
-        <v>2651</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1822" spans="1:10" x14ac:dyDescent="0.2">
@@ -68688,7 +68936,7 @@
       <c r="H1822" s="9"/>
       <c r="I1822"/>
       <c r="J1822" s="1" t="s">
-        <v>2654</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="1823" spans="1:10" x14ac:dyDescent="0.2">
@@ -68713,7 +68961,7 @@
       <c r="H1823" s="9"/>
       <c r="I1823"/>
       <c r="J1823" s="1" t="s">
-        <v>2657</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1824" spans="1:10" x14ac:dyDescent="0.2">
@@ -68738,7 +68986,7 @@
       <c r="H1824" s="9"/>
       <c r="I1824"/>
       <c r="J1824" s="1" t="s">
-        <v>2661</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1825" spans="1:10" x14ac:dyDescent="0.2">
@@ -68763,7 +69011,7 @@
       <c r="H1825" s="9"/>
       <c r="I1825"/>
       <c r="J1825" s="1" t="s">
-        <v>2664</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1826" spans="1:10" x14ac:dyDescent="0.2">
@@ -68788,7 +69036,7 @@
       <c r="H1826" s="9"/>
       <c r="I1826"/>
       <c r="J1826" s="1" t="s">
-        <v>2667</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="1827" spans="1:10" x14ac:dyDescent="0.2">
@@ -68813,7 +69061,7 @@
       <c r="H1827" s="9"/>
       <c r="I1827"/>
       <c r="J1827" s="1" t="s">
-        <v>891</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1828" spans="1:10" x14ac:dyDescent="0.2">
@@ -68838,7 +69086,7 @@
       <c r="H1828" s="9"/>
       <c r="I1828"/>
       <c r="J1828" s="1" t="s">
-        <v>2672</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1829" spans="1:10" x14ac:dyDescent="0.2">
@@ -68863,7 +69111,7 @@
       <c r="H1829" s="9"/>
       <c r="I1829"/>
       <c r="J1829" s="1" t="s">
-        <v>2675</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1830" spans="1:10" x14ac:dyDescent="0.2">
@@ -68888,7 +69136,7 @@
       <c r="H1830" s="9"/>
       <c r="I1830"/>
       <c r="J1830" s="1" t="s">
-        <v>2679</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1831" spans="1:10" x14ac:dyDescent="0.2">
@@ -68912,8 +69160,8 @@
       </c>
       <c r="H1831" s="9"/>
       <c r="I1831"/>
-      <c r="J1831" s="1" t="s">
-        <v>2682</v>
+      <c r="J1831" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="1832" spans="1:10" x14ac:dyDescent="0.2">
@@ -68938,7 +69186,7 @@
       <c r="H1832" s="9"/>
       <c r="I1832"/>
       <c r="J1832" s="1" t="s">
-        <v>2684</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1833" spans="1:10" x14ac:dyDescent="0.2">
@@ -68963,7 +69211,7 @@
       <c r="H1833" s="9"/>
       <c r="I1833"/>
       <c r="J1833" s="1" t="s">
-        <v>2687</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1834" spans="1:10" x14ac:dyDescent="0.2">
@@ -68988,7 +69236,7 @@
       <c r="H1834" s="9"/>
       <c r="I1834"/>
       <c r="J1834" s="1" t="s">
-        <v>2690</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1835" spans="1:10" x14ac:dyDescent="0.2">
@@ -69013,7 +69261,7 @@
       <c r="H1835" s="9"/>
       <c r="I1835"/>
       <c r="J1835" s="1" t="s">
-        <v>2694</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1836" spans="1:10" x14ac:dyDescent="0.2">
@@ -69038,7 +69286,7 @@
       <c r="H1836" s="9"/>
       <c r="I1836"/>
       <c r="J1836" s="1" t="s">
-        <v>1423</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1837" spans="1:10" x14ac:dyDescent="0.2">
@@ -69063,7 +69311,7 @@
       <c r="H1837" s="9"/>
       <c r="I1837"/>
       <c r="J1837" s="1" t="s">
-        <v>2700</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1838" spans="1:10" x14ac:dyDescent="0.2">
@@ -69088,7 +69336,7 @@
       <c r="H1838" s="9"/>
       <c r="I1838"/>
       <c r="J1838" s="1" t="s">
-        <v>2703</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1839" spans="1:10" x14ac:dyDescent="0.2">
@@ -69113,7 +69361,7 @@
       <c r="H1839" s="9"/>
       <c r="I1839"/>
       <c r="J1839" s="1" t="s">
-        <v>2706</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1840" spans="1:10" x14ac:dyDescent="0.2">
@@ -69138,7 +69386,7 @@
       <c r="H1840" s="9"/>
       <c r="I1840"/>
       <c r="J1840" s="1" t="s">
-        <v>2709</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1841" spans="1:10" x14ac:dyDescent="0.2">
@@ -69163,7 +69411,7 @@
       <c r="H1841" s="9"/>
       <c r="I1841"/>
       <c r="J1841" s="1" t="s">
-        <v>2713</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1842" spans="1:10" x14ac:dyDescent="0.2">
@@ -69188,7 +69436,7 @@
       <c r="H1842" s="9"/>
       <c r="I1842"/>
       <c r="J1842" s="1" t="s">
-        <v>2716</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1843" spans="1:10" x14ac:dyDescent="0.2">
@@ -69213,7 +69461,7 @@
       <c r="H1843" s="9"/>
       <c r="I1843"/>
       <c r="J1843" s="1" t="s">
-        <v>2719</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1844" spans="1:10" x14ac:dyDescent="0.2">
@@ -69238,7 +69486,7 @@
       <c r="H1844" s="9"/>
       <c r="I1844"/>
       <c r="J1844" s="1" t="s">
-        <v>4509</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1845" spans="1:10" x14ac:dyDescent="0.2">
@@ -69263,7 +69511,7 @@
       <c r="H1845" s="9"/>
       <c r="I1845"/>
       <c r="J1845" s="1" t="s">
-        <v>4510</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1846" spans="1:10" x14ac:dyDescent="0.2">
@@ -69287,6 +69535,9 @@
       </c>
       <c r="H1846" s="9"/>
       <c r="I1846"/>
+      <c r="J1846" s="1" t="s">
+        <v>2528</v>
+      </c>
     </row>
     <row r="1847" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1847">
@@ -69309,6 +69560,9 @@
       </c>
       <c r="H1847" s="9"/>
       <c r="I1847"/>
+      <c r="J1847" s="1" t="s">
+        <v>2532</v>
+      </c>
     </row>
     <row r="1848" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1848">
@@ -69331,6 +69585,9 @@
       </c>
       <c r="H1848" s="9"/>
       <c r="I1848"/>
+      <c r="J1848" s="1" t="s">
+        <v>2536</v>
+      </c>
     </row>
     <row r="1849" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1849">
@@ -69353,6 +69610,9 @@
       </c>
       <c r="H1849" s="9"/>
       <c r="I1849"/>
+      <c r="J1849" s="1" t="s">
+        <v>2540</v>
+      </c>
     </row>
     <row r="1850" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1850">
@@ -69375,6 +69635,9 @@
       </c>
       <c r="H1850" s="9"/>
       <c r="I1850"/>
+      <c r="J1850" s="1" t="s">
+        <v>2544</v>
+      </c>
     </row>
     <row r="1851" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1851">
@@ -69397,6 +69660,9 @@
       </c>
       <c r="H1851" s="9"/>
       <c r="I1851"/>
+      <c r="J1851" s="1" t="s">
+        <v>2547</v>
+      </c>
     </row>
     <row r="1852" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1852">
@@ -69419,6 +69685,9 @@
       </c>
       <c r="H1852" s="9"/>
       <c r="I1852"/>
+      <c r="J1852" s="1" t="s">
+        <v>2550</v>
+      </c>
     </row>
     <row r="1853" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1853">
@@ -69441,6 +69710,9 @@
       </c>
       <c r="H1853" s="9"/>
       <c r="I1853"/>
+      <c r="J1853" s="1" t="s">
+        <v>2553</v>
+      </c>
     </row>
     <row r="1854" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1854">
@@ -69463,6 +69735,9 @@
       </c>
       <c r="H1854" s="9"/>
       <c r="I1854"/>
+      <c r="J1854" s="1" t="s">
+        <v>2557</v>
+      </c>
     </row>
     <row r="1855" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1855">
@@ -69485,6 +69760,9 @@
       </c>
       <c r="H1855" s="9"/>
       <c r="I1855"/>
+      <c r="J1855" s="1" t="s">
+        <v>2560</v>
+      </c>
     </row>
     <row r="1856" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1856">
@@ -69507,8 +69785,11 @@
       </c>
       <c r="H1856" s="9"/>
       <c r="I1856"/>
-    </row>
-    <row r="1857" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1856" s="1" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1857">
         <v>1999</v>
       </c>
@@ -69529,8 +69810,11 @@
       </c>
       <c r="H1857" s="9"/>
       <c r="I1857"/>
-    </row>
-    <row r="1858" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1857" s="1" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1858">
         <v>1999</v>
       </c>
@@ -69551,8 +69835,11 @@
       </c>
       <c r="H1858" s="9"/>
       <c r="I1858"/>
-    </row>
-    <row r="1859" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1858" s="1" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1859">
         <v>1999</v>
       </c>
@@ -69573,8 +69860,11 @@
       </c>
       <c r="H1859" s="9"/>
       <c r="I1859"/>
-    </row>
-    <row r="1860" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1859" s="1" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1860">
         <v>1999</v>
       </c>
@@ -69595,8 +69885,11 @@
       </c>
       <c r="H1860" s="9"/>
       <c r="I1860"/>
-    </row>
-    <row r="1861" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1860" s="1" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1861">
         <v>1999</v>
       </c>
@@ -69617,8 +69910,11 @@
       </c>
       <c r="H1861" s="9"/>
       <c r="I1861"/>
-    </row>
-    <row r="1862" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1861" s="1" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1862">
         <v>1999</v>
       </c>
@@ -69642,8 +69938,11 @@
       </c>
       <c r="H1862" s="9"/>
       <c r="I1862"/>
-    </row>
-    <row r="1863" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1862" s="1" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1863">
         <v>1999</v>
       </c>
@@ -69664,8 +69963,11 @@
       </c>
       <c r="H1863" s="9"/>
       <c r="I1863"/>
-    </row>
-    <row r="1864" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1863" s="1" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1864">
         <v>1999</v>
       </c>
@@ -69686,8 +69988,11 @@
       </c>
       <c r="H1864" s="9"/>
       <c r="I1864"/>
-    </row>
-    <row r="1865" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1864" s="1" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1865">
         <v>1999</v>
       </c>
@@ -69711,8 +70016,11 @@
       </c>
       <c r="H1865" s="9"/>
       <c r="I1865"/>
-    </row>
-    <row r="1866" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1865" s="1" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1866">
         <v>2000</v>
       </c>
@@ -69733,8 +70041,11 @@
       </c>
       <c r="H1866" s="9"/>
       <c r="I1866"/>
-    </row>
-    <row r="1867" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1866" s="1" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1867">
         <v>2000</v>
       </c>
@@ -69755,8 +70066,11 @@
       </c>
       <c r="H1867" s="9"/>
       <c r="I1867"/>
-    </row>
-    <row r="1868" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1867" s="1" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1868">
         <v>2000</v>
       </c>
@@ -69777,8 +70091,11 @@
       </c>
       <c r="H1868" s="9"/>
       <c r="I1868"/>
-    </row>
-    <row r="1869" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1868" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1869">
         <v>2000</v>
       </c>
@@ -69799,8 +70116,11 @@
       </c>
       <c r="H1869" s="9"/>
       <c r="I1869"/>
-    </row>
-    <row r="1870" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1869" s="1" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1870">
         <v>2000</v>
       </c>
@@ -69821,8 +70141,11 @@
       </c>
       <c r="H1870" s="9"/>
       <c r="I1870"/>
-    </row>
-    <row r="1871" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1870" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1871">
         <v>2000</v>
       </c>
@@ -69843,8 +70166,11 @@
       </c>
       <c r="H1871" s="9"/>
       <c r="I1871"/>
-    </row>
-    <row r="1872" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1871" s="1" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1872">
         <v>2000</v>
       </c>
@@ -69865,8 +70191,11 @@
       </c>
       <c r="H1872" s="9"/>
       <c r="I1872"/>
-    </row>
-    <row r="1873" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1872" s="1" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1873">
         <v>2000</v>
       </c>
@@ -69887,8 +70216,11 @@
       </c>
       <c r="H1873" s="9"/>
       <c r="I1873"/>
-    </row>
-    <row r="1874" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1873" s="1" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1874">
         <v>2000</v>
       </c>
@@ -69909,8 +70241,11 @@
       </c>
       <c r="H1874" s="9"/>
       <c r="I1874"/>
-    </row>
-    <row r="1875" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1874" s="1" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1875">
         <v>2000</v>
       </c>
@@ -69931,8 +70266,11 @@
       </c>
       <c r="H1875" s="9"/>
       <c r="I1875"/>
-    </row>
-    <row r="1876" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1875" s="1" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1876">
         <v>2000</v>
       </c>
@@ -69953,8 +70291,11 @@
       </c>
       <c r="H1876" s="9"/>
       <c r="I1876"/>
-    </row>
-    <row r="1877" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1876" s="1" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1877">
         <v>2000</v>
       </c>
@@ -69975,8 +70316,11 @@
       </c>
       <c r="H1877" s="9"/>
       <c r="I1877"/>
-    </row>
-    <row r="1878" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1877" s="1" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1878">
         <v>2000</v>
       </c>
@@ -69997,8 +70341,11 @@
       </c>
       <c r="H1878" s="9"/>
       <c r="I1878"/>
-    </row>
-    <row r="1879" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1878" s="1" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1879">
         <v>2000</v>
       </c>
@@ -70019,8 +70366,11 @@
       </c>
       <c r="H1879" s="9"/>
       <c r="I1879"/>
-    </row>
-    <row r="1880" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1879" s="1" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1880">
         <v>2000</v>
       </c>
@@ -70041,8 +70391,11 @@
       </c>
       <c r="H1880" s="9"/>
       <c r="I1880"/>
-    </row>
-    <row r="1881" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1880" s="1" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1881">
         <v>2000</v>
       </c>
@@ -70063,8 +70416,11 @@
       </c>
       <c r="H1881" s="9"/>
       <c r="I1881"/>
-    </row>
-    <row r="1882" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1881" s="1" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1882">
         <v>2000</v>
       </c>
@@ -70085,8 +70441,11 @@
       </c>
       <c r="H1882" s="9"/>
       <c r="I1882"/>
-    </row>
-    <row r="1883" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1882" s="1" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1883">
         <v>2000</v>
       </c>
@@ -70107,8 +70466,11 @@
       </c>
       <c r="H1883" s="9"/>
       <c r="I1883"/>
-    </row>
-    <row r="1884" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1883" s="1" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1884">
         <v>2000</v>
       </c>
@@ -70129,8 +70491,11 @@
       </c>
       <c r="H1884" s="9"/>
       <c r="I1884"/>
-    </row>
-    <row r="1885" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1884" s="1" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1885">
         <v>2000</v>
       </c>
@@ -70151,8 +70516,11 @@
       </c>
       <c r="H1885" s="9"/>
       <c r="I1885"/>
-    </row>
-    <row r="1886" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1885" s="1" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1886">
         <v>2000</v>
       </c>
@@ -70173,8 +70541,11 @@
       </c>
       <c r="H1886" s="9"/>
       <c r="I1886"/>
-    </row>
-    <row r="1887" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1886" s="1" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1887">
         <v>2000</v>
       </c>
@@ -70195,8 +70566,11 @@
       </c>
       <c r="H1887" s="9"/>
       <c r="I1887"/>
-    </row>
-    <row r="1888" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1887" s="1" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1888">
         <v>2000</v>
       </c>
@@ -70217,8 +70591,11 @@
       </c>
       <c r="H1888" s="9"/>
       <c r="I1888"/>
-    </row>
-    <row r="1889" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1888" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1889">
         <v>2000</v>
       </c>
@@ -70239,8 +70616,11 @@
       </c>
       <c r="H1889" s="9"/>
       <c r="I1889"/>
-    </row>
-    <row r="1890" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1889" s="1" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1890">
         <v>2000</v>
       </c>
@@ -70261,8 +70641,11 @@
       </c>
       <c r="H1890" s="9"/>
       <c r="I1890"/>
-    </row>
-    <row r="1891" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1890" s="1" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1891">
         <v>2000</v>
       </c>
@@ -70283,8 +70666,11 @@
       </c>
       <c r="H1891" s="9"/>
       <c r="I1891"/>
-    </row>
-    <row r="1892" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1891" s="1" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1892">
         <v>2000</v>
       </c>
@@ -70305,8 +70691,11 @@
       </c>
       <c r="H1892" s="9"/>
       <c r="I1892"/>
-    </row>
-    <row r="1893" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1892" s="1" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1893">
         <v>2000</v>
       </c>
@@ -70327,8 +70716,11 @@
       </c>
       <c r="H1893" s="9"/>
       <c r="I1893"/>
-    </row>
-    <row r="1894" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1893" s="1" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1894">
         <v>2000</v>
       </c>
@@ -70349,8 +70741,11 @@
       </c>
       <c r="H1894" s="9"/>
       <c r="I1894"/>
-    </row>
-    <row r="1895" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1894" s="1" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1895">
         <v>2000</v>
       </c>
@@ -70371,8 +70766,11 @@
       </c>
       <c r="H1895" s="9"/>
       <c r="I1895"/>
-    </row>
-    <row r="1896" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1895" s="1" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1896">
         <v>2000</v>
       </c>
@@ -70393,8 +70791,11 @@
       </c>
       <c r="H1896" s="9"/>
       <c r="I1896"/>
-    </row>
-    <row r="1897" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1896" s="1" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1897">
         <v>2000</v>
       </c>
@@ -70415,8 +70816,11 @@
       </c>
       <c r="H1897" s="9"/>
       <c r="I1897"/>
-    </row>
-    <row r="1898" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1897" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1898">
         <v>2000</v>
       </c>
@@ -70437,8 +70841,11 @@
       </c>
       <c r="H1898" s="9"/>
       <c r="I1898"/>
-    </row>
-    <row r="1899" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1898" s="1" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1899">
         <v>2000</v>
       </c>
@@ -70459,8 +70866,11 @@
       </c>
       <c r="H1899" s="9"/>
       <c r="I1899"/>
-    </row>
-    <row r="1900" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1899" s="1" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1900">
         <v>2000</v>
       </c>
@@ -70481,8 +70891,11 @@
       </c>
       <c r="H1900" s="9"/>
       <c r="I1900"/>
-    </row>
-    <row r="1901" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1900" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1901">
         <v>2000</v>
       </c>
@@ -70503,8 +70916,11 @@
       </c>
       <c r="H1901" s="9"/>
       <c r="I1901"/>
-    </row>
-    <row r="1902" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1901" s="1" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1902">
         <v>2000</v>
       </c>
@@ -70525,8 +70941,11 @@
       </c>
       <c r="H1902" s="9"/>
       <c r="I1902"/>
-    </row>
-    <row r="1903" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1902" s="1" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1903">
         <v>2000</v>
       </c>
@@ -70547,8 +70966,11 @@
       </c>
       <c r="H1903" s="9"/>
       <c r="I1903"/>
-    </row>
-    <row r="1904" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1903" s="1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1904">
         <v>2000</v>
       </c>
@@ -70572,8 +70994,11 @@
       </c>
       <c r="H1904" s="9"/>
       <c r="I1904"/>
-    </row>
-    <row r="1905" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1904" s="1" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1905">
         <v>2000</v>
       </c>
@@ -70594,8 +71019,11 @@
       </c>
       <c r="H1905" s="9"/>
       <c r="I1905"/>
-    </row>
-    <row r="1906" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1905" s="1" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1906">
         <v>2000</v>
       </c>
@@ -70616,8 +71044,11 @@
       </c>
       <c r="H1906" s="9"/>
       <c r="I1906"/>
-    </row>
-    <row r="1907" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1906" s="1" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1907">
         <v>2000</v>
       </c>
@@ -70639,7 +71070,7 @@
       <c r="H1907" s="9"/>
       <c r="I1907"/>
     </row>
-    <row r="1908" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1908" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1908">
         <v>2000</v>
       </c>
@@ -70661,7 +71092,7 @@
       <c r="H1908" s="9"/>
       <c r="I1908"/>
     </row>
-    <row r="1909" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1909" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1909">
         <v>2000</v>
       </c>
@@ -70686,7 +71117,7 @@
       <c r="H1909" s="9"/>
       <c r="I1909"/>
     </row>
-    <row r="1910" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1910" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1910">
         <v>2000</v>
       </c>
@@ -70708,7 +71139,7 @@
       <c r="H1910" s="9"/>
       <c r="I1910"/>
     </row>
-    <row r="1911" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1911" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1911">
         <v>2000</v>
       </c>
@@ -70730,7 +71161,7 @@
       <c r="H1911" s="9"/>
       <c r="I1911"/>
     </row>
-    <row r="1912" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1912" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1912">
         <v>2000</v>
       </c>
@@ -70752,7 +71183,7 @@
       <c r="H1912" s="9"/>
       <c r="I1912"/>
     </row>
-    <row r="1913" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1913" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1913">
         <v>2000</v>
       </c>
@@ -70774,7 +71205,7 @@
       <c r="H1913" s="9"/>
       <c r="I1913"/>
     </row>
-    <row r="1914" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1914" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1914">
         <v>2000</v>
       </c>
@@ -70796,7 +71227,7 @@
       <c r="H1914" s="9"/>
       <c r="I1914"/>
     </row>
-    <row r="1915" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1915" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1915">
         <v>2000</v>
       </c>
@@ -70818,7 +71249,7 @@
       <c r="H1915" s="9"/>
       <c r="I1915"/>
     </row>
-    <row r="1916" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1916" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1916">
         <v>2000</v>
       </c>
@@ -70840,7 +71271,7 @@
       <c r="H1916" s="9"/>
       <c r="I1916"/>
     </row>
-    <row r="1917" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1917" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1917">
         <v>2000</v>
       </c>
@@ -70862,7 +71293,7 @@
       <c r="H1917" s="9"/>
       <c r="I1917"/>
     </row>
-    <row r="1918" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1918" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1918">
         <v>2000</v>
       </c>
@@ -70884,7 +71315,7 @@
       <c r="H1918" s="9"/>
       <c r="I1918"/>
     </row>
-    <row r="1919" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1919" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1919">
         <v>2000</v>
       </c>
@@ -70906,7 +71337,7 @@
       <c r="H1919" s="9"/>
       <c r="I1919"/>
     </row>
-    <row r="1920" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1920" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1920">
         <v>2000</v>
       </c>

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13014" uniqueCount="7254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13109" uniqueCount="7292">
   <si>
     <t>Year</t>
   </si>
@@ -21784,6 +21784,120 @@
   </si>
   <si>
     <t>Wyścig Armatniej Kuli 3</t>
+  </si>
+  <si>
+    <t>Uwierz w ducha</t>
+  </si>
+  <si>
+    <t>Szklana pułapka 2</t>
+  </si>
+  <si>
+    <t>Uznany za niewinnego</t>
+  </si>
+  <si>
+    <t>Wojownicze Żółwie Ninja</t>
+  </si>
+  <si>
+    <t>Następne 48 godzin</t>
+  </si>
+  <si>
+    <t>Ptaszek na uwięzi</t>
+  </si>
+  <si>
+    <t>I kto to mówi 2</t>
+  </si>
+  <si>
+    <t>Gliniarz w przedszkolu</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>Przebudzenia</t>
+  </si>
+  <si>
+    <t>Szybki jak błyskawica</t>
+  </si>
+  <si>
+    <t>Edward Nożycoręki</t>
+  </si>
+  <si>
+    <t>Twardziel Werner</t>
+  </si>
+  <si>
+    <t>Niekończąca się opowieść II: Następny rozdział</t>
+  </si>
+  <si>
+    <t>Gremliny 2</t>
+  </si>
+  <si>
+    <t>Trzech mężczyzn i mała dama</t>
+  </si>
+  <si>
+    <t>Bernard i Bianka w krainie kangurów</t>
+  </si>
+  <si>
+    <t>Ojciec chrzestny III</t>
+  </si>
+  <si>
+    <t>Linia życia</t>
+  </si>
+  <si>
+    <t>Wygrać ze śmiercią</t>
+  </si>
+  <si>
+    <t>Młode strzelby II</t>
+  </si>
+  <si>
+    <t>Człowiek ciemności</t>
+  </si>
+  <si>
+    <t>Chińskie duchy 2</t>
+  </si>
+  <si>
+    <t>Liu jai yim taam</t>
+  </si>
+  <si>
+    <t>Egzorcysta III</t>
+  </si>
+  <si>
+    <t>Joe i wulkan</t>
+  </si>
+  <si>
+    <t>Syreny</t>
+  </si>
+  <si>
+    <t>Powrót laleczki Chucky</t>
+  </si>
+  <si>
+    <t>Feuer, Eis &amp; Dynamit</t>
+  </si>
+  <si>
+    <t>Aema buin 4</t>
+  </si>
+  <si>
+    <t>Wydział Rosja</t>
+  </si>
+  <si>
+    <t>Kula w łeb</t>
+  </si>
+  <si>
+    <t>Drabina Jakubowa</t>
+  </si>
+  <si>
+    <t>Komando 'FOKI'</t>
+  </si>
+  <si>
+    <t>Opowieść podręcznej</t>
+  </si>
+  <si>
+    <t>Dzikość serca</t>
+  </si>
+  <si>
+    <t>Kupiłem motocykl wampir</t>
+  </si>
+  <si>
+    <t>Sensazioni d'amore</t>
   </si>
 </sst>
 </file>
@@ -22242,11 +22356,11 @@
   <dimension ref="A1:P2441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G1217" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G1273" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="J1225" sqref="J1225"/>
+      <selection pane="bottomRight" activeCell="H1282" sqref="H1282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53991,7 +54105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1217">
         <v>1989</v>
       </c>
@@ -54017,7 +54131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1218">
         <v>1989</v>
       </c>
@@ -54043,7 +54157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1219">
         <v>1989</v>
       </c>
@@ -54072,7 +54186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1220">
         <v>1989</v>
       </c>
@@ -54098,7 +54212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1221">
         <v>1989</v>
       </c>
@@ -54124,7 +54238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1222">
         <v>1989</v>
       </c>
@@ -54150,7 +54264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1223">
         <v>1990</v>
       </c>
@@ -54169,8 +54283,14 @@
       <c r="G1223" t="s">
         <v>5279</v>
       </c>
-    </row>
-    <row r="1224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1223" s="11" t="s">
+        <v>7254</v>
+      </c>
+      <c r="I1223" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1224">
         <v>1990</v>
       </c>
@@ -54196,7 +54316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1225">
         <v>1990</v>
       </c>
@@ -54222,7 +54342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1226">
         <v>1990</v>
       </c>
@@ -54241,8 +54361,14 @@
       <c r="G1226" t="s">
         <v>5284</v>
       </c>
-    </row>
-    <row r="1227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1226" s="11" t="s">
+        <v>4278</v>
+      </c>
+      <c r="I1226" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1227">
         <v>1990</v>
       </c>
@@ -54268,7 +54394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1228">
         <v>1990</v>
       </c>
@@ -54287,8 +54413,14 @@
       <c r="G1228" t="s">
         <v>5289</v>
       </c>
-    </row>
-    <row r="1229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1228" s="11" t="s">
+        <v>7255</v>
+      </c>
+      <c r="I1228" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1229">
         <v>1990</v>
       </c>
@@ -54307,8 +54439,14 @@
       <c r="G1229" t="s">
         <v>5292</v>
       </c>
-    </row>
-    <row r="1230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1229" s="11" t="s">
+        <v>7256</v>
+      </c>
+      <c r="I1229" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1230">
         <v>1990</v>
       </c>
@@ -54327,11 +54465,14 @@
       <c r="G1230" t="s">
         <v>5294</v>
       </c>
-      <c r="J1230" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1230" s="1" t="s">
+        <v>4282</v>
+      </c>
+      <c r="I1230" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1231">
         <v>1990</v>
       </c>
@@ -54350,11 +54491,14 @@
       <c r="G1231" t="s">
         <v>5296</v>
       </c>
-      <c r="J1231" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1231" s="11" t="s">
+        <v>7257</v>
+      </c>
+      <c r="I1231" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1232">
         <v>1990</v>
       </c>
@@ -54373,11 +54517,14 @@
       <c r="G1232" t="s">
         <v>5298</v>
       </c>
-      <c r="J1232" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1232" s="11" t="s">
+        <v>5297</v>
+      </c>
+      <c r="I1232" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1233">
         <v>1990</v>
       </c>
@@ -54396,11 +54543,14 @@
       <c r="G1233" t="s">
         <v>5300</v>
       </c>
-      <c r="J1233" s="1" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1233" s="11" t="s">
+        <v>7258</v>
+      </c>
+      <c r="I1233" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1234">
         <v>1990</v>
       </c>
@@ -54419,11 +54569,14 @@
       <c r="G1234" t="s">
         <v>5302</v>
       </c>
-      <c r="J1234" s="1" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1234" s="11" t="s">
+        <v>7259</v>
+      </c>
+      <c r="I1234" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1235">
         <v>1990</v>
       </c>
@@ -54448,11 +54601,8 @@
       <c r="I1235" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1235" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1236">
         <v>1990</v>
       </c>
@@ -54471,11 +54621,14 @@
       <c r="G1236" t="s">
         <v>5305</v>
       </c>
-      <c r="J1236" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1236" s="1" t="s">
+        <v>4285</v>
+      </c>
+      <c r="I1236" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1237">
         <v>1990</v>
       </c>
@@ -54494,11 +54647,14 @@
       <c r="G1237" t="s">
         <v>5307</v>
       </c>
-      <c r="J1237" s="1" t="s">
-        <v>4274</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1237" s="11" t="s">
+        <v>7260</v>
+      </c>
+      <c r="I1237" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1238">
         <v>1990</v>
       </c>
@@ -54517,11 +54673,14 @@
       <c r="G1238" t="s">
         <v>5309</v>
       </c>
-      <c r="J1238" s="1" t="s">
-        <v>4276</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1238" s="11" t="s">
+        <v>7261</v>
+      </c>
+      <c r="I1238" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1239">
         <v>1990</v>
       </c>
@@ -54540,11 +54699,14 @@
       <c r="G1239" t="s">
         <v>5311</v>
       </c>
-      <c r="J1239" s="1" t="s">
-        <v>4278</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1239" s="11" t="s">
+        <v>7263</v>
+      </c>
+      <c r="I1239" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1240">
         <v>1990</v>
       </c>
@@ -54563,11 +54725,14 @@
       <c r="G1240" t="s">
         <v>5313</v>
       </c>
-      <c r="J1240" s="1" t="s">
-        <v>4280</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1240" s="1" t="s">
+        <v>4288</v>
+      </c>
+      <c r="I1240" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1241">
         <v>1990</v>
       </c>
@@ -54586,11 +54751,14 @@
       <c r="G1241" t="s">
         <v>5315</v>
       </c>
-      <c r="J1241" s="1" t="s">
-        <v>4282</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1241" s="11" t="s">
+        <v>7264</v>
+      </c>
+      <c r="I1241" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1242">
         <v>1990</v>
       </c>
@@ -54609,11 +54777,14 @@
       <c r="G1242" t="s">
         <v>5317</v>
       </c>
-      <c r="J1242" s="1" t="s">
-        <v>4284</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1242" s="11" t="s">
+        <v>7265</v>
+      </c>
+      <c r="I1242" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1243">
         <v>1990</v>
       </c>
@@ -54632,11 +54803,14 @@
       <c r="G1243" t="s">
         <v>5320</v>
       </c>
-      <c r="J1243" s="1" t="s">
-        <v>4285</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1243" s="11" t="s">
+        <v>7266</v>
+      </c>
+      <c r="I1243" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1244">
         <v>1990</v>
       </c>
@@ -54661,11 +54835,11 @@
       <c r="H1244" s="1" t="s">
         <v>4275</v>
       </c>
-      <c r="J1244" s="1" t="s">
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1244" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1245">
         <v>1990</v>
       </c>
@@ -54684,11 +54858,14 @@
       <c r="G1245" t="s">
         <v>5323</v>
       </c>
-      <c r="J1245" s="1" t="s">
-        <v>4288</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1245" s="11" t="s">
+        <v>7262</v>
+      </c>
+      <c r="I1245" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1246">
         <v>1990</v>
       </c>
@@ -54707,11 +54884,14 @@
       <c r="G1246" t="s">
         <v>5325</v>
       </c>
-      <c r="J1246" s="1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1246" s="11" t="s">
+        <v>7267</v>
+      </c>
+      <c r="I1246" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1247">
         <v>1990</v>
       </c>
@@ -54730,11 +54910,14 @@
       <c r="G1247" t="s">
         <v>5328</v>
       </c>
-      <c r="J1247" s="1" t="s">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1247" s="11" t="s">
+        <v>7268</v>
+      </c>
+      <c r="I1247" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1248">
         <v>1990</v>
       </c>
@@ -54753,11 +54936,14 @@
       <c r="G1248" t="s">
         <v>5330</v>
       </c>
-      <c r="J1248" s="1" t="s">
-        <v>4290</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1248" s="11" t="s">
+        <v>7269</v>
+      </c>
+      <c r="I1248" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1249">
         <v>1990</v>
       </c>
@@ -54776,11 +54962,14 @@
       <c r="G1249" t="s">
         <v>5332</v>
       </c>
-      <c r="J1249" s="1" t="s">
-        <v>4291</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1249" s="11" t="s">
+        <v>7270</v>
+      </c>
+      <c r="I1249" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1250">
         <v>1990</v>
       </c>
@@ -54799,11 +54988,14 @@
       <c r="G1250" t="s">
         <v>5335</v>
       </c>
-      <c r="J1250" s="1" t="s">
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1250" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I1250" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1251">
         <v>1990</v>
       </c>
@@ -54822,11 +55014,14 @@
       <c r="G1251" t="s">
         <v>5337</v>
       </c>
-      <c r="J1251" s="1" t="s">
-        <v>4294</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1251" s="11" t="s">
+        <v>7271</v>
+      </c>
+      <c r="I1251" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1252">
         <v>1990</v>
       </c>
@@ -54845,11 +55040,14 @@
       <c r="G1252" t="s">
         <v>5339</v>
       </c>
-      <c r="J1252" s="1" t="s">
-        <v>4295</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1252" s="11" t="s">
+        <v>7272</v>
+      </c>
+      <c r="I1252" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1253">
         <v>1990</v>
       </c>
@@ -54868,11 +55066,14 @@
       <c r="G1253" t="s">
         <v>5341</v>
       </c>
-      <c r="J1253" s="1" t="s">
-        <v>4296</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1253" s="11" t="s">
+        <v>5340</v>
+      </c>
+      <c r="I1253" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1254">
         <v>1990</v>
       </c>
@@ -54891,11 +55092,14 @@
       <c r="G1254" t="s">
         <v>5343</v>
       </c>
-      <c r="J1254" s="1" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1254" s="11" t="s">
+        <v>7273</v>
+      </c>
+      <c r="I1254" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1255">
         <v>1990</v>
       </c>
@@ -54914,11 +55118,14 @@
       <c r="G1255" t="s">
         <v>5345</v>
       </c>
-      <c r="J1255" s="1" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1255" s="11" t="s">
+        <v>7274</v>
+      </c>
+      <c r="I1255" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1256">
         <v>1990</v>
       </c>
@@ -54937,11 +55144,14 @@
       <c r="G1256" t="s">
         <v>5347</v>
       </c>
-      <c r="J1256" s="1" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1256" s="11" t="s">
+        <v>7275</v>
+      </c>
+      <c r="I1256" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1257">
         <v>1990</v>
       </c>
@@ -54963,11 +55173,11 @@
       <c r="H1257" s="1" t="s">
         <v>4281</v>
       </c>
-      <c r="J1257" s="1" t="s">
-        <v>4297</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1257" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1258">
         <v>1990</v>
       </c>
@@ -54986,11 +55196,14 @@
       <c r="G1258" t="s">
         <v>5351</v>
       </c>
-      <c r="J1258" s="1" t="s">
-        <v>4298</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1258" s="11" t="s">
+        <v>7276</v>
+      </c>
+      <c r="I1258" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1259">
         <v>1990</v>
       </c>
@@ -55009,12 +55222,14 @@
       <c r="G1259" t="s">
         <v>5354</v>
       </c>
-      <c r="I1259"/>
-      <c r="J1259" s="1" t="s">
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1259" s="11" t="s">
+        <v>7277</v>
+      </c>
+      <c r="I1259" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1260">
         <v>1990</v>
       </c>
@@ -55033,13 +55248,14 @@
       <c r="G1260" t="s">
         <v>5356</v>
       </c>
-      <c r="H1260" s="9"/>
-      <c r="I1260"/>
-      <c r="J1260" s="1" t="s">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1260" s="1" t="s">
+        <v>4280</v>
+      </c>
+      <c r="I1260" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1261">
         <v>1990</v>
       </c>
@@ -55058,13 +55274,14 @@
       <c r="G1261" t="s">
         <v>5357</v>
       </c>
-      <c r="H1261" s="9"/>
-      <c r="I1261"/>
-      <c r="J1261" s="1" t="s">
-        <v>4301</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1261" s="1" t="s">
+        <v>4284</v>
+      </c>
+      <c r="I1261" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1262">
         <v>1990</v>
       </c>
@@ -55083,13 +55300,14 @@
       <c r="G1262" t="s">
         <v>5358</v>
       </c>
-      <c r="H1262" s="9"/>
-      <c r="I1262"/>
-      <c r="J1262" s="1" t="s">
-        <v>4302</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1262" s="1" t="s">
+        <v>4286</v>
+      </c>
+      <c r="I1262" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1263">
         <v>1990</v>
       </c>
@@ -55108,13 +55326,14 @@
       <c r="G1263" t="s">
         <v>5360</v>
       </c>
-      <c r="H1263" s="9"/>
-      <c r="I1263"/>
-      <c r="J1263" s="1" t="s">
-        <v>4303</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1263" s="9" t="s">
+        <v>7278</v>
+      </c>
+      <c r="I1263" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1264">
         <v>1990</v>
       </c>
@@ -55133,13 +55352,14 @@
       <c r="G1264" t="s">
         <v>5363</v>
       </c>
-      <c r="H1264" s="9"/>
-      <c r="I1264"/>
-      <c r="J1264" s="1" t="s">
-        <v>4304</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1264" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I1264" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1265">
         <v>1990</v>
       </c>
@@ -55158,13 +55378,14 @@
       <c r="G1265" t="s">
         <v>5366</v>
       </c>
-      <c r="H1265" s="9"/>
-      <c r="I1265"/>
-      <c r="J1265" s="1" t="s">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1265" s="9" t="s">
+        <v>7279</v>
+      </c>
+      <c r="I1265" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1266">
         <v>1990</v>
       </c>
@@ -55183,13 +55404,14 @@
       <c r="G1266" t="s">
         <v>5368</v>
       </c>
-      <c r="H1266" s="9"/>
-      <c r="I1266"/>
-      <c r="J1266" s="1" t="s">
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1266" s="9" t="s">
+        <v>7280</v>
+      </c>
+      <c r="I1266" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1267">
         <v>1990</v>
       </c>
@@ -55208,13 +55430,14 @@
       <c r="G1267" t="s">
         <v>5370</v>
       </c>
-      <c r="H1267" s="9"/>
-      <c r="I1267"/>
-      <c r="J1267" s="1" t="s">
-        <v>4307</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1267" s="9" t="s">
+        <v>7281</v>
+      </c>
+      <c r="I1267" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1268">
         <v>1990</v>
       </c>
@@ -55233,13 +55456,14 @@
       <c r="G1268" t="s">
         <v>5372</v>
       </c>
-      <c r="H1268" s="9"/>
-      <c r="I1268"/>
-      <c r="J1268" s="1" t="s">
-        <v>4308</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1268" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I1268" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1269">
         <v>1990</v>
       </c>
@@ -55258,13 +55482,14 @@
       <c r="G1269" t="s">
         <v>5375</v>
       </c>
-      <c r="H1269" s="9"/>
-      <c r="I1269"/>
-      <c r="J1269" s="1" t="s">
-        <v>4309</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1269" s="9" t="s">
+        <v>7282</v>
+      </c>
+      <c r="I1269" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1270">
         <v>1990</v>
       </c>
@@ -55283,13 +55508,14 @@
       <c r="G1270" t="s">
         <v>5377</v>
       </c>
-      <c r="H1270" s="9"/>
-      <c r="I1270"/>
-      <c r="J1270" s="1" t="s">
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1270" s="9" t="s">
+        <v>7283</v>
+      </c>
+      <c r="I1270" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1271">
         <v>1990</v>
       </c>
@@ -55308,13 +55534,14 @@
       <c r="G1271" t="s">
         <v>5379</v>
       </c>
-      <c r="H1271" s="9"/>
-      <c r="I1271"/>
-      <c r="J1271" s="1" t="s">
-        <v>4311</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1271" s="9" t="s">
+        <v>7284</v>
+      </c>
+      <c r="I1271" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1272">
         <v>1990</v>
       </c>
@@ -55333,13 +55560,14 @@
       <c r="G1272" t="s">
         <v>5381</v>
       </c>
-      <c r="H1272" s="9"/>
-      <c r="I1272"/>
-      <c r="J1272" s="1" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1272" s="9" t="s">
+        <v>7285</v>
+      </c>
+      <c r="I1272" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1273">
         <v>1990</v>
       </c>
@@ -55358,13 +55586,14 @@
       <c r="G1273" t="s">
         <v>5383</v>
       </c>
-      <c r="H1273" s="9"/>
-      <c r="I1273"/>
-      <c r="J1273" s="1" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1273" s="9" t="s">
+        <v>7286</v>
+      </c>
+      <c r="I1273" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1274">
         <v>1990</v>
       </c>
@@ -55383,13 +55612,14 @@
       <c r="G1274" t="s">
         <v>5385</v>
       </c>
-      <c r="H1274" s="9"/>
-      <c r="I1274"/>
-      <c r="J1274" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1274" s="9" t="s">
+        <v>7287</v>
+      </c>
+      <c r="I1274" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1275">
         <v>1990</v>
       </c>
@@ -55408,13 +55638,14 @@
       <c r="G1275" t="s">
         <v>5388</v>
       </c>
-      <c r="H1275" s="9"/>
-      <c r="I1275"/>
-      <c r="J1275" s="1" t="s">
-        <v>4312</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1275" s="9" t="s">
+        <v>7288</v>
+      </c>
+      <c r="I1275" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1276">
         <v>1990</v>
       </c>
@@ -55433,13 +55664,14 @@
       <c r="G1276" t="s">
         <v>5390</v>
       </c>
-      <c r="H1276" s="9"/>
-      <c r="I1276"/>
-      <c r="J1276" s="1" t="s">
-        <v>4313</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1276" s="9" t="s">
+        <v>7289</v>
+      </c>
+      <c r="I1276" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1277">
         <v>1990</v>
       </c>
@@ -55458,13 +55690,14 @@
       <c r="G1277" t="s">
         <v>5392</v>
       </c>
-      <c r="H1277" s="9"/>
-      <c r="I1277"/>
-      <c r="J1277" s="1" t="s">
-        <v>4314</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1277" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I1277" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1278">
         <v>1990</v>
       </c>
@@ -55483,13 +55716,14 @@
       <c r="G1278" t="s">
         <v>5394</v>
       </c>
-      <c r="H1278" s="9"/>
-      <c r="I1278"/>
-      <c r="J1278" s="1" t="s">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1278" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I1278" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1279">
         <v>1990</v>
       </c>
@@ -55511,13 +55745,14 @@
       <c r="G1279" t="s">
         <v>5396</v>
       </c>
-      <c r="H1279" s="9"/>
-      <c r="I1279"/>
-      <c r="J1279" s="1" t="s">
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1279" s="1" t="s">
+        <v>4274</v>
+      </c>
+      <c r="I1279" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1280">
         <v>1990</v>
       </c>
@@ -55539,10 +55774,11 @@
       <c r="G1280" t="s">
         <v>5400</v>
       </c>
-      <c r="H1280" s="9"/>
-      <c r="I1280"/>
-      <c r="J1280" s="1" t="s">
-        <v>4317</v>
+      <c r="H1280" s="9" t="s">
+        <v>7290</v>
+      </c>
+      <c r="I1280" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1281" spans="1:10" x14ac:dyDescent="0.2">
@@ -55564,10 +55800,11 @@
       <c r="G1281" t="s">
         <v>5403</v>
       </c>
-      <c r="H1281" s="9"/>
-      <c r="I1281"/>
-      <c r="J1281" s="1" t="s">
-        <v>4318</v>
+      <c r="H1281" s="9" t="s">
+        <v>7291</v>
+      </c>
+      <c r="I1281" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="1282" spans="1:10" x14ac:dyDescent="0.2">
@@ -55591,9 +55828,6 @@
       </c>
       <c r="H1282" s="9"/>
       <c r="I1282"/>
-      <c r="J1282" s="1" t="s">
-        <v>4319</v>
-      </c>
     </row>
     <row r="1283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1283">
@@ -55616,9 +55850,6 @@
       </c>
       <c r="H1283" s="9"/>
       <c r="I1283"/>
-      <c r="J1283" s="1" t="s">
-        <v>4320</v>
-      </c>
     </row>
     <row r="1284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1284">
@@ -55641,9 +55872,6 @@
       </c>
       <c r="H1284" s="9"/>
       <c r="I1284"/>
-      <c r="J1284" s="1" t="s">
-        <v>4321</v>
-      </c>
     </row>
     <row r="1285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1285">
@@ -55667,7 +55895,7 @@
       <c r="H1285" s="9"/>
       <c r="I1285"/>
       <c r="J1285" s="1" t="s">
-        <v>1232</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1286" spans="1:10" x14ac:dyDescent="0.2">
@@ -55692,7 +55920,7 @@
       <c r="H1286" s="9"/>
       <c r="I1286"/>
       <c r="J1286" s="1" t="s">
-        <v>1236</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1287" spans="1:10" x14ac:dyDescent="0.2">
@@ -55717,7 +55945,7 @@
       <c r="H1287" s="9"/>
       <c r="I1287"/>
       <c r="J1287" s="1" t="s">
-        <v>56</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1288" spans="1:10" x14ac:dyDescent="0.2">
@@ -55742,7 +55970,7 @@
       <c r="H1288" s="9"/>
       <c r="I1288"/>
       <c r="J1288" s="1" t="s">
-        <v>1240</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1289" spans="1:10" x14ac:dyDescent="0.2">
@@ -55767,7 +55995,7 @@
       <c r="H1289" s="9"/>
       <c r="I1289"/>
       <c r="J1289" s="1" t="s">
-        <v>4322</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1290" spans="1:10" x14ac:dyDescent="0.2">
@@ -55792,7 +56020,7 @@
       <c r="H1290" s="9"/>
       <c r="I1290"/>
       <c r="J1290" s="1" t="s">
-        <v>4299</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1291" spans="1:10" x14ac:dyDescent="0.2">
@@ -55817,7 +56045,7 @@
       <c r="H1291" s="9"/>
       <c r="I1291"/>
       <c r="J1291" s="1" t="s">
-        <v>4323</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1292" spans="1:10" x14ac:dyDescent="0.2">
@@ -55842,7 +56070,7 @@
       <c r="H1292" s="9"/>
       <c r="I1292"/>
       <c r="J1292" s="1" t="s">
-        <v>4324</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="1293" spans="1:10" x14ac:dyDescent="0.2">
@@ -55867,7 +56095,7 @@
       <c r="H1293" s="9"/>
       <c r="I1293"/>
       <c r="J1293" s="1" t="s">
-        <v>4325</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1294" spans="1:10" x14ac:dyDescent="0.2">
@@ -55892,7 +56120,7 @@
       <c r="H1294" s="9"/>
       <c r="I1294"/>
       <c r="J1294" s="1" t="s">
-        <v>4326</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1295" spans="1:10" x14ac:dyDescent="0.2">
@@ -55917,7 +56145,7 @@
       <c r="H1295" s="9"/>
       <c r="I1295"/>
       <c r="J1295" s="1" t="s">
-        <v>4327</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1296" spans="1:10" x14ac:dyDescent="0.2">
@@ -55942,7 +56170,7 @@
       <c r="H1296" s="9"/>
       <c r="I1296"/>
       <c r="J1296" s="1" t="s">
-        <v>4328</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1297" spans="1:10" x14ac:dyDescent="0.2">
@@ -55967,7 +56195,7 @@
       <c r="H1297" s="9"/>
       <c r="I1297"/>
       <c r="J1297" s="1" t="s">
-        <v>4329</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1298" spans="1:10" x14ac:dyDescent="0.2">
@@ -55992,7 +56220,7 @@
       <c r="H1298" s="9"/>
       <c r="I1298"/>
       <c r="J1298" s="1" t="s">
-        <v>4330</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1299" spans="1:10" x14ac:dyDescent="0.2">
@@ -56017,7 +56245,7 @@
       <c r="H1299" s="9"/>
       <c r="I1299"/>
       <c r="J1299" s="1" t="s">
-        <v>4331</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1300" spans="1:10" x14ac:dyDescent="0.2">
@@ -56042,7 +56270,7 @@
       <c r="H1300" s="9"/>
       <c r="I1300"/>
       <c r="J1300" s="1" t="s">
-        <v>4332</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1301" spans="1:10" x14ac:dyDescent="0.2">
@@ -56067,7 +56295,7 @@
       <c r="H1301" s="9"/>
       <c r="I1301"/>
       <c r="J1301" s="1" t="s">
-        <v>4333</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1302" spans="1:10" x14ac:dyDescent="0.2">
@@ -56092,7 +56320,7 @@
       <c r="H1302" s="9"/>
       <c r="I1302"/>
       <c r="J1302" s="1" t="s">
-        <v>4334</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1303" spans="1:10" x14ac:dyDescent="0.2">
@@ -56117,7 +56345,7 @@
       <c r="H1303" s="9"/>
       <c r="I1303"/>
       <c r="J1303" s="1" t="s">
-        <v>4335</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1304" spans="1:10" x14ac:dyDescent="0.2">
@@ -56142,7 +56370,7 @@
       <c r="H1304" s="9"/>
       <c r="I1304"/>
       <c r="J1304" s="1" t="s">
-        <v>4336</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1305" spans="1:10" x14ac:dyDescent="0.2">
@@ -56167,7 +56395,7 @@
       <c r="H1305" s="9"/>
       <c r="I1305"/>
       <c r="J1305" s="1" t="s">
-        <v>4337</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1306" spans="1:10" x14ac:dyDescent="0.2">
@@ -56192,7 +56420,7 @@
       <c r="H1306" s="9"/>
       <c r="I1306"/>
       <c r="J1306" s="1" t="s">
-        <v>4338</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1307" spans="1:10" x14ac:dyDescent="0.2">
@@ -56222,7 +56450,7 @@
       </c>
       <c r="I1307"/>
       <c r="J1307" s="1" t="s">
-        <v>4339</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1308" spans="1:10" x14ac:dyDescent="0.2">
@@ -56247,7 +56475,7 @@
       <c r="H1308" s="9"/>
       <c r="I1308"/>
       <c r="J1308" s="1" t="s">
-        <v>4340</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1309" spans="1:10" x14ac:dyDescent="0.2">
@@ -56272,7 +56500,7 @@
       <c r="H1309" s="9"/>
       <c r="I1309"/>
       <c r="J1309" s="1" t="s">
-        <v>1244</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1310" spans="1:10" x14ac:dyDescent="0.2">
@@ -56297,7 +56525,7 @@
       <c r="H1310" s="9"/>
       <c r="I1310"/>
       <c r="J1310" s="1" t="s">
-        <v>1248</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1311" spans="1:10" x14ac:dyDescent="0.2">
@@ -56322,7 +56550,7 @@
       <c r="H1311" s="9"/>
       <c r="I1311"/>
       <c r="J1311" s="1" t="s">
-        <v>1251</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1312" spans="1:10" x14ac:dyDescent="0.2">
@@ -56347,7 +56575,7 @@
       <c r="H1312" s="9"/>
       <c r="I1312"/>
       <c r="J1312" s="1" t="s">
-        <v>1256</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1313" spans="1:10" x14ac:dyDescent="0.2">
@@ -56372,7 +56600,7 @@
       <c r="H1313" s="9"/>
       <c r="I1313"/>
       <c r="J1313" s="1" t="s">
-        <v>4341</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1314" spans="1:10" x14ac:dyDescent="0.2">
@@ -56397,7 +56625,7 @@
       <c r="H1314" s="9"/>
       <c r="I1314"/>
       <c r="J1314" s="1" t="s">
-        <v>4342</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1315" spans="1:10" x14ac:dyDescent="0.2">
@@ -56422,7 +56650,7 @@
       <c r="H1315" s="9"/>
       <c r="I1315"/>
       <c r="J1315" s="1" t="s">
-        <v>4343</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1316" spans="1:10" x14ac:dyDescent="0.2">
@@ -56447,7 +56675,7 @@
       <c r="H1316" s="9"/>
       <c r="I1316"/>
       <c r="J1316" s="1" t="s">
-        <v>4344</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1317" spans="1:10" x14ac:dyDescent="0.2">
@@ -56472,7 +56700,7 @@
       <c r="H1317" s="9"/>
       <c r="I1317"/>
       <c r="J1317" s="1" t="s">
-        <v>4345</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1318" spans="1:10" x14ac:dyDescent="0.2">
@@ -56497,7 +56725,7 @@
       <c r="H1318" s="9"/>
       <c r="I1318"/>
       <c r="J1318" s="1" t="s">
-        <v>4346</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1319" spans="1:10" x14ac:dyDescent="0.2">
@@ -56522,7 +56750,7 @@
       <c r="H1319" s="9"/>
       <c r="I1319"/>
       <c r="J1319" s="1" t="s">
-        <v>4347</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1320" spans="1:10" x14ac:dyDescent="0.2">
@@ -56547,7 +56775,7 @@
       <c r="H1320" s="9"/>
       <c r="I1320"/>
       <c r="J1320" s="1" t="s">
-        <v>4348</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1321" spans="1:10" x14ac:dyDescent="0.2">
@@ -56572,7 +56800,7 @@
       <c r="H1321" s="9"/>
       <c r="I1321"/>
       <c r="J1321" s="1" t="s">
-        <v>1258</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1322" spans="1:10" x14ac:dyDescent="0.2">
@@ -56597,7 +56825,7 @@
       <c r="H1322" s="9"/>
       <c r="I1322"/>
       <c r="J1322" s="1" t="s">
-        <v>1262</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1323" spans="1:10" x14ac:dyDescent="0.2">
@@ -56622,7 +56850,7 @@
       <c r="H1323" s="9"/>
       <c r="I1323"/>
       <c r="J1323" s="1" t="s">
-        <v>1265</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1324" spans="1:10" x14ac:dyDescent="0.2">
@@ -56647,7 +56875,7 @@
       <c r="H1324" s="9"/>
       <c r="I1324"/>
       <c r="J1324" s="1" t="s">
-        <v>1269</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="1325" spans="1:10" x14ac:dyDescent="0.2">
@@ -56672,7 +56900,7 @@
       <c r="H1325" s="9"/>
       <c r="I1325"/>
       <c r="J1325" s="1" t="s">
-        <v>1272</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1326" spans="1:10" x14ac:dyDescent="0.2">
@@ -56697,7 +56925,7 @@
       <c r="H1326" s="9"/>
       <c r="I1326"/>
       <c r="J1326" s="1" t="s">
-        <v>1275</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="1327" spans="1:10" x14ac:dyDescent="0.2">
@@ -56722,7 +56950,7 @@
       <c r="H1327" s="9"/>
       <c r="I1327"/>
       <c r="J1327" s="1" t="s">
-        <v>4349</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1328" spans="1:10" x14ac:dyDescent="0.2">
@@ -56747,7 +56975,7 @@
       <c r="H1328" s="9"/>
       <c r="I1328"/>
       <c r="J1328" s="1" t="s">
-        <v>4350</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1329" spans="1:10" x14ac:dyDescent="0.2">
@@ -56772,7 +57000,7 @@
       <c r="H1329" s="9"/>
       <c r="I1329"/>
       <c r="J1329" s="1" t="s">
-        <v>4351</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1330" spans="1:10" x14ac:dyDescent="0.2">
@@ -56797,7 +57025,7 @@
       <c r="H1330" s="9"/>
       <c r="I1330"/>
       <c r="J1330" s="1" t="s">
-        <v>4299</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1331" spans="1:10" x14ac:dyDescent="0.2">
@@ -56822,7 +57050,7 @@
       <c r="H1331" s="9"/>
       <c r="I1331"/>
       <c r="J1331" s="1" t="s">
-        <v>4352</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1332" spans="1:10" x14ac:dyDescent="0.2">
@@ -56847,7 +57075,7 @@
       <c r="H1332" s="9"/>
       <c r="I1332"/>
       <c r="J1332" s="1" t="s">
-        <v>4353</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1333" spans="1:10" x14ac:dyDescent="0.2">
@@ -56872,7 +57100,7 @@
       <c r="H1333" s="9"/>
       <c r="I1333"/>
       <c r="J1333" s="1" t="s">
-        <v>4354</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1334" spans="1:10" x14ac:dyDescent="0.2">
@@ -56897,7 +57125,7 @@
       <c r="H1334" s="9"/>
       <c r="I1334"/>
       <c r="J1334" s="1" t="s">
-        <v>4355</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1335" spans="1:10" x14ac:dyDescent="0.2">
@@ -56922,7 +57150,7 @@
       <c r="H1335" s="9"/>
       <c r="I1335"/>
       <c r="J1335" s="1" t="s">
-        <v>4356</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="1336" spans="1:10" x14ac:dyDescent="0.2">
@@ -56950,7 +57178,7 @@
       <c r="H1336" s="9"/>
       <c r="I1336"/>
       <c r="J1336" s="1" t="s">
-        <v>4357</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1337" spans="1:10" x14ac:dyDescent="0.2">
@@ -56975,7 +57203,7 @@
       <c r="H1337" s="9"/>
       <c r="I1337"/>
       <c r="J1337" s="1" t="s">
-        <v>4358</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="1338" spans="1:10" x14ac:dyDescent="0.2">
@@ -57000,7 +57228,7 @@
       <c r="H1338" s="9"/>
       <c r="I1338"/>
       <c r="J1338" s="1" t="s">
-        <v>4359</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1339" spans="1:10" x14ac:dyDescent="0.2">
@@ -57028,7 +57256,7 @@
       <c r="H1339" s="9"/>
       <c r="I1339"/>
       <c r="J1339" s="1" t="s">
-        <v>4360</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="1340" spans="1:10" x14ac:dyDescent="0.2">
@@ -57053,7 +57281,7 @@
       <c r="H1340" s="9"/>
       <c r="I1340"/>
       <c r="J1340" s="1" t="s">
-        <v>4361</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1341" spans="1:10" x14ac:dyDescent="0.2">
@@ -57081,7 +57309,7 @@
       <c r="H1341" s="9"/>
       <c r="I1341"/>
       <c r="J1341" s="1" t="s">
-        <v>4362</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1342" spans="1:10" x14ac:dyDescent="0.2">
@@ -57106,7 +57334,7 @@
       <c r="H1342" s="9"/>
       <c r="I1342"/>
       <c r="J1342" s="1" t="s">
-        <v>1279</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1343" spans="1:10" x14ac:dyDescent="0.2">
@@ -57131,7 +57359,7 @@
       <c r="H1343" s="9"/>
       <c r="I1343"/>
       <c r="J1343" s="1" t="s">
-        <v>1283</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="1344" spans="1:10" x14ac:dyDescent="0.2">
@@ -57156,7 +57384,7 @@
       <c r="H1344" s="9"/>
       <c r="I1344"/>
       <c r="J1344" s="1" t="s">
-        <v>639</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1345" spans="1:10" x14ac:dyDescent="0.2">
@@ -57181,7 +57409,7 @@
       <c r="H1345" s="9"/>
       <c r="I1345"/>
       <c r="J1345" s="1" t="s">
-        <v>1290</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1346" spans="1:10" x14ac:dyDescent="0.2">
@@ -57206,7 +57434,7 @@
       <c r="H1346" s="9"/>
       <c r="I1346"/>
       <c r="J1346" s="1" t="s">
-        <v>1294</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.2">
@@ -57231,7 +57459,7 @@
       <c r="H1347" s="9"/>
       <c r="I1347"/>
       <c r="J1347" s="1" t="s">
-        <v>1297</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1348" spans="1:10" x14ac:dyDescent="0.2">
@@ -57256,7 +57484,7 @@
       <c r="H1348" s="9"/>
       <c r="I1348"/>
       <c r="J1348" s="1" t="s">
-        <v>18</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1349" spans="1:10" x14ac:dyDescent="0.2">
@@ -57281,7 +57509,7 @@
       <c r="H1349" s="9"/>
       <c r="I1349"/>
       <c r="J1349" s="1" t="s">
-        <v>4363</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1350" spans="1:10" x14ac:dyDescent="0.2">
@@ -57306,7 +57534,7 @@
       <c r="H1350" s="9"/>
       <c r="I1350"/>
       <c r="J1350" s="1" t="s">
-        <v>4364</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1351" spans="1:10" x14ac:dyDescent="0.2">
@@ -57331,7 +57559,7 @@
       <c r="H1351" s="9"/>
       <c r="I1351"/>
       <c r="J1351" s="1" t="s">
-        <v>4365</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1352" spans="1:10" x14ac:dyDescent="0.2">
@@ -57356,7 +57584,7 @@
       <c r="H1352" s="9"/>
       <c r="I1352"/>
       <c r="J1352" s="1" t="s">
-        <v>4366</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1353" spans="1:10" x14ac:dyDescent="0.2">
@@ -57381,7 +57609,7 @@
       <c r="H1353" s="9"/>
       <c r="I1353"/>
       <c r="J1353" s="1" t="s">
-        <v>4367</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1354" spans="1:10" x14ac:dyDescent="0.2">
@@ -57406,7 +57634,7 @@
       <c r="H1354" s="9"/>
       <c r="I1354"/>
       <c r="J1354" s="1" t="s">
-        <v>4368</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1355" spans="1:10" x14ac:dyDescent="0.2">
@@ -57431,7 +57659,7 @@
       <c r="H1355" s="9"/>
       <c r="I1355"/>
       <c r="J1355" s="1" t="s">
-        <v>4369</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1356" spans="1:10" x14ac:dyDescent="0.2">
@@ -57456,7 +57684,7 @@
       <c r="H1356" s="9"/>
       <c r="I1356"/>
       <c r="J1356" s="1" t="s">
-        <v>4370</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1357" spans="1:10" x14ac:dyDescent="0.2">
@@ -57481,7 +57709,7 @@
       <c r="H1357" s="9"/>
       <c r="I1357"/>
       <c r="J1357" s="1" t="s">
-        <v>4371</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1358" spans="1:10" x14ac:dyDescent="0.2">
@@ -57506,7 +57734,7 @@
       <c r="H1358" s="9"/>
       <c r="I1358"/>
       <c r="J1358" s="1" t="s">
-        <v>4372</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1359" spans="1:10" x14ac:dyDescent="0.2">
@@ -57531,7 +57759,7 @@
       <c r="H1359" s="9"/>
       <c r="I1359"/>
       <c r="J1359" s="1" t="s">
-        <v>4373</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1360" spans="1:10" x14ac:dyDescent="0.2">
@@ -57556,7 +57784,7 @@
       <c r="H1360" s="9"/>
       <c r="I1360"/>
       <c r="J1360" s="1" t="s">
-        <v>4374</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1361" spans="1:10" x14ac:dyDescent="0.2">
@@ -57581,7 +57809,7 @@
       <c r="H1361" s="9"/>
       <c r="I1361"/>
       <c r="J1361" s="1" t="s">
-        <v>4375</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1362" spans="1:10" x14ac:dyDescent="0.2">
@@ -57606,7 +57834,7 @@
       <c r="H1362" s="9"/>
       <c r="I1362"/>
       <c r="J1362" s="1" t="s">
-        <v>4376</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1363" spans="1:10" x14ac:dyDescent="0.2">
@@ -57631,7 +57859,7 @@
       <c r="H1363" s="9"/>
       <c r="I1363"/>
       <c r="J1363" s="1" t="s">
-        <v>4377</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1364" spans="1:10" x14ac:dyDescent="0.2">
@@ -57656,7 +57884,7 @@
       <c r="H1364" s="9"/>
       <c r="I1364"/>
       <c r="J1364" s="1" t="s">
-        <v>4378</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1365" spans="1:10" x14ac:dyDescent="0.2">
@@ -57681,7 +57909,7 @@
       <c r="H1365" s="9"/>
       <c r="I1365"/>
       <c r="J1365" s="1" t="s">
-        <v>4379</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1366" spans="1:10" x14ac:dyDescent="0.2">
@@ -57706,7 +57934,7 @@
       <c r="H1366" s="9"/>
       <c r="I1366"/>
       <c r="J1366" s="1" t="s">
-        <v>4380</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.2">
@@ -57731,7 +57959,7 @@
       <c r="H1367" s="9"/>
       <c r="I1367"/>
       <c r="J1367" s="1" t="s">
-        <v>4381</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1368" spans="1:10" x14ac:dyDescent="0.2">
@@ -57756,7 +57984,7 @@
       <c r="H1368" s="9"/>
       <c r="I1368"/>
       <c r="J1368" s="1" t="s">
-        <v>4382</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1369" spans="1:10" x14ac:dyDescent="0.2">
@@ -57781,7 +58009,7 @@
       <c r="H1369" s="9"/>
       <c r="I1369"/>
       <c r="J1369" s="1" t="s">
-        <v>1301</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1370" spans="1:10" x14ac:dyDescent="0.2">
@@ -57806,7 +58034,7 @@
       <c r="H1370" s="9"/>
       <c r="I1370"/>
       <c r="J1370" s="1" t="s">
-        <v>4383</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1371" spans="1:10" x14ac:dyDescent="0.2">
@@ -57831,7 +58059,7 @@
       <c r="H1371" s="9"/>
       <c r="I1371"/>
       <c r="J1371" s="1" t="s">
-        <v>4299</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1372" spans="1:10" x14ac:dyDescent="0.2">
@@ -57859,7 +58087,7 @@
       <c r="H1372" s="9"/>
       <c r="I1372"/>
       <c r="J1372" s="1" t="s">
-        <v>4384</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1373" spans="1:10" x14ac:dyDescent="0.2">
@@ -57884,7 +58112,7 @@
       <c r="H1373" s="9"/>
       <c r="I1373"/>
       <c r="J1373" s="1" t="s">
-        <v>4385</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1374" spans="1:10" x14ac:dyDescent="0.2">
@@ -57909,7 +58137,7 @@
       <c r="H1374" s="9"/>
       <c r="I1374"/>
       <c r="J1374" s="1" t="s">
-        <v>4386</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1375" spans="1:10" x14ac:dyDescent="0.2">
@@ -57934,7 +58162,7 @@
       <c r="H1375" s="9"/>
       <c r="I1375"/>
       <c r="J1375" s="1" t="s">
-        <v>4387</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1376" spans="1:10" x14ac:dyDescent="0.2">
@@ -57959,7 +58187,7 @@
       <c r="H1376" s="9"/>
       <c r="I1376"/>
       <c r="J1376" s="1" t="s">
-        <v>4388</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1377" spans="1:10" x14ac:dyDescent="0.2">
@@ -57984,7 +58212,7 @@
       <c r="H1377" s="9"/>
       <c r="I1377"/>
       <c r="J1377" s="1" t="s">
-        <v>4389</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1378" spans="1:10" x14ac:dyDescent="0.2">
@@ -58009,7 +58237,7 @@
       <c r="H1378" s="9"/>
       <c r="I1378"/>
       <c r="J1378" s="1" t="s">
-        <v>4390</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1379" spans="1:10" x14ac:dyDescent="0.2">
@@ -58034,7 +58262,7 @@
       <c r="H1379" s="9"/>
       <c r="I1379"/>
       <c r="J1379" s="1" t="s">
-        <v>4391</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1380" spans="1:10" x14ac:dyDescent="0.2">
@@ -58062,7 +58290,7 @@
       <c r="H1380" s="9"/>
       <c r="I1380"/>
       <c r="J1380" s="1" t="s">
-        <v>4392</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1381" spans="1:10" x14ac:dyDescent="0.2">
@@ -58087,7 +58315,7 @@
       <c r="H1381" s="9"/>
       <c r="I1381"/>
       <c r="J1381" s="1" t="s">
-        <v>4393</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1382" spans="1:10" x14ac:dyDescent="0.2">
@@ -58112,7 +58340,7 @@
       <c r="H1382" s="9"/>
       <c r="I1382"/>
       <c r="J1382" s="1" t="s">
-        <v>4394</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1383" spans="1:10" x14ac:dyDescent="0.2">
@@ -58137,7 +58365,7 @@
       <c r="H1383" s="9"/>
       <c r="I1383"/>
       <c r="J1383" s="1" t="s">
-        <v>4395</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1384" spans="1:10" x14ac:dyDescent="0.2">
@@ -58162,7 +58390,7 @@
       <c r="H1384" s="9"/>
       <c r="I1384"/>
       <c r="J1384" s="1" t="s">
-        <v>4396</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1385" spans="1:10" x14ac:dyDescent="0.2">
@@ -58190,7 +58418,7 @@
       <c r="H1385" s="9"/>
       <c r="I1385"/>
       <c r="J1385" s="1" t="s">
-        <v>4397</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1386" spans="1:10" x14ac:dyDescent="0.2">
@@ -58215,7 +58443,7 @@
       <c r="H1386" s="9"/>
       <c r="I1386"/>
       <c r="J1386" s="1" t="s">
-        <v>4398</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1387" spans="1:10" x14ac:dyDescent="0.2">
@@ -58240,7 +58468,7 @@
       <c r="H1387" s="9"/>
       <c r="I1387"/>
       <c r="J1387" s="1" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1388" spans="1:10" x14ac:dyDescent="0.2">
@@ -58268,7 +58496,7 @@
       <c r="H1388" s="9"/>
       <c r="I1388"/>
       <c r="J1388" s="1" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1389" spans="1:10" x14ac:dyDescent="0.2">
@@ -58296,7 +58524,7 @@
       <c r="H1389" s="9"/>
       <c r="I1389"/>
       <c r="J1389" s="1" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.2">
@@ -58321,7 +58549,7 @@
       <c r="H1390" s="9"/>
       <c r="I1390"/>
       <c r="J1390" s="1" t="s">
-        <v>4399</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1391" spans="1:10" x14ac:dyDescent="0.2">
@@ -58346,7 +58574,7 @@
       <c r="H1391" s="9"/>
       <c r="I1391"/>
       <c r="J1391" s="1" t="s">
-        <v>4400</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1392" spans="1:10" x14ac:dyDescent="0.2">
@@ -58371,7 +58599,7 @@
       <c r="H1392" s="9"/>
       <c r="I1392"/>
       <c r="J1392" s="1" t="s">
-        <v>4401</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1393" spans="1:10" x14ac:dyDescent="0.2">
@@ -58399,7 +58627,7 @@
       <c r="H1393" s="9"/>
       <c r="I1393"/>
       <c r="J1393" s="1" t="s">
-        <v>4402</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.2">
@@ -58424,7 +58652,7 @@
       <c r="H1394" s="9"/>
       <c r="I1394"/>
       <c r="J1394" s="1" t="s">
-        <v>4403</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.2">
@@ -58449,7 +58677,7 @@
       <c r="H1395" s="9"/>
       <c r="I1395"/>
       <c r="J1395" s="1" t="s">
-        <v>4404</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1396" spans="1:10" x14ac:dyDescent="0.2">
@@ -58474,7 +58702,7 @@
       <c r="H1396" s="9"/>
       <c r="I1396"/>
       <c r="J1396" s="1" t="s">
-        <v>4405</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1397" spans="1:10" x14ac:dyDescent="0.2">
@@ -58499,7 +58727,7 @@
       <c r="H1397" s="9"/>
       <c r="I1397"/>
       <c r="J1397" s="1" t="s">
-        <v>4406</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1398" spans="1:10" x14ac:dyDescent="0.2">
@@ -58524,7 +58752,7 @@
       <c r="H1398" s="9"/>
       <c r="I1398"/>
       <c r="J1398" s="1" t="s">
-        <v>4407</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1399" spans="1:10" x14ac:dyDescent="0.2">
@@ -58549,7 +58777,7 @@
       <c r="H1399" s="9"/>
       <c r="I1399"/>
       <c r="J1399" s="1" t="s">
-        <v>4408</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1400" spans="1:10" x14ac:dyDescent="0.2">
@@ -58574,7 +58802,7 @@
       <c r="H1400" s="9"/>
       <c r="I1400"/>
       <c r="J1400" s="1" t="s">
-        <v>4409</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1401" spans="1:10" x14ac:dyDescent="0.2">
@@ -58599,7 +58827,7 @@
       <c r="H1401" s="9"/>
       <c r="I1401"/>
       <c r="J1401" s="1" t="s">
-        <v>4410</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.2">
@@ -58624,7 +58852,7 @@
       <c r="H1402" s="9"/>
       <c r="I1402"/>
       <c r="J1402" s="1" t="s">
-        <v>4411</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1403" spans="1:10" x14ac:dyDescent="0.2">
@@ -58649,7 +58877,7 @@
       <c r="H1403" s="9"/>
       <c r="I1403"/>
       <c r="J1403" s="1" t="s">
-        <v>4412</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1404" spans="1:10" x14ac:dyDescent="0.2">
@@ -58674,7 +58902,7 @@
       <c r="H1404" s="9"/>
       <c r="I1404"/>
       <c r="J1404" s="1" t="s">
-        <v>4413</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1405" spans="1:10" x14ac:dyDescent="0.2">
@@ -58702,7 +58930,7 @@
       <c r="H1405" s="9"/>
       <c r="I1405"/>
       <c r="J1405" s="1" t="s">
-        <v>4414</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1406" spans="1:10" x14ac:dyDescent="0.2">
@@ -58727,7 +58955,7 @@
       <c r="H1406" s="9"/>
       <c r="I1406"/>
       <c r="J1406" s="1" t="s">
-        <v>1313</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1407" spans="1:10" x14ac:dyDescent="0.2">
@@ -58752,7 +58980,7 @@
       <c r="H1407" s="9"/>
       <c r="I1407"/>
       <c r="J1407" s="1" t="s">
-        <v>1316</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1408" spans="1:10" x14ac:dyDescent="0.2">
@@ -58777,7 +59005,7 @@
       <c r="H1408" s="9"/>
       <c r="I1408"/>
       <c r="J1408" s="1" t="s">
-        <v>1320</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1409" spans="1:10" x14ac:dyDescent="0.2">
@@ -58802,7 +59030,7 @@
       <c r="H1409" s="9"/>
       <c r="I1409"/>
       <c r="J1409" s="1" t="s">
-        <v>1323</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1410" spans="1:10" x14ac:dyDescent="0.2">
@@ -58827,7 +59055,7 @@
       <c r="H1410" s="9"/>
       <c r="I1410"/>
       <c r="J1410" s="1" t="s">
-        <v>1326</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.2">
@@ -58852,7 +59080,7 @@
       <c r="H1411" s="9"/>
       <c r="I1411"/>
       <c r="J1411" s="1" t="s">
-        <v>4415</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1412" spans="1:10" x14ac:dyDescent="0.2">
@@ -58877,7 +59105,7 @@
       <c r="H1412" s="9"/>
       <c r="I1412"/>
       <c r="J1412" s="1" t="s">
-        <v>4416</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1413" spans="1:10" x14ac:dyDescent="0.2">
@@ -58902,7 +59130,7 @@
       <c r="H1413" s="9"/>
       <c r="I1413"/>
       <c r="J1413" s="1" t="s">
-        <v>4417</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.2">
@@ -58927,7 +59155,7 @@
       <c r="H1414" s="9"/>
       <c r="I1414"/>
       <c r="J1414" s="1" t="s">
-        <v>4418</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1415" spans="1:10" x14ac:dyDescent="0.2">
@@ -58952,7 +59180,7 @@
       <c r="H1415" s="9"/>
       <c r="I1415"/>
       <c r="J1415" s="1" t="s">
-        <v>4419</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1416" spans="1:10" x14ac:dyDescent="0.2">
@@ -58977,7 +59205,7 @@
       <c r="H1416" s="9"/>
       <c r="I1416"/>
       <c r="J1416" s="1" t="s">
-        <v>4420</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1417" spans="1:10" x14ac:dyDescent="0.2">
@@ -59002,7 +59230,7 @@
       <c r="H1417" s="9"/>
       <c r="I1417"/>
       <c r="J1417" s="1" t="s">
-        <v>4421</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1418" spans="1:10" x14ac:dyDescent="0.2">
@@ -59027,7 +59255,7 @@
       <c r="H1418" s="9"/>
       <c r="I1418"/>
       <c r="J1418" s="1" t="s">
-        <v>4422</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1419" spans="1:10" x14ac:dyDescent="0.2">
@@ -59052,7 +59280,7 @@
       <c r="H1419" s="9"/>
       <c r="I1419"/>
       <c r="J1419" s="1" t="s">
-        <v>4423</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1420" spans="1:10" x14ac:dyDescent="0.2">
@@ -59077,7 +59305,7 @@
       <c r="H1420" s="9"/>
       <c r="I1420"/>
       <c r="J1420" s="1" t="s">
-        <v>4424</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1421" spans="1:10" x14ac:dyDescent="0.2">
@@ -59102,7 +59330,7 @@
       <c r="H1421" s="9"/>
       <c r="I1421"/>
       <c r="J1421" s="1" t="s">
-        <v>4425</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1422" spans="1:10" x14ac:dyDescent="0.2">
@@ -59127,7 +59355,7 @@
       <c r="H1422" s="9"/>
       <c r="I1422"/>
       <c r="J1422" s="1" t="s">
-        <v>4426</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1423" spans="1:10" x14ac:dyDescent="0.2">
@@ -59152,7 +59380,7 @@
       <c r="H1423" s="9"/>
       <c r="I1423"/>
       <c r="J1423" s="1" t="s">
-        <v>1330</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1424" spans="1:10" x14ac:dyDescent="0.2">
@@ -59177,7 +59405,7 @@
       <c r="H1424" s="9"/>
       <c r="I1424"/>
       <c r="J1424" s="1" t="s">
-        <v>1334</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1425" spans="1:10" x14ac:dyDescent="0.2">
@@ -59202,7 +59430,7 @@
       <c r="H1425" s="9"/>
       <c r="I1425"/>
       <c r="J1425" s="1" t="s">
-        <v>1338</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.2">
@@ -59227,7 +59455,7 @@
       <c r="H1426" s="9"/>
       <c r="I1426"/>
       <c r="J1426" s="1" t="s">
-        <v>1341</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.2">
@@ -59252,7 +59480,7 @@
       <c r="H1427" s="9"/>
       <c r="I1427"/>
       <c r="J1427" s="1" t="s">
-        <v>1344</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1428" spans="1:10" x14ac:dyDescent="0.2">
@@ -59277,7 +59505,7 @@
       <c r="H1428" s="9"/>
       <c r="I1428"/>
       <c r="J1428" s="1" t="s">
-        <v>1347</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.2">
@@ -59302,7 +59530,7 @@
       <c r="H1429" s="9"/>
       <c r="I1429"/>
       <c r="J1429" s="1" t="s">
-        <v>1351</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.2">
@@ -59327,7 +59555,7 @@
       <c r="H1430" s="9"/>
       <c r="I1430"/>
       <c r="J1430" s="1" t="s">
-        <v>1354</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.2">
@@ -59352,7 +59580,7 @@
       <c r="H1431" s="9"/>
       <c r="I1431"/>
       <c r="J1431" s="1" t="s">
-        <v>1357</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.2">
@@ -59380,7 +59608,7 @@
       <c r="H1432" s="9"/>
       <c r="I1432"/>
       <c r="J1432" s="1" t="s">
-        <v>1360</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.2">
@@ -59405,7 +59633,7 @@
       <c r="H1433" s="9"/>
       <c r="I1433"/>
       <c r="J1433" s="1" t="s">
-        <v>1365</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.2">
@@ -59430,7 +59658,7 @@
       <c r="H1434" s="9"/>
       <c r="I1434"/>
       <c r="J1434" s="1" t="s">
-        <v>1368</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.2">
@@ -59455,7 +59683,7 @@
       <c r="H1435" s="9"/>
       <c r="I1435"/>
       <c r="J1435" s="1" t="s">
-        <v>1371</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.2">
@@ -59480,7 +59708,7 @@
       <c r="H1436" s="9"/>
       <c r="I1436"/>
       <c r="J1436" s="1" t="s">
-        <v>1375</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.2">
@@ -59505,7 +59733,7 @@
       <c r="H1437" s="9"/>
       <c r="I1437"/>
       <c r="J1437" s="1" t="s">
-        <v>1378</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1438" spans="1:10" x14ac:dyDescent="0.2">
@@ -59530,7 +59758,7 @@
       <c r="H1438" s="9"/>
       <c r="I1438"/>
       <c r="J1438" s="1" t="s">
-        <v>1381</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.2">
@@ -59555,7 +59783,7 @@
       <c r="H1439" s="9"/>
       <c r="I1439"/>
       <c r="J1439" s="1" t="s">
-        <v>442</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.2">
@@ -59583,7 +59811,7 @@
       <c r="H1440" s="9"/>
       <c r="I1440"/>
       <c r="J1440" s="1" t="s">
-        <v>1387</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.2">
@@ -59608,7 +59836,7 @@
       <c r="H1441" s="9"/>
       <c r="I1441"/>
       <c r="J1441" s="1" t="s">
-        <v>1391</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.2">
@@ -59633,7 +59861,7 @@
       <c r="H1442" s="9"/>
       <c r="I1442"/>
       <c r="J1442" s="1" t="s">
-        <v>1394</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.2">
@@ -59658,7 +59886,7 @@
       <c r="H1443" s="9"/>
       <c r="I1443"/>
       <c r="J1443" s="1" t="s">
-        <v>1396</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.2">
@@ -59683,7 +59911,7 @@
       <c r="H1444" s="9"/>
       <c r="I1444"/>
       <c r="J1444" s="1" t="s">
-        <v>1399</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.2">
@@ -59708,7 +59936,7 @@
       <c r="H1445" s="9"/>
       <c r="I1445"/>
       <c r="J1445" s="1" t="s">
-        <v>1402</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.2">
@@ -59733,7 +59961,7 @@
       <c r="H1446" s="9"/>
       <c r="I1446"/>
       <c r="J1446" s="1" t="s">
-        <v>1406</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.2">
@@ -59758,7 +59986,7 @@
       <c r="H1447" s="9"/>
       <c r="I1447"/>
       <c r="J1447" s="1" t="s">
-        <v>1410</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.2">
@@ -59786,7 +60014,7 @@
       <c r="H1448" s="9"/>
       <c r="I1448"/>
       <c r="J1448" s="1" t="s">
-        <v>1413</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.2">
@@ -59811,7 +60039,7 @@
       <c r="H1449" s="9"/>
       <c r="I1449"/>
       <c r="J1449" s="1" t="s">
-        <v>1417</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1450" spans="1:10" x14ac:dyDescent="0.2">
@@ -59836,7 +60064,7 @@
       <c r="H1450" s="9"/>
       <c r="I1450"/>
       <c r="J1450" s="1" t="s">
-        <v>1420</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.2">
@@ -59861,7 +60089,7 @@
       <c r="H1451" s="9"/>
       <c r="I1451"/>
       <c r="J1451" s="1" t="s">
-        <v>1423</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.2">
@@ -59886,7 +60114,7 @@
       <c r="H1452" s="9"/>
       <c r="I1452"/>
       <c r="J1452" s="1" t="s">
-        <v>62</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1453" spans="1:10" x14ac:dyDescent="0.2">
@@ -59911,7 +60139,7 @@
       <c r="H1453" s="9"/>
       <c r="I1453"/>
       <c r="J1453" s="1" t="s">
-        <v>1428</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="1454" spans="1:10" x14ac:dyDescent="0.2">
@@ -59936,7 +60164,7 @@
       <c r="H1454" s="9"/>
       <c r="I1454"/>
       <c r="J1454" s="1" t="s">
-        <v>1432</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1455" spans="1:10" x14ac:dyDescent="0.2">
@@ -59961,7 +60189,7 @@
       <c r="H1455" s="9"/>
       <c r="I1455"/>
       <c r="J1455" s="1" t="s">
-        <v>1435</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1456" spans="1:10" x14ac:dyDescent="0.2">
@@ -59986,7 +60214,7 @@
       <c r="H1456" s="9"/>
       <c r="I1456"/>
       <c r="J1456" s="1" t="s">
-        <v>1438</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1457" spans="1:10" x14ac:dyDescent="0.2">
@@ -60011,7 +60239,7 @@
       <c r="H1457" s="9"/>
       <c r="I1457"/>
       <c r="J1457" s="1" t="s">
-        <v>1442</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.2">
@@ -60036,7 +60264,7 @@
       <c r="H1458" s="9"/>
       <c r="I1458"/>
       <c r="J1458" s="1" t="s">
-        <v>1446</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1459" spans="1:10" x14ac:dyDescent="0.2">
@@ -60061,7 +60289,7 @@
       <c r="H1459" s="9"/>
       <c r="I1459"/>
       <c r="J1459" s="1" t="s">
-        <v>4427</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="1460" spans="1:10" x14ac:dyDescent="0.2">
@@ -60086,7 +60314,7 @@
       <c r="H1460" s="9"/>
       <c r="I1460"/>
       <c r="J1460" s="1" t="s">
-        <v>4428</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1461" spans="1:10" x14ac:dyDescent="0.2">
@@ -60111,7 +60339,7 @@
       <c r="H1461" s="9"/>
       <c r="I1461"/>
       <c r="J1461" s="1" t="s">
-        <v>4429</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.2">
@@ -60136,7 +60364,7 @@
       <c r="H1462" s="9"/>
       <c r="I1462"/>
       <c r="J1462" s="1" t="s">
-        <v>4430</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.2">
@@ -60161,7 +60389,7 @@
       <c r="H1463" s="9"/>
       <c r="I1463"/>
       <c r="J1463" s="1" t="s">
-        <v>4431</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.2">
@@ -60186,7 +60414,7 @@
       <c r="H1464" s="9"/>
       <c r="I1464"/>
       <c r="J1464" s="1" t="s">
-        <v>4432</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.2">
@@ -60211,7 +60439,7 @@
       <c r="H1465" s="9"/>
       <c r="I1465"/>
       <c r="J1465" s="1" t="s">
-        <v>4433</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.2">
@@ -60236,7 +60464,7 @@
       <c r="H1466" s="9"/>
       <c r="I1466"/>
       <c r="J1466" s="1" t="s">
-        <v>4434</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1467" spans="1:10" x14ac:dyDescent="0.2">
@@ -60261,7 +60489,7 @@
       <c r="H1467" s="9"/>
       <c r="I1467"/>
       <c r="J1467" s="1" t="s">
-        <v>4435</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.2">
@@ -60286,7 +60514,7 @@
       <c r="H1468" s="9"/>
       <c r="I1468"/>
       <c r="J1468" s="1" t="s">
-        <v>4436</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.2">
@@ -60311,7 +60539,7 @@
       <c r="H1469" s="9"/>
       <c r="I1469"/>
       <c r="J1469" s="1" t="s">
-        <v>4437</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1470" spans="1:10" x14ac:dyDescent="0.2">
@@ -60336,7 +60564,7 @@
       <c r="H1470" s="9"/>
       <c r="I1470"/>
       <c r="J1470" s="1" t="s">
-        <v>4438</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1471" spans="1:10" x14ac:dyDescent="0.2">
@@ -60361,7 +60589,7 @@
       <c r="H1471" s="9"/>
       <c r="I1471"/>
       <c r="J1471" s="1" t="s">
-        <v>4439</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1472" spans="1:10" x14ac:dyDescent="0.2">
@@ -60389,7 +60617,7 @@
       <c r="H1472" s="9"/>
       <c r="I1472"/>
       <c r="J1472" s="1" t="s">
-        <v>4440</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.2">
@@ -60414,7 +60642,7 @@
       <c r="H1473" s="9"/>
       <c r="I1473"/>
       <c r="J1473" s="1" t="s">
-        <v>4441</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1474" spans="1:10" x14ac:dyDescent="0.2">
@@ -60439,7 +60667,7 @@
       <c r="H1474" s="9"/>
       <c r="I1474"/>
       <c r="J1474" s="1" t="s">
-        <v>2991</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1475" spans="1:10" x14ac:dyDescent="0.2">
@@ -60467,7 +60695,7 @@
       <c r="H1475" s="9"/>
       <c r="I1475"/>
       <c r="J1475" s="1" t="s">
-        <v>4442</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1476" spans="1:10" x14ac:dyDescent="0.2">
@@ -60492,7 +60720,7 @@
       <c r="H1476" s="9"/>
       <c r="I1476"/>
       <c r="J1476" s="1" t="s">
-        <v>4443</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1477" spans="1:10" x14ac:dyDescent="0.2">
@@ -60517,7 +60745,7 @@
       <c r="H1477" s="9"/>
       <c r="I1477"/>
       <c r="J1477" s="1" t="s">
-        <v>2942</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.2">
@@ -60542,7 +60770,7 @@
       <c r="H1478" s="9"/>
       <c r="I1478"/>
       <c r="J1478" s="1" t="s">
-        <v>4444</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1479" spans="1:10" x14ac:dyDescent="0.2">
@@ -60567,7 +60795,7 @@
       <c r="H1479" s="9"/>
       <c r="I1479"/>
       <c r="J1479" s="1" t="s">
-        <v>4445</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.2">
@@ -60592,7 +60820,7 @@
       <c r="H1480" s="9"/>
       <c r="I1480"/>
       <c r="J1480" s="1" t="s">
-        <v>4427</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1481" spans="1:10" x14ac:dyDescent="0.2">
@@ -60617,7 +60845,7 @@
       <c r="H1481" s="9"/>
       <c r="I1481"/>
       <c r="J1481" s="1" t="s">
-        <v>1449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1482" spans="1:10" x14ac:dyDescent="0.2">
@@ -60642,7 +60870,7 @@
       <c r="H1482" s="9"/>
       <c r="I1482"/>
       <c r="J1482" s="1" t="s">
-        <v>1452</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1483" spans="1:10" x14ac:dyDescent="0.2">
@@ -60670,7 +60898,7 @@
       <c r="H1483" s="9"/>
       <c r="I1483"/>
       <c r="J1483" s="1" t="s">
-        <v>1456</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1484" spans="1:10" x14ac:dyDescent="0.2">
@@ -60695,7 +60923,7 @@
       <c r="H1484" s="9"/>
       <c r="I1484"/>
       <c r="J1484" s="1" t="s">
-        <v>1459</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1485" spans="1:10" x14ac:dyDescent="0.2">
@@ -60720,7 +60948,7 @@
       <c r="H1485" s="9"/>
       <c r="I1485"/>
       <c r="J1485" s="1" t="s">
-        <v>1462</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1486" spans="1:10" x14ac:dyDescent="0.2">
@@ -60745,7 +60973,7 @@
       <c r="H1486" s="9"/>
       <c r="I1486"/>
       <c r="J1486" s="1" t="s">
-        <v>1465</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1487" spans="1:10" x14ac:dyDescent="0.2">
@@ -60770,7 +60998,7 @@
       <c r="H1487" s="9"/>
       <c r="I1487"/>
       <c r="J1487" s="1" t="s">
-        <v>1469</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1488" spans="1:10" x14ac:dyDescent="0.2">
@@ -60795,7 +61023,7 @@
       <c r="H1488" s="9"/>
       <c r="I1488"/>
       <c r="J1488" s="1" t="s">
-        <v>591</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1489" spans="1:10" x14ac:dyDescent="0.2">
@@ -60820,7 +61048,7 @@
       <c r="H1489" s="9"/>
       <c r="I1489"/>
       <c r="J1489" s="1" t="s">
-        <v>1475</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1490" spans="1:10" x14ac:dyDescent="0.2">
@@ -60845,7 +61073,7 @@
       <c r="H1490" s="9"/>
       <c r="I1490"/>
       <c r="J1490" s="1" t="s">
-        <v>1478</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1491" spans="1:10" x14ac:dyDescent="0.2">
@@ -60870,7 +61098,7 @@
       <c r="H1491" s="9"/>
       <c r="I1491"/>
       <c r="J1491" s="1" t="s">
-        <v>1480</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1492" spans="1:10" x14ac:dyDescent="0.2">
@@ -60895,7 +61123,7 @@
       <c r="H1492" s="9"/>
       <c r="I1492"/>
       <c r="J1492" s="1" t="s">
-        <v>1484</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1493" spans="1:10" x14ac:dyDescent="0.2">
@@ -60920,7 +61148,7 @@
       <c r="H1493" s="9"/>
       <c r="I1493"/>
       <c r="J1493" s="1" t="s">
-        <v>1487</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.2">
@@ -60945,7 +61173,7 @@
       <c r="H1494" s="9"/>
       <c r="I1494"/>
       <c r="J1494" s="1" t="s">
-        <v>1491</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1495" spans="1:10" x14ac:dyDescent="0.2">
@@ -60970,7 +61198,7 @@
       <c r="H1495" s="9"/>
       <c r="I1495"/>
       <c r="J1495" s="1" t="s">
-        <v>1495</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1496" spans="1:10" x14ac:dyDescent="0.2">
@@ -60995,7 +61223,7 @@
       <c r="H1496" s="9"/>
       <c r="I1496"/>
       <c r="J1496" s="1" t="s">
-        <v>1498</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1497" spans="1:10" x14ac:dyDescent="0.2">
@@ -61020,7 +61248,7 @@
       <c r="H1497" s="9"/>
       <c r="I1497"/>
       <c r="J1497" s="1" t="s">
-        <v>1501</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1498" spans="1:10" x14ac:dyDescent="0.2">
@@ -61045,7 +61273,7 @@
       <c r="H1498" s="9"/>
       <c r="I1498"/>
       <c r="J1498" s="1" t="s">
-        <v>1504</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1499" spans="1:10" x14ac:dyDescent="0.2">
@@ -61070,7 +61298,7 @@
       <c r="H1499" s="9"/>
       <c r="I1499"/>
       <c r="J1499" s="1" t="s">
-        <v>1507</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1500" spans="1:10" x14ac:dyDescent="0.2">
@@ -61094,8 +61322,8 @@
       </c>
       <c r="H1500" s="9"/>
       <c r="I1500"/>
-      <c r="J1500" s="4" t="s">
-        <v>1297</v>
+      <c r="J1500" s="1" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="1501" spans="1:10" x14ac:dyDescent="0.2">
@@ -61120,7 +61348,7 @@
       <c r="H1501" s="9"/>
       <c r="I1501"/>
       <c r="J1501" s="1" t="s">
-        <v>1513</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1502" spans="1:10" x14ac:dyDescent="0.2">
@@ -61145,7 +61373,7 @@
       <c r="H1502" s="9"/>
       <c r="I1502"/>
       <c r="J1502" s="1" t="s">
-        <v>1517</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.2">
@@ -61170,7 +61398,7 @@
       <c r="H1503" s="9"/>
       <c r="I1503"/>
       <c r="J1503" s="1" t="s">
-        <v>1520</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1504" spans="1:10" x14ac:dyDescent="0.2">
@@ -61195,7 +61423,7 @@
       <c r="H1504" s="9"/>
       <c r="I1504"/>
       <c r="J1504" s="1" t="s">
-        <v>1524</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.2">
@@ -61220,7 +61448,7 @@
       <c r="H1505" s="9"/>
       <c r="I1505"/>
       <c r="J1505" s="1" t="s">
-        <v>1528</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1506" spans="1:10" x14ac:dyDescent="0.2">
@@ -61245,7 +61473,7 @@
       <c r="H1506" s="9"/>
       <c r="I1506"/>
       <c r="J1506" s="1" t="s">
-        <v>1532</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1507" spans="1:10" x14ac:dyDescent="0.2">
@@ -61270,7 +61498,7 @@
       <c r="H1507" s="9"/>
       <c r="I1507"/>
       <c r="J1507" s="1" t="s">
-        <v>1535</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1508" spans="1:10" x14ac:dyDescent="0.2">
@@ -61295,7 +61523,7 @@
       <c r="H1508" s="9"/>
       <c r="I1508"/>
       <c r="J1508" s="1" t="s">
-        <v>1538</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1509" spans="1:10" x14ac:dyDescent="0.2">
@@ -61320,7 +61548,7 @@
       <c r="H1509" s="9"/>
       <c r="I1509"/>
       <c r="J1509" s="1" t="s">
-        <v>1542</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1510" spans="1:10" x14ac:dyDescent="0.2">
@@ -61345,7 +61573,7 @@
       <c r="H1510" s="9"/>
       <c r="I1510"/>
       <c r="J1510" s="1" t="s">
-        <v>1546</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1511" spans="1:10" x14ac:dyDescent="0.2">
@@ -61370,7 +61598,7 @@
       <c r="H1511" s="9"/>
       <c r="I1511"/>
       <c r="J1511" s="1" t="s">
-        <v>1550</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1512" spans="1:10" x14ac:dyDescent="0.2">
@@ -61395,7 +61623,7 @@
       <c r="H1512" s="9"/>
       <c r="I1512"/>
       <c r="J1512" s="1" t="s">
-        <v>1553</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1513" spans="1:10" x14ac:dyDescent="0.2">
@@ -61420,7 +61648,7 @@
       <c r="H1513" s="9"/>
       <c r="I1513"/>
       <c r="J1513" s="1" t="s">
-        <v>1556</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1514" spans="1:10" x14ac:dyDescent="0.2">
@@ -61448,7 +61676,7 @@
       <c r="H1514" s="9"/>
       <c r="I1514"/>
       <c r="J1514" s="1" t="s">
-        <v>1560</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="1515" spans="1:10" x14ac:dyDescent="0.2">
@@ -61473,7 +61701,7 @@
       <c r="H1515" s="9"/>
       <c r="I1515"/>
       <c r="J1515" s="1" t="s">
-        <v>1564</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1516" spans="1:10" x14ac:dyDescent="0.2">
@@ -61498,7 +61726,7 @@
       <c r="H1516" s="9"/>
       <c r="I1516"/>
       <c r="J1516" s="1" t="s">
-        <v>1567</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1517" spans="1:10" x14ac:dyDescent="0.2">
@@ -61523,7 +61751,7 @@
       <c r="H1517" s="9"/>
       <c r="I1517"/>
       <c r="J1517" s="1" t="s">
-        <v>1570</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1518" spans="1:10" x14ac:dyDescent="0.2">
@@ -61548,7 +61776,7 @@
       <c r="H1518" s="9"/>
       <c r="I1518"/>
       <c r="J1518" s="1" t="s">
-        <v>1573</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1519" spans="1:10" x14ac:dyDescent="0.2">
@@ -61573,7 +61801,7 @@
       <c r="H1519" s="9"/>
       <c r="I1519"/>
       <c r="J1519" s="1" t="s">
-        <v>1577</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1520" spans="1:10" x14ac:dyDescent="0.2">
@@ -61598,7 +61826,7 @@
       <c r="H1520" s="9"/>
       <c r="I1520"/>
       <c r="J1520" s="1" t="s">
-        <v>1581</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1521" spans="1:10" x14ac:dyDescent="0.2">
@@ -61626,7 +61854,7 @@
       <c r="H1521" s="9"/>
       <c r="I1521"/>
       <c r="J1521" s="1" t="s">
-        <v>1585</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1522" spans="1:10" x14ac:dyDescent="0.2">
@@ -61654,7 +61882,7 @@
       <c r="H1522" s="9"/>
       <c r="I1522"/>
       <c r="J1522" s="1" t="s">
-        <v>4446</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1523" spans="1:10" x14ac:dyDescent="0.2">
@@ -61682,7 +61910,7 @@
       <c r="H1523" s="9"/>
       <c r="I1523"/>
       <c r="J1523" s="1" t="s">
-        <v>1804</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1524" spans="1:10" x14ac:dyDescent="0.2">
@@ -61710,7 +61938,7 @@
       <c r="H1524" s="9"/>
       <c r="I1524"/>
       <c r="J1524" s="1" t="s">
-        <v>3062</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1525" spans="1:10" x14ac:dyDescent="0.2">
@@ -61735,7 +61963,7 @@
       <c r="H1525" s="9"/>
       <c r="I1525"/>
       <c r="J1525" s="1" t="s">
-        <v>4447</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1526" spans="1:10" x14ac:dyDescent="0.2">
@@ -61760,7 +61988,7 @@
       <c r="H1526" s="9"/>
       <c r="I1526"/>
       <c r="J1526" s="1" t="s">
-        <v>4448</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1527" spans="1:10" x14ac:dyDescent="0.2">
@@ -61788,7 +62016,7 @@
       <c r="H1527" s="9"/>
       <c r="I1527"/>
       <c r="J1527" s="1" t="s">
-        <v>4449</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1528" spans="1:10" x14ac:dyDescent="0.2">
@@ -61813,7 +62041,7 @@
       <c r="H1528" s="9"/>
       <c r="I1528"/>
       <c r="J1528" s="1" t="s">
-        <v>4450</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1529" spans="1:10" x14ac:dyDescent="0.2">
@@ -61838,7 +62066,7 @@
       <c r="H1529" s="9"/>
       <c r="I1529"/>
       <c r="J1529" s="1" t="s">
-        <v>4451</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1530" spans="1:10" x14ac:dyDescent="0.2">
@@ -61863,7 +62091,7 @@
       <c r="H1530" s="9"/>
       <c r="I1530"/>
       <c r="J1530" s="1" t="s">
-        <v>4452</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1531" spans="1:10" x14ac:dyDescent="0.2">
@@ -61888,7 +62116,7 @@
       <c r="H1531" s="9"/>
       <c r="I1531"/>
       <c r="J1531" s="1" t="s">
-        <v>4453</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1532" spans="1:10" x14ac:dyDescent="0.2">
@@ -61913,7 +62141,7 @@
       <c r="H1532" s="9"/>
       <c r="I1532"/>
       <c r="J1532" s="1" t="s">
-        <v>4454</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1533" spans="1:10" x14ac:dyDescent="0.2">
@@ -61938,7 +62166,7 @@
       <c r="H1533" s="9"/>
       <c r="I1533"/>
       <c r="J1533" s="1" t="s">
-        <v>4455</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1534" spans="1:10" x14ac:dyDescent="0.2">
@@ -61966,7 +62194,7 @@
       <c r="H1534" s="9"/>
       <c r="I1534"/>
       <c r="J1534" s="1" t="s">
-        <v>4456</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1535" spans="1:10" x14ac:dyDescent="0.2">
@@ -61991,7 +62219,7 @@
       <c r="H1535" s="9"/>
       <c r="I1535"/>
       <c r="J1535" s="1" t="s">
-        <v>3037</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1536" spans="1:10" x14ac:dyDescent="0.2">
@@ -62016,7 +62244,7 @@
       <c r="H1536" s="9"/>
       <c r="I1536"/>
       <c r="J1536" s="1" t="s">
-        <v>4457</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1537" spans="1:10" x14ac:dyDescent="0.2">
@@ -62044,7 +62272,7 @@
       <c r="H1537" s="9"/>
       <c r="I1537"/>
       <c r="J1537" s="1" t="s">
-        <v>4458</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1538" spans="1:10" x14ac:dyDescent="0.2">
@@ -62069,7 +62297,7 @@
       <c r="H1538" s="9"/>
       <c r="I1538"/>
       <c r="J1538" s="1" t="s">
-        <v>4459</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1539" spans="1:10" x14ac:dyDescent="0.2">
@@ -62094,7 +62322,7 @@
       <c r="H1539" s="9"/>
       <c r="I1539"/>
       <c r="J1539" s="1" t="s">
-        <v>4460</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1540" spans="1:10" x14ac:dyDescent="0.2">
@@ -62119,7 +62347,7 @@
       <c r="H1540" s="9"/>
       <c r="I1540"/>
       <c r="J1540" s="1" t="s">
-        <v>4446</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1541" spans="1:10" x14ac:dyDescent="0.2">
@@ -62144,7 +62372,7 @@
       <c r="H1541" s="9"/>
       <c r="I1541"/>
       <c r="J1541" s="1" t="s">
-        <v>1589</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1542" spans="1:10" x14ac:dyDescent="0.2">
@@ -62168,8 +62396,8 @@
       </c>
       <c r="H1542" s="9"/>
       <c r="I1542"/>
-      <c r="J1542" s="1" t="s">
-        <v>1592</v>
+      <c r="J1542" s="4" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1543" spans="1:10" x14ac:dyDescent="0.2">
@@ -62194,7 +62422,7 @@
       <c r="H1543" s="9"/>
       <c r="I1543"/>
       <c r="J1543" s="1" t="s">
-        <v>1596</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1544" spans="1:10" x14ac:dyDescent="0.2">
@@ -62219,7 +62447,7 @@
       <c r="H1544" s="9"/>
       <c r="I1544"/>
       <c r="J1544" s="1" t="s">
-        <v>1600</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1545" spans="1:10" x14ac:dyDescent="0.2">
@@ -62244,7 +62472,7 @@
       <c r="H1545" s="9"/>
       <c r="I1545"/>
       <c r="J1545" s="1" t="s">
-        <v>1603</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1546" spans="1:10" x14ac:dyDescent="0.2">
@@ -62269,7 +62497,7 @@
       <c r="H1546" s="9"/>
       <c r="I1546"/>
       <c r="J1546" s="1" t="s">
-        <v>1606</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1547" spans="1:10" x14ac:dyDescent="0.2">
@@ -62294,7 +62522,7 @@
       <c r="H1547" s="9"/>
       <c r="I1547"/>
       <c r="J1547" s="1" t="s">
-        <v>1609</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1548" spans="1:10" x14ac:dyDescent="0.2">
@@ -62319,7 +62547,7 @@
       <c r="H1548" s="9"/>
       <c r="I1548"/>
       <c r="J1548" s="1" t="s">
-        <v>1611</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1549" spans="1:10" x14ac:dyDescent="0.2">
@@ -62344,7 +62572,7 @@
       <c r="H1549" s="9"/>
       <c r="I1549"/>
       <c r="J1549" s="1" t="s">
-        <v>1614</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1550" spans="1:10" x14ac:dyDescent="0.2">
@@ -62369,7 +62597,7 @@
       <c r="H1550" s="9"/>
       <c r="I1550"/>
       <c r="J1550" s="1" t="s">
-        <v>1618</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1551" spans="1:10" x14ac:dyDescent="0.2">
@@ -62394,7 +62622,7 @@
       <c r="H1551" s="9"/>
       <c r="I1551"/>
       <c r="J1551" s="1" t="s">
-        <v>1621</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1552" spans="1:10" x14ac:dyDescent="0.2">
@@ -62419,7 +62647,7 @@
       <c r="H1552" s="9"/>
       <c r="I1552"/>
       <c r="J1552" s="1" t="s">
-        <v>1624</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1553" spans="1:10" x14ac:dyDescent="0.2">
@@ -62444,7 +62672,7 @@
       <c r="H1553" s="9"/>
       <c r="I1553"/>
       <c r="J1553" s="1" t="s">
-        <v>1628</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1554" spans="1:10" x14ac:dyDescent="0.2">
@@ -62469,7 +62697,7 @@
       <c r="H1554" s="9"/>
       <c r="I1554"/>
       <c r="J1554" s="1" t="s">
-        <v>1632</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1555" spans="1:10" x14ac:dyDescent="0.2">
@@ -62494,7 +62722,7 @@
       <c r="H1555" s="9"/>
       <c r="I1555"/>
       <c r="J1555" s="1" t="s">
-        <v>1636</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1556" spans="1:10" x14ac:dyDescent="0.2">
@@ -62519,7 +62747,7 @@
       <c r="H1556" s="9"/>
       <c r="I1556"/>
       <c r="J1556" s="1" t="s">
-        <v>1639</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1557" spans="1:10" x14ac:dyDescent="0.2">
@@ -62544,7 +62772,7 @@
       <c r="H1557" s="9"/>
       <c r="I1557"/>
       <c r="J1557" s="1" t="s">
-        <v>1642</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1558" spans="1:10" x14ac:dyDescent="0.2">
@@ -62569,7 +62797,7 @@
       <c r="H1558" s="9"/>
       <c r="I1558"/>
       <c r="J1558" s="1" t="s">
-        <v>1646</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1559" spans="1:10" x14ac:dyDescent="0.2">
@@ -62594,7 +62822,7 @@
       <c r="H1559" s="9"/>
       <c r="I1559"/>
       <c r="J1559" s="1" t="s">
-        <v>1122</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1560" spans="1:10" x14ac:dyDescent="0.2">
@@ -62619,7 +62847,7 @@
       <c r="H1560" s="9"/>
       <c r="I1560"/>
       <c r="J1560" s="1" t="s">
-        <v>1652</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1561" spans="1:10" x14ac:dyDescent="0.2">
@@ -62644,7 +62872,7 @@
       <c r="H1561" s="9"/>
       <c r="I1561"/>
       <c r="J1561" s="1" t="s">
-        <v>1655</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1562" spans="1:10" x14ac:dyDescent="0.2">
@@ -62669,7 +62897,7 @@
       <c r="H1562" s="9"/>
       <c r="I1562"/>
       <c r="J1562" s="1" t="s">
-        <v>1658</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1563" spans="1:10" x14ac:dyDescent="0.2">
@@ -62694,7 +62922,7 @@
       <c r="H1563" s="9"/>
       <c r="I1563"/>
       <c r="J1563" s="1" t="s">
-        <v>1661</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1564" spans="1:10" x14ac:dyDescent="0.2">
@@ -62719,7 +62947,7 @@
       <c r="H1564" s="9"/>
       <c r="I1564"/>
       <c r="J1564" s="1" t="s">
-        <v>1664</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1565" spans="1:10" x14ac:dyDescent="0.2">
@@ -62744,7 +62972,7 @@
       <c r="H1565" s="9"/>
       <c r="I1565"/>
       <c r="J1565" s="1" t="s">
-        <v>1667</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1566" spans="1:10" x14ac:dyDescent="0.2">
@@ -62769,7 +62997,7 @@
       <c r="H1566" s="9"/>
       <c r="I1566"/>
       <c r="J1566" s="1" t="s">
-        <v>1670</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1567" spans="1:10" x14ac:dyDescent="0.2">
@@ -62794,7 +63022,7 @@
       <c r="H1567" s="9"/>
       <c r="I1567"/>
       <c r="J1567" s="1" t="s">
-        <v>1673</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1568" spans="1:10" x14ac:dyDescent="0.2">
@@ -62819,7 +63047,7 @@
       <c r="H1568" s="9"/>
       <c r="I1568"/>
       <c r="J1568" s="1" t="s">
-        <v>1677</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1569" spans="1:10" x14ac:dyDescent="0.2">
@@ -62844,7 +63072,7 @@
       <c r="H1569" s="9"/>
       <c r="I1569"/>
       <c r="J1569" s="1" t="s">
-        <v>445</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1570" spans="1:10" x14ac:dyDescent="0.2">
@@ -62869,7 +63097,7 @@
       <c r="H1570" s="9"/>
       <c r="I1570"/>
       <c r="J1570" s="1" t="s">
-        <v>1682</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1571" spans="1:10" x14ac:dyDescent="0.2">
@@ -62894,7 +63122,7 @@
       <c r="H1571" s="9"/>
       <c r="I1571"/>
       <c r="J1571" s="1" t="s">
-        <v>1685</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1572" spans="1:10" x14ac:dyDescent="0.2">
@@ -62919,7 +63147,7 @@
       <c r="H1572" s="9"/>
       <c r="I1572"/>
       <c r="J1572" s="1" t="s">
-        <v>1688</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1573" spans="1:10" x14ac:dyDescent="0.2">
@@ -62944,7 +63172,7 @@
       <c r="H1573" s="9"/>
       <c r="I1573"/>
       <c r="J1573" s="1" t="s">
-        <v>1691</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1574" spans="1:10" x14ac:dyDescent="0.2">
@@ -62969,7 +63197,7 @@
       <c r="H1574" s="9"/>
       <c r="I1574"/>
       <c r="J1574" s="1" t="s">
-        <v>1694</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1575" spans="1:10" x14ac:dyDescent="0.2">
@@ -62994,7 +63222,7 @@
       <c r="H1575" s="9"/>
       <c r="I1575"/>
       <c r="J1575" s="1" t="s">
-        <v>1697</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1576" spans="1:10" x14ac:dyDescent="0.2">
@@ -63019,7 +63247,7 @@
       <c r="H1576" s="9"/>
       <c r="I1576"/>
       <c r="J1576" s="1" t="s">
-        <v>1700</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1577" spans="1:10" x14ac:dyDescent="0.2">
@@ -63044,7 +63272,7 @@
       <c r="H1577" s="9"/>
       <c r="I1577"/>
       <c r="J1577" s="1" t="s">
-        <v>1704</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1578" spans="1:10" x14ac:dyDescent="0.2">
@@ -63069,7 +63297,7 @@
       <c r="H1578" s="9"/>
       <c r="I1578"/>
       <c r="J1578" s="1" t="s">
-        <v>1708</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1579" spans="1:10" x14ac:dyDescent="0.2">
@@ -63094,7 +63322,7 @@
       <c r="H1579" s="9"/>
       <c r="I1579"/>
       <c r="J1579" s="1" t="s">
-        <v>1711</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1580" spans="1:10" x14ac:dyDescent="0.2">
@@ -63119,7 +63347,7 @@
       <c r="H1580" s="9"/>
       <c r="I1580"/>
       <c r="J1580" s="1" t="s">
-        <v>1714</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1581" spans="1:10" x14ac:dyDescent="0.2">
@@ -63144,7 +63372,7 @@
       <c r="H1581" s="9"/>
       <c r="I1581"/>
       <c r="J1581" s="1" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1582" spans="1:10" x14ac:dyDescent="0.2">
@@ -63172,7 +63400,7 @@
       <c r="H1582" s="9"/>
       <c r="I1582"/>
       <c r="J1582" s="1" t="s">
-        <v>3247</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1583" spans="1:10" x14ac:dyDescent="0.2">
@@ -63197,7 +63425,7 @@
       <c r="H1583" s="9"/>
       <c r="I1583"/>
       <c r="J1583" s="1" t="s">
-        <v>4462</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1584" spans="1:10" x14ac:dyDescent="0.2">
@@ -63222,7 +63450,7 @@
       <c r="H1584" s="9"/>
       <c r="I1584"/>
       <c r="J1584" s="1" t="s">
-        <v>4463</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1585" spans="1:10" x14ac:dyDescent="0.2">
@@ -63250,7 +63478,7 @@
       <c r="H1585" s="9"/>
       <c r="I1585"/>
       <c r="J1585" s="1" t="s">
-        <v>4464</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1586" spans="1:10" x14ac:dyDescent="0.2">
@@ -63275,7 +63503,7 @@
       <c r="H1586" s="9"/>
       <c r="I1586"/>
       <c r="J1586" s="1" t="s">
-        <v>4465</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1587" spans="1:10" x14ac:dyDescent="0.2">
@@ -63300,7 +63528,7 @@
       <c r="H1587" s="9"/>
       <c r="I1587"/>
       <c r="J1587" s="1" t="s">
-        <v>4466</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1588" spans="1:10" x14ac:dyDescent="0.2">
@@ -63328,7 +63556,7 @@
       <c r="H1588" s="9"/>
       <c r="I1588"/>
       <c r="J1588" s="1" t="s">
-        <v>3169</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1589" spans="1:10" x14ac:dyDescent="0.2">
@@ -63356,7 +63584,7 @@
       <c r="H1589" s="9"/>
       <c r="I1589"/>
       <c r="J1589" s="1" t="s">
-        <v>4467</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1590" spans="1:10" x14ac:dyDescent="0.2">
@@ -63381,7 +63609,7 @@
       <c r="H1590" s="9"/>
       <c r="I1590"/>
       <c r="J1590" s="1" t="s">
-        <v>4468</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1591" spans="1:10" x14ac:dyDescent="0.2">
@@ -63409,7 +63637,7 @@
       <c r="H1591" s="9"/>
       <c r="I1591"/>
       <c r="J1591" s="1" t="s">
-        <v>4469</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1592" spans="1:10" x14ac:dyDescent="0.2">
@@ -63434,7 +63662,7 @@
       <c r="H1592" s="9"/>
       <c r="I1592"/>
       <c r="J1592" s="1" t="s">
-        <v>4470</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1593" spans="1:10" x14ac:dyDescent="0.2">
@@ -63459,7 +63687,7 @@
       <c r="H1593" s="9"/>
       <c r="I1593"/>
       <c r="J1593" s="1" t="s">
-        <v>4471</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1594" spans="1:10" x14ac:dyDescent="0.2">
@@ -63484,7 +63712,7 @@
       <c r="H1594" s="9"/>
       <c r="I1594"/>
       <c r="J1594" s="1" t="s">
-        <v>4472</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1595" spans="1:10" x14ac:dyDescent="0.2">
@@ -63509,7 +63737,7 @@
       <c r="H1595" s="9"/>
       <c r="I1595"/>
       <c r="J1595" s="1" t="s">
-        <v>4473</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1596" spans="1:10" x14ac:dyDescent="0.2">
@@ -63534,7 +63762,7 @@
       <c r="H1596" s="9"/>
       <c r="I1596"/>
       <c r="J1596" s="1" t="s">
-        <v>1718</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1597" spans="1:10" x14ac:dyDescent="0.2">
@@ -63559,7 +63787,7 @@
       <c r="H1597" s="9"/>
       <c r="I1597"/>
       <c r="J1597" s="1" t="s">
-        <v>1722</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1598" spans="1:10" x14ac:dyDescent="0.2">
@@ -63584,7 +63812,7 @@
       <c r="H1598" s="9"/>
       <c r="I1598"/>
       <c r="J1598" s="1" t="s">
-        <v>1725</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1599" spans="1:10" x14ac:dyDescent="0.2">
@@ -63609,7 +63837,7 @@
       <c r="H1599" s="9"/>
       <c r="I1599"/>
       <c r="J1599" s="1" t="s">
-        <v>1729</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1600" spans="1:10" x14ac:dyDescent="0.2">
@@ -63634,7 +63862,7 @@
       <c r="H1600" s="9"/>
       <c r="I1600"/>
       <c r="J1600" s="1" t="s">
-        <v>1732</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1601" spans="1:10" x14ac:dyDescent="0.2">
@@ -63659,7 +63887,7 @@
       <c r="H1601" s="9"/>
       <c r="I1601"/>
       <c r="J1601" s="1" t="s">
-        <v>1737</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1602" spans="1:10" x14ac:dyDescent="0.2">
@@ -63684,7 +63912,7 @@
       <c r="H1602" s="9"/>
       <c r="I1602"/>
       <c r="J1602" s="1" t="s">
-        <v>1740</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1603" spans="1:10" x14ac:dyDescent="0.2">
@@ -63709,7 +63937,7 @@
       <c r="H1603" s="9"/>
       <c r="I1603"/>
       <c r="J1603" s="1" t="s">
-        <v>1743</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1604" spans="1:10" x14ac:dyDescent="0.2">
@@ -63734,7 +63962,7 @@
       <c r="H1604" s="9"/>
       <c r="I1604"/>
       <c r="J1604" s="1" t="s">
-        <v>1747</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1605" spans="1:10" x14ac:dyDescent="0.2">
@@ -63759,7 +63987,7 @@
       <c r="H1605" s="9"/>
       <c r="I1605"/>
       <c r="J1605" s="1" t="s">
-        <v>1750</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1606" spans="1:10" x14ac:dyDescent="0.2">
@@ -63787,7 +64015,7 @@
       <c r="H1606" s="9"/>
       <c r="I1606"/>
       <c r="J1606" s="1" t="s">
-        <v>1754</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1607" spans="1:10" x14ac:dyDescent="0.2">
@@ -63812,7 +64040,7 @@
       <c r="H1607" s="9"/>
       <c r="I1607"/>
       <c r="J1607" s="1" t="s">
-        <v>1757</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1608" spans="1:10" x14ac:dyDescent="0.2">
@@ -63837,7 +64065,7 @@
       <c r="H1608" s="9"/>
       <c r="I1608"/>
       <c r="J1608" s="1" t="s">
-        <v>1760</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1609" spans="1:10" x14ac:dyDescent="0.2">
@@ -63862,7 +64090,7 @@
       <c r="H1609" s="9"/>
       <c r="I1609"/>
       <c r="J1609" s="1" t="s">
-        <v>1763</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1610" spans="1:10" x14ac:dyDescent="0.2">
@@ -63887,7 +64115,7 @@
       <c r="H1610" s="9"/>
       <c r="I1610"/>
       <c r="J1610" s="1" t="s">
-        <v>1766</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1611" spans="1:10" x14ac:dyDescent="0.2">
@@ -63912,7 +64140,7 @@
       <c r="H1611" s="9"/>
       <c r="I1611"/>
       <c r="J1611" s="1" t="s">
-        <v>1769</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1612" spans="1:10" x14ac:dyDescent="0.2">
@@ -63937,7 +64165,7 @@
       <c r="H1612" s="9"/>
       <c r="I1612"/>
       <c r="J1612" s="1" t="s">
-        <v>1772</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1613" spans="1:10" x14ac:dyDescent="0.2">
@@ -63962,7 +64190,7 @@
       <c r="H1613" s="9"/>
       <c r="I1613"/>
       <c r="J1613" s="1" t="s">
-        <v>1775</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1614" spans="1:10" x14ac:dyDescent="0.2">
@@ -63987,7 +64215,7 @@
       <c r="H1614" s="9"/>
       <c r="I1614"/>
       <c r="J1614" s="1" t="s">
-        <v>1778</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1615" spans="1:10" x14ac:dyDescent="0.2">
@@ -64012,7 +64240,7 @@
       <c r="H1615" s="9"/>
       <c r="I1615"/>
       <c r="J1615" s="1" t="s">
-        <v>1782</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1616" spans="1:10" x14ac:dyDescent="0.2">
@@ -64040,7 +64268,7 @@
       <c r="H1616" s="9"/>
       <c r="I1616"/>
       <c r="J1616" s="1" t="s">
-        <v>1784</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1617" spans="1:10" x14ac:dyDescent="0.2">
@@ -64065,7 +64293,7 @@
       <c r="H1617" s="9"/>
       <c r="I1617"/>
       <c r="J1617" s="1" t="s">
-        <v>1787</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1618" spans="1:10" x14ac:dyDescent="0.2">
@@ -64090,7 +64318,7 @@
       <c r="H1618" s="9"/>
       <c r="I1618"/>
       <c r="J1618" s="1" t="s">
-        <v>1791</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1619" spans="1:10" x14ac:dyDescent="0.2">
@@ -64115,7 +64343,7 @@
       <c r="H1619" s="9"/>
       <c r="I1619"/>
       <c r="J1619" s="1" t="s">
-        <v>1795</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1620" spans="1:10" x14ac:dyDescent="0.2">
@@ -64140,7 +64368,7 @@
       <c r="H1620" s="9"/>
       <c r="I1620"/>
       <c r="J1620" s="1" t="s">
-        <v>1797</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1621" spans="1:10" x14ac:dyDescent="0.2">
@@ -64165,7 +64393,7 @@
       <c r="H1621" s="9"/>
       <c r="I1621"/>
       <c r="J1621" s="1" t="s">
-        <v>1799</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1622" spans="1:10" x14ac:dyDescent="0.2">
@@ -64190,7 +64418,7 @@
       <c r="H1622" s="9"/>
       <c r="I1622"/>
       <c r="J1622" s="1" t="s">
-        <v>1803</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1623" spans="1:10" x14ac:dyDescent="0.2">
@@ -64215,7 +64443,7 @@
       <c r="H1623" s="9"/>
       <c r="I1623"/>
       <c r="J1623" s="1" t="s">
-        <v>1807</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1624" spans="1:10" x14ac:dyDescent="0.2">
@@ -64240,7 +64468,7 @@
       <c r="H1624" s="9"/>
       <c r="I1624"/>
       <c r="J1624" s="1" t="s">
-        <v>1810</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1625" spans="1:10" x14ac:dyDescent="0.2">
@@ -64265,7 +64493,7 @@
       <c r="H1625" s="9"/>
       <c r="I1625"/>
       <c r="J1625" s="1" t="s">
-        <v>1813</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1626" spans="1:10" x14ac:dyDescent="0.2">
@@ -64290,7 +64518,7 @@
       <c r="H1626" s="9"/>
       <c r="I1626"/>
       <c r="J1626" s="1" t="s">
-        <v>1816</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1627" spans="1:10" x14ac:dyDescent="0.2">
@@ -64315,7 +64543,7 @@
       <c r="H1627" s="9"/>
       <c r="I1627"/>
       <c r="J1627" s="1" t="s">
-        <v>1821</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1628" spans="1:10" x14ac:dyDescent="0.2">
@@ -64340,7 +64568,7 @@
       <c r="H1628" s="9"/>
       <c r="I1628"/>
       <c r="J1628" s="1" t="s">
-        <v>1824</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1629" spans="1:10" x14ac:dyDescent="0.2">
@@ -64365,7 +64593,7 @@
       <c r="H1629" s="9"/>
       <c r="I1629"/>
       <c r="J1629" s="1" t="s">
-        <v>1828</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1630" spans="1:10" x14ac:dyDescent="0.2">
@@ -64390,7 +64618,7 @@
       <c r="H1630" s="9"/>
       <c r="I1630"/>
       <c r="J1630" s="1" t="s">
-        <v>1832</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1631" spans="1:10" x14ac:dyDescent="0.2">
@@ -64415,7 +64643,7 @@
       <c r="H1631" s="9"/>
       <c r="I1631"/>
       <c r="J1631" s="1" t="s">
-        <v>1836</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1632" spans="1:10" x14ac:dyDescent="0.2">
@@ -64440,7 +64668,7 @@
       <c r="H1632" s="9"/>
       <c r="I1632"/>
       <c r="J1632" s="1" t="s">
-        <v>1840</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1633" spans="1:10" x14ac:dyDescent="0.2">
@@ -64465,7 +64693,7 @@
       <c r="H1633" s="9"/>
       <c r="I1633"/>
       <c r="J1633" s="1" t="s">
-        <v>1843</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1634" spans="1:10" x14ac:dyDescent="0.2">
@@ -64490,7 +64718,7 @@
       <c r="H1634" s="9"/>
       <c r="I1634"/>
       <c r="J1634" s="1" t="s">
-        <v>1846</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1635" spans="1:10" x14ac:dyDescent="0.2">
@@ -64515,7 +64743,7 @@
       <c r="H1635" s="9"/>
       <c r="I1635"/>
       <c r="J1635" s="1" t="s">
-        <v>1850</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1636" spans="1:10" x14ac:dyDescent="0.2">
@@ -64540,7 +64768,7 @@
       <c r="H1636" s="9"/>
       <c r="I1636"/>
       <c r="J1636" s="1" t="s">
-        <v>1853</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1637" spans="1:10" x14ac:dyDescent="0.2">
@@ -64565,7 +64793,7 @@
       <c r="H1637" s="9"/>
       <c r="I1637"/>
       <c r="J1637" s="1" t="s">
-        <v>1856</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1638" spans="1:10" x14ac:dyDescent="0.2">
@@ -64590,7 +64818,7 @@
       <c r="H1638" s="9"/>
       <c r="I1638"/>
       <c r="J1638" s="1" t="s">
-        <v>1859</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1639" spans="1:10" x14ac:dyDescent="0.2">
@@ -64615,7 +64843,7 @@
       <c r="H1639" s="9"/>
       <c r="I1639"/>
       <c r="J1639" s="1" t="s">
-        <v>4474</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1640" spans="1:10" x14ac:dyDescent="0.2">
@@ -64640,7 +64868,7 @@
       <c r="H1640" s="9"/>
       <c r="I1640"/>
       <c r="J1640" s="1" t="s">
-        <v>4475</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1641" spans="1:10" x14ac:dyDescent="0.2">
@@ -64665,7 +64893,7 @@
       <c r="H1641" s="9"/>
       <c r="I1641"/>
       <c r="J1641" s="1" t="s">
-        <v>4476</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1642" spans="1:10" x14ac:dyDescent="0.2">
@@ -64690,7 +64918,7 @@
       <c r="H1642" s="9"/>
       <c r="I1642"/>
       <c r="J1642" s="1" t="s">
-        <v>3348</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1643" spans="1:10" x14ac:dyDescent="0.2">
@@ -64715,7 +64943,7 @@
       <c r="H1643" s="9"/>
       <c r="I1643"/>
       <c r="J1643" s="1" t="s">
-        <v>4477</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1644" spans="1:10" x14ac:dyDescent="0.2">
@@ -64740,7 +64968,7 @@
       <c r="H1644" s="9"/>
       <c r="I1644"/>
       <c r="J1644" s="1" t="s">
-        <v>4299</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1645" spans="1:10" x14ac:dyDescent="0.2">
@@ -64765,7 +64993,7 @@
       <c r="H1645" s="9"/>
       <c r="I1645"/>
       <c r="J1645" s="1" t="s">
-        <v>4478</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1646" spans="1:10" x14ac:dyDescent="0.2">
@@ -64790,7 +65018,7 @@
       <c r="H1646" s="9"/>
       <c r="I1646"/>
       <c r="J1646" s="1" t="s">
-        <v>4479</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1647" spans="1:10" x14ac:dyDescent="0.2">
@@ -64815,7 +65043,7 @@
       <c r="H1647" s="9"/>
       <c r="I1647"/>
       <c r="J1647" s="1" t="s">
-        <v>4474</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1648" spans="1:10" x14ac:dyDescent="0.2">
@@ -64840,7 +65068,7 @@
       <c r="H1648" s="9"/>
       <c r="I1648"/>
       <c r="J1648" s="1" t="s">
-        <v>4475</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1649" spans="1:10" x14ac:dyDescent="0.2">
@@ -64868,7 +65096,7 @@
       <c r="H1649" s="9"/>
       <c r="I1649"/>
       <c r="J1649" s="1" t="s">
-        <v>1862</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1650" spans="1:10" x14ac:dyDescent="0.2">
@@ -64893,7 +65121,7 @@
       <c r="H1650" s="9"/>
       <c r="I1650"/>
       <c r="J1650" s="1" t="s">
-        <v>1865</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1651" spans="1:10" x14ac:dyDescent="0.2">
@@ -64918,7 +65146,7 @@
       <c r="H1651" s="9"/>
       <c r="I1651"/>
       <c r="J1651" s="1" t="s">
-        <v>402</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1652" spans="1:10" x14ac:dyDescent="0.2">
@@ -64943,7 +65171,7 @@
       <c r="H1652" s="9"/>
       <c r="I1652"/>
       <c r="J1652" s="1" t="s">
-        <v>107</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1653" spans="1:10" x14ac:dyDescent="0.2">
@@ -64971,7 +65199,7 @@
       <c r="H1653" s="9"/>
       <c r="I1653"/>
       <c r="J1653" s="1" t="s">
-        <v>1873</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1654" spans="1:10" x14ac:dyDescent="0.2">
@@ -64996,7 +65224,7 @@
       <c r="H1654" s="9"/>
       <c r="I1654"/>
       <c r="J1654" s="1" t="s">
-        <v>1876</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1655" spans="1:10" x14ac:dyDescent="0.2">
@@ -65021,7 +65249,7 @@
       <c r="H1655" s="9"/>
       <c r="I1655"/>
       <c r="J1655" s="1" t="s">
-        <v>1879</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1656" spans="1:10" x14ac:dyDescent="0.2">
@@ -65049,7 +65277,7 @@
       <c r="H1656" s="9"/>
       <c r="I1656"/>
       <c r="J1656" s="1" t="s">
-        <v>1883</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1657" spans="1:10" x14ac:dyDescent="0.2">
@@ -65074,7 +65302,7 @@
       <c r="H1657" s="9"/>
       <c r="I1657"/>
       <c r="J1657" s="1" t="s">
-        <v>214</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1658" spans="1:10" x14ac:dyDescent="0.2">
@@ -65099,7 +65327,7 @@
       <c r="H1658" s="9"/>
       <c r="I1658"/>
       <c r="J1658" s="1" t="s">
-        <v>1889</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1659" spans="1:10" x14ac:dyDescent="0.2">
@@ -65124,7 +65352,7 @@
       <c r="H1659" s="9"/>
       <c r="I1659"/>
       <c r="J1659" s="1" t="s">
-        <v>1891</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1660" spans="1:10" x14ac:dyDescent="0.2">
@@ -65149,7 +65377,7 @@
       <c r="H1660" s="9"/>
       <c r="I1660"/>
       <c r="J1660" s="1" t="s">
-        <v>1895</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1661" spans="1:10" x14ac:dyDescent="0.2">
@@ -65174,7 +65402,7 @@
       <c r="H1661" s="9"/>
       <c r="I1661"/>
       <c r="J1661" s="1" t="s">
-        <v>1898</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1662" spans="1:10" x14ac:dyDescent="0.2">
@@ -65199,7 +65427,7 @@
       <c r="H1662" s="9"/>
       <c r="I1662"/>
       <c r="J1662" s="1" t="s">
-        <v>1901</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1663" spans="1:10" x14ac:dyDescent="0.2">
@@ -65224,7 +65452,7 @@
       <c r="H1663" s="9"/>
       <c r="I1663"/>
       <c r="J1663" s="1" t="s">
-        <v>1905</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1664" spans="1:10" x14ac:dyDescent="0.2">
@@ -65249,7 +65477,7 @@
       <c r="H1664" s="9"/>
       <c r="I1664"/>
       <c r="J1664" s="1" t="s">
-        <v>1908</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1665" spans="1:10" x14ac:dyDescent="0.2">
@@ -65274,7 +65502,7 @@
       <c r="H1665" s="9"/>
       <c r="I1665"/>
       <c r="J1665" s="1" t="s">
-        <v>1913</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1666" spans="1:10" x14ac:dyDescent="0.2">
@@ -65299,7 +65527,7 @@
       <c r="H1666" s="9"/>
       <c r="I1666"/>
       <c r="J1666" s="1" t="s">
-        <v>1916</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1667" spans="1:10" x14ac:dyDescent="0.2">
@@ -65327,7 +65555,7 @@
       <c r="H1667" s="9"/>
       <c r="I1667"/>
       <c r="J1667" s="1" t="s">
-        <v>1920</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1668" spans="1:10" x14ac:dyDescent="0.2">
@@ -65352,7 +65580,7 @@
       <c r="H1668" s="9"/>
       <c r="I1668"/>
       <c r="J1668" s="1" t="s">
-        <v>1924</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1669" spans="1:10" x14ac:dyDescent="0.2">
@@ -65377,7 +65605,7 @@
       <c r="H1669" s="9"/>
       <c r="I1669"/>
       <c r="J1669" s="1" t="s">
-        <v>1927</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1670" spans="1:10" x14ac:dyDescent="0.2">
@@ -65402,7 +65630,7 @@
       <c r="H1670" s="9"/>
       <c r="I1670"/>
       <c r="J1670" s="1" t="s">
-        <v>1931</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1671" spans="1:10" x14ac:dyDescent="0.2">
@@ -65427,7 +65655,7 @@
       <c r="H1671" s="9"/>
       <c r="I1671"/>
       <c r="J1671" s="1" t="s">
-        <v>1935</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1672" spans="1:10" x14ac:dyDescent="0.2">
@@ -65452,7 +65680,7 @@
       <c r="H1672" s="9"/>
       <c r="I1672"/>
       <c r="J1672" s="1" t="s">
-        <v>1939</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1673" spans="1:10" x14ac:dyDescent="0.2">
@@ -65477,7 +65705,7 @@
       <c r="H1673" s="9"/>
       <c r="I1673"/>
       <c r="J1673" s="1" t="s">
-        <v>1942</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1674" spans="1:10" x14ac:dyDescent="0.2">
@@ -65502,7 +65730,7 @@
       <c r="H1674" s="9"/>
       <c r="I1674"/>
       <c r="J1674" s="1" t="s">
-        <v>1945</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1675" spans="1:10" x14ac:dyDescent="0.2">
@@ -65527,7 +65755,7 @@
       <c r="H1675" s="9"/>
       <c r="I1675"/>
       <c r="J1675" s="1" t="s">
-        <v>1949</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1676" spans="1:10" x14ac:dyDescent="0.2">
@@ -65552,7 +65780,7 @@
       <c r="H1676" s="9"/>
       <c r="I1676"/>
       <c r="J1676" s="1" t="s">
-        <v>311</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1677" spans="1:10" x14ac:dyDescent="0.2">
@@ -65580,7 +65808,7 @@
       <c r="H1677" s="9"/>
       <c r="I1677"/>
       <c r="J1677" s="1" t="s">
-        <v>1955</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1678" spans="1:10" x14ac:dyDescent="0.2">
@@ -65608,7 +65836,7 @@
       <c r="H1678" s="9"/>
       <c r="I1678"/>
       <c r="J1678" s="1" t="s">
-        <v>1958</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1679" spans="1:10" x14ac:dyDescent="0.2">
@@ -65633,7 +65861,7 @@
       <c r="H1679" s="9"/>
       <c r="I1679"/>
       <c r="J1679" s="1" t="s">
-        <v>1961</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1680" spans="1:10" x14ac:dyDescent="0.2">
@@ -65661,7 +65889,7 @@
       <c r="H1680" s="9"/>
       <c r="I1680"/>
       <c r="J1680" s="1" t="s">
-        <v>1965</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1681" spans="1:10" x14ac:dyDescent="0.2">
@@ -65686,7 +65914,7 @@
       <c r="H1681" s="9"/>
       <c r="I1681"/>
       <c r="J1681" s="1" t="s">
-        <v>1968</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1682" spans="1:10" x14ac:dyDescent="0.2">
@@ -65711,7 +65939,7 @@
       <c r="H1682" s="9"/>
       <c r="I1682"/>
       <c r="J1682" s="1" t="s">
-        <v>1971</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1683" spans="1:10" x14ac:dyDescent="0.2">
@@ -65736,7 +65964,7 @@
       <c r="H1683" s="9"/>
       <c r="I1683"/>
       <c r="J1683" s="1" t="s">
-        <v>1973</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1684" spans="1:10" x14ac:dyDescent="0.2">
@@ -65761,7 +65989,7 @@
       <c r="H1684" s="9"/>
       <c r="I1684"/>
       <c r="J1684" s="1" t="s">
-        <v>1976</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1685" spans="1:10" x14ac:dyDescent="0.2">
@@ -65786,7 +66014,7 @@
       <c r="H1685" s="9"/>
       <c r="I1685"/>
       <c r="J1685" s="1" t="s">
-        <v>1979</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1686" spans="1:10" x14ac:dyDescent="0.2">
@@ -65811,7 +66039,7 @@
       <c r="H1686" s="9"/>
       <c r="I1686"/>
       <c r="J1686" s="1" t="s">
-        <v>1984</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1687" spans="1:10" x14ac:dyDescent="0.2">
@@ -65836,7 +66064,7 @@
       <c r="H1687" s="9"/>
       <c r="I1687"/>
       <c r="J1687" s="1" t="s">
-        <v>1987</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1688" spans="1:10" x14ac:dyDescent="0.2">
@@ -65861,7 +66089,7 @@
       <c r="H1688" s="9"/>
       <c r="I1688"/>
       <c r="J1688" s="1" t="s">
-        <v>1990</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1689" spans="1:10" x14ac:dyDescent="0.2">
@@ -65886,7 +66114,7 @@
       <c r="H1689" s="9"/>
       <c r="I1689"/>
       <c r="J1689" s="1" t="s">
-        <v>1993</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1690" spans="1:10" x14ac:dyDescent="0.2">
@@ -65911,7 +66139,7 @@
       <c r="H1690" s="9"/>
       <c r="I1690"/>
       <c r="J1690" s="1" t="s">
-        <v>4480</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1691" spans="1:10" x14ac:dyDescent="0.2">
@@ -65936,7 +66164,7 @@
       <c r="H1691" s="9"/>
       <c r="I1691"/>
       <c r="J1691" s="1" t="s">
-        <v>4481</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1692" spans="1:10" x14ac:dyDescent="0.2">
@@ -65961,7 +66189,7 @@
       <c r="H1692" s="9"/>
       <c r="I1692"/>
       <c r="J1692" s="1" t="s">
-        <v>4482</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1693" spans="1:10" x14ac:dyDescent="0.2">
@@ -65986,7 +66214,7 @@
       <c r="H1693" s="9"/>
       <c r="I1693"/>
       <c r="J1693" s="1" t="s">
-        <v>1996</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1694" spans="1:10" x14ac:dyDescent="0.2">
@@ -66011,7 +66239,7 @@
       <c r="H1694" s="9"/>
       <c r="I1694"/>
       <c r="J1694" s="1" t="s">
-        <v>2000</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1695" spans="1:10" x14ac:dyDescent="0.2">
@@ -66036,7 +66264,7 @@
       <c r="H1695" s="9"/>
       <c r="I1695"/>
       <c r="J1695" s="1" t="s">
-        <v>2004</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1696" spans="1:10" x14ac:dyDescent="0.2">
@@ -66061,7 +66289,7 @@
       <c r="H1696" s="9"/>
       <c r="I1696"/>
       <c r="J1696" s="1" t="s">
-        <v>783</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1697" spans="1:10" x14ac:dyDescent="0.2">
@@ -66086,7 +66314,7 @@
       <c r="H1697" s="9"/>
       <c r="I1697"/>
       <c r="J1697" s="1" t="s">
-        <v>2011</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1698" spans="1:10" x14ac:dyDescent="0.2">
@@ -66111,7 +66339,7 @@
       <c r="H1698" s="9"/>
       <c r="I1698"/>
       <c r="J1698" s="1" t="s">
-        <v>2014</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1699" spans="1:10" x14ac:dyDescent="0.2">
@@ -66135,8 +66363,8 @@
       </c>
       <c r="H1699" s="9"/>
       <c r="I1699"/>
-      <c r="J1699" s="1">
-        <v>300</v>
+      <c r="J1699" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="1700" spans="1:10" x14ac:dyDescent="0.2">
@@ -66161,7 +66389,7 @@
       <c r="H1700" s="9"/>
       <c r="I1700"/>
       <c r="J1700" s="1" t="s">
-        <v>2021</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1701" spans="1:10" x14ac:dyDescent="0.2">
@@ -66186,7 +66414,7 @@
       <c r="H1701" s="9"/>
       <c r="I1701"/>
       <c r="J1701" s="1" t="s">
-        <v>2025</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1702" spans="1:10" x14ac:dyDescent="0.2">
@@ -66211,7 +66439,7 @@
       <c r="H1702" s="9"/>
       <c r="I1702"/>
       <c r="J1702" s="1" t="s">
-        <v>2027</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1703" spans="1:10" x14ac:dyDescent="0.2">
@@ -66236,7 +66464,7 @@
       <c r="H1703" s="9"/>
       <c r="I1703"/>
       <c r="J1703" s="1" t="s">
-        <v>2030</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1704" spans="1:10" x14ac:dyDescent="0.2">
@@ -66261,7 +66489,7 @@
       <c r="H1704" s="9"/>
       <c r="I1704"/>
       <c r="J1704" s="1" t="s">
-        <v>2033</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1705" spans="1:10" x14ac:dyDescent="0.2">
@@ -66286,7 +66514,7 @@
       <c r="H1705" s="9"/>
       <c r="I1705"/>
       <c r="J1705" s="1" t="s">
-        <v>2038</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1706" spans="1:10" x14ac:dyDescent="0.2">
@@ -66311,7 +66539,7 @@
       <c r="H1706" s="9"/>
       <c r="I1706"/>
       <c r="J1706" s="1" t="s">
-        <v>2041</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1707" spans="1:10" x14ac:dyDescent="0.2">
@@ -66336,7 +66564,7 @@
       <c r="H1707" s="9"/>
       <c r="I1707"/>
       <c r="J1707" s="1" t="s">
-        <v>2044</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1708" spans="1:10" x14ac:dyDescent="0.2">
@@ -66361,7 +66589,7 @@
       <c r="H1708" s="9"/>
       <c r="I1708"/>
       <c r="J1708" s="1" t="s">
-        <v>2048</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1709" spans="1:10" x14ac:dyDescent="0.2">
@@ -66386,7 +66614,7 @@
       <c r="H1709" s="9"/>
       <c r="I1709"/>
       <c r="J1709" s="1" t="s">
-        <v>2051</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1710" spans="1:10" x14ac:dyDescent="0.2">
@@ -66411,7 +66639,7 @@
       <c r="H1710" s="9"/>
       <c r="I1710"/>
       <c r="J1710" s="1" t="s">
-        <v>2055</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1711" spans="1:10" x14ac:dyDescent="0.2">
@@ -66436,7 +66664,7 @@
       <c r="H1711" s="9"/>
       <c r="I1711"/>
       <c r="J1711" s="1" t="s">
-        <v>2059</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1712" spans="1:10" x14ac:dyDescent="0.2">
@@ -66461,7 +66689,7 @@
       <c r="H1712" s="9"/>
       <c r="I1712"/>
       <c r="J1712" s="1" t="s">
-        <v>2061</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1713" spans="1:10" x14ac:dyDescent="0.2">
@@ -66486,7 +66714,7 @@
       <c r="H1713" s="9"/>
       <c r="I1713"/>
       <c r="J1713" s="1" t="s">
-        <v>2064</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1714" spans="1:10" x14ac:dyDescent="0.2">
@@ -66511,7 +66739,7 @@
       <c r="H1714" s="9"/>
       <c r="I1714"/>
       <c r="J1714" s="1" t="s">
-        <v>2068</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1715" spans="1:10" x14ac:dyDescent="0.2">
@@ -66536,7 +66764,7 @@
       <c r="H1715" s="9"/>
       <c r="I1715"/>
       <c r="J1715" s="1" t="s">
-        <v>2071</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1716" spans="1:10" x14ac:dyDescent="0.2">
@@ -66561,7 +66789,7 @@
       <c r="H1716" s="9"/>
       <c r="I1716"/>
       <c r="J1716" s="1" t="s">
-        <v>2074</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1717" spans="1:10" x14ac:dyDescent="0.2">
@@ -66586,7 +66814,7 @@
       <c r="H1717" s="9"/>
       <c r="I1717"/>
       <c r="J1717" s="1" t="s">
-        <v>2077</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1718" spans="1:10" x14ac:dyDescent="0.2">
@@ -66614,7 +66842,7 @@
       <c r="H1718" s="9"/>
       <c r="I1718"/>
       <c r="J1718" s="1" t="s">
-        <v>2081</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1719" spans="1:10" x14ac:dyDescent="0.2">
@@ -66639,7 +66867,7 @@
       <c r="H1719" s="9"/>
       <c r="I1719"/>
       <c r="J1719" s="1" t="s">
-        <v>2084</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1720" spans="1:10" x14ac:dyDescent="0.2">
@@ -66664,7 +66892,7 @@
       <c r="H1720" s="9"/>
       <c r="I1720"/>
       <c r="J1720" s="1" t="s">
-        <v>2088</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1721" spans="1:10" x14ac:dyDescent="0.2">
@@ -66689,7 +66917,7 @@
       <c r="H1721" s="9"/>
       <c r="I1721"/>
       <c r="J1721" s="1" t="s">
-        <v>2091</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1722" spans="1:10" x14ac:dyDescent="0.2">
@@ -66714,7 +66942,7 @@
       <c r="H1722" s="9"/>
       <c r="I1722"/>
       <c r="J1722" s="1" t="s">
-        <v>2095</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1723" spans="1:10" x14ac:dyDescent="0.2">
@@ -66739,7 +66967,7 @@
       <c r="H1723" s="9"/>
       <c r="I1723"/>
       <c r="J1723" s="1" t="s">
-        <v>2097</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1724" spans="1:10" x14ac:dyDescent="0.2">
@@ -66764,7 +66992,7 @@
       <c r="H1724" s="9"/>
       <c r="I1724"/>
       <c r="J1724" s="1" t="s">
-        <v>2100</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1725" spans="1:10" x14ac:dyDescent="0.2">
@@ -66789,7 +67017,7 @@
       <c r="H1725" s="9"/>
       <c r="I1725"/>
       <c r="J1725" s="1" t="s">
-        <v>2104</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1726" spans="1:10" x14ac:dyDescent="0.2">
@@ -66814,7 +67042,7 @@
       <c r="H1726" s="9"/>
       <c r="I1726"/>
       <c r="J1726" s="1" t="s">
-        <v>2107</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1727" spans="1:10" x14ac:dyDescent="0.2">
@@ -66839,7 +67067,7 @@
       <c r="H1727" s="9"/>
       <c r="I1727"/>
       <c r="J1727" s="1" t="s">
-        <v>2110</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1728" spans="1:10" x14ac:dyDescent="0.2">
@@ -66864,7 +67092,7 @@
       <c r="H1728" s="9"/>
       <c r="I1728"/>
       <c r="J1728" s="1" t="s">
-        <v>2113</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1729" spans="1:10" x14ac:dyDescent="0.2">
@@ -66889,7 +67117,7 @@
       <c r="H1729" s="9"/>
       <c r="I1729"/>
       <c r="J1729" s="1" t="s">
-        <v>2116</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1730" spans="1:10" x14ac:dyDescent="0.2">
@@ -66914,7 +67142,7 @@
       <c r="H1730" s="9"/>
       <c r="I1730"/>
       <c r="J1730" s="1" t="s">
-        <v>2121</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1731" spans="1:10" x14ac:dyDescent="0.2">
@@ -66939,7 +67167,7 @@
       <c r="H1731" s="9"/>
       <c r="I1731"/>
       <c r="J1731" s="1" t="s">
-        <v>977</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1732" spans="1:10" x14ac:dyDescent="0.2">
@@ -66964,7 +67192,7 @@
       <c r="H1732" s="9"/>
       <c r="I1732"/>
       <c r="J1732" s="1" t="s">
-        <v>2127</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1733" spans="1:10" x14ac:dyDescent="0.2">
@@ -66992,7 +67220,7 @@
       <c r="H1733" s="9"/>
       <c r="I1733"/>
       <c r="J1733" s="1" t="s">
-        <v>2130</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1734" spans="1:10" x14ac:dyDescent="0.2">
@@ -67017,7 +67245,7 @@
       <c r="H1734" s="9"/>
       <c r="I1734"/>
       <c r="J1734" s="1" t="s">
-        <v>2133</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1735" spans="1:10" x14ac:dyDescent="0.2">
@@ -67042,7 +67270,7 @@
       <c r="H1735" s="9"/>
       <c r="I1735"/>
       <c r="J1735" s="1" t="s">
-        <v>2136</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1736" spans="1:10" x14ac:dyDescent="0.2">
@@ -67070,7 +67298,7 @@
       <c r="H1736" s="9"/>
       <c r="I1736"/>
       <c r="J1736" s="1" t="s">
-        <v>2139</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1737" spans="1:10" x14ac:dyDescent="0.2">
@@ -67095,7 +67323,7 @@
       <c r="H1737" s="9"/>
       <c r="I1737"/>
       <c r="J1737" s="1" t="s">
-        <v>2142</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1738" spans="1:10" x14ac:dyDescent="0.2">
@@ -67123,7 +67351,7 @@
       <c r="H1738" s="9"/>
       <c r="I1738"/>
       <c r="J1738" s="1" t="s">
-        <v>2146</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1739" spans="1:10" x14ac:dyDescent="0.2">
@@ -67151,7 +67379,7 @@
       <c r="H1739" s="9"/>
       <c r="I1739"/>
       <c r="J1739" s="1" t="s">
-        <v>2150</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1740" spans="1:10" x14ac:dyDescent="0.2">
@@ -67176,7 +67404,7 @@
       <c r="H1740" s="9"/>
       <c r="I1740"/>
       <c r="J1740" s="1" t="s">
-        <v>2154</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1741" spans="1:10" x14ac:dyDescent="0.2">
@@ -67200,8 +67428,8 @@
       </c>
       <c r="H1741" s="9"/>
       <c r="I1741"/>
-      <c r="J1741" s="1" t="s">
-        <v>2158</v>
+      <c r="J1741" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="1742" spans="1:10" x14ac:dyDescent="0.2">
@@ -67226,7 +67454,7 @@
       <c r="H1742" s="9"/>
       <c r="I1742"/>
       <c r="J1742" s="1" t="s">
-        <v>2162</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1743" spans="1:10" x14ac:dyDescent="0.2">
@@ -67254,7 +67482,7 @@
       <c r="H1743" s="9"/>
       <c r="I1743"/>
       <c r="J1743" s="1" t="s">
-        <v>2166</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1744" spans="1:10" x14ac:dyDescent="0.2">
@@ -67279,7 +67507,7 @@
       <c r="H1744" s="9"/>
       <c r="I1744"/>
       <c r="J1744" s="1" t="s">
-        <v>2169</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1745" spans="1:10" x14ac:dyDescent="0.2">
@@ -67304,7 +67532,7 @@
       <c r="H1745" s="9"/>
       <c r="I1745"/>
       <c r="J1745" s="1" t="s">
-        <v>2173</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1746" spans="1:10" x14ac:dyDescent="0.2">
@@ -67329,7 +67557,7 @@
       <c r="H1746" s="9"/>
       <c r="I1746"/>
       <c r="J1746" s="1" t="s">
-        <v>2176</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1747" spans="1:10" x14ac:dyDescent="0.2">
@@ -67354,7 +67582,7 @@
       <c r="H1747" s="9"/>
       <c r="I1747"/>
       <c r="J1747" s="1" t="s">
-        <v>2179</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1748" spans="1:10" x14ac:dyDescent="0.2">
@@ -67379,7 +67607,7 @@
       <c r="H1748" s="9"/>
       <c r="I1748"/>
       <c r="J1748" s="1" t="s">
-        <v>2183</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1749" spans="1:10" x14ac:dyDescent="0.2">
@@ -67404,7 +67632,7 @@
       <c r="H1749" s="9"/>
       <c r="I1749"/>
       <c r="J1749" s="1" t="s">
-        <v>2186</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1750" spans="1:10" x14ac:dyDescent="0.2">
@@ -67429,7 +67657,7 @@
       <c r="H1750" s="9"/>
       <c r="I1750"/>
       <c r="J1750" s="1" t="s">
-        <v>2190</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1751" spans="1:10" x14ac:dyDescent="0.2">
@@ -67454,7 +67682,7 @@
       <c r="H1751" s="9"/>
       <c r="I1751"/>
       <c r="J1751" s="1" t="s">
-        <v>3593</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1752" spans="1:10" x14ac:dyDescent="0.2">
@@ -67479,7 +67707,7 @@
       <c r="H1752" s="9"/>
       <c r="I1752"/>
       <c r="J1752" s="1" t="s">
-        <v>4483</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1753" spans="1:10" x14ac:dyDescent="0.2">
@@ -67504,7 +67732,7 @@
       <c r="H1753" s="9"/>
       <c r="I1753"/>
       <c r="J1753" s="1" t="s">
-        <v>3540</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1754" spans="1:10" x14ac:dyDescent="0.2">
@@ -67529,7 +67757,7 @@
       <c r="H1754" s="9"/>
       <c r="I1754"/>
       <c r="J1754" s="1" t="s">
-        <v>3631</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1755" spans="1:10" x14ac:dyDescent="0.2">
@@ -67554,7 +67782,7 @@
       <c r="H1755" s="9"/>
       <c r="I1755"/>
       <c r="J1755" s="1" t="s">
-        <v>4484</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1756" spans="1:10" x14ac:dyDescent="0.2">
@@ -67579,7 +67807,7 @@
       <c r="H1756" s="9"/>
       <c r="I1756"/>
       <c r="J1756" s="1" t="s">
-        <v>4485</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1757" spans="1:10" x14ac:dyDescent="0.2">
@@ -67604,7 +67832,7 @@
       <c r="H1757" s="9"/>
       <c r="I1757"/>
       <c r="J1757" s="1" t="s">
-        <v>4486</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1758" spans="1:10" x14ac:dyDescent="0.2">
@@ -67629,7 +67857,7 @@
       <c r="H1758" s="9"/>
       <c r="I1758"/>
       <c r="J1758" s="1" t="s">
-        <v>4487</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1759" spans="1:10" x14ac:dyDescent="0.2">
@@ -67654,7 +67882,7 @@
       <c r="H1759" s="9"/>
       <c r="I1759"/>
       <c r="J1759" s="1" t="s">
-        <v>3562</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1760" spans="1:10" x14ac:dyDescent="0.2">
@@ -67679,7 +67907,7 @@
       <c r="H1760" s="9"/>
       <c r="I1760"/>
       <c r="J1760" s="1" t="s">
-        <v>3593</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1761" spans="1:10" x14ac:dyDescent="0.2">
@@ -67704,7 +67932,7 @@
       <c r="H1761" s="9"/>
       <c r="I1761"/>
       <c r="J1761" s="1" t="s">
-        <v>2193</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1762" spans="1:10" x14ac:dyDescent="0.2">
@@ -67729,7 +67957,7 @@
       <c r="H1762" s="9"/>
       <c r="I1762"/>
       <c r="J1762" s="1" t="s">
-        <v>2196</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1763" spans="1:10" x14ac:dyDescent="0.2">
@@ -67754,7 +67982,7 @@
       <c r="H1763" s="9"/>
       <c r="I1763"/>
       <c r="J1763" s="1" t="s">
-        <v>2199</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1764" spans="1:10" x14ac:dyDescent="0.2">
@@ -67779,7 +68007,7 @@
       <c r="H1764" s="9"/>
       <c r="I1764"/>
       <c r="J1764" s="1" t="s">
-        <v>2202</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1765" spans="1:10" x14ac:dyDescent="0.2">
@@ -67804,7 +68032,7 @@
       <c r="H1765" s="9"/>
       <c r="I1765"/>
       <c r="J1765" s="1" t="s">
-        <v>2206</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1766" spans="1:10" x14ac:dyDescent="0.2">
@@ -67829,7 +68057,7 @@
       <c r="H1766" s="9"/>
       <c r="I1766"/>
       <c r="J1766" s="1" t="s">
-        <v>2209</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1767" spans="1:10" x14ac:dyDescent="0.2">
@@ -67854,7 +68082,7 @@
       <c r="H1767" s="9"/>
       <c r="I1767"/>
       <c r="J1767" s="1" t="s">
-        <v>2213</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1768" spans="1:10" x14ac:dyDescent="0.2">
@@ -67879,7 +68107,7 @@
       <c r="H1768" s="9"/>
       <c r="I1768"/>
       <c r="J1768" s="1" t="s">
-        <v>2216</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1769" spans="1:10" x14ac:dyDescent="0.2">
@@ -67907,7 +68135,7 @@
       <c r="H1769" s="9"/>
       <c r="I1769"/>
       <c r="J1769" s="1" t="s">
-        <v>2219</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1770" spans="1:10" x14ac:dyDescent="0.2">
@@ -67932,7 +68160,7 @@
       <c r="H1770" s="9"/>
       <c r="I1770"/>
       <c r="J1770" s="1" t="s">
-        <v>2224</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1771" spans="1:10" x14ac:dyDescent="0.2">
@@ -67957,7 +68185,7 @@
       <c r="H1771" s="9"/>
       <c r="I1771"/>
       <c r="J1771" s="1" t="s">
-        <v>2228</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1772" spans="1:10" x14ac:dyDescent="0.2">
@@ -67982,7 +68210,7 @@
       <c r="H1772" s="9"/>
       <c r="I1772"/>
       <c r="J1772" s="1" t="s">
-        <v>2231</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1773" spans="1:10" x14ac:dyDescent="0.2">
@@ -68007,7 +68235,7 @@
       <c r="H1773" s="9"/>
       <c r="I1773"/>
       <c r="J1773" s="1" t="s">
-        <v>2234</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1774" spans="1:10" x14ac:dyDescent="0.2">
@@ -68032,7 +68260,7 @@
       <c r="H1774" s="9"/>
       <c r="I1774"/>
       <c r="J1774" s="1" t="s">
-        <v>2237</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1775" spans="1:10" x14ac:dyDescent="0.2">
@@ -68057,7 +68285,7 @@
       <c r="H1775" s="9"/>
       <c r="I1775"/>
       <c r="J1775" s="1" t="s">
-        <v>2241</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1776" spans="1:10" x14ac:dyDescent="0.2">
@@ -68082,7 +68310,7 @@
       <c r="H1776" s="9"/>
       <c r="I1776"/>
       <c r="J1776" s="1" t="s">
-        <v>2244</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1777" spans="1:10" x14ac:dyDescent="0.2">
@@ -68107,7 +68335,7 @@
       <c r="H1777" s="9"/>
       <c r="I1777"/>
       <c r="J1777" s="1" t="s">
-        <v>2248</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1778" spans="1:10" x14ac:dyDescent="0.2">
@@ -68132,7 +68360,7 @@
       <c r="H1778" s="9"/>
       <c r="I1778"/>
       <c r="J1778" s="1" t="s">
-        <v>2252</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1779" spans="1:10" x14ac:dyDescent="0.2">
@@ -68160,7 +68388,7 @@
       <c r="H1779" s="9"/>
       <c r="I1779"/>
       <c r="J1779" s="1" t="s">
-        <v>2255</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1780" spans="1:10" x14ac:dyDescent="0.2">
@@ -68185,7 +68413,7 @@
       <c r="H1780" s="9"/>
       <c r="I1780"/>
       <c r="J1780" s="1" t="s">
-        <v>2258</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1781" spans="1:10" x14ac:dyDescent="0.2">
@@ -68210,7 +68438,7 @@
       <c r="H1781" s="9"/>
       <c r="I1781"/>
       <c r="J1781" s="1" t="s">
-        <v>2262</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1782" spans="1:10" x14ac:dyDescent="0.2">
@@ -68235,7 +68463,7 @@
       <c r="H1782" s="9"/>
       <c r="I1782"/>
       <c r="J1782" s="1" t="s">
-        <v>2266</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1783" spans="1:10" x14ac:dyDescent="0.2">
@@ -68260,7 +68488,7 @@
       <c r="H1783" s="9"/>
       <c r="I1783"/>
       <c r="J1783" s="1" t="s">
-        <v>2269</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1784" spans="1:10" x14ac:dyDescent="0.2">
@@ -68285,7 +68513,7 @@
       <c r="H1784" s="9"/>
       <c r="I1784"/>
       <c r="J1784" s="1" t="s">
-        <v>2273</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1785" spans="1:10" x14ac:dyDescent="0.2">
@@ -68310,7 +68538,7 @@
       <c r="H1785" s="9"/>
       <c r="I1785"/>
       <c r="J1785" s="1" t="s">
-        <v>2276</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1786" spans="1:10" x14ac:dyDescent="0.2">
@@ -68335,7 +68563,7 @@
       <c r="H1786" s="9"/>
       <c r="I1786"/>
       <c r="J1786" s="1" t="s">
-        <v>2280</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1787" spans="1:10" x14ac:dyDescent="0.2">
@@ -68360,7 +68588,7 @@
       <c r="H1787" s="9"/>
       <c r="I1787"/>
       <c r="J1787" s="1" t="s">
-        <v>2284</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1788" spans="1:10" x14ac:dyDescent="0.2">
@@ -68385,7 +68613,7 @@
       <c r="H1788" s="9"/>
       <c r="I1788"/>
       <c r="J1788" s="1" t="s">
-        <v>2289</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1789" spans="1:10" x14ac:dyDescent="0.2">
@@ -68410,7 +68638,7 @@
       <c r="H1789" s="9"/>
       <c r="I1789"/>
       <c r="J1789" s="1" t="s">
-        <v>2292</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1790" spans="1:10" x14ac:dyDescent="0.2">
@@ -68435,7 +68663,7 @@
       <c r="H1790" s="9"/>
       <c r="I1790"/>
       <c r="J1790" s="1" t="s">
-        <v>2296</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1791" spans="1:10" x14ac:dyDescent="0.2">
@@ -68460,7 +68688,7 @@
       <c r="H1791" s="9"/>
       <c r="I1791"/>
       <c r="J1791" s="1" t="s">
-        <v>2299</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1792" spans="1:10" x14ac:dyDescent="0.2">
@@ -68485,7 +68713,7 @@
       <c r="H1792" s="9"/>
       <c r="I1792"/>
       <c r="J1792" s="1" t="s">
-        <v>2303</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1793" spans="1:10" x14ac:dyDescent="0.2">
@@ -68510,7 +68738,7 @@
       <c r="H1793" s="9"/>
       <c r="I1793"/>
       <c r="J1793" s="1" t="s">
-        <v>2306</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1794" spans="1:10" x14ac:dyDescent="0.2">
@@ -68535,7 +68763,7 @@
       <c r="H1794" s="9"/>
       <c r="I1794"/>
       <c r="J1794" s="1" t="s">
-        <v>2309</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1795" spans="1:10" x14ac:dyDescent="0.2">
@@ -68560,7 +68788,7 @@
       <c r="H1795" s="9"/>
       <c r="I1795"/>
       <c r="J1795" s="1" t="s">
-        <v>2312</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1796" spans="1:10" x14ac:dyDescent="0.2">
@@ -68585,7 +68813,7 @@
       <c r="H1796" s="9"/>
       <c r="I1796"/>
       <c r="J1796" s="1" t="s">
-        <v>2315</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1797" spans="1:10" x14ac:dyDescent="0.2">
@@ -68610,7 +68838,7 @@
       <c r="H1797" s="9"/>
       <c r="I1797"/>
       <c r="J1797" s="1" t="s">
-        <v>2318</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1798" spans="1:10" x14ac:dyDescent="0.2">
@@ -68635,7 +68863,7 @@
       <c r="H1798" s="9"/>
       <c r="I1798"/>
       <c r="J1798" s="1" t="s">
-        <v>2322</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1799" spans="1:10" x14ac:dyDescent="0.2">
@@ -68660,7 +68888,7 @@
       <c r="H1799" s="9"/>
       <c r="I1799"/>
       <c r="J1799" s="1" t="s">
-        <v>2326</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1800" spans="1:10" x14ac:dyDescent="0.2">
@@ -68685,7 +68913,7 @@
       <c r="H1800" s="9"/>
       <c r="I1800"/>
       <c r="J1800" s="1" t="s">
-        <v>2329</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1801" spans="1:10" x14ac:dyDescent="0.2">
@@ -68710,7 +68938,7 @@
       <c r="H1801" s="9"/>
       <c r="I1801"/>
       <c r="J1801" s="1" t="s">
-        <v>2332</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="1802" spans="1:10" x14ac:dyDescent="0.2">
@@ -68735,7 +68963,7 @@
       <c r="H1802" s="9"/>
       <c r="I1802"/>
       <c r="J1802" s="1" t="s">
-        <v>2336</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1803" spans="1:10" x14ac:dyDescent="0.2">
@@ -68760,7 +68988,7 @@
       <c r="H1803" s="9"/>
       <c r="I1803"/>
       <c r="J1803" s="1" t="s">
-        <v>4488</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1804" spans="1:10" x14ac:dyDescent="0.2">
@@ -68785,7 +69013,7 @@
       <c r="H1804" s="9"/>
       <c r="I1804"/>
       <c r="J1804" s="1" t="s">
-        <v>3751</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1805" spans="1:10" x14ac:dyDescent="0.2">
@@ -68810,7 +69038,7 @@
       <c r="H1805" s="9"/>
       <c r="I1805"/>
       <c r="J1805" s="1" t="s">
-        <v>2339</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1806" spans="1:10" x14ac:dyDescent="0.2">
@@ -68835,7 +69063,7 @@
       <c r="H1806" s="9"/>
       <c r="I1806"/>
       <c r="J1806" s="1" t="s">
-        <v>2342</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1807" spans="1:10" x14ac:dyDescent="0.2">
@@ -68860,7 +69088,7 @@
       <c r="H1807" s="9"/>
       <c r="I1807"/>
       <c r="J1807" s="1" t="s">
-        <v>2345</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1808" spans="1:10" x14ac:dyDescent="0.2">
@@ -68885,7 +69113,7 @@
       <c r="H1808" s="9"/>
       <c r="I1808"/>
       <c r="J1808" s="1" t="s">
-        <v>2348</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1809" spans="1:10" x14ac:dyDescent="0.2">
@@ -68910,7 +69138,7 @@
       <c r="H1809" s="9"/>
       <c r="I1809"/>
       <c r="J1809" s="1" t="s">
-        <v>2351</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1810" spans="1:10" x14ac:dyDescent="0.2">
@@ -68935,7 +69163,7 @@
       <c r="H1810" s="9"/>
       <c r="I1810"/>
       <c r="J1810" s="1" t="s">
-        <v>2353</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1811" spans="1:10" x14ac:dyDescent="0.2">
@@ -68960,7 +69188,7 @@
       <c r="H1811" s="9"/>
       <c r="I1811"/>
       <c r="J1811" s="1" t="s">
-        <v>2357</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1812" spans="1:10" x14ac:dyDescent="0.2">
@@ -68985,7 +69213,7 @@
       <c r="H1812" s="9"/>
       <c r="I1812"/>
       <c r="J1812" s="1" t="s">
-        <v>2360</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1813" spans="1:10" x14ac:dyDescent="0.2">
@@ -69010,7 +69238,7 @@
       <c r="H1813" s="9"/>
       <c r="I1813"/>
       <c r="J1813" s="1" t="s">
-        <v>2363</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1814" spans="1:10" x14ac:dyDescent="0.2">
@@ -69035,7 +69263,7 @@
       <c r="H1814" s="9"/>
       <c r="I1814"/>
       <c r="J1814" s="1" t="s">
-        <v>2366</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1815" spans="1:10" x14ac:dyDescent="0.2">
@@ -69060,7 +69288,7 @@
       <c r="H1815" s="9"/>
       <c r="I1815"/>
       <c r="J1815" s="1" t="s">
-        <v>2369</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1816" spans="1:10" x14ac:dyDescent="0.2">
@@ -69085,7 +69313,7 @@
       <c r="H1816" s="9"/>
       <c r="I1816"/>
       <c r="J1816" s="1" t="s">
-        <v>2372</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1817" spans="1:10" x14ac:dyDescent="0.2">
@@ -69110,7 +69338,7 @@
       <c r="H1817" s="9"/>
       <c r="I1817"/>
       <c r="J1817" s="1" t="s">
-        <v>2376</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1818" spans="1:10" x14ac:dyDescent="0.2">
@@ -69135,7 +69363,7 @@
       <c r="H1818" s="9"/>
       <c r="I1818"/>
       <c r="J1818" s="1" t="s">
-        <v>2379</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1819" spans="1:10" x14ac:dyDescent="0.2">
@@ -69160,7 +69388,7 @@
       <c r="H1819" s="9"/>
       <c r="I1819"/>
       <c r="J1819" s="1" t="s">
-        <v>2382</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1820" spans="1:10" x14ac:dyDescent="0.2">
@@ -69185,7 +69413,7 @@
       <c r="H1820" s="9"/>
       <c r="I1820"/>
       <c r="J1820" s="1" t="s">
-        <v>2387</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1821" spans="1:10" x14ac:dyDescent="0.2">
@@ -69210,7 +69438,7 @@
       <c r="H1821" s="9"/>
       <c r="I1821"/>
       <c r="J1821" s="1" t="s">
-        <v>2390</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1822" spans="1:10" x14ac:dyDescent="0.2">
@@ -69235,7 +69463,7 @@
       <c r="H1822" s="9"/>
       <c r="I1822"/>
       <c r="J1822" s="1" t="s">
-        <v>2393</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1823" spans="1:10" x14ac:dyDescent="0.2">
@@ -69260,7 +69488,7 @@
       <c r="H1823" s="9"/>
       <c r="I1823"/>
       <c r="J1823" s="1" t="s">
-        <v>2396</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1824" spans="1:10" x14ac:dyDescent="0.2">
@@ -69285,7 +69513,7 @@
       <c r="H1824" s="9"/>
       <c r="I1824"/>
       <c r="J1824" s="1" t="s">
-        <v>2399</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1825" spans="1:10" x14ac:dyDescent="0.2">
@@ -69310,7 +69538,7 @@
       <c r="H1825" s="9"/>
       <c r="I1825"/>
       <c r="J1825" s="1" t="s">
-        <v>2403</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1826" spans="1:10" x14ac:dyDescent="0.2">
@@ -69335,7 +69563,7 @@
       <c r="H1826" s="9"/>
       <c r="I1826"/>
       <c r="J1826" s="1" t="s">
-        <v>2406</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1827" spans="1:10" x14ac:dyDescent="0.2">
@@ -69360,7 +69588,7 @@
       <c r="H1827" s="9"/>
       <c r="I1827"/>
       <c r="J1827" s="1" t="s">
-        <v>2410</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1828" spans="1:10" x14ac:dyDescent="0.2">
@@ -69385,7 +69613,7 @@
       <c r="H1828" s="9"/>
       <c r="I1828"/>
       <c r="J1828" s="1" t="s">
-        <v>570</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1829" spans="1:10" x14ac:dyDescent="0.2">
@@ -69410,7 +69638,7 @@
       <c r="H1829" s="9"/>
       <c r="I1829"/>
       <c r="J1829" s="1" t="s">
-        <v>357</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1830" spans="1:10" x14ac:dyDescent="0.2">
@@ -69435,7 +69663,7 @@
       <c r="H1830" s="9"/>
       <c r="I1830"/>
       <c r="J1830" s="1" t="s">
-        <v>2417</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1831" spans="1:10" x14ac:dyDescent="0.2">
@@ -69460,7 +69688,7 @@
       <c r="H1831" s="9"/>
       <c r="I1831"/>
       <c r="J1831" s="1" t="s">
-        <v>2420</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1832" spans="1:10" x14ac:dyDescent="0.2">
@@ -69485,7 +69713,7 @@
       <c r="H1832" s="9"/>
       <c r="I1832"/>
       <c r="J1832" s="1" t="s">
-        <v>2424</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1833" spans="1:10" x14ac:dyDescent="0.2">
@@ -69510,7 +69738,7 @@
       <c r="H1833" s="9"/>
       <c r="I1833"/>
       <c r="J1833" s="1" t="s">
-        <v>2429</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1834" spans="1:10" x14ac:dyDescent="0.2">
@@ -69535,7 +69763,7 @@
       <c r="H1834" s="9"/>
       <c r="I1834"/>
       <c r="J1834" s="1" t="s">
-        <v>2433</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1835" spans="1:10" x14ac:dyDescent="0.2">
@@ -69560,7 +69788,7 @@
       <c r="H1835" s="9"/>
       <c r="I1835"/>
       <c r="J1835" s="1" t="s">
-        <v>2436</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1836" spans="1:10" x14ac:dyDescent="0.2">
@@ -69585,7 +69813,7 @@
       <c r="H1836" s="9"/>
       <c r="I1836"/>
       <c r="J1836" s="1" t="s">
-        <v>2440</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1837" spans="1:10" x14ac:dyDescent="0.2">
@@ -69610,7 +69838,7 @@
       <c r="H1837" s="9"/>
       <c r="I1837"/>
       <c r="J1837" s="1" t="s">
-        <v>2443</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1838" spans="1:10" x14ac:dyDescent="0.2">
@@ -69635,7 +69863,7 @@
       <c r="H1838" s="9"/>
       <c r="I1838"/>
       <c r="J1838" s="1" t="s">
-        <v>2446</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1839" spans="1:10" x14ac:dyDescent="0.2">
@@ -69660,7 +69888,7 @@
       <c r="H1839" s="9"/>
       <c r="I1839"/>
       <c r="J1839" s="1" t="s">
-        <v>2450</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1840" spans="1:10" x14ac:dyDescent="0.2">
@@ -69685,7 +69913,7 @@
       <c r="H1840" s="9"/>
       <c r="I1840"/>
       <c r="J1840" s="1" t="s">
-        <v>2454</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1841" spans="1:10" x14ac:dyDescent="0.2">
@@ -69710,7 +69938,7 @@
       <c r="H1841" s="9"/>
       <c r="I1841"/>
       <c r="J1841" s="1" t="s">
-        <v>2458</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1842" spans="1:10" x14ac:dyDescent="0.2">
@@ -69735,7 +69963,7 @@
       <c r="H1842" s="9"/>
       <c r="I1842"/>
       <c r="J1842" s="1" t="s">
-        <v>4489</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1843" spans="1:10" x14ac:dyDescent="0.2">
@@ -69760,7 +69988,7 @@
       <c r="H1843" s="9"/>
       <c r="I1843"/>
       <c r="J1843" s="1" t="s">
-        <v>4490</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1844" spans="1:10" x14ac:dyDescent="0.2">
@@ -69785,7 +70013,7 @@
       <c r="H1844" s="9"/>
       <c r="I1844"/>
       <c r="J1844" s="1" t="s">
-        <v>4491</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1845" spans="1:10" x14ac:dyDescent="0.2">
@@ -69810,7 +70038,7 @@
       <c r="H1845" s="9"/>
       <c r="I1845"/>
       <c r="J1845" s="1" t="s">
-        <v>4492</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1846" spans="1:10" x14ac:dyDescent="0.2">
@@ -69835,7 +70063,7 @@
       <c r="H1846" s="9"/>
       <c r="I1846"/>
       <c r="J1846" s="1" t="s">
-        <v>4299</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1847" spans="1:10" x14ac:dyDescent="0.2">
@@ -69860,7 +70088,7 @@
       <c r="H1847" s="9"/>
       <c r="I1847"/>
       <c r="J1847" s="1" t="s">
-        <v>4493</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1848" spans="1:10" x14ac:dyDescent="0.2">
@@ -69885,7 +70113,7 @@
       <c r="H1848" s="9"/>
       <c r="I1848"/>
       <c r="J1848" s="1" t="s">
-        <v>2461</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1849" spans="1:10" x14ac:dyDescent="0.2">
@@ -69910,7 +70138,7 @@
       <c r="H1849" s="9"/>
       <c r="I1849"/>
       <c r="J1849" s="1" t="s">
-        <v>2466</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1850" spans="1:10" x14ac:dyDescent="0.2">
@@ -69935,7 +70163,7 @@
       <c r="H1850" s="9"/>
       <c r="I1850"/>
       <c r="J1850" s="1" t="s">
-        <v>2469</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1851" spans="1:10" x14ac:dyDescent="0.2">
@@ -69960,7 +70188,7 @@
       <c r="H1851" s="9"/>
       <c r="I1851"/>
       <c r="J1851" s="1" t="s">
-        <v>2472</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1852" spans="1:10" x14ac:dyDescent="0.2">
@@ -69984,8 +70212,8 @@
       </c>
       <c r="H1852" s="9"/>
       <c r="I1852"/>
-      <c r="J1852" s="1">
-        <v>2012</v>
+      <c r="J1852" s="1" t="s">
+        <v>2353</v>
       </c>
     </row>
     <row r="1853" spans="1:10" x14ac:dyDescent="0.2">
@@ -70010,7 +70238,7 @@
       <c r="H1853" s="9"/>
       <c r="I1853"/>
       <c r="J1853" s="1" t="s">
-        <v>2478</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1854" spans="1:10" x14ac:dyDescent="0.2">
@@ -70035,7 +70263,7 @@
       <c r="H1854" s="9"/>
       <c r="I1854"/>
       <c r="J1854" s="1" t="s">
-        <v>2481</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1855" spans="1:10" x14ac:dyDescent="0.2">
@@ -70060,7 +70288,7 @@
       <c r="H1855" s="9"/>
       <c r="I1855"/>
       <c r="J1855" s="1" t="s">
-        <v>2485</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1856" spans="1:10" x14ac:dyDescent="0.2">
@@ -70085,7 +70313,7 @@
       <c r="H1856" s="9"/>
       <c r="I1856"/>
       <c r="J1856" s="1" t="s">
-        <v>2488</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1857" spans="1:10" x14ac:dyDescent="0.2">
@@ -70110,7 +70338,7 @@
       <c r="H1857" s="9"/>
       <c r="I1857"/>
       <c r="J1857" s="1" t="s">
-        <v>2491</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1858" spans="1:10" x14ac:dyDescent="0.2">
@@ -70135,7 +70363,7 @@
       <c r="H1858" s="9"/>
       <c r="I1858"/>
       <c r="J1858" s="1" t="s">
-        <v>2494</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1859" spans="1:10" x14ac:dyDescent="0.2">
@@ -70160,7 +70388,7 @@
       <c r="H1859" s="9"/>
       <c r="I1859"/>
       <c r="J1859" s="1" t="s">
-        <v>2498</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1860" spans="1:10" x14ac:dyDescent="0.2">
@@ -70185,7 +70413,7 @@
       <c r="H1860" s="9"/>
       <c r="I1860"/>
       <c r="J1860" s="1" t="s">
-        <v>2502</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1861" spans="1:10" x14ac:dyDescent="0.2">
@@ -70210,7 +70438,7 @@
       <c r="H1861" s="9"/>
       <c r="I1861"/>
       <c r="J1861" s="1" t="s">
-        <v>2506</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1862" spans="1:10" x14ac:dyDescent="0.2">
@@ -70238,7 +70466,7 @@
       <c r="H1862" s="9"/>
       <c r="I1862"/>
       <c r="J1862" s="1" t="s">
-        <v>2509</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1863" spans="1:10" x14ac:dyDescent="0.2">
@@ -70263,7 +70491,7 @@
       <c r="H1863" s="9"/>
       <c r="I1863"/>
       <c r="J1863" s="1" t="s">
-        <v>2513</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1864" spans="1:10" x14ac:dyDescent="0.2">
@@ -70288,7 +70516,7 @@
       <c r="H1864" s="9"/>
       <c r="I1864"/>
       <c r="J1864" s="1" t="s">
-        <v>2516</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1865" spans="1:10" x14ac:dyDescent="0.2">
@@ -70316,7 +70544,7 @@
       <c r="H1865" s="9"/>
       <c r="I1865"/>
       <c r="J1865" s="1" t="s">
-        <v>2520</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1866" spans="1:10" x14ac:dyDescent="0.2">
@@ -70341,7 +70569,7 @@
       <c r="H1866" s="9"/>
       <c r="I1866"/>
       <c r="J1866" s="1" t="s">
-        <v>2525</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1867" spans="1:10" x14ac:dyDescent="0.2">
@@ -70366,7 +70594,7 @@
       <c r="H1867" s="9"/>
       <c r="I1867"/>
       <c r="J1867" s="1" t="s">
-        <v>2528</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1868" spans="1:10" x14ac:dyDescent="0.2">
@@ -70391,7 +70619,7 @@
       <c r="H1868" s="9"/>
       <c r="I1868"/>
       <c r="J1868" s="1" t="s">
-        <v>2532</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1869" spans="1:10" x14ac:dyDescent="0.2">
@@ -70416,7 +70644,7 @@
       <c r="H1869" s="9"/>
       <c r="I1869"/>
       <c r="J1869" s="1" t="s">
-        <v>2536</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1870" spans="1:10" x14ac:dyDescent="0.2">
@@ -70441,7 +70669,7 @@
       <c r="H1870" s="9"/>
       <c r="I1870"/>
       <c r="J1870" s="1" t="s">
-        <v>2540</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1871" spans="1:10" x14ac:dyDescent="0.2">
@@ -70466,7 +70694,7 @@
       <c r="H1871" s="9"/>
       <c r="I1871"/>
       <c r="J1871" s="1" t="s">
-        <v>2544</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1872" spans="1:10" x14ac:dyDescent="0.2">
@@ -70491,7 +70719,7 @@
       <c r="H1872" s="9"/>
       <c r="I1872"/>
       <c r="J1872" s="1" t="s">
-        <v>2547</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1873" spans="1:10" x14ac:dyDescent="0.2">
@@ -70516,7 +70744,7 @@
       <c r="H1873" s="9"/>
       <c r="I1873"/>
       <c r="J1873" s="1" t="s">
-        <v>2550</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1874" spans="1:10" x14ac:dyDescent="0.2">
@@ -70541,7 +70769,7 @@
       <c r="H1874" s="9"/>
       <c r="I1874"/>
       <c r="J1874" s="1" t="s">
-        <v>2553</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1875" spans="1:10" x14ac:dyDescent="0.2">
@@ -70566,7 +70794,7 @@
       <c r="H1875" s="9"/>
       <c r="I1875"/>
       <c r="J1875" s="1" t="s">
-        <v>2557</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1876" spans="1:10" x14ac:dyDescent="0.2">
@@ -70591,7 +70819,7 @@
       <c r="H1876" s="9"/>
       <c r="I1876"/>
       <c r="J1876" s="1" t="s">
-        <v>2560</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1877" spans="1:10" x14ac:dyDescent="0.2">
@@ -70616,7 +70844,7 @@
       <c r="H1877" s="9"/>
       <c r="I1877"/>
       <c r="J1877" s="1" t="s">
-        <v>2563</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1878" spans="1:10" x14ac:dyDescent="0.2">
@@ -70641,7 +70869,7 @@
       <c r="H1878" s="9"/>
       <c r="I1878"/>
       <c r="J1878" s="1" t="s">
-        <v>2567</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1879" spans="1:10" x14ac:dyDescent="0.2">
@@ -70666,7 +70894,7 @@
       <c r="H1879" s="9"/>
       <c r="I1879"/>
       <c r="J1879" s="1" t="s">
-        <v>2570</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1880" spans="1:10" x14ac:dyDescent="0.2">
@@ -70691,7 +70919,7 @@
       <c r="H1880" s="9"/>
       <c r="I1880"/>
       <c r="J1880" s="1" t="s">
-        <v>2574</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1881" spans="1:10" x14ac:dyDescent="0.2">
@@ -70716,7 +70944,7 @@
       <c r="H1881" s="9"/>
       <c r="I1881"/>
       <c r="J1881" s="1" t="s">
-        <v>2576</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1882" spans="1:10" x14ac:dyDescent="0.2">
@@ -70741,7 +70969,7 @@
       <c r="H1882" s="9"/>
       <c r="I1882"/>
       <c r="J1882" s="1" t="s">
-        <v>2579</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1883" spans="1:10" x14ac:dyDescent="0.2">
@@ -70766,7 +70994,7 @@
       <c r="H1883" s="9"/>
       <c r="I1883"/>
       <c r="J1883" s="1" t="s">
-        <v>2583</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1884" spans="1:10" x14ac:dyDescent="0.2">
@@ -70791,7 +71019,7 @@
       <c r="H1884" s="9"/>
       <c r="I1884"/>
       <c r="J1884" s="1" t="s">
-        <v>2586</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1885" spans="1:10" x14ac:dyDescent="0.2">
@@ -70816,7 +71044,7 @@
       <c r="H1885" s="9"/>
       <c r="I1885"/>
       <c r="J1885" s="1" t="s">
-        <v>2591</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1886" spans="1:10" x14ac:dyDescent="0.2">
@@ -70841,7 +71069,7 @@
       <c r="H1886" s="9"/>
       <c r="I1886"/>
       <c r="J1886" s="1" t="s">
-        <v>2595</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1887" spans="1:10" x14ac:dyDescent="0.2">
@@ -70866,7 +71094,7 @@
       <c r="H1887" s="9"/>
       <c r="I1887"/>
       <c r="J1887" s="1" t="s">
-        <v>2598</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1888" spans="1:10" x14ac:dyDescent="0.2">
@@ -70891,7 +71119,7 @@
       <c r="H1888" s="9"/>
       <c r="I1888"/>
       <c r="J1888" s="1" t="s">
-        <v>2602</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1889" spans="1:10" x14ac:dyDescent="0.2">
@@ -70916,7 +71144,7 @@
       <c r="H1889" s="9"/>
       <c r="I1889"/>
       <c r="J1889" s="1" t="s">
-        <v>2606</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1890" spans="1:10" x14ac:dyDescent="0.2">
@@ -70941,7 +71169,7 @@
       <c r="H1890" s="9"/>
       <c r="I1890"/>
       <c r="J1890" s="1" t="s">
-        <v>2610</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1891" spans="1:10" x14ac:dyDescent="0.2">
@@ -70966,7 +71194,7 @@
       <c r="H1891" s="9"/>
       <c r="I1891"/>
       <c r="J1891" s="1" t="s">
-        <v>342</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1892" spans="1:10" x14ac:dyDescent="0.2">
@@ -70991,7 +71219,7 @@
       <c r="H1892" s="9"/>
       <c r="I1892"/>
       <c r="J1892" s="1" t="s">
-        <v>2616</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1893" spans="1:10" x14ac:dyDescent="0.2">
@@ -71016,7 +71244,7 @@
       <c r="H1893" s="9"/>
       <c r="I1893"/>
       <c r="J1893" s="1" t="s">
-        <v>2619</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1894" spans="1:10" x14ac:dyDescent="0.2">
@@ -71040,8 +71268,8 @@
       </c>
       <c r="H1894" s="9"/>
       <c r="I1894"/>
-      <c r="J1894" s="1" t="s">
-        <v>2622</v>
+      <c r="J1894" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="1895" spans="1:10" x14ac:dyDescent="0.2">
@@ -71066,7 +71294,7 @@
       <c r="H1895" s="9"/>
       <c r="I1895"/>
       <c r="J1895" s="1" t="s">
-        <v>2625</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1896" spans="1:10" x14ac:dyDescent="0.2">
@@ -71091,7 +71319,7 @@
       <c r="H1896" s="9"/>
       <c r="I1896"/>
       <c r="J1896" s="1" t="s">
-        <v>2628</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1897" spans="1:10" x14ac:dyDescent="0.2">
@@ -71116,7 +71344,7 @@
       <c r="H1897" s="9"/>
       <c r="I1897"/>
       <c r="J1897" s="1" t="s">
-        <v>2632</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1898" spans="1:10" x14ac:dyDescent="0.2">
@@ -71141,7 +71369,7 @@
       <c r="H1898" s="9"/>
       <c r="I1898"/>
       <c r="J1898" s="1" t="s">
-        <v>2635</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1899" spans="1:10" x14ac:dyDescent="0.2">
@@ -71166,7 +71394,7 @@
       <c r="H1899" s="9"/>
       <c r="I1899"/>
       <c r="J1899" s="1" t="s">
-        <v>2638</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1900" spans="1:10" x14ac:dyDescent="0.2">
@@ -71191,7 +71419,7 @@
       <c r="H1900" s="9"/>
       <c r="I1900"/>
       <c r="J1900" s="1" t="s">
-        <v>2641</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1901" spans="1:10" x14ac:dyDescent="0.2">
@@ -71216,7 +71444,7 @@
       <c r="H1901" s="9"/>
       <c r="I1901"/>
       <c r="J1901" s="1" t="s">
-        <v>2644</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1902" spans="1:10" x14ac:dyDescent="0.2">
@@ -71241,7 +71469,7 @@
       <c r="H1902" s="9"/>
       <c r="I1902"/>
       <c r="J1902" s="1" t="s">
-        <v>2648</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1903" spans="1:10" x14ac:dyDescent="0.2">
@@ -71266,7 +71494,7 @@
       <c r="H1903" s="9"/>
       <c r="I1903"/>
       <c r="J1903" s="1" t="s">
-        <v>2651</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1904" spans="1:10" x14ac:dyDescent="0.2">
@@ -71294,7 +71522,7 @@
       <c r="H1904" s="9"/>
       <c r="I1904"/>
       <c r="J1904" s="1" t="s">
-        <v>2654</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1905" spans="1:10" x14ac:dyDescent="0.2">
@@ -71319,7 +71547,7 @@
       <c r="H1905" s="9"/>
       <c r="I1905"/>
       <c r="J1905" s="1" t="s">
-        <v>2657</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1906" spans="1:10" x14ac:dyDescent="0.2">
@@ -71344,7 +71572,7 @@
       <c r="H1906" s="9"/>
       <c r="I1906"/>
       <c r="J1906" s="1" t="s">
-        <v>2661</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1907" spans="1:10" x14ac:dyDescent="0.2">
@@ -71369,7 +71597,7 @@
       <c r="H1907" s="9"/>
       <c r="I1907"/>
       <c r="J1907" s="1" t="s">
-        <v>2664</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1908" spans="1:10" x14ac:dyDescent="0.2">
@@ -71394,7 +71622,7 @@
       <c r="H1908" s="9"/>
       <c r="I1908"/>
       <c r="J1908" s="1" t="s">
-        <v>2667</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1909" spans="1:10" x14ac:dyDescent="0.2">
@@ -71422,7 +71650,7 @@
       <c r="H1909" s="9"/>
       <c r="I1909"/>
       <c r="J1909" s="1" t="s">
-        <v>891</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1910" spans="1:10" x14ac:dyDescent="0.2">
@@ -71447,7 +71675,7 @@
       <c r="H1910" s="9"/>
       <c r="I1910"/>
       <c r="J1910" s="1" t="s">
-        <v>2672</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1911" spans="1:10" x14ac:dyDescent="0.2">
@@ -71472,7 +71700,7 @@
       <c r="H1911" s="9"/>
       <c r="I1911"/>
       <c r="J1911" s="1" t="s">
-        <v>2675</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1912" spans="1:10" x14ac:dyDescent="0.2">
@@ -71497,7 +71725,7 @@
       <c r="H1912" s="9"/>
       <c r="I1912"/>
       <c r="J1912" s="1" t="s">
-        <v>2679</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1913" spans="1:10" x14ac:dyDescent="0.2">
@@ -71522,7 +71750,7 @@
       <c r="H1913" s="9"/>
       <c r="I1913"/>
       <c r="J1913" s="1" t="s">
-        <v>2682</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1914" spans="1:10" x14ac:dyDescent="0.2">
@@ -71547,7 +71775,7 @@
       <c r="H1914" s="9"/>
       <c r="I1914"/>
       <c r="J1914" s="1" t="s">
-        <v>2684</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1915" spans="1:10" x14ac:dyDescent="0.2">
@@ -71572,7 +71800,7 @@
       <c r="H1915" s="9"/>
       <c r="I1915"/>
       <c r="J1915" s="1" t="s">
-        <v>2687</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1916" spans="1:10" x14ac:dyDescent="0.2">
@@ -71597,7 +71825,7 @@
       <c r="H1916" s="9"/>
       <c r="I1916"/>
       <c r="J1916" s="1" t="s">
-        <v>2690</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1917" spans="1:10" x14ac:dyDescent="0.2">
@@ -71622,7 +71850,7 @@
       <c r="H1917" s="9"/>
       <c r="I1917"/>
       <c r="J1917" s="1" t="s">
-        <v>2694</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1918" spans="1:10" x14ac:dyDescent="0.2">
@@ -71647,7 +71875,7 @@
       <c r="H1918" s="9"/>
       <c r="I1918"/>
       <c r="J1918" s="1" t="s">
-        <v>1423</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1919" spans="1:10" x14ac:dyDescent="0.2">
@@ -71672,7 +71900,7 @@
       <c r="H1919" s="9"/>
       <c r="I1919"/>
       <c r="J1919" s="1" t="s">
-        <v>2700</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1920" spans="1:10" x14ac:dyDescent="0.2">
@@ -71697,7 +71925,7 @@
       <c r="H1920" s="9"/>
       <c r="I1920"/>
       <c r="J1920" s="1" t="s">
-        <v>2703</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="1921" spans="1:10" x14ac:dyDescent="0.2">
@@ -71722,7 +71950,7 @@
       <c r="H1921" s="9"/>
       <c r="I1921"/>
       <c r="J1921" s="1" t="s">
-        <v>2706</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="1922" spans="1:10" x14ac:dyDescent="0.2">
@@ -71750,7 +71978,7 @@
       <c r="H1922" s="9"/>
       <c r="I1922"/>
       <c r="J1922" s="1" t="s">
-        <v>2709</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="1923" spans="1:10" x14ac:dyDescent="0.2">
@@ -71778,7 +72006,7 @@
       <c r="H1923" s="9"/>
       <c r="I1923"/>
       <c r="J1923" s="1" t="s">
-        <v>2713</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1924" spans="1:10" x14ac:dyDescent="0.2">
@@ -71806,7 +72034,7 @@
       <c r="H1924" s="9"/>
       <c r="I1924"/>
       <c r="J1924" s="1" t="s">
-        <v>2716</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1925" spans="1:10" x14ac:dyDescent="0.2">
@@ -71831,7 +72059,7 @@
       <c r="H1925" s="9"/>
       <c r="I1925"/>
       <c r="J1925" s="1" t="s">
-        <v>2719</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1926" spans="1:10" x14ac:dyDescent="0.2">
@@ -71856,7 +72084,7 @@
       <c r="H1926" s="9"/>
       <c r="I1926"/>
       <c r="J1926" s="1" t="s">
-        <v>4494</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1927" spans="1:10" x14ac:dyDescent="0.2">
@@ -71881,7 +72109,7 @@
       <c r="H1927" s="9"/>
       <c r="I1927"/>
       <c r="J1927" s="1" t="s">
-        <v>4495</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1928" spans="1:10" x14ac:dyDescent="0.2">
@@ -71905,6 +72133,9 @@
       </c>
       <c r="H1928" s="9"/>
       <c r="I1928"/>
+      <c r="J1928" s="1" t="s">
+        <v>2595</v>
+      </c>
     </row>
     <row r="1929" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1929">
@@ -71927,6 +72158,9 @@
       </c>
       <c r="H1929" s="9"/>
       <c r="I1929"/>
+      <c r="J1929" s="1" t="s">
+        <v>2598</v>
+      </c>
     </row>
     <row r="1930" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1930">
@@ -71949,6 +72183,9 @@
       </c>
       <c r="H1930" s="9"/>
       <c r="I1930"/>
+      <c r="J1930" s="1" t="s">
+        <v>2602</v>
+      </c>
     </row>
     <row r="1931" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1931">
@@ -71971,6 +72208,9 @@
       </c>
       <c r="H1931" s="9"/>
       <c r="I1931"/>
+      <c r="J1931" s="1" t="s">
+        <v>2606</v>
+      </c>
     </row>
     <row r="1932" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1932">
@@ -71993,6 +72233,9 @@
       </c>
       <c r="H1932" s="9"/>
       <c r="I1932"/>
+      <c r="J1932" s="1" t="s">
+        <v>2610</v>
+      </c>
     </row>
     <row r="1933" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1933">
@@ -72015,6 +72258,9 @@
       </c>
       <c r="H1933" s="9"/>
       <c r="I1933"/>
+      <c r="J1933" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="1934" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1934">
@@ -72037,6 +72283,9 @@
       </c>
       <c r="H1934" s="9"/>
       <c r="I1934"/>
+      <c r="J1934" s="1" t="s">
+        <v>2616</v>
+      </c>
     </row>
     <row r="1935" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1935">
@@ -72059,6 +72308,9 @@
       </c>
       <c r="H1935" s="9"/>
       <c r="I1935"/>
+      <c r="J1935" s="1" t="s">
+        <v>2619</v>
+      </c>
     </row>
     <row r="1936" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1936">
@@ -72081,8 +72333,11 @@
       </c>
       <c r="H1936" s="9"/>
       <c r="I1936"/>
-    </row>
-    <row r="1937" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1936" s="1" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1937">
         <v>2001</v>
       </c>
@@ -72103,8 +72358,11 @@
       </c>
       <c r="H1937" s="9"/>
       <c r="I1937"/>
-    </row>
-    <row r="1938" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1937" s="1" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1938">
         <v>2001</v>
       </c>
@@ -72125,8 +72383,11 @@
       </c>
       <c r="H1938" s="9"/>
       <c r="I1938"/>
-    </row>
-    <row r="1939" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1938" s="1" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1939">
         <v>2001</v>
       </c>
@@ -72147,8 +72408,11 @@
       </c>
       <c r="H1939" s="9"/>
       <c r="I1939"/>
-    </row>
-    <row r="1940" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1939" s="1" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1940">
         <v>2001</v>
       </c>
@@ -72169,8 +72433,11 @@
       </c>
       <c r="H1940" s="9"/>
       <c r="I1940"/>
-    </row>
-    <row r="1941" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1940" s="1" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1941">
         <v>2001</v>
       </c>
@@ -72191,8 +72458,11 @@
       </c>
       <c r="H1941" s="9"/>
       <c r="I1941"/>
-    </row>
-    <row r="1942" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1941" s="1" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1942">
         <v>2001</v>
       </c>
@@ -72213,8 +72483,11 @@
       </c>
       <c r="H1942" s="9"/>
       <c r="I1942"/>
-    </row>
-    <row r="1943" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1942" s="1" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1943">
         <v>2001</v>
       </c>
@@ -72235,8 +72508,11 @@
       </c>
       <c r="H1943" s="9"/>
       <c r="I1943"/>
-    </row>
-    <row r="1944" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1943" s="1" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1944">
         <v>2001</v>
       </c>
@@ -72257,8 +72533,11 @@
       </c>
       <c r="H1944" s="9"/>
       <c r="I1944"/>
-    </row>
-    <row r="1945" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1944" s="1" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1945">
         <v>2001</v>
       </c>
@@ -72279,8 +72558,11 @@
       </c>
       <c r="H1945" s="9"/>
       <c r="I1945"/>
-    </row>
-    <row r="1946" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1945" s="1" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1946">
         <v>2001</v>
       </c>
@@ -72301,8 +72583,11 @@
       </c>
       <c r="H1946" s="9"/>
       <c r="I1946"/>
-    </row>
-    <row r="1947" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1946" s="1" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1947">
         <v>2001</v>
       </c>
@@ -72326,8 +72611,11 @@
       </c>
       <c r="H1947" s="9"/>
       <c r="I1947"/>
-    </row>
-    <row r="1948" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1947" s="1" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1948">
         <v>2001</v>
       </c>
@@ -72349,8 +72637,11 @@
       <c r="G1948" t="s">
         <v>2934</v>
       </c>
-    </row>
-    <row r="1949" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1948" s="1" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1949">
         <v>2001</v>
       </c>
@@ -72369,8 +72660,11 @@
       <c r="G1949" t="s">
         <v>2938</v>
       </c>
-    </row>
-    <row r="1950" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1949" s="1" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1950">
         <v>2001</v>
       </c>
@@ -72389,8 +72683,11 @@
       <c r="G1950" t="s">
         <v>2940</v>
       </c>
-    </row>
-    <row r="1951" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1950" s="1" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1951">
         <v>2001</v>
       </c>
@@ -72409,8 +72706,11 @@
       <c r="G1951" t="s">
         <v>2941</v>
       </c>
-    </row>
-    <row r="1952" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1951" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1952">
         <v>2001</v>
       </c>
@@ -72429,8 +72729,11 @@
       <c r="G1952" t="s">
         <v>2943</v>
       </c>
-    </row>
-    <row r="1953" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1952" s="1" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1953">
         <v>2001</v>
       </c>
@@ -72449,8 +72752,11 @@
       <c r="G1953" t="s">
         <v>2946</v>
       </c>
-    </row>
-    <row r="1954" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1953" s="1" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1954">
         <v>2001</v>
       </c>
@@ -72469,8 +72775,11 @@
       <c r="G1954" t="s">
         <v>2948</v>
       </c>
-    </row>
-    <row r="1955" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1954" s="1" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1955">
         <v>2001</v>
       </c>
@@ -72489,8 +72798,11 @@
       <c r="G1955" t="s">
         <v>2950</v>
       </c>
-    </row>
-    <row r="1956" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1955" s="1" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1956">
         <v>2001</v>
       </c>
@@ -72509,8 +72821,11 @@
       <c r="G1956" t="s">
         <v>2952</v>
       </c>
-    </row>
-    <row r="1957" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1956" s="1" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1957">
         <v>2001</v>
       </c>
@@ -72529,8 +72844,11 @@
       <c r="G1957" t="s">
         <v>2954</v>
       </c>
-    </row>
-    <row r="1958" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1957" s="1" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1958">
         <v>2001</v>
       </c>
@@ -72549,8 +72867,11 @@
       <c r="G1958" t="s">
         <v>2956</v>
       </c>
-    </row>
-    <row r="1959" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1958" s="1" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1959">
         <v>2001</v>
       </c>
@@ -72569,8 +72890,11 @@
       <c r="G1959" t="s">
         <v>2958</v>
       </c>
-    </row>
-    <row r="1960" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1959" s="1" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1960">
         <v>2001</v>
       </c>
@@ -72589,8 +72913,11 @@
       <c r="G1960" t="s">
         <v>2959</v>
       </c>
-    </row>
-    <row r="1961" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1960" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1961">
         <v>2001</v>
       </c>
@@ -72609,8 +72936,11 @@
       <c r="G1961" t="s">
         <v>2961</v>
       </c>
-    </row>
-    <row r="1962" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1961" s="1" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1962">
         <v>2001</v>
       </c>
@@ -72629,8 +72959,11 @@
       <c r="G1962" t="s">
         <v>2964</v>
       </c>
-    </row>
-    <row r="1963" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1962" s="1" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1963">
         <v>2001</v>
       </c>
@@ -72649,8 +72982,11 @@
       <c r="G1963" t="s">
         <v>2966</v>
       </c>
-    </row>
-    <row r="1964" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1963" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1964">
         <v>2001</v>
       </c>
@@ -72669,8 +73005,11 @@
       <c r="G1964" t="s">
         <v>2969</v>
       </c>
-    </row>
-    <row r="1965" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1964" s="1" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1965">
         <v>2001</v>
       </c>
@@ -72689,8 +73028,11 @@
       <c r="G1965" t="s">
         <v>2971</v>
       </c>
-    </row>
-    <row r="1966" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1965" s="1" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1966">
         <v>2001</v>
       </c>
@@ -72709,8 +73051,11 @@
       <c r="G1966" t="s">
         <v>2973</v>
       </c>
-    </row>
-    <row r="1967" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1966" s="1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1967">
         <v>2001</v>
       </c>
@@ -72729,8 +73074,11 @@
       <c r="G1967" t="s">
         <v>2975</v>
       </c>
-    </row>
-    <row r="1968" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1967" s="1" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1968">
         <v>2001</v>
       </c>
@@ -72749,8 +73097,11 @@
       <c r="G1968" t="s">
         <v>2978</v>
       </c>
-    </row>
-    <row r="1969" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1968" s="1" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1969">
         <v>2001</v>
       </c>
@@ -72769,8 +73120,11 @@
       <c r="G1969" t="s">
         <v>2980</v>
       </c>
-    </row>
-    <row r="1970" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1969" s="1" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1970">
         <v>2001</v>
       </c>
@@ -72793,7 +73147,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="1971" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1971" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1971">
         <v>2001</v>
       </c>
@@ -72813,7 +73167,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="1972" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1972" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1972">
         <v>2001</v>
       </c>
@@ -72833,7 +73187,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="1973" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1973" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1973">
         <v>2001</v>
       </c>
@@ -72853,7 +73207,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="1974" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1974" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1974">
         <v>2001</v>
       </c>
@@ -72873,7 +73227,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="1975" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1975" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1975">
         <v>2001</v>
       </c>
@@ -72893,7 +73247,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="1976" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1976" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1976">
         <v>2001</v>
       </c>
@@ -72913,7 +73267,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="1977" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1977" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1977">
         <v>2001</v>
       </c>
@@ -72933,7 +73287,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="1978" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1978" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1978">
         <v>2001</v>
       </c>
@@ -72956,7 +73310,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="1979" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1979" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1979">
         <v>2001</v>
       </c>
@@ -72976,7 +73330,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="1980" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1980" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1980">
         <v>2001</v>
       </c>
@@ -72996,7 +73350,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="1981" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1981" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1981">
         <v>2001</v>
       </c>
@@ -73019,7 +73373,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="1982" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1982" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1982">
         <v>2001</v>
       </c>
@@ -73039,7 +73393,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="1983" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1983" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1983">
         <v>2002</v>
       </c>
@@ -73059,7 +73413,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="1984" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1984" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1984">
         <v>2002</v>
       </c>

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13109" uniqueCount="7292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13221" uniqueCount="7332">
   <si>
     <t>Year</t>
   </si>
@@ -21898,6 +21898,126 @@
   </si>
   <si>
     <t>Sensazioni d'amore</t>
+  </si>
+  <si>
+    <t>Terminator 2: Dzień Sądu</t>
+  </si>
+  <si>
+    <t>Robin Hood: Książę złodziei</t>
+  </si>
+  <si>
+    <t>Piękna i Bestia</t>
+  </si>
+  <si>
+    <t>Naga broń 2½: Kto obroni prezydenta?</t>
+  </si>
+  <si>
+    <t>Rodzina Addamsów</t>
+  </si>
+  <si>
+    <t>Sułtani westernu</t>
+  </si>
+  <si>
+    <t>Sypiając z wrogiem</t>
+  </si>
+  <si>
+    <t>Książę przypływów</t>
+  </si>
+  <si>
+    <t>Smażone zielone pomidory</t>
+  </si>
+  <si>
+    <t>Moja dziewczyna</t>
+  </si>
+  <si>
+    <t>Ognisty podmuch</t>
+  </si>
+  <si>
+    <t>Pappa ante Portas</t>
+  </si>
+  <si>
+    <t>Wojownicze Żółwie Ninja II</t>
+  </si>
+  <si>
+    <t>Rôjin Z</t>
+  </si>
+  <si>
+    <t>Fisher King</t>
+  </si>
+  <si>
+    <t>Homo Faber</t>
+  </si>
+  <si>
+    <t>Niesforna Zuzia</t>
+  </si>
+  <si>
+    <t>Chłopaki z sąsiedztwa</t>
+  </si>
+  <si>
+    <t>Operacja Corned Beef</t>
+  </si>
+  <si>
+    <t>Co jest z Bobem?</t>
+  </si>
+  <si>
+    <t>Nieśmiertelny II: Nowe życie</t>
+  </si>
+  <si>
+    <t>Człowiek-rakieta</t>
+  </si>
+  <si>
+    <t>Wakacje z trabantem</t>
+  </si>
+  <si>
+    <t>Thelma i Louise</t>
+  </si>
+  <si>
+    <t>Switch: Trudno być kobietą</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>Nie bez mojej córki</t>
+  </si>
+  <si>
+    <t>Chińskie duchy 3</t>
+  </si>
+  <si>
+    <t>Fievel i nowy świat 2: Dziki Zachód</t>
+  </si>
+  <si>
+    <t>Szalona wyprawa Billa i Teda</t>
+  </si>
+  <si>
+    <t>Noc na Ziemi</t>
+  </si>
+  <si>
+    <t>Manta - Der Film</t>
+  </si>
+  <si>
+    <t>Freddy nie żyje: Koniec koszmaru</t>
+  </si>
+  <si>
+    <t>Laleczka Chucky 3</t>
+  </si>
+  <si>
+    <t>W łóżku z Madonną</t>
+  </si>
+  <si>
+    <t>Jedenaście dni, jedenaście nocy 2</t>
+  </si>
+  <si>
+    <t>Aema buin 5</t>
+  </si>
+  <si>
+    <t>Papryka</t>
+  </si>
+  <si>
+    <t>Szkoła wyrzutków</t>
+  </si>
+  <si>
+    <t>Powrót na błękitną lagunę</t>
   </si>
 </sst>
 </file>
@@ -22356,11 +22476,11 @@
   <dimension ref="A1:P2441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G1273" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G1339" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="H1282" sqref="H1282"/>
+      <selection pane="bottomRight" activeCell="H1342" sqref="H1342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55781,7 +55901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1281">
         <v>1990</v>
       </c>
@@ -55807,7 +55927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1282">
         <v>1991</v>
       </c>
@@ -55826,10 +55946,14 @@
       <c r="G1282" t="s">
         <v>5405</v>
       </c>
-      <c r="H1282" s="9"/>
-      <c r="I1282"/>
-    </row>
-    <row r="1283" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1282" s="9" t="s">
+        <v>7292</v>
+      </c>
+      <c r="I1282" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1283">
         <v>1991</v>
       </c>
@@ -55848,10 +55972,14 @@
       <c r="G1283" t="s">
         <v>5407</v>
       </c>
-      <c r="H1283" s="9"/>
-      <c r="I1283"/>
-    </row>
-    <row r="1284" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1283" s="9" t="s">
+        <v>7293</v>
+      </c>
+      <c r="I1283" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1284">
         <v>1991</v>
       </c>
@@ -55870,10 +55998,14 @@
       <c r="G1284" t="s">
         <v>5409</v>
       </c>
-      <c r="H1284" s="9"/>
-      <c r="I1284"/>
-    </row>
-    <row r="1285" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1284" s="9" t="s">
+        <v>7294</v>
+      </c>
+      <c r="I1284" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1285">
         <v>1991</v>
       </c>
@@ -55892,13 +56024,14 @@
       <c r="G1285" t="s">
         <v>5411</v>
       </c>
-      <c r="H1285" s="9"/>
-      <c r="I1285"/>
-      <c r="J1285" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1285" s="9" t="s">
+        <v>5410</v>
+      </c>
+      <c r="I1285" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1286">
         <v>1991</v>
       </c>
@@ -55917,13 +56050,14 @@
       <c r="G1286" t="s">
         <v>5413</v>
       </c>
-      <c r="H1286" s="9"/>
-      <c r="I1286"/>
-      <c r="J1286" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1286" s="1" t="s">
+        <v>4296</v>
+      </c>
+      <c r="I1286" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1287">
         <v>1991</v>
       </c>
@@ -55942,13 +56076,14 @@
       <c r="G1287" t="s">
         <v>5415</v>
       </c>
-      <c r="H1287" s="9"/>
-      <c r="I1287"/>
-      <c r="J1287" s="1" t="s">
-        <v>4276</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1287" s="9" t="s">
+        <v>7295</v>
+      </c>
+      <c r="I1287" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1288">
         <v>1991</v>
       </c>
@@ -55967,13 +56102,14 @@
       <c r="G1288" t="s">
         <v>5416</v>
       </c>
-      <c r="H1288" s="9"/>
-      <c r="I1288"/>
-      <c r="J1288" s="1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1288" s="9" t="s">
+        <v>4138</v>
+      </c>
+      <c r="I1288" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1289">
         <v>1991</v>
       </c>
@@ -55992,13 +56128,14 @@
       <c r="G1289" t="s">
         <v>5418</v>
       </c>
-      <c r="H1289" s="9"/>
-      <c r="I1289"/>
-      <c r="J1289" s="1" t="s">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1289" s="9" t="s">
+        <v>7296</v>
+      </c>
+      <c r="I1289" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1290">
         <v>1991</v>
       </c>
@@ -56017,13 +56154,14 @@
       <c r="G1290" t="s">
         <v>5420</v>
       </c>
-      <c r="H1290" s="9"/>
-      <c r="I1290"/>
-      <c r="J1290" s="1" t="s">
-        <v>4290</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1290" s="9" t="s">
+        <v>5419</v>
+      </c>
+      <c r="I1290" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1291">
         <v>1991</v>
       </c>
@@ -56042,13 +56180,14 @@
       <c r="G1291" t="s">
         <v>5423</v>
       </c>
-      <c r="H1291" s="9"/>
-      <c r="I1291"/>
-      <c r="J1291" s="1" t="s">
-        <v>4291</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1291" s="9" t="s">
+        <v>7297</v>
+      </c>
+      <c r="I1291" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1292">
         <v>1991</v>
       </c>
@@ -56067,13 +56206,14 @@
       <c r="G1292" t="s">
         <v>5425</v>
       </c>
-      <c r="H1292" s="9"/>
-      <c r="I1292"/>
-      <c r="J1292" s="1" t="s">
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1292" s="9" t="s">
+        <v>7298</v>
+      </c>
+      <c r="I1292" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1293">
         <v>1991</v>
       </c>
@@ -56092,13 +56232,14 @@
       <c r="G1293" t="s">
         <v>5427</v>
       </c>
-      <c r="H1293" s="9"/>
-      <c r="I1293"/>
-      <c r="J1293" s="1" t="s">
-        <v>4294</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1293" s="9" t="s">
+        <v>5426</v>
+      </c>
+      <c r="I1293" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1294">
         <v>1991</v>
       </c>
@@ -56117,13 +56258,14 @@
       <c r="G1294" t="s">
         <v>5429</v>
       </c>
-      <c r="H1294" s="9"/>
-      <c r="I1294"/>
-      <c r="J1294" s="1" t="s">
-        <v>4295</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1294" s="9" t="s">
+        <v>7299</v>
+      </c>
+      <c r="I1294" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1295">
         <v>1991</v>
       </c>
@@ -56142,13 +56284,14 @@
       <c r="G1295" t="s">
         <v>5430</v>
       </c>
-      <c r="H1295" s="9"/>
-      <c r="I1295"/>
-      <c r="J1295" s="1" t="s">
-        <v>4296</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1295" s="9" t="s">
+        <v>4062</v>
+      </c>
+      <c r="I1295" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1296">
         <v>1991</v>
       </c>
@@ -56167,13 +56310,14 @@
       <c r="G1296" t="s">
         <v>5432</v>
       </c>
-      <c r="H1296" s="9"/>
-      <c r="I1296"/>
-      <c r="J1296" s="1" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1296" s="9" t="s">
+        <v>7300</v>
+      </c>
+      <c r="I1296" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1297">
         <v>1991</v>
       </c>
@@ -56192,13 +56336,14 @@
       <c r="G1297" t="s">
         <v>5434</v>
       </c>
-      <c r="H1297" s="9"/>
-      <c r="I1297"/>
-      <c r="J1297" s="1" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1297" s="9" t="s">
+        <v>7301</v>
+      </c>
+      <c r="I1297" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1298">
         <v>1991</v>
       </c>
@@ -56217,13 +56362,14 @@
       <c r="G1298" t="s">
         <v>5436</v>
       </c>
-      <c r="H1298" s="9"/>
-      <c r="I1298"/>
-      <c r="J1298" s="1" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1298" s="9" t="s">
+        <v>4294</v>
+      </c>
+      <c r="I1298" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1299">
         <v>1991</v>
       </c>
@@ -56242,13 +56388,14 @@
       <c r="G1299" t="s">
         <v>5439</v>
       </c>
-      <c r="H1299" s="9"/>
-      <c r="I1299"/>
-      <c r="J1299" s="1" t="s">
-        <v>4297</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1299" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I1299" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1300">
         <v>1991</v>
       </c>
@@ -56267,13 +56414,14 @@
       <c r="G1300" t="s">
         <v>5441</v>
       </c>
-      <c r="H1300" s="9"/>
-      <c r="I1300"/>
-      <c r="J1300" s="1" t="s">
-        <v>4298</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1300" s="9" t="s">
+        <v>7302</v>
+      </c>
+      <c r="I1300" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1301">
         <v>1991</v>
       </c>
@@ -56292,13 +56440,14 @@
       <c r="G1301" t="s">
         <v>5443</v>
       </c>
-      <c r="H1301" s="9"/>
-      <c r="I1301"/>
-      <c r="J1301" s="1" t="s">
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1301" s="1" t="s">
+        <v>4295</v>
+      </c>
+      <c r="I1301" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1302">
         <v>1991</v>
       </c>
@@ -56317,13 +56466,14 @@
       <c r="G1302" t="s">
         <v>5445</v>
       </c>
-      <c r="H1302" s="9"/>
-      <c r="I1302"/>
-      <c r="J1302" s="1" t="s">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1302" s="9" t="s">
+        <v>7303</v>
+      </c>
+      <c r="I1302" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1303">
         <v>1991</v>
       </c>
@@ -56342,13 +56492,14 @@
       <c r="G1303" t="s">
         <v>5447</v>
       </c>
-      <c r="H1303" s="9"/>
-      <c r="I1303"/>
-      <c r="J1303" s="1" t="s">
-        <v>4301</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1303" s="9" t="s">
+        <v>5446</v>
+      </c>
+      <c r="I1303" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1304">
         <v>1991</v>
       </c>
@@ -56367,13 +56518,14 @@
       <c r="G1304" t="s">
         <v>5449</v>
       </c>
-      <c r="H1304" s="9"/>
-      <c r="I1304"/>
-      <c r="J1304" s="1" t="s">
-        <v>4302</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1304" s="9" t="s">
+        <v>7304</v>
+      </c>
+      <c r="I1304" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1305">
         <v>1991</v>
       </c>
@@ -56392,13 +56544,14 @@
       <c r="G1305" t="s">
         <v>5451</v>
       </c>
-      <c r="H1305" s="9"/>
-      <c r="I1305"/>
-      <c r="J1305" s="1" t="s">
-        <v>4303</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1305" s="9" t="s">
+        <v>5450</v>
+      </c>
+      <c r="I1305" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1306">
         <v>1991</v>
       </c>
@@ -56417,13 +56570,14 @@
       <c r="G1306" t="s">
         <v>5453</v>
       </c>
-      <c r="H1306" s="9"/>
-      <c r="I1306"/>
-      <c r="J1306" s="1" t="s">
-        <v>4304</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1306" s="9" t="s">
+        <v>7305</v>
+      </c>
+      <c r="I1306" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1307">
         <v>1991</v>
       </c>
@@ -56448,12 +56602,11 @@
       <c r="H1307" s="1" t="s">
         <v>4292</v>
       </c>
-      <c r="I1307"/>
-      <c r="J1307" s="1" t="s">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="1308" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1307" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1308">
         <v>1991</v>
       </c>
@@ -56472,13 +56625,14 @@
       <c r="G1308" t="s">
         <v>5457</v>
       </c>
-      <c r="H1308" s="9"/>
-      <c r="I1308"/>
-      <c r="J1308" s="1" t="s">
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1308" s="9" t="s">
+        <v>7306</v>
+      </c>
+      <c r="I1308" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1309">
         <v>1991</v>
       </c>
@@ -56497,13 +56651,14 @@
       <c r="G1309" t="s">
         <v>5459</v>
       </c>
-      <c r="H1309" s="9"/>
-      <c r="I1309"/>
-      <c r="J1309" s="1" t="s">
-        <v>4307</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1309" s="9" t="s">
+        <v>7308</v>
+      </c>
+      <c r="I1309" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1310">
         <v>1991</v>
       </c>
@@ -56522,13 +56677,14 @@
       <c r="G1310" t="s">
         <v>5461</v>
       </c>
-      <c r="H1310" s="9"/>
-      <c r="I1310"/>
-      <c r="J1310" s="1" t="s">
-        <v>4308</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1310" s="9" t="s">
+        <v>7309</v>
+      </c>
+      <c r="I1310" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1311">
         <v>1991</v>
       </c>
@@ -56547,13 +56703,14 @@
       <c r="G1311" t="s">
         <v>5463</v>
       </c>
-      <c r="H1311" s="9"/>
-      <c r="I1311"/>
-      <c r="J1311" s="1" t="s">
-        <v>4309</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1311" s="9" t="s">
+        <v>7310</v>
+      </c>
+      <c r="I1311" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1312">
         <v>1991</v>
       </c>
@@ -56572,13 +56729,14 @@
       <c r="G1312" t="s">
         <v>5466</v>
       </c>
-      <c r="H1312" s="9"/>
-      <c r="I1312"/>
-      <c r="J1312" s="1" t="s">
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1312" s="9" t="s">
+        <v>5464</v>
+      </c>
+      <c r="I1312" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1313">
         <v>1991</v>
       </c>
@@ -56597,13 +56755,14 @@
       <c r="G1313" t="s">
         <v>5469</v>
       </c>
-      <c r="H1313" s="9"/>
-      <c r="I1313"/>
-      <c r="J1313" s="1" t="s">
-        <v>4311</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1313" s="9" t="s">
+        <v>5467</v>
+      </c>
+      <c r="I1313" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1314">
         <v>1991</v>
       </c>
@@ -56622,13 +56781,14 @@
       <c r="G1314" t="s">
         <v>5471</v>
       </c>
-      <c r="H1314" s="9"/>
-      <c r="I1314"/>
-      <c r="J1314" s="1" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1314" s="9" t="s">
+        <v>7311</v>
+      </c>
+      <c r="I1314" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1315">
         <v>1991</v>
       </c>
@@ -56647,13 +56807,14 @@
       <c r="G1315" t="s">
         <v>5475</v>
       </c>
-      <c r="H1315" s="9"/>
-      <c r="I1315"/>
-      <c r="J1315" s="1" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1315" s="9" t="s">
+        <v>7312</v>
+      </c>
+      <c r="I1315" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1316">
         <v>1991</v>
       </c>
@@ -56672,13 +56833,14 @@
       <c r="G1316" t="s">
         <v>5478</v>
       </c>
-      <c r="H1316" s="9"/>
-      <c r="I1316"/>
-      <c r="J1316" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1316" s="9" t="s">
+        <v>7313</v>
+      </c>
+      <c r="I1316" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1317">
         <v>1991</v>
       </c>
@@ -56697,13 +56859,14 @@
       <c r="G1317" t="s">
         <v>5480</v>
       </c>
-      <c r="H1317" s="9"/>
-      <c r="I1317"/>
-      <c r="J1317" s="1" t="s">
-        <v>4312</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1317" s="9" t="s">
+        <v>7314</v>
+      </c>
+      <c r="I1317" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1318">
         <v>1991</v>
       </c>
@@ -56722,13 +56885,14 @@
       <c r="G1318" t="s">
         <v>5482</v>
       </c>
-      <c r="H1318" s="9"/>
-      <c r="I1318"/>
-      <c r="J1318" s="1" t="s">
-        <v>4313</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1318" s="9" t="s">
+        <v>7307</v>
+      </c>
+      <c r="I1318" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1319">
         <v>1991</v>
       </c>
@@ -56747,13 +56911,14 @@
       <c r="G1319" t="s">
         <v>5484</v>
       </c>
-      <c r="H1319" s="9"/>
-      <c r="I1319"/>
-      <c r="J1319" s="1" t="s">
-        <v>4314</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1319" s="9" t="s">
+        <v>7315</v>
+      </c>
+      <c r="I1319" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1320">
         <v>1991</v>
       </c>
@@ -56772,13 +56937,14 @@
       <c r="G1320" t="s">
         <v>5486</v>
       </c>
-      <c r="H1320" s="9"/>
-      <c r="I1320"/>
-      <c r="J1320" s="1" t="s">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1320" s="9" t="s">
+        <v>7316</v>
+      </c>
+      <c r="I1320" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1321">
         <v>1991</v>
       </c>
@@ -56797,13 +56963,14 @@
       <c r="G1321" t="s">
         <v>5488</v>
       </c>
-      <c r="H1321" s="9"/>
-      <c r="I1321"/>
-      <c r="J1321" s="1" t="s">
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1321" s="9" t="s">
+        <v>7317</v>
+      </c>
+      <c r="I1321" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1322">
         <v>1991</v>
       </c>
@@ -56822,13 +56989,14 @@
       <c r="G1322" t="s">
         <v>5490</v>
       </c>
-      <c r="H1322" s="9"/>
-      <c r="I1322"/>
-      <c r="J1322" s="1" t="s">
-        <v>4317</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1322" s="9" t="s">
+        <v>7318</v>
+      </c>
+      <c r="I1322" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1323">
         <v>1991</v>
       </c>
@@ -56847,13 +57015,14 @@
       <c r="G1323" t="s">
         <v>5492</v>
       </c>
-      <c r="H1323" s="9"/>
-      <c r="I1323"/>
-      <c r="J1323" s="1" t="s">
-        <v>4318</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1323" s="9" t="s">
+        <v>5491</v>
+      </c>
+      <c r="I1323" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1324">
         <v>1991</v>
       </c>
@@ -56872,13 +57041,14 @@
       <c r="G1324" t="s">
         <v>5494</v>
       </c>
-      <c r="H1324" s="9"/>
-      <c r="I1324"/>
-      <c r="J1324" s="1" t="s">
-        <v>4319</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1324" s="9" t="s">
+        <v>7319</v>
+      </c>
+      <c r="I1324" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1325">
         <v>1991</v>
       </c>
@@ -56897,13 +57067,14 @@
       <c r="G1325" t="s">
         <v>5497</v>
       </c>
-      <c r="H1325" s="9"/>
-      <c r="I1325"/>
-      <c r="J1325" s="1" t="s">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1325" s="9" t="s">
+        <v>7320</v>
+      </c>
+      <c r="I1325" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1326">
         <v>1991</v>
       </c>
@@ -56922,13 +57093,14 @@
       <c r="G1326" t="s">
         <v>5499</v>
       </c>
-      <c r="H1326" s="9"/>
-      <c r="I1326"/>
-      <c r="J1326" s="1" t="s">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1326" s="9" t="s">
+        <v>7321</v>
+      </c>
+      <c r="I1326" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1327">
         <v>1991</v>
       </c>
@@ -56947,13 +57119,14 @@
       <c r="G1327" t="s">
         <v>5501</v>
       </c>
-      <c r="H1327" s="9"/>
-      <c r="I1327"/>
-      <c r="J1327" s="1" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1327" s="9" t="s">
+        <v>7322</v>
+      </c>
+      <c r="I1327" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1328">
         <v>1991</v>
       </c>
@@ -56972,13 +57145,14 @@
       <c r="G1328" t="s">
         <v>5503</v>
       </c>
-      <c r="H1328" s="9"/>
-      <c r="I1328"/>
-      <c r="J1328" s="1" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1328" s="9" t="s">
+        <v>7323</v>
+      </c>
+      <c r="I1328" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1329">
         <v>1991</v>
       </c>
@@ -56997,13 +57171,14 @@
       <c r="G1329" t="s">
         <v>5505</v>
       </c>
-      <c r="H1329" s="9"/>
-      <c r="I1329"/>
-      <c r="J1329" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1329" s="9" t="s">
+        <v>5504</v>
+      </c>
+      <c r="I1329" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1330">
         <v>1991</v>
       </c>
@@ -57022,13 +57197,14 @@
       <c r="G1330" t="s">
         <v>5507</v>
       </c>
-      <c r="H1330" s="9"/>
-      <c r="I1330"/>
-      <c r="J1330" s="1" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1330" s="9" t="s">
+        <v>7324</v>
+      </c>
+      <c r="I1330" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1331">
         <v>1991</v>
       </c>
@@ -57047,13 +57223,14 @@
       <c r="G1331" t="s">
         <v>5509</v>
       </c>
-      <c r="H1331" s="9"/>
-      <c r="I1331"/>
-      <c r="J1331" s="1" t="s">
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1331" s="9" t="s">
+        <v>7325</v>
+      </c>
+      <c r="I1331" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1332">
         <v>1991</v>
       </c>
@@ -57072,13 +57249,14 @@
       <c r="G1332" t="s">
         <v>5511</v>
       </c>
-      <c r="H1332" s="9"/>
-      <c r="I1332"/>
-      <c r="J1332" s="1" t="s">
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1332" s="9" t="s">
+        <v>7326</v>
+      </c>
+      <c r="I1332" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1333">
         <v>1991</v>
       </c>
@@ -57097,13 +57275,14 @@
       <c r="G1333" t="s">
         <v>5514</v>
       </c>
-      <c r="H1333" s="9"/>
-      <c r="I1333"/>
-      <c r="J1333" s="1" t="s">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1333" s="9" t="s">
+        <v>5512</v>
+      </c>
+      <c r="I1333" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1334">
         <v>1991</v>
       </c>
@@ -57122,13 +57301,14 @@
       <c r="G1334" t="s">
         <v>5516</v>
       </c>
-      <c r="H1334" s="9"/>
-      <c r="I1334"/>
-      <c r="J1334" s="1" t="s">
-        <v>4324</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1334" s="9" t="s">
+        <v>7327</v>
+      </c>
+      <c r="I1334" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1335">
         <v>1991</v>
       </c>
@@ -57147,13 +57327,14 @@
       <c r="G1335" t="s">
         <v>5518</v>
       </c>
-      <c r="H1335" s="9"/>
-      <c r="I1335"/>
-      <c r="J1335" s="1" t="s">
-        <v>4325</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1335" s="9" t="s">
+        <v>7328</v>
+      </c>
+      <c r="I1335" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1336">
         <v>1991</v>
       </c>
@@ -57175,13 +57356,14 @@
       <c r="G1336" t="s">
         <v>5519</v>
       </c>
-      <c r="H1336" s="9"/>
-      <c r="I1336"/>
-      <c r="J1336" s="1" t="s">
-        <v>4326</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1336" s="1" t="s">
+        <v>4289</v>
+      </c>
+      <c r="I1336" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1337">
         <v>1991</v>
       </c>
@@ -57200,13 +57382,14 @@
       <c r="G1337" t="s">
         <v>5520</v>
       </c>
-      <c r="H1337" s="9"/>
-      <c r="I1337"/>
-      <c r="J1337" s="1" t="s">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1337" s="9" t="s">
+        <v>7329</v>
+      </c>
+      <c r="I1337" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1338">
         <v>1991</v>
       </c>
@@ -57225,13 +57408,14 @@
       <c r="G1338" t="s">
         <v>5522</v>
       </c>
-      <c r="H1338" s="9"/>
-      <c r="I1338"/>
-      <c r="J1338" s="1" t="s">
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1338" s="9" t="s">
+        <v>7330</v>
+      </c>
+      <c r="I1338" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1339">
         <v>1991</v>
       </c>
@@ -57253,13 +57437,14 @@
       <c r="G1339" t="s">
         <v>5524</v>
       </c>
-      <c r="H1339" s="9"/>
-      <c r="I1339"/>
-      <c r="J1339" s="1" t="s">
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1339" s="1" t="s">
+        <v>4290</v>
+      </c>
+      <c r="I1339" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1340">
         <v>1991</v>
       </c>
@@ -57278,13 +57463,14 @@
       <c r="G1340" t="s">
         <v>5526</v>
       </c>
-      <c r="H1340" s="9"/>
-      <c r="I1340"/>
-      <c r="J1340" s="1" t="s">
-        <v>4330</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1340" s="9" t="s">
+        <v>7331</v>
+      </c>
+      <c r="I1340" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1341">
         <v>1991</v>
       </c>
@@ -57306,13 +57492,14 @@
       <c r="G1341" t="s">
         <v>5527</v>
       </c>
-      <c r="H1341" s="9"/>
-      <c r="I1341"/>
-      <c r="J1341" s="1" t="s">
-        <v>4331</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1341" s="1" t="s">
+        <v>4291</v>
+      </c>
+      <c r="I1341" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1342">
         <v>1992</v>
       </c>
@@ -57333,11 +57520,8 @@
       </c>
       <c r="H1342" s="9"/>
       <c r="I1342"/>
-      <c r="J1342" s="1" t="s">
-        <v>4332</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1343">
         <v>1992</v>
       </c>
@@ -57358,11 +57542,8 @@
       </c>
       <c r="H1343" s="9"/>
       <c r="I1343"/>
-      <c r="J1343" s="1" t="s">
-        <v>4333</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1344">
         <v>1992</v>
       </c>
@@ -57383,9 +57564,6 @@
       </c>
       <c r="H1344" s="9"/>
       <c r="I1344"/>
-      <c r="J1344" s="1" t="s">
-        <v>4334</v>
-      </c>
     </row>
     <row r="1345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1345">
@@ -57406,11 +57584,10 @@
       <c r="G1345" t="s">
         <v>5537</v>
       </c>
-      <c r="H1345" s="9"/>
+      <c r="H1345" s="1" t="s">
+        <v>4309</v>
+      </c>
       <c r="I1345"/>
-      <c r="J1345" s="1" t="s">
-        <v>4335</v>
-      </c>
     </row>
     <row r="1346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1346">
@@ -57433,9 +57610,6 @@
       </c>
       <c r="H1346" s="9"/>
       <c r="I1346"/>
-      <c r="J1346" s="1" t="s">
-        <v>4336</v>
-      </c>
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1347">
@@ -57458,9 +57632,6 @@
       </c>
       <c r="H1347" s="9"/>
       <c r="I1347"/>
-      <c r="J1347" s="1" t="s">
-        <v>4337</v>
-      </c>
     </row>
     <row r="1348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1348">
@@ -57483,9 +57654,6 @@
       </c>
       <c r="H1348" s="9"/>
       <c r="I1348"/>
-      <c r="J1348" s="1" t="s">
-        <v>4338</v>
-      </c>
     </row>
     <row r="1349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1349">
@@ -57508,9 +57676,6 @@
       </c>
       <c r="H1349" s="9"/>
       <c r="I1349"/>
-      <c r="J1349" s="1" t="s">
-        <v>4339</v>
-      </c>
     </row>
     <row r="1350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1350">
@@ -57533,9 +57698,6 @@
       </c>
       <c r="H1350" s="9"/>
       <c r="I1350"/>
-      <c r="J1350" s="1" t="s">
-        <v>4340</v>
-      </c>
     </row>
     <row r="1351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1351">
@@ -57558,9 +57720,6 @@
       </c>
       <c r="H1351" s="9"/>
       <c r="I1351"/>
-      <c r="J1351" s="1" t="s">
-        <v>1244</v>
-      </c>
     </row>
     <row r="1352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1352">
@@ -57583,9 +57742,6 @@
       </c>
       <c r="H1352" s="9"/>
       <c r="I1352"/>
-      <c r="J1352" s="1" t="s">
-        <v>1248</v>
-      </c>
     </row>
     <row r="1353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1353">
@@ -57608,9 +57764,6 @@
       </c>
       <c r="H1353" s="9"/>
       <c r="I1353"/>
-      <c r="J1353" s="1" t="s">
-        <v>1251</v>
-      </c>
     </row>
     <row r="1354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1354">
@@ -57634,7 +57787,7 @@
       <c r="H1354" s="9"/>
       <c r="I1354"/>
       <c r="J1354" s="1" t="s">
-        <v>1256</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1355" spans="1:10" x14ac:dyDescent="0.2">
@@ -57659,7 +57812,7 @@
       <c r="H1355" s="9"/>
       <c r="I1355"/>
       <c r="J1355" s="1" t="s">
-        <v>4341</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1356" spans="1:10" x14ac:dyDescent="0.2">
@@ -57684,7 +57837,7 @@
       <c r="H1356" s="9"/>
       <c r="I1356"/>
       <c r="J1356" s="1" t="s">
-        <v>4342</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1357" spans="1:10" x14ac:dyDescent="0.2">
@@ -57706,10 +57859,12 @@
       <c r="G1357" t="s">
         <v>5564</v>
       </c>
-      <c r="H1357" s="9"/>
+      <c r="H1357" s="1" t="s">
+        <v>4307</v>
+      </c>
       <c r="I1357"/>
       <c r="J1357" s="1" t="s">
-        <v>4343</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="1358" spans="1:10" x14ac:dyDescent="0.2">
@@ -57734,7 +57889,7 @@
       <c r="H1358" s="9"/>
       <c r="I1358"/>
       <c r="J1358" s="1" t="s">
-        <v>4344</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1359" spans="1:10" x14ac:dyDescent="0.2">
@@ -57759,7 +57914,7 @@
       <c r="H1359" s="9"/>
       <c r="I1359"/>
       <c r="J1359" s="1" t="s">
-        <v>4345</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1360" spans="1:10" x14ac:dyDescent="0.2">
@@ -57784,7 +57939,7 @@
       <c r="H1360" s="9"/>
       <c r="I1360"/>
       <c r="J1360" s="1" t="s">
-        <v>4346</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1361" spans="1:10" x14ac:dyDescent="0.2">
@@ -57809,7 +57964,7 @@
       <c r="H1361" s="9"/>
       <c r="I1361"/>
       <c r="J1361" s="1" t="s">
-        <v>4347</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1362" spans="1:10" x14ac:dyDescent="0.2">
@@ -57834,7 +57989,7 @@
       <c r="H1362" s="9"/>
       <c r="I1362"/>
       <c r="J1362" s="1" t="s">
-        <v>4348</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1363" spans="1:10" x14ac:dyDescent="0.2">
@@ -57859,7 +58014,7 @@
       <c r="H1363" s="9"/>
       <c r="I1363"/>
       <c r="J1363" s="1" t="s">
-        <v>1258</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1364" spans="1:10" x14ac:dyDescent="0.2">
@@ -57884,7 +58039,7 @@
       <c r="H1364" s="9"/>
       <c r="I1364"/>
       <c r="J1364" s="1" t="s">
-        <v>1262</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1365" spans="1:10" x14ac:dyDescent="0.2">
@@ -57909,7 +58064,7 @@
       <c r="H1365" s="9"/>
       <c r="I1365"/>
       <c r="J1365" s="1" t="s">
-        <v>1265</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1366" spans="1:10" x14ac:dyDescent="0.2">
@@ -57934,7 +58089,7 @@
       <c r="H1366" s="9"/>
       <c r="I1366"/>
       <c r="J1366" s="1" t="s">
-        <v>1269</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.2">
@@ -57959,7 +58114,7 @@
       <c r="H1367" s="9"/>
       <c r="I1367"/>
       <c r="J1367" s="1" t="s">
-        <v>1272</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1368" spans="1:10" x14ac:dyDescent="0.2">
@@ -57984,7 +58139,7 @@
       <c r="H1368" s="9"/>
       <c r="I1368"/>
       <c r="J1368" s="1" t="s">
-        <v>1275</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1369" spans="1:10" x14ac:dyDescent="0.2">
@@ -58009,7 +58164,7 @@
       <c r="H1369" s="9"/>
       <c r="I1369"/>
       <c r="J1369" s="1" t="s">
-        <v>4349</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1370" spans="1:10" x14ac:dyDescent="0.2">
@@ -58034,7 +58189,7 @@
       <c r="H1370" s="9"/>
       <c r="I1370"/>
       <c r="J1370" s="1" t="s">
-        <v>4350</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1371" spans="1:10" x14ac:dyDescent="0.2">
@@ -58059,7 +58214,7 @@
       <c r="H1371" s="9"/>
       <c r="I1371"/>
       <c r="J1371" s="1" t="s">
-        <v>4351</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1372" spans="1:10" x14ac:dyDescent="0.2">
@@ -58087,7 +58242,7 @@
       <c r="H1372" s="9"/>
       <c r="I1372"/>
       <c r="J1372" s="1" t="s">
-        <v>4299</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1373" spans="1:10" x14ac:dyDescent="0.2">
@@ -58112,7 +58267,7 @@
       <c r="H1373" s="9"/>
       <c r="I1373"/>
       <c r="J1373" s="1" t="s">
-        <v>4352</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1374" spans="1:10" x14ac:dyDescent="0.2">
@@ -58137,7 +58292,7 @@
       <c r="H1374" s="9"/>
       <c r="I1374"/>
       <c r="J1374" s="1" t="s">
-        <v>4353</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1375" spans="1:10" x14ac:dyDescent="0.2">
@@ -58162,7 +58317,7 @@
       <c r="H1375" s="9"/>
       <c r="I1375"/>
       <c r="J1375" s="1" t="s">
-        <v>4354</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1376" spans="1:10" x14ac:dyDescent="0.2">
@@ -58187,7 +58342,7 @@
       <c r="H1376" s="9"/>
       <c r="I1376"/>
       <c r="J1376" s="1" t="s">
-        <v>4355</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1377" spans="1:10" x14ac:dyDescent="0.2">
@@ -58212,7 +58367,7 @@
       <c r="H1377" s="9"/>
       <c r="I1377"/>
       <c r="J1377" s="1" t="s">
-        <v>4356</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1378" spans="1:10" x14ac:dyDescent="0.2">
@@ -58237,7 +58392,7 @@
       <c r="H1378" s="9"/>
       <c r="I1378"/>
       <c r="J1378" s="1" t="s">
-        <v>4357</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1379" spans="1:10" x14ac:dyDescent="0.2">
@@ -58262,7 +58417,7 @@
       <c r="H1379" s="9"/>
       <c r="I1379"/>
       <c r="J1379" s="1" t="s">
-        <v>4358</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="1380" spans="1:10" x14ac:dyDescent="0.2">
@@ -58290,7 +58445,7 @@
       <c r="H1380" s="9"/>
       <c r="I1380"/>
       <c r="J1380" s="1" t="s">
-        <v>4359</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1381" spans="1:10" x14ac:dyDescent="0.2">
@@ -58315,7 +58470,7 @@
       <c r="H1381" s="9"/>
       <c r="I1381"/>
       <c r="J1381" s="1" t="s">
-        <v>4360</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1382" spans="1:10" x14ac:dyDescent="0.2">
@@ -58340,7 +58495,7 @@
       <c r="H1382" s="9"/>
       <c r="I1382"/>
       <c r="J1382" s="1" t="s">
-        <v>4361</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1383" spans="1:10" x14ac:dyDescent="0.2">
@@ -58365,7 +58520,7 @@
       <c r="H1383" s="9"/>
       <c r="I1383"/>
       <c r="J1383" s="1" t="s">
-        <v>4362</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1384" spans="1:10" x14ac:dyDescent="0.2">
@@ -58390,7 +58545,7 @@
       <c r="H1384" s="9"/>
       <c r="I1384"/>
       <c r="J1384" s="1" t="s">
-        <v>1279</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="1385" spans="1:10" x14ac:dyDescent="0.2">
@@ -58418,7 +58573,7 @@
       <c r="H1385" s="9"/>
       <c r="I1385"/>
       <c r="J1385" s="1" t="s">
-        <v>1283</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1386" spans="1:10" x14ac:dyDescent="0.2">
@@ -58443,7 +58598,7 @@
       <c r="H1386" s="9"/>
       <c r="I1386"/>
       <c r="J1386" s="1" t="s">
-        <v>639</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="1387" spans="1:10" x14ac:dyDescent="0.2">
@@ -58468,7 +58623,7 @@
       <c r="H1387" s="9"/>
       <c r="I1387"/>
       <c r="J1387" s="1" t="s">
-        <v>1290</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1388" spans="1:10" x14ac:dyDescent="0.2">
@@ -58496,7 +58651,7 @@
       <c r="H1388" s="9"/>
       <c r="I1388"/>
       <c r="J1388" s="1" t="s">
-        <v>1294</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1389" spans="1:10" x14ac:dyDescent="0.2">
@@ -58524,7 +58679,7 @@
       <c r="H1389" s="9"/>
       <c r="I1389"/>
       <c r="J1389" s="1" t="s">
-        <v>1297</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.2">
@@ -58549,7 +58704,7 @@
       <c r="H1390" s="9"/>
       <c r="I1390"/>
       <c r="J1390" s="1" t="s">
-        <v>18</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1391" spans="1:10" x14ac:dyDescent="0.2">
@@ -58574,7 +58729,7 @@
       <c r="H1391" s="9"/>
       <c r="I1391"/>
       <c r="J1391" s="1" t="s">
-        <v>4363</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1392" spans="1:10" x14ac:dyDescent="0.2">
@@ -58599,7 +58754,7 @@
       <c r="H1392" s="9"/>
       <c r="I1392"/>
       <c r="J1392" s="1" t="s">
-        <v>4364</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1393" spans="1:10" x14ac:dyDescent="0.2">
@@ -58627,7 +58782,7 @@
       <c r="H1393" s="9"/>
       <c r="I1393"/>
       <c r="J1393" s="1" t="s">
-        <v>4365</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.2">
@@ -58652,7 +58807,7 @@
       <c r="H1394" s="9"/>
       <c r="I1394"/>
       <c r="J1394" s="1" t="s">
-        <v>4366</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.2">
@@ -58677,7 +58832,7 @@
       <c r="H1395" s="9"/>
       <c r="I1395"/>
       <c r="J1395" s="1" t="s">
-        <v>4367</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="1396" spans="1:10" x14ac:dyDescent="0.2">
@@ -58702,7 +58857,7 @@
       <c r="H1396" s="9"/>
       <c r="I1396"/>
       <c r="J1396" s="1" t="s">
-        <v>4368</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1397" spans="1:10" x14ac:dyDescent="0.2">
@@ -58727,7 +58882,7 @@
       <c r="H1397" s="9"/>
       <c r="I1397"/>
       <c r="J1397" s="1" t="s">
-        <v>4369</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="1398" spans="1:10" x14ac:dyDescent="0.2">
@@ -58752,7 +58907,7 @@
       <c r="H1398" s="9"/>
       <c r="I1398"/>
       <c r="J1398" s="1" t="s">
-        <v>4370</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1399" spans="1:10" x14ac:dyDescent="0.2">
@@ -58777,7 +58932,7 @@
       <c r="H1399" s="9"/>
       <c r="I1399"/>
       <c r="J1399" s="1" t="s">
-        <v>4371</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="1400" spans="1:10" x14ac:dyDescent="0.2">
@@ -58802,7 +58957,7 @@
       <c r="H1400" s="9"/>
       <c r="I1400"/>
       <c r="J1400" s="1" t="s">
-        <v>4372</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1401" spans="1:10" x14ac:dyDescent="0.2">
@@ -58827,7 +58982,7 @@
       <c r="H1401" s="9"/>
       <c r="I1401"/>
       <c r="J1401" s="1" t="s">
-        <v>4373</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.2">
@@ -58852,7 +59007,7 @@
       <c r="H1402" s="9"/>
       <c r="I1402"/>
       <c r="J1402" s="1" t="s">
-        <v>4374</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1403" spans="1:10" x14ac:dyDescent="0.2">
@@ -58877,7 +59032,7 @@
       <c r="H1403" s="9"/>
       <c r="I1403"/>
       <c r="J1403" s="1" t="s">
-        <v>4375</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="1404" spans="1:10" x14ac:dyDescent="0.2">
@@ -58902,7 +59057,7 @@
       <c r="H1404" s="9"/>
       <c r="I1404"/>
       <c r="J1404" s="1" t="s">
-        <v>4376</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1405" spans="1:10" x14ac:dyDescent="0.2">
@@ -58930,7 +59085,7 @@
       <c r="H1405" s="9"/>
       <c r="I1405"/>
       <c r="J1405" s="1" t="s">
-        <v>4377</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1406" spans="1:10" x14ac:dyDescent="0.2">
@@ -58955,7 +59110,7 @@
       <c r="H1406" s="9"/>
       <c r="I1406"/>
       <c r="J1406" s="1" t="s">
-        <v>4378</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1407" spans="1:10" x14ac:dyDescent="0.2">
@@ -58980,7 +59135,7 @@
       <c r="H1407" s="9"/>
       <c r="I1407"/>
       <c r="J1407" s="1" t="s">
-        <v>4379</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1408" spans="1:10" x14ac:dyDescent="0.2">
@@ -59005,7 +59160,7 @@
       <c r="H1408" s="9"/>
       <c r="I1408"/>
       <c r="J1408" s="1" t="s">
-        <v>4380</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1409" spans="1:10" x14ac:dyDescent="0.2">
@@ -59030,7 +59185,7 @@
       <c r="H1409" s="9"/>
       <c r="I1409"/>
       <c r="J1409" s="1" t="s">
-        <v>4381</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1410" spans="1:10" x14ac:dyDescent="0.2">
@@ -59055,7 +59210,7 @@
       <c r="H1410" s="9"/>
       <c r="I1410"/>
       <c r="J1410" s="1" t="s">
-        <v>4382</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.2">
@@ -59080,7 +59235,7 @@
       <c r="H1411" s="9"/>
       <c r="I1411"/>
       <c r="J1411" s="1" t="s">
-        <v>1301</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1412" spans="1:10" x14ac:dyDescent="0.2">
@@ -59105,7 +59260,7 @@
       <c r="H1412" s="9"/>
       <c r="I1412"/>
       <c r="J1412" s="1" t="s">
-        <v>4383</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1413" spans="1:10" x14ac:dyDescent="0.2">
@@ -59130,7 +59285,7 @@
       <c r="H1413" s="9"/>
       <c r="I1413"/>
       <c r="J1413" s="1" t="s">
-        <v>4299</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.2">
@@ -59155,7 +59310,7 @@
       <c r="H1414" s="9"/>
       <c r="I1414"/>
       <c r="J1414" s="1" t="s">
-        <v>4384</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1415" spans="1:10" x14ac:dyDescent="0.2">
@@ -59180,7 +59335,7 @@
       <c r="H1415" s="9"/>
       <c r="I1415"/>
       <c r="J1415" s="1" t="s">
-        <v>4385</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1416" spans="1:10" x14ac:dyDescent="0.2">
@@ -59205,7 +59360,7 @@
       <c r="H1416" s="9"/>
       <c r="I1416"/>
       <c r="J1416" s="1" t="s">
-        <v>4386</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1417" spans="1:10" x14ac:dyDescent="0.2">
@@ -59230,7 +59385,7 @@
       <c r="H1417" s="9"/>
       <c r="I1417"/>
       <c r="J1417" s="1" t="s">
-        <v>4387</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1418" spans="1:10" x14ac:dyDescent="0.2">
@@ -59255,7 +59410,7 @@
       <c r="H1418" s="9"/>
       <c r="I1418"/>
       <c r="J1418" s="1" t="s">
-        <v>4388</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1419" spans="1:10" x14ac:dyDescent="0.2">
@@ -59280,7 +59435,7 @@
       <c r="H1419" s="9"/>
       <c r="I1419"/>
       <c r="J1419" s="1" t="s">
-        <v>4389</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1420" spans="1:10" x14ac:dyDescent="0.2">
@@ -59305,7 +59460,7 @@
       <c r="H1420" s="9"/>
       <c r="I1420"/>
       <c r="J1420" s="1" t="s">
-        <v>4390</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1421" spans="1:10" x14ac:dyDescent="0.2">
@@ -59330,7 +59485,7 @@
       <c r="H1421" s="9"/>
       <c r="I1421"/>
       <c r="J1421" s="1" t="s">
-        <v>4391</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1422" spans="1:10" x14ac:dyDescent="0.2">
@@ -59355,7 +59510,7 @@
       <c r="H1422" s="9"/>
       <c r="I1422"/>
       <c r="J1422" s="1" t="s">
-        <v>4392</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1423" spans="1:10" x14ac:dyDescent="0.2">
@@ -59380,7 +59535,7 @@
       <c r="H1423" s="9"/>
       <c r="I1423"/>
       <c r="J1423" s="1" t="s">
-        <v>4393</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1424" spans="1:10" x14ac:dyDescent="0.2">
@@ -59405,7 +59560,7 @@
       <c r="H1424" s="9"/>
       <c r="I1424"/>
       <c r="J1424" s="1" t="s">
-        <v>4394</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1425" spans="1:10" x14ac:dyDescent="0.2">
@@ -59430,7 +59585,7 @@
       <c r="H1425" s="9"/>
       <c r="I1425"/>
       <c r="J1425" s="1" t="s">
-        <v>4395</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.2">
@@ -59455,7 +59610,7 @@
       <c r="H1426" s="9"/>
       <c r="I1426"/>
       <c r="J1426" s="1" t="s">
-        <v>4396</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.2">
@@ -59480,7 +59635,7 @@
       <c r="H1427" s="9"/>
       <c r="I1427"/>
       <c r="J1427" s="1" t="s">
-        <v>4397</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1428" spans="1:10" x14ac:dyDescent="0.2">
@@ -59505,7 +59660,7 @@
       <c r="H1428" s="9"/>
       <c r="I1428"/>
       <c r="J1428" s="1" t="s">
-        <v>4398</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.2">
@@ -59530,7 +59685,7 @@
       <c r="H1429" s="9"/>
       <c r="I1429"/>
       <c r="J1429" s="1" t="s">
-        <v>1304</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1430" spans="1:10" x14ac:dyDescent="0.2">
@@ -59555,7 +59710,7 @@
       <c r="H1430" s="9"/>
       <c r="I1430"/>
       <c r="J1430" s="1" t="s">
-        <v>1307</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.2">
@@ -59580,7 +59735,7 @@
       <c r="H1431" s="9"/>
       <c r="I1431"/>
       <c r="J1431" s="1" t="s">
-        <v>1310</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.2">
@@ -59608,7 +59763,7 @@
       <c r="H1432" s="9"/>
       <c r="I1432"/>
       <c r="J1432" s="1" t="s">
-        <v>4399</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.2">
@@ -59633,7 +59788,7 @@
       <c r="H1433" s="9"/>
       <c r="I1433"/>
       <c r="J1433" s="1" t="s">
-        <v>4400</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.2">
@@ -59658,7 +59813,7 @@
       <c r="H1434" s="9"/>
       <c r="I1434"/>
       <c r="J1434" s="1" t="s">
-        <v>4401</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.2">
@@ -59683,7 +59838,7 @@
       <c r="H1435" s="9"/>
       <c r="I1435"/>
       <c r="J1435" s="1" t="s">
-        <v>4402</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.2">
@@ -59708,7 +59863,7 @@
       <c r="H1436" s="9"/>
       <c r="I1436"/>
       <c r="J1436" s="1" t="s">
-        <v>4403</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1437" spans="1:10" x14ac:dyDescent="0.2">
@@ -59733,7 +59888,7 @@
       <c r="H1437" s="9"/>
       <c r="I1437"/>
       <c r="J1437" s="1" t="s">
-        <v>4404</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1438" spans="1:10" x14ac:dyDescent="0.2">
@@ -59758,7 +59913,7 @@
       <c r="H1438" s="9"/>
       <c r="I1438"/>
       <c r="J1438" s="1" t="s">
-        <v>4405</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.2">
@@ -59783,7 +59938,7 @@
       <c r="H1439" s="9"/>
       <c r="I1439"/>
       <c r="J1439" s="1" t="s">
-        <v>4406</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.2">
@@ -59811,7 +59966,7 @@
       <c r="H1440" s="9"/>
       <c r="I1440"/>
       <c r="J1440" s="1" t="s">
-        <v>4407</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.2">
@@ -59836,7 +59991,7 @@
       <c r="H1441" s="9"/>
       <c r="I1441"/>
       <c r="J1441" s="1" t="s">
-        <v>4408</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.2">
@@ -59861,7 +60016,7 @@
       <c r="H1442" s="9"/>
       <c r="I1442"/>
       <c r="J1442" s="1" t="s">
-        <v>4409</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.2">
@@ -59886,7 +60041,7 @@
       <c r="H1443" s="9"/>
       <c r="I1443"/>
       <c r="J1443" s="1" t="s">
-        <v>4410</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.2">
@@ -59911,7 +60066,7 @@
       <c r="H1444" s="9"/>
       <c r="I1444"/>
       <c r="J1444" s="1" t="s">
-        <v>4411</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.2">
@@ -59936,7 +60091,7 @@
       <c r="H1445" s="9"/>
       <c r="I1445"/>
       <c r="J1445" s="1" t="s">
-        <v>4412</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.2">
@@ -59961,7 +60116,7 @@
       <c r="H1446" s="9"/>
       <c r="I1446"/>
       <c r="J1446" s="1" t="s">
-        <v>4413</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.2">
@@ -59986,7 +60141,7 @@
       <c r="H1447" s="9"/>
       <c r="I1447"/>
       <c r="J1447" s="1" t="s">
-        <v>4414</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.2">
@@ -60014,7 +60169,7 @@
       <c r="H1448" s="9"/>
       <c r="I1448"/>
       <c r="J1448" s="1" t="s">
-        <v>1313</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.2">
@@ -60039,7 +60194,7 @@
       <c r="H1449" s="9"/>
       <c r="I1449"/>
       <c r="J1449" s="1" t="s">
-        <v>1316</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1450" spans="1:10" x14ac:dyDescent="0.2">
@@ -60064,7 +60219,7 @@
       <c r="H1450" s="9"/>
       <c r="I1450"/>
       <c r="J1450" s="1" t="s">
-        <v>1320</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.2">
@@ -60089,7 +60244,7 @@
       <c r="H1451" s="9"/>
       <c r="I1451"/>
       <c r="J1451" s="1" t="s">
-        <v>1323</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.2">
@@ -60114,7 +60269,7 @@
       <c r="H1452" s="9"/>
       <c r="I1452"/>
       <c r="J1452" s="1" t="s">
-        <v>1326</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1453" spans="1:10" x14ac:dyDescent="0.2">
@@ -60139,7 +60294,7 @@
       <c r="H1453" s="9"/>
       <c r="I1453"/>
       <c r="J1453" s="1" t="s">
-        <v>4415</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1454" spans="1:10" x14ac:dyDescent="0.2">
@@ -60164,7 +60319,7 @@
       <c r="H1454" s="9"/>
       <c r="I1454"/>
       <c r="J1454" s="1" t="s">
-        <v>4416</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1455" spans="1:10" x14ac:dyDescent="0.2">
@@ -60189,7 +60344,7 @@
       <c r="H1455" s="9"/>
       <c r="I1455"/>
       <c r="J1455" s="1" t="s">
-        <v>4417</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1456" spans="1:10" x14ac:dyDescent="0.2">
@@ -60214,7 +60369,7 @@
       <c r="H1456" s="9"/>
       <c r="I1456"/>
       <c r="J1456" s="1" t="s">
-        <v>4418</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1457" spans="1:10" x14ac:dyDescent="0.2">
@@ -60239,7 +60394,7 @@
       <c r="H1457" s="9"/>
       <c r="I1457"/>
       <c r="J1457" s="1" t="s">
-        <v>4419</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.2">
@@ -60264,7 +60419,7 @@
       <c r="H1458" s="9"/>
       <c r="I1458"/>
       <c r="J1458" s="1" t="s">
-        <v>4420</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1459" spans="1:10" x14ac:dyDescent="0.2">
@@ -60289,7 +60444,7 @@
       <c r="H1459" s="9"/>
       <c r="I1459"/>
       <c r="J1459" s="1" t="s">
-        <v>4421</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1460" spans="1:10" x14ac:dyDescent="0.2">
@@ -60314,7 +60469,7 @@
       <c r="H1460" s="9"/>
       <c r="I1460"/>
       <c r="J1460" s="1" t="s">
-        <v>4422</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1461" spans="1:10" x14ac:dyDescent="0.2">
@@ -60339,7 +60494,7 @@
       <c r="H1461" s="9"/>
       <c r="I1461"/>
       <c r="J1461" s="1" t="s">
-        <v>4423</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.2">
@@ -60364,7 +60519,7 @@
       <c r="H1462" s="9"/>
       <c r="I1462"/>
       <c r="J1462" s="1" t="s">
-        <v>4424</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1463" spans="1:10" x14ac:dyDescent="0.2">
@@ -60389,7 +60544,7 @@
       <c r="H1463" s="9"/>
       <c r="I1463"/>
       <c r="J1463" s="1" t="s">
-        <v>4425</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.2">
@@ -60414,7 +60569,7 @@
       <c r="H1464" s="9"/>
       <c r="I1464"/>
       <c r="J1464" s="1" t="s">
-        <v>4426</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.2">
@@ -60439,7 +60594,7 @@
       <c r="H1465" s="9"/>
       <c r="I1465"/>
       <c r="J1465" s="1" t="s">
-        <v>1330</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.2">
@@ -60464,7 +60619,7 @@
       <c r="H1466" s="9"/>
       <c r="I1466"/>
       <c r="J1466" s="1" t="s">
-        <v>1334</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1467" spans="1:10" x14ac:dyDescent="0.2">
@@ -60489,7 +60644,7 @@
       <c r="H1467" s="9"/>
       <c r="I1467"/>
       <c r="J1467" s="1" t="s">
-        <v>1338</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.2">
@@ -60514,7 +60669,7 @@
       <c r="H1468" s="9"/>
       <c r="I1468"/>
       <c r="J1468" s="1" t="s">
-        <v>1341</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.2">
@@ -60539,7 +60694,7 @@
       <c r="H1469" s="9"/>
       <c r="I1469"/>
       <c r="J1469" s="1" t="s">
-        <v>1344</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1470" spans="1:10" x14ac:dyDescent="0.2">
@@ -60564,7 +60719,7 @@
       <c r="H1470" s="9"/>
       <c r="I1470"/>
       <c r="J1470" s="1" t="s">
-        <v>1347</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1471" spans="1:10" x14ac:dyDescent="0.2">
@@ -60589,7 +60744,7 @@
       <c r="H1471" s="9"/>
       <c r="I1471"/>
       <c r="J1471" s="1" t="s">
-        <v>1351</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1472" spans="1:10" x14ac:dyDescent="0.2">
@@ -60617,7 +60772,7 @@
       <c r="H1472" s="9"/>
       <c r="I1472"/>
       <c r="J1472" s="1" t="s">
-        <v>1354</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.2">
@@ -60642,7 +60797,7 @@
       <c r="H1473" s="9"/>
       <c r="I1473"/>
       <c r="J1473" s="1" t="s">
-        <v>1357</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1474" spans="1:10" x14ac:dyDescent="0.2">
@@ -60667,7 +60822,7 @@
       <c r="H1474" s="9"/>
       <c r="I1474"/>
       <c r="J1474" s="1" t="s">
-        <v>1360</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1475" spans="1:10" x14ac:dyDescent="0.2">
@@ -60695,7 +60850,7 @@
       <c r="H1475" s="9"/>
       <c r="I1475"/>
       <c r="J1475" s="1" t="s">
-        <v>1365</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1476" spans="1:10" x14ac:dyDescent="0.2">
@@ -60720,7 +60875,7 @@
       <c r="H1476" s="9"/>
       <c r="I1476"/>
       <c r="J1476" s="1" t="s">
-        <v>1368</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1477" spans="1:10" x14ac:dyDescent="0.2">
@@ -60745,7 +60900,7 @@
       <c r="H1477" s="9"/>
       <c r="I1477"/>
       <c r="J1477" s="1" t="s">
-        <v>1371</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.2">
@@ -60770,7 +60925,7 @@
       <c r="H1478" s="9"/>
       <c r="I1478"/>
       <c r="J1478" s="1" t="s">
-        <v>1375</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1479" spans="1:10" x14ac:dyDescent="0.2">
@@ -60795,7 +60950,7 @@
       <c r="H1479" s="9"/>
       <c r="I1479"/>
       <c r="J1479" s="1" t="s">
-        <v>1378</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.2">
@@ -60820,7 +60975,7 @@
       <c r="H1480" s="9"/>
       <c r="I1480"/>
       <c r="J1480" s="1" t="s">
-        <v>1381</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1481" spans="1:10" x14ac:dyDescent="0.2">
@@ -60845,7 +61000,7 @@
       <c r="H1481" s="9"/>
       <c r="I1481"/>
       <c r="J1481" s="1" t="s">
-        <v>442</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1482" spans="1:10" x14ac:dyDescent="0.2">
@@ -60870,7 +61025,7 @@
       <c r="H1482" s="9"/>
       <c r="I1482"/>
       <c r="J1482" s="1" t="s">
-        <v>1387</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1483" spans="1:10" x14ac:dyDescent="0.2">
@@ -60898,7 +61053,7 @@
       <c r="H1483" s="9"/>
       <c r="I1483"/>
       <c r="J1483" s="1" t="s">
-        <v>1391</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1484" spans="1:10" x14ac:dyDescent="0.2">
@@ -60923,7 +61078,7 @@
       <c r="H1484" s="9"/>
       <c r="I1484"/>
       <c r="J1484" s="1" t="s">
-        <v>1394</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1485" spans="1:10" x14ac:dyDescent="0.2">
@@ -60948,7 +61103,7 @@
       <c r="H1485" s="9"/>
       <c r="I1485"/>
       <c r="J1485" s="1" t="s">
-        <v>1396</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1486" spans="1:10" x14ac:dyDescent="0.2">
@@ -60973,7 +61128,7 @@
       <c r="H1486" s="9"/>
       <c r="I1486"/>
       <c r="J1486" s="1" t="s">
-        <v>1399</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1487" spans="1:10" x14ac:dyDescent="0.2">
@@ -60998,7 +61153,7 @@
       <c r="H1487" s="9"/>
       <c r="I1487"/>
       <c r="J1487" s="1" t="s">
-        <v>1402</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1488" spans="1:10" x14ac:dyDescent="0.2">
@@ -61023,7 +61178,7 @@
       <c r="H1488" s="9"/>
       <c r="I1488"/>
       <c r="J1488" s="1" t="s">
-        <v>1406</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1489" spans="1:10" x14ac:dyDescent="0.2">
@@ -61048,7 +61203,7 @@
       <c r="H1489" s="9"/>
       <c r="I1489"/>
       <c r="J1489" s="1" t="s">
-        <v>1410</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1490" spans="1:10" x14ac:dyDescent="0.2">
@@ -61073,7 +61228,7 @@
       <c r="H1490" s="9"/>
       <c r="I1490"/>
       <c r="J1490" s="1" t="s">
-        <v>1413</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1491" spans="1:10" x14ac:dyDescent="0.2">
@@ -61098,7 +61253,7 @@
       <c r="H1491" s="9"/>
       <c r="I1491"/>
       <c r="J1491" s="1" t="s">
-        <v>1417</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1492" spans="1:10" x14ac:dyDescent="0.2">
@@ -61123,7 +61278,7 @@
       <c r="H1492" s="9"/>
       <c r="I1492"/>
       <c r="J1492" s="1" t="s">
-        <v>1420</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1493" spans="1:10" x14ac:dyDescent="0.2">
@@ -61148,7 +61303,7 @@
       <c r="H1493" s="9"/>
       <c r="I1493"/>
       <c r="J1493" s="1" t="s">
-        <v>1423</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.2">
@@ -61173,7 +61328,7 @@
       <c r="H1494" s="9"/>
       <c r="I1494"/>
       <c r="J1494" s="1" t="s">
-        <v>62</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1495" spans="1:10" x14ac:dyDescent="0.2">
@@ -61198,7 +61353,7 @@
       <c r="H1495" s="9"/>
       <c r="I1495"/>
       <c r="J1495" s="1" t="s">
-        <v>1428</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1496" spans="1:10" x14ac:dyDescent="0.2">
@@ -61223,7 +61378,7 @@
       <c r="H1496" s="9"/>
       <c r="I1496"/>
       <c r="J1496" s="1" t="s">
-        <v>1432</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1497" spans="1:10" x14ac:dyDescent="0.2">
@@ -61248,7 +61403,7 @@
       <c r="H1497" s="9"/>
       <c r="I1497"/>
       <c r="J1497" s="1" t="s">
-        <v>1435</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1498" spans="1:10" x14ac:dyDescent="0.2">
@@ -61273,7 +61428,7 @@
       <c r="H1498" s="9"/>
       <c r="I1498"/>
       <c r="J1498" s="1" t="s">
-        <v>1438</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="1499" spans="1:10" x14ac:dyDescent="0.2">
@@ -61298,7 +61453,7 @@
       <c r="H1499" s="9"/>
       <c r="I1499"/>
       <c r="J1499" s="1" t="s">
-        <v>1442</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1500" spans="1:10" x14ac:dyDescent="0.2">
@@ -61323,7 +61478,7 @@
       <c r="H1500" s="9"/>
       <c r="I1500"/>
       <c r="J1500" s="1" t="s">
-        <v>1446</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="1501" spans="1:10" x14ac:dyDescent="0.2">
@@ -61348,7 +61503,7 @@
       <c r="H1501" s="9"/>
       <c r="I1501"/>
       <c r="J1501" s="1" t="s">
-        <v>4427</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1502" spans="1:10" x14ac:dyDescent="0.2">
@@ -61373,7 +61528,7 @@
       <c r="H1502" s="9"/>
       <c r="I1502"/>
       <c r="J1502" s="1" t="s">
-        <v>4428</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.2">
@@ -61398,7 +61553,7 @@
       <c r="H1503" s="9"/>
       <c r="I1503"/>
       <c r="J1503" s="1" t="s">
-        <v>4429</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1504" spans="1:10" x14ac:dyDescent="0.2">
@@ -61423,7 +61578,7 @@
       <c r="H1504" s="9"/>
       <c r="I1504"/>
       <c r="J1504" s="1" t="s">
-        <v>4430</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.2">
@@ -61448,7 +61603,7 @@
       <c r="H1505" s="9"/>
       <c r="I1505"/>
       <c r="J1505" s="1" t="s">
-        <v>4431</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1506" spans="1:10" x14ac:dyDescent="0.2">
@@ -61473,7 +61628,7 @@
       <c r="H1506" s="9"/>
       <c r="I1506"/>
       <c r="J1506" s="1" t="s">
-        <v>4432</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="1507" spans="1:10" x14ac:dyDescent="0.2">
@@ -61498,7 +61653,7 @@
       <c r="H1507" s="9"/>
       <c r="I1507"/>
       <c r="J1507" s="1" t="s">
-        <v>4433</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1508" spans="1:10" x14ac:dyDescent="0.2">
@@ -61523,7 +61678,7 @@
       <c r="H1508" s="9"/>
       <c r="I1508"/>
       <c r="J1508" s="1" t="s">
-        <v>4434</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1509" spans="1:10" x14ac:dyDescent="0.2">
@@ -61548,7 +61703,7 @@
       <c r="H1509" s="9"/>
       <c r="I1509"/>
       <c r="J1509" s="1" t="s">
-        <v>4435</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1510" spans="1:10" x14ac:dyDescent="0.2">
@@ -61573,7 +61728,7 @@
       <c r="H1510" s="9"/>
       <c r="I1510"/>
       <c r="J1510" s="1" t="s">
-        <v>4436</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1511" spans="1:10" x14ac:dyDescent="0.2">
@@ -61598,7 +61753,7 @@
       <c r="H1511" s="9"/>
       <c r="I1511"/>
       <c r="J1511" s="1" t="s">
-        <v>4437</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1512" spans="1:10" x14ac:dyDescent="0.2">
@@ -61623,7 +61778,7 @@
       <c r="H1512" s="9"/>
       <c r="I1512"/>
       <c r="J1512" s="1" t="s">
-        <v>4438</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1513" spans="1:10" x14ac:dyDescent="0.2">
@@ -61648,7 +61803,7 @@
       <c r="H1513" s="9"/>
       <c r="I1513"/>
       <c r="J1513" s="1" t="s">
-        <v>4439</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="1514" spans="1:10" x14ac:dyDescent="0.2">
@@ -61676,7 +61831,7 @@
       <c r="H1514" s="9"/>
       <c r="I1514"/>
       <c r="J1514" s="1" t="s">
-        <v>4440</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1515" spans="1:10" x14ac:dyDescent="0.2">
@@ -61701,7 +61856,7 @@
       <c r="H1515" s="9"/>
       <c r="I1515"/>
       <c r="J1515" s="1" t="s">
-        <v>4441</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1516" spans="1:10" x14ac:dyDescent="0.2">
@@ -61726,7 +61881,7 @@
       <c r="H1516" s="9"/>
       <c r="I1516"/>
       <c r="J1516" s="1" t="s">
-        <v>2991</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1517" spans="1:10" x14ac:dyDescent="0.2">
@@ -61751,7 +61906,7 @@
       <c r="H1517" s="9"/>
       <c r="I1517"/>
       <c r="J1517" s="1" t="s">
-        <v>4442</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="1518" spans="1:10" x14ac:dyDescent="0.2">
@@ -61776,7 +61931,7 @@
       <c r="H1518" s="9"/>
       <c r="I1518"/>
       <c r="J1518" s="1" t="s">
-        <v>4443</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1519" spans="1:10" x14ac:dyDescent="0.2">
@@ -61801,7 +61956,7 @@
       <c r="H1519" s="9"/>
       <c r="I1519"/>
       <c r="J1519" s="1" t="s">
-        <v>2942</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="1520" spans="1:10" x14ac:dyDescent="0.2">
@@ -61826,7 +61981,7 @@
       <c r="H1520" s="9"/>
       <c r="I1520"/>
       <c r="J1520" s="1" t="s">
-        <v>4444</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1521" spans="1:10" x14ac:dyDescent="0.2">
@@ -61854,7 +62009,7 @@
       <c r="H1521" s="9"/>
       <c r="I1521"/>
       <c r="J1521" s="1" t="s">
-        <v>4445</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1522" spans="1:10" x14ac:dyDescent="0.2">
@@ -61882,7 +62037,7 @@
       <c r="H1522" s="9"/>
       <c r="I1522"/>
       <c r="J1522" s="1" t="s">
-        <v>4427</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1523" spans="1:10" x14ac:dyDescent="0.2">
@@ -61910,7 +62065,7 @@
       <c r="H1523" s="9"/>
       <c r="I1523"/>
       <c r="J1523" s="1" t="s">
-        <v>1449</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="1524" spans="1:10" x14ac:dyDescent="0.2">
@@ -61938,7 +62093,7 @@
       <c r="H1524" s="9"/>
       <c r="I1524"/>
       <c r="J1524" s="1" t="s">
-        <v>1452</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1525" spans="1:10" x14ac:dyDescent="0.2">
@@ -61963,7 +62118,7 @@
       <c r="H1525" s="9"/>
       <c r="I1525"/>
       <c r="J1525" s="1" t="s">
-        <v>1456</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1526" spans="1:10" x14ac:dyDescent="0.2">
@@ -61988,7 +62143,7 @@
       <c r="H1526" s="9"/>
       <c r="I1526"/>
       <c r="J1526" s="1" t="s">
-        <v>1459</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1527" spans="1:10" x14ac:dyDescent="0.2">
@@ -62016,7 +62171,7 @@
       <c r="H1527" s="9"/>
       <c r="I1527"/>
       <c r="J1527" s="1" t="s">
-        <v>1462</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1528" spans="1:10" x14ac:dyDescent="0.2">
@@ -62041,7 +62196,7 @@
       <c r="H1528" s="9"/>
       <c r="I1528"/>
       <c r="J1528" s="1" t="s">
-        <v>1465</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1529" spans="1:10" x14ac:dyDescent="0.2">
@@ -62066,7 +62221,7 @@
       <c r="H1529" s="9"/>
       <c r="I1529"/>
       <c r="J1529" s="1" t="s">
-        <v>1469</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1530" spans="1:10" x14ac:dyDescent="0.2">
@@ -62091,7 +62246,7 @@
       <c r="H1530" s="9"/>
       <c r="I1530"/>
       <c r="J1530" s="1" t="s">
-        <v>591</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1531" spans="1:10" x14ac:dyDescent="0.2">
@@ -62116,7 +62271,7 @@
       <c r="H1531" s="9"/>
       <c r="I1531"/>
       <c r="J1531" s="1" t="s">
-        <v>1475</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1532" spans="1:10" x14ac:dyDescent="0.2">
@@ -62141,7 +62296,7 @@
       <c r="H1532" s="9"/>
       <c r="I1532"/>
       <c r="J1532" s="1" t="s">
-        <v>1478</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1533" spans="1:10" x14ac:dyDescent="0.2">
@@ -62166,7 +62321,7 @@
       <c r="H1533" s="9"/>
       <c r="I1533"/>
       <c r="J1533" s="1" t="s">
-        <v>1480</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1534" spans="1:10" x14ac:dyDescent="0.2">
@@ -62194,7 +62349,7 @@
       <c r="H1534" s="9"/>
       <c r="I1534"/>
       <c r="J1534" s="1" t="s">
-        <v>1484</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1535" spans="1:10" x14ac:dyDescent="0.2">
@@ -62219,7 +62374,7 @@
       <c r="H1535" s="9"/>
       <c r="I1535"/>
       <c r="J1535" s="1" t="s">
-        <v>1487</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1536" spans="1:10" x14ac:dyDescent="0.2">
@@ -62244,7 +62399,7 @@
       <c r="H1536" s="9"/>
       <c r="I1536"/>
       <c r="J1536" s="1" t="s">
-        <v>1491</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1537" spans="1:10" x14ac:dyDescent="0.2">
@@ -62272,7 +62427,7 @@
       <c r="H1537" s="9"/>
       <c r="I1537"/>
       <c r="J1537" s="1" t="s">
-        <v>1495</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1538" spans="1:10" x14ac:dyDescent="0.2">
@@ -62297,7 +62452,7 @@
       <c r="H1538" s="9"/>
       <c r="I1538"/>
       <c r="J1538" s="1" t="s">
-        <v>1498</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1539" spans="1:10" x14ac:dyDescent="0.2">
@@ -62322,7 +62477,7 @@
       <c r="H1539" s="9"/>
       <c r="I1539"/>
       <c r="J1539" s="1" t="s">
-        <v>1501</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1540" spans="1:10" x14ac:dyDescent="0.2">
@@ -62347,7 +62502,7 @@
       <c r="H1540" s="9"/>
       <c r="I1540"/>
       <c r="J1540" s="1" t="s">
-        <v>1504</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1541" spans="1:10" x14ac:dyDescent="0.2">
@@ -62372,7 +62527,7 @@
       <c r="H1541" s="9"/>
       <c r="I1541"/>
       <c r="J1541" s="1" t="s">
-        <v>1507</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1542" spans="1:10" x14ac:dyDescent="0.2">
@@ -62396,8 +62551,8 @@
       </c>
       <c r="H1542" s="9"/>
       <c r="I1542"/>
-      <c r="J1542" s="4" t="s">
-        <v>1297</v>
+      <c r="J1542" s="1" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="1543" spans="1:10" x14ac:dyDescent="0.2">
@@ -62422,7 +62577,7 @@
       <c r="H1543" s="9"/>
       <c r="I1543"/>
       <c r="J1543" s="1" t="s">
-        <v>1513</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1544" spans="1:10" x14ac:dyDescent="0.2">
@@ -62447,7 +62602,7 @@
       <c r="H1544" s="9"/>
       <c r="I1544"/>
       <c r="J1544" s="1" t="s">
-        <v>1517</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1545" spans="1:10" x14ac:dyDescent="0.2">
@@ -62472,7 +62627,7 @@
       <c r="H1545" s="9"/>
       <c r="I1545"/>
       <c r="J1545" s="1" t="s">
-        <v>1520</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1546" spans="1:10" x14ac:dyDescent="0.2">
@@ -62497,7 +62652,7 @@
       <c r="H1546" s="9"/>
       <c r="I1546"/>
       <c r="J1546" s="1" t="s">
-        <v>1524</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1547" spans="1:10" x14ac:dyDescent="0.2">
@@ -62522,7 +62677,7 @@
       <c r="H1547" s="9"/>
       <c r="I1547"/>
       <c r="J1547" s="1" t="s">
-        <v>1528</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1548" spans="1:10" x14ac:dyDescent="0.2">
@@ -62547,7 +62702,7 @@
       <c r="H1548" s="9"/>
       <c r="I1548"/>
       <c r="J1548" s="1" t="s">
-        <v>1532</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1549" spans="1:10" x14ac:dyDescent="0.2">
@@ -62572,7 +62727,7 @@
       <c r="H1549" s="9"/>
       <c r="I1549"/>
       <c r="J1549" s="1" t="s">
-        <v>1535</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1550" spans="1:10" x14ac:dyDescent="0.2">
@@ -62597,7 +62752,7 @@
       <c r="H1550" s="9"/>
       <c r="I1550"/>
       <c r="J1550" s="1" t="s">
-        <v>1538</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1551" spans="1:10" x14ac:dyDescent="0.2">
@@ -62622,7 +62777,7 @@
       <c r="H1551" s="9"/>
       <c r="I1551"/>
       <c r="J1551" s="1" t="s">
-        <v>1542</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1552" spans="1:10" x14ac:dyDescent="0.2">
@@ -62647,7 +62802,7 @@
       <c r="H1552" s="9"/>
       <c r="I1552"/>
       <c r="J1552" s="1" t="s">
-        <v>1546</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1553" spans="1:10" x14ac:dyDescent="0.2">
@@ -62672,7 +62827,7 @@
       <c r="H1553" s="9"/>
       <c r="I1553"/>
       <c r="J1553" s="1" t="s">
-        <v>1550</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1554" spans="1:10" x14ac:dyDescent="0.2">
@@ -62697,7 +62852,7 @@
       <c r="H1554" s="9"/>
       <c r="I1554"/>
       <c r="J1554" s="1" t="s">
-        <v>1553</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1555" spans="1:10" x14ac:dyDescent="0.2">
@@ -62722,7 +62877,7 @@
       <c r="H1555" s="9"/>
       <c r="I1555"/>
       <c r="J1555" s="1" t="s">
-        <v>1556</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1556" spans="1:10" x14ac:dyDescent="0.2">
@@ -62747,7 +62902,7 @@
       <c r="H1556" s="9"/>
       <c r="I1556"/>
       <c r="J1556" s="1" t="s">
-        <v>1560</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1557" spans="1:10" x14ac:dyDescent="0.2">
@@ -62772,7 +62927,7 @@
       <c r="H1557" s="9"/>
       <c r="I1557"/>
       <c r="J1557" s="1" t="s">
-        <v>1564</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1558" spans="1:10" x14ac:dyDescent="0.2">
@@ -62797,7 +62952,7 @@
       <c r="H1558" s="9"/>
       <c r="I1558"/>
       <c r="J1558" s="1" t="s">
-        <v>1567</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1559" spans="1:10" x14ac:dyDescent="0.2">
@@ -62822,7 +62977,7 @@
       <c r="H1559" s="9"/>
       <c r="I1559"/>
       <c r="J1559" s="1" t="s">
-        <v>1570</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1560" spans="1:10" x14ac:dyDescent="0.2">
@@ -62847,7 +63002,7 @@
       <c r="H1560" s="9"/>
       <c r="I1560"/>
       <c r="J1560" s="1" t="s">
-        <v>1573</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1561" spans="1:10" x14ac:dyDescent="0.2">
@@ -62872,7 +63027,7 @@
       <c r="H1561" s="9"/>
       <c r="I1561"/>
       <c r="J1561" s="1" t="s">
-        <v>1577</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1562" spans="1:10" x14ac:dyDescent="0.2">
@@ -62897,7 +63052,7 @@
       <c r="H1562" s="9"/>
       <c r="I1562"/>
       <c r="J1562" s="1" t="s">
-        <v>1581</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1563" spans="1:10" x14ac:dyDescent="0.2">
@@ -62922,7 +63077,7 @@
       <c r="H1563" s="9"/>
       <c r="I1563"/>
       <c r="J1563" s="1" t="s">
-        <v>1585</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1564" spans="1:10" x14ac:dyDescent="0.2">
@@ -62947,7 +63102,7 @@
       <c r="H1564" s="9"/>
       <c r="I1564"/>
       <c r="J1564" s="1" t="s">
-        <v>4446</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1565" spans="1:10" x14ac:dyDescent="0.2">
@@ -62972,7 +63127,7 @@
       <c r="H1565" s="9"/>
       <c r="I1565"/>
       <c r="J1565" s="1" t="s">
-        <v>1804</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1566" spans="1:10" x14ac:dyDescent="0.2">
@@ -62997,7 +63152,7 @@
       <c r="H1566" s="9"/>
       <c r="I1566"/>
       <c r="J1566" s="1" t="s">
-        <v>3062</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1567" spans="1:10" x14ac:dyDescent="0.2">
@@ -63022,7 +63177,7 @@
       <c r="H1567" s="9"/>
       <c r="I1567"/>
       <c r="J1567" s="1" t="s">
-        <v>4447</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1568" spans="1:10" x14ac:dyDescent="0.2">
@@ -63047,7 +63202,7 @@
       <c r="H1568" s="9"/>
       <c r="I1568"/>
       <c r="J1568" s="1" t="s">
-        <v>4448</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1569" spans="1:10" x14ac:dyDescent="0.2">
@@ -63072,7 +63227,7 @@
       <c r="H1569" s="9"/>
       <c r="I1569"/>
       <c r="J1569" s="1" t="s">
-        <v>4449</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1570" spans="1:10" x14ac:dyDescent="0.2">
@@ -63097,7 +63252,7 @@
       <c r="H1570" s="9"/>
       <c r="I1570"/>
       <c r="J1570" s="1" t="s">
-        <v>4450</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1571" spans="1:10" x14ac:dyDescent="0.2">
@@ -63122,7 +63277,7 @@
       <c r="H1571" s="9"/>
       <c r="I1571"/>
       <c r="J1571" s="1" t="s">
-        <v>4451</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1572" spans="1:10" x14ac:dyDescent="0.2">
@@ -63147,7 +63302,7 @@
       <c r="H1572" s="9"/>
       <c r="I1572"/>
       <c r="J1572" s="1" t="s">
-        <v>4452</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1573" spans="1:10" x14ac:dyDescent="0.2">
@@ -63172,7 +63327,7 @@
       <c r="H1573" s="9"/>
       <c r="I1573"/>
       <c r="J1573" s="1" t="s">
-        <v>4453</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1574" spans="1:10" x14ac:dyDescent="0.2">
@@ -63197,7 +63352,7 @@
       <c r="H1574" s="9"/>
       <c r="I1574"/>
       <c r="J1574" s="1" t="s">
-        <v>4454</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="1575" spans="1:10" x14ac:dyDescent="0.2">
@@ -63222,7 +63377,7 @@
       <c r="H1575" s="9"/>
       <c r="I1575"/>
       <c r="J1575" s="1" t="s">
-        <v>4455</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1576" spans="1:10" x14ac:dyDescent="0.2">
@@ -63247,7 +63402,7 @@
       <c r="H1576" s="9"/>
       <c r="I1576"/>
       <c r="J1576" s="1" t="s">
-        <v>4456</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1577" spans="1:10" x14ac:dyDescent="0.2">
@@ -63272,7 +63427,7 @@
       <c r="H1577" s="9"/>
       <c r="I1577"/>
       <c r="J1577" s="1" t="s">
-        <v>3037</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1578" spans="1:10" x14ac:dyDescent="0.2">
@@ -63297,7 +63452,7 @@
       <c r="H1578" s="9"/>
       <c r="I1578"/>
       <c r="J1578" s="1" t="s">
-        <v>4457</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1579" spans="1:10" x14ac:dyDescent="0.2">
@@ -63322,7 +63477,7 @@
       <c r="H1579" s="9"/>
       <c r="I1579"/>
       <c r="J1579" s="1" t="s">
-        <v>4458</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1580" spans="1:10" x14ac:dyDescent="0.2">
@@ -63347,7 +63502,7 @@
       <c r="H1580" s="9"/>
       <c r="I1580"/>
       <c r="J1580" s="1" t="s">
-        <v>4459</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1581" spans="1:10" x14ac:dyDescent="0.2">
@@ -63372,7 +63527,7 @@
       <c r="H1581" s="9"/>
       <c r="I1581"/>
       <c r="J1581" s="1" t="s">
-        <v>4460</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1582" spans="1:10" x14ac:dyDescent="0.2">
@@ -63400,7 +63555,7 @@
       <c r="H1582" s="9"/>
       <c r="I1582"/>
       <c r="J1582" s="1" t="s">
-        <v>4446</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1583" spans="1:10" x14ac:dyDescent="0.2">
@@ -63425,7 +63580,7 @@
       <c r="H1583" s="9"/>
       <c r="I1583"/>
       <c r="J1583" s="1" t="s">
-        <v>1589</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1584" spans="1:10" x14ac:dyDescent="0.2">
@@ -63450,7 +63605,7 @@
       <c r="H1584" s="9"/>
       <c r="I1584"/>
       <c r="J1584" s="1" t="s">
-        <v>1592</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1585" spans="1:10" x14ac:dyDescent="0.2">
@@ -63478,7 +63633,7 @@
       <c r="H1585" s="9"/>
       <c r="I1585"/>
       <c r="J1585" s="1" t="s">
-        <v>1596</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1586" spans="1:10" x14ac:dyDescent="0.2">
@@ -63503,7 +63658,7 @@
       <c r="H1586" s="9"/>
       <c r="I1586"/>
       <c r="J1586" s="1" t="s">
-        <v>1600</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1587" spans="1:10" x14ac:dyDescent="0.2">
@@ -63528,7 +63683,7 @@
       <c r="H1587" s="9"/>
       <c r="I1587"/>
       <c r="J1587" s="1" t="s">
-        <v>1603</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1588" spans="1:10" x14ac:dyDescent="0.2">
@@ -63556,7 +63711,7 @@
       <c r="H1588" s="9"/>
       <c r="I1588"/>
       <c r="J1588" s="1" t="s">
-        <v>1606</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1589" spans="1:10" x14ac:dyDescent="0.2">
@@ -63584,7 +63739,7 @@
       <c r="H1589" s="9"/>
       <c r="I1589"/>
       <c r="J1589" s="1" t="s">
-        <v>1609</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1590" spans="1:10" x14ac:dyDescent="0.2">
@@ -63609,7 +63764,7 @@
       <c r="H1590" s="9"/>
       <c r="I1590"/>
       <c r="J1590" s="1" t="s">
-        <v>1611</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1591" spans="1:10" x14ac:dyDescent="0.2">
@@ -63637,7 +63792,7 @@
       <c r="H1591" s="9"/>
       <c r="I1591"/>
       <c r="J1591" s="1" t="s">
-        <v>1614</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1592" spans="1:10" x14ac:dyDescent="0.2">
@@ -63662,7 +63817,7 @@
       <c r="H1592" s="9"/>
       <c r="I1592"/>
       <c r="J1592" s="1" t="s">
-        <v>1618</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1593" spans="1:10" x14ac:dyDescent="0.2">
@@ -63687,7 +63842,7 @@
       <c r="H1593" s="9"/>
       <c r="I1593"/>
       <c r="J1593" s="1" t="s">
-        <v>1621</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1594" spans="1:10" x14ac:dyDescent="0.2">
@@ -63712,7 +63867,7 @@
       <c r="H1594" s="9"/>
       <c r="I1594"/>
       <c r="J1594" s="1" t="s">
-        <v>1624</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1595" spans="1:10" x14ac:dyDescent="0.2">
@@ -63737,7 +63892,7 @@
       <c r="H1595" s="9"/>
       <c r="I1595"/>
       <c r="J1595" s="1" t="s">
-        <v>1628</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1596" spans="1:10" x14ac:dyDescent="0.2">
@@ -63762,7 +63917,7 @@
       <c r="H1596" s="9"/>
       <c r="I1596"/>
       <c r="J1596" s="1" t="s">
-        <v>1632</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1597" spans="1:10" x14ac:dyDescent="0.2">
@@ -63787,7 +63942,7 @@
       <c r="H1597" s="9"/>
       <c r="I1597"/>
       <c r="J1597" s="1" t="s">
-        <v>1636</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1598" spans="1:10" x14ac:dyDescent="0.2">
@@ -63812,7 +63967,7 @@
       <c r="H1598" s="9"/>
       <c r="I1598"/>
       <c r="J1598" s="1" t="s">
-        <v>1639</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1599" spans="1:10" x14ac:dyDescent="0.2">
@@ -63837,7 +63992,7 @@
       <c r="H1599" s="9"/>
       <c r="I1599"/>
       <c r="J1599" s="1" t="s">
-        <v>1642</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1600" spans="1:10" x14ac:dyDescent="0.2">
@@ -63862,7 +64017,7 @@
       <c r="H1600" s="9"/>
       <c r="I1600"/>
       <c r="J1600" s="1" t="s">
-        <v>1646</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1601" spans="1:10" x14ac:dyDescent="0.2">
@@ -63887,7 +64042,7 @@
       <c r="H1601" s="9"/>
       <c r="I1601"/>
       <c r="J1601" s="1" t="s">
-        <v>1122</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1602" spans="1:10" x14ac:dyDescent="0.2">
@@ -63911,8 +64066,8 @@
       </c>
       <c r="H1602" s="9"/>
       <c r="I1602"/>
-      <c r="J1602" s="1" t="s">
-        <v>1652</v>
+      <c r="J1602" s="4" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1603" spans="1:10" x14ac:dyDescent="0.2">
@@ -63937,7 +64092,7 @@
       <c r="H1603" s="9"/>
       <c r="I1603"/>
       <c r="J1603" s="1" t="s">
-        <v>1655</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1604" spans="1:10" x14ac:dyDescent="0.2">
@@ -63962,7 +64117,7 @@
       <c r="H1604" s="9"/>
       <c r="I1604"/>
       <c r="J1604" s="1" t="s">
-        <v>1658</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1605" spans="1:10" x14ac:dyDescent="0.2">
@@ -63987,7 +64142,7 @@
       <c r="H1605" s="9"/>
       <c r="I1605"/>
       <c r="J1605" s="1" t="s">
-        <v>1661</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1606" spans="1:10" x14ac:dyDescent="0.2">
@@ -64015,7 +64170,7 @@
       <c r="H1606" s="9"/>
       <c r="I1606"/>
       <c r="J1606" s="1" t="s">
-        <v>1664</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1607" spans="1:10" x14ac:dyDescent="0.2">
@@ -64040,7 +64195,7 @@
       <c r="H1607" s="9"/>
       <c r="I1607"/>
       <c r="J1607" s="1" t="s">
-        <v>1667</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1608" spans="1:10" x14ac:dyDescent="0.2">
@@ -64065,7 +64220,7 @@
       <c r="H1608" s="9"/>
       <c r="I1608"/>
       <c r="J1608" s="1" t="s">
-        <v>1670</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1609" spans="1:10" x14ac:dyDescent="0.2">
@@ -64090,7 +64245,7 @@
       <c r="H1609" s="9"/>
       <c r="I1609"/>
       <c r="J1609" s="1" t="s">
-        <v>1673</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1610" spans="1:10" x14ac:dyDescent="0.2">
@@ -64115,7 +64270,7 @@
       <c r="H1610" s="9"/>
       <c r="I1610"/>
       <c r="J1610" s="1" t="s">
-        <v>1677</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1611" spans="1:10" x14ac:dyDescent="0.2">
@@ -64140,7 +64295,7 @@
       <c r="H1611" s="9"/>
       <c r="I1611"/>
       <c r="J1611" s="1" t="s">
-        <v>445</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1612" spans="1:10" x14ac:dyDescent="0.2">
@@ -64165,7 +64320,7 @@
       <c r="H1612" s="9"/>
       <c r="I1612"/>
       <c r="J1612" s="1" t="s">
-        <v>1682</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1613" spans="1:10" x14ac:dyDescent="0.2">
@@ -64190,7 +64345,7 @@
       <c r="H1613" s="9"/>
       <c r="I1613"/>
       <c r="J1613" s="1" t="s">
-        <v>1685</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1614" spans="1:10" x14ac:dyDescent="0.2">
@@ -64215,7 +64370,7 @@
       <c r="H1614" s="9"/>
       <c r="I1614"/>
       <c r="J1614" s="1" t="s">
-        <v>1688</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1615" spans="1:10" x14ac:dyDescent="0.2">
@@ -64240,7 +64395,7 @@
       <c r="H1615" s="9"/>
       <c r="I1615"/>
       <c r="J1615" s="1" t="s">
-        <v>1691</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1616" spans="1:10" x14ac:dyDescent="0.2">
@@ -64268,7 +64423,7 @@
       <c r="H1616" s="9"/>
       <c r="I1616"/>
       <c r="J1616" s="1" t="s">
-        <v>1694</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1617" spans="1:10" x14ac:dyDescent="0.2">
@@ -64293,7 +64448,7 @@
       <c r="H1617" s="9"/>
       <c r="I1617"/>
       <c r="J1617" s="1" t="s">
-        <v>1697</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1618" spans="1:10" x14ac:dyDescent="0.2">
@@ -64318,7 +64473,7 @@
       <c r="H1618" s="9"/>
       <c r="I1618"/>
       <c r="J1618" s="1" t="s">
-        <v>1700</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1619" spans="1:10" x14ac:dyDescent="0.2">
@@ -64343,7 +64498,7 @@
       <c r="H1619" s="9"/>
       <c r="I1619"/>
       <c r="J1619" s="1" t="s">
-        <v>1704</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1620" spans="1:10" x14ac:dyDescent="0.2">
@@ -64368,7 +64523,7 @@
       <c r="H1620" s="9"/>
       <c r="I1620"/>
       <c r="J1620" s="1" t="s">
-        <v>1708</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1621" spans="1:10" x14ac:dyDescent="0.2">
@@ -64393,7 +64548,7 @@
       <c r="H1621" s="9"/>
       <c r="I1621"/>
       <c r="J1621" s="1" t="s">
-        <v>1711</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1622" spans="1:10" x14ac:dyDescent="0.2">
@@ -64418,7 +64573,7 @@
       <c r="H1622" s="9"/>
       <c r="I1622"/>
       <c r="J1622" s="1" t="s">
-        <v>1714</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1623" spans="1:10" x14ac:dyDescent="0.2">
@@ -64443,7 +64598,7 @@
       <c r="H1623" s="9"/>
       <c r="I1623"/>
       <c r="J1623" s="1" t="s">
-        <v>4461</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1624" spans="1:10" x14ac:dyDescent="0.2">
@@ -64468,7 +64623,7 @@
       <c r="H1624" s="9"/>
       <c r="I1624"/>
       <c r="J1624" s="1" t="s">
-        <v>3247</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1625" spans="1:10" x14ac:dyDescent="0.2">
@@ -64493,7 +64648,7 @@
       <c r="H1625" s="9"/>
       <c r="I1625"/>
       <c r="J1625" s="1" t="s">
-        <v>4462</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1626" spans="1:10" x14ac:dyDescent="0.2">
@@ -64518,7 +64673,7 @@
       <c r="H1626" s="9"/>
       <c r="I1626"/>
       <c r="J1626" s="1" t="s">
-        <v>4463</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1627" spans="1:10" x14ac:dyDescent="0.2">
@@ -64543,7 +64698,7 @@
       <c r="H1627" s="9"/>
       <c r="I1627"/>
       <c r="J1627" s="1" t="s">
-        <v>4464</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1628" spans="1:10" x14ac:dyDescent="0.2">
@@ -64568,7 +64723,7 @@
       <c r="H1628" s="9"/>
       <c r="I1628"/>
       <c r="J1628" s="1" t="s">
-        <v>4465</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1629" spans="1:10" x14ac:dyDescent="0.2">
@@ -64593,7 +64748,7 @@
       <c r="H1629" s="9"/>
       <c r="I1629"/>
       <c r="J1629" s="1" t="s">
-        <v>4466</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1630" spans="1:10" x14ac:dyDescent="0.2">
@@ -64618,7 +64773,7 @@
       <c r="H1630" s="9"/>
       <c r="I1630"/>
       <c r="J1630" s="1" t="s">
-        <v>3169</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1631" spans="1:10" x14ac:dyDescent="0.2">
@@ -64643,7 +64798,7 @@
       <c r="H1631" s="9"/>
       <c r="I1631"/>
       <c r="J1631" s="1" t="s">
-        <v>4467</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1632" spans="1:10" x14ac:dyDescent="0.2">
@@ -64668,7 +64823,7 @@
       <c r="H1632" s="9"/>
       <c r="I1632"/>
       <c r="J1632" s="1" t="s">
-        <v>4468</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1633" spans="1:10" x14ac:dyDescent="0.2">
@@ -64693,7 +64848,7 @@
       <c r="H1633" s="9"/>
       <c r="I1633"/>
       <c r="J1633" s="1" t="s">
-        <v>4469</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1634" spans="1:10" x14ac:dyDescent="0.2">
@@ -64718,7 +64873,7 @@
       <c r="H1634" s="9"/>
       <c r="I1634"/>
       <c r="J1634" s="1" t="s">
-        <v>4470</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1635" spans="1:10" x14ac:dyDescent="0.2">
@@ -64743,7 +64898,7 @@
       <c r="H1635" s="9"/>
       <c r="I1635"/>
       <c r="J1635" s="1" t="s">
-        <v>4471</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1636" spans="1:10" x14ac:dyDescent="0.2">
@@ -64768,7 +64923,7 @@
       <c r="H1636" s="9"/>
       <c r="I1636"/>
       <c r="J1636" s="1" t="s">
-        <v>4472</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1637" spans="1:10" x14ac:dyDescent="0.2">
@@ -64793,7 +64948,7 @@
       <c r="H1637" s="9"/>
       <c r="I1637"/>
       <c r="J1637" s="1" t="s">
-        <v>4473</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1638" spans="1:10" x14ac:dyDescent="0.2">
@@ -64818,7 +64973,7 @@
       <c r="H1638" s="9"/>
       <c r="I1638"/>
       <c r="J1638" s="1" t="s">
-        <v>1718</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1639" spans="1:10" x14ac:dyDescent="0.2">
@@ -64843,7 +64998,7 @@
       <c r="H1639" s="9"/>
       <c r="I1639"/>
       <c r="J1639" s="1" t="s">
-        <v>1722</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1640" spans="1:10" x14ac:dyDescent="0.2">
@@ -64868,7 +65023,7 @@
       <c r="H1640" s="9"/>
       <c r="I1640"/>
       <c r="J1640" s="1" t="s">
-        <v>1725</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1641" spans="1:10" x14ac:dyDescent="0.2">
@@ -64893,7 +65048,7 @@
       <c r="H1641" s="9"/>
       <c r="I1641"/>
       <c r="J1641" s="1" t="s">
-        <v>1729</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1642" spans="1:10" x14ac:dyDescent="0.2">
@@ -64918,7 +65073,7 @@
       <c r="H1642" s="9"/>
       <c r="I1642"/>
       <c r="J1642" s="1" t="s">
-        <v>1732</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1643" spans="1:10" x14ac:dyDescent="0.2">
@@ -64943,7 +65098,7 @@
       <c r="H1643" s="9"/>
       <c r="I1643"/>
       <c r="J1643" s="1" t="s">
-        <v>1737</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1644" spans="1:10" x14ac:dyDescent="0.2">
@@ -64968,7 +65123,7 @@
       <c r="H1644" s="9"/>
       <c r="I1644"/>
       <c r="J1644" s="1" t="s">
-        <v>1740</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1645" spans="1:10" x14ac:dyDescent="0.2">
@@ -64993,7 +65148,7 @@
       <c r="H1645" s="9"/>
       <c r="I1645"/>
       <c r="J1645" s="1" t="s">
-        <v>1743</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1646" spans="1:10" x14ac:dyDescent="0.2">
@@ -65018,7 +65173,7 @@
       <c r="H1646" s="9"/>
       <c r="I1646"/>
       <c r="J1646" s="1" t="s">
-        <v>1747</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1647" spans="1:10" x14ac:dyDescent="0.2">
@@ -65043,7 +65198,7 @@
       <c r="H1647" s="9"/>
       <c r="I1647"/>
       <c r="J1647" s="1" t="s">
-        <v>1750</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1648" spans="1:10" x14ac:dyDescent="0.2">
@@ -65068,7 +65223,7 @@
       <c r="H1648" s="9"/>
       <c r="I1648"/>
       <c r="J1648" s="1" t="s">
-        <v>1754</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1649" spans="1:10" x14ac:dyDescent="0.2">
@@ -65096,7 +65251,7 @@
       <c r="H1649" s="9"/>
       <c r="I1649"/>
       <c r="J1649" s="1" t="s">
-        <v>1757</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1650" spans="1:10" x14ac:dyDescent="0.2">
@@ -65121,7 +65276,7 @@
       <c r="H1650" s="9"/>
       <c r="I1650"/>
       <c r="J1650" s="1" t="s">
-        <v>1760</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1651" spans="1:10" x14ac:dyDescent="0.2">
@@ -65146,7 +65301,7 @@
       <c r="H1651" s="9"/>
       <c r="I1651"/>
       <c r="J1651" s="1" t="s">
-        <v>1763</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1652" spans="1:10" x14ac:dyDescent="0.2">
@@ -65171,7 +65326,7 @@
       <c r="H1652" s="9"/>
       <c r="I1652"/>
       <c r="J1652" s="1" t="s">
-        <v>1766</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1653" spans="1:10" x14ac:dyDescent="0.2">
@@ -65199,7 +65354,7 @@
       <c r="H1653" s="9"/>
       <c r="I1653"/>
       <c r="J1653" s="1" t="s">
-        <v>1769</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1654" spans="1:10" x14ac:dyDescent="0.2">
@@ -65224,7 +65379,7 @@
       <c r="H1654" s="9"/>
       <c r="I1654"/>
       <c r="J1654" s="1" t="s">
-        <v>1772</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1655" spans="1:10" x14ac:dyDescent="0.2">
@@ -65249,7 +65404,7 @@
       <c r="H1655" s="9"/>
       <c r="I1655"/>
       <c r="J1655" s="1" t="s">
-        <v>1775</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1656" spans="1:10" x14ac:dyDescent="0.2">
@@ -65277,7 +65432,7 @@
       <c r="H1656" s="9"/>
       <c r="I1656"/>
       <c r="J1656" s="1" t="s">
-        <v>1778</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1657" spans="1:10" x14ac:dyDescent="0.2">
@@ -65302,7 +65457,7 @@
       <c r="H1657" s="9"/>
       <c r="I1657"/>
       <c r="J1657" s="1" t="s">
-        <v>1782</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1658" spans="1:10" x14ac:dyDescent="0.2">
@@ -65327,7 +65482,7 @@
       <c r="H1658" s="9"/>
       <c r="I1658"/>
       <c r="J1658" s="1" t="s">
-        <v>1784</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1659" spans="1:10" x14ac:dyDescent="0.2">
@@ -65352,7 +65507,7 @@
       <c r="H1659" s="9"/>
       <c r="I1659"/>
       <c r="J1659" s="1" t="s">
-        <v>1787</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1660" spans="1:10" x14ac:dyDescent="0.2">
@@ -65377,7 +65532,7 @@
       <c r="H1660" s="9"/>
       <c r="I1660"/>
       <c r="J1660" s="1" t="s">
-        <v>1791</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1661" spans="1:10" x14ac:dyDescent="0.2">
@@ -65402,7 +65557,7 @@
       <c r="H1661" s="9"/>
       <c r="I1661"/>
       <c r="J1661" s="1" t="s">
-        <v>1795</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1662" spans="1:10" x14ac:dyDescent="0.2">
@@ -65427,7 +65582,7 @@
       <c r="H1662" s="9"/>
       <c r="I1662"/>
       <c r="J1662" s="1" t="s">
-        <v>1797</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1663" spans="1:10" x14ac:dyDescent="0.2">
@@ -65452,7 +65607,7 @@
       <c r="H1663" s="9"/>
       <c r="I1663"/>
       <c r="J1663" s="1" t="s">
-        <v>1799</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1664" spans="1:10" x14ac:dyDescent="0.2">
@@ -65477,7 +65632,7 @@
       <c r="H1664" s="9"/>
       <c r="I1664"/>
       <c r="J1664" s="1" t="s">
-        <v>1803</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1665" spans="1:10" x14ac:dyDescent="0.2">
@@ -65502,7 +65657,7 @@
       <c r="H1665" s="9"/>
       <c r="I1665"/>
       <c r="J1665" s="1" t="s">
-        <v>1807</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1666" spans="1:10" x14ac:dyDescent="0.2">
@@ -65527,7 +65682,7 @@
       <c r="H1666" s="9"/>
       <c r="I1666"/>
       <c r="J1666" s="1" t="s">
-        <v>1810</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1667" spans="1:10" x14ac:dyDescent="0.2">
@@ -65555,7 +65710,7 @@
       <c r="H1667" s="9"/>
       <c r="I1667"/>
       <c r="J1667" s="1" t="s">
-        <v>1813</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1668" spans="1:10" x14ac:dyDescent="0.2">
@@ -65580,7 +65735,7 @@
       <c r="H1668" s="9"/>
       <c r="I1668"/>
       <c r="J1668" s="1" t="s">
-        <v>1816</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1669" spans="1:10" x14ac:dyDescent="0.2">
@@ -65605,7 +65760,7 @@
       <c r="H1669" s="9"/>
       <c r="I1669"/>
       <c r="J1669" s="1" t="s">
-        <v>1821</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1670" spans="1:10" x14ac:dyDescent="0.2">
@@ -65630,7 +65785,7 @@
       <c r="H1670" s="9"/>
       <c r="I1670"/>
       <c r="J1670" s="1" t="s">
-        <v>1824</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1671" spans="1:10" x14ac:dyDescent="0.2">
@@ -65655,7 +65810,7 @@
       <c r="H1671" s="9"/>
       <c r="I1671"/>
       <c r="J1671" s="1" t="s">
-        <v>1828</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1672" spans="1:10" x14ac:dyDescent="0.2">
@@ -65680,7 +65835,7 @@
       <c r="H1672" s="9"/>
       <c r="I1672"/>
       <c r="J1672" s="1" t="s">
-        <v>1832</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1673" spans="1:10" x14ac:dyDescent="0.2">
@@ -65705,7 +65860,7 @@
       <c r="H1673" s="9"/>
       <c r="I1673"/>
       <c r="J1673" s="1" t="s">
-        <v>1836</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1674" spans="1:10" x14ac:dyDescent="0.2">
@@ -65730,7 +65885,7 @@
       <c r="H1674" s="9"/>
       <c r="I1674"/>
       <c r="J1674" s="1" t="s">
-        <v>1840</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1675" spans="1:10" x14ac:dyDescent="0.2">
@@ -65755,7 +65910,7 @@
       <c r="H1675" s="9"/>
       <c r="I1675"/>
       <c r="J1675" s="1" t="s">
-        <v>1843</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1676" spans="1:10" x14ac:dyDescent="0.2">
@@ -65780,7 +65935,7 @@
       <c r="H1676" s="9"/>
       <c r="I1676"/>
       <c r="J1676" s="1" t="s">
-        <v>1846</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1677" spans="1:10" x14ac:dyDescent="0.2">
@@ -65808,7 +65963,7 @@
       <c r="H1677" s="9"/>
       <c r="I1677"/>
       <c r="J1677" s="1" t="s">
-        <v>1850</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1678" spans="1:10" x14ac:dyDescent="0.2">
@@ -65836,7 +65991,7 @@
       <c r="H1678" s="9"/>
       <c r="I1678"/>
       <c r="J1678" s="1" t="s">
-        <v>1853</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1679" spans="1:10" x14ac:dyDescent="0.2">
@@ -65861,7 +66016,7 @@
       <c r="H1679" s="9"/>
       <c r="I1679"/>
       <c r="J1679" s="1" t="s">
-        <v>1856</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1680" spans="1:10" x14ac:dyDescent="0.2">
@@ -65889,7 +66044,7 @@
       <c r="H1680" s="9"/>
       <c r="I1680"/>
       <c r="J1680" s="1" t="s">
-        <v>1859</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1681" spans="1:10" x14ac:dyDescent="0.2">
@@ -65914,7 +66069,7 @@
       <c r="H1681" s="9"/>
       <c r="I1681"/>
       <c r="J1681" s="1" t="s">
-        <v>4474</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1682" spans="1:10" x14ac:dyDescent="0.2">
@@ -65939,7 +66094,7 @@
       <c r="H1682" s="9"/>
       <c r="I1682"/>
       <c r="J1682" s="1" t="s">
-        <v>4475</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1683" spans="1:10" x14ac:dyDescent="0.2">
@@ -65964,7 +66119,7 @@
       <c r="H1683" s="9"/>
       <c r="I1683"/>
       <c r="J1683" s="1" t="s">
-        <v>4476</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1684" spans="1:10" x14ac:dyDescent="0.2">
@@ -65989,7 +66144,7 @@
       <c r="H1684" s="9"/>
       <c r="I1684"/>
       <c r="J1684" s="1" t="s">
-        <v>3348</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1685" spans="1:10" x14ac:dyDescent="0.2">
@@ -66014,7 +66169,7 @@
       <c r="H1685" s="9"/>
       <c r="I1685"/>
       <c r="J1685" s="1" t="s">
-        <v>4477</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1686" spans="1:10" x14ac:dyDescent="0.2">
@@ -66039,7 +66194,7 @@
       <c r="H1686" s="9"/>
       <c r="I1686"/>
       <c r="J1686" s="1" t="s">
-        <v>4299</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1687" spans="1:10" x14ac:dyDescent="0.2">
@@ -66064,7 +66219,7 @@
       <c r="H1687" s="9"/>
       <c r="I1687"/>
       <c r="J1687" s="1" t="s">
-        <v>4478</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1688" spans="1:10" x14ac:dyDescent="0.2">
@@ -66089,7 +66244,7 @@
       <c r="H1688" s="9"/>
       <c r="I1688"/>
       <c r="J1688" s="1" t="s">
-        <v>4479</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1689" spans="1:10" x14ac:dyDescent="0.2">
@@ -66114,7 +66269,7 @@
       <c r="H1689" s="9"/>
       <c r="I1689"/>
       <c r="J1689" s="1" t="s">
-        <v>4474</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1690" spans="1:10" x14ac:dyDescent="0.2">
@@ -66139,7 +66294,7 @@
       <c r="H1690" s="9"/>
       <c r="I1690"/>
       <c r="J1690" s="1" t="s">
-        <v>4475</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1691" spans="1:10" x14ac:dyDescent="0.2">
@@ -66164,7 +66319,7 @@
       <c r="H1691" s="9"/>
       <c r="I1691"/>
       <c r="J1691" s="1" t="s">
-        <v>1862</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="1692" spans="1:10" x14ac:dyDescent="0.2">
@@ -66189,7 +66344,7 @@
       <c r="H1692" s="9"/>
       <c r="I1692"/>
       <c r="J1692" s="1" t="s">
-        <v>1865</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1693" spans="1:10" x14ac:dyDescent="0.2">
@@ -66214,7 +66369,7 @@
       <c r="H1693" s="9"/>
       <c r="I1693"/>
       <c r="J1693" s="1" t="s">
-        <v>402</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1694" spans="1:10" x14ac:dyDescent="0.2">
@@ -66239,7 +66394,7 @@
       <c r="H1694" s="9"/>
       <c r="I1694"/>
       <c r="J1694" s="1" t="s">
-        <v>107</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1695" spans="1:10" x14ac:dyDescent="0.2">
@@ -66264,7 +66419,7 @@
       <c r="H1695" s="9"/>
       <c r="I1695"/>
       <c r="J1695" s="1" t="s">
-        <v>1873</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1696" spans="1:10" x14ac:dyDescent="0.2">
@@ -66289,7 +66444,7 @@
       <c r="H1696" s="9"/>
       <c r="I1696"/>
       <c r="J1696" s="1" t="s">
-        <v>1876</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1697" spans="1:10" x14ac:dyDescent="0.2">
@@ -66314,7 +66469,7 @@
       <c r="H1697" s="9"/>
       <c r="I1697"/>
       <c r="J1697" s="1" t="s">
-        <v>1879</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="1698" spans="1:10" x14ac:dyDescent="0.2">
@@ -66339,7 +66494,7 @@
       <c r="H1698" s="9"/>
       <c r="I1698"/>
       <c r="J1698" s="1" t="s">
-        <v>1883</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1699" spans="1:10" x14ac:dyDescent="0.2">
@@ -66364,7 +66519,7 @@
       <c r="H1699" s="9"/>
       <c r="I1699"/>
       <c r="J1699" s="1" t="s">
-        <v>214</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1700" spans="1:10" x14ac:dyDescent="0.2">
@@ -66389,7 +66544,7 @@
       <c r="H1700" s="9"/>
       <c r="I1700"/>
       <c r="J1700" s="1" t="s">
-        <v>1889</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1701" spans="1:10" x14ac:dyDescent="0.2">
@@ -66414,7 +66569,7 @@
       <c r="H1701" s="9"/>
       <c r="I1701"/>
       <c r="J1701" s="1" t="s">
-        <v>1891</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1702" spans="1:10" x14ac:dyDescent="0.2">
@@ -66439,7 +66594,7 @@
       <c r="H1702" s="9"/>
       <c r="I1702"/>
       <c r="J1702" s="1" t="s">
-        <v>1895</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1703" spans="1:10" x14ac:dyDescent="0.2">
@@ -66464,7 +66619,7 @@
       <c r="H1703" s="9"/>
       <c r="I1703"/>
       <c r="J1703" s="1" t="s">
-        <v>1898</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1704" spans="1:10" x14ac:dyDescent="0.2">
@@ -66489,7 +66644,7 @@
       <c r="H1704" s="9"/>
       <c r="I1704"/>
       <c r="J1704" s="1" t="s">
-        <v>1901</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1705" spans="1:10" x14ac:dyDescent="0.2">
@@ -66514,7 +66669,7 @@
       <c r="H1705" s="9"/>
       <c r="I1705"/>
       <c r="J1705" s="1" t="s">
-        <v>1905</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1706" spans="1:10" x14ac:dyDescent="0.2">
@@ -66539,7 +66694,7 @@
       <c r="H1706" s="9"/>
       <c r="I1706"/>
       <c r="J1706" s="1" t="s">
-        <v>1908</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1707" spans="1:10" x14ac:dyDescent="0.2">
@@ -66564,7 +66719,7 @@
       <c r="H1707" s="9"/>
       <c r="I1707"/>
       <c r="J1707" s="1" t="s">
-        <v>1913</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1708" spans="1:10" x14ac:dyDescent="0.2">
@@ -66589,7 +66744,7 @@
       <c r="H1708" s="9"/>
       <c r="I1708"/>
       <c r="J1708" s="1" t="s">
-        <v>1916</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1709" spans="1:10" x14ac:dyDescent="0.2">
@@ -66614,7 +66769,7 @@
       <c r="H1709" s="9"/>
       <c r="I1709"/>
       <c r="J1709" s="1" t="s">
-        <v>1920</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1710" spans="1:10" x14ac:dyDescent="0.2">
@@ -66639,7 +66794,7 @@
       <c r="H1710" s="9"/>
       <c r="I1710"/>
       <c r="J1710" s="1" t="s">
-        <v>1924</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1711" spans="1:10" x14ac:dyDescent="0.2">
@@ -66664,7 +66819,7 @@
       <c r="H1711" s="9"/>
       <c r="I1711"/>
       <c r="J1711" s="1" t="s">
-        <v>1927</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1712" spans="1:10" x14ac:dyDescent="0.2">
@@ -66689,7 +66844,7 @@
       <c r="H1712" s="9"/>
       <c r="I1712"/>
       <c r="J1712" s="1" t="s">
-        <v>1931</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1713" spans="1:10" x14ac:dyDescent="0.2">
@@ -66714,7 +66869,7 @@
       <c r="H1713" s="9"/>
       <c r="I1713"/>
       <c r="J1713" s="1" t="s">
-        <v>1935</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1714" spans="1:10" x14ac:dyDescent="0.2">
@@ -66739,7 +66894,7 @@
       <c r="H1714" s="9"/>
       <c r="I1714"/>
       <c r="J1714" s="1" t="s">
-        <v>1939</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1715" spans="1:10" x14ac:dyDescent="0.2">
@@ -66764,7 +66919,7 @@
       <c r="H1715" s="9"/>
       <c r="I1715"/>
       <c r="J1715" s="1" t="s">
-        <v>1942</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1716" spans="1:10" x14ac:dyDescent="0.2">
@@ -66789,7 +66944,7 @@
       <c r="H1716" s="9"/>
       <c r="I1716"/>
       <c r="J1716" s="1" t="s">
-        <v>1945</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1717" spans="1:10" x14ac:dyDescent="0.2">
@@ -66814,7 +66969,7 @@
       <c r="H1717" s="9"/>
       <c r="I1717"/>
       <c r="J1717" s="1" t="s">
-        <v>1949</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1718" spans="1:10" x14ac:dyDescent="0.2">
@@ -66842,7 +66997,7 @@
       <c r="H1718" s="9"/>
       <c r="I1718"/>
       <c r="J1718" s="1" t="s">
-        <v>311</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1719" spans="1:10" x14ac:dyDescent="0.2">
@@ -66867,7 +67022,7 @@
       <c r="H1719" s="9"/>
       <c r="I1719"/>
       <c r="J1719" s="1" t="s">
-        <v>1955</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1720" spans="1:10" x14ac:dyDescent="0.2">
@@ -66892,7 +67047,7 @@
       <c r="H1720" s="9"/>
       <c r="I1720"/>
       <c r="J1720" s="1" t="s">
-        <v>1958</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1721" spans="1:10" x14ac:dyDescent="0.2">
@@ -66917,7 +67072,7 @@
       <c r="H1721" s="9"/>
       <c r="I1721"/>
       <c r="J1721" s="1" t="s">
-        <v>1961</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1722" spans="1:10" x14ac:dyDescent="0.2">
@@ -66942,7 +67097,7 @@
       <c r="H1722" s="9"/>
       <c r="I1722"/>
       <c r="J1722" s="1" t="s">
-        <v>1965</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1723" spans="1:10" x14ac:dyDescent="0.2">
@@ -66967,7 +67122,7 @@
       <c r="H1723" s="9"/>
       <c r="I1723"/>
       <c r="J1723" s="1" t="s">
-        <v>1968</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1724" spans="1:10" x14ac:dyDescent="0.2">
@@ -66992,7 +67147,7 @@
       <c r="H1724" s="9"/>
       <c r="I1724"/>
       <c r="J1724" s="1" t="s">
-        <v>1971</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1725" spans="1:10" x14ac:dyDescent="0.2">
@@ -67017,7 +67172,7 @@
       <c r="H1725" s="9"/>
       <c r="I1725"/>
       <c r="J1725" s="1" t="s">
-        <v>1973</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1726" spans="1:10" x14ac:dyDescent="0.2">
@@ -67042,7 +67197,7 @@
       <c r="H1726" s="9"/>
       <c r="I1726"/>
       <c r="J1726" s="1" t="s">
-        <v>1976</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1727" spans="1:10" x14ac:dyDescent="0.2">
@@ -67067,7 +67222,7 @@
       <c r="H1727" s="9"/>
       <c r="I1727"/>
       <c r="J1727" s="1" t="s">
-        <v>1979</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1728" spans="1:10" x14ac:dyDescent="0.2">
@@ -67092,7 +67247,7 @@
       <c r="H1728" s="9"/>
       <c r="I1728"/>
       <c r="J1728" s="1" t="s">
-        <v>1984</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1729" spans="1:10" x14ac:dyDescent="0.2">
@@ -67117,7 +67272,7 @@
       <c r="H1729" s="9"/>
       <c r="I1729"/>
       <c r="J1729" s="1" t="s">
-        <v>1987</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1730" spans="1:10" x14ac:dyDescent="0.2">
@@ -67142,7 +67297,7 @@
       <c r="H1730" s="9"/>
       <c r="I1730"/>
       <c r="J1730" s="1" t="s">
-        <v>1990</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1731" spans="1:10" x14ac:dyDescent="0.2">
@@ -67167,7 +67322,7 @@
       <c r="H1731" s="9"/>
       <c r="I1731"/>
       <c r="J1731" s="1" t="s">
-        <v>1993</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1732" spans="1:10" x14ac:dyDescent="0.2">
@@ -67192,7 +67347,7 @@
       <c r="H1732" s="9"/>
       <c r="I1732"/>
       <c r="J1732" s="1" t="s">
-        <v>4480</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1733" spans="1:10" x14ac:dyDescent="0.2">
@@ -67220,7 +67375,7 @@
       <c r="H1733" s="9"/>
       <c r="I1733"/>
       <c r="J1733" s="1" t="s">
-        <v>4481</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1734" spans="1:10" x14ac:dyDescent="0.2">
@@ -67245,7 +67400,7 @@
       <c r="H1734" s="9"/>
       <c r="I1734"/>
       <c r="J1734" s="1" t="s">
-        <v>4482</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1735" spans="1:10" x14ac:dyDescent="0.2">
@@ -67270,7 +67425,7 @@
       <c r="H1735" s="9"/>
       <c r="I1735"/>
       <c r="J1735" s="1" t="s">
-        <v>1996</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1736" spans="1:10" x14ac:dyDescent="0.2">
@@ -67298,7 +67453,7 @@
       <c r="H1736" s="9"/>
       <c r="I1736"/>
       <c r="J1736" s="1" t="s">
-        <v>2000</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1737" spans="1:10" x14ac:dyDescent="0.2">
@@ -67323,7 +67478,7 @@
       <c r="H1737" s="9"/>
       <c r="I1737"/>
       <c r="J1737" s="1" t="s">
-        <v>2004</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1738" spans="1:10" x14ac:dyDescent="0.2">
@@ -67351,7 +67506,7 @@
       <c r="H1738" s="9"/>
       <c r="I1738"/>
       <c r="J1738" s="1" t="s">
-        <v>783</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1739" spans="1:10" x14ac:dyDescent="0.2">
@@ -67379,7 +67534,7 @@
       <c r="H1739" s="9"/>
       <c r="I1739"/>
       <c r="J1739" s="1" t="s">
-        <v>2011</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1740" spans="1:10" x14ac:dyDescent="0.2">
@@ -67404,7 +67559,7 @@
       <c r="H1740" s="9"/>
       <c r="I1740"/>
       <c r="J1740" s="1" t="s">
-        <v>2014</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1741" spans="1:10" x14ac:dyDescent="0.2">
@@ -67428,8 +67583,8 @@
       </c>
       <c r="H1741" s="9"/>
       <c r="I1741"/>
-      <c r="J1741" s="1">
-        <v>300</v>
+      <c r="J1741" s="1" t="s">
+        <v>4474</v>
       </c>
     </row>
     <row r="1742" spans="1:10" x14ac:dyDescent="0.2">
@@ -67454,7 +67609,7 @@
       <c r="H1742" s="9"/>
       <c r="I1742"/>
       <c r="J1742" s="1" t="s">
-        <v>2021</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1743" spans="1:10" x14ac:dyDescent="0.2">
@@ -67482,7 +67637,7 @@
       <c r="H1743" s="9"/>
       <c r="I1743"/>
       <c r="J1743" s="1" t="s">
-        <v>2025</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1744" spans="1:10" x14ac:dyDescent="0.2">
@@ -67507,7 +67662,7 @@
       <c r="H1744" s="9"/>
       <c r="I1744"/>
       <c r="J1744" s="1" t="s">
-        <v>2027</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1745" spans="1:10" x14ac:dyDescent="0.2">
@@ -67532,7 +67687,7 @@
       <c r="H1745" s="9"/>
       <c r="I1745"/>
       <c r="J1745" s="1" t="s">
-        <v>2030</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1746" spans="1:10" x14ac:dyDescent="0.2">
@@ -67557,7 +67712,7 @@
       <c r="H1746" s="9"/>
       <c r="I1746"/>
       <c r="J1746" s="1" t="s">
-        <v>2033</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1747" spans="1:10" x14ac:dyDescent="0.2">
@@ -67582,7 +67737,7 @@
       <c r="H1747" s="9"/>
       <c r="I1747"/>
       <c r="J1747" s="1" t="s">
-        <v>2038</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1748" spans="1:10" x14ac:dyDescent="0.2">
@@ -67607,7 +67762,7 @@
       <c r="H1748" s="9"/>
       <c r="I1748"/>
       <c r="J1748" s="1" t="s">
-        <v>2041</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="1749" spans="1:10" x14ac:dyDescent="0.2">
@@ -67632,7 +67787,7 @@
       <c r="H1749" s="9"/>
       <c r="I1749"/>
       <c r="J1749" s="1" t="s">
-        <v>2044</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1750" spans="1:10" x14ac:dyDescent="0.2">
@@ -67657,7 +67812,7 @@
       <c r="H1750" s="9"/>
       <c r="I1750"/>
       <c r="J1750" s="1" t="s">
-        <v>2048</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1751" spans="1:10" x14ac:dyDescent="0.2">
@@ -67682,7 +67837,7 @@
       <c r="H1751" s="9"/>
       <c r="I1751"/>
       <c r="J1751" s="1" t="s">
-        <v>2051</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1752" spans="1:10" x14ac:dyDescent="0.2">
@@ -67707,7 +67862,7 @@
       <c r="H1752" s="9"/>
       <c r="I1752"/>
       <c r="J1752" s="1" t="s">
-        <v>2055</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1753" spans="1:10" x14ac:dyDescent="0.2">
@@ -67732,7 +67887,7 @@
       <c r="H1753" s="9"/>
       <c r="I1753"/>
       <c r="J1753" s="1" t="s">
-        <v>2059</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1754" spans="1:10" x14ac:dyDescent="0.2">
@@ -67757,7 +67912,7 @@
       <c r="H1754" s="9"/>
       <c r="I1754"/>
       <c r="J1754" s="1" t="s">
-        <v>2061</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1755" spans="1:10" x14ac:dyDescent="0.2">
@@ -67782,7 +67937,7 @@
       <c r="H1755" s="9"/>
       <c r="I1755"/>
       <c r="J1755" s="1" t="s">
-        <v>2064</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1756" spans="1:10" x14ac:dyDescent="0.2">
@@ -67807,7 +67962,7 @@
       <c r="H1756" s="9"/>
       <c r="I1756"/>
       <c r="J1756" s="1" t="s">
-        <v>2068</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1757" spans="1:10" x14ac:dyDescent="0.2">
@@ -67832,7 +67987,7 @@
       <c r="H1757" s="9"/>
       <c r="I1757"/>
       <c r="J1757" s="1" t="s">
-        <v>2071</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1758" spans="1:10" x14ac:dyDescent="0.2">
@@ -67857,7 +68012,7 @@
       <c r="H1758" s="9"/>
       <c r="I1758"/>
       <c r="J1758" s="1" t="s">
-        <v>2074</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1759" spans="1:10" x14ac:dyDescent="0.2">
@@ -67882,7 +68037,7 @@
       <c r="H1759" s="9"/>
       <c r="I1759"/>
       <c r="J1759" s="1" t="s">
-        <v>2077</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1760" spans="1:10" x14ac:dyDescent="0.2">
@@ -67907,7 +68062,7 @@
       <c r="H1760" s="9"/>
       <c r="I1760"/>
       <c r="J1760" s="1" t="s">
-        <v>2081</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1761" spans="1:10" x14ac:dyDescent="0.2">
@@ -67932,7 +68087,7 @@
       <c r="H1761" s="9"/>
       <c r="I1761"/>
       <c r="J1761" s="1" t="s">
-        <v>2084</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1762" spans="1:10" x14ac:dyDescent="0.2">
@@ -67957,7 +68112,7 @@
       <c r="H1762" s="9"/>
       <c r="I1762"/>
       <c r="J1762" s="1" t="s">
-        <v>2088</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1763" spans="1:10" x14ac:dyDescent="0.2">
@@ -67982,7 +68137,7 @@
       <c r="H1763" s="9"/>
       <c r="I1763"/>
       <c r="J1763" s="1" t="s">
-        <v>2091</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1764" spans="1:10" x14ac:dyDescent="0.2">
@@ -68007,7 +68162,7 @@
       <c r="H1764" s="9"/>
       <c r="I1764"/>
       <c r="J1764" s="1" t="s">
-        <v>2095</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1765" spans="1:10" x14ac:dyDescent="0.2">
@@ -68032,7 +68187,7 @@
       <c r="H1765" s="9"/>
       <c r="I1765"/>
       <c r="J1765" s="1" t="s">
-        <v>2097</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1766" spans="1:10" x14ac:dyDescent="0.2">
@@ -68057,7 +68212,7 @@
       <c r="H1766" s="9"/>
       <c r="I1766"/>
       <c r="J1766" s="1" t="s">
-        <v>2100</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1767" spans="1:10" x14ac:dyDescent="0.2">
@@ -68082,7 +68237,7 @@
       <c r="H1767" s="9"/>
       <c r="I1767"/>
       <c r="J1767" s="1" t="s">
-        <v>2104</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1768" spans="1:10" x14ac:dyDescent="0.2">
@@ -68107,7 +68262,7 @@
       <c r="H1768" s="9"/>
       <c r="I1768"/>
       <c r="J1768" s="1" t="s">
-        <v>2107</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1769" spans="1:10" x14ac:dyDescent="0.2">
@@ -68135,7 +68290,7 @@
       <c r="H1769" s="9"/>
       <c r="I1769"/>
       <c r="J1769" s="1" t="s">
-        <v>2110</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1770" spans="1:10" x14ac:dyDescent="0.2">
@@ -68160,7 +68315,7 @@
       <c r="H1770" s="9"/>
       <c r="I1770"/>
       <c r="J1770" s="1" t="s">
-        <v>2113</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1771" spans="1:10" x14ac:dyDescent="0.2">
@@ -68185,7 +68340,7 @@
       <c r="H1771" s="9"/>
       <c r="I1771"/>
       <c r="J1771" s="1" t="s">
-        <v>2116</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1772" spans="1:10" x14ac:dyDescent="0.2">
@@ -68210,7 +68365,7 @@
       <c r="H1772" s="9"/>
       <c r="I1772"/>
       <c r="J1772" s="1" t="s">
-        <v>2121</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1773" spans="1:10" x14ac:dyDescent="0.2">
@@ -68235,7 +68390,7 @@
       <c r="H1773" s="9"/>
       <c r="I1773"/>
       <c r="J1773" s="1" t="s">
-        <v>977</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1774" spans="1:10" x14ac:dyDescent="0.2">
@@ -68260,7 +68415,7 @@
       <c r="H1774" s="9"/>
       <c r="I1774"/>
       <c r="J1774" s="1" t="s">
-        <v>2127</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1775" spans="1:10" x14ac:dyDescent="0.2">
@@ -68285,7 +68440,7 @@
       <c r="H1775" s="9"/>
       <c r="I1775"/>
       <c r="J1775" s="1" t="s">
-        <v>2130</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1776" spans="1:10" x14ac:dyDescent="0.2">
@@ -68310,7 +68465,7 @@
       <c r="H1776" s="9"/>
       <c r="I1776"/>
       <c r="J1776" s="1" t="s">
-        <v>2133</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1777" spans="1:10" x14ac:dyDescent="0.2">
@@ -68335,7 +68490,7 @@
       <c r="H1777" s="9"/>
       <c r="I1777"/>
       <c r="J1777" s="1" t="s">
-        <v>2136</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1778" spans="1:10" x14ac:dyDescent="0.2">
@@ -68360,7 +68515,7 @@
       <c r="H1778" s="9"/>
       <c r="I1778"/>
       <c r="J1778" s="1" t="s">
-        <v>2139</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1779" spans="1:10" x14ac:dyDescent="0.2">
@@ -68388,7 +68543,7 @@
       <c r="H1779" s="9"/>
       <c r="I1779"/>
       <c r="J1779" s="1" t="s">
-        <v>2142</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1780" spans="1:10" x14ac:dyDescent="0.2">
@@ -68413,7 +68568,7 @@
       <c r="H1780" s="9"/>
       <c r="I1780"/>
       <c r="J1780" s="1" t="s">
-        <v>2146</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1781" spans="1:10" x14ac:dyDescent="0.2">
@@ -68438,7 +68593,7 @@
       <c r="H1781" s="9"/>
       <c r="I1781"/>
       <c r="J1781" s="1" t="s">
-        <v>2150</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1782" spans="1:10" x14ac:dyDescent="0.2">
@@ -68463,7 +68618,7 @@
       <c r="H1782" s="9"/>
       <c r="I1782"/>
       <c r="J1782" s="1" t="s">
-        <v>2154</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1783" spans="1:10" x14ac:dyDescent="0.2">
@@ -68488,7 +68643,7 @@
       <c r="H1783" s="9"/>
       <c r="I1783"/>
       <c r="J1783" s="1" t="s">
-        <v>2158</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1784" spans="1:10" x14ac:dyDescent="0.2">
@@ -68513,7 +68668,7 @@
       <c r="H1784" s="9"/>
       <c r="I1784"/>
       <c r="J1784" s="1" t="s">
-        <v>2162</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1785" spans="1:10" x14ac:dyDescent="0.2">
@@ -68538,7 +68693,7 @@
       <c r="H1785" s="9"/>
       <c r="I1785"/>
       <c r="J1785" s="1" t="s">
-        <v>2166</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1786" spans="1:10" x14ac:dyDescent="0.2">
@@ -68563,7 +68718,7 @@
       <c r="H1786" s="9"/>
       <c r="I1786"/>
       <c r="J1786" s="1" t="s">
-        <v>2169</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1787" spans="1:10" x14ac:dyDescent="0.2">
@@ -68588,7 +68743,7 @@
       <c r="H1787" s="9"/>
       <c r="I1787"/>
       <c r="J1787" s="1" t="s">
-        <v>2173</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1788" spans="1:10" x14ac:dyDescent="0.2">
@@ -68613,7 +68768,7 @@
       <c r="H1788" s="9"/>
       <c r="I1788"/>
       <c r="J1788" s="1" t="s">
-        <v>2176</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1789" spans="1:10" x14ac:dyDescent="0.2">
@@ -68638,7 +68793,7 @@
       <c r="H1789" s="9"/>
       <c r="I1789"/>
       <c r="J1789" s="1" t="s">
-        <v>2179</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1790" spans="1:10" x14ac:dyDescent="0.2">
@@ -68663,7 +68818,7 @@
       <c r="H1790" s="9"/>
       <c r="I1790"/>
       <c r="J1790" s="1" t="s">
-        <v>2183</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1791" spans="1:10" x14ac:dyDescent="0.2">
@@ -68688,7 +68843,7 @@
       <c r="H1791" s="9"/>
       <c r="I1791"/>
       <c r="J1791" s="1" t="s">
-        <v>2186</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1792" spans="1:10" x14ac:dyDescent="0.2">
@@ -68713,7 +68868,7 @@
       <c r="H1792" s="9"/>
       <c r="I1792"/>
       <c r="J1792" s="1" t="s">
-        <v>2190</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1793" spans="1:10" x14ac:dyDescent="0.2">
@@ -68738,7 +68893,7 @@
       <c r="H1793" s="9"/>
       <c r="I1793"/>
       <c r="J1793" s="1" t="s">
-        <v>3593</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1794" spans="1:10" x14ac:dyDescent="0.2">
@@ -68763,7 +68918,7 @@
       <c r="H1794" s="9"/>
       <c r="I1794"/>
       <c r="J1794" s="1" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="1795" spans="1:10" x14ac:dyDescent="0.2">
@@ -68788,7 +68943,7 @@
       <c r="H1795" s="9"/>
       <c r="I1795"/>
       <c r="J1795" s="1" t="s">
-        <v>3540</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1796" spans="1:10" x14ac:dyDescent="0.2">
@@ -68813,7 +68968,7 @@
       <c r="H1796" s="9"/>
       <c r="I1796"/>
       <c r="J1796" s="1" t="s">
-        <v>3631</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1797" spans="1:10" x14ac:dyDescent="0.2">
@@ -68838,7 +68993,7 @@
       <c r="H1797" s="9"/>
       <c r="I1797"/>
       <c r="J1797" s="1" t="s">
-        <v>4484</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1798" spans="1:10" x14ac:dyDescent="0.2">
@@ -68863,7 +69018,7 @@
       <c r="H1798" s="9"/>
       <c r="I1798"/>
       <c r="J1798" s="1" t="s">
-        <v>4485</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1799" spans="1:10" x14ac:dyDescent="0.2">
@@ -68888,7 +69043,7 @@
       <c r="H1799" s="9"/>
       <c r="I1799"/>
       <c r="J1799" s="1" t="s">
-        <v>4486</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1800" spans="1:10" x14ac:dyDescent="0.2">
@@ -68913,7 +69068,7 @@
       <c r="H1800" s="9"/>
       <c r="I1800"/>
       <c r="J1800" s="1" t="s">
-        <v>4487</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1801" spans="1:10" x14ac:dyDescent="0.2">
@@ -68937,8 +69092,8 @@
       </c>
       <c r="H1801" s="9"/>
       <c r="I1801"/>
-      <c r="J1801" s="1" t="s">
-        <v>3562</v>
+      <c r="J1801" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="1802" spans="1:10" x14ac:dyDescent="0.2">
@@ -68963,7 +69118,7 @@
       <c r="H1802" s="9"/>
       <c r="I1802"/>
       <c r="J1802" s="1" t="s">
-        <v>3593</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1803" spans="1:10" x14ac:dyDescent="0.2">
@@ -68988,7 +69143,7 @@
       <c r="H1803" s="9"/>
       <c r="I1803"/>
       <c r="J1803" s="1" t="s">
-        <v>2193</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1804" spans="1:10" x14ac:dyDescent="0.2">
@@ -69013,7 +69168,7 @@
       <c r="H1804" s="9"/>
       <c r="I1804"/>
       <c r="J1804" s="1" t="s">
-        <v>2196</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1805" spans="1:10" x14ac:dyDescent="0.2">
@@ -69038,7 +69193,7 @@
       <c r="H1805" s="9"/>
       <c r="I1805"/>
       <c r="J1805" s="1" t="s">
-        <v>2199</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1806" spans="1:10" x14ac:dyDescent="0.2">
@@ -69063,7 +69218,7 @@
       <c r="H1806" s="9"/>
       <c r="I1806"/>
       <c r="J1806" s="1" t="s">
-        <v>2202</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1807" spans="1:10" x14ac:dyDescent="0.2">
@@ -69088,7 +69243,7 @@
       <c r="H1807" s="9"/>
       <c r="I1807"/>
       <c r="J1807" s="1" t="s">
-        <v>2206</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1808" spans="1:10" x14ac:dyDescent="0.2">
@@ -69113,7 +69268,7 @@
       <c r="H1808" s="9"/>
       <c r="I1808"/>
       <c r="J1808" s="1" t="s">
-        <v>2209</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1809" spans="1:10" x14ac:dyDescent="0.2">
@@ -69138,7 +69293,7 @@
       <c r="H1809" s="9"/>
       <c r="I1809"/>
       <c r="J1809" s="1" t="s">
-        <v>2213</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1810" spans="1:10" x14ac:dyDescent="0.2">
@@ -69163,7 +69318,7 @@
       <c r="H1810" s="9"/>
       <c r="I1810"/>
       <c r="J1810" s="1" t="s">
-        <v>2216</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1811" spans="1:10" x14ac:dyDescent="0.2">
@@ -69188,7 +69343,7 @@
       <c r="H1811" s="9"/>
       <c r="I1811"/>
       <c r="J1811" s="1" t="s">
-        <v>2219</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1812" spans="1:10" x14ac:dyDescent="0.2">
@@ -69213,7 +69368,7 @@
       <c r="H1812" s="9"/>
       <c r="I1812"/>
       <c r="J1812" s="1" t="s">
-        <v>2224</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1813" spans="1:10" x14ac:dyDescent="0.2">
@@ -69238,7 +69393,7 @@
       <c r="H1813" s="9"/>
       <c r="I1813"/>
       <c r="J1813" s="1" t="s">
-        <v>2228</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1814" spans="1:10" x14ac:dyDescent="0.2">
@@ -69263,7 +69418,7 @@
       <c r="H1814" s="9"/>
       <c r="I1814"/>
       <c r="J1814" s="1" t="s">
-        <v>2231</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1815" spans="1:10" x14ac:dyDescent="0.2">
@@ -69288,7 +69443,7 @@
       <c r="H1815" s="9"/>
       <c r="I1815"/>
       <c r="J1815" s="1" t="s">
-        <v>2234</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1816" spans="1:10" x14ac:dyDescent="0.2">
@@ -69313,7 +69468,7 @@
       <c r="H1816" s="9"/>
       <c r="I1816"/>
       <c r="J1816" s="1" t="s">
-        <v>2237</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1817" spans="1:10" x14ac:dyDescent="0.2">
@@ -69338,7 +69493,7 @@
       <c r="H1817" s="9"/>
       <c r="I1817"/>
       <c r="J1817" s="1" t="s">
-        <v>2241</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1818" spans="1:10" x14ac:dyDescent="0.2">
@@ -69363,7 +69518,7 @@
       <c r="H1818" s="9"/>
       <c r="I1818"/>
       <c r="J1818" s="1" t="s">
-        <v>2244</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1819" spans="1:10" x14ac:dyDescent="0.2">
@@ -69388,7 +69543,7 @@
       <c r="H1819" s="9"/>
       <c r="I1819"/>
       <c r="J1819" s="1" t="s">
-        <v>2248</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1820" spans="1:10" x14ac:dyDescent="0.2">
@@ -69413,7 +69568,7 @@
       <c r="H1820" s="9"/>
       <c r="I1820"/>
       <c r="J1820" s="1" t="s">
-        <v>2252</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1821" spans="1:10" x14ac:dyDescent="0.2">
@@ -69438,7 +69593,7 @@
       <c r="H1821" s="9"/>
       <c r="I1821"/>
       <c r="J1821" s="1" t="s">
-        <v>2255</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1822" spans="1:10" x14ac:dyDescent="0.2">
@@ -69463,7 +69618,7 @@
       <c r="H1822" s="9"/>
       <c r="I1822"/>
       <c r="J1822" s="1" t="s">
-        <v>2258</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1823" spans="1:10" x14ac:dyDescent="0.2">
@@ -69488,7 +69643,7 @@
       <c r="H1823" s="9"/>
       <c r="I1823"/>
       <c r="J1823" s="1" t="s">
-        <v>2262</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1824" spans="1:10" x14ac:dyDescent="0.2">
@@ -69513,7 +69668,7 @@
       <c r="H1824" s="9"/>
       <c r="I1824"/>
       <c r="J1824" s="1" t="s">
-        <v>2266</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1825" spans="1:10" x14ac:dyDescent="0.2">
@@ -69538,7 +69693,7 @@
       <c r="H1825" s="9"/>
       <c r="I1825"/>
       <c r="J1825" s="1" t="s">
-        <v>2269</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1826" spans="1:10" x14ac:dyDescent="0.2">
@@ -69563,7 +69718,7 @@
       <c r="H1826" s="9"/>
       <c r="I1826"/>
       <c r="J1826" s="1" t="s">
-        <v>2273</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1827" spans="1:10" x14ac:dyDescent="0.2">
@@ -69588,7 +69743,7 @@
       <c r="H1827" s="9"/>
       <c r="I1827"/>
       <c r="J1827" s="1" t="s">
-        <v>2276</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1828" spans="1:10" x14ac:dyDescent="0.2">
@@ -69613,7 +69768,7 @@
       <c r="H1828" s="9"/>
       <c r="I1828"/>
       <c r="J1828" s="1" t="s">
-        <v>2280</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1829" spans="1:10" x14ac:dyDescent="0.2">
@@ -69638,7 +69793,7 @@
       <c r="H1829" s="9"/>
       <c r="I1829"/>
       <c r="J1829" s="1" t="s">
-        <v>2284</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1830" spans="1:10" x14ac:dyDescent="0.2">
@@ -69663,7 +69818,7 @@
       <c r="H1830" s="9"/>
       <c r="I1830"/>
       <c r="J1830" s="1" t="s">
-        <v>2289</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1831" spans="1:10" x14ac:dyDescent="0.2">
@@ -69688,7 +69843,7 @@
       <c r="H1831" s="9"/>
       <c r="I1831"/>
       <c r="J1831" s="1" t="s">
-        <v>2292</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1832" spans="1:10" x14ac:dyDescent="0.2">
@@ -69713,7 +69868,7 @@
       <c r="H1832" s="9"/>
       <c r="I1832"/>
       <c r="J1832" s="1" t="s">
-        <v>2296</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1833" spans="1:10" x14ac:dyDescent="0.2">
@@ -69738,7 +69893,7 @@
       <c r="H1833" s="9"/>
       <c r="I1833"/>
       <c r="J1833" s="1" t="s">
-        <v>2299</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1834" spans="1:10" x14ac:dyDescent="0.2">
@@ -69763,7 +69918,7 @@
       <c r="H1834" s="9"/>
       <c r="I1834"/>
       <c r="J1834" s="1" t="s">
-        <v>2303</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1835" spans="1:10" x14ac:dyDescent="0.2">
@@ -69788,7 +69943,7 @@
       <c r="H1835" s="9"/>
       <c r="I1835"/>
       <c r="J1835" s="1" t="s">
-        <v>2306</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1836" spans="1:10" x14ac:dyDescent="0.2">
@@ -69813,7 +69968,7 @@
       <c r="H1836" s="9"/>
       <c r="I1836"/>
       <c r="J1836" s="1" t="s">
-        <v>2309</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1837" spans="1:10" x14ac:dyDescent="0.2">
@@ -69838,7 +69993,7 @@
       <c r="H1837" s="9"/>
       <c r="I1837"/>
       <c r="J1837" s="1" t="s">
-        <v>2312</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1838" spans="1:10" x14ac:dyDescent="0.2">
@@ -69863,7 +70018,7 @@
       <c r="H1838" s="9"/>
       <c r="I1838"/>
       <c r="J1838" s="1" t="s">
-        <v>2315</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1839" spans="1:10" x14ac:dyDescent="0.2">
@@ -69888,7 +70043,7 @@
       <c r="H1839" s="9"/>
       <c r="I1839"/>
       <c r="J1839" s="1" t="s">
-        <v>2318</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1840" spans="1:10" x14ac:dyDescent="0.2">
@@ -69913,7 +70068,7 @@
       <c r="H1840" s="9"/>
       <c r="I1840"/>
       <c r="J1840" s="1" t="s">
-        <v>2322</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1841" spans="1:10" x14ac:dyDescent="0.2">
@@ -69938,7 +70093,7 @@
       <c r="H1841" s="9"/>
       <c r="I1841"/>
       <c r="J1841" s="1" t="s">
-        <v>2326</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1842" spans="1:10" x14ac:dyDescent="0.2">
@@ -69963,7 +70118,7 @@
       <c r="H1842" s="9"/>
       <c r="I1842"/>
       <c r="J1842" s="1" t="s">
-        <v>2329</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1843" spans="1:10" x14ac:dyDescent="0.2">
@@ -69988,7 +70143,7 @@
       <c r="H1843" s="9"/>
       <c r="I1843"/>
       <c r="J1843" s="1" t="s">
-        <v>2332</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1844" spans="1:10" x14ac:dyDescent="0.2">
@@ -70013,7 +70168,7 @@
       <c r="H1844" s="9"/>
       <c r="I1844"/>
       <c r="J1844" s="1" t="s">
-        <v>2336</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1845" spans="1:10" x14ac:dyDescent="0.2">
@@ -70038,7 +70193,7 @@
       <c r="H1845" s="9"/>
       <c r="I1845"/>
       <c r="J1845" s="1" t="s">
-        <v>4488</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1846" spans="1:10" x14ac:dyDescent="0.2">
@@ -70063,7 +70218,7 @@
       <c r="H1846" s="9"/>
       <c r="I1846"/>
       <c r="J1846" s="1" t="s">
-        <v>3751</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1847" spans="1:10" x14ac:dyDescent="0.2">
@@ -70088,7 +70243,7 @@
       <c r="H1847" s="9"/>
       <c r="I1847"/>
       <c r="J1847" s="1" t="s">
-        <v>2339</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1848" spans="1:10" x14ac:dyDescent="0.2">
@@ -70113,7 +70268,7 @@
       <c r="H1848" s="9"/>
       <c r="I1848"/>
       <c r="J1848" s="1" t="s">
-        <v>2342</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1849" spans="1:10" x14ac:dyDescent="0.2">
@@ -70138,7 +70293,7 @@
       <c r="H1849" s="9"/>
       <c r="I1849"/>
       <c r="J1849" s="1" t="s">
-        <v>2345</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1850" spans="1:10" x14ac:dyDescent="0.2">
@@ -70163,7 +70318,7 @@
       <c r="H1850" s="9"/>
       <c r="I1850"/>
       <c r="J1850" s="1" t="s">
-        <v>2348</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1851" spans="1:10" x14ac:dyDescent="0.2">
@@ -70188,7 +70343,7 @@
       <c r="H1851" s="9"/>
       <c r="I1851"/>
       <c r="J1851" s="1" t="s">
-        <v>2351</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1852" spans="1:10" x14ac:dyDescent="0.2">
@@ -70213,7 +70368,7 @@
       <c r="H1852" s="9"/>
       <c r="I1852"/>
       <c r="J1852" s="1" t="s">
-        <v>2353</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1853" spans="1:10" x14ac:dyDescent="0.2">
@@ -70238,7 +70393,7 @@
       <c r="H1853" s="9"/>
       <c r="I1853"/>
       <c r="J1853" s="1" t="s">
-        <v>2357</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1854" spans="1:10" x14ac:dyDescent="0.2">
@@ -70263,7 +70418,7 @@
       <c r="H1854" s="9"/>
       <c r="I1854"/>
       <c r="J1854" s="1" t="s">
-        <v>2360</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1855" spans="1:10" x14ac:dyDescent="0.2">
@@ -70288,7 +70443,7 @@
       <c r="H1855" s="9"/>
       <c r="I1855"/>
       <c r="J1855" s="1" t="s">
-        <v>2363</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1856" spans="1:10" x14ac:dyDescent="0.2">
@@ -70313,7 +70468,7 @@
       <c r="H1856" s="9"/>
       <c r="I1856"/>
       <c r="J1856" s="1" t="s">
-        <v>2366</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1857" spans="1:10" x14ac:dyDescent="0.2">
@@ -70338,7 +70493,7 @@
       <c r="H1857" s="9"/>
       <c r="I1857"/>
       <c r="J1857" s="1" t="s">
-        <v>2369</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1858" spans="1:10" x14ac:dyDescent="0.2">
@@ -70363,7 +70518,7 @@
       <c r="H1858" s="9"/>
       <c r="I1858"/>
       <c r="J1858" s="1" t="s">
-        <v>2372</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1859" spans="1:10" x14ac:dyDescent="0.2">
@@ -70388,7 +70543,7 @@
       <c r="H1859" s="9"/>
       <c r="I1859"/>
       <c r="J1859" s="1" t="s">
-        <v>2376</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1860" spans="1:10" x14ac:dyDescent="0.2">
@@ -70413,7 +70568,7 @@
       <c r="H1860" s="9"/>
       <c r="I1860"/>
       <c r="J1860" s="1" t="s">
-        <v>2379</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1861" spans="1:10" x14ac:dyDescent="0.2">
@@ -70438,7 +70593,7 @@
       <c r="H1861" s="9"/>
       <c r="I1861"/>
       <c r="J1861" s="1" t="s">
-        <v>2382</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="1862" spans="1:10" x14ac:dyDescent="0.2">
@@ -70466,7 +70621,7 @@
       <c r="H1862" s="9"/>
       <c r="I1862"/>
       <c r="J1862" s="1" t="s">
-        <v>2387</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1863" spans="1:10" x14ac:dyDescent="0.2">
@@ -70491,7 +70646,7 @@
       <c r="H1863" s="9"/>
       <c r="I1863"/>
       <c r="J1863" s="1" t="s">
-        <v>2390</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1864" spans="1:10" x14ac:dyDescent="0.2">
@@ -70516,7 +70671,7 @@
       <c r="H1864" s="9"/>
       <c r="I1864"/>
       <c r="J1864" s="1" t="s">
-        <v>2393</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1865" spans="1:10" x14ac:dyDescent="0.2">
@@ -70544,7 +70699,7 @@
       <c r="H1865" s="9"/>
       <c r="I1865"/>
       <c r="J1865" s="1" t="s">
-        <v>2396</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1866" spans="1:10" x14ac:dyDescent="0.2">
@@ -70569,7 +70724,7 @@
       <c r="H1866" s="9"/>
       <c r="I1866"/>
       <c r="J1866" s="1" t="s">
-        <v>2399</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1867" spans="1:10" x14ac:dyDescent="0.2">
@@ -70594,7 +70749,7 @@
       <c r="H1867" s="9"/>
       <c r="I1867"/>
       <c r="J1867" s="1" t="s">
-        <v>2403</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1868" spans="1:10" x14ac:dyDescent="0.2">
@@ -70619,7 +70774,7 @@
       <c r="H1868" s="9"/>
       <c r="I1868"/>
       <c r="J1868" s="1" t="s">
-        <v>2406</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1869" spans="1:10" x14ac:dyDescent="0.2">
@@ -70644,7 +70799,7 @@
       <c r="H1869" s="9"/>
       <c r="I1869"/>
       <c r="J1869" s="1" t="s">
-        <v>2410</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1870" spans="1:10" x14ac:dyDescent="0.2">
@@ -70669,7 +70824,7 @@
       <c r="H1870" s="9"/>
       <c r="I1870"/>
       <c r="J1870" s="1" t="s">
-        <v>570</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1871" spans="1:10" x14ac:dyDescent="0.2">
@@ -70694,7 +70849,7 @@
       <c r="H1871" s="9"/>
       <c r="I1871"/>
       <c r="J1871" s="1" t="s">
-        <v>357</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1872" spans="1:10" x14ac:dyDescent="0.2">
@@ -70719,7 +70874,7 @@
       <c r="H1872" s="9"/>
       <c r="I1872"/>
       <c r="J1872" s="1" t="s">
-        <v>2417</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1873" spans="1:10" x14ac:dyDescent="0.2">
@@ -70744,7 +70899,7 @@
       <c r="H1873" s="9"/>
       <c r="I1873"/>
       <c r="J1873" s="1" t="s">
-        <v>2420</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1874" spans="1:10" x14ac:dyDescent="0.2">
@@ -70769,7 +70924,7 @@
       <c r="H1874" s="9"/>
       <c r="I1874"/>
       <c r="J1874" s="1" t="s">
-        <v>2424</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1875" spans="1:10" x14ac:dyDescent="0.2">
@@ -70794,7 +70949,7 @@
       <c r="H1875" s="9"/>
       <c r="I1875"/>
       <c r="J1875" s="1" t="s">
-        <v>2429</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1876" spans="1:10" x14ac:dyDescent="0.2">
@@ -70819,7 +70974,7 @@
       <c r="H1876" s="9"/>
       <c r="I1876"/>
       <c r="J1876" s="1" t="s">
-        <v>2433</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1877" spans="1:10" x14ac:dyDescent="0.2">
@@ -70844,7 +70999,7 @@
       <c r="H1877" s="9"/>
       <c r="I1877"/>
       <c r="J1877" s="1" t="s">
-        <v>2436</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1878" spans="1:10" x14ac:dyDescent="0.2">
@@ -70869,7 +71024,7 @@
       <c r="H1878" s="9"/>
       <c r="I1878"/>
       <c r="J1878" s="1" t="s">
-        <v>2440</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1879" spans="1:10" x14ac:dyDescent="0.2">
@@ -70894,7 +71049,7 @@
       <c r="H1879" s="9"/>
       <c r="I1879"/>
       <c r="J1879" s="1" t="s">
-        <v>2443</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1880" spans="1:10" x14ac:dyDescent="0.2">
@@ -70919,7 +71074,7 @@
       <c r="H1880" s="9"/>
       <c r="I1880"/>
       <c r="J1880" s="1" t="s">
-        <v>2446</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1881" spans="1:10" x14ac:dyDescent="0.2">
@@ -70944,7 +71099,7 @@
       <c r="H1881" s="9"/>
       <c r="I1881"/>
       <c r="J1881" s="1" t="s">
-        <v>2450</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1882" spans="1:10" x14ac:dyDescent="0.2">
@@ -70969,7 +71124,7 @@
       <c r="H1882" s="9"/>
       <c r="I1882"/>
       <c r="J1882" s="1" t="s">
-        <v>2454</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1883" spans="1:10" x14ac:dyDescent="0.2">
@@ -70994,7 +71149,7 @@
       <c r="H1883" s="9"/>
       <c r="I1883"/>
       <c r="J1883" s="1" t="s">
-        <v>2458</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1884" spans="1:10" x14ac:dyDescent="0.2">
@@ -71019,7 +71174,7 @@
       <c r="H1884" s="9"/>
       <c r="I1884"/>
       <c r="J1884" s="1" t="s">
-        <v>4489</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1885" spans="1:10" x14ac:dyDescent="0.2">
@@ -71044,7 +71199,7 @@
       <c r="H1885" s="9"/>
       <c r="I1885"/>
       <c r="J1885" s="1" t="s">
-        <v>4490</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1886" spans="1:10" x14ac:dyDescent="0.2">
@@ -71069,7 +71224,7 @@
       <c r="H1886" s="9"/>
       <c r="I1886"/>
       <c r="J1886" s="1" t="s">
-        <v>4491</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1887" spans="1:10" x14ac:dyDescent="0.2">
@@ -71094,7 +71249,7 @@
       <c r="H1887" s="9"/>
       <c r="I1887"/>
       <c r="J1887" s="1" t="s">
-        <v>4492</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1888" spans="1:10" x14ac:dyDescent="0.2">
@@ -71119,7 +71274,7 @@
       <c r="H1888" s="9"/>
       <c r="I1888"/>
       <c r="J1888" s="1" t="s">
-        <v>4299</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1889" spans="1:10" x14ac:dyDescent="0.2">
@@ -71144,7 +71299,7 @@
       <c r="H1889" s="9"/>
       <c r="I1889"/>
       <c r="J1889" s="1" t="s">
-        <v>4493</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1890" spans="1:10" x14ac:dyDescent="0.2">
@@ -71169,7 +71324,7 @@
       <c r="H1890" s="9"/>
       <c r="I1890"/>
       <c r="J1890" s="1" t="s">
-        <v>2461</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1891" spans="1:10" x14ac:dyDescent="0.2">
@@ -71194,7 +71349,7 @@
       <c r="H1891" s="9"/>
       <c r="I1891"/>
       <c r="J1891" s="1" t="s">
-        <v>2466</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1892" spans="1:10" x14ac:dyDescent="0.2">
@@ -71219,7 +71374,7 @@
       <c r="H1892" s="9"/>
       <c r="I1892"/>
       <c r="J1892" s="1" t="s">
-        <v>2469</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1893" spans="1:10" x14ac:dyDescent="0.2">
@@ -71244,7 +71399,7 @@
       <c r="H1893" s="9"/>
       <c r="I1893"/>
       <c r="J1893" s="1" t="s">
-        <v>2472</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1894" spans="1:10" x14ac:dyDescent="0.2">
@@ -71268,8 +71423,8 @@
       </c>
       <c r="H1894" s="9"/>
       <c r="I1894"/>
-      <c r="J1894" s="1">
-        <v>2012</v>
+      <c r="J1894" s="1" t="s">
+        <v>2303</v>
       </c>
     </row>
     <row r="1895" spans="1:10" x14ac:dyDescent="0.2">
@@ -71294,7 +71449,7 @@
       <c r="H1895" s="9"/>
       <c r="I1895"/>
       <c r="J1895" s="1" t="s">
-        <v>2478</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1896" spans="1:10" x14ac:dyDescent="0.2">
@@ -71319,7 +71474,7 @@
       <c r="H1896" s="9"/>
       <c r="I1896"/>
       <c r="J1896" s="1" t="s">
-        <v>2481</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1897" spans="1:10" x14ac:dyDescent="0.2">
@@ -71344,7 +71499,7 @@
       <c r="H1897" s="9"/>
       <c r="I1897"/>
       <c r="J1897" s="1" t="s">
-        <v>2485</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1898" spans="1:10" x14ac:dyDescent="0.2">
@@ -71369,7 +71524,7 @@
       <c r="H1898" s="9"/>
       <c r="I1898"/>
       <c r="J1898" s="1" t="s">
-        <v>2488</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1899" spans="1:10" x14ac:dyDescent="0.2">
@@ -71394,7 +71549,7 @@
       <c r="H1899" s="9"/>
       <c r="I1899"/>
       <c r="J1899" s="1" t="s">
-        <v>2491</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1900" spans="1:10" x14ac:dyDescent="0.2">
@@ -71419,7 +71574,7 @@
       <c r="H1900" s="9"/>
       <c r="I1900"/>
       <c r="J1900" s="1" t="s">
-        <v>2494</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1901" spans="1:10" x14ac:dyDescent="0.2">
@@ -71444,7 +71599,7 @@
       <c r="H1901" s="9"/>
       <c r="I1901"/>
       <c r="J1901" s="1" t="s">
-        <v>2498</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1902" spans="1:10" x14ac:dyDescent="0.2">
@@ -71469,7 +71624,7 @@
       <c r="H1902" s="9"/>
       <c r="I1902"/>
       <c r="J1902" s="1" t="s">
-        <v>2502</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1903" spans="1:10" x14ac:dyDescent="0.2">
@@ -71494,7 +71649,7 @@
       <c r="H1903" s="9"/>
       <c r="I1903"/>
       <c r="J1903" s="1" t="s">
-        <v>2506</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1904" spans="1:10" x14ac:dyDescent="0.2">
@@ -71522,7 +71677,7 @@
       <c r="H1904" s="9"/>
       <c r="I1904"/>
       <c r="J1904" s="1" t="s">
-        <v>2509</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1905" spans="1:10" x14ac:dyDescent="0.2">
@@ -71547,7 +71702,7 @@
       <c r="H1905" s="9"/>
       <c r="I1905"/>
       <c r="J1905" s="1" t="s">
-        <v>2513</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="1906" spans="1:10" x14ac:dyDescent="0.2">
@@ -71572,7 +71727,7 @@
       <c r="H1906" s="9"/>
       <c r="I1906"/>
       <c r="J1906" s="1" t="s">
-        <v>2516</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="1907" spans="1:10" x14ac:dyDescent="0.2">
@@ -71597,7 +71752,7 @@
       <c r="H1907" s="9"/>
       <c r="I1907"/>
       <c r="J1907" s="1" t="s">
-        <v>2520</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1908" spans="1:10" x14ac:dyDescent="0.2">
@@ -71622,7 +71777,7 @@
       <c r="H1908" s="9"/>
       <c r="I1908"/>
       <c r="J1908" s="1" t="s">
-        <v>2525</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1909" spans="1:10" x14ac:dyDescent="0.2">
@@ -71650,7 +71805,7 @@
       <c r="H1909" s="9"/>
       <c r="I1909"/>
       <c r="J1909" s="1" t="s">
-        <v>2528</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1910" spans="1:10" x14ac:dyDescent="0.2">
@@ -71675,7 +71830,7 @@
       <c r="H1910" s="9"/>
       <c r="I1910"/>
       <c r="J1910" s="1" t="s">
-        <v>2532</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1911" spans="1:10" x14ac:dyDescent="0.2">
@@ -71700,7 +71855,7 @@
       <c r="H1911" s="9"/>
       <c r="I1911"/>
       <c r="J1911" s="1" t="s">
-        <v>2536</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1912" spans="1:10" x14ac:dyDescent="0.2">
@@ -71725,7 +71880,7 @@
       <c r="H1912" s="9"/>
       <c r="I1912"/>
       <c r="J1912" s="1" t="s">
-        <v>2540</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1913" spans="1:10" x14ac:dyDescent="0.2">
@@ -71750,7 +71905,7 @@
       <c r="H1913" s="9"/>
       <c r="I1913"/>
       <c r="J1913" s="1" t="s">
-        <v>2544</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1914" spans="1:10" x14ac:dyDescent="0.2">
@@ -71775,7 +71930,7 @@
       <c r="H1914" s="9"/>
       <c r="I1914"/>
       <c r="J1914" s="1" t="s">
-        <v>2547</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1915" spans="1:10" x14ac:dyDescent="0.2">
@@ -71800,7 +71955,7 @@
       <c r="H1915" s="9"/>
       <c r="I1915"/>
       <c r="J1915" s="1" t="s">
-        <v>2550</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1916" spans="1:10" x14ac:dyDescent="0.2">
@@ -71825,7 +71980,7 @@
       <c r="H1916" s="9"/>
       <c r="I1916"/>
       <c r="J1916" s="1" t="s">
-        <v>2553</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1917" spans="1:10" x14ac:dyDescent="0.2">
@@ -71850,7 +72005,7 @@
       <c r="H1917" s="9"/>
       <c r="I1917"/>
       <c r="J1917" s="1" t="s">
-        <v>2557</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1918" spans="1:10" x14ac:dyDescent="0.2">
@@ -71875,7 +72030,7 @@
       <c r="H1918" s="9"/>
       <c r="I1918"/>
       <c r="J1918" s="1" t="s">
-        <v>2560</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1919" spans="1:10" x14ac:dyDescent="0.2">
@@ -71900,7 +72055,7 @@
       <c r="H1919" s="9"/>
       <c r="I1919"/>
       <c r="J1919" s="1" t="s">
-        <v>2563</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1920" spans="1:10" x14ac:dyDescent="0.2">
@@ -71925,7 +72080,7 @@
       <c r="H1920" s="9"/>
       <c r="I1920"/>
       <c r="J1920" s="1" t="s">
-        <v>2567</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1921" spans="1:10" x14ac:dyDescent="0.2">
@@ -71950,7 +72105,7 @@
       <c r="H1921" s="9"/>
       <c r="I1921"/>
       <c r="J1921" s="1" t="s">
-        <v>2570</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1922" spans="1:10" x14ac:dyDescent="0.2">
@@ -71978,7 +72133,7 @@
       <c r="H1922" s="9"/>
       <c r="I1922"/>
       <c r="J1922" s="1" t="s">
-        <v>2574</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1923" spans="1:10" x14ac:dyDescent="0.2">
@@ -72006,7 +72161,7 @@
       <c r="H1923" s="9"/>
       <c r="I1923"/>
       <c r="J1923" s="1" t="s">
-        <v>2576</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1924" spans="1:10" x14ac:dyDescent="0.2">
@@ -72034,7 +72189,7 @@
       <c r="H1924" s="9"/>
       <c r="I1924"/>
       <c r="J1924" s="1" t="s">
-        <v>2579</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1925" spans="1:10" x14ac:dyDescent="0.2">
@@ -72059,7 +72214,7 @@
       <c r="H1925" s="9"/>
       <c r="I1925"/>
       <c r="J1925" s="1" t="s">
-        <v>2583</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1926" spans="1:10" x14ac:dyDescent="0.2">
@@ -72084,7 +72239,7 @@
       <c r="H1926" s="9"/>
       <c r="I1926"/>
       <c r="J1926" s="1" t="s">
-        <v>2586</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1927" spans="1:10" x14ac:dyDescent="0.2">
@@ -72109,7 +72264,7 @@
       <c r="H1927" s="9"/>
       <c r="I1927"/>
       <c r="J1927" s="1" t="s">
-        <v>2591</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1928" spans="1:10" x14ac:dyDescent="0.2">
@@ -72134,7 +72289,7 @@
       <c r="H1928" s="9"/>
       <c r="I1928"/>
       <c r="J1928" s="1" t="s">
-        <v>2595</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1929" spans="1:10" x14ac:dyDescent="0.2">
@@ -72159,7 +72314,7 @@
       <c r="H1929" s="9"/>
       <c r="I1929"/>
       <c r="J1929" s="1" t="s">
-        <v>2598</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1930" spans="1:10" x14ac:dyDescent="0.2">
@@ -72184,7 +72339,7 @@
       <c r="H1930" s="9"/>
       <c r="I1930"/>
       <c r="J1930" s="1" t="s">
-        <v>2602</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1931" spans="1:10" x14ac:dyDescent="0.2">
@@ -72209,7 +72364,7 @@
       <c r="H1931" s="9"/>
       <c r="I1931"/>
       <c r="J1931" s="1" t="s">
-        <v>2606</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1932" spans="1:10" x14ac:dyDescent="0.2">
@@ -72234,7 +72389,7 @@
       <c r="H1932" s="9"/>
       <c r="I1932"/>
       <c r="J1932" s="1" t="s">
-        <v>2610</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1933" spans="1:10" x14ac:dyDescent="0.2">
@@ -72259,7 +72414,7 @@
       <c r="H1933" s="9"/>
       <c r="I1933"/>
       <c r="J1933" s="1" t="s">
-        <v>342</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1934" spans="1:10" x14ac:dyDescent="0.2">
@@ -72284,7 +72439,7 @@
       <c r="H1934" s="9"/>
       <c r="I1934"/>
       <c r="J1934" s="1" t="s">
-        <v>2616</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1935" spans="1:10" x14ac:dyDescent="0.2">
@@ -72309,7 +72464,7 @@
       <c r="H1935" s="9"/>
       <c r="I1935"/>
       <c r="J1935" s="1" t="s">
-        <v>2619</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1936" spans="1:10" x14ac:dyDescent="0.2">
@@ -72334,7 +72489,7 @@
       <c r="H1936" s="9"/>
       <c r="I1936"/>
       <c r="J1936" s="1" t="s">
-        <v>2622</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1937" spans="1:10" x14ac:dyDescent="0.2">
@@ -72359,7 +72514,7 @@
       <c r="H1937" s="9"/>
       <c r="I1937"/>
       <c r="J1937" s="1" t="s">
-        <v>2625</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1938" spans="1:10" x14ac:dyDescent="0.2">
@@ -72384,7 +72539,7 @@
       <c r="H1938" s="9"/>
       <c r="I1938"/>
       <c r="J1938" s="1" t="s">
-        <v>2628</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1939" spans="1:10" x14ac:dyDescent="0.2">
@@ -72409,7 +72564,7 @@
       <c r="H1939" s="9"/>
       <c r="I1939"/>
       <c r="J1939" s="1" t="s">
-        <v>2632</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1940" spans="1:10" x14ac:dyDescent="0.2">
@@ -72434,7 +72589,7 @@
       <c r="H1940" s="9"/>
       <c r="I1940"/>
       <c r="J1940" s="1" t="s">
-        <v>2635</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1941" spans="1:10" x14ac:dyDescent="0.2">
@@ -72459,7 +72614,7 @@
       <c r="H1941" s="9"/>
       <c r="I1941"/>
       <c r="J1941" s="1" t="s">
-        <v>2638</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1942" spans="1:10" x14ac:dyDescent="0.2">
@@ -72484,7 +72639,7 @@
       <c r="H1942" s="9"/>
       <c r="I1942"/>
       <c r="J1942" s="1" t="s">
-        <v>2641</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1943" spans="1:10" x14ac:dyDescent="0.2">
@@ -72509,7 +72664,7 @@
       <c r="H1943" s="9"/>
       <c r="I1943"/>
       <c r="J1943" s="1" t="s">
-        <v>2644</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1944" spans="1:10" x14ac:dyDescent="0.2">
@@ -72534,7 +72689,7 @@
       <c r="H1944" s="9"/>
       <c r="I1944"/>
       <c r="J1944" s="1" t="s">
-        <v>2648</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1945" spans="1:10" x14ac:dyDescent="0.2">
@@ -72559,7 +72714,7 @@
       <c r="H1945" s="9"/>
       <c r="I1945"/>
       <c r="J1945" s="1" t="s">
-        <v>2651</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1946" spans="1:10" x14ac:dyDescent="0.2">
@@ -72584,7 +72739,7 @@
       <c r="H1946" s="9"/>
       <c r="I1946"/>
       <c r="J1946" s="1" t="s">
-        <v>2654</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1947" spans="1:10" x14ac:dyDescent="0.2">
@@ -72612,7 +72767,7 @@
       <c r="H1947" s="9"/>
       <c r="I1947"/>
       <c r="J1947" s="1" t="s">
-        <v>2657</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1948" spans="1:10" x14ac:dyDescent="0.2">
@@ -72638,7 +72793,7 @@
         <v>2934</v>
       </c>
       <c r="J1948" s="1" t="s">
-        <v>2661</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1949" spans="1:10" x14ac:dyDescent="0.2">
@@ -72661,7 +72816,7 @@
         <v>2938</v>
       </c>
       <c r="J1949" s="1" t="s">
-        <v>2664</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="1950" spans="1:10" x14ac:dyDescent="0.2">
@@ -72684,7 +72839,7 @@
         <v>2940</v>
       </c>
       <c r="J1950" s="1" t="s">
-        <v>2667</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1951" spans="1:10" x14ac:dyDescent="0.2">
@@ -72707,7 +72862,7 @@
         <v>2941</v>
       </c>
       <c r="J1951" s="1" t="s">
-        <v>891</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1952" spans="1:10" x14ac:dyDescent="0.2">
@@ -72730,7 +72885,7 @@
         <v>2943</v>
       </c>
       <c r="J1952" s="1" t="s">
-        <v>2672</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1953" spans="1:10" x14ac:dyDescent="0.2">
@@ -72753,7 +72908,7 @@
         <v>2946</v>
       </c>
       <c r="J1953" s="1" t="s">
-        <v>2675</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1954" spans="1:10" x14ac:dyDescent="0.2">
@@ -72775,8 +72930,8 @@
       <c r="G1954" t="s">
         <v>2948</v>
       </c>
-      <c r="J1954" s="1" t="s">
-        <v>2679</v>
+      <c r="J1954" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="1955" spans="1:10" x14ac:dyDescent="0.2">
@@ -72799,7 +72954,7 @@
         <v>2950</v>
       </c>
       <c r="J1955" s="1" t="s">
-        <v>2682</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1956" spans="1:10" x14ac:dyDescent="0.2">
@@ -72822,7 +72977,7 @@
         <v>2952</v>
       </c>
       <c r="J1956" s="1" t="s">
-        <v>2684</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1957" spans="1:10" x14ac:dyDescent="0.2">
@@ -72845,7 +73000,7 @@
         <v>2954</v>
       </c>
       <c r="J1957" s="1" t="s">
-        <v>2687</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1958" spans="1:10" x14ac:dyDescent="0.2">
@@ -72868,7 +73023,7 @@
         <v>2956</v>
       </c>
       <c r="J1958" s="1" t="s">
-        <v>2690</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1959" spans="1:10" x14ac:dyDescent="0.2">
@@ -72891,7 +73046,7 @@
         <v>2958</v>
       </c>
       <c r="J1959" s="1" t="s">
-        <v>2694</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1960" spans="1:10" x14ac:dyDescent="0.2">
@@ -72914,7 +73069,7 @@
         <v>2959</v>
       </c>
       <c r="J1960" s="1" t="s">
-        <v>1423</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1961" spans="1:10" x14ac:dyDescent="0.2">
@@ -72937,7 +73092,7 @@
         <v>2961</v>
       </c>
       <c r="J1961" s="1" t="s">
-        <v>2700</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1962" spans="1:10" x14ac:dyDescent="0.2">
@@ -72960,7 +73115,7 @@
         <v>2964</v>
       </c>
       <c r="J1962" s="1" t="s">
-        <v>2703</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1963" spans="1:10" x14ac:dyDescent="0.2">
@@ -72983,7 +73138,7 @@
         <v>2966</v>
       </c>
       <c r="J1963" s="1" t="s">
-        <v>2706</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1964" spans="1:10" x14ac:dyDescent="0.2">
@@ -73006,7 +73161,7 @@
         <v>2969</v>
       </c>
       <c r="J1964" s="1" t="s">
-        <v>2709</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1965" spans="1:10" x14ac:dyDescent="0.2">
@@ -73029,7 +73184,7 @@
         <v>2971</v>
       </c>
       <c r="J1965" s="1" t="s">
-        <v>2713</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1966" spans="1:10" x14ac:dyDescent="0.2">
@@ -73052,7 +73207,7 @@
         <v>2973</v>
       </c>
       <c r="J1966" s="1" t="s">
-        <v>2716</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1967" spans="1:10" x14ac:dyDescent="0.2">
@@ -73075,7 +73230,7 @@
         <v>2975</v>
       </c>
       <c r="J1967" s="1" t="s">
-        <v>2719</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1968" spans="1:10" x14ac:dyDescent="0.2">
@@ -73098,7 +73253,7 @@
         <v>2978</v>
       </c>
       <c r="J1968" s="1" t="s">
-        <v>4494</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1969" spans="1:10" x14ac:dyDescent="0.2">
@@ -73121,7 +73276,7 @@
         <v>2980</v>
       </c>
       <c r="J1969" s="1" t="s">
-        <v>4495</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1970" spans="1:10" x14ac:dyDescent="0.2">
@@ -73146,6 +73301,9 @@
       <c r="G1970" t="s">
         <v>2984</v>
       </c>
+      <c r="J1970" s="1" t="s">
+        <v>2532</v>
+      </c>
     </row>
     <row r="1971" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1971">
@@ -73166,6 +73324,9 @@
       <c r="G1971" t="s">
         <v>2986</v>
       </c>
+      <c r="J1971" s="1" t="s">
+        <v>2536</v>
+      </c>
     </row>
     <row r="1972" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1972">
@@ -73186,6 +73347,9 @@
       <c r="G1972" t="s">
         <v>2988</v>
       </c>
+      <c r="J1972" s="1" t="s">
+        <v>2540</v>
+      </c>
     </row>
     <row r="1973" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1973">
@@ -73206,6 +73370,9 @@
       <c r="G1973" t="s">
         <v>2990</v>
       </c>
+      <c r="J1973" s="1" t="s">
+        <v>2544</v>
+      </c>
     </row>
     <row r="1974" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1974">
@@ -73226,6 +73393,9 @@
       <c r="G1974" t="s">
         <v>2992</v>
       </c>
+      <c r="J1974" s="1" t="s">
+        <v>2547</v>
+      </c>
     </row>
     <row r="1975" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1975">
@@ -73246,6 +73416,9 @@
       <c r="G1975" t="s">
         <v>2993</v>
       </c>
+      <c r="J1975" s="1" t="s">
+        <v>2550</v>
+      </c>
     </row>
     <row r="1976" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1976">
@@ -73266,6 +73439,9 @@
       <c r="G1976" t="s">
         <v>2995</v>
       </c>
+      <c r="J1976" s="1" t="s">
+        <v>2553</v>
+      </c>
     </row>
     <row r="1977" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1977">
@@ -73286,6 +73462,9 @@
       <c r="G1977" t="s">
         <v>2998</v>
       </c>
+      <c r="J1977" s="1" t="s">
+        <v>2557</v>
+      </c>
     </row>
     <row r="1978" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1978">
@@ -73309,6 +73488,9 @@
       <c r="G1978" t="s">
         <v>3001</v>
       </c>
+      <c r="J1978" s="1" t="s">
+        <v>2560</v>
+      </c>
     </row>
     <row r="1979" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1979">
@@ -73329,6 +73511,9 @@
       <c r="G1979" t="s">
         <v>3003</v>
       </c>
+      <c r="J1979" s="1" t="s">
+        <v>2563</v>
+      </c>
     </row>
     <row r="1980" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1980">
@@ -73349,6 +73534,9 @@
       <c r="G1980" t="s">
         <v>3005</v>
       </c>
+      <c r="J1980" s="1" t="s">
+        <v>2567</v>
+      </c>
     </row>
     <row r="1981" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1981">
@@ -73372,6 +73560,9 @@
       <c r="G1981" t="s">
         <v>3007</v>
       </c>
+      <c r="J1981" s="1" t="s">
+        <v>2570</v>
+      </c>
     </row>
     <row r="1982" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1982">
@@ -73392,6 +73583,9 @@
       <c r="G1982" t="s">
         <v>3010</v>
       </c>
+      <c r="J1982" s="1" t="s">
+        <v>2574</v>
+      </c>
     </row>
     <row r="1983" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1983">
@@ -73412,6 +73606,9 @@
       <c r="G1983" t="s">
         <v>3013</v>
       </c>
+      <c r="J1983" s="1" t="s">
+        <v>2576</v>
+      </c>
     </row>
     <row r="1984" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1984">
@@ -73432,8 +73629,11 @@
       <c r="G1984" t="s">
         <v>3015</v>
       </c>
-    </row>
-    <row r="1985" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1984" s="1" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1985">
         <v>2002</v>
       </c>
@@ -73452,8 +73652,11 @@
       <c r="G1985" t="s">
         <v>3016</v>
       </c>
-    </row>
-    <row r="1986" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1985" s="1" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1986">
         <v>2002</v>
       </c>
@@ -73472,8 +73675,11 @@
       <c r="G1986" t="s">
         <v>3018</v>
       </c>
-    </row>
-    <row r="1987" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1986" s="1" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1987">
         <v>2002</v>
       </c>
@@ -73492,8 +73698,11 @@
       <c r="G1987" t="s">
         <v>3020</v>
       </c>
-    </row>
-    <row r="1988" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1987" s="1" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1988">
         <v>2002</v>
       </c>
@@ -73512,8 +73721,11 @@
       <c r="G1988" t="s">
         <v>3022</v>
       </c>
-    </row>
-    <row r="1989" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1988" s="1" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1989">
         <v>2002</v>
       </c>
@@ -73535,8 +73747,11 @@
       <c r="G1989" t="s">
         <v>3023</v>
       </c>
-    </row>
-    <row r="1990" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1989" s="1" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1990">
         <v>2002</v>
       </c>
@@ -73555,8 +73770,11 @@
       <c r="G1990" t="s">
         <v>3025</v>
       </c>
-    </row>
-    <row r="1991" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1990" s="1" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1991">
         <v>2002</v>
       </c>
@@ -73575,8 +73793,11 @@
       <c r="G1991" t="s">
         <v>3027</v>
       </c>
-    </row>
-    <row r="1992" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1991" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1992">
         <v>2002</v>
       </c>
@@ -73595,8 +73816,11 @@
       <c r="G1992" t="s">
         <v>3029</v>
       </c>
-    </row>
-    <row r="1993" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1992" s="1" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1993">
         <v>2002</v>
       </c>
@@ -73615,8 +73839,11 @@
       <c r="G1993" t="s">
         <v>3031</v>
       </c>
-    </row>
-    <row r="1994" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1993" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1994">
         <v>2002</v>
       </c>
@@ -73635,8 +73862,11 @@
       <c r="G1994" t="s">
         <v>3034</v>
       </c>
-    </row>
-    <row r="1995" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1994" s="1" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1995">
         <v>2002</v>
       </c>
@@ -73655,8 +73885,11 @@
       <c r="G1995" t="s">
         <v>3036</v>
       </c>
-    </row>
-    <row r="1996" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1995" s="1" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1996">
         <v>2002</v>
       </c>
@@ -73675,8 +73908,11 @@
       <c r="G1996" t="s">
         <v>3040</v>
       </c>
-    </row>
-    <row r="1997" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1996" s="1" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1997">
         <v>2002</v>
       </c>
@@ -73695,8 +73931,11 @@
       <c r="G1997" t="s">
         <v>3042</v>
       </c>
-    </row>
-    <row r="1998" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1997" s="1" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1998">
         <v>2002</v>
       </c>
@@ -73715,8 +73954,11 @@
       <c r="G1998" t="s">
         <v>3044</v>
       </c>
-    </row>
-    <row r="1999" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1998" s="1" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1999">
         <v>2002</v>
       </c>
@@ -73735,8 +73977,11 @@
       <c r="G1999" t="s">
         <v>3046</v>
       </c>
-    </row>
-    <row r="2000" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1999" s="1" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2000">
         <v>2002</v>
       </c>
@@ -73755,8 +74000,11 @@
       <c r="G2000" t="s">
         <v>3047</v>
       </c>
-    </row>
-    <row r="2001" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2000" s="1" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2001">
         <v>2002</v>
       </c>
@@ -73775,8 +74023,11 @@
       <c r="G2001" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="2002" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2001" s="1" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2002">
         <v>2002</v>
       </c>
@@ -73795,8 +74046,11 @@
       <c r="G2002" t="s">
         <v>3051</v>
       </c>
-    </row>
-    <row r="2003" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2002" s="1" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2003">
         <v>2002</v>
       </c>
@@ -73815,8 +74069,11 @@
       <c r="G2003" t="s">
         <v>3054</v>
       </c>
-    </row>
-    <row r="2004" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2003" s="1" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2004">
         <v>2002</v>
       </c>
@@ -73835,8 +74092,11 @@
       <c r="G2004" t="s">
         <v>3057</v>
       </c>
-    </row>
-    <row r="2005" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2004" s="1" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2005">
         <v>2002</v>
       </c>
@@ -73855,8 +74115,11 @@
       <c r="G2005" t="s">
         <v>3061</v>
       </c>
-    </row>
-    <row r="2006" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2005" s="1" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2006">
         <v>2002</v>
       </c>
@@ -73878,8 +74141,11 @@
       <c r="G2006" t="s">
         <v>3064</v>
       </c>
-    </row>
-    <row r="2007" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2006" s="1" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2007">
         <v>2002</v>
       </c>
@@ -73898,8 +74164,11 @@
       <c r="G2007" t="s">
         <v>3066</v>
       </c>
-    </row>
-    <row r="2008" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2007" s="1" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2008">
         <v>2002</v>
       </c>
@@ -73918,8 +74187,11 @@
       <c r="G2008" t="s">
         <v>3068</v>
       </c>
-    </row>
-    <row r="2009" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2008" s="1" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2009">
         <v>2002</v>
       </c>
@@ -73938,8 +74210,11 @@
       <c r="G2009" t="s">
         <v>3070</v>
       </c>
-    </row>
-    <row r="2010" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2009" s="1" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2010">
         <v>2002</v>
       </c>
@@ -73958,8 +74233,11 @@
       <c r="G2010" t="s">
         <v>3072</v>
       </c>
-    </row>
-    <row r="2011" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2010" s="1" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2011">
         <v>2002</v>
       </c>
@@ -73978,8 +74256,11 @@
       <c r="G2011" t="s">
         <v>3075</v>
       </c>
-    </row>
-    <row r="2012" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2011" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2012">
         <v>2002</v>
       </c>
@@ -73998,8 +74279,11 @@
       <c r="G2012" t="s">
         <v>3077</v>
       </c>
-    </row>
-    <row r="2013" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2012" s="1" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2013">
         <v>2002</v>
       </c>
@@ -74018,8 +74302,11 @@
       <c r="G2013" t="s">
         <v>3079</v>
       </c>
-    </row>
-    <row r="2014" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2013" s="1" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2014">
         <v>2002</v>
       </c>
@@ -74038,8 +74325,11 @@
       <c r="G2014" t="s">
         <v>3081</v>
       </c>
-    </row>
-    <row r="2015" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2014" s="1" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2015">
         <v>2002</v>
       </c>
@@ -74058,8 +74348,11 @@
       <c r="G2015" t="s">
         <v>3083</v>
       </c>
-    </row>
-    <row r="2016" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2015" s="1" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2016">
         <v>2002</v>
       </c>
@@ -74078,8 +74371,11 @@
       <c r="G2016" t="s">
         <v>3085</v>
       </c>
-    </row>
-    <row r="2017" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2016" s="1" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2017">
         <v>2002</v>
       </c>
@@ -74098,8 +74394,11 @@
       <c r="G2017" t="s">
         <v>3087</v>
       </c>
-    </row>
-    <row r="2018" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2017" s="1" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2018">
         <v>2002</v>
       </c>
@@ -74118,8 +74417,11 @@
       <c r="G2018" t="s">
         <v>3090</v>
       </c>
-    </row>
-    <row r="2019" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2018" s="1" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2019">
         <v>2002</v>
       </c>
@@ -74138,8 +74440,11 @@
       <c r="G2019" t="s">
         <v>3093</v>
       </c>
-    </row>
-    <row r="2020" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2019" s="1" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2020">
         <v>2002</v>
       </c>
@@ -74158,8 +74463,11 @@
       <c r="G2020" t="s">
         <v>3094</v>
       </c>
-    </row>
-    <row r="2021" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2020" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2021">
         <v>2002</v>
       </c>
@@ -74178,8 +74486,11 @@
       <c r="G2021" t="s">
         <v>3096</v>
       </c>
-    </row>
-    <row r="2022" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2021" s="1" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2022">
         <v>2002</v>
       </c>
@@ -74198,8 +74509,11 @@
       <c r="G2022" t="s">
         <v>3099</v>
       </c>
-    </row>
-    <row r="2023" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2022" s="1" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2023">
         <v>2002</v>
       </c>
@@ -74218,8 +74532,11 @@
       <c r="G2023" t="s">
         <v>3101</v>
       </c>
-    </row>
-    <row r="2024" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2023" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2024">
         <v>2002</v>
       </c>
@@ -74238,8 +74555,11 @@
       <c r="G2024" t="s">
         <v>3103</v>
       </c>
-    </row>
-    <row r="2025" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2024" s="1" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2025">
         <v>2002</v>
       </c>
@@ -74258,8 +74578,11 @@
       <c r="G2025" t="s">
         <v>3105</v>
       </c>
-    </row>
-    <row r="2026" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2025" s="1" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2026">
         <v>2002</v>
       </c>
@@ -74278,8 +74601,11 @@
       <c r="G2026" t="s">
         <v>3107</v>
       </c>
-    </row>
-    <row r="2027" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2026" s="1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2027">
         <v>2002</v>
       </c>
@@ -74298,8 +74624,11 @@
       <c r="G2027" t="s">
         <v>3109</v>
       </c>
-    </row>
-    <row r="2028" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2027" s="1" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2028">
         <v>2002</v>
       </c>
@@ -74318,8 +74647,11 @@
       <c r="G2028" t="s">
         <v>3113</v>
       </c>
-    </row>
-    <row r="2029" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2028" s="1" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2029">
         <v>2002</v>
       </c>
@@ -74338,8 +74670,11 @@
       <c r="G2029" t="s">
         <v>3117</v>
       </c>
-    </row>
-    <row r="2030" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2029" s="1" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2030">
         <v>2002</v>
       </c>
@@ -74359,7 +74694,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="2031" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2031" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2031">
         <v>2002</v>
       </c>
@@ -74379,7 +74714,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="2032" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2032" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2032">
         <v>2002</v>
       </c>

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13595" uniqueCount="7463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13730" uniqueCount="7508">
   <si>
     <t>Year</t>
   </si>
@@ -22423,6 +22423,141 @@
   </si>
   <si>
     <t>Aema buin 11</t>
+  </si>
+  <si>
+    <t>Babe - świnka z klasą</t>
+  </si>
+  <si>
+    <t>Szklana pułapka 3</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Wodny świat</t>
+  </si>
+  <si>
+    <t>Ace Ventura: Zew natury</t>
+  </si>
+  <si>
+    <t>Braveheart - Waleczne Serce</t>
+  </si>
+  <si>
+    <t>Epidemia</t>
+  </si>
+  <si>
+    <t>Młodzi gniewni</t>
+  </si>
+  <si>
+    <t>Ja cię kocham, a ty śpisz</t>
+  </si>
+  <si>
+    <t>Co się wydarzyło w Madison County</t>
+  </si>
+  <si>
+    <t>Gorączka</t>
+  </si>
+  <si>
+    <t>Karmazynowy przypływ</t>
+  </si>
+  <si>
+    <t>Kongo</t>
+  </si>
+  <si>
+    <t>Dziewięć miesięcy</t>
+  </si>
+  <si>
+    <t>Rozważna i romantyczna</t>
+  </si>
+  <si>
+    <t>Dorwać Małego</t>
+  </si>
+  <si>
+    <t>Symfonia życia</t>
+  </si>
+  <si>
+    <t>Kasyno</t>
+  </si>
+  <si>
+    <t>Wallace i Gromit Golenie owiec</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Liberator 2</t>
+  </si>
+  <si>
+    <t>Zabójcy</t>
+  </si>
+  <si>
+    <t>Doppelpass</t>
+  </si>
+  <si>
+    <t>Ojciec panny młodej 2</t>
+  </si>
+  <si>
+    <t>Jeszcze bardziej zgryźliwi tetrycy</t>
+  </si>
+  <si>
+    <t>Podejrzani</t>
+  </si>
+  <si>
+    <t>Uwolnić orkę 2</t>
+  </si>
+  <si>
+    <t>Don Juan de Marco</t>
+  </si>
+  <si>
+    <t>Nieśmiertelny III: Mag</t>
+  </si>
+  <si>
+    <t>Miasto zaginionych dzieci</t>
+  </si>
+  <si>
+    <t>Upadłe anioły</t>
+  </si>
+  <si>
+    <t>Dym</t>
+  </si>
+  <si>
+    <t>Brat snu</t>
+  </si>
+  <si>
+    <t>Prywatna obsesja</t>
+  </si>
+  <si>
+    <t>Hakerzy</t>
+  </si>
+  <si>
+    <t>Odlotowa dziewczyna</t>
+  </si>
+  <si>
+    <t>Halloween VI: Przekleństwo Michaela Myersa</t>
+  </si>
+  <si>
+    <t>Les truffes</t>
+  </si>
+  <si>
+    <t>Czysta gra</t>
+  </si>
+  <si>
+    <t>Człowiek ciemności II: Durant powraca</t>
+  </si>
+  <si>
+    <t>Brooklyn Boogie</t>
+  </si>
+  <si>
+    <t>Truposz</t>
+  </si>
+  <si>
+    <t>Karzeł 3</t>
+  </si>
+  <si>
+    <t>Dzień Niepodległości</t>
+  </si>
+  <si>
+    <t>Twierdza</t>
   </si>
 </sst>
 </file>
@@ -22890,11 +23025,11 @@
   <dimension ref="A1:P2444"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G1553" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G1623" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="H1556" sqref="H1556"/>
+      <selection pane="bottomRight" activeCell="H1628" sqref="H1628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -63453,7 +63588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1553" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1553">
         <v>1994</v>
       </c>
@@ -63479,7 +63614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1554" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1554">
         <v>1994</v>
       </c>
@@ -63505,7 +63640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1555" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1555">
         <v>1994</v>
       </c>
@@ -63531,7 +63666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1556" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1556">
         <v>1995</v>
       </c>
@@ -63550,10 +63685,14 @@
       <c r="G1556" t="s">
         <v>5948</v>
       </c>
-      <c r="H1556" s="9"/>
-      <c r="I1556"/>
-    </row>
-    <row r="1557" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1556" s="9" t="s">
+        <v>5947</v>
+      </c>
+      <c r="I1556" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1557">
         <v>1995</v>
       </c>
@@ -63572,10 +63711,14 @@
       <c r="G1557" t="s">
         <v>5950</v>
       </c>
-      <c r="H1557" s="1"/>
-      <c r="I1557"/>
-    </row>
-    <row r="1558" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1557" s="1" t="s">
+        <v>5949</v>
+      </c>
+      <c r="I1557" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1558">
         <v>1995</v>
       </c>
@@ -63594,10 +63737,14 @@
       <c r="G1558" t="s">
         <v>5953</v>
       </c>
-      <c r="H1558" s="9"/>
-      <c r="I1558"/>
-    </row>
-    <row r="1559" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1558" s="9" t="s">
+        <v>7463</v>
+      </c>
+      <c r="I1558" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1559">
         <v>1995</v>
       </c>
@@ -63616,9 +63763,14 @@
       <c r="G1559" t="s">
         <v>5955</v>
       </c>
-      <c r="H1559" s="9"/>
-    </row>
-    <row r="1560" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1559" s="9" t="s">
+        <v>7464</v>
+      </c>
+      <c r="I1559" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1560">
         <v>1995</v>
       </c>
@@ -63637,9 +63789,14 @@
       <c r="G1560" t="s">
         <v>5957</v>
       </c>
-      <c r="H1560" s="9"/>
-    </row>
-    <row r="1561" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1560" s="9" t="s">
+        <v>5956</v>
+      </c>
+      <c r="I1560" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1561">
         <v>1995</v>
       </c>
@@ -63658,9 +63815,14 @@
       <c r="G1561" t="s">
         <v>5959</v>
       </c>
-      <c r="H1561" s="9"/>
-    </row>
-    <row r="1562" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1561" s="9" t="s">
+        <v>5958</v>
+      </c>
+      <c r="I1561" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1562">
         <v>1995</v>
       </c>
@@ -63685,11 +63847,8 @@
       <c r="I1562" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1562" s="1" t="s">
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1563">
         <v>1995</v>
       </c>
@@ -63708,12 +63867,14 @@
       <c r="G1563" t="s">
         <v>5963</v>
       </c>
-      <c r="H1563" s="9"/>
-      <c r="J1563" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="1564" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1563" s="9" t="s">
+        <v>5962</v>
+      </c>
+      <c r="I1563" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1564">
         <v>1995</v>
       </c>
@@ -63732,12 +63893,14 @@
       <c r="G1564" t="s">
         <v>5965</v>
       </c>
-      <c r="H1564" s="9"/>
-      <c r="J1564" s="1" t="s">
-        <v>4331</v>
-      </c>
-    </row>
-    <row r="1565" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1564" s="9" t="s">
+        <v>7465</v>
+      </c>
+      <c r="I1564" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1565">
         <v>1995</v>
       </c>
@@ -63756,12 +63919,14 @@
       <c r="G1565" t="s">
         <v>5968</v>
       </c>
-      <c r="H1565" s="9"/>
-      <c r="J1565" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="1566" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1565" s="9" t="s">
+        <v>5966</v>
+      </c>
+      <c r="I1565" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1566">
         <v>1995</v>
       </c>
@@ -63780,12 +63945,14 @@
       <c r="G1566" t="s">
         <v>5970</v>
       </c>
-      <c r="H1566" s="9"/>
-      <c r="J1566" s="1" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="1567" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1566" s="9" t="s">
+        <v>7466</v>
+      </c>
+      <c r="I1566" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1567">
         <v>1995</v>
       </c>
@@ -63804,12 +63971,14 @@
       <c r="G1567" t="s">
         <v>5972</v>
       </c>
-      <c r="H1567" s="9"/>
-      <c r="J1567" s="1" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="1568" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1567" s="9" t="s">
+        <v>7467</v>
+      </c>
+      <c r="I1567" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1568">
         <v>1995</v>
       </c>
@@ -63828,12 +63997,14 @@
       <c r="G1568" t="s">
         <v>5974</v>
       </c>
-      <c r="H1568" s="9"/>
-      <c r="J1568" s="1" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="1569" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1568" s="9" t="s">
+        <v>7468</v>
+      </c>
+      <c r="I1568" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1569">
         <v>1995</v>
       </c>
@@ -63852,13 +64023,14 @@
       <c r="G1569" t="s">
         <v>5976</v>
       </c>
-      <c r="H1569" s="9"/>
-      <c r="I1569"/>
-      <c r="J1569" s="1" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="1570" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1569" s="9" t="s">
+        <v>7469</v>
+      </c>
+      <c r="I1569" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1570">
         <v>1995</v>
       </c>
@@ -63877,13 +64049,14 @@
       <c r="G1570" t="s">
         <v>5979</v>
       </c>
-      <c r="H1570" s="9"/>
-      <c r="I1570"/>
-      <c r="J1570" s="1" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1570" s="9" t="s">
+        <v>5977</v>
+      </c>
+      <c r="I1570" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1571">
         <v>1995</v>
       </c>
@@ -63902,13 +64075,14 @@
       <c r="G1571" t="s">
         <v>5981</v>
       </c>
-      <c r="H1571" s="9"/>
-      <c r="I1571"/>
-      <c r="J1571" s="1" t="s">
-        <v>4336</v>
-      </c>
-    </row>
-    <row r="1572" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1571" s="9" t="s">
+        <v>7470</v>
+      </c>
+      <c r="I1571" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1572">
         <v>1995</v>
       </c>
@@ -63927,13 +64101,14 @@
       <c r="G1572" t="s">
         <v>5983</v>
       </c>
-      <c r="H1572" s="9"/>
-      <c r="I1572"/>
-      <c r="J1572" s="1" t="s">
-        <v>4337</v>
-      </c>
-    </row>
-    <row r="1573" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1572" s="9" t="s">
+        <v>7471</v>
+      </c>
+      <c r="I1572" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1573">
         <v>1995</v>
       </c>
@@ -63952,13 +64127,14 @@
       <c r="G1573" t="s">
         <v>5985</v>
       </c>
-      <c r="H1573" s="9"/>
-      <c r="I1573"/>
-      <c r="J1573" s="1" t="s">
-        <v>4338</v>
-      </c>
-    </row>
-    <row r="1574" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1573" s="9" t="s">
+        <v>7472</v>
+      </c>
+      <c r="I1573" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1574">
         <v>1995</v>
       </c>
@@ -63977,13 +64153,14 @@
       <c r="G1574" t="s">
         <v>5986</v>
       </c>
-      <c r="H1574" s="9"/>
-      <c r="I1574"/>
-      <c r="J1574" s="1" t="s">
-        <v>4297</v>
-      </c>
-    </row>
-    <row r="1575" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1574" s="9" t="s">
+        <v>7473</v>
+      </c>
+      <c r="I1574" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1575">
         <v>1995</v>
       </c>
@@ -64002,13 +64179,14 @@
       <c r="G1575" t="s">
         <v>5988</v>
       </c>
-      <c r="H1575" s="9"/>
-      <c r="I1575"/>
-      <c r="J1575" s="1" t="s">
-        <v>4339</v>
-      </c>
-    </row>
-    <row r="1576" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1575" s="9" t="s">
+        <v>7474</v>
+      </c>
+      <c r="I1575" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1576">
         <v>1995</v>
       </c>
@@ -64027,13 +64205,14 @@
       <c r="G1576" t="s">
         <v>5990</v>
       </c>
-      <c r="H1576" s="9"/>
-      <c r="I1576"/>
-      <c r="J1576" s="1" t="s">
-        <v>4340</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1576" s="9" t="s">
+        <v>7475</v>
+      </c>
+      <c r="I1576" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1577">
         <v>1995</v>
       </c>
@@ -64052,13 +64231,14 @@
       <c r="G1577" t="s">
         <v>5992</v>
       </c>
-      <c r="H1577" s="9"/>
-      <c r="I1577"/>
-      <c r="J1577" s="1" t="s">
-        <v>4341</v>
-      </c>
-    </row>
-    <row r="1578" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1577" s="9" t="s">
+        <v>7476</v>
+      </c>
+      <c r="I1577" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1578">
         <v>1995</v>
       </c>
@@ -64077,12 +64257,14 @@
       <c r="G1578" t="s">
         <v>5994</v>
       </c>
-      <c r="H1578" s="9"/>
-      <c r="J1578" s="1" t="s">
-        <v>4342</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1578" s="9" t="s">
+        <v>7477</v>
+      </c>
+      <c r="I1578" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1579">
         <v>1995</v>
       </c>
@@ -64107,11 +64289,8 @@
       <c r="I1579" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1579" s="1" t="s">
-        <v>4343</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1580">
         <v>1995</v>
       </c>
@@ -64136,11 +64315,8 @@
       <c r="I1580" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1580" s="1" t="s">
-        <v>4344</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1581">
         <v>1995</v>
       </c>
@@ -64159,12 +64335,14 @@
       <c r="G1581" t="s">
         <v>6000</v>
       </c>
-      <c r="H1581" s="9"/>
-      <c r="J1581" s="1" t="s">
-        <v>4345</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1581" s="9" t="s">
+        <v>7478</v>
+      </c>
+      <c r="I1581" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1582">
         <v>1995</v>
       </c>
@@ -64183,12 +64361,14 @@
       <c r="G1582" t="s">
         <v>6002</v>
       </c>
-      <c r="H1582" s="9"/>
-      <c r="J1582" s="1" t="s">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1582" s="9" t="s">
+        <v>7479</v>
+      </c>
+      <c r="I1582" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1583">
         <v>1995</v>
       </c>
@@ -64207,12 +64387,14 @@
       <c r="G1583" t="s">
         <v>6004</v>
       </c>
-      <c r="H1583" s="9"/>
-      <c r="J1583" s="1" t="s">
-        <v>4347</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1583" s="9" t="s">
+        <v>6003</v>
+      </c>
+      <c r="I1583" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1584">
         <v>1995</v>
       </c>
@@ -64231,12 +64413,14 @@
       <c r="G1584" t="s">
         <v>6007</v>
       </c>
-      <c r="H1584" s="9"/>
-      <c r="J1584" s="1" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1584" s="9" t="s">
+        <v>7480</v>
+      </c>
+      <c r="I1584" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1585">
         <v>1995</v>
       </c>
@@ -64258,12 +64442,14 @@
       <c r="G1585" t="s">
         <v>6009</v>
       </c>
-      <c r="H1585" s="9"/>
-      <c r="J1585" s="1" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1585" s="9" t="s">
+        <v>7481</v>
+      </c>
+      <c r="I1585" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1586">
         <v>1995</v>
       </c>
@@ -64282,12 +64468,14 @@
       <c r="G1586" t="s">
         <v>6011</v>
       </c>
-      <c r="H1586" s="9"/>
-      <c r="J1586" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1586" s="9" t="s">
+        <v>7482</v>
+      </c>
+      <c r="I1586" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1587">
         <v>1995</v>
       </c>
@@ -64306,12 +64494,14 @@
       <c r="G1587" t="s">
         <v>6013</v>
       </c>
-      <c r="H1587" s="9"/>
-      <c r="J1587" s="1" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1587" s="9" t="s">
+        <v>7483</v>
+      </c>
+      <c r="I1587" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1588">
         <v>1995</v>
       </c>
@@ -64333,12 +64523,14 @@
       <c r="G1588" t="s">
         <v>6016</v>
       </c>
-      <c r="H1588" s="9"/>
-      <c r="J1588" s="1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1588" s="9" t="s">
+        <v>6014</v>
+      </c>
+      <c r="I1588" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1589">
         <v>1995</v>
       </c>
@@ -64357,12 +64549,14 @@
       <c r="G1589" t="s">
         <v>6018</v>
       </c>
-      <c r="H1589" s="9"/>
-      <c r="J1589" s="1" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1589" s="9" t="s">
+        <v>7484</v>
+      </c>
+      <c r="I1589" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1590">
         <v>1995</v>
       </c>
@@ -64387,11 +64581,8 @@
       <c r="I1590" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1590" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1591">
         <v>1995</v>
       </c>
@@ -64413,12 +64604,14 @@
       <c r="G1591" t="s">
         <v>6023</v>
       </c>
-      <c r="H1591" s="9"/>
-      <c r="J1591" s="1" t="s">
-        <v>4348</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1591" s="9" t="s">
+        <v>7485</v>
+      </c>
+      <c r="I1591" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1592">
         <v>1995</v>
       </c>
@@ -64440,12 +64633,14 @@
       <c r="G1592" t="s">
         <v>6025</v>
       </c>
-      <c r="H1592" s="9"/>
-      <c r="J1592" s="1" t="s">
-        <v>4349</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1592" s="1" t="s">
+        <v>4331</v>
+      </c>
+      <c r="I1592" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1593">
         <v>1995</v>
       </c>
@@ -64470,11 +64665,8 @@
       <c r="I1593" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1593" s="1" t="s">
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1594">
         <v>1995</v>
       </c>
@@ -64496,12 +64688,14 @@
       <c r="G1594" t="s">
         <v>6029</v>
       </c>
-      <c r="H1594" s="9"/>
-      <c r="J1594" s="1" t="s">
-        <v>4351</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1594" s="9" t="s">
+        <v>6028</v>
+      </c>
+      <c r="I1594" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1595">
         <v>1995</v>
       </c>
@@ -64520,12 +64714,14 @@
       <c r="G1595" t="s">
         <v>6031</v>
       </c>
-      <c r="H1595" s="9"/>
-      <c r="J1595" s="1" t="s">
-        <v>4352</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1595" s="9" t="s">
+        <v>7486</v>
+      </c>
+      <c r="I1595" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1596">
         <v>1995</v>
       </c>
@@ -64544,12 +64740,14 @@
       <c r="G1596" t="s">
         <v>6033</v>
       </c>
-      <c r="H1596" s="9"/>
-      <c r="J1596" s="1" t="s">
-        <v>4353</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1596" s="9" t="s">
+        <v>7487</v>
+      </c>
+      <c r="I1596" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1597">
         <v>1995</v>
       </c>
@@ -64568,12 +64766,14 @@
       <c r="G1597" t="s">
         <v>6035</v>
       </c>
-      <c r="H1597" s="9"/>
-      <c r="J1597" s="1" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1597" s="9" t="s">
+        <v>7488</v>
+      </c>
+      <c r="I1597" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1598">
         <v>1995</v>
       </c>
@@ -64592,12 +64792,14 @@
       <c r="G1598" t="s">
         <v>6037</v>
       </c>
-      <c r="H1598" s="9"/>
-      <c r="J1598" s="1" t="s">
-        <v>4355</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1598" s="9" t="s">
+        <v>7489</v>
+      </c>
+      <c r="I1598" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1599">
         <v>1995</v>
       </c>
@@ -64616,13 +64818,14 @@
       <c r="G1599" t="s">
         <v>6039</v>
       </c>
-      <c r="H1599" s="9"/>
-      <c r="I1599"/>
-      <c r="J1599" s="1" t="s">
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1599" s="9" t="s">
+        <v>7490</v>
+      </c>
+      <c r="I1599" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1600">
         <v>1995</v>
       </c>
@@ -64641,13 +64844,14 @@
       <c r="G1600" t="s">
         <v>6041</v>
       </c>
-      <c r="H1600" s="9"/>
-      <c r="I1600"/>
-      <c r="J1600" s="1" t="s">
-        <v>4357</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1600" s="9" t="s">
+        <v>7491</v>
+      </c>
+      <c r="I1600" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1601">
         <v>1995</v>
       </c>
@@ -64666,13 +64870,14 @@
       <c r="G1601" t="s">
         <v>6045</v>
       </c>
-      <c r="H1601" s="9"/>
-      <c r="I1601"/>
-      <c r="J1601" s="1" t="s">
-        <v>4358</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1601" s="9" t="s">
+        <v>7492</v>
+      </c>
+      <c r="I1601" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1602">
         <v>1995</v>
       </c>
@@ -64691,13 +64896,14 @@
       <c r="G1602" t="s">
         <v>6047</v>
       </c>
-      <c r="H1602" s="9"/>
-      <c r="I1602"/>
-      <c r="J1602" s="1" t="s">
-        <v>4359</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1602" s="9" t="s">
+        <v>7493</v>
+      </c>
+      <c r="I1602" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1603">
         <v>1995</v>
       </c>
@@ -64716,13 +64922,14 @@
       <c r="G1603" t="s">
         <v>6049</v>
       </c>
-      <c r="H1603" s="9"/>
-      <c r="I1603"/>
-      <c r="J1603" s="1" t="s">
-        <v>4360</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1603" s="9" t="s">
+        <v>6048</v>
+      </c>
+      <c r="I1603" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1604">
         <v>1995</v>
       </c>
@@ -64741,13 +64948,14 @@
       <c r="G1604" t="s">
         <v>6052</v>
       </c>
-      <c r="H1604" s="9"/>
-      <c r="I1604"/>
-      <c r="J1604" s="1" t="s">
-        <v>4361</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1604" s="9" t="s">
+        <v>6050</v>
+      </c>
+      <c r="I1604" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1605">
         <v>1995</v>
       </c>
@@ -64766,13 +64974,14 @@
       <c r="G1605" t="s">
         <v>6055</v>
       </c>
-      <c r="H1605" s="9"/>
-      <c r="I1605"/>
-      <c r="J1605" s="1" t="s">
-        <v>4362</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1605" s="9" t="s">
+        <v>7494</v>
+      </c>
+      <c r="I1605" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1606">
         <v>1995</v>
       </c>
@@ -64791,13 +65000,14 @@
       <c r="G1606" t="s">
         <v>6057</v>
       </c>
-      <c r="H1606" s="9"/>
-      <c r="I1606"/>
-      <c r="J1606" s="1" t="s">
-        <v>4363</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1606" s="9" t="s">
+        <v>6056</v>
+      </c>
+      <c r="I1606" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1607">
         <v>1995</v>
       </c>
@@ -64816,13 +65026,14 @@
       <c r="G1607" t="s">
         <v>6059</v>
       </c>
-      <c r="H1607" s="9"/>
-      <c r="I1607"/>
-      <c r="J1607" s="1" t="s">
-        <v>4364</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1607" s="9" t="s">
+        <v>7495</v>
+      </c>
+      <c r="I1607" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1608">
         <v>1995</v>
       </c>
@@ -64841,13 +65052,14 @@
       <c r="G1608" t="s">
         <v>6061</v>
       </c>
-      <c r="H1608" s="9"/>
-      <c r="I1608"/>
-      <c r="J1608" s="1" t="s">
-        <v>4365</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1608" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="I1608" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1609">
         <v>1995</v>
       </c>
@@ -64869,13 +65081,14 @@
       <c r="G1609" t="s">
         <v>6063</v>
       </c>
-      <c r="H1609" s="9"/>
-      <c r="I1609"/>
-      <c r="J1609" s="1" t="s">
-        <v>4366</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1609" s="9" t="s">
+        <v>7496</v>
+      </c>
+      <c r="I1609" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1610">
         <v>1995</v>
       </c>
@@ -64894,13 +65107,14 @@
       <c r="G1610" t="s">
         <v>6065</v>
       </c>
-      <c r="H1610" s="9"/>
-      <c r="I1610"/>
-      <c r="J1610" s="1" t="s">
-        <v>4367</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1610" s="9" t="s">
+        <v>6064</v>
+      </c>
+      <c r="I1610" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1611">
         <v>1995</v>
       </c>
@@ -64919,12 +65133,14 @@
       <c r="G1611" t="s">
         <v>6067</v>
       </c>
-      <c r="H1611" s="9"/>
-      <c r="J1611" s="1" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1611" s="9" t="s">
+        <v>7497</v>
+      </c>
+      <c r="I1611" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1612">
         <v>1995</v>
       </c>
@@ -64943,12 +65159,14 @@
       <c r="G1612" t="s">
         <v>6069</v>
       </c>
-      <c r="H1612" s="9"/>
-      <c r="J1612" s="1" t="s">
-        <v>4368</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1612" s="9" t="s">
+        <v>7498</v>
+      </c>
+      <c r="I1612" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1613">
         <v>1995</v>
       </c>
@@ -64970,11 +65188,11 @@
       <c r="H1613" s="9" t="s">
         <v>7462</v>
       </c>
-      <c r="J1613" s="1" t="s">
-        <v>4297</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1613" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1614">
         <v>1995</v>
       </c>
@@ -64999,11 +65217,8 @@
       <c r="I1614" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1614" s="1" t="s">
-        <v>4369</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1615">
         <v>1995</v>
       </c>
@@ -65022,12 +65237,14 @@
       <c r="G1615" t="s">
         <v>6075</v>
       </c>
-      <c r="H1615" s="9"/>
-      <c r="J1615" s="1" t="s">
-        <v>4370</v>
-      </c>
-    </row>
-    <row r="1616" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1615" s="9" t="s">
+        <v>7499</v>
+      </c>
+      <c r="I1615" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1616">
         <v>1995</v>
       </c>
@@ -65052,11 +65269,8 @@
       <c r="I1616" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1616" s="1" t="s">
-        <v>4371</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1617">
         <v>1995</v>
       </c>
@@ -65075,12 +65289,14 @@
       <c r="G1617" t="s">
         <v>6079</v>
       </c>
-      <c r="H1617" s="9"/>
-      <c r="J1617" s="1" t="s">
-        <v>4372</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1617" s="9" t="s">
+        <v>7500</v>
+      </c>
+      <c r="I1617" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1618">
         <v>1995</v>
       </c>
@@ -65099,12 +65315,14 @@
       <c r="G1618" t="s">
         <v>6081</v>
       </c>
-      <c r="H1618" s="9"/>
-      <c r="J1618" s="1" t="s">
-        <v>4373</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1618" s="9" t="s">
+        <v>7501</v>
+      </c>
+      <c r="I1618" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1619">
         <v>1995</v>
       </c>
@@ -65126,12 +65344,14 @@
       <c r="G1619" t="s">
         <v>6083</v>
       </c>
-      <c r="H1619" s="9"/>
-      <c r="J1619" s="1" t="s">
-        <v>4374</v>
-      </c>
-    </row>
-    <row r="1620" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1619" s="9" t="s">
+        <v>7502</v>
+      </c>
+      <c r="I1619" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1620">
         <v>1995</v>
       </c>
@@ -65150,12 +65370,14 @@
       <c r="G1620" t="s">
         <v>6085</v>
       </c>
-      <c r="H1620" s="9"/>
-      <c r="J1620" s="1" t="s">
-        <v>4375</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1620" s="9" t="s">
+        <v>6084</v>
+      </c>
+      <c r="I1620" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1621">
         <v>1995</v>
       </c>
@@ -65174,12 +65396,14 @@
       <c r="G1621" t="s">
         <v>6087</v>
       </c>
-      <c r="H1621" s="9"/>
-      <c r="J1621" s="1" t="s">
-        <v>4376</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1621" s="9" t="s">
+        <v>7503</v>
+      </c>
+      <c r="I1621" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1622">
         <v>1995</v>
       </c>
@@ -65198,13 +65422,14 @@
       <c r="G1622" t="s">
         <v>6090</v>
       </c>
-      <c r="H1622" s="9"/>
-      <c r="I1622"/>
-      <c r="J1622" s="1" t="s">
-        <v>4377</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1622" s="9" t="s">
+        <v>7504</v>
+      </c>
+      <c r="I1622" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1623">
         <v>1995</v>
       </c>
@@ -65223,13 +65448,14 @@
       <c r="G1623" t="s">
         <v>6092</v>
       </c>
-      <c r="H1623" s="9"/>
-      <c r="I1623"/>
-      <c r="J1623" s="1" t="s">
-        <v>4378</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1623" s="9" t="s">
+        <v>7505</v>
+      </c>
+      <c r="I1623" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1624">
         <v>1996</v>
       </c>
@@ -65248,13 +65474,14 @@
       <c r="G1624" t="s">
         <v>6094</v>
       </c>
-      <c r="H1624" s="9"/>
-      <c r="I1624"/>
-      <c r="J1624" s="1" t="s">
-        <v>4379</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1624" s="9" t="s">
+        <v>7506</v>
+      </c>
+      <c r="I1624" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1625">
         <v>1996</v>
       </c>
@@ -65273,13 +65500,14 @@
       <c r="G1625" t="s">
         <v>6096</v>
       </c>
-      <c r="H1625" s="9"/>
-      <c r="I1625"/>
-      <c r="J1625" s="1" t="s">
-        <v>4380</v>
-      </c>
-    </row>
-    <row r="1626" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1625" s="9" t="s">
+        <v>6095</v>
+      </c>
+      <c r="I1625" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1626">
         <v>1996</v>
       </c>
@@ -65298,13 +65526,14 @@
       <c r="G1626" t="s">
         <v>6098</v>
       </c>
-      <c r="H1626" s="9"/>
-      <c r="I1626"/>
-      <c r="J1626" s="1" t="s">
-        <v>4381</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1626" s="1" t="s">
+        <v>4345</v>
+      </c>
+      <c r="I1626" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1627">
         <v>1996</v>
       </c>
@@ -65323,13 +65552,14 @@
       <c r="G1627" t="s">
         <v>6100</v>
       </c>
-      <c r="H1627" s="9"/>
-      <c r="I1627"/>
-      <c r="J1627" s="1" t="s">
-        <v>4382</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1627" s="9" t="s">
+        <v>7507</v>
+      </c>
+      <c r="I1627" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1628">
         <v>1996</v>
       </c>
@@ -65350,11 +65580,8 @@
       </c>
       <c r="H1628" s="9"/>
       <c r="I1628"/>
-      <c r="J1628" s="1" t="s">
-        <v>4383</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1629" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1629">
         <v>1996</v>
       </c>
@@ -65374,12 +65601,8 @@
         <v>6103</v>
       </c>
       <c r="H1629" s="9"/>
-      <c r="I1629"/>
-      <c r="J1629" s="1" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1630" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1630">
         <v>1996</v>
       </c>
@@ -65399,12 +65622,8 @@
         <v>6105</v>
       </c>
       <c r="H1630" s="9"/>
-      <c r="I1630"/>
-      <c r="J1630" s="1" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1631">
         <v>1996</v>
       </c>
@@ -65424,12 +65643,8 @@
         <v>6107</v>
       </c>
       <c r="H1631" s="9"/>
-      <c r="I1631"/>
-      <c r="J1631" s="1" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1632">
         <v>1996</v>
       </c>
@@ -65449,10 +65664,6 @@
         <v>6108</v>
       </c>
       <c r="H1632" s="9"/>
-      <c r="I1632"/>
-      <c r="J1632" s="1" t="s">
-        <v>4384</v>
-      </c>
     </row>
     <row r="1633" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1633">
@@ -65474,10 +65685,6 @@
         <v>6111</v>
       </c>
       <c r="H1633" s="9"/>
-      <c r="I1633"/>
-      <c r="J1633" s="1" t="s">
-        <v>4385</v>
-      </c>
     </row>
     <row r="1634" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1634">
@@ -65499,10 +65706,6 @@
         <v>6114</v>
       </c>
       <c r="H1634" s="9"/>
-      <c r="I1634"/>
-      <c r="J1634" s="1" t="s">
-        <v>4386</v>
-      </c>
     </row>
     <row r="1635" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1635">
@@ -65524,10 +65727,6 @@
         <v>6116</v>
       </c>
       <c r="H1635" s="9"/>
-      <c r="I1635"/>
-      <c r="J1635" s="1" t="s">
-        <v>4387</v>
-      </c>
     </row>
     <row r="1636" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1636">
@@ -65549,10 +65748,6 @@
         <v>6118</v>
       </c>
       <c r="H1636" s="9"/>
-      <c r="I1636"/>
-      <c r="J1636" s="1" t="s">
-        <v>4388</v>
-      </c>
     </row>
     <row r="1637" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1637">
@@ -65574,10 +65769,6 @@
         <v>6120</v>
       </c>
       <c r="H1637" s="9"/>
-      <c r="I1637"/>
-      <c r="J1637" s="1" t="s">
-        <v>4389</v>
-      </c>
     </row>
     <row r="1638" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1638">
@@ -65599,10 +65790,6 @@
         <v>6122</v>
       </c>
       <c r="H1638" s="9"/>
-      <c r="I1638"/>
-      <c r="J1638" s="1" t="s">
-        <v>4390</v>
-      </c>
     </row>
     <row r="1639" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1639">
@@ -65624,10 +65811,6 @@
         <v>6124</v>
       </c>
       <c r="H1639" s="9"/>
-      <c r="I1639"/>
-      <c r="J1639" s="1" t="s">
-        <v>4391</v>
-      </c>
     </row>
     <row r="1640" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1640">
@@ -65648,10 +65831,8 @@
       <c r="G1640" t="s">
         <v>6126</v>
       </c>
-      <c r="H1640" s="9"/>
-      <c r="I1640"/>
       <c r="J1640" s="1" t="s">
-        <v>4392</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1641" spans="1:10" x14ac:dyDescent="0.2">
@@ -65673,10 +65854,14 @@
       <c r="G1641" t="s">
         <v>6128</v>
       </c>
-      <c r="H1641" s="9"/>
-      <c r="I1641"/>
+      <c r="H1641" s="1" t="s">
+        <v>4341</v>
+      </c>
+      <c r="I1641" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1641" s="1" t="s">
-        <v>4393</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1642" spans="1:10" x14ac:dyDescent="0.2">
@@ -65698,10 +65883,11 @@
       <c r="G1642" t="s">
         <v>6131</v>
       </c>
-      <c r="H1642" s="9"/>
-      <c r="I1642"/>
+      <c r="I1642" s="2" t="s">
+        <v>7440</v>
+      </c>
       <c r="J1642" s="1" t="s">
-        <v>4394</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1643" spans="1:10" x14ac:dyDescent="0.2">
@@ -65723,10 +65909,14 @@
       <c r="G1643" t="s">
         <v>6132</v>
       </c>
-      <c r="H1643" s="9"/>
-      <c r="I1643"/>
+      <c r="H1643" s="1" t="s">
+        <v>4340</v>
+      </c>
+      <c r="I1643" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1643" s="1" t="s">
-        <v>4395</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1644" spans="1:10" x14ac:dyDescent="0.2">
@@ -65748,10 +65938,14 @@
       <c r="G1644" t="s">
         <v>6134</v>
       </c>
-      <c r="H1644" s="9"/>
-      <c r="I1644"/>
+      <c r="H1644" s="1" t="s">
+        <v>4343</v>
+      </c>
+      <c r="I1644" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="J1644" s="1" t="s">
-        <v>1313</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1645" spans="1:10" x14ac:dyDescent="0.2">
@@ -65774,9 +65968,8 @@
         <v>6136</v>
       </c>
       <c r="H1645" s="9"/>
-      <c r="I1645"/>
       <c r="J1645" s="1" t="s">
-        <v>1316</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1646" spans="1:10" x14ac:dyDescent="0.2">
@@ -65799,9 +65992,8 @@
         <v>6138</v>
       </c>
       <c r="H1646" s="9"/>
-      <c r="I1646"/>
       <c r="J1646" s="1" t="s">
-        <v>1320</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1647" spans="1:10" x14ac:dyDescent="0.2">
@@ -65824,9 +66016,8 @@
         <v>6140</v>
       </c>
       <c r="H1647" s="9"/>
-      <c r="I1647"/>
       <c r="J1647" s="1" t="s">
-        <v>1323</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1648" spans="1:10" x14ac:dyDescent="0.2">
@@ -65849,9 +66040,8 @@
         <v>6143</v>
       </c>
       <c r="H1648" s="9"/>
-      <c r="I1648"/>
       <c r="J1648" s="1" t="s">
-        <v>1326</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1649" spans="1:10" x14ac:dyDescent="0.2">
@@ -65874,9 +66064,8 @@
         <v>6145</v>
       </c>
       <c r="H1649" s="9"/>
-      <c r="I1649"/>
       <c r="J1649" s="1" t="s">
-        <v>4396</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1650" spans="1:10" x14ac:dyDescent="0.2">
@@ -65899,9 +66088,8 @@
         <v>6148</v>
       </c>
       <c r="H1650" s="9"/>
-      <c r="I1650"/>
       <c r="J1650" s="1" t="s">
-        <v>4397</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1651" spans="1:10" x14ac:dyDescent="0.2">
@@ -65926,7 +66114,7 @@
       <c r="H1651" s="9"/>
       <c r="I1651"/>
       <c r="J1651" s="1" t="s">
-        <v>4398</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1652" spans="1:10" x14ac:dyDescent="0.2">
@@ -65951,10 +66139,12 @@
       <c r="G1652" t="s">
         <v>6151</v>
       </c>
-      <c r="H1652" s="9"/>
+      <c r="H1652" s="1" t="s">
+        <v>4339</v>
+      </c>
       <c r="I1652"/>
       <c r="J1652" s="1" t="s">
-        <v>4399</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1653" spans="1:10" x14ac:dyDescent="0.2">
@@ -65979,7 +66169,7 @@
       <c r="H1653" s="9"/>
       <c r="I1653"/>
       <c r="J1653" s="1" t="s">
-        <v>4400</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1654" spans="1:10" x14ac:dyDescent="0.2">
@@ -66004,7 +66194,7 @@
       <c r="H1654" s="9"/>
       <c r="I1654"/>
       <c r="J1654" s="1" t="s">
-        <v>4401</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1655" spans="1:10" x14ac:dyDescent="0.2">
@@ -66029,7 +66219,7 @@
       <c r="H1655" s="9"/>
       <c r="I1655"/>
       <c r="J1655" s="1" t="s">
-        <v>4402</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1656" spans="1:10" x14ac:dyDescent="0.2">
@@ -66057,7 +66247,7 @@
       <c r="H1656" s="9"/>
       <c r="I1656"/>
       <c r="J1656" s="1" t="s">
-        <v>4403</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1657" spans="1:10" x14ac:dyDescent="0.2">
@@ -66082,7 +66272,7 @@
       <c r="H1657" s="9"/>
       <c r="I1657"/>
       <c r="J1657" s="1" t="s">
-        <v>4404</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1658" spans="1:10" x14ac:dyDescent="0.2">
@@ -66107,7 +66297,7 @@
       <c r="H1658" s="9"/>
       <c r="I1658"/>
       <c r="J1658" s="1" t="s">
-        <v>1330</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="1659" spans="1:10" x14ac:dyDescent="0.2">
@@ -66135,7 +66325,7 @@
       <c r="H1659" s="9"/>
       <c r="I1659"/>
       <c r="J1659" s="1" t="s">
-        <v>1334</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1660" spans="1:10" x14ac:dyDescent="0.2">
@@ -66160,7 +66350,7 @@
       <c r="H1660" s="9"/>
       <c r="I1660"/>
       <c r="J1660" s="1" t="s">
-        <v>1338</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1661" spans="1:10" x14ac:dyDescent="0.2">
@@ -66182,10 +66372,14 @@
       <c r="G1661" t="s">
         <v>6169</v>
       </c>
-      <c r="H1661" s="9"/>
-      <c r="I1661"/>
+      <c r="H1661" s="1" t="s">
+        <v>4342</v>
+      </c>
+      <c r="I1661" t="s">
+        <v>13</v>
+      </c>
       <c r="J1661" s="1" t="s">
-        <v>1341</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1662" spans="1:10" x14ac:dyDescent="0.2">
@@ -66210,7 +66404,7 @@
       <c r="H1662" s="9"/>
       <c r="I1662"/>
       <c r="J1662" s="1" t="s">
-        <v>1344</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1663" spans="1:10" x14ac:dyDescent="0.2">
@@ -66235,7 +66429,7 @@
       <c r="H1663" s="9"/>
       <c r="I1663"/>
       <c r="J1663" s="1" t="s">
-        <v>1347</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1664" spans="1:10" x14ac:dyDescent="0.2">
@@ -66260,7 +66454,7 @@
       <c r="H1664" s="9"/>
       <c r="I1664"/>
       <c r="J1664" s="1" t="s">
-        <v>1351</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1665" spans="1:10" x14ac:dyDescent="0.2">
@@ -66285,7 +66479,7 @@
       <c r="H1665" s="9"/>
       <c r="I1665"/>
       <c r="J1665" s="1" t="s">
-        <v>1354</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1666" spans="1:10" x14ac:dyDescent="0.2">
@@ -66310,7 +66504,7 @@
       <c r="H1666" s="9"/>
       <c r="I1666"/>
       <c r="J1666" s="1" t="s">
-        <v>1357</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1667" spans="1:10" x14ac:dyDescent="0.2">
@@ -66335,7 +66529,7 @@
       <c r="H1667" s="9"/>
       <c r="I1667"/>
       <c r="J1667" s="1" t="s">
-        <v>1360</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1668" spans="1:10" x14ac:dyDescent="0.2">
@@ -66360,7 +66554,7 @@
       <c r="H1668" s="9"/>
       <c r="I1668"/>
       <c r="J1668" s="1" t="s">
-        <v>1365</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1669" spans="1:10" x14ac:dyDescent="0.2">
@@ -66385,7 +66579,7 @@
       <c r="H1669" s="9"/>
       <c r="I1669"/>
       <c r="J1669" s="1" t="s">
-        <v>1368</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1670" spans="1:10" x14ac:dyDescent="0.2">
@@ -66410,10 +66604,14 @@
       <c r="G1670" t="s">
         <v>6188</v>
       </c>
-      <c r="H1670" s="9"/>
-      <c r="I1670"/>
+      <c r="H1670" s="1" t="s">
+        <v>4337</v>
+      </c>
+      <c r="I1670" t="s">
+        <v>13</v>
+      </c>
       <c r="J1670" s="1" t="s">
-        <v>1371</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1671" spans="1:10" x14ac:dyDescent="0.2">
@@ -66438,7 +66636,7 @@
       <c r="H1671" s="9"/>
       <c r="I1671"/>
       <c r="J1671" s="1" t="s">
-        <v>1375</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1672" spans="1:10" x14ac:dyDescent="0.2">
@@ -66460,10 +66658,14 @@
       <c r="G1672" t="s">
         <v>6192</v>
       </c>
-      <c r="H1672" s="9"/>
-      <c r="I1672"/>
+      <c r="H1672" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I1672" t="s">
+        <v>13</v>
+      </c>
       <c r="J1672" s="1" t="s">
-        <v>1378</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1673" spans="1:10" x14ac:dyDescent="0.2">
@@ -66488,7 +66690,7 @@
       <c r="H1673" s="9"/>
       <c r="I1673"/>
       <c r="J1673" s="1" t="s">
-        <v>1381</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1674" spans="1:10" x14ac:dyDescent="0.2">
@@ -66513,7 +66715,7 @@
       <c r="H1674" s="9"/>
       <c r="I1674"/>
       <c r="J1674" s="1" t="s">
-        <v>442</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1675" spans="1:10" x14ac:dyDescent="0.2">
@@ -66535,10 +66737,14 @@
       <c r="G1675" t="s">
         <v>6198</v>
       </c>
-      <c r="H1675" s="9"/>
-      <c r="I1675"/>
+      <c r="H1675" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I1675" t="s">
+        <v>13</v>
+      </c>
       <c r="J1675" s="1" t="s">
-        <v>1387</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="1676" spans="1:10" x14ac:dyDescent="0.2">
@@ -66563,7 +66769,7 @@
       <c r="H1676" s="9"/>
       <c r="I1676"/>
       <c r="J1676" s="1" t="s">
-        <v>1391</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1677" spans="1:10" x14ac:dyDescent="0.2">
@@ -66585,10 +66791,14 @@
       <c r="G1677" t="s">
         <v>6201</v>
       </c>
-      <c r="H1677" s="9"/>
-      <c r="I1677"/>
+      <c r="H1677" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I1677" t="s">
+        <v>13</v>
+      </c>
       <c r="J1677" s="1" t="s">
-        <v>1394</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1678" spans="1:10" x14ac:dyDescent="0.2">
@@ -66613,7 +66823,7 @@
       <c r="H1678" s="9"/>
       <c r="I1678"/>
       <c r="J1678" s="1" t="s">
-        <v>1396</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1679" spans="1:10" x14ac:dyDescent="0.2">
@@ -66638,7 +66848,7 @@
       <c r="H1679" s="9"/>
       <c r="I1679"/>
       <c r="J1679" s="1" t="s">
-        <v>1399</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1680" spans="1:10" x14ac:dyDescent="0.2">
@@ -66666,7 +66876,7 @@
       <c r="H1680" s="9"/>
       <c r="I1680"/>
       <c r="J1680" s="1" t="s">
-        <v>1402</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1681" spans="1:10" x14ac:dyDescent="0.2">
@@ -66694,7 +66904,7 @@
       <c r="H1681" s="9"/>
       <c r="I1681"/>
       <c r="J1681" s="1" t="s">
-        <v>1406</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1682" spans="1:10" x14ac:dyDescent="0.2">
@@ -66719,7 +66929,7 @@
       <c r="H1682" s="9"/>
       <c r="I1682"/>
       <c r="J1682" s="1" t="s">
-        <v>1410</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1683" spans="1:10" x14ac:dyDescent="0.2">
@@ -66747,7 +66957,7 @@
       <c r="H1683" s="9"/>
       <c r="I1683"/>
       <c r="J1683" s="1" t="s">
-        <v>1413</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1684" spans="1:10" x14ac:dyDescent="0.2">
@@ -66772,7 +66982,7 @@
       <c r="H1684" s="9"/>
       <c r="I1684"/>
       <c r="J1684" s="1" t="s">
-        <v>1417</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1685" spans="1:10" x14ac:dyDescent="0.2">
@@ -66797,7 +67007,7 @@
       <c r="H1685" s="9"/>
       <c r="I1685"/>
       <c r="J1685" s="1" t="s">
-        <v>1420</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1686" spans="1:10" x14ac:dyDescent="0.2">
@@ -66822,7 +67032,7 @@
       <c r="H1686" s="9"/>
       <c r="I1686"/>
       <c r="J1686" s="1" t="s">
-        <v>1423</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1687" spans="1:10" x14ac:dyDescent="0.2">
@@ -66847,7 +67057,7 @@
       <c r="H1687" s="9"/>
       <c r="I1687"/>
       <c r="J1687" s="1" t="s">
-        <v>62</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1688" spans="1:10" x14ac:dyDescent="0.2">
@@ -66872,7 +67082,7 @@
       <c r="H1688" s="9"/>
       <c r="I1688"/>
       <c r="J1688" s="1" t="s">
-        <v>1428</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1689" spans="1:10" x14ac:dyDescent="0.2">
@@ -66897,7 +67107,7 @@
       <c r="H1689" s="9"/>
       <c r="I1689"/>
       <c r="J1689" s="1" t="s">
-        <v>1432</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1690" spans="1:10" x14ac:dyDescent="0.2">
@@ -66922,7 +67132,7 @@
       <c r="H1690" s="9"/>
       <c r="I1690"/>
       <c r="J1690" s="1" t="s">
-        <v>1435</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1691" spans="1:10" x14ac:dyDescent="0.2">
@@ -66947,7 +67157,7 @@
       <c r="H1691" s="9"/>
       <c r="I1691"/>
       <c r="J1691" s="1" t="s">
-        <v>1438</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1692" spans="1:10" x14ac:dyDescent="0.2">
@@ -66972,7 +67182,7 @@
       <c r="H1692" s="9"/>
       <c r="I1692"/>
       <c r="J1692" s="1" t="s">
-        <v>1442</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1693" spans="1:10" x14ac:dyDescent="0.2">
@@ -66997,7 +67207,7 @@
       <c r="H1693" s="9"/>
       <c r="I1693"/>
       <c r="J1693" s="1" t="s">
-        <v>1446</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1694" spans="1:10" x14ac:dyDescent="0.2">
@@ -67022,7 +67232,7 @@
       <c r="H1694" s="9"/>
       <c r="I1694"/>
       <c r="J1694" s="1" t="s">
-        <v>4405</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1695" spans="1:10" x14ac:dyDescent="0.2">
@@ -67047,7 +67257,7 @@
       <c r="H1695" s="9"/>
       <c r="I1695"/>
       <c r="J1695" s="1" t="s">
-        <v>4406</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1696" spans="1:10" x14ac:dyDescent="0.2">
@@ -67072,7 +67282,7 @@
       <c r="H1696" s="9"/>
       <c r="I1696"/>
       <c r="J1696" s="1" t="s">
-        <v>4407</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1697" spans="1:10" x14ac:dyDescent="0.2">
@@ -67097,7 +67307,7 @@
       <c r="H1697" s="9"/>
       <c r="I1697"/>
       <c r="J1697" s="1" t="s">
-        <v>4408</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1698" spans="1:10" x14ac:dyDescent="0.2">
@@ -67122,7 +67332,7 @@
       <c r="H1698" s="9"/>
       <c r="I1698"/>
       <c r="J1698" s="1" t="s">
-        <v>4409</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1699" spans="1:10" x14ac:dyDescent="0.2">
@@ -67147,7 +67357,7 @@
       <c r="H1699" s="9"/>
       <c r="I1699"/>
       <c r="J1699" s="1" t="s">
-        <v>4410</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1700" spans="1:10" x14ac:dyDescent="0.2">
@@ -67172,7 +67382,7 @@
       <c r="H1700" s="9"/>
       <c r="I1700"/>
       <c r="J1700" s="1" t="s">
-        <v>4411</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1701" spans="1:10" x14ac:dyDescent="0.2">
@@ -67197,7 +67407,7 @@
       <c r="H1701" s="9"/>
       <c r="I1701"/>
       <c r="J1701" s="1" t="s">
-        <v>4412</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="1702" spans="1:10" x14ac:dyDescent="0.2">
@@ -67222,7 +67432,7 @@
       <c r="H1702" s="9"/>
       <c r="I1702"/>
       <c r="J1702" s="1" t="s">
-        <v>4413</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1703" spans="1:10" x14ac:dyDescent="0.2">
@@ -67247,7 +67457,7 @@
       <c r="H1703" s="9"/>
       <c r="I1703"/>
       <c r="J1703" s="1" t="s">
-        <v>4414</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1704" spans="1:10" x14ac:dyDescent="0.2">
@@ -67272,7 +67482,7 @@
       <c r="H1704" s="9"/>
       <c r="I1704"/>
       <c r="J1704" s="1" t="s">
-        <v>4415</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1705" spans="1:10" x14ac:dyDescent="0.2">
@@ -67297,7 +67507,7 @@
       <c r="H1705" s="9"/>
       <c r="I1705"/>
       <c r="J1705" s="1" t="s">
-        <v>4416</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1706" spans="1:10" x14ac:dyDescent="0.2">
@@ -67322,7 +67532,7 @@
       <c r="H1706" s="9"/>
       <c r="I1706"/>
       <c r="J1706" s="1" t="s">
-        <v>4417</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1707" spans="1:10" x14ac:dyDescent="0.2">
@@ -67347,7 +67557,7 @@
       <c r="H1707" s="9"/>
       <c r="I1707"/>
       <c r="J1707" s="1" t="s">
-        <v>4418</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1708" spans="1:10" x14ac:dyDescent="0.2">
@@ -67372,7 +67582,7 @@
       <c r="H1708" s="9"/>
       <c r="I1708"/>
       <c r="J1708" s="1" t="s">
-        <v>4419</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1709" spans="1:10" x14ac:dyDescent="0.2">
@@ -67397,7 +67607,7 @@
       <c r="H1709" s="9"/>
       <c r="I1709"/>
       <c r="J1709" s="1" t="s">
-        <v>2991</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1710" spans="1:10" x14ac:dyDescent="0.2">
@@ -67422,7 +67632,7 @@
       <c r="H1710" s="9"/>
       <c r="I1710"/>
       <c r="J1710" s="1" t="s">
-        <v>4420</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1711" spans="1:10" x14ac:dyDescent="0.2">
@@ -67447,7 +67657,7 @@
       <c r="H1711" s="9"/>
       <c r="I1711"/>
       <c r="J1711" s="1" t="s">
-        <v>4421</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1712" spans="1:10" x14ac:dyDescent="0.2">
@@ -67472,7 +67682,7 @@
       <c r="H1712" s="9"/>
       <c r="I1712"/>
       <c r="J1712" s="1" t="s">
-        <v>2942</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1713" spans="1:10" x14ac:dyDescent="0.2">
@@ -67497,7 +67707,7 @@
       <c r="H1713" s="9"/>
       <c r="I1713"/>
       <c r="J1713" s="1" t="s">
-        <v>4422</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1714" spans="1:10" x14ac:dyDescent="0.2">
@@ -67522,7 +67732,7 @@
       <c r="H1714" s="9"/>
       <c r="I1714"/>
       <c r="J1714" s="1" t="s">
-        <v>4423</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1715" spans="1:10" x14ac:dyDescent="0.2">
@@ -67547,7 +67757,7 @@
       <c r="H1715" s="9"/>
       <c r="I1715"/>
       <c r="J1715" s="1" t="s">
-        <v>4405</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="1716" spans="1:10" x14ac:dyDescent="0.2">
@@ -67572,7 +67782,7 @@
       <c r="H1716" s="9"/>
       <c r="I1716"/>
       <c r="J1716" s="1" t="s">
-        <v>1449</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1717" spans="1:10" x14ac:dyDescent="0.2">
@@ -67597,7 +67807,7 @@
       <c r="H1717" s="9"/>
       <c r="I1717"/>
       <c r="J1717" s="1" t="s">
-        <v>1452</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1718" spans="1:10" x14ac:dyDescent="0.2">
@@ -67622,7 +67832,7 @@
       <c r="H1718" s="9"/>
       <c r="I1718"/>
       <c r="J1718" s="1" t="s">
-        <v>1456</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1719" spans="1:10" x14ac:dyDescent="0.2">
@@ -67647,7 +67857,7 @@
       <c r="H1719" s="9"/>
       <c r="I1719"/>
       <c r="J1719" s="1" t="s">
-        <v>1459</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1720" spans="1:10" x14ac:dyDescent="0.2">
@@ -67672,7 +67882,7 @@
       <c r="H1720" s="9"/>
       <c r="I1720"/>
       <c r="J1720" s="1" t="s">
-        <v>1462</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1721" spans="1:10" x14ac:dyDescent="0.2">
@@ -67700,7 +67910,7 @@
       <c r="H1721" s="9"/>
       <c r="I1721"/>
       <c r="J1721" s="1" t="s">
-        <v>1465</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1722" spans="1:10" x14ac:dyDescent="0.2">
@@ -67725,7 +67935,7 @@
       <c r="H1722" s="9"/>
       <c r="I1722"/>
       <c r="J1722" s="1" t="s">
-        <v>1469</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1723" spans="1:10" x14ac:dyDescent="0.2">
@@ -67750,7 +67960,7 @@
       <c r="H1723" s="9"/>
       <c r="I1723"/>
       <c r="J1723" s="1" t="s">
-        <v>591</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1724" spans="1:10" x14ac:dyDescent="0.2">
@@ -67775,7 +67985,7 @@
       <c r="H1724" s="9"/>
       <c r="I1724"/>
       <c r="J1724" s="1" t="s">
-        <v>1475</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1725" spans="1:10" x14ac:dyDescent="0.2">
@@ -67800,7 +68010,7 @@
       <c r="H1725" s="9"/>
       <c r="I1725"/>
       <c r="J1725" s="1" t="s">
-        <v>1478</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1726" spans="1:10" x14ac:dyDescent="0.2">
@@ -67825,7 +68035,7 @@
       <c r="H1726" s="9"/>
       <c r="I1726"/>
       <c r="J1726" s="1" t="s">
-        <v>1480</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1727" spans="1:10" x14ac:dyDescent="0.2">
@@ -67850,7 +68060,7 @@
       <c r="H1727" s="9"/>
       <c r="I1727"/>
       <c r="J1727" s="1" t="s">
-        <v>1484</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1728" spans="1:10" x14ac:dyDescent="0.2">
@@ -67875,7 +68085,7 @@
       <c r="H1728" s="9"/>
       <c r="I1728"/>
       <c r="J1728" s="1" t="s">
-        <v>1487</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1729" spans="1:10" x14ac:dyDescent="0.2">
@@ -67900,7 +68110,7 @@
       <c r="H1729" s="9"/>
       <c r="I1729"/>
       <c r="J1729" s="1" t="s">
-        <v>1491</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1730" spans="1:10" x14ac:dyDescent="0.2">
@@ -67925,7 +68135,7 @@
       <c r="H1730" s="9"/>
       <c r="I1730"/>
       <c r="J1730" s="1" t="s">
-        <v>1495</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1731" spans="1:10" x14ac:dyDescent="0.2">
@@ -67950,7 +68160,7 @@
       <c r="H1731" s="9"/>
       <c r="I1731"/>
       <c r="J1731" s="1" t="s">
-        <v>1498</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1732" spans="1:10" x14ac:dyDescent="0.2">
@@ -67975,7 +68185,7 @@
       <c r="H1732" s="9"/>
       <c r="I1732"/>
       <c r="J1732" s="1" t="s">
-        <v>1501</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1733" spans="1:10" x14ac:dyDescent="0.2">
@@ -68000,7 +68210,7 @@
       <c r="H1733" s="9"/>
       <c r="I1733"/>
       <c r="J1733" s="1" t="s">
-        <v>1504</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1734" spans="1:10" x14ac:dyDescent="0.2">
@@ -68025,7 +68235,7 @@
       <c r="H1734" s="9"/>
       <c r="I1734"/>
       <c r="J1734" s="1" t="s">
-        <v>1507</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1735" spans="1:10" x14ac:dyDescent="0.2">
@@ -68049,8 +68259,8 @@
       </c>
       <c r="H1735" s="9"/>
       <c r="I1735"/>
-      <c r="J1735" s="4" t="s">
-        <v>1297</v>
+      <c r="J1735" s="1" t="s">
+        <v>1368</v>
       </c>
     </row>
     <row r="1736" spans="1:10" x14ac:dyDescent="0.2">
@@ -68078,7 +68288,7 @@
       <c r="H1736" s="9"/>
       <c r="I1736"/>
       <c r="J1736" s="1" t="s">
-        <v>1513</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1737" spans="1:10" x14ac:dyDescent="0.2">
@@ -68103,7 +68313,7 @@
       <c r="H1737" s="9"/>
       <c r="I1737"/>
       <c r="J1737" s="1" t="s">
-        <v>1517</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1738" spans="1:10" x14ac:dyDescent="0.2">
@@ -68128,7 +68338,7 @@
       <c r="H1738" s="9"/>
       <c r="I1738"/>
       <c r="J1738" s="1" t="s">
-        <v>1520</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1739" spans="1:10" x14ac:dyDescent="0.2">
@@ -68156,7 +68366,7 @@
       <c r="H1739" s="9"/>
       <c r="I1739"/>
       <c r="J1739" s="1" t="s">
-        <v>1524</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1740" spans="1:10" x14ac:dyDescent="0.2">
@@ -68181,7 +68391,7 @@
       <c r="H1740" s="9"/>
       <c r="I1740"/>
       <c r="J1740" s="1" t="s">
-        <v>1528</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1741" spans="1:10" x14ac:dyDescent="0.2">
@@ -68209,7 +68419,7 @@
       <c r="H1741" s="9"/>
       <c r="I1741"/>
       <c r="J1741" s="1" t="s">
-        <v>1532</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1742" spans="1:10" x14ac:dyDescent="0.2">
@@ -68237,7 +68447,7 @@
       <c r="H1742" s="9"/>
       <c r="I1742"/>
       <c r="J1742" s="1" t="s">
-        <v>1535</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1743" spans="1:10" x14ac:dyDescent="0.2">
@@ -68262,7 +68472,7 @@
       <c r="H1743" s="9"/>
       <c r="I1743"/>
       <c r="J1743" s="1" t="s">
-        <v>1538</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1744" spans="1:10" x14ac:dyDescent="0.2">
@@ -68287,7 +68497,7 @@
       <c r="H1744" s="9"/>
       <c r="I1744"/>
       <c r="J1744" s="1" t="s">
-        <v>1542</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1745" spans="1:10" x14ac:dyDescent="0.2">
@@ -68312,7 +68522,7 @@
       <c r="H1745" s="9"/>
       <c r="I1745"/>
       <c r="J1745" s="1" t="s">
-        <v>1546</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1746" spans="1:10" x14ac:dyDescent="0.2">
@@ -68340,7 +68550,7 @@
       <c r="H1746" s="9"/>
       <c r="I1746"/>
       <c r="J1746" s="1" t="s">
-        <v>1550</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1747" spans="1:10" x14ac:dyDescent="0.2">
@@ -68365,7 +68575,7 @@
       <c r="H1747" s="9"/>
       <c r="I1747"/>
       <c r="J1747" s="1" t="s">
-        <v>1553</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1748" spans="1:10" x14ac:dyDescent="0.2">
@@ -68390,7 +68600,7 @@
       <c r="H1748" s="9"/>
       <c r="I1748"/>
       <c r="J1748" s="1" t="s">
-        <v>1556</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1749" spans="1:10" x14ac:dyDescent="0.2">
@@ -68415,7 +68625,7 @@
       <c r="H1749" s="9"/>
       <c r="I1749"/>
       <c r="J1749" s="1" t="s">
-        <v>1560</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1750" spans="1:10" x14ac:dyDescent="0.2">
@@ -68440,7 +68650,7 @@
       <c r="H1750" s="9"/>
       <c r="I1750"/>
       <c r="J1750" s="1" t="s">
-        <v>1564</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1751" spans="1:10" x14ac:dyDescent="0.2">
@@ -68465,7 +68675,7 @@
       <c r="H1751" s="9"/>
       <c r="I1751"/>
       <c r="J1751" s="1" t="s">
-        <v>1567</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1752" spans="1:10" x14ac:dyDescent="0.2">
@@ -68490,7 +68700,7 @@
       <c r="H1752" s="9"/>
       <c r="I1752"/>
       <c r="J1752" s="1" t="s">
-        <v>1570</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1753" spans="1:10" x14ac:dyDescent="0.2">
@@ -68515,7 +68725,7 @@
       <c r="H1753" s="9"/>
       <c r="I1753"/>
       <c r="J1753" s="1" t="s">
-        <v>1573</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1754" spans="1:10" x14ac:dyDescent="0.2">
@@ -68540,7 +68750,7 @@
       <c r="H1754" s="9"/>
       <c r="I1754"/>
       <c r="J1754" s="1" t="s">
-        <v>1577</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1755" spans="1:10" x14ac:dyDescent="0.2">
@@ -68565,7 +68775,7 @@
       <c r="H1755" s="9"/>
       <c r="I1755"/>
       <c r="J1755" s="1" t="s">
-        <v>1581</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1756" spans="1:10" x14ac:dyDescent="0.2">
@@ -68590,7 +68800,7 @@
       <c r="H1756" s="9"/>
       <c r="I1756"/>
       <c r="J1756" s="1" t="s">
-        <v>1585</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1757" spans="1:10" x14ac:dyDescent="0.2">
@@ -68615,7 +68825,7 @@
       <c r="H1757" s="9"/>
       <c r="I1757"/>
       <c r="J1757" s="1" t="s">
-        <v>4424</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1758" spans="1:10" x14ac:dyDescent="0.2">
@@ -68640,7 +68850,7 @@
       <c r="H1758" s="9"/>
       <c r="I1758"/>
       <c r="J1758" s="1" t="s">
-        <v>1804</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1759" spans="1:10" x14ac:dyDescent="0.2">
@@ -68665,7 +68875,7 @@
       <c r="H1759" s="9"/>
       <c r="I1759"/>
       <c r="J1759" s="1" t="s">
-        <v>3062</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1760" spans="1:10" x14ac:dyDescent="0.2">
@@ -68690,7 +68900,7 @@
       <c r="H1760" s="9"/>
       <c r="I1760"/>
       <c r="J1760" s="1" t="s">
-        <v>4425</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="1761" spans="1:10" x14ac:dyDescent="0.2">
@@ -68715,7 +68925,7 @@
       <c r="H1761" s="9"/>
       <c r="I1761"/>
       <c r="J1761" s="1" t="s">
-        <v>4426</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1762" spans="1:10" x14ac:dyDescent="0.2">
@@ -68740,7 +68950,7 @@
       <c r="H1762" s="9"/>
       <c r="I1762"/>
       <c r="J1762" s="1" t="s">
-        <v>4427</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="1763" spans="1:10" x14ac:dyDescent="0.2">
@@ -68765,7 +68975,7 @@
       <c r="H1763" s="9"/>
       <c r="I1763"/>
       <c r="J1763" s="1" t="s">
-        <v>4428</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1764" spans="1:10" x14ac:dyDescent="0.2">
@@ -68790,7 +69000,7 @@
       <c r="H1764" s="9"/>
       <c r="I1764"/>
       <c r="J1764" s="1" t="s">
-        <v>4429</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1765" spans="1:10" x14ac:dyDescent="0.2">
@@ -68815,7 +69025,7 @@
       <c r="H1765" s="9"/>
       <c r="I1765"/>
       <c r="J1765" s="1" t="s">
-        <v>4430</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1766" spans="1:10" x14ac:dyDescent="0.2">
@@ -68840,7 +69050,7 @@
       <c r="H1766" s="9"/>
       <c r="I1766"/>
       <c r="J1766" s="1" t="s">
-        <v>3037</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="1767" spans="1:10" x14ac:dyDescent="0.2">
@@ -68865,7 +69075,7 @@
       <c r="H1767" s="9"/>
       <c r="I1767"/>
       <c r="J1767" s="1" t="s">
-        <v>4431</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1768" spans="1:10" x14ac:dyDescent="0.2">
@@ -68890,7 +69100,7 @@
       <c r="H1768" s="9"/>
       <c r="I1768"/>
       <c r="J1768" s="1" t="s">
-        <v>4432</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="1769" spans="1:10" x14ac:dyDescent="0.2">
@@ -68915,7 +69125,7 @@
       <c r="H1769" s="9"/>
       <c r="I1769"/>
       <c r="J1769" s="1" t="s">
-        <v>4433</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1770" spans="1:10" x14ac:dyDescent="0.2">
@@ -68940,7 +69150,7 @@
       <c r="H1770" s="9"/>
       <c r="I1770"/>
       <c r="J1770" s="1" t="s">
-        <v>4434</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="1771" spans="1:10" x14ac:dyDescent="0.2">
@@ -68965,7 +69175,7 @@
       <c r="H1771" s="9"/>
       <c r="I1771"/>
       <c r="J1771" s="1" t="s">
-        <v>4424</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1772" spans="1:10" x14ac:dyDescent="0.2">
@@ -68993,7 +69203,7 @@
       <c r="H1772" s="9"/>
       <c r="I1772"/>
       <c r="J1772" s="1" t="s">
-        <v>1589</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1773" spans="1:10" x14ac:dyDescent="0.2">
@@ -69018,7 +69228,7 @@
       <c r="H1773" s="9"/>
       <c r="I1773"/>
       <c r="J1773" s="1" t="s">
-        <v>1592</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1774" spans="1:10" x14ac:dyDescent="0.2">
@@ -69043,7 +69253,7 @@
       <c r="H1774" s="9"/>
       <c r="I1774"/>
       <c r="J1774" s="1" t="s">
-        <v>1596</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="1775" spans="1:10" x14ac:dyDescent="0.2">
@@ -69068,7 +69278,7 @@
       <c r="H1775" s="9"/>
       <c r="I1775"/>
       <c r="J1775" s="1" t="s">
-        <v>1600</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1776" spans="1:10" x14ac:dyDescent="0.2">
@@ -69093,7 +69303,7 @@
       <c r="H1776" s="9"/>
       <c r="I1776"/>
       <c r="J1776" s="1" t="s">
-        <v>1603</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1777" spans="1:10" x14ac:dyDescent="0.2">
@@ -69118,7 +69328,7 @@
       <c r="H1777" s="9"/>
       <c r="I1777"/>
       <c r="J1777" s="1" t="s">
-        <v>1606</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="1778" spans="1:10" x14ac:dyDescent="0.2">
@@ -69143,7 +69353,7 @@
       <c r="H1778" s="9"/>
       <c r="I1778"/>
       <c r="J1778" s="1" t="s">
-        <v>1609</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1779" spans="1:10" x14ac:dyDescent="0.2">
@@ -69168,7 +69378,7 @@
       <c r="H1779" s="9"/>
       <c r="I1779"/>
       <c r="J1779" s="1" t="s">
-        <v>1611</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1780" spans="1:10" x14ac:dyDescent="0.2">
@@ -69193,7 +69403,7 @@
       <c r="H1780" s="9"/>
       <c r="I1780"/>
       <c r="J1780" s="1" t="s">
-        <v>1614</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1781" spans="1:10" x14ac:dyDescent="0.2">
@@ -69218,7 +69428,7 @@
       <c r="H1781" s="9"/>
       <c r="I1781"/>
       <c r="J1781" s="1" t="s">
-        <v>1618</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="1782" spans="1:10" x14ac:dyDescent="0.2">
@@ -69246,7 +69456,7 @@
       <c r="H1782" s="9"/>
       <c r="I1782"/>
       <c r="J1782" s="1" t="s">
-        <v>1621</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1783" spans="1:10" x14ac:dyDescent="0.2">
@@ -69271,7 +69481,7 @@
       <c r="H1783" s="9"/>
       <c r="I1783"/>
       <c r="J1783" s="1" t="s">
-        <v>1624</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1784" spans="1:10" x14ac:dyDescent="0.2">
@@ -69296,7 +69506,7 @@
       <c r="H1784" s="9"/>
       <c r="I1784"/>
       <c r="J1784" s="1" t="s">
-        <v>1628</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1785" spans="1:10" x14ac:dyDescent="0.2">
@@ -69321,7 +69531,7 @@
       <c r="H1785" s="9"/>
       <c r="I1785"/>
       <c r="J1785" s="1" t="s">
-        <v>1632</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1786" spans="1:10" x14ac:dyDescent="0.2">
@@ -69346,7 +69556,7 @@
       <c r="H1786" s="9"/>
       <c r="I1786"/>
       <c r="J1786" s="1" t="s">
-        <v>1636</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1787" spans="1:10" x14ac:dyDescent="0.2">
@@ -69371,7 +69581,7 @@
       <c r="H1787" s="9"/>
       <c r="I1787"/>
       <c r="J1787" s="1" t="s">
-        <v>1639</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1788" spans="1:10" x14ac:dyDescent="0.2">
@@ -69396,7 +69606,7 @@
       <c r="H1788" s="9"/>
       <c r="I1788"/>
       <c r="J1788" s="1" t="s">
-        <v>1642</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1789" spans="1:10" x14ac:dyDescent="0.2">
@@ -69421,7 +69631,7 @@
       <c r="H1789" s="9"/>
       <c r="I1789"/>
       <c r="J1789" s="1" t="s">
-        <v>1646</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1790" spans="1:10" x14ac:dyDescent="0.2">
@@ -69446,7 +69656,7 @@
       <c r="H1790" s="9"/>
       <c r="I1790"/>
       <c r="J1790" s="1" t="s">
-        <v>1122</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1791" spans="1:10" x14ac:dyDescent="0.2">
@@ -69471,7 +69681,7 @@
       <c r="H1791" s="9"/>
       <c r="I1791"/>
       <c r="J1791" s="1" t="s">
-        <v>1652</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1792" spans="1:10" x14ac:dyDescent="0.2">
@@ -69496,7 +69706,7 @@
       <c r="H1792" s="9"/>
       <c r="I1792"/>
       <c r="J1792" s="1" t="s">
-        <v>1655</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1793" spans="1:10" x14ac:dyDescent="0.2">
@@ -69521,7 +69731,7 @@
       <c r="H1793" s="9"/>
       <c r="I1793"/>
       <c r="J1793" s="1" t="s">
-        <v>1658</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1794" spans="1:10" x14ac:dyDescent="0.2">
@@ -69546,7 +69756,7 @@
       <c r="H1794" s="9"/>
       <c r="I1794"/>
       <c r="J1794" s="1" t="s">
-        <v>1661</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1795" spans="1:10" x14ac:dyDescent="0.2">
@@ -69571,7 +69781,7 @@
       <c r="H1795" s="9"/>
       <c r="I1795"/>
       <c r="J1795" s="1" t="s">
-        <v>1664</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1796" spans="1:10" x14ac:dyDescent="0.2">
@@ -69596,7 +69806,7 @@
       <c r="H1796" s="9"/>
       <c r="I1796"/>
       <c r="J1796" s="1" t="s">
-        <v>1667</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1797" spans="1:10" x14ac:dyDescent="0.2">
@@ -69621,7 +69831,7 @@
       <c r="H1797" s="9"/>
       <c r="I1797"/>
       <c r="J1797" s="1" t="s">
-        <v>1670</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1798" spans="1:10" x14ac:dyDescent="0.2">
@@ -69646,7 +69856,7 @@
       <c r="H1798" s="9"/>
       <c r="I1798"/>
       <c r="J1798" s="1" t="s">
-        <v>1673</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1799" spans="1:10" x14ac:dyDescent="0.2">
@@ -69671,7 +69881,7 @@
       <c r="H1799" s="9"/>
       <c r="I1799"/>
       <c r="J1799" s="1" t="s">
-        <v>1677</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1800" spans="1:10" x14ac:dyDescent="0.2">
@@ -69696,7 +69906,7 @@
       <c r="H1800" s="9"/>
       <c r="I1800"/>
       <c r="J1800" s="1" t="s">
-        <v>445</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1801" spans="1:10" x14ac:dyDescent="0.2">
@@ -69720,8 +69930,8 @@
       </c>
       <c r="H1801" s="9"/>
       <c r="I1801"/>
-      <c r="J1801" s="1" t="s">
-        <v>1682</v>
+      <c r="J1801" s="4" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1802" spans="1:10" x14ac:dyDescent="0.2">
@@ -69746,7 +69956,7 @@
       <c r="H1802" s="9"/>
       <c r="I1802"/>
       <c r="J1802" s="1" t="s">
-        <v>1685</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1803" spans="1:10" x14ac:dyDescent="0.2">
@@ -69771,7 +69981,7 @@
       <c r="H1803" s="9"/>
       <c r="I1803"/>
       <c r="J1803" s="1" t="s">
-        <v>1688</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1804" spans="1:10" x14ac:dyDescent="0.2">
@@ -69796,7 +70006,7 @@
       <c r="H1804" s="9"/>
       <c r="I1804"/>
       <c r="J1804" s="1" t="s">
-        <v>1691</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1805" spans="1:10" x14ac:dyDescent="0.2">
@@ -69821,7 +70031,7 @@
       <c r="H1805" s="9"/>
       <c r="I1805"/>
       <c r="J1805" s="1" t="s">
-        <v>1694</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1806" spans="1:10" x14ac:dyDescent="0.2">
@@ -69846,7 +70056,7 @@
       <c r="H1806" s="9"/>
       <c r="I1806"/>
       <c r="J1806" s="1" t="s">
-        <v>1697</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1807" spans="1:10" x14ac:dyDescent="0.2">
@@ -69871,7 +70081,7 @@
       <c r="H1807" s="9"/>
       <c r="I1807"/>
       <c r="J1807" s="1" t="s">
-        <v>1700</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1808" spans="1:10" x14ac:dyDescent="0.2">
@@ -69896,7 +70106,7 @@
       <c r="H1808" s="9"/>
       <c r="I1808"/>
       <c r="J1808" s="1" t="s">
-        <v>1704</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1809" spans="1:10" x14ac:dyDescent="0.2">
@@ -69921,7 +70131,7 @@
       <c r="H1809" s="9"/>
       <c r="I1809"/>
       <c r="J1809" s="1" t="s">
-        <v>1708</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1810" spans="1:10" x14ac:dyDescent="0.2">
@@ -69946,7 +70156,7 @@
       <c r="H1810" s="9"/>
       <c r="I1810"/>
       <c r="J1810" s="1" t="s">
-        <v>1711</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1811" spans="1:10" x14ac:dyDescent="0.2">
@@ -69971,7 +70181,7 @@
       <c r="H1811" s="9"/>
       <c r="I1811"/>
       <c r="J1811" s="1" t="s">
-        <v>1714</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1812" spans="1:10" x14ac:dyDescent="0.2">
@@ -69996,7 +70206,7 @@
       <c r="H1812" s="9"/>
       <c r="I1812"/>
       <c r="J1812" s="1" t="s">
-        <v>4435</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1813" spans="1:10" x14ac:dyDescent="0.2">
@@ -70021,7 +70231,7 @@
       <c r="H1813" s="9"/>
       <c r="I1813"/>
       <c r="J1813" s="1" t="s">
-        <v>3247</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1814" spans="1:10" x14ac:dyDescent="0.2">
@@ -70046,7 +70256,7 @@
       <c r="H1814" s="9"/>
       <c r="I1814"/>
       <c r="J1814" s="1" t="s">
-        <v>4436</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1815" spans="1:10" x14ac:dyDescent="0.2">
@@ -70071,7 +70281,7 @@
       <c r="H1815" s="9"/>
       <c r="I1815"/>
       <c r="J1815" s="1" t="s">
-        <v>4437</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1816" spans="1:10" x14ac:dyDescent="0.2">
@@ -70096,7 +70306,7 @@
       <c r="H1816" s="9"/>
       <c r="I1816"/>
       <c r="J1816" s="1" t="s">
-        <v>4438</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1817" spans="1:10" x14ac:dyDescent="0.2">
@@ -70121,7 +70331,7 @@
       <c r="H1817" s="9"/>
       <c r="I1817"/>
       <c r="J1817" s="1" t="s">
-        <v>4439</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1818" spans="1:10" x14ac:dyDescent="0.2">
@@ -70146,7 +70356,7 @@
       <c r="H1818" s="9"/>
       <c r="I1818"/>
       <c r="J1818" s="1" t="s">
-        <v>4440</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1819" spans="1:10" x14ac:dyDescent="0.2">
@@ -70171,7 +70381,7 @@
       <c r="H1819" s="9"/>
       <c r="I1819"/>
       <c r="J1819" s="1" t="s">
-        <v>3169</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1820" spans="1:10" x14ac:dyDescent="0.2">
@@ -70196,7 +70406,7 @@
       <c r="H1820" s="9"/>
       <c r="I1820"/>
       <c r="J1820" s="1" t="s">
-        <v>4441</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1821" spans="1:10" x14ac:dyDescent="0.2">
@@ -70221,7 +70431,7 @@
       <c r="H1821" s="9"/>
       <c r="I1821"/>
       <c r="J1821" s="1" t="s">
-        <v>4442</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1822" spans="1:10" x14ac:dyDescent="0.2">
@@ -70246,7 +70456,7 @@
       <c r="H1822" s="9"/>
       <c r="I1822"/>
       <c r="J1822" s="1" t="s">
-        <v>4443</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1823" spans="1:10" x14ac:dyDescent="0.2">
@@ -70271,7 +70481,7 @@
       <c r="H1823" s="9"/>
       <c r="I1823"/>
       <c r="J1823" s="1" t="s">
-        <v>4444</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1824" spans="1:10" x14ac:dyDescent="0.2">
@@ -70296,7 +70506,7 @@
       <c r="H1824" s="9"/>
       <c r="I1824"/>
       <c r="J1824" s="1" t="s">
-        <v>4445</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1825" spans="1:10" x14ac:dyDescent="0.2">
@@ -70321,7 +70531,7 @@
       <c r="H1825" s="9"/>
       <c r="I1825"/>
       <c r="J1825" s="1" t="s">
-        <v>4446</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1826" spans="1:10" x14ac:dyDescent="0.2">
@@ -70346,7 +70556,7 @@
       <c r="H1826" s="9"/>
       <c r="I1826"/>
       <c r="J1826" s="1" t="s">
-        <v>4447</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="1827" spans="1:10" x14ac:dyDescent="0.2">
@@ -70371,7 +70581,7 @@
       <c r="H1827" s="9"/>
       <c r="I1827"/>
       <c r="J1827" s="1" t="s">
-        <v>1718</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1828" spans="1:10" x14ac:dyDescent="0.2">
@@ -70396,7 +70606,7 @@
       <c r="H1828" s="9"/>
       <c r="I1828"/>
       <c r="J1828" s="1" t="s">
-        <v>1722</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1829" spans="1:10" x14ac:dyDescent="0.2">
@@ -70421,7 +70631,7 @@
       <c r="H1829" s="9"/>
       <c r="I1829"/>
       <c r="J1829" s="1" t="s">
-        <v>1725</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1830" spans="1:10" x14ac:dyDescent="0.2">
@@ -70446,7 +70656,7 @@
       <c r="H1830" s="9"/>
       <c r="I1830"/>
       <c r="J1830" s="1" t="s">
-        <v>1729</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1831" spans="1:10" x14ac:dyDescent="0.2">
@@ -70471,7 +70681,7 @@
       <c r="H1831" s="9"/>
       <c r="I1831"/>
       <c r="J1831" s="1" t="s">
-        <v>1732</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1832" spans="1:10" x14ac:dyDescent="0.2">
@@ -70496,7 +70706,7 @@
       <c r="H1832" s="9"/>
       <c r="I1832"/>
       <c r="J1832" s="1" t="s">
-        <v>1737</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1833" spans="1:10" x14ac:dyDescent="0.2">
@@ -70521,7 +70731,7 @@
       <c r="H1833" s="9"/>
       <c r="I1833"/>
       <c r="J1833" s="1" t="s">
-        <v>1740</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1834" spans="1:10" x14ac:dyDescent="0.2">
@@ -70546,7 +70756,7 @@
       <c r="H1834" s="9"/>
       <c r="I1834"/>
       <c r="J1834" s="1" t="s">
-        <v>1743</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1835" spans="1:10" x14ac:dyDescent="0.2">
@@ -70571,7 +70781,7 @@
       <c r="H1835" s="9"/>
       <c r="I1835"/>
       <c r="J1835" s="1" t="s">
-        <v>1747</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1836" spans="1:10" x14ac:dyDescent="0.2">
@@ -70596,7 +70806,7 @@
       <c r="H1836" s="9"/>
       <c r="I1836"/>
       <c r="J1836" s="1" t="s">
-        <v>1750</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1837" spans="1:10" x14ac:dyDescent="0.2">
@@ -70621,7 +70831,7 @@
       <c r="H1837" s="9"/>
       <c r="I1837"/>
       <c r="J1837" s="1" t="s">
-        <v>1754</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1838" spans="1:10" x14ac:dyDescent="0.2">
@@ -70646,7 +70856,7 @@
       <c r="H1838" s="9"/>
       <c r="I1838"/>
       <c r="J1838" s="1" t="s">
-        <v>1757</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1839" spans="1:10" x14ac:dyDescent="0.2">
@@ -70671,7 +70881,7 @@
       <c r="H1839" s="9"/>
       <c r="I1839"/>
       <c r="J1839" s="1" t="s">
-        <v>1760</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1840" spans="1:10" x14ac:dyDescent="0.2">
@@ -70696,7 +70906,7 @@
       <c r="H1840" s="9"/>
       <c r="I1840"/>
       <c r="J1840" s="1" t="s">
-        <v>1763</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1841" spans="1:10" x14ac:dyDescent="0.2">
@@ -70721,7 +70931,7 @@
       <c r="H1841" s="9"/>
       <c r="I1841"/>
       <c r="J1841" s="1" t="s">
-        <v>1766</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1842" spans="1:10" x14ac:dyDescent="0.2">
@@ -70746,7 +70956,7 @@
       <c r="H1842" s="9"/>
       <c r="I1842"/>
       <c r="J1842" s="1" t="s">
-        <v>1769</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1843" spans="1:10" x14ac:dyDescent="0.2">
@@ -70771,7 +70981,7 @@
       <c r="H1843" s="9"/>
       <c r="I1843"/>
       <c r="J1843" s="1" t="s">
-        <v>1772</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1844" spans="1:10" x14ac:dyDescent="0.2">
@@ -70796,7 +71006,7 @@
       <c r="H1844" s="9"/>
       <c r="I1844"/>
       <c r="J1844" s="1" t="s">
-        <v>1775</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1845" spans="1:10" x14ac:dyDescent="0.2">
@@ -70821,7 +71031,7 @@
       <c r="H1845" s="9"/>
       <c r="I1845"/>
       <c r="J1845" s="1" t="s">
-        <v>1778</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1846" spans="1:10" x14ac:dyDescent="0.2">
@@ -70846,7 +71056,7 @@
       <c r="H1846" s="9"/>
       <c r="I1846"/>
       <c r="J1846" s="1" t="s">
-        <v>1782</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1847" spans="1:10" x14ac:dyDescent="0.2">
@@ -70871,7 +71081,7 @@
       <c r="H1847" s="9"/>
       <c r="I1847"/>
       <c r="J1847" s="1" t="s">
-        <v>1784</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1848" spans="1:10" x14ac:dyDescent="0.2">
@@ -70896,7 +71106,7 @@
       <c r="H1848" s="9"/>
       <c r="I1848"/>
       <c r="J1848" s="1" t="s">
-        <v>1787</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1849" spans="1:10" x14ac:dyDescent="0.2">
@@ -70921,7 +71131,7 @@
       <c r="H1849" s="9"/>
       <c r="I1849"/>
       <c r="J1849" s="1" t="s">
-        <v>1791</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1850" spans="1:10" x14ac:dyDescent="0.2">
@@ -70946,7 +71156,7 @@
       <c r="H1850" s="9"/>
       <c r="I1850"/>
       <c r="J1850" s="1" t="s">
-        <v>1795</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1851" spans="1:10" x14ac:dyDescent="0.2">
@@ -70971,7 +71181,7 @@
       <c r="H1851" s="9"/>
       <c r="I1851"/>
       <c r="J1851" s="1" t="s">
-        <v>1797</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1852" spans="1:10" x14ac:dyDescent="0.2">
@@ -70996,7 +71206,7 @@
       <c r="H1852" s="9"/>
       <c r="I1852"/>
       <c r="J1852" s="1" t="s">
-        <v>1799</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1853" spans="1:10" x14ac:dyDescent="0.2">
@@ -71021,7 +71231,7 @@
       <c r="H1853" s="9"/>
       <c r="I1853"/>
       <c r="J1853" s="1" t="s">
-        <v>1803</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1854" spans="1:10" x14ac:dyDescent="0.2">
@@ -71046,7 +71256,7 @@
       <c r="H1854" s="9"/>
       <c r="I1854"/>
       <c r="J1854" s="1" t="s">
-        <v>1807</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1855" spans="1:10" x14ac:dyDescent="0.2">
@@ -71071,7 +71281,7 @@
       <c r="H1855" s="9"/>
       <c r="I1855"/>
       <c r="J1855" s="1" t="s">
-        <v>1810</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1856" spans="1:10" x14ac:dyDescent="0.2">
@@ -71096,7 +71306,7 @@
       <c r="H1856" s="9"/>
       <c r="I1856"/>
       <c r="J1856" s="1" t="s">
-        <v>1813</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1857" spans="1:10" x14ac:dyDescent="0.2">
@@ -71121,7 +71331,7 @@
       <c r="H1857" s="9"/>
       <c r="I1857"/>
       <c r="J1857" s="1" t="s">
-        <v>1816</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1858" spans="1:10" x14ac:dyDescent="0.2">
@@ -71146,7 +71356,7 @@
       <c r="H1858" s="9"/>
       <c r="I1858"/>
       <c r="J1858" s="1" t="s">
-        <v>1821</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1859" spans="1:10" x14ac:dyDescent="0.2">
@@ -71171,7 +71381,7 @@
       <c r="H1859" s="9"/>
       <c r="I1859"/>
       <c r="J1859" s="1" t="s">
-        <v>1824</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1860" spans="1:10" x14ac:dyDescent="0.2">
@@ -71196,7 +71406,7 @@
       <c r="H1860" s="9"/>
       <c r="I1860"/>
       <c r="J1860" s="1" t="s">
-        <v>1828</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1861" spans="1:10" x14ac:dyDescent="0.2">
@@ -71221,7 +71431,7 @@
       <c r="H1861" s="9"/>
       <c r="I1861"/>
       <c r="J1861" s="1" t="s">
-        <v>1832</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1862" spans="1:10" x14ac:dyDescent="0.2">
@@ -71246,7 +71456,7 @@
       <c r="H1862" s="9"/>
       <c r="I1862"/>
       <c r="J1862" s="1" t="s">
-        <v>1836</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1863" spans="1:10" x14ac:dyDescent="0.2">
@@ -71271,7 +71481,7 @@
       <c r="H1863" s="9"/>
       <c r="I1863"/>
       <c r="J1863" s="1" t="s">
-        <v>1840</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1864" spans="1:10" x14ac:dyDescent="0.2">
@@ -71296,7 +71506,7 @@
       <c r="H1864" s="9"/>
       <c r="I1864"/>
       <c r="J1864" s="1" t="s">
-        <v>1843</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1865" spans="1:10" x14ac:dyDescent="0.2">
@@ -71324,7 +71534,7 @@
       <c r="H1865" s="9"/>
       <c r="I1865"/>
       <c r="J1865" s="1" t="s">
-        <v>1846</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1866" spans="1:10" x14ac:dyDescent="0.2">
@@ -71349,7 +71559,7 @@
       <c r="H1866" s="9"/>
       <c r="I1866"/>
       <c r="J1866" s="1" t="s">
-        <v>1850</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1867" spans="1:10" x14ac:dyDescent="0.2">
@@ -71374,7 +71584,7 @@
       <c r="H1867" s="9"/>
       <c r="I1867"/>
       <c r="J1867" s="1" t="s">
-        <v>1853</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1868" spans="1:10" x14ac:dyDescent="0.2">
@@ -71402,7 +71612,7 @@
       <c r="H1868" s="9"/>
       <c r="I1868"/>
       <c r="J1868" s="1" t="s">
-        <v>1856</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1869" spans="1:10" x14ac:dyDescent="0.2">
@@ -71427,7 +71637,7 @@
       <c r="H1869" s="9"/>
       <c r="I1869"/>
       <c r="J1869" s="1" t="s">
-        <v>1859</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1870" spans="1:10" x14ac:dyDescent="0.2">
@@ -71452,7 +71662,7 @@
       <c r="H1870" s="9"/>
       <c r="I1870"/>
       <c r="J1870" s="1" t="s">
-        <v>4448</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1871" spans="1:10" x14ac:dyDescent="0.2">
@@ -71477,7 +71687,7 @@
       <c r="H1871" s="9"/>
       <c r="I1871"/>
       <c r="J1871" s="1" t="s">
-        <v>4449</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1872" spans="1:10" x14ac:dyDescent="0.2">
@@ -71502,7 +71712,7 @@
       <c r="H1872" s="9"/>
       <c r="I1872"/>
       <c r="J1872" s="1" t="s">
-        <v>4450</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1873" spans="1:10" x14ac:dyDescent="0.2">
@@ -71527,7 +71737,7 @@
       <c r="H1873" s="9"/>
       <c r="I1873"/>
       <c r="J1873" s="1" t="s">
-        <v>3348</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1874" spans="1:10" x14ac:dyDescent="0.2">
@@ -71552,7 +71762,7 @@
       <c r="H1874" s="9"/>
       <c r="I1874"/>
       <c r="J1874" s="1" t="s">
-        <v>4451</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1875" spans="1:10" x14ac:dyDescent="0.2">
@@ -71577,7 +71787,7 @@
       <c r="H1875" s="9"/>
       <c r="I1875"/>
       <c r="J1875" s="1" t="s">
-        <v>4297</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1876" spans="1:10" x14ac:dyDescent="0.2">
@@ -71602,7 +71812,7 @@
       <c r="H1876" s="9"/>
       <c r="I1876"/>
       <c r="J1876" s="1" t="s">
-        <v>4452</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1877" spans="1:10" x14ac:dyDescent="0.2">
@@ -71627,7 +71837,7 @@
       <c r="H1877" s="9"/>
       <c r="I1877"/>
       <c r="J1877" s="1" t="s">
-        <v>4453</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1878" spans="1:10" x14ac:dyDescent="0.2">
@@ -71652,7 +71862,7 @@
       <c r="H1878" s="9"/>
       <c r="I1878"/>
       <c r="J1878" s="1" t="s">
-        <v>4448</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1879" spans="1:10" x14ac:dyDescent="0.2">
@@ -71677,7 +71887,7 @@
       <c r="H1879" s="9"/>
       <c r="I1879"/>
       <c r="J1879" s="1" t="s">
-        <v>4449</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1880" spans="1:10" x14ac:dyDescent="0.2">
@@ -71702,7 +71912,7 @@
       <c r="H1880" s="9"/>
       <c r="I1880"/>
       <c r="J1880" s="1" t="s">
-        <v>1862</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1881" spans="1:10" x14ac:dyDescent="0.2">
@@ -71727,7 +71937,7 @@
       <c r="H1881" s="9"/>
       <c r="I1881"/>
       <c r="J1881" s="1" t="s">
-        <v>1865</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1882" spans="1:10" x14ac:dyDescent="0.2">
@@ -71752,7 +71962,7 @@
       <c r="H1882" s="9"/>
       <c r="I1882"/>
       <c r="J1882" s="1" t="s">
-        <v>402</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1883" spans="1:10" x14ac:dyDescent="0.2">
@@ -71777,7 +71987,7 @@
       <c r="H1883" s="9"/>
       <c r="I1883"/>
       <c r="J1883" s="1" t="s">
-        <v>107</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1884" spans="1:10" x14ac:dyDescent="0.2">
@@ -71802,7 +72012,7 @@
       <c r="H1884" s="9"/>
       <c r="I1884"/>
       <c r="J1884" s="1" t="s">
-        <v>1873</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="1885" spans="1:10" x14ac:dyDescent="0.2">
@@ -71827,7 +72037,7 @@
       <c r="H1885" s="9"/>
       <c r="I1885"/>
       <c r="J1885" s="1" t="s">
-        <v>1876</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1886" spans="1:10" x14ac:dyDescent="0.2">
@@ -71852,7 +72062,7 @@
       <c r="H1886" s="9"/>
       <c r="I1886"/>
       <c r="J1886" s="1" t="s">
-        <v>1879</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1887" spans="1:10" x14ac:dyDescent="0.2">
@@ -71877,7 +72087,7 @@
       <c r="H1887" s="9"/>
       <c r="I1887"/>
       <c r="J1887" s="1" t="s">
-        <v>1883</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1888" spans="1:10" x14ac:dyDescent="0.2">
@@ -71902,7 +72112,7 @@
       <c r="H1888" s="9"/>
       <c r="I1888"/>
       <c r="J1888" s="1" t="s">
-        <v>214</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1889" spans="1:10" x14ac:dyDescent="0.2">
@@ -71927,7 +72137,7 @@
       <c r="H1889" s="9"/>
       <c r="I1889"/>
       <c r="J1889" s="1" t="s">
-        <v>1889</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1890" spans="1:10" x14ac:dyDescent="0.2">
@@ -71952,7 +72162,7 @@
       <c r="H1890" s="9"/>
       <c r="I1890"/>
       <c r="J1890" s="1" t="s">
-        <v>1891</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1891" spans="1:10" x14ac:dyDescent="0.2">
@@ -71977,7 +72187,7 @@
       <c r="H1891" s="9"/>
       <c r="I1891"/>
       <c r="J1891" s="1" t="s">
-        <v>1895</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1892" spans="1:10" x14ac:dyDescent="0.2">
@@ -72002,7 +72212,7 @@
       <c r="H1892" s="9"/>
       <c r="I1892"/>
       <c r="J1892" s="1" t="s">
-        <v>1898</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1893" spans="1:10" x14ac:dyDescent="0.2">
@@ -72027,7 +72237,7 @@
       <c r="H1893" s="9"/>
       <c r="I1893"/>
       <c r="J1893" s="1" t="s">
-        <v>1901</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1894" spans="1:10" x14ac:dyDescent="0.2">
@@ -72052,7 +72262,7 @@
       <c r="H1894" s="9"/>
       <c r="I1894"/>
       <c r="J1894" s="1" t="s">
-        <v>1905</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1895" spans="1:10" x14ac:dyDescent="0.2">
@@ -72077,7 +72287,7 @@
       <c r="H1895" s="9"/>
       <c r="I1895"/>
       <c r="J1895" s="1" t="s">
-        <v>1908</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1896" spans="1:10" x14ac:dyDescent="0.2">
@@ -72102,7 +72312,7 @@
       <c r="H1896" s="9"/>
       <c r="I1896"/>
       <c r="J1896" s="1" t="s">
-        <v>1913</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1897" spans="1:10" x14ac:dyDescent="0.2">
@@ -72127,7 +72337,7 @@
       <c r="H1897" s="9"/>
       <c r="I1897"/>
       <c r="J1897" s="1" t="s">
-        <v>1916</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1898" spans="1:10" x14ac:dyDescent="0.2">
@@ -72152,7 +72362,7 @@
       <c r="H1898" s="9"/>
       <c r="I1898"/>
       <c r="J1898" s="1" t="s">
-        <v>1920</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1899" spans="1:10" x14ac:dyDescent="0.2">
@@ -72177,7 +72387,7 @@
       <c r="H1899" s="9"/>
       <c r="I1899"/>
       <c r="J1899" s="1" t="s">
-        <v>1924</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1900" spans="1:10" x14ac:dyDescent="0.2">
@@ -72202,7 +72412,7 @@
       <c r="H1900" s="9"/>
       <c r="I1900"/>
       <c r="J1900" s="1" t="s">
-        <v>1927</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1901" spans="1:10" x14ac:dyDescent="0.2">
@@ -72227,7 +72437,7 @@
       <c r="H1901" s="9"/>
       <c r="I1901"/>
       <c r="J1901" s="1" t="s">
-        <v>1931</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1902" spans="1:10" x14ac:dyDescent="0.2">
@@ -72252,7 +72462,7 @@
       <c r="H1902" s="9"/>
       <c r="I1902"/>
       <c r="J1902" s="1" t="s">
-        <v>1935</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1903" spans="1:10" x14ac:dyDescent="0.2">
@@ -72277,7 +72487,7 @@
       <c r="H1903" s="9"/>
       <c r="I1903"/>
       <c r="J1903" s="1" t="s">
-        <v>1939</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1904" spans="1:10" x14ac:dyDescent="0.2">
@@ -72302,7 +72512,7 @@
       <c r="H1904" s="9"/>
       <c r="I1904"/>
       <c r="J1904" s="1" t="s">
-        <v>1942</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1905" spans="1:10" x14ac:dyDescent="0.2">
@@ -72327,7 +72537,7 @@
       <c r="H1905" s="9"/>
       <c r="I1905"/>
       <c r="J1905" s="1" t="s">
-        <v>1945</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1906" spans="1:10" x14ac:dyDescent="0.2">
@@ -72352,7 +72562,7 @@
       <c r="H1906" s="9"/>
       <c r="I1906"/>
       <c r="J1906" s="1" t="s">
-        <v>1949</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1907" spans="1:10" x14ac:dyDescent="0.2">
@@ -72380,7 +72590,7 @@
       <c r="H1907" s="9"/>
       <c r="I1907"/>
       <c r="J1907" s="1" t="s">
-        <v>311</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1908" spans="1:10" x14ac:dyDescent="0.2">
@@ -72405,7 +72615,7 @@
       <c r="H1908" s="9"/>
       <c r="I1908"/>
       <c r="J1908" s="1" t="s">
-        <v>1955</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1909" spans="1:10" x14ac:dyDescent="0.2">
@@ -72430,7 +72640,7 @@
       <c r="H1909" s="9"/>
       <c r="I1909"/>
       <c r="J1909" s="1" t="s">
-        <v>1958</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1910" spans="1:10" x14ac:dyDescent="0.2">
@@ -72455,7 +72665,7 @@
       <c r="H1910" s="9"/>
       <c r="I1910"/>
       <c r="J1910" s="1" t="s">
-        <v>1961</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1911" spans="1:10" x14ac:dyDescent="0.2">
@@ -72480,7 +72690,7 @@
       <c r="H1911" s="9"/>
       <c r="I1911"/>
       <c r="J1911" s="1" t="s">
-        <v>1965</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1912" spans="1:10" x14ac:dyDescent="0.2">
@@ -72508,7 +72718,7 @@
       <c r="H1912" s="9"/>
       <c r="I1912"/>
       <c r="J1912" s="1" t="s">
-        <v>1968</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1913" spans="1:10" x14ac:dyDescent="0.2">
@@ -72533,7 +72743,7 @@
       <c r="H1913" s="9"/>
       <c r="I1913"/>
       <c r="J1913" s="1" t="s">
-        <v>1971</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1914" spans="1:10" x14ac:dyDescent="0.2">
@@ -72558,7 +72768,7 @@
       <c r="H1914" s="9"/>
       <c r="I1914"/>
       <c r="J1914" s="1" t="s">
-        <v>1973</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1915" spans="1:10" x14ac:dyDescent="0.2">
@@ -72583,7 +72793,7 @@
       <c r="H1915" s="9"/>
       <c r="I1915"/>
       <c r="J1915" s="1" t="s">
-        <v>1976</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1916" spans="1:10" x14ac:dyDescent="0.2">
@@ -72608,7 +72818,7 @@
       <c r="H1916" s="9"/>
       <c r="I1916"/>
       <c r="J1916" s="1" t="s">
-        <v>1979</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1917" spans="1:10" x14ac:dyDescent="0.2">
@@ -72633,7 +72843,7 @@
       <c r="H1917" s="9"/>
       <c r="I1917"/>
       <c r="J1917" s="1" t="s">
-        <v>1984</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1918" spans="1:10" x14ac:dyDescent="0.2">
@@ -72658,7 +72868,7 @@
       <c r="H1918" s="9"/>
       <c r="I1918"/>
       <c r="J1918" s="1" t="s">
-        <v>1987</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1919" spans="1:10" x14ac:dyDescent="0.2">
@@ -72683,7 +72893,7 @@
       <c r="H1919" s="9"/>
       <c r="I1919"/>
       <c r="J1919" s="1" t="s">
-        <v>1990</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1920" spans="1:10" x14ac:dyDescent="0.2">
@@ -72708,7 +72918,7 @@
       <c r="H1920" s="9"/>
       <c r="I1920"/>
       <c r="J1920" s="1" t="s">
-        <v>1993</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1921" spans="1:10" x14ac:dyDescent="0.2">
@@ -72733,7 +72943,7 @@
       <c r="H1921" s="9"/>
       <c r="I1921"/>
       <c r="J1921" s="1" t="s">
-        <v>4454</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1922" spans="1:10" x14ac:dyDescent="0.2">
@@ -72758,7 +72968,7 @@
       <c r="H1922" s="9"/>
       <c r="I1922"/>
       <c r="J1922" s="1" t="s">
-        <v>4455</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1923" spans="1:10" x14ac:dyDescent="0.2">
@@ -72783,7 +72993,7 @@
       <c r="H1923" s="9"/>
       <c r="I1923"/>
       <c r="J1923" s="1" t="s">
-        <v>4456</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1924" spans="1:10" x14ac:dyDescent="0.2">
@@ -72808,7 +73018,7 @@
       <c r="H1924" s="9"/>
       <c r="I1924"/>
       <c r="J1924" s="1" t="s">
-        <v>1996</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1925" spans="1:10" x14ac:dyDescent="0.2">
@@ -72836,7 +73046,7 @@
       <c r="H1925" s="9"/>
       <c r="I1925"/>
       <c r="J1925" s="1" t="s">
-        <v>2000</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1926" spans="1:10" x14ac:dyDescent="0.2">
@@ -72864,7 +73074,7 @@
       <c r="H1926" s="9"/>
       <c r="I1926"/>
       <c r="J1926" s="1" t="s">
-        <v>2004</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1927" spans="1:10" x14ac:dyDescent="0.2">
@@ -72892,7 +73102,7 @@
       <c r="H1927" s="9"/>
       <c r="I1927"/>
       <c r="J1927" s="1" t="s">
-        <v>783</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1928" spans="1:10" x14ac:dyDescent="0.2">
@@ -72917,7 +73127,7 @@
       <c r="H1928" s="9"/>
       <c r="I1928"/>
       <c r="J1928" s="1" t="s">
-        <v>2011</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1929" spans="1:10" x14ac:dyDescent="0.2">
@@ -72942,7 +73152,7 @@
       <c r="H1929" s="9"/>
       <c r="I1929"/>
       <c r="J1929" s="1" t="s">
-        <v>2014</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1930" spans="1:10" x14ac:dyDescent="0.2">
@@ -72966,8 +73176,8 @@
       </c>
       <c r="H1930" s="9"/>
       <c r="I1930"/>
-      <c r="J1930" s="1">
-        <v>300</v>
+      <c r="J1930" s="1" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="1931" spans="1:10" x14ac:dyDescent="0.2">
@@ -72992,7 +73202,7 @@
       <c r="H1931" s="9"/>
       <c r="I1931"/>
       <c r="J1931" s="1" t="s">
-        <v>2021</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1932" spans="1:10" x14ac:dyDescent="0.2">
@@ -73017,7 +73227,7 @@
       <c r="H1932" s="9"/>
       <c r="I1932"/>
       <c r="J1932" s="1" t="s">
-        <v>2025</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1933" spans="1:10" x14ac:dyDescent="0.2">
@@ -73042,7 +73252,7 @@
       <c r="H1933" s="9"/>
       <c r="I1933"/>
       <c r="J1933" s="1" t="s">
-        <v>2027</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1934" spans="1:10" x14ac:dyDescent="0.2">
@@ -73067,7 +73277,7 @@
       <c r="H1934" s="9"/>
       <c r="I1934"/>
       <c r="J1934" s="1" t="s">
-        <v>2030</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1935" spans="1:10" x14ac:dyDescent="0.2">
@@ -73092,7 +73302,7 @@
       <c r="H1935" s="9"/>
       <c r="I1935"/>
       <c r="J1935" s="1" t="s">
-        <v>2033</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1936" spans="1:10" x14ac:dyDescent="0.2">
@@ -73117,7 +73327,7 @@
       <c r="H1936" s="9"/>
       <c r="I1936"/>
       <c r="J1936" s="1" t="s">
-        <v>2038</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1937" spans="1:10" x14ac:dyDescent="0.2">
@@ -73142,7 +73352,7 @@
       <c r="H1937" s="9"/>
       <c r="I1937"/>
       <c r="J1937" s="1" t="s">
-        <v>2041</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1938" spans="1:10" x14ac:dyDescent="0.2">
@@ -73167,7 +73377,7 @@
       <c r="H1938" s="9"/>
       <c r="I1938"/>
       <c r="J1938" s="1" t="s">
-        <v>2044</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1939" spans="1:10" x14ac:dyDescent="0.2">
@@ -73192,7 +73402,7 @@
       <c r="H1939" s="9"/>
       <c r="I1939"/>
       <c r="J1939" s="1" t="s">
-        <v>2048</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1940" spans="1:10" x14ac:dyDescent="0.2">
@@ -73217,7 +73427,7 @@
       <c r="H1940" s="9"/>
       <c r="I1940"/>
       <c r="J1940" s="1" t="s">
-        <v>2051</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1941" spans="1:10" x14ac:dyDescent="0.2">
@@ -73242,7 +73452,7 @@
       <c r="H1941" s="9"/>
       <c r="I1941"/>
       <c r="J1941" s="1" t="s">
-        <v>2055</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1942" spans="1:10" x14ac:dyDescent="0.2">
@@ -73267,7 +73477,7 @@
       <c r="H1942" s="9"/>
       <c r="I1942"/>
       <c r="J1942" s="1" t="s">
-        <v>2059</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="1943" spans="1:10" x14ac:dyDescent="0.2">
@@ -73292,7 +73502,7 @@
       <c r="H1943" s="9"/>
       <c r="I1943"/>
       <c r="J1943" s="1" t="s">
-        <v>2061</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1944" spans="1:10" x14ac:dyDescent="0.2">
@@ -73317,7 +73527,7 @@
       <c r="H1944" s="9"/>
       <c r="I1944"/>
       <c r="J1944" s="1" t="s">
-        <v>2064</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1945" spans="1:10" x14ac:dyDescent="0.2">
@@ -73342,7 +73552,7 @@
       <c r="H1945" s="9"/>
       <c r="I1945"/>
       <c r="J1945" s="1" t="s">
-        <v>2068</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1946" spans="1:10" x14ac:dyDescent="0.2">
@@ -73367,7 +73577,7 @@
       <c r="H1946" s="9"/>
       <c r="I1946"/>
       <c r="J1946" s="1" t="s">
-        <v>2071</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1947" spans="1:10" x14ac:dyDescent="0.2">
@@ -73392,7 +73602,7 @@
       <c r="H1947" s="9"/>
       <c r="I1947"/>
       <c r="J1947" s="1" t="s">
-        <v>2074</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1948" spans="1:10" x14ac:dyDescent="0.2">
@@ -73417,7 +73627,7 @@
       <c r="H1948" s="9"/>
       <c r="I1948"/>
       <c r="J1948" s="1" t="s">
-        <v>2077</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1949" spans="1:10" x14ac:dyDescent="0.2">
@@ -73442,7 +73652,7 @@
       <c r="H1949" s="9"/>
       <c r="I1949"/>
       <c r="J1949" s="1" t="s">
-        <v>2081</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1950" spans="1:10" x14ac:dyDescent="0.2">
@@ -73470,7 +73680,7 @@
       <c r="H1950" s="9"/>
       <c r="I1950"/>
       <c r="J1950" s="1" t="s">
-        <v>2084</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1951" spans="1:10" x14ac:dyDescent="0.2">
@@ -73496,7 +73706,7 @@
         <v>2934</v>
       </c>
       <c r="J1951" s="1" t="s">
-        <v>2088</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1952" spans="1:10" x14ac:dyDescent="0.2">
@@ -73519,7 +73729,7 @@
         <v>2938</v>
       </c>
       <c r="J1952" s="1" t="s">
-        <v>2091</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1953" spans="1:10" x14ac:dyDescent="0.2">
@@ -73542,7 +73752,7 @@
         <v>2940</v>
       </c>
       <c r="J1953" s="1" t="s">
-        <v>2095</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1954" spans="1:10" x14ac:dyDescent="0.2">
@@ -73565,7 +73775,7 @@
         <v>2941</v>
       </c>
       <c r="J1954" s="1" t="s">
-        <v>2097</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1955" spans="1:10" x14ac:dyDescent="0.2">
@@ -73588,7 +73798,7 @@
         <v>2943</v>
       </c>
       <c r="J1955" s="1" t="s">
-        <v>2100</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1956" spans="1:10" x14ac:dyDescent="0.2">
@@ -73611,7 +73821,7 @@
         <v>2946</v>
       </c>
       <c r="J1956" s="1" t="s">
-        <v>2104</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1957" spans="1:10" x14ac:dyDescent="0.2">
@@ -73634,7 +73844,7 @@
         <v>2948</v>
       </c>
       <c r="J1957" s="1" t="s">
-        <v>2107</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1958" spans="1:10" x14ac:dyDescent="0.2">
@@ -73657,7 +73867,7 @@
         <v>2950</v>
       </c>
       <c r="J1958" s="1" t="s">
-        <v>2110</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1959" spans="1:10" x14ac:dyDescent="0.2">
@@ -73680,7 +73890,7 @@
         <v>2952</v>
       </c>
       <c r="J1959" s="1" t="s">
-        <v>2113</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1960" spans="1:10" x14ac:dyDescent="0.2">
@@ -73703,7 +73913,7 @@
         <v>2954</v>
       </c>
       <c r="J1960" s="1" t="s">
-        <v>2116</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1961" spans="1:10" x14ac:dyDescent="0.2">
@@ -73726,7 +73936,7 @@
         <v>2956</v>
       </c>
       <c r="J1961" s="1" t="s">
-        <v>2121</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1962" spans="1:10" x14ac:dyDescent="0.2">
@@ -73749,7 +73959,7 @@
         <v>2958</v>
       </c>
       <c r="J1962" s="1" t="s">
-        <v>977</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1963" spans="1:10" x14ac:dyDescent="0.2">
@@ -73772,7 +73982,7 @@
         <v>2959</v>
       </c>
       <c r="J1963" s="1" t="s">
-        <v>2127</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1964" spans="1:10" x14ac:dyDescent="0.2">
@@ -73795,7 +74005,7 @@
         <v>2961</v>
       </c>
       <c r="J1964" s="1" t="s">
-        <v>2130</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1965" spans="1:10" x14ac:dyDescent="0.2">
@@ -73818,7 +74028,7 @@
         <v>2964</v>
       </c>
       <c r="J1965" s="1" t="s">
-        <v>2133</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1966" spans="1:10" x14ac:dyDescent="0.2">
@@ -73841,7 +74051,7 @@
         <v>2966</v>
       </c>
       <c r="J1966" s="1" t="s">
-        <v>2136</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1967" spans="1:10" x14ac:dyDescent="0.2">
@@ -73864,7 +74074,7 @@
         <v>2969</v>
       </c>
       <c r="J1967" s="1" t="s">
-        <v>2139</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1968" spans="1:10" x14ac:dyDescent="0.2">
@@ -73887,7 +74097,7 @@
         <v>2971</v>
       </c>
       <c r="J1968" s="1" t="s">
-        <v>2142</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1969" spans="1:10" x14ac:dyDescent="0.2">
@@ -73910,7 +74120,7 @@
         <v>2973</v>
       </c>
       <c r="J1969" s="1" t="s">
-        <v>2146</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1970" spans="1:10" x14ac:dyDescent="0.2">
@@ -73933,7 +74143,7 @@
         <v>2975</v>
       </c>
       <c r="J1970" s="1" t="s">
-        <v>2150</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1971" spans="1:10" x14ac:dyDescent="0.2">
@@ -73956,7 +74166,7 @@
         <v>2978</v>
       </c>
       <c r="J1971" s="1" t="s">
-        <v>2154</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1972" spans="1:10" x14ac:dyDescent="0.2">
@@ -73979,7 +74189,7 @@
         <v>2980</v>
       </c>
       <c r="J1972" s="1" t="s">
-        <v>2158</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1973" spans="1:10" x14ac:dyDescent="0.2">
@@ -74005,7 +74215,7 @@
         <v>2984</v>
       </c>
       <c r="J1973" s="1" t="s">
-        <v>2162</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1974" spans="1:10" x14ac:dyDescent="0.2">
@@ -74028,7 +74238,7 @@
         <v>2986</v>
       </c>
       <c r="J1974" s="1" t="s">
-        <v>2166</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1975" spans="1:10" x14ac:dyDescent="0.2">
@@ -74051,7 +74261,7 @@
         <v>2988</v>
       </c>
       <c r="J1975" s="1" t="s">
-        <v>2169</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1976" spans="1:10" x14ac:dyDescent="0.2">
@@ -74074,7 +74284,7 @@
         <v>2990</v>
       </c>
       <c r="J1976" s="1" t="s">
-        <v>2173</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1977" spans="1:10" x14ac:dyDescent="0.2">
@@ -74097,7 +74307,7 @@
         <v>2992</v>
       </c>
       <c r="J1977" s="1" t="s">
-        <v>2176</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1978" spans="1:10" x14ac:dyDescent="0.2">
@@ -74120,7 +74330,7 @@
         <v>2993</v>
       </c>
       <c r="J1978" s="1" t="s">
-        <v>2179</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1979" spans="1:10" x14ac:dyDescent="0.2">
@@ -74143,7 +74353,7 @@
         <v>2995</v>
       </c>
       <c r="J1979" s="1" t="s">
-        <v>2183</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1980" spans="1:10" x14ac:dyDescent="0.2">
@@ -74166,7 +74376,7 @@
         <v>2998</v>
       </c>
       <c r="J1980" s="1" t="s">
-        <v>2186</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1981" spans="1:10" x14ac:dyDescent="0.2">
@@ -74192,7 +74402,7 @@
         <v>3001</v>
       </c>
       <c r="J1981" s="1" t="s">
-        <v>2190</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1982" spans="1:10" x14ac:dyDescent="0.2">
@@ -74215,7 +74425,7 @@
         <v>3003</v>
       </c>
       <c r="J1982" s="1" t="s">
-        <v>3593</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1983" spans="1:10" x14ac:dyDescent="0.2">
@@ -74238,7 +74448,7 @@
         <v>3005</v>
       </c>
       <c r="J1983" s="1" t="s">
-        <v>4457</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1984" spans="1:10" x14ac:dyDescent="0.2">
@@ -74264,7 +74474,7 @@
         <v>3007</v>
       </c>
       <c r="J1984" s="1" t="s">
-        <v>3540</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1985" spans="1:10" x14ac:dyDescent="0.2">
@@ -74287,7 +74497,7 @@
         <v>3010</v>
       </c>
       <c r="J1985" s="1" t="s">
-        <v>3631</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1986" spans="1:10" x14ac:dyDescent="0.2">
@@ -74310,7 +74520,7 @@
         <v>3013</v>
       </c>
       <c r="J1986" s="1" t="s">
-        <v>4458</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1987" spans="1:10" x14ac:dyDescent="0.2">
@@ -74333,7 +74543,7 @@
         <v>3015</v>
       </c>
       <c r="J1987" s="1" t="s">
-        <v>4459</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1988" spans="1:10" x14ac:dyDescent="0.2">
@@ -74356,7 +74566,7 @@
         <v>3016</v>
       </c>
       <c r="J1988" s="1" t="s">
-        <v>4460</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="1989" spans="1:10" x14ac:dyDescent="0.2">
@@ -74379,7 +74589,7 @@
         <v>3018</v>
       </c>
       <c r="J1989" s="1" t="s">
-        <v>4461</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1990" spans="1:10" x14ac:dyDescent="0.2">
@@ -74402,7 +74612,7 @@
         <v>3020</v>
       </c>
       <c r="J1990" s="1" t="s">
-        <v>3562</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1991" spans="1:10" x14ac:dyDescent="0.2">
@@ -74425,7 +74635,7 @@
         <v>3022</v>
       </c>
       <c r="J1991" s="1" t="s">
-        <v>3593</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1992" spans="1:10" x14ac:dyDescent="0.2">
@@ -74451,7 +74661,7 @@
         <v>3023</v>
       </c>
       <c r="J1992" s="1" t="s">
-        <v>2193</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1993" spans="1:10" x14ac:dyDescent="0.2">
@@ -74474,7 +74684,7 @@
         <v>3025</v>
       </c>
       <c r="J1993" s="1" t="s">
-        <v>2196</v>
+        <v>783</v>
       </c>
     </row>
     <row r="1994" spans="1:10" x14ac:dyDescent="0.2">
@@ -74497,7 +74707,7 @@
         <v>3027</v>
       </c>
       <c r="J1994" s="1" t="s">
-        <v>2199</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1995" spans="1:10" x14ac:dyDescent="0.2">
@@ -74520,7 +74730,7 @@
         <v>3029</v>
       </c>
       <c r="J1995" s="1" t="s">
-        <v>2202</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1996" spans="1:10" x14ac:dyDescent="0.2">
@@ -74542,8 +74752,8 @@
       <c r="G1996" t="s">
         <v>3031</v>
       </c>
-      <c r="J1996" s="1" t="s">
-        <v>2206</v>
+      <c r="J1996" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="1997" spans="1:10" x14ac:dyDescent="0.2">
@@ -74566,7 +74776,7 @@
         <v>3034</v>
       </c>
       <c r="J1997" s="1" t="s">
-        <v>2209</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1998" spans="1:10" x14ac:dyDescent="0.2">
@@ -74589,7 +74799,7 @@
         <v>3036</v>
       </c>
       <c r="J1998" s="1" t="s">
-        <v>2213</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1999" spans="1:10" x14ac:dyDescent="0.2">
@@ -74612,7 +74822,7 @@
         <v>3040</v>
       </c>
       <c r="J1999" s="1" t="s">
-        <v>2216</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="2000" spans="1:10" x14ac:dyDescent="0.2">
@@ -74635,7 +74845,7 @@
         <v>3042</v>
       </c>
       <c r="J2000" s="1" t="s">
-        <v>2219</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="2001" spans="1:10" x14ac:dyDescent="0.2">
@@ -74658,7 +74868,7 @@
         <v>3044</v>
       </c>
       <c r="J2001" s="1" t="s">
-        <v>2224</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="2002" spans="1:10" x14ac:dyDescent="0.2">
@@ -74681,7 +74891,7 @@
         <v>3046</v>
       </c>
       <c r="J2002" s="1" t="s">
-        <v>2228</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="2003" spans="1:10" x14ac:dyDescent="0.2">
@@ -74704,7 +74914,7 @@
         <v>3047</v>
       </c>
       <c r="J2003" s="1" t="s">
-        <v>2231</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="2004" spans="1:10" x14ac:dyDescent="0.2">
@@ -74727,7 +74937,7 @@
         <v>3050</v>
       </c>
       <c r="J2004" s="1" t="s">
-        <v>2234</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="2005" spans="1:10" x14ac:dyDescent="0.2">
@@ -74750,7 +74960,7 @@
         <v>3051</v>
       </c>
       <c r="J2005" s="1" t="s">
-        <v>2237</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="2006" spans="1:10" x14ac:dyDescent="0.2">
@@ -74773,7 +74983,7 @@
         <v>3054</v>
       </c>
       <c r="J2006" s="1" t="s">
-        <v>2241</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="2007" spans="1:10" x14ac:dyDescent="0.2">
@@ -74796,7 +75006,7 @@
         <v>3057</v>
       </c>
       <c r="J2007" s="1" t="s">
-        <v>2244</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="2008" spans="1:10" x14ac:dyDescent="0.2">
@@ -74819,7 +75029,7 @@
         <v>3061</v>
       </c>
       <c r="J2008" s="1" t="s">
-        <v>2248</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="2009" spans="1:10" x14ac:dyDescent="0.2">
@@ -74845,7 +75055,7 @@
         <v>3064</v>
       </c>
       <c r="J2009" s="1" t="s">
-        <v>2252</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="2010" spans="1:10" x14ac:dyDescent="0.2">
@@ -74868,7 +75078,7 @@
         <v>3066</v>
       </c>
       <c r="J2010" s="1" t="s">
-        <v>2255</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="2011" spans="1:10" x14ac:dyDescent="0.2">
@@ -74891,7 +75101,7 @@
         <v>3068</v>
       </c>
       <c r="J2011" s="1" t="s">
-        <v>2258</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="2012" spans="1:10" x14ac:dyDescent="0.2">
@@ -74914,7 +75124,7 @@
         <v>3070</v>
       </c>
       <c r="J2012" s="1" t="s">
-        <v>2262</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="2013" spans="1:10" x14ac:dyDescent="0.2">
@@ -74937,7 +75147,7 @@
         <v>3072</v>
       </c>
       <c r="J2013" s="1" t="s">
-        <v>2266</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="2014" spans="1:10" x14ac:dyDescent="0.2">
@@ -74960,7 +75170,7 @@
         <v>3075</v>
       </c>
       <c r="J2014" s="1" t="s">
-        <v>2269</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="2015" spans="1:10" x14ac:dyDescent="0.2">
@@ -74983,7 +75193,7 @@
         <v>3077</v>
       </c>
       <c r="J2015" s="1" t="s">
-        <v>2273</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="2016" spans="1:10" x14ac:dyDescent="0.2">
@@ -75006,7 +75216,7 @@
         <v>3079</v>
       </c>
       <c r="J2016" s="1" t="s">
-        <v>2276</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="2017" spans="1:10" x14ac:dyDescent="0.2">
@@ -75029,7 +75239,7 @@
         <v>3081</v>
       </c>
       <c r="J2017" s="1" t="s">
-        <v>2280</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="2018" spans="1:10" x14ac:dyDescent="0.2">
@@ -75052,7 +75262,7 @@
         <v>3083</v>
       </c>
       <c r="J2018" s="1" t="s">
-        <v>2284</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="2019" spans="1:10" x14ac:dyDescent="0.2">
@@ -75075,7 +75285,7 @@
         <v>3085</v>
       </c>
       <c r="J2019" s="1" t="s">
-        <v>2289</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="2020" spans="1:10" x14ac:dyDescent="0.2">
@@ -75098,7 +75308,7 @@
         <v>3087</v>
       </c>
       <c r="J2020" s="1" t="s">
-        <v>2292</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="2021" spans="1:10" x14ac:dyDescent="0.2">
@@ -75121,7 +75331,7 @@
         <v>3090</v>
       </c>
       <c r="J2021" s="1" t="s">
-        <v>2296</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="2022" spans="1:10" x14ac:dyDescent="0.2">
@@ -75144,7 +75354,7 @@
         <v>3093</v>
       </c>
       <c r="J2022" s="1" t="s">
-        <v>2299</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="2023" spans="1:10" x14ac:dyDescent="0.2">
@@ -75167,7 +75377,7 @@
         <v>3094</v>
       </c>
       <c r="J2023" s="1" t="s">
-        <v>2303</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="2024" spans="1:10" x14ac:dyDescent="0.2">
@@ -75190,7 +75400,7 @@
         <v>3096</v>
       </c>
       <c r="J2024" s="1" t="s">
-        <v>2306</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="2025" spans="1:10" x14ac:dyDescent="0.2">
@@ -75213,7 +75423,7 @@
         <v>3099</v>
       </c>
       <c r="J2025" s="1" t="s">
-        <v>2309</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="2026" spans="1:10" x14ac:dyDescent="0.2">
@@ -75236,7 +75446,7 @@
         <v>3101</v>
       </c>
       <c r="J2026" s="1" t="s">
-        <v>2312</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="2027" spans="1:10" x14ac:dyDescent="0.2">
@@ -75259,7 +75469,7 @@
         <v>3103</v>
       </c>
       <c r="J2027" s="1" t="s">
-        <v>2315</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="2028" spans="1:10" x14ac:dyDescent="0.2">
@@ -75282,7 +75492,7 @@
         <v>3105</v>
       </c>
       <c r="J2028" s="1" t="s">
-        <v>2318</v>
+        <v>977</v>
       </c>
     </row>
     <row r="2029" spans="1:10" x14ac:dyDescent="0.2">
@@ -75305,7 +75515,7 @@
         <v>3107</v>
       </c>
       <c r="J2029" s="1" t="s">
-        <v>2322</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="2030" spans="1:10" x14ac:dyDescent="0.2">
@@ -75328,7 +75538,7 @@
         <v>3109</v>
       </c>
       <c r="J2030" s="1" t="s">
-        <v>2326</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="2031" spans="1:10" x14ac:dyDescent="0.2">
@@ -75351,7 +75561,7 @@
         <v>3113</v>
       </c>
       <c r="J2031" s="1" t="s">
-        <v>2329</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="2032" spans="1:10" x14ac:dyDescent="0.2">
@@ -75374,7 +75584,7 @@
         <v>3117</v>
       </c>
       <c r="J2032" s="1" t="s">
-        <v>2332</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="2033" spans="1:10" x14ac:dyDescent="0.2">
@@ -75397,7 +75607,7 @@
         <v>3119</v>
       </c>
       <c r="J2033" s="1" t="s">
-        <v>2336</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="2034" spans="1:10" x14ac:dyDescent="0.2">
@@ -75420,7 +75630,7 @@
         <v>3121</v>
       </c>
       <c r="J2034" s="1" t="s">
-        <v>4462</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="2035" spans="1:10" x14ac:dyDescent="0.2">
@@ -75443,7 +75653,7 @@
         <v>3123</v>
       </c>
       <c r="J2035" s="1" t="s">
-        <v>3751</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="2036" spans="1:10" x14ac:dyDescent="0.2">
@@ -75466,7 +75676,7 @@
         <v>3125</v>
       </c>
       <c r="J2036" s="1" t="s">
-        <v>2339</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="2037" spans="1:10" x14ac:dyDescent="0.2">
@@ -75489,7 +75699,7 @@
         <v>3127</v>
       </c>
       <c r="J2037" s="1" t="s">
-        <v>2342</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="2038" spans="1:10" x14ac:dyDescent="0.2">
@@ -75512,7 +75722,7 @@
         <v>3129</v>
       </c>
       <c r="J2038" s="1" t="s">
-        <v>2345</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="2039" spans="1:10" x14ac:dyDescent="0.2">
@@ -75535,7 +75745,7 @@
         <v>3130</v>
       </c>
       <c r="J2039" s="1" t="s">
-        <v>2348</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="2040" spans="1:10" x14ac:dyDescent="0.2">
@@ -75558,7 +75768,7 @@
         <v>3133</v>
       </c>
       <c r="J2040" s="1" t="s">
-        <v>2351</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="2041" spans="1:10" x14ac:dyDescent="0.2">
@@ -75581,7 +75791,7 @@
         <v>3136</v>
       </c>
       <c r="J2041" s="1" t="s">
-        <v>2353</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="2042" spans="1:10" x14ac:dyDescent="0.2">
@@ -75604,7 +75814,7 @@
         <v>3138</v>
       </c>
       <c r="J2042" s="1" t="s">
-        <v>2357</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="2043" spans="1:10" x14ac:dyDescent="0.2">
@@ -75627,7 +75837,7 @@
         <v>3140</v>
       </c>
       <c r="J2043" s="1" t="s">
-        <v>2360</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="2044" spans="1:10" x14ac:dyDescent="0.2">
@@ -75650,7 +75860,7 @@
         <v>3142</v>
       </c>
       <c r="J2044" s="1" t="s">
-        <v>2363</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="2045" spans="1:10" x14ac:dyDescent="0.2">
@@ -75673,7 +75883,7 @@
         <v>3144</v>
       </c>
       <c r="J2045" s="1" t="s">
-        <v>2366</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="2046" spans="1:10" x14ac:dyDescent="0.2">
@@ -75696,7 +75906,7 @@
         <v>3146</v>
       </c>
       <c r="J2046" s="1" t="s">
-        <v>2369</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="2047" spans="1:10" x14ac:dyDescent="0.2">
@@ -75719,7 +75929,7 @@
         <v>3148</v>
       </c>
       <c r="J2047" s="1" t="s">
-        <v>2372</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="2048" spans="1:10" x14ac:dyDescent="0.2">
@@ -75742,7 +75952,7 @@
         <v>3151</v>
       </c>
       <c r="J2048" s="1" t="s">
-        <v>2376</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="2049" spans="1:10" x14ac:dyDescent="0.2">
@@ -75765,7 +75975,7 @@
         <v>3154</v>
       </c>
       <c r="J2049" s="1" t="s">
-        <v>2379</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="2050" spans="1:10" x14ac:dyDescent="0.2">
@@ -75788,7 +75998,7 @@
         <v>3157</v>
       </c>
       <c r="J2050" s="1" t="s">
-        <v>2382</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="2051" spans="1:10" x14ac:dyDescent="0.2">
@@ -75811,7 +76021,7 @@
         <v>3161</v>
       </c>
       <c r="J2051" s="1" t="s">
-        <v>2387</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="2052" spans="1:10" x14ac:dyDescent="0.2">
@@ -75834,7 +76044,7 @@
         <v>3163</v>
       </c>
       <c r="J2052" s="1" t="s">
-        <v>2390</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="2053" spans="1:10" x14ac:dyDescent="0.2">
@@ -75857,7 +76067,7 @@
         <v>3165</v>
       </c>
       <c r="J2053" s="1" t="s">
-        <v>2393</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="2054" spans="1:10" x14ac:dyDescent="0.2">
@@ -75880,7 +76090,7 @@
         <v>3167</v>
       </c>
       <c r="J2054" s="1" t="s">
-        <v>2396</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="2055" spans="1:10" x14ac:dyDescent="0.2">
@@ -75903,7 +76113,7 @@
         <v>3168</v>
       </c>
       <c r="J2055" s="1" t="s">
-        <v>2399</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="2056" spans="1:10" x14ac:dyDescent="0.2">
@@ -75926,7 +76136,7 @@
         <v>3170</v>
       </c>
       <c r="J2056" s="1" t="s">
-        <v>2403</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="2057" spans="1:10" x14ac:dyDescent="0.2">
@@ -75949,7 +76159,7 @@
         <v>3172</v>
       </c>
       <c r="J2057" s="1" t="s">
-        <v>2406</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="2058" spans="1:10" x14ac:dyDescent="0.2">
@@ -75972,7 +76182,7 @@
         <v>3175</v>
       </c>
       <c r="J2058" s="1" t="s">
-        <v>2410</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="2059" spans="1:10" x14ac:dyDescent="0.2">
@@ -75995,7 +76205,7 @@
         <v>3177</v>
       </c>
       <c r="J2059" s="1" t="s">
-        <v>570</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="2060" spans="1:10" x14ac:dyDescent="0.2">
@@ -76021,7 +76231,7 @@
         <v>3179</v>
       </c>
       <c r="J2060" s="1" t="s">
-        <v>357</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="2061" spans="1:10" x14ac:dyDescent="0.2">
@@ -76044,7 +76254,7 @@
         <v>3181</v>
       </c>
       <c r="J2061" s="1" t="s">
-        <v>2417</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="2062" spans="1:10" x14ac:dyDescent="0.2">
@@ -76067,7 +76277,7 @@
         <v>3183</v>
       </c>
       <c r="J2062" s="1" t="s">
-        <v>2420</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="2063" spans="1:10" x14ac:dyDescent="0.2">
@@ -76090,7 +76300,7 @@
         <v>3184</v>
       </c>
       <c r="J2063" s="1" t="s">
-        <v>2424</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="2064" spans="1:10" x14ac:dyDescent="0.2">
@@ -76113,7 +76323,7 @@
         <v>3186</v>
       </c>
       <c r="J2064" s="1" t="s">
-        <v>2429</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="2065" spans="1:10" x14ac:dyDescent="0.2">
@@ -76136,7 +76346,7 @@
         <v>3189</v>
       </c>
       <c r="J2065" s="1" t="s">
-        <v>2433</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="2066" spans="1:10" x14ac:dyDescent="0.2">
@@ -76159,7 +76369,7 @@
         <v>3190</v>
       </c>
       <c r="J2066" s="1" t="s">
-        <v>2436</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="2067" spans="1:10" x14ac:dyDescent="0.2">
@@ -76182,7 +76392,7 @@
         <v>3192</v>
       </c>
       <c r="J2067" s="1" t="s">
-        <v>2440</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="2068" spans="1:10" x14ac:dyDescent="0.2">
@@ -76205,7 +76415,7 @@
         <v>3194</v>
       </c>
       <c r="J2068" s="1" t="s">
-        <v>2443</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="2069" spans="1:10" x14ac:dyDescent="0.2">
@@ -76228,7 +76438,7 @@
         <v>3196</v>
       </c>
       <c r="J2069" s="1" t="s">
-        <v>2446</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="2070" spans="1:10" x14ac:dyDescent="0.2">
@@ -76251,7 +76461,7 @@
         <v>3197</v>
       </c>
       <c r="J2070" s="1" t="s">
-        <v>2450</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="2071" spans="1:10" x14ac:dyDescent="0.2">
@@ -76274,7 +76484,7 @@
         <v>3199</v>
       </c>
       <c r="J2071" s="1" t="s">
-        <v>2454</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="2072" spans="1:10" x14ac:dyDescent="0.2">
@@ -76297,7 +76507,7 @@
         <v>3202</v>
       </c>
       <c r="J2072" s="1" t="s">
-        <v>2458</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="2073" spans="1:10" x14ac:dyDescent="0.2">
@@ -76320,7 +76530,7 @@
         <v>3204</v>
       </c>
       <c r="J2073" s="1" t="s">
-        <v>4463</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="2074" spans="1:10" x14ac:dyDescent="0.2">
@@ -76343,7 +76553,7 @@
         <v>3206</v>
       </c>
       <c r="J2074" s="1" t="s">
-        <v>4464</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="2075" spans="1:10" x14ac:dyDescent="0.2">
@@ -76366,7 +76576,7 @@
         <v>3207</v>
       </c>
       <c r="J2075" s="1" t="s">
-        <v>4465</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="2076" spans="1:10" x14ac:dyDescent="0.2">
@@ -76389,7 +76599,7 @@
         <v>3208</v>
       </c>
       <c r="J2076" s="1" t="s">
-        <v>4466</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="2077" spans="1:10" x14ac:dyDescent="0.2">
@@ -76412,7 +76622,7 @@
         <v>3210</v>
       </c>
       <c r="J2077" s="1" t="s">
-        <v>4297</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="2078" spans="1:10" x14ac:dyDescent="0.2">
@@ -76435,7 +76645,7 @@
         <v>3213</v>
       </c>
       <c r="J2078" s="1" t="s">
-        <v>4467</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="2079" spans="1:10" x14ac:dyDescent="0.2">
@@ -76458,7 +76668,7 @@
         <v>3215</v>
       </c>
       <c r="J2079" s="1" t="s">
-        <v>2461</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="2080" spans="1:10" x14ac:dyDescent="0.2">
@@ -76481,7 +76691,7 @@
         <v>3217</v>
       </c>
       <c r="J2080" s="1" t="s">
-        <v>2466</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="2081" spans="1:10" x14ac:dyDescent="0.2">
@@ -76504,7 +76714,7 @@
         <v>3220</v>
       </c>
       <c r="J2081" s="1" t="s">
-        <v>2469</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="2082" spans="1:10" x14ac:dyDescent="0.2">
@@ -76527,7 +76737,7 @@
         <v>3223</v>
       </c>
       <c r="J2082" s="1" t="s">
-        <v>2472</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="2083" spans="1:10" x14ac:dyDescent="0.2">
@@ -76549,8 +76759,8 @@
       <c r="G2083" t="s">
         <v>3224</v>
       </c>
-      <c r="J2083" s="1">
-        <v>2012</v>
+      <c r="J2083" s="1" t="s">
+        <v>2280</v>
       </c>
     </row>
     <row r="2084" spans="1:10" x14ac:dyDescent="0.2">
@@ -76573,7 +76783,7 @@
         <v>3226</v>
       </c>
       <c r="J2084" s="1" t="s">
-        <v>2478</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="2085" spans="1:10" x14ac:dyDescent="0.2">
@@ -76596,7 +76806,7 @@
         <v>3229</v>
       </c>
       <c r="J2085" s="1" t="s">
-        <v>2481</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="2086" spans="1:10" x14ac:dyDescent="0.2">
@@ -76619,7 +76829,7 @@
         <v>3232</v>
       </c>
       <c r="J2086" s="1" t="s">
-        <v>2485</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="2087" spans="1:10" x14ac:dyDescent="0.2">
@@ -76642,7 +76852,7 @@
         <v>3234</v>
       </c>
       <c r="J2087" s="1" t="s">
-        <v>2488</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="2088" spans="1:10" x14ac:dyDescent="0.2">
@@ -76665,7 +76875,7 @@
         <v>3237</v>
       </c>
       <c r="J2088" s="1" t="s">
-        <v>2491</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="2089" spans="1:10" x14ac:dyDescent="0.2">
@@ -76688,7 +76898,7 @@
         <v>3239</v>
       </c>
       <c r="J2089" s="1" t="s">
-        <v>2494</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="2090" spans="1:10" x14ac:dyDescent="0.2">
@@ -76711,7 +76921,7 @@
         <v>3241</v>
       </c>
       <c r="J2090" s="1" t="s">
-        <v>2498</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="2091" spans="1:10" x14ac:dyDescent="0.2">
@@ -76734,7 +76944,7 @@
         <v>3243</v>
       </c>
       <c r="J2091" s="1" t="s">
-        <v>2502</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="2092" spans="1:10" x14ac:dyDescent="0.2">
@@ -76757,7 +76967,7 @@
         <v>3246</v>
       </c>
       <c r="J2092" s="1" t="s">
-        <v>2506</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="2093" spans="1:10" x14ac:dyDescent="0.2">
@@ -76783,7 +76993,7 @@
         <v>3248</v>
       </c>
       <c r="J2093" s="1" t="s">
-        <v>2509</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="2094" spans="1:10" x14ac:dyDescent="0.2">
@@ -76806,7 +77016,7 @@
         <v>3251</v>
       </c>
       <c r="J2094" s="1" t="s">
-        <v>2513</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="2095" spans="1:10" x14ac:dyDescent="0.2">
@@ -76829,7 +77039,7 @@
         <v>3255</v>
       </c>
       <c r="J2095" s="1" t="s">
-        <v>2516</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="2096" spans="1:10" x14ac:dyDescent="0.2">
@@ -76852,7 +77062,7 @@
         <v>3259</v>
       </c>
       <c r="J2096" s="1" t="s">
-        <v>2520</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="2097" spans="1:10" x14ac:dyDescent="0.2">
@@ -76875,7 +77085,7 @@
         <v>3261</v>
       </c>
       <c r="J2097" s="1" t="s">
-        <v>2525</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="2098" spans="1:10" x14ac:dyDescent="0.2">
@@ -76898,7 +77108,7 @@
         <v>3264</v>
       </c>
       <c r="J2098" s="1" t="s">
-        <v>2528</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="2099" spans="1:10" x14ac:dyDescent="0.2">
@@ -76921,7 +77131,7 @@
         <v>3266</v>
       </c>
       <c r="J2099" s="1" t="s">
-        <v>2532</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="2100" spans="1:10" x14ac:dyDescent="0.2">
@@ -76944,7 +77154,7 @@
         <v>3269</v>
       </c>
       <c r="J2100" s="1" t="s">
-        <v>2536</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="2101" spans="1:10" x14ac:dyDescent="0.2">
@@ -76967,7 +77177,7 @@
         <v>3270</v>
       </c>
       <c r="J2101" s="1" t="s">
-        <v>2540</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="2102" spans="1:10" x14ac:dyDescent="0.2">
@@ -76990,7 +77200,7 @@
         <v>3272</v>
       </c>
       <c r="J2102" s="1" t="s">
-        <v>2544</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="2103" spans="1:10" x14ac:dyDescent="0.2">
@@ -77013,7 +77223,7 @@
         <v>3273</v>
       </c>
       <c r="J2103" s="1" t="s">
-        <v>2547</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="2104" spans="1:10" x14ac:dyDescent="0.2">
@@ -77036,7 +77246,7 @@
         <v>3275</v>
       </c>
       <c r="J2104" s="1" t="s">
-        <v>2550</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="2105" spans="1:10" x14ac:dyDescent="0.2">
@@ -77059,7 +77269,7 @@
         <v>3278</v>
       </c>
       <c r="J2105" s="1" t="s">
-        <v>2553</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="2106" spans="1:10" x14ac:dyDescent="0.2">
@@ -77082,7 +77292,7 @@
         <v>3281</v>
       </c>
       <c r="J2106" s="1" t="s">
-        <v>2557</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="2107" spans="1:10" x14ac:dyDescent="0.2">
@@ -77105,7 +77315,7 @@
         <v>3283</v>
       </c>
       <c r="J2107" s="1" t="s">
-        <v>2560</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="2108" spans="1:10" x14ac:dyDescent="0.2">
@@ -77128,7 +77338,7 @@
         <v>3285</v>
       </c>
       <c r="J2108" s="1" t="s">
-        <v>2563</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="2109" spans="1:10" x14ac:dyDescent="0.2">
@@ -77151,7 +77361,7 @@
         <v>3287</v>
       </c>
       <c r="J2109" s="1" t="s">
-        <v>2567</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="2110" spans="1:10" x14ac:dyDescent="0.2">
@@ -77174,7 +77384,7 @@
         <v>3290</v>
       </c>
       <c r="J2110" s="1" t="s">
-        <v>2570</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="2111" spans="1:10" x14ac:dyDescent="0.2">
@@ -77197,7 +77407,7 @@
         <v>3292</v>
       </c>
       <c r="J2111" s="1" t="s">
-        <v>2574</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="2112" spans="1:10" x14ac:dyDescent="0.2">
@@ -77220,7 +77430,7 @@
         <v>3295</v>
       </c>
       <c r="J2112" s="1" t="s">
-        <v>2576</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="2113" spans="1:10" x14ac:dyDescent="0.2">
@@ -77243,7 +77453,7 @@
         <v>3299</v>
       </c>
       <c r="J2113" s="1" t="s">
-        <v>2579</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="2114" spans="1:10" x14ac:dyDescent="0.2">
@@ -77266,7 +77476,7 @@
         <v>3302</v>
       </c>
       <c r="J2114" s="1" t="s">
-        <v>2583</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="2115" spans="1:10" x14ac:dyDescent="0.2">
@@ -77289,7 +77499,7 @@
         <v>3304</v>
       </c>
       <c r="J2115" s="1" t="s">
-        <v>2586</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="2116" spans="1:10" x14ac:dyDescent="0.2">
@@ -77312,7 +77522,7 @@
         <v>3307</v>
       </c>
       <c r="J2116" s="1" t="s">
-        <v>2591</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="2117" spans="1:10" x14ac:dyDescent="0.2">
@@ -77335,7 +77545,7 @@
         <v>3310</v>
       </c>
       <c r="J2117" s="1" t="s">
-        <v>2595</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="2118" spans="1:10" x14ac:dyDescent="0.2">
@@ -77358,7 +77568,7 @@
         <v>3312</v>
       </c>
       <c r="J2118" s="1" t="s">
-        <v>2598</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="2119" spans="1:10" x14ac:dyDescent="0.2">
@@ -77381,7 +77591,7 @@
         <v>3314</v>
       </c>
       <c r="J2119" s="1" t="s">
-        <v>2602</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="2120" spans="1:10" x14ac:dyDescent="0.2">
@@ -77404,7 +77614,7 @@
         <v>3316</v>
       </c>
       <c r="J2120" s="1" t="s">
-        <v>2606</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="2121" spans="1:10" x14ac:dyDescent="0.2">
@@ -77427,7 +77637,7 @@
         <v>3318</v>
       </c>
       <c r="J2121" s="1" t="s">
-        <v>2610</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="2122" spans="1:10" x14ac:dyDescent="0.2">
@@ -77450,7 +77660,7 @@
         <v>3321</v>
       </c>
       <c r="J2122" s="1" t="s">
-        <v>342</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="2123" spans="1:10" x14ac:dyDescent="0.2">
@@ -77473,7 +77683,7 @@
         <v>3323</v>
       </c>
       <c r="J2123" s="1" t="s">
-        <v>2616</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="2124" spans="1:10" x14ac:dyDescent="0.2">
@@ -77496,7 +77706,7 @@
         <v>3325</v>
       </c>
       <c r="J2124" s="1" t="s">
-        <v>2619</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="2125" spans="1:10" x14ac:dyDescent="0.2">
@@ -77522,7 +77732,7 @@
         <v>3327</v>
       </c>
       <c r="J2125" s="1" t="s">
-        <v>2622</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2126" spans="1:10" x14ac:dyDescent="0.2">
@@ -77545,7 +77755,7 @@
         <v>3329</v>
       </c>
       <c r="J2126" s="1" t="s">
-        <v>2625</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2127" spans="1:10" x14ac:dyDescent="0.2">
@@ -77568,7 +77778,7 @@
         <v>3331</v>
       </c>
       <c r="J2127" s="1" t="s">
-        <v>2628</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="2128" spans="1:10" x14ac:dyDescent="0.2">
@@ -77591,7 +77801,7 @@
         <v>3333</v>
       </c>
       <c r="J2128" s="1" t="s">
-        <v>2632</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="2129" spans="1:10" x14ac:dyDescent="0.2">
@@ -77614,7 +77824,7 @@
         <v>3337</v>
       </c>
       <c r="J2129" s="1" t="s">
-        <v>2635</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="2130" spans="1:10" x14ac:dyDescent="0.2">
@@ -77637,7 +77847,7 @@
         <v>3339</v>
       </c>
       <c r="J2130" s="1" t="s">
-        <v>2638</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="2131" spans="1:10" x14ac:dyDescent="0.2">
@@ -77660,7 +77870,7 @@
         <v>3341</v>
       </c>
       <c r="J2131" s="1" t="s">
-        <v>2641</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="2132" spans="1:10" x14ac:dyDescent="0.2">
@@ -77683,7 +77893,7 @@
         <v>3345</v>
       </c>
       <c r="J2132" s="1" t="s">
-        <v>2644</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="2133" spans="1:10" x14ac:dyDescent="0.2">
@@ -77706,7 +77916,7 @@
         <v>3347</v>
       </c>
       <c r="J2133" s="1" t="s">
-        <v>2648</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="2134" spans="1:10" x14ac:dyDescent="0.2">
@@ -77729,7 +77939,7 @@
         <v>3349</v>
       </c>
       <c r="J2134" s="1" t="s">
-        <v>2651</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="2135" spans="1:10" x14ac:dyDescent="0.2">
@@ -77752,7 +77962,7 @@
         <v>3351</v>
       </c>
       <c r="J2135" s="1" t="s">
-        <v>2654</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="2136" spans="1:10" x14ac:dyDescent="0.2">
@@ -77775,7 +77985,7 @@
         <v>3353</v>
       </c>
       <c r="J2136" s="1" t="s">
-        <v>2657</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="2137" spans="1:10" x14ac:dyDescent="0.2">
@@ -77798,7 +78008,7 @@
         <v>3356</v>
       </c>
       <c r="J2137" s="1" t="s">
-        <v>2661</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="2138" spans="1:10" x14ac:dyDescent="0.2">
@@ -77821,7 +78031,7 @@
         <v>3359</v>
       </c>
       <c r="J2138" s="1" t="s">
-        <v>2664</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="2139" spans="1:10" x14ac:dyDescent="0.2">
@@ -77844,7 +78054,7 @@
         <v>3361</v>
       </c>
       <c r="J2139" s="1" t="s">
-        <v>2667</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="2140" spans="1:10" x14ac:dyDescent="0.2">
@@ -77867,7 +78077,7 @@
         <v>3363</v>
       </c>
       <c r="J2140" s="1" t="s">
-        <v>891</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="2141" spans="1:10" x14ac:dyDescent="0.2">
@@ -77890,7 +78100,7 @@
         <v>3364</v>
       </c>
       <c r="J2141" s="1" t="s">
-        <v>2672</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="2142" spans="1:10" x14ac:dyDescent="0.2">
@@ -77913,7 +78123,7 @@
         <v>3367</v>
       </c>
       <c r="J2142" s="1" t="s">
-        <v>2675</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="2143" spans="1:10" x14ac:dyDescent="0.2">
@@ -77936,7 +78146,7 @@
         <v>3369</v>
       </c>
       <c r="J2143" s="1" t="s">
-        <v>2679</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="2144" spans="1:10" x14ac:dyDescent="0.2">
@@ -77959,7 +78169,7 @@
         <v>3371</v>
       </c>
       <c r="J2144" s="1" t="s">
-        <v>2682</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="2145" spans="1:10" x14ac:dyDescent="0.2">
@@ -77982,7 +78192,7 @@
         <v>3372</v>
       </c>
       <c r="J2145" s="1" t="s">
-        <v>2684</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="2146" spans="1:10" x14ac:dyDescent="0.2">
@@ -78005,7 +78215,7 @@
         <v>3374</v>
       </c>
       <c r="J2146" s="1" t="s">
-        <v>2687</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="2147" spans="1:10" x14ac:dyDescent="0.2">
@@ -78028,7 +78238,7 @@
         <v>3377</v>
       </c>
       <c r="J2147" s="1" t="s">
-        <v>2690</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="2148" spans="1:10" x14ac:dyDescent="0.2">
@@ -78051,7 +78261,7 @@
         <v>3379</v>
       </c>
       <c r="J2148" s="1" t="s">
-        <v>2694</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="2149" spans="1:10" x14ac:dyDescent="0.2">
@@ -78073,8 +78283,8 @@
       <c r="G2149" t="s">
         <v>3382</v>
       </c>
-      <c r="J2149" s="1" t="s">
-        <v>1423</v>
+      <c r="J2149" s="1">
+        <v>2012</v>
       </c>
     </row>
     <row r="2150" spans="1:10" x14ac:dyDescent="0.2">
@@ -78097,7 +78307,7 @@
         <v>3385</v>
       </c>
       <c r="J2150" s="1" t="s">
-        <v>2700</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="2151" spans="1:10" x14ac:dyDescent="0.2">
@@ -78120,7 +78330,7 @@
         <v>3388</v>
       </c>
       <c r="J2151" s="1" t="s">
-        <v>2703</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="2152" spans="1:10" x14ac:dyDescent="0.2">
@@ -78146,7 +78356,7 @@
         <v>3391</v>
       </c>
       <c r="J2152" s="1" t="s">
-        <v>2706</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="2153" spans="1:10" x14ac:dyDescent="0.2">
@@ -78169,7 +78379,7 @@
         <v>3393</v>
       </c>
       <c r="J2153" s="1" t="s">
-        <v>2709</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="2154" spans="1:10" x14ac:dyDescent="0.2">
@@ -78192,7 +78402,7 @@
         <v>3395</v>
       </c>
       <c r="J2154" s="1" t="s">
-        <v>2713</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="2155" spans="1:10" x14ac:dyDescent="0.2">
@@ -78215,7 +78425,7 @@
         <v>3397</v>
       </c>
       <c r="J2155" s="1" t="s">
-        <v>2716</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="2156" spans="1:10" x14ac:dyDescent="0.2">
@@ -78238,7 +78448,7 @@
         <v>3399</v>
       </c>
       <c r="J2156" s="1" t="s">
-        <v>2719</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="2157" spans="1:10" x14ac:dyDescent="0.2">
@@ -78261,7 +78471,7 @@
         <v>3401</v>
       </c>
       <c r="J2157" s="1" t="s">
-        <v>4468</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="2158" spans="1:10" x14ac:dyDescent="0.2">
@@ -78284,7 +78494,7 @@
         <v>3403</v>
       </c>
       <c r="J2158" s="1" t="s">
-        <v>4469</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="2159" spans="1:10" x14ac:dyDescent="0.2">
@@ -78306,6 +78516,9 @@
       <c r="G2159" t="s">
         <v>3405</v>
       </c>
+      <c r="J2159" s="1" t="s">
+        <v>2509</v>
+      </c>
     </row>
     <row r="2160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2160">
@@ -78326,8 +78539,11 @@
       <c r="G2160" t="s">
         <v>3407</v>
       </c>
-    </row>
-    <row r="2161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2160" s="1" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2161">
         <v>2005</v>
       </c>
@@ -78346,8 +78562,11 @@
       <c r="G2161" t="s">
         <v>3410</v>
       </c>
-    </row>
-    <row r="2162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2161" s="1" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2162">
         <v>2005</v>
       </c>
@@ -78366,8 +78585,11 @@
       <c r="G2162" t="s">
         <v>3412</v>
       </c>
-    </row>
-    <row r="2163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2162" s="1" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2163">
         <v>2005</v>
       </c>
@@ -78386,8 +78608,11 @@
       <c r="G2163" t="s">
         <v>3414</v>
       </c>
-    </row>
-    <row r="2164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2163" s="1" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2164">
         <v>2005</v>
       </c>
@@ -78406,8 +78631,11 @@
       <c r="G2164" t="s">
         <v>3416</v>
       </c>
-    </row>
-    <row r="2165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2164" s="1" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2165">
         <v>2005</v>
       </c>
@@ -78426,8 +78654,11 @@
       <c r="G2165" t="s">
         <v>3418</v>
       </c>
-    </row>
-    <row r="2166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2165" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2166">
         <v>2005</v>
       </c>
@@ -78446,8 +78677,11 @@
       <c r="G2166" t="s">
         <v>3420</v>
       </c>
-    </row>
-    <row r="2167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2166" s="1" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2167">
         <v>2005</v>
       </c>
@@ -78466,8 +78700,11 @@
       <c r="G2167" t="s">
         <v>3423</v>
       </c>
-    </row>
-    <row r="2168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2167" s="1" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2168">
         <v>2005</v>
       </c>
@@ -78486,8 +78723,11 @@
       <c r="G2168" t="s">
         <v>3425</v>
       </c>
-    </row>
-    <row r="2169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2168" s="1" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2169">
         <v>2005</v>
       </c>
@@ -78506,8 +78746,11 @@
       <c r="G2169" t="s">
         <v>3427</v>
       </c>
-    </row>
-    <row r="2170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2169" s="1" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2170">
         <v>2005</v>
       </c>
@@ -78526,8 +78769,11 @@
       <c r="G2170" t="s">
         <v>3429</v>
       </c>
-    </row>
-    <row r="2171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2170" s="1" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2171">
         <v>2005</v>
       </c>
@@ -78546,8 +78792,11 @@
       <c r="G2171" t="s">
         <v>3431</v>
       </c>
-    </row>
-    <row r="2172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2171" s="1" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2172">
         <v>2005</v>
       </c>
@@ -78566,8 +78815,11 @@
       <c r="G2172" t="s">
         <v>3435</v>
       </c>
-    </row>
-    <row r="2173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2172" s="1" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2173">
         <v>2005</v>
       </c>
@@ -78586,8 +78838,11 @@
       <c r="G2173" t="s">
         <v>3436</v>
       </c>
-    </row>
-    <row r="2174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2173" s="1" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2174">
         <v>2005</v>
       </c>
@@ -78606,8 +78861,11 @@
       <c r="G2174" t="s">
         <v>3439</v>
       </c>
-    </row>
-    <row r="2175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2174" s="1" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2175">
         <v>2005</v>
       </c>
@@ -78626,8 +78884,11 @@
       <c r="G2175" t="s">
         <v>3441</v>
       </c>
-    </row>
-    <row r="2176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2175" s="1" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2176">
         <v>2005</v>
       </c>
@@ -78646,8 +78907,11 @@
       <c r="G2176" t="s">
         <v>3443</v>
       </c>
-    </row>
-    <row r="2177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2176" s="1" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2177">
         <v>2005</v>
       </c>
@@ -78666,8 +78930,11 @@
       <c r="G2177" t="s">
         <v>3445</v>
       </c>
-    </row>
-    <row r="2178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2177" s="1" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2178">
         <v>2005</v>
       </c>
@@ -78686,8 +78953,11 @@
       <c r="G2178" t="s">
         <v>3447</v>
       </c>
-    </row>
-    <row r="2179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2178" s="1" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2179">
         <v>2005</v>
       </c>
@@ -78706,8 +78976,11 @@
       <c r="G2179" t="s">
         <v>3449</v>
       </c>
-    </row>
-    <row r="2180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2179" s="1" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2180">
         <v>2005</v>
       </c>
@@ -78726,8 +78999,11 @@
       <c r="G2180" t="s">
         <v>3451</v>
       </c>
-    </row>
-    <row r="2181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2180" s="1" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2181">
         <v>2005</v>
       </c>
@@ -78746,8 +79022,11 @@
       <c r="G2181" t="s">
         <v>3453</v>
       </c>
-    </row>
-    <row r="2182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2181" s="1" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2182">
         <v>2005</v>
       </c>
@@ -78766,8 +79045,11 @@
       <c r="G2182" t="s">
         <v>3455</v>
       </c>
-    </row>
-    <row r="2183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2182" s="1" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2183">
         <v>2005</v>
       </c>
@@ -78786,8 +79068,11 @@
       <c r="G2183" t="s">
         <v>3457</v>
       </c>
-    </row>
-    <row r="2184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2183" s="1" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2184">
         <v>2005</v>
       </c>
@@ -78806,8 +79091,11 @@
       <c r="G2184" t="s">
         <v>3459</v>
       </c>
-    </row>
-    <row r="2185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2184" s="1" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2185">
         <v>2005</v>
       </c>
@@ -78826,8 +79114,11 @@
       <c r="G2185" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="2186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2185" s="1" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2186">
         <v>2005</v>
       </c>
@@ -78846,8 +79137,11 @@
       <c r="G2186" t="s">
         <v>3463</v>
       </c>
-    </row>
-    <row r="2187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2186" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2187">
         <v>2005</v>
       </c>
@@ -78866,8 +79160,11 @@
       <c r="G2187" t="s">
         <v>3464</v>
       </c>
-    </row>
-    <row r="2188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2187" s="1" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2188">
         <v>2005</v>
       </c>
@@ -78886,8 +79183,11 @@
       <c r="G2188" t="s">
         <v>3465</v>
       </c>
-    </row>
-    <row r="2189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2188" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2189">
         <v>2005</v>
       </c>
@@ -78906,8 +79206,11 @@
       <c r="G2189" t="s">
         <v>3468</v>
       </c>
-    </row>
-    <row r="2190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2189" s="1" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2190">
         <v>2005</v>
       </c>
@@ -78926,8 +79229,11 @@
       <c r="G2190" t="s">
         <v>3470</v>
       </c>
-    </row>
-    <row r="2191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2190" s="1" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2191">
         <v>2005</v>
       </c>
@@ -78946,8 +79252,11 @@
       <c r="G2191" t="s">
         <v>3472</v>
       </c>
-    </row>
-    <row r="2192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2191" s="1" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2192">
         <v>2005</v>
       </c>
@@ -78966,8 +79275,11 @@
       <c r="G2192" t="s">
         <v>3475</v>
       </c>
-    </row>
-    <row r="2193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2192" s="1" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2193">
         <v>2005</v>
       </c>
@@ -78986,8 +79298,11 @@
       <c r="G2193" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="2194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2193" s="1" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2194">
         <v>2005</v>
       </c>
@@ -79006,8 +79321,11 @@
       <c r="G2194" t="s">
         <v>3480</v>
       </c>
-    </row>
-    <row r="2195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2194" s="1" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2195">
         <v>2005</v>
       </c>
@@ -79026,8 +79344,11 @@
       <c r="G2195" t="s">
         <v>3483</v>
       </c>
-    </row>
-    <row r="2196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2195" s="1" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2196">
         <v>2005</v>
       </c>
@@ -79046,8 +79367,11 @@
       <c r="G2196" t="s">
         <v>3485</v>
       </c>
-    </row>
-    <row r="2197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2196" s="1" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2197">
         <v>2005</v>
       </c>
@@ -79066,8 +79390,11 @@
       <c r="G2197" t="s">
         <v>3487</v>
       </c>
-    </row>
-    <row r="2198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2197" s="1" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2198">
         <v>2005</v>
       </c>
@@ -79086,8 +79413,11 @@
       <c r="G2198" t="s">
         <v>3491</v>
       </c>
-    </row>
-    <row r="2199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2198" s="1" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2199">
         <v>2005</v>
       </c>
@@ -79106,8 +79436,11 @@
       <c r="G2199" t="s">
         <v>3495</v>
       </c>
-    </row>
-    <row r="2200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2199" s="1" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2200">
         <v>2005</v>
       </c>
@@ -79126,8 +79459,11 @@
       <c r="G2200" t="s">
         <v>3498</v>
       </c>
-    </row>
-    <row r="2201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2200" s="1" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2201">
         <v>2005</v>
       </c>
@@ -79149,8 +79485,11 @@
       <c r="G2201" t="s">
         <v>3500</v>
       </c>
-    </row>
-    <row r="2202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2201" s="1" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2202">
         <v>2005</v>
       </c>
@@ -79169,8 +79508,11 @@
       <c r="G2202" t="s">
         <v>3503</v>
       </c>
-    </row>
-    <row r="2203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2202" s="1" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2203">
         <v>2006</v>
       </c>
@@ -79189,8 +79531,11 @@
       <c r="G2203" t="s">
         <v>3505</v>
       </c>
-    </row>
-    <row r="2204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2203" s="1" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2204">
         <v>2006</v>
       </c>
@@ -79209,8 +79554,11 @@
       <c r="G2204" t="s">
         <v>3508</v>
       </c>
-    </row>
-    <row r="2205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2204" s="1" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2205">
         <v>2006</v>
       </c>
@@ -79229,8 +79577,11 @@
       <c r="G2205" t="s">
         <v>3510</v>
       </c>
-    </row>
-    <row r="2206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2205" s="1" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2206">
         <v>2006</v>
       </c>
@@ -79249,8 +79600,11 @@
       <c r="G2206" t="s">
         <v>3512</v>
       </c>
-    </row>
-    <row r="2207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2206" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2207">
         <v>2006</v>
       </c>
@@ -79269,8 +79623,11 @@
       <c r="G2207" t="s">
         <v>3514</v>
       </c>
-    </row>
-    <row r="2208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2207" s="1" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2208">
         <v>2006</v>
       </c>
@@ -79289,8 +79646,11 @@
       <c r="G2208" t="s">
         <v>3517</v>
       </c>
-    </row>
-    <row r="2209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2208" s="1" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2209">
         <v>2006</v>
       </c>
@@ -79309,8 +79669,11 @@
       <c r="G2209" t="s">
         <v>3519</v>
       </c>
-    </row>
-    <row r="2210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2209" s="1" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2210">
         <v>2006</v>
       </c>
@@ -79329,8 +79692,11 @@
       <c r="G2210" t="s">
         <v>3520</v>
       </c>
-    </row>
-    <row r="2211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2210" s="1" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2211">
         <v>2006</v>
       </c>
@@ -79349,8 +79715,11 @@
       <c r="G2211" t="s">
         <v>3522</v>
       </c>
-    </row>
-    <row r="2212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2211" s="1" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2212">
         <v>2006</v>
       </c>
@@ -79369,8 +79738,11 @@
       <c r="G2212" t="s">
         <v>3524</v>
       </c>
-    </row>
-    <row r="2213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2212" s="1" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2213">
         <v>2006</v>
       </c>
@@ -79389,8 +79761,11 @@
       <c r="G2213" t="s">
         <v>3526</v>
       </c>
-    </row>
-    <row r="2214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2213" s="1" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2214">
         <v>2006</v>
       </c>
@@ -79409,8 +79784,11 @@
       <c r="G2214" t="s">
         <v>3530</v>
       </c>
-    </row>
-    <row r="2215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2214" s="1" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2215">
         <v>2006</v>
       </c>
@@ -79429,8 +79807,11 @@
       <c r="G2215" t="s">
         <v>3532</v>
       </c>
-    </row>
-    <row r="2216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2215" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2216">
         <v>2006</v>
       </c>
@@ -79449,8 +79830,11 @@
       <c r="G2216" t="s">
         <v>3534</v>
       </c>
-    </row>
-    <row r="2217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2216" s="1" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2217">
         <v>2006</v>
       </c>
@@ -79469,8 +79853,11 @@
       <c r="G2217" t="s">
         <v>3536</v>
       </c>
-    </row>
-    <row r="2218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2217" s="1" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2218">
         <v>2006</v>
       </c>
@@ -79489,8 +79876,11 @@
       <c r="G2218" t="s">
         <v>3539</v>
       </c>
-    </row>
-    <row r="2219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2218" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2219">
         <v>2006</v>
       </c>
@@ -79512,8 +79902,11 @@
       <c r="G2219" t="s">
         <v>3542</v>
       </c>
-    </row>
-    <row r="2220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2219" s="1" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2220">
         <v>2006</v>
       </c>
@@ -79532,8 +79925,11 @@
       <c r="G2220" t="s">
         <v>3544</v>
       </c>
-    </row>
-    <row r="2221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2220" s="1" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2221">
         <v>2006</v>
       </c>
@@ -79552,8 +79948,11 @@
       <c r="G2221" t="s">
         <v>3546</v>
       </c>
-    </row>
-    <row r="2222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2221" s="1" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2222">
         <v>2006</v>
       </c>
@@ -79572,8 +79971,11 @@
       <c r="G2222" t="s">
         <v>3548</v>
       </c>
-    </row>
-    <row r="2223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2222" s="1" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2223">
         <v>2006</v>
       </c>
@@ -79592,8 +79994,11 @@
       <c r="G2223" t="s">
         <v>3551</v>
       </c>
-    </row>
-    <row r="2224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2223" s="1" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2224">
         <v>2006</v>
       </c>
@@ -79611,6 +80016,9 @@
       </c>
       <c r="G2224" t="s">
         <v>3552</v>
+      </c>
+      <c r="J2224" s="1" t="s">
+        <v>4469</v>
       </c>
     </row>
     <row r="2225" spans="1:7" x14ac:dyDescent="0.2">

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17940" uniqueCount="8652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18298" uniqueCount="8801">
   <si>
     <t>Year</t>
   </si>
@@ -25990,6 +25990,453 @@
   </si>
   <si>
     <t>Der 7. Sinn - Siódmy zmysł</t>
+  </si>
+  <si>
+    <t>Państwo Hart (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Państwo Hart (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Expeditionen ins Tierreich</t>
+  </si>
+  <si>
+    <t>Magnum, P.I. (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Magnum, P.I. (Sezon 8)</t>
+  </si>
+  <si>
+    <t>Magnum, P.I. (Sezon 7)</t>
+  </si>
+  <si>
+    <t>Magnum, P.I. (Sezon 6)</t>
+  </si>
+  <si>
+    <t>Magnum, P.I. (Sezon 5)</t>
+  </si>
+  <si>
+    <t>Magnum, P.I. (Sezon 4)</t>
+  </si>
+  <si>
+    <t>Magnum, P.I. (Sezon 3)</t>
+  </si>
+  <si>
+    <t>Magnum, P.I. (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Löwenzahn - Mlecz</t>
+  </si>
+  <si>
+    <t>The Fall Guy (Sezon 1)</t>
+  </si>
+  <si>
+    <t>The Smurfs (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Cagney &amp; Lacey (Sezon 1)</t>
+  </si>
+  <si>
+    <t>The Smurfs (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Cagney &amp; Lacey (Sezon 7)</t>
+  </si>
+  <si>
+    <t>Cagney &amp; Lacey (Sezon 6)</t>
+  </si>
+  <si>
+    <t>Cagney &amp; Lacey (Sezon 5)</t>
+  </si>
+  <si>
+    <t>Cagney &amp; Lacey (Sezon 4)</t>
+  </si>
+  <si>
+    <t>Cagney &amp; Lacey (Sezon 3)</t>
+  </si>
+  <si>
+    <t>Cagney &amp; Lacey (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Knight Rider - Nieustraszony (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Knight Rider - Nieustraszony (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Knight Rider - Nieustraszony (Sezon 3)</t>
+  </si>
+  <si>
+    <t>Knight Rider - Nieustraszony (Sezon 4)</t>
+  </si>
+  <si>
+    <t>Inspektor Gadżet (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Inspektor Gadżet (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Bob Ross: The Joy of Painting</t>
+  </si>
+  <si>
+    <t>Ptaki ciernistych krzewów</t>
+  </si>
+  <si>
+    <t>Napisała: Morderstwo (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Napisała: Morderstwo (Sezon 12)</t>
+  </si>
+  <si>
+    <t>Napisała: Morderstwo (Sezon 7)</t>
+  </si>
+  <si>
+    <t>Napisała: Morderstwo (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Napisała: Morderstwo (Sezon 8)</t>
+  </si>
+  <si>
+    <t>Napisała: Morderstwo (Sezon 11)</t>
+  </si>
+  <si>
+    <t>Napisała: Morderstwo (Sezon 3)</t>
+  </si>
+  <si>
+    <t>Napisała: Morderstwo (Sezon 6)</t>
+  </si>
+  <si>
+    <t>Napisała: Morderstwo (Sezon 10)</t>
+  </si>
+  <si>
+    <t>Napisała: Morderstwo (Sezon 5)</t>
+  </si>
+  <si>
+    <t>Napisała: Morderstwo (Sezon 9)</t>
+  </si>
+  <si>
+    <t>Napisała: Morderstwo (Sezon 4)</t>
+  </si>
+  <si>
+    <t>Riptide (Sezon 1)</t>
+  </si>
+  <si>
+    <t>The Transformers (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Linden Street (Sezon 1)</t>
+  </si>
+  <si>
+    <t>MacGyver (Sezon 1)</t>
+  </si>
+  <si>
+    <t>ALF (Sezon 1)</t>
+  </si>
+  <si>
+    <t>My Little Pony (Sezon 1)</t>
+  </si>
+  <si>
+    <t>The Transformers (Sezon 3)</t>
+  </si>
+  <si>
+    <t>The Transformers (Sezon 2)</t>
+  </si>
+  <si>
+    <t>MacGyver (Sezon 7)</t>
+  </si>
+  <si>
+    <t>Seinfeld (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Seinfeld (Sezon 3)</t>
+  </si>
+  <si>
+    <t>Baywatch (Sezon 3)</t>
+  </si>
+  <si>
+    <t>Seinfeld (Sezon 4)</t>
+  </si>
+  <si>
+    <t>MacGyver (Sezon 6)</t>
+  </si>
+  <si>
+    <t>Seinfeld (Sezon 5)</t>
+  </si>
+  <si>
+    <t>Baywatch (Sezon 7)</t>
+  </si>
+  <si>
+    <t>MacGyver (Sezon 5)</t>
+  </si>
+  <si>
+    <t>MacGyver (Sezon 4)</t>
+  </si>
+  <si>
+    <t>Baywatch (Sezon 1)</t>
+  </si>
+  <si>
+    <t>MacGyver (Sezon 3)</t>
+  </si>
+  <si>
+    <t>MacGyver (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Star Trek: The Next Generation (Sezon 1)</t>
+  </si>
+  <si>
+    <t>My Little Pony (Sezon 2)</t>
+  </si>
+  <si>
+    <t>The Transformers (Sezon 4)</t>
+  </si>
+  <si>
+    <t>War of the Worlds (Sezon 1)</t>
+  </si>
+  <si>
+    <t>War of the Worlds (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Północ - Południe: Book 1</t>
+  </si>
+  <si>
+    <t>Północ - Południe: Book 2</t>
+  </si>
+  <si>
+    <t>Star Trek: The Next Generation (Sezon 7)</t>
+  </si>
+  <si>
+    <t>Baywatch (Sezon 5)</t>
+  </si>
+  <si>
+    <t>Seinfeld (Sezon 6)</t>
+  </si>
+  <si>
+    <t>Baywatch (Sezon 6)</t>
+  </si>
+  <si>
+    <t>Star Trek: The Next Generation (Sezon 6)</t>
+  </si>
+  <si>
+    <t>Baywatch (Sezon 4)</t>
+  </si>
+  <si>
+    <t>Star Trek: The Next Generation (Sezon 5)</t>
+  </si>
+  <si>
+    <t>Baywatch (Sezon 8)</t>
+  </si>
+  <si>
+    <t>Star Trek: The Next Generation (Sezon 4)</t>
+  </si>
+  <si>
+    <t>Baywatch (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Star Trek: The Next Generation (Sezon 3)</t>
+  </si>
+  <si>
+    <t>Star Trek: The Next Generation (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Tożsamość Bourne'a</t>
+  </si>
+  <si>
+    <t>Seinfeld (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Północ - Południe Book 3</t>
+  </si>
+  <si>
+    <t>Seinfeld (Sezon 7)</t>
+  </si>
+  <si>
+    <t>Stargate SG-1 (Sezon 5)</t>
+  </si>
+  <si>
+    <t>Sex and the City (Sezon 5)</t>
+  </si>
+  <si>
+    <t>Baywatch (Sezon 9)</t>
+  </si>
+  <si>
+    <t>Simpsonowie (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Simpsonowie (Sezon 8)</t>
+  </si>
+  <si>
+    <t>Simpsonowie (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Simpsonowie (Sezon 7)</t>
+  </si>
+  <si>
+    <t>Simpsonowie (Sezon 6)</t>
+  </si>
+  <si>
+    <t>Simpsonowie (Sezon 5)</t>
+  </si>
+  <si>
+    <t>Simpsonowie (Sezon 3)</t>
+  </si>
+  <si>
+    <t>Simpsonowie (Sezon 4)</t>
+  </si>
+  <si>
+    <t>Cuda ziemi - Wunder der Erde</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Miasteczko Twin Peaks (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Miasteczko Twin Peaks (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Jaś Fasola (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Jaś Fasola (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Jaś Fasola (Sezon 3)</t>
+  </si>
+  <si>
+    <t>Z archiwum X (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Z archiwum X (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Bastion</t>
+  </si>
+  <si>
+    <t>Herkules: The Legendary Journeys (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Herkules: The Legendary Journeys (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Cuda ziemi - Wunder der Erde (Best of, Season 2)</t>
+  </si>
+  <si>
+    <t>Xena: Wojownicza księżniczka (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Zegar Pandory</t>
+  </si>
+  <si>
+    <t>Buffy: Postrach wampirów (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Buffy: Postrach wampirów (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Buffy: Postrach wampirów (Sezon 3)</t>
+  </si>
+  <si>
+    <t>Buffy: Postrach wampirów (Sezon 4)</t>
+  </si>
+  <si>
+    <t>Buffy: Postrach wampirów (Sezon 5)</t>
+  </si>
+  <si>
+    <t>Buffy: Postrach wampirów (Sezon 6)</t>
+  </si>
+  <si>
+    <t>Buffy: Postrach wampirów (Sezon 7)</t>
+  </si>
+  <si>
+    <t>Stargate SG-1 (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Stargate SG-1 (Sezon 10)</t>
+  </si>
+  <si>
+    <t>Stargate SG-1 (Sezon 9)</t>
+  </si>
+  <si>
+    <t>Stargate SG-1 (Sezon 8)</t>
+  </si>
+  <si>
+    <t>Stargate SG-1 (Sezon 7)</t>
+  </si>
+  <si>
+    <t>Stargate SG-1 (Sezon 6)</t>
+  </si>
+  <si>
+    <t>Stargate SG-1 (Sezon 4)</t>
+  </si>
+  <si>
+    <t>Stargate SG-1 (Sezon 3)</t>
+  </si>
+  <si>
+    <t>Stargate SG-1 (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Sex and the City (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Angel (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Angel (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Sex and the City (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Sex and the City (Sezon 6)</t>
+  </si>
+  <si>
+    <t>Skyland (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Game of Thrones (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Sex and the City (Sezon 4)</t>
+  </si>
+  <si>
+    <t>Angel (Sezon 4)</t>
+  </si>
+  <si>
+    <t>Angel (Sezon 5)</t>
+  </si>
+  <si>
+    <t>Sex and the City (Sezon 3)</t>
+  </si>
+  <si>
+    <t>Angel (Sezon 3)</t>
+  </si>
+  <si>
+    <t>Attyla</t>
+  </si>
+  <si>
+    <t>Najeźdźca Zim (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Game of Thrones (Sezon 2)</t>
+  </si>
+  <si>
+    <t>Teoria wielkiego podrywu</t>
+  </si>
+  <si>
+    <t>Kolor magii Terry'ego Pratchetta</t>
+  </si>
+  <si>
+    <t>Lindenstraße</t>
+  </si>
+  <si>
+    <t>Żywe trupy</t>
+  </si>
+  <si>
+    <t>Ijon Tichy: Raumpilot (Sezon 1)</t>
+  </si>
+  <si>
+    <t>Ijon Tichy: Raumpilot (Sezon 2)</t>
   </si>
 </sst>
 </file>
@@ -26464,11 +26911,11 @@
   <dimension ref="A1:V2917"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2521" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2704" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="H2532" sqref="H2532"/>
+      <selection pane="bottomRight" activeCell="G2716" sqref="G2716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -92930,6 +93377,12 @@
       <c r="G2532" t="s">
         <v>7853</v>
       </c>
+      <c r="H2532" s="11" t="s">
+        <v>8652</v>
+      </c>
+      <c r="I2532" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2533" s="16" t="s">
@@ -93011,6 +93464,12 @@
       <c r="G2535" t="s">
         <v>7858</v>
       </c>
+      <c r="H2535" s="11" t="s">
+        <v>8654</v>
+      </c>
+      <c r="I2535" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2536" s="16" t="s">
@@ -93034,6 +93493,12 @@
       <c r="G2536" t="s">
         <v>7853</v>
       </c>
+      <c r="H2536" s="11" t="s">
+        <v>8653</v>
+      </c>
+      <c r="I2536" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2537" s="16" t="s">
@@ -93057,6 +93522,12 @@
       <c r="G2537" t="s">
         <v>7861</v>
       </c>
+      <c r="H2537" s="11" t="s">
+        <v>8655</v>
+      </c>
+      <c r="I2537" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2538" s="16" t="s">
@@ -93080,6 +93551,12 @@
       <c r="G2538" t="s">
         <v>7862</v>
       </c>
+      <c r="H2538" s="11" t="s">
+        <v>8646</v>
+      </c>
+      <c r="I2538" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2539" s="16" t="s">
@@ -93103,6 +93580,12 @@
       <c r="G2539" t="s">
         <v>7866</v>
       </c>
+      <c r="H2539" s="11" t="s">
+        <v>8663</v>
+      </c>
+      <c r="I2539" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2540" s="16" t="s">
@@ -93126,6 +93609,12 @@
       <c r="G2540" t="s">
         <v>7867</v>
       </c>
+      <c r="H2540" s="11" t="s">
+        <v>4069</v>
+      </c>
+      <c r="I2540" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2541" s="16" t="s">
@@ -93149,6 +93638,12 @@
       <c r="G2541" t="s">
         <v>7861</v>
       </c>
+      <c r="H2541" s="11" t="s">
+        <v>8662</v>
+      </c>
+      <c r="I2541" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2542" s="16" t="s">
@@ -93172,6 +93667,12 @@
       <c r="G2542" t="s">
         <v>7872</v>
       </c>
+      <c r="H2542" s="11" t="s">
+        <v>7870</v>
+      </c>
+      <c r="I2542" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2543" s="16" t="s">
@@ -93195,6 +93696,12 @@
       <c r="G2543" t="s">
         <v>7874</v>
       </c>
+      <c r="H2543" s="11" t="s">
+        <v>7873</v>
+      </c>
+      <c r="I2543" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2544" s="16" t="s">
@@ -93218,8 +93725,14 @@
       <c r="G2544" t="s">
         <v>7876</v>
       </c>
-    </row>
-    <row r="2545" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2544" s="11" t="s">
+        <v>8664</v>
+      </c>
+      <c r="I2544" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2545" s="16" t="s">
         <v>7863</v>
       </c>
@@ -93241,8 +93754,14 @@
       <c r="G2545" t="s">
         <v>7877</v>
       </c>
-    </row>
-    <row r="2546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2545" s="11" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I2545" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2546" s="16" t="s">
         <v>7863</v>
       </c>
@@ -93264,8 +93783,14 @@
       <c r="G2546" t="s">
         <v>7880</v>
       </c>
-    </row>
-    <row r="2547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2546" s="11" t="s">
+        <v>8665</v>
+      </c>
+      <c r="I2546" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2547" s="16" t="s">
         <v>7881</v>
       </c>
@@ -93287,8 +93812,14 @@
       <c r="G2547" t="s">
         <v>7884</v>
       </c>
-    </row>
-    <row r="2548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2547" s="11" t="s">
+        <v>8666</v>
+      </c>
+      <c r="I2547" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2548" s="16" t="s">
         <v>7881</v>
       </c>
@@ -93310,8 +93841,14 @@
       <c r="G2548" t="s">
         <v>7884</v>
       </c>
-    </row>
-    <row r="2549" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2548" s="11" t="s">
+        <v>8673</v>
+      </c>
+      <c r="I2548" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2549" s="16" t="s">
         <v>7881</v>
       </c>
@@ -93333,8 +93870,14 @@
       <c r="G2549" t="s">
         <v>7888</v>
       </c>
-    </row>
-    <row r="2550" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2549" s="11" t="s">
+        <v>8674</v>
+      </c>
+      <c r="I2549" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2550" s="16" t="s">
         <v>7881</v>
       </c>
@@ -93356,8 +93899,14 @@
       <c r="G2550" t="s">
         <v>7861</v>
       </c>
-    </row>
-    <row r="2551" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2550" s="11" t="s">
+        <v>8661</v>
+      </c>
+      <c r="I2550" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2551" s="16" t="s">
         <v>7881</v>
       </c>
@@ -93379,8 +93928,14 @@
       <c r="G2551" t="s">
         <v>7893</v>
       </c>
-    </row>
-    <row r="2552" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2551" s="11" t="s">
+        <v>7891</v>
+      </c>
+      <c r="I2551" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2552" s="16" t="s">
         <v>7881</v>
       </c>
@@ -93402,8 +93957,14 @@
       <c r="G2552" t="s">
         <v>7880</v>
       </c>
-    </row>
-    <row r="2553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2552" s="11" t="s">
+        <v>8667</v>
+      </c>
+      <c r="I2552" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2553" s="16" t="s">
         <v>7895</v>
       </c>
@@ -93425,8 +93986,14 @@
       <c r="G2553" t="s">
         <v>7897</v>
       </c>
-    </row>
-    <row r="2554" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2553" s="11" t="s">
+        <v>7896</v>
+      </c>
+      <c r="I2553" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2554" s="16" t="s">
         <v>7895</v>
       </c>
@@ -93448,8 +94015,14 @@
       <c r="G2554" t="s">
         <v>7900</v>
       </c>
-    </row>
-    <row r="2555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2554" s="11" t="s">
+        <v>8678</v>
+      </c>
+      <c r="I2554" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2555" s="16" t="s">
         <v>7895</v>
       </c>
@@ -93471,8 +94044,14 @@
       <c r="G2555" t="s">
         <v>7888</v>
       </c>
-    </row>
-    <row r="2556" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2555" s="11" t="s">
+        <v>8675</v>
+      </c>
+      <c r="I2555" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2556" s="16" t="s">
         <v>7895</v>
       </c>
@@ -93494,8 +94073,14 @@
       <c r="G2556" t="s">
         <v>7861</v>
       </c>
-    </row>
-    <row r="2557" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2556" s="11" t="s">
+        <v>8660</v>
+      </c>
+      <c r="I2556" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2557" s="16" t="s">
         <v>7895</v>
       </c>
@@ -93517,8 +94102,14 @@
       <c r="G2557" t="s">
         <v>7905</v>
       </c>
-    </row>
-    <row r="2558" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2557" s="11" t="s">
+        <v>8680</v>
+      </c>
+      <c r="I2557" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2558" s="16" t="s">
         <v>7895</v>
       </c>
@@ -93540,8 +94131,14 @@
       <c r="G2558" t="s">
         <v>7907</v>
       </c>
-    </row>
-    <row r="2559" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2558" s="11" t="s">
+        <v>8681</v>
+      </c>
+      <c r="I2558" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2559" s="16" t="s">
         <v>7908</v>
       </c>
@@ -93563,8 +94160,14 @@
       <c r="G2559" t="s">
         <v>7884</v>
       </c>
-    </row>
-    <row r="2560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2559" s="11" t="s">
+        <v>8672</v>
+      </c>
+      <c r="I2559" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2560" s="16" t="s">
         <v>7908</v>
       </c>
@@ -93586,8 +94189,14 @@
       <c r="G2560" t="s">
         <v>7884</v>
       </c>
-    </row>
-    <row r="2561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2560" s="11" t="s">
+        <v>8671</v>
+      </c>
+      <c r="I2560" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2561" s="16" t="s">
         <v>7908</v>
       </c>
@@ -93609,8 +94218,14 @@
       <c r="G2561" t="s">
         <v>7888</v>
       </c>
-    </row>
-    <row r="2562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2561" s="11" t="s">
+        <v>8676</v>
+      </c>
+      <c r="I2561" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2562" s="16" t="s">
         <v>7908</v>
       </c>
@@ -93632,8 +94247,14 @@
       <c r="G2562" t="s">
         <v>7861</v>
       </c>
-    </row>
-    <row r="2563" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2562" s="11" t="s">
+        <v>8659</v>
+      </c>
+      <c r="I2562" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2563" s="16" t="s">
         <v>7908</v>
       </c>
@@ -93655,8 +94276,14 @@
       <c r="G2563" t="s">
         <v>7914</v>
       </c>
-    </row>
-    <row r="2564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2563" s="11" t="s">
+        <v>8682</v>
+      </c>
+      <c r="I2563" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2564" s="16" t="s">
         <v>7908</v>
       </c>
@@ -93678,8 +94305,14 @@
       <c r="G2564" t="s">
         <v>7916</v>
       </c>
-    </row>
-    <row r="2565" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2564" s="11" t="s">
+        <v>8694</v>
+      </c>
+      <c r="I2564" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2565" s="16" t="s">
         <v>7908</v>
       </c>
@@ -93701,8 +94334,14 @@
       <c r="G2565" t="s">
         <v>7916</v>
       </c>
-    </row>
-    <row r="2566" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2565" s="11" t="s">
+        <v>8694</v>
+      </c>
+      <c r="I2565" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2566" s="16" t="s">
         <v>7908</v>
       </c>
@@ -93724,8 +94363,14 @@
       <c r="G2566" t="s">
         <v>7919</v>
       </c>
-    </row>
-    <row r="2567" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2566" s="11" t="s">
+        <v>8695</v>
+      </c>
+      <c r="I2566" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2567" s="16" t="s">
         <v>7920</v>
       </c>
@@ -93747,8 +94392,14 @@
       <c r="G2567" t="s">
         <v>7884</v>
       </c>
-    </row>
-    <row r="2568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2567" s="11" t="s">
+        <v>8670</v>
+      </c>
+      <c r="I2567" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2568" s="16" t="s">
         <v>7920</v>
       </c>
@@ -93770,8 +94421,14 @@
       <c r="G2568" t="s">
         <v>7900</v>
       </c>
-    </row>
-    <row r="2569" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2568" s="11" t="s">
+        <v>8679</v>
+      </c>
+      <c r="I2568" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2569" s="16" t="s">
         <v>7920</v>
       </c>
@@ -93793,8 +94450,14 @@
       <c r="G2569" t="s">
         <v>7888</v>
       </c>
-    </row>
-    <row r="2570" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2569" s="11" t="s">
+        <v>8677</v>
+      </c>
+      <c r="I2569" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2570" s="16" t="s">
         <v>7920</v>
       </c>
@@ -93816,8 +94479,14 @@
       <c r="G2570" t="s">
         <v>7925</v>
       </c>
-    </row>
-    <row r="2571" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2570" s="11" t="s">
+        <v>8696</v>
+      </c>
+      <c r="I2570" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2571" s="16" t="s">
         <v>7920</v>
       </c>
@@ -93839,8 +94508,14 @@
       <c r="G2571" t="s">
         <v>7927</v>
       </c>
-    </row>
-    <row r="2572" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2571" s="11" t="s">
+        <v>8697</v>
+      </c>
+      <c r="I2571" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2572" s="16" t="s">
         <v>7920</v>
       </c>
@@ -93862,8 +94537,14 @@
       <c r="G2572" t="s">
         <v>7861</v>
       </c>
-    </row>
-    <row r="2573" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2572" s="11" t="s">
+        <v>8658</v>
+      </c>
+      <c r="I2572" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2573" s="16" t="s">
         <v>7920</v>
       </c>
@@ -93885,8 +94566,14 @@
       <c r="G2573" t="s">
         <v>7914</v>
       </c>
-    </row>
-    <row r="2574" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2573" s="11" t="s">
+        <v>8685</v>
+      </c>
+      <c r="I2573" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2574" s="16" t="s">
         <v>7920</v>
       </c>
@@ -93908,8 +94595,14 @@
       <c r="G2574" t="s">
         <v>7916</v>
       </c>
-    </row>
-    <row r="2575" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2574" s="11" t="s">
+        <v>8694</v>
+      </c>
+      <c r="I2574" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2575" s="16" t="s">
         <v>7920</v>
       </c>
@@ -93931,8 +94624,14 @@
       <c r="G2575" t="s">
         <v>7919</v>
       </c>
-    </row>
-    <row r="2576" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2575" s="11" t="s">
+        <v>8701</v>
+      </c>
+      <c r="I2575" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2576" s="16" t="s">
         <v>7932</v>
       </c>
@@ -93954,8 +94653,14 @@
       <c r="G2576" t="s">
         <v>7934</v>
       </c>
-    </row>
-    <row r="2577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2576" s="11" t="s">
+        <v>8698</v>
+      </c>
+      <c r="I2576" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2577" s="16" t="s">
         <v>7932</v>
       </c>
@@ -93977,8 +94682,14 @@
       <c r="G2577" t="s">
         <v>7884</v>
       </c>
-    </row>
-    <row r="2578" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2577" s="11" t="s">
+        <v>8669</v>
+      </c>
+      <c r="I2577" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2578" s="16" t="s">
         <v>7932</v>
       </c>
@@ -94000,8 +94711,14 @@
       <c r="G2578" t="s">
         <v>7927</v>
       </c>
-    </row>
-    <row r="2579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2578" s="11" t="s">
+        <v>8714</v>
+      </c>
+      <c r="I2578" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2579" s="16" t="s">
         <v>7932</v>
       </c>
@@ -94023,8 +94740,14 @@
       <c r="G2579" t="s">
         <v>7861</v>
       </c>
-    </row>
-    <row r="2580" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2579" s="11" t="s">
+        <v>8657</v>
+      </c>
+      <c r="I2579" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2580" s="16" t="s">
         <v>7932</v>
       </c>
@@ -94046,8 +94769,14 @@
       <c r="G2580" t="s">
         <v>7914</v>
       </c>
-    </row>
-    <row r="2581" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2580" s="11" t="s">
+        <v>8688</v>
+      </c>
+      <c r="I2580" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2581" s="16" t="s">
         <v>7932</v>
       </c>
@@ -94069,8 +94798,14 @@
       <c r="G2581" t="s">
         <v>7940</v>
       </c>
-    </row>
-    <row r="2582" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2581" s="11" t="s">
+        <v>8699</v>
+      </c>
+      <c r="I2581" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2582" s="16" t="s">
         <v>7932</v>
       </c>
@@ -94092,8 +94827,14 @@
       <c r="G2582" t="s">
         <v>7942</v>
       </c>
-    </row>
-    <row r="2583" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2582" s="11" t="s">
+        <v>8720</v>
+      </c>
+      <c r="I2582" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2583" s="16" t="s">
         <v>7932</v>
       </c>
@@ -94115,8 +94856,14 @@
       <c r="G2583" t="s">
         <v>7919</v>
       </c>
-    </row>
-    <row r="2584" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2583" s="11" t="s">
+        <v>8700</v>
+      </c>
+      <c r="I2583" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2584" s="16" t="s">
         <v>7944</v>
       </c>
@@ -94138,8 +94885,14 @@
       <c r="G2584" t="s">
         <v>7945</v>
       </c>
-    </row>
-    <row r="2585" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2584" s="11" t="s">
+        <v>2714</v>
+      </c>
+      <c r="I2584" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2585" s="16" t="s">
         <v>7944</v>
       </c>
@@ -94161,8 +94914,14 @@
       <c r="G2585" t="s">
         <v>7884</v>
       </c>
-    </row>
-    <row r="2586" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2585" s="11" t="s">
+        <v>8668</v>
+      </c>
+      <c r="I2585" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2586" s="16" t="s">
         <v>7944</v>
       </c>
@@ -94184,8 +94943,14 @@
       <c r="G2586" t="s">
         <v>7927</v>
       </c>
-    </row>
-    <row r="2587" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2586" s="11" t="s">
+        <v>8713</v>
+      </c>
+      <c r="I2586" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2587" s="16" t="s">
         <v>7944</v>
       </c>
@@ -94207,8 +94972,14 @@
       <c r="G2587" t="s">
         <v>7861</v>
       </c>
-    </row>
-    <row r="2588" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2587" s="11" t="s">
+        <v>8656</v>
+      </c>
+      <c r="I2587" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2588" s="16" t="s">
         <v>7944</v>
       </c>
@@ -94230,8 +95001,14 @@
       <c r="G2588" t="s">
         <v>7914</v>
       </c>
-    </row>
-    <row r="2589" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2588" s="11" t="s">
+        <v>8693</v>
+      </c>
+      <c r="I2588" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2589" s="16" t="s">
         <v>7944</v>
       </c>
@@ -94253,8 +95030,14 @@
       <c r="G2589" t="s">
         <v>7940</v>
       </c>
-    </row>
-    <row r="2590" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2589" s="11" t="s">
+        <v>8716</v>
+      </c>
+      <c r="I2589" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2590" s="16" t="s">
         <v>7944</v>
       </c>
@@ -94276,8 +95059,14 @@
       <c r="G2590" t="s">
         <v>7952</v>
       </c>
-    </row>
-    <row r="2591" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2590" s="11" t="s">
+        <v>8721</v>
+      </c>
+      <c r="I2590" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2591" s="16" t="s">
         <v>7944</v>
       </c>
@@ -94299,8 +95088,14 @@
       <c r="G2591" t="s">
         <v>7955</v>
       </c>
-    </row>
-    <row r="2592" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2591" s="11" t="s">
+        <v>8715</v>
+      </c>
+      <c r="I2591" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2592" s="16" t="s">
         <v>7944</v>
       </c>
@@ -94321,6 +95116,12 @@
       </c>
       <c r="G2592" t="s">
         <v>7919</v>
+      </c>
+      <c r="H2592" s="11" t="s">
+        <v>8717</v>
+      </c>
+      <c r="I2592" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2593" spans="1:9" x14ac:dyDescent="0.2">
@@ -94345,6 +95146,12 @@
       <c r="G2593" t="s">
         <v>7927</v>
       </c>
+      <c r="H2593" s="11" t="s">
+        <v>8711</v>
+      </c>
+      <c r="I2593" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2594" s="16" t="s">
@@ -94368,6 +95175,12 @@
       <c r="G2594" t="s">
         <v>7914</v>
       </c>
+      <c r="H2594" s="11" t="s">
+        <v>8691</v>
+      </c>
+      <c r="I2594" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2595" s="16" t="s">
@@ -94391,6 +95204,12 @@
       <c r="G2595" t="s">
         <v>7955</v>
       </c>
+      <c r="H2595" s="11" t="s">
+        <v>8733</v>
+      </c>
+      <c r="I2595" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2596" s="16" t="s">
@@ -94414,6 +95233,12 @@
       <c r="G2596" t="s">
         <v>7962</v>
       </c>
+      <c r="H2596" s="11" t="s">
+        <v>8734</v>
+      </c>
+      <c r="I2596" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2597" s="16" t="s">
@@ -94437,6 +95262,12 @@
       <c r="G2597" t="s">
         <v>7964</v>
       </c>
+      <c r="H2597" s="11" t="s">
+        <v>8718</v>
+      </c>
+      <c r="I2597" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2598" s="16" t="s">
@@ -94460,6 +95291,12 @@
       <c r="G2598" t="s">
         <v>7967</v>
       </c>
+      <c r="H2598" s="11" t="s">
+        <v>2750</v>
+      </c>
+      <c r="I2598" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2599" s="16" t="s">
@@ -94483,6 +95320,12 @@
       <c r="G2599" t="s">
         <v>7969</v>
       </c>
+      <c r="H2599" s="9" t="s">
+        <v>8712</v>
+      </c>
+      <c r="I2599" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2600" s="16" t="s">
@@ -94564,6 +95407,12 @@
       <c r="G2602" t="s">
         <v>7927</v>
       </c>
+      <c r="H2602" s="11" t="s">
+        <v>8710</v>
+      </c>
+      <c r="I2602" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2603" s="16" t="s">
@@ -94587,6 +95436,12 @@
       <c r="G2603" t="s">
         <v>7914</v>
       </c>
+      <c r="H2603" s="11" t="s">
+        <v>8689</v>
+      </c>
+      <c r="I2603" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2604" s="16" t="s">
@@ -94610,6 +95465,12 @@
       <c r="G2604" t="s">
         <v>7955</v>
       </c>
+      <c r="H2604" s="11" t="s">
+        <v>8732</v>
+      </c>
+      <c r="I2604" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2605" s="16" t="s">
@@ -94633,6 +95494,12 @@
       <c r="G2605" t="s">
         <v>7976</v>
       </c>
+      <c r="H2605" s="11" t="s">
+        <v>8741</v>
+      </c>
+      <c r="I2605" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2606" s="16" t="s">
@@ -94656,6 +95523,12 @@
       <c r="G2606" t="s">
         <v>7964</v>
       </c>
+      <c r="H2606" s="11" t="s">
+        <v>8719</v>
+      </c>
+      <c r="I2606" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2607" s="16" t="s">
@@ -94679,6 +95552,12 @@
       <c r="G2607" t="s">
         <v>7979</v>
       </c>
+      <c r="H2607" s="11" t="s">
+        <v>8749</v>
+      </c>
+      <c r="I2607" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2608" s="16" t="s">
@@ -94709,7 +95588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2609" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2609" s="16" t="s">
         <v>7980</v>
       </c>
@@ -94731,8 +95610,14 @@
       <c r="G2609" t="s">
         <v>7927</v>
       </c>
-    </row>
-    <row r="2610" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2609" s="11" t="s">
+        <v>8707</v>
+      </c>
+      <c r="I2609" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2610" s="16" t="s">
         <v>7980</v>
       </c>
@@ -94754,8 +95639,14 @@
       <c r="G2610" t="s">
         <v>7914</v>
       </c>
-    </row>
-    <row r="2611" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2610" s="11" t="s">
+        <v>8684</v>
+      </c>
+      <c r="I2610" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2611" s="16" t="s">
         <v>7980</v>
       </c>
@@ -94777,8 +95668,14 @@
       <c r="G2611" t="s">
         <v>7986</v>
       </c>
-    </row>
-    <row r="2612" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2611" s="11" t="s">
+        <v>8735</v>
+      </c>
+      <c r="I2611" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2612" s="16" t="s">
         <v>7980</v>
       </c>
@@ -94800,8 +95697,14 @@
       <c r="G2612" t="s">
         <v>7955</v>
       </c>
-    </row>
-    <row r="2613" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2612" s="11" t="s">
+        <v>8730</v>
+      </c>
+      <c r="I2612" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2613" s="16" t="s">
         <v>7980</v>
       </c>
@@ -94823,8 +95726,14 @@
       <c r="G2613" t="s">
         <v>7989</v>
       </c>
-    </row>
-    <row r="2614" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2613" s="11" t="s">
+        <v>8750</v>
+      </c>
+      <c r="I2613" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2614" s="16" t="s">
         <v>7980</v>
       </c>
@@ -94846,8 +95755,14 @@
       <c r="G2614" t="s">
         <v>7976</v>
       </c>
-    </row>
-    <row r="2615" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2614" s="11" t="s">
+        <v>8743</v>
+      </c>
+      <c r="I2614" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2615" s="16" t="s">
         <v>7980</v>
       </c>
@@ -94869,8 +95784,14 @@
       <c r="G2615" t="s">
         <v>7992</v>
       </c>
-    </row>
-    <row r="2616" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2615" s="11" t="s">
+        <v>8751</v>
+      </c>
+      <c r="I2615" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2616" s="16" t="s">
         <v>7980</v>
       </c>
@@ -94892,8 +95813,14 @@
       <c r="G2616" t="s">
         <v>7992</v>
       </c>
-    </row>
-    <row r="2617" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2616" s="11" t="s">
+        <v>8752</v>
+      </c>
+      <c r="I2616" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2617" s="16" t="s">
         <v>7994</v>
       </c>
@@ -94915,8 +95842,14 @@
       <c r="G2617" t="s">
         <v>7969</v>
       </c>
-    </row>
-    <row r="2618" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2617" s="9" t="s">
+        <v>8731</v>
+      </c>
+      <c r="I2617" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2618" s="16" t="s">
         <v>7994</v>
       </c>
@@ -94938,8 +95871,14 @@
       <c r="G2618" t="s">
         <v>7927</v>
       </c>
-    </row>
-    <row r="2619" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2618" s="11" t="s">
+        <v>8702</v>
+      </c>
+      <c r="I2618" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2619" s="16" t="s">
         <v>7994</v>
       </c>
@@ -94961,8 +95900,14 @@
       <c r="G2619" t="s">
         <v>7999</v>
       </c>
-    </row>
-    <row r="2620" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2619" s="11" t="s">
+        <v>8753</v>
+      </c>
+      <c r="I2619" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2620" s="16" t="s">
         <v>7994</v>
       </c>
@@ -94984,8 +95929,14 @@
       <c r="G2620" t="s">
         <v>7914</v>
       </c>
-    </row>
-    <row r="2621" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2620" s="11" t="s">
+        <v>8686</v>
+      </c>
+      <c r="I2620" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2621" s="16" t="s">
         <v>7994</v>
       </c>
@@ -95007,8 +95958,14 @@
       <c r="G2621" t="s">
         <v>7872</v>
       </c>
-    </row>
-    <row r="2622" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2621" s="11" t="s">
+        <v>8001</v>
+      </c>
+      <c r="I2621" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2622" s="16" t="s">
         <v>7994</v>
       </c>
@@ -95030,8 +95987,14 @@
       <c r="G2622" t="s">
         <v>7986</v>
       </c>
-    </row>
-    <row r="2623" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2622" s="11" t="s">
+        <v>8703</v>
+      </c>
+      <c r="I2622" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2623" s="16" t="s">
         <v>7994</v>
       </c>
@@ -95053,8 +96016,14 @@
       <c r="G2623" t="s">
         <v>7986</v>
       </c>
-    </row>
-    <row r="2624" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2623" s="11" t="s">
+        <v>8704</v>
+      </c>
+      <c r="I2623" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2624" s="16" t="s">
         <v>7994</v>
       </c>
@@ -95076,8 +96045,14 @@
       <c r="G2624" t="s">
         <v>7955</v>
       </c>
-    </row>
-    <row r="2625" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2624" s="11" t="s">
+        <v>8728</v>
+      </c>
+      <c r="I2624" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2625" s="16" t="s">
         <v>7994</v>
       </c>
@@ -95099,8 +96074,14 @@
       <c r="G2625" t="s">
         <v>7976</v>
       </c>
-    </row>
-    <row r="2626" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2625" s="11" t="s">
+        <v>8747</v>
+      </c>
+      <c r="I2625" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2626" s="16" t="s">
         <v>8006</v>
       </c>
@@ -95122,8 +96103,14 @@
       <c r="G2626" t="s">
         <v>7969</v>
       </c>
-    </row>
-    <row r="2627" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2626" s="9" t="s">
+        <v>8705</v>
+      </c>
+      <c r="I2626" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2627" s="16" t="s">
         <v>8006</v>
       </c>
@@ -95145,8 +96132,14 @@
       <c r="G2627" t="s">
         <v>7914</v>
       </c>
-    </row>
-    <row r="2628" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2627" s="11" t="s">
+        <v>8692</v>
+      </c>
+      <c r="I2627" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2628" s="16" t="s">
         <v>8006</v>
       </c>
@@ -95168,8 +96161,14 @@
       <c r="G2628" t="s">
         <v>8011</v>
       </c>
-    </row>
-    <row r="2629" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2628" s="11" t="s">
+        <v>8010</v>
+      </c>
+      <c r="I2628" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2629" s="16" t="s">
         <v>8006</v>
       </c>
@@ -95191,8 +96190,14 @@
       <c r="G2629" t="s">
         <v>7986</v>
       </c>
-    </row>
-    <row r="2630" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2629" s="11" t="s">
+        <v>8706</v>
+      </c>
+      <c r="I2629" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2630" s="16" t="s">
         <v>8006</v>
       </c>
@@ -95214,8 +96219,14 @@
       <c r="G2630" t="s">
         <v>7955</v>
       </c>
-    </row>
-    <row r="2631" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2630" s="11" t="s">
+        <v>8726</v>
+      </c>
+      <c r="I2630" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2631" s="16" t="s">
         <v>8006</v>
       </c>
@@ -95237,8 +96248,14 @@
       <c r="G2631" t="s">
         <v>7976</v>
       </c>
-    </row>
-    <row r="2632" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2631" s="11" t="s">
+        <v>8748</v>
+      </c>
+      <c r="I2631" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2632" s="16" t="s">
         <v>8015</v>
       </c>
@@ -95260,8 +96277,14 @@
       <c r="G2632" t="s">
         <v>7969</v>
       </c>
-    </row>
-    <row r="2633" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2632" s="9" t="s">
+        <v>8727</v>
+      </c>
+      <c r="I2632" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2633" s="16" t="s">
         <v>8015</v>
       </c>
@@ -95283,8 +96306,14 @@
       <c r="G2633" t="s">
         <v>7999</v>
       </c>
-    </row>
-    <row r="2634" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2633" s="11" t="s">
+        <v>8754</v>
+      </c>
+      <c r="I2633" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2634" s="16" t="s">
         <v>8015</v>
       </c>
@@ -95306,8 +96335,14 @@
       <c r="G2634" t="s">
         <v>7914</v>
       </c>
-    </row>
-    <row r="2635" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2634" s="11" t="s">
+        <v>8690</v>
+      </c>
+      <c r="I2634" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2635" s="16" t="s">
         <v>8015</v>
       </c>
@@ -95329,8 +96364,14 @@
       <c r="G2635" t="s">
         <v>7986</v>
       </c>
-    </row>
-    <row r="2636" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2635" s="11" t="s">
+        <v>8708</v>
+      </c>
+      <c r="I2635" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2636" s="16" t="s">
         <v>8015</v>
       </c>
@@ -95352,8 +96393,14 @@
       <c r="G2636" t="s">
         <v>7955</v>
       </c>
-    </row>
-    <row r="2637" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2636" s="11" t="s">
+        <v>8722</v>
+      </c>
+      <c r="I2636" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2637" s="16" t="s">
         <v>8015</v>
       </c>
@@ -95375,8 +96422,14 @@
       <c r="G2637" t="s">
         <v>7976</v>
       </c>
-    </row>
-    <row r="2638" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2637" s="11" t="s">
+        <v>8746</v>
+      </c>
+      <c r="I2637" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2638" s="16" t="s">
         <v>8015</v>
       </c>
@@ -95398,8 +96451,14 @@
       <c r="G2638" t="s">
         <v>8024</v>
       </c>
-    </row>
-    <row r="2639" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2638" s="11" t="s">
+        <v>8756</v>
+      </c>
+      <c r="I2638" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2639" s="16" t="s">
         <v>8025</v>
       </c>
@@ -95421,8 +96480,14 @@
       <c r="G2639" t="s">
         <v>7969</v>
       </c>
-    </row>
-    <row r="2640" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2639" s="9" t="s">
+        <v>8723</v>
+      </c>
+      <c r="I2639" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2640" s="16" t="s">
         <v>8025</v>
       </c>
@@ -95444,8 +96509,14 @@
       <c r="G2640" t="s">
         <v>8028</v>
       </c>
-    </row>
-    <row r="2641" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2640" s="11" t="s">
+        <v>7499</v>
+      </c>
+      <c r="I2640" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2641" s="16" t="s">
         <v>8025</v>
       </c>
@@ -95467,8 +96538,14 @@
       <c r="G2641" t="s">
         <v>7914</v>
       </c>
-    </row>
-    <row r="2642" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2641" s="11" t="s">
+        <v>8687</v>
+      </c>
+      <c r="I2641" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2642" s="16" t="s">
         <v>8025</v>
       </c>
@@ -95490,8 +96567,14 @@
       <c r="G2642" t="s">
         <v>8032</v>
       </c>
-    </row>
-    <row r="2643" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2642" s="11" t="s">
+        <v>8736</v>
+      </c>
+      <c r="I2642" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2643" s="16" t="s">
         <v>8025</v>
       </c>
@@ -95513,8 +96596,14 @@
       <c r="G2643" t="s">
         <v>7986</v>
       </c>
-    </row>
-    <row r="2644" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2643" s="11" t="s">
+        <v>8724</v>
+      </c>
+      <c r="I2643" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2644" s="16" t="s">
         <v>8025</v>
       </c>
@@ -95536,8 +96625,14 @@
       <c r="G2644" t="s">
         <v>7976</v>
       </c>
-    </row>
-    <row r="2645" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2644" s="11" t="s">
+        <v>8745</v>
+      </c>
+      <c r="I2644" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2645" s="16" t="s">
         <v>8025</v>
       </c>
@@ -95559,8 +96654,14 @@
       <c r="G2645" t="s">
         <v>8036</v>
       </c>
-    </row>
-    <row r="2646" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2645" s="11" t="s">
+        <v>8758</v>
+      </c>
+      <c r="I2645" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2646" s="16" t="s">
         <v>8025</v>
       </c>
@@ -95582,8 +96683,14 @@
       <c r="G2646" t="s">
         <v>8024</v>
       </c>
-    </row>
-    <row r="2647" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2646" s="11" t="s">
+        <v>8757</v>
+      </c>
+      <c r="I2646" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2647" s="16" t="s">
         <v>8038</v>
       </c>
@@ -95605,8 +96712,14 @@
       <c r="G2647" t="s">
         <v>7969</v>
       </c>
-    </row>
-    <row r="2648" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2647" s="9" t="s">
+        <v>8725</v>
+      </c>
+      <c r="I2647" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2648" s="16" t="s">
         <v>8038</v>
       </c>
@@ -95628,8 +96741,14 @@
       <c r="G2648" t="s">
         <v>8028</v>
       </c>
-    </row>
-    <row r="2649" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2648" s="11" t="s">
+        <v>8759</v>
+      </c>
+      <c r="I2648" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2649" s="16" t="s">
         <v>8038</v>
       </c>
@@ -95651,8 +96770,14 @@
       <c r="G2649" t="s">
         <v>8028</v>
       </c>
-    </row>
-    <row r="2650" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2649" s="11" t="s">
+        <v>8760</v>
+      </c>
+      <c r="I2649" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2650" s="16" t="s">
         <v>8038</v>
       </c>
@@ -95674,8 +96799,14 @@
       <c r="G2650" t="s">
         <v>7999</v>
       </c>
-    </row>
-    <row r="2651" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2650" s="11" t="s">
+        <v>8755</v>
+      </c>
+      <c r="I2650" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2651" s="16" t="s">
         <v>8038</v>
       </c>
@@ -95697,8 +96828,14 @@
       <c r="G2651" t="s">
         <v>7914</v>
       </c>
-    </row>
-    <row r="2652" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2651" s="11" t="s">
+        <v>8683</v>
+      </c>
+      <c r="I2651" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2652" s="16" t="s">
         <v>8038</v>
       </c>
@@ -95720,8 +96857,14 @@
       <c r="G2652" t="s">
         <v>7986</v>
       </c>
-    </row>
-    <row r="2653" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2652" s="11" t="s">
+        <v>8737</v>
+      </c>
+      <c r="I2652" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2653" s="16" t="s">
         <v>8038</v>
       </c>
@@ -95743,8 +96886,14 @@
       <c r="G2653" t="s">
         <v>7976</v>
       </c>
-    </row>
-    <row r="2654" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2653" s="11" t="s">
+        <v>8744</v>
+      </c>
+      <c r="I2653" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2654" s="16" t="s">
         <v>8038</v>
       </c>
@@ -95766,8 +96915,14 @@
       <c r="G2654" t="s">
         <v>7979</v>
       </c>
-    </row>
-    <row r="2655" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2654" s="11" t="s">
+        <v>8761</v>
+      </c>
+      <c r="I2654" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2655" s="16" t="s">
         <v>8038</v>
       </c>
@@ -95789,8 +96944,14 @@
       <c r="G2655" t="s">
         <v>8049</v>
       </c>
-    </row>
-    <row r="2656" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2655" s="11" t="s">
+        <v>8762</v>
+      </c>
+      <c r="I2655" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2656" s="16" t="s">
         <v>8050</v>
       </c>
@@ -95812,8 +96973,14 @@
       <c r="G2656" t="s">
         <v>7969</v>
       </c>
-    </row>
-    <row r="2657" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2656" s="9" t="s">
+        <v>8709</v>
+      </c>
+      <c r="I2656" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2657" s="16" t="s">
         <v>8050</v>
       </c>
@@ -95835,8 +97002,14 @@
       <c r="G2657" t="s">
         <v>8053</v>
       </c>
-    </row>
-    <row r="2658" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2657" s="11" t="s">
+        <v>8763</v>
+      </c>
+      <c r="I2657" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2658" s="16" t="s">
         <v>8050</v>
       </c>
@@ -95858,8 +97031,14 @@
       <c r="G2658" t="s">
         <v>7976</v>
       </c>
-    </row>
-    <row r="2659" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2658" s="11" t="s">
+        <v>8742</v>
+      </c>
+      <c r="I2658" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2659" s="16" t="s">
         <v>8050</v>
       </c>
@@ -95881,8 +97060,14 @@
       <c r="G2659" t="s">
         <v>8055</v>
       </c>
-    </row>
-    <row r="2660" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2659" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2659" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2660" s="16" t="s">
         <v>8050</v>
       </c>
@@ -95904,8 +97089,14 @@
       <c r="G2660" t="s">
         <v>8049</v>
       </c>
-    </row>
-    <row r="2661" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2660" s="11" t="s">
+        <v>8762</v>
+      </c>
+      <c r="I2660" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2661" s="16" t="s">
         <v>8057</v>
       </c>
@@ -95927,8 +97118,14 @@
       <c r="G2661" t="s">
         <v>8058</v>
       </c>
-    </row>
-    <row r="2662" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2661" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2661" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2662" s="16" t="s">
         <v>8057</v>
       </c>
@@ -95950,8 +97147,14 @@
       <c r="G2662" t="s">
         <v>7969</v>
       </c>
-    </row>
-    <row r="2663" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2662" s="9" t="s">
+        <v>8729</v>
+      </c>
+      <c r="I2662" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2663" s="16" t="s">
         <v>8057</v>
       </c>
@@ -95973,8 +97176,14 @@
       <c r="G2663" t="s">
         <v>8063</v>
       </c>
-    </row>
-    <row r="2664" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2663" s="11" t="s">
+        <v>8764</v>
+      </c>
+      <c r="I2663" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2664" s="16" t="s">
         <v>8057</v>
       </c>
@@ -95996,8 +97205,14 @@
       <c r="G2664" t="s">
         <v>8063</v>
       </c>
-    </row>
-    <row r="2665" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2664" s="11" t="s">
+        <v>8765</v>
+      </c>
+      <c r="I2664" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2665" s="16" t="s">
         <v>8057</v>
       </c>
@@ -96019,8 +97234,14 @@
       <c r="G2665" t="s">
         <v>7925</v>
       </c>
-    </row>
-    <row r="2666" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2665" s="11" t="s">
+        <v>8065</v>
+      </c>
+      <c r="I2665" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2666" s="16" t="s">
         <v>8057</v>
       </c>
@@ -96042,8 +97263,14 @@
       <c r="G2666" t="s">
         <v>7872</v>
       </c>
-    </row>
-    <row r="2667" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2666" s="11" t="s">
+        <v>4335</v>
+      </c>
+      <c r="I2666" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2667" s="16" t="s">
         <v>8057</v>
       </c>
@@ -96065,8 +97292,14 @@
       <c r="G2667" t="s">
         <v>8067</v>
       </c>
-    </row>
-    <row r="2668" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2667" s="11" t="s">
+        <v>8066</v>
+      </c>
+      <c r="I2667" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2668" s="16" t="s">
         <v>8057</v>
       </c>
@@ -96088,8 +97321,14 @@
       <c r="G2668" t="s">
         <v>8069</v>
       </c>
-    </row>
-    <row r="2669" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2668" s="11" t="s">
+        <v>8771</v>
+      </c>
+      <c r="I2668" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2669" s="16" t="s">
         <v>8070</v>
       </c>
@@ -96111,8 +97350,14 @@
       <c r="G2669" t="s">
         <v>7969</v>
       </c>
-    </row>
-    <row r="2670" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2669" s="9" t="s">
+        <v>8740</v>
+      </c>
+      <c r="I2669" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2670" s="16" t="s">
         <v>8070</v>
       </c>
@@ -96134,8 +97379,14 @@
       <c r="G2670" t="s">
         <v>8063</v>
       </c>
-    </row>
-    <row r="2671" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2670" s="11" t="s">
+        <v>8766</v>
+      </c>
+      <c r="I2670" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2671" s="16" t="s">
         <v>8070</v>
       </c>
@@ -96157,8 +97408,14 @@
       <c r="G2671" t="s">
         <v>8074</v>
       </c>
-    </row>
-    <row r="2672" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2671" s="11" t="s">
+        <v>8780</v>
+      </c>
+      <c r="I2671" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2672" s="16" t="s">
         <v>8070</v>
       </c>
@@ -96180,8 +97437,14 @@
       <c r="G2672" t="s">
         <v>8067</v>
       </c>
-    </row>
-    <row r="2673" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2672" s="11" t="s">
+        <v>8075</v>
+      </c>
+      <c r="I2672" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2673" s="16" t="s">
         <v>8070</v>
       </c>
@@ -96203,8 +97466,14 @@
       <c r="G2673" t="s">
         <v>8069</v>
       </c>
-    </row>
-    <row r="2674" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2673" s="11" t="s">
+        <v>8779</v>
+      </c>
+      <c r="I2673" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2674" s="16" t="s">
         <v>8077</v>
       </c>
@@ -96226,8 +97495,14 @@
       <c r="G2674" t="s">
         <v>8080</v>
       </c>
-    </row>
-    <row r="2675" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2674" s="11" t="s">
+        <v>8781</v>
+      </c>
+      <c r="I2674" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2675" s="16" t="s">
         <v>8077</v>
       </c>
@@ -96249,8 +97524,14 @@
       <c r="G2675" t="s">
         <v>8063</v>
       </c>
-    </row>
-    <row r="2676" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2675" s="11" t="s">
+        <v>8767</v>
+      </c>
+      <c r="I2675" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2676" s="16" t="s">
         <v>8077</v>
       </c>
@@ -96272,8 +97553,14 @@
       <c r="G2676" t="s">
         <v>8074</v>
       </c>
-    </row>
-    <row r="2677" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2676" s="11" t="s">
+        <v>8783</v>
+      </c>
+      <c r="I2676" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2677" s="16" t="s">
         <v>8077</v>
       </c>
@@ -96295,8 +97582,14 @@
       <c r="G2677" t="s">
         <v>8067</v>
       </c>
-    </row>
-    <row r="2678" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2677" s="11" t="s">
+        <v>8083</v>
+      </c>
+      <c r="I2677" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2678" s="16" t="s">
         <v>8077</v>
       </c>
@@ -96318,8 +97611,14 @@
       <c r="G2678" t="s">
         <v>8069</v>
       </c>
-    </row>
-    <row r="2679" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2678" s="11" t="s">
+        <v>8778</v>
+      </c>
+      <c r="I2678" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2679" s="16" t="s">
         <v>8085</v>
       </c>
@@ -96341,8 +97640,14 @@
       <c r="G2679" t="s">
         <v>8080</v>
       </c>
-    </row>
-    <row r="2680" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2679" s="11" t="s">
+        <v>8782</v>
+      </c>
+      <c r="I2679" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2680" s="16" t="s">
         <v>8085</v>
       </c>
@@ -96364,8 +97669,14 @@
       <c r="G2680" t="s">
         <v>8063</v>
       </c>
-    </row>
-    <row r="2681" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2680" s="11" t="s">
+        <v>8768</v>
+      </c>
+      <c r="I2680" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2681" s="16" t="s">
         <v>8085</v>
       </c>
@@ -96387,8 +97698,14 @@
       <c r="G2681" t="s">
         <v>8074</v>
       </c>
-    </row>
-    <row r="2682" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2681" s="11" t="s">
+        <v>8790</v>
+      </c>
+      <c r="I2681" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2682" s="16" t="s">
         <v>8085</v>
       </c>
@@ -96410,8 +97727,14 @@
       <c r="G2682" t="s">
         <v>8067</v>
       </c>
-    </row>
-    <row r="2683" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2682" s="11" t="s">
+        <v>8089</v>
+      </c>
+      <c r="I2682" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2683" s="16" t="s">
         <v>8085</v>
       </c>
@@ -96433,8 +97756,14 @@
       <c r="G2683" t="s">
         <v>8069</v>
       </c>
-    </row>
-    <row r="2684" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2683" s="11" t="s">
+        <v>8777</v>
+      </c>
+      <c r="I2683" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2684" s="16" t="s">
         <v>8091</v>
       </c>
@@ -96456,8 +97785,14 @@
       <c r="G2684" t="s">
         <v>8080</v>
       </c>
-    </row>
-    <row r="2685" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2684" s="11" t="s">
+        <v>8791</v>
+      </c>
+      <c r="I2684" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2685" s="16" t="s">
         <v>8091</v>
       </c>
@@ -96479,8 +97814,14 @@
       <c r="G2685" t="s">
         <v>8096</v>
       </c>
-    </row>
-    <row r="2686" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2685" s="11" t="s">
+        <v>8792</v>
+      </c>
+      <c r="I2685" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2686" s="16" t="s">
         <v>8091</v>
       </c>
@@ -96502,8 +97843,14 @@
       <c r="G2686" t="s">
         <v>8063</v>
       </c>
-    </row>
-    <row r="2687" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2686" s="11" t="s">
+        <v>8769</v>
+      </c>
+      <c r="I2686" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2687" s="16" t="s">
         <v>8091</v>
       </c>
@@ -96525,8 +97872,14 @@
       <c r="G2687" t="s">
         <v>8098</v>
       </c>
-    </row>
-    <row r="2688" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2687" s="11" t="s">
+        <v>4387</v>
+      </c>
+      <c r="I2687" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2688" s="16" t="s">
         <v>8091</v>
       </c>
@@ -96548,8 +97901,14 @@
       <c r="G2688" t="s">
         <v>8074</v>
       </c>
-    </row>
-    <row r="2689" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2688" s="11" t="s">
+        <v>8787</v>
+      </c>
+      <c r="I2688" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2689" s="16" t="s">
         <v>8091</v>
       </c>
@@ -96571,8 +97930,14 @@
       <c r="G2689" t="s">
         <v>8069</v>
       </c>
-    </row>
-    <row r="2690" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2689" s="11" t="s">
+        <v>8738</v>
+      </c>
+      <c r="I2689" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2690" s="16" t="s">
         <v>8101</v>
       </c>
@@ -96594,8 +97959,14 @@
       <c r="G2690" t="s">
         <v>8080</v>
       </c>
-    </row>
-    <row r="2691" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2690" s="11" t="s">
+        <v>8788</v>
+      </c>
+      <c r="I2690" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2691" s="16" t="s">
         <v>8101</v>
       </c>
@@ -96617,8 +97988,14 @@
       <c r="G2691" t="s">
         <v>8063</v>
       </c>
-    </row>
-    <row r="2692" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2691" s="11" t="s">
+        <v>8770</v>
+      </c>
+      <c r="I2691" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2692" s="16" t="s">
         <v>8101</v>
       </c>
@@ -96640,8 +98017,14 @@
       <c r="G2692" t="s">
         <v>8074</v>
       </c>
-    </row>
-    <row r="2693" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2692" s="11" t="s">
+        <v>8739</v>
+      </c>
+      <c r="I2692" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2693" s="16" t="s">
         <v>8101</v>
       </c>
@@ -96663,8 +98046,14 @@
       <c r="G2693" t="s">
         <v>8069</v>
       </c>
-    </row>
-    <row r="2694" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2693" s="11" t="s">
+        <v>8776</v>
+      </c>
+      <c r="I2693" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2694" s="16" t="s">
         <v>8106</v>
       </c>
@@ -96686,8 +98075,14 @@
       <c r="G2694" t="s">
         <v>8080</v>
       </c>
-    </row>
-    <row r="2695" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2694" s="11" t="s">
+        <v>8789</v>
+      </c>
+      <c r="I2694" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2695" s="16" t="s">
         <v>8106</v>
       </c>
@@ -96709,8 +98104,14 @@
       <c r="G2695" t="s">
         <v>8074</v>
       </c>
-    </row>
-    <row r="2696" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2695" s="11" t="s">
+        <v>8784</v>
+      </c>
+      <c r="I2695" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2696" s="16" t="s">
         <v>8106</v>
       </c>
@@ -96732,8 +98133,14 @@
       <c r="G2696" t="s">
         <v>8069</v>
       </c>
-    </row>
-    <row r="2697" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2696" s="11" t="s">
+        <v>8775</v>
+      </c>
+      <c r="I2696" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2697" s="16" t="s">
         <v>8110</v>
       </c>
@@ -96755,8 +98162,14 @@
       <c r="G2697" t="s">
         <v>8112</v>
       </c>
-    </row>
-    <row r="2698" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2697" s="11" t="s">
+        <v>8793</v>
+      </c>
+      <c r="I2697" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2698" s="16" t="s">
         <v>8110</v>
       </c>
@@ -96778,8 +98191,14 @@
       <c r="G2698" t="s">
         <v>8069</v>
       </c>
-    </row>
-    <row r="2699" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2698" s="11" t="s">
+        <v>8774</v>
+      </c>
+      <c r="I2698" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2699" s="16" t="s">
         <v>8114</v>
       </c>
@@ -96801,8 +98220,14 @@
       <c r="G2699" t="s">
         <v>8116</v>
       </c>
-    </row>
-    <row r="2700" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2699" s="11" t="s">
+        <v>8115</v>
+      </c>
+      <c r="I2699" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2700" s="16" t="s">
         <v>8114</v>
       </c>
@@ -96824,8 +98249,14 @@
       <c r="G2700" t="s">
         <v>8119</v>
       </c>
-    </row>
-    <row r="2701" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2700" s="11" t="s">
+        <v>8785</v>
+      </c>
+      <c r="I2700" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2701" s="16" t="s">
         <v>8114</v>
       </c>
@@ -96847,8 +98278,14 @@
       <c r="G2701" t="s">
         <v>8069</v>
       </c>
-    </row>
-    <row r="2702" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2701" s="11" t="s">
+        <v>8773</v>
+      </c>
+      <c r="I2701" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2702" s="16" t="s">
         <v>8121</v>
       </c>
@@ -96870,8 +98307,14 @@
       <c r="G2702" t="s">
         <v>8112</v>
       </c>
-    </row>
-    <row r="2703" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2702" s="11" t="s">
+        <v>8793</v>
+      </c>
+      <c r="I2702" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2703" s="16" t="s">
         <v>8121</v>
       </c>
@@ -96893,8 +98336,14 @@
       <c r="G2703" t="s">
         <v>8124</v>
       </c>
-    </row>
-    <row r="2704" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2703" s="11" t="s">
+        <v>4415</v>
+      </c>
+      <c r="I2703" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2704" s="16" t="s">
         <v>8121</v>
       </c>
@@ -96915,6 +98364,12 @@
       </c>
       <c r="G2704" t="s">
         <v>7872</v>
+      </c>
+      <c r="H2704" s="9" t="s">
+        <v>4417</v>
+      </c>
+      <c r="I2704" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2705" spans="1:11" x14ac:dyDescent="0.2">
@@ -96939,6 +98394,12 @@
       <c r="G2705" t="s">
         <v>8119</v>
       </c>
+      <c r="H2705" s="11" t="s">
+        <v>8785</v>
+      </c>
+      <c r="I2705" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2706" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2706" s="16" t="s">
@@ -96962,6 +98423,12 @@
       <c r="G2706" t="s">
         <v>8069</v>
       </c>
+      <c r="H2706" s="11" t="s">
+        <v>8772</v>
+      </c>
+      <c r="I2706" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2707" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2707" s="16" t="s">
@@ -96985,6 +98452,12 @@
       <c r="G2707" t="s">
         <v>8130</v>
       </c>
+      <c r="H2707" s="11" t="s">
+        <v>8799</v>
+      </c>
+      <c r="I2707" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2708" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2708" s="16" t="s">
@@ -97008,6 +98481,12 @@
       <c r="G2708" t="s">
         <v>8132</v>
       </c>
+      <c r="H2708" s="11" t="s">
+        <v>8795</v>
+      </c>
+      <c r="I2708" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2709" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2709" s="16" t="s">
@@ -97031,6 +98510,12 @@
       <c r="G2709" t="s">
         <v>8135</v>
       </c>
+      <c r="H2709" s="11" t="s">
+        <v>8796</v>
+      </c>
+      <c r="I2709" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2710" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2710" s="16" t="s">
@@ -97054,6 +98539,12 @@
       <c r="G2710" t="s">
         <v>7925</v>
       </c>
+      <c r="H2710" s="11" t="s">
+        <v>8797</v>
+      </c>
+      <c r="I2710" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2711" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2711" s="16" t="s">
@@ -97077,6 +98568,12 @@
       <c r="G2711" t="s">
         <v>8140</v>
       </c>
+      <c r="H2711" s="11" t="s">
+        <v>8798</v>
+      </c>
+      <c r="I2711" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2712" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2712" s="16" t="s">
@@ -97100,6 +98597,12 @@
       <c r="G2712" t="s">
         <v>8144</v>
       </c>
+      <c r="H2712" s="11" t="s">
+        <v>8786</v>
+      </c>
+      <c r="I2712" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2713" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2713" s="16" t="s">
@@ -97123,6 +98626,12 @@
       <c r="G2713" t="s">
         <v>8130</v>
       </c>
+      <c r="H2713" s="11" t="s">
+        <v>8800</v>
+      </c>
+      <c r="I2713" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2714" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2714" s="16" t="s">
@@ -97146,6 +98655,12 @@
       <c r="G2714" t="s">
         <v>8144</v>
       </c>
+      <c r="H2714" s="11" t="s">
+        <v>8794</v>
+      </c>
+      <c r="I2714" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2715" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2715" s="16" t="s">
@@ -97168,6 +98683,12 @@
       </c>
       <c r="G2715" t="s">
         <v>7872</v>
+      </c>
+      <c r="H2715" s="9" t="s">
+        <v>4427</v>
+      </c>
+      <c r="I2715" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2716" spans="1:11" x14ac:dyDescent="0.2">

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMY\GITHUB\MADTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23FB22C-6B96-488A-B1A3-581048FC8DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965DAEDD-B4DF-4B76-8A59-64FC50C69940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18284" uniqueCount="8835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18317" uniqueCount="8849">
   <si>
     <t>Year</t>
   </si>
@@ -26411,9 +26411,6 @@
     <t>Comedy</t>
   </si>
   <si>
-    <t>Nr poz</t>
-  </si>
-  <si>
     <t>Epic</t>
   </si>
   <si>
@@ -26541,6 +26538,51 @@
   </si>
   <si>
     <t>Plaże świata</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Nieudane place budowy</t>
+  </si>
+  <si>
+    <t>Biustonosze w płomieniach</t>
+  </si>
+  <si>
+    <t>Jasne Brzegi</t>
+  </si>
+  <si>
+    <t>Fabryki porcelany Cacomon w Japonii</t>
+  </si>
+  <si>
+    <t>Ser przez cały czas</t>
+  </si>
+  <si>
+    <t>Szachy przeciwko mistrzowi</t>
+  </si>
+  <si>
+    <t>Historia kultury Climax: Kobiecy dyskurs</t>
+  </si>
+  <si>
+    <t>Beton dla klanów</t>
+  </si>
+  <si>
+    <t>Konfetti: Oszustwo wobec klienta?</t>
+  </si>
+  <si>
+    <t>Gotowanie z</t>
+  </si>
+  <si>
+    <t>Hrabia Ruccola i owoce</t>
+  </si>
+  <si>
+    <t>Hrabia Ruccola i nocne cienie</t>
+  </si>
+  <si>
+    <t>Hrabia Ruccola i warzywa</t>
+  </si>
+  <si>
+    <t>Jezioro krokodyla</t>
   </si>
 </sst>
 </file>
@@ -27015,11 +27057,11 @@
   <dimension ref="A1:V2916"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2713" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2737" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="H2739" sqref="H2739"/>
+      <selection pane="bottomRight" activeCell="H2757" sqref="H2757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -98800,7 +98842,7 @@
         <v>8756</v>
       </c>
       <c r="H2716" s="8" t="s">
-        <v>8823</v>
+        <v>8822</v>
       </c>
       <c r="I2716" s="2" t="s">
         <v>13</v>
@@ -98887,7 +98929,7 @@
         <v>8756</v>
       </c>
       <c r="H2719" s="8" t="s">
-        <v>8824</v>
+        <v>8823</v>
       </c>
       <c r="I2719" s="2" t="s">
         <v>13</v>
@@ -98916,7 +98958,7 @@
         <v>8756</v>
       </c>
       <c r="H2720" s="8" t="s">
-        <v>8818</v>
+        <v>8817</v>
       </c>
       <c r="I2720" s="2" t="s">
         <v>13</v>
@@ -98945,7 +98987,7 @@
         <v>8756</v>
       </c>
       <c r="H2721" s="8" t="s">
-        <v>8822</v>
+        <v>8821</v>
       </c>
       <c r="I2721" s="2" t="s">
         <v>13</v>
@@ -98974,7 +99016,7 @@
         <v>8756</v>
       </c>
       <c r="H2722" s="8" t="s">
-        <v>8825</v>
+        <v>8824</v>
       </c>
       <c r="I2722" s="2" t="s">
         <v>13</v>
@@ -99003,7 +99045,7 @@
         <v>8756</v>
       </c>
       <c r="H2723" s="8" t="s">
-        <v>8820</v>
+        <v>8819</v>
       </c>
       <c r="I2723" s="2" t="s">
         <v>13</v>
@@ -99032,7 +99074,7 @@
         <v>8756</v>
       </c>
       <c r="H2724" s="8" t="s">
-        <v>8821</v>
+        <v>8820</v>
       </c>
       <c r="I2724" s="2" t="s">
         <v>13</v>
@@ -99061,7 +99103,7 @@
         <v>8756</v>
       </c>
       <c r="H2725" s="8" t="s">
-        <v>8819</v>
+        <v>8818</v>
       </c>
       <c r="I2725" s="2" t="s">
         <v>13</v>
@@ -99090,7 +99132,7 @@
         <v>8756</v>
       </c>
       <c r="H2726" s="8" t="s">
-        <v>8817</v>
+        <v>8816</v>
       </c>
       <c r="I2726" s="2" t="s">
         <v>13</v>
@@ -99119,7 +99161,7 @@
         <v>8756</v>
       </c>
       <c r="H2727" s="8" t="s">
-        <v>8826</v>
+        <v>8825</v>
       </c>
       <c r="I2727" s="2" t="s">
         <v>13</v>
@@ -99148,7 +99190,7 @@
         <v>8756</v>
       </c>
       <c r="H2728" s="8" t="s">
-        <v>8827</v>
+        <v>8826</v>
       </c>
       <c r="I2728" s="2" t="s">
         <v>13</v>
@@ -99206,7 +99248,7 @@
         <v>8756</v>
       </c>
       <c r="H2730" s="8" t="s">
-        <v>8828</v>
+        <v>8827</v>
       </c>
       <c r="I2730" s="2" t="s">
         <v>13</v>
@@ -99235,7 +99277,7 @@
         <v>8756</v>
       </c>
       <c r="H2731" s="8" t="s">
-        <v>8829</v>
+        <v>8828</v>
       </c>
       <c r="I2731" s="2" t="s">
         <v>13</v>
@@ -99264,7 +99306,7 @@
         <v>8756</v>
       </c>
       <c r="H2732" s="8" t="s">
-        <v>8830</v>
+        <v>8829</v>
       </c>
       <c r="I2732" s="2" t="s">
         <v>13</v>
@@ -99293,7 +99335,7 @@
         <v>8756</v>
       </c>
       <c r="H2733" s="8" t="s">
-        <v>8831</v>
+        <v>8830</v>
       </c>
       <c r="I2733" s="2" t="s">
         <v>13</v>
@@ -99322,7 +99364,7 @@
         <v>8756</v>
       </c>
       <c r="H2734" s="8" t="s">
-        <v>8832</v>
+        <v>8831</v>
       </c>
       <c r="I2734" s="2" t="s">
         <v>13</v>
@@ -99351,7 +99393,7 @@
         <v>8756</v>
       </c>
       <c r="H2735" s="8" t="s">
-        <v>8833</v>
+        <v>8832</v>
       </c>
       <c r="I2735" s="2" t="s">
         <v>13</v>
@@ -99380,7 +99422,7 @@
         <v>8756</v>
       </c>
       <c r="H2736" s="8" t="s">
-        <v>8834</v>
+        <v>8833</v>
       </c>
       <c r="I2736" s="2" t="s">
         <v>13</v>
@@ -99466,6 +99508,12 @@
       <c r="G2739" t="s">
         <v>8756</v>
       </c>
+      <c r="H2739" s="8" t="s">
+        <v>8835</v>
+      </c>
+      <c r="I2739" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2740" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2740" s="12" t="s">
@@ -99489,6 +99537,12 @@
       <c r="G2740" t="s">
         <v>8756</v>
       </c>
+      <c r="H2740" s="8" t="s">
+        <v>8836</v>
+      </c>
+      <c r="I2740" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2741" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2741" s="12" t="s">
@@ -99512,6 +99566,12 @@
       <c r="G2741" t="s">
         <v>8756</v>
       </c>
+      <c r="H2741" s="8" t="s">
+        <v>8837</v>
+      </c>
+      <c r="I2741" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2742" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2742" s="12">
@@ -99535,6 +99595,12 @@
       <c r="G2742" t="s">
         <v>8756</v>
       </c>
+      <c r="H2742" s="8" t="s">
+        <v>8330</v>
+      </c>
+      <c r="I2742" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2743" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2743" s="12">
@@ -99558,6 +99624,9 @@
       <c r="G2743" t="s">
         <v>8756</v>
       </c>
+      <c r="H2743" s="8" t="s">
+        <v>8331</v>
+      </c>
       <c r="I2743" s="2" t="s">
         <v>13</v>
       </c>
@@ -99584,6 +99653,12 @@
       <c r="G2744" t="s">
         <v>8756</v>
       </c>
+      <c r="H2744" s="8" t="s">
+        <v>8838</v>
+      </c>
+      <c r="I2744" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2745" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2745" s="12">
@@ -99607,6 +99682,12 @@
       <c r="G2745" t="s">
         <v>8756</v>
       </c>
+      <c r="H2745" s="8" t="s">
+        <v>8839</v>
+      </c>
+      <c r="I2745" s="2" t="s">
+        <v>4038</v>
+      </c>
     </row>
     <row r="2746" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2746" s="12">
@@ -99630,6 +99711,12 @@
       <c r="G2746" t="s">
         <v>8756</v>
       </c>
+      <c r="H2746" s="8" t="s">
+        <v>8840</v>
+      </c>
+      <c r="I2746" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2747" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2747" s="12">
@@ -99654,7 +99741,7 @@
         <v>8756</v>
       </c>
       <c r="H2747" s="8" t="s">
-        <v>8816</v>
+        <v>8815</v>
       </c>
       <c r="I2747" s="2" t="s">
         <v>13</v>
@@ -99682,6 +99769,12 @@
       <c r="G2748" t="s">
         <v>8756</v>
       </c>
+      <c r="H2748" s="8" t="s">
+        <v>8841</v>
+      </c>
+      <c r="I2748" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2749" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2749" s="12" t="s">
@@ -99705,6 +99798,12 @@
       <c r="G2749" t="s">
         <v>8756</v>
       </c>
+      <c r="H2749" s="8" t="s">
+        <v>8842</v>
+      </c>
+      <c r="I2749" s="2" t="s">
+        <v>4038</v>
+      </c>
     </row>
     <row r="2750" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2750" s="12" t="s">
@@ -99728,6 +99827,12 @@
       <c r="G2750" t="s">
         <v>8756</v>
       </c>
+      <c r="H2750" s="8" t="s">
+        <v>8843</v>
+      </c>
+      <c r="I2750" s="2" t="s">
+        <v>4038</v>
+      </c>
     </row>
     <row r="2751" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2751" s="12">
@@ -99751,6 +99856,12 @@
       <c r="G2751" t="s">
         <v>8756</v>
       </c>
+      <c r="H2751" s="8" t="s">
+        <v>8844</v>
+      </c>
+      <c r="I2751" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2752" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2752" s="12" t="s">
@@ -99774,6 +99885,12 @@
       <c r="G2752" t="s">
         <v>8756</v>
       </c>
+      <c r="H2752" s="8" t="s">
+        <v>8845</v>
+      </c>
+      <c r="I2752" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2753" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2753" s="12" t="s">
@@ -99797,6 +99914,12 @@
       <c r="G2753" t="s">
         <v>8756</v>
       </c>
+      <c r="H2753" s="8" t="s">
+        <v>8846</v>
+      </c>
+      <c r="I2753" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2754" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2754" s="12" t="s">
@@ -99820,6 +99943,12 @@
       <c r="G2754" t="s">
         <v>8756</v>
       </c>
+      <c r="H2754" s="8" t="s">
+        <v>8847</v>
+      </c>
+      <c r="I2754" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2755" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2755" s="12" t="s">
@@ -99843,6 +99972,12 @@
       <c r="G2755" t="s">
         <v>8756</v>
       </c>
+      <c r="H2755" s="8" t="s">
+        <v>8343</v>
+      </c>
+      <c r="I2755" s="2" t="s">
+        <v>4038</v>
+      </c>
     </row>
     <row r="2756" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2756" s="12" t="s">
@@ -99866,6 +100001,12 @@
       <c r="G2756" t="s">
         <v>8756</v>
       </c>
+      <c r="H2756" s="8" t="s">
+        <v>8848</v>
+      </c>
+      <c r="I2756" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2757" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2757" s="12" t="s">
@@ -100005,7 +100146,7 @@
         <v>8756</v>
       </c>
       <c r="H2762" s="8" t="s">
-        <v>8815</v>
+        <v>8814</v>
       </c>
       <c r="I2762" s="2" t="s">
         <v>13</v>
@@ -102889,7 +103030,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -102901,16 +103042,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>8811</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>8812</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
+        <v>8834</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>8813</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>8791</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>8814</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -103016,7 +103157,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>8792</v>
+        <v>8791</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -103066,7 +103207,7 @@
         <v>8775</v>
       </c>
       <c r="B13" t="s">
-        <v>8804</v>
+        <v>8803</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -103074,7 +103215,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>8793</v>
+        <v>8792</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -103082,7 +103223,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>8794</v>
+        <v>8793</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -103124,7 +103265,7 @@
         <v>7390</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8811</v>
+        <v>8810</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -103146,7 +103287,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>8795</v>
+        <v>8794</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -103182,7 +103323,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>8796</v>
+        <v>8795</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -103190,7 +103331,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>8797</v>
+        <v>8796</v>
       </c>
       <c r="C24" s="2">
         <v>24</v>
@@ -103212,7 +103353,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>8798</v>
+        <v>8797</v>
       </c>
       <c r="C26" s="2">
         <v>18</v>
@@ -103237,7 +103378,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>8799</v>
+        <v>8798</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -103245,7 +103386,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>8800</v>
+        <v>8799</v>
       </c>
       <c r="C29" s="2">
         <v>16</v>
@@ -103270,7 +103411,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>8801</v>
+        <v>8800</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -103278,7 +103419,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>8802</v>
+        <v>8801</v>
       </c>
       <c r="C32" s="2">
         <v>15</v>
@@ -103289,7 +103430,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>8803</v>
+        <v>8802</v>
       </c>
       <c r="C33" s="2">
         <v>13</v>
@@ -103300,7 +103441,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>8805</v>
+        <v>8804</v>
       </c>
       <c r="C34" s="2">
         <v>25</v>
@@ -103308,7 +103449,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>8806</v>
+        <v>8805</v>
       </c>
       <c r="C35" s="2">
         <v>26</v>
@@ -103316,7 +103457,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>8807</v>
+        <v>8806</v>
       </c>
       <c r="C36" s="2">
         <v>27</v>
@@ -103324,7 +103465,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>8808</v>
+        <v>8807</v>
       </c>
       <c r="C37" s="2">
         <v>28</v>
@@ -103332,7 +103473,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>8809</v>
+        <v>8808</v>
       </c>
       <c r="C38" s="2">
         <v>29</v>
@@ -103340,7 +103481,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>8810</v>
+        <v>8809</v>
       </c>
       <c r="C39" s="2">
         <v>30</v>

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMY\GITHUB\MADTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965DAEDD-B4DF-4B76-8A59-64FC50C69940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DCA829-9478-4236-8684-529593A082F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27057,11 +27057,11 @@
   <dimension ref="A1:V2916"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2737" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="H2757" sqref="H2757"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -103030,7 +103030,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMY\GITHUB\MADTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DCA829-9478-4236-8684-529593A082F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0F82C5-FA0D-431E-ABC9-A81E58C5C987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27061,7 +27061,7 @@
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30998,7 +30998,7 @@
       <c r="A151" s="6">
         <v>1953</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="2">
         <v>41</v>
       </c>
       <c r="C151" s="6" t="s">
@@ -38056,7 +38056,7 @@
       <c r="A422" s="6">
         <v>1970</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="2">
         <v>29</v>
       </c>
       <c r="C422" s="6" t="s">

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMY\GITHUB\MADTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0F82C5-FA0D-431E-ABC9-A81E58C5C987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC59D15-0177-4543-9459-19F7CCD2F484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programms" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18317" uniqueCount="8849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18375" uniqueCount="8909">
   <si>
     <t>Year</t>
   </si>
@@ -26309,99 +26309,48 @@
     <t>Fikcja</t>
   </si>
   <si>
-    <t>tv_programme_action.png</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
-    <t>tv_programme_adventure.png</t>
-  </si>
-  <si>
     <t>Adventure</t>
   </si>
   <si>
-    <t>tv_programme_cartoon.png</t>
-  </si>
-  <si>
     <t>Animation</t>
   </si>
   <si>
-    <t>tv_programme_crime.png</t>
-  </si>
-  <si>
     <t>Crime</t>
   </si>
   <si>
-    <t>tv_programme_documentary.png</t>
-  </si>
-  <si>
     <t>Documentary</t>
   </si>
   <si>
-    <t xml:space="preserve">tv_programme_drama.png </t>
-  </si>
-  <si>
     <t>Drama</t>
   </si>
   <si>
-    <t>tv_programme_erotic.png</t>
-  </si>
-  <si>
     <t>Erotic</t>
   </si>
   <si>
-    <t>tv_programme_fantasy.png</t>
-  </si>
-  <si>
     <t>Fantasy</t>
   </si>
   <si>
-    <t>tv_programme_family.png</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
-    <t>tv_programme_feature.png</t>
-  </si>
-  <si>
-    <t>tv_programme_history.png</t>
-  </si>
-  <si>
     <t>History</t>
   </si>
   <si>
-    <t>tv_programme_monumental.png</t>
-  </si>
-  <si>
-    <t>tv_programme_music.png</t>
-  </si>
-  <si>
     <t>Music</t>
   </si>
   <si>
-    <t>tv_programme_mystery.png</t>
-  </si>
-  <si>
     <t>Mystery</t>
   </si>
   <si>
-    <t>tv_programme_politics.png</t>
-  </si>
-  <si>
-    <t>tv_programme_show.png</t>
-  </si>
-  <si>
     <t>Politics</t>
   </si>
   <si>
     <t>Show</t>
   </si>
   <si>
-    <t>tv_programme_various.png</t>
-  </si>
-  <si>
     <t>Sundry</t>
   </si>
   <si>
@@ -26438,48 +26387,27 @@
     <t>Sport</t>
   </si>
   <si>
-    <t>Talkshow</t>
-  </si>
-  <si>
     <t>Thriller</t>
   </si>
   <si>
     <t>Western</t>
   </si>
   <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Advertise</t>
-  </si>
-  <si>
     <t>News</t>
   </si>
   <si>
     <t>Teleinfo</t>
   </si>
   <si>
-    <t>? Tele</t>
-  </si>
-  <si>
-    <t>Advertise 2</t>
-  </si>
-  <si>
     <t>Test screen (offline)</t>
   </si>
   <si>
-    <t>21?</t>
-  </si>
-  <si>
     <t>PNG</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Kultura dzisiaj</t>
   </si>
   <si>
@@ -26583,6 +26511,258 @@
   </si>
   <si>
     <t>Jezioro krokodyla</t>
+  </si>
+  <si>
+    <t>pos x</t>
+  </si>
+  <si>
+    <t>pos y</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>hight</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_horror</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_mystery</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_fantasy</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_family</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_erotic</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_drama</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_documentary</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_crime</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_comedy</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_animation</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_adventure</t>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_action</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_western</t>
+  </si>
+  <si>
+    <t>4_1</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_various</t>
+  </si>
+  <si>
+    <t>4_2</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_undefined</t>
+  </si>
+  <si>
+    <t>4_3</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_thriller</t>
+  </si>
+  <si>
+    <t>4_4</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_event_sport</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_show</t>
+  </si>
+  <si>
+    <t>5_4</t>
+  </si>
+  <si>
+    <t>5_1</t>
+  </si>
+  <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>5_3</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_scifi</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_event_politics</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_event_music</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_monumental</t>
+  </si>
+  <si>
+    <t>6_1</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_romance</t>
+  </si>
+  <si>
+    <t>6_2</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_history</t>
+  </si>
+  <si>
+    <t>6_3</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_feature</t>
+  </si>
+  <si>
+    <t>6_4</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_ads</t>
+  </si>
+  <si>
+    <t>Ads</t>
+  </si>
+  <si>
+    <t>7_1</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_news</t>
+  </si>
+  <si>
+    <t>7_2</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_infomercialoverlay</t>
+  </si>
+  <si>
+    <t>7_3</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>7_4</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_traileroverlay</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_ads_none</t>
+  </si>
+  <si>
+    <t>No Ads</t>
+  </si>
+  <si>
+    <t>8_1</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_none</t>
+  </si>
+  <si>
+    <t>8_2</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_event</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_event_showbiz</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_show_music</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_show_politics</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_show_game</t>
+  </si>
+  <si>
+    <t>8_3</t>
+  </si>
+  <si>
+    <t>8_4</t>
+  </si>
+  <si>
+    <t>9_1</t>
+  </si>
+  <si>
+    <t>9_2</t>
+  </si>
+  <si>
+    <t>9_3</t>
+  </si>
+  <si>
+    <t>9_4</t>
+  </si>
+  <si>
+    <t>gfx_interface_tv_programme_genre_feature_yellowpress</t>
+  </si>
+  <si>
+    <t>Talkshow?</t>
+  </si>
+  <si>
+    <t>Feature?</t>
+  </si>
+  <si>
+    <t>IDs from source/game.gameconstants.bmx : TVTProgrammeGenre</t>
   </si>
 </sst>
 </file>
@@ -26645,7 +26825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -26683,9 +26863,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -27061,7 +27238,7 @@
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="B151" sqref="B151"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28181,7 +28358,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="17">
+      <c r="A43" s="16">
         <v>1939</v>
       </c>
       <c r="B43">
@@ -30602,7 +30779,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="17">
+      <c r="A136" s="16">
         <v>1952</v>
       </c>
       <c r="B136">
@@ -32870,7 +33047,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" s="18">
+      <c r="A223" s="17">
         <v>1958</v>
       </c>
       <c r="B223">
@@ -33338,7 +33515,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A241" s="17">
+      <c r="A241" s="16">
         <v>1959</v>
       </c>
       <c r="B241">
@@ -37007,7 +37184,7 @@
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A382" s="17">
+      <c r="A382" s="16">
         <v>1968</v>
       </c>
       <c r="B382">
@@ -53607,7 +53784,7 @@
       </c>
     </row>
     <row r="1018" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1018" s="17">
+      <c r="A1018" s="16">
         <v>1986</v>
       </c>
       <c r="B1018">
@@ -98842,7 +99019,7 @@
         <v>8756</v>
       </c>
       <c r="H2716" s="8" t="s">
-        <v>8822</v>
+        <v>8798</v>
       </c>
       <c r="I2716" s="2" t="s">
         <v>13</v>
@@ -98929,7 +99106,7 @@
         <v>8756</v>
       </c>
       <c r="H2719" s="8" t="s">
-        <v>8823</v>
+        <v>8799</v>
       </c>
       <c r="I2719" s="2" t="s">
         <v>13</v>
@@ -98958,7 +99135,7 @@
         <v>8756</v>
       </c>
       <c r="H2720" s="8" t="s">
-        <v>8817</v>
+        <v>8793</v>
       </c>
       <c r="I2720" s="2" t="s">
         <v>13</v>
@@ -98987,7 +99164,7 @@
         <v>8756</v>
       </c>
       <c r="H2721" s="8" t="s">
-        <v>8821</v>
+        <v>8797</v>
       </c>
       <c r="I2721" s="2" t="s">
         <v>13</v>
@@ -99016,7 +99193,7 @@
         <v>8756</v>
       </c>
       <c r="H2722" s="8" t="s">
-        <v>8824</v>
+        <v>8800</v>
       </c>
       <c r="I2722" s="2" t="s">
         <v>13</v>
@@ -99045,7 +99222,7 @@
         <v>8756</v>
       </c>
       <c r="H2723" s="8" t="s">
-        <v>8819</v>
+        <v>8795</v>
       </c>
       <c r="I2723" s="2" t="s">
         <v>13</v>
@@ -99074,7 +99251,7 @@
         <v>8756</v>
       </c>
       <c r="H2724" s="8" t="s">
-        <v>8820</v>
+        <v>8796</v>
       </c>
       <c r="I2724" s="2" t="s">
         <v>13</v>
@@ -99103,7 +99280,7 @@
         <v>8756</v>
       </c>
       <c r="H2725" s="8" t="s">
-        <v>8818</v>
+        <v>8794</v>
       </c>
       <c r="I2725" s="2" t="s">
         <v>13</v>
@@ -99132,7 +99309,7 @@
         <v>8756</v>
       </c>
       <c r="H2726" s="8" t="s">
-        <v>8816</v>
+        <v>8792</v>
       </c>
       <c r="I2726" s="2" t="s">
         <v>13</v>
@@ -99161,7 +99338,7 @@
         <v>8756</v>
       </c>
       <c r="H2727" s="8" t="s">
-        <v>8825</v>
+        <v>8801</v>
       </c>
       <c r="I2727" s="2" t="s">
         <v>13</v>
@@ -99190,7 +99367,7 @@
         <v>8756</v>
       </c>
       <c r="H2728" s="8" t="s">
-        <v>8826</v>
+        <v>8802</v>
       </c>
       <c r="I2728" s="2" t="s">
         <v>13</v>
@@ -99248,7 +99425,7 @@
         <v>8756</v>
       </c>
       <c r="H2730" s="8" t="s">
-        <v>8827</v>
+        <v>8803</v>
       </c>
       <c r="I2730" s="2" t="s">
         <v>13</v>
@@ -99277,7 +99454,7 @@
         <v>8756</v>
       </c>
       <c r="H2731" s="8" t="s">
-        <v>8828</v>
+        <v>8804</v>
       </c>
       <c r="I2731" s="2" t="s">
         <v>13</v>
@@ -99306,7 +99483,7 @@
         <v>8756</v>
       </c>
       <c r="H2732" s="8" t="s">
-        <v>8829</v>
+        <v>8805</v>
       </c>
       <c r="I2732" s="2" t="s">
         <v>13</v>
@@ -99335,7 +99512,7 @@
         <v>8756</v>
       </c>
       <c r="H2733" s="8" t="s">
-        <v>8830</v>
+        <v>8806</v>
       </c>
       <c r="I2733" s="2" t="s">
         <v>13</v>
@@ -99364,7 +99541,7 @@
         <v>8756</v>
       </c>
       <c r="H2734" s="8" t="s">
-        <v>8831</v>
+        <v>8807</v>
       </c>
       <c r="I2734" s="2" t="s">
         <v>13</v>
@@ -99393,7 +99570,7 @@
         <v>8756</v>
       </c>
       <c r="H2735" s="8" t="s">
-        <v>8832</v>
+        <v>8808</v>
       </c>
       <c r="I2735" s="2" t="s">
         <v>13</v>
@@ -99422,7 +99599,7 @@
         <v>8756</v>
       </c>
       <c r="H2736" s="8" t="s">
-        <v>8833</v>
+        <v>8809</v>
       </c>
       <c r="I2736" s="2" t="s">
         <v>13</v>
@@ -99509,7 +99686,7 @@
         <v>8756</v>
       </c>
       <c r="H2739" s="8" t="s">
-        <v>8835</v>
+        <v>8811</v>
       </c>
       <c r="I2739" s="2" t="s">
         <v>13</v>
@@ -99538,7 +99715,7 @@
         <v>8756</v>
       </c>
       <c r="H2740" s="8" t="s">
-        <v>8836</v>
+        <v>8812</v>
       </c>
       <c r="I2740" s="2" t="s">
         <v>13</v>
@@ -99567,7 +99744,7 @@
         <v>8756</v>
       </c>
       <c r="H2741" s="8" t="s">
-        <v>8837</v>
+        <v>8813</v>
       </c>
       <c r="I2741" s="2" t="s">
         <v>13</v>
@@ -99654,7 +99831,7 @@
         <v>8756</v>
       </c>
       <c r="H2744" s="8" t="s">
-        <v>8838</v>
+        <v>8814</v>
       </c>
       <c r="I2744" s="2" t="s">
         <v>13</v>
@@ -99683,7 +99860,7 @@
         <v>8756</v>
       </c>
       <c r="H2745" s="8" t="s">
-        <v>8839</v>
+        <v>8815</v>
       </c>
       <c r="I2745" s="2" t="s">
         <v>4038</v>
@@ -99712,7 +99889,7 @@
         <v>8756</v>
       </c>
       <c r="H2746" s="8" t="s">
-        <v>8840</v>
+        <v>8816</v>
       </c>
       <c r="I2746" s="2" t="s">
         <v>13</v>
@@ -99741,7 +99918,7 @@
         <v>8756</v>
       </c>
       <c r="H2747" s="8" t="s">
-        <v>8815</v>
+        <v>8791</v>
       </c>
       <c r="I2747" s="2" t="s">
         <v>13</v>
@@ -99770,7 +99947,7 @@
         <v>8756</v>
       </c>
       <c r="H2748" s="8" t="s">
-        <v>8841</v>
+        <v>8817</v>
       </c>
       <c r="I2748" s="2" t="s">
         <v>13</v>
@@ -99799,7 +99976,7 @@
         <v>8756</v>
       </c>
       <c r="H2749" s="8" t="s">
-        <v>8842</v>
+        <v>8818</v>
       </c>
       <c r="I2749" s="2" t="s">
         <v>4038</v>
@@ -99828,7 +100005,7 @@
         <v>8756</v>
       </c>
       <c r="H2750" s="8" t="s">
-        <v>8843</v>
+        <v>8819</v>
       </c>
       <c r="I2750" s="2" t="s">
         <v>4038</v>
@@ -99857,7 +100034,7 @@
         <v>8756</v>
       </c>
       <c r="H2751" s="8" t="s">
-        <v>8844</v>
+        <v>8820</v>
       </c>
       <c r="I2751" s="2" t="s">
         <v>13</v>
@@ -99886,7 +100063,7 @@
         <v>8756</v>
       </c>
       <c r="H2752" s="8" t="s">
-        <v>8845</v>
+        <v>8821</v>
       </c>
       <c r="I2752" s="2" t="s">
         <v>13</v>
@@ -99915,7 +100092,7 @@
         <v>8756</v>
       </c>
       <c r="H2753" s="8" t="s">
-        <v>8846</v>
+        <v>8822</v>
       </c>
       <c r="I2753" s="2" t="s">
         <v>13</v>
@@ -99944,7 +100121,7 @@
         <v>8756</v>
       </c>
       <c r="H2754" s="8" t="s">
-        <v>8847</v>
+        <v>8823</v>
       </c>
       <c r="I2754" s="2" t="s">
         <v>13</v>
@@ -100002,7 +100179,7 @@
         <v>8756</v>
       </c>
       <c r="H2756" s="8" t="s">
-        <v>8848</v>
+        <v>8824</v>
       </c>
       <c r="I2756" s="2" t="s">
         <v>13</v>
@@ -100146,7 +100323,7 @@
         <v>8756</v>
       </c>
       <c r="H2762" s="8" t="s">
-        <v>8814</v>
+        <v>8790</v>
       </c>
       <c r="I2762" s="2" t="s">
         <v>13</v>
@@ -103027,464 +103204,936 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D68CD2-3271-442C-9526-6430FCBA69EB}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D33" sqref="D33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="51.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>8811</v>
+        <v>8788</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>8812</v>
+        <v>8789</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>8810</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>8825</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>8826</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>8827</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>8828</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8829</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8772</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8833</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>110</v>
+      </c>
+      <c r="G2" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8830</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8768</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8834</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>8813</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D3" s="2">
+        <v>128</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>110</v>
+      </c>
+      <c r="G3" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8831</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8764</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8835</v>
+      </c>
+      <c r="D4" s="2">
+        <v>256</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>110</v>
+      </c>
+      <c r="G4" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8832</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8765</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8836</v>
+      </c>
+      <c r="D5" s="2">
+        <v>384</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>110</v>
+      </c>
+      <c r="G5" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8837</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8763</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8838</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>96</v>
+      </c>
+      <c r="F6" s="2">
+        <v>110</v>
+      </c>
+      <c r="G6" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8839</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8762</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8840</v>
+      </c>
+      <c r="D7" s="2">
+        <v>128</v>
+      </c>
+      <c r="E7" s="2">
+        <v>96</v>
+      </c>
+      <c r="F7" s="2">
+        <v>110</v>
+      </c>
+      <c r="G7" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8841</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8761</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8842</v>
+      </c>
+      <c r="D8" s="2">
+        <v>256</v>
+      </c>
+      <c r="E8" s="2">
+        <v>96</v>
+      </c>
+      <c r="F8" s="2">
+        <v>110</v>
+      </c>
+      <c r="G8" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8843</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8760</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8844</v>
+      </c>
+      <c r="D9" s="2">
+        <v>384</v>
+      </c>
+      <c r="E9" s="2">
+        <v>96</v>
+      </c>
+      <c r="F9" s="2">
+        <v>110</v>
+      </c>
+      <c r="G9" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8845</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8773</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8846</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>192</v>
+      </c>
+      <c r="F10" s="2">
+        <v>110</v>
+      </c>
+      <c r="G10" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8847</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8759</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8848</v>
+      </c>
+      <c r="D11" s="2">
+        <v>128</v>
+      </c>
+      <c r="E11" s="2">
+        <v>192</v>
+      </c>
+      <c r="F11" s="2">
+        <v>110</v>
+      </c>
+      <c r="G11" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>8849</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8758</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8850</v>
+      </c>
+      <c r="D12" s="2">
+        <v>256</v>
+      </c>
+      <c r="E12" s="2">
+        <v>192</v>
+      </c>
+      <c r="F12" s="2">
+        <v>110</v>
+      </c>
+      <c r="G12" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>8851</v>
+      </c>
+      <c r="B13" t="s">
         <v>8757</v>
       </c>
-      <c r="B2" t="s">
-        <v>8758</v>
-      </c>
-      <c r="C2" s="2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8759</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8760</v>
-      </c>
-      <c r="C3" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8761</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8762</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7390</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8790</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8763</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8764</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8765</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C13" s="2" t="s">
+        <v>8852</v>
+      </c>
+      <c r="D13" s="2">
+        <v>384</v>
+      </c>
+      <c r="E13" s="2">
+        <v>192</v>
+      </c>
+      <c r="F13" s="2">
+        <v>110</v>
+      </c>
+      <c r="G13" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>8853</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8784</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8854</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>288</v>
+      </c>
+      <c r="F14" s="2">
+        <v>110</v>
+      </c>
+      <c r="G14" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>8855</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8771</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8856</v>
+      </c>
+      <c r="D15" s="2">
+        <v>128</v>
+      </c>
+      <c r="E15" s="2">
+        <v>288</v>
+      </c>
+      <c r="F15" s="2">
+        <v>110</v>
+      </c>
+      <c r="G15" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>8857</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8862</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8856</v>
+      </c>
+      <c r="D16" s="2">
+        <v>128</v>
+      </c>
+      <c r="E16" s="2">
+        <v>288</v>
+      </c>
+      <c r="F16" s="2">
+        <v>110</v>
+      </c>
+      <c r="G16" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>8859</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8783</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8858</v>
+      </c>
+      <c r="D17" s="2">
+        <v>256</v>
+      </c>
+      <c r="E17" s="2">
+        <v>288</v>
+      </c>
+      <c r="F17" s="2">
+        <v>110</v>
+      </c>
+      <c r="G17" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>8861</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8782</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8860</v>
+      </c>
+      <c r="D18" s="2">
+        <v>384</v>
+      </c>
+      <c r="E18" s="2">
+        <v>288</v>
+      </c>
+      <c r="F18" s="2">
+        <v>110</v>
+      </c>
+      <c r="G18" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>8863</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8770</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8865</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>384</v>
+      </c>
+      <c r="F19" s="2">
+        <v>110</v>
+      </c>
+      <c r="G19" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>8868</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8780</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8866</v>
+      </c>
+      <c r="D20" s="2">
+        <v>128</v>
+      </c>
+      <c r="E20" s="2">
+        <v>384</v>
+      </c>
+      <c r="F20" s="2">
+        <v>110</v>
+      </c>
+      <c r="G20" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>8869</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8769</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8867</v>
+      </c>
+      <c r="D21" s="2">
+        <v>256</v>
+      </c>
+      <c r="E21" s="2">
+        <v>384</v>
+      </c>
+      <c r="F21" s="2">
+        <v>110</v>
+      </c>
+      <c r="G21" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>8870</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8767</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8864</v>
+      </c>
+      <c r="D22" s="2">
+        <v>384</v>
+      </c>
+      <c r="E22" s="2">
+        <v>384</v>
+      </c>
+      <c r="F22" s="2">
+        <v>110</v>
+      </c>
+      <c r="G22" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>8871</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8774</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8872</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>480</v>
+      </c>
+      <c r="F23" s="2">
+        <v>110</v>
+      </c>
+      <c r="G23" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>8873</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6499</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8874</v>
+      </c>
+      <c r="D24" s="2">
+        <v>128</v>
+      </c>
+      <c r="E24" s="2">
+        <v>480</v>
+      </c>
+      <c r="F24" s="2">
+        <v>110</v>
+      </c>
+      <c r="G24" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>8875</v>
+      </c>
+      <c r="B25" t="s">
         <v>8766</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8767</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8768</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>8791</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8769</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8770</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8771</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8772</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8773</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8774</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C25" s="2" t="s">
+        <v>8876</v>
+      </c>
+      <c r="D25" s="2">
+        <v>256</v>
+      </c>
+      <c r="E25" s="2">
+        <v>480</v>
+      </c>
+      <c r="F25" s="2">
+        <v>110</v>
+      </c>
+      <c r="G25" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>8877</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8779</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8878</v>
+      </c>
+      <c r="D26" s="2">
+        <v>384</v>
+      </c>
+      <c r="E26" s="2">
+        <v>480</v>
+      </c>
+      <c r="F26" s="2">
+        <v>110</v>
+      </c>
+      <c r="G26" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>8879</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8880</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8881</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>576</v>
+      </c>
+      <c r="F27" s="2">
+        <v>110</v>
+      </c>
+      <c r="G27" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>8882</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8785</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8883</v>
+      </c>
+      <c r="D28" s="2">
+        <v>128</v>
+      </c>
+      <c r="E28" s="2">
+        <v>576</v>
+      </c>
+      <c r="F28" s="2">
+        <v>110</v>
+      </c>
+      <c r="G28" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>8884</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8786</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8885</v>
+      </c>
+      <c r="D29" s="2">
+        <v>256</v>
+      </c>
+      <c r="E29" s="2">
+        <v>576</v>
+      </c>
+      <c r="F29" s="2">
+        <v>110</v>
+      </c>
+      <c r="G29" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>8888</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8886</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8887</v>
+      </c>
+      <c r="D30" s="2">
+        <v>384</v>
+      </c>
+      <c r="E30" s="2">
+        <v>576</v>
+      </c>
+      <c r="F30" s="2">
+        <v>110</v>
+      </c>
+      <c r="G30" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>8889</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8890</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8891</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>672</v>
+      </c>
+      <c r="F31" s="2">
+        <v>110</v>
+      </c>
+      <c r="G31" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>8892</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8787</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8893</v>
+      </c>
+      <c r="D32" s="2">
+        <v>128</v>
+      </c>
+      <c r="E32" s="2">
+        <v>672</v>
+      </c>
+      <c r="F32" s="2">
+        <v>110</v>
+      </c>
+      <c r="G32" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>8894</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8899</v>
+      </c>
+      <c r="D33" s="2">
+        <v>256</v>
+      </c>
+      <c r="E33" s="2">
+        <v>672</v>
+      </c>
+      <c r="F33" s="2">
+        <v>110</v>
+      </c>
+      <c r="G33" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>8895</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8781</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8900</v>
+      </c>
+      <c r="D34" s="2">
+        <v>384</v>
+      </c>
+      <c r="E34" s="2">
+        <v>672</v>
+      </c>
+      <c r="F34" s="2">
+        <v>110</v>
+      </c>
+      <c r="G34" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>8896</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8777</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8901</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>768</v>
+      </c>
+      <c r="F35" s="2">
+        <v>110</v>
+      </c>
+      <c r="G35" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>8897</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8778</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8902</v>
+      </c>
+      <c r="D36" s="2">
+        <v>128</v>
+      </c>
+      <c r="E36" s="2">
+        <v>768</v>
+      </c>
+      <c r="F36" s="2">
+        <v>110</v>
+      </c>
+      <c r="G36" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>8898</v>
+      </c>
+      <c r="B37" t="s">
         <v>8775</v>
       </c>
-      <c r="B13" t="s">
-        <v>8803</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>8792</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>8793</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C37" s="2" t="s">
+        <v>8903</v>
+      </c>
+      <c r="D37" s="2">
+        <v>256</v>
+      </c>
+      <c r="E37" s="2">
+        <v>768</v>
+      </c>
+      <c r="F37" s="2">
+        <v>110</v>
+      </c>
+      <c r="G37" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>8905</v>
+      </c>
+      <c r="B38" t="s">
         <v>8776</v>
       </c>
-      <c r="B16" t="s">
-        <v>8777</v>
-      </c>
-      <c r="C16" s="2">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>7390</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8789</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>8778</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7390</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8810</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>8779</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8780</v>
-      </c>
-      <c r="C19" s="2">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>8794</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>8781</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8782</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>8783</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8785</v>
-      </c>
-      <c r="C22" s="2">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>8795</v>
-      </c>
-      <c r="D23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>8796</v>
-      </c>
-      <c r="C24" s="2">
-        <v>24</v>
-      </c>
-      <c r="D24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>6499</v>
-      </c>
-      <c r="C25" s="2">
-        <v>22</v>
-      </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>8797</v>
-      </c>
-      <c r="C26" s="2">
-        <v>18</v>
-      </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>8784</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8786</v>
-      </c>
-      <c r="C27" s="2">
-        <v>17</v>
-      </c>
-      <c r="D27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>8798</v>
-      </c>
-      <c r="D28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>8799</v>
-      </c>
-      <c r="C29" s="2">
-        <v>16</v>
-      </c>
-      <c r="D29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>8787</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8788</v>
-      </c>
-      <c r="C30" s="2">
-        <v>14</v>
-      </c>
-      <c r="D30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>8800</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>8801</v>
-      </c>
-      <c r="C32" s="2">
-        <v>15</v>
-      </c>
-      <c r="D32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>8802</v>
-      </c>
-      <c r="C33" s="2">
-        <v>13</v>
-      </c>
-      <c r="D33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>8804</v>
-      </c>
-      <c r="C34" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>8805</v>
-      </c>
-      <c r="C35" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>8806</v>
-      </c>
-      <c r="C36" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>8807</v>
-      </c>
-      <c r="C37" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>8808</v>
-      </c>
-      <c r="C38" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>8904</v>
+      </c>
+      <c r="D38" s="2">
+        <v>384</v>
+      </c>
+      <c r="E38" s="2">
+        <v>768</v>
+      </c>
+      <c r="F38" s="2">
+        <v>110</v>
+      </c>
+      <c r="G38" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>8809</v>
-      </c>
-      <c r="C39" s="2">
-        <v>30</v>
+        <v>8906</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>8907</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>8908</v>
       </c>
     </row>
   </sheetData>

--- a/IMG programmes.xlsx
+++ b/IMG programmes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMY\GITHUB\MADTV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MADTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC59D15-0177-4543-9459-19F7CCD2F484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="Programms" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18375" uniqueCount="8909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18377" uniqueCount="8909">
   <si>
     <t>Year</t>
   </si>
@@ -26768,7 +26767,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -27230,15 +27229,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2916"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2705" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1:C65536"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H65536"/>
       <selection pane="bottomLeft" activeCell="C539" sqref="C539"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="J2803" sqref="J2803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -100661,6 +100660,9 @@
       <c r="G2776" t="s">
         <v>8756</v>
       </c>
+      <c r="I2776" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2777" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2777" s="12" t="s">
@@ -101225,6 +101227,9 @@
         <v>8756</v>
       </c>
       <c r="H2801"/>
+      <c r="I2801" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2802" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2802" s="12" t="s">
@@ -103189,7 +103194,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:P2890" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P2890"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -103203,7 +103208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D68CD2-3271-442C-9526-6430FCBA69EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
